--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="444">
   <si>
     <t>Doi</t>
   </si>
@@ -1816,6 +1816,623 @@
   </si>
   <si>
     <t>[Sonsoles%Salto-Alejandre%NULL%0,  Cristina%Roca-Oporto%NULL%0,  Guillermo%Martín-Gutiérrez%NULL%0,  María Dolores%Avilés%NULL%0,  Carmen%Gómez-González%NULL%0,  María Dolores%Navarro-Amuedo%NULL%0,  Julia%Praena-Segovia%NULL%0,  José%Molina%NULL%0,  María%Paniagua-García%NULL%0,  Horacio%García-Delgado%NULL%0,  Antonio%Domínguez-Petit%NULL%0,  Jerónimo%Pachón%NULL%0,  José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has resulted in thousands of deaths in the world.
+ Information about prediction model of prognosis of SARS-CoV-2 infection is scarce.
+ We used machine learning for processing laboratory findings of 110 patients with SARS-CoV-2 pneumonia (including 51 non-survivors and 59 discharged patients).
+ The maximum relevance minimum redundancy (mRMR) algorithm and the least absolute shrinkage and selection operator logistic regression model were used for selection of laboratory features.
+ Seven laboratory features selected in the model were: prothrombin activity, urea, white blood cell, interleukin-2 receptor, indirect bilirubin, myoglobin, and fibrinogen degradation products.
+ The signature constructed using the seven features had 98% [93%, 100%] sensitivity and 91% [84%, 99%] specificity in predicting outcome of SARS-CoV-2 pneumonia.
+ Thus it is feasible to establish an accurate prediction model of outcome of SARS-CoV-2 pneumonia based on laboratory findings.
+</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,   Shuchang%Zhou%NULL%1,   Yujin%Wang%NULL%1,   Wenzhi%Lv%NULL%2,   Shili%Wang%NULL%1,   Ting%Wang%751884926@qq.com%1,   Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease 2019 (COVID-19) has become a public health emergency of global concern.
+ We aimed to explore the risk factors of 14-day and 28-day mortality and develop a model for predicting 14-day and 28-day survival probability among adult hospitalized patients with COVID-19.
+Methods
+id="Par2"&gt;In this multicenter, retrospective, cohort study, we examined 828 hospitalized patients with confirmed COVID-19 hospitalized in Wuhan Union Hospital and Central Hospital of Wuhan between January 12 and February 9, 2020. Among the 828 patients, 516 and 186 consecutive patients admitted in Wuhan Union Hospital were enrolled in the training cohort and the validation cohort, respectively.
+ A total of 126 patients hospitalized in Central Hospital of Wuhan were enrolled in a second external validation cohort.
+ Demographic, clinical, radiographic, and laboratory measures; treatment; proximate causes of death; and 14-day and 28-day mortality are described.
+ Patients’ data were collected by reviewing the medical records, and their 14-day and 28-day outcomes were followed up.
+Results
+id="Par3"&gt;Of the 828 patients, 146 deaths were recorded until May 18, 2020. In the training set, multivariate Cox regression indicated that older age, lactate dehydrogenase level over 360 U/L, neutrophil-to-lymphocyte ratio higher than 8.0, and direct bilirubin higher than 5.0 μmol/L were independent predictors of 28-day mortality.
+ Nomogram scoring systems for predicting the 14-day and 28-day survival probability of patients with COVID-19 were developed and exhibited strong discrimination and calibration power in the two external validation cohorts (C-index, 0.878 and 0.839).
+Conclusion
+id="Par4"&gt;Older age, high lactate dehydrogenase level, evaluated neutrophil-to-lymphocyte ratio, and high direct bilirubin level were independent predictors of 28-day mortality in adult hospitalized patients with confirmed COVID-19. The nomogram system based on the four factors revealed good discrimination and calibration, suggesting good clinical utility.
+</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,   Mengfei%Guo%NULL%1,   Limin%Duan%NULL%1,   Feng%Wu%NULL%1,   Guorong%Hu%NULL%1,   Zhihui%Wang%NULL%1,   Qi%Huang%NULL%2,   Tingting%Liao%NULL%1,   Juanjuan%Xu%NULL%1,   Yanling%Ma%NULL%1,   Zhilei%Lv%NULL%1,   Wenjing%Xiao%NULL%1,   Zilin%Zhao%NULL%1,   Xueyun%Tan%NULL%1,   Daquan%Meng%NULL%1,   Shujing%Zhang%NULL%1,   E%Zhou%NULL%1,   Zhengrong%Yin%NULL%1,   Wei%Geng%NULL%1,   Xuan%Wang%NULL%1,   Jianchu%Zhang%NULL%1,   Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,   Yu%Zhang%whxhzy@163.com%1,   Yang%Jin%whuhjy@126.com%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+One-fifth of COVID-19 patients are seriously and critically ill cases and have a worse prognosis than non-severe cases.
+ Although there is no specific treatment available for COVID-19, early recognition and supportive treatment may reduce the mortality.
+ The aim of this study is to develop a functional nomogram that can be used by clinicians to estimate the risk of in-hospital mortality in patients hospitalized and treated for COVID-19 disease, and to compare the accuracy of model predictions with previous nomograms.
+Methods
+id="Par2"&gt;This retrospective study enrolled 709 patients who were over 18 years old and received inpatient treatment for COVID-19 disease.
+ Multivariable Logistic Regression analysis was performed to assess the possible predictors of a fatal outcome.
+ A nomogram was developed with the possible predictors and total point were calculated.
+Results
+id="Par3"&gt;Of the 709 patients treated for COVID-19, 75 (11%) died and 634 survived.
+ The elder age, certain comorbidities (cancer, heart failure, chronic renal failure), dyspnea, lower levels of oxygen saturation and hematocrit, higher levels of C-reactive protein, aspartate aminotransferase and ferritin were independent risk factors for mortality.
+ The prediction ability of total points was excellent (Area Under Curve = 0.922).
+Conclusions
+id="Par4"&gt;The nomogram developed in this study can be used by clinicians as a practical and effective tool in mortality risk estimation.
+ So that with early diagnosis and intervention mortality in COVID-19 patients may be reduced.
+</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,   Günay%Can%NULL%2,   Günay%Can%NULL%0,   Rıdvan%Karaali%NULL%1,   Şermin%Börekçi%NULL%1,   İlker İnanç%Balkan%NULL%1,   Bilun%Gemicioğlu%NULL%1,   Dildar%Konukoğlu%NULL%1,   Ethem%Erginöz%NULL%1,   Mehmet Sarper%Erdoğan%NULL%1,   Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aims of this study were to develop a multiparametric prognostic model for death in COVID-19 patients and to assess the incremental value of CT disease extension over clinical parameters.
+Methods
+id="Par2"&gt;Consecutive patients who presented to all five of the emergency rooms of the Reggio Emilia province between February 27 and March 23, 2020, for suspected COVID-19, underwent chest CT, and had a positive swab within 10 days were included in this retrospective study.
+ Age, sex, comorbidities, days from symptom onset, and laboratory data were retrieved from institutional information systems.
+ CT disease extension was visually graded as &amp;lt; 20%, 20–39%, 40–59%, or ≥ 60%.
+ The association between clinical and CT variables with death was estimated with univariable and multivariable Cox proportional hazards models; model performance was assessed using k-fold cross-validation for the area under the ROC curve (cvAUC).
+Results
+id="Par3"&gt;Of the 866 included patients (median age 59.8, women 39.2%), 93 (10.74%) died.
+ Clinical variables significantly associated with death in multivariable model were age, male sex, HDL cholesterol, dementia, heart failure, vascular diseases, time from symptom onset, neutrophils, LDH, and oxygen saturation level.
+ CT disease extension was also independently associated with death (HR = 7.56, 95% CI = 3.49; 16.38 for ≥ 60% extension).
+ cvAUCs were 0.927 (bootstrap bias-corrected 95% CI = 0.899–0.947) for the clinical model and 0.936 (bootstrap bias-corrected 95% CI = 0.912–0.953) when adding CT extension.
+Conclusions
+id="Par4"&gt;A prognostic model based on clinical variables is highly accurate in predicting death in COVID-19 patients.
+ Adding CT disease extension to the model scarcely improves its accuracy.
+Key Points
+id="Par5"&gt;
+• Early identification of COVID-19 patients at higher risk of disease progression and death is crucial; the role of CT scan in defining prognosis is unclear.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s00330-021-07993-9.
+</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,   Marta%Ottone%NULL%2,   Marta%Ottone%NULL%0,   Tommaso%Fasano%NULL%1,   Pierpaolo%Pattacini%NULL%1,   Valentina%Iotti%NULL%1,   Lucia%Spaggiari%NULL%1,   Riccardo%Bonacini%NULL%1,   Andrea%Nitrosi%NULL%1,   Efrem%Bonelli%NULL%1,   Simone%Canovi%NULL%1,   Rossana%Colla%NULL%1,   Alessandro%Zerbini%NULL%1,   Marco%Massari%NULL%2,   Ivana%Lattuada%NULL%1,   Anna Maria%Ferrari%NULL%1,   Paolo%Giorgi Rossi%NULL%1,   Massimo%Costantini%NULL%1,   Roberto%Grilli%NULL%2,   Massimiliano%Marino%NULL%2,   Giulio%Formoso%NULL%1,   Debora%Formisano%NULL%2,   Emanuela%Bedeschi%NULL%1,   Cinzia%Perilli%NULL%1,   Elisabetta%La Rosa%NULL%1,   Eufemia%Bisaccia%NULL%1,   Ivano%Venturi%NULL%1,   Massimo%Vicentini%NULL%3,   Cinzia%Campari%NULL%1,   Francesco%Gioia%NULL%1,   Serena%Broccoli%NULL%1,   Pamela%Mancuso%NULL%1,   Marco%Foracchia%NULL%1,   Mirco%Pinotti%NULL%1,   Nicola%Facciolongo%NULL%1,   Laura%Trabucco%NULL%1,   Stefano%De Pietri%NULL%1,   Giorgio Francesco%Danelli%NULL%1,   Laura%Albertazzi%NULL%1,   Enrica%Bellesia%NULL%1,   Mattia%Corradini%NULL%1,   Elena%Magnani%NULL%1,   Annalisa%Pilia%NULL%1,   Alessandra%Polese%NULL%1,   Silvia Storchi%Incerti%NULL%1,   Piera%Zaldini%NULL%1,   Bonanno%Orsola%NULL%1,   Matteo%Revelli%NULL%1,   Carlo%Salvarani%NULL%1,   Carmine%Pinto%NULL%1,   Francesco%Venturelli%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 pandemic has created an extreme pressure on the global healthcare services.
+ Fast, reliable, and early clinical assessment of the severity of the disease can help in allocating and prioritizing resources to reduce mortality.
+ In order to study the important blood biomarkers for predicting disease mortality, a retrospective study was conducted on a dataset made public by Yan et al.
+ in [1] of 375 COVID-19 positive patients admitted to Tongji Hospital (China) from January 10 to February 18, 2020. Demographic and clinical characteristics and patient outcomes were investigated using machine learning tools to identify key biomarkers to predict the mortality of individual patient.
+ A nomogram was developed for predicting the mortality risk among COVID-19 patients.
+ Lactate dehydrogenase, neutrophils (%), lymphocyte (%), high-sensitivity C-reactive protein, and age (LNLCA)—acquired at hospital admission—were identified as key predictors of death by multi-tree XGBoost model.
+ The area under curve (AUC) of the nomogram for the derivation and validation cohort were 0.961 and 0.991, respectively.
+ An integrated score (LNLCA) was calculated with the corresponding death probability.
+ COVID-19 patients were divided into three subgroups: low-, moderate-, and high-risk groups using LNLCA cutoff values of 10.4 and 12.65 with the death probability less than 5%, 5–50%, and above 50%, respectively.
+ The prognostic model, nomogram, and LNLCA score can help in early detection of high mortality risk of COVID-19 patients, which will help doctors to improve the management of patient stratification.
+</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,   Tawsifur%Rahman%NULL%2,   Tawsifur%Rahman%NULL%0,   Amith%Khandakar%NULL%3,   Somaya%Al-Madeed%NULL%2,   Susu M.%Zughaier%NULL%5,   Suhail A. R.%Doi%NULL%3,   Hanadi%Hassen%NULL%1,   Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The epidemic phase of Coronavirus disease 2019 (COVID-19) made the Worldwide health system struggle against a severe interstitial pneumonia requiring high-intensity care settings for respiratory failure.
+ A rationalisation of resources and a specific treatment path were necessary.
+ The study suggests a predictive model drawing on clinical data gathered by 119 consecutive patients with laboratory-confirmed COVID-19 admitted in Busto Arsizio hospital.
+ We derived a score that identifies the risk of clinical evolution and in-hospital mortality clustering patients into four groups.
+ The study outcomes have been compared across the derivation and validation samples.
+ The prediction rule is based on eight simple patient characteristics that were independently associated with study outcomes.
+ It is able to stratify COVID-19 patients into four severity classes, with in-hospital mortality rates of 0% in group 1, 6–12.5% in group 2, 7–20% in group 3 and 60–86% in group 4 across the derivation and validation sample.
+ The prediction model derived in this study identifies COVID-19 patients with low risk of in-hospital mortality and ICU admission.
+ The prediction model that the study presents identifies COVID-19 patients with low risk of in-hospital mortality and admission to ICU.
+ Moreover, it establishes an intermediate portion of patients that should be treated accurately in order to avoid an unfavourable clinical evolution.
+ A further validation of the model is important before its implementation as a decision-making tool to guide the initial management of patients.
+</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,   Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,   Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,   Giulia%Suigo%NULL%1,   Davide%Zampini%NULL%1,   Matteo%Pistoia%NULL%1,   Mariella%Ciola%NULL%1,   Tommaso%Ciampani%NULL%1,   Carolina%Ultori%NULL%1,   Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Patients with severe Coronavirus Disease 2019 (COVID-19) will progress rapidly to acute respiratory failure or death.
+ We aimed to develop a quantitative tool for early predicting mortality risk of patients with COVID-19.
+Methods
+id="Par2"&gt;301 patients with confirmed COVID-19 admitted to Main District and Tumor Center of the Union Hospital of Huazhong University of Science and Technology (Wuhan, China) between January 1, 2020 to February 15, 2020 were enrolled in this retrospective two-centers study.
+ Data on patient demographic characteristics, laboratory findings and clinical outcomes was analyzed.
+ A nomogram was constructed to predict the death probability of COVID-19 patients.
+Results
+id="Par3"&gt;Age, neutrophil-to-lymphocyte ratio, d-dimer and C-reactive protein obtained on admission were identified as predictors of mortality for COVID-19 patients by LASSO.
+ The nomogram demonstrated good calibration and discrimination with the area under the curve (AUC) of 0.921 and 0.975 for the derivation and validation cohort, respectively.
+ An integrated score (named ANDC) with its corresponding death probability was derived.
+ Using ANDC cut-off values of 59 and 101, COVID-19 patients were classified into three subgroups.
+ The death probability of low risk group (ANDC &amp;lt; 59) was less than 5%, moderate risk group (59 ≤ ANDC ≤ 101) was 5% to 50%, and high risk group (ANDC &amp;gt; 101) was more than 50%, respectively.
+Conclusion
+id="Par4"&gt;The prognostic nomogram exhibited good discrimination power in early identification of COVID-19 patients with high mortality risk, and ANDC score may help physicians to optimize patient stratification management.
+</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,   Qiaosen%Chen%NULL%2,   Qiaosen%Chen%NULL%0,   Sumeng%Li%NULL%1,   Huadong%Li%NULL%1,   Qian%Zhang%NULL%1,   Sihong%Lu%NULL%1,   Li%Wu%NULL%1,   Leiqun%Xiong%NULL%1,   Bobin%Mi%NULL%1,   Di%Liu%NULL%3,   Mengji%Lu%NULL%1,   Dongliang%Yang%NULL%1,   Hongbo%Jiang%hongbojiang3@163.com%1,   Shaoping%Zheng%zhengspxx@126.com%1,   Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Accurately predicting patient outcomes in Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) could aid patient management and allocation of healthcare resources.
+ There are a variety of methods which can be used to develop prognostic models, ranging from logistic regression and survival analysis to more complex machine learning algorithms and deep learning.
+ Despite several models having been created for SARS-CoV-2, most of these have been found to be highly susceptible to bias.
+ We aimed to develop and compare two separate predictive models for death during admission with SARS-CoV-2.
+Method
+id="Par2"&gt;Between March 1 and April 24, 2020, 398 patients were identified with laboratory confirmed SARS-CoV-2 in a London teaching hospital.
+ Data from electronic health records were extracted and used to create two predictive models using: (1) a Cox regression model and (2) an artificial neural network (ANN).
+ Model performance profiles were assessed by validation, discrimination, and calibration.
+Results
+id="Par3"&gt;Both the Cox regression and ANN models achieved high accuracy (83.8%, 95% confidence interval (CI) 73.8–91.1 and 90.0%, 95% CI 81.2–95.6, respectively).
+ The area under the receiver operator curve (AUROC) for the ANN (92.6%, 95% CI 91.1–94.1) was significantly greater than that of the Cox regression model (86.9%, 95% CI 85.7–88.2), p = 0.0136. Both models achieved acceptable calibration with Brier scores of 0.13 and 0.11 for the Cox model and ANN, respectively.
+Conclusion
+id="Par4"&gt;We demonstrate an ANN which is non-inferior to a Cox regression model but with potential for further development such that it can learn as new data becomes available.
+ Deep learning techniques are particularly suited to complex datasets with non-linear solutions, which make them appropriate for use in conditions with a paucity of prior knowledge.
+ Accurate prognostic models for SARS-CoV-2 can provide benefits at the patient, departmental and organisational level.
+</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,   Aatish%Patel%NULL%1,   Esmita%Charani%NULL%1,   Sarah%Denny%NULL%1,   Saleh A.%Alqahtani%NULL%1,   Gary W.%Davies%NULL%1,   Nabeela%Mughal%NULL%1,   Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rapid spread of COVID-19 has resulted in the shortage of medical resources, which necessitates accurate prognosis prediction to triage patients effectively.
+ This study used the nationwide cohort of South Korea to develop a machine learning model to predict prognosis based on sociodemographic and medical information.
+ Of 10,237 COVID-19 patients, 228 (2.2%) died, 7772 (75.9%) recovered, and 2237 (21.9%) were still in isolation or being treated at the last follow-up (April 16, 2020).
+ The Cox proportional hazards regression analysis revealed that age &amp;gt; 70, male sex, moderate or severe disability, the presence of symptoms, nursing home residence, and comorbidities of diabetes mellitus (DM), chronic lung disease, or asthma were significantly associated with increased risk of mortality (p ≤ 0.047).
+ For machine learning, the least absolute shrinkage and selection operator (LASSO), linear support vector machine (SVM), SVM with radial basis function kernel, random forest (RF), and k-nearest neighbors were tested.
+ In prediction of mortality, LASSO and linear SVM demonstrated high sensitivities (90.7% [95% confidence interval: 83.3, 97.3] and 92.0% [85.9, 98.1], respectively) and specificities (91.4% [90.3, 92.5] and 91.8%, [90.7, 92.9], respectively) while maintaining high specificities &amp;gt; 90%, as well as high area under the receiver operating characteristics curves (0.963 [0.946, 0.979] and 0.962 [0.945, 0.979], respectively).
+ The most significant predictors for LASSO included old age and preexisting DM or cancer; for RF they were old age, infection route (cluster infection or infection from personal contact), and underlying hypertension.
+ The proposed prediction model may be helpful for the quick triage of patients without having to wait for the results of additional tests such as laboratory or radiologic studies, during a pandemic when limited medical resources must be wisely allocated without hesitation.
+</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,   Hyunsun%Lim%NULL%1,   Dong-Wook%Kim%NULL%1,   Jung Hyun%Chang%NULL%1,   Yoon Jung%Choi%chris316@yuhs.ac%1,   Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soaring cases of coronavirus disease (COVID-19) are pummeling the global health system.
+ Overwhelmed health facilities have endeavored to mitigate the pandemic, but mortality of COVID-19 continues to increase.
+ Here, we present a mortality risk prediction model for COVID-19 (MRPMC) that uses patients’ clinical data on admission to stratify patients by mortality risk, which enables prediction of physiological deterioration and death up to 20 days in advance.
+ This ensemble model is built using four machine learning methods including Logistic Regression, Support Vector Machine, Gradient Boosted Decision Tree, and Neural Network.
+ We validate MRPMC in an internal validation cohort and two external validation cohorts, where it achieves an AUC of 0.9621 (95% CI: 0.9464–0.9778), 0.9760 (0.9613–0.9906), and 0.9246 (0.8763–0.9729), respectively.
+ This model enables expeditious and accurate mortality risk stratification of patients with COVID-19, and potentially facilitates more responsive health systems that are conducive to high risk COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,   Guang-Yao%Cai%NULL%1,   Wei%Fang%NULL%6,   Hua-Yi%Li%NULL%1,   Si-Yuan%Wang%NULL%2,   Si-Yuan%Wang%NULL%0,   Lingxi%Chen%NULL%1,   Yang%Yu%NULL%1,   Dan%Liu%NULL%0,   Sen%Xu%NULL%1,   Peng-Fei%Cui%NULL%1,   Shao-Qing%Zeng%NULL%2,   Shao-Qing%Zeng%NULL%0,   Xin-Xia%Feng%NULL%1,   Rui-Di%Yu%NULL%1,   Ya%Wang%NULL%1,   Yuan%Yuan%NULL%1,   Xiao-Fei%Jiao%NULL%1,   Jian-Hua%Chi%NULL%1,   Jia-Hao%Liu%NULL%1,   Ru-Yuan%Li%NULL%1,   Xu%Zheng%NULL%1,   Chun-Yan%Song%NULL%1,   Ning%Jin%NULL%1,   Wen-Jian%Gong%NULL%1,   Xing-Yu%Liu%NULL%1,   Lei%Huang%NULL%2,   Xun%Tian%NULL%1,   Lin%Li%NULL%3,   Hui%Xing%NULL%1,   Ding%Ma%NULL%1,   Chun-Rui%Li%NULL%1,   Fei%Ye%yeyuanbei@hotmail.com%1,   Qing-Lei%Gao%qingleigao@hotmail.com%2,   Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 has become a major global threat.
+ The present study aimed to develop a nomogram model to predict the survival of COVID-19 patients based on their clinical and laboratory data at admission.
+Methods
+id="Par2"&gt;COVID-19 patients who were admitted at Hankou Hospital and Huoshenshan Hospital in Wuhan, China from January 12, 2020 to March 20, 2020, whose outcome during the hospitalization was known, were retrospectively reviewed.
+ The categorical variables were compared using Pearson’s χ2-test or Fisher’s exact test, and continuous variables were analyzed using Student’s t-test or Mann Whitney U-test, as appropriate.
+ Then, variables with a P-value of ≤0.1 were included in the log-binomial model, and merely these independent risk factors were used to establish the nomogram model.
+ The discrimination of the nomogram was evaluated using the area under the receiver operating characteristic curve (AUC), and internally verified using the Bootstrap method.
+Results
+id="Par3"&gt;A total of 262 patients (134 surviving and 128 non-surviving patients) were included in the analysis.
+ Seven variables, which included age (relative risk [RR]: 0.905, 95% confidence interval [CI]: 0.868–0.944; P &amp;lt; 0.001), chronic heart disease (CHD, RR: 0.045, 95% CI: 0.0097–0.205; P &amp;lt; 0.001, the percentage of lymphocytes (Lym%, RR: 1.125, 95% CI: 1.041–1.216; P = 0.0029), platelets (RR: 1.008, 95% CI: 1.003–1.012; P = 0.001), C-reaction protein (RR: 0.982, 95% CI: 0.973–0.991; P &amp;lt; 0.001), lactate dehydrogenase (LDH, RR: 0.993, 95% CI: 0.990–0.997; P &amp;lt; 0.001) and D-dimer (RR: 0.734, 95% CI: 0.617–0.879; P &amp;lt; 0.001), were identified as the independent risk factors.
+ The nomogram model based on these factors exhibited a good discrimination, with an AUC of 0.948 (95% CI: 0.923–0.973).
+Conclusions
+id="Par4"&gt;A nomogram based on age, CHD, Lym%, platelets, C-reaction protein, LDH and D-dimer was established to accurately predict the prognosis of COVID-19 patients.
+ This can be used as an alerting tool for clinicians to take early intervention measures, when necessary.
+</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,   Huifang%Wang%NULL%1,   Junwei%Huang%NULL%1,   Yan%Geng%NULL%1,   Shuqi%Jiang%NULL%1,   Qiuping%Zhou%NULL%1,   Xuan%Chen%NULL%1,   Hongping%Hu%NULL%1,   Weifeng%Li%NULL%1,   Chengbin%Zhou%NULL%1,   Xinglin%Gao%NULL%1,   Na%Peng%pnatz@163.com%1,   Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease 2019 (COVID-19) has become a public health emergency of global concern.
+ We aimed to explore the risk factors of 14-day and 28-day mortality and develop a model for predicting 14-day and 28-day survival probability among adult hospitalized patients with COVID-19.
+Methods
+In this multicenter, retrospective, cohort study, we examined 828 hospitalized patients with confirmed COVID-19 hospitalized in Wuhan Union Hospital and Central Hospital of Wuhan between January 12 and February 9, 2020. Among the 828 patients, 516 and 186 consecutive patients admitted in Wuhan Union Hospital were enrolled in the training cohort and the validation cohort, respectively.
+ A total of 126 patients hospitalized in Central Hospital of Wuhan were enrolled in a second external validation cohort.
+ Demographic, clinical, radiographic, and laboratory measures; treatment; proximate causes of death; and 14-day and 28-day mortality are described.
+ Patients’ data were collected by reviewing the medical records, and their 14-day and 28-day outcomes were followed up.
+Results
+id="Par3"&gt;Of the 828 patients, 146 deaths were recorded until May 18, 2020. In the training set, multivariate Cox regression indicated that older age, lactate dehydrogenase level over 360 U/L, neutrophil-to-lymphocyte ratio higher than 8.0, and direct bilirubin higher than 5.0 μmol/L were independent predictors of 28-day mortality.
+ Nomogram scoring systems for predicting the 14-day and 28-day survival probability of patients with COVID-19 were developed and exhibited strong discrimination and calibration power in the two external validation cohorts (C-index, 0.878 and 0.839).
+Conclusion
+id="Par4"&gt;Older age, high lactate dehydrogenase level, evaluated neutrophil-to-lymphocyte ratio, and high direct bilirubin level were independent predictors of 28-day mortality in adult hospitalized patients with confirmed COVID-19. The nomogram system based on the four factors revealed good discrimination and calibration, suggesting good clinical utility.
+</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,    Mengfei%Guo%NULL%1,    Limin%Duan%NULL%1,    Feng%Wu%NULL%1,    Guorong%Hu%NULL%1,    Zhihui%Wang%NULL%1,    Qi%Huang%NULL%1,    Tingting%Liao%NULL%1,    Juanjuan%Xu%NULL%1,    Yanling%Ma%NULL%1,    Zhilei%Lv%NULL%1,    Wenjing%Xiao%NULL%1,    Zilin%Zhao%NULL%1,    Xueyun%Tan%NULL%1,    Daquan%Meng%NULL%1,    Shujing%Zhang%NULL%1,    E%Zhou%NULL%1,    Zhengrong%Yin%NULL%1,    Wei%Geng%NULL%1,    Xuan%Wang%NULL%1,    Jianchu%Zhang%NULL%1,    Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,    Yu%Zhang%whxhzy@163.com%1,    Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+One-fifth of COVID-19 patients are seriously and critically ill cases and have a worse prognosis than non-severe cases.
+ Although there is no specific treatment available for COVID-19, early recognition and supportive treatment may reduce the mortality.
+ The aim of this study is to develop a functional nomogram that can be used by clinicians to estimate the risk of in-hospital mortality in patients hospitalized and treated for COVID-19 disease, and to compare the accuracy of model predictions with previous nomograms.
+Methods
+This retrospective study enrolled 709 patients who were over 18 years old and received inpatient treatment for COVID-19 disease.
+ Multivariable Logistic Regression analysis was performed to assess the possible predictors of a fatal outcome.
+ A nomogram was developed with the possible predictors and total point were calculated.
+Results
+id="Par3"&gt;Of the 709 patients treated for COVID-19, 75 (11%) died and 634 survived.
+ The elder age, certain comorbidities (cancer, heart failure, chronic renal failure), dyspnea, lower levels of oxygen saturation and hematocrit, higher levels of C-reactive protein, aspartate aminotransferase and ferritin were independent risk factors for mortality.
+ The prediction ability of total points was excellent (Area Under Curve = 0.922).
+Conclusions
+id="Par4"&gt;The nomogram developed in this study can be used by clinicians as a practical and effective tool in mortality risk estimation.
+ So that with early diagnosis and intervention mortality in COVID-19 patients may be reduced.
+</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,    Günay%Can%NULL%2,    Günay%Can%NULL%0,    Rıdvan%Karaali%NULL%1,    Şermin%Börekçi%NULL%1,    İlker İnanç%Balkan%NULL%1,    Bilun%Gemicioğlu%NULL%1,    Dildar%Konukoğlu%NULL%1,    Ethem%Erginöz%NULL%1,    Mehmet Sarper%Erdoğan%NULL%1,    Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aims of this study were to develop a multiparametric prognostic model for death in COVID-19 patients and to assess the incremental value of CT disease extension over clinical parameters.
+Methods
+Consecutive patients who presented to all five of the emergency rooms of the Reggio Emilia province between February 27 and March 23, 2020, for suspected COVID-19, underwent chest CT, and had a positive swab within 10 days were included in this retrospective study.
+ Age, sex, comorbidities, days from symptom onset, and laboratory data were retrieved from institutional information systems.
+ CT disease extension was visually graded as &amp;lt; 20%, 20–39%, 40–59%, or ≥ 60%.
+ The association between clinical and CT variables with death was estimated with univariable and multivariable Cox proportional hazards models; model performance was assessed using k-fold cross-validation for the area under the ROC curve (cvAUC).
+Results
+id="Par3"&gt;Of the 866 included patients (median age 59.8, women 39.2%), 93 (10.74%) died.
+ Clinical variables significantly associated with death in multivariable model were age, male sex, HDL cholesterol, dementia, heart failure, vascular diseases, time from symptom onset, neutrophils, LDH, and oxygen saturation level.
+ CT disease extension was also independently associated with death (HR = 7.56, 95% CI = 3.49; 16.38 for ≥ 60% extension).
+ cvAUCs were 0.927 (bootstrap bias-corrected 95% CI = 0.899–0.947) for the clinical model and 0.936 (bootstrap bias-corrected 95% CI = 0.912–0.953) when adding CT extension.
+Conclusions
+id="Par4"&gt;A prognostic model based on clinical variables is highly accurate in predicting death in COVID-19 patients.
+ Adding CT disease extension to the model scarcely improves its accuracy.
+Key Points
+id="Par5"&gt;
+• Early identification of COVID-19 patients at higher risk of disease progression and death is crucial; the role of CT scan in defining prognosis is unclear.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s00330-021-07993-9.
+</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,    Marta%Ottone%NULL%2,    Marta%Ottone%NULL%0,    Tommaso%Fasano%NULL%1,    Pierpaolo%Pattacini%NULL%1,    Valentina%Iotti%NULL%1,    Lucia%Spaggiari%NULL%1,    Riccardo%Bonacini%NULL%1,    Andrea%Nitrosi%NULL%1,    Efrem%Bonelli%NULL%1,    Simone%Canovi%NULL%1,    Rossana%Colla%NULL%1,    Alessandro%Zerbini%NULL%1,    Marco%Massari%NULL%1,    Ivana%Lattuada%NULL%1,    Anna Maria%Ferrari%NULL%1,    Paolo%Giorgi Rossi%NULL%1,    Massimo%Costantini%NULL%1,    Roberto%Grilli%NULL%1,    Massimiliano%Marino%NULL%1,    Giulio%Formoso%NULL%1,    Debora%Formisano%NULL%1,    Emanuela%Bedeschi%NULL%1,    Cinzia%Perilli%NULL%1,    Elisabetta%La Rosa%NULL%1,    Eufemia%Bisaccia%NULL%1,    Ivano%Venturi%NULL%1,    Massimo%Vicentini%NULL%1,    Cinzia%Campari%NULL%1,    Francesco%Gioia%NULL%1,    Serena%Broccoli%NULL%1,    Pamela%Mancuso%NULL%1,    Marco%Foracchia%NULL%1,    Mirco%Pinotti%NULL%1,    Nicola%Facciolongo%NULL%1,    Laura%Trabucco%NULL%1,    Stefano%De Pietri%NULL%1,    Giorgio Francesco%Danelli%NULL%1,    Laura%Albertazzi%NULL%1,    Enrica%Bellesia%NULL%1,    Mattia%Corradini%NULL%1,    Elena%Magnani%NULL%1,    Annalisa%Pilia%NULL%1,    Alessandra%Polese%NULL%1,    Silvia Storchi%Incerti%NULL%1,    Piera%Zaldini%NULL%1,    Bonanno%Orsola%NULL%1,    Matteo%Revelli%NULL%1,    Carlo%Salvarani%NULL%1,    Carmine%Pinto%NULL%1,    Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Patients with severe Coronavirus Disease 2019 (COVID-19) will progress rapidly to acute respiratory failure or death.
+ We aimed to develop a quantitative tool for early predicting mortality risk of patients with COVID-19.
+Methods
+301 patients with confirmed COVID-19 admitted to Main District and Tumor Center of the Union Hospital of Huazhong University of Science and Technology (Wuhan, China) between January 1, 2020 to February 15, 2020 were enrolled in this retrospective two-centers study.
+ Data on patient demographic characteristics, laboratory findings and clinical outcomes was analyzed.
+ A nomogram was constructed to predict the death probability of COVID-19 patients.
+Results
+id="Par3"&gt;Age, neutrophil-to-lymphocyte ratio, d-dimer and C-reactive protein obtained on admission were identified as predictors of mortality for COVID-19 patients by LASSO.
+ The nomogram demonstrated good calibration and discrimination with the area under the curve (AUC) of 0.921 and 0.975 for the derivation and validation cohort, respectively.
+ An integrated score (named ANDC) with its corresponding death probability was derived.
+ Using ANDC cut-off values of 59 and 101, COVID-19 patients were classified into three subgroups.
+ The death probability of low risk group (ANDC &amp;lt; 59) was less than 5%, moderate risk group (59 ≤ ANDC ≤ 101) was 5% to 50%, and high risk group (ANDC &amp;gt; 101) was more than 50%, respectively.
+Conclusion
+id="Par4"&gt;The prognostic nomogram exhibited good discrimination power in early identification of COVID-19 patients with high mortality risk, and ANDC score may help physicians to optimize patient stratification management.
+</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,    Qiaosen%Chen%NULL%2,    Qiaosen%Chen%NULL%0,    Sumeng%Li%NULL%1,    Huadong%Li%NULL%1,    Qian%Zhang%NULL%1,    Sihong%Lu%NULL%1,    Li%Wu%NULL%1,    Leiqun%Xiong%NULL%1,    Bobin%Mi%NULL%1,    Di%Liu%NULL%1,    Mengji%Lu%NULL%1,    Dongliang%Yang%NULL%1,    Hongbo%Jiang%hongbojiang3@163.com%1,    Shaoping%Zheng%zhengspxx@126.com%1,    Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Accurately predicting patient outcomes in Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) could aid patient management and allocation of healthcare resources.
+ There are a variety of methods which can be used to develop prognostic models, ranging from logistic regression and survival analysis to more complex machine learning algorithms and deep learning.
+ Despite several models having been created for SARS-CoV-2, most of these have been found to be highly susceptible to bias.
+ We aimed to develop and compare two separate predictive models for death during admission with SARS-CoV-2.
+Method
+Between March 1 and April 24, 2020, 398 patients were identified with laboratory confirmed SARS-CoV-2 in a London teaching hospital.
+ Data from electronic health records were extracted and used to create two predictive models using: (1) a Cox regression model and (2) an artificial neural network (ANN).
+ Model performance profiles were assessed by validation, discrimination, and calibration.
+Results
+id="Par3"&gt;Both the Cox regression and ANN models achieved high accuracy (83.8%, 95% confidence interval (CI) 73.8–91.1 and 90.0%, 95% CI 81.2–95.6, respectively).
+ The area under the receiver operator curve (AUROC) for the ANN (92.6%, 95% CI 91.1–94.1) was significantly greater than that of the Cox regression model (86.9%, 95% CI 85.7–88.2), p = 0.0136. Both models achieved acceptable calibration with Brier scores of 0.13 and 0.11 for the Cox model and ANN, respectively.
+Conclusion
+id="Par4"&gt;We demonstrate an ANN which is non-inferior to a Cox regression model but with potential for further development such that it can learn as new data becomes available.
+ Deep learning techniques are particularly suited to complex datasets with non-linear solutions, which make them appropriate for use in conditions with a paucity of prior knowledge.
+ Accurate prognostic models for SARS-CoV-2 can provide benefits at the patient, departmental and organisational level.
+</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,    Aatish%Patel%NULL%1,    Esmita%Charani%NULL%1,    Sarah%Denny%NULL%1,    Saleh A.%Alqahtani%NULL%1,    Gary W.%Davies%NULL%1,    Nabeela%Mughal%NULL%1,    Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 has become a major global threat.
+ The present study aimed to develop a nomogram model to predict the survival of COVID-19 patients based on their clinical and laboratory data at admission.
+Methods
+COVID-19 patients who were admitted at Hankou Hospital and Huoshenshan Hospital in Wuhan, China from January 12, 2020 to March 20, 2020, whose outcome during the hospitalization was known, were retrospectively reviewed.
+ The categorical variables were compared using Pearson’s χ2-test or Fisher’s exact test, and continuous variables were analyzed using Student’s t-test or Mann Whitney U-test, as appropriate.
+ Then, variables with a P-value of ≤0.1 were included in the log-binomial model, and merely these independent risk factors were used to establish the nomogram model.
+ The discrimination of the nomogram was evaluated using the area under the receiver operating characteristic curve (AUC), and internally verified using the Bootstrap method.
+Results
+id="Par3"&gt;A total of 262 patients (134 surviving and 128 non-surviving patients) were included in the analysis.
+ Seven variables, which included age (relative risk [RR]: 0.905, 95% confidence interval [CI]: 0.868–0.944; P &amp;lt; 0.001), chronic heart disease (CHD, RR: 0.045, 95% CI: 0.0097–0.205; P &amp;lt; 0.001, the percentage of lymphocytes (Lym%, RR: 1.125, 95% CI: 1.041–1.216; P = 0.0029), platelets (RR: 1.008, 95% CI: 1.003–1.012; P = 0.001), C-reaction protein (RR: 0.982, 95% CI: 0.973–0.991; P &amp;lt; 0.001), lactate dehydrogenase (LDH, RR: 0.993, 95% CI: 0.990–0.997; P &amp;lt; 0.001) and D-dimer (RR: 0.734, 95% CI: 0.617–0.879; P &amp;lt; 0.001), were identified as the independent risk factors.
+ The nomogram model based on these factors exhibited a good discrimination, with an AUC of 0.948 (95% CI: 0.923–0.973).
+Conclusions
+id="Par4"&gt;A nomogram based on age, CHD, Lym%, platelets, C-reaction protein, LDH and D-dimer was established to accurately predict the prognosis of COVID-19 patients.
+ This can be used as an alerting tool for clinicians to take early intervention measures, when necessary.
+</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,    Huifang%Wang%NULL%1,    Junwei%Huang%NULL%1,    Yan%Geng%NULL%1,    Shuqi%Jiang%NULL%1,    Qiuping%Zhou%NULL%1,    Xuan%Chen%NULL%1,    Hongping%Hu%NULL%1,    Weifeng%Li%NULL%1,    Chengbin%Zhou%NULL%1,    Xinglin%Gao%NULL%1,    Na%Peng%pnatz@163.com%1,    Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease 2019 (COVID-19) has become a public health emergency of global concern.
+ We aimed to explore the risk factors of 14-day and 28-day mortality and develop a model for predicting 14-day and 28-day survival probability among adult hospitalized patients with COVID-19.
+Methods
+In this multicenter, retrospective, cohort study, we examined 828 hospitalized patients with confirmed COVID-19 hospitalized in Wuhan Union Hospital and Central Hospital of Wuhan between January 12 and February 9, 2020. Among the 828 patients, 516 and 186 consecutive patients admitted in Wuhan Union Hospital were enrolled in the training cohort and the validation cohort, respectively.
+ A total of 126 patients hospitalized in Central Hospital of Wuhan were enrolled in a second external validation cohort.
+ Demographic, clinical, radiographic, and laboratory measures; treatment; proximate causes of death; and 14-day and 28-day mortality are described.
+ Patients’ data were collected by reviewing the medical records, and their 14-day and 28-day outcomes were followed up.
+Results
+Of the 828 patients, 146 deaths were recorded until May 18, 2020. In the training set, multivariate Cox regression indicated that older age, lactate dehydrogenase level over 360 U/L, neutrophil-to-lymphocyte ratio higher than 8.0, and direct bilirubin higher than 5.0 μmol/L were independent predictors of 28-day mortality.
+ Nomogram scoring systems for predicting the 14-day and 28-day survival probability of patients with COVID-19 were developed and exhibited strong discrimination and calibration power in the two external validation cohorts (C-index, 0.878 and 0.839).
+Conclusion
+id="Par4"&gt;Older age, high lactate dehydrogenase level, evaluated neutrophil-to-lymphocyte ratio, and high direct bilirubin level were independent predictors of 28-day mortality in adult hospitalized patients with confirmed COVID-19. The nomogram system based on the four factors revealed good discrimination and calibration, suggesting good clinical utility.
+</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,     Mengfei%Guo%NULL%1,     Limin%Duan%NULL%1,     Feng%Wu%NULL%1,     Guorong%Hu%NULL%1,     Zhihui%Wang%NULL%1,     Qi%Huang%NULL%2,     Tingting%Liao%NULL%1,     Juanjuan%Xu%NULL%1,     Yanling%Ma%NULL%1,     Zhilei%Lv%NULL%1,     Wenjing%Xiao%NULL%1,     Zilin%Zhao%NULL%1,     Xueyun%Tan%NULL%1,     Daquan%Meng%NULL%1,     Shujing%Zhang%NULL%1,     E%Zhou%NULL%1,     Zhengrong%Yin%NULL%1,     Wei%Geng%NULL%1,     Xuan%Wang%NULL%1,     Jianchu%Zhang%NULL%1,     Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,     Yu%Zhang%whxhzy@163.com%1,     Yang%Jin%whuhjy@126.com%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+One-fifth of COVID-19 patients are seriously and critically ill cases and have a worse prognosis than non-severe cases.
+ Although there is no specific treatment available for COVID-19, early recognition and supportive treatment may reduce the mortality.
+ The aim of this study is to develop a functional nomogram that can be used by clinicians to estimate the risk of in-hospital mortality in patients hospitalized and treated for COVID-19 disease, and to compare the accuracy of model predictions with previous nomograms.
+Methods
+This retrospective study enrolled 709 patients who were over 18 years old and received inpatient treatment for COVID-19 disease.
+ Multivariable Logistic Regression analysis was performed to assess the possible predictors of a fatal outcome.
+ A nomogram was developed with the possible predictors and total point were calculated.
+Results
+Of the 709 patients treated for COVID-19, 75 (11%) died and 634 survived.
+ The elder age, certain comorbidities (cancer, heart failure, chronic renal failure), dyspnea, lower levels of oxygen saturation and hematocrit, higher levels of C-reactive protein, aspartate aminotransferase and ferritin were independent risk factors for mortality.
+ The prediction ability of total points was excellent (Area Under Curve = 0.922).
+Conclusions
+id="Par4"&gt;The nomogram developed in this study can be used by clinicians as a practical and effective tool in mortality risk estimation.
+ So that with early diagnosis and intervention mortality in COVID-19 patients may be reduced.
+</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,     Günay%Can%NULL%2,     Günay%Can%NULL%0,     Rıdvan%Karaali%NULL%1,     Şermin%Börekçi%NULL%1,     İlker İnanç%Balkan%NULL%1,     Bilun%Gemicioğlu%NULL%1,     Dildar%Konukoğlu%NULL%1,     Ethem%Erginöz%NULL%1,     Mehmet Sarper%Erdoğan%NULL%1,     Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aims of this study were to develop a multiparametric prognostic model for death in COVID-19 patients and to assess the incremental value of CT disease extension over clinical parameters.
+Methods
+Consecutive patients who presented to all five of the emergency rooms of the Reggio Emilia province between February 27 and March 23, 2020, for suspected COVID-19, underwent chest CT, and had a positive swab within 10 days were included in this retrospective study.
+ Age, sex, comorbidities, days from symptom onset, and laboratory data were retrieved from institutional information systems.
+ CT disease extension was visually graded as &amp;lt; 20%, 20–39%, 40–59%, or ≥ 60%.
+ The association between clinical and CT variables with death was estimated with univariable and multivariable Cox proportional hazards models; model performance was assessed using k-fold cross-validation for the area under the ROC curve (cvAUC).
+Results
+Of the 866 included patients (median age 59.8, women 39.2%), 93 (10.74%) died.
+ Clinical variables significantly associated with death in multivariable model were age, male sex, HDL cholesterol, dementia, heart failure, vascular diseases, time from symptom onset, neutrophils, LDH, and oxygen saturation level.
+ CT disease extension was also independently associated with death (HR = 7.56, 95% CI = 3.49; 16.38 for ≥ 60% extension).
+ cvAUCs were 0.927 (bootstrap bias-corrected 95% CI = 0.899–0.947) for the clinical model and 0.936 (bootstrap bias-corrected 95% CI = 0.912–0.953) when adding CT extension.
+Conclusions
+id="Par4"&gt;A prognostic model based on clinical variables is highly accurate in predicting death in COVID-19 patients.
+ Adding CT disease extension to the model scarcely improves its accuracy.
+Key Points
+id="Par5"&gt;
+• Early identification of COVID-19 patients at higher risk of disease progression and death is crucial; the role of CT scan in defining prognosis is unclear.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s00330-021-07993-9.
+</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,     Marta%Ottone%NULL%2,     Marta%Ottone%NULL%0,     Tommaso%Fasano%NULL%1,     Pierpaolo%Pattacini%NULL%1,     Valentina%Iotti%NULL%1,     Lucia%Spaggiari%NULL%1,     Riccardo%Bonacini%NULL%1,     Andrea%Nitrosi%NULL%1,     Efrem%Bonelli%NULL%1,     Simone%Canovi%NULL%1,     Rossana%Colla%NULL%1,     Alessandro%Zerbini%NULL%1,     Marco%Massari%NULL%1,     Ivana%Lattuada%NULL%1,     Anna Maria%Ferrari%NULL%1,     Paolo%Giorgi Rossi%NULL%1,     Massimo%Costantini%NULL%1,     Roberto%Grilli%NULL%1,     Massimiliano%Marino%NULL%1,     Giulio%Formoso%NULL%1,     Debora%Formisano%NULL%1,     Emanuela%Bedeschi%NULL%1,     Cinzia%Perilli%NULL%1,     Elisabetta%La Rosa%NULL%1,     Eufemia%Bisaccia%NULL%1,     Ivano%Venturi%NULL%1,     Massimo%Vicentini%NULL%1,     Cinzia%Campari%NULL%1,     Francesco%Gioia%NULL%1,     Serena%Broccoli%NULL%1,     Pamela%Mancuso%NULL%1,     Marco%Foracchia%NULL%1,     Mirco%Pinotti%NULL%1,     Nicola%Facciolongo%NULL%1,     Laura%Trabucco%NULL%1,     Stefano%De Pietri%NULL%1,     Giorgio Francesco%Danelli%NULL%1,     Laura%Albertazzi%NULL%1,     Enrica%Bellesia%NULL%1,     Mattia%Corradini%NULL%1,     Elena%Magnani%NULL%1,     Annalisa%Pilia%NULL%1,     Alessandra%Polese%NULL%1,     Silvia Storchi%Incerti%NULL%1,     Piera%Zaldini%NULL%1,     Bonanno%Orsola%NULL%1,     Matteo%Revelli%NULL%1,     Carlo%Salvarani%NULL%1,     Carmine%Pinto%NULL%1,     Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Patients with severe Coronavirus Disease 2019 (COVID-19) will progress rapidly to acute respiratory failure or death.
+ We aimed to develop a quantitative tool for early predicting mortality risk of patients with COVID-19.
+Methods
+301 patients with confirmed COVID-19 admitted to Main District and Tumor Center of the Union Hospital of Huazhong University of Science and Technology (Wuhan, China) between January 1, 2020 to February 15, 2020 were enrolled in this retrospective two-centers study.
+ Data on patient demographic characteristics, laboratory findings and clinical outcomes was analyzed.
+ A nomogram was constructed to predict the death probability of COVID-19 patients.
+Results
+Age, neutrophil-to-lymphocyte ratio, d-dimer and C-reactive protein obtained on admission were identified as predictors of mortality for COVID-19 patients by LASSO.
+ The nomogram demonstrated good calibration and discrimination with the area under the curve (AUC) of 0.921 and 0.975 for the derivation and validation cohort, respectively.
+ An integrated score (named ANDC) with its corresponding death probability was derived.
+ Using ANDC cut-off values of 59 and 101, COVID-19 patients were classified into three subgroups.
+ The death probability of low risk group (ANDC &amp;lt; 59) was less than 5%, moderate risk group (59 ≤ ANDC ≤ 101) was 5% to 50%, and high risk group (ANDC &amp;gt; 101) was more than 50%, respectively.
+Conclusion
+id="Par4"&gt;The prognostic nomogram exhibited good discrimination power in early identification of COVID-19 patients with high mortality risk, and ANDC score may help physicians to optimize patient stratification management.
+</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,     Qiaosen%Chen%NULL%2,     Qiaosen%Chen%NULL%0,     Sumeng%Li%NULL%1,     Huadong%Li%NULL%2,     Qian%Zhang%NULL%1,     Sihong%Lu%NULL%1,     Li%Wu%NULL%1,     Leiqun%Xiong%NULL%1,     Bobin%Mi%NULL%1,     Di%Liu%NULL%1,     Mengji%Lu%NULL%1,     Dongliang%Yang%NULL%1,     Hongbo%Jiang%hongbojiang3@163.com%1,     Shaoping%Zheng%zhengspxx@126.com%1,     Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Accurately predicting patient outcomes in Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) could aid patient management and allocation of healthcare resources.
+ There are a variety of methods which can be used to develop prognostic models, ranging from logistic regression and survival analysis to more complex machine learning algorithms and deep learning.
+ Despite several models having been created for SARS-CoV-2, most of these have been found to be highly susceptible to bias.
+ We aimed to develop and compare two separate predictive models for death during admission with SARS-CoV-2.
+Method
+Between March 1 and April 24, 2020, 398 patients were identified with laboratory confirmed SARS-CoV-2 in a London teaching hospital.
+ Data from electronic health records were extracted and used to create two predictive models using: (1) a Cox regression model and (2) an artificial neural network (ANN).
+ Model performance profiles were assessed by validation, discrimination, and calibration.
+Results
+Both the Cox regression and ANN models achieved high accuracy (83.8%, 95% confidence interval (CI) 73.8–91.1 and 90.0%, 95% CI 81.2–95.6, respectively).
+ The area under the receiver operator curve (AUROC) for the ANN (92.6%, 95% CI 91.1–94.1) was significantly greater than that of the Cox regression model (86.9%, 95% CI 85.7–88.2), p = 0.0136. Both models achieved acceptable calibration with Brier scores of 0.13 and 0.11 for the Cox model and ANN, respectively.
+Conclusion
+id="Par4"&gt;We demonstrate an ANN which is non-inferior to a Cox regression model but with potential for further development such that it can learn as new data becomes available.
+ Deep learning techniques are particularly suited to complex datasets with non-linear solutions, which make them appropriate for use in conditions with a paucity of prior knowledge.
+ Accurate prognostic models for SARS-CoV-2 can provide benefits at the patient, departmental and organisational level.
+</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,     Aatish%Patel%NULL%1,     Esmita%Charani%NULL%1,     Sarah%Denny%NULL%1,     Saleh A.%Alqahtani%NULL%1,     Gary W.%Davies%NULL%1,     Nabeela%Mughal%NULL%1,     Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 has become a major global threat.
+ The present study aimed to develop a nomogram model to predict the survival of COVID-19 patients based on their clinical and laboratory data at admission.
+Methods
+COVID-19 patients who were admitted at Hankou Hospital and Huoshenshan Hospital in Wuhan, China from January 12, 2020 to March 20, 2020, whose outcome during the hospitalization was known, were retrospectively reviewed.
+ The categorical variables were compared using Pearson’s χ2-test or Fisher’s exact test, and continuous variables were analyzed using Student’s t-test or Mann Whitney U-test, as appropriate.
+ Then, variables with a P-value of ≤0.1 were included in the log-binomial model, and merely these independent risk factors were used to establish the nomogram model.
+ The discrimination of the nomogram was evaluated using the area under the receiver operating characteristic curve (AUC), and internally verified using the Bootstrap method.
+Results
+A total of 262 patients (134 surviving and 128 non-surviving patients) were included in the analysis.
+ Seven variables, which included age (relative risk [RR]: 0.905, 95% confidence interval [CI]: 0.868–0.944; P &amp;lt; 0.001), chronic heart disease (CHD, RR: 0.045, 95% CI: 0.0097–0.205; P &amp;lt; 0.001, the percentage of lymphocytes (Lym%, RR: 1.125, 95% CI: 1.041–1.216; P = 0.0029), platelets (RR: 1.008, 95% CI: 1.003–1.012; P = 0.001), C-reaction protein (RR: 0.982, 95% CI: 0.973–0.991; P &amp;lt; 0.001), lactate dehydrogenase (LDH, RR: 0.993, 95% CI: 0.990–0.997; P &amp;lt; 0.001) and D-dimer (RR: 0.734, 95% CI: 0.617–0.879; P &amp;lt; 0.001), were identified as the independent risk factors.
+ The nomogram model based on these factors exhibited a good discrimination, with an AUC of 0.948 (95% CI: 0.923–0.973).
+Conclusions
+id="Par4"&gt;A nomogram based on age, CHD, Lym%, platelets, C-reaction protein, LDH and D-dimer was established to accurately predict the prognosis of COVID-19 patients.
+ This can be used as an alerting tool for clinicians to take early intervention measures, when necessary.
+</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,     Huifang%Wang%NULL%1,     Junwei%Huang%NULL%1,     Yan%Geng%NULL%1,     Shuqi%Jiang%NULL%1,     Qiuping%Zhou%NULL%1,     Xuan%Chen%NULL%1,     Hongping%Hu%NULL%1,     Weifeng%Li%NULL%1,     Chengbin%Zhou%NULL%1,     Xinglin%Gao%NULL%1,     Na%Peng%pnatz@163.com%1,     Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease 2019 (COVID-19) has become a public health emergency of global concern.
+ We aimed to explore the risk factors of 14-day and 28-day mortality and develop a model for predicting 14-day and 28-day survival probability among adult hospitalized patients with COVID-19.
+Methods
+In this multicenter, retrospective, cohort study, we examined 828 hospitalized patients with confirmed COVID-19 hospitalized in Wuhan Union Hospital and Central Hospital of Wuhan between January 12 and February 9, 2020. Among the 828 patients, 516 and 186 consecutive patients admitted in Wuhan Union Hospital were enrolled in the training cohort and the validation cohort, respectively.
+ A total of 126 patients hospitalized in Central Hospital of Wuhan were enrolled in a second external validation cohort.
+ Demographic, clinical, radiographic, and laboratory measures; treatment; proximate causes of death; and 14-day and 28-day mortality are described.
+ Patients’ data were collected by reviewing the medical records, and their 14-day and 28-day outcomes were followed up.
+Results
+Of the 828 patients, 146 deaths were recorded until May 18, 2020. In the training set, multivariate Cox regression indicated that older age, lactate dehydrogenase level over 360 U/L, neutrophil-to-lymphocyte ratio higher than 8.0, and direct bilirubin higher than 5.0 μmol/L were independent predictors of 28-day mortality.
+ Nomogram scoring systems for predicting the 14-day and 28-day survival probability of patients with COVID-19 were developed and exhibited strong discrimination and calibration power in the two external validation cohorts (C-index, 0.878 and 0.839).
+Conclusion
+Older age, high lactate dehydrogenase level, evaluated neutrophil-to-lymphocyte ratio, and high direct bilirubin level were independent predictors of 28-day mortality in adult hospitalized patients with confirmed COVID-19. The nomogram system based on the four factors revealed good discrimination and calibration, suggesting good clinical utility.
+</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,      Mengfei%Guo%NULL%1,      Limin%Duan%NULL%1,      Feng%Wu%NULL%1,      Guorong%Hu%NULL%1,      Zhihui%Wang%NULL%1,      Qi%Huang%NULL%1,      Tingting%Liao%NULL%1,      Juanjuan%Xu%NULL%1,      Yanling%Ma%NULL%1,      Zhilei%Lv%NULL%1,      Wenjing%Xiao%NULL%1,      Zilin%Zhao%NULL%1,      Xueyun%Tan%NULL%1,      Daquan%Meng%NULL%1,      Shujing%Zhang%NULL%1,      E%Zhou%NULL%1,      Zhengrong%Yin%NULL%1,      Wei%Geng%NULL%1,      Xuan%Wang%NULL%1,      Jianchu%Zhang%NULL%1,      Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,      Yu%Zhang%whxhzy@163.com%1,      Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+One-fifth of COVID-19 patients are seriously and critically ill cases and have a worse prognosis than non-severe cases.
+ Although there is no specific treatment available for COVID-19, early recognition and supportive treatment may reduce the mortality.
+ The aim of this study is to develop a functional nomogram that can be used by clinicians to estimate the risk of in-hospital mortality in patients hospitalized and treated for COVID-19 disease, and to compare the accuracy of model predictions with previous nomograms.
+Methods
+This retrospective study enrolled 709 patients who were over 18 years old and received inpatient treatment for COVID-19 disease.
+ Multivariable Logistic Regression analysis was performed to assess the possible predictors of a fatal outcome.
+ A nomogram was developed with the possible predictors and total point were calculated.
+Results
+Of the 709 patients treated for COVID-19, 75 (11%) died and 634 survived.
+ The elder age, certain comorbidities (cancer, heart failure, chronic renal failure), dyspnea, lower levels of oxygen saturation and hematocrit, higher levels of C-reactive protein, aspartate aminotransferase and ferritin were independent risk factors for mortality.
+ The prediction ability of total points was excellent (Area Under Curve = 0.922).
+Conclusions
+The nomogram developed in this study can be used by clinicians as a practical and effective tool in mortality risk estimation.
+ So that with early diagnosis and intervention mortality in COVID-19 patients may be reduced.
+</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,      Günay%Can%NULL%2,      Günay%Can%NULL%0,      Rıdvan%Karaali%NULL%1,      Şermin%Börekçi%NULL%1,      İlker İnanç%Balkan%NULL%1,      Bilun%Gemicioğlu%NULL%1,      Dildar%Konukoğlu%NULL%1,      Ethem%Erginöz%NULL%1,      Mehmet Sarper%Erdoğan%NULL%1,      Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aims of this study were to develop a multiparametric prognostic model for death in COVID-19 patients and to assess the incremental value of CT disease extension over clinical parameters.
+Methods
+Consecutive patients who presented to all five of the emergency rooms of the Reggio Emilia province between February 27 and March 23, 2020, for suspected COVID-19, underwent chest CT, and had a positive swab within 10 days were included in this retrospective study.
+ Age, sex, comorbidities, days from symptom onset, and laboratory data were retrieved from institutional information systems.
+ CT disease extension was visually graded as &amp;lt; 20%, 20–39%, 40–59%, or ≥ 60%.
+ The association between clinical and CT variables with death was estimated with univariable and multivariable Cox proportional hazards models; model performance was assessed using k-fold cross-validation for the area under the ROC curve (cvAUC).
+Results
+Of the 866 included patients (median age 59.8, women 39.2%), 93 (10.74%) died.
+ Clinical variables significantly associated with death in multivariable model were age, male sex, HDL cholesterol, dementia, heart failure, vascular diseases, time from symptom onset, neutrophils, LDH, and oxygen saturation level.
+ CT disease extension was also independently associated with death (HR = 7.56, 95% CI = 3.49; 16.38 for ≥ 60% extension).
+ cvAUCs were 0.927 (bootstrap bias-corrected 95% CI = 0.899–0.947) for the clinical model and 0.936 (bootstrap bias-corrected 95% CI = 0.912–0.953) when adding CT extension.
+Conclusions
+A prognostic model based on clinical variables is highly accurate in predicting death in COVID-19 patients.
+ Adding CT disease extension to the model scarcely improves its accuracy.
+Key Points
+id="Par5"&gt;
+• Early identification of COVID-19 patients at higher risk of disease progression and death is crucial; the role of CT scan in defining prognosis is unclear.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s00330-021-07993-9.
+</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,      Marta%Ottone%NULL%2,      Marta%Ottone%NULL%0,      Tommaso%Fasano%NULL%1,      Pierpaolo%Pattacini%NULL%1,      Valentina%Iotti%NULL%1,      Lucia%Spaggiari%NULL%1,      Riccardo%Bonacini%NULL%1,      Andrea%Nitrosi%NULL%1,      Efrem%Bonelli%NULL%1,      Simone%Canovi%NULL%1,      Rossana%Colla%NULL%1,      Alessandro%Zerbini%NULL%1,      Marco%Massari%NULL%1,      Ivana%Lattuada%NULL%1,      Anna Maria%Ferrari%NULL%1,      Paolo%Giorgi Rossi%NULL%1,      Massimo%Costantini%NULL%1,      Roberto%Grilli%NULL%1,      Massimiliano%Marino%NULL%1,      Giulio%Formoso%NULL%1,      Debora%Formisano%NULL%1,      Emanuela%Bedeschi%NULL%1,      Cinzia%Perilli%NULL%1,      Elisabetta%La Rosa%NULL%1,      Eufemia%Bisaccia%NULL%1,      Ivano%Venturi%NULL%1,      Massimo%Vicentini%NULL%1,      Cinzia%Campari%NULL%1,      Francesco%Gioia%NULL%1,      Serena%Broccoli%NULL%1,      Pamela%Mancuso%NULL%1,      Marco%Foracchia%NULL%1,      Mirco%Pinotti%NULL%1,      Nicola%Facciolongo%NULL%1,      Laura%Trabucco%NULL%1,      Stefano%De Pietri%NULL%1,      Giorgio Francesco%Danelli%NULL%1,      Laura%Albertazzi%NULL%1,      Enrica%Bellesia%NULL%1,      Mattia%Corradini%NULL%1,      Elena%Magnani%NULL%1,      Annalisa%Pilia%NULL%1,      Alessandra%Polese%NULL%1,      Silvia Storchi%Incerti%NULL%1,      Piera%Zaldini%NULL%1,      Bonanno%Orsola%NULL%1,      Matteo%Revelli%NULL%1,      Carlo%Salvarani%NULL%1,      Carmine%Pinto%NULL%1,      Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Patients with severe Coronavirus Disease 2019 (COVID-19) will progress rapidly to acute respiratory failure or death.
+ We aimed to develop a quantitative tool for early predicting mortality risk of patients with COVID-19.
+Methods
+301 patients with confirmed COVID-19 admitted to Main District and Tumor Center of the Union Hospital of Huazhong University of Science and Technology (Wuhan, China) between January 1, 2020 to February 15, 2020 were enrolled in this retrospective two-centers study.
+ Data on patient demographic characteristics, laboratory findings and clinical outcomes was analyzed.
+ A nomogram was constructed to predict the death probability of COVID-19 patients.
+Results
+Age, neutrophil-to-lymphocyte ratio, d-dimer and C-reactive protein obtained on admission were identified as predictors of mortality for COVID-19 patients by LASSO.
+ The nomogram demonstrated good calibration and discrimination with the area under the curve (AUC) of 0.921 and 0.975 for the derivation and validation cohort, respectively.
+ An integrated score (named ANDC) with its corresponding death probability was derived.
+ Using ANDC cut-off values of 59 and 101, COVID-19 patients were classified into three subgroups.
+ The death probability of low risk group (ANDC &amp;lt; 59) was less than 5%, moderate risk group (59 ≤ ANDC ≤ 101) was 5% to 50%, and high risk group (ANDC &amp;gt; 101) was more than 50%, respectively.
+Conclusion
+The prognostic nomogram exhibited good discrimination power in early identification of COVID-19 patients with high mortality risk, and ANDC score may help physicians to optimize patient stratification management.
+</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,      Qiaosen%Chen%NULL%2,      Qiaosen%Chen%NULL%0,      Sumeng%Li%NULL%1,      Huadong%Li%NULL%1,      Qian%Zhang%NULL%1,      Sihong%Lu%NULL%1,      Li%Wu%NULL%1,      Leiqun%Xiong%NULL%1,      Bobin%Mi%NULL%1,      Di%Liu%NULL%1,      Mengji%Lu%NULL%1,      Dongliang%Yang%NULL%1,      Hongbo%Jiang%hongbojiang3@163.com%1,      Shaoping%Zheng%zhengspxx@126.com%1,      Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Accurately predicting patient outcomes in Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) could aid patient management and allocation of healthcare resources.
+ There are a variety of methods which can be used to develop prognostic models, ranging from logistic regression and survival analysis to more complex machine learning algorithms and deep learning.
+ Despite several models having been created for SARS-CoV-2, most of these have been found to be highly susceptible to bias.
+ We aimed to develop and compare two separate predictive models for death during admission with SARS-CoV-2.
+Method
+Between March 1 and April 24, 2020, 398 patients were identified with laboratory confirmed SARS-CoV-2 in a London teaching hospital.
+ Data from electronic health records were extracted and used to create two predictive models using: (1) a Cox regression model and (2) an artificial neural network (ANN).
+ Model performance profiles were assessed by validation, discrimination, and calibration.
+Results
+Both the Cox regression and ANN models achieved high accuracy (83.8%, 95% confidence interval (CI) 73.8–91.1 and 90.0%, 95% CI 81.2–95.6, respectively).
+ The area under the receiver operator curve (AUROC) for the ANN (92.6%, 95% CI 91.1–94.1) was significantly greater than that of the Cox regression model (86.9%, 95% CI 85.7–88.2), p = 0.0136. Both models achieved acceptable calibration with Brier scores of 0.13 and 0.11 for the Cox model and ANN, respectively.
+Conclusion
+We demonstrate an ANN which is non-inferior to a Cox regression model but with potential for further development such that it can learn as new data becomes available.
+ Deep learning techniques are particularly suited to complex datasets with non-linear solutions, which make them appropriate for use in conditions with a paucity of prior knowledge.
+ Accurate prognostic models for SARS-CoV-2 can provide benefits at the patient, departmental and organisational level.
+</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,      Aatish%Patel%NULL%1,      Esmita%Charani%NULL%1,      Sarah%Denny%NULL%1,      Saleh A.%Alqahtani%NULL%1,      Gary W.%Davies%NULL%1,      Nabeela%Mughal%NULL%1,      Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 has become a major global threat.
+ The present study aimed to develop a nomogram model to predict the survival of COVID-19 patients based on their clinical and laboratory data at admission.
+Methods
+COVID-19 patients who were admitted at Hankou Hospital and Huoshenshan Hospital in Wuhan, China from January 12, 2020 to March 20, 2020, whose outcome during the hospitalization was known, were retrospectively reviewed.
+ The categorical variables were compared using Pearson’s χ2-test or Fisher’s exact test, and continuous variables were analyzed using Student’s t-test or Mann Whitney U-test, as appropriate.
+ Then, variables with a P-value of ≤0.1 were included in the log-binomial model, and merely these independent risk factors were used to establish the nomogram model.
+ The discrimination of the nomogram was evaluated using the area under the receiver operating characteristic curve (AUC), and internally verified using the Bootstrap method.
+Results
+A total of 262 patients (134 surviving and 128 non-surviving patients) were included in the analysis.
+ Seven variables, which included age (relative risk [RR]: 0.905, 95% confidence interval [CI]: 0.868–0.944; P &amp;lt; 0.001), chronic heart disease (CHD, RR: 0.045, 95% CI: 0.0097–0.205; P &amp;lt; 0.001, the percentage of lymphocytes (Lym%, RR: 1.125, 95% CI: 1.041–1.216; P = 0.0029), platelets (RR: 1.008, 95% CI: 1.003–1.012; P = 0.001), C-reaction protein (RR: 0.982, 95% CI: 0.973–0.991; P &amp;lt; 0.001), lactate dehydrogenase (LDH, RR: 0.993, 95% CI: 0.990–0.997; P &amp;lt; 0.001) and D-dimer (RR: 0.734, 95% CI: 0.617–0.879; P &amp;lt; 0.001), were identified as the independent risk factors.
+ The nomogram model based on these factors exhibited a good discrimination, with an AUC of 0.948 (95% CI: 0.923–0.973).
+Conclusions
+A nomogram based on age, CHD, Lym%, platelets, C-reaction protein, LDH and D-dimer was established to accurately predict the prognosis of COVID-19 patients.
+ This can be used as an alerting tool for clinicians to take early intervention measures, when necessary.
+</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,      Huifang%Wang%NULL%1,      Junwei%Huang%NULL%1,      Yan%Geng%NULL%1,      Shuqi%Jiang%NULL%1,      Qiuping%Zhou%NULL%1,      Xuan%Chen%NULL%1,      Hongping%Hu%NULL%1,      Weifeng%Li%NULL%1,      Chengbin%Zhou%NULL%1,      Xinglin%Gao%NULL%1,      Na%Peng%pnatz@163.com%1,      Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aims of this study were to develop a multiparametric prognostic model for death in COVID-19 patients and to assess the incremental value of CT disease extension over clinical parameters.
+Methods
+Consecutive patients who presented to all five of the emergency rooms of the Reggio Emilia province between February 27 and March 23, 2020, for suspected COVID-19, underwent chest CT, and had a positive swab within 10 days were included in this retrospective study.
+ Age, sex, comorbidities, days from symptom onset, and laboratory data were retrieved from institutional information systems.
+ CT disease extension was visually graded as &amp;lt; 20%, 20–39%, 40–59%, or ≥ 60%.
+ The association between clinical and CT variables with death was estimated with univariable and multivariable Cox proportional hazards models; model performance was assessed using k-fold cross-validation for the area under the ROC curve (cvAUC).
+Results
+Of the 866 included patients (median age 59.8, women 39.2%), 93 (10.74%) died.
+ Clinical variables significantly associated with death in multivariable model were age, male sex, HDL cholesterol, dementia, heart failure, vascular diseases, time from symptom onset, neutrophils, LDH, and oxygen saturation level.
+ CT disease extension was also independently associated with death (HR = 7.56, 95% CI = 3.49; 16.38 for ≥ 60% extension).
+ cvAUCs were 0.927 (bootstrap bias-corrected 95% CI = 0.899–0.947) for the clinical model and 0.936 (bootstrap bias-corrected 95% CI = 0.912–0.953) when adding CT extension.
+Conclusions
+A prognostic model based on clinical variables is highly accurate in predicting death in COVID-19 patients.
+ Adding CT disease extension to the model scarcely improves its accuracy.
+Key Points
+• Early identification of COVID-19 patients at higher risk of disease progression and death is crucial; the role of CT scan in defining prognosis is unclear.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s00330-021-07993-9.
+</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,       Marta%Ottone%NULL%2,       Marta%Ottone%NULL%0,       Tommaso%Fasano%NULL%1,       Pierpaolo%Pattacini%NULL%1,       Valentina%Iotti%NULL%1,       Lucia%Spaggiari%NULL%1,       Riccardo%Bonacini%NULL%1,       Andrea%Nitrosi%NULL%1,       Efrem%Bonelli%NULL%1,       Simone%Canovi%NULL%1,       Rossana%Colla%NULL%1,       Alessandro%Zerbini%NULL%1,       Marco%Massari%NULL%1,       Ivana%Lattuada%NULL%1,       Anna Maria%Ferrari%NULL%1,       Paolo%Giorgi Rossi%NULL%1,       Massimo%Costantini%NULL%1,       Roberto%Grilli%NULL%0,       Massimiliano%Marino%NULL%0,       Giulio%Formoso%NULL%1,       Debora%Formisano%NULL%0,       Emanuela%Bedeschi%NULL%1,       Cinzia%Perilli%NULL%1,       Elisabetta%La Rosa%NULL%1,       Eufemia%Bisaccia%NULL%1,       Ivano%Venturi%NULL%1,       Massimo%Vicentini%NULL%0,       Cinzia%Campari%NULL%1,       Francesco%Gioia%NULL%1,       Serena%Broccoli%NULL%1,       Pamela%Mancuso%NULL%1,       Marco%Foracchia%NULL%1,       Mirco%Pinotti%NULL%1,       Nicola%Facciolongo%NULL%1,       Laura%Trabucco%NULL%1,       Stefano%De Pietri%NULL%1,       Giorgio Francesco%Danelli%NULL%1,       Laura%Albertazzi%NULL%1,       Enrica%Bellesia%NULL%1,       Mattia%Corradini%NULL%1,       Elena%Magnani%NULL%1,       Annalisa%Pilia%NULL%1,       Alessandra%Polese%NULL%1,       Silvia Storchi%Incerti%NULL%1,       Piera%Zaldini%NULL%1,       Bonanno%Orsola%NULL%1,       Matteo%Revelli%NULL%1,       Carlo%Salvarani%NULL%1,       Carmine%Pinto%NULL%1,       Francesco%Venturelli%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2227,10 +2844,10 @@
         <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
-        <v>332</v>
+        <v>385</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -2305,10 +2922,10 @@
         <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>430</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>431</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -2461,10 +3078,10 @@
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>432</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -2513,10 +3130,10 @@
         <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>442</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>443</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -2565,10 +3182,10 @@
         <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>392</v>
       </c>
       <c r="E16" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -3007,10 +3624,10 @@
         <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
+        <v>394</v>
       </c>
       <c r="E33" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -3397,10 +4014,10 @@
         <v>256</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
+        <v>436</v>
       </c>
       <c r="E48" t="s">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -3501,10 +4118,10 @@
         <v>276</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
+        <v>438</v>
       </c>
       <c r="E52" t="s">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -3527,10 +4144,10 @@
         <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>282</v>
+        <v>400</v>
       </c>
       <c r="E53" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -3657,10 +4274,10 @@
         <v>300</v>
       </c>
       <c r="D58" t="s">
-        <v>301</v>
+        <v>402</v>
       </c>
       <c r="E58" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -3735,10 +4352,10 @@
         <v>315</v>
       </c>
       <c r="D61" t="s">
-        <v>316</v>
+        <v>440</v>
       </c>
       <c r="E61" t="s">
-        <v>380</v>
+        <v>441</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="384">
   <si>
     <t>Doi</t>
   </si>
@@ -1816,623 +1816,6 @@
   </si>
   <si>
     <t>[Sonsoles%Salto-Alejandre%NULL%0,  Cristina%Roca-Oporto%NULL%0,  Guillermo%Martín-Gutiérrez%NULL%0,  María Dolores%Avilés%NULL%0,  Carmen%Gómez-González%NULL%0,  María Dolores%Navarro-Amuedo%NULL%0,  Julia%Praena-Segovia%NULL%0,  José%Molina%NULL%0,  María%Paniagua-García%NULL%0,  Horacio%García-Delgado%NULL%0,  Antonio%Domínguez-Petit%NULL%0,  Jerónimo%Pachón%NULL%0,  José Miguel%Cisneros%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has resulted in thousands of deaths in the world.
- Information about prediction model of prognosis of SARS-CoV-2 infection is scarce.
- We used machine learning for processing laboratory findings of 110 patients with SARS-CoV-2 pneumonia (including 51 non-survivors and 59 discharged patients).
- The maximum relevance minimum redundancy (mRMR) algorithm and the least absolute shrinkage and selection operator logistic regression model were used for selection of laboratory features.
- Seven laboratory features selected in the model were: prothrombin activity, urea, white blood cell, interleukin-2 receptor, indirect bilirubin, myoglobin, and fibrinogen degradation products.
- The signature constructed using the seven features had 98% [93%, 100%] sensitivity and 91% [84%, 99%] specificity in predicting outcome of SARS-CoV-2 pneumonia.
- Thus it is feasible to establish an accurate prediction model of outcome of SARS-CoV-2 pneumonia based on laboratory findings.
-</t>
-  </si>
-  <si>
-    <t>[Gang%Wu%NULL%1,   Shuchang%Zhou%NULL%1,   Yujin%Wang%NULL%1,   Wenzhi%Lv%NULL%2,   Shili%Wang%NULL%1,   Ting%Wang%751884926@qq.com%1,   Xiaoming%Li%lilyboston2002@qq.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus disease 2019 (COVID-19) has become a public health emergency of global concern.
- We aimed to explore the risk factors of 14-day and 28-day mortality and develop a model for predicting 14-day and 28-day survival probability among adult hospitalized patients with COVID-19.
-Methods
-id="Par2"&gt;In this multicenter, retrospective, cohort study, we examined 828 hospitalized patients with confirmed COVID-19 hospitalized in Wuhan Union Hospital and Central Hospital of Wuhan between January 12 and February 9, 2020. Among the 828 patients, 516 and 186 consecutive patients admitted in Wuhan Union Hospital were enrolled in the training cohort and the validation cohort, respectively.
- A total of 126 patients hospitalized in Central Hospital of Wuhan were enrolled in a second external validation cohort.
- Demographic, clinical, radiographic, and laboratory measures; treatment; proximate causes of death; and 14-day and 28-day mortality are described.
- Patients’ data were collected by reviewing the medical records, and their 14-day and 28-day outcomes were followed up.
-Results
-id="Par3"&gt;Of the 828 patients, 146 deaths were recorded until May 18, 2020. In the training set, multivariate Cox regression indicated that older age, lactate dehydrogenase level over 360 U/L, neutrophil-to-lymphocyte ratio higher than 8.0, and direct bilirubin higher than 5.0 μmol/L were independent predictors of 28-day mortality.
- Nomogram scoring systems for predicting the 14-day and 28-day survival probability of patients with COVID-19 were developed and exhibited strong discrimination and calibration power in the two external validation cohorts (C-index, 0.878 and 0.839).
-Conclusion
-id="Par4"&gt;Older age, high lactate dehydrogenase level, evaluated neutrophil-to-lymphocyte ratio, and high direct bilirubin level were independent predictors of 28-day mortality in adult hospitalized patients with confirmed COVID-19. The nomogram system based on the four factors revealed good discrimination and calibration, suggesting good clinical utility.
-</t>
-  </si>
-  <si>
-    <t>[Shuai%Zhang%NULL%1,   Mengfei%Guo%NULL%1,   Limin%Duan%NULL%1,   Feng%Wu%NULL%1,   Guorong%Hu%NULL%1,   Zhihui%Wang%NULL%1,   Qi%Huang%NULL%2,   Tingting%Liao%NULL%1,   Juanjuan%Xu%NULL%1,   Yanling%Ma%NULL%1,   Zhilei%Lv%NULL%1,   Wenjing%Xiao%NULL%1,   Zilin%Zhao%NULL%1,   Xueyun%Tan%NULL%1,   Daquan%Meng%NULL%1,   Shujing%Zhang%NULL%1,   E%Zhou%NULL%1,   Zhengrong%Yin%NULL%1,   Wei%Geng%NULL%1,   Xuan%Wang%NULL%1,   Jianchu%Zhang%NULL%1,   Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,   Yu%Zhang%whxhzy@163.com%1,   Yang%Jin%whuhjy@126.com%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-One-fifth of COVID-19 patients are seriously and critically ill cases and have a worse prognosis than non-severe cases.
- Although there is no specific treatment available for COVID-19, early recognition and supportive treatment may reduce the mortality.
- The aim of this study is to develop a functional nomogram that can be used by clinicians to estimate the risk of in-hospital mortality in patients hospitalized and treated for COVID-19 disease, and to compare the accuracy of model predictions with previous nomograms.
-Methods
-id="Par2"&gt;This retrospective study enrolled 709 patients who were over 18 years old and received inpatient treatment for COVID-19 disease.
- Multivariable Logistic Regression analysis was performed to assess the possible predictors of a fatal outcome.
- A nomogram was developed with the possible predictors and total point were calculated.
-Results
-id="Par3"&gt;Of the 709 patients treated for COVID-19, 75 (11%) died and 634 survived.
- The elder age, certain comorbidities (cancer, heart failure, chronic renal failure), dyspnea, lower levels of oxygen saturation and hematocrit, higher levels of C-reactive protein, aspartate aminotransferase and ferritin were independent risk factors for mortality.
- The prediction ability of total points was excellent (Area Under Curve = 0.922).
-Conclusions
-id="Par4"&gt;The nomogram developed in this study can be used by clinicians as a practical and effective tool in mortality risk estimation.
- So that with early diagnosis and intervention mortality in COVID-19 patients may be reduced.
-</t>
-  </si>
-  <si>
-    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,   Günay%Can%NULL%2,   Günay%Can%NULL%0,   Rıdvan%Karaali%NULL%1,   Şermin%Börekçi%NULL%1,   İlker İnanç%Balkan%NULL%1,   Bilun%Gemicioğlu%NULL%1,   Dildar%Konukoğlu%NULL%1,   Ethem%Erginöz%NULL%1,   Mehmet Sarper%Erdoğan%NULL%1,   Fehmi%Tabak%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aims of this study were to develop a multiparametric prognostic model for death in COVID-19 patients and to assess the incremental value of CT disease extension over clinical parameters.
-Methods
-id="Par2"&gt;Consecutive patients who presented to all five of the emergency rooms of the Reggio Emilia province between February 27 and March 23, 2020, for suspected COVID-19, underwent chest CT, and had a positive swab within 10 days were included in this retrospective study.
- Age, sex, comorbidities, days from symptom onset, and laboratory data were retrieved from institutional information systems.
- CT disease extension was visually graded as &amp;lt; 20%, 20–39%, 40–59%, or ≥ 60%.
- The association between clinical and CT variables with death was estimated with univariable and multivariable Cox proportional hazards models; model performance was assessed using k-fold cross-validation for the area under the ROC curve (cvAUC).
-Results
-id="Par3"&gt;Of the 866 included patients (median age 59.8, women 39.2%), 93 (10.74%) died.
- Clinical variables significantly associated with death in multivariable model were age, male sex, HDL cholesterol, dementia, heart failure, vascular diseases, time from symptom onset, neutrophils, LDH, and oxygen saturation level.
- CT disease extension was also independently associated with death (HR = 7.56, 95% CI = 3.49; 16.38 for ≥ 60% extension).
- cvAUCs were 0.927 (bootstrap bias-corrected 95% CI = 0.899–0.947) for the clinical model and 0.936 (bootstrap bias-corrected 95% CI = 0.912–0.953) when adding CT extension.
-Conclusions
-id="Par4"&gt;A prognostic model based on clinical variables is highly accurate in predicting death in COVID-19 patients.
- Adding CT disease extension to the model scarcely improves its accuracy.
-Key Points
-id="Par5"&gt;
-• Early identification of COVID-19 patients at higher risk of disease progression and death is crucial; the role of CT scan in defining prognosis is unclear.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s00330-021-07993-9.
-</t>
-  </si>
-  <si>
-    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,   Marta%Ottone%NULL%2,   Marta%Ottone%NULL%0,   Tommaso%Fasano%NULL%1,   Pierpaolo%Pattacini%NULL%1,   Valentina%Iotti%NULL%1,   Lucia%Spaggiari%NULL%1,   Riccardo%Bonacini%NULL%1,   Andrea%Nitrosi%NULL%1,   Efrem%Bonelli%NULL%1,   Simone%Canovi%NULL%1,   Rossana%Colla%NULL%1,   Alessandro%Zerbini%NULL%1,   Marco%Massari%NULL%2,   Ivana%Lattuada%NULL%1,   Anna Maria%Ferrari%NULL%1,   Paolo%Giorgi Rossi%NULL%1,   Massimo%Costantini%NULL%1,   Roberto%Grilli%NULL%2,   Massimiliano%Marino%NULL%2,   Giulio%Formoso%NULL%1,   Debora%Formisano%NULL%2,   Emanuela%Bedeschi%NULL%1,   Cinzia%Perilli%NULL%1,   Elisabetta%La Rosa%NULL%1,   Eufemia%Bisaccia%NULL%1,   Ivano%Venturi%NULL%1,   Massimo%Vicentini%NULL%3,   Cinzia%Campari%NULL%1,   Francesco%Gioia%NULL%1,   Serena%Broccoli%NULL%1,   Pamela%Mancuso%NULL%1,   Marco%Foracchia%NULL%1,   Mirco%Pinotti%NULL%1,   Nicola%Facciolongo%NULL%1,   Laura%Trabucco%NULL%1,   Stefano%De Pietri%NULL%1,   Giorgio Francesco%Danelli%NULL%1,   Laura%Albertazzi%NULL%1,   Enrica%Bellesia%NULL%1,   Mattia%Corradini%NULL%1,   Elena%Magnani%NULL%1,   Annalisa%Pilia%NULL%1,   Alessandra%Polese%NULL%1,   Silvia Storchi%Incerti%NULL%1,   Piera%Zaldini%NULL%1,   Bonanno%Orsola%NULL%1,   Matteo%Revelli%NULL%1,   Carlo%Salvarani%NULL%1,   Carmine%Pinto%NULL%1,   Francesco%Venturelli%NULL%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COVID-19 pandemic has created an extreme pressure on the global healthcare services.
- Fast, reliable, and early clinical assessment of the severity of the disease can help in allocating and prioritizing resources to reduce mortality.
- In order to study the important blood biomarkers for predicting disease mortality, a retrospective study was conducted on a dataset made public by Yan et al.
- in [1] of 375 COVID-19 positive patients admitted to Tongji Hospital (China) from January 10 to February 18, 2020. Demographic and clinical characteristics and patient outcomes were investigated using machine learning tools to identify key biomarkers to predict the mortality of individual patient.
- A nomogram was developed for predicting the mortality risk among COVID-19 patients.
- Lactate dehydrogenase, neutrophils (%), lymphocyte (%), high-sensitivity C-reactive protein, and age (LNLCA)—acquired at hospital admission—were identified as key predictors of death by multi-tree XGBoost model.
- The area under curve (AUC) of the nomogram for the derivation and validation cohort were 0.961 and 0.991, respectively.
- An integrated score (LNLCA) was calculated with the corresponding death probability.
- COVID-19 patients were divided into three subgroups: low-, moderate-, and high-risk groups using LNLCA cutoff values of 10.4 and 12.65 with the death probability less than 5%, 5–50%, and above 50%, respectively.
- The prognostic model, nomogram, and LNLCA score can help in early detection of high mortality risk of COVID-19 patients, which will help doctors to improve the management of patient stratification.
-</t>
-  </si>
-  <si>
-    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,   Tawsifur%Rahman%NULL%2,   Tawsifur%Rahman%NULL%0,   Amith%Khandakar%NULL%3,   Somaya%Al-Madeed%NULL%2,   Susu M.%Zughaier%NULL%5,   Suhail A. R.%Doi%NULL%3,   Hanadi%Hassen%NULL%1,   Mohammad T.%Islam%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The epidemic phase of Coronavirus disease 2019 (COVID-19) made the Worldwide health system struggle against a severe interstitial pneumonia requiring high-intensity care settings for respiratory failure.
- A rationalisation of resources and a specific treatment path were necessary.
- The study suggests a predictive model drawing on clinical data gathered by 119 consecutive patients with laboratory-confirmed COVID-19 admitted in Busto Arsizio hospital.
- We derived a score that identifies the risk of clinical evolution and in-hospital mortality clustering patients into four groups.
- The study outcomes have been compared across the derivation and validation samples.
- The prediction rule is based on eight simple patient characteristics that were independently associated with study outcomes.
- It is able to stratify COVID-19 patients into four severity classes, with in-hospital mortality rates of 0% in group 1, 6–12.5% in group 2, 7–20% in group 3 and 60–86% in group 4 across the derivation and validation sample.
- The prediction model derived in this study identifies COVID-19 patients with low risk of in-hospital mortality and ICU admission.
- The prediction model that the study presents identifies COVID-19 patients with low risk of in-hospital mortality and admission to ICU.
- Moreover, it establishes an intermediate portion of patients that should be treated accurately in order to avoid an unfavourable clinical evolution.
- A further validation of the model is important before its implementation as a decision-making tool to guide the initial management of patients.
-</t>
-  </si>
-  <si>
-    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,   Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,   Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,   Giulia%Suigo%NULL%1,   Davide%Zampini%NULL%1,   Matteo%Pistoia%NULL%1,   Mariella%Ciola%NULL%1,   Tommaso%Ciampani%NULL%1,   Carolina%Ultori%NULL%1,   Paolo%Ghiringhelli%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Patients with severe Coronavirus Disease 2019 (COVID-19) will progress rapidly to acute respiratory failure or death.
- We aimed to develop a quantitative tool for early predicting mortality risk of patients with COVID-19.
-Methods
-id="Par2"&gt;301 patients with confirmed COVID-19 admitted to Main District and Tumor Center of the Union Hospital of Huazhong University of Science and Technology (Wuhan, China) between January 1, 2020 to February 15, 2020 were enrolled in this retrospective two-centers study.
- Data on patient demographic characteristics, laboratory findings and clinical outcomes was analyzed.
- A nomogram was constructed to predict the death probability of COVID-19 patients.
-Results
-id="Par3"&gt;Age, neutrophil-to-lymphocyte ratio, d-dimer and C-reactive protein obtained on admission were identified as predictors of mortality for COVID-19 patients by LASSO.
- The nomogram demonstrated good calibration and discrimination with the area under the curve (AUC) of 0.921 and 0.975 for the derivation and validation cohort, respectively.
- An integrated score (named ANDC) with its corresponding death probability was derived.
- Using ANDC cut-off values of 59 and 101, COVID-19 patients were classified into three subgroups.
- The death probability of low risk group (ANDC &amp;lt; 59) was less than 5%, moderate risk group (59 ≤ ANDC ≤ 101) was 5% to 50%, and high risk group (ANDC &amp;gt; 101) was more than 50%, respectively.
-Conclusion
-id="Par4"&gt;The prognostic nomogram exhibited good discrimination power in early identification of COVID-19 patients with high mortality risk, and ANDC score may help physicians to optimize patient stratification management.
-</t>
-  </si>
-  <si>
-    <t>[Zhihong%Weng%NULL%1,   Qiaosen%Chen%NULL%2,   Qiaosen%Chen%NULL%0,   Sumeng%Li%NULL%1,   Huadong%Li%NULL%1,   Qian%Zhang%NULL%1,   Sihong%Lu%NULL%1,   Li%Wu%NULL%1,   Leiqun%Xiong%NULL%1,   Bobin%Mi%NULL%1,   Di%Liu%NULL%3,   Mengji%Lu%NULL%1,   Dongliang%Yang%NULL%1,   Hongbo%Jiang%hongbojiang3@163.com%1,   Shaoping%Zheng%zhengspxx@126.com%1,   Xin%Zheng%xin11@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Accurately predicting patient outcomes in Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) could aid patient management and allocation of healthcare resources.
- There are a variety of methods which can be used to develop prognostic models, ranging from logistic regression and survival analysis to more complex machine learning algorithms and deep learning.
- Despite several models having been created for SARS-CoV-2, most of these have been found to be highly susceptible to bias.
- We aimed to develop and compare two separate predictive models for death during admission with SARS-CoV-2.
-Method
-id="Par2"&gt;Between March 1 and April 24, 2020, 398 patients were identified with laboratory confirmed SARS-CoV-2 in a London teaching hospital.
- Data from electronic health records were extracted and used to create two predictive models using: (1) a Cox regression model and (2) an artificial neural network (ANN).
- Model performance profiles were assessed by validation, discrimination, and calibration.
-Results
-id="Par3"&gt;Both the Cox regression and ANN models achieved high accuracy (83.8%, 95% confidence interval (CI) 73.8–91.1 and 90.0%, 95% CI 81.2–95.6, respectively).
- The area under the receiver operator curve (AUROC) for the ANN (92.6%, 95% CI 91.1–94.1) was significantly greater than that of the Cox regression model (86.9%, 95% CI 85.7–88.2), p = 0.0136. Both models achieved acceptable calibration with Brier scores of 0.13 and 0.11 for the Cox model and ANN, respectively.
-Conclusion
-id="Par4"&gt;We demonstrate an ANN which is non-inferior to a Cox regression model but with potential for further development such that it can learn as new data becomes available.
- Deep learning techniques are particularly suited to complex datasets with non-linear solutions, which make them appropriate for use in conditions with a paucity of prior knowledge.
- Accurate prognostic models for SARS-CoV-2 can provide benefits at the patient, departmental and organisational level.
-</t>
-  </si>
-  <si>
-    <t>[Ahmed%Abdulaal%NULL%1,   Aatish%Patel%NULL%1,   Esmita%Charani%NULL%1,   Sarah%Denny%NULL%1,   Saleh A.%Alqahtani%NULL%1,   Gary W.%Davies%NULL%1,   Nabeela%Mughal%NULL%1,   Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The rapid spread of COVID-19 has resulted in the shortage of medical resources, which necessitates accurate prognosis prediction to triage patients effectively.
- This study used the nationwide cohort of South Korea to develop a machine learning model to predict prognosis based on sociodemographic and medical information.
- Of 10,237 COVID-19 patients, 228 (2.2%) died, 7772 (75.9%) recovered, and 2237 (21.9%) were still in isolation or being treated at the last follow-up (April 16, 2020).
- The Cox proportional hazards regression analysis revealed that age &amp;gt; 70, male sex, moderate or severe disability, the presence of symptoms, nursing home residence, and comorbidities of diabetes mellitus (DM), chronic lung disease, or asthma were significantly associated with increased risk of mortality (p ≤ 0.047).
- For machine learning, the least absolute shrinkage and selection operator (LASSO), linear support vector machine (SVM), SVM with radial basis function kernel, random forest (RF), and k-nearest neighbors were tested.
- In prediction of mortality, LASSO and linear SVM demonstrated high sensitivities (90.7% [95% confidence interval: 83.3, 97.3] and 92.0% [85.9, 98.1], respectively) and specificities (91.4% [90.3, 92.5] and 91.8%, [90.7, 92.9], respectively) while maintaining high specificities &amp;gt; 90%, as well as high area under the receiver operating characteristics curves (0.963 [0.946, 0.979] and 0.962 [0.945, 0.979], respectively).
- The most significant predictors for LASSO included old age and preexisting DM or cancer; for RF they were old age, infection route (cluster infection or infection from personal contact), and underlying hypertension.
- The proposed prediction model may be helpful for the quick triage of patients without having to wait for the results of additional tests such as laboratory or radiologic studies, during a pandemic when limited medical resources must be wisely allocated without hesitation.
-</t>
-  </si>
-  <si>
-    <t>[Chansik%An%NULL%1,   Hyunsun%Lim%NULL%1,   Dong-Wook%Kim%NULL%1,   Jung Hyun%Chang%NULL%1,   Yoon Jung%Choi%chris316@yuhs.ac%1,   Seong Woo%Kim%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soaring cases of coronavirus disease (COVID-19) are pummeling the global health system.
- Overwhelmed health facilities have endeavored to mitigate the pandemic, but mortality of COVID-19 continues to increase.
- Here, we present a mortality risk prediction model for COVID-19 (MRPMC) that uses patients’ clinical data on admission to stratify patients by mortality risk, which enables prediction of physiological deterioration and death up to 20 days in advance.
- This ensemble model is built using four machine learning methods including Logistic Regression, Support Vector Machine, Gradient Boosted Decision Tree, and Neural Network.
- We validate MRPMC in an internal validation cohort and two external validation cohorts, where it achieves an AUC of 0.9621 (95% CI: 0.9464–0.9778), 0.9760 (0.9613–0.9906), and 0.9246 (0.8763–0.9729), respectively.
- This model enables expeditious and accurate mortality risk stratification of patients with COVID-19, and potentially facilitates more responsive health systems that are conducive to high risk COVID-19 patients.
-</t>
-  </si>
-  <si>
-    <t>[Yue%Gao%NULL%1,   Guang-Yao%Cai%NULL%1,   Wei%Fang%NULL%6,   Hua-Yi%Li%NULL%1,   Si-Yuan%Wang%NULL%2,   Si-Yuan%Wang%NULL%0,   Lingxi%Chen%NULL%1,   Yang%Yu%NULL%1,   Dan%Liu%NULL%0,   Sen%Xu%NULL%1,   Peng-Fei%Cui%NULL%1,   Shao-Qing%Zeng%NULL%2,   Shao-Qing%Zeng%NULL%0,   Xin-Xia%Feng%NULL%1,   Rui-Di%Yu%NULL%1,   Ya%Wang%NULL%1,   Yuan%Yuan%NULL%1,   Xiao-Fei%Jiao%NULL%1,   Jian-Hua%Chi%NULL%1,   Jia-Hao%Liu%NULL%1,   Ru-Yuan%Li%NULL%1,   Xu%Zheng%NULL%1,   Chun-Yan%Song%NULL%1,   Ning%Jin%NULL%1,   Wen-Jian%Gong%NULL%1,   Xing-Yu%Liu%NULL%1,   Lei%Huang%NULL%2,   Xun%Tian%NULL%1,   Lin%Li%NULL%3,   Hui%Xing%NULL%1,   Ding%Ma%NULL%1,   Chun-Rui%Li%NULL%1,   Fei%Ye%yeyuanbei@hotmail.com%1,   Qing-Lei%Gao%qingleigao@hotmail.com%2,   Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 has become a major global threat.
- The present study aimed to develop a nomogram model to predict the survival of COVID-19 patients based on their clinical and laboratory data at admission.
-Methods
-id="Par2"&gt;COVID-19 patients who were admitted at Hankou Hospital and Huoshenshan Hospital in Wuhan, China from January 12, 2020 to March 20, 2020, whose outcome during the hospitalization was known, were retrospectively reviewed.
- The categorical variables were compared using Pearson’s χ2-test or Fisher’s exact test, and continuous variables were analyzed using Student’s t-test or Mann Whitney U-test, as appropriate.
- Then, variables with a P-value of ≤0.1 were included in the log-binomial model, and merely these independent risk factors were used to establish the nomogram model.
- The discrimination of the nomogram was evaluated using the area under the receiver operating characteristic curve (AUC), and internally verified using the Bootstrap method.
-Results
-id="Par3"&gt;A total of 262 patients (134 surviving and 128 non-surviving patients) were included in the analysis.
- Seven variables, which included age (relative risk [RR]: 0.905, 95% confidence interval [CI]: 0.868–0.944; P &amp;lt; 0.001), chronic heart disease (CHD, RR: 0.045, 95% CI: 0.0097–0.205; P &amp;lt; 0.001, the percentage of lymphocytes (Lym%, RR: 1.125, 95% CI: 1.041–1.216; P = 0.0029), platelets (RR: 1.008, 95% CI: 1.003–1.012; P = 0.001), C-reaction protein (RR: 0.982, 95% CI: 0.973–0.991; P &amp;lt; 0.001), lactate dehydrogenase (LDH, RR: 0.993, 95% CI: 0.990–0.997; P &amp;lt; 0.001) and D-dimer (RR: 0.734, 95% CI: 0.617–0.879; P &amp;lt; 0.001), were identified as the independent risk factors.
- The nomogram model based on these factors exhibited a good discrimination, with an AUC of 0.948 (95% CI: 0.923–0.973).
-Conclusions
-id="Par4"&gt;A nomogram based on age, CHD, Lym%, platelets, C-reaction protein, LDH and D-dimer was established to accurately predict the prognosis of COVID-19 patients.
- This can be used as an alerting tool for clinicians to take early intervention measures, when necessary.
-</t>
-  </si>
-  <si>
-    <t>[Xiaojun%Ma%NULL%1,   Huifang%Wang%NULL%1,   Junwei%Huang%NULL%1,   Yan%Geng%NULL%1,   Shuqi%Jiang%NULL%1,   Qiuping%Zhou%NULL%1,   Xuan%Chen%NULL%1,   Hongping%Hu%NULL%1,   Weifeng%Li%NULL%1,   Chengbin%Zhou%NULL%1,   Xinglin%Gao%NULL%1,   Na%Peng%pnatz@163.com%1,   Yiyu%Deng%yiyudeng666@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus disease 2019 (COVID-19) has become a public health emergency of global concern.
- We aimed to explore the risk factors of 14-day and 28-day mortality and develop a model for predicting 14-day and 28-day survival probability among adult hospitalized patients with COVID-19.
-Methods
-In this multicenter, retrospective, cohort study, we examined 828 hospitalized patients with confirmed COVID-19 hospitalized in Wuhan Union Hospital and Central Hospital of Wuhan between January 12 and February 9, 2020. Among the 828 patients, 516 and 186 consecutive patients admitted in Wuhan Union Hospital were enrolled in the training cohort and the validation cohort, respectively.
- A total of 126 patients hospitalized in Central Hospital of Wuhan were enrolled in a second external validation cohort.
- Demographic, clinical, radiographic, and laboratory measures; treatment; proximate causes of death; and 14-day and 28-day mortality are described.
- Patients’ data were collected by reviewing the medical records, and their 14-day and 28-day outcomes were followed up.
-Results
-id="Par3"&gt;Of the 828 patients, 146 deaths were recorded until May 18, 2020. In the training set, multivariate Cox regression indicated that older age, lactate dehydrogenase level over 360 U/L, neutrophil-to-lymphocyte ratio higher than 8.0, and direct bilirubin higher than 5.0 μmol/L were independent predictors of 28-day mortality.
- Nomogram scoring systems for predicting the 14-day and 28-day survival probability of patients with COVID-19 were developed and exhibited strong discrimination and calibration power in the two external validation cohorts (C-index, 0.878 and 0.839).
-Conclusion
-id="Par4"&gt;Older age, high lactate dehydrogenase level, evaluated neutrophil-to-lymphocyte ratio, and high direct bilirubin level were independent predictors of 28-day mortality in adult hospitalized patients with confirmed COVID-19. The nomogram system based on the four factors revealed good discrimination and calibration, suggesting good clinical utility.
-</t>
-  </si>
-  <si>
-    <t>[Shuai%Zhang%NULL%1,    Mengfei%Guo%NULL%1,    Limin%Duan%NULL%1,    Feng%Wu%NULL%1,    Guorong%Hu%NULL%1,    Zhihui%Wang%NULL%1,    Qi%Huang%NULL%1,    Tingting%Liao%NULL%1,    Juanjuan%Xu%NULL%1,    Yanling%Ma%NULL%1,    Zhilei%Lv%NULL%1,    Wenjing%Xiao%NULL%1,    Zilin%Zhao%NULL%1,    Xueyun%Tan%NULL%1,    Daquan%Meng%NULL%1,    Shujing%Zhang%NULL%1,    E%Zhou%NULL%1,    Zhengrong%Yin%NULL%1,    Wei%Geng%NULL%1,    Xuan%Wang%NULL%1,    Jianchu%Zhang%NULL%1,    Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,    Yu%Zhang%whxhzy@163.com%1,    Yang%Jin%whuhjy@126.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-One-fifth of COVID-19 patients are seriously and critically ill cases and have a worse prognosis than non-severe cases.
- Although there is no specific treatment available for COVID-19, early recognition and supportive treatment may reduce the mortality.
- The aim of this study is to develop a functional nomogram that can be used by clinicians to estimate the risk of in-hospital mortality in patients hospitalized and treated for COVID-19 disease, and to compare the accuracy of model predictions with previous nomograms.
-Methods
-This retrospective study enrolled 709 patients who were over 18 years old and received inpatient treatment for COVID-19 disease.
- Multivariable Logistic Regression analysis was performed to assess the possible predictors of a fatal outcome.
- A nomogram was developed with the possible predictors and total point were calculated.
-Results
-id="Par3"&gt;Of the 709 patients treated for COVID-19, 75 (11%) died and 634 survived.
- The elder age, certain comorbidities (cancer, heart failure, chronic renal failure), dyspnea, lower levels of oxygen saturation and hematocrit, higher levels of C-reactive protein, aspartate aminotransferase and ferritin were independent risk factors for mortality.
- The prediction ability of total points was excellent (Area Under Curve = 0.922).
-Conclusions
-id="Par4"&gt;The nomogram developed in this study can be used by clinicians as a practical and effective tool in mortality risk estimation.
- So that with early diagnosis and intervention mortality in COVID-19 patients may be reduced.
-</t>
-  </si>
-  <si>
-    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,    Günay%Can%NULL%2,    Günay%Can%NULL%0,    Rıdvan%Karaali%NULL%1,    Şermin%Börekçi%NULL%1,    İlker İnanç%Balkan%NULL%1,    Bilun%Gemicioğlu%NULL%1,    Dildar%Konukoğlu%NULL%1,    Ethem%Erginöz%NULL%1,    Mehmet Sarper%Erdoğan%NULL%1,    Fehmi%Tabak%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aims of this study were to develop a multiparametric prognostic model for death in COVID-19 patients and to assess the incremental value of CT disease extension over clinical parameters.
-Methods
-Consecutive patients who presented to all five of the emergency rooms of the Reggio Emilia province between February 27 and March 23, 2020, for suspected COVID-19, underwent chest CT, and had a positive swab within 10 days were included in this retrospective study.
- Age, sex, comorbidities, days from symptom onset, and laboratory data were retrieved from institutional information systems.
- CT disease extension was visually graded as &amp;lt; 20%, 20–39%, 40–59%, or ≥ 60%.
- The association between clinical and CT variables with death was estimated with univariable and multivariable Cox proportional hazards models; model performance was assessed using k-fold cross-validation for the area under the ROC curve (cvAUC).
-Results
-id="Par3"&gt;Of the 866 included patients (median age 59.8, women 39.2%), 93 (10.74%) died.
- Clinical variables significantly associated with death in multivariable model were age, male sex, HDL cholesterol, dementia, heart failure, vascular diseases, time from symptom onset, neutrophils, LDH, and oxygen saturation level.
- CT disease extension was also independently associated with death (HR = 7.56, 95% CI = 3.49; 16.38 for ≥ 60% extension).
- cvAUCs were 0.927 (bootstrap bias-corrected 95% CI = 0.899–0.947) for the clinical model and 0.936 (bootstrap bias-corrected 95% CI = 0.912–0.953) when adding CT extension.
-Conclusions
-id="Par4"&gt;A prognostic model based on clinical variables is highly accurate in predicting death in COVID-19 patients.
- Adding CT disease extension to the model scarcely improves its accuracy.
-Key Points
-id="Par5"&gt;
-• Early identification of COVID-19 patients at higher risk of disease progression and death is crucial; the role of CT scan in defining prognosis is unclear.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s00330-021-07993-9.
-</t>
-  </si>
-  <si>
-    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,    Marta%Ottone%NULL%2,    Marta%Ottone%NULL%0,    Tommaso%Fasano%NULL%1,    Pierpaolo%Pattacini%NULL%1,    Valentina%Iotti%NULL%1,    Lucia%Spaggiari%NULL%1,    Riccardo%Bonacini%NULL%1,    Andrea%Nitrosi%NULL%1,    Efrem%Bonelli%NULL%1,    Simone%Canovi%NULL%1,    Rossana%Colla%NULL%1,    Alessandro%Zerbini%NULL%1,    Marco%Massari%NULL%1,    Ivana%Lattuada%NULL%1,    Anna Maria%Ferrari%NULL%1,    Paolo%Giorgi Rossi%NULL%1,    Massimo%Costantini%NULL%1,    Roberto%Grilli%NULL%1,    Massimiliano%Marino%NULL%1,    Giulio%Formoso%NULL%1,    Debora%Formisano%NULL%1,    Emanuela%Bedeschi%NULL%1,    Cinzia%Perilli%NULL%1,    Elisabetta%La Rosa%NULL%1,    Eufemia%Bisaccia%NULL%1,    Ivano%Venturi%NULL%1,    Massimo%Vicentini%NULL%1,    Cinzia%Campari%NULL%1,    Francesco%Gioia%NULL%1,    Serena%Broccoli%NULL%1,    Pamela%Mancuso%NULL%1,    Marco%Foracchia%NULL%1,    Mirco%Pinotti%NULL%1,    Nicola%Facciolongo%NULL%1,    Laura%Trabucco%NULL%1,    Stefano%De Pietri%NULL%1,    Giorgio Francesco%Danelli%NULL%1,    Laura%Albertazzi%NULL%1,    Enrica%Bellesia%NULL%1,    Mattia%Corradini%NULL%1,    Elena%Magnani%NULL%1,    Annalisa%Pilia%NULL%1,    Alessandra%Polese%NULL%1,    Silvia Storchi%Incerti%NULL%1,    Piera%Zaldini%NULL%1,    Bonanno%Orsola%NULL%1,    Matteo%Revelli%NULL%1,    Carlo%Salvarani%NULL%1,    Carmine%Pinto%NULL%1,    Francesco%Venturelli%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Patients with severe Coronavirus Disease 2019 (COVID-19) will progress rapidly to acute respiratory failure or death.
- We aimed to develop a quantitative tool for early predicting mortality risk of patients with COVID-19.
-Methods
-301 patients with confirmed COVID-19 admitted to Main District and Tumor Center of the Union Hospital of Huazhong University of Science and Technology (Wuhan, China) between January 1, 2020 to February 15, 2020 were enrolled in this retrospective two-centers study.
- Data on patient demographic characteristics, laboratory findings and clinical outcomes was analyzed.
- A nomogram was constructed to predict the death probability of COVID-19 patients.
-Results
-id="Par3"&gt;Age, neutrophil-to-lymphocyte ratio, d-dimer and C-reactive protein obtained on admission were identified as predictors of mortality for COVID-19 patients by LASSO.
- The nomogram demonstrated good calibration and discrimination with the area under the curve (AUC) of 0.921 and 0.975 for the derivation and validation cohort, respectively.
- An integrated score (named ANDC) with its corresponding death probability was derived.
- Using ANDC cut-off values of 59 and 101, COVID-19 patients were classified into three subgroups.
- The death probability of low risk group (ANDC &amp;lt; 59) was less than 5%, moderate risk group (59 ≤ ANDC ≤ 101) was 5% to 50%, and high risk group (ANDC &amp;gt; 101) was more than 50%, respectively.
-Conclusion
-id="Par4"&gt;The prognostic nomogram exhibited good discrimination power in early identification of COVID-19 patients with high mortality risk, and ANDC score may help physicians to optimize patient stratification management.
-</t>
-  </si>
-  <si>
-    <t>[Zhihong%Weng%NULL%1,    Qiaosen%Chen%NULL%2,    Qiaosen%Chen%NULL%0,    Sumeng%Li%NULL%1,    Huadong%Li%NULL%1,    Qian%Zhang%NULL%1,    Sihong%Lu%NULL%1,    Li%Wu%NULL%1,    Leiqun%Xiong%NULL%1,    Bobin%Mi%NULL%1,    Di%Liu%NULL%1,    Mengji%Lu%NULL%1,    Dongliang%Yang%NULL%1,    Hongbo%Jiang%hongbojiang3@163.com%1,    Shaoping%Zheng%zhengspxx@126.com%1,    Xin%Zheng%xin11@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Accurately predicting patient outcomes in Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) could aid patient management and allocation of healthcare resources.
- There are a variety of methods which can be used to develop prognostic models, ranging from logistic regression and survival analysis to more complex machine learning algorithms and deep learning.
- Despite several models having been created for SARS-CoV-2, most of these have been found to be highly susceptible to bias.
- We aimed to develop and compare two separate predictive models for death during admission with SARS-CoV-2.
-Method
-Between March 1 and April 24, 2020, 398 patients were identified with laboratory confirmed SARS-CoV-2 in a London teaching hospital.
- Data from electronic health records were extracted and used to create two predictive models using: (1) a Cox regression model and (2) an artificial neural network (ANN).
- Model performance profiles were assessed by validation, discrimination, and calibration.
-Results
-id="Par3"&gt;Both the Cox regression and ANN models achieved high accuracy (83.8%, 95% confidence interval (CI) 73.8–91.1 and 90.0%, 95% CI 81.2–95.6, respectively).
- The area under the receiver operator curve (AUROC) for the ANN (92.6%, 95% CI 91.1–94.1) was significantly greater than that of the Cox regression model (86.9%, 95% CI 85.7–88.2), p = 0.0136. Both models achieved acceptable calibration with Brier scores of 0.13 and 0.11 for the Cox model and ANN, respectively.
-Conclusion
-id="Par4"&gt;We demonstrate an ANN which is non-inferior to a Cox regression model but with potential for further development such that it can learn as new data becomes available.
- Deep learning techniques are particularly suited to complex datasets with non-linear solutions, which make them appropriate for use in conditions with a paucity of prior knowledge.
- Accurate prognostic models for SARS-CoV-2 can provide benefits at the patient, departmental and organisational level.
-</t>
-  </si>
-  <si>
-    <t>[Ahmed%Abdulaal%NULL%1,    Aatish%Patel%NULL%1,    Esmita%Charani%NULL%1,    Sarah%Denny%NULL%1,    Saleh A.%Alqahtani%NULL%1,    Gary W.%Davies%NULL%1,    Nabeela%Mughal%NULL%1,    Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 has become a major global threat.
- The present study aimed to develop a nomogram model to predict the survival of COVID-19 patients based on their clinical and laboratory data at admission.
-Methods
-COVID-19 patients who were admitted at Hankou Hospital and Huoshenshan Hospital in Wuhan, China from January 12, 2020 to March 20, 2020, whose outcome during the hospitalization was known, were retrospectively reviewed.
- The categorical variables were compared using Pearson’s χ2-test or Fisher’s exact test, and continuous variables were analyzed using Student’s t-test or Mann Whitney U-test, as appropriate.
- Then, variables with a P-value of ≤0.1 were included in the log-binomial model, and merely these independent risk factors were used to establish the nomogram model.
- The discrimination of the nomogram was evaluated using the area under the receiver operating characteristic curve (AUC), and internally verified using the Bootstrap method.
-Results
-id="Par3"&gt;A total of 262 patients (134 surviving and 128 non-surviving patients) were included in the analysis.
- Seven variables, which included age (relative risk [RR]: 0.905, 95% confidence interval [CI]: 0.868–0.944; P &amp;lt; 0.001), chronic heart disease (CHD, RR: 0.045, 95% CI: 0.0097–0.205; P &amp;lt; 0.001, the percentage of lymphocytes (Lym%, RR: 1.125, 95% CI: 1.041–1.216; P = 0.0029), platelets (RR: 1.008, 95% CI: 1.003–1.012; P = 0.001), C-reaction protein (RR: 0.982, 95% CI: 0.973–0.991; P &amp;lt; 0.001), lactate dehydrogenase (LDH, RR: 0.993, 95% CI: 0.990–0.997; P &amp;lt; 0.001) and D-dimer (RR: 0.734, 95% CI: 0.617–0.879; P &amp;lt; 0.001), were identified as the independent risk factors.
- The nomogram model based on these factors exhibited a good discrimination, with an AUC of 0.948 (95% CI: 0.923–0.973).
-Conclusions
-id="Par4"&gt;A nomogram based on age, CHD, Lym%, platelets, C-reaction protein, LDH and D-dimer was established to accurately predict the prognosis of COVID-19 patients.
- This can be used as an alerting tool for clinicians to take early intervention measures, when necessary.
-</t>
-  </si>
-  <si>
-    <t>[Xiaojun%Ma%NULL%1,    Huifang%Wang%NULL%1,    Junwei%Huang%NULL%1,    Yan%Geng%NULL%1,    Shuqi%Jiang%NULL%1,    Qiuping%Zhou%NULL%1,    Xuan%Chen%NULL%1,    Hongping%Hu%NULL%1,    Weifeng%Li%NULL%1,    Chengbin%Zhou%NULL%1,    Xinglin%Gao%NULL%1,    Na%Peng%pnatz@163.com%1,    Yiyu%Deng%yiyudeng666@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus disease 2019 (COVID-19) has become a public health emergency of global concern.
- We aimed to explore the risk factors of 14-day and 28-day mortality and develop a model for predicting 14-day and 28-day survival probability among adult hospitalized patients with COVID-19.
-Methods
-In this multicenter, retrospective, cohort study, we examined 828 hospitalized patients with confirmed COVID-19 hospitalized in Wuhan Union Hospital and Central Hospital of Wuhan between January 12 and February 9, 2020. Among the 828 patients, 516 and 186 consecutive patients admitted in Wuhan Union Hospital were enrolled in the training cohort and the validation cohort, respectively.
- A total of 126 patients hospitalized in Central Hospital of Wuhan were enrolled in a second external validation cohort.
- Demographic, clinical, radiographic, and laboratory measures; treatment; proximate causes of death; and 14-day and 28-day mortality are described.
- Patients’ data were collected by reviewing the medical records, and their 14-day and 28-day outcomes were followed up.
-Results
-Of the 828 patients, 146 deaths were recorded until May 18, 2020. In the training set, multivariate Cox regression indicated that older age, lactate dehydrogenase level over 360 U/L, neutrophil-to-lymphocyte ratio higher than 8.0, and direct bilirubin higher than 5.0 μmol/L were independent predictors of 28-day mortality.
- Nomogram scoring systems for predicting the 14-day and 28-day survival probability of patients with COVID-19 were developed and exhibited strong discrimination and calibration power in the two external validation cohorts (C-index, 0.878 and 0.839).
-Conclusion
-id="Par4"&gt;Older age, high lactate dehydrogenase level, evaluated neutrophil-to-lymphocyte ratio, and high direct bilirubin level were independent predictors of 28-day mortality in adult hospitalized patients with confirmed COVID-19. The nomogram system based on the four factors revealed good discrimination and calibration, suggesting good clinical utility.
-</t>
-  </si>
-  <si>
-    <t>[Shuai%Zhang%NULL%1,     Mengfei%Guo%NULL%1,     Limin%Duan%NULL%1,     Feng%Wu%NULL%1,     Guorong%Hu%NULL%1,     Zhihui%Wang%NULL%1,     Qi%Huang%NULL%2,     Tingting%Liao%NULL%1,     Juanjuan%Xu%NULL%1,     Yanling%Ma%NULL%1,     Zhilei%Lv%NULL%1,     Wenjing%Xiao%NULL%1,     Zilin%Zhao%NULL%1,     Xueyun%Tan%NULL%1,     Daquan%Meng%NULL%1,     Shujing%Zhang%NULL%1,     E%Zhou%NULL%1,     Zhengrong%Yin%NULL%1,     Wei%Geng%NULL%1,     Xuan%Wang%NULL%1,     Jianchu%Zhang%NULL%1,     Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,     Yu%Zhang%whxhzy@163.com%1,     Yang%Jin%whuhjy@126.com%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-One-fifth of COVID-19 patients are seriously and critically ill cases and have a worse prognosis than non-severe cases.
- Although there is no specific treatment available for COVID-19, early recognition and supportive treatment may reduce the mortality.
- The aim of this study is to develop a functional nomogram that can be used by clinicians to estimate the risk of in-hospital mortality in patients hospitalized and treated for COVID-19 disease, and to compare the accuracy of model predictions with previous nomograms.
-Methods
-This retrospective study enrolled 709 patients who were over 18 years old and received inpatient treatment for COVID-19 disease.
- Multivariable Logistic Regression analysis was performed to assess the possible predictors of a fatal outcome.
- A nomogram was developed with the possible predictors and total point were calculated.
-Results
-Of the 709 patients treated for COVID-19, 75 (11%) died and 634 survived.
- The elder age, certain comorbidities (cancer, heart failure, chronic renal failure), dyspnea, lower levels of oxygen saturation and hematocrit, higher levels of C-reactive protein, aspartate aminotransferase and ferritin were independent risk factors for mortality.
- The prediction ability of total points was excellent (Area Under Curve = 0.922).
-Conclusions
-id="Par4"&gt;The nomogram developed in this study can be used by clinicians as a practical and effective tool in mortality risk estimation.
- So that with early diagnosis and intervention mortality in COVID-19 patients may be reduced.
-</t>
-  </si>
-  <si>
-    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,     Günay%Can%NULL%2,     Günay%Can%NULL%0,     Rıdvan%Karaali%NULL%1,     Şermin%Börekçi%NULL%1,     İlker İnanç%Balkan%NULL%1,     Bilun%Gemicioğlu%NULL%1,     Dildar%Konukoğlu%NULL%1,     Ethem%Erginöz%NULL%1,     Mehmet Sarper%Erdoğan%NULL%1,     Fehmi%Tabak%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aims of this study were to develop a multiparametric prognostic model for death in COVID-19 patients and to assess the incremental value of CT disease extension over clinical parameters.
-Methods
-Consecutive patients who presented to all five of the emergency rooms of the Reggio Emilia province between February 27 and March 23, 2020, for suspected COVID-19, underwent chest CT, and had a positive swab within 10 days were included in this retrospective study.
- Age, sex, comorbidities, days from symptom onset, and laboratory data were retrieved from institutional information systems.
- CT disease extension was visually graded as &amp;lt; 20%, 20–39%, 40–59%, or ≥ 60%.
- The association between clinical and CT variables with death was estimated with univariable and multivariable Cox proportional hazards models; model performance was assessed using k-fold cross-validation for the area under the ROC curve (cvAUC).
-Results
-Of the 866 included patients (median age 59.8, women 39.2%), 93 (10.74%) died.
- Clinical variables significantly associated with death in multivariable model were age, male sex, HDL cholesterol, dementia, heart failure, vascular diseases, time from symptom onset, neutrophils, LDH, and oxygen saturation level.
- CT disease extension was also independently associated with death (HR = 7.56, 95% CI = 3.49; 16.38 for ≥ 60% extension).
- cvAUCs were 0.927 (bootstrap bias-corrected 95% CI = 0.899–0.947) for the clinical model and 0.936 (bootstrap bias-corrected 95% CI = 0.912–0.953) when adding CT extension.
-Conclusions
-id="Par4"&gt;A prognostic model based on clinical variables is highly accurate in predicting death in COVID-19 patients.
- Adding CT disease extension to the model scarcely improves its accuracy.
-Key Points
-id="Par5"&gt;
-• Early identification of COVID-19 patients at higher risk of disease progression and death is crucial; the role of CT scan in defining prognosis is unclear.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s00330-021-07993-9.
-</t>
-  </si>
-  <si>
-    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,     Marta%Ottone%NULL%2,     Marta%Ottone%NULL%0,     Tommaso%Fasano%NULL%1,     Pierpaolo%Pattacini%NULL%1,     Valentina%Iotti%NULL%1,     Lucia%Spaggiari%NULL%1,     Riccardo%Bonacini%NULL%1,     Andrea%Nitrosi%NULL%1,     Efrem%Bonelli%NULL%1,     Simone%Canovi%NULL%1,     Rossana%Colla%NULL%1,     Alessandro%Zerbini%NULL%1,     Marco%Massari%NULL%1,     Ivana%Lattuada%NULL%1,     Anna Maria%Ferrari%NULL%1,     Paolo%Giorgi Rossi%NULL%1,     Massimo%Costantini%NULL%1,     Roberto%Grilli%NULL%1,     Massimiliano%Marino%NULL%1,     Giulio%Formoso%NULL%1,     Debora%Formisano%NULL%1,     Emanuela%Bedeschi%NULL%1,     Cinzia%Perilli%NULL%1,     Elisabetta%La Rosa%NULL%1,     Eufemia%Bisaccia%NULL%1,     Ivano%Venturi%NULL%1,     Massimo%Vicentini%NULL%1,     Cinzia%Campari%NULL%1,     Francesco%Gioia%NULL%1,     Serena%Broccoli%NULL%1,     Pamela%Mancuso%NULL%1,     Marco%Foracchia%NULL%1,     Mirco%Pinotti%NULL%1,     Nicola%Facciolongo%NULL%1,     Laura%Trabucco%NULL%1,     Stefano%De Pietri%NULL%1,     Giorgio Francesco%Danelli%NULL%1,     Laura%Albertazzi%NULL%1,     Enrica%Bellesia%NULL%1,     Mattia%Corradini%NULL%1,     Elena%Magnani%NULL%1,     Annalisa%Pilia%NULL%1,     Alessandra%Polese%NULL%1,     Silvia Storchi%Incerti%NULL%1,     Piera%Zaldini%NULL%1,     Bonanno%Orsola%NULL%1,     Matteo%Revelli%NULL%1,     Carlo%Salvarani%NULL%1,     Carmine%Pinto%NULL%1,     Francesco%Venturelli%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Patients with severe Coronavirus Disease 2019 (COVID-19) will progress rapidly to acute respiratory failure or death.
- We aimed to develop a quantitative tool for early predicting mortality risk of patients with COVID-19.
-Methods
-301 patients with confirmed COVID-19 admitted to Main District and Tumor Center of the Union Hospital of Huazhong University of Science and Technology (Wuhan, China) between January 1, 2020 to February 15, 2020 were enrolled in this retrospective two-centers study.
- Data on patient demographic characteristics, laboratory findings and clinical outcomes was analyzed.
- A nomogram was constructed to predict the death probability of COVID-19 patients.
-Results
-Age, neutrophil-to-lymphocyte ratio, d-dimer and C-reactive protein obtained on admission were identified as predictors of mortality for COVID-19 patients by LASSO.
- The nomogram demonstrated good calibration and discrimination with the area under the curve (AUC) of 0.921 and 0.975 for the derivation and validation cohort, respectively.
- An integrated score (named ANDC) with its corresponding death probability was derived.
- Using ANDC cut-off values of 59 and 101, COVID-19 patients were classified into three subgroups.
- The death probability of low risk group (ANDC &amp;lt; 59) was less than 5%, moderate risk group (59 ≤ ANDC ≤ 101) was 5% to 50%, and high risk group (ANDC &amp;gt; 101) was more than 50%, respectively.
-Conclusion
-id="Par4"&gt;The prognostic nomogram exhibited good discrimination power in early identification of COVID-19 patients with high mortality risk, and ANDC score may help physicians to optimize patient stratification management.
-</t>
-  </si>
-  <si>
-    <t>[Zhihong%Weng%NULL%1,     Qiaosen%Chen%NULL%2,     Qiaosen%Chen%NULL%0,     Sumeng%Li%NULL%1,     Huadong%Li%NULL%2,     Qian%Zhang%NULL%1,     Sihong%Lu%NULL%1,     Li%Wu%NULL%1,     Leiqun%Xiong%NULL%1,     Bobin%Mi%NULL%1,     Di%Liu%NULL%1,     Mengji%Lu%NULL%1,     Dongliang%Yang%NULL%1,     Hongbo%Jiang%hongbojiang3@163.com%1,     Shaoping%Zheng%zhengspxx@126.com%1,     Xin%Zheng%xin11@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Accurately predicting patient outcomes in Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) could aid patient management and allocation of healthcare resources.
- There are a variety of methods which can be used to develop prognostic models, ranging from logistic regression and survival analysis to more complex machine learning algorithms and deep learning.
- Despite several models having been created for SARS-CoV-2, most of these have been found to be highly susceptible to bias.
- We aimed to develop and compare two separate predictive models for death during admission with SARS-CoV-2.
-Method
-Between March 1 and April 24, 2020, 398 patients were identified with laboratory confirmed SARS-CoV-2 in a London teaching hospital.
- Data from electronic health records were extracted and used to create two predictive models using: (1) a Cox regression model and (2) an artificial neural network (ANN).
- Model performance profiles were assessed by validation, discrimination, and calibration.
-Results
-Both the Cox regression and ANN models achieved high accuracy (83.8%, 95% confidence interval (CI) 73.8–91.1 and 90.0%, 95% CI 81.2–95.6, respectively).
- The area under the receiver operator curve (AUROC) for the ANN (92.6%, 95% CI 91.1–94.1) was significantly greater than that of the Cox regression model (86.9%, 95% CI 85.7–88.2), p = 0.0136. Both models achieved acceptable calibration with Brier scores of 0.13 and 0.11 for the Cox model and ANN, respectively.
-Conclusion
-id="Par4"&gt;We demonstrate an ANN which is non-inferior to a Cox regression model but with potential for further development such that it can learn as new data becomes available.
- Deep learning techniques are particularly suited to complex datasets with non-linear solutions, which make them appropriate for use in conditions with a paucity of prior knowledge.
- Accurate prognostic models for SARS-CoV-2 can provide benefits at the patient, departmental and organisational level.
-</t>
-  </si>
-  <si>
-    <t>[Ahmed%Abdulaal%NULL%1,     Aatish%Patel%NULL%1,     Esmita%Charani%NULL%1,     Sarah%Denny%NULL%1,     Saleh A.%Alqahtani%NULL%1,     Gary W.%Davies%NULL%1,     Nabeela%Mughal%NULL%1,     Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 has become a major global threat.
- The present study aimed to develop a nomogram model to predict the survival of COVID-19 patients based on their clinical and laboratory data at admission.
-Methods
-COVID-19 patients who were admitted at Hankou Hospital and Huoshenshan Hospital in Wuhan, China from January 12, 2020 to March 20, 2020, whose outcome during the hospitalization was known, were retrospectively reviewed.
- The categorical variables were compared using Pearson’s χ2-test or Fisher’s exact test, and continuous variables were analyzed using Student’s t-test or Mann Whitney U-test, as appropriate.
- Then, variables with a P-value of ≤0.1 were included in the log-binomial model, and merely these independent risk factors were used to establish the nomogram model.
- The discrimination of the nomogram was evaluated using the area under the receiver operating characteristic curve (AUC), and internally verified using the Bootstrap method.
-Results
-A total of 262 patients (134 surviving and 128 non-surviving patients) were included in the analysis.
- Seven variables, which included age (relative risk [RR]: 0.905, 95% confidence interval [CI]: 0.868–0.944; P &amp;lt; 0.001), chronic heart disease (CHD, RR: 0.045, 95% CI: 0.0097–0.205; P &amp;lt; 0.001, the percentage of lymphocytes (Lym%, RR: 1.125, 95% CI: 1.041–1.216; P = 0.0029), platelets (RR: 1.008, 95% CI: 1.003–1.012; P = 0.001), C-reaction protein (RR: 0.982, 95% CI: 0.973–0.991; P &amp;lt; 0.001), lactate dehydrogenase (LDH, RR: 0.993, 95% CI: 0.990–0.997; P &amp;lt; 0.001) and D-dimer (RR: 0.734, 95% CI: 0.617–0.879; P &amp;lt; 0.001), were identified as the independent risk factors.
- The nomogram model based on these factors exhibited a good discrimination, with an AUC of 0.948 (95% CI: 0.923–0.973).
-Conclusions
-id="Par4"&gt;A nomogram based on age, CHD, Lym%, platelets, C-reaction protein, LDH and D-dimer was established to accurately predict the prognosis of COVID-19 patients.
- This can be used as an alerting tool for clinicians to take early intervention measures, when necessary.
-</t>
-  </si>
-  <si>
-    <t>[Xiaojun%Ma%NULL%1,     Huifang%Wang%NULL%1,     Junwei%Huang%NULL%1,     Yan%Geng%NULL%1,     Shuqi%Jiang%NULL%1,     Qiuping%Zhou%NULL%1,     Xuan%Chen%NULL%1,     Hongping%Hu%NULL%1,     Weifeng%Li%NULL%1,     Chengbin%Zhou%NULL%1,     Xinglin%Gao%NULL%1,     Na%Peng%pnatz@163.com%1,     Yiyu%Deng%yiyudeng666@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Coronavirus disease 2019 (COVID-19) has become a public health emergency of global concern.
- We aimed to explore the risk factors of 14-day and 28-day mortality and develop a model for predicting 14-day and 28-day survival probability among adult hospitalized patients with COVID-19.
-Methods
-In this multicenter, retrospective, cohort study, we examined 828 hospitalized patients with confirmed COVID-19 hospitalized in Wuhan Union Hospital and Central Hospital of Wuhan between January 12 and February 9, 2020. Among the 828 patients, 516 and 186 consecutive patients admitted in Wuhan Union Hospital were enrolled in the training cohort and the validation cohort, respectively.
- A total of 126 patients hospitalized in Central Hospital of Wuhan were enrolled in a second external validation cohort.
- Demographic, clinical, radiographic, and laboratory measures; treatment; proximate causes of death; and 14-day and 28-day mortality are described.
- Patients’ data were collected by reviewing the medical records, and their 14-day and 28-day outcomes were followed up.
-Results
-Of the 828 patients, 146 deaths were recorded until May 18, 2020. In the training set, multivariate Cox regression indicated that older age, lactate dehydrogenase level over 360 U/L, neutrophil-to-lymphocyte ratio higher than 8.0, and direct bilirubin higher than 5.0 μmol/L were independent predictors of 28-day mortality.
- Nomogram scoring systems for predicting the 14-day and 28-day survival probability of patients with COVID-19 were developed and exhibited strong discrimination and calibration power in the two external validation cohorts (C-index, 0.878 and 0.839).
-Conclusion
-Older age, high lactate dehydrogenase level, evaluated neutrophil-to-lymphocyte ratio, and high direct bilirubin level were independent predictors of 28-day mortality in adult hospitalized patients with confirmed COVID-19. The nomogram system based on the four factors revealed good discrimination and calibration, suggesting good clinical utility.
-</t>
-  </si>
-  <si>
-    <t>[Shuai%Zhang%NULL%1,      Mengfei%Guo%NULL%1,      Limin%Duan%NULL%1,      Feng%Wu%NULL%1,      Guorong%Hu%NULL%1,      Zhihui%Wang%NULL%1,      Qi%Huang%NULL%1,      Tingting%Liao%NULL%1,      Juanjuan%Xu%NULL%1,      Yanling%Ma%NULL%1,      Zhilei%Lv%NULL%1,      Wenjing%Xiao%NULL%1,      Zilin%Zhao%NULL%1,      Xueyun%Tan%NULL%1,      Daquan%Meng%NULL%1,      Shujing%Zhang%NULL%1,      E%Zhou%NULL%1,      Zhengrong%Yin%NULL%1,      Wei%Geng%NULL%1,      Xuan%Wang%NULL%1,      Jianchu%Zhang%NULL%1,      Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,      Yu%Zhang%whxhzy@163.com%1,      Yang%Jin%whuhjy@126.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-One-fifth of COVID-19 patients are seriously and critically ill cases and have a worse prognosis than non-severe cases.
- Although there is no specific treatment available for COVID-19, early recognition and supportive treatment may reduce the mortality.
- The aim of this study is to develop a functional nomogram that can be used by clinicians to estimate the risk of in-hospital mortality in patients hospitalized and treated for COVID-19 disease, and to compare the accuracy of model predictions with previous nomograms.
-Methods
-This retrospective study enrolled 709 patients who were over 18 years old and received inpatient treatment for COVID-19 disease.
- Multivariable Logistic Regression analysis was performed to assess the possible predictors of a fatal outcome.
- A nomogram was developed with the possible predictors and total point were calculated.
-Results
-Of the 709 patients treated for COVID-19, 75 (11%) died and 634 survived.
- The elder age, certain comorbidities (cancer, heart failure, chronic renal failure), dyspnea, lower levels of oxygen saturation and hematocrit, higher levels of C-reactive protein, aspartate aminotransferase and ferritin were independent risk factors for mortality.
- The prediction ability of total points was excellent (Area Under Curve = 0.922).
-Conclusions
-The nomogram developed in this study can be used by clinicians as a practical and effective tool in mortality risk estimation.
- So that with early diagnosis and intervention mortality in COVID-19 patients may be reduced.
-</t>
-  </si>
-  <si>
-    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,      Günay%Can%NULL%2,      Günay%Can%NULL%0,      Rıdvan%Karaali%NULL%1,      Şermin%Börekçi%NULL%1,      İlker İnanç%Balkan%NULL%1,      Bilun%Gemicioğlu%NULL%1,      Dildar%Konukoğlu%NULL%1,      Ethem%Erginöz%NULL%1,      Mehmet Sarper%Erdoğan%NULL%1,      Fehmi%Tabak%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aims of this study were to develop a multiparametric prognostic model for death in COVID-19 patients and to assess the incremental value of CT disease extension over clinical parameters.
-Methods
-Consecutive patients who presented to all five of the emergency rooms of the Reggio Emilia province between February 27 and March 23, 2020, for suspected COVID-19, underwent chest CT, and had a positive swab within 10 days were included in this retrospective study.
- Age, sex, comorbidities, days from symptom onset, and laboratory data were retrieved from institutional information systems.
- CT disease extension was visually graded as &amp;lt; 20%, 20–39%, 40–59%, or ≥ 60%.
- The association between clinical and CT variables with death was estimated with univariable and multivariable Cox proportional hazards models; model performance was assessed using k-fold cross-validation for the area under the ROC curve (cvAUC).
-Results
-Of the 866 included patients (median age 59.8, women 39.2%), 93 (10.74%) died.
- Clinical variables significantly associated with death in multivariable model were age, male sex, HDL cholesterol, dementia, heart failure, vascular diseases, time from symptom onset, neutrophils, LDH, and oxygen saturation level.
- CT disease extension was also independently associated with death (HR = 7.56, 95% CI = 3.49; 16.38 for ≥ 60% extension).
- cvAUCs were 0.927 (bootstrap bias-corrected 95% CI = 0.899–0.947) for the clinical model and 0.936 (bootstrap bias-corrected 95% CI = 0.912–0.953) when adding CT extension.
-Conclusions
-A prognostic model based on clinical variables is highly accurate in predicting death in COVID-19 patients.
- Adding CT disease extension to the model scarcely improves its accuracy.
-Key Points
-id="Par5"&gt;
-• Early identification of COVID-19 patients at higher risk of disease progression and death is crucial; the role of CT scan in defining prognosis is unclear.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s00330-021-07993-9.
-</t>
-  </si>
-  <si>
-    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,      Marta%Ottone%NULL%2,      Marta%Ottone%NULL%0,      Tommaso%Fasano%NULL%1,      Pierpaolo%Pattacini%NULL%1,      Valentina%Iotti%NULL%1,      Lucia%Spaggiari%NULL%1,      Riccardo%Bonacini%NULL%1,      Andrea%Nitrosi%NULL%1,      Efrem%Bonelli%NULL%1,      Simone%Canovi%NULL%1,      Rossana%Colla%NULL%1,      Alessandro%Zerbini%NULL%1,      Marco%Massari%NULL%1,      Ivana%Lattuada%NULL%1,      Anna Maria%Ferrari%NULL%1,      Paolo%Giorgi Rossi%NULL%1,      Massimo%Costantini%NULL%1,      Roberto%Grilli%NULL%1,      Massimiliano%Marino%NULL%1,      Giulio%Formoso%NULL%1,      Debora%Formisano%NULL%1,      Emanuela%Bedeschi%NULL%1,      Cinzia%Perilli%NULL%1,      Elisabetta%La Rosa%NULL%1,      Eufemia%Bisaccia%NULL%1,      Ivano%Venturi%NULL%1,      Massimo%Vicentini%NULL%1,      Cinzia%Campari%NULL%1,      Francesco%Gioia%NULL%1,      Serena%Broccoli%NULL%1,      Pamela%Mancuso%NULL%1,      Marco%Foracchia%NULL%1,      Mirco%Pinotti%NULL%1,      Nicola%Facciolongo%NULL%1,      Laura%Trabucco%NULL%1,      Stefano%De Pietri%NULL%1,      Giorgio Francesco%Danelli%NULL%1,      Laura%Albertazzi%NULL%1,      Enrica%Bellesia%NULL%1,      Mattia%Corradini%NULL%1,      Elena%Magnani%NULL%1,      Annalisa%Pilia%NULL%1,      Alessandra%Polese%NULL%1,      Silvia Storchi%Incerti%NULL%1,      Piera%Zaldini%NULL%1,      Bonanno%Orsola%NULL%1,      Matteo%Revelli%NULL%1,      Carlo%Salvarani%NULL%1,      Carmine%Pinto%NULL%1,      Francesco%Venturelli%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Patients with severe Coronavirus Disease 2019 (COVID-19) will progress rapidly to acute respiratory failure or death.
- We aimed to develop a quantitative tool for early predicting mortality risk of patients with COVID-19.
-Methods
-301 patients with confirmed COVID-19 admitted to Main District and Tumor Center of the Union Hospital of Huazhong University of Science and Technology (Wuhan, China) between January 1, 2020 to February 15, 2020 were enrolled in this retrospective two-centers study.
- Data on patient demographic characteristics, laboratory findings and clinical outcomes was analyzed.
- A nomogram was constructed to predict the death probability of COVID-19 patients.
-Results
-Age, neutrophil-to-lymphocyte ratio, d-dimer and C-reactive protein obtained on admission were identified as predictors of mortality for COVID-19 patients by LASSO.
- The nomogram demonstrated good calibration and discrimination with the area under the curve (AUC) of 0.921 and 0.975 for the derivation and validation cohort, respectively.
- An integrated score (named ANDC) with its corresponding death probability was derived.
- Using ANDC cut-off values of 59 and 101, COVID-19 patients were classified into three subgroups.
- The death probability of low risk group (ANDC &amp;lt; 59) was less than 5%, moderate risk group (59 ≤ ANDC ≤ 101) was 5% to 50%, and high risk group (ANDC &amp;gt; 101) was more than 50%, respectively.
-Conclusion
-The prognostic nomogram exhibited good discrimination power in early identification of COVID-19 patients with high mortality risk, and ANDC score may help physicians to optimize patient stratification management.
-</t>
-  </si>
-  <si>
-    <t>[Zhihong%Weng%NULL%1,      Qiaosen%Chen%NULL%2,      Qiaosen%Chen%NULL%0,      Sumeng%Li%NULL%1,      Huadong%Li%NULL%1,      Qian%Zhang%NULL%1,      Sihong%Lu%NULL%1,      Li%Wu%NULL%1,      Leiqun%Xiong%NULL%1,      Bobin%Mi%NULL%1,      Di%Liu%NULL%1,      Mengji%Lu%NULL%1,      Dongliang%Yang%NULL%1,      Hongbo%Jiang%hongbojiang3@163.com%1,      Shaoping%Zheng%zhengspxx@126.com%1,      Xin%Zheng%xin11@hotmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Accurately predicting patient outcomes in Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) could aid patient management and allocation of healthcare resources.
- There are a variety of methods which can be used to develop prognostic models, ranging from logistic regression and survival analysis to more complex machine learning algorithms and deep learning.
- Despite several models having been created for SARS-CoV-2, most of these have been found to be highly susceptible to bias.
- We aimed to develop and compare two separate predictive models for death during admission with SARS-CoV-2.
-Method
-Between March 1 and April 24, 2020, 398 patients were identified with laboratory confirmed SARS-CoV-2 in a London teaching hospital.
- Data from electronic health records were extracted and used to create two predictive models using: (1) a Cox regression model and (2) an artificial neural network (ANN).
- Model performance profiles were assessed by validation, discrimination, and calibration.
-Results
-Both the Cox regression and ANN models achieved high accuracy (83.8%, 95% confidence interval (CI) 73.8–91.1 and 90.0%, 95% CI 81.2–95.6, respectively).
- The area under the receiver operator curve (AUROC) for the ANN (92.6%, 95% CI 91.1–94.1) was significantly greater than that of the Cox regression model (86.9%, 95% CI 85.7–88.2), p = 0.0136. Both models achieved acceptable calibration with Brier scores of 0.13 and 0.11 for the Cox model and ANN, respectively.
-Conclusion
-We demonstrate an ANN which is non-inferior to a Cox regression model but with potential for further development such that it can learn as new data becomes available.
- Deep learning techniques are particularly suited to complex datasets with non-linear solutions, which make them appropriate for use in conditions with a paucity of prior knowledge.
- Accurate prognostic models for SARS-CoV-2 can provide benefits at the patient, departmental and organisational level.
-</t>
-  </si>
-  <si>
-    <t>[Ahmed%Abdulaal%NULL%1,      Aatish%Patel%NULL%1,      Esmita%Charani%NULL%1,      Sarah%Denny%NULL%1,      Saleh A.%Alqahtani%NULL%1,      Gary W.%Davies%NULL%1,      Nabeela%Mughal%NULL%1,      Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 has become a major global threat.
- The present study aimed to develop a nomogram model to predict the survival of COVID-19 patients based on their clinical and laboratory data at admission.
-Methods
-COVID-19 patients who were admitted at Hankou Hospital and Huoshenshan Hospital in Wuhan, China from January 12, 2020 to March 20, 2020, whose outcome during the hospitalization was known, were retrospectively reviewed.
- The categorical variables were compared using Pearson’s χ2-test or Fisher’s exact test, and continuous variables were analyzed using Student’s t-test or Mann Whitney U-test, as appropriate.
- Then, variables with a P-value of ≤0.1 were included in the log-binomial model, and merely these independent risk factors were used to establish the nomogram model.
- The discrimination of the nomogram was evaluated using the area under the receiver operating characteristic curve (AUC), and internally verified using the Bootstrap method.
-Results
-A total of 262 patients (134 surviving and 128 non-surviving patients) were included in the analysis.
- Seven variables, which included age (relative risk [RR]: 0.905, 95% confidence interval [CI]: 0.868–0.944; P &amp;lt; 0.001), chronic heart disease (CHD, RR: 0.045, 95% CI: 0.0097–0.205; P &amp;lt; 0.001, the percentage of lymphocytes (Lym%, RR: 1.125, 95% CI: 1.041–1.216; P = 0.0029), platelets (RR: 1.008, 95% CI: 1.003–1.012; P = 0.001), C-reaction protein (RR: 0.982, 95% CI: 0.973–0.991; P &amp;lt; 0.001), lactate dehydrogenase (LDH, RR: 0.993, 95% CI: 0.990–0.997; P &amp;lt; 0.001) and D-dimer (RR: 0.734, 95% CI: 0.617–0.879; P &amp;lt; 0.001), were identified as the independent risk factors.
- The nomogram model based on these factors exhibited a good discrimination, with an AUC of 0.948 (95% CI: 0.923–0.973).
-Conclusions
-A nomogram based on age, CHD, Lym%, platelets, C-reaction protein, LDH and D-dimer was established to accurately predict the prognosis of COVID-19 patients.
- This can be used as an alerting tool for clinicians to take early intervention measures, when necessary.
-</t>
-  </si>
-  <si>
-    <t>[Xiaojun%Ma%NULL%1,      Huifang%Wang%NULL%1,      Junwei%Huang%NULL%1,      Yan%Geng%NULL%1,      Shuqi%Jiang%NULL%1,      Qiuping%Zhou%NULL%1,      Xuan%Chen%NULL%1,      Hongping%Hu%NULL%1,      Weifeng%Li%NULL%1,      Chengbin%Zhou%NULL%1,      Xinglin%Gao%NULL%1,      Na%Peng%pnatz@163.com%1,      Yiyu%Deng%yiyudeng666@163.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aims of this study were to develop a multiparametric prognostic model for death in COVID-19 patients and to assess the incremental value of CT disease extension over clinical parameters.
-Methods
-Consecutive patients who presented to all five of the emergency rooms of the Reggio Emilia province between February 27 and March 23, 2020, for suspected COVID-19, underwent chest CT, and had a positive swab within 10 days were included in this retrospective study.
- Age, sex, comorbidities, days from symptom onset, and laboratory data were retrieved from institutional information systems.
- CT disease extension was visually graded as &amp;lt; 20%, 20–39%, 40–59%, or ≥ 60%.
- The association between clinical and CT variables with death was estimated with univariable and multivariable Cox proportional hazards models; model performance was assessed using k-fold cross-validation for the area under the ROC curve (cvAUC).
-Results
-Of the 866 included patients (median age 59.8, women 39.2%), 93 (10.74%) died.
- Clinical variables significantly associated with death in multivariable model were age, male sex, HDL cholesterol, dementia, heart failure, vascular diseases, time from symptom onset, neutrophils, LDH, and oxygen saturation level.
- CT disease extension was also independently associated with death (HR = 7.56, 95% CI = 3.49; 16.38 for ≥ 60% extension).
- cvAUCs were 0.927 (bootstrap bias-corrected 95% CI = 0.899–0.947) for the clinical model and 0.936 (bootstrap bias-corrected 95% CI = 0.912–0.953) when adding CT extension.
-Conclusions
-A prognostic model based on clinical variables is highly accurate in predicting death in COVID-19 patients.
- Adding CT disease extension to the model scarcely improves its accuracy.
-Key Points
-• Early identification of COVID-19 patients at higher risk of disease progression and death is crucial; the role of CT scan in defining prognosis is unclear.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s00330-021-07993-9.
-</t>
-  </si>
-  <si>
-    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,       Marta%Ottone%NULL%2,       Marta%Ottone%NULL%0,       Tommaso%Fasano%NULL%1,       Pierpaolo%Pattacini%NULL%1,       Valentina%Iotti%NULL%1,       Lucia%Spaggiari%NULL%1,       Riccardo%Bonacini%NULL%1,       Andrea%Nitrosi%NULL%1,       Efrem%Bonelli%NULL%1,       Simone%Canovi%NULL%1,       Rossana%Colla%NULL%1,       Alessandro%Zerbini%NULL%1,       Marco%Massari%NULL%1,       Ivana%Lattuada%NULL%1,       Anna Maria%Ferrari%NULL%1,       Paolo%Giorgi Rossi%NULL%1,       Massimo%Costantini%NULL%1,       Roberto%Grilli%NULL%0,       Massimiliano%Marino%NULL%0,       Giulio%Formoso%NULL%1,       Debora%Formisano%NULL%0,       Emanuela%Bedeschi%NULL%1,       Cinzia%Perilli%NULL%1,       Elisabetta%La Rosa%NULL%1,       Eufemia%Bisaccia%NULL%1,       Ivano%Venturi%NULL%1,       Massimo%Vicentini%NULL%0,       Cinzia%Campari%NULL%1,       Francesco%Gioia%NULL%1,       Serena%Broccoli%NULL%1,       Pamela%Mancuso%NULL%1,       Marco%Foracchia%NULL%1,       Mirco%Pinotti%NULL%1,       Nicola%Facciolongo%NULL%1,       Laura%Trabucco%NULL%1,       Stefano%De Pietri%NULL%1,       Giorgio Francesco%Danelli%NULL%1,       Laura%Albertazzi%NULL%1,       Enrica%Bellesia%NULL%1,       Mattia%Corradini%NULL%1,       Elena%Magnani%NULL%1,       Annalisa%Pilia%NULL%1,       Alessandra%Polese%NULL%1,       Silvia Storchi%Incerti%NULL%1,       Piera%Zaldini%NULL%1,       Bonanno%Orsola%NULL%1,       Matteo%Revelli%NULL%1,       Carlo%Salvarani%NULL%1,       Carmine%Pinto%NULL%1,       Francesco%Venturelli%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2844,10 +2227,10 @@
         <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>384</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -2922,10 +2305,10 @@
         <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>430</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>431</v>
+        <v>335</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -3078,10 +2461,10 @@
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>432</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>433</v>
+        <v>341</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -3130,10 +2513,10 @@
         <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>442</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>343</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -3182,10 +2565,10 @@
         <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>392</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -3624,10 +3007,10 @@
         <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>394</v>
+        <v>206</v>
       </c>
       <c r="E33" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -4014,10 +3397,10 @@
         <v>256</v>
       </c>
       <c r="D48" t="s">
-        <v>436</v>
+        <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>437</v>
+        <v>368</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -4118,10 +3501,10 @@
         <v>276</v>
       </c>
       <c r="D52" t="s">
-        <v>438</v>
+        <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>439</v>
+        <v>372</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -4144,10 +3527,10 @@
         <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -4274,10 +3657,10 @@
         <v>300</v>
       </c>
       <c r="D58" t="s">
-        <v>402</v>
+        <v>301</v>
       </c>
       <c r="E58" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -4352,10 +3735,10 @@
         <v>315</v>
       </c>
       <c r="D61" t="s">
-        <v>440</v>
+        <v>316</v>
       </c>
       <c r="E61" t="s">
-        <v>441</v>
+        <v>380</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="441">
   <si>
     <t>Doi</t>
   </si>
@@ -1816,6 +1816,177 @@
   </si>
   <si>
     <t>[Sonsoles%Salto-Alejandre%NULL%0,  Cristina%Roca-Oporto%NULL%0,  Guillermo%Martín-Gutiérrez%NULL%0,  María Dolores%Avilés%NULL%0,  Carmen%Gómez-González%NULL%0,  María Dolores%Navarro-Amuedo%NULL%0,  Julia%Praena-Segovia%NULL%0,  José%Molina%NULL%0,  María%Paniagua-García%NULL%0,  Horacio%García-Delgado%NULL%0,  Antonio%Domínguez-Petit%NULL%0,  Jerónimo%Pachón%NULL%0,  José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,   Min%He%NULL%1,   Wanhong%Yin%NULL%1,   Xuelian%Liao%NULL%1,   Bo%Wang%NULL%7,   Xiaodong%Jin%NULL%1,   Yao%Ma%NULL%3,   Jirong%Yue%NULL%1,   Lang%Bai%NULL%1,   Dan%Liu%NULL%2,   Ting%Zhu%NULL%1,   Zhixin%Huang%NULL%1,   Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,   Shuchang%Zhou%NULL%1,   Yujin%Wang%NULL%1,   Wenzhi%Lv%NULL%2,   Shili%Wang%NULL%1,   Ting%Wang%751884926@qq.com%1,   Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,   Yan-chak%Li%NULL%1,   Sonali%Bose%NULL%0,   Ravi%Iyengar%NULL%1,   Supinda%Bunyavanich%NULL%1,   Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%2,    Hai-Tao%Zhang%null%1,    Jorge%Goncalves%null%1,    Yang%Xiao%null%1,    Maolin%Wang%null%1,    Yuqi%Guo%null%1,    Chuan%Sun%null%1,    Xiuchuan%Tang%null%1,    Liang%Jing%null%1,    Mingyang%Zhang%null%1,    Xiang%Huang%null%1,    Ying%Xiao%null%1,    Haosen%Cao%null%1,    Yanyan%Chen%null%1,    Tongxin%Ren%null%1,    Fang%Wang%null%1,    Yaru%Xiao%null%1,    Sufang%Huang%null%1,    Xi%Tan%null%1,    Niannian%Huang%null%1,    Bo%Jiao%null%1,    Cheng%Cheng%null%1,    Yong%Zhang%null%1,    Ailin%Luo%null%1,    Laurent%Mombaerts%null%1,    Junyang%Jin%null%1,    Zhiguo%Cao%null%1,    Shusheng%Li%null%4,    Hui%Xu%null%1,    Ye%Yuan%null%1,  Li%Yan%null%0,  Hai-Tao%Zhang%null%1,  Jorge%Goncalves%null%1,  Yang%Xiao%null%1,  Maolin%Wang%null%1,  Yuqi%Guo%null%1,  Chuan%Sun%null%1,  Xiuchuan%Tang%null%1,  Liang%Jing%null%1,  Mingyang%Zhang%null%1,  Xiang%Huang%null%1,  Ying%Xiao%null%1,  Haosen%Cao%null%1,  Yanyan%Chen%null%1,  Tongxin%Ren%null%1,  Fang%Wang%null%1,  Yaru%Xiao%null%1,  Sufang%Huang%null%1,  Xi%Tan%null%1,  Niannian%Huang%null%1,  Bo%Jiao%null%1,  Cheng%Cheng%null%1,  Yong%Zhang%null%1,  Ailin%Luo%null%1,  Laurent%Mombaerts%null%1,  Junyang%Jin%null%1,  Zhiguo%Cao%null%1,  Shusheng%Li%null%1,  Hui%Xu%null%1,  Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,   Mengfei%Guo%NULL%1,   Limin%Duan%NULL%1,   Feng%Wu%NULL%1,   Guorong%Hu%NULL%1,   Zhihui%Wang%NULL%1,   Qi%Huang%NULL%2,   Tingting%Liao%NULL%1,   Juanjuan%Xu%NULL%1,   Yanling%Ma%NULL%1,   Zhilei%Lv%NULL%1,   Wenjing%Xiao%NULL%1,   Zilin%Zhao%NULL%1,   Xueyun%Tan%NULL%1,   Daquan%Meng%NULL%1,   Shujing%Zhang%NULL%1,   E%Zhou%NULL%1,   Zhengrong%Yin%NULL%1,   Wei%Geng%NULL%1,   Xuan%Wang%NULL%1,   Jianchu%Zhang%NULL%1,   Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,   Yu%Zhang%whxhzy@163.com%0,   Yang%Jin%whuhjy@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,   Francesco%Arru%NULL%2,   Francesco%Arru%NULL%0,   Andrea%De Vito%NULL%3,   Alessandro%Sassu%NULL%2,   Alessandro%Sassu%NULL%0,   Giovanni%Valdes%NULL%1,   Valentina%Scano%NULL%1,   Elisabetta%Zinellu%NULL%1,   Roberto%Perra%NULL%1,   Giordano%Madeddu%NULL%3,   Ciriaco%Carru%NULL%1,   Pietro%Pirina%NULL%3,   Arduino A.%Mangoni%NULL%2,   Arduino A.%Mangoni%NULL%0,   Sergio%Babudieri%NULL%4,   Sergio%Babudieri%NULL%0,   Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,   Pablo%Ryan%NULL%3,   Jorge%Valencia%NULL%2,   Jorge%Valencia%NULL%0,   Mario%Pérez-Butragueño%NULL%2,   Mario%Pérez-Butragueño%NULL%0,   Eva%Jiménez%NULL%2,   Eva%Jiménez%NULL%0,   Mario%Fontán-Vela%NULL%1,   Elsa%Izquierdo-García%NULL%2,   Elsa%Izquierdo-García%NULL%0,   Inés%Fernandez-Jimenez%NULL%1,   Elena%Álvaro-Alonso%NULL%1,   Andrea%Lazaro%NULL%2,   Andrea%Lazaro%NULL%0,   Marta%Alvarado%NULL%1,   Helena%Notario%NULL%1,   Salvador%Resino%NULL%1,   Daniel%Velez-Serrano%NULL%1,   Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,   Yiru%Wang%NULL%4,   Xuecheng%Zhao%NULL%1,   Lixuan%Wang%NULL%1,   Feng%Liu%NULL%4,   Tao%Wang%NULL%0,   Dawei%Ye%NULL%4,   Yongman%Lv%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,   Valentina%Zuccaro%NULL%1,   Luca%Novelli%NULL%1,   Lorenzo%Zileri%NULL%2,   Lorenzo%Zileri%NULL%0,   Ciro%Celsa%NULL%1,   Federico%Raimondi%NULL%2,   Federico%Raimondi%NULL%0,   Mauro%Gori%NULL%1,   Giulia%Cammà%NULL%1,   Salvatore%Battaglia%NULL%1,   Vincenzo Giuseppe%Genova%NULL%1,   Laura%Paris%NULL%1,   Matteo%Tacelli%NULL%1,   Francesco Antonio%Mancarella%NULL%1,   Marco%Enea%NULL%1,   Massimo%Attanasio%NULL%1,   Michele%Senni%NULL%1,   Fabiano%Di Marco%NULL%1,   Luca Ferdinando%Lorini%NULL%1,   Stefano%Fagiuoli%NULL%1,   Raffaele%Bruno%NULL%2,   Calogero%Cammà%NULL%1,   Antonio%Gasbarrini%NULL%1,   Francesco%Di Gennaro%NULL%2,   Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,   Gan-xun%Li%NULL%1,   Lin%Chen%NULL%2,   Chang%Shu%NULL%1,   Jia%Song%NULL%1,   Wei%Wang%NULL%0,   Yu-wei%Wang%NULL%1,   Qian%Chen%NULL%2,   Guan-nan%Jin%NULL%1,   Tong-tong%Liu%NULL%1,   Jun-nan%Liang%NULL%1,   Peng%Zhu%NULL%1,   Wei%Zhu%NULL%3,   Yong%Li%NULL%3,   Bin-hao%Zhang%NULL%1,   Huan%Feng%NULL%1,   Wan-guang%Zhang%NULL%1,   Zhen-yu%Yin%NULL%1,   Wen-kui%Yu%NULL%1,   Yang%Yang%NULL%0,   Hua-qiu%Zhang%NULL%1,   Zhou-ping%Tang%NULL%1,   Hui%Wang%NULL%2,   Jun-bo%Hu%NULL%1,   Ji-hong%Liu%NULL%1,   Ping%Yin%NULL%1,   Xiao-ping%Chen%NULL%1,   Bixiang%Zhang%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,   Günay%Can%NULL%2,   Günay%Can%NULL%0,   Rıdvan%Karaali%NULL%1,   Şermin%Börekçi%NULL%1,   İlker İnanç%Balkan%NULL%1,   Bilun%Gemicioğlu%NULL%1,   Dildar%Konukoğlu%NULL%1,   Ethem%Erginöz%NULL%1,   Mehmet Sarper%Erdoğan%NULL%1,   Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,   Danila%Azzolina%NULL%1,   Eyal%Hayden%NULL%2,   Eyal%Hayden%NULL%0,   Gianluca%Gaidano%NULL%2,   Gianluca%Gaidano%NULL%0,   Mario%Pirisi%NULL%2,   Mario%Pirisi%NULL%0,   Antonio%Acquaviva%NULL%2,   Antonio%Acquaviva%NULL%0,   Gianluca%Aimaretti%NULL%2,   Gianluca%Aimaretti%NULL%0,   Paolo%Aluffi Valletti%NULL%3,   Paolo%Aluffi Valletti%NULL%0,   Roberto%Angilletta%NULL%2,   Roberto%Angilletta%NULL%0,   Roberto%Arioli%NULL%2,   Roberto%Arioli%NULL%0,   Gian Carlo%Avanzi%NULL%2,   Gian Carlo%Avanzi%NULL%0,   Gianluca%Avino%NULL%2,   Gianluca%Avino%NULL%0,   Piero Emilio%Balbo%NULL%2,   Piero Emilio%Balbo%NULL%0,   Giulia%Baldon%NULL%2,   Giulia%Baldon%NULL%0,   Francesca%Baorda%NULL%2,   Francesca%Baorda%NULL%0,   Emanuela%Barbero%NULL%2,   Emanuela%Barbero%NULL%0,   Alessio%Baricich%NULL%2,   Alessio%Baricich%NULL%0,   Michela%Barini%NULL%2,   Michela%Barini%NULL%0,   Francesco%Barone-Adesi%NULL%2,   Francesco%Barone-Adesi%NULL%0,   Sofia%Battistini%NULL%2,   Sofia%Battistini%NULL%0,   Michela%Beltrame%NULL%2,   Michela%Beltrame%NULL%0,   Matteo%Bertoli%NULL%2,   Matteo%Bertoli%NULL%0,   Stephanie%Bertolin%NULL%2,   Stephanie%Bertolin%NULL%0,   Marinella%Bertolotti%NULL%2,   Marinella%Bertolotti%NULL%0,   Marta%Betti%NULL%2,   Marta%Betti%NULL%0,   Flavio%Bobbio%NULL%2,   Flavio%Bobbio%NULL%0,   Paolo%Boffano%NULL%2,   Paolo%Boffano%NULL%0,   Lucio%Boglione%NULL%2,   Lucio%Boglione%NULL%0,   Silvio%Borrè%NULL%2,   Silvio%Borrè%NULL%0,   Matteo%Brucoli%NULL%2,   Matteo%Brucoli%NULL%0,   Elisa%Calzaducca%NULL%2,   Elisa%Calzaducca%NULL%0,   Edoardo%Cammarata%NULL%2,   Edoardo%Cammarata%NULL%0,   Vincenzo%Cantaluppi%NULL%2,   Vincenzo%Cantaluppi%NULL%0,   Roberto%Cantello%NULL%2,   Roberto%Cantello%NULL%0,   Andrea%Capponi%NULL%2,   Andrea%Capponi%NULL%0,   Alessandro%Carriero%NULL%2,   Alessandro%Carriero%NULL%0,   Giuseppe Francesco%Casciaro%NULL%2,   Giuseppe Francesco%Casciaro%NULL%0,   Luigi Mario%Castello%NULL%2,   Luigi Mario%Castello%NULL%0,   Federico%Ceruti%NULL%2,   Federico%Ceruti%NULL%0,   Guido%Chichino%NULL%2,   Guido%Chichino%NULL%0,   Emilio%Chirico%NULL%2,   Emilio%Chirico%NULL%0,   Carlo%Cisari%NULL%1,   Micol Giulia%Cittone%NULL%2,   Micol Giulia%Cittone%NULL%0,   Crizia%Colombo%NULL%2,   Crizia%Colombo%NULL%0,   Cristoforo%Comi%NULL%2,   Cristoforo%Comi%NULL%0,   Eleonora%Croce%NULL%2,   Eleonora%Croce%NULL%0,   Tommaso%Daffara%NULL%2,   Tommaso%Daffara%NULL%0,   Pietro%Danna%NULL%2,   Pietro%Danna%NULL%0,   Francesco%Della Corte%NULL%2,   Francesco%Della Corte%NULL%0,   Simona%De Vecchi%NULL%2,   Simona%De Vecchi%NULL%0,   Umberto%Dianzani%NULL%2,   Umberto%Dianzani%NULL%0,   Davide%Di Benedetto%NULL%2,   Davide%Di Benedetto%NULL%0,   Elia%Esposto%NULL%2,   Elia%Esposto%NULL%0,   Fabrizio%Faggiano%NULL%2,   Fabrizio%Faggiano%NULL%0,   Zeno%Falaschi%NULL%2,   Zeno%Falaschi%NULL%0,   Daniela%Ferrante%NULL%2,   Daniela%Ferrante%NULL%0,   Alice%Ferrero%NULL%2,   Alice%Ferrero%NULL%0,   Ileana%Gagliardi%NULL%2,   Ileana%Gagliardi%NULL%0,   Alessandra%Galbiati%NULL%2,   Alessandra%Galbiati%NULL%0,   Silvia%Gallo%NULL%2,   Silvia%Gallo%NULL%0,   Pietro Luigi%Garavelli%NULL%2,   Pietro Luigi%Garavelli%NULL%0,   Clara Ada%Gardino%NULL%2,   Clara Ada%Gardino%NULL%0,   Massimiliano%Garzaro%NULL%3,   Massimiliano%Garzaro%NULL%0,   Maria Luisa%Gastaldello%NULL%2,   Maria Luisa%Gastaldello%NULL%0,   Francesco%Gavelli%NULL%2,   Francesco%Gavelli%NULL%0,   Alessandra%Gennari%NULL%2,   Alessandra%Gennari%NULL%0,   Greta Maria%Giacomini%NULL%2,   Greta Maria%Giacomini%NULL%0,   Irene%Giacone%NULL%2,   Irene%Giacone%NULL%0,   Valentina%Giai Via%NULL%2,   Valentina%Giai Via%NULL%0,   Francesca%Giolitti%NULL%2,   Francesca%Giolitti%NULL%0,   Laura Cristina%Gironi%NULL%2,   Laura Cristina%Gironi%NULL%0,   Carla%Gramaglia%NULL%2,   Carla%Gramaglia%NULL%0,   Leonardo%Grisafi%NULL%2,   Leonardo%Grisafi%NULL%0,   Ilaria%Inserra%NULL%2,   Ilaria%Inserra%NULL%0,   Marco%Invernizzi%NULL%2,   Marco%Invernizzi%NULL%0,   Marco%Krengli%NULL%2,   Marco%Krengli%NULL%0,   Emanuela%Labella%NULL%2,   Emanuela%Labella%NULL%0,   Irene Cecilia%Landi%NULL%2,   Irene Cecilia%Landi%NULL%0,   Raffaella%Landi%NULL%2,   Raffaella%Landi%NULL%0,   Ilaria%Leone%NULL%2,   Ilaria%Leone%NULL%0,   Veronica%Lio%NULL%2,   Veronica%Lio%NULL%0,   Luca%Lorenzini%NULL%2,   Luca%Lorenzini%NULL%0,   Antonio%Maconi%NULL%2,   Antonio%Maconi%NULL%0,   Mario%Malerba%NULL%2,   Mario%Malerba%NULL%0,   Giulia Francesca%Manfredi%NULL%2,   Giulia Francesca%Manfredi%NULL%0,   Maria%Martelli%NULL%2,   Maria%Martelli%NULL%0,   Letizia%Marzari%NULL%2,   Letizia%Marzari%NULL%0,   Paolo%Marzullo%NULL%2,   Paolo%Marzullo%NULL%0,   Marco%Mennuni%NULL%2,   Marco%Mennuni%NULL%0,   Claudia%Montabone%NULL%2,   Claudia%Montabone%NULL%0,   Umberto%Morosini%NULL%2,   Umberto%Morosini%NULL%0,   Marco%Mussa%NULL%2,   Marco%Mussa%NULL%0,   Ilaria%Nerici%NULL%2,   Ilaria%Nerici%NULL%0,   Alessandro%Nuzzo%NULL%2,   Alessandro%Nuzzo%NULL%0,   Carlo%Olivieri%NULL%2,   Carlo%Olivieri%NULL%0,   Samuel Alberto%Padelli%NULL%2,   Samuel Alberto%Padelli%NULL%0,   Massimiliano%Panella%NULL%2,   Massimiliano%Panella%NULL%0,   Andrea%Parisini%NULL%2,   Andrea%Parisini%NULL%0,   Alessio%Paschè%NULL%2,   Alessio%Paschè%NULL%0,   Filippo%Patrucco%NULL%2,   Filippo%Patrucco%NULL%0,   Giuseppe%Patti%NULL%2,   Giuseppe%Patti%NULL%0,   Alberto%Pau%NULL%2,   Alberto%Pau%NULL%0,   Anita Rebecca%Pedrinelli%NULL%2,   Anita Rebecca%Pedrinelli%NULL%0,   Ilaria%Percivale%NULL%2,   Ilaria%Percivale%NULL%0,   Luca%Ragazzoni%NULL%2,   Luca%Ragazzoni%NULL%0,   Roberta%Re%NULL%2,   Roberta%Re%NULL%0,   Cristina%Rigamonti%NULL%2,   Cristina%Rigamonti%NULL%0,   Eleonora%Rizzi%NULL%2,   Eleonora%Rizzi%NULL%0,   Andrea%Rognoni%NULL%2,   Andrea%Rognoni%NULL%0,   Annalisa%Roveta%NULL%2,   Annalisa%Roveta%NULL%0,   Luigia%Salamina%NULL%2,   Luigia%Salamina%NULL%0,   Matteo%Santagostino%NULL%2,   Matteo%Santagostino%NULL%0,   Massimo%Saraceno%NULL%2,   Massimo%Saraceno%NULL%0,   Paola%Savoia%NULL%2,   Paola%Savoia%NULL%0,   Marco%Sciarra%NULL%2,   Marco%Sciarra%NULL%0,   Andrea%Schimmenti%NULL%2,   Andrea%Schimmenti%NULL%0,   Lorenza%Scotti%NULL%2,   Lorenza%Scotti%NULL%0,   Enrico%Spinoni%NULL%2,   Enrico%Spinoni%NULL%0,   Carlo%Smirne%NULL%2,   Carlo%Smirne%NULL%0,   Vanessa%Tarantino%NULL%2,   Vanessa%Tarantino%NULL%0,   Paolo Amedeo%Tillio%NULL%2,   Paolo Amedeo%Tillio%NULL%0,   Stelvio%Tonello%NULL%2,   Stelvio%Tonello%NULL%0,   Rosanna%Vaschetto%NULL%2,   Rosanna%Vaschetto%NULL%0,   Veronica%Vassia%NULL%2,   Veronica%Vassia%NULL%0,   Domenico%Zagaria%NULL%2,   Domenico%Zagaria%NULL%0,   Elisa%Zavattaro%NULL%2,   Elisa%Zavattaro%NULL%0,   Patrizia%Zeppegno%NULL%2,   Patrizia%Zeppegno%NULL%0,   Francesca%Zottarelli%NULL%2,   Francesca%Zottarelli%NULL%0,   Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,   Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,   Marta%Ottone%NULL%2,   Marta%Ottone%NULL%0,   Tommaso%Fasano%NULL%1,   Pierpaolo%Pattacini%NULL%1,   Valentina%Iotti%NULL%1,   Lucia%Spaggiari%NULL%1,   Riccardo%Bonacini%NULL%1,   Andrea%Nitrosi%NULL%1,   Efrem%Bonelli%NULL%1,   Simone%Canovi%NULL%1,   Rossana%Colla%NULL%1,   Alessandro%Zerbini%NULL%1,   Marco%Massari%NULL%2,   Ivana%Lattuada%NULL%1,   Anna Maria%Ferrari%NULL%1,   Paolo%Giorgi Rossi%NULL%1,   Massimo%Costantini%NULL%1,   Roberto%Grilli%NULL%2,   Massimiliano%Marino%NULL%2,   Giulio%Formoso%NULL%1,   Debora%Formisano%NULL%2,   Emanuela%Bedeschi%NULL%1,   Cinzia%Perilli%NULL%1,   Elisabetta%La Rosa%NULL%1,   Eufemia%Bisaccia%NULL%1,   Ivano%Venturi%NULL%1,   Massimo%Vicentini%NULL%3,   Cinzia%Campari%NULL%1,   Francesco%Gioia%NULL%1,   Serena%Broccoli%NULL%1,   Pamela%Mancuso%NULL%1,   Marco%Foracchia%NULL%1,   Mirco%Pinotti%NULL%1,   Nicola%Facciolongo%NULL%1,   Laura%Trabucco%NULL%1,   Stefano%De Pietri%NULL%1,   Giorgio Francesco%Danelli%NULL%1,   Laura%Albertazzi%NULL%1,   Enrica%Bellesia%NULL%1,   Mattia%Corradini%NULL%1,   Elena%Magnani%NULL%1,   Annalisa%Pilia%NULL%1,   Alessandra%Polese%NULL%1,   Silvia Storchi%Incerti%NULL%1,   Piera%Zaldini%NULL%1,   Bonanno%Orsola%NULL%1,   Matteo%Revelli%NULL%1,   Carlo%Salvarani%NULL%1,   Carmine%Pinto%NULL%1,   Francesco%Venturelli%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,   Hong-Qiu%Gu%NULL%1,   Yi%Liu (刘艺)%NULL%1,   Guqin%Zhang%NULL%1,   Hang%Yang%NULL%1,   Huifang%Hu%NULL%1,   Chenyang%Lu%NULL%1,   Yang%Li%NULL%2,   Liyi%Wang%NULL%1,   Yi%Liu (刘毅)%yi2006liu@163.com%1,   Yi%Zhao%zhao.y1977@163.com%2,   Huaqin%Pan%phq2012@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,   Tawsifur%Rahman%NULL%2,   Tawsifur%Rahman%NULL%0,   Amith%Khandakar%NULL%3,   Somaya%Al-Madeed%NULL%2,   Susu M.%Zughaier%NULL%5,   Suhail A. R.%Doi%NULL%3,   Hanadi%Hassen%NULL%1,   Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,   Jia%Sun%NULL%1,   Yi-Xin%Li%NULL%1,   Qian%Chen%NULL%0,   Qing-Quan%Liu%NULL%1,   Zhou%Sun%NULL%1,   Ran%Pang%NULL%1,   Fei%Chen%NULL%1,   Bing-Yang%Xu%NULL%1,   Anne%Manyande%NULL%1,   Taane G%Clark%NULL%1,   Jin-Ping%Li%NULL%1,   Ilkay Erdogan%Orhan%NULL%1,   Yu-Ke%Tian%NULL%1,   Tao%Wang%wt7636@126.com%0,   Wei%Wu%wt7636@126.com%1,   Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,   Caiping%Song%NULL%1,   En%Liu%NULL%1,   Xi%Liu%NULL%1,   Hao%Wu%NULL%1,   Hui%Lin%NULL%1,   Yuliang%Liu%NULL%1,   Qi%Li%NULL%1,   Zhi%Xu%NULL%1,   XiaoBao%Ren%NULL%1,   Cheng%Zhang%NULL%1,   Wenjing%Zhang%NULL%1,   Wei%Duan%NULL%2,   Yongfeng%Tian%NULL%1,   Ping%Li%NULL%2,   Mingdong%Hu%NULL%1,   Shiming%Yang%NULL%1,   Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,   Changli%Li%NULL%1,   Li%Zheng%NULL%1,   Wenzhi%Lv%NULL%0,   Zhigang%He%NULL%1,   Xinwu%Cui%NULL%1,   Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,   Hayne Cho%Park%NULL%2,   Hayne Cho%Park%NULL%0,   Ajin%Cho%NULL%1,   Juhee%Kim%NULL%1,   Kyu-sang%Yun%NULL%1,   Jinseog%Kim%NULL%1,   Young-Ki%Lee%NULL%1,   Sinan%Kardes.%NULL%2,   Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,   Xiaoyu%Fang%NULL%1,   Lixia%Cheng%NULL%1,   Penghao%Wang%NULL%1,   Shen%Li%NULL%1,   Hao%Yu%NULL%1,   Yao%Zhang%NULL%2,   Nan%Jiang%NULL%1,   Tingting%Zeng%NULL%1,   Chao%Hou%NULL%1,   Jing%Zhou%NULL%1,   Shiru%Li%NULL%1,   Yingzi%Pan%NULL%1,   Yitong%Li%NULL%1,   Lili%Nie%NULL%1,   Yang%Li%NULL%0,   Qidi%Sun%NULL%1,   Hong%Jia%NULL%1,   Mengxia%Li%NULL%1,   Guoqiang%Cao%NULL%1,   Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,   Lucas A%Ramos%NULL%2,   Lucas A%Ramos%NULL%0,   Wouter%Potters%NULL%1,   Marcus L F%Janssen%NULL%1,   Deborah%Hubers%NULL%1,   Shi%Hu%NULL%1,   Egill A%Fridgeirsson%NULL%1,   Dan%Piña-Fuentes%NULL%1,   Rajat%Thomas%NULL%1,   Iwan C C%van der Horst%NULL%1,   Christian%Herff%NULL%2,   Christian%Herff%NULL%0,   Pieter%Kubben%NULL%1,   Paul W G%Elbers%NULL%1,   Henk A%Marquering%NULL%1,   Max%Welling%NULL%1,   Suat%Simsek%NULL%1,   Martijn D%de Kruif%NULL%1,   Tom%Dormans%NULL%1,   Lucas M%Fleuren%NULL%1,   Michiel%Schinkel%NULL%1,   Peter G%Noordzij%NULL%1,   Joop P%van den Bergh%NULL%2,   Joop P%van den Bergh%NULL%0,   Caroline E%Wyers%NULL%1,   David T B%Buis%NULL%2,   David T B%Buis%NULL%0,   W Joost%Wiersinga%NULL%1,   Ella H C%van den Hout%NULL%1,   Auke C%Reidinga%NULL%1,   Daisy%Rusch%NULL%1,   Kim C E%Sigaloff%NULL%1,   Renee A%Douma%NULL%1,   Lianne%de Haan%NULL%1,   Niels C%Gritters van den Oever%NULL%1,   Roger J M W%Rennenberg%NULL%1,   Guido A%van Wingen%NULL%1,   Marcel J H%Aries%NULL%1,   Martijn%Beudel%NULL%2,   Martijn%Beudel%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,   Fajer A.%Al-Ishaq%NULL%2,   Fajer A.%Al-Ishaq%NULL%0,   Fatima S.%Al-Mohannadi%NULL%1,   Reem S.%Mubarak%NULL%1,   Maryam H.%Al-Hitmi%NULL%1,   Khandaker Reajul%Islam%NULL%1,   Amith%Khandakar%NULL%0,   Ali Ait%Hssain%NULL%3,   Ali Ait%Hssain%NULL%0,   Somaya%Al-Madeed%NULL%0,   Susu M.%Zughaier%NULL%0,   Susu M.%Zughaier%NULL%0,   Muhammad E. H.%Chowdhury%NULL%3,   Muhammad E. H.%Chowdhury%NULL%0,   Antonella%Santone%NULL%3,   Antonella%Santone%NULL%0,   Antonella%Santone%NULL%0,   Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,   Amith%Khandakar%NULL%0,   Md Enamul%Hoque%NULL%2,   Md Enamul%Hoque%NULL%0,   Nabil%Ibtehaz%NULL%2,   Nabil%Ibtehaz%NULL%0,   Saad Bin%Kashem%NULL%2,   Saad Bin%Kashem%NULL%0,   Reehum%Masud%NULL%1,   Lutfunnahar%Shampa%NULL%1,   Mohammad Mehedi%Hasan%NULL%1,   Mohammad Tariqul%Islam%NULL%1,   Somaya%Al-Maadeed%NULL%2,   Somaya%Al-Maadeed%NULL%0,   Susu M.%Zughaier%NULL%0,   Susu M.%Zughaier%NULL%0,   Saif%Badran%NULL%2,   Saif%Badran%NULL%0,   Suhail A. R.%Doi%NULL%0,   Suhail A. R.%Doi%NULL%0,   Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,   Pablo%Rodríguez-Belenguer%NULL%2,   Pablo%Rodríguez-Belenguer%NULL%0,   Antonio J.%Serrano-López%NULL%1,   Emilio%Soria-Olivas%NULL%2,   Emilio%Soria-Olivas%NULL%0,   Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,   Haibo%Ai%NULL%1,   Yunong%Fu%NULL%1,   Qinglin%Li%NULL%1,   Ruixia%Cui%NULL%1,   Xiaohua%Ma%NULL%1,   Yan-fen%Ma%NULL%1,   Zi%Wang%NULL%1,   Tong%Liu%NULL%1,   Yunxiang%Long%NULL%1,   Kai%Qu%NULL%1,   Chang%Liu%NULL%1,   Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,   Dawei%Zhang%NULL%1,   Jing%Xu%NULL%0,   Zhu%Chen%NULL%1,   Tieniu%Yang%NULL%1,   Peng%Zhao%NULL%0,   Guofeng%Chen%NULL%1,   Gregory%Cheng%NULL%1,   Yudong%Wang%NULL%1,   Jingfeng%Bi%NULL%1,   Lin%Tan%NULL%1,   George%Lau%NULL%1,   Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,   Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,   Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,   Giulia%Suigo%NULL%1,   Davide%Zampini%NULL%1,   Matteo%Pistoia%NULL%1,   Mariella%Ciola%NULL%1,   Tommaso%Ciampani%NULL%1,   Carolina%Ultori%NULL%1,   Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,   John R%Adler%NULL%5,   Sultan M%Kamran%NULL%2,   Sultan M%Kamran%NULL%0,   Zill-e-Humayun%Mirza%NULL%1,   Hussain Abdul%Moeed%NULL%1,   Arshad%Naseem%NULL%1,   Maryam%Hussain%NULL%1,   Imran%Fazal%NULL%1,   Farrukh%Saeed%NULL%1,   Wasim%Alamgir%NULL%1,   Salman%Saleem%NULL%1,   Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,   María M.%Martín%NULL%1,   Mónica%Argueso%NULL%1,   Jordi%Solé-Violán%NULL%1,   Alina%Perez%NULL%1,   José Alberto%Marcos Y Ramos%NULL%1,   Luis%Ramos-Gómez%NULL%1,   Sergio%López%NULL%1,   Andrés%Franco%NULL%1,   Agustín F.%González-Rivero%NULL%1,   María%Martín%NULL%1,   Verónica%Gonzalez%NULL%1,   Julia%Alcoba-Flórez%NULL%1,   Miguel Ángel%Rodriguez%NULL%1,   Marta%Riaño-Ruiz%NULL%1,   Juan%Guillermo O Campo%NULL%1,   Lourdes%González%NULL%1,   Tamara%Cantera%NULL%1,   Raquel%Ortiz-López%NULL%1,   Nazario%Ojeda%NULL%1,   Aurelio%Rodríguez-Pérez%NULL%1,   Casimira%Domínguez%NULL%1,   Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,   Rita%Kukafka%NULL%1,   Arriel%Benis%NULL%2,   Arriel%Benis%NULL%0,   Jinfeng%Li%NULL%1,   Pan%Pan%NULL%2,   Pan%Pan%NULL%0,   Yichao%Li%NULL%2,   Yichao%Li%NULL%0,   Yongjiu%Xiao%NULL%2,   Yongjiu%Xiao%NULL%0,   Bingchao%Han%NULL%2,   Bingchao%Han%NULL%0,   Longxiang%Su%NULL%2,   Longxiang%Su%NULL%0,   Mingliang%Su%NULL%2,   Mingliang%Su%NULL%0,   Yansheng%Li%NULL%2,   Yansheng%Li%NULL%0,   Siqi%Zhang%NULL%2,   Siqi%Zhang%NULL%0,   Dapeng%Jiang%NULL%2,   Dapeng%Jiang%NULL%0,   Xia%Chen%NULL%2,   Xia%Chen%NULL%0,   Fuquan%Zhou%NULL%2,   Fuquan%Zhou%NULL%0,   Ling%Ma%NULL%2,   Ling%Ma%NULL%0,   Pengtao%Bao%NULL%2,   Pengtao%Bao%NULL%0,   Lixin%Xie%xielx301@126.com%2,   Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,   Cristina%Roca-Oporto%NULL%2,   Guillermo%Martín-Gutiérrez%NULL%2,   María Dolores%Avilés%NULL%3,   Carmen%Gómez-González%NULL%2,   María Dolores%Navarro-Amuedo%NULL%2,   Julia%Praena-Segovia%NULL%2,   José%Molina%NULL%2,   María%Paniagua-García%NULL%2,   Horacio%García-Delgado%NULL%2,   Antonio%Domínguez-Petit%NULL%2,   Jerónimo%Pachón%NULL%4,   José Miguel%Cisneros%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,   Barry R.%Meisenberg%NULL%2,   Barry R.%Meisenberg%NULL%0,   James H.%MacDonald%NULL%1,   Nandakumar%Menon%NULL%1,   Marcia B.%Fowler%NULL%1,   Michaline%West%NULL%1,   Jane%Rhule%NULL%1,   Sadaf S.%Qureshi%NULL%1,   Eileen B.%MacDonald%NULL%1,   Yu Ru%Kou%NULL%2,   Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,   Sarah%Poole%NULL%2,   Sarah%Poole%NULL%0,   Meeta%Pradhan%NULL%1,   Akhil%Vaid%NULL%3,   Akhil%Vaid%NULL%0,   Sulaiman%Somani%NULL%3,   Sulaiman%Somani%NULL%0,   Adam J%Russak%NULL%4,   Adam J%Russak%NULL%0,   Jessica K%De Freitas%NULL%3,   Jessica K%De Freitas%NULL%0,   Fayzan F%Chaudhry%NULL%2,   Fayzan F%Chaudhry%NULL%0,   Ishan%Paranjpe%NULL%2,   Ishan%Paranjpe%NULL%0,   Kipp W%Johnson%NULL%3,   Kipp W%Johnson%NULL%0,   Samuel J%Lee%NULL%2,   Samuel J%Lee%NULL%0,   Riccardo%Miotto%NULL%3,   Riccardo%Miotto%NULL%0,   Felix%Richter%NULL%2,   Felix%Richter%NULL%0,   Shan%Zhao%NULL%0,   Shan%Zhao%NULL%0,   Noam D%Beckmann%NULL%2,   Noam D%Beckmann%NULL%0,   Nidhi%Naik%NULL%2,   Nidhi%Naik%NULL%0,   Arash%Kia%NULL%0,   Arash%Kia%NULL%0,   Prem%Timsina%NULL%0,   Prem%Timsina%NULL%0,   Anuradha%Lala%NULL%0,   Anuradha%Lala%NULL%0,   Manish%Paranjpe%NULL%2,   Manish%Paranjpe%NULL%0,   Eddye%Golden%NULL%3,   Eddye%Golden%NULL%0,   Matteo%Danieletto%NULL%3,   Matteo%Danieletto%NULL%0,   Manbir%Singh%NULL%3,   Manbir%Singh%NULL%0,   Dara%Meyer%NULL%3,   Dara%Meyer%NULL%0,   Paul F%O'Reilly%NULL%2,   Paul F%O'Reilly%NULL%0,   Laura%Huckins%NULL%2,   Laura%Huckins%NULL%0,   Patricia%Kovatch%NULL%4,   Patricia%Kovatch%NULL%0,   Joseph%Finkelstein%NULL%3,   Joseph%Finkelstein%NULL%0,   Robert M.%Freeman%NULL%2,   Robert M.%Freeman%NULL%0,   Edgar%Argulian%NULL%2,   Edgar%Argulian%NULL%0,   Andrew%Kasarskis%NULL%2,   Andrew%Kasarskis%NULL%0,   Bethany%Percha%NULL%2,   Bethany%Percha%NULL%0,   Judith A%Aberg%NULL%3,   Judith A%Aberg%NULL%0,   Emilia%Bagiella%NULL%0,   Emilia%Bagiella%NULL%0,   Carol R%Horowitz%NULL%3,   Carol R%Horowitz%NULL%0,   Barbara%Murphy%NULL%3,   Barbara%Murphy%NULL%0,   Eric J%Nestler%NULL%3,   Eric J%Nestler%NULL%0,   Eric E%Schadt%NULL%2,   Eric E%Schadt%NULL%0,   Judy H%Cho%NULL%2,   Judy H%Cho%NULL%0,   Carlos%Cordon-Cardo%NULL%0,   Carlos%Cordon-Cardo%NULL%0,   Valentin%Fuster%NULL%0,   Valentin%Fuster%NULL%0,   Dennis S%Charney%NULL%2,   Dennis S%Charney%NULL%0,   David L%Reich%NULL%3,   David L%Reich%NULL%0,   Erwin P%Bottinger%NULL%3,   Erwin P%Bottinger%NULL%0,   Matthew A%Levin%NULL%3,   Matthew A%Levin%NULL%0,   Jagat%Narula%NULL%3,   Jagat%Narula%NULL%0,   Zahi A%Fayad%NULL%3,   Zahi A%Fayad%NULL%0,   Allan C%Just%NULL%2,   Allan C%Just%NULL%0,   Alexander W%Charney%NULL%3,   Alexander W%Charney%NULL%0,   Girish N%Nadkarni%NULL%3,   Girish N%Nadkarni%NULL%0,   Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%3,   Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,   Anne%Chen%NULL%3,   Wei%Hou%NULL%0,   James M.%Graham%NULL%2,   Haifang%Li%NULL%2,   Paul S.%Richman%NULL%2,   Henry C.%Thode%NULL%2,   Adam J.%Singer%NULL%2,   Tim Q.%Duong%NULL%2,   Muhammad%Adrish%NULL%22,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,   Qin%Liu%NULL%1,   Xiao%Zhang%NULL%1,   Shuyi%Liu%NULL%1,   Weiqi%Chen%NULL%1,   Jingjing%You%NULL%1,   Qiuying%Chen%NULL%1,   Minmin%Li%NULL%1,   Zhuozhi%Chen%NULL%1,   Luyan%Chen%NULL%1,   Lv%Chen%NULL%1,   Yuhao%Dong%NULL%1,   Qingsi%Zeng%NULL%1,   Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,   Lei%Nie%NULL%1,   Dongde%Wu%NULL%1,   Jian%Chen%NULL%1,   Zhifeng%Yang%NULL%1,   Ling%Zhang%NULL%4,   Dongqing%Li%NULL%1,   Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,   Burcin%Hakoglu%NULL%2,   Burcin%Hakoglu%NULL%0,   Ali%Kadri Cirak%NULL%1,   Gulru%Polat%NULL%1,   Berna%Komurcuoglu%NULL%1,   Berrin%Akkol%NULL%1,   Cagri%Atasoy%NULL%1,   Eda%Bayramic%NULL%1,   Gunseli%Balci%NULL%1,   Sena%Ataman%NULL%1,   Sinem%Ermin%NULL%1,   Enver%Yalniz%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,   Qiaosen%Chen%NULL%2,   Qiaosen%Chen%NULL%0,   Sumeng%Li%NULL%1,   Huadong%Li%NULL%1,   Qian%Zhang%NULL%1,   Sihong%Lu%NULL%1,   Li%Wu%NULL%1,   Leiqun%Xiong%NULL%1,   Bobin%Mi%NULL%1,   Di%Liu%NULL%3,   Mengji%Lu%NULL%1,   Dongliang%Yang%NULL%1,   Hongbo%Jiang%hongbojiang3@163.com%1,   Shaoping%Zheng%zhengspxx@126.com%1,   Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,   Hua%Zhang%NULL%1,   Rui%Qiao%NULL%1,   Qinggang%Ge%NULL%1,   Shuisheng%Zhang%NULL%1,   Zongxuan%Zhao%NULL%1,   Ci%Tian%NULL%1,   Qingbian%Ma%NULL%2,   Qingbian%Ma%NULL%0,   Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,   Antonia%Ho%NULL%2,   Riinu%Pius%NULL%2,   Iain%Buchan%NULL%1,   Gail%Carson%NULL%2,   Thomas M%Drake%NULL%1,   Jake%Dunning%NULL%2,   Cameron J%Fairfield%NULL%2,   Carrol%Gamble%NULL%2,   Christopher A%Green%NULL%2,   Rishi%Gupta%NULL%1,   Sophie%Halpin%NULL%2,   Hayley E%Hardwick%NULL%1,   Karl A%Holden%NULL%1,   Peter W%Horby%NULL%2,   Clare%Jackson%NULL%2,   Kenneth A%Mclean%NULL%2,   Laura%Merson%NULL%2,   Jonathan S%Nguyen-Van-Tam%NULL%1,   Lisa%Norman%NULL%2,   Mahdad%Noursadeghi%NULL%2,   Piero L%Olliaro%NULL%1,   Mark G%Pritchard%NULL%1,   Clark D%Russell%NULL%2,   Catherine A%Shaw%NULL%2,   Aziz%Sheikh%NULL%2,   Tom%Solomon%NULL%2,   Cathie%Sudlow%NULL%1,   Olivia V%Swann%NULL%1,   Lance CW%Turtle%NULL%2,   Peter JM%Openshaw%NULL%2,   J Kenneth%Baillie%NULL%2,   Malcolm G%Semple%NULL%3,   Annemarie B%Docherty%NULL%3,   Annemarie B%Docherty%NULL%0,   Ewen M%Harrison%NULL%3,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   J Kenneth%Baillie%NULL%0,   Malcolm G%Semple%NULL%0,   Peter JM%Openshaw%NULL%0,   Gail%Carson%NULL%0,   Beatrice%Alex%NULL%1,   Benjamin%Bach%NULL%1,   Wendy S%Barclay%NULL%0,   Debby%Bogaert%NULL%1,   Meera%Chand%NULL%0,   Graham S%Cooke%NULL%0,   Annemarie B%Docherty%NULL%0,   Jake%Dunning%NULL%0,   Ana%da Silva Filipe%NULL%1,   Tom%Fletcher%NULL%1,   Christopher A%Green%NULL%0,   Ewen M%Harrison%NULL%0,   Julian A%Hiscox%NULL%1,   Antonia Ying Wai%Ho%NULL%1,   Peter W%Horby%NULL%0,   Samreen%Ijaz%NULL%1,   Saye%Khoo%NULL%1,   Paul%Klenerman%NULL%1,   Andrew%Law%NULL%2,   Wei Shen%Lim%NULL%1,   Alexander J%Mentzer%NULL%1,   Laura%Merson%NULL%0,   Alison M%Meynert%NULL%1,   Mahdad%Noursadeghi%NULL%0,   Shona C%Moore%NULL%2,   Massimo%Palmarini%NULL%1,   William A%Paxton%NULL%1,   Georgios%Pollakis%NULL%1,   Nicholas%Price%NULL%1,   Andrew%Rambaut%NULL%1,   David L%Robertson%NULL%1,   Clark D%Russell%NULL%0,   Vanessa%Sancho-Shimizu%NULL%1,   Janet T%Scott%NULL%1,   Louise%Sigfrid%NULL%1,   Tom%Solomon%NULL%0,   Shiranee%Sriskandan%NULL%1,   David%Stuart%NULL%1,   Charlotte%Summers%NULL%1,   Richard S%Tedder%NULL%1,   Emma C%Thomson%NULL%1,   Ryan S%Thwaites%NULL%1,   Lance CW%Turtle%NULL%0,   Maria%Zambon%NULL%0,   Hayley%Hardwick%NULL%1,   Chloe%Donohue%NULL%1,   Jane%Ewins%NULL%1,   Wilna%Oosthuyzen%NULL%1,   Fiona%Griffiths%NULL%1,   Lisa%Norman%NULL%0,   Riinu%Pius%NULL%0,   Tom M%Drake%NULL%1,   Cameron J%Fairfield%NULL%0,   Stephen%Knight%NULL%1,   Kenneth A%Mclean%NULL%0,   Derek%Murphy%NULL%1,   Catherine A%Shaw%NULL%0,   Jo%Dalton%NULL%1,   Michelle%Girvan%NULL%1,   Egle%Saviciute%NULL%1,   Stephanie%Roberts%NULL%1,   Janet%Harrison%NULL%1,   Laura%Marsh%NULL%1,   Marie%Connor%NULL%1,   Sophie%Halpin%NULL%0,   Clare%Jackson%NULL%0,   Carrol%Gamble%NULL%0,   Gary%Leeming%NULL%1,   Andrew%Law%NULL%0,   Ross%Hendry%NULL%1,   James%Scott-Brown%NULL%1,   William%Greenhalf%NULL%1,   Victoria%Shaw%NULL%1,   Sarah%McDonald%NULL%2,   Katie A%Ahmed%NULL%1,   Jane A%Armstrong%NULL%1,   Milton%Ashworth%NULL%1,   Innocent G%Asiimwe%NULL%1,   Siddharth%Bakshi%NULL%1,   Samantha L%Barlow%NULL%1,   Laura%Booth%NULL%1,   Benjamin%Brennan%NULL%1,   Katie%Bullock%NULL%1,   Benjamin WA%Catterall%NULL%1,   Jordan J%Clark%NULL%1,   Emily A%Clarke%NULL%1,   Sarah%Cole%NULL%1,   Louise%Cooper%NULL%1,   Helen%Cox%NULL%1,   Christopher%Davis%NULL%1,   Oslem%Dincarslan%NULL%1,   Chris%Dunn%NULL%1,   Philip%Dyer%NULL%1,   Angela%Elliott%NULL%1,   Anthony%Evans%NULL%1,   Lewis WS%Fisher%NULL%1,   Terry%Foster%NULL%1,   Isabel%Garcia-Dorival%NULL%1,   Willliam%Greenhalf%NULL%1,   Philip%Gunning%NULL%1,   Catherine%Hartley%NULL%1,   Antonia%Ho%NULL%0,   Rebecca L%Jensen%NULL%1,   Christopher B%Jones%NULL%1,   Trevor R%Jones%NULL%1,   Shadia%Khandaker%NULL%1,   Katharine%King%NULL%1,   Robyn T%Kiy%NULL%1,   Chrysa%Koukorava%NULL%1,   Annette%Lake%NULL%1,   Suzannah%Lant%NULL%1,   Diane%Latawiec%NULL%1,   L%Lavelle-Langham%NULL%1,   Daniella%Lefteri%NULL%1,   Lauren%Lett%NULL%1,   Lucia A%Livoti%NULL%1,   Maria%Mancini%NULL%1,   Sarah%McDonald%NULL%0,   Laurence%McEvoy%NULL%1,   John%McLauchlan%NULL%1,   Soeren%Metelmann%NULL%1,   Nahida S%Miah%NULL%1,   Joanna%Middleton%NULL%1,   Joyce%Mitchell%NULL%1,   Shona C%Moore%NULL%0,   Ellen G%Murphy%NULL%1,   Rebekah%Penrice-Randal%NULL%1,   Jack%Pilgrim%NULL%1,   Tessa%Prince%NULL%1,   Will%Reynolds%NULL%1,   P Matthew%Ridley%NULL%1,   Debby%Sales%NULL%1,   Victoria E%Shaw%NULL%1,   Rebecca K%Shears%NULL%1,   Benjamin%Small%NULL%1,   Krishanthi S%Subramaniam%NULL%1,   Agnieska%Szemiel%NULL%1,   Aislynn%Taggart%NULL%1,   Jolanta%Tanianis-Hughes%NULL%1,   Jordan%Thomas%NULL%1,   Erwan%Trochu%NULL%1,   Libby%van Tonder%NULL%1,   Eve%Wilcock%NULL%1,   J Eunice%Zhang%NULL%1,   Kayode%Adeniji%NULL%1,   Daniel%Agranoff%NULL%1,   Ken%Agwuh%NULL%1,   Dhiraj%Ail%NULL%1,   Ana%Alegria%NULL%1,   Brian%Angus%NULL%1,   Abdul%Ashish%NULL%1,   Dougal%Atkinson%NULL%1,   Shahedal%Bari%NULL%1,   Gavin%Barlow%NULL%1,   Stella%Barnass%NULL%1,   Nicholas%Barrett%NULL%2,   Christopher%Bassford%NULL%1,   David%Baxter%NULL%1,   Michael%Beadsworth%NULL%1,   Jolanta%Bernatoniene%NULL%1,   John%Berridge%NULL%1,   Nicola%Best%NULL%1,   Pieter%Bothma%NULL%1,   David%Brealey%NULL%1,   Robin%Brittain-Long%NULL%1,   Naomi%Bulteel%NULL%1,   Tom%Burden%NULL%1,   Andrew%Burtenshaw%NULL%1,   Vikki%Caruth%NULL%1,   David%Chadwick%NULL%1,   Duncan%Chambler%NULL%1,   Nigel%Chee%NULL%1,   Jenny%Child%NULL%1,   Srikanth%Chukkambotla%NULL%1,   Tom%Clark%NULL%1,   Paul%Collini%NULL%1,   Catherine%Cosgrove%NULL%1,   Jason%Cupitt%NULL%1,   Maria-Teresa%Cutino-Moguel%NULL%1,   Paul%Dark%NULL%1,   Chris%Dawson%NULL%1,   Samir%Dervisevic%NULL%1,   Phil%Donnison%NULL%1,   Sam%Douthwaite%NULL%1,   Ingrid%DuRand%NULL%1,   Ahilanadan%Dushianthan%NULL%1,   Tristan%Dyer%NULL%1,   Cariad%Evans%NULL%1,   Chi%Eziefula%NULL%1,   Chrisopher%Fegan%NULL%1,   Adam%Finn%NULL%1,   Duncan%Fullerton%NULL%1,   Sanjeev%Garg%NULL%2,   Sanjeev%Garg%NULL%0,   Atul%Garg%NULL%1,   Jo%Godden%NULL%1,   Arthur%Goldsmith%NULL%1,   Clive%Graham%NULL%1,   Elaine%Hardy%NULL%1,   Stuart%Hartshorn%NULL%1,   Daniel%Harvey%NULL%1,   Peter%Havalda%NULL%1,   Daniel B%Hawcutt%NULL%1,   Maria%Hobrok%NULL%1,   Luke%Hodgson%NULL%1,   Anita%Holme%NULL%1,   Anil%Hormis%NULL%1,   Michael%Jacobs%NULL%1,   Susan%Jain%NULL%1,   Paul%Jennings%NULL%1,   Agilan%Kaliappan%NULL%1,   Vidya%Kasipandian%NULL%1,   Stephen%Kegg%NULL%1,   Michael%Kelsey%NULL%1,   Jason%Kendall%NULL%1,   Caroline%Kerrison%NULL%1,   Ian%Kerslake%NULL%1,   Oliver%Koch%NULL%2,   Gouri%Koduri%NULL%1,   George%Koshy%NULL%1,   Shondipon%Laha%NULL%1,   Susan%Larkin%NULL%1,   Tamas%Leiner%NULL%1,   Patrick%Lillie%NULL%1,   James%Limb%NULL%1,   Vanessa%Linnett%NULL%1,   Jeff%Little%NULL%1,   Michael%MacMahon%NULL%1,   Emily%MacNaughton%NULL%1,   Ravish%Mankregod%NULL%1,   Huw%Masson%NULL%1,   Elijah%Matovu%NULL%1,   Katherine%McCullough%NULL%1,   Ruth%McEwen%NULL%1,   Manjula%Meda%NULL%1,   Gary%Mills%NULL%1,   Jane%Minton%NULL%1,   Mariyam%Mirfenderesky%NULL%1,   Kavya%Mohandas%NULL%1,   Quen%Mok%NULL%1,   James%Moon%NULL%1,   Elinoor%Moore%NULL%1,   Patrick%Morgan%NULL%1,   Craig%Morris%NULL%1,   Katherine%Mortimore%NULL%1,   Samuel%Moses%NULL%1,   Mbiye%Mpenge%NULL%1,   Rohinton%Mulla%NULL%1,   Michael%Murphy%NULL%1,   Megan%Nagel%NULL%1,   Thapas%Nagarajan%NULL%1,   Mark%Nelson%NULL%1,   Igor%Otahal%NULL%1,   Mark%Pais%NULL%1,   Selva%Panchatsharam%NULL%1,   Hassan%Paraiso%NULL%1,   Brij%Patel%NULL%1,   Justin%Pepperell%NULL%1,   Mark%Peters%NULL%1,   Mandeep%Phull%NULL%1,   Stefania%Pintus%NULL%1,   Jagtur Singh%Pooni%NULL%1,   Frank%Post%NULL%1,   David%Price%NULL%1,   Rachel%Prout%NULL%1,   Nikolas%Rae%NULL%1,   Henrik%Reschreiter%NULL%1,   Tim%Reynolds%NULL%1,   Neil%Richardson%NULL%1,   Mark%Roberts%NULL%1,   Devender%Roberts%NULL%1,   Alistair%Rose%NULL%1,   Guy%Rousseau%NULL%1,   Brendan%Ryan%NULL%1,   Taranprit%Saluja%NULL%1,   Aarti%Shah%NULL%1,   Prad%Shanmuga%NULL%1,   Anil%Sharma%NULL%1,   Anna%Shawcross%NULL%1,   Jeremy%Sizer%NULL%1,   Richard%Smith%NULL%1,   Catherine%Snelson%NULL%1,   Nick%Spittle%NULL%1,   Nikki%Staines%NULL%1,   Tom%Stambach%NULL%1,   Richard%Stewart%NULL%1,   Pradeep%Subudhi%NULL%1,   Tamas%Szakmany%NULL%1,   Kate%Tatham%NULL%1,   Jo%Thomas%NULL%1,   Chris%Thompson%NULL%1,   Robert%Thompson%NULL%1,   Ascanio%Tridente%NULL%1,   Darell%Tupper-Carey%NULL%1,   Mary%Twagira%NULL%1,   Andrew%Ustianowski%NULL%1,   Nick%Vallotton%NULL%1,   Lisa%Vincent-Smith%NULL%1,   Shico%Visuvanathan%NULL%1,   Alan%Vuylsteke%NULL%1,   Sam%Waddy%NULL%1,   Rachel%Wake%NULL%1,   Andrew%Walden%NULL%1,   Ingeborg%Welters%NULL%1,   Tony%Whitehouse%NULL%1,   Paul%Whittaker%NULL%1,   Ashley%Whittington%NULL%1,   Meme%Wijesinghe%NULL%1,   Martin%Williams%NULL%1,   Lawrence%Wilson%NULL%1,   Sarah%Wilson%NULL%1,   Stephen%Winchester%NULL%1,   Martin%Wiselka%NULL%1,   Adam%Wolverson%NULL%1,   Daniel G%Wooton%NULL%1,   Andrew%Workman%NULL%1,   Bryan%Yates%NULL%1,   Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,   Braulio A.%Marfil‐Garza%NULL%1,   Erick%Martínez Rodríguez%NULL%1,   José Omar%Barreto Rodríguez%NULL%1,   Alicia Estela%López Romo%NULL%1,   Paolo%Alberti Minutti%NULL%1,   Juan Vicente%Alejandre Loya%NULL%1,   Félix Emmanuel%Pérez Talavera%NULL%1,   Freddy José%Ávila Cervera%NULL%1,   Adriana%Velazquez Burciaga%NULL%1,   Oscar%Morado Aramburo%NULL%1,   Luis Alberto%Piña Olguín%NULL%1,   Adrian%Soto‐Rodríguez%NULL%1,   Andrés%Castañeda Prado%NULL%1,   Patricio%Santillán Doherty%NULL%1,   Juan%O Galindo%NULL%1,   Luis Alberto%Guízar García%NULL%1,   Daniel%Hernández Gordillo%NULL%1,   Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,   Aatish%Patel%NULL%1,   Esmita%Charani%NULL%1,   Sarah%Denny%NULL%1,   Saleh A.%Alqahtani%NULL%1,   Gary W.%Davies%NULL%1,   Nabeela%Mughal%NULL%1,   Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,   Hyunsun%Lim%NULL%1,   Dong-Wook%Kim%NULL%1,   Jung Hyun%Chang%NULL%1,   Yoon Jung%Choi%chris316@yuhs.ac%1,   Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,   Wenhua%Liang%NULL%5,   Mei%Jiang%NULL%4,   Weijie%Guan%NULL%5,   Chen%Zhan%NULL%2,   Tao%Wang%NULL%0,   Chunli%Tang%NULL%3,   Ling%Sang%NULL%6,   Jiaxing%Liu%NULL%2,   Zhengyi%Ni%NULL%4,   Yu%Hu%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chunliang%Lei%NULL%4,   Yixiang%Peng%NULL%4,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Yahua%Hu%NULL%4,   Peng%Peng%NULL%0,   Jianming%Wang%NULL%0,   Jiyang%Liu%NULL%4,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhijian%Zheng%NULL%4,   Shaoqin%Qiu%NULL%4,   Jie%Luo%NULL%0,   Changjiang%Ye%NULL%4,   Shaoyong%Zhu%NULL%4,   Xiaoqing%Liu%NULL%2,   Linling%Cheng%NULL%2,   Feng%Ye%NULL%3,   Jinping%Zheng%NULL%4,   Nuofu%Zhang%NULL%4,   Yimin%Li%NULL%4,   Jianxing%He%NULL%4,   Shiyue%Li%lishiyue@188.com%6,   Nanshan%Zhong%NULL%6,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,   Liu%Hu%NULL%3,   Yiru%Wang%NULL%0,   Luyan%Huang%NULL%3,   Lingxi%Zhao%NULL%3,   Congcong%Zhang%NULL%3,   Xiyue%Liu%NULL%3,   Ranran%Xu%NULL%3,   Feng%Liu%NULL%0,   Jinping%Li%NULL%3,   Dawei%Ye%NULL%0,   Tao%Wang%NULL%0,   Yongman%Lv%lvyongman@126.com%0,   Qingquan%Liu%qqliutj@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,   Carol A C%Coupland%NULL%1,   Ruth H%Keogh%NULL%1,   Karla%Diaz-Ordaz%NULL%1,   Elizabeth%Williamson%NULL%1,   Ewen M%Harrison%NULL%0,   Andrew%Hayward%NULL%0,   Harry%Hemingway%NULL%1,   Peter%Horby%NULL%1,   Nisha%Mehta%NULL%1,   Jonathan%Benger%NULL%1,   Kamlesh%Khunti%NULL%0,   David%Spiegelhalter%NULL%1,   Aziz%Sheikh%NULL%0,   Jonathan%Valabhji%NULL%0,   Ronan A%Lyons%NULL%1,   John%Robson%NULL%1,   Malcolm G%Semple%NULL%0,   Frank%Kee%NULL%1,   Peter%Johnson%NULL%1,   Susan%Jebb%NULL%1,   Tony%Williams%NULL%1,   Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,   Guang-Yao%Cai%NULL%1,   Wei%Fang%NULL%0,   Hua-Yi%Li%NULL%1,   Si-Yuan%Wang%NULL%2,   Si-Yuan%Wang%NULL%0,   Lingxi%Chen%NULL%1,   Yang%Yu%NULL%1,   Dan%Liu%NULL%0,   Sen%Xu%NULL%1,   Peng-Fei%Cui%NULL%1,   Shao-Qing%Zeng%NULL%2,   Shao-Qing%Zeng%NULL%0,   Xin-Xia%Feng%NULL%1,   Rui-Di%Yu%NULL%1,   Ya%Wang%NULL%1,   Yuan%Yuan%NULL%1,   Xiao-Fei%Jiao%NULL%1,   Jian-Hua%Chi%NULL%1,   Jia-Hao%Liu%NULL%1,   Ru-Yuan%Li%NULL%1,   Xu%Zheng%NULL%1,   Chun-Yan%Song%NULL%1,   Ning%Jin%NULL%1,   Wen-Jian%Gong%NULL%1,   Xing-Yu%Liu%NULL%1,   Lei%Huang%NULL%0,   Xun%Tian%NULL%1,   Lin%Li%NULL%3,   Hui%Xing%NULL%1,   Ding%Ma%NULL%1,   Chun-Rui%Li%NULL%1,   Fei%Ye%yeyuanbei@hotmail.com%1,   Qing-Lei%Gao%qingleigao@hotmail.com%2,   Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,   Ang%Li%NULL%1,   Mengfan%Jiao%NULL%1,   Qingmiao%Shi%NULL%1,   Xiaocai%An%NULL%1,   Yonghai%Feng%NULL%1,   Lihua%Xing%NULL%1,   Hongxia%Liang%NULL%1,   Jiajun%Chen%NULL%1,   Huiling%Li%NULL%1,   Juan%Li%NULL%0,   Zhigang%Ren%NULL%1,   Ranran%Sun%NULL%1,   Guangying%Cui%NULL%1,   Yongjian%Zhou%NULL%1,   Ming%Cheng%NULL%1,   Pengfei%Jiao%NULL%1,   Yu%Wang%NULL%3,   Jiyuan%Xing%NULL%1,   Shen%Shen%NULL%1,   Qingxian%Zhang%NULL%1,   Aiguo%Xu%NULL%1,   Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,   Michael%Ng%NULL%1,   Shuang%Xu%NULL%1,   Zhouming%Xu%NULL%1,   Hui%Qiu%NULL%1,   Yuwei%Liu%NULL%3,   Jiayou%Lyu%NULL%1,   Jiwen%You%NULL%1,   Peng%Zhao%NULL%0,   Shihao%Wang%NULL%1,   Yunfei%Tang%NULL%1,   Hao%Cui%NULL%1,   Changxiao%Yu%NULL%1,   Feng%Wang%NULL%6,   Fei%Shao%NULL%1,   Peng%Sun%NULL%0,   Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,   Huifang%Wang%NULL%1,   Junwei%Huang%NULL%1,   Yan%Geng%NULL%1,   Shuqi%Jiang%NULL%1,   Qiuping%Zhou%NULL%1,   Xuan%Chen%NULL%1,   Hongping%Hu%NULL%1,   Weifeng%Li%NULL%1,   Chengbin%Zhou%NULL%1,   Xinglin%Gao%NULL%1,   Na%Peng%pnatz@163.com%1,   Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,   Dandan%Cheng%NULL%1,   Yiwei%Cao%NULL%1,   Chuan%Hu%NULL%1,   Fenglin%Zou%NULL%1,   Wencheng%Yu%NULL%1,   Tao%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,   Min Kyu%Kang%NULL%2,   Min Kyu%Kang%NULL%0,   Yu Rim%Lee%NULL%2,   Yu Rim%Lee%NULL%0,   Jeong Eun%Song%NULL%2,   Jeong Eun%Song%NULL%0,   Na Young%Kim%NULL%1,   Young Oh%Kweon%NULL%1,   Won Young%Tak%NULL%1,   Se Young%Jang%NULL%1,   Changhyeong%Lee%NULL%2,   Changhyeong%Lee%NULL%0,   Byung Seok%Kim%NULL%1,   Jae Seok%Hwang%NULL%1,   Byoung Kuk%Jang%NULL%1,   Jinmok%Bae%NULL%1,   Ji Yeon%Lee%NULL%0,   Jeong Ill%Suh%NULL%1,   Soo Young%Park%NULL%1,   Woo Jin%Chung%NULL%2,   Woo Jin%Chung%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,   Cristina%Roca-Oporto%NULL%0,   Guillermo%Martín-Gutiérrez%NULL%0,   María Dolores%Avilés%NULL%0,   Carmen%Gómez-González%NULL%0,   María Dolores%Navarro-Amuedo%NULL%0,   Julia%Praena-Segovia%NULL%0,   José%Molina%NULL%0,   María%Paniagua-García%NULL%0,   Horacio%García-Delgado%NULL%0,   Antonio%Domínguez-Petit%NULL%0,   Jerónimo%Pachón%NULL%0,   José Miguel%Cisneros%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2189,6 +2360,9 @@
       <c r="H1" t="s">
         <v>75</v>
       </c>
+      <c r="I1" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2204,7 +2378,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -2214,6 +2388,9 @@
       </c>
       <c r="H2" t="s">
         <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="3">
@@ -2230,7 +2407,7 @@
         <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -2240,6 +2417,9 @@
       </c>
       <c r="H3" t="s">
         <v>86</v>
+      </c>
+      <c r="I3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="4">
@@ -2256,7 +2436,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -2266,6 +2446,9 @@
       </c>
       <c r="H4" t="s">
         <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="5">
@@ -2282,7 +2465,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2292,6 +2475,9 @@
       </c>
       <c r="H5" t="s">
         <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6">
@@ -2308,7 +2494,7 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -2318,6 +2504,9 @@
       </c>
       <c r="H6" t="s">
         <v>101</v>
+      </c>
+      <c r="I6" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="7">
@@ -2334,7 +2523,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -2344,6 +2533,9 @@
       </c>
       <c r="H7" t="s">
         <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="8">
@@ -2360,7 +2552,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -2370,6 +2562,9 @@
       </c>
       <c r="H8" t="s">
         <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="9">
@@ -2386,7 +2581,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -2396,6 +2591,9 @@
       </c>
       <c r="H9" t="s">
         <v>116</v>
+      </c>
+      <c r="I9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="10">
@@ -2412,7 +2610,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -2422,6 +2620,9 @@
       </c>
       <c r="H10" t="s">
         <v>121</v>
+      </c>
+      <c r="I10" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="11">
@@ -2438,7 +2639,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -2448,6 +2649,9 @@
       </c>
       <c r="H11" t="s">
         <v>126</v>
+      </c>
+      <c r="I11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="12">
@@ -2464,7 +2668,7 @@
         <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>398</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -2474,6 +2678,9 @@
       </c>
       <c r="H12" t="s">
         <v>131</v>
+      </c>
+      <c r="I12" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="13">
@@ -2490,7 +2697,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -2500,6 +2707,9 @@
       </c>
       <c r="H13" t="s">
         <v>136</v>
+      </c>
+      <c r="I13" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="14">
@@ -2516,7 +2726,7 @@
         <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -2526,6 +2736,9 @@
       </c>
       <c r="H14" t="s">
         <v>141</v>
+      </c>
+      <c r="I14" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="15">
@@ -2542,7 +2755,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>344</v>
+        <v>401</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -2552,6 +2765,9 @@
       </c>
       <c r="H15" t="s">
         <v>146</v>
+      </c>
+      <c r="I15" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="16">
@@ -2568,7 +2784,7 @@
         <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>345</v>
+        <v>402</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -2578,6 +2794,9 @@
       </c>
       <c r="H16" t="s">
         <v>151</v>
+      </c>
+      <c r="I16" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="17">
@@ -2594,7 +2813,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -2604,6 +2823,9 @@
       </c>
       <c r="H17" t="s">
         <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="18">
@@ -2631,6 +2853,9 @@
       <c r="H18" t="s">
         <v>91</v>
       </c>
+      <c r="I18" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -2657,6 +2882,9 @@
       <c r="H19" t="s">
         <v>91</v>
       </c>
+      <c r="I19" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -2672,7 +2900,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -2682,6 +2910,9 @@
       </c>
       <c r="H20" t="s">
         <v>160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="21">
@@ -2698,7 +2929,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>348</v>
+        <v>405</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -2708,6 +2939,9 @@
       </c>
       <c r="H21" t="s">
         <v>165</v>
+      </c>
+      <c r="I21" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="22">
@@ -2735,6 +2969,9 @@
       <c r="H22" t="s">
         <v>91</v>
       </c>
+      <c r="I22" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -2750,7 +2987,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -2760,6 +2997,9 @@
       </c>
       <c r="H23" t="s">
         <v>170</v>
+      </c>
+      <c r="I23" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="24">
@@ -2787,6 +3027,9 @@
       <c r="H24" t="s">
         <v>91</v>
       </c>
+      <c r="I24" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -2802,7 +3045,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -2812,6 +3055,9 @@
       </c>
       <c r="H25" t="s">
         <v>175</v>
+      </c>
+      <c r="I25" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="26">
@@ -2828,7 +3074,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -2838,6 +3084,9 @@
       </c>
       <c r="H26" t="s">
         <v>180</v>
+      </c>
+      <c r="I26" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="27">
@@ -2854,7 +3103,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>352</v>
+        <v>409</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -2864,6 +3113,9 @@
       </c>
       <c r="H27" t="s">
         <v>185</v>
+      </c>
+      <c r="I27" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="28">
@@ -2880,7 +3132,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>353</v>
+        <v>410</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -2890,6 +3142,9 @@
       </c>
       <c r="H28" t="s">
         <v>190</v>
+      </c>
+      <c r="I28" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="29">
@@ -2906,7 +3161,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -2916,6 +3171,9 @@
       </c>
       <c r="H29" t="s">
         <v>195</v>
+      </c>
+      <c r="I29" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="30">
@@ -2932,7 +3190,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -2942,6 +3200,9 @@
       </c>
       <c r="H30" t="s">
         <v>200</v>
+      </c>
+      <c r="I30" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="31">
@@ -2969,6 +3230,9 @@
       <c r="H31" t="s">
         <v>91</v>
       </c>
+      <c r="I31" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -2984,7 +3248,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -2994,6 +3258,9 @@
       </c>
       <c r="H32" t="s">
         <v>91</v>
+      </c>
+      <c r="I32" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="33">
@@ -3010,7 +3277,7 @@
         <v>206</v>
       </c>
       <c r="E33" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -3020,6 +3287,9 @@
       </c>
       <c r="H33" t="s">
         <v>209</v>
+      </c>
+      <c r="I33" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="34">
@@ -3036,7 +3306,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -3046,6 +3316,9 @@
       </c>
       <c r="H34" t="s">
         <v>195</v>
+      </c>
+      <c r="I34" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="35">
@@ -3073,6 +3346,9 @@
       <c r="H35" t="s">
         <v>91</v>
       </c>
+      <c r="I35" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
@@ -3099,6 +3375,9 @@
       <c r="H36" t="s">
         <v>91</v>
       </c>
+      <c r="I36" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -3114,7 +3393,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -3124,6 +3403,9 @@
       </c>
       <c r="H37" t="s">
         <v>91</v>
+      </c>
+      <c r="I37" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="38">
@@ -3140,7 +3422,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -3150,6 +3432,9 @@
       </c>
       <c r="H38" t="s">
         <v>222</v>
+      </c>
+      <c r="I38" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="39">
@@ -3166,7 +3451,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -3176,6 +3461,9 @@
       </c>
       <c r="H39" t="s">
         <v>226</v>
+      </c>
+      <c r="I39" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="40">
@@ -3192,7 +3480,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -3202,6 +3490,9 @@
       </c>
       <c r="H40" t="s">
         <v>231</v>
+      </c>
+      <c r="I40" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="41">
@@ -3218,7 +3509,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -3228,6 +3519,9 @@
       </c>
       <c r="H41" t="s">
         <v>236</v>
+      </c>
+      <c r="I41" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="42">
@@ -3244,7 +3538,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -3254,6 +3548,9 @@
       </c>
       <c r="H42" t="s">
         <v>241</v>
+      </c>
+      <c r="I42" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="43">
@@ -3270,7 +3567,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -3280,6 +3577,9 @@
       </c>
       <c r="H43" t="s">
         <v>246</v>
+      </c>
+      <c r="I43" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="44">
@@ -3296,7 +3596,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -3306,6 +3606,9 @@
       </c>
       <c r="H44" t="s">
         <v>251</v>
+      </c>
+      <c r="I44" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="45">
@@ -3333,6 +3636,9 @@
       <c r="H45" t="s">
         <v>91</v>
       </c>
+      <c r="I45" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
@@ -3348,7 +3654,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -3358,6 +3664,9 @@
       </c>
       <c r="H46" t="s">
         <v>246</v>
+      </c>
+      <c r="I46" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="47">
@@ -3385,6 +3694,9 @@
       <c r="H47" t="s">
         <v>91</v>
       </c>
+      <c r="I47" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
@@ -3400,7 +3712,7 @@
         <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -3410,6 +3722,9 @@
       </c>
       <c r="H48" t="s">
         <v>260</v>
+      </c>
+      <c r="I48" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="49">
@@ -3426,7 +3741,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -3436,6 +3751,9 @@
       </c>
       <c r="H49" t="s">
         <v>265</v>
+      </c>
+      <c r="I49" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="50">
@@ -3452,7 +3770,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -3462,6 +3780,9 @@
       </c>
       <c r="H50" t="s">
         <v>270</v>
+      </c>
+      <c r="I50" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="51">
@@ -3478,7 +3799,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -3488,6 +3809,9 @@
       </c>
       <c r="H51" t="s">
         <v>275</v>
+      </c>
+      <c r="I51" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="52">
@@ -3504,7 +3828,7 @@
         <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -3514,6 +3838,9 @@
       </c>
       <c r="H52" t="s">
         <v>280</v>
+      </c>
+      <c r="I52" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="53">
@@ -3530,7 +3857,7 @@
         <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -3540,6 +3867,9 @@
       </c>
       <c r="H53" t="s">
         <v>285</v>
+      </c>
+      <c r="I53" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="54">
@@ -3567,6 +3897,9 @@
       <c r="H54" t="s">
         <v>91</v>
       </c>
+      <c r="I54" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
@@ -3582,7 +3915,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -3592,6 +3925,9 @@
       </c>
       <c r="H55" t="s">
         <v>91</v>
+      </c>
+      <c r="I55" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="56">
@@ -3608,7 +3944,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -3618,6 +3954,9 @@
       </c>
       <c r="H56" t="s">
         <v>294</v>
+      </c>
+      <c r="I56" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="57">
@@ -3634,7 +3973,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>376</v>
+        <v>433</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -3644,6 +3983,9 @@
       </c>
       <c r="H57" t="s">
         <v>299</v>
+      </c>
+      <c r="I57" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="58">
@@ -3660,7 +4002,7 @@
         <v>301</v>
       </c>
       <c r="E58" t="s">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -3670,6 +4012,9 @@
       </c>
       <c r="H58" t="s">
         <v>304</v>
+      </c>
+      <c r="I58" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="59">
@@ -3686,7 +4031,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -3696,6 +4041,9 @@
       </c>
       <c r="H59" t="s">
         <v>309</v>
+      </c>
+      <c r="I59" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="60">
@@ -3712,7 +4060,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -3722,6 +4070,9 @@
       </c>
       <c r="H60" t="s">
         <v>314</v>
+      </c>
+      <c r="I60" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="61">
@@ -3738,7 +4089,7 @@
         <v>316</v>
       </c>
       <c r="E61" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -3748,6 +4099,9 @@
       </c>
       <c r="H61" t="s">
         <v>319</v>
+      </c>
+      <c r="I61" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="62">
@@ -3764,7 +4118,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -3774,6 +4128,9 @@
       </c>
       <c r="H62" t="s">
         <v>324</v>
+      </c>
+      <c r="I62" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="63">
@@ -3790,7 +4147,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -3800,6 +4157,9 @@
       </c>
       <c r="H63" t="s">
         <v>329</v>
+      </c>
+      <c r="I63" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="64">
@@ -3816,7 +4176,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -3826,6 +4186,9 @@
       </c>
       <c r="H64" t="s">
         <v>226</v>
+      </c>
+      <c r="I64" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="65">
@@ -3852,6 +4215,9 @@
       </c>
       <c r="H65" t="s">
         <v>91</v>
+      </c>
+      <c r="I65" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="666">
   <si>
     <t>Doi</t>
   </si>
@@ -1987,6 +1987,681 @@
   </si>
   <si>
     <t>[Sonsoles%Salto-Alejandre%NULL%0,   Cristina%Roca-Oporto%NULL%0,   Guillermo%Martín-Gutiérrez%NULL%0,   María Dolores%Avilés%NULL%0,   Carmen%Gómez-González%NULL%0,   María Dolores%Navarro-Amuedo%NULL%0,   Julia%Praena-Segovia%NULL%0,   José%Molina%NULL%0,   María%Paniagua-García%NULL%0,   Horacio%García-Delgado%NULL%0,   Antonio%Domínguez-Petit%NULL%0,   Jerónimo%Pachón%NULL%0,   José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,    Min%He%NULL%1,    Wanhong%Yin%NULL%1,    Xuelian%Liao%NULL%1,    Bo%Wang%NULL%7,    Xiaodong%Jin%NULL%1,    Yao%Ma%NULL%3,    Jirong%Yue%NULL%1,    Lang%Bai%NULL%1,    Dan%Liu%NULL%2,    Ting%Zhu%NULL%1,    Zhixin%Huang%NULL%1,    Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,    Shuchang%Zhou%NULL%1,    Yujin%Wang%NULL%1,    Wenzhi%Lv%NULL%2,    Shili%Wang%NULL%1,    Ting%Wang%751884926@qq.com%1,    Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,    Yan-chak%Li%NULL%1,    Sonali%Bose%NULL%1,    Ravi%Iyengar%NULL%1,    Supinda%Bunyavanich%NULL%1,    Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,     Hai-Tao%Zhang%null%1,     Jorge%Goncalves%null%1,     Yang%Xiao%null%1,     Maolin%Wang%null%1,     Yuqi%Guo%null%1,     Chuan%Sun%null%1,     Xiuchuan%Tang%null%1,     Liang%Jing%null%1,     Mingyang%Zhang%null%1,     Xiang%Huang%null%1,     Ying%Xiao%null%1,     Haosen%Cao%null%1,     Yanyan%Chen%null%1,     Tongxin%Ren%null%1,     Fang%Wang%null%1,     Yaru%Xiao%null%1,     Sufang%Huang%null%1,     Xi%Tan%null%1,     Niannian%Huang%null%1,     Bo%Jiao%null%1,     Cheng%Cheng%null%1,     Yong%Zhang%null%1,     Ailin%Luo%null%1,     Laurent%Mombaerts%null%1,     Junyang%Jin%null%1,     Zhiguo%Cao%null%1,     Shusheng%Li%null%4,     Hui%Xu%null%1,     Ye%Yuan%null%1,   Li%Yan%null%1,   Hai-Tao%Zhang%null%1,   Jorge%Goncalves%null%1,   Yang%Xiao%null%1,   Maolin%Wang%null%1,   Yuqi%Guo%null%1,   Chuan%Sun%null%1,   Xiuchuan%Tang%null%1,   Liang%Jing%null%1,   Mingyang%Zhang%null%1,   Xiang%Huang%null%1,   Ying%Xiao%null%1,   Haosen%Cao%null%1,   Yanyan%Chen%null%1,   Tongxin%Ren%null%1,   Fang%Wang%null%1,   Yaru%Xiao%null%1,   Sufang%Huang%null%1,   Xi%Tan%null%1,   Niannian%Huang%null%1,   Bo%Jiao%null%1,   Cheng%Cheng%null%1,   Yong%Zhang%null%1,   Ailin%Luo%null%1,   Laurent%Mombaerts%null%1,   Junyang%Jin%null%1,   Zhiguo%Cao%null%1,   Shusheng%Li%null%0,   Hui%Xu%null%1,   Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,    Mengfei%Guo%NULL%1,    Limin%Duan%NULL%1,    Feng%Wu%NULL%1,    Guorong%Hu%NULL%1,    Zhihui%Wang%NULL%1,    Qi%Huang%NULL%2,    Tingting%Liao%NULL%1,    Juanjuan%Xu%NULL%1,    Yanling%Ma%NULL%1,    Zhilei%Lv%NULL%1,    Wenjing%Xiao%NULL%1,    Zilin%Zhao%NULL%1,    Xueyun%Tan%NULL%1,    Daquan%Meng%NULL%1,    Shujing%Zhang%NULL%1,    E%Zhou%NULL%1,    Zhengrong%Yin%NULL%1,    Wei%Geng%NULL%1,    Xuan%Wang%NULL%1,    Jianchu%Zhang%NULL%1,    Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,    Yu%Zhang%whxhzy@163.com%1,    Yang%Jin%whuhjy@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,    Francesco%Arru%NULL%2,    Francesco%Arru%NULL%0,    Andrea%De Vito%NULL%3,    Alessandro%Sassu%NULL%2,    Alessandro%Sassu%NULL%0,    Giovanni%Valdes%NULL%1,    Valentina%Scano%NULL%1,    Elisabetta%Zinellu%NULL%1,    Roberto%Perra%NULL%1,    Giordano%Madeddu%NULL%3,    Ciriaco%Carru%NULL%1,    Pietro%Pirina%NULL%3,    Arduino A.%Mangoni%NULL%2,    Arduino A.%Mangoni%NULL%0,    Sergio%Babudieri%NULL%4,    Sergio%Babudieri%NULL%0,    Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,    Pablo%Ryan%NULL%3,    Jorge%Valencia%NULL%2,    Jorge%Valencia%NULL%0,    Mario%Pérez-Butragueño%NULL%2,    Mario%Pérez-Butragueño%NULL%0,    Eva%Jiménez%NULL%2,    Eva%Jiménez%NULL%0,    Mario%Fontán-Vela%NULL%1,    Elsa%Izquierdo-García%NULL%2,    Elsa%Izquierdo-García%NULL%0,    Inés%Fernandez-Jimenez%NULL%1,    Elena%Álvaro-Alonso%NULL%1,    Andrea%Lazaro%NULL%2,    Andrea%Lazaro%NULL%0,    Marta%Alvarado%NULL%1,    Helena%Notario%NULL%1,    Salvador%Resino%NULL%1,    Daniel%Velez-Serrano%NULL%1,    Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,    Yiru%Wang%NULL%4,    Xuecheng%Zhao%NULL%1,    Lixuan%Wang%NULL%1,    Feng%Liu%NULL%4,    Tao%Wang%NULL%20,    Dawei%Ye%NULL%4,    Yongman%Lv%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,    Valentina%Zuccaro%NULL%1,    Luca%Novelli%NULL%1,    Lorenzo%Zileri%NULL%2,    Lorenzo%Zileri%NULL%0,    Ciro%Celsa%NULL%1,    Federico%Raimondi%NULL%2,    Federico%Raimondi%NULL%0,    Mauro%Gori%NULL%1,    Giulia%Cammà%NULL%1,    Salvatore%Battaglia%NULL%1,    Vincenzo Giuseppe%Genova%NULL%1,    Laura%Paris%NULL%1,    Matteo%Tacelli%NULL%1,    Francesco Antonio%Mancarella%NULL%1,    Marco%Enea%NULL%1,    Massimo%Attanasio%NULL%1,    Michele%Senni%NULL%1,    Fabiano%Di Marco%NULL%1,    Luca Ferdinando%Lorini%NULL%1,    Stefano%Fagiuoli%NULL%1,    Raffaele%Bruno%NULL%2,    Calogero%Cammà%NULL%1,    Antonio%Gasbarrini%NULL%1,    Francesco%Di Gennaro%NULL%2,    Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,    Gan-xun%Li%NULL%1,    Lin%Chen%NULL%2,    Chang%Shu%NULL%1,    Jia%Song%NULL%1,    Wei%Wang%NULL%3,    Yu-wei%Wang%NULL%1,    Qian%Chen%NULL%2,    Guan-nan%Jin%NULL%1,    Tong-tong%Liu%NULL%1,    Jun-nan%Liang%NULL%1,    Peng%Zhu%NULL%1,    Wei%Zhu%NULL%3,    Yong%Li%NULL%3,    Bin-hao%Zhang%NULL%1,    Huan%Feng%NULL%1,    Wan-guang%Zhang%NULL%1,    Zhen-yu%Yin%NULL%1,    Wen-kui%Yu%NULL%1,    Yang%Yang%NULL%2,    Hua-qiu%Zhang%NULL%1,    Zhou-ping%Tang%NULL%1,    Hui%Wang%NULL%2,    Jun-bo%Hu%NULL%1,    Ji-hong%Liu%NULL%1,    Ping%Yin%NULL%1,    Xiao-ping%Chen%NULL%1,    Bixiang%Zhang%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,    Günay%Can%NULL%2,    Günay%Can%NULL%0,    Rıdvan%Karaali%NULL%1,    Şermin%Börekçi%NULL%1,    İlker İnanç%Balkan%NULL%1,    Bilun%Gemicioğlu%NULL%1,    Dildar%Konukoğlu%NULL%1,    Ethem%Erginöz%NULL%1,    Mehmet Sarper%Erdoğan%NULL%1,    Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,    Danila%Azzolina%NULL%1,    Eyal%Hayden%NULL%2,    Eyal%Hayden%NULL%0,    Gianluca%Gaidano%NULL%2,    Gianluca%Gaidano%NULL%0,    Mario%Pirisi%NULL%2,    Mario%Pirisi%NULL%0,    Antonio%Acquaviva%NULL%2,    Antonio%Acquaviva%NULL%0,    Gianluca%Aimaretti%NULL%2,    Gianluca%Aimaretti%NULL%0,    Paolo%Aluffi Valletti%NULL%3,    Paolo%Aluffi Valletti%NULL%0,    Roberto%Angilletta%NULL%2,    Roberto%Angilletta%NULL%0,    Roberto%Arioli%NULL%2,    Roberto%Arioli%NULL%0,    Gian Carlo%Avanzi%NULL%2,    Gian Carlo%Avanzi%NULL%0,    Gianluca%Avino%NULL%2,    Gianluca%Avino%NULL%0,    Piero Emilio%Balbo%NULL%2,    Piero Emilio%Balbo%NULL%0,    Giulia%Baldon%NULL%2,    Giulia%Baldon%NULL%0,    Francesca%Baorda%NULL%2,    Francesca%Baorda%NULL%0,    Emanuela%Barbero%NULL%2,    Emanuela%Barbero%NULL%0,    Alessio%Baricich%NULL%2,    Alessio%Baricich%NULL%0,    Michela%Barini%NULL%2,    Michela%Barini%NULL%0,    Francesco%Barone-Adesi%NULL%2,    Francesco%Barone-Adesi%NULL%0,    Sofia%Battistini%NULL%2,    Sofia%Battistini%NULL%0,    Michela%Beltrame%NULL%2,    Michela%Beltrame%NULL%0,    Matteo%Bertoli%NULL%2,    Matteo%Bertoli%NULL%0,    Stephanie%Bertolin%NULL%2,    Stephanie%Bertolin%NULL%0,    Marinella%Bertolotti%NULL%2,    Marinella%Bertolotti%NULL%0,    Marta%Betti%NULL%2,    Marta%Betti%NULL%0,    Flavio%Bobbio%NULL%2,    Flavio%Bobbio%NULL%0,    Paolo%Boffano%NULL%2,    Paolo%Boffano%NULL%0,    Lucio%Boglione%NULL%2,    Lucio%Boglione%NULL%0,    Silvio%Borrè%NULL%2,    Silvio%Borrè%NULL%0,    Matteo%Brucoli%NULL%2,    Matteo%Brucoli%NULL%0,    Elisa%Calzaducca%NULL%2,    Elisa%Calzaducca%NULL%0,    Edoardo%Cammarata%NULL%2,    Edoardo%Cammarata%NULL%0,    Vincenzo%Cantaluppi%NULL%2,    Vincenzo%Cantaluppi%NULL%0,    Roberto%Cantello%NULL%2,    Roberto%Cantello%NULL%0,    Andrea%Capponi%NULL%2,    Andrea%Capponi%NULL%0,    Alessandro%Carriero%NULL%2,    Alessandro%Carriero%NULL%0,    Giuseppe Francesco%Casciaro%NULL%2,    Giuseppe Francesco%Casciaro%NULL%0,    Luigi Mario%Castello%NULL%2,    Luigi Mario%Castello%NULL%0,    Federico%Ceruti%NULL%2,    Federico%Ceruti%NULL%0,    Guido%Chichino%NULL%2,    Guido%Chichino%NULL%0,    Emilio%Chirico%NULL%2,    Emilio%Chirico%NULL%0,    Carlo%Cisari%NULL%1,    Micol Giulia%Cittone%NULL%2,    Micol Giulia%Cittone%NULL%0,    Crizia%Colombo%NULL%2,    Crizia%Colombo%NULL%0,    Cristoforo%Comi%NULL%2,    Cristoforo%Comi%NULL%0,    Eleonora%Croce%NULL%2,    Eleonora%Croce%NULL%0,    Tommaso%Daffara%NULL%2,    Tommaso%Daffara%NULL%0,    Pietro%Danna%NULL%2,    Pietro%Danna%NULL%0,    Francesco%Della Corte%NULL%2,    Francesco%Della Corte%NULL%0,    Simona%De Vecchi%NULL%2,    Simona%De Vecchi%NULL%0,    Umberto%Dianzani%NULL%2,    Umberto%Dianzani%NULL%0,    Davide%Di Benedetto%NULL%2,    Davide%Di Benedetto%NULL%0,    Elia%Esposto%NULL%2,    Elia%Esposto%NULL%0,    Fabrizio%Faggiano%NULL%2,    Fabrizio%Faggiano%NULL%0,    Zeno%Falaschi%NULL%2,    Zeno%Falaschi%NULL%0,    Daniela%Ferrante%NULL%2,    Daniela%Ferrante%NULL%0,    Alice%Ferrero%NULL%2,    Alice%Ferrero%NULL%0,    Ileana%Gagliardi%NULL%2,    Ileana%Gagliardi%NULL%0,    Alessandra%Galbiati%NULL%2,    Alessandra%Galbiati%NULL%0,    Silvia%Gallo%NULL%2,    Silvia%Gallo%NULL%0,    Pietro Luigi%Garavelli%NULL%2,    Pietro Luigi%Garavelli%NULL%0,    Clara Ada%Gardino%NULL%2,    Clara Ada%Gardino%NULL%0,    Massimiliano%Garzaro%NULL%3,    Massimiliano%Garzaro%NULL%0,    Maria Luisa%Gastaldello%NULL%2,    Maria Luisa%Gastaldello%NULL%0,    Francesco%Gavelli%NULL%2,    Francesco%Gavelli%NULL%0,    Alessandra%Gennari%NULL%2,    Alessandra%Gennari%NULL%0,    Greta Maria%Giacomini%NULL%2,    Greta Maria%Giacomini%NULL%0,    Irene%Giacone%NULL%2,    Irene%Giacone%NULL%0,    Valentina%Giai Via%NULL%2,    Valentina%Giai Via%NULL%0,    Francesca%Giolitti%NULL%2,    Francesca%Giolitti%NULL%0,    Laura Cristina%Gironi%NULL%2,    Laura Cristina%Gironi%NULL%0,    Carla%Gramaglia%NULL%2,    Carla%Gramaglia%NULL%0,    Leonardo%Grisafi%NULL%2,    Leonardo%Grisafi%NULL%0,    Ilaria%Inserra%NULL%2,    Ilaria%Inserra%NULL%0,    Marco%Invernizzi%NULL%2,    Marco%Invernizzi%NULL%0,    Marco%Krengli%NULL%2,    Marco%Krengli%NULL%0,    Emanuela%Labella%NULL%2,    Emanuela%Labella%NULL%0,    Irene Cecilia%Landi%NULL%2,    Irene Cecilia%Landi%NULL%0,    Raffaella%Landi%NULL%2,    Raffaella%Landi%NULL%0,    Ilaria%Leone%NULL%2,    Ilaria%Leone%NULL%0,    Veronica%Lio%NULL%2,    Veronica%Lio%NULL%0,    Luca%Lorenzini%NULL%2,    Luca%Lorenzini%NULL%0,    Antonio%Maconi%NULL%2,    Antonio%Maconi%NULL%0,    Mario%Malerba%NULL%2,    Mario%Malerba%NULL%0,    Giulia Francesca%Manfredi%NULL%2,    Giulia Francesca%Manfredi%NULL%0,    Maria%Martelli%NULL%2,    Maria%Martelli%NULL%0,    Letizia%Marzari%NULL%2,    Letizia%Marzari%NULL%0,    Paolo%Marzullo%NULL%2,    Paolo%Marzullo%NULL%0,    Marco%Mennuni%NULL%2,    Marco%Mennuni%NULL%0,    Claudia%Montabone%NULL%2,    Claudia%Montabone%NULL%0,    Umberto%Morosini%NULL%2,    Umberto%Morosini%NULL%0,    Marco%Mussa%NULL%2,    Marco%Mussa%NULL%0,    Ilaria%Nerici%NULL%2,    Ilaria%Nerici%NULL%0,    Alessandro%Nuzzo%NULL%2,    Alessandro%Nuzzo%NULL%0,    Carlo%Olivieri%NULL%2,    Carlo%Olivieri%NULL%0,    Samuel Alberto%Padelli%NULL%2,    Samuel Alberto%Padelli%NULL%0,    Massimiliano%Panella%NULL%2,    Massimiliano%Panella%NULL%0,    Andrea%Parisini%NULL%2,    Andrea%Parisini%NULL%0,    Alessio%Paschè%NULL%2,    Alessio%Paschè%NULL%0,    Filippo%Patrucco%NULL%2,    Filippo%Patrucco%NULL%0,    Giuseppe%Patti%NULL%2,    Giuseppe%Patti%NULL%0,    Alberto%Pau%NULL%2,    Alberto%Pau%NULL%0,    Anita Rebecca%Pedrinelli%NULL%2,    Anita Rebecca%Pedrinelli%NULL%0,    Ilaria%Percivale%NULL%2,    Ilaria%Percivale%NULL%0,    Luca%Ragazzoni%NULL%2,    Luca%Ragazzoni%NULL%0,    Roberta%Re%NULL%2,    Roberta%Re%NULL%0,    Cristina%Rigamonti%NULL%2,    Cristina%Rigamonti%NULL%0,    Eleonora%Rizzi%NULL%2,    Eleonora%Rizzi%NULL%0,    Andrea%Rognoni%NULL%2,    Andrea%Rognoni%NULL%0,    Annalisa%Roveta%NULL%2,    Annalisa%Roveta%NULL%0,    Luigia%Salamina%NULL%2,    Luigia%Salamina%NULL%0,    Matteo%Santagostino%NULL%2,    Matteo%Santagostino%NULL%0,    Massimo%Saraceno%NULL%2,    Massimo%Saraceno%NULL%0,    Paola%Savoia%NULL%2,    Paola%Savoia%NULL%0,    Marco%Sciarra%NULL%2,    Marco%Sciarra%NULL%0,    Andrea%Schimmenti%NULL%2,    Andrea%Schimmenti%NULL%0,    Lorenza%Scotti%NULL%2,    Lorenza%Scotti%NULL%0,    Enrico%Spinoni%NULL%2,    Enrico%Spinoni%NULL%0,    Carlo%Smirne%NULL%2,    Carlo%Smirne%NULL%0,    Vanessa%Tarantino%NULL%2,    Vanessa%Tarantino%NULL%0,    Paolo Amedeo%Tillio%NULL%2,    Paolo Amedeo%Tillio%NULL%0,    Stelvio%Tonello%NULL%2,    Stelvio%Tonello%NULL%0,    Rosanna%Vaschetto%NULL%2,    Rosanna%Vaschetto%NULL%0,    Veronica%Vassia%NULL%2,    Veronica%Vassia%NULL%0,    Domenico%Zagaria%NULL%2,    Domenico%Zagaria%NULL%0,    Elisa%Zavattaro%NULL%2,    Elisa%Zavattaro%NULL%0,    Patrizia%Zeppegno%NULL%2,    Patrizia%Zeppegno%NULL%0,    Francesca%Zottarelli%NULL%2,    Francesca%Zottarelli%NULL%0,    Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,    Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,    Marta%Ottone%NULL%2,    Marta%Ottone%NULL%0,    Tommaso%Fasano%NULL%1,    Pierpaolo%Pattacini%NULL%1,    Valentina%Iotti%NULL%1,    Lucia%Spaggiari%NULL%1,    Riccardo%Bonacini%NULL%1,    Andrea%Nitrosi%NULL%1,    Efrem%Bonelli%NULL%1,    Simone%Canovi%NULL%1,    Rossana%Colla%NULL%1,    Alessandro%Zerbini%NULL%1,    Marco%Massari%NULL%2,    Ivana%Lattuada%NULL%1,    Anna Maria%Ferrari%NULL%1,    Paolo%Giorgi Rossi%NULL%1,    Massimo%Costantini%NULL%1,    Roberto%Grilli%NULL%2,    Massimiliano%Marino%NULL%2,    Giulio%Formoso%NULL%1,    Debora%Formisano%NULL%2,    Emanuela%Bedeschi%NULL%1,    Cinzia%Perilli%NULL%1,    Elisabetta%La Rosa%NULL%1,    Eufemia%Bisaccia%NULL%1,    Ivano%Venturi%NULL%1,    Massimo%Vicentini%NULL%3,    Cinzia%Campari%NULL%1,    Francesco%Gioia%NULL%1,    Serena%Broccoli%NULL%1,    Pamela%Mancuso%NULL%1,    Marco%Foracchia%NULL%1,    Mirco%Pinotti%NULL%1,    Nicola%Facciolongo%NULL%1,    Laura%Trabucco%NULL%1,    Stefano%De Pietri%NULL%1,    Giorgio Francesco%Danelli%NULL%1,    Laura%Albertazzi%NULL%1,    Enrica%Bellesia%NULL%1,    Mattia%Corradini%NULL%1,    Elena%Magnani%NULL%1,    Annalisa%Pilia%NULL%1,    Alessandra%Polese%NULL%1,    Silvia Storchi%Incerti%NULL%1,    Piera%Zaldini%NULL%1,    Bonanno%Orsola%NULL%1,    Matteo%Revelli%NULL%1,    Carlo%Salvarani%NULL%1,    Carmine%Pinto%NULL%1,    Francesco%Venturelli%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,    Hong-Qiu%Gu%NULL%1,    Yi%Liu (刘艺)%NULL%1,    Guqin%Zhang%NULL%1,    Hang%Yang%NULL%1,    Huifang%Hu%NULL%1,    Chenyang%Lu%NULL%1,    Yang%Li%NULL%2,    Liyi%Wang%NULL%1,    Yi%Liu (刘毅)%yi2006liu@163.com%1,    Yi%Zhao%zhao.y1977@163.com%2,    Huaqin%Pan%phq2012@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,    Tawsifur%Rahman%NULL%2,    Tawsifur%Rahman%NULL%0,    Amith%Khandakar%NULL%3,    Somaya%Al-Madeed%NULL%2,    Susu M.%Zughaier%NULL%5,    Suhail A. R.%Doi%NULL%3,    Hanadi%Hassen%NULL%1,    Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,    Jia%Sun%NULL%1,    Yi-Xin%Li%NULL%1,    Qian%Chen%NULL%0,    Qing-Quan%Liu%NULL%1,    Zhou%Sun%NULL%1,    Ran%Pang%NULL%1,    Fei%Chen%NULL%1,    Bing-Yang%Xu%NULL%1,    Anne%Manyande%NULL%1,    Taane G%Clark%NULL%1,    Jin-Ping%Li%NULL%1,    Ilkay Erdogan%Orhan%NULL%1,    Yu-Ke%Tian%NULL%1,    Tao%Wang%wt7636@126.com%0,    Wei%Wu%wt7636@126.com%1,    Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>Is it all in the heart? Myocardial injury as major predictor of mortality among hospitalized COVID\u201019 patients</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%0, Imam%Z%coreGivesNoEmail%1, Lippi%G%coreGivesNoEmail%1, Oran%DP%coreGivesNoEmail%1, Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,    Caiping%Song%NULL%1,    En%Liu%NULL%1,    Xi%Liu%NULL%1,    Hao%Wu%NULL%1,    Hui%Lin%NULL%1,    Yuliang%Liu%NULL%1,    Qi%Li%NULL%1,    Zhi%Xu%NULL%1,    XiaoBao%Ren%NULL%1,    Cheng%Zhang%NULL%1,    Wenjing%Zhang%NULL%1,    Wei%Duan%NULL%2,    Yongfeng%Tian%NULL%1,    Ping%Li%NULL%1,    Mingdong%Hu%NULL%1,    Shiming%Yang%NULL%1,    Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,    Changli%Li%NULL%1,    Li%Zheng%NULL%1,    Wenzhi%Lv%NULL%0,    Zhigang%He%NULL%1,    Xinwu%Cui%NULL%1,    Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,    Hayne Cho%Park%NULL%2,    Hayne Cho%Park%NULL%0,    Ajin%Cho%NULL%1,    Juhee%Kim%NULL%1,    Kyu-sang%Yun%NULL%1,    Jinseog%Kim%NULL%1,    Young-Ki%Lee%NULL%1,    Sinan%Kardes.%NULL%2,    Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,    Xiaoyu%Fang%NULL%1,    Lixia%Cheng%NULL%1,    Penghao%Wang%NULL%1,    Shen%Li%NULL%1,    Hao%Yu%NULL%1,    Yao%Zhang%NULL%2,    Nan%Jiang%NULL%1,    Tingting%Zeng%NULL%1,    Chao%Hou%NULL%1,    Jing%Zhou%NULL%0,    Shiru%Li%NULL%1,    Yingzi%Pan%NULL%1,    Yitong%Li%NULL%1,    Lili%Nie%NULL%1,    Yang%Li%NULL%0,    Qidi%Sun%NULL%1,    Hong%Jia%NULL%1,    Mengxia%Li%NULL%1,    Guoqiang%Cao%NULL%1,    Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,    Lucas A%Ramos%NULL%2,    Lucas A%Ramos%NULL%0,    Wouter%Potters%NULL%1,    Marcus L F%Janssen%NULL%1,    Deborah%Hubers%NULL%1,    Shi%Hu%NULL%1,    Egill A%Fridgeirsson%NULL%1,    Dan%Piña-Fuentes%NULL%1,    Rajat%Thomas%NULL%1,    Iwan C C%van der Horst%NULL%1,    Christian%Herff%NULL%2,    Christian%Herff%NULL%0,    Pieter%Kubben%NULL%1,    Paul W G%Elbers%NULL%1,    Henk A%Marquering%NULL%1,    Max%Welling%NULL%1,    Suat%Simsek%NULL%1,    Martijn D%de Kruif%NULL%1,    Tom%Dormans%NULL%1,    Lucas M%Fleuren%NULL%1,    Michiel%Schinkel%NULL%1,    Peter G%Noordzij%NULL%1,    Joop P%van den Bergh%NULL%2,    Joop P%van den Bergh%NULL%0,    Caroline E%Wyers%NULL%1,    David T B%Buis%NULL%2,    David T B%Buis%NULL%0,    W Joost%Wiersinga%NULL%1,    Ella H C%van den Hout%NULL%1,    Auke C%Reidinga%NULL%1,    Daisy%Rusch%NULL%1,    Kim C E%Sigaloff%NULL%1,    Renee A%Douma%NULL%1,    Lianne%de Haan%NULL%1,    Niels C%Gritters van den Oever%NULL%1,    Roger J M W%Rennenberg%NULL%1,    Guido A%van Wingen%NULL%1,    Marcel J H%Aries%NULL%1,    Martijn%Beudel%NULL%2,    Martijn%Beudel%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,    Fajer A.%Al-Ishaq%NULL%2,    Fajer A.%Al-Ishaq%NULL%0,    Fatima S.%Al-Mohannadi%NULL%1,    Reem S.%Mubarak%NULL%1,    Maryam H.%Al-Hitmi%NULL%1,    Khandaker Reajul%Islam%NULL%1,    Amith%Khandakar%NULL%0,    Ali Ait%Hssain%NULL%3,    Ali Ait%Hssain%NULL%0,    Somaya%Al-Madeed%NULL%0,    Susu M.%Zughaier%NULL%0,    Susu M.%Zughaier%NULL%0,    Muhammad E. H.%Chowdhury%NULL%3,    Muhammad E. H.%Chowdhury%NULL%0,    Antonella%Santone%NULL%3,    Antonella%Santone%NULL%0,    Antonella%Santone%NULL%0,    Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,    Amith%Khandakar%NULL%0,    Md Enamul%Hoque%NULL%2,    Md Enamul%Hoque%NULL%0,    Nabil%Ibtehaz%NULL%2,    Nabil%Ibtehaz%NULL%0,    Saad Bin%Kashem%NULL%2,    Saad Bin%Kashem%NULL%0,    Reehum%Masud%NULL%1,    Lutfunnahar%Shampa%NULL%1,    Mohammad Mehedi%Hasan%NULL%1,    Mohammad Tariqul%Islam%NULL%1,    Somaya%Al-Maadeed%NULL%2,    Somaya%Al-Maadeed%NULL%0,    Susu M.%Zughaier%NULL%0,    Susu M.%Zughaier%NULL%0,    Saif%Badran%NULL%2,    Saif%Badran%NULL%0,    Suhail A. R.%Doi%NULL%0,    Suhail A. R.%Doi%NULL%0,    Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,    Pablo%Rodríguez-Belenguer%NULL%2,    Pablo%Rodríguez-Belenguer%NULL%0,    Antonio J.%Serrano-López%NULL%1,    Emilio%Soria-Olivas%NULL%2,    Emilio%Soria-Olivas%NULL%0,    Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,    Haibo%Ai%NULL%1,    Yunong%Fu%NULL%1,    Qinglin%Li%NULL%1,    Ruixia%Cui%NULL%1,    Xiaohua%Ma%NULL%1,    Yan-fen%Ma%NULL%1,    Zi%Wang%NULL%1,    Tong%Liu%NULL%1,    Yunxiang%Long%NULL%1,    Kai%Qu%NULL%1,    Chang%Liu%NULL%1,    Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,    Dawei%Zhang%NULL%1,    Jing%Xu%NULL%4,    Zhu%Chen%NULL%1,    Tieniu%Yang%NULL%1,    Peng%Zhao%NULL%2,    Guofeng%Chen%NULL%1,    Gregory%Cheng%NULL%1,    Yudong%Wang%NULL%1,    Jingfeng%Bi%NULL%1,    Lin%Tan%NULL%1,    George%Lau%NULL%1,    Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,    Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,    Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,    Giulia%Suigo%NULL%1,    Davide%Zampini%NULL%1,    Matteo%Pistoia%NULL%1,    Mariella%Ciola%NULL%1,    Tommaso%Ciampani%NULL%1,    Carolina%Ultori%NULL%1,    Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,    John R%Adler%NULL%5,    Sultan M%Kamran%NULL%2,    Sultan M%Kamran%NULL%0,    Zill-e-Humayun%Mirza%NULL%1,    Hussain Abdul%Moeed%NULL%1,    Arshad%Naseem%NULL%1,    Maryam%Hussain%NULL%1,    Imran%Fazal%NULL%1,    Farrukh%Saeed%NULL%1,    Wasim%Alamgir%NULL%1,    Salman%Saleem%NULL%1,    Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>Development and Validation of a Clinical Risk Score to Predict the Occurrence of Critical Illness in Hospitalized Patients With COVID-19</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,    María M.%Martín%NULL%1,    Mónica%Argueso%NULL%1,    Jordi%Solé-Violán%NULL%1,    Alina%Perez%NULL%1,    José Alberto%Marcos Y Ramos%NULL%1,    Luis%Ramos-Gómez%NULL%1,    Sergio%López%NULL%1,    Andrés%Franco%NULL%1,    Agustín F.%González-Rivero%NULL%1,    María%Martín%NULL%1,    Verónica%Gonzalez%NULL%1,    Julia%Alcoba-Flórez%NULL%1,    Miguel Ángel%Rodriguez%NULL%1,    Marta%Riaño-Ruiz%NULL%1,    Juan%Guillermo O Campo%NULL%1,    Lourdes%González%NULL%1,    Tamara%Cantera%NULL%1,    Raquel%Ortiz-López%NULL%1,    Nazario%Ojeda%NULL%1,    Aurelio%Rodríguez-Pérez%NULL%1,    Casimira%Domínguez%NULL%1,    Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,    Rita%Kukafka%NULL%1,    Arriel%Benis%NULL%2,    Arriel%Benis%NULL%0,    Jinfeng%Li%NULL%1,    Pan%Pan%NULL%2,    Pan%Pan%NULL%0,    Yichao%Li%NULL%2,    Yichao%Li%NULL%0,    Yongjiu%Xiao%NULL%2,    Yongjiu%Xiao%NULL%0,    Bingchao%Han%NULL%2,    Bingchao%Han%NULL%0,    Longxiang%Su%NULL%2,    Longxiang%Su%NULL%0,    Mingliang%Su%NULL%2,    Mingliang%Su%NULL%0,    Yansheng%Li%NULL%2,    Yansheng%Li%NULL%0,    Siqi%Zhang%NULL%2,    Siqi%Zhang%NULL%0,    Dapeng%Jiang%NULL%2,    Dapeng%Jiang%NULL%0,    Xia%Chen%NULL%2,    Xia%Chen%NULL%0,    Fuquan%Zhou%NULL%2,    Fuquan%Zhou%NULL%0,    Ling%Ma%NULL%2,    Ling%Ma%NULL%0,    Pengtao%Bao%NULL%2,    Pengtao%Bao%NULL%0,    Lixin%Xie%xielx301@126.com%2,    Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,    Cristina%Roca-Oporto%NULL%2,    Guillermo%Martín-Gutiérrez%NULL%2,    María Dolores%Avilés%NULL%3,    Carmen%Gómez-González%NULL%2,    María Dolores%Navarro-Amuedo%NULL%2,    Julia%Praena-Segovia%NULL%2,    José%Molina%NULL%2,    María%Paniagua-García%NULL%2,    Horacio%García-Delgado%NULL%2,    Antonio%Domínguez-Petit%NULL%2,    Jerónimo%Pachón%NULL%4,    José Miguel%Cisneros%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,    Barry R.%Meisenberg%NULL%2,    Barry R.%Meisenberg%NULL%0,    James H.%MacDonald%NULL%1,    Nandakumar%Menon%NULL%1,    Marcia B.%Fowler%NULL%1,    Michaline%West%NULL%1,    Jane%Rhule%NULL%1,    Sadaf S.%Qureshi%NULL%1,    Eileen B.%MacDonald%NULL%1,    Yu Ru%Kou%NULL%2,    Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,    Sarah%Poole%NULL%2,    Sarah%Poole%NULL%0,    Meeta%Pradhan%NULL%1,    Akhil%Vaid%NULL%3,    Akhil%Vaid%NULL%0,    Sulaiman%Somani%NULL%3,    Sulaiman%Somani%NULL%0,    Adam J%Russak%NULL%4,    Adam J%Russak%NULL%0,    Jessica K%De Freitas%NULL%3,    Jessica K%De Freitas%NULL%0,    Fayzan F%Chaudhry%NULL%2,    Fayzan F%Chaudhry%NULL%0,    Ishan%Paranjpe%NULL%2,    Ishan%Paranjpe%NULL%0,    Kipp W%Johnson%NULL%3,    Kipp W%Johnson%NULL%0,    Samuel J%Lee%NULL%2,    Samuel J%Lee%NULL%0,    Riccardo%Miotto%NULL%3,    Riccardo%Miotto%NULL%0,    Felix%Richter%NULL%2,    Felix%Richter%NULL%0,    Shan%Zhao%NULL%2,    Shan%Zhao%NULL%0,    Noam D%Beckmann%NULL%2,    Noam D%Beckmann%NULL%0,    Nidhi%Naik%NULL%2,    Nidhi%Naik%NULL%0,    Arash%Kia%NULL%3,    Arash%Kia%NULL%0,    Prem%Timsina%NULL%3,    Prem%Timsina%NULL%0,    Anuradha%Lala%NULL%3,    Anuradha%Lala%NULL%0,    Manish%Paranjpe%NULL%2,    Manish%Paranjpe%NULL%0,    Eddye%Golden%NULL%3,    Eddye%Golden%NULL%0,    Matteo%Danieletto%NULL%3,    Matteo%Danieletto%NULL%0,    Manbir%Singh%NULL%3,    Manbir%Singh%NULL%0,    Dara%Meyer%NULL%3,    Dara%Meyer%NULL%0,    Paul F%O'Reilly%NULL%2,    Paul F%O'Reilly%NULL%0,    Laura%Huckins%NULL%2,    Laura%Huckins%NULL%0,    Patricia%Kovatch%NULL%4,    Patricia%Kovatch%NULL%0,    Joseph%Finkelstein%NULL%3,    Joseph%Finkelstein%NULL%0,    Robert M.%Freeman%NULL%2,    Robert M.%Freeman%NULL%0,    Edgar%Argulian%NULL%2,    Edgar%Argulian%NULL%0,    Andrew%Kasarskis%NULL%2,    Andrew%Kasarskis%NULL%0,    Bethany%Percha%NULL%2,    Bethany%Percha%NULL%0,    Judith A%Aberg%NULL%3,    Judith A%Aberg%NULL%0,    Emilia%Bagiella%NULL%3,    Emilia%Bagiella%NULL%0,    Carol R%Horowitz%NULL%3,    Carol R%Horowitz%NULL%0,    Barbara%Murphy%NULL%3,    Barbara%Murphy%NULL%0,    Eric J%Nestler%NULL%3,    Eric J%Nestler%NULL%0,    Eric E%Schadt%NULL%2,    Eric E%Schadt%NULL%0,    Judy H%Cho%NULL%2,    Judy H%Cho%NULL%0,    Carlos%Cordon-Cardo%NULL%4,    Carlos%Cordon-Cardo%NULL%0,    Valentin%Fuster%NULL%2,    Valentin%Fuster%NULL%0,    Dennis S%Charney%NULL%2,    Dennis S%Charney%NULL%0,    David L%Reich%NULL%3,    David L%Reich%NULL%0,    Erwin P%Bottinger%NULL%3,    Erwin P%Bottinger%NULL%0,    Matthew A%Levin%NULL%3,    Matthew A%Levin%NULL%0,    Jagat%Narula%NULL%3,    Jagat%Narula%NULL%0,    Zahi A%Fayad%NULL%3,    Zahi A%Fayad%NULL%0,    Allan C%Just%NULL%2,    Allan C%Just%NULL%0,    Alexander W%Charney%NULL%3,    Alexander W%Charney%NULL%0,    Girish N%Nadkarni%NULL%3,    Girish N%Nadkarni%NULL%0,    Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%3,    Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,    Anne%Chen%NULL%3,    Wei%Hou%NULL%3,    James M.%Graham%NULL%2,    Haifang%Li%NULL%2,    Paul S.%Richman%NULL%2,    Henry C.%Thode%NULL%2,    Adam J.%Singer%NULL%2,    Tim Q.%Duong%NULL%2,    Muhammad%Adrish%NULL%22,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,    Qin%Liu%NULL%1,    Xiao%Zhang%NULL%1,    Shuyi%Liu%NULL%1,    Weiqi%Chen%NULL%1,    Jingjing%You%NULL%1,    Qiuying%Chen%NULL%1,    Minmin%Li%NULL%1,    Zhuozhi%Chen%NULL%1,    Luyan%Chen%NULL%1,    Lv%Chen%NULL%1,    Yuhao%Dong%NULL%1,    Qingsi%Zeng%NULL%1,    Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,    Lei%Nie%NULL%1,    Dongde%Wu%NULL%1,    Jian%Chen%NULL%1,    Zhifeng%Yang%NULL%1,    Ling%Zhang%NULL%4,    Dongqing%Li%NULL%1,    Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,    Burcin%Hakoglu%NULL%2,    Burcin%Hakoglu%NULL%0,    Ali%Kadri Cirak%NULL%1,    Gulru%Polat%NULL%1,    Berna%Komurcuoglu%NULL%1,    Berrin%Akkol%NULL%1,    Cagri%Atasoy%NULL%1,    Eda%Bayramic%NULL%1,    Gunseli%Balci%NULL%1,    Sena%Ataman%NULL%1,    Sinem%Ermin%NULL%1,    Enver%Yalniz%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,    Qiaosen%Chen%NULL%2,    Qiaosen%Chen%NULL%0,    Sumeng%Li%NULL%1,    Huadong%Li%NULL%1,    Qian%Zhang%NULL%1,    Sihong%Lu%NULL%1,    Li%Wu%NULL%1,    Leiqun%Xiong%NULL%1,    Bobin%Mi%NULL%1,    Di%Liu%NULL%3,    Mengji%Lu%NULL%1,    Dongliang%Yang%NULL%1,    Hongbo%Jiang%hongbojiang3@163.com%1,    Shaoping%Zheng%zhengspxx@126.com%1,    Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,    Hua%Zhang%NULL%1,    Rui%Qiao%NULL%1,    Qinggang%Ge%NULL%1,    Shuisheng%Zhang%NULL%1,    Zongxuan%Zhao%NULL%1,    Ci%Tian%NULL%1,    Qingbian%Ma%NULL%2,    Qingbian%Ma%NULL%0,    Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,    Antonia%Ho%NULL%2,    Riinu%Pius%NULL%2,    Iain%Buchan%NULL%1,    Gail%Carson%NULL%2,    Thomas M%Drake%NULL%1,    Jake%Dunning%NULL%2,    Cameron J%Fairfield%NULL%2,    Carrol%Gamble%NULL%2,    Christopher A%Green%NULL%2,    Rishi%Gupta%NULL%1,    Sophie%Halpin%NULL%2,    Hayley E%Hardwick%NULL%1,    Karl A%Holden%NULL%1,    Peter W%Horby%NULL%2,    Clare%Jackson%NULL%2,    Kenneth A%Mclean%NULL%2,    Laura%Merson%NULL%2,    Jonathan S%Nguyen-Van-Tam%NULL%1,    Lisa%Norman%NULL%2,    Mahdad%Noursadeghi%NULL%2,    Piero L%Olliaro%NULL%1,    Mark G%Pritchard%NULL%1,    Clark D%Russell%NULL%2,    Catherine A%Shaw%NULL%2,    Aziz%Sheikh%NULL%2,    Tom%Solomon%NULL%2,    Cathie%Sudlow%NULL%1,    Olivia V%Swann%NULL%1,    Lance CW%Turtle%NULL%2,    Peter JM%Openshaw%NULL%2,    J Kenneth%Baillie%NULL%2,    Malcolm G%Semple%NULL%3,    Annemarie B%Docherty%NULL%3,    Annemarie B%Docherty%NULL%0,    Ewen M%Harrison%NULL%3,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    J Kenneth%Baillie%NULL%0,    Malcolm G%Semple%NULL%0,    Peter JM%Openshaw%NULL%0,    Gail%Carson%NULL%0,    Beatrice%Alex%NULL%1,    Benjamin%Bach%NULL%1,    Wendy S%Barclay%NULL%1,    Debby%Bogaert%NULL%1,    Meera%Chand%NULL%1,    Graham S%Cooke%NULL%1,    Annemarie B%Docherty%NULL%0,    Jake%Dunning%NULL%0,    Ana%da Silva Filipe%NULL%1,    Tom%Fletcher%NULL%1,    Christopher A%Green%NULL%0,    Ewen M%Harrison%NULL%0,    Julian A%Hiscox%NULL%1,    Antonia Ying Wai%Ho%NULL%1,    Peter W%Horby%NULL%0,    Samreen%Ijaz%NULL%1,    Saye%Khoo%NULL%1,    Paul%Klenerman%NULL%1,    Andrew%Law%NULL%2,    Wei Shen%Lim%NULL%1,    Alexander J%Mentzer%NULL%1,    Laura%Merson%NULL%0,    Alison M%Meynert%NULL%1,    Mahdad%Noursadeghi%NULL%0,    Shona C%Moore%NULL%2,    Massimo%Palmarini%NULL%1,    William A%Paxton%NULL%1,    Georgios%Pollakis%NULL%1,    Nicholas%Price%NULL%1,    Andrew%Rambaut%NULL%1,    David L%Robertson%NULL%1,    Clark D%Russell%NULL%0,    Vanessa%Sancho-Shimizu%NULL%1,    Janet T%Scott%NULL%1,    Louise%Sigfrid%NULL%1,    Tom%Solomon%NULL%0,    Shiranee%Sriskandan%NULL%1,    David%Stuart%NULL%1,    Charlotte%Summers%NULL%1,    Richard S%Tedder%NULL%1,    Emma C%Thomson%NULL%1,    Ryan S%Thwaites%NULL%1,    Lance CW%Turtle%NULL%0,    Maria%Zambon%NULL%1,    Hayley%Hardwick%NULL%1,    Chloe%Donohue%NULL%1,    Jane%Ewins%NULL%1,    Wilna%Oosthuyzen%NULL%1,    Fiona%Griffiths%NULL%1,    Lisa%Norman%NULL%0,    Riinu%Pius%NULL%0,    Tom M%Drake%NULL%1,    Cameron J%Fairfield%NULL%0,    Stephen%Knight%NULL%1,    Kenneth A%Mclean%NULL%0,    Derek%Murphy%NULL%1,    Catherine A%Shaw%NULL%0,    Jo%Dalton%NULL%1,    Michelle%Girvan%NULL%1,    Egle%Saviciute%NULL%1,    Stephanie%Roberts%NULL%1,    Janet%Harrison%NULL%1,    Laura%Marsh%NULL%1,    Marie%Connor%NULL%1,    Sophie%Halpin%NULL%0,    Clare%Jackson%NULL%0,    Carrol%Gamble%NULL%0,    Gary%Leeming%NULL%1,    Andrew%Law%NULL%0,    Ross%Hendry%NULL%1,    James%Scott-Brown%NULL%1,    William%Greenhalf%NULL%1,    Victoria%Shaw%NULL%1,    Sarah%McDonald%NULL%2,    Katie A%Ahmed%NULL%1,    Jane A%Armstrong%NULL%1,    Milton%Ashworth%NULL%1,    Innocent G%Asiimwe%NULL%1,    Siddharth%Bakshi%NULL%1,    Samantha L%Barlow%NULL%1,    Laura%Booth%NULL%1,    Benjamin%Brennan%NULL%1,    Katie%Bullock%NULL%1,    Benjamin WA%Catterall%NULL%1,    Jordan J%Clark%NULL%1,    Emily A%Clarke%NULL%1,    Sarah%Cole%NULL%1,    Louise%Cooper%NULL%1,    Helen%Cox%NULL%1,    Christopher%Davis%NULL%1,    Oslem%Dincarslan%NULL%1,    Chris%Dunn%NULL%1,    Philip%Dyer%NULL%1,    Angela%Elliott%NULL%1,    Anthony%Evans%NULL%1,    Lewis WS%Fisher%NULL%1,    Terry%Foster%NULL%1,    Isabel%Garcia-Dorival%NULL%1,    Willliam%Greenhalf%NULL%1,    Philip%Gunning%NULL%1,    Catherine%Hartley%NULL%1,    Antonia%Ho%NULL%0,    Rebecca L%Jensen%NULL%1,    Christopher B%Jones%NULL%1,    Trevor R%Jones%NULL%1,    Shadia%Khandaker%NULL%1,    Katharine%King%NULL%1,    Robyn T%Kiy%NULL%1,    Chrysa%Koukorava%NULL%1,    Annette%Lake%NULL%1,    Suzannah%Lant%NULL%1,    Diane%Latawiec%NULL%1,    L%Lavelle-Langham%NULL%1,    Daniella%Lefteri%NULL%1,    Lauren%Lett%NULL%1,    Lucia A%Livoti%NULL%1,    Maria%Mancini%NULL%1,    Sarah%McDonald%NULL%0,    Laurence%McEvoy%NULL%1,    John%McLauchlan%NULL%1,    Soeren%Metelmann%NULL%1,    Nahida S%Miah%NULL%1,    Joanna%Middleton%NULL%1,    Joyce%Mitchell%NULL%1,    Shona C%Moore%NULL%0,    Ellen G%Murphy%NULL%1,    Rebekah%Penrice-Randal%NULL%1,    Jack%Pilgrim%NULL%1,    Tessa%Prince%NULL%1,    Will%Reynolds%NULL%1,    P Matthew%Ridley%NULL%1,    Debby%Sales%NULL%1,    Victoria E%Shaw%NULL%1,    Rebecca K%Shears%NULL%1,    Benjamin%Small%NULL%1,    Krishanthi S%Subramaniam%NULL%1,    Agnieska%Szemiel%NULL%1,    Aislynn%Taggart%NULL%1,    Jolanta%Tanianis-Hughes%NULL%1,    Jordan%Thomas%NULL%1,    Erwan%Trochu%NULL%1,    Libby%van Tonder%NULL%1,    Eve%Wilcock%NULL%1,    J Eunice%Zhang%NULL%1,    Kayode%Adeniji%NULL%1,    Daniel%Agranoff%NULL%1,    Ken%Agwuh%NULL%1,    Dhiraj%Ail%NULL%1,    Ana%Alegria%NULL%1,    Brian%Angus%NULL%1,    Abdul%Ashish%NULL%1,    Dougal%Atkinson%NULL%1,    Shahedal%Bari%NULL%1,    Gavin%Barlow%NULL%1,    Stella%Barnass%NULL%1,    Nicholas%Barrett%NULL%2,    Christopher%Bassford%NULL%1,    David%Baxter%NULL%1,    Michael%Beadsworth%NULL%1,    Jolanta%Bernatoniene%NULL%1,    John%Berridge%NULL%1,    Nicola%Best%NULL%1,    Pieter%Bothma%NULL%1,    David%Brealey%NULL%1,    Robin%Brittain-Long%NULL%1,    Naomi%Bulteel%NULL%1,    Tom%Burden%NULL%1,    Andrew%Burtenshaw%NULL%1,    Vikki%Caruth%NULL%1,    David%Chadwick%NULL%1,    Duncan%Chambler%NULL%1,    Nigel%Chee%NULL%1,    Jenny%Child%NULL%1,    Srikanth%Chukkambotla%NULL%1,    Tom%Clark%NULL%1,    Paul%Collini%NULL%1,    Catherine%Cosgrove%NULL%1,    Jason%Cupitt%NULL%1,    Maria-Teresa%Cutino-Moguel%NULL%1,    Paul%Dark%NULL%1,    Chris%Dawson%NULL%1,    Samir%Dervisevic%NULL%1,    Phil%Donnison%NULL%1,    Sam%Douthwaite%NULL%1,    Ingrid%DuRand%NULL%1,    Ahilanadan%Dushianthan%NULL%1,    Tristan%Dyer%NULL%1,    Cariad%Evans%NULL%1,    Chi%Eziefula%NULL%1,    Chrisopher%Fegan%NULL%1,    Adam%Finn%NULL%1,    Duncan%Fullerton%NULL%1,    Sanjeev%Garg%NULL%2,    Sanjeev%Garg%NULL%0,    Atul%Garg%NULL%1,    Jo%Godden%NULL%1,    Arthur%Goldsmith%NULL%1,    Clive%Graham%NULL%1,    Elaine%Hardy%NULL%1,    Stuart%Hartshorn%NULL%1,    Daniel%Harvey%NULL%1,    Peter%Havalda%NULL%1,    Daniel B%Hawcutt%NULL%1,    Maria%Hobrok%NULL%1,    Luke%Hodgson%NULL%1,    Anita%Holme%NULL%1,    Anil%Hormis%NULL%1,    Michael%Jacobs%NULL%1,    Susan%Jain%NULL%1,    Paul%Jennings%NULL%1,    Agilan%Kaliappan%NULL%1,    Vidya%Kasipandian%NULL%1,    Stephen%Kegg%NULL%1,    Michael%Kelsey%NULL%1,    Jason%Kendall%NULL%1,    Caroline%Kerrison%NULL%1,    Ian%Kerslake%NULL%1,    Oliver%Koch%NULL%2,    Gouri%Koduri%NULL%1,    George%Koshy%NULL%1,    Shondipon%Laha%NULL%1,    Susan%Larkin%NULL%1,    Tamas%Leiner%NULL%1,    Patrick%Lillie%NULL%1,    James%Limb%NULL%1,    Vanessa%Linnett%NULL%1,    Jeff%Little%NULL%1,    Michael%MacMahon%NULL%1,    Emily%MacNaughton%NULL%1,    Ravish%Mankregod%NULL%1,    Huw%Masson%NULL%1,    Elijah%Matovu%NULL%1,    Katherine%McCullough%NULL%1,    Ruth%McEwen%NULL%1,    Manjula%Meda%NULL%1,    Gary%Mills%NULL%1,    Jane%Minton%NULL%1,    Mariyam%Mirfenderesky%NULL%1,    Kavya%Mohandas%NULL%1,    Quen%Mok%NULL%1,    James%Moon%NULL%1,    Elinoor%Moore%NULL%1,    Patrick%Morgan%NULL%1,    Craig%Morris%NULL%1,    Katherine%Mortimore%NULL%1,    Samuel%Moses%NULL%1,    Mbiye%Mpenge%NULL%1,    Rohinton%Mulla%NULL%1,    Michael%Murphy%NULL%1,    Megan%Nagel%NULL%1,    Thapas%Nagarajan%NULL%1,    Mark%Nelson%NULL%1,    Igor%Otahal%NULL%1,    Mark%Pais%NULL%1,    Selva%Panchatsharam%NULL%1,    Hassan%Paraiso%NULL%1,    Brij%Patel%NULL%1,    Justin%Pepperell%NULL%1,    Mark%Peters%NULL%1,    Mandeep%Phull%NULL%1,    Stefania%Pintus%NULL%1,    Jagtur Singh%Pooni%NULL%1,    Frank%Post%NULL%1,    David%Price%NULL%1,    Rachel%Prout%NULL%1,    Nikolas%Rae%NULL%1,    Henrik%Reschreiter%NULL%1,    Tim%Reynolds%NULL%1,    Neil%Richardson%NULL%1,    Mark%Roberts%NULL%1,    Devender%Roberts%NULL%1,    Alistair%Rose%NULL%1,    Guy%Rousseau%NULL%1,    Brendan%Ryan%NULL%1,    Taranprit%Saluja%NULL%1,    Aarti%Shah%NULL%1,    Prad%Shanmuga%NULL%1,    Anil%Sharma%NULL%1,    Anna%Shawcross%NULL%1,    Jeremy%Sizer%NULL%1,    Richard%Smith%NULL%1,    Catherine%Snelson%NULL%1,    Nick%Spittle%NULL%1,    Nikki%Staines%NULL%1,    Tom%Stambach%NULL%1,    Richard%Stewart%NULL%1,    Pradeep%Subudhi%NULL%1,    Tamas%Szakmany%NULL%1,    Kate%Tatham%NULL%1,    Jo%Thomas%NULL%1,    Chris%Thompson%NULL%1,    Robert%Thompson%NULL%1,    Ascanio%Tridente%NULL%1,    Darell%Tupper-Carey%NULL%1,    Mary%Twagira%NULL%1,    Andrew%Ustianowski%NULL%1,    Nick%Vallotton%NULL%1,    Lisa%Vincent-Smith%NULL%1,    Shico%Visuvanathan%NULL%1,    Alan%Vuylsteke%NULL%1,    Sam%Waddy%NULL%1,    Rachel%Wake%NULL%1,    Andrew%Walden%NULL%1,    Ingeborg%Welters%NULL%1,    Tony%Whitehouse%NULL%1,    Paul%Whittaker%NULL%1,    Ashley%Whittington%NULL%1,    Meme%Wijesinghe%NULL%1,    Martin%Williams%NULL%1,    Lawrence%Wilson%NULL%1,    Sarah%Wilson%NULL%1,    Stephen%Winchester%NULL%1,    Martin%Wiselka%NULL%1,    Adam%Wolverson%NULL%1,    Daniel G%Wooton%NULL%1,    Andrew%Workman%NULL%1,    Bryan%Yates%NULL%1,    Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,    Braulio A.%Marfil‐Garza%NULL%1,    Erick%Martínez Rodríguez%NULL%1,    José Omar%Barreto Rodríguez%NULL%1,    Alicia Estela%López Romo%NULL%1,    Paolo%Alberti Minutti%NULL%1,    Juan Vicente%Alejandre Loya%NULL%1,    Félix Emmanuel%Pérez Talavera%NULL%1,    Freddy José%Ávila Cervera%NULL%1,    Adriana%Velazquez Burciaga%NULL%1,    Oscar%Morado Aramburo%NULL%1,    Luis Alberto%Piña Olguín%NULL%1,    Adrian%Soto‐Rodríguez%NULL%1,    Andrés%Castañeda Prado%NULL%1,    Patricio%Santillán Doherty%NULL%1,    Juan%O Galindo%NULL%1,    Luis Alberto%Guízar García%NULL%1,    Daniel%Hernández Gordillo%NULL%1,    Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,    Aatish%Patel%NULL%1,    Esmita%Charani%NULL%1,    Sarah%Denny%NULL%1,    Saleh A.%Alqahtani%NULL%1,    Gary W.%Davies%NULL%1,    Nabeela%Mughal%NULL%1,    Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,    Hyunsun%Lim%NULL%1,    Dong-Wook%Kim%NULL%1,    Jung Hyun%Chang%NULL%1,    Yoon Jung%Choi%chris316@yuhs.ac%1,    Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,    Wenhua%Liang%NULL%5,    Mei%Jiang%NULL%4,    Weijie%Guan%NULL%5,    Chen%Zhan%NULL%2,    Tao%Wang%NULL%0,    Chunli%Tang%NULL%3,    Ling%Sang%NULL%6,    Jiaxing%Liu%NULL%2,    Zhengyi%Ni%NULL%4,    Yu%Hu%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%11,    Chunliang%Lei%NULL%4,    Yixiang%Peng%NULL%4,    Li%Wei%NULL%11,    Yong%Liu%NULL%11,    Yahua%Hu%NULL%4,    Peng%Peng%NULL%15,    Jianming%Wang%NULL%4,    Jiyang%Liu%NULL%4,    Zhong%Chen%NULL%11,    Gang%Li%NULL%11,    Zhijian%Zheng%NULL%4,    Shaoqin%Qiu%NULL%4,    Jie%Luo%NULL%11,    Changjiang%Ye%NULL%4,    Shaoyong%Zhu%NULL%4,    Xiaoqing%Liu%NULL%2,    Linling%Cheng%NULL%2,    Feng%Ye%NULL%3,    Jinping%Zheng%NULL%4,    Nuofu%Zhang%NULL%4,    Yimin%Li%NULL%4,    Jianxing%He%NULL%4,    Shiyue%Li%lishiyue@188.com%6,    Nanshan%Zhong%NULL%6,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,    Liu%Hu%NULL%3,    Yiru%Wang%NULL%0,    Luyan%Huang%NULL%3,    Lingxi%Zhao%NULL%3,    Congcong%Zhang%NULL%3,    Xiyue%Liu%NULL%3,    Ranran%Xu%NULL%3,    Feng%Liu%NULL%0,    Jinping%Li%NULL%3,    Dawei%Ye%NULL%0,    Tao%Wang%NULL%0,    Yongman%Lv%lvyongman@126.com%0,    Qingquan%Liu%qqliutj@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,    Carol A C%Coupland%NULL%1,    Ruth H%Keogh%NULL%1,    Karla%Diaz-Ordaz%NULL%1,    Elizabeth%Williamson%NULL%1,    Ewen M%Harrison%NULL%0,    Andrew%Hayward%NULL%1,    Harry%Hemingway%NULL%1,    Peter%Horby%NULL%1,    Nisha%Mehta%NULL%1,    Jonathan%Benger%NULL%1,    Kamlesh%Khunti%NULL%0,    David%Spiegelhalter%NULL%1,    Aziz%Sheikh%NULL%0,    Jonathan%Valabhji%NULL%0,    Ronan A%Lyons%NULL%1,    John%Robson%NULL%1,    Malcolm G%Semple%NULL%0,    Frank%Kee%NULL%1,    Peter%Johnson%NULL%1,    Susan%Jebb%NULL%1,    Tony%Williams%NULL%1,    Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,    Guang-Yao%Cai%NULL%1,    Wei%Fang%NULL%6,    Hua-Yi%Li%NULL%1,    Si-Yuan%Wang%NULL%2,    Si-Yuan%Wang%NULL%0,    Lingxi%Chen%NULL%1,    Yang%Yu%NULL%1,    Dan%Liu%NULL%0,    Sen%Xu%NULL%1,    Peng-Fei%Cui%NULL%1,    Shao-Qing%Zeng%NULL%2,    Shao-Qing%Zeng%NULL%0,    Xin-Xia%Feng%NULL%1,    Rui-Di%Yu%NULL%1,    Ya%Wang%NULL%1,    Yuan%Yuan%NULL%1,    Xiao-Fei%Jiao%NULL%1,    Jian-Hua%Chi%NULL%1,    Jia-Hao%Liu%NULL%1,    Ru-Yuan%Li%NULL%1,    Xu%Zheng%NULL%1,    Chun-Yan%Song%NULL%1,    Ning%Jin%NULL%1,    Wen-Jian%Gong%NULL%1,    Xing-Yu%Liu%NULL%1,    Lei%Huang%NULL%2,    Xun%Tian%NULL%1,    Lin%Li%NULL%3,    Hui%Xing%NULL%1,    Ding%Ma%NULL%1,    Chun-Rui%Li%NULL%1,    Fei%Ye%yeyuanbei@hotmail.com%1,    Qing-Lei%Gao%qingleigao@hotmail.com%2,    Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,    Ang%Li%NULL%1,    Mengfan%Jiao%NULL%1,    Qingmiao%Shi%NULL%1,    Xiaocai%An%NULL%1,    Yonghai%Feng%NULL%1,    Lihua%Xing%NULL%1,    Hongxia%Liang%NULL%1,    Jiajun%Chen%NULL%1,    Huiling%Li%NULL%1,    Juan%Li%NULL%0,    Zhigang%Ren%NULL%1,    Ranran%Sun%NULL%1,    Guangying%Cui%NULL%1,    Yongjian%Zhou%NULL%1,    Ming%Cheng%NULL%1,    Pengfei%Jiao%NULL%1,    Yu%Wang%NULL%3,    Jiyuan%Xing%NULL%1,    Shen%Shen%NULL%1,    Qingxian%Zhang%NULL%1,    Aiguo%Xu%NULL%1,    Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,    Michael%Ng%NULL%1,    Shuang%Xu%NULL%1,    Zhouming%Xu%NULL%1,    Hui%Qiu%NULL%1,    Yuwei%Liu%NULL%3,    Jiayou%Lyu%NULL%1,    Jiwen%You%NULL%1,    Peng%Zhao%NULL%0,    Shihao%Wang%NULL%1,    Yunfei%Tang%NULL%1,    Hao%Cui%NULL%1,    Changxiao%Yu%NULL%1,    Feng%Wang%NULL%6,    Fei%Shao%NULL%1,    Peng%Sun%NULL%1,    Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,    Huifang%Wang%NULL%1,    Junwei%Huang%NULL%1,    Yan%Geng%NULL%1,    Shuqi%Jiang%NULL%1,    Qiuping%Zhou%NULL%1,    Xuan%Chen%NULL%1,    Hongping%Hu%NULL%1,    Weifeng%Li%NULL%1,    Chengbin%Zhou%NULL%1,    Xinglin%Gao%NULL%1,    Na%Peng%pnatz@163.com%1,    Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,    Dandan%Cheng%NULL%1,    Yiwei%Cao%NULL%1,    Chuan%Hu%NULL%1,    Fenglin%Zou%NULL%1,    Wencheng%Yu%NULL%1,    Tao%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,    Min Kyu%Kang%NULL%2,    Min Kyu%Kang%NULL%0,    Yu Rim%Lee%NULL%2,    Yu Rim%Lee%NULL%0,    Jeong Eun%Song%NULL%2,    Jeong Eun%Song%NULL%0,    Na Young%Kim%NULL%1,    Young Oh%Kweon%NULL%1,    Won Young%Tak%NULL%1,    Se Young%Jang%NULL%1,    Changhyeong%Lee%NULL%2,    Changhyeong%Lee%NULL%0,    Byung Seok%Kim%NULL%1,    Jae Seok%Hwang%NULL%1,    Byoung Kuk%Jang%NULL%1,    Jinmok%Bae%NULL%1,    Ji Yeon%Lee%NULL%0,    Jeong Ill%Suh%NULL%1,    Soo Young%Park%NULL%1,    Woo Jin%Chung%NULL%2,    Woo Jin%Chung%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,    Cristina%Roca-Oporto%NULL%0,    Guillermo%Martín-Gutiérrez%NULL%0,    María Dolores%Avilés%NULL%0,    Carmen%Gómez-González%NULL%0,    María Dolores%Navarro-Amuedo%NULL%0,    Julia%Praena-Segovia%NULL%0,    José%Molina%NULL%0,    María%Paniagua-García%NULL%0,    Horacio%García-Delgado%NULL%0,    Antonio%Domínguez-Petit%NULL%0,    Jerónimo%Pachón%NULL%0,    José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>Can routine laboratory variables predict survival in COVID-19? An artificial neural network-based approach</t>
+  </si>
+  <si>
+    <t>Sin financiaci\u00f3n3.694 JCR (2020) Q2, 8\/29 Medical Laboratory Technology0.977 SJR (2020) Q1, 578\/2448 Medicine (miscellaneous)No data IDR 2019UE</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1, Calvo%Boyero Fernando%coreGivesNoEmail%1, Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1, COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1, Cueto%Felgueroso Cecilia%coreGivesNoEmail%1, Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1, L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1, Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1, Santos%Lozano Alejandro%coreGivesNoEmail%1, Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,     Min%He%NULL%1,     Wanhong%Yin%NULL%1,     Xuelian%Liao%NULL%1,     Bo%Wang%NULL%9,     Xiaodong%Jin%NULL%1,     Yao%Ma%NULL%3,     Jirong%Yue%NULL%1,     Lang%Bai%NULL%1,     Dan%Liu%NULL%3,     Ting%Zhu%NULL%1,     Zhixin%Huang%NULL%1,     Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,     Shuchang%Zhou%NULL%1,     Yujin%Wang%NULL%1,     Wenzhi%Lv%NULL%2,     Shili%Wang%NULL%1,     Ting%Wang%751884926@qq.com%1,     Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,     Yan-chak%Li%NULL%1,     Sonali%Bose%NULL%1,     Ravi%Iyengar%NULL%1,     Supinda%Bunyavanich%NULL%1,     Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,      Hai-Tao%Zhang%null%1,      Jorge%Goncalves%null%1,      Yang%Xiao%null%1,      Maolin%Wang%null%1,      Yuqi%Guo%null%1,      Chuan%Sun%null%1,      Xiuchuan%Tang%null%1,      Liang%Jing%null%1,      Mingyang%Zhang%null%1,      Xiang%Huang%null%1,      Ying%Xiao%null%1,      Haosen%Cao%null%1,      Yanyan%Chen%null%1,      Tongxin%Ren%null%1,      Fang%Wang%null%1,      Yaru%Xiao%null%1,      Sufang%Huang%null%1,      Xi%Tan%null%1,      Niannian%Huang%null%1,      Bo%Jiao%null%1,      Cheng%Cheng%null%1,      Yong%Zhang%null%1,      Ailin%Luo%null%1,      Laurent%Mombaerts%null%1,      Junyang%Jin%null%1,      Zhiguo%Cao%null%1,      Shusheng%Li%null%5,      Hui%Xu%null%1,      Ye%Yuan%null%2,    Li%Yan%null%1,    Hai-Tao%Zhang%null%1,    Jorge%Goncalves%null%1,    Yang%Xiao%null%1,    Maolin%Wang%null%1,    Yuqi%Guo%null%1,    Chuan%Sun%null%1,    Xiuchuan%Tang%null%1,    Liang%Jing%null%1,    Mingyang%Zhang%null%1,    Xiang%Huang%null%1,    Ying%Xiao%null%1,    Haosen%Cao%null%1,    Yanyan%Chen%null%1,    Tongxin%Ren%null%1,    Fang%Wang%null%2,    Yaru%Xiao%null%1,    Sufang%Huang%null%1,    Xi%Tan%null%1,    Niannian%Huang%null%1,    Bo%Jiao%null%1,    Cheng%Cheng%null%1,    Yong%Zhang%null%1,    Ailin%Luo%null%1,    Laurent%Mombaerts%null%1,    Junyang%Jin%null%1,    Zhiguo%Cao%null%1,    Shusheng%Li%null%0,    Hui%Xu%null%1,    Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,     Mengfei%Guo%NULL%1,     Limin%Duan%NULL%1,     Feng%Wu%NULL%1,     Guorong%Hu%NULL%1,     Zhihui%Wang%NULL%1,     Qi%Huang%NULL%2,     Tingting%Liao%NULL%1,     Juanjuan%Xu%NULL%1,     Yanling%Ma%NULL%1,     Zhilei%Lv%NULL%1,     Wenjing%Xiao%NULL%1,     Zilin%Zhao%NULL%1,     Xueyun%Tan%NULL%1,     Daquan%Meng%NULL%1,     Shujing%Zhang%NULL%1,     E%Zhou%NULL%1,     Zhengrong%Yin%NULL%1,     Wei%Geng%NULL%1,     Xuan%Wang%NULL%1,     Jianchu%Zhang%NULL%1,     Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,     Yu%Zhang%whxhzy@163.com%1,     Yang%Jin%whuhjy@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,     Francesco%Arru%NULL%2,     Francesco%Arru%NULL%0,     Andrea%De Vito%NULL%1,     Alessandro%Sassu%NULL%2,     Alessandro%Sassu%NULL%0,     Giovanni%Valdes%NULL%1,     Valentina%Scano%NULL%1,     Elisabetta%Zinellu%NULL%1,     Roberto%Perra%NULL%1,     Giordano%Madeddu%NULL%1,     Ciriaco%Carru%NULL%1,     Pietro%Pirina%NULL%1,     Arduino A.%Mangoni%NULL%2,     Arduino A.%Mangoni%NULL%0,     Sergio%Babudieri%NULL%2,     Sergio%Babudieri%NULL%0,     Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,     Pablo%Ryan%NULL%3,     Jorge%Valencia%NULL%2,     Jorge%Valencia%NULL%0,     Mario%Pérez-Butragueño%NULL%2,     Mario%Pérez-Butragueño%NULL%0,     Eva%Jiménez%NULL%2,     Eva%Jiménez%NULL%0,     Mario%Fontán-Vela%NULL%1,     Elsa%Izquierdo-García%NULL%2,     Elsa%Izquierdo-García%NULL%0,     Inés%Fernandez-Jimenez%NULL%1,     Elena%Álvaro-Alonso%NULL%1,     Andrea%Lazaro%NULL%2,     Andrea%Lazaro%NULL%0,     Marta%Alvarado%NULL%1,     Helena%Notario%NULL%1,     Salvador%Resino%NULL%1,     Daniel%Velez-Serrano%NULL%1,     Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,     Yiru%Wang%NULL%4,     Xuecheng%Zhao%NULL%1,     Lixuan%Wang%NULL%1,     Feng%Liu%NULL%5,     Tao%Wang%NULL%19,     Dawei%Ye%NULL%4,     Yongman%Lv%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,     Valentina%Zuccaro%NULL%1,     Luca%Novelli%NULL%1,     Lorenzo%Zileri%NULL%2,     Lorenzo%Zileri%NULL%0,     Ciro%Celsa%NULL%1,     Federico%Raimondi%NULL%2,     Federico%Raimondi%NULL%0,     Mauro%Gori%NULL%1,     Giulia%Cammà%NULL%1,     Salvatore%Battaglia%NULL%1,     Vincenzo Giuseppe%Genova%NULL%1,     Laura%Paris%NULL%1,     Matteo%Tacelli%NULL%1,     Francesco Antonio%Mancarella%NULL%1,     Marco%Enea%NULL%1,     Massimo%Attanasio%NULL%1,     Michele%Senni%NULL%1,     Fabiano%Di Marco%NULL%1,     Luca Ferdinando%Lorini%NULL%1,     Stefano%Fagiuoli%NULL%1,     Raffaele%Bruno%NULL%1,     Calogero%Cammà%NULL%1,     Antonio%Gasbarrini%NULL%3,     Francesco%Di Gennaro%NULL%2,     Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,     Gan-xun%Li%NULL%1,     Lin%Chen%NULL%2,     Chang%Shu%NULL%2,     Jia%Song%NULL%1,     Wei%Wang%NULL%4,     Yu-wei%Wang%NULL%1,     Qian%Chen%NULL%2,     Guan-nan%Jin%NULL%1,     Tong-tong%Liu%NULL%1,     Jun-nan%Liang%NULL%1,     Peng%Zhu%NULL%1,     Wei%Zhu%NULL%5,     Yong%Li%NULL%2,     Bin-hao%Zhang%NULL%1,     Huan%Feng%NULL%1,     Wan-guang%Zhang%NULL%1,     Zhen-yu%Yin%NULL%1,     Wen-kui%Yu%NULL%1,     Yang%Yang%NULL%3,     Hua-qiu%Zhang%NULL%1,     Zhou-ping%Tang%NULL%1,     Hui%Wang%NULL%4,     Jun-bo%Hu%NULL%1,     Ji-hong%Liu%NULL%1,     Ping%Yin%NULL%1,     Xiao-ping%Chen%NULL%1,     Bixiang%Zhang%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,     Günay%Can%NULL%2,     Günay%Can%NULL%0,     Rıdvan%Karaali%NULL%1,     Şermin%Börekçi%NULL%1,     İlker İnanç%Balkan%NULL%1,     Bilun%Gemicioğlu%NULL%1,     Dildar%Konukoğlu%NULL%1,     Ethem%Erginöz%NULL%1,     Mehmet Sarper%Erdoğan%NULL%1,     Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,     Danila%Azzolina%NULL%1,     Eyal%Hayden%NULL%2,     Eyal%Hayden%NULL%0,     Gianluca%Gaidano%NULL%2,     Gianluca%Gaidano%NULL%0,     Mario%Pirisi%NULL%2,     Mario%Pirisi%NULL%0,     Antonio%Acquaviva%NULL%2,     Antonio%Acquaviva%NULL%0,     Gianluca%Aimaretti%NULL%2,     Gianluca%Aimaretti%NULL%0,     Paolo%Aluffi Valletti%NULL%2,     Paolo%Aluffi Valletti%NULL%0,     Roberto%Angilletta%NULL%2,     Roberto%Angilletta%NULL%0,     Roberto%Arioli%NULL%2,     Roberto%Arioli%NULL%0,     Gian Carlo%Avanzi%NULL%2,     Gian Carlo%Avanzi%NULL%0,     Gianluca%Avino%NULL%2,     Gianluca%Avino%NULL%0,     Piero Emilio%Balbo%NULL%2,     Piero Emilio%Balbo%NULL%0,     Giulia%Baldon%NULL%2,     Giulia%Baldon%NULL%0,     Francesca%Baorda%NULL%2,     Francesca%Baorda%NULL%0,     Emanuela%Barbero%NULL%2,     Emanuela%Barbero%NULL%0,     Alessio%Baricich%NULL%2,     Alessio%Baricich%NULL%0,     Michela%Barini%NULL%2,     Michela%Barini%NULL%0,     Francesco%Barone-Adesi%NULL%2,     Francesco%Barone-Adesi%NULL%0,     Sofia%Battistini%NULL%2,     Sofia%Battistini%NULL%0,     Michela%Beltrame%NULL%2,     Michela%Beltrame%NULL%0,     Matteo%Bertoli%NULL%2,     Matteo%Bertoli%NULL%0,     Stephanie%Bertolin%NULL%2,     Stephanie%Bertolin%NULL%0,     Marinella%Bertolotti%NULL%2,     Marinella%Bertolotti%NULL%0,     Marta%Betti%NULL%2,     Marta%Betti%NULL%0,     Flavio%Bobbio%NULL%2,     Flavio%Bobbio%NULL%0,     Paolo%Boffano%NULL%2,     Paolo%Boffano%NULL%0,     Lucio%Boglione%NULL%2,     Lucio%Boglione%NULL%0,     Silvio%Borrè%NULL%2,     Silvio%Borrè%NULL%0,     Matteo%Brucoli%NULL%2,     Matteo%Brucoli%NULL%0,     Elisa%Calzaducca%NULL%2,     Elisa%Calzaducca%NULL%0,     Edoardo%Cammarata%NULL%2,     Edoardo%Cammarata%NULL%0,     Vincenzo%Cantaluppi%NULL%2,     Vincenzo%Cantaluppi%NULL%0,     Roberto%Cantello%NULL%2,     Roberto%Cantello%NULL%0,     Andrea%Capponi%NULL%2,     Andrea%Capponi%NULL%0,     Alessandro%Carriero%NULL%2,     Alessandro%Carriero%NULL%0,     Giuseppe Francesco%Casciaro%NULL%2,     Giuseppe Francesco%Casciaro%NULL%0,     Luigi Mario%Castello%NULL%2,     Luigi Mario%Castello%NULL%0,     Federico%Ceruti%NULL%2,     Federico%Ceruti%NULL%0,     Guido%Chichino%NULL%2,     Guido%Chichino%NULL%0,     Emilio%Chirico%NULL%2,     Emilio%Chirico%NULL%0,     Carlo%Cisari%NULL%1,     Micol Giulia%Cittone%NULL%2,     Micol Giulia%Cittone%NULL%0,     Crizia%Colombo%NULL%2,     Crizia%Colombo%NULL%0,     Cristoforo%Comi%NULL%2,     Cristoforo%Comi%NULL%0,     Eleonora%Croce%NULL%2,     Eleonora%Croce%NULL%0,     Tommaso%Daffara%NULL%2,     Tommaso%Daffara%NULL%0,     Pietro%Danna%NULL%2,     Pietro%Danna%NULL%0,     Francesco%Della Corte%NULL%2,     Francesco%Della Corte%NULL%0,     Simona%De Vecchi%NULL%2,     Simona%De Vecchi%NULL%0,     Umberto%Dianzani%NULL%2,     Umberto%Dianzani%NULL%0,     Davide%Di Benedetto%NULL%2,     Davide%Di Benedetto%NULL%0,     Elia%Esposto%NULL%2,     Elia%Esposto%NULL%0,     Fabrizio%Faggiano%NULL%2,     Fabrizio%Faggiano%NULL%0,     Zeno%Falaschi%NULL%2,     Zeno%Falaschi%NULL%0,     Daniela%Ferrante%NULL%2,     Daniela%Ferrante%NULL%0,     Alice%Ferrero%NULL%2,     Alice%Ferrero%NULL%0,     Ileana%Gagliardi%NULL%2,     Ileana%Gagliardi%NULL%0,     Alessandra%Galbiati%NULL%2,     Alessandra%Galbiati%NULL%0,     Silvia%Gallo%NULL%2,     Silvia%Gallo%NULL%0,     Pietro Luigi%Garavelli%NULL%2,     Pietro Luigi%Garavelli%NULL%0,     Clara Ada%Gardino%NULL%2,     Clara Ada%Gardino%NULL%0,     Massimiliano%Garzaro%NULL%2,     Massimiliano%Garzaro%NULL%0,     Maria Luisa%Gastaldello%NULL%2,     Maria Luisa%Gastaldello%NULL%0,     Francesco%Gavelli%NULL%2,     Francesco%Gavelli%NULL%0,     Alessandra%Gennari%NULL%2,     Alessandra%Gennari%NULL%0,     Greta Maria%Giacomini%NULL%2,     Greta Maria%Giacomini%NULL%0,     Irene%Giacone%NULL%2,     Irene%Giacone%NULL%0,     Valentina%Giai Via%NULL%2,     Valentina%Giai Via%NULL%0,     Francesca%Giolitti%NULL%2,     Francesca%Giolitti%NULL%0,     Laura Cristina%Gironi%NULL%2,     Laura Cristina%Gironi%NULL%0,     Carla%Gramaglia%NULL%2,     Carla%Gramaglia%NULL%0,     Leonardo%Grisafi%NULL%2,     Leonardo%Grisafi%NULL%0,     Ilaria%Inserra%NULL%2,     Ilaria%Inserra%NULL%0,     Marco%Invernizzi%NULL%2,     Marco%Invernizzi%NULL%0,     Marco%Krengli%NULL%2,     Marco%Krengli%NULL%0,     Emanuela%Labella%NULL%2,     Emanuela%Labella%NULL%0,     Irene Cecilia%Landi%NULL%2,     Irene Cecilia%Landi%NULL%0,     Raffaella%Landi%NULL%2,     Raffaella%Landi%NULL%0,     Ilaria%Leone%NULL%2,     Ilaria%Leone%NULL%0,     Veronica%Lio%NULL%2,     Veronica%Lio%NULL%0,     Luca%Lorenzini%NULL%2,     Luca%Lorenzini%NULL%0,     Antonio%Maconi%NULL%2,     Antonio%Maconi%NULL%0,     Mario%Malerba%NULL%2,     Mario%Malerba%NULL%0,     Giulia Francesca%Manfredi%NULL%2,     Giulia Francesca%Manfredi%NULL%0,     Maria%Martelli%NULL%2,     Maria%Martelli%NULL%0,     Letizia%Marzari%NULL%2,     Letizia%Marzari%NULL%0,     Paolo%Marzullo%NULL%2,     Paolo%Marzullo%NULL%0,     Marco%Mennuni%NULL%2,     Marco%Mennuni%NULL%0,     Claudia%Montabone%NULL%2,     Claudia%Montabone%NULL%0,     Umberto%Morosini%NULL%2,     Umberto%Morosini%NULL%0,     Marco%Mussa%NULL%2,     Marco%Mussa%NULL%0,     Ilaria%Nerici%NULL%2,     Ilaria%Nerici%NULL%0,     Alessandro%Nuzzo%NULL%2,     Alessandro%Nuzzo%NULL%0,     Carlo%Olivieri%NULL%2,     Carlo%Olivieri%NULL%0,     Samuel Alberto%Padelli%NULL%2,     Samuel Alberto%Padelli%NULL%0,     Massimiliano%Panella%NULL%2,     Massimiliano%Panella%NULL%0,     Andrea%Parisini%NULL%2,     Andrea%Parisini%NULL%0,     Alessio%Paschè%NULL%2,     Alessio%Paschè%NULL%0,     Filippo%Patrucco%NULL%2,     Filippo%Patrucco%NULL%0,     Giuseppe%Patti%NULL%2,     Giuseppe%Patti%NULL%0,     Alberto%Pau%NULL%2,     Alberto%Pau%NULL%0,     Anita Rebecca%Pedrinelli%NULL%2,     Anita Rebecca%Pedrinelli%NULL%0,     Ilaria%Percivale%NULL%2,     Ilaria%Percivale%NULL%0,     Luca%Ragazzoni%NULL%2,     Luca%Ragazzoni%NULL%0,     Roberta%Re%NULL%2,     Roberta%Re%NULL%0,     Cristina%Rigamonti%NULL%2,     Cristina%Rigamonti%NULL%0,     Eleonora%Rizzi%NULL%2,     Eleonora%Rizzi%NULL%0,     Andrea%Rognoni%NULL%2,     Andrea%Rognoni%NULL%0,     Annalisa%Roveta%NULL%2,     Annalisa%Roveta%NULL%0,     Luigia%Salamina%NULL%2,     Luigia%Salamina%NULL%0,     Matteo%Santagostino%NULL%2,     Matteo%Santagostino%NULL%0,     Massimo%Saraceno%NULL%2,     Massimo%Saraceno%NULL%0,     Paola%Savoia%NULL%2,     Paola%Savoia%NULL%0,     Marco%Sciarra%NULL%2,     Marco%Sciarra%NULL%0,     Andrea%Schimmenti%NULL%2,     Andrea%Schimmenti%NULL%0,     Lorenza%Scotti%NULL%2,     Lorenza%Scotti%NULL%0,     Enrico%Spinoni%NULL%2,     Enrico%Spinoni%NULL%0,     Carlo%Smirne%NULL%2,     Carlo%Smirne%NULL%0,     Vanessa%Tarantino%NULL%2,     Vanessa%Tarantino%NULL%0,     Paolo Amedeo%Tillio%NULL%2,     Paolo Amedeo%Tillio%NULL%0,     Stelvio%Tonello%NULL%2,     Stelvio%Tonello%NULL%0,     Rosanna%Vaschetto%NULL%2,     Rosanna%Vaschetto%NULL%0,     Veronica%Vassia%NULL%2,     Veronica%Vassia%NULL%0,     Domenico%Zagaria%NULL%2,     Domenico%Zagaria%NULL%0,     Elisa%Zavattaro%NULL%2,     Elisa%Zavattaro%NULL%0,     Patrizia%Zeppegno%NULL%2,     Patrizia%Zeppegno%NULL%0,     Francesca%Zottarelli%NULL%2,     Francesca%Zottarelli%NULL%0,     Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,     Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,     Marta%Ottone%NULL%2,     Marta%Ottone%NULL%0,     Tommaso%Fasano%NULL%1,     Pierpaolo%Pattacini%NULL%1,     Valentina%Iotti%NULL%1,     Lucia%Spaggiari%NULL%1,     Riccardo%Bonacini%NULL%1,     Andrea%Nitrosi%NULL%1,     Efrem%Bonelli%NULL%1,     Simone%Canovi%NULL%1,     Rossana%Colla%NULL%1,     Alessandro%Zerbini%NULL%1,     Marco%Massari%NULL%2,     Ivana%Lattuada%NULL%1,     Anna Maria%Ferrari%NULL%1,     Paolo%Giorgi Rossi%NULL%1,     Massimo%Costantini%NULL%1,     Roberto%Grilli%NULL%2,     Massimiliano%Marino%NULL%2,     Giulio%Formoso%NULL%1,     Debora%Formisano%NULL%2,     Emanuela%Bedeschi%NULL%1,     Cinzia%Perilli%NULL%1,     Elisabetta%La Rosa%NULL%1,     Eufemia%Bisaccia%NULL%1,     Ivano%Venturi%NULL%1,     Massimo%Vicentini%NULL%3,     Cinzia%Campari%NULL%1,     Francesco%Gioia%NULL%1,     Serena%Broccoli%NULL%1,     Pamela%Mancuso%NULL%1,     Marco%Foracchia%NULL%1,     Mirco%Pinotti%NULL%1,     Nicola%Facciolongo%NULL%1,     Laura%Trabucco%NULL%1,     Stefano%De Pietri%NULL%1,     Giorgio Francesco%Danelli%NULL%1,     Laura%Albertazzi%NULL%1,     Enrica%Bellesia%NULL%1,     Mattia%Corradini%NULL%1,     Elena%Magnani%NULL%1,     Annalisa%Pilia%NULL%1,     Alessandra%Polese%NULL%1,     Silvia Storchi%Incerti%NULL%1,     Piera%Zaldini%NULL%1,     Bonanno%Orsola%NULL%1,     Matteo%Revelli%NULL%1,     Carlo%Salvarani%NULL%1,     Carmine%Pinto%NULL%1,     Francesco%Venturelli%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,     Hong-Qiu%Gu%NULL%1,     Yi%Liu (刘艺)%NULL%1,     Guqin%Zhang%NULL%1,     Hang%Yang%NULL%1,     Huifang%Hu%NULL%1,     Chenyang%Lu%NULL%1,     Yang%Li%NULL%3,     Liyi%Wang%NULL%1,     Yi%Liu (刘毅)%yi2006liu@163.com%1,     Yi%Zhao%zhao.y1977@163.com%2,     Huaqin%Pan%phq2012@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,     Tawsifur%Rahman%NULL%2,     Tawsifur%Rahman%NULL%0,     Amith%Khandakar%NULL%3,     Somaya%Al-Madeed%NULL%2,     Susu M.%Zughaier%NULL%5,     Suhail A. R.%Doi%NULL%3,     Hanadi%Hassen%NULL%1,     Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,     Jia%Sun%NULL%1,     Yi-Xin%Li%NULL%1,     Qian%Chen%NULL%0,     Qing-Quan%Liu%NULL%1,     Zhou%Sun%NULL%1,     Ran%Pang%NULL%1,     Fei%Chen%NULL%1,     Bing-Yang%Xu%NULL%1,     Anne%Manyande%NULL%1,     Taane G%Clark%NULL%1,     Jin-Ping%Li%NULL%1,     Ilkay Erdogan%Orhan%NULL%1,     Yu-Ke%Tian%NULL%1,     Tao%Wang%wt7636@126.com%0,     Wei%Wu%wt7636@126.com%1,     Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,  Imam%Z%coreGivesNoEmail%1,  Lippi%G%coreGivesNoEmail%1,  Oran%DP%coreGivesNoEmail%1,  Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,     Caiping%Song%NULL%1,     En%Liu%NULL%1,     Xi%Liu%NULL%1,     Hao%Wu%NULL%1,     Hui%Lin%NULL%1,     Yuliang%Liu%NULL%1,     Qi%Li%NULL%1,     Zhi%Xu%NULL%1,     XiaoBao%Ren%NULL%1,     Cheng%Zhang%NULL%1,     Wenjing%Zhang%NULL%1,     Wei%Duan%NULL%3,     Yongfeng%Tian%NULL%1,     Ping%Li%NULL%1,     Mingdong%Hu%NULL%1,     Shiming%Yang%NULL%1,     Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,     Changli%Li%NULL%1,     Li%Zheng%NULL%1,     Wenzhi%Lv%NULL%0,     Zhigang%He%NULL%1,     Xinwu%Cui%NULL%1,     Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,     Hayne Cho%Park%NULL%2,     Hayne Cho%Park%NULL%0,     Ajin%Cho%NULL%1,     Juhee%Kim%NULL%1,     Kyu-sang%Yun%NULL%1,     Jinseog%Kim%NULL%1,     Young-Ki%Lee%NULL%1,     Sinan%Kardes.%NULL%2,     Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,     Xiaoyu%Fang%NULL%1,     Lixia%Cheng%NULL%1,     Penghao%Wang%NULL%1,     Shen%Li%NULL%1,     Hao%Yu%NULL%1,     Yao%Zhang%NULL%3,     Nan%Jiang%NULL%1,     Tingting%Zeng%NULL%1,     Chao%Hou%NULL%1,     Jing%Zhou%NULL%0,     Shiru%Li%NULL%1,     Yingzi%Pan%NULL%1,     Yitong%Li%NULL%1,     Lili%Nie%NULL%1,     Yang%Li%NULL%0,     Qidi%Sun%NULL%1,     Hong%Jia%NULL%1,     Mengxia%Li%NULL%1,     Guoqiang%Cao%NULL%1,     Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,     Lucas A%Ramos%NULL%2,     Lucas A%Ramos%NULL%0,     Wouter%Potters%NULL%1,     Marcus L F%Janssen%NULL%1,     Deborah%Hubers%NULL%1,     Shi%Hu%NULL%1,     Egill A%Fridgeirsson%NULL%1,     Dan%Piña-Fuentes%NULL%1,     Rajat%Thomas%NULL%1,     Iwan C C%van der Horst%NULL%1,     Christian%Herff%NULL%2,     Christian%Herff%NULL%0,     Pieter%Kubben%NULL%1,     Paul W G%Elbers%NULL%1,     Henk A%Marquering%NULL%1,     Max%Welling%NULL%1,     Suat%Simsek%NULL%1,     Martijn D%de Kruif%NULL%1,     Tom%Dormans%NULL%1,     Lucas M%Fleuren%NULL%1,     Michiel%Schinkel%NULL%1,     Peter G%Noordzij%NULL%1,     Joop P%van den Bergh%NULL%2,     Joop P%van den Bergh%NULL%0,     Caroline E%Wyers%NULL%1,     David T B%Buis%NULL%2,     David T B%Buis%NULL%0,     W Joost%Wiersinga%NULL%1,     Ella H C%van den Hout%NULL%1,     Auke C%Reidinga%NULL%1,     Daisy%Rusch%NULL%1,     Kim C E%Sigaloff%NULL%1,     Renee A%Douma%NULL%1,     Lianne%de Haan%NULL%1,     Niels C%Gritters van den Oever%NULL%1,     Roger J M W%Rennenberg%NULL%1,     Guido A%van Wingen%NULL%1,     Marcel J H%Aries%NULL%1,     Martijn%Beudel%NULL%2,     Martijn%Beudel%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,     Fajer A.%Al-Ishaq%NULL%2,     Fajer A.%Al-Ishaq%NULL%0,     Fatima S.%Al-Mohannadi%NULL%1,     Reem S.%Mubarak%NULL%1,     Maryam H.%Al-Hitmi%NULL%1,     Khandaker Reajul%Islam%NULL%1,     Amith%Khandakar%NULL%0,     Ali Ait%Hssain%NULL%4,     Ali Ait%Hssain%NULL%0,     Somaya%Al-Madeed%NULL%0,     Susu M.%Zughaier%NULL%0,     Susu M.%Zughaier%NULL%0,     Muhammad E. H.%Chowdhury%NULL%3,     Muhammad E. H.%Chowdhury%NULL%0,     Antonella%Santone%NULL%3,     Antonella%Santone%NULL%0,     Antonella%Santone%NULL%0,     Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,     Amith%Khandakar%NULL%0,     Md Enamul%Hoque%NULL%2,     Md Enamul%Hoque%NULL%0,     Nabil%Ibtehaz%NULL%2,     Nabil%Ibtehaz%NULL%0,     Saad Bin%Kashem%NULL%2,     Saad Bin%Kashem%NULL%0,     Reehum%Masud%NULL%1,     Lutfunnahar%Shampa%NULL%1,     Mohammad Mehedi%Hasan%NULL%1,     Mohammad Tariqul%Islam%NULL%1,     Somaya%Al-Maadeed%NULL%2,     Somaya%Al-Maadeed%NULL%0,     Susu M.%Zughaier%NULL%0,     Susu M.%Zughaier%NULL%0,     Saif%Badran%NULL%2,     Saif%Badran%NULL%0,     Suhail A. R.%Doi%NULL%0,     Suhail A. R.%Doi%NULL%0,     Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,     Pablo%Rodríguez-Belenguer%NULL%2,     Pablo%Rodríguez-Belenguer%NULL%0,     Antonio J.%Serrano-López%NULL%1,     Emilio%Soria-Olivas%NULL%2,     Emilio%Soria-Olivas%NULL%0,     Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,     Haibo%Ai%NULL%1,     Yunong%Fu%NULL%1,     Qinglin%Li%NULL%1,     Ruixia%Cui%NULL%1,     Xiaohua%Ma%NULL%1,     Yan-fen%Ma%NULL%1,     Zi%Wang%NULL%1,     Tong%Liu%NULL%1,     Yunxiang%Long%NULL%1,     Kai%Qu%NULL%1,     Chang%Liu%NULL%1,     Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,     Dawei%Zhang%NULL%1,     Jing%Xu%NULL%4,     Zhu%Chen%NULL%1,     Tieniu%Yang%NULL%1,     Peng%Zhao%NULL%2,     Guofeng%Chen%NULL%1,     Gregory%Cheng%NULL%1,     Yudong%Wang%NULL%1,     Jingfeng%Bi%NULL%1,     Lin%Tan%NULL%1,     George%Lau%NULL%1,     Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,     Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,     Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,     Giulia%Suigo%NULL%1,     Davide%Zampini%NULL%1,     Matteo%Pistoia%NULL%1,     Mariella%Ciola%NULL%1,     Tommaso%Ciampani%NULL%1,     Carolina%Ultori%NULL%1,     Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,     John R%Adler%NULL%3,     Sultan M%Kamran%NULL%2,     Sultan M%Kamran%NULL%0,     Zill-e-Humayun%Mirza%NULL%1,     Hussain Abdul%Moeed%NULL%1,     Arshad%Naseem%NULL%1,     Maryam%Hussain%NULL%1,     Imran%Fazal%NULL%1,     Farrukh%Saeed%NULL%1,     Wasim%Alamgir%NULL%1,     Salman%Saleem%NULL%1,     Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,     María M.%Martín%NULL%1,     Mónica%Argueso%NULL%1,     Jordi%Solé-Violán%NULL%1,     Alina%Perez%NULL%1,     José Alberto%Marcos Y Ramos%NULL%1,     Luis%Ramos-Gómez%NULL%1,     Sergio%López%NULL%1,     Andrés%Franco%NULL%1,     Agustín F.%González-Rivero%NULL%1,     María%Martín%NULL%1,     Verónica%Gonzalez%NULL%1,     Julia%Alcoba-Flórez%NULL%1,     Miguel Ángel%Rodriguez%NULL%1,     Marta%Riaño-Ruiz%NULL%1,     Juan%Guillermo O Campo%NULL%1,     Lourdes%González%NULL%1,     Tamara%Cantera%NULL%1,     Raquel%Ortiz-López%NULL%1,     Nazario%Ojeda%NULL%1,     Aurelio%Rodríguez-Pérez%NULL%1,     Casimira%Domínguez%NULL%1,     Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,     Rita%Kukafka%NULL%1,     Arriel%Benis%NULL%2,     Arriel%Benis%NULL%0,     Jinfeng%Li%NULL%1,     Pan%Pan%NULL%2,     Pan%Pan%NULL%0,     Yichao%Li%NULL%2,     Yichao%Li%NULL%0,     Yongjiu%Xiao%NULL%2,     Yongjiu%Xiao%NULL%0,     Bingchao%Han%NULL%2,     Bingchao%Han%NULL%0,     Longxiang%Su%NULL%2,     Longxiang%Su%NULL%0,     Mingliang%Su%NULL%2,     Mingliang%Su%NULL%0,     Yansheng%Li%NULL%2,     Yansheng%Li%NULL%0,     Siqi%Zhang%NULL%2,     Siqi%Zhang%NULL%0,     Dapeng%Jiang%NULL%2,     Dapeng%Jiang%NULL%0,     Xia%Chen%NULL%2,     Xia%Chen%NULL%0,     Fuquan%Zhou%NULL%2,     Fuquan%Zhou%NULL%0,     Ling%Ma%NULL%2,     Ling%Ma%NULL%0,     Pengtao%Bao%NULL%2,     Pengtao%Bao%NULL%0,     Lixin%Xie%xielx301@126.com%2,     Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,     Cristina%Roca-Oporto%NULL%2,     Guillermo%Martín-Gutiérrez%NULL%2,     María Dolores%Avilés%NULL%3,     Carmen%Gómez-González%NULL%2,     María Dolores%Navarro-Amuedo%NULL%2,     Julia%Praena-Segovia%NULL%2,     José%Molina%NULL%2,     María%Paniagua-García%NULL%2,     Horacio%García-Delgado%NULL%2,     Antonio%Domínguez-Petit%NULL%2,     Jerónimo%Pachón%NULL%4,     José Miguel%Cisneros%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,     Barry R.%Meisenberg%NULL%2,     Barry R.%Meisenberg%NULL%0,     James H.%MacDonald%NULL%1,     Nandakumar%Menon%NULL%1,     Marcia B.%Fowler%NULL%1,     Michaline%West%NULL%1,     Jane%Rhule%NULL%1,     Sadaf S.%Qureshi%NULL%1,     Eileen B.%MacDonald%NULL%1,     Yu Ru%Kou%NULL%2,     Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,     Sarah%Poole%NULL%2,     Sarah%Poole%NULL%0,     Meeta%Pradhan%NULL%1,     Akhil%Vaid%NULL%4,     Akhil%Vaid%NULL%0,     Sulaiman%Somani%NULL%4,     Sulaiman%Somani%NULL%0,     Adam J%Russak%NULL%4,     Adam J%Russak%NULL%0,     Jessica K%De Freitas%NULL%3,     Jessica K%De Freitas%NULL%0,     Fayzan F%Chaudhry%NULL%2,     Fayzan F%Chaudhry%NULL%0,     Ishan%Paranjpe%NULL%3,     Ishan%Paranjpe%NULL%0,     Kipp W%Johnson%NULL%3,     Kipp W%Johnson%NULL%0,     Samuel J%Lee%NULL%2,     Samuel J%Lee%NULL%0,     Riccardo%Miotto%NULL%3,     Riccardo%Miotto%NULL%0,     Felix%Richter%NULL%3,     Felix%Richter%NULL%0,     Shan%Zhao%NULL%3,     Shan%Zhao%NULL%0,     Noam D%Beckmann%NULL%2,     Noam D%Beckmann%NULL%0,     Nidhi%Naik%NULL%2,     Nidhi%Naik%NULL%0,     Arash%Kia%NULL%3,     Arash%Kia%NULL%0,     Prem%Timsina%NULL%3,     Prem%Timsina%NULL%0,     Anuradha%Lala%NULL%3,     Anuradha%Lala%NULL%0,     Manish%Paranjpe%NULL%2,     Manish%Paranjpe%NULL%0,     Eddye%Golden%NULL%3,     Eddye%Golden%NULL%0,     Matteo%Danieletto%NULL%3,     Matteo%Danieletto%NULL%0,     Manbir%Singh%NULL%3,     Manbir%Singh%NULL%0,     Dara%Meyer%NULL%3,     Dara%Meyer%NULL%0,     Paul F%O'Reilly%NULL%2,     Paul F%O'Reilly%NULL%0,     Laura%Huckins%NULL%2,     Laura%Huckins%NULL%0,     Patricia%Kovatch%NULL%4,     Patricia%Kovatch%NULL%0,     Joseph%Finkelstein%NULL%3,     Joseph%Finkelstein%NULL%0,     Robert M.%Freeman%NULL%2,     Robert M.%Freeman%NULL%0,     Edgar%Argulian%NULL%2,     Edgar%Argulian%NULL%0,     Andrew%Kasarskis%NULL%2,     Andrew%Kasarskis%NULL%0,     Bethany%Percha%NULL%2,     Bethany%Percha%NULL%0,     Judith A%Aberg%NULL%3,     Judith A%Aberg%NULL%0,     Emilia%Bagiella%NULL%4,     Emilia%Bagiella%NULL%0,     Carol R%Horowitz%NULL%3,     Carol R%Horowitz%NULL%0,     Barbara%Murphy%NULL%3,     Barbara%Murphy%NULL%0,     Eric J%Nestler%NULL%3,     Eric J%Nestler%NULL%0,     Eric E%Schadt%NULL%2,     Eric E%Schadt%NULL%0,     Judy H%Cho%NULL%2,     Judy H%Cho%NULL%0,     Carlos%Cordon-Cardo%NULL%4,     Carlos%Cordon-Cardo%NULL%0,     Valentin%Fuster%NULL%3,     Valentin%Fuster%NULL%0,     Dennis S%Charney%NULL%2,     Dennis S%Charney%NULL%0,     David L%Reich%NULL%3,     David L%Reich%NULL%0,     Erwin P%Bottinger%NULL%3,     Erwin P%Bottinger%NULL%0,     Matthew A%Levin%NULL%3,     Matthew A%Levin%NULL%0,     Jagat%Narula%NULL%4,     Jagat%Narula%NULL%0,     Zahi A%Fayad%NULL%3,     Zahi A%Fayad%NULL%0,     Allan C%Just%NULL%2,     Allan C%Just%NULL%0,     Alexander W%Charney%NULL%3,     Alexander W%Charney%NULL%0,     Girish N%Nadkarni%NULL%3,     Girish N%Nadkarni%NULL%0,     Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%3,     Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,     Anne%Chen%NULL%2,     Wei%Hou%NULL%5,     James M.%Graham%NULL%2,     Haifang%Li%NULL%3,     Paul S.%Richman%NULL%2,     Henry C.%Thode%NULL%2,     Adam J.%Singer%NULL%2,     Tim Q.%Duong%NULL%2,     Muhammad%Adrish%NULL%22,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,     Qin%Liu%NULL%2,     Xiao%Zhang%NULL%2,     Shuyi%Liu%NULL%1,     Weiqi%Chen%NULL%1,     Jingjing%You%NULL%1,     Qiuying%Chen%NULL%1,     Minmin%Li%NULL%1,     Zhuozhi%Chen%NULL%1,     Luyan%Chen%NULL%1,     Lv%Chen%NULL%1,     Yuhao%Dong%NULL%1,     Qingsi%Zeng%NULL%1,     Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,     Lei%Nie%NULL%1,     Dongde%Wu%NULL%1,     Jian%Chen%NULL%2,     Zhifeng%Yang%NULL%1,     Ling%Zhang%NULL%5,     Dongqing%Li%NULL%1,     Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,     Burcin%Hakoglu%NULL%2,     Burcin%Hakoglu%NULL%0,     Ali%Kadri Cirak%NULL%1,     Gulru%Polat%NULL%1,     Berna%Komurcuoglu%NULL%1,     Berrin%Akkol%NULL%1,     Cagri%Atasoy%NULL%1,     Eda%Bayramic%NULL%1,     Gunseli%Balci%NULL%1,     Sena%Ataman%NULL%1,     Sinem%Ermin%NULL%1,     Enver%Yalniz%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,     Qiaosen%Chen%NULL%2,     Qiaosen%Chen%NULL%0,     Sumeng%Li%NULL%1,     Huadong%Li%NULL%1,     Qian%Zhang%NULL%1,     Sihong%Lu%NULL%1,     Li%Wu%NULL%1,     Leiqun%Xiong%NULL%1,     Bobin%Mi%NULL%1,     Di%Liu%NULL%3,     Mengji%Lu%NULL%1,     Dongliang%Yang%NULL%1,     Hongbo%Jiang%hongbojiang3@163.com%1,     Shaoping%Zheng%zhengspxx@126.com%1,     Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,     Hua%Zhang%NULL%2,     Rui%Qiao%NULL%1,     Qinggang%Ge%NULL%1,     Shuisheng%Zhang%NULL%1,     Zongxuan%Zhao%NULL%1,     Ci%Tian%NULL%1,     Qingbian%Ma%NULL%2,     Qingbian%Ma%NULL%0,     Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,     Antonia%Ho%NULL%2,     Riinu%Pius%NULL%2,     Iain%Buchan%NULL%1,     Gail%Carson%NULL%2,     Thomas M%Drake%NULL%1,     Jake%Dunning%NULL%2,     Cameron J%Fairfield%NULL%2,     Carrol%Gamble%NULL%2,     Christopher A%Green%NULL%2,     Rishi%Gupta%NULL%1,     Sophie%Halpin%NULL%2,     Hayley E%Hardwick%NULL%1,     Karl A%Holden%NULL%1,     Peter W%Horby%NULL%2,     Clare%Jackson%NULL%2,     Kenneth A%Mclean%NULL%2,     Laura%Merson%NULL%2,     Jonathan S%Nguyen-Van-Tam%NULL%1,     Lisa%Norman%NULL%2,     Mahdad%Noursadeghi%NULL%2,     Piero L%Olliaro%NULL%1,     Mark G%Pritchard%NULL%1,     Clark D%Russell%NULL%2,     Catherine A%Shaw%NULL%2,     Aziz%Sheikh%NULL%2,     Tom%Solomon%NULL%2,     Cathie%Sudlow%NULL%1,     Olivia V%Swann%NULL%1,     Lance CW%Turtle%NULL%2,     Peter JM%Openshaw%NULL%2,     J Kenneth%Baillie%NULL%2,     Malcolm G%Semple%NULL%3,     Annemarie B%Docherty%NULL%3,     Annemarie B%Docherty%NULL%0,     Ewen M%Harrison%NULL%3,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     J Kenneth%Baillie%NULL%0,     Malcolm G%Semple%NULL%0,     Peter JM%Openshaw%NULL%0,     Gail%Carson%NULL%0,     Beatrice%Alex%NULL%1,     Benjamin%Bach%NULL%1,     Wendy S%Barclay%NULL%1,     Debby%Bogaert%NULL%1,     Meera%Chand%NULL%1,     Graham S%Cooke%NULL%1,     Annemarie B%Docherty%NULL%0,     Jake%Dunning%NULL%0,     Ana%da Silva Filipe%NULL%1,     Tom%Fletcher%NULL%1,     Christopher A%Green%NULL%0,     Ewen M%Harrison%NULL%0,     Julian A%Hiscox%NULL%1,     Antonia Ying Wai%Ho%NULL%1,     Peter W%Horby%NULL%0,     Samreen%Ijaz%NULL%1,     Saye%Khoo%NULL%1,     Paul%Klenerman%NULL%1,     Andrew%Law%NULL%2,     Wei Shen%Lim%NULL%1,     Alexander J%Mentzer%NULL%1,     Laura%Merson%NULL%0,     Alison M%Meynert%NULL%1,     Mahdad%Noursadeghi%NULL%0,     Shona C%Moore%NULL%2,     Massimo%Palmarini%NULL%1,     William A%Paxton%NULL%1,     Georgios%Pollakis%NULL%1,     Nicholas%Price%NULL%1,     Andrew%Rambaut%NULL%1,     David L%Robertson%NULL%1,     Clark D%Russell%NULL%0,     Vanessa%Sancho-Shimizu%NULL%1,     Janet T%Scott%NULL%1,     Louise%Sigfrid%NULL%1,     Tom%Solomon%NULL%0,     Shiranee%Sriskandan%NULL%1,     David%Stuart%NULL%1,     Charlotte%Summers%NULL%1,     Richard S%Tedder%NULL%1,     Emma C%Thomson%NULL%1,     Ryan S%Thwaites%NULL%1,     Lance CW%Turtle%NULL%0,     Maria%Zambon%NULL%1,     Hayley%Hardwick%NULL%1,     Chloe%Donohue%NULL%1,     Jane%Ewins%NULL%1,     Wilna%Oosthuyzen%NULL%1,     Fiona%Griffiths%NULL%1,     Lisa%Norman%NULL%0,     Riinu%Pius%NULL%0,     Tom M%Drake%NULL%1,     Cameron J%Fairfield%NULL%0,     Stephen%Knight%NULL%1,     Kenneth A%Mclean%NULL%0,     Derek%Murphy%NULL%1,     Catherine A%Shaw%NULL%0,     Jo%Dalton%NULL%1,     Michelle%Girvan%NULL%1,     Egle%Saviciute%NULL%1,     Stephanie%Roberts%NULL%1,     Janet%Harrison%NULL%1,     Laura%Marsh%NULL%1,     Marie%Connor%NULL%1,     Sophie%Halpin%NULL%0,     Clare%Jackson%NULL%0,     Carrol%Gamble%NULL%0,     Gary%Leeming%NULL%1,     Andrew%Law%NULL%0,     Ross%Hendry%NULL%1,     James%Scott-Brown%NULL%1,     William%Greenhalf%NULL%1,     Victoria%Shaw%NULL%1,     Sarah%McDonald%NULL%2,     Katie A%Ahmed%NULL%1,     Jane A%Armstrong%NULL%1,     Milton%Ashworth%NULL%1,     Innocent G%Asiimwe%NULL%1,     Siddharth%Bakshi%NULL%1,     Samantha L%Barlow%NULL%1,     Laura%Booth%NULL%1,     Benjamin%Brennan%NULL%1,     Katie%Bullock%NULL%1,     Benjamin WA%Catterall%NULL%1,     Jordan J%Clark%NULL%1,     Emily A%Clarke%NULL%1,     Sarah%Cole%NULL%1,     Louise%Cooper%NULL%1,     Helen%Cox%NULL%1,     Christopher%Davis%NULL%1,     Oslem%Dincarslan%NULL%1,     Chris%Dunn%NULL%1,     Philip%Dyer%NULL%1,     Angela%Elliott%NULL%1,     Anthony%Evans%NULL%1,     Lewis WS%Fisher%NULL%1,     Terry%Foster%NULL%1,     Isabel%Garcia-Dorival%NULL%1,     Willliam%Greenhalf%NULL%1,     Philip%Gunning%NULL%1,     Catherine%Hartley%NULL%1,     Antonia%Ho%NULL%0,     Rebecca L%Jensen%NULL%1,     Christopher B%Jones%NULL%1,     Trevor R%Jones%NULL%1,     Shadia%Khandaker%NULL%1,     Katharine%King%NULL%1,     Robyn T%Kiy%NULL%1,     Chrysa%Koukorava%NULL%1,     Annette%Lake%NULL%1,     Suzannah%Lant%NULL%1,     Diane%Latawiec%NULL%1,     L%Lavelle-Langham%NULL%1,     Daniella%Lefteri%NULL%1,     Lauren%Lett%NULL%1,     Lucia A%Livoti%NULL%1,     Maria%Mancini%NULL%1,     Sarah%McDonald%NULL%0,     Laurence%McEvoy%NULL%1,     John%McLauchlan%NULL%1,     Soeren%Metelmann%NULL%1,     Nahida S%Miah%NULL%1,     Joanna%Middleton%NULL%1,     Joyce%Mitchell%NULL%1,     Shona C%Moore%NULL%0,     Ellen G%Murphy%NULL%1,     Rebekah%Penrice-Randal%NULL%1,     Jack%Pilgrim%NULL%1,     Tessa%Prince%NULL%1,     Will%Reynolds%NULL%1,     P Matthew%Ridley%NULL%1,     Debby%Sales%NULL%1,     Victoria E%Shaw%NULL%1,     Rebecca K%Shears%NULL%1,     Benjamin%Small%NULL%1,     Krishanthi S%Subramaniam%NULL%1,     Agnieska%Szemiel%NULL%1,     Aislynn%Taggart%NULL%1,     Jolanta%Tanianis-Hughes%NULL%1,     Jordan%Thomas%NULL%1,     Erwan%Trochu%NULL%1,     Libby%van Tonder%NULL%1,     Eve%Wilcock%NULL%1,     J Eunice%Zhang%NULL%1,     Kayode%Adeniji%NULL%1,     Daniel%Agranoff%NULL%1,     Ken%Agwuh%NULL%1,     Dhiraj%Ail%NULL%1,     Ana%Alegria%NULL%1,     Brian%Angus%NULL%1,     Abdul%Ashish%NULL%1,     Dougal%Atkinson%NULL%1,     Shahedal%Bari%NULL%1,     Gavin%Barlow%NULL%1,     Stella%Barnass%NULL%1,     Nicholas%Barrett%NULL%3,     Christopher%Bassford%NULL%1,     David%Baxter%NULL%1,     Michael%Beadsworth%NULL%1,     Jolanta%Bernatoniene%NULL%1,     John%Berridge%NULL%1,     Nicola%Best%NULL%1,     Pieter%Bothma%NULL%1,     David%Brealey%NULL%1,     Robin%Brittain-Long%NULL%1,     Naomi%Bulteel%NULL%1,     Tom%Burden%NULL%1,     Andrew%Burtenshaw%NULL%1,     Vikki%Caruth%NULL%1,     David%Chadwick%NULL%1,     Duncan%Chambler%NULL%1,     Nigel%Chee%NULL%1,     Jenny%Child%NULL%1,     Srikanth%Chukkambotla%NULL%1,     Tom%Clark%NULL%1,     Paul%Collini%NULL%1,     Catherine%Cosgrove%NULL%1,     Jason%Cupitt%NULL%1,     Maria-Teresa%Cutino-Moguel%NULL%1,     Paul%Dark%NULL%1,     Chris%Dawson%NULL%1,     Samir%Dervisevic%NULL%1,     Phil%Donnison%NULL%1,     Sam%Douthwaite%NULL%1,     Ingrid%DuRand%NULL%1,     Ahilanadan%Dushianthan%NULL%1,     Tristan%Dyer%NULL%1,     Cariad%Evans%NULL%1,     Chi%Eziefula%NULL%1,     Chrisopher%Fegan%NULL%1,     Adam%Finn%NULL%1,     Duncan%Fullerton%NULL%1,     Sanjeev%Garg%NULL%2,     Sanjeev%Garg%NULL%0,     Atul%Garg%NULL%1,     Jo%Godden%NULL%1,     Arthur%Goldsmith%NULL%1,     Clive%Graham%NULL%1,     Elaine%Hardy%NULL%1,     Stuart%Hartshorn%NULL%1,     Daniel%Harvey%NULL%1,     Peter%Havalda%NULL%1,     Daniel B%Hawcutt%NULL%1,     Maria%Hobrok%NULL%1,     Luke%Hodgson%NULL%1,     Anita%Holme%NULL%1,     Anil%Hormis%NULL%1,     Michael%Jacobs%NULL%1,     Susan%Jain%NULL%1,     Paul%Jennings%NULL%1,     Agilan%Kaliappan%NULL%1,     Vidya%Kasipandian%NULL%1,     Stephen%Kegg%NULL%1,     Michael%Kelsey%NULL%1,     Jason%Kendall%NULL%1,     Caroline%Kerrison%NULL%1,     Ian%Kerslake%NULL%1,     Oliver%Koch%NULL%1,     Gouri%Koduri%NULL%1,     George%Koshy%NULL%1,     Shondipon%Laha%NULL%1,     Susan%Larkin%NULL%1,     Tamas%Leiner%NULL%1,     Patrick%Lillie%NULL%1,     James%Limb%NULL%1,     Vanessa%Linnett%NULL%1,     Jeff%Little%NULL%1,     Michael%MacMahon%NULL%1,     Emily%MacNaughton%NULL%1,     Ravish%Mankregod%NULL%1,     Huw%Masson%NULL%1,     Elijah%Matovu%NULL%1,     Katherine%McCullough%NULL%1,     Ruth%McEwen%NULL%1,     Manjula%Meda%NULL%1,     Gary%Mills%NULL%1,     Jane%Minton%NULL%1,     Mariyam%Mirfenderesky%NULL%1,     Kavya%Mohandas%NULL%1,     Quen%Mok%NULL%1,     James%Moon%NULL%1,     Elinoor%Moore%NULL%1,     Patrick%Morgan%NULL%1,     Craig%Morris%NULL%1,     Katherine%Mortimore%NULL%1,     Samuel%Moses%NULL%1,     Mbiye%Mpenge%NULL%1,     Rohinton%Mulla%NULL%1,     Michael%Murphy%NULL%1,     Megan%Nagel%NULL%1,     Thapas%Nagarajan%NULL%1,     Mark%Nelson%NULL%1,     Igor%Otahal%NULL%1,     Mark%Pais%NULL%1,     Selva%Panchatsharam%NULL%1,     Hassan%Paraiso%NULL%1,     Brij%Patel%NULL%1,     Justin%Pepperell%NULL%1,     Mark%Peters%NULL%1,     Mandeep%Phull%NULL%1,     Stefania%Pintus%NULL%1,     Jagtur Singh%Pooni%NULL%1,     Frank%Post%NULL%1,     David%Price%NULL%1,     Rachel%Prout%NULL%1,     Nikolas%Rae%NULL%1,     Henrik%Reschreiter%NULL%1,     Tim%Reynolds%NULL%1,     Neil%Richardson%NULL%1,     Mark%Roberts%NULL%1,     Devender%Roberts%NULL%1,     Alistair%Rose%NULL%1,     Guy%Rousseau%NULL%1,     Brendan%Ryan%NULL%1,     Taranprit%Saluja%NULL%1,     Aarti%Shah%NULL%1,     Prad%Shanmuga%NULL%1,     Anil%Sharma%NULL%1,     Anna%Shawcross%NULL%1,     Jeremy%Sizer%NULL%1,     Richard%Smith%NULL%1,     Catherine%Snelson%NULL%1,     Nick%Spittle%NULL%1,     Nikki%Staines%NULL%1,     Tom%Stambach%NULL%1,     Richard%Stewart%NULL%1,     Pradeep%Subudhi%NULL%1,     Tamas%Szakmany%NULL%1,     Kate%Tatham%NULL%1,     Jo%Thomas%NULL%1,     Chris%Thompson%NULL%1,     Robert%Thompson%NULL%1,     Ascanio%Tridente%NULL%1,     Darell%Tupper-Carey%NULL%1,     Mary%Twagira%NULL%1,     Andrew%Ustianowski%NULL%1,     Nick%Vallotton%NULL%1,     Lisa%Vincent-Smith%NULL%1,     Shico%Visuvanathan%NULL%1,     Alan%Vuylsteke%NULL%1,     Sam%Waddy%NULL%1,     Rachel%Wake%NULL%1,     Andrew%Walden%NULL%1,     Ingeborg%Welters%NULL%1,     Tony%Whitehouse%NULL%1,     Paul%Whittaker%NULL%1,     Ashley%Whittington%NULL%1,     Meme%Wijesinghe%NULL%1,     Martin%Williams%NULL%1,     Lawrence%Wilson%NULL%1,     Sarah%Wilson%NULL%1,     Stephen%Winchester%NULL%1,     Martin%Wiselka%NULL%1,     Adam%Wolverson%NULL%1,     Daniel G%Wooton%NULL%1,     Andrew%Workman%NULL%1,     Bryan%Yates%NULL%1,     Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,     Braulio A.%Marfil‐Garza%NULL%1,     Erick%Martínez Rodríguez%NULL%1,     José Omar%Barreto Rodríguez%NULL%1,     Alicia Estela%López Romo%NULL%1,     Paolo%Alberti Minutti%NULL%1,     Juan Vicente%Alejandre Loya%NULL%1,     Félix Emmanuel%Pérez Talavera%NULL%1,     Freddy José%Ávila Cervera%NULL%1,     Adriana%Velazquez Burciaga%NULL%1,     Oscar%Morado Aramburo%NULL%1,     Luis Alberto%Piña Olguín%NULL%1,     Adrian%Soto‐Rodríguez%NULL%1,     Andrés%Castañeda Prado%NULL%1,     Patricio%Santillán Doherty%NULL%1,     Juan%O Galindo%NULL%1,     Luis Alberto%Guízar García%NULL%1,     Daniel%Hernández Gordillo%NULL%1,     Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,     Aatish%Patel%NULL%1,     Esmita%Charani%NULL%1,     Sarah%Denny%NULL%1,     Saleh A.%Alqahtani%NULL%1,     Gary W.%Davies%NULL%1,     Nabeela%Mughal%NULL%1,     Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,     Hyunsun%Lim%NULL%1,     Dong-Wook%Kim%NULL%1,     Jung Hyun%Chang%NULL%1,     Yoon Jung%Choi%chris316@yuhs.ac%1,     Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,     Wenhua%Liang%NULL%5,     Mei%Jiang%NULL%4,     Weijie%Guan%NULL%5,     Chen%Zhan%NULL%2,     Tao%Wang%NULL%0,     Chunli%Tang%NULL%3,     Ling%Sang%NULL%6,     Jiaxing%Liu%NULL%2,     Zhengyi%Ni%NULL%4,     Yu%Hu%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%11,     Chunliang%Lei%NULL%4,     Yixiang%Peng%NULL%4,     Li%Wei%NULL%11,     Yong%Liu%NULL%11,     Yahua%Hu%NULL%4,     Peng%Peng%NULL%14,     Jianming%Wang%NULL%4,     Jiyang%Liu%NULL%4,     Zhong%Chen%NULL%11,     Gang%Li%NULL%11,     Zhijian%Zheng%NULL%4,     Shaoqin%Qiu%NULL%4,     Jie%Luo%NULL%11,     Changjiang%Ye%NULL%4,     Shaoyong%Zhu%NULL%4,     Xiaoqing%Liu%NULL%2,     Linling%Cheng%NULL%2,     Feng%Ye%NULL%3,     Jinping%Zheng%NULL%4,     Nuofu%Zhang%NULL%4,     Yimin%Li%NULL%4,     Jianxing%He%NULL%4,     Shiyue%Li%lishiyue@188.com%5,     Nanshan%Zhong%NULL%5,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,     Liu%Hu%NULL%3,     Yiru%Wang%NULL%0,     Luyan%Huang%NULL%3,     Lingxi%Zhao%NULL%3,     Congcong%Zhang%NULL%3,     Xiyue%Liu%NULL%3,     Ranran%Xu%NULL%3,     Feng%Liu%NULL%0,     Jinping%Li%NULL%3,     Dawei%Ye%NULL%0,     Tao%Wang%NULL%0,     Yongman%Lv%lvyongman@126.com%0,     Qingquan%Liu%qqliutj@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,     Carol A C%Coupland%NULL%1,     Ruth H%Keogh%NULL%1,     Karla%Diaz-Ordaz%NULL%1,     Elizabeth%Williamson%NULL%1,     Ewen M%Harrison%NULL%0,     Andrew%Hayward%NULL%1,     Harry%Hemingway%NULL%1,     Peter%Horby%NULL%1,     Nisha%Mehta%NULL%1,     Jonathan%Benger%NULL%1,     Kamlesh%Khunti%NULL%0,     David%Spiegelhalter%NULL%1,     Aziz%Sheikh%NULL%0,     Jonathan%Valabhji%NULL%0,     Ronan A%Lyons%NULL%1,     John%Robson%NULL%1,     Malcolm G%Semple%NULL%0,     Frank%Kee%NULL%1,     Peter%Johnson%NULL%1,     Susan%Jebb%NULL%1,     Tony%Williams%NULL%1,     Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,     Guang-Yao%Cai%NULL%1,     Wei%Fang%NULL%5,     Hua-Yi%Li%NULL%1,     Si-Yuan%Wang%NULL%2,     Si-Yuan%Wang%NULL%0,     Lingxi%Chen%NULL%1,     Yang%Yu%NULL%1,     Dan%Liu%NULL%0,     Sen%Xu%NULL%2,     Peng-Fei%Cui%NULL%1,     Shao-Qing%Zeng%NULL%2,     Shao-Qing%Zeng%NULL%0,     Xin-Xia%Feng%NULL%1,     Rui-Di%Yu%NULL%1,     Ya%Wang%NULL%2,     Yuan%Yuan%NULL%1,     Xiao-Fei%Jiao%NULL%1,     Jian-Hua%Chi%NULL%1,     Jia-Hao%Liu%NULL%1,     Ru-Yuan%Li%NULL%1,     Xu%Zheng%NULL%1,     Chun-Yan%Song%NULL%1,     Ning%Jin%NULL%1,     Wen-Jian%Gong%NULL%1,     Xing-Yu%Liu%NULL%1,     Lei%Huang%NULL%1,     Xun%Tian%NULL%1,     Lin%Li%NULL%3,     Hui%Xing%NULL%1,     Ding%Ma%NULL%1,     Chun-Rui%Li%NULL%1,     Fei%Ye%yeyuanbei@hotmail.com%1,     Qing-Lei%Gao%qingleigao@hotmail.com%2,     Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,     Ang%Li%NULL%1,     Mengfan%Jiao%NULL%1,     Qingmiao%Shi%NULL%1,     Xiaocai%An%NULL%1,     Yonghai%Feng%NULL%1,     Lihua%Xing%NULL%1,     Hongxia%Liang%NULL%1,     Jiajun%Chen%NULL%1,     Huiling%Li%NULL%1,     Juan%Li%NULL%0,     Zhigang%Ren%NULL%1,     Ranran%Sun%NULL%1,     Guangying%Cui%NULL%1,     Yongjian%Zhou%NULL%1,     Ming%Cheng%NULL%1,     Pengfei%Jiao%NULL%1,     Yu%Wang%NULL%3,     Jiyuan%Xing%NULL%1,     Shen%Shen%NULL%1,     Qingxian%Zhang%NULL%1,     Aiguo%Xu%NULL%1,     Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,     Michael%Ng%NULL%1,     Shuang%Xu%NULL%1,     Zhouming%Xu%NULL%1,     Hui%Qiu%NULL%1,     Yuwei%Liu%NULL%3,     Jiayou%Lyu%NULL%1,     Jiwen%You%NULL%1,     Peng%Zhao%NULL%0,     Shihao%Wang%NULL%1,     Yunfei%Tang%NULL%1,     Hao%Cui%NULL%1,     Changxiao%Yu%NULL%1,     Feng%Wang%NULL%9,     Fei%Shao%NULL%1,     Peng%Sun%NULL%1,     Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,     Huifang%Wang%NULL%1,     Junwei%Huang%NULL%1,     Yan%Geng%NULL%1,     Shuqi%Jiang%NULL%1,     Qiuping%Zhou%NULL%1,     Xuan%Chen%NULL%1,     Hongping%Hu%NULL%1,     Weifeng%Li%NULL%1,     Chengbin%Zhou%NULL%1,     Xinglin%Gao%NULL%1,     Na%Peng%pnatz@163.com%1,     Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,     Dandan%Cheng%NULL%1,     Yiwei%Cao%NULL%1,     Chuan%Hu%NULL%1,     Fenglin%Zou%NULL%1,     Wencheng%Yu%NULL%1,     Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,     Min Kyu%Kang%NULL%2,     Min Kyu%Kang%NULL%0,     Yu Rim%Lee%NULL%2,     Yu Rim%Lee%NULL%0,     Jeong Eun%Song%NULL%2,     Jeong Eun%Song%NULL%0,     Na Young%Kim%NULL%1,     Young Oh%Kweon%NULL%1,     Won Young%Tak%NULL%1,     Se Young%Jang%NULL%1,     Changhyeong%Lee%NULL%2,     Changhyeong%Lee%NULL%0,     Byung Seok%Kim%NULL%1,     Jae Seok%Hwang%NULL%1,     Byoung Kuk%Jang%NULL%1,     Jinmok%Bae%NULL%1,     Ji Yeon%Lee%NULL%0,     Jeong Ill%Suh%NULL%1,     Soo Young%Park%NULL%1,     Woo Jin%Chung%NULL%2,     Woo Jin%Chung%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,     Cristina%Roca-Oporto%NULL%0,     Guillermo%Martín-Gutiérrez%NULL%0,     María Dolores%Avilés%NULL%0,     Carmen%Gómez-González%NULL%0,     María Dolores%Navarro-Amuedo%NULL%0,     Julia%Praena-Segovia%NULL%0,     José%Molina%NULL%0,     María%Paniagua-García%NULL%0,     Horacio%García-Delgado%NULL%0,     Antonio%Domínguez-Petit%NULL%0,     Jerónimo%Pachón%NULL%0,     José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,  Calvo%Boyero Fernando%coreGivesNoEmail%1,  Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,  COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,  Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,  Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,  L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,  Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,  Santos%Lozano Alejandro%coreGivesNoEmail%1,  Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,      Min%He%NULL%1,      Wanhong%Yin%NULL%1,      Xuelian%Liao%NULL%1,      Bo%Wang%NULL%8,      Xiaodong%Jin%NULL%1,      Yao%Ma%NULL%3,      Jirong%Yue%NULL%1,      Lang%Bai%NULL%1,      Dan%Liu%NULL%3,      Ting%Zhu%NULL%1,      Zhixin%Huang%NULL%1,      Yan%Kang%kangyan@scu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,      Shuchang%Zhou%NULL%1,      Yujin%Wang%NULL%1,      Wenzhi%Lv%NULL%2,      Shili%Wang%NULL%1,      Ting%Wang%751884926@qq.com%1,      Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,      Yan-chak%Li%NULL%1,      Sonali%Bose%NULL%1,      Ravi%Iyengar%NULL%1,      Supinda%Bunyavanich%NULL%1,      Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,       Hai-Tao%Zhang%null%1,       Jorge%Goncalves%null%1,       Yang%Xiao%null%1,       Maolin%Wang%null%1,       Yuqi%Guo%null%1,       Chuan%Sun%null%1,       Xiuchuan%Tang%null%1,       Liang%Jing%null%1,       Mingyang%Zhang%null%1,       Xiang%Huang%null%1,       Ying%Xiao%null%1,       Haosen%Cao%null%1,       Yanyan%Chen%null%1,       Tongxin%Ren%null%1,       Fang%Wang%null%1,       Yaru%Xiao%null%1,       Sufang%Huang%null%1,       Xi%Tan%null%1,       Niannian%Huang%null%1,       Bo%Jiao%null%1,       Cheng%Cheng%null%1,       Yong%Zhang%null%1,       Ailin%Luo%null%1,       Laurent%Mombaerts%null%1,       Junyang%Jin%null%1,       Zhiguo%Cao%null%1,       Shusheng%Li%null%5,       Hui%Xu%null%1,       Ye%Yuan%null%2,     Li%Yan%null%1,     Hai-Tao%Zhang%null%1,     Jorge%Goncalves%null%1,     Yang%Xiao%null%1,     Maolin%Wang%null%1,     Yuqi%Guo%null%1,     Chuan%Sun%null%1,     Xiuchuan%Tang%null%1,     Liang%Jing%null%1,     Mingyang%Zhang%null%1,     Xiang%Huang%null%1,     Ying%Xiao%null%1,     Haosen%Cao%null%1,     Yanyan%Chen%null%1,     Tongxin%Ren%null%1,     Fang%Wang%null%2,     Yaru%Xiao%null%1,     Sufang%Huang%null%1,     Xi%Tan%null%1,     Niannian%Huang%null%1,     Bo%Jiao%null%1,     Cheng%Cheng%null%1,     Yong%Zhang%null%1,     Ailin%Luo%null%1,     Laurent%Mombaerts%null%1,     Junyang%Jin%null%1,     Zhiguo%Cao%null%1,     Shusheng%Li%null%0,     Hui%Xu%null%1,     Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,      Mengfei%Guo%NULL%1,      Limin%Duan%NULL%1,      Feng%Wu%NULL%1,      Guorong%Hu%NULL%1,      Zhihui%Wang%NULL%1,      Qi%Huang%NULL%2,      Tingting%Liao%NULL%1,      Juanjuan%Xu%NULL%1,      Yanling%Ma%NULL%1,      Zhilei%Lv%NULL%1,      Wenjing%Xiao%NULL%1,      Zilin%Zhao%NULL%1,      Xueyun%Tan%NULL%1,      Daquan%Meng%NULL%1,      Shujing%Zhang%NULL%1,      E%Zhou%NULL%1,      Zhengrong%Yin%NULL%1,      Wei%Geng%NULL%1,      Xuan%Wang%NULL%1,      Jianchu%Zhang%NULL%1,      Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,      Yu%Zhang%whxhzy@163.com%1,      Yang%Jin%whuhjy@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,      Francesco%Arru%NULL%2,      Francesco%Arru%NULL%0,      Andrea%De Vito%NULL%1,      Alessandro%Sassu%NULL%2,      Alessandro%Sassu%NULL%0,      Giovanni%Valdes%NULL%1,      Valentina%Scano%NULL%1,      Elisabetta%Zinellu%NULL%1,      Roberto%Perra%NULL%1,      Giordano%Madeddu%NULL%1,      Ciriaco%Carru%NULL%1,      Pietro%Pirina%NULL%1,      Arduino A.%Mangoni%NULL%2,      Arduino A.%Mangoni%NULL%0,      Sergio%Babudieri%NULL%2,      Sergio%Babudieri%NULL%0,      Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,      Pablo%Ryan%NULL%3,      Jorge%Valencia%NULL%2,      Jorge%Valencia%NULL%0,      Mario%Pérez-Butragueño%NULL%2,      Mario%Pérez-Butragueño%NULL%0,      Eva%Jiménez%NULL%2,      Eva%Jiménez%NULL%0,      Mario%Fontán-Vela%NULL%1,      Elsa%Izquierdo-García%NULL%2,      Elsa%Izquierdo-García%NULL%0,      Inés%Fernandez-Jimenez%NULL%1,      Elena%Álvaro-Alonso%NULL%1,      Andrea%Lazaro%NULL%2,      Andrea%Lazaro%NULL%0,      Marta%Alvarado%NULL%1,      Helena%Notario%NULL%1,      Salvador%Resino%NULL%1,      Daniel%Velez-Serrano%NULL%1,      Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,      Yiru%Wang%NULL%4,      Xuecheng%Zhao%NULL%1,      Lixuan%Wang%NULL%1,      Feng%Liu%NULL%5,      Tao%Wang%NULL%19,      Dawei%Ye%NULL%4,      Yongman%Lv%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,      Valentina%Zuccaro%NULL%1,      Luca%Novelli%NULL%1,      Lorenzo%Zileri%NULL%2,      Lorenzo%Zileri%NULL%0,      Ciro%Celsa%NULL%1,      Federico%Raimondi%NULL%2,      Federico%Raimondi%NULL%0,      Mauro%Gori%NULL%1,      Giulia%Cammà%NULL%1,      Salvatore%Battaglia%NULL%1,      Vincenzo Giuseppe%Genova%NULL%1,      Laura%Paris%NULL%1,      Matteo%Tacelli%NULL%1,      Francesco Antonio%Mancarella%NULL%1,      Marco%Enea%NULL%1,      Massimo%Attanasio%NULL%1,      Michele%Senni%NULL%1,      Fabiano%Di Marco%NULL%1,      Luca Ferdinando%Lorini%NULL%1,      Stefano%Fagiuoli%NULL%1,      Raffaele%Bruno%NULL%1,      Calogero%Cammà%NULL%1,      Antonio%Gasbarrini%NULL%3,      Francesco%Di Gennaro%NULL%2,      Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,      Gan-xun%Li%NULL%1,      Lin%Chen%NULL%2,      Chang%Shu%NULL%2,      Jia%Song%NULL%1,      Wei%Wang%NULL%4,      Yu-wei%Wang%NULL%1,      Qian%Chen%NULL%2,      Guan-nan%Jin%NULL%1,      Tong-tong%Liu%NULL%1,      Jun-nan%Liang%NULL%1,      Peng%Zhu%NULL%1,      Wei%Zhu%NULL%4,      Yong%Li%NULL%2,      Bin-hao%Zhang%NULL%1,      Huan%Feng%NULL%1,      Wan-guang%Zhang%NULL%1,      Zhen-yu%Yin%NULL%1,      Wen-kui%Yu%NULL%1,      Yang%Yang%NULL%3,      Hua-qiu%Zhang%NULL%1,      Zhou-ping%Tang%NULL%1,      Hui%Wang%NULL%4,      Jun-bo%Hu%NULL%1,      Ji-hong%Liu%NULL%1,      Ping%Yin%NULL%1,      Xiao-ping%Chen%NULL%1,      Bixiang%Zhang%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,      Günay%Can%NULL%2,      Günay%Can%NULL%0,      Rıdvan%Karaali%NULL%1,      Şermin%Börekçi%NULL%1,      İlker İnanç%Balkan%NULL%1,      Bilun%Gemicioğlu%NULL%1,      Dildar%Konukoğlu%NULL%1,      Ethem%Erginöz%NULL%1,      Mehmet Sarper%Erdoğan%NULL%1,      Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,      Danila%Azzolina%NULL%1,      Eyal%Hayden%NULL%2,      Eyal%Hayden%NULL%0,      Gianluca%Gaidano%NULL%2,      Gianluca%Gaidano%NULL%0,      Mario%Pirisi%NULL%2,      Mario%Pirisi%NULL%0,      Antonio%Acquaviva%NULL%2,      Antonio%Acquaviva%NULL%0,      Gianluca%Aimaretti%NULL%2,      Gianluca%Aimaretti%NULL%0,      Paolo%Aluffi Valletti%NULL%2,      Paolo%Aluffi Valletti%NULL%0,      Roberto%Angilletta%NULL%2,      Roberto%Angilletta%NULL%0,      Roberto%Arioli%NULL%2,      Roberto%Arioli%NULL%0,      Gian Carlo%Avanzi%NULL%2,      Gian Carlo%Avanzi%NULL%0,      Gianluca%Avino%NULL%2,      Gianluca%Avino%NULL%0,      Piero Emilio%Balbo%NULL%2,      Piero Emilio%Balbo%NULL%0,      Giulia%Baldon%NULL%2,      Giulia%Baldon%NULL%0,      Francesca%Baorda%NULL%2,      Francesca%Baorda%NULL%0,      Emanuela%Barbero%NULL%2,      Emanuela%Barbero%NULL%0,      Alessio%Baricich%NULL%2,      Alessio%Baricich%NULL%0,      Michela%Barini%NULL%2,      Michela%Barini%NULL%0,      Francesco%Barone-Adesi%NULL%2,      Francesco%Barone-Adesi%NULL%0,      Sofia%Battistini%NULL%2,      Sofia%Battistini%NULL%0,      Michela%Beltrame%NULL%2,      Michela%Beltrame%NULL%0,      Matteo%Bertoli%NULL%2,      Matteo%Bertoli%NULL%0,      Stephanie%Bertolin%NULL%2,      Stephanie%Bertolin%NULL%0,      Marinella%Bertolotti%NULL%2,      Marinella%Bertolotti%NULL%0,      Marta%Betti%NULL%2,      Marta%Betti%NULL%0,      Flavio%Bobbio%NULL%2,      Flavio%Bobbio%NULL%0,      Paolo%Boffano%NULL%2,      Paolo%Boffano%NULL%0,      Lucio%Boglione%NULL%2,      Lucio%Boglione%NULL%0,      Silvio%Borrè%NULL%2,      Silvio%Borrè%NULL%0,      Matteo%Brucoli%NULL%2,      Matteo%Brucoli%NULL%0,      Elisa%Calzaducca%NULL%2,      Elisa%Calzaducca%NULL%0,      Edoardo%Cammarata%NULL%2,      Edoardo%Cammarata%NULL%0,      Vincenzo%Cantaluppi%NULL%2,      Vincenzo%Cantaluppi%NULL%0,      Roberto%Cantello%NULL%2,      Roberto%Cantello%NULL%0,      Andrea%Capponi%NULL%2,      Andrea%Capponi%NULL%0,      Alessandro%Carriero%NULL%2,      Alessandro%Carriero%NULL%0,      Giuseppe Francesco%Casciaro%NULL%2,      Giuseppe Francesco%Casciaro%NULL%0,      Luigi Mario%Castello%NULL%2,      Luigi Mario%Castello%NULL%0,      Federico%Ceruti%NULL%2,      Federico%Ceruti%NULL%0,      Guido%Chichino%NULL%2,      Guido%Chichino%NULL%0,      Emilio%Chirico%NULL%2,      Emilio%Chirico%NULL%0,      Carlo%Cisari%NULL%1,      Micol Giulia%Cittone%NULL%2,      Micol Giulia%Cittone%NULL%0,      Crizia%Colombo%NULL%2,      Crizia%Colombo%NULL%0,      Cristoforo%Comi%NULL%2,      Cristoforo%Comi%NULL%0,      Eleonora%Croce%NULL%2,      Eleonora%Croce%NULL%0,      Tommaso%Daffara%NULL%2,      Tommaso%Daffara%NULL%0,      Pietro%Danna%NULL%2,      Pietro%Danna%NULL%0,      Francesco%Della Corte%NULL%2,      Francesco%Della Corte%NULL%0,      Simona%De Vecchi%NULL%2,      Simona%De Vecchi%NULL%0,      Umberto%Dianzani%NULL%2,      Umberto%Dianzani%NULL%0,      Davide%Di Benedetto%NULL%2,      Davide%Di Benedetto%NULL%0,      Elia%Esposto%NULL%2,      Elia%Esposto%NULL%0,      Fabrizio%Faggiano%NULL%2,      Fabrizio%Faggiano%NULL%0,      Zeno%Falaschi%NULL%2,      Zeno%Falaschi%NULL%0,      Daniela%Ferrante%NULL%2,      Daniela%Ferrante%NULL%0,      Alice%Ferrero%NULL%2,      Alice%Ferrero%NULL%0,      Ileana%Gagliardi%NULL%2,      Ileana%Gagliardi%NULL%0,      Alessandra%Galbiati%NULL%2,      Alessandra%Galbiati%NULL%0,      Silvia%Gallo%NULL%2,      Silvia%Gallo%NULL%0,      Pietro Luigi%Garavelli%NULL%2,      Pietro Luigi%Garavelli%NULL%0,      Clara Ada%Gardino%NULL%2,      Clara Ada%Gardino%NULL%0,      Massimiliano%Garzaro%NULL%2,      Massimiliano%Garzaro%NULL%0,      Maria Luisa%Gastaldello%NULL%2,      Maria Luisa%Gastaldello%NULL%0,      Francesco%Gavelli%NULL%2,      Francesco%Gavelli%NULL%0,      Alessandra%Gennari%NULL%2,      Alessandra%Gennari%NULL%0,      Greta Maria%Giacomini%NULL%2,      Greta Maria%Giacomini%NULL%0,      Irene%Giacone%NULL%2,      Irene%Giacone%NULL%0,      Valentina%Giai Via%NULL%2,      Valentina%Giai Via%NULL%0,      Francesca%Giolitti%NULL%2,      Francesca%Giolitti%NULL%0,      Laura Cristina%Gironi%NULL%2,      Laura Cristina%Gironi%NULL%0,      Carla%Gramaglia%NULL%2,      Carla%Gramaglia%NULL%0,      Leonardo%Grisafi%NULL%2,      Leonardo%Grisafi%NULL%0,      Ilaria%Inserra%NULL%2,      Ilaria%Inserra%NULL%0,      Marco%Invernizzi%NULL%2,      Marco%Invernizzi%NULL%0,      Marco%Krengli%NULL%2,      Marco%Krengli%NULL%0,      Emanuela%Labella%NULL%2,      Emanuela%Labella%NULL%0,      Irene Cecilia%Landi%NULL%2,      Irene Cecilia%Landi%NULL%0,      Raffaella%Landi%NULL%2,      Raffaella%Landi%NULL%0,      Ilaria%Leone%NULL%2,      Ilaria%Leone%NULL%0,      Veronica%Lio%NULL%2,      Veronica%Lio%NULL%0,      Luca%Lorenzini%NULL%2,      Luca%Lorenzini%NULL%0,      Antonio%Maconi%NULL%2,      Antonio%Maconi%NULL%0,      Mario%Malerba%NULL%2,      Mario%Malerba%NULL%0,      Giulia Francesca%Manfredi%NULL%2,      Giulia Francesca%Manfredi%NULL%0,      Maria%Martelli%NULL%2,      Maria%Martelli%NULL%0,      Letizia%Marzari%NULL%2,      Letizia%Marzari%NULL%0,      Paolo%Marzullo%NULL%2,      Paolo%Marzullo%NULL%0,      Marco%Mennuni%NULL%2,      Marco%Mennuni%NULL%0,      Claudia%Montabone%NULL%2,      Claudia%Montabone%NULL%0,      Umberto%Morosini%NULL%2,      Umberto%Morosini%NULL%0,      Marco%Mussa%NULL%2,      Marco%Mussa%NULL%0,      Ilaria%Nerici%NULL%2,      Ilaria%Nerici%NULL%0,      Alessandro%Nuzzo%NULL%2,      Alessandro%Nuzzo%NULL%0,      Carlo%Olivieri%NULL%2,      Carlo%Olivieri%NULL%0,      Samuel Alberto%Padelli%NULL%2,      Samuel Alberto%Padelli%NULL%0,      Massimiliano%Panella%NULL%2,      Massimiliano%Panella%NULL%0,      Andrea%Parisini%NULL%2,      Andrea%Parisini%NULL%0,      Alessio%Paschè%NULL%2,      Alessio%Paschè%NULL%0,      Filippo%Patrucco%NULL%2,      Filippo%Patrucco%NULL%0,      Giuseppe%Patti%NULL%2,      Giuseppe%Patti%NULL%0,      Alberto%Pau%NULL%2,      Alberto%Pau%NULL%0,      Anita Rebecca%Pedrinelli%NULL%2,      Anita Rebecca%Pedrinelli%NULL%0,      Ilaria%Percivale%NULL%2,      Ilaria%Percivale%NULL%0,      Luca%Ragazzoni%NULL%2,      Luca%Ragazzoni%NULL%0,      Roberta%Re%NULL%2,      Roberta%Re%NULL%0,      Cristina%Rigamonti%NULL%2,      Cristina%Rigamonti%NULL%0,      Eleonora%Rizzi%NULL%2,      Eleonora%Rizzi%NULL%0,      Andrea%Rognoni%NULL%2,      Andrea%Rognoni%NULL%0,      Annalisa%Roveta%NULL%2,      Annalisa%Roveta%NULL%0,      Luigia%Salamina%NULL%2,      Luigia%Salamina%NULL%0,      Matteo%Santagostino%NULL%2,      Matteo%Santagostino%NULL%0,      Massimo%Saraceno%NULL%2,      Massimo%Saraceno%NULL%0,      Paola%Savoia%NULL%2,      Paola%Savoia%NULL%0,      Marco%Sciarra%NULL%2,      Marco%Sciarra%NULL%0,      Andrea%Schimmenti%NULL%2,      Andrea%Schimmenti%NULL%0,      Lorenza%Scotti%NULL%2,      Lorenza%Scotti%NULL%0,      Enrico%Spinoni%NULL%2,      Enrico%Spinoni%NULL%0,      Carlo%Smirne%NULL%2,      Carlo%Smirne%NULL%0,      Vanessa%Tarantino%NULL%2,      Vanessa%Tarantino%NULL%0,      Paolo Amedeo%Tillio%NULL%2,      Paolo Amedeo%Tillio%NULL%0,      Stelvio%Tonello%NULL%2,      Stelvio%Tonello%NULL%0,      Rosanna%Vaschetto%NULL%2,      Rosanna%Vaschetto%NULL%0,      Veronica%Vassia%NULL%2,      Veronica%Vassia%NULL%0,      Domenico%Zagaria%NULL%2,      Domenico%Zagaria%NULL%0,      Elisa%Zavattaro%NULL%2,      Elisa%Zavattaro%NULL%0,      Patrizia%Zeppegno%NULL%2,      Patrizia%Zeppegno%NULL%0,      Francesca%Zottarelli%NULL%2,      Francesca%Zottarelli%NULL%0,      Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,      Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,      Marta%Ottone%NULL%2,      Marta%Ottone%NULL%0,      Tommaso%Fasano%NULL%1,      Pierpaolo%Pattacini%NULL%1,      Valentina%Iotti%NULL%1,      Lucia%Spaggiari%NULL%1,      Riccardo%Bonacini%NULL%1,      Andrea%Nitrosi%NULL%1,      Efrem%Bonelli%NULL%1,      Simone%Canovi%NULL%1,      Rossana%Colla%NULL%1,      Alessandro%Zerbini%NULL%1,      Marco%Massari%NULL%2,      Ivana%Lattuada%NULL%1,      Anna Maria%Ferrari%NULL%1,      Paolo%Giorgi Rossi%NULL%1,      Massimo%Costantini%NULL%1,      Roberto%Grilli%NULL%2,      Massimiliano%Marino%NULL%2,      Giulio%Formoso%NULL%1,      Debora%Formisano%NULL%2,      Emanuela%Bedeschi%NULL%1,      Cinzia%Perilli%NULL%1,      Elisabetta%La Rosa%NULL%1,      Eufemia%Bisaccia%NULL%1,      Ivano%Venturi%NULL%1,      Massimo%Vicentini%NULL%3,      Cinzia%Campari%NULL%1,      Francesco%Gioia%NULL%1,      Serena%Broccoli%NULL%1,      Pamela%Mancuso%NULL%1,      Marco%Foracchia%NULL%1,      Mirco%Pinotti%NULL%1,      Nicola%Facciolongo%NULL%1,      Laura%Trabucco%NULL%1,      Stefano%De Pietri%NULL%1,      Giorgio Francesco%Danelli%NULL%1,      Laura%Albertazzi%NULL%1,      Enrica%Bellesia%NULL%1,      Mattia%Corradini%NULL%1,      Elena%Magnani%NULL%1,      Annalisa%Pilia%NULL%1,      Alessandra%Polese%NULL%1,      Silvia Storchi%Incerti%NULL%1,      Piera%Zaldini%NULL%1,      Bonanno%Orsola%NULL%1,      Matteo%Revelli%NULL%1,      Carlo%Salvarani%NULL%1,      Carmine%Pinto%NULL%1,      Francesco%Venturelli%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,      Hong-Qiu%Gu%NULL%1,      Yi%Liu (刘艺)%NULL%1,      Guqin%Zhang%NULL%1,      Hang%Yang%NULL%1,      Huifang%Hu%NULL%1,      Chenyang%Lu%NULL%1,      Yang%Li%NULL%3,      Liyi%Wang%NULL%1,      Yi%Liu (刘毅)%yi2006liu@163.com%1,      Yi%Zhao%zhao.y1977@163.com%2,      Huaqin%Pan%phq2012@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,      Tawsifur%Rahman%NULL%2,      Tawsifur%Rahman%NULL%0,      Amith%Khandakar%NULL%3,      Somaya%Al-Madeed%NULL%2,      Susu M.%Zughaier%NULL%5,      Suhail A. R.%Doi%NULL%3,      Hanadi%Hassen%NULL%1,      Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,      Jia%Sun%NULL%1,      Yi-Xin%Li%NULL%1,      Qian%Chen%NULL%0,      Qing-Quan%Liu%NULL%1,      Zhou%Sun%NULL%1,      Ran%Pang%NULL%1,      Fei%Chen%NULL%1,      Bing-Yang%Xu%NULL%1,      Anne%Manyande%NULL%1,      Taane G%Clark%NULL%1,      Jin-Ping%Li%NULL%1,      Ilkay Erdogan%Orhan%NULL%1,      Yu-Ke%Tian%NULL%1,      Tao%Wang%wt7636@126.com%0,      Wei%Wu%wt7636@126.com%1,      Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,   Imam%Z%coreGivesNoEmail%1,   Lippi%G%coreGivesNoEmail%1,   Oran%DP%coreGivesNoEmail%1,   Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,      Caiping%Song%NULL%1,      En%Liu%NULL%1,      Xi%Liu%NULL%1,      Hao%Wu%NULL%1,      Hui%Lin%NULL%1,      Yuliang%Liu%NULL%1,      Qi%Li%NULL%1,      Zhi%Xu%NULL%1,      XiaoBao%Ren%NULL%1,      Cheng%Zhang%NULL%1,      Wenjing%Zhang%NULL%1,      Wei%Duan%NULL%3,      Yongfeng%Tian%NULL%1,      Ping%Li%NULL%1,      Mingdong%Hu%NULL%1,      Shiming%Yang%NULL%1,      Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,      Changli%Li%NULL%1,      Li%Zheng%NULL%1,      Wenzhi%Lv%NULL%0,      Zhigang%He%NULL%1,      Xinwu%Cui%NULL%1,      Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,      Hayne Cho%Park%NULL%2,      Hayne Cho%Park%NULL%0,      Ajin%Cho%NULL%1,      Juhee%Kim%NULL%1,      Kyu-sang%Yun%NULL%1,      Jinseog%Kim%NULL%1,      Young-Ki%Lee%NULL%1,      Sinan%Kardes.%NULL%2,      Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,      Xiaoyu%Fang%NULL%1,      Lixia%Cheng%NULL%1,      Penghao%Wang%NULL%1,      Shen%Li%NULL%1,      Hao%Yu%NULL%1,      Yao%Zhang%NULL%3,      Nan%Jiang%NULL%1,      Tingting%Zeng%NULL%1,      Chao%Hou%NULL%1,      Jing%Zhou%NULL%0,      Shiru%Li%NULL%1,      Yingzi%Pan%NULL%1,      Yitong%Li%NULL%1,      Lili%Nie%NULL%1,      Yang%Li%NULL%0,      Qidi%Sun%NULL%1,      Hong%Jia%NULL%1,      Mengxia%Li%NULL%1,      Guoqiang%Cao%NULL%1,      Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,      Lucas A%Ramos%NULL%2,      Lucas A%Ramos%NULL%0,      Wouter%Potters%NULL%1,      Marcus L F%Janssen%NULL%1,      Deborah%Hubers%NULL%1,      Shi%Hu%NULL%1,      Egill A%Fridgeirsson%NULL%1,      Dan%Piña-Fuentes%NULL%1,      Rajat%Thomas%NULL%1,      Iwan C C%van der Horst%NULL%1,      Christian%Herff%NULL%2,      Christian%Herff%NULL%0,      Pieter%Kubben%NULL%1,      Paul W G%Elbers%NULL%1,      Henk A%Marquering%NULL%1,      Max%Welling%NULL%1,      Suat%Simsek%NULL%1,      Martijn D%de Kruif%NULL%1,      Tom%Dormans%NULL%1,      Lucas M%Fleuren%NULL%1,      Michiel%Schinkel%NULL%1,      Peter G%Noordzij%NULL%1,      Joop P%van den Bergh%NULL%2,      Joop P%van den Bergh%NULL%0,      Caroline E%Wyers%NULL%1,      David T B%Buis%NULL%2,      David T B%Buis%NULL%0,      W Joost%Wiersinga%NULL%1,      Ella H C%van den Hout%NULL%1,      Auke C%Reidinga%NULL%1,      Daisy%Rusch%NULL%1,      Kim C E%Sigaloff%NULL%1,      Renee A%Douma%NULL%1,      Lianne%de Haan%NULL%1,      Niels C%Gritters van den Oever%NULL%1,      Roger J M W%Rennenberg%NULL%1,      Guido A%van Wingen%NULL%1,      Marcel J H%Aries%NULL%1,      Martijn%Beudel%NULL%2,      Martijn%Beudel%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,      Fajer A.%Al-Ishaq%NULL%2,      Fajer A.%Al-Ishaq%NULL%0,      Fatima S.%Al-Mohannadi%NULL%1,      Reem S.%Mubarak%NULL%1,      Maryam H.%Al-Hitmi%NULL%1,      Khandaker Reajul%Islam%NULL%1,      Amith%Khandakar%NULL%0,      Ali Ait%Hssain%NULL%4,      Ali Ait%Hssain%NULL%0,      Somaya%Al-Madeed%NULL%0,      Susu M.%Zughaier%NULL%0,      Susu M.%Zughaier%NULL%0,      Muhammad E. H.%Chowdhury%NULL%3,      Muhammad E. H.%Chowdhury%NULL%0,      Antonella%Santone%NULL%3,      Antonella%Santone%NULL%0,      Antonella%Santone%NULL%0,      Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,      Amith%Khandakar%NULL%0,      Md Enamul%Hoque%NULL%2,      Md Enamul%Hoque%NULL%0,      Nabil%Ibtehaz%NULL%2,      Nabil%Ibtehaz%NULL%0,      Saad Bin%Kashem%NULL%2,      Saad Bin%Kashem%NULL%0,      Reehum%Masud%NULL%1,      Lutfunnahar%Shampa%NULL%1,      Mohammad Mehedi%Hasan%NULL%1,      Mohammad Tariqul%Islam%NULL%1,      Somaya%Al-Maadeed%NULL%2,      Somaya%Al-Maadeed%NULL%0,      Susu M.%Zughaier%NULL%0,      Susu M.%Zughaier%NULL%0,      Saif%Badran%NULL%2,      Saif%Badran%NULL%0,      Suhail A. R.%Doi%NULL%0,      Suhail A. R.%Doi%NULL%0,      Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,      Pablo%Rodríguez-Belenguer%NULL%2,      Pablo%Rodríguez-Belenguer%NULL%0,      Antonio J.%Serrano-López%NULL%1,      Emilio%Soria-Olivas%NULL%2,      Emilio%Soria-Olivas%NULL%0,      Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,      Haibo%Ai%NULL%1,      Yunong%Fu%NULL%1,      Qinglin%Li%NULL%1,      Ruixia%Cui%NULL%1,      Xiaohua%Ma%NULL%1,      Yan-fen%Ma%NULL%1,      Zi%Wang%NULL%1,      Tong%Liu%NULL%1,      Yunxiang%Long%NULL%1,      Kai%Qu%NULL%1,      Chang%Liu%NULL%1,      Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,      Dawei%Zhang%NULL%1,      Jing%Xu%NULL%3,      Zhu%Chen%NULL%1,      Tieniu%Yang%NULL%1,      Peng%Zhao%NULL%2,      Guofeng%Chen%NULL%1,      Gregory%Cheng%NULL%1,      Yudong%Wang%NULL%1,      Jingfeng%Bi%NULL%1,      Lin%Tan%NULL%1,      George%Lau%NULL%1,      Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,      Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,      Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,      Giulia%Suigo%NULL%1,      Davide%Zampini%NULL%1,      Matteo%Pistoia%NULL%1,      Mariella%Ciola%NULL%1,      Tommaso%Ciampani%NULL%1,      Carolina%Ultori%NULL%1,      Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,      John R%Adler%NULL%3,      Sultan M%Kamran%NULL%2,      Sultan M%Kamran%NULL%0,      Zill-e-Humayun%Mirza%NULL%1,      Hussain Abdul%Moeed%NULL%1,      Arshad%Naseem%NULL%1,      Maryam%Hussain%NULL%1,      Imran%Fazal%NULL%1,      Farrukh%Saeed%NULL%1,      Wasim%Alamgir%NULL%1,      Salman%Saleem%NULL%1,      Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,      María M.%Martín%NULL%1,      Mónica%Argueso%NULL%1,      Jordi%Solé-Violán%NULL%1,      Alina%Perez%NULL%1,      José Alberto%Marcos Y Ramos%NULL%1,      Luis%Ramos-Gómez%NULL%1,      Sergio%López%NULL%1,      Andrés%Franco%NULL%1,      Agustín F.%González-Rivero%NULL%1,      María%Martín%NULL%1,      Verónica%Gonzalez%NULL%1,      Julia%Alcoba-Flórez%NULL%1,      Miguel Ángel%Rodriguez%NULL%1,      Marta%Riaño-Ruiz%NULL%1,      Juan%Guillermo O Campo%NULL%1,      Lourdes%González%NULL%1,      Tamara%Cantera%NULL%1,      Raquel%Ortiz-López%NULL%1,      Nazario%Ojeda%NULL%1,      Aurelio%Rodríguez-Pérez%NULL%1,      Casimira%Domínguez%NULL%1,      Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,      Rita%Kukafka%NULL%1,      Arriel%Benis%NULL%2,      Arriel%Benis%NULL%0,      Jinfeng%Li%NULL%1,      Pan%Pan%NULL%2,      Pan%Pan%NULL%0,      Yichao%Li%NULL%2,      Yichao%Li%NULL%0,      Yongjiu%Xiao%NULL%2,      Yongjiu%Xiao%NULL%0,      Bingchao%Han%NULL%2,      Bingchao%Han%NULL%0,      Longxiang%Su%NULL%2,      Longxiang%Su%NULL%0,      Mingliang%Su%NULL%2,      Mingliang%Su%NULL%0,      Yansheng%Li%NULL%2,      Yansheng%Li%NULL%0,      Siqi%Zhang%NULL%2,      Siqi%Zhang%NULL%0,      Dapeng%Jiang%NULL%2,      Dapeng%Jiang%NULL%0,      Xia%Chen%NULL%2,      Xia%Chen%NULL%0,      Fuquan%Zhou%NULL%2,      Fuquan%Zhou%NULL%0,      Ling%Ma%NULL%2,      Ling%Ma%NULL%0,      Pengtao%Bao%NULL%2,      Pengtao%Bao%NULL%0,      Lixin%Xie%xielx301@126.com%2,      Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,      Cristina%Roca-Oporto%NULL%2,      Guillermo%Martín-Gutiérrez%NULL%2,      María Dolores%Avilés%NULL%3,      Carmen%Gómez-González%NULL%2,      María Dolores%Navarro-Amuedo%NULL%2,      Julia%Praena-Segovia%NULL%2,      José%Molina%NULL%2,      María%Paniagua-García%NULL%2,      Horacio%García-Delgado%NULL%2,      Antonio%Domínguez-Petit%NULL%2,      Jerónimo%Pachón%NULL%4,      José Miguel%Cisneros%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,      Barry R.%Meisenberg%NULL%2,      Barry R.%Meisenberg%NULL%0,      James H.%MacDonald%NULL%1,      Nandakumar%Menon%NULL%1,      Marcia B.%Fowler%NULL%1,      Michaline%West%NULL%1,      Jane%Rhule%NULL%1,      Sadaf S.%Qureshi%NULL%1,      Eileen B.%MacDonald%NULL%1,      Yu Ru%Kou%NULL%2,      Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,      Sarah%Poole%NULL%2,      Sarah%Poole%NULL%0,      Meeta%Pradhan%NULL%1,      Akhil%Vaid%NULL%4,      Akhil%Vaid%NULL%0,      Sulaiman%Somani%NULL%4,      Sulaiman%Somani%NULL%0,      Adam J%Russak%NULL%4,      Adam J%Russak%NULL%0,      Jessica K%De Freitas%NULL%3,      Jessica K%De Freitas%NULL%0,      Fayzan F%Chaudhry%NULL%2,      Fayzan F%Chaudhry%NULL%0,      Ishan%Paranjpe%NULL%3,      Ishan%Paranjpe%NULL%0,      Kipp W%Johnson%NULL%3,      Kipp W%Johnson%NULL%0,      Samuel J%Lee%NULL%2,      Samuel J%Lee%NULL%0,      Riccardo%Miotto%NULL%3,      Riccardo%Miotto%NULL%0,      Felix%Richter%NULL%3,      Felix%Richter%NULL%0,      Shan%Zhao%NULL%3,      Shan%Zhao%NULL%0,      Noam D%Beckmann%NULL%2,      Noam D%Beckmann%NULL%0,      Nidhi%Naik%NULL%2,      Nidhi%Naik%NULL%0,      Arash%Kia%NULL%3,      Arash%Kia%NULL%0,      Prem%Timsina%NULL%3,      Prem%Timsina%NULL%0,      Anuradha%Lala%NULL%3,      Anuradha%Lala%NULL%0,      Manish%Paranjpe%NULL%2,      Manish%Paranjpe%NULL%0,      Eddye%Golden%NULL%3,      Eddye%Golden%NULL%0,      Matteo%Danieletto%NULL%3,      Matteo%Danieletto%NULL%0,      Manbir%Singh%NULL%3,      Manbir%Singh%NULL%0,      Dara%Meyer%NULL%3,      Dara%Meyer%NULL%0,      Paul F%O'Reilly%NULL%2,      Paul F%O'Reilly%NULL%0,      Laura%Huckins%NULL%2,      Laura%Huckins%NULL%0,      Patricia%Kovatch%NULL%4,      Patricia%Kovatch%NULL%0,      Joseph%Finkelstein%NULL%3,      Joseph%Finkelstein%NULL%0,      Robert M.%Freeman%NULL%2,      Robert M.%Freeman%NULL%0,      Edgar%Argulian%NULL%2,      Edgar%Argulian%NULL%0,      Andrew%Kasarskis%NULL%2,      Andrew%Kasarskis%NULL%0,      Bethany%Percha%NULL%2,      Bethany%Percha%NULL%0,      Judith A%Aberg%NULL%3,      Judith A%Aberg%NULL%0,      Emilia%Bagiella%NULL%4,      Emilia%Bagiella%NULL%0,      Carol R%Horowitz%NULL%3,      Carol R%Horowitz%NULL%0,      Barbara%Murphy%NULL%3,      Barbara%Murphy%NULL%0,      Eric J%Nestler%NULL%3,      Eric J%Nestler%NULL%0,      Eric E%Schadt%NULL%2,      Eric E%Schadt%NULL%0,      Judy H%Cho%NULL%2,      Judy H%Cho%NULL%0,      Carlos%Cordon-Cardo%NULL%4,      Carlos%Cordon-Cardo%NULL%0,      Valentin%Fuster%NULL%3,      Valentin%Fuster%NULL%0,      Dennis S%Charney%NULL%2,      Dennis S%Charney%NULL%0,      David L%Reich%NULL%3,      David L%Reich%NULL%0,      Erwin P%Bottinger%NULL%3,      Erwin P%Bottinger%NULL%0,      Matthew A%Levin%NULL%3,      Matthew A%Levin%NULL%0,      Jagat%Narula%NULL%4,      Jagat%Narula%NULL%0,      Zahi A%Fayad%NULL%3,      Zahi A%Fayad%NULL%0,      Allan C%Just%NULL%2,      Allan C%Just%NULL%0,      Alexander W%Charney%NULL%3,      Alexander W%Charney%NULL%0,      Girish N%Nadkarni%NULL%3,      Girish N%Nadkarni%NULL%0,      Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%3,      Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,      Anne%Chen%NULL%2,      Wei%Hou%NULL%5,      James M.%Graham%NULL%2,      Haifang%Li%NULL%3,      Paul S.%Richman%NULL%2,      Henry C.%Thode%NULL%2,      Adam J.%Singer%NULL%2,      Tim Q.%Duong%NULL%2,      Muhammad%Adrish%NULL%22,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,      Qin%Liu%NULL%2,      Xiao%Zhang%NULL%2,      Shuyi%Liu%NULL%1,      Weiqi%Chen%NULL%1,      Jingjing%You%NULL%1,      Qiuying%Chen%NULL%1,      Minmin%Li%NULL%1,      Zhuozhi%Chen%NULL%1,      Luyan%Chen%NULL%1,      Lv%Chen%NULL%1,      Yuhao%Dong%NULL%1,      Qingsi%Zeng%NULL%1,      Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,      Lei%Nie%NULL%1,      Dongde%Wu%NULL%1,      Jian%Chen%NULL%2,      Zhifeng%Yang%NULL%1,      Ling%Zhang%NULL%5,      Dongqing%Li%NULL%1,      Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,      Burcin%Hakoglu%NULL%2,      Burcin%Hakoglu%NULL%0,      Ali%Kadri Cirak%NULL%1,      Gulru%Polat%NULL%1,      Berna%Komurcuoglu%NULL%1,      Berrin%Akkol%NULL%1,      Cagri%Atasoy%NULL%1,      Eda%Bayramic%NULL%1,      Gunseli%Balci%NULL%1,      Sena%Ataman%NULL%1,      Sinem%Ermin%NULL%1,      Enver%Yalniz%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,      Qiaosen%Chen%NULL%2,      Qiaosen%Chen%NULL%0,      Sumeng%Li%NULL%1,      Huadong%Li%NULL%1,      Qian%Zhang%NULL%1,      Sihong%Lu%NULL%1,      Li%Wu%NULL%1,      Leiqun%Xiong%NULL%1,      Bobin%Mi%NULL%1,      Di%Liu%NULL%3,      Mengji%Lu%NULL%1,      Dongliang%Yang%NULL%1,      Hongbo%Jiang%hongbojiang3@163.com%1,      Shaoping%Zheng%zhengspxx@126.com%1,      Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,      Hua%Zhang%NULL%2,      Rui%Qiao%NULL%1,      Qinggang%Ge%NULL%1,      Shuisheng%Zhang%NULL%1,      Zongxuan%Zhao%NULL%1,      Ci%Tian%NULL%1,      Qingbian%Ma%NULL%2,      Qingbian%Ma%NULL%0,      Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,      Antonia%Ho%NULL%2,      Riinu%Pius%NULL%2,      Iain%Buchan%NULL%1,      Gail%Carson%NULL%2,      Thomas M%Drake%NULL%1,      Jake%Dunning%NULL%2,      Cameron J%Fairfield%NULL%2,      Carrol%Gamble%NULL%2,      Christopher A%Green%NULL%2,      Rishi%Gupta%NULL%1,      Sophie%Halpin%NULL%2,      Hayley E%Hardwick%NULL%1,      Karl A%Holden%NULL%1,      Peter W%Horby%NULL%2,      Clare%Jackson%NULL%2,      Kenneth A%Mclean%NULL%2,      Laura%Merson%NULL%2,      Jonathan S%Nguyen-Van-Tam%NULL%1,      Lisa%Norman%NULL%2,      Mahdad%Noursadeghi%NULL%2,      Piero L%Olliaro%NULL%1,      Mark G%Pritchard%NULL%1,      Clark D%Russell%NULL%2,      Catherine A%Shaw%NULL%2,      Aziz%Sheikh%NULL%2,      Tom%Solomon%NULL%2,      Cathie%Sudlow%NULL%1,      Olivia V%Swann%NULL%1,      Lance CW%Turtle%NULL%2,      Peter JM%Openshaw%NULL%2,      J Kenneth%Baillie%NULL%2,      Malcolm G%Semple%NULL%3,      Annemarie B%Docherty%NULL%3,      Annemarie B%Docherty%NULL%0,      Ewen M%Harrison%NULL%3,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      J Kenneth%Baillie%NULL%0,      Malcolm G%Semple%NULL%0,      Peter JM%Openshaw%NULL%0,      Gail%Carson%NULL%0,      Beatrice%Alex%NULL%1,      Benjamin%Bach%NULL%1,      Wendy S%Barclay%NULL%1,      Debby%Bogaert%NULL%1,      Meera%Chand%NULL%1,      Graham S%Cooke%NULL%1,      Annemarie B%Docherty%NULL%0,      Jake%Dunning%NULL%0,      Ana%da Silva Filipe%NULL%1,      Tom%Fletcher%NULL%1,      Christopher A%Green%NULL%0,      Ewen M%Harrison%NULL%0,      Julian A%Hiscox%NULL%1,      Antonia Ying Wai%Ho%NULL%1,      Peter W%Horby%NULL%0,      Samreen%Ijaz%NULL%1,      Saye%Khoo%NULL%1,      Paul%Klenerman%NULL%1,      Andrew%Law%NULL%2,      Wei Shen%Lim%NULL%1,      Alexander J%Mentzer%NULL%1,      Laura%Merson%NULL%0,      Alison M%Meynert%NULL%1,      Mahdad%Noursadeghi%NULL%0,      Shona C%Moore%NULL%2,      Massimo%Palmarini%NULL%1,      William A%Paxton%NULL%1,      Georgios%Pollakis%NULL%1,      Nicholas%Price%NULL%1,      Andrew%Rambaut%NULL%1,      David L%Robertson%NULL%1,      Clark D%Russell%NULL%0,      Vanessa%Sancho-Shimizu%NULL%1,      Janet T%Scott%NULL%1,      Louise%Sigfrid%NULL%1,      Tom%Solomon%NULL%0,      Shiranee%Sriskandan%NULL%1,      David%Stuart%NULL%1,      Charlotte%Summers%NULL%1,      Richard S%Tedder%NULL%1,      Emma C%Thomson%NULL%1,      Ryan S%Thwaites%NULL%1,      Lance CW%Turtle%NULL%0,      Maria%Zambon%NULL%1,      Hayley%Hardwick%NULL%1,      Chloe%Donohue%NULL%1,      Jane%Ewins%NULL%1,      Wilna%Oosthuyzen%NULL%1,      Fiona%Griffiths%NULL%1,      Lisa%Norman%NULL%0,      Riinu%Pius%NULL%0,      Tom M%Drake%NULL%1,      Cameron J%Fairfield%NULL%0,      Stephen%Knight%NULL%1,      Kenneth A%Mclean%NULL%0,      Derek%Murphy%NULL%1,      Catherine A%Shaw%NULL%0,      Jo%Dalton%NULL%1,      Michelle%Girvan%NULL%1,      Egle%Saviciute%NULL%1,      Stephanie%Roberts%NULL%1,      Janet%Harrison%NULL%1,      Laura%Marsh%NULL%1,      Marie%Connor%NULL%1,      Sophie%Halpin%NULL%0,      Clare%Jackson%NULL%0,      Carrol%Gamble%NULL%0,      Gary%Leeming%NULL%1,      Andrew%Law%NULL%0,      Ross%Hendry%NULL%1,      James%Scott-Brown%NULL%1,      William%Greenhalf%NULL%1,      Victoria%Shaw%NULL%1,      Sarah%McDonald%NULL%2,      Katie A%Ahmed%NULL%1,      Jane A%Armstrong%NULL%1,      Milton%Ashworth%NULL%1,      Innocent G%Asiimwe%NULL%1,      Siddharth%Bakshi%NULL%1,      Samantha L%Barlow%NULL%1,      Laura%Booth%NULL%1,      Benjamin%Brennan%NULL%1,      Katie%Bullock%NULL%1,      Benjamin WA%Catterall%NULL%1,      Jordan J%Clark%NULL%1,      Emily A%Clarke%NULL%1,      Sarah%Cole%NULL%1,      Louise%Cooper%NULL%1,      Helen%Cox%NULL%1,      Christopher%Davis%NULL%1,      Oslem%Dincarslan%NULL%1,      Chris%Dunn%NULL%1,      Philip%Dyer%NULL%1,      Angela%Elliott%NULL%1,      Anthony%Evans%NULL%1,      Lewis WS%Fisher%NULL%1,      Terry%Foster%NULL%1,      Isabel%Garcia-Dorival%NULL%1,      Willliam%Greenhalf%NULL%1,      Philip%Gunning%NULL%1,      Catherine%Hartley%NULL%1,      Antonia%Ho%NULL%0,      Rebecca L%Jensen%NULL%1,      Christopher B%Jones%NULL%1,      Trevor R%Jones%NULL%1,      Shadia%Khandaker%NULL%1,      Katharine%King%NULL%1,      Robyn T%Kiy%NULL%1,      Chrysa%Koukorava%NULL%1,      Annette%Lake%NULL%1,      Suzannah%Lant%NULL%1,      Diane%Latawiec%NULL%1,      L%Lavelle-Langham%NULL%1,      Daniella%Lefteri%NULL%1,      Lauren%Lett%NULL%1,      Lucia A%Livoti%NULL%1,      Maria%Mancini%NULL%1,      Sarah%McDonald%NULL%0,      Laurence%McEvoy%NULL%1,      John%McLauchlan%NULL%1,      Soeren%Metelmann%NULL%1,      Nahida S%Miah%NULL%1,      Joanna%Middleton%NULL%1,      Joyce%Mitchell%NULL%1,      Shona C%Moore%NULL%0,      Ellen G%Murphy%NULL%1,      Rebekah%Penrice-Randal%NULL%1,      Jack%Pilgrim%NULL%1,      Tessa%Prince%NULL%1,      Will%Reynolds%NULL%1,      P Matthew%Ridley%NULL%1,      Debby%Sales%NULL%1,      Victoria E%Shaw%NULL%1,      Rebecca K%Shears%NULL%1,      Benjamin%Small%NULL%1,      Krishanthi S%Subramaniam%NULL%1,      Agnieska%Szemiel%NULL%1,      Aislynn%Taggart%NULL%1,      Jolanta%Tanianis-Hughes%NULL%1,      Jordan%Thomas%NULL%1,      Erwan%Trochu%NULL%1,      Libby%van Tonder%NULL%1,      Eve%Wilcock%NULL%1,      J Eunice%Zhang%NULL%1,      Kayode%Adeniji%NULL%1,      Daniel%Agranoff%NULL%1,      Ken%Agwuh%NULL%1,      Dhiraj%Ail%NULL%1,      Ana%Alegria%NULL%1,      Brian%Angus%NULL%1,      Abdul%Ashish%NULL%1,      Dougal%Atkinson%NULL%1,      Shahedal%Bari%NULL%1,      Gavin%Barlow%NULL%1,      Stella%Barnass%NULL%1,      Nicholas%Barrett%NULL%3,      Christopher%Bassford%NULL%1,      David%Baxter%NULL%1,      Michael%Beadsworth%NULL%1,      Jolanta%Bernatoniene%NULL%1,      John%Berridge%NULL%1,      Nicola%Best%NULL%1,      Pieter%Bothma%NULL%1,      David%Brealey%NULL%1,      Robin%Brittain-Long%NULL%1,      Naomi%Bulteel%NULL%1,      Tom%Burden%NULL%1,      Andrew%Burtenshaw%NULL%1,      Vikki%Caruth%NULL%1,      David%Chadwick%NULL%1,      Duncan%Chambler%NULL%1,      Nigel%Chee%NULL%1,      Jenny%Child%NULL%1,      Srikanth%Chukkambotla%NULL%1,      Tom%Clark%NULL%1,      Paul%Collini%NULL%1,      Catherine%Cosgrove%NULL%1,      Jason%Cupitt%NULL%1,      Maria-Teresa%Cutino-Moguel%NULL%1,      Paul%Dark%NULL%1,      Chris%Dawson%NULL%1,      Samir%Dervisevic%NULL%1,      Phil%Donnison%NULL%1,      Sam%Douthwaite%NULL%1,      Ingrid%DuRand%NULL%1,      Ahilanadan%Dushianthan%NULL%1,      Tristan%Dyer%NULL%1,      Cariad%Evans%NULL%1,      Chi%Eziefula%NULL%1,      Chrisopher%Fegan%NULL%1,      Adam%Finn%NULL%1,      Duncan%Fullerton%NULL%1,      Sanjeev%Garg%NULL%2,      Sanjeev%Garg%NULL%0,      Atul%Garg%NULL%1,      Jo%Godden%NULL%1,      Arthur%Goldsmith%NULL%1,      Clive%Graham%NULL%1,      Elaine%Hardy%NULL%1,      Stuart%Hartshorn%NULL%1,      Daniel%Harvey%NULL%1,      Peter%Havalda%NULL%1,      Daniel B%Hawcutt%NULL%1,      Maria%Hobrok%NULL%1,      Luke%Hodgson%NULL%1,      Anita%Holme%NULL%1,      Anil%Hormis%NULL%1,      Michael%Jacobs%NULL%1,      Susan%Jain%NULL%1,      Paul%Jennings%NULL%1,      Agilan%Kaliappan%NULL%1,      Vidya%Kasipandian%NULL%1,      Stephen%Kegg%NULL%1,      Michael%Kelsey%NULL%1,      Jason%Kendall%NULL%1,      Caroline%Kerrison%NULL%1,      Ian%Kerslake%NULL%1,      Oliver%Koch%NULL%1,      Gouri%Koduri%NULL%1,      George%Koshy%NULL%1,      Shondipon%Laha%NULL%1,      Susan%Larkin%NULL%1,      Tamas%Leiner%NULL%1,      Patrick%Lillie%NULL%1,      James%Limb%NULL%1,      Vanessa%Linnett%NULL%1,      Jeff%Little%NULL%1,      Michael%MacMahon%NULL%1,      Emily%MacNaughton%NULL%1,      Ravish%Mankregod%NULL%1,      Huw%Masson%NULL%1,      Elijah%Matovu%NULL%1,      Katherine%McCullough%NULL%1,      Ruth%McEwen%NULL%1,      Manjula%Meda%NULL%1,      Gary%Mills%NULL%1,      Jane%Minton%NULL%1,      Mariyam%Mirfenderesky%NULL%1,      Kavya%Mohandas%NULL%1,      Quen%Mok%NULL%1,      James%Moon%NULL%1,      Elinoor%Moore%NULL%1,      Patrick%Morgan%NULL%1,      Craig%Morris%NULL%1,      Katherine%Mortimore%NULL%1,      Samuel%Moses%NULL%1,      Mbiye%Mpenge%NULL%1,      Rohinton%Mulla%NULL%1,      Michael%Murphy%NULL%1,      Megan%Nagel%NULL%1,      Thapas%Nagarajan%NULL%1,      Mark%Nelson%NULL%1,      Igor%Otahal%NULL%1,      Mark%Pais%NULL%1,      Selva%Panchatsharam%NULL%1,      Hassan%Paraiso%NULL%1,      Brij%Patel%NULL%1,      Justin%Pepperell%NULL%1,      Mark%Peters%NULL%1,      Mandeep%Phull%NULL%1,      Stefania%Pintus%NULL%1,      Jagtur Singh%Pooni%NULL%1,      Frank%Post%NULL%1,      David%Price%NULL%1,      Rachel%Prout%NULL%1,      Nikolas%Rae%NULL%1,      Henrik%Reschreiter%NULL%1,      Tim%Reynolds%NULL%1,      Neil%Richardson%NULL%1,      Mark%Roberts%NULL%1,      Devender%Roberts%NULL%1,      Alistair%Rose%NULL%1,      Guy%Rousseau%NULL%1,      Brendan%Ryan%NULL%1,      Taranprit%Saluja%NULL%1,      Aarti%Shah%NULL%1,      Prad%Shanmuga%NULL%1,      Anil%Sharma%NULL%1,      Anna%Shawcross%NULL%1,      Jeremy%Sizer%NULL%1,      Richard%Smith%NULL%1,      Catherine%Snelson%NULL%1,      Nick%Spittle%NULL%1,      Nikki%Staines%NULL%1,      Tom%Stambach%NULL%1,      Richard%Stewart%NULL%1,      Pradeep%Subudhi%NULL%1,      Tamas%Szakmany%NULL%1,      Kate%Tatham%NULL%1,      Jo%Thomas%NULL%1,      Chris%Thompson%NULL%1,      Robert%Thompson%NULL%1,      Ascanio%Tridente%NULL%1,      Darell%Tupper-Carey%NULL%1,      Mary%Twagira%NULL%1,      Andrew%Ustianowski%NULL%1,      Nick%Vallotton%NULL%1,      Lisa%Vincent-Smith%NULL%1,      Shico%Visuvanathan%NULL%1,      Alan%Vuylsteke%NULL%1,      Sam%Waddy%NULL%1,      Rachel%Wake%NULL%1,      Andrew%Walden%NULL%1,      Ingeborg%Welters%NULL%1,      Tony%Whitehouse%NULL%1,      Paul%Whittaker%NULL%1,      Ashley%Whittington%NULL%1,      Meme%Wijesinghe%NULL%1,      Martin%Williams%NULL%1,      Lawrence%Wilson%NULL%1,      Sarah%Wilson%NULL%1,      Stephen%Winchester%NULL%1,      Martin%Wiselka%NULL%1,      Adam%Wolverson%NULL%1,      Daniel G%Wooton%NULL%1,      Andrew%Workman%NULL%1,      Bryan%Yates%NULL%1,      Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,      Braulio A.%Marfil‐Garza%NULL%1,      Erick%Martínez Rodríguez%NULL%1,      José Omar%Barreto Rodríguez%NULL%1,      Alicia Estela%López Romo%NULL%1,      Paolo%Alberti Minutti%NULL%1,      Juan Vicente%Alejandre Loya%NULL%1,      Félix Emmanuel%Pérez Talavera%NULL%1,      Freddy José%Ávila Cervera%NULL%1,      Adriana%Velazquez Burciaga%NULL%1,      Oscar%Morado Aramburo%NULL%1,      Luis Alberto%Piña Olguín%NULL%1,      Adrian%Soto‐Rodríguez%NULL%1,      Andrés%Castañeda Prado%NULL%1,      Patricio%Santillán Doherty%NULL%1,      Juan%O Galindo%NULL%1,      Luis Alberto%Guízar García%NULL%1,      Daniel%Hernández Gordillo%NULL%1,      Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,      Aatish%Patel%NULL%1,      Esmita%Charani%NULL%1,      Sarah%Denny%NULL%1,      Saleh A.%Alqahtani%NULL%1,      Gary W.%Davies%NULL%1,      Nabeela%Mughal%NULL%1,      Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,      Hyunsun%Lim%NULL%1,      Dong-Wook%Kim%NULL%1,      Jung Hyun%Chang%NULL%1,      Yoon Jung%Choi%chris316@yuhs.ac%1,      Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,      Wenhua%Liang%NULL%4,      Mei%Jiang%NULL%4,      Weijie%Guan%NULL%4,      Chen%Zhan%NULL%2,      Tao%Wang%NULL%0,      Chunli%Tang%NULL%2,      Ling%Sang%NULL%5,      Jiaxing%Liu%NULL%2,      Zhengyi%Ni%NULL%4,      Yu%Hu%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%11,      Chunliang%Lei%NULL%4,      Yixiang%Peng%NULL%4,      Li%Wei%NULL%11,      Yong%Liu%NULL%11,      Yahua%Hu%NULL%4,      Peng%Peng%NULL%14,      Jianming%Wang%NULL%4,      Jiyang%Liu%NULL%4,      Zhong%Chen%NULL%11,      Gang%Li%NULL%11,      Zhijian%Zheng%NULL%4,      Shaoqin%Qiu%NULL%4,      Jie%Luo%NULL%11,      Changjiang%Ye%NULL%4,      Shaoyong%Zhu%NULL%4,      Xiaoqing%Liu%NULL%2,      Linling%Cheng%NULL%2,      Feng%Ye%NULL%3,      Jinping%Zheng%NULL%4,      Nuofu%Zhang%NULL%4,      Yimin%Li%NULL%4,      Jianxing%He%NULL%4,      Shiyue%Li%lishiyue@188.com%4,      Nanshan%Zhong%NULL%4,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,      Liu%Hu%NULL%3,      Yiru%Wang%NULL%0,      Luyan%Huang%NULL%3,      Lingxi%Zhao%NULL%3,      Congcong%Zhang%NULL%3,      Xiyue%Liu%NULL%3,      Ranran%Xu%NULL%3,      Feng%Liu%NULL%0,      Jinping%Li%NULL%3,      Dawei%Ye%NULL%0,      Tao%Wang%NULL%0,      Yongman%Lv%lvyongman@126.com%0,      Qingquan%Liu%qqliutj@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,      Carol A C%Coupland%NULL%1,      Ruth H%Keogh%NULL%1,      Karla%Diaz-Ordaz%NULL%1,      Elizabeth%Williamson%NULL%1,      Ewen M%Harrison%NULL%0,      Andrew%Hayward%NULL%1,      Harry%Hemingway%NULL%1,      Peter%Horby%NULL%1,      Nisha%Mehta%NULL%1,      Jonathan%Benger%NULL%1,      Kamlesh%Khunti%NULL%0,      David%Spiegelhalter%NULL%1,      Aziz%Sheikh%NULL%0,      Jonathan%Valabhji%NULL%0,      Ronan A%Lyons%NULL%1,      John%Robson%NULL%1,      Malcolm G%Semple%NULL%0,      Frank%Kee%NULL%1,      Peter%Johnson%NULL%1,      Susan%Jebb%NULL%1,      Tony%Williams%NULL%1,      Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,      Guang-Yao%Cai%NULL%1,      Wei%Fang%NULL%5,      Hua-Yi%Li%NULL%1,      Si-Yuan%Wang%NULL%2,      Si-Yuan%Wang%NULL%0,      Lingxi%Chen%NULL%1,      Yang%Yu%NULL%1,      Dan%Liu%NULL%0,      Sen%Xu%NULL%2,      Peng-Fei%Cui%NULL%1,      Shao-Qing%Zeng%NULL%2,      Shao-Qing%Zeng%NULL%0,      Xin-Xia%Feng%NULL%1,      Rui-Di%Yu%NULL%1,      Ya%Wang%NULL%2,      Yuan%Yuan%NULL%1,      Xiao-Fei%Jiao%NULL%1,      Jian-Hua%Chi%NULL%1,      Jia-Hao%Liu%NULL%1,      Ru-Yuan%Li%NULL%1,      Xu%Zheng%NULL%1,      Chun-Yan%Song%NULL%1,      Ning%Jin%NULL%1,      Wen-Jian%Gong%NULL%1,      Xing-Yu%Liu%NULL%1,      Lei%Huang%NULL%1,      Xun%Tian%NULL%1,      Lin%Li%NULL%3,      Hui%Xing%NULL%1,      Ding%Ma%NULL%1,      Chun-Rui%Li%NULL%1,      Fei%Ye%yeyuanbei@hotmail.com%1,      Qing-Lei%Gao%qingleigao@hotmail.com%2,      Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,      Ang%Li%NULL%1,      Mengfan%Jiao%NULL%1,      Qingmiao%Shi%NULL%1,      Xiaocai%An%NULL%1,      Yonghai%Feng%NULL%1,      Lihua%Xing%NULL%1,      Hongxia%Liang%NULL%1,      Jiajun%Chen%NULL%1,      Huiling%Li%NULL%1,      Juan%Li%NULL%0,      Zhigang%Ren%NULL%1,      Ranran%Sun%NULL%1,      Guangying%Cui%NULL%1,      Yongjian%Zhou%NULL%1,      Ming%Cheng%NULL%1,      Pengfei%Jiao%NULL%1,      Yu%Wang%NULL%3,      Jiyuan%Xing%NULL%1,      Shen%Shen%NULL%1,      Qingxian%Zhang%NULL%1,      Aiguo%Xu%NULL%1,      Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,      Michael%Ng%NULL%1,      Shuang%Xu%NULL%1,      Zhouming%Xu%NULL%1,      Hui%Qiu%NULL%1,      Yuwei%Liu%NULL%3,      Jiayou%Lyu%NULL%1,      Jiwen%You%NULL%1,      Peng%Zhao%NULL%0,      Shihao%Wang%NULL%1,      Yunfei%Tang%NULL%1,      Hao%Cui%NULL%1,      Changxiao%Yu%NULL%1,      Feng%Wang%NULL%9,      Fei%Shao%NULL%1,      Peng%Sun%NULL%1,      Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,      Huifang%Wang%NULL%1,      Junwei%Huang%NULL%1,      Yan%Geng%NULL%1,      Shuqi%Jiang%NULL%1,      Qiuping%Zhou%NULL%1,      Xuan%Chen%NULL%1,      Hongping%Hu%NULL%1,      Weifeng%Li%NULL%1,      Chengbin%Zhou%NULL%1,      Xinglin%Gao%NULL%1,      Na%Peng%pnatz@163.com%1,      Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,      Dandan%Cheng%NULL%1,      Yiwei%Cao%NULL%1,      Chuan%Hu%NULL%1,      Fenglin%Zou%NULL%1,      Wencheng%Yu%NULL%1,      Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,      Min Kyu%Kang%NULL%2,      Min Kyu%Kang%NULL%0,      Yu Rim%Lee%NULL%2,      Yu Rim%Lee%NULL%0,      Jeong Eun%Song%NULL%2,      Jeong Eun%Song%NULL%0,      Na Young%Kim%NULL%1,      Young Oh%Kweon%NULL%1,      Won Young%Tak%NULL%1,      Se Young%Jang%NULL%1,      Changhyeong%Lee%NULL%2,      Changhyeong%Lee%NULL%0,      Byung Seok%Kim%NULL%1,      Jae Seok%Hwang%NULL%1,      Byoung Kuk%Jang%NULL%1,      Jinmok%Bae%NULL%1,      Ji Yeon%Lee%NULL%0,      Jeong Ill%Suh%NULL%1,      Soo Young%Park%NULL%1,      Woo Jin%Chung%NULL%2,      Woo Jin%Chung%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,      Cristina%Roca-Oporto%NULL%0,      Guillermo%Martín-Gutiérrez%NULL%0,      María Dolores%Avilés%NULL%0,      Carmen%Gómez-González%NULL%0,      María Dolores%Navarro-Amuedo%NULL%0,      Julia%Praena-Segovia%NULL%0,      José%Molina%NULL%0,      María%Paniagua-García%NULL%0,      Horacio%García-Delgado%NULL%0,      Antonio%Domínguez-Petit%NULL%0,      Jerónimo%Pachón%NULL%0,      José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,   Calvo%Boyero Fernando%coreGivesNoEmail%1,   Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,   COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,   Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,   Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,   L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,   Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,   Santos%Lozano Alejandro%coreGivesNoEmail%1,   Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,       Min%He%NULL%1,       Wanhong%Yin%NULL%1,       Xuelian%Liao%NULL%1,       Bo%Wang%NULL%8,       Xiaodong%Jin%NULL%1,       Yao%Ma%NULL%3,       Jirong%Yue%NULL%1,       Lang%Bai%NULL%1,       Dan%Liu%NULL%3,       Ting%Zhu%NULL%1,       Zhixin%Huang%NULL%1,       Yan%Kang%kangyan@scu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,       Shuchang%Zhou%NULL%1,       Yujin%Wang%NULL%1,       Wenzhi%Lv%NULL%2,       Shili%Wang%NULL%1,       Ting%Wang%751884926@qq.com%1,       Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,       Yan-chak%Li%NULL%1,       Sonali%Bose%NULL%1,       Ravi%Iyengar%NULL%1,       Supinda%Bunyavanich%NULL%1,       Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,        Hai-Tao%Zhang%null%1,        Jorge%Goncalves%null%1,        Yang%Xiao%null%1,        Maolin%Wang%null%1,        Yuqi%Guo%null%1,        Chuan%Sun%null%1,        Xiuchuan%Tang%null%1,        Liang%Jing%null%1,        Mingyang%Zhang%null%1,        Xiang%Huang%null%1,        Ying%Xiao%null%1,        Haosen%Cao%null%1,        Yanyan%Chen%null%1,        Tongxin%Ren%null%1,        Fang%Wang%null%1,        Yaru%Xiao%null%1,        Sufang%Huang%null%1,        Xi%Tan%null%1,        Niannian%Huang%null%1,        Bo%Jiao%null%1,        Cheng%Cheng%null%1,        Yong%Zhang%null%1,        Ailin%Luo%null%1,        Laurent%Mombaerts%null%1,        Junyang%Jin%null%1,        Zhiguo%Cao%null%1,        Shusheng%Li%null%5,        Hui%Xu%null%1,        Ye%Yuan%null%2,      Li%Yan%null%1,      Hai-Tao%Zhang%null%1,      Jorge%Goncalves%null%1,      Yang%Xiao%null%1,      Maolin%Wang%null%1,      Yuqi%Guo%null%1,      Chuan%Sun%null%1,      Xiuchuan%Tang%null%1,      Liang%Jing%null%1,      Mingyang%Zhang%null%1,      Xiang%Huang%null%1,      Ying%Xiao%null%1,      Haosen%Cao%null%1,      Yanyan%Chen%null%1,      Tongxin%Ren%null%1,      Fang%Wang%null%2,      Yaru%Xiao%null%1,      Sufang%Huang%null%1,      Xi%Tan%null%1,      Niannian%Huang%null%1,      Bo%Jiao%null%1,      Cheng%Cheng%null%1,      Yong%Zhang%null%1,      Ailin%Luo%null%1,      Laurent%Mombaerts%null%1,      Junyang%Jin%null%1,      Zhiguo%Cao%null%1,      Shusheng%Li%null%0,      Hui%Xu%null%1,      Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,       Mengfei%Guo%NULL%1,       Limin%Duan%NULL%1,       Feng%Wu%NULL%1,       Guorong%Hu%NULL%1,       Zhihui%Wang%NULL%1,       Qi%Huang%NULL%2,       Tingting%Liao%NULL%1,       Juanjuan%Xu%NULL%1,       Yanling%Ma%NULL%1,       Zhilei%Lv%NULL%1,       Wenjing%Xiao%NULL%1,       Zilin%Zhao%NULL%1,       Xueyun%Tan%NULL%1,       Daquan%Meng%NULL%1,       Shujing%Zhang%NULL%1,       E%Zhou%NULL%1,       Zhengrong%Yin%NULL%1,       Wei%Geng%NULL%1,       Xuan%Wang%NULL%1,       Jianchu%Zhang%NULL%1,       Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,       Yu%Zhang%whxhzy@163.com%1,       Yang%Jin%whuhjy@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,       Francesco%Arru%NULL%2,       Francesco%Arru%NULL%0,       Andrea%De Vito%NULL%1,       Alessandro%Sassu%NULL%2,       Alessandro%Sassu%NULL%0,       Giovanni%Valdes%NULL%1,       Valentina%Scano%NULL%1,       Elisabetta%Zinellu%NULL%1,       Roberto%Perra%NULL%1,       Giordano%Madeddu%NULL%1,       Ciriaco%Carru%NULL%1,       Pietro%Pirina%NULL%1,       Arduino A.%Mangoni%NULL%2,       Arduino A.%Mangoni%NULL%0,       Sergio%Babudieri%NULL%2,       Sergio%Babudieri%NULL%0,       Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,       Pablo%Ryan%NULL%3,       Jorge%Valencia%NULL%2,       Jorge%Valencia%NULL%0,       Mario%Pérez-Butragueño%NULL%2,       Mario%Pérez-Butragueño%NULL%0,       Eva%Jiménez%NULL%2,       Eva%Jiménez%NULL%0,       Mario%Fontán-Vela%NULL%1,       Elsa%Izquierdo-García%NULL%2,       Elsa%Izquierdo-García%NULL%0,       Inés%Fernandez-Jimenez%NULL%1,       Elena%Álvaro-Alonso%NULL%1,       Andrea%Lazaro%NULL%2,       Andrea%Lazaro%NULL%0,       Marta%Alvarado%NULL%1,       Helena%Notario%NULL%1,       Salvador%Resino%NULL%1,       Daniel%Velez-Serrano%NULL%1,       Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,       Yiru%Wang%NULL%4,       Xuecheng%Zhao%NULL%1,       Lixuan%Wang%NULL%1,       Feng%Liu%NULL%5,       Tao%Wang%NULL%19,       Dawei%Ye%NULL%4,       Yongman%Lv%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,       Valentina%Zuccaro%NULL%1,       Luca%Novelli%NULL%1,       Lorenzo%Zileri%NULL%2,       Lorenzo%Zileri%NULL%0,       Ciro%Celsa%NULL%1,       Federico%Raimondi%NULL%2,       Federico%Raimondi%NULL%0,       Mauro%Gori%NULL%1,       Giulia%Cammà%NULL%1,       Salvatore%Battaglia%NULL%1,       Vincenzo Giuseppe%Genova%NULL%1,       Laura%Paris%NULL%1,       Matteo%Tacelli%NULL%1,       Francesco Antonio%Mancarella%NULL%1,       Marco%Enea%NULL%1,       Massimo%Attanasio%NULL%1,       Michele%Senni%NULL%1,       Fabiano%Di Marco%NULL%1,       Luca Ferdinando%Lorini%NULL%1,       Stefano%Fagiuoli%NULL%1,       Raffaele%Bruno%NULL%1,       Calogero%Cammà%NULL%1,       Antonio%Gasbarrini%NULL%3,       Francesco%Di Gennaro%NULL%2,       Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,       Gan-xun%Li%NULL%1,       Lin%Chen%NULL%2,       Chang%Shu%NULL%2,       Jia%Song%NULL%1,       Wei%Wang%NULL%4,       Yu-wei%Wang%NULL%1,       Qian%Chen%NULL%2,       Guan-nan%Jin%NULL%1,       Tong-tong%Liu%NULL%1,       Jun-nan%Liang%NULL%1,       Peng%Zhu%NULL%1,       Wei%Zhu%NULL%4,       Yong%Li%NULL%2,       Bin-hao%Zhang%NULL%1,       Huan%Feng%NULL%1,       Wan-guang%Zhang%NULL%1,       Zhen-yu%Yin%NULL%1,       Wen-kui%Yu%NULL%1,       Yang%Yang%NULL%3,       Hua-qiu%Zhang%NULL%1,       Zhou-ping%Tang%NULL%1,       Hui%Wang%NULL%4,       Jun-bo%Hu%NULL%1,       Ji-hong%Liu%NULL%1,       Ping%Yin%NULL%1,       Xiao-ping%Chen%NULL%1,       Bixiang%Zhang%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,       Günay%Can%NULL%2,       Günay%Can%NULL%0,       Rıdvan%Karaali%NULL%1,       Şermin%Börekçi%NULL%1,       İlker İnanç%Balkan%NULL%1,       Bilun%Gemicioğlu%NULL%1,       Dildar%Konukoğlu%NULL%1,       Ethem%Erginöz%NULL%1,       Mehmet Sarper%Erdoğan%NULL%1,       Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,       Danila%Azzolina%NULL%1,       Eyal%Hayden%NULL%2,       Eyal%Hayden%NULL%0,       Gianluca%Gaidano%NULL%2,       Gianluca%Gaidano%NULL%0,       Mario%Pirisi%NULL%2,       Mario%Pirisi%NULL%0,       Antonio%Acquaviva%NULL%2,       Antonio%Acquaviva%NULL%0,       Gianluca%Aimaretti%NULL%2,       Gianluca%Aimaretti%NULL%0,       Paolo%Aluffi Valletti%NULL%2,       Paolo%Aluffi Valletti%NULL%0,       Roberto%Angilletta%NULL%2,       Roberto%Angilletta%NULL%0,       Roberto%Arioli%NULL%2,       Roberto%Arioli%NULL%0,       Gian Carlo%Avanzi%NULL%2,       Gian Carlo%Avanzi%NULL%0,       Gianluca%Avino%NULL%2,       Gianluca%Avino%NULL%0,       Piero Emilio%Balbo%NULL%2,       Piero Emilio%Balbo%NULL%0,       Giulia%Baldon%NULL%2,       Giulia%Baldon%NULL%0,       Francesca%Baorda%NULL%2,       Francesca%Baorda%NULL%0,       Emanuela%Barbero%NULL%2,       Emanuela%Barbero%NULL%0,       Alessio%Baricich%NULL%2,       Alessio%Baricich%NULL%0,       Michela%Barini%NULL%2,       Michela%Barini%NULL%0,       Francesco%Barone-Adesi%NULL%2,       Francesco%Barone-Adesi%NULL%0,       Sofia%Battistini%NULL%2,       Sofia%Battistini%NULL%0,       Michela%Beltrame%NULL%2,       Michela%Beltrame%NULL%0,       Matteo%Bertoli%NULL%2,       Matteo%Bertoli%NULL%0,       Stephanie%Bertolin%NULL%2,       Stephanie%Bertolin%NULL%0,       Marinella%Bertolotti%NULL%2,       Marinella%Bertolotti%NULL%0,       Marta%Betti%NULL%2,       Marta%Betti%NULL%0,       Flavio%Bobbio%NULL%2,       Flavio%Bobbio%NULL%0,       Paolo%Boffano%NULL%2,       Paolo%Boffano%NULL%0,       Lucio%Boglione%NULL%2,       Lucio%Boglione%NULL%0,       Silvio%Borrè%NULL%2,       Silvio%Borrè%NULL%0,       Matteo%Brucoli%NULL%2,       Matteo%Brucoli%NULL%0,       Elisa%Calzaducca%NULL%2,       Elisa%Calzaducca%NULL%0,       Edoardo%Cammarata%NULL%2,       Edoardo%Cammarata%NULL%0,       Vincenzo%Cantaluppi%NULL%2,       Vincenzo%Cantaluppi%NULL%0,       Roberto%Cantello%NULL%2,       Roberto%Cantello%NULL%0,       Andrea%Capponi%NULL%2,       Andrea%Capponi%NULL%0,       Alessandro%Carriero%NULL%2,       Alessandro%Carriero%NULL%0,       Giuseppe Francesco%Casciaro%NULL%2,       Giuseppe Francesco%Casciaro%NULL%0,       Luigi Mario%Castello%NULL%2,       Luigi Mario%Castello%NULL%0,       Federico%Ceruti%NULL%2,       Federico%Ceruti%NULL%0,       Guido%Chichino%NULL%2,       Guido%Chichino%NULL%0,       Emilio%Chirico%NULL%2,       Emilio%Chirico%NULL%0,       Carlo%Cisari%NULL%1,       Micol Giulia%Cittone%NULL%2,       Micol Giulia%Cittone%NULL%0,       Crizia%Colombo%NULL%2,       Crizia%Colombo%NULL%0,       Cristoforo%Comi%NULL%2,       Cristoforo%Comi%NULL%0,       Eleonora%Croce%NULL%2,       Eleonora%Croce%NULL%0,       Tommaso%Daffara%NULL%2,       Tommaso%Daffara%NULL%0,       Pietro%Danna%NULL%2,       Pietro%Danna%NULL%0,       Francesco%Della Corte%NULL%2,       Francesco%Della Corte%NULL%0,       Simona%De Vecchi%NULL%2,       Simona%De Vecchi%NULL%0,       Umberto%Dianzani%NULL%2,       Umberto%Dianzani%NULL%0,       Davide%Di Benedetto%NULL%2,       Davide%Di Benedetto%NULL%0,       Elia%Esposto%NULL%2,       Elia%Esposto%NULL%0,       Fabrizio%Faggiano%NULL%2,       Fabrizio%Faggiano%NULL%0,       Zeno%Falaschi%NULL%2,       Zeno%Falaschi%NULL%0,       Daniela%Ferrante%NULL%2,       Daniela%Ferrante%NULL%0,       Alice%Ferrero%NULL%2,       Alice%Ferrero%NULL%0,       Ileana%Gagliardi%NULL%2,       Ileana%Gagliardi%NULL%0,       Alessandra%Galbiati%NULL%2,       Alessandra%Galbiati%NULL%0,       Silvia%Gallo%NULL%2,       Silvia%Gallo%NULL%0,       Pietro Luigi%Garavelli%NULL%2,       Pietro Luigi%Garavelli%NULL%0,       Clara Ada%Gardino%NULL%2,       Clara Ada%Gardino%NULL%0,       Massimiliano%Garzaro%NULL%2,       Massimiliano%Garzaro%NULL%0,       Maria Luisa%Gastaldello%NULL%2,       Maria Luisa%Gastaldello%NULL%0,       Francesco%Gavelli%NULL%2,       Francesco%Gavelli%NULL%0,       Alessandra%Gennari%NULL%2,       Alessandra%Gennari%NULL%0,       Greta Maria%Giacomini%NULL%2,       Greta Maria%Giacomini%NULL%0,       Irene%Giacone%NULL%2,       Irene%Giacone%NULL%0,       Valentina%Giai Via%NULL%2,       Valentina%Giai Via%NULL%0,       Francesca%Giolitti%NULL%2,       Francesca%Giolitti%NULL%0,       Laura Cristina%Gironi%NULL%2,       Laura Cristina%Gironi%NULL%0,       Carla%Gramaglia%NULL%2,       Carla%Gramaglia%NULL%0,       Leonardo%Grisafi%NULL%2,       Leonardo%Grisafi%NULL%0,       Ilaria%Inserra%NULL%2,       Ilaria%Inserra%NULL%0,       Marco%Invernizzi%NULL%2,       Marco%Invernizzi%NULL%0,       Marco%Krengli%NULL%2,       Marco%Krengli%NULL%0,       Emanuela%Labella%NULL%2,       Emanuela%Labella%NULL%0,       Irene Cecilia%Landi%NULL%2,       Irene Cecilia%Landi%NULL%0,       Raffaella%Landi%NULL%2,       Raffaella%Landi%NULL%0,       Ilaria%Leone%NULL%2,       Ilaria%Leone%NULL%0,       Veronica%Lio%NULL%2,       Veronica%Lio%NULL%0,       Luca%Lorenzini%NULL%2,       Luca%Lorenzini%NULL%0,       Antonio%Maconi%NULL%2,       Antonio%Maconi%NULL%0,       Mario%Malerba%NULL%2,       Mario%Malerba%NULL%0,       Giulia Francesca%Manfredi%NULL%2,       Giulia Francesca%Manfredi%NULL%0,       Maria%Martelli%NULL%2,       Maria%Martelli%NULL%0,       Letizia%Marzari%NULL%2,       Letizia%Marzari%NULL%0,       Paolo%Marzullo%NULL%2,       Paolo%Marzullo%NULL%0,       Marco%Mennuni%NULL%2,       Marco%Mennuni%NULL%0,       Claudia%Montabone%NULL%2,       Claudia%Montabone%NULL%0,       Umberto%Morosini%NULL%2,       Umberto%Morosini%NULL%0,       Marco%Mussa%NULL%2,       Marco%Mussa%NULL%0,       Ilaria%Nerici%NULL%2,       Ilaria%Nerici%NULL%0,       Alessandro%Nuzzo%NULL%2,       Alessandro%Nuzzo%NULL%0,       Carlo%Olivieri%NULL%2,       Carlo%Olivieri%NULL%0,       Samuel Alberto%Padelli%NULL%2,       Samuel Alberto%Padelli%NULL%0,       Massimiliano%Panella%NULL%2,       Massimiliano%Panella%NULL%0,       Andrea%Parisini%NULL%2,       Andrea%Parisini%NULL%0,       Alessio%Paschè%NULL%2,       Alessio%Paschè%NULL%0,       Filippo%Patrucco%NULL%2,       Filippo%Patrucco%NULL%0,       Giuseppe%Patti%NULL%2,       Giuseppe%Patti%NULL%0,       Alberto%Pau%NULL%2,       Alberto%Pau%NULL%0,       Anita Rebecca%Pedrinelli%NULL%2,       Anita Rebecca%Pedrinelli%NULL%0,       Ilaria%Percivale%NULL%2,       Ilaria%Percivale%NULL%0,       Luca%Ragazzoni%NULL%2,       Luca%Ragazzoni%NULL%0,       Roberta%Re%NULL%2,       Roberta%Re%NULL%0,       Cristina%Rigamonti%NULL%2,       Cristina%Rigamonti%NULL%0,       Eleonora%Rizzi%NULL%2,       Eleonora%Rizzi%NULL%0,       Andrea%Rognoni%NULL%2,       Andrea%Rognoni%NULL%0,       Annalisa%Roveta%NULL%2,       Annalisa%Roveta%NULL%0,       Luigia%Salamina%NULL%2,       Luigia%Salamina%NULL%0,       Matteo%Santagostino%NULL%2,       Matteo%Santagostino%NULL%0,       Massimo%Saraceno%NULL%2,       Massimo%Saraceno%NULL%0,       Paola%Savoia%NULL%2,       Paola%Savoia%NULL%0,       Marco%Sciarra%NULL%2,       Marco%Sciarra%NULL%0,       Andrea%Schimmenti%NULL%2,       Andrea%Schimmenti%NULL%0,       Lorenza%Scotti%NULL%2,       Lorenza%Scotti%NULL%0,       Enrico%Spinoni%NULL%2,       Enrico%Spinoni%NULL%0,       Carlo%Smirne%NULL%2,       Carlo%Smirne%NULL%0,       Vanessa%Tarantino%NULL%2,       Vanessa%Tarantino%NULL%0,       Paolo Amedeo%Tillio%NULL%2,       Paolo Amedeo%Tillio%NULL%0,       Stelvio%Tonello%NULL%2,       Stelvio%Tonello%NULL%0,       Rosanna%Vaschetto%NULL%2,       Rosanna%Vaschetto%NULL%0,       Veronica%Vassia%NULL%2,       Veronica%Vassia%NULL%0,       Domenico%Zagaria%NULL%2,       Domenico%Zagaria%NULL%0,       Elisa%Zavattaro%NULL%2,       Elisa%Zavattaro%NULL%0,       Patrizia%Zeppegno%NULL%2,       Patrizia%Zeppegno%NULL%0,       Francesca%Zottarelli%NULL%2,       Francesca%Zottarelli%NULL%0,       Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,       Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,       Marta%Ottone%NULL%2,       Marta%Ottone%NULL%0,       Tommaso%Fasano%NULL%1,       Pierpaolo%Pattacini%NULL%1,       Valentina%Iotti%NULL%1,       Lucia%Spaggiari%NULL%1,       Riccardo%Bonacini%NULL%1,       Andrea%Nitrosi%NULL%1,       Efrem%Bonelli%NULL%1,       Simone%Canovi%NULL%1,       Rossana%Colla%NULL%1,       Alessandro%Zerbini%NULL%1,       Marco%Massari%NULL%2,       Ivana%Lattuada%NULL%1,       Anna Maria%Ferrari%NULL%1,       Paolo%Giorgi Rossi%NULL%1,       Massimo%Costantini%NULL%1,       Roberto%Grilli%NULL%2,       Massimiliano%Marino%NULL%2,       Giulio%Formoso%NULL%1,       Debora%Formisano%NULL%2,       Emanuela%Bedeschi%NULL%1,       Cinzia%Perilli%NULL%1,       Elisabetta%La Rosa%NULL%1,       Eufemia%Bisaccia%NULL%1,       Ivano%Venturi%NULL%1,       Massimo%Vicentini%NULL%3,       Cinzia%Campari%NULL%1,       Francesco%Gioia%NULL%1,       Serena%Broccoli%NULL%1,       Pamela%Mancuso%NULL%1,       Marco%Foracchia%NULL%1,       Mirco%Pinotti%NULL%1,       Nicola%Facciolongo%NULL%1,       Laura%Trabucco%NULL%1,       Stefano%De Pietri%NULL%1,       Giorgio Francesco%Danelli%NULL%1,       Laura%Albertazzi%NULL%1,       Enrica%Bellesia%NULL%1,       Mattia%Corradini%NULL%1,       Elena%Magnani%NULL%1,       Annalisa%Pilia%NULL%1,       Alessandra%Polese%NULL%1,       Silvia Storchi%Incerti%NULL%1,       Piera%Zaldini%NULL%1,       Bonanno%Orsola%NULL%1,       Matteo%Revelli%NULL%1,       Carlo%Salvarani%NULL%1,       Carmine%Pinto%NULL%1,       Francesco%Venturelli%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,       Hong-Qiu%Gu%NULL%1,       Yi%Liu (刘艺)%NULL%1,       Guqin%Zhang%NULL%1,       Hang%Yang%NULL%1,       Huifang%Hu%NULL%1,       Chenyang%Lu%NULL%1,       Yang%Li%NULL%3,       Liyi%Wang%NULL%1,       Yi%Liu (刘毅)%yi2006liu@163.com%1,       Yi%Zhao%zhao.y1977@163.com%2,       Huaqin%Pan%phq2012@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,       Tawsifur%Rahman%NULL%2,       Tawsifur%Rahman%NULL%0,       Amith%Khandakar%NULL%3,       Somaya%Al-Madeed%NULL%2,       Susu M.%Zughaier%NULL%5,       Suhail A. R.%Doi%NULL%3,       Hanadi%Hassen%NULL%1,       Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,       Jia%Sun%NULL%1,       Yi-Xin%Li%NULL%1,       Qian%Chen%NULL%0,       Qing-Quan%Liu%NULL%1,       Zhou%Sun%NULL%1,       Ran%Pang%NULL%1,       Fei%Chen%NULL%1,       Bing-Yang%Xu%NULL%1,       Anne%Manyande%NULL%1,       Taane G%Clark%NULL%1,       Jin-Ping%Li%NULL%1,       Ilkay Erdogan%Orhan%NULL%1,       Yu-Ke%Tian%NULL%1,       Tao%Wang%wt7636@126.com%0,       Wei%Wu%wt7636@126.com%1,       Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,    Imam%Z%coreGivesNoEmail%1,    Lippi%G%coreGivesNoEmail%1,    Oran%DP%coreGivesNoEmail%1,    Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,       Caiping%Song%NULL%1,       En%Liu%NULL%1,       Xi%Liu%NULL%1,       Hao%Wu%NULL%1,       Hui%Lin%NULL%1,       Yuliang%Liu%NULL%1,       Qi%Li%NULL%1,       Zhi%Xu%NULL%1,       XiaoBao%Ren%NULL%1,       Cheng%Zhang%NULL%1,       Wenjing%Zhang%NULL%1,       Wei%Duan%NULL%3,       Yongfeng%Tian%NULL%1,       Ping%Li%NULL%1,       Mingdong%Hu%NULL%1,       Shiming%Yang%NULL%1,       Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,       Changli%Li%NULL%1,       Li%Zheng%NULL%1,       Wenzhi%Lv%NULL%0,       Zhigang%He%NULL%1,       Xinwu%Cui%NULL%1,       Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,       Hayne Cho%Park%NULL%2,       Hayne Cho%Park%NULL%0,       Ajin%Cho%NULL%1,       Juhee%Kim%NULL%1,       Kyu-sang%Yun%NULL%1,       Jinseog%Kim%NULL%1,       Young-Ki%Lee%NULL%1,       Sinan%Kardes.%NULL%2,       Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,       Xiaoyu%Fang%NULL%1,       Lixia%Cheng%NULL%1,       Penghao%Wang%NULL%1,       Shen%Li%NULL%1,       Hao%Yu%NULL%1,       Yao%Zhang%NULL%3,       Nan%Jiang%NULL%1,       Tingting%Zeng%NULL%1,       Chao%Hou%NULL%1,       Jing%Zhou%NULL%0,       Shiru%Li%NULL%1,       Yingzi%Pan%NULL%1,       Yitong%Li%NULL%1,       Lili%Nie%NULL%1,       Yang%Li%NULL%0,       Qidi%Sun%NULL%1,       Hong%Jia%NULL%1,       Mengxia%Li%NULL%1,       Guoqiang%Cao%NULL%1,       Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,       Lucas A%Ramos%NULL%2,       Lucas A%Ramos%NULL%0,       Wouter%Potters%NULL%1,       Marcus L F%Janssen%NULL%1,       Deborah%Hubers%NULL%1,       Shi%Hu%NULL%1,       Egill A%Fridgeirsson%NULL%1,       Dan%Piña-Fuentes%NULL%1,       Rajat%Thomas%NULL%1,       Iwan C C%van der Horst%NULL%1,       Christian%Herff%NULL%2,       Christian%Herff%NULL%0,       Pieter%Kubben%NULL%1,       Paul W G%Elbers%NULL%1,       Henk A%Marquering%NULL%1,       Max%Welling%NULL%1,       Suat%Simsek%NULL%1,       Martijn D%de Kruif%NULL%1,       Tom%Dormans%NULL%1,       Lucas M%Fleuren%NULL%1,       Michiel%Schinkel%NULL%1,       Peter G%Noordzij%NULL%1,       Joop P%van den Bergh%NULL%2,       Joop P%van den Bergh%NULL%0,       Caroline E%Wyers%NULL%1,       David T B%Buis%NULL%2,       David T B%Buis%NULL%0,       W Joost%Wiersinga%NULL%1,       Ella H C%van den Hout%NULL%1,       Auke C%Reidinga%NULL%1,       Daisy%Rusch%NULL%1,       Kim C E%Sigaloff%NULL%1,       Renee A%Douma%NULL%1,       Lianne%de Haan%NULL%1,       Niels C%Gritters van den Oever%NULL%1,       Roger J M W%Rennenberg%NULL%1,       Guido A%van Wingen%NULL%1,       Marcel J H%Aries%NULL%1,       Martijn%Beudel%NULL%2,       Martijn%Beudel%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,       Fajer A.%Al-Ishaq%NULL%2,       Fajer A.%Al-Ishaq%NULL%0,       Fatima S.%Al-Mohannadi%NULL%1,       Reem S.%Mubarak%NULL%1,       Maryam H.%Al-Hitmi%NULL%1,       Khandaker Reajul%Islam%NULL%1,       Amith%Khandakar%NULL%0,       Ali Ait%Hssain%NULL%4,       Ali Ait%Hssain%NULL%0,       Somaya%Al-Madeed%NULL%0,       Susu M.%Zughaier%NULL%0,       Susu M.%Zughaier%NULL%0,       Muhammad E. H.%Chowdhury%NULL%3,       Muhammad E. H.%Chowdhury%NULL%0,       Antonella%Santone%NULL%3,       Antonella%Santone%NULL%0,       Antonella%Santone%NULL%0,       Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,       Amith%Khandakar%NULL%0,       Md Enamul%Hoque%NULL%2,       Md Enamul%Hoque%NULL%0,       Nabil%Ibtehaz%NULL%2,       Nabil%Ibtehaz%NULL%0,       Saad Bin%Kashem%NULL%2,       Saad Bin%Kashem%NULL%0,       Reehum%Masud%NULL%1,       Lutfunnahar%Shampa%NULL%1,       Mohammad Mehedi%Hasan%NULL%1,       Mohammad Tariqul%Islam%NULL%1,       Somaya%Al-Maadeed%NULL%2,       Somaya%Al-Maadeed%NULL%0,       Susu M.%Zughaier%NULL%0,       Susu M.%Zughaier%NULL%0,       Saif%Badran%NULL%2,       Saif%Badran%NULL%0,       Suhail A. R.%Doi%NULL%0,       Suhail A. R.%Doi%NULL%0,       Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,       Pablo%Rodríguez-Belenguer%NULL%2,       Pablo%Rodríguez-Belenguer%NULL%0,       Antonio J.%Serrano-López%NULL%1,       Emilio%Soria-Olivas%NULL%2,       Emilio%Soria-Olivas%NULL%0,       Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,       Haibo%Ai%NULL%1,       Yunong%Fu%NULL%1,       Qinglin%Li%NULL%1,       Ruixia%Cui%NULL%1,       Xiaohua%Ma%NULL%1,       Yan-fen%Ma%NULL%1,       Zi%Wang%NULL%1,       Tong%Liu%NULL%1,       Yunxiang%Long%NULL%1,       Kai%Qu%NULL%1,       Chang%Liu%NULL%1,       Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,       Dawei%Zhang%NULL%1,       Jing%Xu%NULL%3,       Zhu%Chen%NULL%1,       Tieniu%Yang%NULL%1,       Peng%Zhao%NULL%2,       Guofeng%Chen%NULL%1,       Gregory%Cheng%NULL%1,       Yudong%Wang%NULL%1,       Jingfeng%Bi%NULL%1,       Lin%Tan%NULL%1,       George%Lau%NULL%1,       Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,       Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,       Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,       Giulia%Suigo%NULL%1,       Davide%Zampini%NULL%1,       Matteo%Pistoia%NULL%1,       Mariella%Ciola%NULL%1,       Tommaso%Ciampani%NULL%1,       Carolina%Ultori%NULL%1,       Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,       John R%Adler%NULL%3,       Sultan M%Kamran%NULL%2,       Sultan M%Kamran%NULL%0,       Zill-e-Humayun%Mirza%NULL%1,       Hussain Abdul%Moeed%NULL%1,       Arshad%Naseem%NULL%1,       Maryam%Hussain%NULL%1,       Imran%Fazal%NULL%1,       Farrukh%Saeed%NULL%1,       Wasim%Alamgir%NULL%1,       Salman%Saleem%NULL%1,       Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,       María M.%Martín%NULL%1,       Mónica%Argueso%NULL%1,       Jordi%Solé-Violán%NULL%1,       Alina%Perez%NULL%1,       José Alberto%Marcos Y Ramos%NULL%1,       Luis%Ramos-Gómez%NULL%1,       Sergio%López%NULL%1,       Andrés%Franco%NULL%1,       Agustín F.%González-Rivero%NULL%1,       María%Martín%NULL%1,       Verónica%Gonzalez%NULL%1,       Julia%Alcoba-Flórez%NULL%1,       Miguel Ángel%Rodriguez%NULL%1,       Marta%Riaño-Ruiz%NULL%1,       Juan%Guillermo O Campo%NULL%1,       Lourdes%González%NULL%1,       Tamara%Cantera%NULL%1,       Raquel%Ortiz-López%NULL%1,       Nazario%Ojeda%NULL%1,       Aurelio%Rodríguez-Pérez%NULL%1,       Casimira%Domínguez%NULL%1,       Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,       Rita%Kukafka%NULL%1,       Arriel%Benis%NULL%2,       Arriel%Benis%NULL%0,       Jinfeng%Li%NULL%1,       Pan%Pan%NULL%2,       Pan%Pan%NULL%0,       Yichao%Li%NULL%2,       Yichao%Li%NULL%0,       Yongjiu%Xiao%NULL%2,       Yongjiu%Xiao%NULL%0,       Bingchao%Han%NULL%2,       Bingchao%Han%NULL%0,       Longxiang%Su%NULL%2,       Longxiang%Su%NULL%0,       Mingliang%Su%NULL%2,       Mingliang%Su%NULL%0,       Yansheng%Li%NULL%2,       Yansheng%Li%NULL%0,       Siqi%Zhang%NULL%2,       Siqi%Zhang%NULL%0,       Dapeng%Jiang%NULL%2,       Dapeng%Jiang%NULL%0,       Xia%Chen%NULL%2,       Xia%Chen%NULL%0,       Fuquan%Zhou%NULL%2,       Fuquan%Zhou%NULL%0,       Ling%Ma%NULL%2,       Ling%Ma%NULL%0,       Pengtao%Bao%NULL%2,       Pengtao%Bao%NULL%0,       Lixin%Xie%xielx301@126.com%2,       Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,       Cristina%Roca-Oporto%NULL%2,       Guillermo%Martín-Gutiérrez%NULL%2,       María Dolores%Avilés%NULL%3,       Carmen%Gómez-González%NULL%2,       María Dolores%Navarro-Amuedo%NULL%2,       Julia%Praena-Segovia%NULL%2,       José%Molina%NULL%2,       María%Paniagua-García%NULL%2,       Horacio%García-Delgado%NULL%2,       Antonio%Domínguez-Petit%NULL%2,       Jerónimo%Pachón%NULL%4,       José Miguel%Cisneros%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,       Barry R.%Meisenberg%NULL%2,       Barry R.%Meisenberg%NULL%0,       James H.%MacDonald%NULL%1,       Nandakumar%Menon%NULL%1,       Marcia B.%Fowler%NULL%1,       Michaline%West%NULL%1,       Jane%Rhule%NULL%1,       Sadaf S.%Qureshi%NULL%1,       Eileen B.%MacDonald%NULL%1,       Yu Ru%Kou%NULL%2,       Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,       Sarah%Poole%NULL%2,       Sarah%Poole%NULL%0,       Meeta%Pradhan%NULL%1,       Akhil%Vaid%NULL%4,       Akhil%Vaid%NULL%0,       Sulaiman%Somani%NULL%4,       Sulaiman%Somani%NULL%0,       Adam J%Russak%NULL%4,       Adam J%Russak%NULL%0,       Jessica K%De Freitas%NULL%3,       Jessica K%De Freitas%NULL%0,       Fayzan F%Chaudhry%NULL%2,       Fayzan F%Chaudhry%NULL%0,       Ishan%Paranjpe%NULL%3,       Ishan%Paranjpe%NULL%0,       Kipp W%Johnson%NULL%3,       Kipp W%Johnson%NULL%0,       Samuel J%Lee%NULL%2,       Samuel J%Lee%NULL%0,       Riccardo%Miotto%NULL%3,       Riccardo%Miotto%NULL%0,       Felix%Richter%NULL%3,       Felix%Richter%NULL%0,       Shan%Zhao%NULL%3,       Shan%Zhao%NULL%0,       Noam D%Beckmann%NULL%2,       Noam D%Beckmann%NULL%0,       Nidhi%Naik%NULL%2,       Nidhi%Naik%NULL%0,       Arash%Kia%NULL%3,       Arash%Kia%NULL%0,       Prem%Timsina%NULL%3,       Prem%Timsina%NULL%0,       Anuradha%Lala%NULL%3,       Anuradha%Lala%NULL%0,       Manish%Paranjpe%NULL%2,       Manish%Paranjpe%NULL%0,       Eddye%Golden%NULL%3,       Eddye%Golden%NULL%0,       Matteo%Danieletto%NULL%3,       Matteo%Danieletto%NULL%0,       Manbir%Singh%NULL%3,       Manbir%Singh%NULL%0,       Dara%Meyer%NULL%3,       Dara%Meyer%NULL%0,       Paul F%O'Reilly%NULL%2,       Paul F%O'Reilly%NULL%0,       Laura%Huckins%NULL%2,       Laura%Huckins%NULL%0,       Patricia%Kovatch%NULL%4,       Patricia%Kovatch%NULL%0,       Joseph%Finkelstein%NULL%3,       Joseph%Finkelstein%NULL%0,       Robert M.%Freeman%NULL%2,       Robert M.%Freeman%NULL%0,       Edgar%Argulian%NULL%2,       Edgar%Argulian%NULL%0,       Andrew%Kasarskis%NULL%2,       Andrew%Kasarskis%NULL%0,       Bethany%Percha%NULL%2,       Bethany%Percha%NULL%0,       Judith A%Aberg%NULL%3,       Judith A%Aberg%NULL%0,       Emilia%Bagiella%NULL%4,       Emilia%Bagiella%NULL%0,       Carol R%Horowitz%NULL%3,       Carol R%Horowitz%NULL%0,       Barbara%Murphy%NULL%3,       Barbara%Murphy%NULL%0,       Eric J%Nestler%NULL%3,       Eric J%Nestler%NULL%0,       Eric E%Schadt%NULL%2,       Eric E%Schadt%NULL%0,       Judy H%Cho%NULL%2,       Judy H%Cho%NULL%0,       Carlos%Cordon-Cardo%NULL%4,       Carlos%Cordon-Cardo%NULL%0,       Valentin%Fuster%NULL%3,       Valentin%Fuster%NULL%0,       Dennis S%Charney%NULL%2,       Dennis S%Charney%NULL%0,       David L%Reich%NULL%3,       David L%Reich%NULL%0,       Erwin P%Bottinger%NULL%3,       Erwin P%Bottinger%NULL%0,       Matthew A%Levin%NULL%3,       Matthew A%Levin%NULL%0,       Jagat%Narula%NULL%4,       Jagat%Narula%NULL%0,       Zahi A%Fayad%NULL%3,       Zahi A%Fayad%NULL%0,       Allan C%Just%NULL%2,       Allan C%Just%NULL%0,       Alexander W%Charney%NULL%3,       Alexander W%Charney%NULL%0,       Girish N%Nadkarni%NULL%3,       Girish N%Nadkarni%NULL%0,       Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%3,       Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,       Anne%Chen%NULL%2,       Wei%Hou%NULL%5,       James M.%Graham%NULL%2,       Haifang%Li%NULL%3,       Paul S.%Richman%NULL%2,       Henry C.%Thode%NULL%2,       Adam J.%Singer%NULL%2,       Tim Q.%Duong%NULL%2,       Muhammad%Adrish%NULL%22,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,       Qin%Liu%NULL%2,       Xiao%Zhang%NULL%2,       Shuyi%Liu%NULL%1,       Weiqi%Chen%NULL%1,       Jingjing%You%NULL%1,       Qiuying%Chen%NULL%1,       Minmin%Li%NULL%1,       Zhuozhi%Chen%NULL%1,       Luyan%Chen%NULL%1,       Lv%Chen%NULL%1,       Yuhao%Dong%NULL%1,       Qingsi%Zeng%NULL%1,       Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,       Lei%Nie%NULL%1,       Dongde%Wu%NULL%1,       Jian%Chen%NULL%2,       Zhifeng%Yang%NULL%1,       Ling%Zhang%NULL%5,       Dongqing%Li%NULL%1,       Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,       Burcin%Hakoglu%NULL%2,       Burcin%Hakoglu%NULL%0,       Ali%Kadri Cirak%NULL%1,       Gulru%Polat%NULL%1,       Berna%Komurcuoglu%NULL%1,       Berrin%Akkol%NULL%1,       Cagri%Atasoy%NULL%1,       Eda%Bayramic%NULL%1,       Gunseli%Balci%NULL%1,       Sena%Ataman%NULL%1,       Sinem%Ermin%NULL%1,       Enver%Yalniz%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,       Qiaosen%Chen%NULL%2,       Qiaosen%Chen%NULL%0,       Sumeng%Li%NULL%1,       Huadong%Li%NULL%1,       Qian%Zhang%NULL%1,       Sihong%Lu%NULL%1,       Li%Wu%NULL%1,       Leiqun%Xiong%NULL%1,       Bobin%Mi%NULL%1,       Di%Liu%NULL%3,       Mengji%Lu%NULL%1,       Dongliang%Yang%NULL%1,       Hongbo%Jiang%hongbojiang3@163.com%1,       Shaoping%Zheng%zhengspxx@126.com%1,       Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,       Hua%Zhang%NULL%2,       Rui%Qiao%NULL%1,       Qinggang%Ge%NULL%1,       Shuisheng%Zhang%NULL%1,       Zongxuan%Zhao%NULL%1,       Ci%Tian%NULL%1,       Qingbian%Ma%NULL%2,       Qingbian%Ma%NULL%0,       Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,       Antonia%Ho%NULL%2,       Riinu%Pius%NULL%2,       Iain%Buchan%NULL%1,       Gail%Carson%NULL%2,       Thomas M%Drake%NULL%1,       Jake%Dunning%NULL%2,       Cameron J%Fairfield%NULL%2,       Carrol%Gamble%NULL%2,       Christopher A%Green%NULL%2,       Rishi%Gupta%NULL%1,       Sophie%Halpin%NULL%2,       Hayley E%Hardwick%NULL%1,       Karl A%Holden%NULL%1,       Peter W%Horby%NULL%2,       Clare%Jackson%NULL%2,       Kenneth A%Mclean%NULL%2,       Laura%Merson%NULL%2,       Jonathan S%Nguyen-Van-Tam%NULL%1,       Lisa%Norman%NULL%2,       Mahdad%Noursadeghi%NULL%2,       Piero L%Olliaro%NULL%1,       Mark G%Pritchard%NULL%1,       Clark D%Russell%NULL%2,       Catherine A%Shaw%NULL%2,       Aziz%Sheikh%NULL%2,       Tom%Solomon%NULL%2,       Cathie%Sudlow%NULL%1,       Olivia V%Swann%NULL%1,       Lance CW%Turtle%NULL%2,       Peter JM%Openshaw%NULL%2,       J Kenneth%Baillie%NULL%2,       Malcolm G%Semple%NULL%3,       Annemarie B%Docherty%NULL%3,       Annemarie B%Docherty%NULL%0,       Ewen M%Harrison%NULL%3,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       J Kenneth%Baillie%NULL%0,       Malcolm G%Semple%NULL%0,       Peter JM%Openshaw%NULL%0,       Gail%Carson%NULL%0,       Beatrice%Alex%NULL%1,       Benjamin%Bach%NULL%1,       Wendy S%Barclay%NULL%1,       Debby%Bogaert%NULL%1,       Meera%Chand%NULL%1,       Graham S%Cooke%NULL%1,       Annemarie B%Docherty%NULL%0,       Jake%Dunning%NULL%0,       Ana%da Silva Filipe%NULL%1,       Tom%Fletcher%NULL%1,       Christopher A%Green%NULL%0,       Ewen M%Harrison%NULL%0,       Julian A%Hiscox%NULL%1,       Antonia Ying Wai%Ho%NULL%1,       Peter W%Horby%NULL%0,       Samreen%Ijaz%NULL%1,       Saye%Khoo%NULL%1,       Paul%Klenerman%NULL%1,       Andrew%Law%NULL%2,       Wei Shen%Lim%NULL%1,       Alexander J%Mentzer%NULL%1,       Laura%Merson%NULL%0,       Alison M%Meynert%NULL%1,       Mahdad%Noursadeghi%NULL%0,       Shona C%Moore%NULL%2,       Massimo%Palmarini%NULL%1,       William A%Paxton%NULL%1,       Georgios%Pollakis%NULL%1,       Nicholas%Price%NULL%1,       Andrew%Rambaut%NULL%1,       David L%Robertson%NULL%1,       Clark D%Russell%NULL%0,       Vanessa%Sancho-Shimizu%NULL%1,       Janet T%Scott%NULL%1,       Louise%Sigfrid%NULL%1,       Tom%Solomon%NULL%0,       Shiranee%Sriskandan%NULL%1,       David%Stuart%NULL%1,       Charlotte%Summers%NULL%1,       Richard S%Tedder%NULL%1,       Emma C%Thomson%NULL%1,       Ryan S%Thwaites%NULL%1,       Lance CW%Turtle%NULL%0,       Maria%Zambon%NULL%1,       Hayley%Hardwick%NULL%1,       Chloe%Donohue%NULL%1,       Jane%Ewins%NULL%1,       Wilna%Oosthuyzen%NULL%1,       Fiona%Griffiths%NULL%1,       Lisa%Norman%NULL%0,       Riinu%Pius%NULL%0,       Tom M%Drake%NULL%1,       Cameron J%Fairfield%NULL%0,       Stephen%Knight%NULL%1,       Kenneth A%Mclean%NULL%0,       Derek%Murphy%NULL%1,       Catherine A%Shaw%NULL%0,       Jo%Dalton%NULL%1,       Michelle%Girvan%NULL%1,       Egle%Saviciute%NULL%1,       Stephanie%Roberts%NULL%1,       Janet%Harrison%NULL%1,       Laura%Marsh%NULL%1,       Marie%Connor%NULL%1,       Sophie%Halpin%NULL%0,       Clare%Jackson%NULL%0,       Carrol%Gamble%NULL%0,       Gary%Leeming%NULL%1,       Andrew%Law%NULL%0,       Ross%Hendry%NULL%1,       James%Scott-Brown%NULL%1,       William%Greenhalf%NULL%1,       Victoria%Shaw%NULL%1,       Sarah%McDonald%NULL%2,       Katie A%Ahmed%NULL%1,       Jane A%Armstrong%NULL%1,       Milton%Ashworth%NULL%1,       Innocent G%Asiimwe%NULL%1,       Siddharth%Bakshi%NULL%1,       Samantha L%Barlow%NULL%1,       Laura%Booth%NULL%1,       Benjamin%Brennan%NULL%1,       Katie%Bullock%NULL%1,       Benjamin WA%Catterall%NULL%1,       Jordan J%Clark%NULL%1,       Emily A%Clarke%NULL%1,       Sarah%Cole%NULL%1,       Louise%Cooper%NULL%1,       Helen%Cox%NULL%1,       Christopher%Davis%NULL%1,       Oslem%Dincarslan%NULL%1,       Chris%Dunn%NULL%1,       Philip%Dyer%NULL%1,       Angela%Elliott%NULL%1,       Anthony%Evans%NULL%1,       Lewis WS%Fisher%NULL%1,       Terry%Foster%NULL%1,       Isabel%Garcia-Dorival%NULL%1,       Willliam%Greenhalf%NULL%1,       Philip%Gunning%NULL%1,       Catherine%Hartley%NULL%1,       Antonia%Ho%NULL%0,       Rebecca L%Jensen%NULL%1,       Christopher B%Jones%NULL%1,       Trevor R%Jones%NULL%1,       Shadia%Khandaker%NULL%1,       Katharine%King%NULL%1,       Robyn T%Kiy%NULL%1,       Chrysa%Koukorava%NULL%1,       Annette%Lake%NULL%1,       Suzannah%Lant%NULL%1,       Diane%Latawiec%NULL%1,       L%Lavelle-Langham%NULL%1,       Daniella%Lefteri%NULL%1,       Lauren%Lett%NULL%1,       Lucia A%Livoti%NULL%1,       Maria%Mancini%NULL%1,       Sarah%McDonald%NULL%0,       Laurence%McEvoy%NULL%1,       John%McLauchlan%NULL%1,       Soeren%Metelmann%NULL%1,       Nahida S%Miah%NULL%1,       Joanna%Middleton%NULL%1,       Joyce%Mitchell%NULL%1,       Shona C%Moore%NULL%0,       Ellen G%Murphy%NULL%1,       Rebekah%Penrice-Randal%NULL%1,       Jack%Pilgrim%NULL%1,       Tessa%Prince%NULL%1,       Will%Reynolds%NULL%1,       P Matthew%Ridley%NULL%1,       Debby%Sales%NULL%1,       Victoria E%Shaw%NULL%1,       Rebecca K%Shears%NULL%1,       Benjamin%Small%NULL%1,       Krishanthi S%Subramaniam%NULL%1,       Agnieska%Szemiel%NULL%1,       Aislynn%Taggart%NULL%1,       Jolanta%Tanianis-Hughes%NULL%1,       Jordan%Thomas%NULL%1,       Erwan%Trochu%NULL%1,       Libby%van Tonder%NULL%1,       Eve%Wilcock%NULL%1,       J Eunice%Zhang%NULL%1,       Kayode%Adeniji%NULL%1,       Daniel%Agranoff%NULL%1,       Ken%Agwuh%NULL%1,       Dhiraj%Ail%NULL%1,       Ana%Alegria%NULL%1,       Brian%Angus%NULL%1,       Abdul%Ashish%NULL%1,       Dougal%Atkinson%NULL%1,       Shahedal%Bari%NULL%1,       Gavin%Barlow%NULL%1,       Stella%Barnass%NULL%1,       Nicholas%Barrett%NULL%3,       Christopher%Bassford%NULL%1,       David%Baxter%NULL%1,       Michael%Beadsworth%NULL%1,       Jolanta%Bernatoniene%NULL%1,       John%Berridge%NULL%1,       Nicola%Best%NULL%1,       Pieter%Bothma%NULL%1,       David%Brealey%NULL%1,       Robin%Brittain-Long%NULL%1,       Naomi%Bulteel%NULL%1,       Tom%Burden%NULL%1,       Andrew%Burtenshaw%NULL%1,       Vikki%Caruth%NULL%1,       David%Chadwick%NULL%1,       Duncan%Chambler%NULL%1,       Nigel%Chee%NULL%1,       Jenny%Child%NULL%1,       Srikanth%Chukkambotla%NULL%1,       Tom%Clark%NULL%1,       Paul%Collini%NULL%1,       Catherine%Cosgrove%NULL%1,       Jason%Cupitt%NULL%1,       Maria-Teresa%Cutino-Moguel%NULL%1,       Paul%Dark%NULL%1,       Chris%Dawson%NULL%1,       Samir%Dervisevic%NULL%1,       Phil%Donnison%NULL%1,       Sam%Douthwaite%NULL%1,       Ingrid%DuRand%NULL%1,       Ahilanadan%Dushianthan%NULL%1,       Tristan%Dyer%NULL%1,       Cariad%Evans%NULL%1,       Chi%Eziefula%NULL%1,       Chrisopher%Fegan%NULL%1,       Adam%Finn%NULL%1,       Duncan%Fullerton%NULL%1,       Sanjeev%Garg%NULL%2,       Sanjeev%Garg%NULL%0,       Atul%Garg%NULL%1,       Jo%Godden%NULL%1,       Arthur%Goldsmith%NULL%1,       Clive%Graham%NULL%1,       Elaine%Hardy%NULL%1,       Stuart%Hartshorn%NULL%1,       Daniel%Harvey%NULL%1,       Peter%Havalda%NULL%1,       Daniel B%Hawcutt%NULL%1,       Maria%Hobrok%NULL%1,       Luke%Hodgson%NULL%1,       Anita%Holme%NULL%1,       Anil%Hormis%NULL%1,       Michael%Jacobs%NULL%1,       Susan%Jain%NULL%1,       Paul%Jennings%NULL%1,       Agilan%Kaliappan%NULL%1,       Vidya%Kasipandian%NULL%1,       Stephen%Kegg%NULL%1,       Michael%Kelsey%NULL%1,       Jason%Kendall%NULL%1,       Caroline%Kerrison%NULL%1,       Ian%Kerslake%NULL%1,       Oliver%Koch%NULL%1,       Gouri%Koduri%NULL%1,       George%Koshy%NULL%1,       Shondipon%Laha%NULL%1,       Susan%Larkin%NULL%1,       Tamas%Leiner%NULL%1,       Patrick%Lillie%NULL%1,       James%Limb%NULL%1,       Vanessa%Linnett%NULL%1,       Jeff%Little%NULL%1,       Michael%MacMahon%NULL%1,       Emily%MacNaughton%NULL%1,       Ravish%Mankregod%NULL%1,       Huw%Masson%NULL%1,       Elijah%Matovu%NULL%1,       Katherine%McCullough%NULL%1,       Ruth%McEwen%NULL%1,       Manjula%Meda%NULL%1,       Gary%Mills%NULL%1,       Jane%Minton%NULL%1,       Mariyam%Mirfenderesky%NULL%1,       Kavya%Mohandas%NULL%1,       Quen%Mok%NULL%1,       James%Moon%NULL%1,       Elinoor%Moore%NULL%1,       Patrick%Morgan%NULL%1,       Craig%Morris%NULL%1,       Katherine%Mortimore%NULL%1,       Samuel%Moses%NULL%1,       Mbiye%Mpenge%NULL%1,       Rohinton%Mulla%NULL%1,       Michael%Murphy%NULL%1,       Megan%Nagel%NULL%1,       Thapas%Nagarajan%NULL%1,       Mark%Nelson%NULL%1,       Igor%Otahal%NULL%1,       Mark%Pais%NULL%1,       Selva%Panchatsharam%NULL%1,       Hassan%Paraiso%NULL%1,       Brij%Patel%NULL%1,       Justin%Pepperell%NULL%1,       Mark%Peters%NULL%1,       Mandeep%Phull%NULL%1,       Stefania%Pintus%NULL%1,       Jagtur Singh%Pooni%NULL%1,       Frank%Post%NULL%1,       David%Price%NULL%1,       Rachel%Prout%NULL%1,       Nikolas%Rae%NULL%1,       Henrik%Reschreiter%NULL%1,       Tim%Reynolds%NULL%1,       Neil%Richardson%NULL%1,       Mark%Roberts%NULL%1,       Devender%Roberts%NULL%1,       Alistair%Rose%NULL%1,       Guy%Rousseau%NULL%1,       Brendan%Ryan%NULL%1,       Taranprit%Saluja%NULL%1,       Aarti%Shah%NULL%1,       Prad%Shanmuga%NULL%1,       Anil%Sharma%NULL%1,       Anna%Shawcross%NULL%1,       Jeremy%Sizer%NULL%1,       Richard%Smith%NULL%1,       Catherine%Snelson%NULL%1,       Nick%Spittle%NULL%1,       Nikki%Staines%NULL%1,       Tom%Stambach%NULL%1,       Richard%Stewart%NULL%1,       Pradeep%Subudhi%NULL%1,       Tamas%Szakmany%NULL%1,       Kate%Tatham%NULL%1,       Jo%Thomas%NULL%1,       Chris%Thompson%NULL%1,       Robert%Thompson%NULL%1,       Ascanio%Tridente%NULL%1,       Darell%Tupper-Carey%NULL%1,       Mary%Twagira%NULL%1,       Andrew%Ustianowski%NULL%1,       Nick%Vallotton%NULL%1,       Lisa%Vincent-Smith%NULL%1,       Shico%Visuvanathan%NULL%1,       Alan%Vuylsteke%NULL%1,       Sam%Waddy%NULL%1,       Rachel%Wake%NULL%1,       Andrew%Walden%NULL%1,       Ingeborg%Welters%NULL%1,       Tony%Whitehouse%NULL%1,       Paul%Whittaker%NULL%1,       Ashley%Whittington%NULL%1,       Meme%Wijesinghe%NULL%1,       Martin%Williams%NULL%1,       Lawrence%Wilson%NULL%1,       Sarah%Wilson%NULL%1,       Stephen%Winchester%NULL%1,       Martin%Wiselka%NULL%1,       Adam%Wolverson%NULL%1,       Daniel G%Wooton%NULL%1,       Andrew%Workman%NULL%1,       Bryan%Yates%NULL%1,       Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,       Braulio A.%Marfil‐Garza%NULL%1,       Erick%Martínez Rodríguez%NULL%1,       José Omar%Barreto Rodríguez%NULL%1,       Alicia Estela%López Romo%NULL%1,       Paolo%Alberti Minutti%NULL%1,       Juan Vicente%Alejandre Loya%NULL%1,       Félix Emmanuel%Pérez Talavera%NULL%1,       Freddy José%Ávila Cervera%NULL%1,       Adriana%Velazquez Burciaga%NULL%1,       Oscar%Morado Aramburo%NULL%1,       Luis Alberto%Piña Olguín%NULL%1,       Adrian%Soto‐Rodríguez%NULL%1,       Andrés%Castañeda Prado%NULL%1,       Patricio%Santillán Doherty%NULL%1,       Juan%O Galindo%NULL%1,       Luis Alberto%Guízar García%NULL%1,       Daniel%Hernández Gordillo%NULL%1,       Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,       Aatish%Patel%NULL%1,       Esmita%Charani%NULL%1,       Sarah%Denny%NULL%1,       Saleh A.%Alqahtani%NULL%1,       Gary W.%Davies%NULL%1,       Nabeela%Mughal%NULL%1,       Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,       Hyunsun%Lim%NULL%1,       Dong-Wook%Kim%NULL%1,       Jung Hyun%Chang%NULL%1,       Yoon Jung%Choi%chris316@yuhs.ac%1,       Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,       Wenhua%Liang%NULL%4,       Mei%Jiang%NULL%4,       Weijie%Guan%NULL%4,       Chen%Zhan%NULL%2,       Tao%Wang%NULL%0,       Chunli%Tang%NULL%2,       Ling%Sang%NULL%5,       Jiaxing%Liu%NULL%2,       Zhengyi%Ni%NULL%4,       Yu%Hu%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%11,       Chunliang%Lei%NULL%4,       Yixiang%Peng%NULL%4,       Li%Wei%NULL%11,       Yong%Liu%NULL%11,       Yahua%Hu%NULL%4,       Peng%Peng%NULL%14,       Jianming%Wang%NULL%4,       Jiyang%Liu%NULL%4,       Zhong%Chen%NULL%11,       Gang%Li%NULL%11,       Zhijian%Zheng%NULL%4,       Shaoqin%Qiu%NULL%4,       Jie%Luo%NULL%11,       Changjiang%Ye%NULL%4,       Shaoyong%Zhu%NULL%4,       Xiaoqing%Liu%NULL%2,       Linling%Cheng%NULL%2,       Feng%Ye%NULL%3,       Jinping%Zheng%NULL%4,       Nuofu%Zhang%NULL%4,       Yimin%Li%NULL%4,       Jianxing%He%NULL%4,       Shiyue%Li%lishiyue@188.com%4,       Nanshan%Zhong%NULL%4,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,       Liu%Hu%NULL%3,       Yiru%Wang%NULL%0,       Luyan%Huang%NULL%3,       Lingxi%Zhao%NULL%3,       Congcong%Zhang%NULL%3,       Xiyue%Liu%NULL%3,       Ranran%Xu%NULL%3,       Feng%Liu%NULL%0,       Jinping%Li%NULL%3,       Dawei%Ye%NULL%0,       Tao%Wang%NULL%0,       Yongman%Lv%lvyongman@126.com%0,       Qingquan%Liu%qqliutj@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,       Carol A C%Coupland%NULL%1,       Ruth H%Keogh%NULL%1,       Karla%Diaz-Ordaz%NULL%1,       Elizabeth%Williamson%NULL%1,       Ewen M%Harrison%NULL%0,       Andrew%Hayward%NULL%1,       Harry%Hemingway%NULL%1,       Peter%Horby%NULL%1,       Nisha%Mehta%NULL%1,       Jonathan%Benger%NULL%1,       Kamlesh%Khunti%NULL%0,       David%Spiegelhalter%NULL%1,       Aziz%Sheikh%NULL%0,       Jonathan%Valabhji%NULL%0,       Ronan A%Lyons%NULL%1,       John%Robson%NULL%1,       Malcolm G%Semple%NULL%0,       Frank%Kee%NULL%1,       Peter%Johnson%NULL%1,       Susan%Jebb%NULL%1,       Tony%Williams%NULL%1,       Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,       Guang-Yao%Cai%NULL%1,       Wei%Fang%NULL%5,       Hua-Yi%Li%NULL%1,       Si-Yuan%Wang%NULL%2,       Si-Yuan%Wang%NULL%0,       Lingxi%Chen%NULL%1,       Yang%Yu%NULL%1,       Dan%Liu%NULL%0,       Sen%Xu%NULL%2,       Peng-Fei%Cui%NULL%1,       Shao-Qing%Zeng%NULL%2,       Shao-Qing%Zeng%NULL%0,       Xin-Xia%Feng%NULL%1,       Rui-Di%Yu%NULL%1,       Ya%Wang%NULL%2,       Yuan%Yuan%NULL%1,       Xiao-Fei%Jiao%NULL%1,       Jian-Hua%Chi%NULL%1,       Jia-Hao%Liu%NULL%1,       Ru-Yuan%Li%NULL%1,       Xu%Zheng%NULL%1,       Chun-Yan%Song%NULL%1,       Ning%Jin%NULL%1,       Wen-Jian%Gong%NULL%1,       Xing-Yu%Liu%NULL%1,       Lei%Huang%NULL%1,       Xun%Tian%NULL%1,       Lin%Li%NULL%3,       Hui%Xing%NULL%1,       Ding%Ma%NULL%1,       Chun-Rui%Li%NULL%1,       Fei%Ye%yeyuanbei@hotmail.com%1,       Qing-Lei%Gao%qingleigao@hotmail.com%2,       Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,       Ang%Li%NULL%1,       Mengfan%Jiao%NULL%1,       Qingmiao%Shi%NULL%1,       Xiaocai%An%NULL%1,       Yonghai%Feng%NULL%1,       Lihua%Xing%NULL%1,       Hongxia%Liang%NULL%1,       Jiajun%Chen%NULL%1,       Huiling%Li%NULL%1,       Juan%Li%NULL%0,       Zhigang%Ren%NULL%1,       Ranran%Sun%NULL%1,       Guangying%Cui%NULL%1,       Yongjian%Zhou%NULL%1,       Ming%Cheng%NULL%1,       Pengfei%Jiao%NULL%1,       Yu%Wang%NULL%3,       Jiyuan%Xing%NULL%1,       Shen%Shen%NULL%1,       Qingxian%Zhang%NULL%1,       Aiguo%Xu%NULL%1,       Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,       Michael%Ng%NULL%1,       Shuang%Xu%NULL%1,       Zhouming%Xu%NULL%1,       Hui%Qiu%NULL%1,       Yuwei%Liu%NULL%3,       Jiayou%Lyu%NULL%1,       Jiwen%You%NULL%1,       Peng%Zhao%NULL%0,       Shihao%Wang%NULL%1,       Yunfei%Tang%NULL%1,       Hao%Cui%NULL%1,       Changxiao%Yu%NULL%1,       Feng%Wang%NULL%9,       Fei%Shao%NULL%1,       Peng%Sun%NULL%1,       Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,       Huifang%Wang%NULL%1,       Junwei%Huang%NULL%1,       Yan%Geng%NULL%1,       Shuqi%Jiang%NULL%1,       Qiuping%Zhou%NULL%1,       Xuan%Chen%NULL%1,       Hongping%Hu%NULL%1,       Weifeng%Li%NULL%1,       Chengbin%Zhou%NULL%1,       Xinglin%Gao%NULL%1,       Na%Peng%pnatz@163.com%1,       Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,       Dandan%Cheng%NULL%1,       Yiwei%Cao%NULL%1,       Chuan%Hu%NULL%1,       Fenglin%Zou%NULL%1,       Wencheng%Yu%NULL%1,       Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,       Min Kyu%Kang%NULL%2,       Min Kyu%Kang%NULL%0,       Yu Rim%Lee%NULL%2,       Yu Rim%Lee%NULL%0,       Jeong Eun%Song%NULL%2,       Jeong Eun%Song%NULL%0,       Na Young%Kim%NULL%1,       Young Oh%Kweon%NULL%1,       Won Young%Tak%NULL%1,       Se Young%Jang%NULL%1,       Changhyeong%Lee%NULL%2,       Changhyeong%Lee%NULL%0,       Byung Seok%Kim%NULL%1,       Jae Seok%Hwang%NULL%1,       Byoung Kuk%Jang%NULL%1,       Jinmok%Bae%NULL%1,       Ji Yeon%Lee%NULL%0,       Jeong Ill%Suh%NULL%1,       Soo Young%Park%NULL%1,       Woo Jin%Chung%NULL%2,       Woo Jin%Chung%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,       Cristina%Roca-Oporto%NULL%0,       Guillermo%Martín-Gutiérrez%NULL%0,       María Dolores%Avilés%NULL%0,       Carmen%Gómez-González%NULL%0,       María Dolores%Navarro-Amuedo%NULL%0,       Julia%Praena-Segovia%NULL%0,       José%Molina%NULL%0,       María%Paniagua-García%NULL%0,       Horacio%García-Delgado%NULL%0,       Antonio%Domínguez-Petit%NULL%0,       Jerónimo%Pachón%NULL%0,       José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,    Calvo%Boyero Fernando%coreGivesNoEmail%1,    Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,    COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,    Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,    Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,    L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,    Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,    Santos%Lozano Alejandro%coreGivesNoEmail%1,    Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -2378,7 +3053,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>611</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -2407,7 +3082,7 @@
         <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>387</v>
+        <v>612</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -2436,7 +3111,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>389</v>
+        <v>613</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -2465,7 +3140,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>391</v>
+        <v>614</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2494,7 +3169,7 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>392</v>
+        <v>615</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -2523,7 +3198,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>393</v>
+        <v>616</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -2552,7 +3227,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>394</v>
+        <v>617</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -2581,7 +3256,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>395</v>
+        <v>618</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -2610,7 +3285,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>396</v>
+        <v>619</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -2639,7 +3314,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>397</v>
+        <v>620</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -2668,7 +3343,7 @@
         <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>398</v>
+        <v>621</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -2697,7 +3372,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>399</v>
+        <v>622</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -2726,7 +3401,7 @@
         <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>400</v>
+        <v>623</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -2755,7 +3430,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>401</v>
+        <v>624</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -2784,7 +3459,7 @@
         <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>402</v>
+        <v>625</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -2813,7 +3488,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>403</v>
+        <v>626</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -2865,19 +3540,19 @@
         <v>44228.0</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>457</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>627</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
@@ -2900,7 +3575,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>404</v>
+        <v>628</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -2929,7 +3604,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>405</v>
+        <v>629</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -2987,7 +3662,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>406</v>
+        <v>630</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -3045,7 +3720,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>407</v>
+        <v>631</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -3074,7 +3749,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>408</v>
+        <v>632</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -3103,7 +3778,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>409</v>
+        <v>633</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -3132,7 +3807,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>410</v>
+        <v>634</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -3161,7 +3836,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>411</v>
+        <v>635</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -3190,7 +3865,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>412</v>
+        <v>636</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -3248,7 +3923,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>413</v>
+        <v>637</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -3277,7 +3952,7 @@
         <v>206</v>
       </c>
       <c r="E33" t="s">
-        <v>414</v>
+        <v>638</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -3306,7 +3981,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>415</v>
+        <v>639</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -3329,7 +4004,7 @@
         <v>43963.0</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>472</v>
       </c>
       <c r="D35" t="s">
         <v>69</v>
@@ -3338,10 +4013,10 @@
         <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="H35" t="s">
         <v>91</v>
@@ -3393,7 +4068,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>416</v>
+        <v>640</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -3422,7 +4097,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>417</v>
+        <v>641</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -3451,7 +4126,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>418</v>
+        <v>642</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -3480,7 +4155,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>419</v>
+        <v>643</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -3509,7 +4184,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>420</v>
+        <v>644</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -3538,7 +4213,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>421</v>
+        <v>645</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -3567,7 +4242,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>422</v>
+        <v>646</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -3596,7 +4271,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>423</v>
+        <v>647</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -3654,7 +4329,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>424</v>
+        <v>648</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -3712,7 +4387,7 @@
         <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>425</v>
+        <v>649</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -3741,7 +4416,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>426</v>
+        <v>650</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -3770,7 +4445,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>427</v>
+        <v>651</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -3799,7 +4474,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>428</v>
+        <v>652</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -3828,7 +4503,7 @@
         <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>429</v>
+        <v>653</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -3857,7 +4532,7 @@
         <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>430</v>
+        <v>654</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -3915,7 +4590,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>431</v>
+        <v>655</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -3944,7 +4619,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>432</v>
+        <v>656</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -3973,7 +4648,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>433</v>
+        <v>657</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -4002,7 +4677,7 @@
         <v>301</v>
       </c>
       <c r="E58" t="s">
-        <v>434</v>
+        <v>658</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -4031,7 +4706,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>435</v>
+        <v>659</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -4060,7 +4735,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>436</v>
+        <v>660</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -4089,7 +4764,7 @@
         <v>316</v>
       </c>
       <c r="E61" t="s">
-        <v>437</v>
+        <v>661</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -4118,7 +4793,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>438</v>
+        <v>662</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -4147,7 +4822,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>439</v>
+        <v>663</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -4176,7 +4851,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>440</v>
+        <v>664</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -4199,19 +4874,19 @@
         <v>44106.0</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>498</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>72</v>
+        <v>665</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="H65" t="s">
         <v>91</v>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3641" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="809">
   <si>
     <t>Doi</t>
   </si>
@@ -2662,6 +2662,459 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,    Calvo%Boyero Fernando%coreGivesNoEmail%1,    Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,    COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,    Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,    Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,    L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,    Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,    Santos%Lozano Alejandro%coreGivesNoEmail%1,    Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,        Min%He%NULL%1,        Wanhong%Yin%NULL%1,        Xuelian%Liao%NULL%1,        Bo%Wang%NULL%7,        Xiaodong%Jin%NULL%1,        Yao%Ma%NULL%2,        Jirong%Yue%NULL%1,        Lang%Bai%NULL%1,        Dan%Liu%NULL%3,        Ting%Zhu%NULL%1,        Zhixin%Huang%NULL%1,        Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,        Shuchang%Zhou%NULL%1,        Yujin%Wang%NULL%1,        Wenzhi%Lv%NULL%2,        Shili%Wang%NULL%1,        Ting%Wang%751884926@qq.com%1,        Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,        Yan-chak%Li%NULL%1,        Sonali%Bose%NULL%1,        Ravi%Iyengar%NULL%1,        Supinda%Bunyavanich%NULL%1,        Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,         Hai-Tao%Zhang%null%1,         Jorge%Goncalves%null%1,         Yang%Xiao%null%3,         Maolin%Wang%null%1,         Yuqi%Guo%null%1,         Chuan%Sun%null%1,         Xiuchuan%Tang%null%1,         Liang%Jing%null%1,         Mingyang%Zhang%null%1,         Xiang%Huang%null%1,         Ying%Xiao%null%1,         Haosen%Cao%null%1,         Yanyan%Chen%null%1,         Tongxin%Ren%null%1,         Fang%Wang%null%1,         Yaru%Xiao%null%1,         Sufang%Huang%null%1,         Xi%Tan%null%1,         Niannian%Huang%null%1,         Bo%Jiao%null%1,         Cheng%Cheng%null%1,         Yong%Zhang%null%1,         Ailin%Luo%null%1,         Laurent%Mombaerts%null%1,         Junyang%Jin%null%1,         Zhiguo%Cao%null%1,         Shusheng%Li%null%7,         Hui%Xu%null%1,         Ye%Yuan%null%2,       Li%Yan%null%1,       Hai-Tao%Zhang%null%1,       Jorge%Goncalves%null%1,       Yang%Xiao%null%1,       Maolin%Wang%null%1,       Yuqi%Guo%null%1,       Chuan%Sun%null%1,       Xiuchuan%Tang%null%1,       Liang%Jing%null%1,       Mingyang%Zhang%null%1,       Xiang%Huang%null%1,       Ying%Xiao%null%1,       Haosen%Cao%null%1,       Yanyan%Chen%null%1,       Tongxin%Ren%null%1,       Fang%Wang%null%1,       Yaru%Xiao%null%1,       Sufang%Huang%null%1,       Xi%Tan%null%1,       Niannian%Huang%null%1,       Bo%Jiao%null%1,       Cheng%Cheng%null%1,       Yong%Zhang%null%1,       Ailin%Luo%null%1,       Laurent%Mombaerts%null%1,       Junyang%Jin%null%1,       Zhiguo%Cao%null%1,       Shusheng%Li%null%0,       Hui%Xu%null%1,       Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,        Mengfei%Guo%NULL%1,        Limin%Duan%NULL%1,        Feng%Wu%NULL%1,        Guorong%Hu%NULL%1,        Zhihui%Wang%NULL%1,        Qi%Huang%NULL%1,        Tingting%Liao%NULL%1,        Juanjuan%Xu%NULL%1,        Yanling%Ma%NULL%1,        Zhilei%Lv%NULL%1,        Wenjing%Xiao%NULL%1,        Zilin%Zhao%NULL%1,        Xueyun%Tan%NULL%1,        Daquan%Meng%NULL%1,        Shujing%Zhang%NULL%1,        E%Zhou%NULL%1,        Zhengrong%Yin%NULL%1,        Wei%Geng%NULL%1,        Xuan%Wang%NULL%1,        Jianchu%Zhang%NULL%1,        Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,        Yu%Zhang%whxhzy@163.com%1,        Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,        Francesco%Arru%NULL%2,        Francesco%Arru%NULL%0,        Andrea%De Vito%NULL%3,        Alessandro%Sassu%NULL%2,        Alessandro%Sassu%NULL%0,        Giovanni%Valdes%NULL%1,        Valentina%Scano%NULL%1,        Elisabetta%Zinellu%NULL%1,        Roberto%Perra%NULL%1,        Giordano%Madeddu%NULL%3,        Ciriaco%Carru%NULL%1,        Pietro%Pirina%NULL%3,        Arduino A.%Mangoni%NULL%2,        Arduino A.%Mangoni%NULL%0,        Sergio%Babudieri%NULL%4,        Sergio%Babudieri%NULL%0,        Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,        Pablo%Ryan%NULL%1,        Jorge%Valencia%NULL%2,        Jorge%Valencia%NULL%0,        Mario%Pérez-Butragueño%NULL%2,        Mario%Pérez-Butragueño%NULL%0,        Eva%Jiménez%NULL%2,        Eva%Jiménez%NULL%0,        Mario%Fontán-Vela%NULL%1,        Elsa%Izquierdo-García%NULL%2,        Elsa%Izquierdo-García%NULL%0,        Inés%Fernandez-Jimenez%NULL%1,        Elena%Álvaro-Alonso%NULL%1,        Andrea%Lazaro%NULL%2,        Andrea%Lazaro%NULL%0,        Marta%Alvarado%NULL%1,        Helena%Notario%NULL%1,        Salvador%Resino%NULL%1,        Daniel%Velez-Serrano%NULL%1,        Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,        Yiru%Wang%NULL%2,        Xuecheng%Zhao%NULL%1,        Lixuan%Wang%NULL%1,        Feng%Liu%NULL%3,        Tao%Wang%NULL%15,        Dawei%Ye%NULL%2,        Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,        Valentina%Zuccaro%NULL%1,        Luca%Novelli%NULL%1,        Lorenzo%Zileri%NULL%2,        Lorenzo%Zileri%NULL%0,        Ciro%Celsa%NULL%1,        Federico%Raimondi%NULL%2,        Federico%Raimondi%NULL%0,        Mauro%Gori%NULL%1,        Giulia%Cammà%NULL%1,        Salvatore%Battaglia%NULL%1,        Vincenzo Giuseppe%Genova%NULL%1,        Laura%Paris%NULL%1,        Matteo%Tacelli%NULL%1,        Francesco Antonio%Mancarella%NULL%1,        Marco%Enea%NULL%1,        Massimo%Attanasio%NULL%1,        Michele%Senni%NULL%1,        Fabiano%Di Marco%NULL%1,        Luca Ferdinando%Lorini%NULL%1,        Stefano%Fagiuoli%NULL%1,        Raffaele%Bruno%NULL%2,        Calogero%Cammà%NULL%1,        Antonio%Gasbarrini%NULL%3,        Francesco%Di Gennaro%NULL%2,        Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,        Gan-xun%Li%NULL%1,        Lin%Chen%NULL%3,        Chang%Shu%NULL%2,        Jia%Song%NULL%1,        Wei%Wang%NULL%2,        Yu-wei%Wang%NULL%1,        Qian%Chen%NULL%2,        Guan-nan%Jin%NULL%1,        Tong-tong%Liu%NULL%1,        Jun-nan%Liang%NULL%1,        Peng%Zhu%NULL%1,        Wei%Zhu%NULL%5,        Yong%Li%NULL%2,        Bin-hao%Zhang%NULL%1,        Huan%Feng%NULL%1,        Wan-guang%Zhang%NULL%1,        Zhen-yu%Yin%NULL%1,        Wen-kui%Yu%NULL%1,        Yang%Yang%NULL%2,        Hua-qiu%Zhang%NULL%1,        Zhou-ping%Tang%NULL%1,        Hui%Wang%NULL%4,        Jun-bo%Hu%NULL%1,        Ji-hong%Liu%NULL%1,        Ping%Yin%NULL%1,        Xiao-ping%Chen%NULL%1,        Bixiang%Zhang%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,        Günay%Can%NULL%2,        Günay%Can%NULL%0,        Rıdvan%Karaali%NULL%1,        Şermin%Börekçi%NULL%1,        İlker İnanç%Balkan%NULL%1,        Bilun%Gemicioğlu%NULL%1,        Dildar%Konukoğlu%NULL%1,        Ethem%Erginöz%NULL%1,        Mehmet Sarper%Erdoğan%NULL%1,        Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,        Danila%Azzolina%NULL%1,        Eyal%Hayden%NULL%2,        Eyal%Hayden%NULL%0,        Gianluca%Gaidano%NULL%2,        Gianluca%Gaidano%NULL%0,        Mario%Pirisi%NULL%2,        Mario%Pirisi%NULL%0,        Antonio%Acquaviva%NULL%2,        Antonio%Acquaviva%NULL%0,        Gianluca%Aimaretti%NULL%2,        Gianluca%Aimaretti%NULL%0,        Paolo%Aluffi Valletti%NULL%3,        Paolo%Aluffi Valletti%NULL%0,        Roberto%Angilletta%NULL%2,        Roberto%Angilletta%NULL%0,        Roberto%Arioli%NULL%2,        Roberto%Arioli%NULL%0,        Gian Carlo%Avanzi%NULL%2,        Gian Carlo%Avanzi%NULL%0,        Gianluca%Avino%NULL%2,        Gianluca%Avino%NULL%0,        Piero Emilio%Balbo%NULL%2,        Piero Emilio%Balbo%NULL%0,        Giulia%Baldon%NULL%2,        Giulia%Baldon%NULL%0,        Francesca%Baorda%NULL%2,        Francesca%Baorda%NULL%0,        Emanuela%Barbero%NULL%2,        Emanuela%Barbero%NULL%0,        Alessio%Baricich%NULL%2,        Alessio%Baricich%NULL%0,        Michela%Barini%NULL%2,        Michela%Barini%NULL%0,        Francesco%Barone-Adesi%NULL%2,        Francesco%Barone-Adesi%NULL%0,        Sofia%Battistini%NULL%2,        Sofia%Battistini%NULL%0,        Michela%Beltrame%NULL%2,        Michela%Beltrame%NULL%0,        Matteo%Bertoli%NULL%2,        Matteo%Bertoli%NULL%0,        Stephanie%Bertolin%NULL%2,        Stephanie%Bertolin%NULL%0,        Marinella%Bertolotti%NULL%2,        Marinella%Bertolotti%NULL%0,        Marta%Betti%NULL%2,        Marta%Betti%NULL%0,        Flavio%Bobbio%NULL%2,        Flavio%Bobbio%NULL%0,        Paolo%Boffano%NULL%2,        Paolo%Boffano%NULL%0,        Lucio%Boglione%NULL%2,        Lucio%Boglione%NULL%0,        Silvio%Borrè%NULL%2,        Silvio%Borrè%NULL%0,        Matteo%Brucoli%NULL%2,        Matteo%Brucoli%NULL%0,        Elisa%Calzaducca%NULL%2,        Elisa%Calzaducca%NULL%0,        Edoardo%Cammarata%NULL%2,        Edoardo%Cammarata%NULL%0,        Vincenzo%Cantaluppi%NULL%2,        Vincenzo%Cantaluppi%NULL%0,        Roberto%Cantello%NULL%2,        Roberto%Cantello%NULL%0,        Andrea%Capponi%NULL%2,        Andrea%Capponi%NULL%0,        Alessandro%Carriero%NULL%2,        Alessandro%Carriero%NULL%0,        Giuseppe Francesco%Casciaro%NULL%2,        Giuseppe Francesco%Casciaro%NULL%0,        Luigi Mario%Castello%NULL%2,        Luigi Mario%Castello%NULL%0,        Federico%Ceruti%NULL%2,        Federico%Ceruti%NULL%0,        Guido%Chichino%NULL%2,        Guido%Chichino%NULL%0,        Emilio%Chirico%NULL%2,        Emilio%Chirico%NULL%0,        Carlo%Cisari%NULL%1,        Micol Giulia%Cittone%NULL%2,        Micol Giulia%Cittone%NULL%0,        Crizia%Colombo%NULL%2,        Crizia%Colombo%NULL%0,        Cristoforo%Comi%NULL%2,        Cristoforo%Comi%NULL%0,        Eleonora%Croce%NULL%2,        Eleonora%Croce%NULL%0,        Tommaso%Daffara%NULL%2,        Tommaso%Daffara%NULL%0,        Pietro%Danna%NULL%2,        Pietro%Danna%NULL%0,        Francesco%Della Corte%NULL%2,        Francesco%Della Corte%NULL%0,        Simona%De Vecchi%NULL%2,        Simona%De Vecchi%NULL%0,        Umberto%Dianzani%NULL%2,        Umberto%Dianzani%NULL%0,        Davide%Di Benedetto%NULL%2,        Davide%Di Benedetto%NULL%0,        Elia%Esposto%NULL%2,        Elia%Esposto%NULL%0,        Fabrizio%Faggiano%NULL%2,        Fabrizio%Faggiano%NULL%0,        Zeno%Falaschi%NULL%2,        Zeno%Falaschi%NULL%0,        Daniela%Ferrante%NULL%2,        Daniela%Ferrante%NULL%0,        Alice%Ferrero%NULL%2,        Alice%Ferrero%NULL%0,        Ileana%Gagliardi%NULL%2,        Ileana%Gagliardi%NULL%0,        Alessandra%Galbiati%NULL%2,        Alessandra%Galbiati%NULL%0,        Silvia%Gallo%NULL%2,        Silvia%Gallo%NULL%0,        Pietro Luigi%Garavelli%NULL%2,        Pietro Luigi%Garavelli%NULL%0,        Clara Ada%Gardino%NULL%2,        Clara Ada%Gardino%NULL%0,        Massimiliano%Garzaro%NULL%3,        Massimiliano%Garzaro%NULL%0,        Maria Luisa%Gastaldello%NULL%2,        Maria Luisa%Gastaldello%NULL%0,        Francesco%Gavelli%NULL%2,        Francesco%Gavelli%NULL%0,        Alessandra%Gennari%NULL%2,        Alessandra%Gennari%NULL%0,        Greta Maria%Giacomini%NULL%2,        Greta Maria%Giacomini%NULL%0,        Irene%Giacone%NULL%2,        Irene%Giacone%NULL%0,        Valentina%Giai Via%NULL%2,        Valentina%Giai Via%NULL%0,        Francesca%Giolitti%NULL%2,        Francesca%Giolitti%NULL%0,        Laura Cristina%Gironi%NULL%2,        Laura Cristina%Gironi%NULL%0,        Carla%Gramaglia%NULL%2,        Carla%Gramaglia%NULL%0,        Leonardo%Grisafi%NULL%2,        Leonardo%Grisafi%NULL%0,        Ilaria%Inserra%NULL%2,        Ilaria%Inserra%NULL%0,        Marco%Invernizzi%NULL%2,        Marco%Invernizzi%NULL%0,        Marco%Krengli%NULL%2,        Marco%Krengli%NULL%0,        Emanuela%Labella%NULL%2,        Emanuela%Labella%NULL%0,        Irene Cecilia%Landi%NULL%2,        Irene Cecilia%Landi%NULL%0,        Raffaella%Landi%NULL%2,        Raffaella%Landi%NULL%0,        Ilaria%Leone%NULL%2,        Ilaria%Leone%NULL%0,        Veronica%Lio%NULL%2,        Veronica%Lio%NULL%0,        Luca%Lorenzini%NULL%2,        Luca%Lorenzini%NULL%0,        Antonio%Maconi%NULL%2,        Antonio%Maconi%NULL%0,        Mario%Malerba%NULL%2,        Mario%Malerba%NULL%0,        Giulia Francesca%Manfredi%NULL%2,        Giulia Francesca%Manfredi%NULL%0,        Maria%Martelli%NULL%2,        Maria%Martelli%NULL%0,        Letizia%Marzari%NULL%2,        Letizia%Marzari%NULL%0,        Paolo%Marzullo%NULL%2,        Paolo%Marzullo%NULL%0,        Marco%Mennuni%NULL%2,        Marco%Mennuni%NULL%0,        Claudia%Montabone%NULL%2,        Claudia%Montabone%NULL%0,        Umberto%Morosini%NULL%2,        Umberto%Morosini%NULL%0,        Marco%Mussa%NULL%2,        Marco%Mussa%NULL%0,        Ilaria%Nerici%NULL%2,        Ilaria%Nerici%NULL%0,        Alessandro%Nuzzo%NULL%2,        Alessandro%Nuzzo%NULL%0,        Carlo%Olivieri%NULL%2,        Carlo%Olivieri%NULL%0,        Samuel Alberto%Padelli%NULL%2,        Samuel Alberto%Padelli%NULL%0,        Massimiliano%Panella%NULL%2,        Massimiliano%Panella%NULL%0,        Andrea%Parisini%NULL%2,        Andrea%Parisini%NULL%0,        Alessio%Paschè%NULL%2,        Alessio%Paschè%NULL%0,        Filippo%Patrucco%NULL%2,        Filippo%Patrucco%NULL%0,        Giuseppe%Patti%NULL%2,        Giuseppe%Patti%NULL%0,        Alberto%Pau%NULL%2,        Alberto%Pau%NULL%0,        Anita Rebecca%Pedrinelli%NULL%2,        Anita Rebecca%Pedrinelli%NULL%0,        Ilaria%Percivale%NULL%2,        Ilaria%Percivale%NULL%0,        Luca%Ragazzoni%NULL%2,        Luca%Ragazzoni%NULL%0,        Roberta%Re%NULL%2,        Roberta%Re%NULL%0,        Cristina%Rigamonti%NULL%2,        Cristina%Rigamonti%NULL%0,        Eleonora%Rizzi%NULL%2,        Eleonora%Rizzi%NULL%0,        Andrea%Rognoni%NULL%2,        Andrea%Rognoni%NULL%0,        Annalisa%Roveta%NULL%2,        Annalisa%Roveta%NULL%0,        Luigia%Salamina%NULL%2,        Luigia%Salamina%NULL%0,        Matteo%Santagostino%NULL%2,        Matteo%Santagostino%NULL%0,        Massimo%Saraceno%NULL%2,        Massimo%Saraceno%NULL%0,        Paola%Savoia%NULL%2,        Paola%Savoia%NULL%0,        Marco%Sciarra%NULL%2,        Marco%Sciarra%NULL%0,        Andrea%Schimmenti%NULL%2,        Andrea%Schimmenti%NULL%0,        Lorenza%Scotti%NULL%2,        Lorenza%Scotti%NULL%0,        Enrico%Spinoni%NULL%2,        Enrico%Spinoni%NULL%0,        Carlo%Smirne%NULL%2,        Carlo%Smirne%NULL%0,        Vanessa%Tarantino%NULL%2,        Vanessa%Tarantino%NULL%0,        Paolo Amedeo%Tillio%NULL%2,        Paolo Amedeo%Tillio%NULL%0,        Stelvio%Tonello%NULL%2,        Stelvio%Tonello%NULL%0,        Rosanna%Vaschetto%NULL%2,        Rosanna%Vaschetto%NULL%0,        Veronica%Vassia%NULL%2,        Veronica%Vassia%NULL%0,        Domenico%Zagaria%NULL%2,        Domenico%Zagaria%NULL%0,        Elisa%Zavattaro%NULL%2,        Elisa%Zavattaro%NULL%0,        Patrizia%Zeppegno%NULL%2,        Patrizia%Zeppegno%NULL%0,        Francesca%Zottarelli%NULL%2,        Francesca%Zottarelli%NULL%0,        Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,        Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,        Marta%Ottone%NULL%2,        Marta%Ottone%NULL%0,        Tommaso%Fasano%NULL%1,        Pierpaolo%Pattacini%NULL%1,        Valentina%Iotti%NULL%1,        Lucia%Spaggiari%NULL%1,        Riccardo%Bonacini%NULL%1,        Andrea%Nitrosi%NULL%1,        Efrem%Bonelli%NULL%1,        Simone%Canovi%NULL%1,        Rossana%Colla%NULL%1,        Alessandro%Zerbini%NULL%1,        Marco%Massari%NULL%1,        Ivana%Lattuada%NULL%1,        Anna Maria%Ferrari%NULL%1,        Paolo%Giorgi Rossi%NULL%1,        Massimo%Costantini%NULL%1,        Roberto%Grilli%NULL%1,        Massimiliano%Marino%NULL%1,        Giulio%Formoso%NULL%1,        Debora%Formisano%NULL%1,        Emanuela%Bedeschi%NULL%1,        Cinzia%Perilli%NULL%1,        Elisabetta%La Rosa%NULL%1,        Eufemia%Bisaccia%NULL%1,        Ivano%Venturi%NULL%1,        Massimo%Vicentini%NULL%1,        Cinzia%Campari%NULL%1,        Francesco%Gioia%NULL%1,        Serena%Broccoli%NULL%1,        Pamela%Mancuso%NULL%1,        Marco%Foracchia%NULL%1,        Mirco%Pinotti%NULL%1,        Nicola%Facciolongo%NULL%1,        Laura%Trabucco%NULL%1,        Stefano%De Pietri%NULL%1,        Giorgio Francesco%Danelli%NULL%1,        Laura%Albertazzi%NULL%1,        Enrica%Bellesia%NULL%1,        Mattia%Corradini%NULL%1,        Elena%Magnani%NULL%1,        Annalisa%Pilia%NULL%1,        Alessandra%Polese%NULL%1,        Silvia Storchi%Incerti%NULL%1,        Piera%Zaldini%NULL%1,        Bonanno%Orsola%NULL%1,        Matteo%Revelli%NULL%1,        Carlo%Salvarani%NULL%1,        Carmine%Pinto%NULL%1,        Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,        Hong-Qiu%Gu%NULL%1,        Yi%Liu (刘艺)%NULL%1,        Guqin%Zhang%NULL%1,        Hang%Yang%NULL%1,        Huifang%Hu%NULL%1,        Chenyang%Lu%NULL%1,        Yang%Li%NULL%3,        Liyi%Wang%NULL%1,        Yi%Liu (刘毅)%yi2006liu@163.com%1,        Yi%Zhao%zhao.y1977@163.com%1,        Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,        Tawsifur%Rahman%NULL%2,        Tawsifur%Rahman%NULL%0,        Amith%Khandakar%NULL%3,        Somaya%Al-Madeed%NULL%2,        Susu M.%Zughaier%NULL%5,        Suhail A. R.%Doi%NULL%3,        Hanadi%Hassen%NULL%1,        Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,        Jia%Sun%NULL%1,        Yi-Xin%Li%NULL%1,        Qian%Chen%NULL%0,        Qing-Quan%Liu%NULL%1,        Zhou%Sun%NULL%1,        Ran%Pang%NULL%1,        Fei%Chen%NULL%1,        Bing-Yang%Xu%NULL%1,        Anne%Manyande%NULL%1,        Taane G%Clark%NULL%1,        Jin-Ping%Li%NULL%1,        Ilkay Erdogan%Orhan%NULL%1,        Yu-Ke%Tian%NULL%1,        Tao%Wang%wt7636@126.com%0,        Wei%Wu%wt7636@126.com%1,        Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>"Development and Validation of the COVID-NoLab and COVID-SimpleLab Risk Scores for Prognosis in 6 US Health Systems"</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1, Xinyan%Cai%xref no email%1, Robert%Lennon%xref no email%1, Derjung M.%Tarn%xref no email%1, Arch G.%Mainous%xref no email%1, Aleksandra E.%Zgierska%xref no email%1, Bruce%Barrett%xref no email%1, Wen-Jan%Tuan%xref no email%1, Kevin%Maloy%xref no email%1, Munish%Goyal%xref no email%1, Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-04-13</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,     Imam%Z%coreGivesNoEmail%1,     Lippi%G%coreGivesNoEmail%1,     Oran%DP%coreGivesNoEmail%1,     Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,        Caiping%Song%NULL%1,        En%Liu%NULL%1,        Xi%Liu%NULL%1,        Hao%Wu%NULL%1,        Hui%Lin%NULL%1,        Yuliang%Liu%NULL%1,        Qi%Li%NULL%1,        Zhi%Xu%NULL%1,        XiaoBao%Ren%NULL%1,        Cheng%Zhang%NULL%1,        Wenjing%Zhang%NULL%1,        Wei%Duan%NULL%2,        Yongfeng%Tian%NULL%1,        Ping%Li%NULL%1,        Mingdong%Hu%NULL%1,        Shiming%Yang%NULL%1,        Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,        Changli%Li%NULL%1,        Li%Zheng%NULL%1,        Wenzhi%Lv%NULL%0,        Zhigang%He%NULL%1,        Xinwu%Cui%NULL%1,        Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Radiomics analysis enables fatal outcome prediction for hospitalized patients with coronavirus disease 2019 (COVID-19)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Background In December 2019, a rare respiratory disease named coronavirus disease 2019 (COVID-19) broke out, leading to great concern around the world.
+ Purpose To develop and validate a radiomics nomogram for predicting the fatal outcome of COVID-19 pneumonia.
+ Material and Methods The present study consisted of a training dataset (n\u2009=\u200966) and a validation dataset (n\u2009=\u200930) with COVID-19 from January 2020 to March 2020. A radiomics signature was generated using the least absolute shrinkage and selection operator (LASSO) Cox regression model.
+ A radiomics score (Rad-score) was developed from the training cohort.
+ The radiomics model, clinical model, and integrated model were built to assess the association between radiomics signature\/clinical characteristics and the mortality of COVID-19 cases.
+ The radiomics signature combined with the Rad-score and the independent clinical factors and radiomics nomogram were constructed.
+ Results Seven stable radiomics features associated with the mortality of COVID-19 were finally selected.
+ A radiomics nomogram was based on a combined model consisting of the radiomics signature and the clinical risk factors indicating optimal predictive performance for the fatal outcome of patients with COVID-19 with a C-index of 0.912 (95% confidence interval [CI] 0.867\u20130.957) in the training dataset and 0.907 (95% CI 0.849\u20130.966) in the validation dataset.
+ The calibration curves indicated optimal consistency between the prediction and the observation in both training and validation cohorts.
+ Conclusion The CT-based radiomics nomogram indicated favorable predictive efficacy for the overall survival risk of patients with COVID-19, which could help clinicians intensively follow up high-risk patients and make timely diagnoses.
+ </t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1, Liang%Li%xref no email%1, Li%Wang%xref no email%1, Huan%Liu%xref no email%2, Xuefang%Lu%xref no email%1, Feifei%Zeng%xref no email%1, Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-09-28</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,        Hayne Cho%Park%NULL%2,        Hayne Cho%Park%NULL%0,        Ajin%Cho%NULL%1,        Juhee%Kim%NULL%1,        Kyu-sang%Yun%NULL%1,        Jinseog%Kim%NULL%1,        Young-Ki%Lee%NULL%1,        Sinan%Kardes.%NULL%2,        Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Determinants of mortality of patients with COVID-19 in Wuhan, China: a case-control study"</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1, Luyu%Yang%xref no email%1, Qian%Zeng%xref no email%1, Qingyun%Li%xref no email%1, Zhitao%Yang%xref no email%1, Lizhong%Han%xref no email%1, Xiaodong%Huang%xref no email%1, Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-11-24</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,        Xiaoyu%Fang%NULL%1,        Lixia%Cheng%NULL%1,        Penghao%Wang%NULL%1,        Shen%Li%NULL%1,        Hao%Yu%NULL%1,        Yao%Zhang%NULL%2,        Nan%Jiang%NULL%1,        Tingting%Zeng%NULL%1,        Chao%Hou%NULL%1,        Jing%Zhou%NULL%0,        Shiru%Li%NULL%1,        Yingzi%Pan%NULL%1,        Yitong%Li%NULL%1,        Lili%Nie%NULL%1,        Yang%Li%NULL%0,        Qidi%Sun%NULL%1,        Hong%Jia%NULL%1,        Mengxia%Li%NULL%1,        Guoqiang%Cao%NULL%1,        Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,        Lucas A%Ramos%NULL%2,        Lucas A%Ramos%NULL%0,        Wouter%Potters%NULL%1,        Marcus L F%Janssen%NULL%1,        Deborah%Hubers%NULL%1,        Shi%Hu%NULL%1,        Egill A%Fridgeirsson%NULL%1,        Dan%Piña-Fuentes%NULL%1,        Rajat%Thomas%NULL%1,        Iwan C C%van der Horst%NULL%1,        Christian%Herff%NULL%2,        Christian%Herff%NULL%0,        Pieter%Kubben%NULL%1,        Paul W G%Elbers%NULL%1,        Henk A%Marquering%NULL%1,        Max%Welling%NULL%1,        Suat%Simsek%NULL%1,        Martijn D%de Kruif%NULL%1,        Tom%Dormans%NULL%1,        Lucas M%Fleuren%NULL%1,        Michiel%Schinkel%NULL%1,        Peter G%Noordzij%NULL%1,        Joop P%van den Bergh%NULL%2,        Joop P%van den Bergh%NULL%0,        Caroline E%Wyers%NULL%1,        David T B%Buis%NULL%2,        David T B%Buis%NULL%0,        W Joost%Wiersinga%NULL%1,        Ella H C%van den Hout%NULL%1,        Auke C%Reidinga%NULL%1,        Daisy%Rusch%NULL%1,        Kim C E%Sigaloff%NULL%1,        Renee A%Douma%NULL%1,        Lianne%de Haan%NULL%1,        Niels C%Gritters van den Oever%NULL%1,        Roger J M W%Rennenberg%NULL%1,        Guido A%van Wingen%NULL%1,        Marcel J H%Aries%NULL%1,        Martijn%Beudel%NULL%2,        Martijn%Beudel%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,        Fajer A.%Al-Ishaq%NULL%2,        Fajer A.%Al-Ishaq%NULL%0,        Fatima S.%Al-Mohannadi%NULL%1,        Reem S.%Mubarak%NULL%1,        Maryam H.%Al-Hitmi%NULL%1,        Khandaker Reajul%Islam%NULL%1,        Amith%Khandakar%NULL%0,        Ali Ait%Hssain%NULL%3,        Ali Ait%Hssain%NULL%0,        Somaya%Al-Madeed%NULL%0,        Susu M.%Zughaier%NULL%0,        Susu M.%Zughaier%NULL%0,        Muhammad E. H.%Chowdhury%NULL%3,        Muhammad E. H.%Chowdhury%NULL%0,        Antonella%Santone%NULL%3,        Antonella%Santone%NULL%0,        Antonella%Santone%NULL%0,        Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,        Amith%Khandakar%NULL%0,        Md Enamul%Hoque%NULL%2,        Md Enamul%Hoque%NULL%0,        Nabil%Ibtehaz%NULL%2,        Nabil%Ibtehaz%NULL%0,        Saad Bin%Kashem%NULL%2,        Saad Bin%Kashem%NULL%0,        Reehum%Masud%NULL%1,        Lutfunnahar%Shampa%NULL%1,        Mohammad Mehedi%Hasan%NULL%1,        Mohammad Tariqul%Islam%NULL%1,        Somaya%Al-Maadeed%NULL%2,        Somaya%Al-Maadeed%NULL%0,        Susu M.%Zughaier%NULL%0,        Susu M.%Zughaier%NULL%0,        Saif%Badran%NULL%2,        Saif%Badran%NULL%0,        Suhail A. R.%Doi%NULL%0,        Suhail A. R.%Doi%NULL%0,        Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,        Pablo%Rodríguez-Belenguer%NULL%2,        Pablo%Rodríguez-Belenguer%NULL%0,        Antonio J.%Serrano-López%NULL%1,        Emilio%Soria-Olivas%NULL%2,        Emilio%Soria-Olivas%NULL%0,        Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,        Haibo%Ai%NULL%1,        Yunong%Fu%NULL%1,        Qinglin%Li%NULL%1,        Ruixia%Cui%NULL%1,        Xiaohua%Ma%NULL%1,        Yan-fen%Ma%NULL%1,        Zi%Wang%NULL%1,        Tong%Liu%NULL%1,        Yunxiang%Long%NULL%1,        Kai%Qu%NULL%1,        Chang%Liu%NULL%1,        Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Radiomics analysis of chest CT to predict the overall survival for the severe patients of COVID-19 pneumonia"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Abstract\n               Personalized assessment and treatment of severe patients with COVID-19 pneumonia have greatly affected the prognosis and survival of these patients.
+ This study aimed to develop the radiomics models as the potential biomarkers to estimate the overall survival (OS) for the COVID-19 severe patients.
+ A total of 74 COVID-19 severe patients were enrolled in this study, and 30 of them died during the follow-up period.
+ First, the clinical risk factors of the patients were analyzed.
+ Then, two radiomics signatures were constructed based on two segmented volumes of interest of whole lung area and lesion area.
+ Two combination models were built depend on whether the clinic risk factors were used and\/or whether two radiomics signatures were combined.
+ Kaplan\u2013Meier analysis were performed for validating two radiomics signatures and C-index was used to evaluated the predictive performance of all radiomics signatures and combination models.
+ Finally, a radiomics nomogram combining radiomics signatures with clinical risk factors was developed for predicting personalized OS, and then assessed with respect to the calibration curve.
+ Three clinical risk factors were found, included age, malignancy and highest temperature that influence OS.
+ Both two radiomics signatures could effectively stratify the risk of OS in COVID-19 severe patients.
+ The predictive performance of the combination model with two radiomics signatures was better than that only one radiomics signature was used, and became better when three clinical risk factors were interpolated.
+ Calibration curves showed good agreement in both 15 d survival and 30 d survival between the estimation with the constructed nomogram and actual observation.
+ Both two constructed radiomics signatures can act as the potential biomarkers for risk stratification of OS in COVID-19 severe patients.
+ The radiomics+clinical nomogram generated might serve as a potential tool to guide personalized treatment and care for these patients.
+</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1, Rongqing%Sun%xref no email%1, Wenbo%Sun%xref no email%1, Dan%Xu%xref no email%1, Lan%Lan%xref no email%0, Huan%Li%xref no email%1, Huan%Liu%xref no email%0, Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,        Dawei%Zhang%NULL%1,        Jing%Xu%NULL%6,        Zhu%Chen%NULL%1,        Tieniu%Yang%NULL%1,        Peng%Zhao%NULL%2,        Guofeng%Chen%NULL%1,        Gregory%Cheng%NULL%1,        Yudong%Wang%NULL%1,        Jingfeng%Bi%NULL%1,        Lin%Tan%NULL%1,        George%Lau%NULL%1,        Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,        Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,        Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,        Giulia%Suigo%NULL%1,        Davide%Zampini%NULL%1,        Matteo%Pistoia%NULL%1,        Mariella%Ciola%NULL%1,        Tommaso%Ciampani%NULL%1,        Carolina%Ultori%NULL%1,        Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,        John R%Adler%NULL%3,        Sultan M%Kamran%NULL%2,        Sultan M%Kamran%NULL%0,        Zill-e-Humayun%Mirza%NULL%1,        Hussain Abdul%Moeed%NULL%1,        Arshad%Naseem%NULL%1,        Maryam%Hussain%NULL%1,        Imran%Fazal%NULL%1,        Farrukh%Saeed%NULL%1,        Wasim%Alamgir%NULL%1,        Salman%Saleem%NULL%1,        Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Clinical predictors of COVID\u201019 disease progression and death: Analysis of 214 hospitalised patients from Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1, Zilong%Liu%xref no email%1, Weipeng%Jiang%xref no email%1, Jian%Wang%xref no email%4, Mengchan%Zhu%xref no email%1, Juan%Song%xref no email%0, Xiaoyue%Wang%xref no email%1, Ying%Su%xref no email%1, Guiling%Xiang%xref no email%1, Maosong%Ye%xref no email%1, Jiamin%Li%xref no email%1, Yong%Zhang%xref no email%1, Qinjun%Shen%xref no email%1, Zhuozhe%Li%xref no email%1, Danwei%Yao%xref no email%1, Yuanlin%Song%xref no email%0, Kaihuan%Yu%xref no email%1, Zhe%Luo%xref no email%1, Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-07</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,        María M.%Martín%NULL%1,        Mónica%Argueso%NULL%1,        Jordi%Solé-Violán%NULL%1,        Alina%Perez%NULL%1,        José Alberto%Marcos Y Ramos%NULL%1,        Luis%Ramos-Gómez%NULL%1,        Sergio%López%NULL%1,        Andrés%Franco%NULL%1,        Agustín F.%González-Rivero%NULL%1,        María%Martín%NULL%1,        Verónica%Gonzalez%NULL%1,        Julia%Alcoba-Flórez%NULL%1,        Miguel Ángel%Rodriguez%NULL%1,        Marta%Riaño-Ruiz%NULL%1,        Juan%Guillermo O Campo%NULL%1,        Lourdes%González%NULL%1,        Tamara%Cantera%NULL%1,        Raquel%Ortiz-López%NULL%1,        Nazario%Ojeda%NULL%1,        Aurelio%Rodríguez-Pérez%NULL%1,        Casimira%Domínguez%NULL%1,        Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,        Rita%Kukafka%NULL%1,        Arriel%Benis%NULL%2,        Arriel%Benis%NULL%0,        Jinfeng%Li%NULL%1,        Pan%Pan%NULL%2,        Pan%Pan%NULL%0,        Yichao%Li%NULL%2,        Yichao%Li%NULL%0,        Yongjiu%Xiao%NULL%2,        Yongjiu%Xiao%NULL%0,        Bingchao%Han%NULL%2,        Bingchao%Han%NULL%0,        Longxiang%Su%NULL%2,        Longxiang%Su%NULL%0,        Mingliang%Su%NULL%2,        Mingliang%Su%NULL%0,        Yansheng%Li%NULL%2,        Yansheng%Li%NULL%0,        Siqi%Zhang%NULL%2,        Siqi%Zhang%NULL%0,        Dapeng%Jiang%NULL%2,        Dapeng%Jiang%NULL%0,        Xia%Chen%NULL%2,        Xia%Chen%NULL%0,        Fuquan%Zhou%NULL%2,        Fuquan%Zhou%NULL%0,        Ling%Ma%NULL%2,        Ling%Ma%NULL%0,        Pengtao%Bao%NULL%2,        Pengtao%Bao%NULL%0,        Lixin%Xie%xielx301@126.com%2,        Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,        Cristina%Roca-Oporto%NULL%2,        Guillermo%Martín-Gutiérrez%NULL%2,        María Dolores%Avilés%NULL%2,        Carmen%Gómez-González%NULL%2,        María Dolores%Navarro-Amuedo%NULL%2,        Julia%Praena-Segovia%NULL%2,        José%Molina%NULL%2,        María%Paniagua-García%NULL%2,        Horacio%García-Delgado%NULL%2,        Antonio%Domínguez-Petit%NULL%2,        Jerónimo%Pachón%NULL%2,        José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,        Barry R.%Meisenberg%NULL%2,        Barry R.%Meisenberg%NULL%0,        James H.%MacDonald%NULL%1,        Nandakumar%Menon%NULL%1,        Marcia B.%Fowler%NULL%1,        Michaline%West%NULL%1,        Jane%Rhule%NULL%1,        Sadaf S.%Qureshi%NULL%1,        Eileen B.%MacDonald%NULL%1,        Yu Ru%Kou%NULL%2,        Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,        Sarah%Poole%NULL%2,        Sarah%Poole%NULL%0,        Meeta%Pradhan%NULL%1,        Akhil%Vaid%NULL%3,        Akhil%Vaid%NULL%0,        Sulaiman%Somani%NULL%3,        Sulaiman%Somani%NULL%0,        Adam J%Russak%NULL%2,        Adam J%Russak%NULL%0,        Jessica K%De Freitas%NULL%2,        Jessica K%De Freitas%NULL%0,        Fayzan F%Chaudhry%NULL%2,        Fayzan F%Chaudhry%NULL%0,        Ishan%Paranjpe%NULL%3,        Ishan%Paranjpe%NULL%0,        Kipp W%Johnson%NULL%2,        Kipp W%Johnson%NULL%0,        Samuel J%Lee%NULL%2,        Samuel J%Lee%NULL%0,        Riccardo%Miotto%NULL%2,        Riccardo%Miotto%NULL%0,        Felix%Richter%NULL%3,        Felix%Richter%NULL%0,        Shan%Zhao%NULL%3,        Shan%Zhao%NULL%0,        Noam D%Beckmann%NULL%2,        Noam D%Beckmann%NULL%0,        Nidhi%Naik%NULL%2,        Nidhi%Naik%NULL%0,        Arash%Kia%NULL%2,        Arash%Kia%NULL%0,        Prem%Timsina%NULL%2,        Prem%Timsina%NULL%0,        Anuradha%Lala%NULL%2,        Anuradha%Lala%NULL%0,        Manish%Paranjpe%NULL%2,        Manish%Paranjpe%NULL%0,        Eddye%Golden%NULL%2,        Eddye%Golden%NULL%0,        Matteo%Danieletto%NULL%2,        Matteo%Danieletto%NULL%0,        Manbir%Singh%NULL%2,        Manbir%Singh%NULL%0,        Dara%Meyer%NULL%2,        Dara%Meyer%NULL%0,        Paul F%O'Reilly%NULL%2,        Paul F%O'Reilly%NULL%0,        Laura%Huckins%NULL%2,        Laura%Huckins%NULL%0,        Patricia%Kovatch%NULL%3,        Patricia%Kovatch%NULL%0,        Joseph%Finkelstein%NULL%2,        Joseph%Finkelstein%NULL%0,        Robert M.%Freeman%NULL%2,        Robert M.%Freeman%NULL%0,        Edgar%Argulian%NULL%2,        Edgar%Argulian%NULL%0,        Andrew%Kasarskis%NULL%2,        Andrew%Kasarskis%NULL%0,        Bethany%Percha%NULL%2,        Bethany%Percha%NULL%0,        Judith A%Aberg%NULL%2,        Judith A%Aberg%NULL%0,        Emilia%Bagiella%NULL%3,        Emilia%Bagiella%NULL%0,        Carol R%Horowitz%NULL%2,        Carol R%Horowitz%NULL%0,        Barbara%Murphy%NULL%2,        Barbara%Murphy%NULL%0,        Eric J%Nestler%NULL%2,        Eric J%Nestler%NULL%0,        Eric E%Schadt%NULL%2,        Eric E%Schadt%NULL%0,        Judy H%Cho%NULL%2,        Judy H%Cho%NULL%0,        Carlos%Cordon-Cardo%NULL%3,        Carlos%Cordon-Cardo%NULL%0,        Valentin%Fuster%NULL%3,        Valentin%Fuster%NULL%0,        Dennis S%Charney%NULL%2,        Dennis S%Charney%NULL%0,        David L%Reich%NULL%2,        David L%Reich%NULL%0,        Erwin P%Bottinger%NULL%2,        Erwin P%Bottinger%NULL%0,        Matthew A%Levin%NULL%2,        Matthew A%Levin%NULL%0,        Jagat%Narula%NULL%3,        Jagat%Narula%NULL%0,        Zahi A%Fayad%NULL%2,        Zahi A%Fayad%NULL%0,        Allan C%Just%NULL%2,        Allan C%Just%NULL%0,        Alexander W%Charney%NULL%2,        Alexander W%Charney%NULL%0,        Girish N%Nadkarni%NULL%2,        Girish N%Nadkarni%NULL%0,        Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,        Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,        Anne%Chen%NULL%2,        Wei%Hou%NULL%3,        James M.%Graham%NULL%1,        Haifang%Li%NULL%2,        Paul S.%Richman%NULL%1,        Henry C.%Thode%NULL%1,        Adam J.%Singer%NULL%1,        Tim Q.%Duong%NULL%1,        Muhammad%Adrish%NULL%9,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,        Qin%Liu%NULL%2,        Xiao%Zhang%NULL%2,        Shuyi%Liu%NULL%1,        Weiqi%Chen%NULL%1,        Jingjing%You%NULL%1,        Qiuying%Chen%NULL%1,        Minmin%Li%NULL%1,        Zhuozhi%Chen%NULL%1,        Luyan%Chen%NULL%1,        Lv%Chen%NULL%1,        Yuhao%Dong%NULL%1,        Qingsi%Zeng%NULL%1,        Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,        Lei%Nie%NULL%1,        Dongde%Wu%NULL%1,        Jian%Chen%NULL%2,        Zhifeng%Yang%NULL%1,        Ling%Zhang%NULL%3,        Dongqing%Li%NULL%1,        Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Risk Factor Analysis and Nomogram Construction for Non-Survivors among Critical Patients with COVID-19"</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1, Feiyang%Zhong%xref no email%1, Hanfei%Zhang%xref no email%1, Wenting%An%xref no email%1, Meiyan%Liao%xref no email%1, Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,        Burcin%Hakoglu%NULL%2,        Burcin%Hakoglu%NULL%0,        Ali%Kadri Cirak%NULL%1,        Gulru%Polat%NULL%1,        Berna%Komurcuoglu%NULL%1,        Berrin%Akkol%NULL%1,        Cagri%Atasoy%NULL%1,        Eda%Bayramic%NULL%1,        Gunseli%Balci%NULL%1,        Sena%Ataman%NULL%1,        Sinem%Ermin%NULL%1,        Enver%Yalniz%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Clinical features predicting mortality risk in older patients with COVID-19"</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1, Lili%Huang%xref no email%1, Jin%Chen%xref no email%1, Xiaowei%Yuan%xref no email%1, Qinhua%Shen%xref no email%1, Su%Dong%xref no email%1, Bei%Cheng%xref no email%1, Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-17</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,        Qiaosen%Chen%NULL%2,        Qiaosen%Chen%NULL%0,        Sumeng%Li%NULL%1,        Huadong%Li%NULL%1,        Qian%Zhang%NULL%1,        Sihong%Lu%NULL%1,        Li%Wu%NULL%1,        Leiqun%Xiong%NULL%1,        Bobin%Mi%NULL%1,        Di%Liu%NULL%3,        Mengji%Lu%NULL%1,        Dongliang%Yang%NULL%1,        Hongbo%Jiang%hongbojiang3@163.com%1,        Shaoping%Zheng%zhengspxx@126.com%1,        Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%2,        Hua%Zhang%NULL%2,        Rui%Qiao%NULL%1,        Qinggang%Ge%NULL%1,        Shuisheng%Zhang%NULL%1,        Zongxuan%Zhao%NULL%1,        Ci%Tian%NULL%1,        Qingbian%Ma%NULL%2,        Qingbian%Ma%NULL%0,        Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,        Antonia%Ho%NULL%2,        Riinu%Pius%NULL%2,        Iain%Buchan%NULL%1,        Gail%Carson%NULL%2,        Thomas M%Drake%NULL%1,        Jake%Dunning%NULL%2,        Cameron J%Fairfield%NULL%2,        Carrol%Gamble%NULL%2,        Christopher A%Green%NULL%2,        Rishi%Gupta%NULL%1,        Sophie%Halpin%NULL%2,        Hayley E%Hardwick%NULL%1,        Karl A%Holden%NULL%1,        Peter W%Horby%NULL%2,        Clare%Jackson%NULL%2,        Kenneth A%Mclean%NULL%2,        Laura%Merson%NULL%2,        Jonathan S%Nguyen-Van-Tam%NULL%1,        Lisa%Norman%NULL%2,        Mahdad%Noursadeghi%NULL%2,        Piero L%Olliaro%NULL%1,        Mark G%Pritchard%NULL%1,        Clark D%Russell%NULL%2,        Catherine A%Shaw%NULL%2,        Aziz%Sheikh%NULL%2,        Tom%Solomon%NULL%2,        Cathie%Sudlow%NULL%1,        Olivia V%Swann%NULL%1,        Lance CW%Turtle%NULL%2,        Peter JM%Openshaw%NULL%2,        J Kenneth%Baillie%NULL%2,        Malcolm G%Semple%NULL%3,        Annemarie B%Docherty%NULL%3,        Annemarie B%Docherty%NULL%0,        Ewen M%Harrison%NULL%3,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        J Kenneth%Baillie%NULL%0,        Malcolm G%Semple%NULL%0,        Peter JM%Openshaw%NULL%0,        Gail%Carson%NULL%0,        Beatrice%Alex%NULL%1,        Benjamin%Bach%NULL%1,        Wendy S%Barclay%NULL%1,        Debby%Bogaert%NULL%1,        Meera%Chand%NULL%1,        Graham S%Cooke%NULL%1,        Annemarie B%Docherty%NULL%0,        Jake%Dunning%NULL%0,        Ana%da Silva Filipe%NULL%1,        Tom%Fletcher%NULL%1,        Christopher A%Green%NULL%0,        Ewen M%Harrison%NULL%0,        Julian A%Hiscox%NULL%1,        Antonia Ying Wai%Ho%NULL%1,        Peter W%Horby%NULL%0,        Samreen%Ijaz%NULL%1,        Saye%Khoo%NULL%1,        Paul%Klenerman%NULL%1,        Andrew%Law%NULL%2,        Wei Shen%Lim%NULL%1,        Alexander J%Mentzer%NULL%1,        Laura%Merson%NULL%0,        Alison M%Meynert%NULL%1,        Mahdad%Noursadeghi%NULL%0,        Shona C%Moore%NULL%2,        Massimo%Palmarini%NULL%1,        William A%Paxton%NULL%1,        Georgios%Pollakis%NULL%1,        Nicholas%Price%NULL%1,        Andrew%Rambaut%NULL%1,        David L%Robertson%NULL%1,        Clark D%Russell%NULL%0,        Vanessa%Sancho-Shimizu%NULL%1,        Janet T%Scott%NULL%1,        Louise%Sigfrid%NULL%1,        Tom%Solomon%NULL%0,        Shiranee%Sriskandan%NULL%1,        David%Stuart%NULL%1,        Charlotte%Summers%NULL%1,        Richard S%Tedder%NULL%1,        Emma C%Thomson%NULL%1,        Ryan S%Thwaites%NULL%1,        Lance CW%Turtle%NULL%0,        Maria%Zambon%NULL%1,        Hayley%Hardwick%NULL%1,        Chloe%Donohue%NULL%1,        Jane%Ewins%NULL%1,        Wilna%Oosthuyzen%NULL%1,        Fiona%Griffiths%NULL%1,        Lisa%Norman%NULL%0,        Riinu%Pius%NULL%0,        Tom M%Drake%NULL%1,        Cameron J%Fairfield%NULL%0,        Stephen%Knight%NULL%1,        Kenneth A%Mclean%NULL%0,        Derek%Murphy%NULL%1,        Catherine A%Shaw%NULL%0,        Jo%Dalton%NULL%1,        Michelle%Girvan%NULL%1,        Egle%Saviciute%NULL%1,        Stephanie%Roberts%NULL%1,        Janet%Harrison%NULL%1,        Laura%Marsh%NULL%1,        Marie%Connor%NULL%1,        Sophie%Halpin%NULL%0,        Clare%Jackson%NULL%0,        Carrol%Gamble%NULL%0,        Gary%Leeming%NULL%1,        Andrew%Law%NULL%0,        Ross%Hendry%NULL%1,        James%Scott-Brown%NULL%1,        William%Greenhalf%NULL%1,        Victoria%Shaw%NULL%1,        Sarah%McDonald%NULL%2,        Katie A%Ahmed%NULL%1,        Jane A%Armstrong%NULL%1,        Milton%Ashworth%NULL%1,        Innocent G%Asiimwe%NULL%1,        Siddharth%Bakshi%NULL%1,        Samantha L%Barlow%NULL%1,        Laura%Booth%NULL%1,        Benjamin%Brennan%NULL%1,        Katie%Bullock%NULL%1,        Benjamin WA%Catterall%NULL%1,        Jordan J%Clark%NULL%1,        Emily A%Clarke%NULL%1,        Sarah%Cole%NULL%1,        Louise%Cooper%NULL%1,        Helen%Cox%NULL%1,        Christopher%Davis%NULL%1,        Oslem%Dincarslan%NULL%1,        Chris%Dunn%NULL%1,        Philip%Dyer%NULL%1,        Angela%Elliott%NULL%1,        Anthony%Evans%NULL%1,        Lewis WS%Fisher%NULL%1,        Terry%Foster%NULL%1,        Isabel%Garcia-Dorival%NULL%1,        Willliam%Greenhalf%NULL%1,        Philip%Gunning%NULL%1,        Catherine%Hartley%NULL%1,        Antonia%Ho%NULL%0,        Rebecca L%Jensen%NULL%1,        Christopher B%Jones%NULL%1,        Trevor R%Jones%NULL%1,        Shadia%Khandaker%NULL%1,        Katharine%King%NULL%1,        Robyn T%Kiy%NULL%1,        Chrysa%Koukorava%NULL%1,        Annette%Lake%NULL%1,        Suzannah%Lant%NULL%1,        Diane%Latawiec%NULL%1,        L%Lavelle-Langham%NULL%1,        Daniella%Lefteri%NULL%1,        Lauren%Lett%NULL%1,        Lucia A%Livoti%NULL%1,        Maria%Mancini%NULL%1,        Sarah%McDonald%NULL%0,        Laurence%McEvoy%NULL%1,        John%McLauchlan%NULL%1,        Soeren%Metelmann%NULL%1,        Nahida S%Miah%NULL%1,        Joanna%Middleton%NULL%1,        Joyce%Mitchell%NULL%1,        Shona C%Moore%NULL%0,        Ellen G%Murphy%NULL%1,        Rebekah%Penrice-Randal%NULL%1,        Jack%Pilgrim%NULL%1,        Tessa%Prince%NULL%1,        Will%Reynolds%NULL%1,        P Matthew%Ridley%NULL%1,        Debby%Sales%NULL%1,        Victoria E%Shaw%NULL%1,        Rebecca K%Shears%NULL%1,        Benjamin%Small%NULL%1,        Krishanthi S%Subramaniam%NULL%1,        Agnieska%Szemiel%NULL%1,        Aislynn%Taggart%NULL%1,        Jolanta%Tanianis-Hughes%NULL%1,        Jordan%Thomas%NULL%1,        Erwan%Trochu%NULL%1,        Libby%van Tonder%NULL%1,        Eve%Wilcock%NULL%1,        J Eunice%Zhang%NULL%1,        Kayode%Adeniji%NULL%1,        Daniel%Agranoff%NULL%1,        Ken%Agwuh%NULL%1,        Dhiraj%Ail%NULL%1,        Ana%Alegria%NULL%1,        Brian%Angus%NULL%1,        Abdul%Ashish%NULL%1,        Dougal%Atkinson%NULL%1,        Shahedal%Bari%NULL%1,        Gavin%Barlow%NULL%1,        Stella%Barnass%NULL%1,        Nicholas%Barrett%NULL%2,        Christopher%Bassford%NULL%1,        David%Baxter%NULL%1,        Michael%Beadsworth%NULL%1,        Jolanta%Bernatoniene%NULL%1,        John%Berridge%NULL%1,        Nicola%Best%NULL%1,        Pieter%Bothma%NULL%1,        David%Brealey%NULL%1,        Robin%Brittain-Long%NULL%1,        Naomi%Bulteel%NULL%1,        Tom%Burden%NULL%1,        Andrew%Burtenshaw%NULL%1,        Vikki%Caruth%NULL%1,        David%Chadwick%NULL%1,        Duncan%Chambler%NULL%1,        Nigel%Chee%NULL%1,        Jenny%Child%NULL%1,        Srikanth%Chukkambotla%NULL%1,        Tom%Clark%NULL%1,        Paul%Collini%NULL%1,        Catherine%Cosgrove%NULL%1,        Jason%Cupitt%NULL%1,        Maria-Teresa%Cutino-Moguel%NULL%1,        Paul%Dark%NULL%1,        Chris%Dawson%NULL%1,        Samir%Dervisevic%NULL%1,        Phil%Donnison%NULL%1,        Sam%Douthwaite%NULL%1,        Ingrid%DuRand%NULL%1,        Ahilanadan%Dushianthan%NULL%1,        Tristan%Dyer%NULL%1,        Cariad%Evans%NULL%1,        Chi%Eziefula%NULL%1,        Chrisopher%Fegan%NULL%1,        Adam%Finn%NULL%1,        Duncan%Fullerton%NULL%1,        Sanjeev%Garg%NULL%2,        Sanjeev%Garg%NULL%0,        Atul%Garg%NULL%1,        Jo%Godden%NULL%1,        Arthur%Goldsmith%NULL%1,        Clive%Graham%NULL%1,        Elaine%Hardy%NULL%1,        Stuart%Hartshorn%NULL%1,        Daniel%Harvey%NULL%1,        Peter%Havalda%NULL%1,        Daniel B%Hawcutt%NULL%1,        Maria%Hobrok%NULL%1,        Luke%Hodgson%NULL%1,        Anita%Holme%NULL%1,        Anil%Hormis%NULL%1,        Michael%Jacobs%NULL%1,        Susan%Jain%NULL%1,        Paul%Jennings%NULL%1,        Agilan%Kaliappan%NULL%1,        Vidya%Kasipandian%NULL%1,        Stephen%Kegg%NULL%1,        Michael%Kelsey%NULL%1,        Jason%Kendall%NULL%1,        Caroline%Kerrison%NULL%1,        Ian%Kerslake%NULL%1,        Oliver%Koch%NULL%2,        Gouri%Koduri%NULL%1,        George%Koshy%NULL%1,        Shondipon%Laha%NULL%1,        Susan%Larkin%NULL%1,        Tamas%Leiner%NULL%1,        Patrick%Lillie%NULL%1,        James%Limb%NULL%1,        Vanessa%Linnett%NULL%1,        Jeff%Little%NULL%1,        Michael%MacMahon%NULL%1,        Emily%MacNaughton%NULL%1,        Ravish%Mankregod%NULL%1,        Huw%Masson%NULL%1,        Elijah%Matovu%NULL%1,        Katherine%McCullough%NULL%1,        Ruth%McEwen%NULL%1,        Manjula%Meda%NULL%1,        Gary%Mills%NULL%1,        Jane%Minton%NULL%1,        Mariyam%Mirfenderesky%NULL%1,        Kavya%Mohandas%NULL%1,        Quen%Mok%NULL%1,        James%Moon%NULL%1,        Elinoor%Moore%NULL%1,        Patrick%Morgan%NULL%1,        Craig%Morris%NULL%1,        Katherine%Mortimore%NULL%1,        Samuel%Moses%NULL%1,        Mbiye%Mpenge%NULL%1,        Rohinton%Mulla%NULL%1,        Michael%Murphy%NULL%1,        Megan%Nagel%NULL%1,        Thapas%Nagarajan%NULL%1,        Mark%Nelson%NULL%1,        Igor%Otahal%NULL%1,        Mark%Pais%NULL%1,        Selva%Panchatsharam%NULL%1,        Hassan%Paraiso%NULL%1,        Brij%Patel%NULL%1,        Justin%Pepperell%NULL%1,        Mark%Peters%NULL%1,        Mandeep%Phull%NULL%1,        Stefania%Pintus%NULL%1,        Jagtur Singh%Pooni%NULL%1,        Frank%Post%NULL%1,        David%Price%NULL%1,        Rachel%Prout%NULL%1,        Nikolas%Rae%NULL%1,        Henrik%Reschreiter%NULL%1,        Tim%Reynolds%NULL%1,        Neil%Richardson%NULL%1,        Mark%Roberts%NULL%1,        Devender%Roberts%NULL%1,        Alistair%Rose%NULL%1,        Guy%Rousseau%NULL%1,        Brendan%Ryan%NULL%1,        Taranprit%Saluja%NULL%1,        Aarti%Shah%NULL%1,        Prad%Shanmuga%NULL%1,        Anil%Sharma%NULL%1,        Anna%Shawcross%NULL%1,        Jeremy%Sizer%NULL%1,        Richard%Smith%NULL%1,        Catherine%Snelson%NULL%1,        Nick%Spittle%NULL%1,        Nikki%Staines%NULL%1,        Tom%Stambach%NULL%1,        Richard%Stewart%NULL%1,        Pradeep%Subudhi%NULL%1,        Tamas%Szakmany%NULL%1,        Kate%Tatham%NULL%1,        Jo%Thomas%NULL%1,        Chris%Thompson%NULL%1,        Robert%Thompson%NULL%1,        Ascanio%Tridente%NULL%1,        Darell%Tupper-Carey%NULL%1,        Mary%Twagira%NULL%1,        Andrew%Ustianowski%NULL%1,        Nick%Vallotton%NULL%1,        Lisa%Vincent-Smith%NULL%1,        Shico%Visuvanathan%NULL%1,        Alan%Vuylsteke%NULL%1,        Sam%Waddy%NULL%1,        Rachel%Wake%NULL%1,        Andrew%Walden%NULL%1,        Ingeborg%Welters%NULL%1,        Tony%Whitehouse%NULL%1,        Paul%Whittaker%NULL%1,        Ashley%Whittington%NULL%1,        Meme%Wijesinghe%NULL%1,        Martin%Williams%NULL%1,        Lawrence%Wilson%NULL%1,        Sarah%Wilson%NULL%1,        Stephen%Winchester%NULL%1,        Martin%Wiselka%NULL%1,        Adam%Wolverson%NULL%1,        Daniel G%Wooton%NULL%1,        Andrew%Workman%NULL%1,        Bryan%Yates%NULL%1,        Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,        Braulio A.%Marfil‐Garza%NULL%1,        Erick%Martínez Rodríguez%NULL%1,        José Omar%Barreto Rodríguez%NULL%1,        Alicia Estela%López Romo%NULL%1,        Paolo%Alberti Minutti%NULL%1,        Juan Vicente%Alejandre Loya%NULL%1,        Félix Emmanuel%Pérez Talavera%NULL%1,        Freddy José%Ávila Cervera%NULL%1,        Adriana%Velazquez Burciaga%NULL%1,        Oscar%Morado Aramburo%NULL%1,        Luis Alberto%Piña Olguín%NULL%1,        Adrian%Soto‐Rodríguez%NULL%1,        Andrés%Castañeda Prado%NULL%1,        Patricio%Santillán Doherty%NULL%1,        Juan%O Galindo%NULL%1,        Luis Alberto%Guízar García%NULL%1,        Daniel%Hernández Gordillo%NULL%1,        Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,        Aatish%Patel%NULL%1,        Esmita%Charani%NULL%1,        Sarah%Denny%NULL%1,        Saleh A.%Alqahtani%NULL%1,        Gary W.%Davies%NULL%1,        Nabeela%Mughal%NULL%1,        Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,        Hyunsun%Lim%NULL%1,        Dong-Wook%Kim%NULL%1,        Jung Hyun%Chang%NULL%1,        Yoon Jung%Choi%chris316@yuhs.ac%1,        Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Development and validation of a nomogram using on admission routine laboratory parameters to predict in\u2010hospital survival of patients with COVID\u201019"</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1, Rudong%Chen%xref no email%1, Hongkuan%Yang%xref no email%1, Junhong%Wang%xref no email%0, Yuyang%Hou%xref no email%1, Wei%Hu%xref no email%1, Jiasheng%Yu%xref no email%1, Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,        Wenhua%Liang%NULL%3,        Mei%Jiang%NULL%2,        Weijie%Guan%NULL%3,        Chen%Zhan%NULL%2,        Tao%Wang%NULL%0,        Chunli%Tang%NULL%3,        Ling%Sang%NULL%3,        Jiaxing%Liu%NULL%2,        Zhengyi%Ni%NULL%2,        Yu%Hu%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%5,        Chunliang%Lei%NULL%2,        Yixiang%Peng%NULL%2,        Li%Wei%NULL%5,        Yong%Liu%NULL%5,        Yahua%Hu%NULL%2,        Peng%Peng%NULL%7,        Jianming%Wang%NULL%2,        Jiyang%Liu%NULL%2,        Zhong%Chen%NULL%5,        Gang%Li%NULL%5,        Zhijian%Zheng%NULL%2,        Shaoqin%Qiu%NULL%2,        Jie%Luo%NULL%5,        Changjiang%Ye%NULL%2,        Shaoyong%Zhu%NULL%2,        Xiaoqing%Liu%NULL%2,        Linling%Cheng%NULL%2,        Feng%Ye%NULL%2,        Jinping%Zheng%NULL%2,        Nuofu%Zhang%NULL%2,        Yimin%Li%NULL%2,        Jianxing%He%NULL%2,        Shiyue%Li%lishiyue@188.com%3,        Nanshan%Zhong%NULL%4,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,        Liu%Hu%NULL%1,        Yiru%Wang%NULL%0,        Luyan%Huang%NULL%1,        Lingxi%Zhao%NULL%1,        Congcong%Zhang%NULL%1,        Xiyue%Liu%NULL%1,        Ranran%Xu%NULL%1,        Feng%Liu%NULL%0,        Jinping%Li%NULL%1,        Dawei%Ye%NULL%0,        Tao%Wang%NULL%0,        Yongman%Lv%lvyongman@126.com%0,        Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,        Carol A C%Coupland%NULL%1,        Ruth H%Keogh%NULL%1,        Karla%Diaz-Ordaz%NULL%1,        Elizabeth%Williamson%NULL%1,        Ewen M%Harrison%NULL%0,        Andrew%Hayward%NULL%1,        Harry%Hemingway%NULL%1,        Peter%Horby%NULL%1,        Nisha%Mehta%NULL%1,        Jonathan%Benger%NULL%1,        Kamlesh%Khunti%NULL%0,        David%Spiegelhalter%NULL%1,        Aziz%Sheikh%NULL%0,        Jonathan%Valabhji%NULL%0,        Ronan A%Lyons%NULL%1,        John%Robson%NULL%1,        Malcolm G%Semple%NULL%0,        Frank%Kee%NULL%1,        Peter%Johnson%NULL%1,        Susan%Jebb%NULL%1,        Tony%Williams%NULL%1,        Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,        Guang-Yao%Cai%NULL%1,        Wei%Fang%NULL%2,        Hua-Yi%Li%NULL%1,        Si-Yuan%Wang%NULL%2,        Si-Yuan%Wang%NULL%0,        Lingxi%Chen%NULL%1,        Yang%Yu%NULL%1,        Dan%Liu%NULL%0,        Sen%Xu%NULL%2,        Peng-Fei%Cui%NULL%1,        Shao-Qing%Zeng%NULL%2,        Shao-Qing%Zeng%NULL%0,        Xin-Xia%Feng%NULL%1,        Rui-Di%Yu%NULL%1,        Ya%Wang%NULL%2,        Yuan%Yuan%NULL%1,        Xiao-Fei%Jiao%NULL%1,        Jian-Hua%Chi%NULL%1,        Jia-Hao%Liu%NULL%1,        Ru-Yuan%Li%NULL%1,        Xu%Zheng%NULL%1,        Chun-Yan%Song%NULL%1,        Ning%Jin%NULL%1,        Wen-Jian%Gong%NULL%1,        Xing-Yu%Liu%NULL%1,        Lei%Huang%NULL%2,        Xun%Tian%NULL%1,        Lin%Li%NULL%1,        Hui%Xing%NULL%1,        Ding%Ma%NULL%1,        Chun-Rui%Li%NULL%1,        Fei%Ye%yeyuanbei@hotmail.com%1,        Qing-Lei%Gao%qingleigao@hotmail.com%2,        Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,        Ang%Li%NULL%1,        Mengfan%Jiao%NULL%1,        Qingmiao%Shi%NULL%1,        Xiaocai%An%NULL%1,        Yonghai%Feng%NULL%1,        Lihua%Xing%NULL%1,        Hongxia%Liang%NULL%1,        Jiajun%Chen%NULL%1,        Huiling%Li%NULL%1,        Juan%Li%NULL%0,        Zhigang%Ren%NULL%1,        Ranran%Sun%NULL%1,        Guangying%Cui%NULL%1,        Yongjian%Zhou%NULL%1,        Ming%Cheng%NULL%1,        Pengfei%Jiao%NULL%1,        Yu%Wang%NULL%2,        Jiyuan%Xing%NULL%1,        Shen%Shen%NULL%1,        Qingxian%Zhang%NULL%1,        Aiguo%Xu%NULL%1,        Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,        Michael%Ng%NULL%1,        Shuang%Xu%NULL%1,        Zhouming%Xu%NULL%1,        Hui%Qiu%NULL%1,        Yuwei%Liu%NULL%1,        Jiayou%Lyu%NULL%1,        Jiwen%You%NULL%1,        Peng%Zhao%NULL%0,        Shihao%Wang%NULL%1,        Yunfei%Tang%NULL%1,        Hao%Cui%NULL%1,        Changxiao%Yu%NULL%1,        Feng%Wang%NULL%5,        Fei%Shao%NULL%1,        Peng%Sun%NULL%1,        Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,        Huifang%Wang%NULL%1,        Junwei%Huang%NULL%1,        Yan%Geng%NULL%1,        Shuqi%Jiang%NULL%1,        Qiuping%Zhou%NULL%1,        Xuan%Chen%NULL%1,        Hongping%Hu%NULL%1,        Weifeng%Li%NULL%1,        Chengbin%Zhou%NULL%1,        Xinglin%Gao%NULL%1,        Na%Peng%pnatz@163.com%1,        Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,        Dandan%Cheng%NULL%1,        Yiwei%Cao%NULL%1,        Chuan%Hu%NULL%1,        Fenglin%Zou%NULL%1,        Wencheng%Yu%NULL%1,        Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,        Min Kyu%Kang%NULL%2,        Min Kyu%Kang%NULL%0,        Yu Rim%Lee%NULL%2,        Yu Rim%Lee%NULL%0,        Jeong Eun%Song%NULL%2,        Jeong Eun%Song%NULL%0,        Na Young%Kim%NULL%1,        Young Oh%Kweon%NULL%1,        Won Young%Tak%NULL%1,        Se Young%Jang%NULL%1,        Changhyeong%Lee%NULL%2,        Changhyeong%Lee%NULL%0,        Byung Seok%Kim%NULL%1,        Jae Seok%Hwang%NULL%1,        Byoung Kuk%Jang%NULL%1,        Jinmok%Bae%NULL%1,        Ji Yeon%Lee%NULL%0,        Jeong Ill%Suh%NULL%1,        Soo Young%Park%NULL%1,        Woo Jin%Chung%NULL%2,        Woo Jin%Chung%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,        Cristina%Roca-Oporto%NULL%0,        Guillermo%Martín-Gutiérrez%NULL%0,        María Dolores%Avilés%NULL%0,        Carmen%Gómez-González%NULL%0,        María Dolores%Navarro-Amuedo%NULL%0,        Julia%Praena-Segovia%NULL%0,        José%Molina%NULL%0,        María%Paniagua-García%NULL%0,        Horacio%García-Delgado%NULL%0,        Antonio%Domínguez-Petit%NULL%0,        Jerónimo%Pachón%NULL%0,        José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,     Calvo%Boyero Fernando%coreGivesNoEmail%1,     Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,     COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,     Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,     Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,     L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,     Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,     Santos%Lozano Alejandro%coreGivesNoEmail%1,     Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,         Min%He%NULL%1,         Wanhong%Yin%NULL%1,         Xuelian%Liao%NULL%1,         Bo%Wang%NULL%7,         Xiaodong%Jin%NULL%1,         Yao%Ma%NULL%2,         Jirong%Yue%NULL%1,         Lang%Bai%NULL%1,         Dan%Liu%NULL%3,         Ting%Zhu%NULL%1,         Zhixin%Huang%NULL%1,         Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,         Shuchang%Zhou%NULL%1,         Yujin%Wang%NULL%1,         Wenzhi%Lv%NULL%2,         Shili%Wang%NULL%1,         Ting%Wang%751884926@qq.com%1,         Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,         Yan-chak%Li%NULL%1,         Sonali%Bose%NULL%1,         Ravi%Iyengar%NULL%1,         Supinda%Bunyavanich%NULL%1,         Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,          Hai-Tao%Zhang%null%1,          Jorge%Goncalves%null%1,          Yang%Xiao%null%3,          Maolin%Wang%null%1,          Yuqi%Guo%null%1,          Chuan%Sun%null%1,          Xiuchuan%Tang%null%1,          Liang%Jing%null%1,          Mingyang%Zhang%null%1,          Xiang%Huang%null%1,          Ying%Xiao%null%1,          Haosen%Cao%null%1,          Yanyan%Chen%null%1,          Tongxin%Ren%null%1,          Fang%Wang%null%1,          Yaru%Xiao%null%1,          Sufang%Huang%null%1,          Xi%Tan%null%1,          Niannian%Huang%null%1,          Bo%Jiao%null%1,          Cheng%Cheng%null%1,          Yong%Zhang%null%1,          Ailin%Luo%null%1,          Laurent%Mombaerts%null%1,          Junyang%Jin%null%1,          Zhiguo%Cao%null%1,          Shusheng%Li%null%7,          Hui%Xu%null%1,          Ye%Yuan%null%2,        Li%Yan%null%1,        Hai-Tao%Zhang%null%1,        Jorge%Goncalves%null%1,        Yang%Xiao%null%1,        Maolin%Wang%null%1,        Yuqi%Guo%null%1,        Chuan%Sun%null%1,        Xiuchuan%Tang%null%1,        Liang%Jing%null%1,        Mingyang%Zhang%null%1,        Xiang%Huang%null%1,        Ying%Xiao%null%1,        Haosen%Cao%null%1,        Yanyan%Chen%null%1,        Tongxin%Ren%null%1,        Fang%Wang%null%1,        Yaru%Xiao%null%1,        Sufang%Huang%null%1,        Xi%Tan%null%1,        Niannian%Huang%null%1,        Bo%Jiao%null%1,        Cheng%Cheng%null%1,        Yong%Zhang%null%1,        Ailin%Luo%null%1,        Laurent%Mombaerts%null%1,        Junyang%Jin%null%1,        Zhiguo%Cao%null%1,        Shusheng%Li%null%0,        Hui%Xu%null%1,        Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,         Mengfei%Guo%NULL%1,         Limin%Duan%NULL%1,         Feng%Wu%NULL%1,         Guorong%Hu%NULL%1,         Zhihui%Wang%NULL%1,         Qi%Huang%NULL%1,         Tingting%Liao%NULL%1,         Juanjuan%Xu%NULL%1,         Yanling%Ma%NULL%1,         Zhilei%Lv%NULL%1,         Wenjing%Xiao%NULL%1,         Zilin%Zhao%NULL%1,         Xueyun%Tan%NULL%1,         Daquan%Meng%NULL%1,         Shujing%Zhang%NULL%1,         E%Zhou%NULL%1,         Zhengrong%Yin%NULL%1,         Wei%Geng%NULL%1,         Xuan%Wang%NULL%1,         Jianchu%Zhang%NULL%1,         Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,         Yu%Zhang%whxhzy@163.com%1,         Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,         Francesco%Arru%NULL%2,         Francesco%Arru%NULL%0,         Andrea%De Vito%NULL%3,         Alessandro%Sassu%NULL%2,         Alessandro%Sassu%NULL%0,         Giovanni%Valdes%NULL%1,         Valentina%Scano%NULL%1,         Elisabetta%Zinellu%NULL%1,         Roberto%Perra%NULL%1,         Giordano%Madeddu%NULL%3,         Ciriaco%Carru%NULL%1,         Pietro%Pirina%NULL%3,         Arduino A.%Mangoni%NULL%2,         Arduino A.%Mangoni%NULL%0,         Sergio%Babudieri%NULL%4,         Sergio%Babudieri%NULL%0,         Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,         Pablo%Ryan%NULL%1,         Jorge%Valencia%NULL%2,         Jorge%Valencia%NULL%0,         Mario%Pérez-Butragueño%NULL%2,         Mario%Pérez-Butragueño%NULL%0,         Eva%Jiménez%NULL%2,         Eva%Jiménez%NULL%0,         Mario%Fontán-Vela%NULL%1,         Elsa%Izquierdo-García%NULL%2,         Elsa%Izquierdo-García%NULL%0,         Inés%Fernandez-Jimenez%NULL%1,         Elena%Álvaro-Alonso%NULL%1,         Andrea%Lazaro%NULL%2,         Andrea%Lazaro%NULL%0,         Marta%Alvarado%NULL%1,         Helena%Notario%NULL%1,         Salvador%Resino%NULL%1,         Daniel%Velez-Serrano%NULL%1,         Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,         Yiru%Wang%NULL%2,         Xuecheng%Zhao%NULL%1,         Lixuan%Wang%NULL%1,         Feng%Liu%NULL%3,         Tao%Wang%NULL%15,         Dawei%Ye%NULL%2,         Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,         Valentina%Zuccaro%NULL%1,         Luca%Novelli%NULL%1,         Lorenzo%Zileri%NULL%2,         Lorenzo%Zileri%NULL%0,         Ciro%Celsa%NULL%1,         Federico%Raimondi%NULL%2,         Federico%Raimondi%NULL%0,         Mauro%Gori%NULL%1,         Giulia%Cammà%NULL%1,         Salvatore%Battaglia%NULL%1,         Vincenzo Giuseppe%Genova%NULL%1,         Laura%Paris%NULL%1,         Matteo%Tacelli%NULL%1,         Francesco Antonio%Mancarella%NULL%1,         Marco%Enea%NULL%1,         Massimo%Attanasio%NULL%1,         Michele%Senni%NULL%1,         Fabiano%Di Marco%NULL%1,         Luca Ferdinando%Lorini%NULL%1,         Stefano%Fagiuoli%NULL%1,         Raffaele%Bruno%NULL%2,         Calogero%Cammà%NULL%1,         Antonio%Gasbarrini%NULL%3,         Francesco%Di Gennaro%NULL%2,         Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,         Gan-xun%Li%NULL%1,         Lin%Chen%NULL%3,         Chang%Shu%NULL%2,         Jia%Song%NULL%1,         Wei%Wang%NULL%2,         Yu-wei%Wang%NULL%1,         Qian%Chen%NULL%2,         Guan-nan%Jin%NULL%1,         Tong-tong%Liu%NULL%1,         Jun-nan%Liang%NULL%1,         Peng%Zhu%NULL%1,         Wei%Zhu%NULL%5,         Yong%Li%NULL%2,         Bin-hao%Zhang%NULL%1,         Huan%Feng%NULL%1,         Wan-guang%Zhang%NULL%1,         Zhen-yu%Yin%NULL%1,         Wen-kui%Yu%NULL%1,         Yang%Yang%NULL%2,         Hua-qiu%Zhang%NULL%1,         Zhou-ping%Tang%NULL%1,         Hui%Wang%NULL%4,         Jun-bo%Hu%NULL%1,         Ji-hong%Liu%NULL%1,         Ping%Yin%NULL%1,         Xiao-ping%Chen%NULL%1,         Bixiang%Zhang%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,         Günay%Can%NULL%2,         Günay%Can%NULL%0,         Rıdvan%Karaali%NULL%1,         Şermin%Börekçi%NULL%1,         İlker İnanç%Balkan%NULL%1,         Bilun%Gemicioğlu%NULL%1,         Dildar%Konukoğlu%NULL%1,         Ethem%Erginöz%NULL%1,         Mehmet Sarper%Erdoğan%NULL%1,         Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,         Danila%Azzolina%NULL%1,         Eyal%Hayden%NULL%2,         Eyal%Hayden%NULL%0,         Gianluca%Gaidano%NULL%2,         Gianluca%Gaidano%NULL%0,         Mario%Pirisi%NULL%2,         Mario%Pirisi%NULL%0,         Antonio%Acquaviva%NULL%2,         Antonio%Acquaviva%NULL%0,         Gianluca%Aimaretti%NULL%2,         Gianluca%Aimaretti%NULL%0,         Paolo%Aluffi Valletti%NULL%3,         Paolo%Aluffi Valletti%NULL%0,         Roberto%Angilletta%NULL%2,         Roberto%Angilletta%NULL%0,         Roberto%Arioli%NULL%2,         Roberto%Arioli%NULL%0,         Gian Carlo%Avanzi%NULL%2,         Gian Carlo%Avanzi%NULL%0,         Gianluca%Avino%NULL%2,         Gianluca%Avino%NULL%0,         Piero Emilio%Balbo%NULL%2,         Piero Emilio%Balbo%NULL%0,         Giulia%Baldon%NULL%2,         Giulia%Baldon%NULL%0,         Francesca%Baorda%NULL%2,         Francesca%Baorda%NULL%0,         Emanuela%Barbero%NULL%2,         Emanuela%Barbero%NULL%0,         Alessio%Baricich%NULL%2,         Alessio%Baricich%NULL%0,         Michela%Barini%NULL%2,         Michela%Barini%NULL%0,         Francesco%Barone-Adesi%NULL%2,         Francesco%Barone-Adesi%NULL%0,         Sofia%Battistini%NULL%2,         Sofia%Battistini%NULL%0,         Michela%Beltrame%NULL%2,         Michela%Beltrame%NULL%0,         Matteo%Bertoli%NULL%2,         Matteo%Bertoli%NULL%0,         Stephanie%Bertolin%NULL%2,         Stephanie%Bertolin%NULL%0,         Marinella%Bertolotti%NULL%2,         Marinella%Bertolotti%NULL%0,         Marta%Betti%NULL%2,         Marta%Betti%NULL%0,         Flavio%Bobbio%NULL%2,         Flavio%Bobbio%NULL%0,         Paolo%Boffano%NULL%2,         Paolo%Boffano%NULL%0,         Lucio%Boglione%NULL%2,         Lucio%Boglione%NULL%0,         Silvio%Borrè%NULL%2,         Silvio%Borrè%NULL%0,         Matteo%Brucoli%NULL%2,         Matteo%Brucoli%NULL%0,         Elisa%Calzaducca%NULL%2,         Elisa%Calzaducca%NULL%0,         Edoardo%Cammarata%NULL%2,         Edoardo%Cammarata%NULL%0,         Vincenzo%Cantaluppi%NULL%2,         Vincenzo%Cantaluppi%NULL%0,         Roberto%Cantello%NULL%2,         Roberto%Cantello%NULL%0,         Andrea%Capponi%NULL%2,         Andrea%Capponi%NULL%0,         Alessandro%Carriero%NULL%2,         Alessandro%Carriero%NULL%0,         Giuseppe Francesco%Casciaro%NULL%2,         Giuseppe Francesco%Casciaro%NULL%0,         Luigi Mario%Castello%NULL%2,         Luigi Mario%Castello%NULL%0,         Federico%Ceruti%NULL%2,         Federico%Ceruti%NULL%0,         Guido%Chichino%NULL%2,         Guido%Chichino%NULL%0,         Emilio%Chirico%NULL%2,         Emilio%Chirico%NULL%0,         Carlo%Cisari%NULL%1,         Micol Giulia%Cittone%NULL%2,         Micol Giulia%Cittone%NULL%0,         Crizia%Colombo%NULL%2,         Crizia%Colombo%NULL%0,         Cristoforo%Comi%NULL%2,         Cristoforo%Comi%NULL%0,         Eleonora%Croce%NULL%2,         Eleonora%Croce%NULL%0,         Tommaso%Daffara%NULL%2,         Tommaso%Daffara%NULL%0,         Pietro%Danna%NULL%2,         Pietro%Danna%NULL%0,         Francesco%Della Corte%NULL%2,         Francesco%Della Corte%NULL%0,         Simona%De Vecchi%NULL%2,         Simona%De Vecchi%NULL%0,         Umberto%Dianzani%NULL%2,         Umberto%Dianzani%NULL%0,         Davide%Di Benedetto%NULL%2,         Davide%Di Benedetto%NULL%0,         Elia%Esposto%NULL%2,         Elia%Esposto%NULL%0,         Fabrizio%Faggiano%NULL%2,         Fabrizio%Faggiano%NULL%0,         Zeno%Falaschi%NULL%2,         Zeno%Falaschi%NULL%0,         Daniela%Ferrante%NULL%2,         Daniela%Ferrante%NULL%0,         Alice%Ferrero%NULL%2,         Alice%Ferrero%NULL%0,         Ileana%Gagliardi%NULL%2,         Ileana%Gagliardi%NULL%0,         Alessandra%Galbiati%NULL%2,         Alessandra%Galbiati%NULL%0,         Silvia%Gallo%NULL%2,         Silvia%Gallo%NULL%0,         Pietro Luigi%Garavelli%NULL%2,         Pietro Luigi%Garavelli%NULL%0,         Clara Ada%Gardino%NULL%2,         Clara Ada%Gardino%NULL%0,         Massimiliano%Garzaro%NULL%3,         Massimiliano%Garzaro%NULL%0,         Maria Luisa%Gastaldello%NULL%2,         Maria Luisa%Gastaldello%NULL%0,         Francesco%Gavelli%NULL%2,         Francesco%Gavelli%NULL%0,         Alessandra%Gennari%NULL%2,         Alessandra%Gennari%NULL%0,         Greta Maria%Giacomini%NULL%2,         Greta Maria%Giacomini%NULL%0,         Irene%Giacone%NULL%2,         Irene%Giacone%NULL%0,         Valentina%Giai Via%NULL%2,         Valentina%Giai Via%NULL%0,         Francesca%Giolitti%NULL%2,         Francesca%Giolitti%NULL%0,         Laura Cristina%Gironi%NULL%2,         Laura Cristina%Gironi%NULL%0,         Carla%Gramaglia%NULL%2,         Carla%Gramaglia%NULL%0,         Leonardo%Grisafi%NULL%2,         Leonardo%Grisafi%NULL%0,         Ilaria%Inserra%NULL%2,         Ilaria%Inserra%NULL%0,         Marco%Invernizzi%NULL%2,         Marco%Invernizzi%NULL%0,         Marco%Krengli%NULL%2,         Marco%Krengli%NULL%0,         Emanuela%Labella%NULL%2,         Emanuela%Labella%NULL%0,         Irene Cecilia%Landi%NULL%2,         Irene Cecilia%Landi%NULL%0,         Raffaella%Landi%NULL%2,         Raffaella%Landi%NULL%0,         Ilaria%Leone%NULL%2,         Ilaria%Leone%NULL%0,         Veronica%Lio%NULL%2,         Veronica%Lio%NULL%0,         Luca%Lorenzini%NULL%2,         Luca%Lorenzini%NULL%0,         Antonio%Maconi%NULL%2,         Antonio%Maconi%NULL%0,         Mario%Malerba%NULL%2,         Mario%Malerba%NULL%0,         Giulia Francesca%Manfredi%NULL%2,         Giulia Francesca%Manfredi%NULL%0,         Maria%Martelli%NULL%2,         Maria%Martelli%NULL%0,         Letizia%Marzari%NULL%2,         Letizia%Marzari%NULL%0,         Paolo%Marzullo%NULL%2,         Paolo%Marzullo%NULL%0,         Marco%Mennuni%NULL%2,         Marco%Mennuni%NULL%0,         Claudia%Montabone%NULL%2,         Claudia%Montabone%NULL%0,         Umberto%Morosini%NULL%2,         Umberto%Morosini%NULL%0,         Marco%Mussa%NULL%2,         Marco%Mussa%NULL%0,         Ilaria%Nerici%NULL%2,         Ilaria%Nerici%NULL%0,         Alessandro%Nuzzo%NULL%2,         Alessandro%Nuzzo%NULL%0,         Carlo%Olivieri%NULL%2,         Carlo%Olivieri%NULL%0,         Samuel Alberto%Padelli%NULL%2,         Samuel Alberto%Padelli%NULL%0,         Massimiliano%Panella%NULL%2,         Massimiliano%Panella%NULL%0,         Andrea%Parisini%NULL%2,         Andrea%Parisini%NULL%0,         Alessio%Paschè%NULL%2,         Alessio%Paschè%NULL%0,         Filippo%Patrucco%NULL%2,         Filippo%Patrucco%NULL%0,         Giuseppe%Patti%NULL%2,         Giuseppe%Patti%NULL%0,         Alberto%Pau%NULL%2,         Alberto%Pau%NULL%0,         Anita Rebecca%Pedrinelli%NULL%2,         Anita Rebecca%Pedrinelli%NULL%0,         Ilaria%Percivale%NULL%2,         Ilaria%Percivale%NULL%0,         Luca%Ragazzoni%NULL%2,         Luca%Ragazzoni%NULL%0,         Roberta%Re%NULL%2,         Roberta%Re%NULL%0,         Cristina%Rigamonti%NULL%2,         Cristina%Rigamonti%NULL%0,         Eleonora%Rizzi%NULL%2,         Eleonora%Rizzi%NULL%0,         Andrea%Rognoni%NULL%2,         Andrea%Rognoni%NULL%0,         Annalisa%Roveta%NULL%2,         Annalisa%Roveta%NULL%0,         Luigia%Salamina%NULL%2,         Luigia%Salamina%NULL%0,         Matteo%Santagostino%NULL%2,         Matteo%Santagostino%NULL%0,         Massimo%Saraceno%NULL%2,         Massimo%Saraceno%NULL%0,         Paola%Savoia%NULL%2,         Paola%Savoia%NULL%0,         Marco%Sciarra%NULL%2,         Marco%Sciarra%NULL%0,         Andrea%Schimmenti%NULL%2,         Andrea%Schimmenti%NULL%0,         Lorenza%Scotti%NULL%2,         Lorenza%Scotti%NULL%0,         Enrico%Spinoni%NULL%2,         Enrico%Spinoni%NULL%0,         Carlo%Smirne%NULL%2,         Carlo%Smirne%NULL%0,         Vanessa%Tarantino%NULL%2,         Vanessa%Tarantino%NULL%0,         Paolo Amedeo%Tillio%NULL%2,         Paolo Amedeo%Tillio%NULL%0,         Stelvio%Tonello%NULL%2,         Stelvio%Tonello%NULL%0,         Rosanna%Vaschetto%NULL%2,         Rosanna%Vaschetto%NULL%0,         Veronica%Vassia%NULL%2,         Veronica%Vassia%NULL%0,         Domenico%Zagaria%NULL%2,         Domenico%Zagaria%NULL%0,         Elisa%Zavattaro%NULL%2,         Elisa%Zavattaro%NULL%0,         Patrizia%Zeppegno%NULL%2,         Patrizia%Zeppegno%NULL%0,         Francesca%Zottarelli%NULL%2,         Francesca%Zottarelli%NULL%0,         Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,         Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,         Marta%Ottone%NULL%2,         Marta%Ottone%NULL%0,         Tommaso%Fasano%NULL%1,         Pierpaolo%Pattacini%NULL%1,         Valentina%Iotti%NULL%1,         Lucia%Spaggiari%NULL%1,         Riccardo%Bonacini%NULL%1,         Andrea%Nitrosi%NULL%1,         Efrem%Bonelli%NULL%1,         Simone%Canovi%NULL%1,         Rossana%Colla%NULL%1,         Alessandro%Zerbini%NULL%1,         Marco%Massari%NULL%1,         Ivana%Lattuada%NULL%1,         Anna Maria%Ferrari%NULL%1,         Paolo%Giorgi Rossi%NULL%1,         Massimo%Costantini%NULL%1,         Roberto%Grilli%NULL%1,         Massimiliano%Marino%NULL%1,         Giulio%Formoso%NULL%1,         Debora%Formisano%NULL%1,         Emanuela%Bedeschi%NULL%1,         Cinzia%Perilli%NULL%1,         Elisabetta%La Rosa%NULL%1,         Eufemia%Bisaccia%NULL%1,         Ivano%Venturi%NULL%1,         Massimo%Vicentini%NULL%1,         Cinzia%Campari%NULL%1,         Francesco%Gioia%NULL%1,         Serena%Broccoli%NULL%1,         Pamela%Mancuso%NULL%1,         Marco%Foracchia%NULL%1,         Mirco%Pinotti%NULL%1,         Nicola%Facciolongo%NULL%1,         Laura%Trabucco%NULL%1,         Stefano%De Pietri%NULL%1,         Giorgio Francesco%Danelli%NULL%1,         Laura%Albertazzi%NULL%1,         Enrica%Bellesia%NULL%1,         Mattia%Corradini%NULL%1,         Elena%Magnani%NULL%1,         Annalisa%Pilia%NULL%1,         Alessandra%Polese%NULL%1,         Silvia Storchi%Incerti%NULL%1,         Piera%Zaldini%NULL%1,         Bonanno%Orsola%NULL%1,         Matteo%Revelli%NULL%1,         Carlo%Salvarani%NULL%1,         Carmine%Pinto%NULL%1,         Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,         Hong-Qiu%Gu%NULL%1,         Yi%Liu (刘艺)%NULL%1,         Guqin%Zhang%NULL%1,         Hang%Yang%NULL%1,         Huifang%Hu%NULL%1,         Chenyang%Lu%NULL%1,         Yang%Li%NULL%3,         Liyi%Wang%NULL%1,         Yi%Liu (刘毅)%yi2006liu@163.com%1,         Yi%Zhao%zhao.y1977@163.com%1,         Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,         Tawsifur%Rahman%NULL%2,         Tawsifur%Rahman%NULL%0,         Amith%Khandakar%NULL%3,         Somaya%Al-Madeed%NULL%2,         Susu M.%Zughaier%NULL%5,         Suhail A. R.%Doi%NULL%3,         Hanadi%Hassen%NULL%1,         Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,         Jia%Sun%NULL%1,         Yi-Xin%Li%NULL%1,         Qian%Chen%NULL%0,         Qing-Quan%Liu%NULL%1,         Zhou%Sun%NULL%1,         Ran%Pang%NULL%1,         Fei%Chen%NULL%1,         Bing-Yang%Xu%NULL%1,         Anne%Manyande%NULL%1,         Taane G%Clark%NULL%1,         Jin-Ping%Li%NULL%1,         Ilkay Erdogan%Orhan%NULL%1,         Yu-Ke%Tian%NULL%1,         Tao%Wang%wt7636@126.com%0,         Wei%Wu%wt7636@126.com%1,         Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,  Xinyan%Cai%xref no email%1,  Robert%Lennon%xref no email%1,  Derjung M.%Tarn%xref no email%1,  Arch G.%Mainous%xref no email%1,  Aleksandra E.%Zgierska%xref no email%1,  Bruce%Barrett%xref no email%1,  Wen-Jan%Tuan%xref no email%1,  Kevin%Maloy%xref no email%1,  Munish%Goyal%xref no email%1,  Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,      Imam%Z%coreGivesNoEmail%1,      Lippi%G%coreGivesNoEmail%1,      Oran%DP%coreGivesNoEmail%1,      Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,         Caiping%Song%NULL%1,         En%Liu%NULL%1,         Xi%Liu%NULL%1,         Hao%Wu%NULL%1,         Hui%Lin%NULL%1,         Yuliang%Liu%NULL%1,         Qi%Li%NULL%1,         Zhi%Xu%NULL%1,         XiaoBao%Ren%NULL%1,         Cheng%Zhang%NULL%1,         Wenjing%Zhang%NULL%1,         Wei%Duan%NULL%2,         Yongfeng%Tian%NULL%1,         Ping%Li%NULL%1,         Mingdong%Hu%NULL%1,         Shiming%Yang%NULL%1,         Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,         Changli%Li%NULL%1,         Li%Zheng%NULL%1,         Wenzhi%Lv%NULL%0,         Zhigang%He%NULL%1,         Xinwu%Cui%NULL%1,         Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,  Liang%Li%xref no email%1,  Li%Wang%xref no email%1,  Huan%Liu%xref no email%2,  Xuefang%Lu%xref no email%1,  Feifei%Zeng%xref no email%1,  Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,         Hayne Cho%Park%NULL%2,         Hayne Cho%Park%NULL%0,         Ajin%Cho%NULL%1,         Juhee%Kim%NULL%1,         Kyu-sang%Yun%NULL%1,         Jinseog%Kim%NULL%1,         Young-Ki%Lee%NULL%1,         Sinan%Kardes.%NULL%2,         Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,  Luyu%Yang%xref no email%1,  Qian%Zeng%xref no email%1,  Qingyun%Li%xref no email%1,  Zhitao%Yang%xref no email%1,  Lizhong%Han%xref no email%1,  Xiaodong%Huang%xref no email%1,  Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,         Xiaoyu%Fang%NULL%1,         Lixia%Cheng%NULL%1,         Penghao%Wang%NULL%1,         Shen%Li%NULL%1,         Hao%Yu%NULL%1,         Yao%Zhang%NULL%2,         Nan%Jiang%NULL%1,         Tingting%Zeng%NULL%1,         Chao%Hou%NULL%1,         Jing%Zhou%NULL%0,         Shiru%Li%NULL%1,         Yingzi%Pan%NULL%1,         Yitong%Li%NULL%1,         Lili%Nie%NULL%1,         Yang%Li%NULL%0,         Qidi%Sun%NULL%1,         Hong%Jia%NULL%1,         Mengxia%Li%NULL%1,         Guoqiang%Cao%NULL%1,         Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,         Lucas A%Ramos%NULL%2,         Lucas A%Ramos%NULL%0,         Wouter%Potters%NULL%1,         Marcus L F%Janssen%NULL%1,         Deborah%Hubers%NULL%1,         Shi%Hu%NULL%1,         Egill A%Fridgeirsson%NULL%1,         Dan%Piña-Fuentes%NULL%1,         Rajat%Thomas%NULL%1,         Iwan C C%van der Horst%NULL%1,         Christian%Herff%NULL%2,         Christian%Herff%NULL%0,         Pieter%Kubben%NULL%1,         Paul W G%Elbers%NULL%1,         Henk A%Marquering%NULL%1,         Max%Welling%NULL%1,         Suat%Simsek%NULL%1,         Martijn D%de Kruif%NULL%1,         Tom%Dormans%NULL%1,         Lucas M%Fleuren%NULL%1,         Michiel%Schinkel%NULL%1,         Peter G%Noordzij%NULL%1,         Joop P%van den Bergh%NULL%2,         Joop P%van den Bergh%NULL%0,         Caroline E%Wyers%NULL%1,         David T B%Buis%NULL%2,         David T B%Buis%NULL%0,         W Joost%Wiersinga%NULL%1,         Ella H C%van den Hout%NULL%1,         Auke C%Reidinga%NULL%1,         Daisy%Rusch%NULL%1,         Kim C E%Sigaloff%NULL%1,         Renee A%Douma%NULL%1,         Lianne%de Haan%NULL%1,         Niels C%Gritters van den Oever%NULL%1,         Roger J M W%Rennenberg%NULL%1,         Guido A%van Wingen%NULL%1,         Marcel J H%Aries%NULL%1,         Martijn%Beudel%NULL%2,         Martijn%Beudel%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,         Fajer A.%Al-Ishaq%NULL%2,         Fajer A.%Al-Ishaq%NULL%0,         Fatima S.%Al-Mohannadi%NULL%1,         Reem S.%Mubarak%NULL%1,         Maryam H.%Al-Hitmi%NULL%1,         Khandaker Reajul%Islam%NULL%1,         Amith%Khandakar%NULL%0,         Ali Ait%Hssain%NULL%3,         Ali Ait%Hssain%NULL%0,         Somaya%Al-Madeed%NULL%0,         Susu M.%Zughaier%NULL%0,         Susu M.%Zughaier%NULL%0,         Muhammad E. H.%Chowdhury%NULL%3,         Muhammad E. H.%Chowdhury%NULL%0,         Antonella%Santone%NULL%3,         Antonella%Santone%NULL%0,         Antonella%Santone%NULL%0,         Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,         Amith%Khandakar%NULL%0,         Md Enamul%Hoque%NULL%2,         Md Enamul%Hoque%NULL%0,         Nabil%Ibtehaz%NULL%2,         Nabil%Ibtehaz%NULL%0,         Saad Bin%Kashem%NULL%2,         Saad Bin%Kashem%NULL%0,         Reehum%Masud%NULL%1,         Lutfunnahar%Shampa%NULL%1,         Mohammad Mehedi%Hasan%NULL%1,         Mohammad Tariqul%Islam%NULL%1,         Somaya%Al-Maadeed%NULL%2,         Somaya%Al-Maadeed%NULL%0,         Susu M.%Zughaier%NULL%0,         Susu M.%Zughaier%NULL%0,         Saif%Badran%NULL%2,         Saif%Badran%NULL%0,         Suhail A. R.%Doi%NULL%0,         Suhail A. R.%Doi%NULL%0,         Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,         Pablo%Rodríguez-Belenguer%NULL%2,         Pablo%Rodríguez-Belenguer%NULL%0,         Antonio J.%Serrano-López%NULL%1,         Emilio%Soria-Olivas%NULL%2,         Emilio%Soria-Olivas%NULL%0,         Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,         Haibo%Ai%NULL%1,         Yunong%Fu%NULL%1,         Qinglin%Li%NULL%1,         Ruixia%Cui%NULL%1,         Xiaohua%Ma%NULL%1,         Yan-fen%Ma%NULL%1,         Zi%Wang%NULL%1,         Tong%Liu%NULL%1,         Yunxiang%Long%NULL%1,         Kai%Qu%NULL%1,         Chang%Liu%NULL%1,         Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,  Rongqing%Sun%xref no email%1,  Wenbo%Sun%xref no email%1,  Dan%Xu%xref no email%1,  Lan%Lan%xref no email%1,  Huan%Li%xref no email%1,  Huan%Liu%xref no email%0,  Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,         Dawei%Zhang%NULL%1,         Jing%Xu%NULL%6,         Zhu%Chen%NULL%1,         Tieniu%Yang%NULL%1,         Peng%Zhao%NULL%2,         Guofeng%Chen%NULL%1,         Gregory%Cheng%NULL%1,         Yudong%Wang%NULL%1,         Jingfeng%Bi%NULL%1,         Lin%Tan%NULL%1,         George%Lau%NULL%1,         Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,         Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,         Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,         Giulia%Suigo%NULL%1,         Davide%Zampini%NULL%1,         Matteo%Pistoia%NULL%1,         Mariella%Ciola%NULL%1,         Tommaso%Ciampani%NULL%1,         Carolina%Ultori%NULL%1,         Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,         John R%Adler%NULL%3,         Sultan M%Kamran%NULL%2,         Sultan M%Kamran%NULL%0,         Zill-e-Humayun%Mirza%NULL%1,         Hussain Abdul%Moeed%NULL%1,         Arshad%Naseem%NULL%1,         Maryam%Hussain%NULL%1,         Imran%Fazal%NULL%1,         Farrukh%Saeed%NULL%1,         Wasim%Alamgir%NULL%1,         Salman%Saleem%NULL%1,         Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,  Zilong%Liu%xref no email%1,  Weipeng%Jiang%xref no email%1,  Jian%Wang%xref no email%4,  Mengchan%Zhu%xref no email%1,  Juan%Song%xref no email%0,  Xiaoyue%Wang%xref no email%1,  Ying%Su%xref no email%1,  Guiling%Xiang%xref no email%1,  Maosong%Ye%xref no email%1,  Jiamin%Li%xref no email%1,  Yong%Zhang%xref no email%1,  Qinjun%Shen%xref no email%1,  Zhuozhe%Li%xref no email%1,  Danwei%Yao%xref no email%1,  Yuanlin%Song%xref no email%0,  Kaihuan%Yu%xref no email%1,  Zhe%Luo%xref no email%1,  Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,         María M.%Martín%NULL%1,         Mónica%Argueso%NULL%1,         Jordi%Solé-Violán%NULL%1,         Alina%Perez%NULL%1,         José Alberto%Marcos Y Ramos%NULL%1,         Luis%Ramos-Gómez%NULL%1,         Sergio%López%NULL%1,         Andrés%Franco%NULL%1,         Agustín F.%González-Rivero%NULL%1,         María%Martín%NULL%1,         Verónica%Gonzalez%NULL%1,         Julia%Alcoba-Flórez%NULL%1,         Miguel Ángel%Rodriguez%NULL%1,         Marta%Riaño-Ruiz%NULL%1,         Juan%Guillermo O Campo%NULL%1,         Lourdes%González%NULL%1,         Tamara%Cantera%NULL%1,         Raquel%Ortiz-López%NULL%1,         Nazario%Ojeda%NULL%1,         Aurelio%Rodríguez-Pérez%NULL%1,         Casimira%Domínguez%NULL%1,         Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,         Rita%Kukafka%NULL%1,         Arriel%Benis%NULL%2,         Arriel%Benis%NULL%0,         Jinfeng%Li%NULL%1,         Pan%Pan%NULL%2,         Pan%Pan%NULL%0,         Yichao%Li%NULL%2,         Yichao%Li%NULL%0,         Yongjiu%Xiao%NULL%2,         Yongjiu%Xiao%NULL%0,         Bingchao%Han%NULL%2,         Bingchao%Han%NULL%0,         Longxiang%Su%NULL%2,         Longxiang%Su%NULL%0,         Mingliang%Su%NULL%2,         Mingliang%Su%NULL%0,         Yansheng%Li%NULL%2,         Yansheng%Li%NULL%0,         Siqi%Zhang%NULL%2,         Siqi%Zhang%NULL%0,         Dapeng%Jiang%NULL%2,         Dapeng%Jiang%NULL%0,         Xia%Chen%NULL%2,         Xia%Chen%NULL%0,         Fuquan%Zhou%NULL%2,         Fuquan%Zhou%NULL%0,         Ling%Ma%NULL%2,         Ling%Ma%NULL%0,         Pengtao%Bao%NULL%2,         Pengtao%Bao%NULL%0,         Lixin%Xie%xielx301@126.com%2,         Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,         Cristina%Roca-Oporto%NULL%2,         Guillermo%Martín-Gutiérrez%NULL%2,         María Dolores%Avilés%NULL%2,         Carmen%Gómez-González%NULL%2,         María Dolores%Navarro-Amuedo%NULL%2,         Julia%Praena-Segovia%NULL%2,         José%Molina%NULL%2,         María%Paniagua-García%NULL%2,         Horacio%García-Delgado%NULL%2,         Antonio%Domínguez-Petit%NULL%2,         Jerónimo%Pachón%NULL%2,         José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,         Barry R.%Meisenberg%NULL%2,         Barry R.%Meisenberg%NULL%0,         James H.%MacDonald%NULL%1,         Nandakumar%Menon%NULL%1,         Marcia B.%Fowler%NULL%1,         Michaline%West%NULL%1,         Jane%Rhule%NULL%1,         Sadaf S.%Qureshi%NULL%1,         Eileen B.%MacDonald%NULL%1,         Yu Ru%Kou%NULL%2,         Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,         Sarah%Poole%NULL%2,         Sarah%Poole%NULL%0,         Meeta%Pradhan%NULL%1,         Akhil%Vaid%NULL%3,         Akhil%Vaid%NULL%0,         Sulaiman%Somani%NULL%3,         Sulaiman%Somani%NULL%0,         Adam J%Russak%NULL%2,         Adam J%Russak%NULL%0,         Jessica K%De Freitas%NULL%2,         Jessica K%De Freitas%NULL%0,         Fayzan F%Chaudhry%NULL%2,         Fayzan F%Chaudhry%NULL%0,         Ishan%Paranjpe%NULL%3,         Ishan%Paranjpe%NULL%0,         Kipp W%Johnson%NULL%2,         Kipp W%Johnson%NULL%0,         Samuel J%Lee%NULL%2,         Samuel J%Lee%NULL%0,         Riccardo%Miotto%NULL%2,         Riccardo%Miotto%NULL%0,         Felix%Richter%NULL%3,         Felix%Richter%NULL%0,         Shan%Zhao%NULL%3,         Shan%Zhao%NULL%0,         Noam D%Beckmann%NULL%2,         Noam D%Beckmann%NULL%0,         Nidhi%Naik%NULL%2,         Nidhi%Naik%NULL%0,         Arash%Kia%NULL%2,         Arash%Kia%NULL%0,         Prem%Timsina%NULL%2,         Prem%Timsina%NULL%0,         Anuradha%Lala%NULL%2,         Anuradha%Lala%NULL%0,         Manish%Paranjpe%NULL%2,         Manish%Paranjpe%NULL%0,         Eddye%Golden%NULL%2,         Eddye%Golden%NULL%0,         Matteo%Danieletto%NULL%2,         Matteo%Danieletto%NULL%0,         Manbir%Singh%NULL%2,         Manbir%Singh%NULL%0,         Dara%Meyer%NULL%2,         Dara%Meyer%NULL%0,         Paul F%O'Reilly%NULL%2,         Paul F%O'Reilly%NULL%0,         Laura%Huckins%NULL%2,         Laura%Huckins%NULL%0,         Patricia%Kovatch%NULL%3,         Patricia%Kovatch%NULL%0,         Joseph%Finkelstein%NULL%2,         Joseph%Finkelstein%NULL%0,         Robert M.%Freeman%NULL%2,         Robert M.%Freeman%NULL%0,         Edgar%Argulian%NULL%2,         Edgar%Argulian%NULL%0,         Andrew%Kasarskis%NULL%2,         Andrew%Kasarskis%NULL%0,         Bethany%Percha%NULL%2,         Bethany%Percha%NULL%0,         Judith A%Aberg%NULL%2,         Judith A%Aberg%NULL%0,         Emilia%Bagiella%NULL%3,         Emilia%Bagiella%NULL%0,         Carol R%Horowitz%NULL%2,         Carol R%Horowitz%NULL%0,         Barbara%Murphy%NULL%2,         Barbara%Murphy%NULL%0,         Eric J%Nestler%NULL%2,         Eric J%Nestler%NULL%0,         Eric E%Schadt%NULL%2,         Eric E%Schadt%NULL%0,         Judy H%Cho%NULL%2,         Judy H%Cho%NULL%0,         Carlos%Cordon-Cardo%NULL%3,         Carlos%Cordon-Cardo%NULL%0,         Valentin%Fuster%NULL%3,         Valentin%Fuster%NULL%0,         Dennis S%Charney%NULL%2,         Dennis S%Charney%NULL%0,         David L%Reich%NULL%2,         David L%Reich%NULL%0,         Erwin P%Bottinger%NULL%2,         Erwin P%Bottinger%NULL%0,         Matthew A%Levin%NULL%2,         Matthew A%Levin%NULL%0,         Jagat%Narula%NULL%3,         Jagat%Narula%NULL%0,         Zahi A%Fayad%NULL%2,         Zahi A%Fayad%NULL%0,         Allan C%Just%NULL%2,         Allan C%Just%NULL%0,         Alexander W%Charney%NULL%2,         Alexander W%Charney%NULL%0,         Girish N%Nadkarni%NULL%2,         Girish N%Nadkarni%NULL%0,         Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,         Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,         Anne%Chen%NULL%2,         Wei%Hou%NULL%3,         James M.%Graham%NULL%1,         Haifang%Li%NULL%2,         Paul S.%Richman%NULL%1,         Henry C.%Thode%NULL%1,         Adam J.%Singer%NULL%1,         Tim Q.%Duong%NULL%1,         Muhammad%Adrish%NULL%9,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,         Qin%Liu%NULL%2,         Xiao%Zhang%NULL%2,         Shuyi%Liu%NULL%1,         Weiqi%Chen%NULL%1,         Jingjing%You%NULL%1,         Qiuying%Chen%NULL%1,         Minmin%Li%NULL%1,         Zhuozhi%Chen%NULL%1,         Luyan%Chen%NULL%1,         Lv%Chen%NULL%1,         Yuhao%Dong%NULL%1,         Qingsi%Zeng%NULL%1,         Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,         Lei%Nie%NULL%1,         Dongde%Wu%NULL%1,         Jian%Chen%NULL%2,         Zhifeng%Yang%NULL%1,         Ling%Zhang%NULL%3,         Dongqing%Li%NULL%1,         Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,  Feiyang%Zhong%xref no email%1,  Hanfei%Zhang%xref no email%1,  Wenting%An%xref no email%1,  Meiyan%Liao%xref no email%1,  Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,         Burcin%Hakoglu%NULL%2,         Burcin%Hakoglu%NULL%0,         Ali%Kadri Cirak%NULL%1,         Gulru%Polat%NULL%1,         Berna%Komurcuoglu%NULL%1,         Berrin%Akkol%NULL%1,         Cagri%Atasoy%NULL%1,         Eda%Bayramic%NULL%1,         Gunseli%Balci%NULL%1,         Sena%Ataman%NULL%1,         Sinem%Ermin%NULL%1,         Enver%Yalniz%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1,  Lili%Huang%xref no email%1,  Jin%Chen%xref no email%1,  Xiaowei%Yuan%xref no email%1,  Qinhua%Shen%xref no email%1,  Su%Dong%xref no email%1,  Bei%Cheng%xref no email%1,  Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,         Qiaosen%Chen%NULL%2,         Qiaosen%Chen%NULL%0,         Sumeng%Li%NULL%1,         Huadong%Li%NULL%1,         Qian%Zhang%NULL%1,         Sihong%Lu%NULL%1,         Li%Wu%NULL%1,         Leiqun%Xiong%NULL%1,         Bobin%Mi%NULL%1,         Di%Liu%NULL%3,         Mengji%Lu%NULL%1,         Dongliang%Yang%NULL%1,         Hongbo%Jiang%hongbojiang3@163.com%1,         Shaoping%Zheng%zhengspxx@126.com%1,         Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,         Hua%Zhang%NULL%2,         Rui%Qiao%NULL%1,         Qinggang%Ge%NULL%1,         Shuisheng%Zhang%NULL%1,         Zongxuan%Zhao%NULL%1,         Ci%Tian%NULL%1,         Qingbian%Ma%NULL%2,         Qingbian%Ma%NULL%0,         Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,         Antonia%Ho%NULL%2,         Riinu%Pius%NULL%2,         Iain%Buchan%NULL%1,         Gail%Carson%NULL%2,         Thomas M%Drake%NULL%1,         Jake%Dunning%NULL%2,         Cameron J%Fairfield%NULL%2,         Carrol%Gamble%NULL%2,         Christopher A%Green%NULL%2,         Rishi%Gupta%NULL%1,         Sophie%Halpin%NULL%2,         Hayley E%Hardwick%NULL%1,         Karl A%Holden%NULL%1,         Peter W%Horby%NULL%2,         Clare%Jackson%NULL%2,         Kenneth A%Mclean%NULL%2,         Laura%Merson%NULL%2,         Jonathan S%Nguyen-Van-Tam%NULL%1,         Lisa%Norman%NULL%2,         Mahdad%Noursadeghi%NULL%2,         Piero L%Olliaro%NULL%1,         Mark G%Pritchard%NULL%1,         Clark D%Russell%NULL%2,         Catherine A%Shaw%NULL%2,         Aziz%Sheikh%NULL%2,         Tom%Solomon%NULL%2,         Cathie%Sudlow%NULL%1,         Olivia V%Swann%NULL%1,         Lance CW%Turtle%NULL%2,         Peter JM%Openshaw%NULL%2,         J Kenneth%Baillie%NULL%2,         Malcolm G%Semple%NULL%3,         Annemarie B%Docherty%NULL%3,         Annemarie B%Docherty%NULL%0,         Ewen M%Harrison%NULL%3,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         J Kenneth%Baillie%NULL%0,         Malcolm G%Semple%NULL%0,         Peter JM%Openshaw%NULL%0,         Gail%Carson%NULL%0,         Beatrice%Alex%NULL%1,         Benjamin%Bach%NULL%1,         Wendy S%Barclay%NULL%1,         Debby%Bogaert%NULL%1,         Meera%Chand%NULL%1,         Graham S%Cooke%NULL%1,         Annemarie B%Docherty%NULL%0,         Jake%Dunning%NULL%0,         Ana%da Silva Filipe%NULL%1,         Tom%Fletcher%NULL%1,         Christopher A%Green%NULL%0,         Ewen M%Harrison%NULL%0,         Julian A%Hiscox%NULL%1,         Antonia Ying Wai%Ho%NULL%1,         Peter W%Horby%NULL%0,         Samreen%Ijaz%NULL%1,         Saye%Khoo%NULL%1,         Paul%Klenerman%NULL%1,         Andrew%Law%NULL%2,         Wei Shen%Lim%NULL%1,         Alexander J%Mentzer%NULL%1,         Laura%Merson%NULL%0,         Alison M%Meynert%NULL%1,         Mahdad%Noursadeghi%NULL%0,         Shona C%Moore%NULL%2,         Massimo%Palmarini%NULL%1,         William A%Paxton%NULL%1,         Georgios%Pollakis%NULL%1,         Nicholas%Price%NULL%1,         Andrew%Rambaut%NULL%1,         David L%Robertson%NULL%1,         Clark D%Russell%NULL%0,         Vanessa%Sancho-Shimizu%NULL%1,         Janet T%Scott%NULL%1,         Louise%Sigfrid%NULL%1,         Tom%Solomon%NULL%0,         Shiranee%Sriskandan%NULL%1,         David%Stuart%NULL%1,         Charlotte%Summers%NULL%1,         Richard S%Tedder%NULL%1,         Emma C%Thomson%NULL%1,         Ryan S%Thwaites%NULL%1,         Lance CW%Turtle%NULL%0,         Maria%Zambon%NULL%1,         Hayley%Hardwick%NULL%1,         Chloe%Donohue%NULL%1,         Jane%Ewins%NULL%1,         Wilna%Oosthuyzen%NULL%1,         Fiona%Griffiths%NULL%1,         Lisa%Norman%NULL%0,         Riinu%Pius%NULL%0,         Tom M%Drake%NULL%1,         Cameron J%Fairfield%NULL%0,         Stephen%Knight%NULL%1,         Kenneth A%Mclean%NULL%0,         Derek%Murphy%NULL%1,         Catherine A%Shaw%NULL%0,         Jo%Dalton%NULL%1,         Michelle%Girvan%NULL%1,         Egle%Saviciute%NULL%1,         Stephanie%Roberts%NULL%1,         Janet%Harrison%NULL%1,         Laura%Marsh%NULL%1,         Marie%Connor%NULL%1,         Sophie%Halpin%NULL%0,         Clare%Jackson%NULL%0,         Carrol%Gamble%NULL%0,         Gary%Leeming%NULL%1,         Andrew%Law%NULL%0,         Ross%Hendry%NULL%1,         James%Scott-Brown%NULL%1,         William%Greenhalf%NULL%1,         Victoria%Shaw%NULL%1,         Sarah%McDonald%NULL%2,         Katie A%Ahmed%NULL%1,         Jane A%Armstrong%NULL%1,         Milton%Ashworth%NULL%1,         Innocent G%Asiimwe%NULL%1,         Siddharth%Bakshi%NULL%1,         Samantha L%Barlow%NULL%1,         Laura%Booth%NULL%1,         Benjamin%Brennan%NULL%1,         Katie%Bullock%NULL%1,         Benjamin WA%Catterall%NULL%1,         Jordan J%Clark%NULL%1,         Emily A%Clarke%NULL%1,         Sarah%Cole%NULL%1,         Louise%Cooper%NULL%1,         Helen%Cox%NULL%1,         Christopher%Davis%NULL%1,         Oslem%Dincarslan%NULL%1,         Chris%Dunn%NULL%1,         Philip%Dyer%NULL%1,         Angela%Elliott%NULL%1,         Anthony%Evans%NULL%1,         Lewis WS%Fisher%NULL%1,         Terry%Foster%NULL%1,         Isabel%Garcia-Dorival%NULL%1,         Willliam%Greenhalf%NULL%1,         Philip%Gunning%NULL%1,         Catherine%Hartley%NULL%1,         Antonia%Ho%NULL%0,         Rebecca L%Jensen%NULL%1,         Christopher B%Jones%NULL%1,         Trevor R%Jones%NULL%1,         Shadia%Khandaker%NULL%1,         Katharine%King%NULL%1,         Robyn T%Kiy%NULL%1,         Chrysa%Koukorava%NULL%1,         Annette%Lake%NULL%1,         Suzannah%Lant%NULL%1,         Diane%Latawiec%NULL%1,         L%Lavelle-Langham%NULL%1,         Daniella%Lefteri%NULL%1,         Lauren%Lett%NULL%1,         Lucia A%Livoti%NULL%1,         Maria%Mancini%NULL%1,         Sarah%McDonald%NULL%0,         Laurence%McEvoy%NULL%1,         John%McLauchlan%NULL%1,         Soeren%Metelmann%NULL%1,         Nahida S%Miah%NULL%1,         Joanna%Middleton%NULL%1,         Joyce%Mitchell%NULL%1,         Shona C%Moore%NULL%0,         Ellen G%Murphy%NULL%1,         Rebekah%Penrice-Randal%NULL%1,         Jack%Pilgrim%NULL%1,         Tessa%Prince%NULL%1,         Will%Reynolds%NULL%1,         P Matthew%Ridley%NULL%1,         Debby%Sales%NULL%1,         Victoria E%Shaw%NULL%1,         Rebecca K%Shears%NULL%1,         Benjamin%Small%NULL%1,         Krishanthi S%Subramaniam%NULL%1,         Agnieska%Szemiel%NULL%1,         Aislynn%Taggart%NULL%1,         Jolanta%Tanianis-Hughes%NULL%1,         Jordan%Thomas%NULL%1,         Erwan%Trochu%NULL%1,         Libby%van Tonder%NULL%1,         Eve%Wilcock%NULL%1,         J Eunice%Zhang%NULL%1,         Kayode%Adeniji%NULL%1,         Daniel%Agranoff%NULL%1,         Ken%Agwuh%NULL%1,         Dhiraj%Ail%NULL%1,         Ana%Alegria%NULL%1,         Brian%Angus%NULL%1,         Abdul%Ashish%NULL%1,         Dougal%Atkinson%NULL%1,         Shahedal%Bari%NULL%1,         Gavin%Barlow%NULL%1,         Stella%Barnass%NULL%1,         Nicholas%Barrett%NULL%2,         Christopher%Bassford%NULL%1,         David%Baxter%NULL%1,         Michael%Beadsworth%NULL%1,         Jolanta%Bernatoniene%NULL%1,         John%Berridge%NULL%1,         Nicola%Best%NULL%1,         Pieter%Bothma%NULL%1,         David%Brealey%NULL%1,         Robin%Brittain-Long%NULL%1,         Naomi%Bulteel%NULL%1,         Tom%Burden%NULL%1,         Andrew%Burtenshaw%NULL%1,         Vikki%Caruth%NULL%1,         David%Chadwick%NULL%1,         Duncan%Chambler%NULL%1,         Nigel%Chee%NULL%1,         Jenny%Child%NULL%1,         Srikanth%Chukkambotla%NULL%1,         Tom%Clark%NULL%1,         Paul%Collini%NULL%1,         Catherine%Cosgrove%NULL%1,         Jason%Cupitt%NULL%1,         Maria-Teresa%Cutino-Moguel%NULL%1,         Paul%Dark%NULL%1,         Chris%Dawson%NULL%1,         Samir%Dervisevic%NULL%1,         Phil%Donnison%NULL%1,         Sam%Douthwaite%NULL%1,         Ingrid%DuRand%NULL%1,         Ahilanadan%Dushianthan%NULL%1,         Tristan%Dyer%NULL%1,         Cariad%Evans%NULL%1,         Chi%Eziefula%NULL%1,         Chrisopher%Fegan%NULL%1,         Adam%Finn%NULL%1,         Duncan%Fullerton%NULL%1,         Sanjeev%Garg%NULL%2,         Sanjeev%Garg%NULL%0,         Atul%Garg%NULL%1,         Jo%Godden%NULL%1,         Arthur%Goldsmith%NULL%1,         Clive%Graham%NULL%1,         Elaine%Hardy%NULL%1,         Stuart%Hartshorn%NULL%1,         Daniel%Harvey%NULL%1,         Peter%Havalda%NULL%1,         Daniel B%Hawcutt%NULL%1,         Maria%Hobrok%NULL%1,         Luke%Hodgson%NULL%1,         Anita%Holme%NULL%1,         Anil%Hormis%NULL%1,         Michael%Jacobs%NULL%1,         Susan%Jain%NULL%1,         Paul%Jennings%NULL%1,         Agilan%Kaliappan%NULL%1,         Vidya%Kasipandian%NULL%1,         Stephen%Kegg%NULL%1,         Michael%Kelsey%NULL%1,         Jason%Kendall%NULL%1,         Caroline%Kerrison%NULL%1,         Ian%Kerslake%NULL%1,         Oliver%Koch%NULL%2,         Gouri%Koduri%NULL%1,         George%Koshy%NULL%1,         Shondipon%Laha%NULL%1,         Susan%Larkin%NULL%1,         Tamas%Leiner%NULL%1,         Patrick%Lillie%NULL%1,         James%Limb%NULL%1,         Vanessa%Linnett%NULL%1,         Jeff%Little%NULL%1,         Michael%MacMahon%NULL%1,         Emily%MacNaughton%NULL%1,         Ravish%Mankregod%NULL%1,         Huw%Masson%NULL%1,         Elijah%Matovu%NULL%1,         Katherine%McCullough%NULL%1,         Ruth%McEwen%NULL%1,         Manjula%Meda%NULL%1,         Gary%Mills%NULL%1,         Jane%Minton%NULL%1,         Mariyam%Mirfenderesky%NULL%1,         Kavya%Mohandas%NULL%1,         Quen%Mok%NULL%1,         James%Moon%NULL%1,         Elinoor%Moore%NULL%1,         Patrick%Morgan%NULL%1,         Craig%Morris%NULL%1,         Katherine%Mortimore%NULL%1,         Samuel%Moses%NULL%1,         Mbiye%Mpenge%NULL%1,         Rohinton%Mulla%NULL%1,         Michael%Murphy%NULL%1,         Megan%Nagel%NULL%1,         Thapas%Nagarajan%NULL%1,         Mark%Nelson%NULL%1,         Igor%Otahal%NULL%1,         Mark%Pais%NULL%1,         Selva%Panchatsharam%NULL%1,         Hassan%Paraiso%NULL%1,         Brij%Patel%NULL%1,         Justin%Pepperell%NULL%1,         Mark%Peters%NULL%1,         Mandeep%Phull%NULL%1,         Stefania%Pintus%NULL%1,         Jagtur Singh%Pooni%NULL%1,         Frank%Post%NULL%1,         David%Price%NULL%1,         Rachel%Prout%NULL%1,         Nikolas%Rae%NULL%1,         Henrik%Reschreiter%NULL%1,         Tim%Reynolds%NULL%1,         Neil%Richardson%NULL%1,         Mark%Roberts%NULL%1,         Devender%Roberts%NULL%1,         Alistair%Rose%NULL%1,         Guy%Rousseau%NULL%1,         Brendan%Ryan%NULL%1,         Taranprit%Saluja%NULL%1,         Aarti%Shah%NULL%1,         Prad%Shanmuga%NULL%1,         Anil%Sharma%NULL%1,         Anna%Shawcross%NULL%1,         Jeremy%Sizer%NULL%1,         Richard%Smith%NULL%1,         Catherine%Snelson%NULL%1,         Nick%Spittle%NULL%1,         Nikki%Staines%NULL%1,         Tom%Stambach%NULL%1,         Richard%Stewart%NULL%1,         Pradeep%Subudhi%NULL%1,         Tamas%Szakmany%NULL%1,         Kate%Tatham%NULL%1,         Jo%Thomas%NULL%1,         Chris%Thompson%NULL%1,         Robert%Thompson%NULL%1,         Ascanio%Tridente%NULL%1,         Darell%Tupper-Carey%NULL%1,         Mary%Twagira%NULL%1,         Andrew%Ustianowski%NULL%1,         Nick%Vallotton%NULL%1,         Lisa%Vincent-Smith%NULL%1,         Shico%Visuvanathan%NULL%1,         Alan%Vuylsteke%NULL%1,         Sam%Waddy%NULL%1,         Rachel%Wake%NULL%1,         Andrew%Walden%NULL%1,         Ingeborg%Welters%NULL%1,         Tony%Whitehouse%NULL%1,         Paul%Whittaker%NULL%1,         Ashley%Whittington%NULL%1,         Meme%Wijesinghe%NULL%1,         Martin%Williams%NULL%1,         Lawrence%Wilson%NULL%1,         Sarah%Wilson%NULL%1,         Stephen%Winchester%NULL%1,         Martin%Wiselka%NULL%1,         Adam%Wolverson%NULL%1,         Daniel G%Wooton%NULL%1,         Andrew%Workman%NULL%1,         Bryan%Yates%NULL%1,         Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,         Braulio A.%Marfil‐Garza%NULL%1,         Erick%Martínez Rodríguez%NULL%1,         José Omar%Barreto Rodríguez%NULL%1,         Alicia Estela%López Romo%NULL%1,         Paolo%Alberti Minutti%NULL%1,         Juan Vicente%Alejandre Loya%NULL%1,         Félix Emmanuel%Pérez Talavera%NULL%1,         Freddy José%Ávila Cervera%NULL%1,         Adriana%Velazquez Burciaga%NULL%1,         Oscar%Morado Aramburo%NULL%1,         Luis Alberto%Piña Olguín%NULL%1,         Adrian%Soto‐Rodríguez%NULL%1,         Andrés%Castañeda Prado%NULL%1,         Patricio%Santillán Doherty%NULL%1,         Juan%O Galindo%NULL%1,         Luis Alberto%Guízar García%NULL%1,         Daniel%Hernández Gordillo%NULL%1,         Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,         Aatish%Patel%NULL%1,         Esmita%Charani%NULL%1,         Sarah%Denny%NULL%1,         Saleh A.%Alqahtani%NULL%1,         Gary W.%Davies%NULL%1,         Nabeela%Mughal%NULL%1,         Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,         Hyunsun%Lim%NULL%1,         Dong-Wook%Kim%NULL%1,         Jung Hyun%Chang%NULL%1,         Yoon Jung%Choi%chris316@yuhs.ac%1,         Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,  Rudong%Chen%xref no email%1,  Hongkuan%Yang%xref no email%1,  Junhong%Wang%xref no email%1,  Yuyang%Hou%xref no email%1,  Wei%Hu%xref no email%1,  Jiasheng%Yu%xref no email%1,  Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,         Wenhua%Liang%NULL%3,         Mei%Jiang%NULL%2,         Weijie%Guan%NULL%3,         Chen%Zhan%NULL%2,         Tao%Wang%NULL%0,         Chunli%Tang%NULL%3,         Ling%Sang%NULL%3,         Jiaxing%Liu%NULL%2,         Zhengyi%Ni%NULL%2,         Yu%Hu%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%5,         Chunliang%Lei%NULL%2,         Yixiang%Peng%NULL%2,         Li%Wei%NULL%5,         Yong%Liu%NULL%5,         Yahua%Hu%NULL%2,         Peng%Peng%NULL%7,         Jianming%Wang%NULL%2,         Jiyang%Liu%NULL%2,         Zhong%Chen%NULL%5,         Gang%Li%NULL%5,         Zhijian%Zheng%NULL%2,         Shaoqin%Qiu%NULL%2,         Jie%Luo%NULL%5,         Changjiang%Ye%NULL%2,         Shaoyong%Zhu%NULL%2,         Xiaoqing%Liu%NULL%2,         Linling%Cheng%NULL%2,         Feng%Ye%NULL%2,         Jinping%Zheng%NULL%2,         Nuofu%Zhang%NULL%2,         Yimin%Li%NULL%2,         Jianxing%He%NULL%2,         Shiyue%Li%lishiyue@188.com%3,         Nanshan%Zhong%NULL%4,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,         Liu%Hu%NULL%1,         Yiru%Wang%NULL%0,         Luyan%Huang%NULL%1,         Lingxi%Zhao%NULL%1,         Congcong%Zhang%NULL%1,         Xiyue%Liu%NULL%1,         Ranran%Xu%NULL%1,         Feng%Liu%NULL%0,         Jinping%Li%NULL%1,         Dawei%Ye%NULL%0,         Tao%Wang%NULL%0,         Yongman%Lv%lvyongman@126.com%0,         Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,         Carol A C%Coupland%NULL%1,         Ruth H%Keogh%NULL%1,         Karla%Diaz-Ordaz%NULL%1,         Elizabeth%Williamson%NULL%1,         Ewen M%Harrison%NULL%0,         Andrew%Hayward%NULL%1,         Harry%Hemingway%NULL%1,         Peter%Horby%NULL%1,         Nisha%Mehta%NULL%1,         Jonathan%Benger%NULL%1,         Kamlesh%Khunti%NULL%0,         David%Spiegelhalter%NULL%1,         Aziz%Sheikh%NULL%0,         Jonathan%Valabhji%NULL%0,         Ronan A%Lyons%NULL%1,         John%Robson%NULL%1,         Malcolm G%Semple%NULL%0,         Frank%Kee%NULL%1,         Peter%Johnson%NULL%1,         Susan%Jebb%NULL%1,         Tony%Williams%NULL%1,         Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,         Guang-Yao%Cai%NULL%1,         Wei%Fang%NULL%2,         Hua-Yi%Li%NULL%1,         Si-Yuan%Wang%NULL%2,         Si-Yuan%Wang%NULL%0,         Lingxi%Chen%NULL%1,         Yang%Yu%NULL%1,         Dan%Liu%NULL%0,         Sen%Xu%NULL%2,         Peng-Fei%Cui%NULL%1,         Shao-Qing%Zeng%NULL%2,         Shao-Qing%Zeng%NULL%0,         Xin-Xia%Feng%NULL%1,         Rui-Di%Yu%NULL%1,         Ya%Wang%NULL%2,         Yuan%Yuan%NULL%1,         Xiao-Fei%Jiao%NULL%1,         Jian-Hua%Chi%NULL%1,         Jia-Hao%Liu%NULL%1,         Ru-Yuan%Li%NULL%1,         Xu%Zheng%NULL%1,         Chun-Yan%Song%NULL%1,         Ning%Jin%NULL%1,         Wen-Jian%Gong%NULL%1,         Xing-Yu%Liu%NULL%1,         Lei%Huang%NULL%2,         Xun%Tian%NULL%1,         Lin%Li%NULL%1,         Hui%Xing%NULL%1,         Ding%Ma%NULL%1,         Chun-Rui%Li%NULL%1,         Fei%Ye%yeyuanbei@hotmail.com%1,         Qing-Lei%Gao%qingleigao@hotmail.com%2,         Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,         Ang%Li%NULL%1,         Mengfan%Jiao%NULL%1,         Qingmiao%Shi%NULL%1,         Xiaocai%An%NULL%1,         Yonghai%Feng%NULL%1,         Lihua%Xing%NULL%1,         Hongxia%Liang%NULL%1,         Jiajun%Chen%NULL%1,         Huiling%Li%NULL%1,         Juan%Li%NULL%0,         Zhigang%Ren%NULL%1,         Ranran%Sun%NULL%1,         Guangying%Cui%NULL%1,         Yongjian%Zhou%NULL%1,         Ming%Cheng%NULL%1,         Pengfei%Jiao%NULL%1,         Yu%Wang%NULL%2,         Jiyuan%Xing%NULL%1,         Shen%Shen%NULL%1,         Qingxian%Zhang%NULL%1,         Aiguo%Xu%NULL%1,         Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,         Michael%Ng%NULL%1,         Shuang%Xu%NULL%1,         Zhouming%Xu%NULL%1,         Hui%Qiu%NULL%1,         Yuwei%Liu%NULL%1,         Jiayou%Lyu%NULL%1,         Jiwen%You%NULL%1,         Peng%Zhao%NULL%0,         Shihao%Wang%NULL%1,         Yunfei%Tang%NULL%1,         Hao%Cui%NULL%1,         Changxiao%Yu%NULL%1,         Feng%Wang%NULL%5,         Fei%Shao%NULL%1,         Peng%Sun%NULL%1,         Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,         Huifang%Wang%NULL%1,         Junwei%Huang%NULL%1,         Yan%Geng%NULL%1,         Shuqi%Jiang%NULL%1,         Qiuping%Zhou%NULL%1,         Xuan%Chen%NULL%1,         Hongping%Hu%NULL%1,         Weifeng%Li%NULL%1,         Chengbin%Zhou%NULL%1,         Xinglin%Gao%NULL%1,         Na%Peng%pnatz@163.com%1,         Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,         Dandan%Cheng%NULL%1,         Yiwei%Cao%NULL%1,         Chuan%Hu%NULL%1,         Fenglin%Zou%NULL%1,         Wencheng%Yu%NULL%1,         Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,         Min Kyu%Kang%NULL%2,         Min Kyu%Kang%NULL%0,         Yu Rim%Lee%NULL%2,         Yu Rim%Lee%NULL%0,         Jeong Eun%Song%NULL%2,         Jeong Eun%Song%NULL%0,         Na Young%Kim%NULL%1,         Young Oh%Kweon%NULL%1,         Won Young%Tak%NULL%1,         Se Young%Jang%NULL%1,         Changhyeong%Lee%NULL%2,         Changhyeong%Lee%NULL%0,         Byung Seok%Kim%NULL%1,         Jae Seok%Hwang%NULL%1,         Byoung Kuk%Jang%NULL%1,         Jinmok%Bae%NULL%1,         Ji Yeon%Lee%NULL%0,         Jeong Ill%Suh%NULL%1,         Soo Young%Park%NULL%1,         Woo Jin%Chung%NULL%2,         Woo Jin%Chung%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,         Cristina%Roca-Oporto%NULL%0,         Guillermo%Martín-Gutiérrez%NULL%0,         María Dolores%Avilés%NULL%0,         Carmen%Gómez-González%NULL%0,         María Dolores%Navarro-Amuedo%NULL%0,         Julia%Praena-Segovia%NULL%0,         José%Molina%NULL%0,         María%Paniagua-García%NULL%0,         Horacio%García-Delgado%NULL%0,         Antonio%Domínguez-Petit%NULL%0,         Jerónimo%Pachón%NULL%0,         José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,      Calvo%Boyero Fernando%coreGivesNoEmail%1,      Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,      COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,      Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,      Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,      L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,      Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,      Santos%Lozano Alejandro%coreGivesNoEmail%1,      Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -3053,7 +3506,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>611</v>
+        <v>746</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -3082,7 +3535,7 @@
         <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>612</v>
+        <v>747</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -3111,7 +3564,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>613</v>
+        <v>748</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -3140,7 +3593,7 @@
         <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>614</v>
+        <v>749</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3169,7 +3622,7 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>615</v>
+        <v>750</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -3198,7 +3651,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>616</v>
+        <v>751</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -3227,7 +3680,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>617</v>
+        <v>752</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -3256,7 +3709,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>618</v>
+        <v>753</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -3285,7 +3738,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>619</v>
+        <v>754</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -3314,7 +3767,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>620</v>
+        <v>755</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -3343,7 +3796,7 @@
         <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>621</v>
+        <v>756</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -3372,7 +3825,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>622</v>
+        <v>757</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -3401,7 +3854,7 @@
         <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>623</v>
+        <v>758</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -3430,7 +3883,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>624</v>
+        <v>759</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -3459,7 +3912,7 @@
         <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>625</v>
+        <v>760</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -3488,7 +3941,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>626</v>
+        <v>761</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -3511,22 +3964,22 @@
         <v>44228.0</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>682</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>762</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>684</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>685</v>
       </c>
       <c r="I18" t="s">
         <v>143</v>
@@ -3546,7 +3999,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>627</v>
+        <v>763</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -3575,7 +4028,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>628</v>
+        <v>764</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -3604,7 +4057,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>629</v>
+        <v>765</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -3627,22 +4080,22 @@
         <v>44245.0</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>689</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>690</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>766</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>684</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>692</v>
       </c>
       <c r="I22" t="s">
         <v>143</v>
@@ -3662,7 +4115,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>630</v>
+        <v>767</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -3685,22 +4138,22 @@
         <v>44287.0</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>694</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>768</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>684</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>696</v>
       </c>
       <c r="I24" t="s">
         <v>143</v>
@@ -3720,7 +4173,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>631</v>
+        <v>769</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -3749,7 +4202,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>632</v>
+        <v>770</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -3778,7 +4231,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>633</v>
+        <v>771</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -3807,7 +4260,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>634</v>
+        <v>772</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -3836,7 +4289,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>635</v>
+        <v>773</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -3865,7 +4318,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>636</v>
+        <v>774</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -3888,22 +4341,22 @@
         <v>44326.0</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>703</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>775</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>684</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>706</v>
       </c>
       <c r="I31" t="s">
         <v>143</v>
@@ -3923,7 +4376,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>637</v>
+        <v>776</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -3952,7 +4405,7 @@
         <v>206</v>
       </c>
       <c r="E33" t="s">
-        <v>638</v>
+        <v>777</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -3981,7 +4434,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>639</v>
+        <v>778</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -4033,22 +4486,22 @@
         <v>44126.0</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>710</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>72</v>
+        <v>779</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>684</v>
       </c>
       <c r="H36" t="s">
-        <v>91</v>
+        <v>712</v>
       </c>
       <c r="I36" t="s">
         <v>143</v>
@@ -4068,7 +4521,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>640</v>
+        <v>780</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -4097,7 +4550,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>641</v>
+        <v>781</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -4126,7 +4579,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>642</v>
+        <v>782</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -4155,7 +4608,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>643</v>
+        <v>783</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -4184,7 +4637,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>644</v>
+        <v>784</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -4213,7 +4666,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>645</v>
+        <v>785</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -4242,7 +4695,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>646</v>
+        <v>786</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -4271,7 +4724,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>647</v>
+        <v>787</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -4294,22 +4747,22 @@
         <v>2020.0</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>721</v>
       </c>
       <c r="D45" t="s">
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>72</v>
+        <v>788</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>74</v>
+        <v>684</v>
       </c>
       <c r="H45" t="s">
-        <v>91</v>
+        <v>692</v>
       </c>
       <c r="I45" t="s">
         <v>143</v>
@@ -4329,7 +4782,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>648</v>
+        <v>789</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -4352,22 +4805,22 @@
         <v>44136.0</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>724</v>
       </c>
       <c r="D47" t="s">
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>72</v>
+        <v>790</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
-        <v>74</v>
+        <v>684</v>
       </c>
       <c r="H47" t="s">
-        <v>91</v>
+        <v>726</v>
       </c>
       <c r="I47" t="s">
         <v>143</v>
@@ -4387,7 +4840,7 @@
         <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>649</v>
+        <v>791</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -4416,7 +4869,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>650</v>
+        <v>792</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -4445,7 +4898,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>651</v>
+        <v>793</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -4474,7 +4927,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>652</v>
+        <v>794</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -4503,7 +4956,7 @@
         <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>653</v>
+        <v>795</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -4532,7 +4985,7 @@
         <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>654</v>
+        <v>796</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -4555,22 +5008,22 @@
         <v>44172.0</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>733</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>797</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
+        <v>684</v>
       </c>
       <c r="H54" t="s">
-        <v>91</v>
+        <v>712</v>
       </c>
       <c r="I54" t="s">
         <v>143</v>
@@ -4590,7 +5043,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>655</v>
+        <v>798</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -4619,7 +5072,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>656</v>
+        <v>799</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -4648,7 +5101,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>657</v>
+        <v>800</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -4677,7 +5130,7 @@
         <v>301</v>
       </c>
       <c r="E58" t="s">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -4706,7 +5159,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>659</v>
+        <v>802</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -4735,7 +5188,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>660</v>
+        <v>803</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -4764,7 +5217,7 @@
         <v>316</v>
       </c>
       <c r="E61" t="s">
-        <v>661</v>
+        <v>804</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -4793,7 +5246,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>662</v>
+        <v>805</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -4822,7 +5275,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>663</v>
+        <v>806</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -4851,7 +5304,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>664</v>
+        <v>807</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -4880,7 +5333,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>665</v>
+        <v>808</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5461" uniqueCount="936">
   <si>
     <t>Doi</t>
   </si>
@@ -3115,6 +3115,397 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,      Calvo%Boyero Fernando%coreGivesNoEmail%1,      Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,      COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,      Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,      Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,      L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,      Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,      Santos%Lozano Alejandro%coreGivesNoEmail%1,      Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,          Min%He%NULL%1,          Wanhong%Yin%NULL%1,          Xuelian%Liao%NULL%1,          Bo%Wang%NULL%7,          Xiaodong%Jin%NULL%1,          Yao%Ma%NULL%2,          Jirong%Yue%NULL%1,          Lang%Bai%NULL%1,          Dan%Liu%NULL%3,          Ting%Zhu%NULL%1,          Zhixin%Huang%NULL%1,          Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,          Shuchang%Zhou%NULL%1,          Yujin%Wang%NULL%1,          Wenzhi%Lv%NULL%2,          Shili%Wang%NULL%1,          Ting%Wang%751884926@qq.com%1,          Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,          Yan-chak%Li%NULL%1,          Sonali%Bose%NULL%1,          Ravi%Iyengar%NULL%1,          Supinda%Bunyavanich%NULL%1,          Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,           Hai-Tao%Zhang%null%1,           Jorge%Goncalves%null%1,           Yang%Xiao%null%3,           Maolin%Wang%null%1,           Yuqi%Guo%null%1,           Chuan%Sun%null%1,           Xiuchuan%Tang%null%1,           Liang%Jing%null%1,           Mingyang%Zhang%null%1,           Xiang%Huang%null%1,           Ying%Xiao%null%1,           Haosen%Cao%null%1,           Yanyan%Chen%null%1,           Tongxin%Ren%null%1,           Fang%Wang%null%1,           Yaru%Xiao%null%1,           Sufang%Huang%null%1,           Xi%Tan%null%1,           Niannian%Huang%null%1,           Bo%Jiao%null%1,           Cheng%Cheng%null%1,           Yong%Zhang%null%1,           Ailin%Luo%null%1,           Laurent%Mombaerts%null%1,           Junyang%Jin%null%1,           Zhiguo%Cao%null%1,           Shusheng%Li%null%7,           Hui%Xu%null%1,           Ye%Yuan%null%2,         Li%Yan%null%1,         Hai-Tao%Zhang%null%1,         Jorge%Goncalves%null%1,         Yang%Xiao%null%1,         Maolin%Wang%null%1,         Yuqi%Guo%null%1,         Chuan%Sun%null%1,         Xiuchuan%Tang%null%1,         Liang%Jing%null%1,         Mingyang%Zhang%null%1,         Xiang%Huang%null%1,         Ying%Xiao%null%1,         Haosen%Cao%null%1,         Yanyan%Chen%null%1,         Tongxin%Ren%null%1,         Fang%Wang%null%1,         Yaru%Xiao%null%1,         Sufang%Huang%null%1,         Xi%Tan%null%1,         Niannian%Huang%null%1,         Bo%Jiao%null%1,         Cheng%Cheng%null%1,         Yong%Zhang%null%1,         Ailin%Luo%null%1,         Laurent%Mombaerts%null%1,         Junyang%Jin%null%1,         Zhiguo%Cao%null%1,         Shusheng%Li%null%0,         Hui%Xu%null%1,         Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,          Mengfei%Guo%NULL%1,          Limin%Duan%NULL%1,          Feng%Wu%NULL%1,          Guorong%Hu%NULL%1,          Zhihui%Wang%NULL%1,          Qi%Huang%NULL%1,          Tingting%Liao%NULL%1,          Juanjuan%Xu%NULL%1,          Yanling%Ma%NULL%1,          Zhilei%Lv%NULL%1,          Wenjing%Xiao%NULL%1,          Zilin%Zhao%NULL%1,          Xueyun%Tan%NULL%1,          Daquan%Meng%NULL%1,          Shujing%Zhang%NULL%1,          E%Zhou%NULL%1,          Zhengrong%Yin%NULL%1,          Wei%Geng%NULL%1,          Xuan%Wang%NULL%1,          Jianchu%Zhang%NULL%1,          Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,          Yu%Zhang%whxhzy@163.com%1,          Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,          Francesco%Arru%NULL%2,          Francesco%Arru%NULL%0,          Andrea%De Vito%NULL%3,          Alessandro%Sassu%NULL%2,          Alessandro%Sassu%NULL%0,          Giovanni%Valdes%NULL%1,          Valentina%Scano%NULL%1,          Elisabetta%Zinellu%NULL%1,          Roberto%Perra%NULL%1,          Giordano%Madeddu%NULL%3,          Ciriaco%Carru%NULL%1,          Pietro%Pirina%NULL%3,          Arduino A.%Mangoni%NULL%2,          Arduino A.%Mangoni%NULL%0,          Sergio%Babudieri%NULL%4,          Sergio%Babudieri%NULL%0,          Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,          Pablo%Ryan%NULL%1,          Jorge%Valencia%NULL%2,          Jorge%Valencia%NULL%0,          Mario%Pérez-Butragueño%NULL%2,          Mario%Pérez-Butragueño%NULL%0,          Eva%Jiménez%NULL%2,          Eva%Jiménez%NULL%0,          Mario%Fontán-Vela%NULL%1,          Elsa%Izquierdo-García%NULL%2,          Elsa%Izquierdo-García%NULL%0,          Inés%Fernandez-Jimenez%NULL%1,          Elena%Álvaro-Alonso%NULL%1,          Andrea%Lazaro%NULL%2,          Andrea%Lazaro%NULL%0,          Marta%Alvarado%NULL%1,          Helena%Notario%NULL%1,          Salvador%Resino%NULL%1,          Daniel%Velez-Serrano%NULL%1,          Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,          Yiru%Wang%NULL%2,          Xuecheng%Zhao%NULL%1,          Lixuan%Wang%NULL%1,          Feng%Liu%NULL%3,          Tao%Wang%NULL%15,          Dawei%Ye%NULL%2,          Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,          Valentina%Zuccaro%NULL%1,          Luca%Novelli%NULL%1,          Lorenzo%Zileri%NULL%2,          Lorenzo%Zileri%NULL%0,          Ciro%Celsa%NULL%1,          Federico%Raimondi%NULL%2,          Federico%Raimondi%NULL%0,          Mauro%Gori%NULL%1,          Giulia%Cammà%NULL%1,          Salvatore%Battaglia%NULL%1,          Vincenzo Giuseppe%Genova%NULL%1,          Laura%Paris%NULL%1,          Matteo%Tacelli%NULL%1,          Francesco Antonio%Mancarella%NULL%1,          Marco%Enea%NULL%1,          Massimo%Attanasio%NULL%1,          Michele%Senni%NULL%1,          Fabiano%Di Marco%NULL%1,          Luca Ferdinando%Lorini%NULL%1,          Stefano%Fagiuoli%NULL%1,          Raffaele%Bruno%NULL%2,          Calogero%Cammà%NULL%1,          Antonio%Gasbarrini%NULL%3,          Francesco%Di Gennaro%NULL%2,          Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,          Gan-xun%Li%NULL%1,          Lin%Chen%NULL%3,          Chang%Shu%NULL%2,          Jia%Song%NULL%1,          Wei%Wang%NULL%2,          Yu-wei%Wang%NULL%1,          Qian%Chen%NULL%2,          Guan-nan%Jin%NULL%1,          Tong-tong%Liu%NULL%1,          Jun-nan%Liang%NULL%1,          Peng%Zhu%NULL%1,          Wei%Zhu%NULL%5,          Yong%Li%NULL%2,          Bin-hao%Zhang%NULL%1,          Huan%Feng%NULL%1,          Wan-guang%Zhang%NULL%1,          Zhen-yu%Yin%NULL%1,          Wen-kui%Yu%NULL%1,          Yang%Yang%NULL%2,          Hua-qiu%Zhang%NULL%1,          Zhou-ping%Tang%NULL%1,          Hui%Wang%NULL%4,          Jun-bo%Hu%NULL%1,          Ji-hong%Liu%NULL%1,          Ping%Yin%NULL%1,          Xiao-ping%Chen%NULL%1,          Bixiang%Zhang%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,          Günay%Can%NULL%2,          Günay%Can%NULL%0,          Rıdvan%Karaali%NULL%1,          Şermin%Börekçi%NULL%1,          İlker İnanç%Balkan%NULL%1,          Bilun%Gemicioğlu%NULL%1,          Dildar%Konukoğlu%NULL%1,          Ethem%Erginöz%NULL%1,          Mehmet Sarper%Erdoğan%NULL%1,          Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,          Danila%Azzolina%NULL%1,          Eyal%Hayden%NULL%2,          Eyal%Hayden%NULL%0,          Gianluca%Gaidano%NULL%2,          Gianluca%Gaidano%NULL%0,          Mario%Pirisi%NULL%2,          Mario%Pirisi%NULL%0,          Antonio%Acquaviva%NULL%2,          Antonio%Acquaviva%NULL%0,          Gianluca%Aimaretti%NULL%2,          Gianluca%Aimaretti%NULL%0,          Paolo%Aluffi Valletti%NULL%3,          Paolo%Aluffi Valletti%NULL%0,          Roberto%Angilletta%NULL%2,          Roberto%Angilletta%NULL%0,          Roberto%Arioli%NULL%2,          Roberto%Arioli%NULL%0,          Gian Carlo%Avanzi%NULL%2,          Gian Carlo%Avanzi%NULL%0,          Gianluca%Avino%NULL%2,          Gianluca%Avino%NULL%0,          Piero Emilio%Balbo%NULL%2,          Piero Emilio%Balbo%NULL%0,          Giulia%Baldon%NULL%2,          Giulia%Baldon%NULL%0,          Francesca%Baorda%NULL%2,          Francesca%Baorda%NULL%0,          Emanuela%Barbero%NULL%2,          Emanuela%Barbero%NULL%0,          Alessio%Baricich%NULL%2,          Alessio%Baricich%NULL%0,          Michela%Barini%NULL%2,          Michela%Barini%NULL%0,          Francesco%Barone-Adesi%NULL%2,          Francesco%Barone-Adesi%NULL%0,          Sofia%Battistini%NULL%2,          Sofia%Battistini%NULL%0,          Michela%Beltrame%NULL%2,          Michela%Beltrame%NULL%0,          Matteo%Bertoli%NULL%2,          Matteo%Bertoli%NULL%0,          Stephanie%Bertolin%NULL%2,          Stephanie%Bertolin%NULL%0,          Marinella%Bertolotti%NULL%2,          Marinella%Bertolotti%NULL%0,          Marta%Betti%NULL%2,          Marta%Betti%NULL%0,          Flavio%Bobbio%NULL%2,          Flavio%Bobbio%NULL%0,          Paolo%Boffano%NULL%2,          Paolo%Boffano%NULL%0,          Lucio%Boglione%NULL%2,          Lucio%Boglione%NULL%0,          Silvio%Borrè%NULL%2,          Silvio%Borrè%NULL%0,          Matteo%Brucoli%NULL%2,          Matteo%Brucoli%NULL%0,          Elisa%Calzaducca%NULL%2,          Elisa%Calzaducca%NULL%0,          Edoardo%Cammarata%NULL%2,          Edoardo%Cammarata%NULL%0,          Vincenzo%Cantaluppi%NULL%2,          Vincenzo%Cantaluppi%NULL%0,          Roberto%Cantello%NULL%2,          Roberto%Cantello%NULL%0,          Andrea%Capponi%NULL%2,          Andrea%Capponi%NULL%0,          Alessandro%Carriero%NULL%2,          Alessandro%Carriero%NULL%0,          Giuseppe Francesco%Casciaro%NULL%2,          Giuseppe Francesco%Casciaro%NULL%0,          Luigi Mario%Castello%NULL%2,          Luigi Mario%Castello%NULL%0,          Federico%Ceruti%NULL%2,          Federico%Ceruti%NULL%0,          Guido%Chichino%NULL%2,          Guido%Chichino%NULL%0,          Emilio%Chirico%NULL%2,          Emilio%Chirico%NULL%0,          Carlo%Cisari%NULL%1,          Micol Giulia%Cittone%NULL%2,          Micol Giulia%Cittone%NULL%0,          Crizia%Colombo%NULL%2,          Crizia%Colombo%NULL%0,          Cristoforo%Comi%NULL%2,          Cristoforo%Comi%NULL%0,          Eleonora%Croce%NULL%2,          Eleonora%Croce%NULL%0,          Tommaso%Daffara%NULL%2,          Tommaso%Daffara%NULL%0,          Pietro%Danna%NULL%2,          Pietro%Danna%NULL%0,          Francesco%Della Corte%NULL%2,          Francesco%Della Corte%NULL%0,          Simona%De Vecchi%NULL%2,          Simona%De Vecchi%NULL%0,          Umberto%Dianzani%NULL%2,          Umberto%Dianzani%NULL%0,          Davide%Di Benedetto%NULL%2,          Davide%Di Benedetto%NULL%0,          Elia%Esposto%NULL%2,          Elia%Esposto%NULL%0,          Fabrizio%Faggiano%NULL%2,          Fabrizio%Faggiano%NULL%0,          Zeno%Falaschi%NULL%2,          Zeno%Falaschi%NULL%0,          Daniela%Ferrante%NULL%2,          Daniela%Ferrante%NULL%0,          Alice%Ferrero%NULL%2,          Alice%Ferrero%NULL%0,          Ileana%Gagliardi%NULL%2,          Ileana%Gagliardi%NULL%0,          Alessandra%Galbiati%NULL%2,          Alessandra%Galbiati%NULL%0,          Silvia%Gallo%NULL%2,          Silvia%Gallo%NULL%0,          Pietro Luigi%Garavelli%NULL%2,          Pietro Luigi%Garavelli%NULL%0,          Clara Ada%Gardino%NULL%2,          Clara Ada%Gardino%NULL%0,          Massimiliano%Garzaro%NULL%3,          Massimiliano%Garzaro%NULL%0,          Maria Luisa%Gastaldello%NULL%2,          Maria Luisa%Gastaldello%NULL%0,          Francesco%Gavelli%NULL%2,          Francesco%Gavelli%NULL%0,          Alessandra%Gennari%NULL%2,          Alessandra%Gennari%NULL%0,          Greta Maria%Giacomini%NULL%2,          Greta Maria%Giacomini%NULL%0,          Irene%Giacone%NULL%2,          Irene%Giacone%NULL%0,          Valentina%Giai Via%NULL%2,          Valentina%Giai Via%NULL%0,          Francesca%Giolitti%NULL%2,          Francesca%Giolitti%NULL%0,          Laura Cristina%Gironi%NULL%2,          Laura Cristina%Gironi%NULL%0,          Carla%Gramaglia%NULL%2,          Carla%Gramaglia%NULL%0,          Leonardo%Grisafi%NULL%2,          Leonardo%Grisafi%NULL%0,          Ilaria%Inserra%NULL%2,          Ilaria%Inserra%NULL%0,          Marco%Invernizzi%NULL%2,          Marco%Invernizzi%NULL%0,          Marco%Krengli%NULL%2,          Marco%Krengli%NULL%0,          Emanuela%Labella%NULL%2,          Emanuela%Labella%NULL%0,          Irene Cecilia%Landi%NULL%2,          Irene Cecilia%Landi%NULL%0,          Raffaella%Landi%NULL%2,          Raffaella%Landi%NULL%0,          Ilaria%Leone%NULL%2,          Ilaria%Leone%NULL%0,          Veronica%Lio%NULL%2,          Veronica%Lio%NULL%0,          Luca%Lorenzini%NULL%2,          Luca%Lorenzini%NULL%0,          Antonio%Maconi%NULL%2,          Antonio%Maconi%NULL%0,          Mario%Malerba%NULL%2,          Mario%Malerba%NULL%0,          Giulia Francesca%Manfredi%NULL%2,          Giulia Francesca%Manfredi%NULL%0,          Maria%Martelli%NULL%2,          Maria%Martelli%NULL%0,          Letizia%Marzari%NULL%2,          Letizia%Marzari%NULL%0,          Paolo%Marzullo%NULL%2,          Paolo%Marzullo%NULL%0,          Marco%Mennuni%NULL%2,          Marco%Mennuni%NULL%0,          Claudia%Montabone%NULL%2,          Claudia%Montabone%NULL%0,          Umberto%Morosini%NULL%2,          Umberto%Morosini%NULL%0,          Marco%Mussa%NULL%2,          Marco%Mussa%NULL%0,          Ilaria%Nerici%NULL%2,          Ilaria%Nerici%NULL%0,          Alessandro%Nuzzo%NULL%2,          Alessandro%Nuzzo%NULL%0,          Carlo%Olivieri%NULL%2,          Carlo%Olivieri%NULL%0,          Samuel Alberto%Padelli%NULL%2,          Samuel Alberto%Padelli%NULL%0,          Massimiliano%Panella%NULL%2,          Massimiliano%Panella%NULL%0,          Andrea%Parisini%NULL%2,          Andrea%Parisini%NULL%0,          Alessio%Paschè%NULL%2,          Alessio%Paschè%NULL%0,          Filippo%Patrucco%NULL%2,          Filippo%Patrucco%NULL%0,          Giuseppe%Patti%NULL%2,          Giuseppe%Patti%NULL%0,          Alberto%Pau%NULL%2,          Alberto%Pau%NULL%0,          Anita Rebecca%Pedrinelli%NULL%2,          Anita Rebecca%Pedrinelli%NULL%0,          Ilaria%Percivale%NULL%2,          Ilaria%Percivale%NULL%0,          Luca%Ragazzoni%NULL%2,          Luca%Ragazzoni%NULL%0,          Roberta%Re%NULL%2,          Roberta%Re%NULL%0,          Cristina%Rigamonti%NULL%2,          Cristina%Rigamonti%NULL%0,          Eleonora%Rizzi%NULL%2,          Eleonora%Rizzi%NULL%0,          Andrea%Rognoni%NULL%2,          Andrea%Rognoni%NULL%0,          Annalisa%Roveta%NULL%2,          Annalisa%Roveta%NULL%0,          Luigia%Salamina%NULL%2,          Luigia%Salamina%NULL%0,          Matteo%Santagostino%NULL%2,          Matteo%Santagostino%NULL%0,          Massimo%Saraceno%NULL%2,          Massimo%Saraceno%NULL%0,          Paola%Savoia%NULL%2,          Paola%Savoia%NULL%0,          Marco%Sciarra%NULL%2,          Marco%Sciarra%NULL%0,          Andrea%Schimmenti%NULL%2,          Andrea%Schimmenti%NULL%0,          Lorenza%Scotti%NULL%2,          Lorenza%Scotti%NULL%0,          Enrico%Spinoni%NULL%2,          Enrico%Spinoni%NULL%0,          Carlo%Smirne%NULL%2,          Carlo%Smirne%NULL%0,          Vanessa%Tarantino%NULL%2,          Vanessa%Tarantino%NULL%0,          Paolo Amedeo%Tillio%NULL%2,          Paolo Amedeo%Tillio%NULL%0,          Stelvio%Tonello%NULL%2,          Stelvio%Tonello%NULL%0,          Rosanna%Vaschetto%NULL%2,          Rosanna%Vaschetto%NULL%0,          Veronica%Vassia%NULL%2,          Veronica%Vassia%NULL%0,          Domenico%Zagaria%NULL%2,          Domenico%Zagaria%NULL%0,          Elisa%Zavattaro%NULL%2,          Elisa%Zavattaro%NULL%0,          Patrizia%Zeppegno%NULL%2,          Patrizia%Zeppegno%NULL%0,          Francesca%Zottarelli%NULL%2,          Francesca%Zottarelli%NULL%0,          Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,          Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,          Marta%Ottone%NULL%2,          Marta%Ottone%NULL%0,          Tommaso%Fasano%NULL%1,          Pierpaolo%Pattacini%NULL%1,          Valentina%Iotti%NULL%1,          Lucia%Spaggiari%NULL%1,          Riccardo%Bonacini%NULL%1,          Andrea%Nitrosi%NULL%1,          Efrem%Bonelli%NULL%1,          Simone%Canovi%NULL%1,          Rossana%Colla%NULL%1,          Alessandro%Zerbini%NULL%1,          Marco%Massari%NULL%1,          Ivana%Lattuada%NULL%1,          Anna Maria%Ferrari%NULL%1,          Paolo%Giorgi Rossi%NULL%1,          Massimo%Costantini%NULL%1,          Roberto%Grilli%NULL%1,          Massimiliano%Marino%NULL%1,          Giulio%Formoso%NULL%1,          Debora%Formisano%NULL%1,          Emanuela%Bedeschi%NULL%1,          Cinzia%Perilli%NULL%1,          Elisabetta%La Rosa%NULL%1,          Eufemia%Bisaccia%NULL%1,          Ivano%Venturi%NULL%1,          Massimo%Vicentini%NULL%1,          Cinzia%Campari%NULL%1,          Francesco%Gioia%NULL%1,          Serena%Broccoli%NULL%1,          Pamela%Mancuso%NULL%1,          Marco%Foracchia%NULL%1,          Mirco%Pinotti%NULL%1,          Nicola%Facciolongo%NULL%1,          Laura%Trabucco%NULL%1,          Stefano%De Pietri%NULL%1,          Giorgio Francesco%Danelli%NULL%1,          Laura%Albertazzi%NULL%1,          Enrica%Bellesia%NULL%1,          Mattia%Corradini%NULL%1,          Elena%Magnani%NULL%1,          Annalisa%Pilia%NULL%1,          Alessandra%Polese%NULL%1,          Silvia Storchi%Incerti%NULL%1,          Piera%Zaldini%NULL%1,          Bonanno%Orsola%NULL%1,          Matteo%Revelli%NULL%1,          Carlo%Salvarani%NULL%1,          Carmine%Pinto%NULL%1,          Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,          Hong-Qiu%Gu%NULL%1,          Yi%Liu (刘艺)%NULL%1,          Guqin%Zhang%NULL%1,          Hang%Yang%NULL%1,          Huifang%Hu%NULL%1,          Chenyang%Lu%NULL%1,          Yang%Li%NULL%3,          Liyi%Wang%NULL%1,          Yi%Liu (刘毅)%yi2006liu@163.com%1,          Yi%Zhao%zhao.y1977@163.com%1,          Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,          Tawsifur%Rahman%NULL%2,          Tawsifur%Rahman%NULL%0,          Amith%Khandakar%NULL%3,          Somaya%Al-Madeed%NULL%2,          Susu M.%Zughaier%NULL%5,          Suhail A. R.%Doi%NULL%3,          Hanadi%Hassen%NULL%1,          Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,          Jia%Sun%NULL%1,          Yi-Xin%Li%NULL%1,          Qian%Chen%NULL%0,          Qing-Quan%Liu%NULL%1,          Zhou%Sun%NULL%1,          Ran%Pang%NULL%1,          Fei%Chen%NULL%1,          Bing-Yang%Xu%NULL%1,          Anne%Manyande%NULL%1,          Taane G%Clark%NULL%1,          Jin-Ping%Li%NULL%1,          Ilkay Erdogan%Orhan%NULL%1,          Yu-Ke%Tian%NULL%1,          Tao%Wang%wt7636@126.com%0,          Wei%Wu%wt7636@126.com%1,          Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,   Xinyan%Cai%xref no email%1,   Robert%Lennon%xref no email%1,   Derjung M.%Tarn%xref no email%1,   Arch G.%Mainous%xref no email%1,   Aleksandra E.%Zgierska%xref no email%1,   Bruce%Barrett%xref no email%1,   Wen-Jan%Tuan%xref no email%1,   Kevin%Maloy%xref no email%1,   Munish%Goyal%xref no email%1,   Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,       Imam%Z%coreGivesNoEmail%1,       Lippi%G%coreGivesNoEmail%1,       Oran%DP%coreGivesNoEmail%1,       Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,          Caiping%Song%NULL%1,          En%Liu%NULL%1,          Xi%Liu%NULL%1,          Hao%Wu%NULL%1,          Hui%Lin%NULL%1,          Yuliang%Liu%NULL%1,          Qi%Li%NULL%1,          Zhi%Xu%NULL%1,          XiaoBao%Ren%NULL%1,          Cheng%Zhang%NULL%1,          Wenjing%Zhang%NULL%1,          Wei%Duan%NULL%2,          Yongfeng%Tian%NULL%1,          Ping%Li%NULL%1,          Mingdong%Hu%NULL%1,          Shiming%Yang%NULL%1,          Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,          Changli%Li%NULL%1,          Li%Zheng%NULL%1,          Wenzhi%Lv%NULL%0,          Zhigang%He%NULL%1,          Xinwu%Cui%NULL%1,          Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,   Liang%Li%xref no email%1,   Li%Wang%xref no email%1,   Huan%Liu%xref no email%2,   Xuefang%Lu%xref no email%1,   Feifei%Zeng%xref no email%1,   Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,          Hayne Cho%Park%NULL%2,          Hayne Cho%Park%NULL%0,          Ajin%Cho%NULL%1,          Juhee%Kim%NULL%1,          Kyu-sang%Yun%NULL%1,          Jinseog%Kim%NULL%1,          Young-Ki%Lee%NULL%1,          Sinan%Kardes.%NULL%2,          Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,   Luyu%Yang%xref no email%1,   Qian%Zeng%xref no email%1,   Qingyun%Li%xref no email%1,   Zhitao%Yang%xref no email%1,   Lizhong%Han%xref no email%1,   Xiaodong%Huang%xref no email%1,   Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,          Xiaoyu%Fang%NULL%1,          Lixia%Cheng%NULL%1,          Penghao%Wang%NULL%1,          Shen%Li%NULL%1,          Hao%Yu%NULL%1,          Yao%Zhang%NULL%2,          Nan%Jiang%NULL%1,          Tingting%Zeng%NULL%1,          Chao%Hou%NULL%1,          Jing%Zhou%NULL%0,          Shiru%Li%NULL%1,          Yingzi%Pan%NULL%1,          Yitong%Li%NULL%1,          Lili%Nie%NULL%1,          Yang%Li%NULL%0,          Qidi%Sun%NULL%1,          Hong%Jia%NULL%1,          Mengxia%Li%NULL%1,          Guoqiang%Cao%NULL%1,          Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,          Lucas A%Ramos%NULL%2,          Lucas A%Ramos%NULL%0,          Wouter%Potters%NULL%1,          Marcus L F%Janssen%NULL%1,          Deborah%Hubers%NULL%1,          Shi%Hu%NULL%1,          Egill A%Fridgeirsson%NULL%1,          Dan%Piña-Fuentes%NULL%1,          Rajat%Thomas%NULL%1,          Iwan C C%van der Horst%NULL%1,          Christian%Herff%NULL%2,          Christian%Herff%NULL%0,          Pieter%Kubben%NULL%1,          Paul W G%Elbers%NULL%1,          Henk A%Marquering%NULL%1,          Max%Welling%NULL%1,          Suat%Simsek%NULL%1,          Martijn D%de Kruif%NULL%1,          Tom%Dormans%NULL%1,          Lucas M%Fleuren%NULL%1,          Michiel%Schinkel%NULL%1,          Peter G%Noordzij%NULL%1,          Joop P%van den Bergh%NULL%2,          Joop P%van den Bergh%NULL%0,          Caroline E%Wyers%NULL%1,          David T B%Buis%NULL%2,          David T B%Buis%NULL%0,          W Joost%Wiersinga%NULL%1,          Ella H C%van den Hout%NULL%1,          Auke C%Reidinga%NULL%1,          Daisy%Rusch%NULL%1,          Kim C E%Sigaloff%NULL%1,          Renee A%Douma%NULL%1,          Lianne%de Haan%NULL%1,          Niels C%Gritters van den Oever%NULL%1,          Roger J M W%Rennenberg%NULL%1,          Guido A%van Wingen%NULL%1,          Marcel J H%Aries%NULL%1,          Martijn%Beudel%NULL%2,          Martijn%Beudel%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,          Fajer A.%Al-Ishaq%NULL%2,          Fajer A.%Al-Ishaq%NULL%0,          Fatima S.%Al-Mohannadi%NULL%1,          Reem S.%Mubarak%NULL%1,          Maryam H.%Al-Hitmi%NULL%1,          Khandaker Reajul%Islam%NULL%1,          Amith%Khandakar%NULL%0,          Ali Ait%Hssain%NULL%3,          Ali Ait%Hssain%NULL%0,          Somaya%Al-Madeed%NULL%0,          Susu M.%Zughaier%NULL%0,          Susu M.%Zughaier%NULL%0,          Muhammad E. H.%Chowdhury%NULL%3,          Muhammad E. H.%Chowdhury%NULL%0,          Antonella%Santone%NULL%3,          Antonella%Santone%NULL%0,          Antonella%Santone%NULL%0,          Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,          Amith%Khandakar%NULL%0,          Md Enamul%Hoque%NULL%2,          Md Enamul%Hoque%NULL%0,          Nabil%Ibtehaz%NULL%2,          Nabil%Ibtehaz%NULL%0,          Saad Bin%Kashem%NULL%2,          Saad Bin%Kashem%NULL%0,          Reehum%Masud%NULL%1,          Lutfunnahar%Shampa%NULL%1,          Mohammad Mehedi%Hasan%NULL%1,          Mohammad Tariqul%Islam%NULL%1,          Somaya%Al-Maadeed%NULL%2,          Somaya%Al-Maadeed%NULL%0,          Susu M.%Zughaier%NULL%0,          Susu M.%Zughaier%NULL%0,          Saif%Badran%NULL%2,          Saif%Badran%NULL%0,          Suhail A. R.%Doi%NULL%0,          Suhail A. R.%Doi%NULL%0,          Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,          Pablo%Rodríguez-Belenguer%NULL%2,          Pablo%Rodríguez-Belenguer%NULL%0,          Antonio J.%Serrano-López%NULL%1,          Emilio%Soria-Olivas%NULL%2,          Emilio%Soria-Olivas%NULL%0,          Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,          Haibo%Ai%NULL%1,          Yunong%Fu%NULL%1,          Qinglin%Li%NULL%1,          Ruixia%Cui%NULL%1,          Xiaohua%Ma%NULL%1,          Yan-fen%Ma%NULL%1,          Zi%Wang%NULL%1,          Tong%Liu%NULL%1,          Yunxiang%Long%NULL%1,          Kai%Qu%NULL%1,          Chang%Liu%NULL%1,          Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,   Rongqing%Sun%xref no email%1,   Wenbo%Sun%xref no email%1,   Dan%Xu%xref no email%1,   Lan%Lan%xref no email%1,   Huan%Li%xref no email%1,   Huan%Liu%xref no email%0,   Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,          Dawei%Zhang%NULL%1,          Jing%Xu%NULL%6,          Zhu%Chen%NULL%1,          Tieniu%Yang%NULL%1,          Peng%Zhao%NULL%2,          Guofeng%Chen%NULL%1,          Gregory%Cheng%NULL%1,          Yudong%Wang%NULL%1,          Jingfeng%Bi%NULL%1,          Lin%Tan%NULL%1,          George%Lau%NULL%1,          Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,          Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,          Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,          Giulia%Suigo%NULL%1,          Davide%Zampini%NULL%1,          Matteo%Pistoia%NULL%1,          Mariella%Ciola%NULL%1,          Tommaso%Ciampani%NULL%1,          Carolina%Ultori%NULL%1,          Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,          John R%Adler%NULL%3,          Sultan M%Kamran%NULL%2,          Sultan M%Kamran%NULL%0,          Zill-e-Humayun%Mirza%NULL%1,          Hussain Abdul%Moeed%NULL%1,          Arshad%Naseem%NULL%1,          Maryam%Hussain%NULL%1,          Imran%Fazal%NULL%1,          Farrukh%Saeed%NULL%1,          Wasim%Alamgir%NULL%1,          Salman%Saleem%NULL%1,          Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,   Zilong%Liu%xref no email%1,   Weipeng%Jiang%xref no email%1,   Jian%Wang%xref no email%4,   Mengchan%Zhu%xref no email%1,   Juan%Song%xref no email%0,   Xiaoyue%Wang%xref no email%1,   Ying%Su%xref no email%1,   Guiling%Xiang%xref no email%1,   Maosong%Ye%xref no email%1,   Jiamin%Li%xref no email%1,   Yong%Zhang%xref no email%1,   Qinjun%Shen%xref no email%1,   Zhuozhe%Li%xref no email%1,   Danwei%Yao%xref no email%1,   Yuanlin%Song%xref no email%0,   Kaihuan%Yu%xref no email%1,   Zhe%Luo%xref no email%1,   Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,          María M.%Martín%NULL%1,          Mónica%Argueso%NULL%1,          Jordi%Solé-Violán%NULL%1,          Alina%Perez%NULL%1,          José Alberto%Marcos Y Ramos%NULL%1,          Luis%Ramos-Gómez%NULL%1,          Sergio%López%NULL%1,          Andrés%Franco%NULL%1,          Agustín F.%González-Rivero%NULL%1,          María%Martín%NULL%1,          Verónica%Gonzalez%NULL%1,          Julia%Alcoba-Flórez%NULL%1,          Miguel Ángel%Rodriguez%NULL%1,          Marta%Riaño-Ruiz%NULL%1,          Juan%Guillermo O Campo%NULL%1,          Lourdes%González%NULL%1,          Tamara%Cantera%NULL%1,          Raquel%Ortiz-López%NULL%1,          Nazario%Ojeda%NULL%1,          Aurelio%Rodríguez-Pérez%NULL%1,          Casimira%Domínguez%NULL%1,          Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,          Rita%Kukafka%NULL%1,          Arriel%Benis%NULL%2,          Arriel%Benis%NULL%0,          Jinfeng%Li%NULL%1,          Pan%Pan%NULL%2,          Pan%Pan%NULL%0,          Yichao%Li%NULL%2,          Yichao%Li%NULL%0,          Yongjiu%Xiao%NULL%2,          Yongjiu%Xiao%NULL%0,          Bingchao%Han%NULL%2,          Bingchao%Han%NULL%0,          Longxiang%Su%NULL%2,          Longxiang%Su%NULL%0,          Mingliang%Su%NULL%2,          Mingliang%Su%NULL%0,          Yansheng%Li%NULL%2,          Yansheng%Li%NULL%0,          Siqi%Zhang%NULL%2,          Siqi%Zhang%NULL%0,          Dapeng%Jiang%NULL%2,          Dapeng%Jiang%NULL%0,          Xia%Chen%NULL%2,          Xia%Chen%NULL%0,          Fuquan%Zhou%NULL%2,          Fuquan%Zhou%NULL%0,          Ling%Ma%NULL%2,          Ling%Ma%NULL%0,          Pengtao%Bao%NULL%2,          Pengtao%Bao%NULL%0,          Lixin%Xie%xielx301@126.com%2,          Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,          Cristina%Roca-Oporto%NULL%2,          Guillermo%Martín-Gutiérrez%NULL%2,          María Dolores%Avilés%NULL%2,          Carmen%Gómez-González%NULL%2,          María Dolores%Navarro-Amuedo%NULL%2,          Julia%Praena-Segovia%NULL%2,          José%Molina%NULL%2,          María%Paniagua-García%NULL%2,          Horacio%García-Delgado%NULL%2,          Antonio%Domínguez-Petit%NULL%2,          Jerónimo%Pachón%NULL%2,          José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,          Barry R.%Meisenberg%NULL%2,          Barry R.%Meisenberg%NULL%0,          James H.%MacDonald%NULL%1,          Nandakumar%Menon%NULL%1,          Marcia B.%Fowler%NULL%1,          Michaline%West%NULL%1,          Jane%Rhule%NULL%1,          Sadaf S.%Qureshi%NULL%1,          Eileen B.%MacDonald%NULL%1,          Yu Ru%Kou%NULL%2,          Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,          Sarah%Poole%NULL%2,          Sarah%Poole%NULL%0,          Meeta%Pradhan%NULL%1,          Akhil%Vaid%NULL%3,          Akhil%Vaid%NULL%0,          Sulaiman%Somani%NULL%3,          Sulaiman%Somani%NULL%0,          Adam J%Russak%NULL%2,          Adam J%Russak%NULL%0,          Jessica K%De Freitas%NULL%2,          Jessica K%De Freitas%NULL%0,          Fayzan F%Chaudhry%NULL%2,          Fayzan F%Chaudhry%NULL%0,          Ishan%Paranjpe%NULL%3,          Ishan%Paranjpe%NULL%0,          Kipp W%Johnson%NULL%2,          Kipp W%Johnson%NULL%0,          Samuel J%Lee%NULL%2,          Samuel J%Lee%NULL%0,          Riccardo%Miotto%NULL%2,          Riccardo%Miotto%NULL%0,          Felix%Richter%NULL%3,          Felix%Richter%NULL%0,          Shan%Zhao%NULL%3,          Shan%Zhao%NULL%0,          Noam D%Beckmann%NULL%2,          Noam D%Beckmann%NULL%0,          Nidhi%Naik%NULL%2,          Nidhi%Naik%NULL%0,          Arash%Kia%NULL%2,          Arash%Kia%NULL%0,          Prem%Timsina%NULL%2,          Prem%Timsina%NULL%0,          Anuradha%Lala%NULL%2,          Anuradha%Lala%NULL%0,          Manish%Paranjpe%NULL%2,          Manish%Paranjpe%NULL%0,          Eddye%Golden%NULL%2,          Eddye%Golden%NULL%0,          Matteo%Danieletto%NULL%2,          Matteo%Danieletto%NULL%0,          Manbir%Singh%NULL%2,          Manbir%Singh%NULL%0,          Dara%Meyer%NULL%2,          Dara%Meyer%NULL%0,          Paul F%O'Reilly%NULL%2,          Paul F%O'Reilly%NULL%0,          Laura%Huckins%NULL%2,          Laura%Huckins%NULL%0,          Patricia%Kovatch%NULL%3,          Patricia%Kovatch%NULL%0,          Joseph%Finkelstein%NULL%2,          Joseph%Finkelstein%NULL%0,          Robert M.%Freeman%NULL%2,          Robert M.%Freeman%NULL%0,          Edgar%Argulian%NULL%2,          Edgar%Argulian%NULL%0,          Andrew%Kasarskis%NULL%2,          Andrew%Kasarskis%NULL%0,          Bethany%Percha%NULL%2,          Bethany%Percha%NULL%0,          Judith A%Aberg%NULL%2,          Judith A%Aberg%NULL%0,          Emilia%Bagiella%NULL%3,          Emilia%Bagiella%NULL%0,          Carol R%Horowitz%NULL%2,          Carol R%Horowitz%NULL%0,          Barbara%Murphy%NULL%2,          Barbara%Murphy%NULL%0,          Eric J%Nestler%NULL%2,          Eric J%Nestler%NULL%0,          Eric E%Schadt%NULL%2,          Eric E%Schadt%NULL%0,          Judy H%Cho%NULL%2,          Judy H%Cho%NULL%0,          Carlos%Cordon-Cardo%NULL%3,          Carlos%Cordon-Cardo%NULL%0,          Valentin%Fuster%NULL%3,          Valentin%Fuster%NULL%0,          Dennis S%Charney%NULL%2,          Dennis S%Charney%NULL%0,          David L%Reich%NULL%2,          David L%Reich%NULL%0,          Erwin P%Bottinger%NULL%2,          Erwin P%Bottinger%NULL%0,          Matthew A%Levin%NULL%2,          Matthew A%Levin%NULL%0,          Jagat%Narula%NULL%3,          Jagat%Narula%NULL%0,          Zahi A%Fayad%NULL%2,          Zahi A%Fayad%NULL%0,          Allan C%Just%NULL%2,          Allan C%Just%NULL%0,          Alexander W%Charney%NULL%2,          Alexander W%Charney%NULL%0,          Girish N%Nadkarni%NULL%2,          Girish N%Nadkarni%NULL%0,          Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,          Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,          Anne%Chen%NULL%2,          Wei%Hou%NULL%3,          James M.%Graham%NULL%1,          Haifang%Li%NULL%2,          Paul S.%Richman%NULL%1,          Henry C.%Thode%NULL%1,          Adam J.%Singer%NULL%1,          Tim Q.%Duong%NULL%1,          Muhammad%Adrish%NULL%9,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,          Qin%Liu%NULL%2,          Xiao%Zhang%NULL%2,          Shuyi%Liu%NULL%1,          Weiqi%Chen%NULL%1,          Jingjing%You%NULL%1,          Qiuying%Chen%NULL%1,          Minmin%Li%NULL%1,          Zhuozhi%Chen%NULL%1,          Luyan%Chen%NULL%1,          Lv%Chen%NULL%1,          Yuhao%Dong%NULL%1,          Qingsi%Zeng%NULL%1,          Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,          Lei%Nie%NULL%1,          Dongde%Wu%NULL%1,          Jian%Chen%NULL%2,          Zhifeng%Yang%NULL%1,          Ling%Zhang%NULL%3,          Dongqing%Li%NULL%1,          Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,   Feiyang%Zhong%xref no email%1,   Hanfei%Zhang%xref no email%1,   Wenting%An%xref no email%1,   Meiyan%Liao%xref no email%1,   Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,          Burcin%Hakoglu%NULL%2,          Burcin%Hakoglu%NULL%0,          Ali%Kadri Cirak%NULL%1,          Gulru%Polat%NULL%1,          Berna%Komurcuoglu%NULL%1,          Berrin%Akkol%NULL%1,          Cagri%Atasoy%NULL%1,          Eda%Bayramic%NULL%1,          Gunseli%Balci%NULL%1,          Sena%Ataman%NULL%1,          Sinem%Ermin%NULL%1,          Enver%Yalniz%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1,   Lili%Huang%xref no email%1,   Jin%Chen%xref no email%1,   Xiaowei%Yuan%xref no email%1,   Qinhua%Shen%xref no email%1,   Su%Dong%xref no email%1,   Bei%Cheng%xref no email%1,   Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,          Qiaosen%Chen%NULL%2,          Qiaosen%Chen%NULL%0,          Sumeng%Li%NULL%1,          Huadong%Li%NULL%1,          Qian%Zhang%NULL%1,          Sihong%Lu%NULL%1,          Li%Wu%NULL%1,          Leiqun%Xiong%NULL%1,          Bobin%Mi%NULL%1,          Di%Liu%NULL%3,          Mengji%Lu%NULL%1,          Dongliang%Yang%NULL%1,          Hongbo%Jiang%hongbojiang3@163.com%1,          Shaoping%Zheng%zhengspxx@126.com%1,          Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,          Hua%Zhang%NULL%2,          Rui%Qiao%NULL%1,          Qinggang%Ge%NULL%1,          Shuisheng%Zhang%NULL%1,          Zongxuan%Zhao%NULL%1,          Ci%Tian%NULL%1,          Qingbian%Ma%NULL%2,          Qingbian%Ma%NULL%0,          Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,          Antonia%Ho%NULL%2,          Riinu%Pius%NULL%2,          Iain%Buchan%NULL%1,          Gail%Carson%NULL%2,          Thomas M%Drake%NULL%1,          Jake%Dunning%NULL%2,          Cameron J%Fairfield%NULL%2,          Carrol%Gamble%NULL%2,          Christopher A%Green%NULL%2,          Rishi%Gupta%NULL%1,          Sophie%Halpin%NULL%2,          Hayley E%Hardwick%NULL%1,          Karl A%Holden%NULL%1,          Peter W%Horby%NULL%2,          Clare%Jackson%NULL%2,          Kenneth A%Mclean%NULL%2,          Laura%Merson%NULL%2,          Jonathan S%Nguyen-Van-Tam%NULL%1,          Lisa%Norman%NULL%2,          Mahdad%Noursadeghi%NULL%2,          Piero L%Olliaro%NULL%1,          Mark G%Pritchard%NULL%1,          Clark D%Russell%NULL%2,          Catherine A%Shaw%NULL%2,          Aziz%Sheikh%NULL%2,          Tom%Solomon%NULL%2,          Cathie%Sudlow%NULL%1,          Olivia V%Swann%NULL%1,          Lance CW%Turtle%NULL%2,          Peter JM%Openshaw%NULL%2,          J Kenneth%Baillie%NULL%2,          Malcolm G%Semple%NULL%3,          Annemarie B%Docherty%NULL%3,          Annemarie B%Docherty%NULL%0,          Ewen M%Harrison%NULL%3,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          J Kenneth%Baillie%NULL%0,          Malcolm G%Semple%NULL%0,          Peter JM%Openshaw%NULL%0,          Gail%Carson%NULL%0,          Beatrice%Alex%NULL%1,          Benjamin%Bach%NULL%1,          Wendy S%Barclay%NULL%1,          Debby%Bogaert%NULL%1,          Meera%Chand%NULL%1,          Graham S%Cooke%NULL%1,          Annemarie B%Docherty%NULL%0,          Jake%Dunning%NULL%0,          Ana%da Silva Filipe%NULL%1,          Tom%Fletcher%NULL%1,          Christopher A%Green%NULL%0,          Ewen M%Harrison%NULL%0,          Julian A%Hiscox%NULL%1,          Antonia Ying Wai%Ho%NULL%1,          Peter W%Horby%NULL%0,          Samreen%Ijaz%NULL%1,          Saye%Khoo%NULL%1,          Paul%Klenerman%NULL%1,          Andrew%Law%NULL%2,          Wei Shen%Lim%NULL%1,          Alexander J%Mentzer%NULL%1,          Laura%Merson%NULL%0,          Alison M%Meynert%NULL%1,          Mahdad%Noursadeghi%NULL%0,          Shona C%Moore%NULL%2,          Massimo%Palmarini%NULL%1,          William A%Paxton%NULL%1,          Georgios%Pollakis%NULL%1,          Nicholas%Price%NULL%1,          Andrew%Rambaut%NULL%1,          David L%Robertson%NULL%1,          Clark D%Russell%NULL%0,          Vanessa%Sancho-Shimizu%NULL%1,          Janet T%Scott%NULL%1,          Louise%Sigfrid%NULL%1,          Tom%Solomon%NULL%0,          Shiranee%Sriskandan%NULL%1,          David%Stuart%NULL%1,          Charlotte%Summers%NULL%1,          Richard S%Tedder%NULL%1,          Emma C%Thomson%NULL%1,          Ryan S%Thwaites%NULL%1,          Lance CW%Turtle%NULL%0,          Maria%Zambon%NULL%1,          Hayley%Hardwick%NULL%1,          Chloe%Donohue%NULL%1,          Jane%Ewins%NULL%1,          Wilna%Oosthuyzen%NULL%1,          Fiona%Griffiths%NULL%1,          Lisa%Norman%NULL%0,          Riinu%Pius%NULL%0,          Tom M%Drake%NULL%1,          Cameron J%Fairfield%NULL%0,          Stephen%Knight%NULL%1,          Kenneth A%Mclean%NULL%0,          Derek%Murphy%NULL%1,          Catherine A%Shaw%NULL%0,          Jo%Dalton%NULL%1,          Michelle%Girvan%NULL%1,          Egle%Saviciute%NULL%1,          Stephanie%Roberts%NULL%1,          Janet%Harrison%NULL%1,          Laura%Marsh%NULL%1,          Marie%Connor%NULL%1,          Sophie%Halpin%NULL%0,          Clare%Jackson%NULL%0,          Carrol%Gamble%NULL%0,          Gary%Leeming%NULL%1,          Andrew%Law%NULL%0,          Ross%Hendry%NULL%1,          James%Scott-Brown%NULL%1,          William%Greenhalf%NULL%1,          Victoria%Shaw%NULL%1,          Sarah%McDonald%NULL%2,          Katie A%Ahmed%NULL%1,          Jane A%Armstrong%NULL%1,          Milton%Ashworth%NULL%1,          Innocent G%Asiimwe%NULL%1,          Siddharth%Bakshi%NULL%1,          Samantha L%Barlow%NULL%1,          Laura%Booth%NULL%1,          Benjamin%Brennan%NULL%1,          Katie%Bullock%NULL%1,          Benjamin WA%Catterall%NULL%1,          Jordan J%Clark%NULL%1,          Emily A%Clarke%NULL%1,          Sarah%Cole%NULL%1,          Louise%Cooper%NULL%1,          Helen%Cox%NULL%1,          Christopher%Davis%NULL%1,          Oslem%Dincarslan%NULL%1,          Chris%Dunn%NULL%1,          Philip%Dyer%NULL%1,          Angela%Elliott%NULL%1,          Anthony%Evans%NULL%1,          Lewis WS%Fisher%NULL%1,          Terry%Foster%NULL%1,          Isabel%Garcia-Dorival%NULL%1,          Willliam%Greenhalf%NULL%1,          Philip%Gunning%NULL%1,          Catherine%Hartley%NULL%1,          Antonia%Ho%NULL%0,          Rebecca L%Jensen%NULL%1,          Christopher B%Jones%NULL%1,          Trevor R%Jones%NULL%1,          Shadia%Khandaker%NULL%1,          Katharine%King%NULL%1,          Robyn T%Kiy%NULL%1,          Chrysa%Koukorava%NULL%1,          Annette%Lake%NULL%1,          Suzannah%Lant%NULL%1,          Diane%Latawiec%NULL%1,          L%Lavelle-Langham%NULL%1,          Daniella%Lefteri%NULL%1,          Lauren%Lett%NULL%1,          Lucia A%Livoti%NULL%1,          Maria%Mancini%NULL%1,          Sarah%McDonald%NULL%0,          Laurence%McEvoy%NULL%1,          John%McLauchlan%NULL%1,          Soeren%Metelmann%NULL%1,          Nahida S%Miah%NULL%1,          Joanna%Middleton%NULL%1,          Joyce%Mitchell%NULL%1,          Shona C%Moore%NULL%0,          Ellen G%Murphy%NULL%1,          Rebekah%Penrice-Randal%NULL%1,          Jack%Pilgrim%NULL%1,          Tessa%Prince%NULL%1,          Will%Reynolds%NULL%1,          P Matthew%Ridley%NULL%1,          Debby%Sales%NULL%1,          Victoria E%Shaw%NULL%1,          Rebecca K%Shears%NULL%1,          Benjamin%Small%NULL%1,          Krishanthi S%Subramaniam%NULL%1,          Agnieska%Szemiel%NULL%1,          Aislynn%Taggart%NULL%1,          Jolanta%Tanianis-Hughes%NULL%1,          Jordan%Thomas%NULL%1,          Erwan%Trochu%NULL%1,          Libby%van Tonder%NULL%1,          Eve%Wilcock%NULL%1,          J Eunice%Zhang%NULL%1,          Kayode%Adeniji%NULL%1,          Daniel%Agranoff%NULL%1,          Ken%Agwuh%NULL%1,          Dhiraj%Ail%NULL%1,          Ana%Alegria%NULL%1,          Brian%Angus%NULL%1,          Abdul%Ashish%NULL%1,          Dougal%Atkinson%NULL%1,          Shahedal%Bari%NULL%1,          Gavin%Barlow%NULL%1,          Stella%Barnass%NULL%1,          Nicholas%Barrett%NULL%2,          Christopher%Bassford%NULL%1,          David%Baxter%NULL%1,          Michael%Beadsworth%NULL%1,          Jolanta%Bernatoniene%NULL%1,          John%Berridge%NULL%1,          Nicola%Best%NULL%1,          Pieter%Bothma%NULL%1,          David%Brealey%NULL%1,          Robin%Brittain-Long%NULL%1,          Naomi%Bulteel%NULL%1,          Tom%Burden%NULL%1,          Andrew%Burtenshaw%NULL%1,          Vikki%Caruth%NULL%1,          David%Chadwick%NULL%1,          Duncan%Chambler%NULL%1,          Nigel%Chee%NULL%1,          Jenny%Child%NULL%1,          Srikanth%Chukkambotla%NULL%1,          Tom%Clark%NULL%1,          Paul%Collini%NULL%1,          Catherine%Cosgrove%NULL%1,          Jason%Cupitt%NULL%1,          Maria-Teresa%Cutino-Moguel%NULL%1,          Paul%Dark%NULL%1,          Chris%Dawson%NULL%1,          Samir%Dervisevic%NULL%1,          Phil%Donnison%NULL%1,          Sam%Douthwaite%NULL%1,          Ingrid%DuRand%NULL%1,          Ahilanadan%Dushianthan%NULL%1,          Tristan%Dyer%NULL%1,          Cariad%Evans%NULL%1,          Chi%Eziefula%NULL%1,          Chrisopher%Fegan%NULL%1,          Adam%Finn%NULL%1,          Duncan%Fullerton%NULL%1,          Sanjeev%Garg%NULL%2,          Sanjeev%Garg%NULL%0,          Atul%Garg%NULL%1,          Jo%Godden%NULL%1,          Arthur%Goldsmith%NULL%1,          Clive%Graham%NULL%1,          Elaine%Hardy%NULL%1,          Stuart%Hartshorn%NULL%1,          Daniel%Harvey%NULL%1,          Peter%Havalda%NULL%1,          Daniel B%Hawcutt%NULL%1,          Maria%Hobrok%NULL%1,          Luke%Hodgson%NULL%1,          Anita%Holme%NULL%1,          Anil%Hormis%NULL%1,          Michael%Jacobs%NULL%1,          Susan%Jain%NULL%1,          Paul%Jennings%NULL%1,          Agilan%Kaliappan%NULL%1,          Vidya%Kasipandian%NULL%1,          Stephen%Kegg%NULL%1,          Michael%Kelsey%NULL%1,          Jason%Kendall%NULL%1,          Caroline%Kerrison%NULL%1,          Ian%Kerslake%NULL%1,          Oliver%Koch%NULL%2,          Gouri%Koduri%NULL%1,          George%Koshy%NULL%1,          Shondipon%Laha%NULL%1,          Susan%Larkin%NULL%1,          Tamas%Leiner%NULL%1,          Patrick%Lillie%NULL%1,          James%Limb%NULL%1,          Vanessa%Linnett%NULL%1,          Jeff%Little%NULL%1,          Michael%MacMahon%NULL%1,          Emily%MacNaughton%NULL%1,          Ravish%Mankregod%NULL%1,          Huw%Masson%NULL%1,          Elijah%Matovu%NULL%1,          Katherine%McCullough%NULL%1,          Ruth%McEwen%NULL%1,          Manjula%Meda%NULL%1,          Gary%Mills%NULL%1,          Jane%Minton%NULL%1,          Mariyam%Mirfenderesky%NULL%1,          Kavya%Mohandas%NULL%1,          Quen%Mok%NULL%1,          James%Moon%NULL%1,          Elinoor%Moore%NULL%1,          Patrick%Morgan%NULL%1,          Craig%Morris%NULL%1,          Katherine%Mortimore%NULL%1,          Samuel%Moses%NULL%1,          Mbiye%Mpenge%NULL%1,          Rohinton%Mulla%NULL%1,          Michael%Murphy%NULL%1,          Megan%Nagel%NULL%1,          Thapas%Nagarajan%NULL%1,          Mark%Nelson%NULL%1,          Igor%Otahal%NULL%1,          Mark%Pais%NULL%1,          Selva%Panchatsharam%NULL%1,          Hassan%Paraiso%NULL%1,          Brij%Patel%NULL%1,          Justin%Pepperell%NULL%1,          Mark%Peters%NULL%1,          Mandeep%Phull%NULL%1,          Stefania%Pintus%NULL%1,          Jagtur Singh%Pooni%NULL%1,          Frank%Post%NULL%1,          David%Price%NULL%1,          Rachel%Prout%NULL%1,          Nikolas%Rae%NULL%1,          Henrik%Reschreiter%NULL%1,          Tim%Reynolds%NULL%1,          Neil%Richardson%NULL%1,          Mark%Roberts%NULL%1,          Devender%Roberts%NULL%1,          Alistair%Rose%NULL%1,          Guy%Rousseau%NULL%1,          Brendan%Ryan%NULL%1,          Taranprit%Saluja%NULL%1,          Aarti%Shah%NULL%1,          Prad%Shanmuga%NULL%1,          Anil%Sharma%NULL%1,          Anna%Shawcross%NULL%1,          Jeremy%Sizer%NULL%1,          Richard%Smith%NULL%1,          Catherine%Snelson%NULL%1,          Nick%Spittle%NULL%1,          Nikki%Staines%NULL%1,          Tom%Stambach%NULL%1,          Richard%Stewart%NULL%1,          Pradeep%Subudhi%NULL%1,          Tamas%Szakmany%NULL%1,          Kate%Tatham%NULL%1,          Jo%Thomas%NULL%1,          Chris%Thompson%NULL%1,          Robert%Thompson%NULL%1,          Ascanio%Tridente%NULL%1,          Darell%Tupper-Carey%NULL%1,          Mary%Twagira%NULL%1,          Andrew%Ustianowski%NULL%1,          Nick%Vallotton%NULL%1,          Lisa%Vincent-Smith%NULL%1,          Shico%Visuvanathan%NULL%1,          Alan%Vuylsteke%NULL%1,          Sam%Waddy%NULL%1,          Rachel%Wake%NULL%1,          Andrew%Walden%NULL%1,          Ingeborg%Welters%NULL%1,          Tony%Whitehouse%NULL%1,          Paul%Whittaker%NULL%1,          Ashley%Whittington%NULL%1,          Meme%Wijesinghe%NULL%1,          Martin%Williams%NULL%1,          Lawrence%Wilson%NULL%1,          Sarah%Wilson%NULL%1,          Stephen%Winchester%NULL%1,          Martin%Wiselka%NULL%1,          Adam%Wolverson%NULL%1,          Daniel G%Wooton%NULL%1,          Andrew%Workman%NULL%1,          Bryan%Yates%NULL%1,          Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,          Braulio A.%Marfil‐Garza%NULL%1,          Erick%Martínez Rodríguez%NULL%1,          José Omar%Barreto Rodríguez%NULL%1,          Alicia Estela%López Romo%NULL%1,          Paolo%Alberti Minutti%NULL%1,          Juan Vicente%Alejandre Loya%NULL%1,          Félix Emmanuel%Pérez Talavera%NULL%1,          Freddy José%Ávila Cervera%NULL%1,          Adriana%Velazquez Burciaga%NULL%1,          Oscar%Morado Aramburo%NULL%1,          Luis Alberto%Piña Olguín%NULL%1,          Adrian%Soto‐Rodríguez%NULL%1,          Andrés%Castañeda Prado%NULL%1,          Patricio%Santillán Doherty%NULL%1,          Juan%O Galindo%NULL%1,          Luis Alberto%Guízar García%NULL%1,          Daniel%Hernández Gordillo%NULL%1,          Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,          Aatish%Patel%NULL%1,          Esmita%Charani%NULL%1,          Sarah%Denny%NULL%1,          Saleh A.%Alqahtani%NULL%1,          Gary W.%Davies%NULL%1,          Nabeela%Mughal%NULL%1,          Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,          Hyunsun%Lim%NULL%1,          Dong-Wook%Kim%NULL%1,          Jung Hyun%Chang%NULL%1,          Yoon Jung%Choi%chris316@yuhs.ac%1,          Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,   Rudong%Chen%xref no email%1,   Hongkuan%Yang%xref no email%1,   Junhong%Wang%xref no email%1,   Yuyang%Hou%xref no email%1,   Wei%Hu%xref no email%1,   Jiasheng%Yu%xref no email%1,   Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,          Wenhua%Liang%NULL%3,          Mei%Jiang%NULL%2,          Weijie%Guan%NULL%3,          Chen%Zhan%NULL%2,          Tao%Wang%NULL%0,          Chunli%Tang%NULL%3,          Ling%Sang%NULL%3,          Jiaxing%Liu%NULL%2,          Zhengyi%Ni%NULL%2,          Yu%Hu%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%5,          Chunliang%Lei%NULL%2,          Yixiang%Peng%NULL%2,          Li%Wei%NULL%5,          Yong%Liu%NULL%5,          Yahua%Hu%NULL%2,          Peng%Peng%NULL%7,          Jianming%Wang%NULL%2,          Jiyang%Liu%NULL%2,          Zhong%Chen%NULL%5,          Gang%Li%NULL%5,          Zhijian%Zheng%NULL%2,          Shaoqin%Qiu%NULL%2,          Jie%Luo%NULL%5,          Changjiang%Ye%NULL%2,          Shaoyong%Zhu%NULL%2,          Xiaoqing%Liu%NULL%2,          Linling%Cheng%NULL%2,          Feng%Ye%NULL%2,          Jinping%Zheng%NULL%2,          Nuofu%Zhang%NULL%2,          Yimin%Li%NULL%2,          Jianxing%He%NULL%2,          Shiyue%Li%lishiyue@188.com%3,          Nanshan%Zhong%NULL%4,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,          Liu%Hu%NULL%1,          Yiru%Wang%NULL%0,          Luyan%Huang%NULL%1,          Lingxi%Zhao%NULL%1,          Congcong%Zhang%NULL%1,          Xiyue%Liu%NULL%1,          Ranran%Xu%NULL%1,          Feng%Liu%NULL%0,          Jinping%Li%NULL%1,          Dawei%Ye%NULL%0,          Tao%Wang%NULL%0,          Yongman%Lv%lvyongman@126.com%0,          Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,          Carol A C%Coupland%NULL%1,          Ruth H%Keogh%NULL%1,          Karla%Diaz-Ordaz%NULL%1,          Elizabeth%Williamson%NULL%1,          Ewen M%Harrison%NULL%0,          Andrew%Hayward%NULL%1,          Harry%Hemingway%NULL%1,          Peter%Horby%NULL%1,          Nisha%Mehta%NULL%1,          Jonathan%Benger%NULL%1,          Kamlesh%Khunti%NULL%0,          David%Spiegelhalter%NULL%1,          Aziz%Sheikh%NULL%0,          Jonathan%Valabhji%NULL%0,          Ronan A%Lyons%NULL%1,          John%Robson%NULL%1,          Malcolm G%Semple%NULL%0,          Frank%Kee%NULL%1,          Peter%Johnson%NULL%1,          Susan%Jebb%NULL%1,          Tony%Williams%NULL%1,          Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,          Guang-Yao%Cai%NULL%1,          Wei%Fang%NULL%2,          Hua-Yi%Li%NULL%1,          Si-Yuan%Wang%NULL%2,          Si-Yuan%Wang%NULL%0,          Lingxi%Chen%NULL%1,          Yang%Yu%NULL%1,          Dan%Liu%NULL%0,          Sen%Xu%NULL%2,          Peng-Fei%Cui%NULL%1,          Shao-Qing%Zeng%NULL%2,          Shao-Qing%Zeng%NULL%0,          Xin-Xia%Feng%NULL%1,          Rui-Di%Yu%NULL%1,          Ya%Wang%NULL%2,          Yuan%Yuan%NULL%1,          Xiao-Fei%Jiao%NULL%1,          Jian-Hua%Chi%NULL%1,          Jia-Hao%Liu%NULL%1,          Ru-Yuan%Li%NULL%1,          Xu%Zheng%NULL%1,          Chun-Yan%Song%NULL%1,          Ning%Jin%NULL%1,          Wen-Jian%Gong%NULL%1,          Xing-Yu%Liu%NULL%1,          Lei%Huang%NULL%2,          Xun%Tian%NULL%1,          Lin%Li%NULL%1,          Hui%Xing%NULL%1,          Ding%Ma%NULL%1,          Chun-Rui%Li%NULL%1,          Fei%Ye%yeyuanbei@hotmail.com%1,          Qing-Lei%Gao%qingleigao@hotmail.com%2,          Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,          Ang%Li%NULL%1,          Mengfan%Jiao%NULL%1,          Qingmiao%Shi%NULL%1,          Xiaocai%An%NULL%1,          Yonghai%Feng%NULL%1,          Lihua%Xing%NULL%1,          Hongxia%Liang%NULL%1,          Jiajun%Chen%NULL%1,          Huiling%Li%NULL%1,          Juan%Li%NULL%0,          Zhigang%Ren%NULL%1,          Ranran%Sun%NULL%1,          Guangying%Cui%NULL%1,          Yongjian%Zhou%NULL%1,          Ming%Cheng%NULL%1,          Pengfei%Jiao%NULL%1,          Yu%Wang%NULL%2,          Jiyuan%Xing%NULL%1,          Shen%Shen%NULL%1,          Qingxian%Zhang%NULL%1,          Aiguo%Xu%NULL%1,          Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,          Michael%Ng%NULL%1,          Shuang%Xu%NULL%1,          Zhouming%Xu%NULL%1,          Hui%Qiu%NULL%1,          Yuwei%Liu%NULL%1,          Jiayou%Lyu%NULL%1,          Jiwen%You%NULL%1,          Peng%Zhao%NULL%0,          Shihao%Wang%NULL%1,          Yunfei%Tang%NULL%1,          Hao%Cui%NULL%1,          Changxiao%Yu%NULL%1,          Feng%Wang%NULL%5,          Fei%Shao%NULL%1,          Peng%Sun%NULL%1,          Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,          Huifang%Wang%NULL%1,          Junwei%Huang%NULL%1,          Yan%Geng%NULL%1,          Shuqi%Jiang%NULL%1,          Qiuping%Zhou%NULL%1,          Xuan%Chen%NULL%1,          Hongping%Hu%NULL%1,          Weifeng%Li%NULL%1,          Chengbin%Zhou%NULL%1,          Xinglin%Gao%NULL%1,          Na%Peng%pnatz@163.com%1,          Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,          Dandan%Cheng%NULL%1,          Yiwei%Cao%NULL%1,          Chuan%Hu%NULL%1,          Fenglin%Zou%NULL%1,          Wencheng%Yu%NULL%1,          Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,          Min Kyu%Kang%NULL%2,          Min Kyu%Kang%NULL%0,          Yu Rim%Lee%NULL%2,          Yu Rim%Lee%NULL%0,          Jeong Eun%Song%NULL%2,          Jeong Eun%Song%NULL%0,          Na Young%Kim%NULL%1,          Young Oh%Kweon%NULL%1,          Won Young%Tak%NULL%1,          Se Young%Jang%NULL%1,          Changhyeong%Lee%NULL%2,          Changhyeong%Lee%NULL%0,          Byung Seok%Kim%NULL%1,          Jae Seok%Hwang%NULL%1,          Byoung Kuk%Jang%NULL%1,          Jinmok%Bae%NULL%1,          Ji Yeon%Lee%NULL%0,          Jeong Ill%Suh%NULL%1,          Soo Young%Park%NULL%1,          Woo Jin%Chung%NULL%2,          Woo Jin%Chung%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,          Cristina%Roca-Oporto%NULL%0,          Guillermo%Martín-Gutiérrez%NULL%0,          María Dolores%Avilés%NULL%0,          Carmen%Gómez-González%NULL%0,          María Dolores%Navarro-Amuedo%NULL%0,          Julia%Praena-Segovia%NULL%0,          José%Molina%NULL%0,          María%Paniagua-García%NULL%0,          Horacio%García-Delgado%NULL%0,          Antonio%Domínguez-Petit%NULL%0,          Jerónimo%Pachón%NULL%0,          José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,       Calvo%Boyero Fernando%coreGivesNoEmail%1,       Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,       COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,       Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,       Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,       L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,       Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,       Santos%Lozano Alejandro%coreGivesNoEmail%1,       Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,           Min%He%NULL%1,           Wanhong%Yin%NULL%1,           Xuelian%Liao%NULL%1,           Bo%Wang%NULL%7,           Xiaodong%Jin%NULL%1,           Yao%Ma%NULL%3,           Jirong%Yue%NULL%1,           Lang%Bai%NULL%1,           Dan%Liu%NULL%3,           Ting%Zhu%NULL%1,           Zhixin%Huang%NULL%1,           Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,           Shuchang%Zhou%NULL%1,           Yujin%Wang%NULL%1,           Wenzhi%Lv%NULL%2,           Shili%Wang%NULL%1,           Ting%Wang%751884926@qq.com%1,           Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,           Yan-chak%Li%NULL%1,           Sonali%Bose%NULL%1,           Ravi%Iyengar%NULL%1,           Supinda%Bunyavanich%NULL%1,           Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The sudden increase in COVID-19 cases is putting high pressure on healthcare services worldwide.
+ At this stage, fast, accurate and early clinical assessment of the disease severity is vital.
+ To support decision making and logistical planning in healthcare systems, this study leverages a database of blood samples from 485 infected patients in the region of Wuhan, China, to identify crucial predictive biomarkers of disease mortality.
+ For this purpose, machine learning tools selected three biomarkers that predict the mortality of individual patients more than 10 days in advance with more than 90% accuracy: lactic dehydrogenase (LDH), lymphocyte and high-sensitivity C-reactive protein (hs-CRP).
+ In particular, relatively high levels of LDH alone seem to play a crucial role in distinguishing the vast majority of cases that require immediate medical attention.
+ This finding is consistent with current medical knowledge that high LDH levels are associated with tissue breakdown occurring in various diseases, including pulmonary disorders such as pneumonia.
+ Overall, this Article suggests a simple and operable decision rule to quickly predict patients at the highest risk, allowing them to be prioritized and potentially reducing the mortality rate.
+Early and accurate clinical assessment of disease severity in COVID-19 patients is essential for planning the allocation of scarce hospital resources.
+ An explainable machine learning tool trained on blood sample data from 485 patients from Wuhan selected three biomarkers for predicting mortality of individual patients with high accuracy.
+</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%0,  Hai-Tao%Zhang%null%1,  Jorge%Goncalves%null%1,  Yang%Xiao%null%1,  Maolin%Wang%null%1,  Yuqi%Guo%null%1,  Chuan%Sun%null%1,  Xiuchuan%Tang%null%1,  Liang%Jing%null%1,  Mingyang%Zhang%null%1,  Xiang%Huang%null%1,  Ying%Xiao%null%1,  Haosen%Cao%null%1,  Yanyan%Chen%null%1,  Tongxin%Ren%null%1,  Fang%Wang%null%1,  Yaru%Xiao%null%1,  Sufang%Huang%null%1,  Xi%Tan%null%1,  Niannian%Huang%null%1,  Bo%Jiao%null%1,  Cheng%Cheng%null%1,  Yong%Zhang%null%1,  Ailin%Luo%null%1,  Laurent%Mombaerts%null%1,  Junyang%Jin%null%1,  Zhiguo%Cao%null%1,  Shusheng%Li%null%1,  Hui%Xu%null%1,  Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,           Mengfei%Guo%NULL%1,           Limin%Duan%NULL%1,           Feng%Wu%NULL%1,           Guorong%Hu%NULL%1,           Zhihui%Wang%NULL%1,           Qi%Huang%NULL%1,           Tingting%Liao%NULL%1,           Juanjuan%Xu%NULL%1,           Yanling%Ma%NULL%1,           Zhilei%Lv%NULL%1,           Wenjing%Xiao%NULL%1,           Zilin%Zhao%NULL%1,           Xueyun%Tan%NULL%1,           Daquan%Meng%NULL%1,           Shujing%Zhang%NULL%1,           E%Zhou%NULL%1,           Zhengrong%Yin%NULL%1,           Wei%Geng%NULL%1,           Xuan%Wang%NULL%1,           Jianchu%Zhang%NULL%1,           Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,           Yu%Zhang%whxhzy@163.com%1,           Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,           Francesco%Arru%NULL%2,           Francesco%Arru%NULL%0,           Andrea%De Vito%NULL%3,           Alessandro%Sassu%NULL%2,           Alessandro%Sassu%NULL%0,           Giovanni%Valdes%NULL%1,           Valentina%Scano%NULL%1,           Elisabetta%Zinellu%NULL%1,           Roberto%Perra%NULL%1,           Giordano%Madeddu%NULL%3,           Ciriaco%Carru%NULL%1,           Pietro%Pirina%NULL%3,           Arduino A.%Mangoni%NULL%2,           Arduino A.%Mangoni%NULL%0,           Sergio%Babudieri%NULL%4,           Sergio%Babudieri%NULL%0,           Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,           Pablo%Ryan%NULL%3,           Jorge%Valencia%NULL%2,           Jorge%Valencia%NULL%0,           Mario%Pérez-Butragueño%NULL%2,           Mario%Pérez-Butragueño%NULL%0,           Eva%Jiménez%NULL%2,           Eva%Jiménez%NULL%0,           Mario%Fontán-Vela%NULL%1,           Elsa%Izquierdo-García%NULL%2,           Elsa%Izquierdo-García%NULL%0,           Inés%Fernandez-Jimenez%NULL%1,           Elena%Álvaro-Alonso%NULL%1,           Andrea%Lazaro%NULL%2,           Andrea%Lazaro%NULL%0,           Marta%Alvarado%NULL%1,           Helena%Notario%NULL%1,           Salvador%Resino%NULL%1,           Daniel%Velez-Serrano%NULL%1,           Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,           Yiru%Wang%NULL%2,           Xuecheng%Zhao%NULL%1,           Lixuan%Wang%NULL%1,           Feng%Liu%NULL%3,           Tao%Wang%NULL%16,           Dawei%Ye%NULL%2,           Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,           Valentina%Zuccaro%NULL%1,           Luca%Novelli%NULL%1,           Lorenzo%Zileri%NULL%2,           Lorenzo%Zileri%NULL%0,           Ciro%Celsa%NULL%1,           Federico%Raimondi%NULL%2,           Federico%Raimondi%NULL%0,           Mauro%Gori%NULL%1,           Giulia%Cammà%NULL%1,           Salvatore%Battaglia%NULL%1,           Vincenzo Giuseppe%Genova%NULL%1,           Laura%Paris%NULL%1,           Matteo%Tacelli%NULL%1,           Francesco Antonio%Mancarella%NULL%1,           Marco%Enea%NULL%1,           Massimo%Attanasio%NULL%1,           Michele%Senni%NULL%1,           Fabiano%Di Marco%NULL%1,           Luca Ferdinando%Lorini%NULL%1,           Stefano%Fagiuoli%NULL%1,           Raffaele%Bruno%NULL%2,           Calogero%Cammà%NULL%1,           Antonio%Gasbarrini%NULL%3,           Francesco%Di Gennaro%NULL%2,           Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,           Gan-xun%Li%NULL%1,           Lin%Chen%NULL%3,           Chang%Shu%NULL%2,           Jia%Song%NULL%1,           Wei%Wang%NULL%2,           Yu-wei%Wang%NULL%1,           Qian%Chen%NULL%2,           Guan-nan%Jin%NULL%1,           Tong-tong%Liu%NULL%1,           Jun-nan%Liang%NULL%1,           Peng%Zhu%NULL%1,           Wei%Zhu%NULL%5,           Yong%Li%NULL%3,           Bin-hao%Zhang%NULL%1,           Huan%Feng%NULL%1,           Wan-guang%Zhang%NULL%1,           Zhen-yu%Yin%NULL%1,           Wen-kui%Yu%NULL%1,           Yang%Yang%NULL%2,           Hua-qiu%Zhang%NULL%1,           Zhou-ping%Tang%NULL%1,           Hui%Wang%NULL%4,           Jun-bo%Hu%NULL%1,           Ji-hong%Liu%NULL%1,           Ping%Yin%NULL%1,           Xiao-ping%Chen%NULL%1,           Bixiang%Zhang%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,           Günay%Can%NULL%2,           Günay%Can%NULL%0,           Rıdvan%Karaali%NULL%1,           Şermin%Börekçi%NULL%1,           İlker İnanç%Balkan%NULL%1,           Bilun%Gemicioğlu%NULL%1,           Dildar%Konukoğlu%NULL%1,           Ethem%Erginöz%NULL%1,           Mehmet Sarper%Erdoğan%NULL%1,           Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,           Danila%Azzolina%NULL%1,           Eyal%Hayden%NULL%2,           Eyal%Hayden%NULL%0,           Gianluca%Gaidano%NULL%2,           Gianluca%Gaidano%NULL%0,           Mario%Pirisi%NULL%2,           Mario%Pirisi%NULL%0,           Antonio%Acquaviva%NULL%2,           Antonio%Acquaviva%NULL%0,           Gianluca%Aimaretti%NULL%2,           Gianluca%Aimaretti%NULL%0,           Paolo%Aluffi Valletti%NULL%3,           Paolo%Aluffi Valletti%NULL%0,           Roberto%Angilletta%NULL%2,           Roberto%Angilletta%NULL%0,           Roberto%Arioli%NULL%2,           Roberto%Arioli%NULL%0,           Gian Carlo%Avanzi%NULL%2,           Gian Carlo%Avanzi%NULL%0,           Gianluca%Avino%NULL%2,           Gianluca%Avino%NULL%0,           Piero Emilio%Balbo%NULL%2,           Piero Emilio%Balbo%NULL%0,           Giulia%Baldon%NULL%2,           Giulia%Baldon%NULL%0,           Francesca%Baorda%NULL%2,           Francesca%Baorda%NULL%0,           Emanuela%Barbero%NULL%2,           Emanuela%Barbero%NULL%0,           Alessio%Baricich%NULL%2,           Alessio%Baricich%NULL%0,           Michela%Barini%NULL%2,           Michela%Barini%NULL%0,           Francesco%Barone-Adesi%NULL%2,           Francesco%Barone-Adesi%NULL%0,           Sofia%Battistini%NULL%2,           Sofia%Battistini%NULL%0,           Michela%Beltrame%NULL%2,           Michela%Beltrame%NULL%0,           Matteo%Bertoli%NULL%2,           Matteo%Bertoli%NULL%0,           Stephanie%Bertolin%NULL%2,           Stephanie%Bertolin%NULL%0,           Marinella%Bertolotti%NULL%2,           Marinella%Bertolotti%NULL%0,           Marta%Betti%NULL%2,           Marta%Betti%NULL%0,           Flavio%Bobbio%NULL%2,           Flavio%Bobbio%NULL%0,           Paolo%Boffano%NULL%2,           Paolo%Boffano%NULL%0,           Lucio%Boglione%NULL%2,           Lucio%Boglione%NULL%0,           Silvio%Borrè%NULL%2,           Silvio%Borrè%NULL%0,           Matteo%Brucoli%NULL%2,           Matteo%Brucoli%NULL%0,           Elisa%Calzaducca%NULL%2,           Elisa%Calzaducca%NULL%0,           Edoardo%Cammarata%NULL%2,           Edoardo%Cammarata%NULL%0,           Vincenzo%Cantaluppi%NULL%2,           Vincenzo%Cantaluppi%NULL%0,           Roberto%Cantello%NULL%2,           Roberto%Cantello%NULL%0,           Andrea%Capponi%NULL%2,           Andrea%Capponi%NULL%0,           Alessandro%Carriero%NULL%2,           Alessandro%Carriero%NULL%0,           Giuseppe Francesco%Casciaro%NULL%2,           Giuseppe Francesco%Casciaro%NULL%0,           Luigi Mario%Castello%NULL%2,           Luigi Mario%Castello%NULL%0,           Federico%Ceruti%NULL%2,           Federico%Ceruti%NULL%0,           Guido%Chichino%NULL%2,           Guido%Chichino%NULL%0,           Emilio%Chirico%NULL%2,           Emilio%Chirico%NULL%0,           Carlo%Cisari%NULL%1,           Micol Giulia%Cittone%NULL%2,           Micol Giulia%Cittone%NULL%0,           Crizia%Colombo%NULL%2,           Crizia%Colombo%NULL%0,           Cristoforo%Comi%NULL%2,           Cristoforo%Comi%NULL%0,           Eleonora%Croce%NULL%2,           Eleonora%Croce%NULL%0,           Tommaso%Daffara%NULL%2,           Tommaso%Daffara%NULL%0,           Pietro%Danna%NULL%2,           Pietro%Danna%NULL%0,           Francesco%Della Corte%NULL%2,           Francesco%Della Corte%NULL%0,           Simona%De Vecchi%NULL%2,           Simona%De Vecchi%NULL%0,           Umberto%Dianzani%NULL%2,           Umberto%Dianzani%NULL%0,           Davide%Di Benedetto%NULL%2,           Davide%Di Benedetto%NULL%0,           Elia%Esposto%NULL%2,           Elia%Esposto%NULL%0,           Fabrizio%Faggiano%NULL%2,           Fabrizio%Faggiano%NULL%0,           Zeno%Falaschi%NULL%2,           Zeno%Falaschi%NULL%0,           Daniela%Ferrante%NULL%2,           Daniela%Ferrante%NULL%0,           Alice%Ferrero%NULL%2,           Alice%Ferrero%NULL%0,           Ileana%Gagliardi%NULL%2,           Ileana%Gagliardi%NULL%0,           Alessandra%Galbiati%NULL%2,           Alessandra%Galbiati%NULL%0,           Silvia%Gallo%NULL%2,           Silvia%Gallo%NULL%0,           Pietro Luigi%Garavelli%NULL%2,           Pietro Luigi%Garavelli%NULL%0,           Clara Ada%Gardino%NULL%2,           Clara Ada%Gardino%NULL%0,           Massimiliano%Garzaro%NULL%3,           Massimiliano%Garzaro%NULL%0,           Maria Luisa%Gastaldello%NULL%2,           Maria Luisa%Gastaldello%NULL%0,           Francesco%Gavelli%NULL%2,           Francesco%Gavelli%NULL%0,           Alessandra%Gennari%NULL%2,           Alessandra%Gennari%NULL%0,           Greta Maria%Giacomini%NULL%2,           Greta Maria%Giacomini%NULL%0,           Irene%Giacone%NULL%2,           Irene%Giacone%NULL%0,           Valentina%Giai Via%NULL%2,           Valentina%Giai Via%NULL%0,           Francesca%Giolitti%NULL%2,           Francesca%Giolitti%NULL%0,           Laura Cristina%Gironi%NULL%2,           Laura Cristina%Gironi%NULL%0,           Carla%Gramaglia%NULL%2,           Carla%Gramaglia%NULL%0,           Leonardo%Grisafi%NULL%2,           Leonardo%Grisafi%NULL%0,           Ilaria%Inserra%NULL%2,           Ilaria%Inserra%NULL%0,           Marco%Invernizzi%NULL%2,           Marco%Invernizzi%NULL%0,           Marco%Krengli%NULL%2,           Marco%Krengli%NULL%0,           Emanuela%Labella%NULL%2,           Emanuela%Labella%NULL%0,           Irene Cecilia%Landi%NULL%2,           Irene Cecilia%Landi%NULL%0,           Raffaella%Landi%NULL%2,           Raffaella%Landi%NULL%0,           Ilaria%Leone%NULL%2,           Ilaria%Leone%NULL%0,           Veronica%Lio%NULL%2,           Veronica%Lio%NULL%0,           Luca%Lorenzini%NULL%2,           Luca%Lorenzini%NULL%0,           Antonio%Maconi%NULL%2,           Antonio%Maconi%NULL%0,           Mario%Malerba%NULL%2,           Mario%Malerba%NULL%0,           Giulia Francesca%Manfredi%NULL%2,           Giulia Francesca%Manfredi%NULL%0,           Maria%Martelli%NULL%2,           Maria%Martelli%NULL%0,           Letizia%Marzari%NULL%2,           Letizia%Marzari%NULL%0,           Paolo%Marzullo%NULL%2,           Paolo%Marzullo%NULL%0,           Marco%Mennuni%NULL%2,           Marco%Mennuni%NULL%0,           Claudia%Montabone%NULL%2,           Claudia%Montabone%NULL%0,           Umberto%Morosini%NULL%2,           Umberto%Morosini%NULL%0,           Marco%Mussa%NULL%2,           Marco%Mussa%NULL%0,           Ilaria%Nerici%NULL%2,           Ilaria%Nerici%NULL%0,           Alessandro%Nuzzo%NULL%2,           Alessandro%Nuzzo%NULL%0,           Carlo%Olivieri%NULL%2,           Carlo%Olivieri%NULL%0,           Samuel Alberto%Padelli%NULL%2,           Samuel Alberto%Padelli%NULL%0,           Massimiliano%Panella%NULL%2,           Massimiliano%Panella%NULL%0,           Andrea%Parisini%NULL%2,           Andrea%Parisini%NULL%0,           Alessio%Paschè%NULL%2,           Alessio%Paschè%NULL%0,           Filippo%Patrucco%NULL%2,           Filippo%Patrucco%NULL%0,           Giuseppe%Patti%NULL%2,           Giuseppe%Patti%NULL%0,           Alberto%Pau%NULL%2,           Alberto%Pau%NULL%0,           Anita Rebecca%Pedrinelli%NULL%2,           Anita Rebecca%Pedrinelli%NULL%0,           Ilaria%Percivale%NULL%2,           Ilaria%Percivale%NULL%0,           Luca%Ragazzoni%NULL%2,           Luca%Ragazzoni%NULL%0,           Roberta%Re%NULL%2,           Roberta%Re%NULL%0,           Cristina%Rigamonti%NULL%2,           Cristina%Rigamonti%NULL%0,           Eleonora%Rizzi%NULL%2,           Eleonora%Rizzi%NULL%0,           Andrea%Rognoni%NULL%2,           Andrea%Rognoni%NULL%0,           Annalisa%Roveta%NULL%2,           Annalisa%Roveta%NULL%0,           Luigia%Salamina%NULL%2,           Luigia%Salamina%NULL%0,           Matteo%Santagostino%NULL%2,           Matteo%Santagostino%NULL%0,           Massimo%Saraceno%NULL%2,           Massimo%Saraceno%NULL%0,           Paola%Savoia%NULL%2,           Paola%Savoia%NULL%0,           Marco%Sciarra%NULL%2,           Marco%Sciarra%NULL%0,           Andrea%Schimmenti%NULL%2,           Andrea%Schimmenti%NULL%0,           Lorenza%Scotti%NULL%2,           Lorenza%Scotti%NULL%0,           Enrico%Spinoni%NULL%2,           Enrico%Spinoni%NULL%0,           Carlo%Smirne%NULL%2,           Carlo%Smirne%NULL%0,           Vanessa%Tarantino%NULL%2,           Vanessa%Tarantino%NULL%0,           Paolo Amedeo%Tillio%NULL%2,           Paolo Amedeo%Tillio%NULL%0,           Stelvio%Tonello%NULL%2,           Stelvio%Tonello%NULL%0,           Rosanna%Vaschetto%NULL%2,           Rosanna%Vaschetto%NULL%0,           Veronica%Vassia%NULL%2,           Veronica%Vassia%NULL%0,           Domenico%Zagaria%NULL%2,           Domenico%Zagaria%NULL%0,           Elisa%Zavattaro%NULL%2,           Elisa%Zavattaro%NULL%0,           Patrizia%Zeppegno%NULL%2,           Patrizia%Zeppegno%NULL%0,           Francesca%Zottarelli%NULL%2,           Francesca%Zottarelli%NULL%0,           Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,           Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,           Marta%Ottone%NULL%2,           Marta%Ottone%NULL%0,           Tommaso%Fasano%NULL%1,           Pierpaolo%Pattacini%NULL%1,           Valentina%Iotti%NULL%1,           Lucia%Spaggiari%NULL%1,           Riccardo%Bonacini%NULL%1,           Andrea%Nitrosi%NULL%1,           Efrem%Bonelli%NULL%1,           Simone%Canovi%NULL%1,           Rossana%Colla%NULL%1,           Alessandro%Zerbini%NULL%1,           Marco%Massari%NULL%2,           Ivana%Lattuada%NULL%1,           Anna Maria%Ferrari%NULL%1,           Paolo%Giorgi Rossi%NULL%1,           Massimo%Costantini%NULL%1,           Roberto%Grilli%NULL%2,           Massimiliano%Marino%NULL%2,           Giulio%Formoso%NULL%1,           Debora%Formisano%NULL%2,           Emanuela%Bedeschi%NULL%1,           Cinzia%Perilli%NULL%1,           Elisabetta%La Rosa%NULL%1,           Eufemia%Bisaccia%NULL%1,           Ivano%Venturi%NULL%1,           Massimo%Vicentini%NULL%3,           Cinzia%Campari%NULL%1,           Francesco%Gioia%NULL%1,           Serena%Broccoli%NULL%1,           Pamela%Mancuso%NULL%1,           Marco%Foracchia%NULL%1,           Mirco%Pinotti%NULL%1,           Nicola%Facciolongo%NULL%1,           Laura%Trabucco%NULL%1,           Stefano%De Pietri%NULL%1,           Giorgio Francesco%Danelli%NULL%1,           Laura%Albertazzi%NULL%1,           Enrica%Bellesia%NULL%1,           Mattia%Corradini%NULL%1,           Elena%Magnani%NULL%1,           Annalisa%Pilia%NULL%1,           Alessandra%Polese%NULL%1,           Silvia Storchi%Incerti%NULL%1,           Piera%Zaldini%NULL%1,           Bonanno%Orsola%NULL%1,           Matteo%Revelli%NULL%1,           Carlo%Salvarani%NULL%1,           Carmine%Pinto%NULL%1,           Francesco%Venturelli%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,           Hong-Qiu%Gu%NULL%1,           Yi%Liu (刘艺)%NULL%1,           Guqin%Zhang%NULL%1,           Hang%Yang%NULL%1,           Huifang%Hu%NULL%1,           Chenyang%Lu%NULL%1,           Yang%Li%NULL%3,           Liyi%Wang%NULL%1,           Yi%Liu (刘毅)%yi2006liu@163.com%1,           Yi%Zhao%zhao.y1977@163.com%1,           Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,           Tawsifur%Rahman%NULL%2,           Tawsifur%Rahman%NULL%0,           Amith%Khandakar%NULL%3,           Somaya%Al-Madeed%NULL%2,           Susu M.%Zughaier%NULL%5,           Suhail A. R.%Doi%NULL%3,           Hanadi%Hassen%NULL%1,           Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,           Jia%Sun%NULL%1,           Yi-Xin%Li%NULL%1,           Qian%Chen%NULL%0,           Qing-Quan%Liu%NULL%1,           Zhou%Sun%NULL%1,           Ran%Pang%NULL%1,           Fei%Chen%NULL%1,           Bing-Yang%Xu%NULL%1,           Anne%Manyande%NULL%1,           Taane G%Clark%NULL%1,           Jin-Ping%Li%NULL%1,           Ilkay Erdogan%Orhan%NULL%1,           Yu-Ke%Tian%NULL%1,           Tao%Wang%wt7636@126.com%0,           Wei%Wu%wt7636@126.com%1,           Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,    Xinyan%Cai%xref no email%1,    Robert%Lennon%xref no email%1,    Derjung M.%Tarn%xref no email%1,    Arch G.%Mainous%xref no email%1,    Aleksandra E.%Zgierska%xref no email%1,    Bruce%Barrett%xref no email%1,    Wen-Jan%Tuan%xref no email%1,    Kevin%Maloy%xref no email%1,    Munish%Goyal%xref no email%1,    Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,        Imam%Z%coreGivesNoEmail%1,        Lippi%G%coreGivesNoEmail%1,        Oran%DP%coreGivesNoEmail%1,        Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,           Caiping%Song%NULL%1,           En%Liu%NULL%1,           Xi%Liu%NULL%1,           Hao%Wu%NULL%1,           Hui%Lin%NULL%1,           Yuliang%Liu%NULL%1,           Qi%Li%NULL%1,           Zhi%Xu%NULL%1,           XiaoBao%Ren%NULL%1,           Cheng%Zhang%NULL%1,           Wenjing%Zhang%NULL%1,           Wei%Duan%NULL%2,           Yongfeng%Tian%NULL%1,           Ping%Li%NULL%1,           Mingdong%Hu%NULL%1,           Shiming%Yang%NULL%1,           Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,           Changli%Li%NULL%1,           Li%Zheng%NULL%1,           Wenzhi%Lv%NULL%0,           Zhigang%He%NULL%1,           Xinwu%Cui%NULL%1,           Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,    Liang%Li%xref no email%1,    Li%Wang%xref no email%1,    Huan%Liu%xref no email%2,    Xuefang%Lu%xref no email%1,    Feifei%Zeng%xref no email%1,    Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,           Hayne Cho%Park%NULL%2,           Hayne Cho%Park%NULL%0,           Ajin%Cho%NULL%1,           Juhee%Kim%NULL%1,           Kyu-sang%Yun%NULL%1,           Jinseog%Kim%NULL%1,           Young-Ki%Lee%NULL%1,           Sinan%Kardes.%NULL%2,           Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,    Luyu%Yang%xref no email%1,    Qian%Zeng%xref no email%1,    Qingyun%Li%xref no email%1,    Zhitao%Yang%xref no email%1,    Lizhong%Han%xref no email%1,    Xiaodong%Huang%xref no email%1,    Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,           Xiaoyu%Fang%NULL%1,           Lixia%Cheng%NULL%1,           Penghao%Wang%NULL%1,           Shen%Li%NULL%1,           Hao%Yu%NULL%1,           Yao%Zhang%NULL%2,           Nan%Jiang%NULL%1,           Tingting%Zeng%NULL%1,           Chao%Hou%NULL%1,           Jing%Zhou%NULL%0,           Shiru%Li%NULL%1,           Yingzi%Pan%NULL%1,           Yitong%Li%NULL%1,           Lili%Nie%NULL%1,           Yang%Li%NULL%0,           Qidi%Sun%NULL%1,           Hong%Jia%NULL%1,           Mengxia%Li%NULL%1,           Guoqiang%Cao%NULL%1,           Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,           Lucas A%Ramos%NULL%2,           Lucas A%Ramos%NULL%0,           Wouter%Potters%NULL%1,           Marcus L F%Janssen%NULL%1,           Deborah%Hubers%NULL%1,           Shi%Hu%NULL%1,           Egill A%Fridgeirsson%NULL%1,           Dan%Piña-Fuentes%NULL%1,           Rajat%Thomas%NULL%1,           Iwan C C%van der Horst%NULL%1,           Christian%Herff%NULL%2,           Christian%Herff%NULL%0,           Pieter%Kubben%NULL%1,           Paul W G%Elbers%NULL%1,           Henk A%Marquering%NULL%1,           Max%Welling%NULL%1,           Suat%Simsek%NULL%1,           Martijn D%de Kruif%NULL%1,           Tom%Dormans%NULL%1,           Lucas M%Fleuren%NULL%1,           Michiel%Schinkel%NULL%1,           Peter G%Noordzij%NULL%1,           Joop P%van den Bergh%NULL%2,           Joop P%van den Bergh%NULL%0,           Caroline E%Wyers%NULL%1,           David T B%Buis%NULL%2,           David T B%Buis%NULL%0,           W Joost%Wiersinga%NULL%1,           Ella H C%van den Hout%NULL%1,           Auke C%Reidinga%NULL%1,           Daisy%Rusch%NULL%1,           Kim C E%Sigaloff%NULL%1,           Renee A%Douma%NULL%1,           Lianne%de Haan%NULL%1,           Niels C%Gritters van den Oever%NULL%1,           Roger J M W%Rennenberg%NULL%1,           Guido A%van Wingen%NULL%1,           Marcel J H%Aries%NULL%1,           Martijn%Beudel%NULL%2,           Martijn%Beudel%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,           Fajer A.%Al-Ishaq%NULL%2,           Fajer A.%Al-Ishaq%NULL%0,           Fatima S.%Al-Mohannadi%NULL%1,           Reem S.%Mubarak%NULL%1,           Maryam H.%Al-Hitmi%NULL%1,           Khandaker Reajul%Islam%NULL%1,           Amith%Khandakar%NULL%0,           Ali Ait%Hssain%NULL%3,           Ali Ait%Hssain%NULL%0,           Somaya%Al-Madeed%NULL%0,           Susu M.%Zughaier%NULL%0,           Susu M.%Zughaier%NULL%0,           Muhammad E. H.%Chowdhury%NULL%3,           Muhammad E. H.%Chowdhury%NULL%0,           Antonella%Santone%NULL%3,           Antonella%Santone%NULL%0,           Antonella%Santone%NULL%0,           Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,           Amith%Khandakar%NULL%0,           Md Enamul%Hoque%NULL%2,           Md Enamul%Hoque%NULL%0,           Nabil%Ibtehaz%NULL%2,           Nabil%Ibtehaz%NULL%0,           Saad Bin%Kashem%NULL%2,           Saad Bin%Kashem%NULL%0,           Reehum%Masud%NULL%1,           Lutfunnahar%Shampa%NULL%1,           Mohammad Mehedi%Hasan%NULL%1,           Mohammad Tariqul%Islam%NULL%1,           Somaya%Al-Maadeed%NULL%2,           Somaya%Al-Maadeed%NULL%0,           Susu M.%Zughaier%NULL%0,           Susu M.%Zughaier%NULL%0,           Saif%Badran%NULL%2,           Saif%Badran%NULL%0,           Suhail A. R.%Doi%NULL%0,           Suhail A. R.%Doi%NULL%0,           Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,           Pablo%Rodríguez-Belenguer%NULL%2,           Pablo%Rodríguez-Belenguer%NULL%0,           Antonio J.%Serrano-López%NULL%1,           Emilio%Soria-Olivas%NULL%2,           Emilio%Soria-Olivas%NULL%0,           Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,           Haibo%Ai%NULL%1,           Yunong%Fu%NULL%1,           Qinglin%Li%NULL%1,           Ruixia%Cui%NULL%1,           Xiaohua%Ma%NULL%1,           Yan-fen%Ma%NULL%1,           Zi%Wang%NULL%1,           Tong%Liu%NULL%1,           Yunxiang%Long%NULL%1,           Kai%Qu%NULL%1,           Chang%Liu%NULL%1,           Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,    Rongqing%Sun%xref no email%1,    Wenbo%Sun%xref no email%1,    Dan%Xu%xref no email%1,    Lan%Lan%xref no email%1,    Huan%Li%xref no email%1,    Huan%Liu%xref no email%0,    Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,           Dawei%Zhang%NULL%1,           Jing%Xu%NULL%6,           Zhu%Chen%NULL%1,           Tieniu%Yang%NULL%1,           Peng%Zhao%NULL%2,           Guofeng%Chen%NULL%1,           Gregory%Cheng%NULL%1,           Yudong%Wang%NULL%1,           Jingfeng%Bi%NULL%1,           Lin%Tan%NULL%1,           George%Lau%NULL%1,           Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,           Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,           Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,           Giulia%Suigo%NULL%1,           Davide%Zampini%NULL%1,           Matteo%Pistoia%NULL%1,           Mariella%Ciola%NULL%1,           Tommaso%Ciampani%NULL%1,           Carolina%Ultori%NULL%1,           Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,           John R%Adler%NULL%3,           Sultan M%Kamran%NULL%2,           Sultan M%Kamran%NULL%0,           Zill-e-Humayun%Mirza%NULL%1,           Hussain Abdul%Moeed%NULL%1,           Arshad%Naseem%NULL%1,           Maryam%Hussain%NULL%1,           Imran%Fazal%NULL%1,           Farrukh%Saeed%NULL%1,           Wasim%Alamgir%NULL%1,           Salman%Saleem%NULL%1,           Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,    Zilong%Liu%xref no email%1,    Weipeng%Jiang%xref no email%1,    Jian%Wang%xref no email%4,    Mengchan%Zhu%xref no email%1,    Juan%Song%xref no email%0,    Xiaoyue%Wang%xref no email%1,    Ying%Su%xref no email%1,    Guiling%Xiang%xref no email%1,    Maosong%Ye%xref no email%1,    Jiamin%Li%xref no email%1,    Yong%Zhang%xref no email%1,    Qinjun%Shen%xref no email%1,    Zhuozhe%Li%xref no email%1,    Danwei%Yao%xref no email%1,    Yuanlin%Song%xref no email%0,    Kaihuan%Yu%xref no email%1,    Zhe%Luo%xref no email%1,    Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,           María M.%Martín%NULL%1,           Mónica%Argueso%NULL%1,           Jordi%Solé-Violán%NULL%1,           Alina%Perez%NULL%1,           José Alberto%Marcos Y Ramos%NULL%1,           Luis%Ramos-Gómez%NULL%1,           Sergio%López%NULL%1,           Andrés%Franco%NULL%1,           Agustín F.%González-Rivero%NULL%1,           María%Martín%NULL%1,           Verónica%Gonzalez%NULL%1,           Julia%Alcoba-Flórez%NULL%1,           Miguel Ángel%Rodriguez%NULL%1,           Marta%Riaño-Ruiz%NULL%1,           Juan%Guillermo O Campo%NULL%1,           Lourdes%González%NULL%1,           Tamara%Cantera%NULL%1,           Raquel%Ortiz-López%NULL%1,           Nazario%Ojeda%NULL%1,           Aurelio%Rodríguez-Pérez%NULL%1,           Casimira%Domínguez%NULL%1,           Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,           Rita%Kukafka%NULL%1,           Arriel%Benis%NULL%2,           Arriel%Benis%NULL%0,           Jinfeng%Li%NULL%1,           Pan%Pan%NULL%2,           Pan%Pan%NULL%0,           Yichao%Li%NULL%2,           Yichao%Li%NULL%0,           Yongjiu%Xiao%NULL%2,           Yongjiu%Xiao%NULL%0,           Bingchao%Han%NULL%2,           Bingchao%Han%NULL%0,           Longxiang%Su%NULL%2,           Longxiang%Su%NULL%0,           Mingliang%Su%NULL%2,           Mingliang%Su%NULL%0,           Yansheng%Li%NULL%2,           Yansheng%Li%NULL%0,           Siqi%Zhang%NULL%2,           Siqi%Zhang%NULL%0,           Dapeng%Jiang%NULL%2,           Dapeng%Jiang%NULL%0,           Xia%Chen%NULL%2,           Xia%Chen%NULL%0,           Fuquan%Zhou%NULL%2,           Fuquan%Zhou%NULL%0,           Ling%Ma%NULL%2,           Ling%Ma%NULL%0,           Pengtao%Bao%NULL%2,           Pengtao%Bao%NULL%0,           Lixin%Xie%xielx301@126.com%2,           Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,           Cristina%Roca-Oporto%NULL%2,           Guillermo%Martín-Gutiérrez%NULL%2,           María Dolores%Avilés%NULL%3,           Carmen%Gómez-González%NULL%2,           María Dolores%Navarro-Amuedo%NULL%2,           Julia%Praena-Segovia%NULL%2,           José%Molina%NULL%2,           María%Paniagua-García%NULL%2,           Horacio%García-Delgado%NULL%2,           Antonio%Domínguez-Petit%NULL%2,           Jerónimo%Pachón%NULL%4,           José Miguel%Cisneros%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,           Barry R.%Meisenberg%NULL%2,           Barry R.%Meisenberg%NULL%0,           James H.%MacDonald%NULL%1,           Nandakumar%Menon%NULL%1,           Marcia B.%Fowler%NULL%1,           Michaline%West%NULL%1,           Jane%Rhule%NULL%1,           Sadaf S.%Qureshi%NULL%1,           Eileen B.%MacDonald%NULL%1,           Yu Ru%Kou%NULL%2,           Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,           Sarah%Poole%NULL%2,           Sarah%Poole%NULL%0,           Meeta%Pradhan%NULL%1,           Akhil%Vaid%NULL%4,           Akhil%Vaid%NULL%0,           Sulaiman%Somani%NULL%4,           Sulaiman%Somani%NULL%0,           Adam J%Russak%NULL%4,           Adam J%Russak%NULL%0,           Jessica K%De Freitas%NULL%3,           Jessica K%De Freitas%NULL%0,           Fayzan F%Chaudhry%NULL%2,           Fayzan F%Chaudhry%NULL%0,           Ishan%Paranjpe%NULL%3,           Ishan%Paranjpe%NULL%0,           Kipp W%Johnson%NULL%3,           Kipp W%Johnson%NULL%0,           Samuel J%Lee%NULL%2,           Samuel J%Lee%NULL%0,           Riccardo%Miotto%NULL%3,           Riccardo%Miotto%NULL%0,           Felix%Richter%NULL%3,           Felix%Richter%NULL%0,           Shan%Zhao%NULL%3,           Shan%Zhao%NULL%0,           Noam D%Beckmann%NULL%2,           Noam D%Beckmann%NULL%0,           Nidhi%Naik%NULL%2,           Nidhi%Naik%NULL%0,           Arash%Kia%NULL%3,           Arash%Kia%NULL%0,           Prem%Timsina%NULL%3,           Prem%Timsina%NULL%0,           Anuradha%Lala%NULL%3,           Anuradha%Lala%NULL%0,           Manish%Paranjpe%NULL%2,           Manish%Paranjpe%NULL%0,           Eddye%Golden%NULL%3,           Eddye%Golden%NULL%0,           Matteo%Danieletto%NULL%3,           Matteo%Danieletto%NULL%0,           Manbir%Singh%NULL%3,           Manbir%Singh%NULL%0,           Dara%Meyer%NULL%3,           Dara%Meyer%NULL%0,           Paul F%O'Reilly%NULL%2,           Paul F%O'Reilly%NULL%0,           Laura%Huckins%NULL%2,           Laura%Huckins%NULL%0,           Patricia%Kovatch%NULL%4,           Patricia%Kovatch%NULL%0,           Joseph%Finkelstein%NULL%3,           Joseph%Finkelstein%NULL%0,           Robert M.%Freeman%NULL%2,           Robert M.%Freeman%NULL%0,           Edgar%Argulian%NULL%2,           Edgar%Argulian%NULL%0,           Andrew%Kasarskis%NULL%2,           Andrew%Kasarskis%NULL%0,           Bethany%Percha%NULL%2,           Bethany%Percha%NULL%0,           Judith A%Aberg%NULL%3,           Judith A%Aberg%NULL%0,           Emilia%Bagiella%NULL%4,           Emilia%Bagiella%NULL%0,           Carol R%Horowitz%NULL%3,           Carol R%Horowitz%NULL%0,           Barbara%Murphy%NULL%3,           Barbara%Murphy%NULL%0,           Eric J%Nestler%NULL%3,           Eric J%Nestler%NULL%0,           Eric E%Schadt%NULL%2,           Eric E%Schadt%NULL%0,           Judy H%Cho%NULL%2,           Judy H%Cho%NULL%0,           Carlos%Cordon-Cardo%NULL%4,           Carlos%Cordon-Cardo%NULL%0,           Valentin%Fuster%NULL%3,           Valentin%Fuster%NULL%0,           Dennis S%Charney%NULL%2,           Dennis S%Charney%NULL%0,           David L%Reich%NULL%3,           David L%Reich%NULL%0,           Erwin P%Bottinger%NULL%3,           Erwin P%Bottinger%NULL%0,           Matthew A%Levin%NULL%3,           Matthew A%Levin%NULL%0,           Jagat%Narula%NULL%4,           Jagat%Narula%NULL%0,           Zahi A%Fayad%NULL%3,           Zahi A%Fayad%NULL%0,           Allan C%Just%NULL%2,           Allan C%Just%NULL%0,           Alexander W%Charney%NULL%3,           Alexander W%Charney%NULL%0,           Girish N%Nadkarni%NULL%3,           Girish N%Nadkarni%NULL%0,           Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%3,           Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,           Anne%Chen%NULL%3,           Wei%Hou%NULL%4,           James M.%Graham%NULL%2,           Haifang%Li%NULL%3,           Paul S.%Richman%NULL%2,           Henry C.%Thode%NULL%2,           Adam J.%Singer%NULL%2,           Tim Q.%Duong%NULL%2,           Muhammad%Adrish%NULL%18,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,           Qin%Liu%NULL%2,           Xiao%Zhang%NULL%2,           Shuyi%Liu%NULL%1,           Weiqi%Chen%NULL%1,           Jingjing%You%NULL%1,           Qiuying%Chen%NULL%1,           Minmin%Li%NULL%1,           Zhuozhi%Chen%NULL%1,           Luyan%Chen%NULL%1,           Lv%Chen%NULL%1,           Yuhao%Dong%NULL%1,           Qingsi%Zeng%NULL%1,           Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,           Lei%Nie%NULL%1,           Dongde%Wu%NULL%1,           Jian%Chen%NULL%2,           Zhifeng%Yang%NULL%1,           Ling%Zhang%NULL%3,           Dongqing%Li%NULL%1,           Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,    Feiyang%Zhong%xref no email%1,    Hanfei%Zhang%xref no email%1,    Wenting%An%xref no email%1,    Meiyan%Liao%xref no email%1,    Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,           Burcin%Hakoglu%NULL%2,           Burcin%Hakoglu%NULL%0,           Ali%Kadri Cirak%NULL%1,           Gulru%Polat%NULL%1,           Berna%Komurcuoglu%NULL%1,           Berrin%Akkol%NULL%1,           Cagri%Atasoy%NULL%1,           Eda%Bayramic%NULL%1,           Gunseli%Balci%NULL%1,           Sena%Ataman%NULL%1,           Sinem%Ermin%NULL%1,           Enver%Yalniz%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1,    Lili%Huang%xref no email%1,    Jin%Chen%xref no email%1,    Xiaowei%Yuan%xref no email%1,    Qinhua%Shen%xref no email%1,    Su%Dong%xref no email%1,    Bei%Cheng%xref no email%1,    Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,           Qiaosen%Chen%NULL%2,           Qiaosen%Chen%NULL%0,           Sumeng%Li%NULL%1,           Huadong%Li%NULL%1,           Qian%Zhang%NULL%1,           Sihong%Lu%NULL%1,           Li%Wu%NULL%1,           Leiqun%Xiong%NULL%1,           Bobin%Mi%NULL%1,           Di%Liu%NULL%3,           Mengji%Lu%NULL%1,           Dongliang%Yang%NULL%1,           Hongbo%Jiang%hongbojiang3@163.com%1,           Shaoping%Zheng%zhengspxx@126.com%1,           Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,           Hua%Zhang%NULL%2,           Rui%Qiao%NULL%1,           Qinggang%Ge%NULL%1,           Shuisheng%Zhang%NULL%1,           Zongxuan%Zhao%NULL%1,           Ci%Tian%NULL%1,           Qingbian%Ma%NULL%2,           Qingbian%Ma%NULL%0,           Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,           Antonia%Ho%NULL%2,           Riinu%Pius%NULL%2,           Iain%Buchan%NULL%1,           Gail%Carson%NULL%2,           Thomas M%Drake%NULL%1,           Jake%Dunning%NULL%2,           Cameron J%Fairfield%NULL%2,           Carrol%Gamble%NULL%2,           Christopher A%Green%NULL%2,           Rishi%Gupta%NULL%1,           Sophie%Halpin%NULL%2,           Hayley E%Hardwick%NULL%1,           Karl A%Holden%NULL%1,           Peter W%Horby%NULL%2,           Clare%Jackson%NULL%2,           Kenneth A%Mclean%NULL%2,           Laura%Merson%NULL%2,           Jonathan S%Nguyen-Van-Tam%NULL%1,           Lisa%Norman%NULL%2,           Mahdad%Noursadeghi%NULL%2,           Piero L%Olliaro%NULL%1,           Mark G%Pritchard%NULL%1,           Clark D%Russell%NULL%2,           Catherine A%Shaw%NULL%2,           Aziz%Sheikh%NULL%2,           Tom%Solomon%NULL%2,           Cathie%Sudlow%NULL%1,           Olivia V%Swann%NULL%1,           Lance CW%Turtle%NULL%2,           Peter JM%Openshaw%NULL%2,           J Kenneth%Baillie%NULL%2,           Malcolm G%Semple%NULL%3,           Annemarie B%Docherty%NULL%3,           Annemarie B%Docherty%NULL%0,           Ewen M%Harrison%NULL%3,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           J Kenneth%Baillie%NULL%0,           Malcolm G%Semple%NULL%0,           Peter JM%Openshaw%NULL%0,           Gail%Carson%NULL%0,           Beatrice%Alex%NULL%1,           Benjamin%Bach%NULL%1,           Wendy S%Barclay%NULL%1,           Debby%Bogaert%NULL%1,           Meera%Chand%NULL%1,           Graham S%Cooke%NULL%1,           Annemarie B%Docherty%NULL%0,           Jake%Dunning%NULL%0,           Ana%da Silva Filipe%NULL%1,           Tom%Fletcher%NULL%1,           Christopher A%Green%NULL%0,           Ewen M%Harrison%NULL%0,           Julian A%Hiscox%NULL%1,           Antonia Ying Wai%Ho%NULL%1,           Peter W%Horby%NULL%0,           Samreen%Ijaz%NULL%1,           Saye%Khoo%NULL%1,           Paul%Klenerman%NULL%1,           Andrew%Law%NULL%2,           Wei Shen%Lim%NULL%1,           Alexander J%Mentzer%NULL%1,           Laura%Merson%NULL%0,           Alison M%Meynert%NULL%1,           Mahdad%Noursadeghi%NULL%0,           Shona C%Moore%NULL%2,           Massimo%Palmarini%NULL%1,           William A%Paxton%NULL%1,           Georgios%Pollakis%NULL%1,           Nicholas%Price%NULL%1,           Andrew%Rambaut%NULL%1,           David L%Robertson%NULL%1,           Clark D%Russell%NULL%0,           Vanessa%Sancho-Shimizu%NULL%1,           Janet T%Scott%NULL%1,           Louise%Sigfrid%NULL%1,           Tom%Solomon%NULL%0,           Shiranee%Sriskandan%NULL%1,           David%Stuart%NULL%1,           Charlotte%Summers%NULL%1,           Richard S%Tedder%NULL%1,           Emma C%Thomson%NULL%1,           Ryan S%Thwaites%NULL%1,           Lance CW%Turtle%NULL%0,           Maria%Zambon%NULL%1,           Hayley%Hardwick%NULL%1,           Chloe%Donohue%NULL%1,           Jane%Ewins%NULL%1,           Wilna%Oosthuyzen%NULL%1,           Fiona%Griffiths%NULL%1,           Lisa%Norman%NULL%0,           Riinu%Pius%NULL%0,           Tom M%Drake%NULL%1,           Cameron J%Fairfield%NULL%0,           Stephen%Knight%NULL%1,           Kenneth A%Mclean%NULL%0,           Derek%Murphy%NULL%1,           Catherine A%Shaw%NULL%0,           Jo%Dalton%NULL%1,           Michelle%Girvan%NULL%1,           Egle%Saviciute%NULL%1,           Stephanie%Roberts%NULL%1,           Janet%Harrison%NULL%1,           Laura%Marsh%NULL%1,           Marie%Connor%NULL%1,           Sophie%Halpin%NULL%0,           Clare%Jackson%NULL%0,           Carrol%Gamble%NULL%0,           Gary%Leeming%NULL%1,           Andrew%Law%NULL%0,           Ross%Hendry%NULL%1,           James%Scott-Brown%NULL%1,           William%Greenhalf%NULL%1,           Victoria%Shaw%NULL%1,           Sarah%McDonald%NULL%2,           Katie A%Ahmed%NULL%1,           Jane A%Armstrong%NULL%1,           Milton%Ashworth%NULL%1,           Innocent G%Asiimwe%NULL%1,           Siddharth%Bakshi%NULL%1,           Samantha L%Barlow%NULL%1,           Laura%Booth%NULL%1,           Benjamin%Brennan%NULL%1,           Katie%Bullock%NULL%1,           Benjamin WA%Catterall%NULL%1,           Jordan J%Clark%NULL%1,           Emily A%Clarke%NULL%1,           Sarah%Cole%NULL%1,           Louise%Cooper%NULL%1,           Helen%Cox%NULL%1,           Christopher%Davis%NULL%1,           Oslem%Dincarslan%NULL%1,           Chris%Dunn%NULL%1,           Philip%Dyer%NULL%1,           Angela%Elliott%NULL%1,           Anthony%Evans%NULL%1,           Lewis WS%Fisher%NULL%1,           Terry%Foster%NULL%1,           Isabel%Garcia-Dorival%NULL%1,           Willliam%Greenhalf%NULL%1,           Philip%Gunning%NULL%1,           Catherine%Hartley%NULL%1,           Antonia%Ho%NULL%0,           Rebecca L%Jensen%NULL%1,           Christopher B%Jones%NULL%1,           Trevor R%Jones%NULL%1,           Shadia%Khandaker%NULL%1,           Katharine%King%NULL%1,           Robyn T%Kiy%NULL%1,           Chrysa%Koukorava%NULL%1,           Annette%Lake%NULL%1,           Suzannah%Lant%NULL%1,           Diane%Latawiec%NULL%1,           L%Lavelle-Langham%NULL%1,           Daniella%Lefteri%NULL%1,           Lauren%Lett%NULL%1,           Lucia A%Livoti%NULL%1,           Maria%Mancini%NULL%1,           Sarah%McDonald%NULL%0,           Laurence%McEvoy%NULL%1,           John%McLauchlan%NULL%1,           Soeren%Metelmann%NULL%1,           Nahida S%Miah%NULL%1,           Joanna%Middleton%NULL%1,           Joyce%Mitchell%NULL%1,           Shona C%Moore%NULL%0,           Ellen G%Murphy%NULL%1,           Rebekah%Penrice-Randal%NULL%1,           Jack%Pilgrim%NULL%1,           Tessa%Prince%NULL%1,           Will%Reynolds%NULL%1,           P Matthew%Ridley%NULL%1,           Debby%Sales%NULL%1,           Victoria E%Shaw%NULL%1,           Rebecca K%Shears%NULL%1,           Benjamin%Small%NULL%1,           Krishanthi S%Subramaniam%NULL%1,           Agnieska%Szemiel%NULL%1,           Aislynn%Taggart%NULL%1,           Jolanta%Tanianis-Hughes%NULL%1,           Jordan%Thomas%NULL%1,           Erwan%Trochu%NULL%1,           Libby%van Tonder%NULL%1,           Eve%Wilcock%NULL%1,           J Eunice%Zhang%NULL%1,           Kayode%Adeniji%NULL%1,           Daniel%Agranoff%NULL%1,           Ken%Agwuh%NULL%1,           Dhiraj%Ail%NULL%1,           Ana%Alegria%NULL%1,           Brian%Angus%NULL%1,           Abdul%Ashish%NULL%1,           Dougal%Atkinson%NULL%1,           Shahedal%Bari%NULL%1,           Gavin%Barlow%NULL%1,           Stella%Barnass%NULL%1,           Nicholas%Barrett%NULL%2,           Christopher%Bassford%NULL%1,           David%Baxter%NULL%1,           Michael%Beadsworth%NULL%1,           Jolanta%Bernatoniene%NULL%1,           John%Berridge%NULL%1,           Nicola%Best%NULL%1,           Pieter%Bothma%NULL%1,           David%Brealey%NULL%1,           Robin%Brittain-Long%NULL%1,           Naomi%Bulteel%NULL%1,           Tom%Burden%NULL%1,           Andrew%Burtenshaw%NULL%1,           Vikki%Caruth%NULL%1,           David%Chadwick%NULL%1,           Duncan%Chambler%NULL%1,           Nigel%Chee%NULL%1,           Jenny%Child%NULL%1,           Srikanth%Chukkambotla%NULL%1,           Tom%Clark%NULL%1,           Paul%Collini%NULL%1,           Catherine%Cosgrove%NULL%1,           Jason%Cupitt%NULL%1,           Maria-Teresa%Cutino-Moguel%NULL%1,           Paul%Dark%NULL%1,           Chris%Dawson%NULL%1,           Samir%Dervisevic%NULL%1,           Phil%Donnison%NULL%1,           Sam%Douthwaite%NULL%1,           Ingrid%DuRand%NULL%1,           Ahilanadan%Dushianthan%NULL%1,           Tristan%Dyer%NULL%1,           Cariad%Evans%NULL%1,           Chi%Eziefula%NULL%1,           Chrisopher%Fegan%NULL%1,           Adam%Finn%NULL%1,           Duncan%Fullerton%NULL%1,           Sanjeev%Garg%NULL%2,           Sanjeev%Garg%NULL%0,           Atul%Garg%NULL%1,           Jo%Godden%NULL%1,           Arthur%Goldsmith%NULL%1,           Clive%Graham%NULL%1,           Elaine%Hardy%NULL%1,           Stuart%Hartshorn%NULL%1,           Daniel%Harvey%NULL%1,           Peter%Havalda%NULL%1,           Daniel B%Hawcutt%NULL%1,           Maria%Hobrok%NULL%1,           Luke%Hodgson%NULL%1,           Anita%Holme%NULL%1,           Anil%Hormis%NULL%1,           Michael%Jacobs%NULL%1,           Susan%Jain%NULL%1,           Paul%Jennings%NULL%1,           Agilan%Kaliappan%NULL%1,           Vidya%Kasipandian%NULL%1,           Stephen%Kegg%NULL%1,           Michael%Kelsey%NULL%1,           Jason%Kendall%NULL%1,           Caroline%Kerrison%NULL%1,           Ian%Kerslake%NULL%1,           Oliver%Koch%NULL%2,           Gouri%Koduri%NULL%1,           George%Koshy%NULL%1,           Shondipon%Laha%NULL%1,           Susan%Larkin%NULL%1,           Tamas%Leiner%NULL%1,           Patrick%Lillie%NULL%1,           James%Limb%NULL%1,           Vanessa%Linnett%NULL%1,           Jeff%Little%NULL%1,           Michael%MacMahon%NULL%1,           Emily%MacNaughton%NULL%1,           Ravish%Mankregod%NULL%1,           Huw%Masson%NULL%1,           Elijah%Matovu%NULL%1,           Katherine%McCullough%NULL%1,           Ruth%McEwen%NULL%1,           Manjula%Meda%NULL%1,           Gary%Mills%NULL%1,           Jane%Minton%NULL%1,           Mariyam%Mirfenderesky%NULL%1,           Kavya%Mohandas%NULL%1,           Quen%Mok%NULL%1,           James%Moon%NULL%1,           Elinoor%Moore%NULL%1,           Patrick%Morgan%NULL%1,           Craig%Morris%NULL%1,           Katherine%Mortimore%NULL%1,           Samuel%Moses%NULL%1,           Mbiye%Mpenge%NULL%1,           Rohinton%Mulla%NULL%1,           Michael%Murphy%NULL%1,           Megan%Nagel%NULL%1,           Thapas%Nagarajan%NULL%1,           Mark%Nelson%NULL%1,           Igor%Otahal%NULL%1,           Mark%Pais%NULL%1,           Selva%Panchatsharam%NULL%1,           Hassan%Paraiso%NULL%1,           Brij%Patel%NULL%1,           Justin%Pepperell%NULL%1,           Mark%Peters%NULL%1,           Mandeep%Phull%NULL%1,           Stefania%Pintus%NULL%1,           Jagtur Singh%Pooni%NULL%1,           Frank%Post%NULL%1,           David%Price%NULL%1,           Rachel%Prout%NULL%1,           Nikolas%Rae%NULL%1,           Henrik%Reschreiter%NULL%1,           Tim%Reynolds%NULL%1,           Neil%Richardson%NULL%1,           Mark%Roberts%NULL%1,           Devender%Roberts%NULL%1,           Alistair%Rose%NULL%1,           Guy%Rousseau%NULL%1,           Brendan%Ryan%NULL%1,           Taranprit%Saluja%NULL%1,           Aarti%Shah%NULL%1,           Prad%Shanmuga%NULL%1,           Anil%Sharma%NULL%1,           Anna%Shawcross%NULL%1,           Jeremy%Sizer%NULL%1,           Richard%Smith%NULL%1,           Catherine%Snelson%NULL%1,           Nick%Spittle%NULL%1,           Nikki%Staines%NULL%1,           Tom%Stambach%NULL%1,           Richard%Stewart%NULL%1,           Pradeep%Subudhi%NULL%1,           Tamas%Szakmany%NULL%1,           Kate%Tatham%NULL%1,           Jo%Thomas%NULL%1,           Chris%Thompson%NULL%1,           Robert%Thompson%NULL%1,           Ascanio%Tridente%NULL%1,           Darell%Tupper-Carey%NULL%1,           Mary%Twagira%NULL%1,           Andrew%Ustianowski%NULL%1,           Nick%Vallotton%NULL%1,           Lisa%Vincent-Smith%NULL%1,           Shico%Visuvanathan%NULL%1,           Alan%Vuylsteke%NULL%1,           Sam%Waddy%NULL%1,           Rachel%Wake%NULL%1,           Andrew%Walden%NULL%1,           Ingeborg%Welters%NULL%1,           Tony%Whitehouse%NULL%1,           Paul%Whittaker%NULL%1,           Ashley%Whittington%NULL%1,           Meme%Wijesinghe%NULL%1,           Martin%Williams%NULL%1,           Lawrence%Wilson%NULL%1,           Sarah%Wilson%NULL%1,           Stephen%Winchester%NULL%1,           Martin%Wiselka%NULL%1,           Adam%Wolverson%NULL%1,           Daniel G%Wooton%NULL%1,           Andrew%Workman%NULL%1,           Bryan%Yates%NULL%1,           Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,           Braulio A.%Marfil‐Garza%NULL%1,           Erick%Martínez Rodríguez%NULL%1,           José Omar%Barreto Rodríguez%NULL%1,           Alicia Estela%López Romo%NULL%1,           Paolo%Alberti Minutti%NULL%1,           Juan Vicente%Alejandre Loya%NULL%1,           Félix Emmanuel%Pérez Talavera%NULL%1,           Freddy José%Ávila Cervera%NULL%1,           Adriana%Velazquez Burciaga%NULL%1,           Oscar%Morado Aramburo%NULL%1,           Luis Alberto%Piña Olguín%NULL%1,           Adrian%Soto‐Rodríguez%NULL%1,           Andrés%Castañeda Prado%NULL%1,           Patricio%Santillán Doherty%NULL%1,           Juan%O Galindo%NULL%1,           Luis Alberto%Guízar García%NULL%1,           Daniel%Hernández Gordillo%NULL%1,           Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,           Aatish%Patel%NULL%1,           Esmita%Charani%NULL%1,           Sarah%Denny%NULL%1,           Saleh A.%Alqahtani%NULL%1,           Gary W.%Davies%NULL%1,           Nabeela%Mughal%NULL%1,           Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,           Hyunsun%Lim%NULL%1,           Dong-Wook%Kim%NULL%1,           Jung Hyun%Chang%NULL%1,           Yoon Jung%Choi%chris316@yuhs.ac%1,           Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,    Rudong%Chen%xref no email%1,    Hongkuan%Yang%xref no email%1,    Junhong%Wang%xref no email%1,    Yuyang%Hou%xref no email%1,    Wei%Hu%xref no email%1,    Jiasheng%Yu%xref no email%1,    Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,           Wenhua%Liang%NULL%3,           Mei%Jiang%NULL%2,           Weijie%Guan%NULL%3,           Chen%Zhan%NULL%2,           Tao%Wang%NULL%0,           Chunli%Tang%NULL%3,           Ling%Sang%NULL%3,           Jiaxing%Liu%NULL%2,           Zhengyi%Ni%NULL%2,           Yu%Hu%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%6,           Chunliang%Lei%NULL%2,           Yixiang%Peng%NULL%2,           Li%Wei%NULL%6,           Yong%Liu%NULL%6,           Yahua%Hu%NULL%2,           Peng%Peng%NULL%8,           Jianming%Wang%NULL%2,           Jiyang%Liu%NULL%2,           Zhong%Chen%NULL%6,           Gang%Li%NULL%6,           Zhijian%Zheng%NULL%2,           Shaoqin%Qiu%NULL%2,           Jie%Luo%NULL%6,           Changjiang%Ye%NULL%2,           Shaoyong%Zhu%NULL%2,           Xiaoqing%Liu%NULL%2,           Linling%Cheng%NULL%2,           Feng%Ye%NULL%2,           Jinping%Zheng%NULL%2,           Nuofu%Zhang%NULL%2,           Yimin%Li%NULL%2,           Jianxing%He%NULL%2,           Shiyue%Li%lishiyue@188.com%3,           Nanshan%Zhong%NULL%4,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,           Liu%Hu%NULL%1,           Yiru%Wang%NULL%0,           Luyan%Huang%NULL%1,           Lingxi%Zhao%NULL%1,           Congcong%Zhang%NULL%1,           Xiyue%Liu%NULL%1,           Ranran%Xu%NULL%1,           Feng%Liu%NULL%0,           Jinping%Li%NULL%1,           Dawei%Ye%NULL%0,           Tao%Wang%NULL%0,           Yongman%Lv%lvyongman@126.com%0,           Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,           Carol A C%Coupland%NULL%1,           Ruth H%Keogh%NULL%1,           Karla%Diaz-Ordaz%NULL%1,           Elizabeth%Williamson%NULL%1,           Ewen M%Harrison%NULL%0,           Andrew%Hayward%NULL%1,           Harry%Hemingway%NULL%1,           Peter%Horby%NULL%1,           Nisha%Mehta%NULL%1,           Jonathan%Benger%NULL%1,           Kamlesh%Khunti%NULL%0,           David%Spiegelhalter%NULL%1,           Aziz%Sheikh%NULL%0,           Jonathan%Valabhji%NULL%0,           Ronan A%Lyons%NULL%1,           John%Robson%NULL%1,           Malcolm G%Semple%NULL%0,           Frank%Kee%NULL%1,           Peter%Johnson%NULL%1,           Susan%Jebb%NULL%1,           Tony%Williams%NULL%1,           Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,           Guang-Yao%Cai%NULL%1,           Wei%Fang%NULL%3,           Hua-Yi%Li%NULL%1,           Si-Yuan%Wang%NULL%2,           Si-Yuan%Wang%NULL%0,           Lingxi%Chen%NULL%1,           Yang%Yu%NULL%1,           Dan%Liu%NULL%0,           Sen%Xu%NULL%2,           Peng-Fei%Cui%NULL%1,           Shao-Qing%Zeng%NULL%2,           Shao-Qing%Zeng%NULL%0,           Xin-Xia%Feng%NULL%1,           Rui-Di%Yu%NULL%1,           Ya%Wang%NULL%2,           Yuan%Yuan%NULL%1,           Xiao-Fei%Jiao%NULL%1,           Jian-Hua%Chi%NULL%1,           Jia-Hao%Liu%NULL%1,           Ru-Yuan%Li%NULL%1,           Xu%Zheng%NULL%1,           Chun-Yan%Song%NULL%1,           Ning%Jin%NULL%1,           Wen-Jian%Gong%NULL%1,           Xing-Yu%Liu%NULL%1,           Lei%Huang%NULL%2,           Xun%Tian%NULL%1,           Lin%Li%NULL%1,           Hui%Xing%NULL%1,           Ding%Ma%NULL%1,           Chun-Rui%Li%NULL%1,           Fei%Ye%yeyuanbei@hotmail.com%1,           Qing-Lei%Gao%qingleigao@hotmail.com%2,           Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,           Ang%Li%NULL%1,           Mengfan%Jiao%NULL%1,           Qingmiao%Shi%NULL%1,           Xiaocai%An%NULL%1,           Yonghai%Feng%NULL%1,           Lihua%Xing%NULL%1,           Hongxia%Liang%NULL%1,           Jiajun%Chen%NULL%1,           Huiling%Li%NULL%1,           Juan%Li%NULL%0,           Zhigang%Ren%NULL%1,           Ranran%Sun%NULL%1,           Guangying%Cui%NULL%1,           Yongjian%Zhou%NULL%1,           Ming%Cheng%NULL%1,           Pengfei%Jiao%NULL%1,           Yu%Wang%NULL%2,           Jiyuan%Xing%NULL%1,           Shen%Shen%NULL%1,           Qingxian%Zhang%NULL%1,           Aiguo%Xu%NULL%1,           Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,           Michael%Ng%NULL%1,           Shuang%Xu%NULL%1,           Zhouming%Xu%NULL%1,           Hui%Qiu%NULL%1,           Yuwei%Liu%NULL%1,           Jiayou%Lyu%NULL%1,           Jiwen%You%NULL%1,           Peng%Zhao%NULL%0,           Shihao%Wang%NULL%1,           Yunfei%Tang%NULL%1,           Hao%Cui%NULL%1,           Changxiao%Yu%NULL%1,           Feng%Wang%NULL%5,           Fei%Shao%NULL%1,           Peng%Sun%NULL%1,           Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,           Huifang%Wang%NULL%1,           Junwei%Huang%NULL%1,           Yan%Geng%NULL%1,           Shuqi%Jiang%NULL%1,           Qiuping%Zhou%NULL%1,           Xuan%Chen%NULL%1,           Hongping%Hu%NULL%1,           Weifeng%Li%NULL%1,           Chengbin%Zhou%NULL%1,           Xinglin%Gao%NULL%1,           Na%Peng%pnatz@163.com%1,           Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,           Dandan%Cheng%NULL%1,           Yiwei%Cao%NULL%1,           Chuan%Hu%NULL%1,           Fenglin%Zou%NULL%1,           Wencheng%Yu%NULL%1,           Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,           Min Kyu%Kang%NULL%2,           Min Kyu%Kang%NULL%0,           Yu Rim%Lee%NULL%2,           Yu Rim%Lee%NULL%0,           Jeong Eun%Song%NULL%2,           Jeong Eun%Song%NULL%0,           Na Young%Kim%NULL%1,           Young Oh%Kweon%NULL%1,           Won Young%Tak%NULL%1,           Se Young%Jang%NULL%1,           Changhyeong%Lee%NULL%2,           Changhyeong%Lee%NULL%0,           Byung Seok%Kim%NULL%1,           Jae Seok%Hwang%NULL%1,           Byoung Kuk%Jang%NULL%1,           Jinmok%Bae%NULL%1,           Ji Yeon%Lee%NULL%0,           Jeong Ill%Suh%NULL%1,           Soo Young%Park%NULL%1,           Woo Jin%Chung%NULL%2,           Woo Jin%Chung%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,           Cristina%Roca-Oporto%NULL%0,           Guillermo%Martín-Gutiérrez%NULL%0,           María Dolores%Avilés%NULL%0,           Carmen%Gómez-González%NULL%0,           María Dolores%Navarro-Amuedo%NULL%0,           Julia%Praena-Segovia%NULL%0,           José%Molina%NULL%0,           María%Paniagua-García%NULL%0,           Horacio%García-Delgado%NULL%0,           Antonio%Domínguez-Petit%NULL%0,           Jerónimo%Pachón%NULL%0,           José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,        Calvo%Boyero Fernando%coreGivesNoEmail%1,        Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,        COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,        Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,        Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,        L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,        Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,        Santos%Lozano Alejandro%coreGivesNoEmail%1,        Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -3506,7 +3897,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>746</v>
+        <v>872</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -3535,7 +3926,7 @@
         <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>747</v>
+        <v>873</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -3564,7 +3955,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>748</v>
+        <v>874</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -3590,10 +3981,10 @@
         <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>875</v>
       </c>
       <c r="E5" t="s">
-        <v>749</v>
+        <v>876</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3622,7 +4013,7 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>750</v>
+        <v>877</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -3651,7 +4042,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>751</v>
+        <v>878</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -3680,7 +4071,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>752</v>
+        <v>879</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -3709,7 +4100,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>753</v>
+        <v>880</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -3738,7 +4129,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>754</v>
+        <v>881</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -3767,7 +4158,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>755</v>
+        <v>882</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -3796,7 +4187,7 @@
         <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>756</v>
+        <v>883</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -3825,7 +4216,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>757</v>
+        <v>884</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -3854,7 +4245,7 @@
         <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>758</v>
+        <v>885</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -3883,7 +4274,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>759</v>
+        <v>886</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -3912,7 +4303,7 @@
         <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>760</v>
+        <v>887</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -3941,7 +4332,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>761</v>
+        <v>888</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -3970,7 +4361,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>762</v>
+        <v>889</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3999,7 +4390,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>763</v>
+        <v>890</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -4028,7 +4419,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>764</v>
+        <v>891</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -4057,7 +4448,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -4086,7 +4477,7 @@
         <v>690</v>
       </c>
       <c r="E22" t="s">
-        <v>766</v>
+        <v>893</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4115,7 +4506,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>767</v>
+        <v>894</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -4144,7 +4535,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>768</v>
+        <v>895</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -4173,7 +4564,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>769</v>
+        <v>896</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -4202,7 +4593,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>770</v>
+        <v>897</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -4231,7 +4622,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>771</v>
+        <v>898</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -4260,7 +4651,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>772</v>
+        <v>899</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -4289,7 +4680,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>773</v>
+        <v>900</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -4318,7 +4709,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>774</v>
+        <v>901</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -4347,7 +4738,7 @@
         <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>775</v>
+        <v>902</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -4376,7 +4767,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>776</v>
+        <v>903</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -4405,7 +4796,7 @@
         <v>206</v>
       </c>
       <c r="E33" t="s">
-        <v>777</v>
+        <v>904</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -4434,7 +4825,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>778</v>
+        <v>905</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -4492,7 +4883,7 @@
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>779</v>
+        <v>906</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -4521,7 +4912,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>780</v>
+        <v>907</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -4550,7 +4941,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>781</v>
+        <v>908</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -4579,7 +4970,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>782</v>
+        <v>909</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -4608,7 +4999,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>783</v>
+        <v>910</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -4637,7 +5028,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>784</v>
+        <v>911</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -4666,7 +5057,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>785</v>
+        <v>912</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -4695,7 +5086,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>786</v>
+        <v>913</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -4724,7 +5115,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>787</v>
+        <v>914</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -4753,7 +5144,7 @@
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>788</v>
+        <v>915</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -4782,7 +5173,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>789</v>
+        <v>916</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -4811,7 +5202,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>790</v>
+        <v>917</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -4840,7 +5231,7 @@
         <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>791</v>
+        <v>918</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -4869,7 +5260,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>792</v>
+        <v>919</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -4898,7 +5289,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>793</v>
+        <v>920</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -4927,7 +5318,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>794</v>
+        <v>921</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -4956,7 +5347,7 @@
         <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>795</v>
+        <v>922</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -4985,7 +5376,7 @@
         <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>796</v>
+        <v>923</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -5014,7 +5405,7 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>797</v>
+        <v>924</v>
       </c>
       <c r="F54" t="s">
         <v>54</v>
@@ -5043,7 +5434,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>798</v>
+        <v>925</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -5072,7 +5463,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>799</v>
+        <v>926</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -5101,7 +5492,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>800</v>
+        <v>927</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -5130,7 +5521,7 @@
         <v>301</v>
       </c>
       <c r="E58" t="s">
-        <v>801</v>
+        <v>928</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -5159,7 +5550,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>802</v>
+        <v>929</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -5188,7 +5579,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>803</v>
+        <v>930</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -5217,7 +5608,7 @@
         <v>316</v>
       </c>
       <c r="E61" t="s">
-        <v>804</v>
+        <v>931</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -5246,7 +5637,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>805</v>
+        <v>932</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -5275,7 +5666,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>806</v>
+        <v>933</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -5304,7 +5695,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>807</v>
+        <v>934</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -5333,7 +5724,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>808</v>
+        <v>935</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5461" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6371" uniqueCount="1072">
   <si>
     <t>Doi</t>
   </si>
@@ -3506,6 +3506,549 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,        Calvo%Boyero Fernando%coreGivesNoEmail%1,        Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,        COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,        Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,        Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,        L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,        Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,        Santos%Lozano Alejandro%coreGivesNoEmail%1,        Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,            Min%He%NULL%1,            Wanhong%Yin%NULL%1,            Xuelian%Liao%NULL%1,            Bo%Wang%NULL%6,            Xiaodong%Jin%NULL%1,            Yao%Ma%NULL%2,            Jirong%Yue%NULL%1,            Lang%Bai%NULL%1,            Dan%Liu%NULL%3,            Ting%Zhu%NULL%1,            Zhixin%Huang%NULL%1,            Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has resulted in thousands of deaths in the world.
+ Information about prediction model of prognosis of SARS-CoV-2 infection is scarce.
+ We used machine learning for processing laboratory findings of 110 patients with SARS-CoV-2 pneumonia (including 51 non-survivors and 59 discharged patients).
+ The maximum relevance minimum redundancy (mRMR) algorithm and the least absolute shrinkage and selection operator logistic regression model were used for selection of laboratory features.
+ Seven laboratory features selected in the model were: prothrombin activity, urea, white blood cell, interleukin-2 receptor, indirect bilirubin, myoglobin, and fibrinogen degradation products.
+ The signature constructed using the seven features had 98% [93%, 100%] sensitivity and 91% [84%, 99%] specificity in predicting outcome of SARS-CoV-2 pneumonia.
+ Thus it is feasible to establish an accurate prediction model of outcome of SARS-CoV-2 pneumonia based on laboratory findings.
+</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,            Shuchang%Zhou%NULL%1,            Yujin%Wang%NULL%1,            Wenzhi%Lv%NULL%2,            Shili%Wang%NULL%1,            Ting%Wang%751884926@qq.com%1,            Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,            Yan-chak%Li%NULL%1,            Sonali%Bose%NULL%1,            Ravi%Iyengar%NULL%1,            Supinda%Bunyavanich%NULL%1,            Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Coronavirus disease 2019 (COVID-19) has become a public health emergency of global concern.
+ We aimed to explore the risk factors of 14-day and 28-day mortality and develop a model for predicting 14-day and 28-day survival probability among adult hospitalized patients with COVID-19.
+Methods
+In this multicenter, retrospective, cohort study, we examined 828 hospitalized patients with confirmed COVID-19 hospitalized in Wuhan Union Hospital and Central Hospital of Wuhan between January 12 and February 9, 2020. Among the 828 patients, 516 and 186 consecutive patients admitted in Wuhan Union Hospital were enrolled in the training cohort and the validation cohort, respectively.
+ A total of 126 patients hospitalized in Central Hospital of Wuhan were enrolled in a second external validation cohort.
+ Demographic, clinical, radiographic, and laboratory measures; treatment; proximate causes of death; and 14-day and 28-day mortality are described.
+ Patients’ data were collected by reviewing the medical records, and their 14-day and 28-day outcomes were followed up.
+Results
+Of the 828 patients, 146 deaths were recorded until May 18, 2020. In the training set, multivariate Cox regression indicated that older age, lactate dehydrogenase level over 360 U/L, neutrophil-to-lymphocyte ratio higher than 8.0, and direct bilirubin higher than 5.0 μmol/L were independent predictors of 28-day mortality.
+ Nomogram scoring systems for predicting the 14-day and 28-day survival probability of patients with COVID-19 were developed and exhibited strong discrimination and calibration power in the two external validation cohorts (C-index, 0.878 and 0.839).
+Conclusion
+Older age, high lactate dehydrogenase level, evaluated neutrophil-to-lymphocyte ratio, and high direct bilirubin level were independent predictors of 28-day mortality in adult hospitalized patients with confirmed COVID-19. The nomogram system based on the four factors revealed good discrimination and calibration, suggesting good clinical utility.
+</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,            Mengfei%Guo%NULL%1,            Limin%Duan%NULL%1,            Feng%Wu%NULL%1,            Guorong%Hu%NULL%1,            Zhihui%Wang%NULL%1,            Qi%Huang%NULL%1,            Tingting%Liao%NULL%1,            Juanjuan%Xu%NULL%1,            Yanling%Ma%NULL%1,            Zhilei%Lv%NULL%1,            Wenjing%Xiao%NULL%1,            Zilin%Zhao%NULL%1,            Xueyun%Tan%NULL%1,            Daquan%Meng%NULL%1,            Shujing%Zhang%NULL%1,            E%Zhou%NULL%1,            Zhengrong%Yin%NULL%1,            Wei%Geng%NULL%1,            Xuan%Wang%NULL%1,            Jianchu%Zhang%NULL%1,            Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,            Yu%Zhang%whxhzy@163.com%1,            Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,            Francesco%Arru%NULL%2,            Francesco%Arru%NULL%0,            Andrea%De Vito%NULL%3,            Alessandro%Sassu%NULL%2,            Alessandro%Sassu%NULL%0,            Giovanni%Valdes%NULL%1,            Valentina%Scano%NULL%1,            Elisabetta%Zinellu%NULL%1,            Roberto%Perra%NULL%1,            Giordano%Madeddu%NULL%3,            Ciriaco%Carru%NULL%1,            Pietro%Pirina%NULL%3,            Arduino A.%Mangoni%NULL%2,            Arduino A.%Mangoni%NULL%0,            Sergio%Babudieri%NULL%4,            Sergio%Babudieri%NULL%0,            Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,            Pablo%Ryan%NULL%1,            Jorge%Valencia%NULL%2,            Jorge%Valencia%NULL%0,            Mario%Pérez-Butragueño%NULL%2,            Mario%Pérez-Butragueño%NULL%0,            Eva%Jiménez%NULL%2,            Eva%Jiménez%NULL%0,            Mario%Fontán-Vela%NULL%1,            Elsa%Izquierdo-García%NULL%2,            Elsa%Izquierdo-García%NULL%0,            Inés%Fernandez-Jimenez%NULL%1,            Elena%Álvaro-Alonso%NULL%1,            Andrea%Lazaro%NULL%2,            Andrea%Lazaro%NULL%0,            Marta%Alvarado%NULL%1,            Helena%Notario%NULL%1,            Salvador%Resino%NULL%1,            Daniel%Velez-Serrano%NULL%1,            Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,            Yiru%Wang%NULL%2,            Xuecheng%Zhao%NULL%1,            Lixuan%Wang%NULL%1,            Feng%Liu%NULL%3,            Tao%Wang%NULL%15,            Dawei%Ye%NULL%2,            Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,            Valentina%Zuccaro%NULL%1,            Luca%Novelli%NULL%1,            Lorenzo%Zileri%NULL%2,            Lorenzo%Zileri%NULL%0,            Ciro%Celsa%NULL%1,            Federico%Raimondi%NULL%2,            Federico%Raimondi%NULL%0,            Mauro%Gori%NULL%1,            Giulia%Cammà%NULL%1,            Salvatore%Battaglia%NULL%1,            Vincenzo Giuseppe%Genova%NULL%1,            Laura%Paris%NULL%1,            Matteo%Tacelli%NULL%1,            Francesco Antonio%Mancarella%NULL%1,            Marco%Enea%NULL%1,            Massimo%Attanasio%NULL%1,            Michele%Senni%NULL%1,            Fabiano%Di Marco%NULL%1,            Luca Ferdinando%Lorini%NULL%1,            Stefano%Fagiuoli%NULL%1,            Raffaele%Bruno%NULL%2,            Calogero%Cammà%NULL%1,            Antonio%Gasbarrini%NULL%3,            Francesco%Di Gennaro%NULL%2,            Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,            Gan-xun%Li%NULL%1,            Lin%Chen%NULL%3,            Chang%Shu%NULL%2,            Jia%Song%NULL%1,            Wei%Wang%NULL%2,            Yu-wei%Wang%NULL%1,            Qian%Chen%NULL%2,            Guan-nan%Jin%NULL%1,            Tong-tong%Liu%NULL%1,            Jun-nan%Liang%NULL%1,            Peng%Zhu%NULL%1,            Wei%Zhu%NULL%5,            Yong%Li%NULL%2,            Bin-hao%Zhang%NULL%1,            Huan%Feng%NULL%1,            Wan-guang%Zhang%NULL%1,            Zhen-yu%Yin%NULL%1,            Wen-kui%Yu%NULL%1,            Yang%Yang%NULL%2,            Hua-qiu%Zhang%NULL%1,            Zhou-ping%Tang%NULL%1,            Hui%Wang%NULL%4,            Jun-bo%Hu%NULL%1,            Ji-hong%Liu%NULL%1,            Ping%Yin%NULL%1,            Xiao-ping%Chen%NULL%1,            Bixiang%Zhang%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+One-fifth of COVID-19 patients are seriously and critically ill cases and have a worse prognosis than non-severe cases.
+ Although there is no specific treatment available for COVID-19, early recognition and supportive treatment may reduce the mortality.
+ The aim of this study is to develop a functional nomogram that can be used by clinicians to estimate the risk of in-hospital mortality in patients hospitalized and treated for COVID-19 disease, and to compare the accuracy of model predictions with previous nomograms.
+Methods
+This retrospective study enrolled 709 patients who were over 18 years old and received inpatient treatment for COVID-19 disease.
+ Multivariable Logistic Regression analysis was performed to assess the possible predictors of a fatal outcome.
+ A nomogram was developed with the possible predictors and total point were calculated.
+Results
+Of the 709 patients treated for COVID-19, 75 (11%) died and 634 survived.
+ The elder age, certain comorbidities (cancer, heart failure, chronic renal failure), dyspnea, lower levels of oxygen saturation and hematocrit, higher levels of C-reactive protein, aspartate aminotransferase and ferritin were independent risk factors for mortality.
+ The prediction ability of total points was excellent (Area Under Curve = 0.922).
+Conclusions
+The nomogram developed in this study can be used by clinicians as a practical and effective tool in mortality risk estimation.
+ So that with early diagnosis and intervention mortality in COVID-19 patients may be reduced.
+</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,            Günay%Can%NULL%2,            Günay%Can%NULL%0,            Rıdvan%Karaali%NULL%1,            Şermin%Börekçi%NULL%1,            İlker İnanç%Balkan%NULL%1,            Bilun%Gemicioğlu%NULL%1,            Dildar%Konukoğlu%NULL%1,            Ethem%Erginöz%NULL%1,            Mehmet Sarper%Erdoğan%NULL%1,            Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,            Danila%Azzolina%NULL%1,            Eyal%Hayden%NULL%2,            Eyal%Hayden%NULL%0,            Gianluca%Gaidano%NULL%2,            Gianluca%Gaidano%NULL%0,            Mario%Pirisi%NULL%2,            Mario%Pirisi%NULL%0,            Antonio%Acquaviva%NULL%2,            Antonio%Acquaviva%NULL%0,            Gianluca%Aimaretti%NULL%2,            Gianluca%Aimaretti%NULL%0,            Paolo%Aluffi Valletti%NULL%3,            Paolo%Aluffi Valletti%NULL%0,            Roberto%Angilletta%NULL%2,            Roberto%Angilletta%NULL%0,            Roberto%Arioli%NULL%2,            Roberto%Arioli%NULL%0,            Gian Carlo%Avanzi%NULL%2,            Gian Carlo%Avanzi%NULL%0,            Gianluca%Avino%NULL%2,            Gianluca%Avino%NULL%0,            Piero Emilio%Balbo%NULL%2,            Piero Emilio%Balbo%NULL%0,            Giulia%Baldon%NULL%2,            Giulia%Baldon%NULL%0,            Francesca%Baorda%NULL%2,            Francesca%Baorda%NULL%0,            Emanuela%Barbero%NULL%2,            Emanuela%Barbero%NULL%0,            Alessio%Baricich%NULL%2,            Alessio%Baricich%NULL%0,            Michela%Barini%NULL%2,            Michela%Barini%NULL%0,            Francesco%Barone-Adesi%NULL%2,            Francesco%Barone-Adesi%NULL%0,            Sofia%Battistini%NULL%2,            Sofia%Battistini%NULL%0,            Michela%Beltrame%NULL%2,            Michela%Beltrame%NULL%0,            Matteo%Bertoli%NULL%2,            Matteo%Bertoli%NULL%0,            Stephanie%Bertolin%NULL%2,            Stephanie%Bertolin%NULL%0,            Marinella%Bertolotti%NULL%2,            Marinella%Bertolotti%NULL%0,            Marta%Betti%NULL%2,            Marta%Betti%NULL%0,            Flavio%Bobbio%NULL%2,            Flavio%Bobbio%NULL%0,            Paolo%Boffano%NULL%2,            Paolo%Boffano%NULL%0,            Lucio%Boglione%NULL%2,            Lucio%Boglione%NULL%0,            Silvio%Borrè%NULL%2,            Silvio%Borrè%NULL%0,            Matteo%Brucoli%NULL%2,            Matteo%Brucoli%NULL%0,            Elisa%Calzaducca%NULL%2,            Elisa%Calzaducca%NULL%0,            Edoardo%Cammarata%NULL%2,            Edoardo%Cammarata%NULL%0,            Vincenzo%Cantaluppi%NULL%2,            Vincenzo%Cantaluppi%NULL%0,            Roberto%Cantello%NULL%2,            Roberto%Cantello%NULL%0,            Andrea%Capponi%NULL%2,            Andrea%Capponi%NULL%0,            Alessandro%Carriero%NULL%2,            Alessandro%Carriero%NULL%0,            Giuseppe Francesco%Casciaro%NULL%2,            Giuseppe Francesco%Casciaro%NULL%0,            Luigi Mario%Castello%NULL%2,            Luigi Mario%Castello%NULL%0,            Federico%Ceruti%NULL%2,            Federico%Ceruti%NULL%0,            Guido%Chichino%NULL%2,            Guido%Chichino%NULL%0,            Emilio%Chirico%NULL%2,            Emilio%Chirico%NULL%0,            Carlo%Cisari%NULL%1,            Micol Giulia%Cittone%NULL%2,            Micol Giulia%Cittone%NULL%0,            Crizia%Colombo%NULL%2,            Crizia%Colombo%NULL%0,            Cristoforo%Comi%NULL%2,            Cristoforo%Comi%NULL%0,            Eleonora%Croce%NULL%2,            Eleonora%Croce%NULL%0,            Tommaso%Daffara%NULL%2,            Tommaso%Daffara%NULL%0,            Pietro%Danna%NULL%2,            Pietro%Danna%NULL%0,            Francesco%Della Corte%NULL%2,            Francesco%Della Corte%NULL%0,            Simona%De Vecchi%NULL%2,            Simona%De Vecchi%NULL%0,            Umberto%Dianzani%NULL%2,            Umberto%Dianzani%NULL%0,            Davide%Di Benedetto%NULL%2,            Davide%Di Benedetto%NULL%0,            Elia%Esposto%NULL%2,            Elia%Esposto%NULL%0,            Fabrizio%Faggiano%NULL%2,            Fabrizio%Faggiano%NULL%0,            Zeno%Falaschi%NULL%2,            Zeno%Falaschi%NULL%0,            Daniela%Ferrante%NULL%2,            Daniela%Ferrante%NULL%0,            Alice%Ferrero%NULL%2,            Alice%Ferrero%NULL%0,            Ileana%Gagliardi%NULL%2,            Ileana%Gagliardi%NULL%0,            Alessandra%Galbiati%NULL%2,            Alessandra%Galbiati%NULL%0,            Silvia%Gallo%NULL%2,            Silvia%Gallo%NULL%0,            Pietro Luigi%Garavelli%NULL%2,            Pietro Luigi%Garavelli%NULL%0,            Clara Ada%Gardino%NULL%2,            Clara Ada%Gardino%NULL%0,            Massimiliano%Garzaro%NULL%3,            Massimiliano%Garzaro%NULL%0,            Maria Luisa%Gastaldello%NULL%2,            Maria Luisa%Gastaldello%NULL%0,            Francesco%Gavelli%NULL%2,            Francesco%Gavelli%NULL%0,            Alessandra%Gennari%NULL%2,            Alessandra%Gennari%NULL%0,            Greta Maria%Giacomini%NULL%2,            Greta Maria%Giacomini%NULL%0,            Irene%Giacone%NULL%2,            Irene%Giacone%NULL%0,            Valentina%Giai Via%NULL%2,            Valentina%Giai Via%NULL%0,            Francesca%Giolitti%NULL%2,            Francesca%Giolitti%NULL%0,            Laura Cristina%Gironi%NULL%2,            Laura Cristina%Gironi%NULL%0,            Carla%Gramaglia%NULL%2,            Carla%Gramaglia%NULL%0,            Leonardo%Grisafi%NULL%2,            Leonardo%Grisafi%NULL%0,            Ilaria%Inserra%NULL%2,            Ilaria%Inserra%NULL%0,            Marco%Invernizzi%NULL%2,            Marco%Invernizzi%NULL%0,            Marco%Krengli%NULL%2,            Marco%Krengli%NULL%0,            Emanuela%Labella%NULL%2,            Emanuela%Labella%NULL%0,            Irene Cecilia%Landi%NULL%2,            Irene Cecilia%Landi%NULL%0,            Raffaella%Landi%NULL%2,            Raffaella%Landi%NULL%0,            Ilaria%Leone%NULL%2,            Ilaria%Leone%NULL%0,            Veronica%Lio%NULL%2,            Veronica%Lio%NULL%0,            Luca%Lorenzini%NULL%2,            Luca%Lorenzini%NULL%0,            Antonio%Maconi%NULL%2,            Antonio%Maconi%NULL%0,            Mario%Malerba%NULL%2,            Mario%Malerba%NULL%0,            Giulia Francesca%Manfredi%NULL%2,            Giulia Francesca%Manfredi%NULL%0,            Maria%Martelli%NULL%2,            Maria%Martelli%NULL%0,            Letizia%Marzari%NULL%2,            Letizia%Marzari%NULL%0,            Paolo%Marzullo%NULL%2,            Paolo%Marzullo%NULL%0,            Marco%Mennuni%NULL%2,            Marco%Mennuni%NULL%0,            Claudia%Montabone%NULL%2,            Claudia%Montabone%NULL%0,            Umberto%Morosini%NULL%2,            Umberto%Morosini%NULL%0,            Marco%Mussa%NULL%2,            Marco%Mussa%NULL%0,            Ilaria%Nerici%NULL%2,            Ilaria%Nerici%NULL%0,            Alessandro%Nuzzo%NULL%2,            Alessandro%Nuzzo%NULL%0,            Carlo%Olivieri%NULL%2,            Carlo%Olivieri%NULL%0,            Samuel Alberto%Padelli%NULL%2,            Samuel Alberto%Padelli%NULL%0,            Massimiliano%Panella%NULL%2,            Massimiliano%Panella%NULL%0,            Andrea%Parisini%NULL%2,            Andrea%Parisini%NULL%0,            Alessio%Paschè%NULL%2,            Alessio%Paschè%NULL%0,            Filippo%Patrucco%NULL%2,            Filippo%Patrucco%NULL%0,            Giuseppe%Patti%NULL%2,            Giuseppe%Patti%NULL%0,            Alberto%Pau%NULL%2,            Alberto%Pau%NULL%0,            Anita Rebecca%Pedrinelli%NULL%2,            Anita Rebecca%Pedrinelli%NULL%0,            Ilaria%Percivale%NULL%2,            Ilaria%Percivale%NULL%0,            Luca%Ragazzoni%NULL%2,            Luca%Ragazzoni%NULL%0,            Roberta%Re%NULL%2,            Roberta%Re%NULL%0,            Cristina%Rigamonti%NULL%2,            Cristina%Rigamonti%NULL%0,            Eleonora%Rizzi%NULL%2,            Eleonora%Rizzi%NULL%0,            Andrea%Rognoni%NULL%2,            Andrea%Rognoni%NULL%0,            Annalisa%Roveta%NULL%2,            Annalisa%Roveta%NULL%0,            Luigia%Salamina%NULL%2,            Luigia%Salamina%NULL%0,            Matteo%Santagostino%NULL%2,            Matteo%Santagostino%NULL%0,            Massimo%Saraceno%NULL%2,            Massimo%Saraceno%NULL%0,            Paola%Savoia%NULL%2,            Paola%Savoia%NULL%0,            Marco%Sciarra%NULL%2,            Marco%Sciarra%NULL%0,            Andrea%Schimmenti%NULL%2,            Andrea%Schimmenti%NULL%0,            Lorenza%Scotti%NULL%2,            Lorenza%Scotti%NULL%0,            Enrico%Spinoni%NULL%2,            Enrico%Spinoni%NULL%0,            Carlo%Smirne%NULL%2,            Carlo%Smirne%NULL%0,            Vanessa%Tarantino%NULL%2,            Vanessa%Tarantino%NULL%0,            Paolo Amedeo%Tillio%NULL%2,            Paolo Amedeo%Tillio%NULL%0,            Stelvio%Tonello%NULL%2,            Stelvio%Tonello%NULL%0,            Rosanna%Vaschetto%NULL%2,            Rosanna%Vaschetto%NULL%0,            Veronica%Vassia%NULL%2,            Veronica%Vassia%NULL%0,            Domenico%Zagaria%NULL%2,            Domenico%Zagaria%NULL%0,            Elisa%Zavattaro%NULL%2,            Elisa%Zavattaro%NULL%0,            Patrizia%Zeppegno%NULL%2,            Patrizia%Zeppegno%NULL%0,            Francesca%Zottarelli%NULL%2,            Francesca%Zottarelli%NULL%0,            Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,            Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aims of this study were to develop a multiparametric prognostic model for death in COVID-19 patients and to assess the incremental value of CT disease extension over clinical parameters.
+Methods
+Consecutive patients who presented to all five of the emergency rooms of the Reggio Emilia province between February 27 and March 23, 2020, for suspected COVID-19, underwent chest CT, and had a positive swab within 10 days were included in this retrospective study.
+ Age, sex, comorbidities, days from symptom onset, and laboratory data were retrieved from institutional information systems.
+ CT disease extension was visually graded as &amp;lt; 20%, 20–39%, 40–59%, or ≥ 60%.
+ The association between clinical and CT variables with death was estimated with univariable and multivariable Cox proportional hazards models; model performance was assessed using k-fold cross-validation for the area under the ROC curve (cvAUC).
+Results
+Of the 866 included patients (median age 59.8, women 39.2%), 93 (10.74%) died.
+ Clinical variables significantly associated with death in multivariable model were age, male sex, HDL cholesterol, dementia, heart failure, vascular diseases, time from symptom onset, neutrophils, LDH, and oxygen saturation level.
+ CT disease extension was also independently associated with death (HR = 7.56, 95% CI = 3.49; 16.38 for ≥ 60% extension).
+ cvAUCs were 0.927 (bootstrap bias-corrected 95% CI = 0.899–0.947) for the clinical model and 0.936 (bootstrap bias-corrected 95% CI = 0.912–0.953) when adding CT extension.
+Conclusions
+A prognostic model based on clinical variables is highly accurate in predicting death in COVID-19 patients.
+ Adding CT disease extension to the model scarcely improves its accuracy.
+Key Points
+• Early identification of COVID-19 patients at higher risk of disease progression and death is crucial; the role of CT scan in defining prognosis is unclear.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s00330-021-07993-9.
+</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,            Marta%Ottone%NULL%2,            Marta%Ottone%NULL%0,            Tommaso%Fasano%NULL%1,            Pierpaolo%Pattacini%NULL%1,            Valentina%Iotti%NULL%1,            Lucia%Spaggiari%NULL%1,            Riccardo%Bonacini%NULL%1,            Andrea%Nitrosi%NULL%1,            Efrem%Bonelli%NULL%1,            Simone%Canovi%NULL%1,            Rossana%Colla%NULL%1,            Alessandro%Zerbini%NULL%1,            Marco%Massari%NULL%1,            Ivana%Lattuada%NULL%1,            Anna Maria%Ferrari%NULL%1,            Paolo%Giorgi Rossi%NULL%1,            Massimo%Costantini%NULL%1,            Roberto%Grilli%NULL%1,            Massimiliano%Marino%NULL%1,            Giulio%Formoso%NULL%1,            Debora%Formisano%NULL%1,            Emanuela%Bedeschi%NULL%1,            Cinzia%Perilli%NULL%1,            Elisabetta%La Rosa%NULL%1,            Eufemia%Bisaccia%NULL%1,            Ivano%Venturi%NULL%1,            Massimo%Vicentini%NULL%1,            Cinzia%Campari%NULL%1,            Francesco%Gioia%NULL%1,            Serena%Broccoli%NULL%1,            Pamela%Mancuso%NULL%1,            Marco%Foracchia%NULL%1,            Mirco%Pinotti%NULL%1,            Nicola%Facciolongo%NULL%1,            Laura%Trabucco%NULL%1,            Stefano%De Pietri%NULL%1,            Giorgio Francesco%Danelli%NULL%1,            Laura%Albertazzi%NULL%1,            Enrica%Bellesia%NULL%1,            Mattia%Corradini%NULL%1,            Elena%Magnani%NULL%1,            Annalisa%Pilia%NULL%1,            Alessandra%Polese%NULL%1,            Silvia Storchi%Incerti%NULL%1,            Piera%Zaldini%NULL%1,            Bonanno%Orsola%NULL%1,            Matteo%Revelli%NULL%1,            Carlo%Salvarani%NULL%1,            Carmine%Pinto%NULL%1,            Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,            Hong-Qiu%Gu%NULL%1,            Yi%Liu (刘艺)%NULL%1,            Guqin%Zhang%NULL%1,            Hang%Yang%NULL%1,            Huifang%Hu%NULL%1,            Chenyang%Lu%NULL%1,            Yang%Li%NULL%3,            Liyi%Wang%NULL%1,            Yi%Liu (刘毅)%yi2006liu@163.com%1,            Yi%Zhao%zhao.y1977@163.com%1,            Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 pandemic has created an extreme pressure on the global healthcare services.
+ Fast, reliable, and early clinical assessment of the severity of the disease can help in allocating and prioritizing resources to reduce mortality.
+ In order to study the important blood biomarkers for predicting disease mortality, a retrospective study was conducted on a dataset made public by Yan et al.
+ in [1] of 375 COVID-19 positive patients admitted to Tongji Hospital (China) from January 10 to February 18, 2020. Demographic and clinical characteristics and patient outcomes were investigated using machine learning tools to identify key biomarkers to predict the mortality of individual patient.
+ A nomogram was developed for predicting the mortality risk among COVID-19 patients.
+ Lactate dehydrogenase, neutrophils (%), lymphocyte (%), high-sensitivity C-reactive protein, and age (LNLCA)—acquired at hospital admission—were identified as key predictors of death by multi-tree XGBoost model.
+ The area under curve (AUC) of the nomogram for the derivation and validation cohort were 0.961 and 0.991, respectively.
+ An integrated score (LNLCA) was calculated with the corresponding death probability.
+ COVID-19 patients were divided into three subgroups: low-, moderate-, and high-risk groups using LNLCA cutoff values of 10.4 and 12.65 with the death probability less than 5%, 5–50%, and above 50%, respectively.
+ The prognostic model, nomogram, and LNLCA score can help in early detection of high mortality risk of COVID-19 patients, which will help doctors to improve the management of patient stratification.
+</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,            Tawsifur%Rahman%NULL%2,            Tawsifur%Rahman%NULL%0,            Amith%Khandakar%NULL%3,            Somaya%Al-Madeed%NULL%2,            Susu M.%Zughaier%NULL%5,            Suhail A. R.%Doi%NULL%3,            Hanadi%Hassen%NULL%1,            Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,            Jia%Sun%NULL%1,            Yi-Xin%Li%NULL%1,            Qian%Chen%NULL%0,            Qing-Quan%Liu%NULL%1,            Zhou%Sun%NULL%1,            Ran%Pang%NULL%1,            Fei%Chen%NULL%1,            Bing-Yang%Xu%NULL%1,            Anne%Manyande%NULL%1,            Taane G%Clark%NULL%1,            Jin-Ping%Li%NULL%1,            Ilkay Erdogan%Orhan%NULL%1,            Yu-Ke%Tian%NULL%1,            Tao%Wang%wt7636@126.com%0,            Wei%Wu%wt7636@126.com%1,            Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,     Xinyan%Cai%xref no email%1,     Robert%Lennon%xref no email%1,     Derjung M.%Tarn%xref no email%1,     Arch G.%Mainous%xref no email%1,     Aleksandra E.%Zgierska%xref no email%1,     Bruce%Barrett%xref no email%1,     Wen-Jan%Tuan%xref no email%1,     Kevin%Maloy%xref no email%1,     Munish%Goyal%xref no email%1,     Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,         Imam%Z%coreGivesNoEmail%1,         Lippi%G%coreGivesNoEmail%1,         Oran%DP%coreGivesNoEmail%1,         Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,            Caiping%Song%NULL%1,            En%Liu%NULL%1,            Xi%Liu%NULL%1,            Hao%Wu%NULL%1,            Hui%Lin%NULL%1,            Yuliang%Liu%NULL%1,            Qi%Li%NULL%1,            Zhi%Xu%NULL%1,            XiaoBao%Ren%NULL%1,            Cheng%Zhang%NULL%1,            Wenjing%Zhang%NULL%1,            Wei%Duan%NULL%2,            Yongfeng%Tian%NULL%1,            Ping%Li%NULL%1,            Mingdong%Hu%NULL%1,            Shiming%Yang%NULL%1,            Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,            Changli%Li%NULL%1,            Li%Zheng%NULL%1,            Wenzhi%Lv%NULL%0,            Zhigang%He%NULL%1,            Xinwu%Cui%NULL%1,            Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,     Liang%Li%xref no email%1,     Li%Wang%xref no email%1,     Huan%Liu%xref no email%2,     Xuefang%Lu%xref no email%1,     Feifei%Zeng%xref no email%1,     Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,            Hayne Cho%Park%NULL%2,            Hayne Cho%Park%NULL%0,            Ajin%Cho%NULL%1,            Juhee%Kim%NULL%1,            Kyu-sang%Yun%NULL%1,            Jinseog%Kim%NULL%1,            Young-Ki%Lee%NULL%1,            Sinan%Kardes.%NULL%2,            Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,     Luyu%Yang%xref no email%1,     Qian%Zeng%xref no email%1,     Qingyun%Li%xref no email%1,     Zhitao%Yang%xref no email%1,     Lizhong%Han%xref no email%1,     Xiaodong%Huang%xref no email%1,     Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,            Xiaoyu%Fang%NULL%1,            Lixia%Cheng%NULL%1,            Penghao%Wang%NULL%1,            Shen%Li%NULL%1,            Hao%Yu%NULL%1,            Yao%Zhang%NULL%2,            Nan%Jiang%NULL%1,            Tingting%Zeng%NULL%1,            Chao%Hou%NULL%1,            Jing%Zhou%NULL%0,            Shiru%Li%NULL%1,            Yingzi%Pan%NULL%1,            Yitong%Li%NULL%1,            Lili%Nie%NULL%1,            Yang%Li%NULL%0,            Qidi%Sun%NULL%1,            Hong%Jia%NULL%1,            Mengxia%Li%NULL%1,            Guoqiang%Cao%NULL%1,            Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,            Lucas A%Ramos%NULL%2,            Lucas A%Ramos%NULL%0,            Wouter%Potters%NULL%1,            Marcus L F%Janssen%NULL%1,            Deborah%Hubers%NULL%1,            Shi%Hu%NULL%1,            Egill A%Fridgeirsson%NULL%1,            Dan%Piña-Fuentes%NULL%1,            Rajat%Thomas%NULL%1,            Iwan C C%van der Horst%NULL%1,            Christian%Herff%NULL%2,            Christian%Herff%NULL%0,            Pieter%Kubben%NULL%1,            Paul W G%Elbers%NULL%1,            Henk A%Marquering%NULL%1,            Max%Welling%NULL%1,            Suat%Simsek%NULL%1,            Martijn D%de Kruif%NULL%1,            Tom%Dormans%NULL%1,            Lucas M%Fleuren%NULL%1,            Michiel%Schinkel%NULL%1,            Peter G%Noordzij%NULL%1,            Joop P%van den Bergh%NULL%2,            Joop P%van den Bergh%NULL%0,            Caroline E%Wyers%NULL%1,            David T B%Buis%NULL%2,            David T B%Buis%NULL%0,            W Joost%Wiersinga%NULL%1,            Ella H C%van den Hout%NULL%1,            Auke C%Reidinga%NULL%1,            Daisy%Rusch%NULL%1,            Kim C E%Sigaloff%NULL%1,            Renee A%Douma%NULL%1,            Lianne%de Haan%NULL%1,            Niels C%Gritters van den Oever%NULL%1,            Roger J M W%Rennenberg%NULL%1,            Guido A%van Wingen%NULL%1,            Marcel J H%Aries%NULL%1,            Martijn%Beudel%NULL%2,            Martijn%Beudel%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,            Fajer A.%Al-Ishaq%NULL%2,            Fajer A.%Al-Ishaq%NULL%0,            Fatima S.%Al-Mohannadi%NULL%1,            Reem S.%Mubarak%NULL%1,            Maryam H.%Al-Hitmi%NULL%1,            Khandaker Reajul%Islam%NULL%1,            Amith%Khandakar%NULL%0,            Ali Ait%Hssain%NULL%3,            Ali Ait%Hssain%NULL%0,            Somaya%Al-Madeed%NULL%0,            Susu M.%Zughaier%NULL%0,            Susu M.%Zughaier%NULL%0,            Muhammad E. H.%Chowdhury%NULL%3,            Muhammad E. H.%Chowdhury%NULL%0,            Antonella%Santone%NULL%3,            Antonella%Santone%NULL%0,            Antonella%Santone%NULL%0,            Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,            Amith%Khandakar%NULL%0,            Md Enamul%Hoque%NULL%2,            Md Enamul%Hoque%NULL%0,            Nabil%Ibtehaz%NULL%2,            Nabil%Ibtehaz%NULL%0,            Saad Bin%Kashem%NULL%2,            Saad Bin%Kashem%NULL%0,            Reehum%Masud%NULL%1,            Lutfunnahar%Shampa%NULL%1,            Mohammad Mehedi%Hasan%NULL%1,            Mohammad Tariqul%Islam%NULL%1,            Somaya%Al-Maadeed%NULL%2,            Somaya%Al-Maadeed%NULL%0,            Susu M.%Zughaier%NULL%0,            Susu M.%Zughaier%NULL%0,            Saif%Badran%NULL%2,            Saif%Badran%NULL%0,            Suhail A. R.%Doi%NULL%0,            Suhail A. R.%Doi%NULL%0,            Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,            Pablo%Rodríguez-Belenguer%NULL%2,            Pablo%Rodríguez-Belenguer%NULL%0,            Antonio J.%Serrano-López%NULL%1,            Emilio%Soria-Olivas%NULL%2,            Emilio%Soria-Olivas%NULL%0,            Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,            Haibo%Ai%NULL%1,            Yunong%Fu%NULL%1,            Qinglin%Li%NULL%1,            Ruixia%Cui%NULL%1,            Xiaohua%Ma%NULL%1,            Yan-fen%Ma%NULL%1,            Zi%Wang%NULL%1,            Tong%Liu%NULL%1,            Yunxiang%Long%NULL%1,            Kai%Qu%NULL%1,            Chang%Liu%NULL%1,            Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,     Rongqing%Sun%xref no email%1,     Wenbo%Sun%xref no email%1,     Dan%Xu%xref no email%1,     Lan%Lan%xref no email%1,     Huan%Li%xref no email%1,     Huan%Liu%xref no email%0,     Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,            Dawei%Zhang%NULL%1,            Jing%Xu%NULL%6,            Zhu%Chen%NULL%1,            Tieniu%Yang%NULL%1,            Peng%Zhao%NULL%2,            Guofeng%Chen%NULL%1,            Gregory%Cheng%NULL%1,            Yudong%Wang%NULL%1,            Jingfeng%Bi%NULL%1,            Lin%Tan%NULL%1,            George%Lau%NULL%1,            Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The epidemic phase of Coronavirus disease 2019 (COVID-19) made the Worldwide health system struggle against a severe interstitial pneumonia requiring high-intensity care settings for respiratory failure.
+ A rationalisation of resources and a specific treatment path were necessary.
+ The study suggests a predictive model drawing on clinical data gathered by 119 consecutive patients with laboratory-confirmed COVID-19 admitted in Busto Arsizio hospital.
+ We derived a score that identifies the risk of clinical evolution and in-hospital mortality clustering patients into four groups.
+ The study outcomes have been compared across the derivation and validation samples.
+ The prediction rule is based on eight simple patient characteristics that were independently associated with study outcomes.
+ It is able to stratify COVID-19 patients into four severity classes, with in-hospital mortality rates of 0% in group 1, 6–12.5% in group 2, 7–20% in group 3 and 60–86% in group 4 across the derivation and validation sample.
+ The prediction model derived in this study identifies COVID-19 patients with low risk of in-hospital mortality and ICU admission.
+ The prediction model that the study presents identifies COVID-19 patients with low risk of in-hospital mortality and admission to ICU.
+ Moreover, it establishes an intermediate portion of patients that should be treated accurately in order to avoid an unfavourable clinical evolution.
+ A further validation of the model is important before its implementation as a decision-making tool to guide the initial management of patients.
+</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,            Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,            Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,            Giulia%Suigo%NULL%1,            Davide%Zampini%NULL%1,            Matteo%Pistoia%NULL%1,            Mariella%Ciola%NULL%1,            Tommaso%Ciampani%NULL%1,            Carolina%Ultori%NULL%1,            Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,            John R%Adler%NULL%3,            Sultan M%Kamran%NULL%2,            Sultan M%Kamran%NULL%0,            Zill-e-Humayun%Mirza%NULL%1,            Hussain Abdul%Moeed%NULL%1,            Arshad%Naseem%NULL%1,            Maryam%Hussain%NULL%1,            Imran%Fazal%NULL%1,            Farrukh%Saeed%NULL%1,            Wasim%Alamgir%NULL%1,            Salman%Saleem%NULL%1,            Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,     Zilong%Liu%xref no email%1,     Weipeng%Jiang%xref no email%1,     Jian%Wang%xref no email%4,     Mengchan%Zhu%xref no email%1,     Juan%Song%xref no email%0,     Xiaoyue%Wang%xref no email%1,     Ying%Su%xref no email%1,     Guiling%Xiang%xref no email%1,     Maosong%Ye%xref no email%1,     Jiamin%Li%xref no email%1,     Yong%Zhang%xref no email%1,     Qinjun%Shen%xref no email%1,     Zhuozhe%Li%xref no email%1,     Danwei%Yao%xref no email%1,     Yuanlin%Song%xref no email%0,     Kaihuan%Yu%xref no email%1,     Zhe%Luo%xref no email%1,     Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,            María M.%Martín%NULL%1,            Mónica%Argueso%NULL%1,            Jordi%Solé-Violán%NULL%1,            Alina%Perez%NULL%1,            José Alberto%Marcos Y Ramos%NULL%1,            Luis%Ramos-Gómez%NULL%1,            Sergio%López%NULL%1,            Andrés%Franco%NULL%1,            Agustín F.%González-Rivero%NULL%1,            María%Martín%NULL%1,            Verónica%Gonzalez%NULL%1,            Julia%Alcoba-Flórez%NULL%1,            Miguel Ángel%Rodriguez%NULL%1,            Marta%Riaño-Ruiz%NULL%1,            Juan%Guillermo O Campo%NULL%1,            Lourdes%González%NULL%1,            Tamara%Cantera%NULL%1,            Raquel%Ortiz-López%NULL%1,            Nazario%Ojeda%NULL%1,            Aurelio%Rodríguez-Pérez%NULL%1,            Casimira%Domínguez%NULL%1,            Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,            Rita%Kukafka%NULL%1,            Arriel%Benis%NULL%2,            Arriel%Benis%NULL%0,            Jinfeng%Li%NULL%1,            Pan%Pan%NULL%2,            Pan%Pan%NULL%0,            Yichao%Li%NULL%2,            Yichao%Li%NULL%0,            Yongjiu%Xiao%NULL%2,            Yongjiu%Xiao%NULL%0,            Bingchao%Han%NULL%2,            Bingchao%Han%NULL%0,            Longxiang%Su%NULL%2,            Longxiang%Su%NULL%0,            Mingliang%Su%NULL%2,            Mingliang%Su%NULL%0,            Yansheng%Li%NULL%2,            Yansheng%Li%NULL%0,            Siqi%Zhang%NULL%2,            Siqi%Zhang%NULL%0,            Dapeng%Jiang%NULL%2,            Dapeng%Jiang%NULL%0,            Xia%Chen%NULL%2,            Xia%Chen%NULL%0,            Fuquan%Zhou%NULL%2,            Fuquan%Zhou%NULL%0,            Ling%Ma%NULL%2,            Ling%Ma%NULL%0,            Pengtao%Bao%NULL%2,            Pengtao%Bao%NULL%0,            Lixin%Xie%xielx301@126.com%2,            Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,            Cristina%Roca-Oporto%NULL%2,            Guillermo%Martín-Gutiérrez%NULL%2,            María Dolores%Avilés%NULL%2,            Carmen%Gómez-González%NULL%2,            María Dolores%Navarro-Amuedo%NULL%2,            Julia%Praena-Segovia%NULL%2,            José%Molina%NULL%2,            María%Paniagua-García%NULL%2,            Horacio%García-Delgado%NULL%2,            Antonio%Domínguez-Petit%NULL%2,            Jerónimo%Pachón%NULL%2,            José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,            Barry R.%Meisenberg%NULL%2,            Barry R.%Meisenberg%NULL%0,            James H.%MacDonald%NULL%1,            Nandakumar%Menon%NULL%1,            Marcia B.%Fowler%NULL%1,            Michaline%West%NULL%1,            Jane%Rhule%NULL%1,            Sadaf S.%Qureshi%NULL%1,            Eileen B.%MacDonald%NULL%1,            Yu Ru%Kou%NULL%2,            Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,            Sarah%Poole%NULL%2,            Sarah%Poole%NULL%0,            Meeta%Pradhan%NULL%1,            Akhil%Vaid%NULL%3,            Akhil%Vaid%NULL%0,            Sulaiman%Somani%NULL%3,            Sulaiman%Somani%NULL%0,            Adam J%Russak%NULL%2,            Adam J%Russak%NULL%0,            Jessica K%De Freitas%NULL%2,            Jessica K%De Freitas%NULL%0,            Fayzan F%Chaudhry%NULL%2,            Fayzan F%Chaudhry%NULL%0,            Ishan%Paranjpe%NULL%3,            Ishan%Paranjpe%NULL%0,            Kipp W%Johnson%NULL%2,            Kipp W%Johnson%NULL%0,            Samuel J%Lee%NULL%2,            Samuel J%Lee%NULL%0,            Riccardo%Miotto%NULL%2,            Riccardo%Miotto%NULL%0,            Felix%Richter%NULL%3,            Felix%Richter%NULL%0,            Shan%Zhao%NULL%3,            Shan%Zhao%NULL%0,            Noam D%Beckmann%NULL%2,            Noam D%Beckmann%NULL%0,            Nidhi%Naik%NULL%2,            Nidhi%Naik%NULL%0,            Arash%Kia%NULL%2,            Arash%Kia%NULL%0,            Prem%Timsina%NULL%2,            Prem%Timsina%NULL%0,            Anuradha%Lala%NULL%2,            Anuradha%Lala%NULL%0,            Manish%Paranjpe%NULL%2,            Manish%Paranjpe%NULL%0,            Eddye%Golden%NULL%2,            Eddye%Golden%NULL%0,            Matteo%Danieletto%NULL%2,            Matteo%Danieletto%NULL%0,            Manbir%Singh%NULL%2,            Manbir%Singh%NULL%0,            Dara%Meyer%NULL%2,            Dara%Meyer%NULL%0,            Paul F%O'Reilly%NULL%2,            Paul F%O'Reilly%NULL%0,            Laura%Huckins%NULL%2,            Laura%Huckins%NULL%0,            Patricia%Kovatch%NULL%2,            Patricia%Kovatch%NULL%0,            Joseph%Finkelstein%NULL%2,            Joseph%Finkelstein%NULL%0,            Robert M.%Freeman%NULL%2,            Robert M.%Freeman%NULL%0,            Edgar%Argulian%NULL%2,            Edgar%Argulian%NULL%0,            Andrew%Kasarskis%NULL%2,            Andrew%Kasarskis%NULL%0,            Bethany%Percha%NULL%2,            Bethany%Percha%NULL%0,            Judith A%Aberg%NULL%2,            Judith A%Aberg%NULL%0,            Emilia%Bagiella%NULL%3,            Emilia%Bagiella%NULL%0,            Carol R%Horowitz%NULL%2,            Carol R%Horowitz%NULL%0,            Barbara%Murphy%NULL%2,            Barbara%Murphy%NULL%0,            Eric J%Nestler%NULL%2,            Eric J%Nestler%NULL%0,            Eric E%Schadt%NULL%2,            Eric E%Schadt%NULL%0,            Judy H%Cho%NULL%2,            Judy H%Cho%NULL%0,            Carlos%Cordon-Cardo%NULL%2,            Carlos%Cordon-Cardo%NULL%0,            Valentin%Fuster%NULL%3,            Valentin%Fuster%NULL%0,            Dennis S%Charney%NULL%2,            Dennis S%Charney%NULL%0,            David L%Reich%NULL%2,            David L%Reich%NULL%0,            Erwin P%Bottinger%NULL%2,            Erwin P%Bottinger%NULL%0,            Matthew A%Levin%NULL%2,            Matthew A%Levin%NULL%0,            Jagat%Narula%NULL%3,            Jagat%Narula%NULL%0,            Zahi A%Fayad%NULL%2,            Zahi A%Fayad%NULL%0,            Allan C%Just%NULL%2,            Allan C%Just%NULL%0,            Alexander W%Charney%NULL%2,            Alexander W%Charney%NULL%0,            Girish N%Nadkarni%NULL%2,            Girish N%Nadkarni%NULL%0,            Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,            Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,            Anne%Chen%NULL%2,            Wei%Hou%NULL%3,            James M.%Graham%NULL%1,            Haifang%Li%NULL%2,            Paul S.%Richman%NULL%1,            Henry C.%Thode%NULL%1,            Adam J.%Singer%NULL%1,            Tim Q.%Duong%NULL%1,            Muhammad%Adrish%NULL%9,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,            Qin%Liu%NULL%2,            Xiao%Zhang%NULL%2,            Shuyi%Liu%NULL%1,            Weiqi%Chen%NULL%1,            Jingjing%You%NULL%1,            Qiuying%Chen%NULL%1,            Minmin%Li%NULL%1,            Zhuozhi%Chen%NULL%1,            Luyan%Chen%NULL%1,            Lv%Chen%NULL%1,            Yuhao%Dong%NULL%1,            Qingsi%Zeng%NULL%1,            Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,            Lei%Nie%NULL%1,            Dongde%Wu%NULL%1,            Jian%Chen%NULL%2,            Zhifeng%Yang%NULL%1,            Ling%Zhang%NULL%3,            Dongqing%Li%NULL%1,            Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,     Feiyang%Zhong%xref no email%1,     Hanfei%Zhang%xref no email%1,     Wenting%An%xref no email%1,     Meiyan%Liao%xref no email%1,     Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,            Burcin%Hakoglu%NULL%2,            Burcin%Hakoglu%NULL%0,            Ali%Kadri Cirak%NULL%1,            Gulru%Polat%NULL%1,            Berna%Komurcuoglu%NULL%1,            Berrin%Akkol%NULL%1,            Cagri%Atasoy%NULL%1,            Eda%Bayramic%NULL%1,            Gunseli%Balci%NULL%1,            Sena%Ataman%NULL%1,            Sinem%Ermin%NULL%1,            Enver%Yalniz%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1,     Lili%Huang%xref no email%1,     Jin%Chen%xref no email%1,     Xiaowei%Yuan%xref no email%1,     Qinhua%Shen%xref no email%1,     Su%Dong%xref no email%1,     Bei%Cheng%xref no email%1,     Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Patients with severe Coronavirus Disease 2019 (COVID-19) will progress rapidly to acute respiratory failure or death.
+ We aimed to develop a quantitative tool for early predicting mortality risk of patients with COVID-19.
+Methods
+301 patients with confirmed COVID-19 admitted to Main District and Tumor Center of the Union Hospital of Huazhong University of Science and Technology (Wuhan, China) between January 1, 2020 to February 15, 2020 were enrolled in this retrospective two-centers study.
+ Data on patient demographic characteristics, laboratory findings and clinical outcomes was analyzed.
+ A nomogram was constructed to predict the death probability of COVID-19 patients.
+Results
+Age, neutrophil-to-lymphocyte ratio, d-dimer and C-reactive protein obtained on admission were identified as predictors of mortality for COVID-19 patients by LASSO.
+ The nomogram demonstrated good calibration and discrimination with the area under the curve (AUC) of 0.921 and 0.975 for the derivation and validation cohort, respectively.
+ An integrated score (named ANDC) with its corresponding death probability was derived.
+ Using ANDC cut-off values of 59 and 101, COVID-19 patients were classified into three subgroups.
+ The death probability of low risk group (ANDC &amp;lt; 59) was less than 5%, moderate risk group (59 ≤ ANDC ≤ 101) was 5% to 50%, and high risk group (ANDC &amp;gt; 101) was more than 50%, respectively.
+Conclusion
+The prognostic nomogram exhibited good discrimination power in early identification of COVID-19 patients with high mortality risk, and ANDC score may help physicians to optimize patient stratification management.
+</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,            Qiaosen%Chen%NULL%2,            Qiaosen%Chen%NULL%0,            Sumeng%Li%NULL%1,            Huadong%Li%NULL%1,            Qian%Zhang%NULL%1,            Sihong%Lu%NULL%1,            Li%Wu%NULL%1,            Leiqun%Xiong%NULL%1,            Bobin%Mi%NULL%1,            Di%Liu%NULL%3,            Mengji%Lu%NULL%1,            Dongliang%Yang%NULL%1,            Hongbo%Jiang%hongbojiang3@163.com%1,            Shaoping%Zheng%zhengspxx@126.com%1,            Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,            Hua%Zhang%NULL%2,            Rui%Qiao%NULL%1,            Qinggang%Ge%NULL%1,            Shuisheng%Zhang%NULL%1,            Zongxuan%Zhao%NULL%1,            Ci%Tian%NULL%1,            Qingbian%Ma%NULL%2,            Qingbian%Ma%NULL%0,            Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,            Antonia%Ho%NULL%2,            Riinu%Pius%NULL%2,            Iain%Buchan%NULL%1,            Gail%Carson%NULL%2,            Thomas M%Drake%NULL%1,            Jake%Dunning%NULL%2,            Cameron J%Fairfield%NULL%2,            Carrol%Gamble%NULL%2,            Christopher A%Green%NULL%2,            Rishi%Gupta%NULL%1,            Sophie%Halpin%NULL%2,            Hayley E%Hardwick%NULL%1,            Karl A%Holden%NULL%1,            Peter W%Horby%NULL%2,            Clare%Jackson%NULL%2,            Kenneth A%Mclean%NULL%2,            Laura%Merson%NULL%2,            Jonathan S%Nguyen-Van-Tam%NULL%1,            Lisa%Norman%NULL%2,            Mahdad%Noursadeghi%NULL%2,            Piero L%Olliaro%NULL%1,            Mark G%Pritchard%NULL%1,            Clark D%Russell%NULL%2,            Catherine A%Shaw%NULL%2,            Aziz%Sheikh%NULL%2,            Tom%Solomon%NULL%2,            Cathie%Sudlow%NULL%1,            Olivia V%Swann%NULL%1,            Lance CW%Turtle%NULL%2,            Peter JM%Openshaw%NULL%2,            J Kenneth%Baillie%NULL%2,            Malcolm G%Semple%NULL%3,            Annemarie B%Docherty%NULL%3,            Annemarie B%Docherty%NULL%0,            Ewen M%Harrison%NULL%3,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            J Kenneth%Baillie%NULL%0,            Malcolm G%Semple%NULL%0,            Peter JM%Openshaw%NULL%0,            Gail%Carson%NULL%0,            Beatrice%Alex%NULL%1,            Benjamin%Bach%NULL%1,            Wendy S%Barclay%NULL%1,            Debby%Bogaert%NULL%1,            Meera%Chand%NULL%1,            Graham S%Cooke%NULL%1,            Annemarie B%Docherty%NULL%0,            Jake%Dunning%NULL%0,            Ana%da Silva Filipe%NULL%1,            Tom%Fletcher%NULL%1,            Christopher A%Green%NULL%0,            Ewen M%Harrison%NULL%0,            Julian A%Hiscox%NULL%1,            Antonia Ying Wai%Ho%NULL%1,            Peter W%Horby%NULL%0,            Samreen%Ijaz%NULL%1,            Saye%Khoo%NULL%1,            Paul%Klenerman%NULL%1,            Andrew%Law%NULL%2,            Wei Shen%Lim%NULL%1,            Alexander J%Mentzer%NULL%1,            Laura%Merson%NULL%0,            Alison M%Meynert%NULL%1,            Mahdad%Noursadeghi%NULL%0,            Shona C%Moore%NULL%2,            Massimo%Palmarini%NULL%1,            William A%Paxton%NULL%1,            Georgios%Pollakis%NULL%1,            Nicholas%Price%NULL%1,            Andrew%Rambaut%NULL%1,            David L%Robertson%NULL%1,            Clark D%Russell%NULL%0,            Vanessa%Sancho-Shimizu%NULL%1,            Janet T%Scott%NULL%1,            Louise%Sigfrid%NULL%1,            Tom%Solomon%NULL%0,            Shiranee%Sriskandan%NULL%1,            David%Stuart%NULL%1,            Charlotte%Summers%NULL%1,            Richard S%Tedder%NULL%1,            Emma C%Thomson%NULL%1,            Ryan S%Thwaites%NULL%1,            Lance CW%Turtle%NULL%0,            Maria%Zambon%NULL%1,            Hayley%Hardwick%NULL%1,            Chloe%Donohue%NULL%1,            Jane%Ewins%NULL%1,            Wilna%Oosthuyzen%NULL%1,            Fiona%Griffiths%NULL%1,            Lisa%Norman%NULL%0,            Riinu%Pius%NULL%0,            Tom M%Drake%NULL%1,            Cameron J%Fairfield%NULL%0,            Stephen%Knight%NULL%1,            Kenneth A%Mclean%NULL%0,            Derek%Murphy%NULL%1,            Catherine A%Shaw%NULL%0,            Jo%Dalton%NULL%1,            Michelle%Girvan%NULL%1,            Egle%Saviciute%NULL%1,            Stephanie%Roberts%NULL%1,            Janet%Harrison%NULL%1,            Laura%Marsh%NULL%1,            Marie%Connor%NULL%1,            Sophie%Halpin%NULL%0,            Clare%Jackson%NULL%0,            Carrol%Gamble%NULL%0,            Gary%Leeming%NULL%1,            Andrew%Law%NULL%0,            Ross%Hendry%NULL%1,            James%Scott-Brown%NULL%1,            William%Greenhalf%NULL%1,            Victoria%Shaw%NULL%1,            Sarah%McDonald%NULL%2,            Katie A%Ahmed%NULL%1,            Jane A%Armstrong%NULL%1,            Milton%Ashworth%NULL%1,            Innocent G%Asiimwe%NULL%1,            Siddharth%Bakshi%NULL%1,            Samantha L%Barlow%NULL%1,            Laura%Booth%NULL%1,            Benjamin%Brennan%NULL%1,            Katie%Bullock%NULL%1,            Benjamin WA%Catterall%NULL%1,            Jordan J%Clark%NULL%1,            Emily A%Clarke%NULL%1,            Sarah%Cole%NULL%1,            Louise%Cooper%NULL%1,            Helen%Cox%NULL%1,            Christopher%Davis%NULL%1,            Oslem%Dincarslan%NULL%1,            Chris%Dunn%NULL%1,            Philip%Dyer%NULL%1,            Angela%Elliott%NULL%1,            Anthony%Evans%NULL%1,            Lewis WS%Fisher%NULL%1,            Terry%Foster%NULL%1,            Isabel%Garcia-Dorival%NULL%1,            Willliam%Greenhalf%NULL%1,            Philip%Gunning%NULL%1,            Catherine%Hartley%NULL%1,            Antonia%Ho%NULL%0,            Rebecca L%Jensen%NULL%1,            Christopher B%Jones%NULL%1,            Trevor R%Jones%NULL%1,            Shadia%Khandaker%NULL%1,            Katharine%King%NULL%1,            Robyn T%Kiy%NULL%1,            Chrysa%Koukorava%NULL%1,            Annette%Lake%NULL%1,            Suzannah%Lant%NULL%1,            Diane%Latawiec%NULL%1,            L%Lavelle-Langham%NULL%1,            Daniella%Lefteri%NULL%1,            Lauren%Lett%NULL%1,            Lucia A%Livoti%NULL%1,            Maria%Mancini%NULL%1,            Sarah%McDonald%NULL%0,            Laurence%McEvoy%NULL%1,            John%McLauchlan%NULL%1,            Soeren%Metelmann%NULL%1,            Nahida S%Miah%NULL%1,            Joanna%Middleton%NULL%1,            Joyce%Mitchell%NULL%1,            Shona C%Moore%NULL%0,            Ellen G%Murphy%NULL%1,            Rebekah%Penrice-Randal%NULL%1,            Jack%Pilgrim%NULL%1,            Tessa%Prince%NULL%1,            Will%Reynolds%NULL%1,            P Matthew%Ridley%NULL%1,            Debby%Sales%NULL%1,            Victoria E%Shaw%NULL%1,            Rebecca K%Shears%NULL%1,            Benjamin%Small%NULL%1,            Krishanthi S%Subramaniam%NULL%1,            Agnieska%Szemiel%NULL%1,            Aislynn%Taggart%NULL%1,            Jolanta%Tanianis-Hughes%NULL%1,            Jordan%Thomas%NULL%1,            Erwan%Trochu%NULL%1,            Libby%van Tonder%NULL%1,            Eve%Wilcock%NULL%1,            J Eunice%Zhang%NULL%1,            Kayode%Adeniji%NULL%1,            Daniel%Agranoff%NULL%1,            Ken%Agwuh%NULL%1,            Dhiraj%Ail%NULL%1,            Ana%Alegria%NULL%1,            Brian%Angus%NULL%1,            Abdul%Ashish%NULL%1,            Dougal%Atkinson%NULL%1,            Shahedal%Bari%NULL%1,            Gavin%Barlow%NULL%1,            Stella%Barnass%NULL%1,            Nicholas%Barrett%NULL%2,            Christopher%Bassford%NULL%1,            David%Baxter%NULL%1,            Michael%Beadsworth%NULL%1,            Jolanta%Bernatoniene%NULL%1,            John%Berridge%NULL%1,            Nicola%Best%NULL%1,            Pieter%Bothma%NULL%1,            David%Brealey%NULL%1,            Robin%Brittain-Long%NULL%1,            Naomi%Bulteel%NULL%1,            Tom%Burden%NULL%1,            Andrew%Burtenshaw%NULL%1,            Vikki%Caruth%NULL%1,            David%Chadwick%NULL%1,            Duncan%Chambler%NULL%1,            Nigel%Chee%NULL%1,            Jenny%Child%NULL%1,            Srikanth%Chukkambotla%NULL%1,            Tom%Clark%NULL%1,            Paul%Collini%NULL%1,            Catherine%Cosgrove%NULL%1,            Jason%Cupitt%NULL%1,            Maria-Teresa%Cutino-Moguel%NULL%1,            Paul%Dark%NULL%1,            Chris%Dawson%NULL%1,            Samir%Dervisevic%NULL%1,            Phil%Donnison%NULL%1,            Sam%Douthwaite%NULL%1,            Ingrid%DuRand%NULL%1,            Ahilanadan%Dushianthan%NULL%1,            Tristan%Dyer%NULL%1,            Cariad%Evans%NULL%1,            Chi%Eziefula%NULL%1,            Chrisopher%Fegan%NULL%1,            Adam%Finn%NULL%1,            Duncan%Fullerton%NULL%1,            Sanjeev%Garg%NULL%2,            Sanjeev%Garg%NULL%0,            Atul%Garg%NULL%1,            Jo%Godden%NULL%1,            Arthur%Goldsmith%NULL%1,            Clive%Graham%NULL%1,            Elaine%Hardy%NULL%1,            Stuart%Hartshorn%NULL%1,            Daniel%Harvey%NULL%1,            Peter%Havalda%NULL%1,            Daniel B%Hawcutt%NULL%1,            Maria%Hobrok%NULL%1,            Luke%Hodgson%NULL%1,            Anita%Holme%NULL%1,            Anil%Hormis%NULL%1,            Michael%Jacobs%NULL%1,            Susan%Jain%NULL%1,            Paul%Jennings%NULL%1,            Agilan%Kaliappan%NULL%1,            Vidya%Kasipandian%NULL%1,            Stephen%Kegg%NULL%1,            Michael%Kelsey%NULL%1,            Jason%Kendall%NULL%1,            Caroline%Kerrison%NULL%1,            Ian%Kerslake%NULL%1,            Oliver%Koch%NULL%2,            Gouri%Koduri%NULL%1,            George%Koshy%NULL%1,            Shondipon%Laha%NULL%1,            Susan%Larkin%NULL%1,            Tamas%Leiner%NULL%1,            Patrick%Lillie%NULL%1,            James%Limb%NULL%1,            Vanessa%Linnett%NULL%1,            Jeff%Little%NULL%1,            Michael%MacMahon%NULL%1,            Emily%MacNaughton%NULL%1,            Ravish%Mankregod%NULL%1,            Huw%Masson%NULL%1,            Elijah%Matovu%NULL%1,            Katherine%McCullough%NULL%1,            Ruth%McEwen%NULL%1,            Manjula%Meda%NULL%1,            Gary%Mills%NULL%1,            Jane%Minton%NULL%1,            Mariyam%Mirfenderesky%NULL%1,            Kavya%Mohandas%NULL%1,            Quen%Mok%NULL%1,            James%Moon%NULL%1,            Elinoor%Moore%NULL%1,            Patrick%Morgan%NULL%1,            Craig%Morris%NULL%1,            Katherine%Mortimore%NULL%1,            Samuel%Moses%NULL%1,            Mbiye%Mpenge%NULL%1,            Rohinton%Mulla%NULL%1,            Michael%Murphy%NULL%1,            Megan%Nagel%NULL%1,            Thapas%Nagarajan%NULL%1,            Mark%Nelson%NULL%1,            Igor%Otahal%NULL%1,            Mark%Pais%NULL%1,            Selva%Panchatsharam%NULL%1,            Hassan%Paraiso%NULL%1,            Brij%Patel%NULL%1,            Justin%Pepperell%NULL%1,            Mark%Peters%NULL%1,            Mandeep%Phull%NULL%1,            Stefania%Pintus%NULL%1,            Jagtur Singh%Pooni%NULL%1,            Frank%Post%NULL%1,            David%Price%NULL%1,            Rachel%Prout%NULL%1,            Nikolas%Rae%NULL%1,            Henrik%Reschreiter%NULL%1,            Tim%Reynolds%NULL%1,            Neil%Richardson%NULL%1,            Mark%Roberts%NULL%1,            Devender%Roberts%NULL%1,            Alistair%Rose%NULL%1,            Guy%Rousseau%NULL%1,            Brendan%Ryan%NULL%1,            Taranprit%Saluja%NULL%1,            Aarti%Shah%NULL%1,            Prad%Shanmuga%NULL%1,            Anil%Sharma%NULL%1,            Anna%Shawcross%NULL%1,            Jeremy%Sizer%NULL%1,            Richard%Smith%NULL%1,            Catherine%Snelson%NULL%1,            Nick%Spittle%NULL%1,            Nikki%Staines%NULL%1,            Tom%Stambach%NULL%1,            Richard%Stewart%NULL%1,            Pradeep%Subudhi%NULL%1,            Tamas%Szakmany%NULL%1,            Kate%Tatham%NULL%1,            Jo%Thomas%NULL%1,            Chris%Thompson%NULL%1,            Robert%Thompson%NULL%1,            Ascanio%Tridente%NULL%1,            Darell%Tupper-Carey%NULL%1,            Mary%Twagira%NULL%1,            Andrew%Ustianowski%NULL%1,            Nick%Vallotton%NULL%1,            Lisa%Vincent-Smith%NULL%1,            Shico%Visuvanathan%NULL%1,            Alan%Vuylsteke%NULL%1,            Sam%Waddy%NULL%1,            Rachel%Wake%NULL%1,            Andrew%Walden%NULL%1,            Ingeborg%Welters%NULL%1,            Tony%Whitehouse%NULL%1,            Paul%Whittaker%NULL%1,            Ashley%Whittington%NULL%1,            Meme%Wijesinghe%NULL%1,            Martin%Williams%NULL%1,            Lawrence%Wilson%NULL%1,            Sarah%Wilson%NULL%1,            Stephen%Winchester%NULL%1,            Martin%Wiselka%NULL%1,            Adam%Wolverson%NULL%1,            Daniel G%Wooton%NULL%1,            Andrew%Workman%NULL%1,            Bryan%Yates%NULL%1,            Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,            Braulio A.%Marfil‐Garza%NULL%1,            Erick%Martínez Rodríguez%NULL%1,            José Omar%Barreto Rodríguez%NULL%1,            Alicia Estela%López Romo%NULL%1,            Paolo%Alberti Minutti%NULL%1,            Juan Vicente%Alejandre Loya%NULL%1,            Félix Emmanuel%Pérez Talavera%NULL%1,            Freddy José%Ávila Cervera%NULL%1,            Adriana%Velazquez Burciaga%NULL%1,            Oscar%Morado Aramburo%NULL%1,            Luis Alberto%Piña Olguín%NULL%1,            Adrian%Soto‐Rodríguez%NULL%1,            Andrés%Castañeda Prado%NULL%1,            Patricio%Santillán Doherty%NULL%1,            Juan%O Galindo%NULL%1,            Luis Alberto%Guízar García%NULL%1,            Daniel%Hernández Gordillo%NULL%1,            Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Accurately predicting patient outcomes in Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) could aid patient management and allocation of healthcare resources.
+ There are a variety of methods which can be used to develop prognostic models, ranging from logistic regression and survival analysis to more complex machine learning algorithms and deep learning.
+ Despite several models having been created for SARS-CoV-2, most of these have been found to be highly susceptible to bias.
+ We aimed to develop and compare two separate predictive models for death during admission with SARS-CoV-2.
+Method
+Between March 1 and April 24, 2020, 398 patients were identified with laboratory confirmed SARS-CoV-2 in a London teaching hospital.
+ Data from electronic health records were extracted and used to create two predictive models using: (1) a Cox regression model and (2) an artificial neural network (ANN).
+ Model performance profiles were assessed by validation, discrimination, and calibration.
+Results
+Both the Cox regression and ANN models achieved high accuracy (83.8%, 95% confidence interval (CI) 73.8–91.1 and 90.0%, 95% CI 81.2–95.6, respectively).
+ The area under the receiver operator curve (AUROC) for the ANN (92.6%, 95% CI 91.1–94.1) was significantly greater than that of the Cox regression model (86.9%, 95% CI 85.7–88.2), p = 0.0136. Both models achieved acceptable calibration with Brier scores of 0.13 and 0.11 for the Cox model and ANN, respectively.
+Conclusion
+We demonstrate an ANN which is non-inferior to a Cox regression model but with potential for further development such that it can learn as new data becomes available.
+ Deep learning techniques are particularly suited to complex datasets with non-linear solutions, which make them appropriate for use in conditions with a paucity of prior knowledge.
+ Accurate prognostic models for SARS-CoV-2 can provide benefits at the patient, departmental and organisational level.
+</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,            Aatish%Patel%NULL%1,            Esmita%Charani%NULL%1,            Sarah%Denny%NULL%1,            Saleh A.%Alqahtani%NULL%1,            Gary W.%Davies%NULL%1,            Nabeela%Mughal%NULL%1,            Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rapid spread of COVID-19 has resulted in the shortage of medical resources, which necessitates accurate prognosis prediction to triage patients effectively.
+ This study used the nationwide cohort of South Korea to develop a machine learning model to predict prognosis based on sociodemographic and medical information.
+ Of 10,237 COVID-19 patients, 228 (2.2%) died, 7772 (75.9%) recovered, and 2237 (21.9%) were still in isolation or being treated at the last follow-up (April 16, 2020).
+ The Cox proportional hazards regression analysis revealed that age &amp;gt; 70, male sex, moderate or severe disability, the presence of symptoms, nursing home residence, and comorbidities of diabetes mellitus (DM), chronic lung disease, or asthma were significantly associated with increased risk of mortality (p ≤ 0.047).
+ For machine learning, the least absolute shrinkage and selection operator (LASSO), linear support vector machine (SVM), SVM with radial basis function kernel, random forest (RF), and k-nearest neighbors were tested.
+ In prediction of mortality, LASSO and linear SVM demonstrated high sensitivities (90.7% [95% confidence interval: 83.3, 97.3] and 92.0% [85.9, 98.1], respectively) and specificities (91.4% [90.3, 92.5] and 91.8%, [90.7, 92.9], respectively) while maintaining high specificities &amp;gt; 90%, as well as high area under the receiver operating characteristics curves (0.963 [0.946, 0.979] and 0.962 [0.945, 0.979], respectively).
+ The most significant predictors for LASSO included old age and preexisting DM or cancer; for RF they were old age, infection route (cluster infection or infection from personal contact), and underlying hypertension.
+ The proposed prediction model may be helpful for the quick triage of patients without having to wait for the results of additional tests such as laboratory or radiologic studies, during a pandemic when limited medical resources must be wisely allocated without hesitation.
+</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,            Hyunsun%Lim%NULL%1,            Dong-Wook%Kim%NULL%1,            Jung Hyun%Chang%NULL%1,            Yoon Jung%Choi%chris316@yuhs.ac%1,            Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,     Rudong%Chen%xref no email%1,     Hongkuan%Yang%xref no email%1,     Junhong%Wang%xref no email%1,     Yuyang%Hou%xref no email%1,     Wei%Hu%xref no email%1,     Jiasheng%Yu%xref no email%1,     Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,            Wenhua%Liang%NULL%3,            Mei%Jiang%NULL%2,            Weijie%Guan%NULL%3,            Chen%Zhan%NULL%2,            Tao%Wang%NULL%0,            Chunli%Tang%NULL%3,            Ling%Sang%NULL%3,            Jiaxing%Liu%NULL%2,            Zhengyi%Ni%NULL%2,            Yu%Hu%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%5,            Chunliang%Lei%NULL%2,            Yixiang%Peng%NULL%2,            Li%Wei%NULL%5,            Yong%Liu%NULL%5,            Yahua%Hu%NULL%2,            Peng%Peng%NULL%7,            Jianming%Wang%NULL%2,            Jiyang%Liu%NULL%2,            Zhong%Chen%NULL%5,            Gang%Li%NULL%5,            Zhijian%Zheng%NULL%2,            Shaoqin%Qiu%NULL%2,            Jie%Luo%NULL%5,            Changjiang%Ye%NULL%2,            Shaoyong%Zhu%NULL%2,            Xiaoqing%Liu%NULL%2,            Linling%Cheng%NULL%2,            Feng%Ye%NULL%2,            Jinping%Zheng%NULL%2,            Nuofu%Zhang%NULL%2,            Yimin%Li%NULL%2,            Jianxing%He%NULL%2,            Shiyue%Li%lishiyue@188.com%3,            Nanshan%Zhong%NULL%4,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,            Liu%Hu%NULL%1,            Yiru%Wang%NULL%0,            Luyan%Huang%NULL%1,            Lingxi%Zhao%NULL%1,            Congcong%Zhang%NULL%1,            Xiyue%Liu%NULL%1,            Ranran%Xu%NULL%1,            Feng%Liu%NULL%0,            Jinping%Li%NULL%1,            Dawei%Ye%NULL%0,            Tao%Wang%NULL%0,            Yongman%Lv%lvyongman@126.com%0,            Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,            Carol A C%Coupland%NULL%1,            Ruth H%Keogh%NULL%1,            Karla%Diaz-Ordaz%NULL%1,            Elizabeth%Williamson%NULL%1,            Ewen M%Harrison%NULL%0,            Andrew%Hayward%NULL%1,            Harry%Hemingway%NULL%1,            Peter%Horby%NULL%1,            Nisha%Mehta%NULL%1,            Jonathan%Benger%NULL%1,            Kamlesh%Khunti%NULL%0,            David%Spiegelhalter%NULL%1,            Aziz%Sheikh%NULL%0,            Jonathan%Valabhji%NULL%0,            Ronan A%Lyons%NULL%1,            John%Robson%NULL%1,            Malcolm G%Semple%NULL%0,            Frank%Kee%NULL%1,            Peter%Johnson%NULL%1,            Susan%Jebb%NULL%1,            Tony%Williams%NULL%1,            Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soaring cases of coronavirus disease (COVID-19) are pummeling the global health system.
+ Overwhelmed health facilities have endeavored to mitigate the pandemic, but mortality of COVID-19 continues to increase.
+ Here, we present a mortality risk prediction model for COVID-19 (MRPMC) that uses patients’ clinical data on admission to stratify patients by mortality risk, which enables prediction of physiological deterioration and death up to 20 days in advance.
+ This ensemble model is built using four machine learning methods including Logistic Regression, Support Vector Machine, Gradient Boosted Decision Tree, and Neural Network.
+ We validate MRPMC in an internal validation cohort and two external validation cohorts, where it achieves an AUC of 0.9621 (95% CI: 0.9464–0.9778), 0.9760 (0.9613–0.9906), and 0.9246 (0.8763–0.9729), respectively.
+ This model enables expeditious and accurate mortality risk stratification of patients with COVID-19, and potentially facilitates more responsive health systems that are conducive to high risk COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,            Guang-Yao%Cai%NULL%1,            Wei%Fang%NULL%2,            Hua-Yi%Li%NULL%1,            Si-Yuan%Wang%NULL%2,            Si-Yuan%Wang%NULL%0,            Lingxi%Chen%NULL%1,            Yang%Yu%NULL%1,            Dan%Liu%NULL%0,            Sen%Xu%NULL%2,            Peng-Fei%Cui%NULL%1,            Shao-Qing%Zeng%NULL%2,            Shao-Qing%Zeng%NULL%0,            Xin-Xia%Feng%NULL%1,            Rui-Di%Yu%NULL%1,            Ya%Wang%NULL%2,            Yuan%Yuan%NULL%1,            Xiao-Fei%Jiao%NULL%1,            Jian-Hua%Chi%NULL%1,            Jia-Hao%Liu%NULL%1,            Ru-Yuan%Li%NULL%1,            Xu%Zheng%NULL%1,            Chun-Yan%Song%NULL%1,            Ning%Jin%NULL%1,            Wen-Jian%Gong%NULL%1,            Xing-Yu%Liu%NULL%1,            Lei%Huang%NULL%2,            Xun%Tian%NULL%1,            Lin%Li%NULL%1,            Hui%Xing%NULL%1,            Ding%Ma%NULL%1,            Chun-Rui%Li%NULL%1,            Fei%Ye%yeyuanbei@hotmail.com%1,            Qing-Lei%Gao%qingleigao@hotmail.com%2,            Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,            Ang%Li%NULL%1,            Mengfan%Jiao%NULL%1,            Qingmiao%Shi%NULL%1,            Xiaocai%An%NULL%1,            Yonghai%Feng%NULL%1,            Lihua%Xing%NULL%1,            Hongxia%Liang%NULL%1,            Jiajun%Chen%NULL%1,            Huiling%Li%NULL%1,            Juan%Li%NULL%0,            Zhigang%Ren%NULL%1,            Ranran%Sun%NULL%1,            Guangying%Cui%NULL%1,            Yongjian%Zhou%NULL%1,            Ming%Cheng%NULL%1,            Pengfei%Jiao%NULL%1,            Yu%Wang%NULL%2,            Jiyuan%Xing%NULL%1,            Shen%Shen%NULL%1,            Qingxian%Zhang%NULL%1,            Aiguo%Xu%NULL%1,            Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,            Michael%Ng%NULL%1,            Shuang%Xu%NULL%1,            Zhouming%Xu%NULL%1,            Hui%Qiu%NULL%1,            Yuwei%Liu%NULL%1,            Jiayou%Lyu%NULL%1,            Jiwen%You%NULL%1,            Peng%Zhao%NULL%0,            Shihao%Wang%NULL%1,            Yunfei%Tang%NULL%1,            Hao%Cui%NULL%1,            Changxiao%Yu%NULL%1,            Feng%Wang%NULL%5,            Fei%Shao%NULL%1,            Peng%Sun%NULL%1,            Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 has become a major global threat.
+ The present study aimed to develop a nomogram model to predict the survival of COVID-19 patients based on their clinical and laboratory data at admission.
+Methods
+COVID-19 patients who were admitted at Hankou Hospital and Huoshenshan Hospital in Wuhan, China from January 12, 2020 to March 20, 2020, whose outcome during the hospitalization was known, were retrospectively reviewed.
+ The categorical variables were compared using Pearson’s χ2-test or Fisher’s exact test, and continuous variables were analyzed using Student’s t-test or Mann Whitney U-test, as appropriate.
+ Then, variables with a P-value of ≤0.1 were included in the log-binomial model, and merely these independent risk factors were used to establish the nomogram model.
+ The discrimination of the nomogram was evaluated using the area under the receiver operating characteristic curve (AUC), and internally verified using the Bootstrap method.
+Results
+A total of 262 patients (134 surviving and 128 non-surviving patients) were included in the analysis.
+ Seven variables, which included age (relative risk [RR]: 0.905, 95% confidence interval [CI]: 0.868–0.944; P &amp;lt; 0.001), chronic heart disease (CHD, RR: 0.045, 95% CI: 0.0097–0.205; P &amp;lt; 0.001, the percentage of lymphocytes (Lym%, RR: 1.125, 95% CI: 1.041–1.216; P = 0.0029), platelets (RR: 1.008, 95% CI: 1.003–1.012; P = 0.001), C-reaction protein (RR: 0.982, 95% CI: 0.973–0.991; P &amp;lt; 0.001), lactate dehydrogenase (LDH, RR: 0.993, 95% CI: 0.990–0.997; P &amp;lt; 0.001) and D-dimer (RR: 0.734, 95% CI: 0.617–0.879; P &amp;lt; 0.001), were identified as the independent risk factors.
+ The nomogram model based on these factors exhibited a good discrimination, with an AUC of 0.948 (95% CI: 0.923–0.973).
+Conclusions
+A nomogram based on age, CHD, Lym%, platelets, C-reaction protein, LDH and D-dimer was established to accurately predict the prognosis of COVID-19 patients.
+ This can be used as an alerting tool for clinicians to take early intervention measures, when necessary.
+</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,            Huifang%Wang%NULL%1,            Junwei%Huang%NULL%1,            Yan%Geng%NULL%1,            Shuqi%Jiang%NULL%1,            Qiuping%Zhou%NULL%1,            Xuan%Chen%NULL%1,            Hongping%Hu%NULL%1,            Weifeng%Li%NULL%1,            Chengbin%Zhou%NULL%1,            Xinglin%Gao%NULL%1,            Na%Peng%pnatz@163.com%1,            Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,            Dandan%Cheng%NULL%1,            Yiwei%Cao%NULL%1,            Chuan%Hu%NULL%1,            Fenglin%Zou%NULL%1,            Wencheng%Yu%NULL%1,            Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,            Min Kyu%Kang%NULL%2,            Min Kyu%Kang%NULL%0,            Yu Rim%Lee%NULL%2,            Yu Rim%Lee%NULL%0,            Jeong Eun%Song%NULL%2,            Jeong Eun%Song%NULL%0,            Na Young%Kim%NULL%1,            Young Oh%Kweon%NULL%1,            Won Young%Tak%NULL%1,            Se Young%Jang%NULL%1,            Changhyeong%Lee%NULL%2,            Changhyeong%Lee%NULL%0,            Byung Seok%Kim%NULL%1,            Jae Seok%Hwang%NULL%1,            Byoung Kuk%Jang%NULL%1,            Jinmok%Bae%NULL%1,            Ji Yeon%Lee%NULL%0,            Jeong Ill%Suh%NULL%1,            Soo Young%Park%NULL%1,            Woo Jin%Chung%NULL%2,            Woo Jin%Chung%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,            Cristina%Roca-Oporto%NULL%0,            Guillermo%Martín-Gutiérrez%NULL%0,            María Dolores%Avilés%NULL%0,            Carmen%Gómez-González%NULL%0,            María Dolores%Navarro-Amuedo%NULL%0,            Julia%Praena-Segovia%NULL%0,            José%Molina%NULL%0,            María%Paniagua-García%NULL%0,            Horacio%García-Delgado%NULL%0,            Antonio%Domínguez-Petit%NULL%0,            Jerónimo%Pachón%NULL%0,            José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,         Calvo%Boyero Fernando%coreGivesNoEmail%1,         Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,         COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,         Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,         Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,         L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,         Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,         Santos%Lozano Alejandro%coreGivesNoEmail%1,         Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,             Min%He%NULL%1,             Wanhong%Yin%NULL%1,             Xuelian%Liao%NULL%1,             Bo%Wang%NULL%6,             Xiaodong%Jin%NULL%1,             Yao%Ma%NULL%2,             Jirong%Yue%NULL%1,             Lang%Bai%NULL%1,             Dan%Liu%NULL%3,             Ting%Zhu%NULL%1,             Zhixin%Huang%NULL%1,             Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,             Shuchang%Zhou%NULL%1,             Yujin%Wang%NULL%1,             Wenzhi%Lv%NULL%2,             Shili%Wang%NULL%1,             Ting%Wang%751884926@qq.com%1,             Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,             Yan-chak%Li%NULL%1,             Sonali%Bose%NULL%1,             Ravi%Iyengar%NULL%1,             Supinda%Bunyavanich%NULL%1,             Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,    Hai-Tao%Zhang%null%1,    Jorge%Goncalves%null%1,    Yang%Xiao%null%1,    Maolin%Wang%null%1,    Yuqi%Guo%null%1,    Chuan%Sun%null%1,    Xiuchuan%Tang%null%1,    Liang%Jing%null%1,    Mingyang%Zhang%null%1,    Xiang%Huang%null%1,    Ying%Xiao%null%1,    Haosen%Cao%null%1,    Yanyan%Chen%null%1,    Tongxin%Ren%null%1,    Fang%Wang%null%1,    Yaru%Xiao%null%1,    Sufang%Huang%null%1,    Xi%Tan%null%1,    Niannian%Huang%null%1,    Bo%Jiao%null%1,    Cheng%Cheng%null%1,    Yong%Zhang%null%1,    Ailin%Luo%null%1,    Laurent%Mombaerts%null%1,    Junyang%Jin%null%1,    Zhiguo%Cao%null%1,    Shusheng%Li%null%1,    Hui%Xu%null%1,    Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,             Mengfei%Guo%NULL%1,             Limin%Duan%NULL%1,             Feng%Wu%NULL%1,             Guorong%Hu%NULL%1,             Zhihui%Wang%NULL%1,             Qi%Huang%NULL%1,             Tingting%Liao%NULL%1,             Juanjuan%Xu%NULL%1,             Yanling%Ma%NULL%1,             Zhilei%Lv%NULL%1,             Wenjing%Xiao%NULL%1,             Zilin%Zhao%NULL%1,             Xueyun%Tan%NULL%1,             Daquan%Meng%NULL%1,             Shujing%Zhang%NULL%1,             E%Zhou%NULL%1,             Zhengrong%Yin%NULL%1,             Wei%Geng%NULL%1,             Xuan%Wang%NULL%1,             Jianchu%Zhang%NULL%1,             Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,             Yu%Zhang%whxhzy@163.com%1,             Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,             Francesco%Arru%NULL%2,             Francesco%Arru%NULL%0,             Andrea%De Vito%NULL%3,             Alessandro%Sassu%NULL%2,             Alessandro%Sassu%NULL%0,             Giovanni%Valdes%NULL%1,             Valentina%Scano%NULL%1,             Elisabetta%Zinellu%NULL%1,             Roberto%Perra%NULL%1,             Giordano%Madeddu%NULL%3,             Ciriaco%Carru%NULL%1,             Pietro%Pirina%NULL%3,             Arduino A.%Mangoni%NULL%2,             Arduino A.%Mangoni%NULL%0,             Sergio%Babudieri%NULL%4,             Sergio%Babudieri%NULL%0,             Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,             Pablo%Ryan%NULL%1,             Jorge%Valencia%NULL%2,             Jorge%Valencia%NULL%0,             Mario%Pérez-Butragueño%NULL%2,             Mario%Pérez-Butragueño%NULL%0,             Eva%Jiménez%NULL%2,             Eva%Jiménez%NULL%0,             Mario%Fontán-Vela%NULL%1,             Elsa%Izquierdo-García%NULL%2,             Elsa%Izquierdo-García%NULL%0,             Inés%Fernandez-Jimenez%NULL%1,             Elena%Álvaro-Alonso%NULL%1,             Andrea%Lazaro%NULL%2,             Andrea%Lazaro%NULL%0,             Marta%Alvarado%NULL%1,             Helena%Notario%NULL%1,             Salvador%Resino%NULL%1,             Daniel%Velez-Serrano%NULL%1,             Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,             Yiru%Wang%NULL%2,             Xuecheng%Zhao%NULL%1,             Lixuan%Wang%NULL%1,             Feng%Liu%NULL%3,             Tao%Wang%NULL%15,             Dawei%Ye%NULL%2,             Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,             Valentina%Zuccaro%NULL%1,             Luca%Novelli%NULL%1,             Lorenzo%Zileri%NULL%2,             Lorenzo%Zileri%NULL%0,             Ciro%Celsa%NULL%1,             Federico%Raimondi%NULL%2,             Federico%Raimondi%NULL%0,             Mauro%Gori%NULL%1,             Giulia%Cammà%NULL%1,             Salvatore%Battaglia%NULL%1,             Vincenzo Giuseppe%Genova%NULL%1,             Laura%Paris%NULL%1,             Matteo%Tacelli%NULL%1,             Francesco Antonio%Mancarella%NULL%1,             Marco%Enea%NULL%1,             Massimo%Attanasio%NULL%1,             Michele%Senni%NULL%1,             Fabiano%Di Marco%NULL%1,             Luca Ferdinando%Lorini%NULL%1,             Stefano%Fagiuoli%NULL%1,             Raffaele%Bruno%NULL%2,             Calogero%Cammà%NULL%1,             Antonio%Gasbarrini%NULL%3,             Francesco%Di Gennaro%NULL%2,             Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,             Gan-xun%Li%NULL%1,             Lin%Chen%NULL%3,             Chang%Shu%NULL%2,             Jia%Song%NULL%1,             Wei%Wang%NULL%2,             Yu-wei%Wang%NULL%1,             Qian%Chen%NULL%2,             Guan-nan%Jin%NULL%1,             Tong-tong%Liu%NULL%1,             Jun-nan%Liang%NULL%1,             Peng%Zhu%NULL%1,             Wei%Zhu%NULL%5,             Yong%Li%NULL%2,             Bin-hao%Zhang%NULL%1,             Huan%Feng%NULL%1,             Wan-guang%Zhang%NULL%1,             Zhen-yu%Yin%NULL%1,             Wen-kui%Yu%NULL%1,             Yang%Yang%NULL%2,             Hua-qiu%Zhang%NULL%1,             Zhou-ping%Tang%NULL%1,             Hui%Wang%NULL%4,             Jun-bo%Hu%NULL%1,             Ji-hong%Liu%NULL%1,             Ping%Yin%NULL%1,             Xiao-ping%Chen%NULL%1,             Bixiang%Zhang%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,             Günay%Can%NULL%2,             Günay%Can%NULL%0,             Rıdvan%Karaali%NULL%1,             Şermin%Börekçi%NULL%1,             İlker İnanç%Balkan%NULL%1,             Bilun%Gemicioğlu%NULL%1,             Dildar%Konukoğlu%NULL%1,             Ethem%Erginöz%NULL%1,             Mehmet Sarper%Erdoğan%NULL%1,             Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,             Danila%Azzolina%NULL%1,             Eyal%Hayden%NULL%2,             Eyal%Hayden%NULL%0,             Gianluca%Gaidano%NULL%2,             Gianluca%Gaidano%NULL%0,             Mario%Pirisi%NULL%2,             Mario%Pirisi%NULL%0,             Antonio%Acquaviva%NULL%2,             Antonio%Acquaviva%NULL%0,             Gianluca%Aimaretti%NULL%2,             Gianluca%Aimaretti%NULL%0,             Paolo%Aluffi Valletti%NULL%3,             Paolo%Aluffi Valletti%NULL%0,             Roberto%Angilletta%NULL%2,             Roberto%Angilletta%NULL%0,             Roberto%Arioli%NULL%2,             Roberto%Arioli%NULL%0,             Gian Carlo%Avanzi%NULL%2,             Gian Carlo%Avanzi%NULL%0,             Gianluca%Avino%NULL%2,             Gianluca%Avino%NULL%0,             Piero Emilio%Balbo%NULL%2,             Piero Emilio%Balbo%NULL%0,             Giulia%Baldon%NULL%2,             Giulia%Baldon%NULL%0,             Francesca%Baorda%NULL%2,             Francesca%Baorda%NULL%0,             Emanuela%Barbero%NULL%2,             Emanuela%Barbero%NULL%0,             Alessio%Baricich%NULL%2,             Alessio%Baricich%NULL%0,             Michela%Barini%NULL%2,             Michela%Barini%NULL%0,             Francesco%Barone-Adesi%NULL%2,             Francesco%Barone-Adesi%NULL%0,             Sofia%Battistini%NULL%2,             Sofia%Battistini%NULL%0,             Michela%Beltrame%NULL%2,             Michela%Beltrame%NULL%0,             Matteo%Bertoli%NULL%2,             Matteo%Bertoli%NULL%0,             Stephanie%Bertolin%NULL%2,             Stephanie%Bertolin%NULL%0,             Marinella%Bertolotti%NULL%2,             Marinella%Bertolotti%NULL%0,             Marta%Betti%NULL%2,             Marta%Betti%NULL%0,             Flavio%Bobbio%NULL%2,             Flavio%Bobbio%NULL%0,             Paolo%Boffano%NULL%2,             Paolo%Boffano%NULL%0,             Lucio%Boglione%NULL%2,             Lucio%Boglione%NULL%0,             Silvio%Borrè%NULL%2,             Silvio%Borrè%NULL%0,             Matteo%Brucoli%NULL%2,             Matteo%Brucoli%NULL%0,             Elisa%Calzaducca%NULL%2,             Elisa%Calzaducca%NULL%0,             Edoardo%Cammarata%NULL%2,             Edoardo%Cammarata%NULL%0,             Vincenzo%Cantaluppi%NULL%2,             Vincenzo%Cantaluppi%NULL%0,             Roberto%Cantello%NULL%2,             Roberto%Cantello%NULL%0,             Andrea%Capponi%NULL%2,             Andrea%Capponi%NULL%0,             Alessandro%Carriero%NULL%2,             Alessandro%Carriero%NULL%0,             Giuseppe Francesco%Casciaro%NULL%2,             Giuseppe Francesco%Casciaro%NULL%0,             Luigi Mario%Castello%NULL%2,             Luigi Mario%Castello%NULL%0,             Federico%Ceruti%NULL%2,             Federico%Ceruti%NULL%0,             Guido%Chichino%NULL%2,             Guido%Chichino%NULL%0,             Emilio%Chirico%NULL%2,             Emilio%Chirico%NULL%0,             Carlo%Cisari%NULL%1,             Micol Giulia%Cittone%NULL%2,             Micol Giulia%Cittone%NULL%0,             Crizia%Colombo%NULL%2,             Crizia%Colombo%NULL%0,             Cristoforo%Comi%NULL%2,             Cristoforo%Comi%NULL%0,             Eleonora%Croce%NULL%2,             Eleonora%Croce%NULL%0,             Tommaso%Daffara%NULL%2,             Tommaso%Daffara%NULL%0,             Pietro%Danna%NULL%2,             Pietro%Danna%NULL%0,             Francesco%Della Corte%NULL%2,             Francesco%Della Corte%NULL%0,             Simona%De Vecchi%NULL%2,             Simona%De Vecchi%NULL%0,             Umberto%Dianzani%NULL%2,             Umberto%Dianzani%NULL%0,             Davide%Di Benedetto%NULL%2,             Davide%Di Benedetto%NULL%0,             Elia%Esposto%NULL%2,             Elia%Esposto%NULL%0,             Fabrizio%Faggiano%NULL%2,             Fabrizio%Faggiano%NULL%0,             Zeno%Falaschi%NULL%2,             Zeno%Falaschi%NULL%0,             Daniela%Ferrante%NULL%2,             Daniela%Ferrante%NULL%0,             Alice%Ferrero%NULL%2,             Alice%Ferrero%NULL%0,             Ileana%Gagliardi%NULL%2,             Ileana%Gagliardi%NULL%0,             Alessandra%Galbiati%NULL%2,             Alessandra%Galbiati%NULL%0,             Silvia%Gallo%NULL%2,             Silvia%Gallo%NULL%0,             Pietro Luigi%Garavelli%NULL%2,             Pietro Luigi%Garavelli%NULL%0,             Clara Ada%Gardino%NULL%2,             Clara Ada%Gardino%NULL%0,             Massimiliano%Garzaro%NULL%3,             Massimiliano%Garzaro%NULL%0,             Maria Luisa%Gastaldello%NULL%2,             Maria Luisa%Gastaldello%NULL%0,             Francesco%Gavelli%NULL%2,             Francesco%Gavelli%NULL%0,             Alessandra%Gennari%NULL%2,             Alessandra%Gennari%NULL%0,             Greta Maria%Giacomini%NULL%2,             Greta Maria%Giacomini%NULL%0,             Irene%Giacone%NULL%2,             Irene%Giacone%NULL%0,             Valentina%Giai Via%NULL%2,             Valentina%Giai Via%NULL%0,             Francesca%Giolitti%NULL%2,             Francesca%Giolitti%NULL%0,             Laura Cristina%Gironi%NULL%2,             Laura Cristina%Gironi%NULL%0,             Carla%Gramaglia%NULL%2,             Carla%Gramaglia%NULL%0,             Leonardo%Grisafi%NULL%2,             Leonardo%Grisafi%NULL%0,             Ilaria%Inserra%NULL%2,             Ilaria%Inserra%NULL%0,             Marco%Invernizzi%NULL%2,             Marco%Invernizzi%NULL%0,             Marco%Krengli%NULL%2,             Marco%Krengli%NULL%0,             Emanuela%Labella%NULL%2,             Emanuela%Labella%NULL%0,             Irene Cecilia%Landi%NULL%2,             Irene Cecilia%Landi%NULL%0,             Raffaella%Landi%NULL%2,             Raffaella%Landi%NULL%0,             Ilaria%Leone%NULL%2,             Ilaria%Leone%NULL%0,             Veronica%Lio%NULL%2,             Veronica%Lio%NULL%0,             Luca%Lorenzini%NULL%2,             Luca%Lorenzini%NULL%0,             Antonio%Maconi%NULL%2,             Antonio%Maconi%NULL%0,             Mario%Malerba%NULL%2,             Mario%Malerba%NULL%0,             Giulia Francesca%Manfredi%NULL%2,             Giulia Francesca%Manfredi%NULL%0,             Maria%Martelli%NULL%2,             Maria%Martelli%NULL%0,             Letizia%Marzari%NULL%2,             Letizia%Marzari%NULL%0,             Paolo%Marzullo%NULL%2,             Paolo%Marzullo%NULL%0,             Marco%Mennuni%NULL%2,             Marco%Mennuni%NULL%0,             Claudia%Montabone%NULL%2,             Claudia%Montabone%NULL%0,             Umberto%Morosini%NULL%2,             Umberto%Morosini%NULL%0,             Marco%Mussa%NULL%2,             Marco%Mussa%NULL%0,             Ilaria%Nerici%NULL%2,             Ilaria%Nerici%NULL%0,             Alessandro%Nuzzo%NULL%2,             Alessandro%Nuzzo%NULL%0,             Carlo%Olivieri%NULL%2,             Carlo%Olivieri%NULL%0,             Samuel Alberto%Padelli%NULL%2,             Samuel Alberto%Padelli%NULL%0,             Massimiliano%Panella%NULL%2,             Massimiliano%Panella%NULL%0,             Andrea%Parisini%NULL%2,             Andrea%Parisini%NULL%0,             Alessio%Paschè%NULL%2,             Alessio%Paschè%NULL%0,             Filippo%Patrucco%NULL%2,             Filippo%Patrucco%NULL%0,             Giuseppe%Patti%NULL%2,             Giuseppe%Patti%NULL%0,             Alberto%Pau%NULL%2,             Alberto%Pau%NULL%0,             Anita Rebecca%Pedrinelli%NULL%2,             Anita Rebecca%Pedrinelli%NULL%0,             Ilaria%Percivale%NULL%2,             Ilaria%Percivale%NULL%0,             Luca%Ragazzoni%NULL%2,             Luca%Ragazzoni%NULL%0,             Roberta%Re%NULL%2,             Roberta%Re%NULL%0,             Cristina%Rigamonti%NULL%2,             Cristina%Rigamonti%NULL%0,             Eleonora%Rizzi%NULL%2,             Eleonora%Rizzi%NULL%0,             Andrea%Rognoni%NULL%2,             Andrea%Rognoni%NULL%0,             Annalisa%Roveta%NULL%2,             Annalisa%Roveta%NULL%0,             Luigia%Salamina%NULL%2,             Luigia%Salamina%NULL%0,             Matteo%Santagostino%NULL%2,             Matteo%Santagostino%NULL%0,             Massimo%Saraceno%NULL%2,             Massimo%Saraceno%NULL%0,             Paola%Savoia%NULL%2,             Paola%Savoia%NULL%0,             Marco%Sciarra%NULL%2,             Marco%Sciarra%NULL%0,             Andrea%Schimmenti%NULL%2,             Andrea%Schimmenti%NULL%0,             Lorenza%Scotti%NULL%2,             Lorenza%Scotti%NULL%0,             Enrico%Spinoni%NULL%2,             Enrico%Spinoni%NULL%0,             Carlo%Smirne%NULL%2,             Carlo%Smirne%NULL%0,             Vanessa%Tarantino%NULL%2,             Vanessa%Tarantino%NULL%0,             Paolo Amedeo%Tillio%NULL%2,             Paolo Amedeo%Tillio%NULL%0,             Stelvio%Tonello%NULL%2,             Stelvio%Tonello%NULL%0,             Rosanna%Vaschetto%NULL%2,             Rosanna%Vaschetto%NULL%0,             Veronica%Vassia%NULL%2,             Veronica%Vassia%NULL%0,             Domenico%Zagaria%NULL%2,             Domenico%Zagaria%NULL%0,             Elisa%Zavattaro%NULL%2,             Elisa%Zavattaro%NULL%0,             Patrizia%Zeppegno%NULL%2,             Patrizia%Zeppegno%NULL%0,             Francesca%Zottarelli%NULL%2,             Francesca%Zottarelli%NULL%0,             Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,             Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,             Marta%Ottone%NULL%2,             Marta%Ottone%NULL%0,             Tommaso%Fasano%NULL%1,             Pierpaolo%Pattacini%NULL%1,             Valentina%Iotti%NULL%1,             Lucia%Spaggiari%NULL%1,             Riccardo%Bonacini%NULL%1,             Andrea%Nitrosi%NULL%1,             Efrem%Bonelli%NULL%1,             Simone%Canovi%NULL%1,             Rossana%Colla%NULL%1,             Alessandro%Zerbini%NULL%1,             Marco%Massari%NULL%1,             Ivana%Lattuada%NULL%1,             Anna Maria%Ferrari%NULL%1,             Paolo%Giorgi Rossi%NULL%1,             Massimo%Costantini%NULL%1,             Roberto%Grilli%NULL%1,             Massimiliano%Marino%NULL%1,             Giulio%Formoso%NULL%1,             Debora%Formisano%NULL%1,             Emanuela%Bedeschi%NULL%1,             Cinzia%Perilli%NULL%1,             Elisabetta%La Rosa%NULL%1,             Eufemia%Bisaccia%NULL%1,             Ivano%Venturi%NULL%1,             Massimo%Vicentini%NULL%1,             Cinzia%Campari%NULL%1,             Francesco%Gioia%NULL%1,             Serena%Broccoli%NULL%1,             Pamela%Mancuso%NULL%1,             Marco%Foracchia%NULL%1,             Mirco%Pinotti%NULL%1,             Nicola%Facciolongo%NULL%1,             Laura%Trabucco%NULL%1,             Stefano%De Pietri%NULL%1,             Giorgio Francesco%Danelli%NULL%1,             Laura%Albertazzi%NULL%1,             Enrica%Bellesia%NULL%1,             Mattia%Corradini%NULL%1,             Elena%Magnani%NULL%1,             Annalisa%Pilia%NULL%1,             Alessandra%Polese%NULL%1,             Silvia Storchi%Incerti%NULL%1,             Piera%Zaldini%NULL%1,             Bonanno%Orsola%NULL%1,             Matteo%Revelli%NULL%1,             Carlo%Salvarani%NULL%1,             Carmine%Pinto%NULL%1,             Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,             Hong-Qiu%Gu%NULL%1,             Yi%Liu (刘艺)%NULL%1,             Guqin%Zhang%NULL%1,             Hang%Yang%NULL%1,             Huifang%Hu%NULL%1,             Chenyang%Lu%NULL%1,             Yang%Li%NULL%3,             Liyi%Wang%NULL%1,             Yi%Liu (刘毅)%yi2006liu@163.com%1,             Yi%Zhao%zhao.y1977@163.com%1,             Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,             Tawsifur%Rahman%NULL%2,             Tawsifur%Rahman%NULL%0,             Amith%Khandakar%NULL%3,             Somaya%Al-Madeed%NULL%2,             Susu M.%Zughaier%NULL%5,             Suhail A. R.%Doi%NULL%3,             Hanadi%Hassen%NULL%1,             Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,             Jia%Sun%NULL%1,             Yi-Xin%Li%NULL%1,             Qian%Chen%NULL%0,             Qing-Quan%Liu%NULL%1,             Zhou%Sun%NULL%1,             Ran%Pang%NULL%1,             Fei%Chen%NULL%1,             Bing-Yang%Xu%NULL%1,             Anne%Manyande%NULL%1,             Taane G%Clark%NULL%1,             Jin-Ping%Li%NULL%1,             Ilkay Erdogan%Orhan%NULL%1,             Yu-Ke%Tian%NULL%1,             Tao%Wang%wt7636@126.com%0,             Wei%Wu%wt7636@126.com%1,             Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,      Xinyan%Cai%xref no email%1,      Robert%Lennon%xref no email%1,      Derjung M.%Tarn%xref no email%1,      Arch G.%Mainous%xref no email%1,      Aleksandra E.%Zgierska%xref no email%1,      Bruce%Barrett%xref no email%1,      Wen-Jan%Tuan%xref no email%1,      Kevin%Maloy%xref no email%1,      Munish%Goyal%xref no email%1,      Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,          Imam%Z%coreGivesNoEmail%1,          Lippi%G%coreGivesNoEmail%1,          Oran%DP%coreGivesNoEmail%1,          Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,             Caiping%Song%NULL%1,             En%Liu%NULL%1,             Xi%Liu%NULL%1,             Hao%Wu%NULL%1,             Hui%Lin%NULL%1,             Yuliang%Liu%NULL%1,             Qi%Li%NULL%1,             Zhi%Xu%NULL%1,             XiaoBao%Ren%NULL%1,             Cheng%Zhang%NULL%1,             Wenjing%Zhang%NULL%1,             Wei%Duan%NULL%2,             Yongfeng%Tian%NULL%1,             Ping%Li%NULL%1,             Mingdong%Hu%NULL%1,             Shiming%Yang%NULL%1,             Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,             Changli%Li%NULL%1,             Li%Zheng%NULL%1,             Wenzhi%Lv%NULL%0,             Zhigang%He%NULL%1,             Xinwu%Cui%NULL%1,             Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,      Liang%Li%xref no email%1,      Li%Wang%xref no email%1,      Huan%Liu%xref no email%2,      Xuefang%Lu%xref no email%1,      Feifei%Zeng%xref no email%1,      Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,             Hayne Cho%Park%NULL%2,             Hayne Cho%Park%NULL%0,             Ajin%Cho%NULL%1,             Juhee%Kim%NULL%1,             Kyu-sang%Yun%NULL%1,             Jinseog%Kim%NULL%1,             Young-Ki%Lee%NULL%1,             Sinan%Kardes.%NULL%2,             Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,      Luyu%Yang%xref no email%1,      Qian%Zeng%xref no email%1,      Qingyun%Li%xref no email%1,      Zhitao%Yang%xref no email%1,      Lizhong%Han%xref no email%1,      Xiaodong%Huang%xref no email%1,      Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,             Xiaoyu%Fang%NULL%1,             Lixia%Cheng%NULL%1,             Penghao%Wang%NULL%1,             Shen%Li%NULL%1,             Hao%Yu%NULL%1,             Yao%Zhang%NULL%2,             Nan%Jiang%NULL%1,             Tingting%Zeng%NULL%1,             Chao%Hou%NULL%1,             Jing%Zhou%NULL%0,             Shiru%Li%NULL%1,             Yingzi%Pan%NULL%1,             Yitong%Li%NULL%1,             Lili%Nie%NULL%1,             Yang%Li%NULL%0,             Qidi%Sun%NULL%1,             Hong%Jia%NULL%1,             Mengxia%Li%NULL%1,             Guoqiang%Cao%NULL%1,             Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,             Lucas A%Ramos%NULL%2,             Lucas A%Ramos%NULL%0,             Wouter%Potters%NULL%1,             Marcus L F%Janssen%NULL%1,             Deborah%Hubers%NULL%1,             Shi%Hu%NULL%1,             Egill A%Fridgeirsson%NULL%1,             Dan%Piña-Fuentes%NULL%1,             Rajat%Thomas%NULL%1,             Iwan C C%van der Horst%NULL%1,             Christian%Herff%NULL%2,             Christian%Herff%NULL%0,             Pieter%Kubben%NULL%1,             Paul W G%Elbers%NULL%1,             Henk A%Marquering%NULL%1,             Max%Welling%NULL%1,             Suat%Simsek%NULL%1,             Martijn D%de Kruif%NULL%1,             Tom%Dormans%NULL%1,             Lucas M%Fleuren%NULL%1,             Michiel%Schinkel%NULL%1,             Peter G%Noordzij%NULL%1,             Joop P%van den Bergh%NULL%2,             Joop P%van den Bergh%NULL%0,             Caroline E%Wyers%NULL%1,             David T B%Buis%NULL%2,             David T B%Buis%NULL%0,             W Joost%Wiersinga%NULL%1,             Ella H C%van den Hout%NULL%1,             Auke C%Reidinga%NULL%1,             Daisy%Rusch%NULL%1,             Kim C E%Sigaloff%NULL%1,             Renee A%Douma%NULL%1,             Lianne%de Haan%NULL%1,             Niels C%Gritters van den Oever%NULL%1,             Roger J M W%Rennenberg%NULL%1,             Guido A%van Wingen%NULL%1,             Marcel J H%Aries%NULL%1,             Martijn%Beudel%NULL%2,             Martijn%Beudel%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,             Fajer A.%Al-Ishaq%NULL%2,             Fajer A.%Al-Ishaq%NULL%0,             Fatima S.%Al-Mohannadi%NULL%1,             Reem S.%Mubarak%NULL%1,             Maryam H.%Al-Hitmi%NULL%1,             Khandaker Reajul%Islam%NULL%1,             Amith%Khandakar%NULL%0,             Ali Ait%Hssain%NULL%3,             Ali Ait%Hssain%NULL%0,             Somaya%Al-Madeed%NULL%0,             Susu M.%Zughaier%NULL%0,             Susu M.%Zughaier%NULL%0,             Muhammad E. H.%Chowdhury%NULL%3,             Muhammad E. H.%Chowdhury%NULL%0,             Antonella%Santone%NULL%3,             Antonella%Santone%NULL%0,             Antonella%Santone%NULL%0,             Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,             Amith%Khandakar%NULL%0,             Md Enamul%Hoque%NULL%2,             Md Enamul%Hoque%NULL%0,             Nabil%Ibtehaz%NULL%2,             Nabil%Ibtehaz%NULL%0,             Saad Bin%Kashem%NULL%2,             Saad Bin%Kashem%NULL%0,             Reehum%Masud%NULL%1,             Lutfunnahar%Shampa%NULL%1,             Mohammad Mehedi%Hasan%NULL%1,             Mohammad Tariqul%Islam%NULL%1,             Somaya%Al-Maadeed%NULL%2,             Somaya%Al-Maadeed%NULL%0,             Susu M.%Zughaier%NULL%0,             Susu M.%Zughaier%NULL%0,             Saif%Badran%NULL%2,             Saif%Badran%NULL%0,             Suhail A. R.%Doi%NULL%0,             Suhail A. R.%Doi%NULL%0,             Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,             Pablo%Rodríguez-Belenguer%NULL%2,             Pablo%Rodríguez-Belenguer%NULL%0,             Antonio J.%Serrano-López%NULL%1,             Emilio%Soria-Olivas%NULL%2,             Emilio%Soria-Olivas%NULL%0,             Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,             Haibo%Ai%NULL%1,             Yunong%Fu%NULL%1,             Qinglin%Li%NULL%1,             Ruixia%Cui%NULL%1,             Xiaohua%Ma%NULL%1,             Yan-fen%Ma%NULL%1,             Zi%Wang%NULL%1,             Tong%Liu%NULL%1,             Yunxiang%Long%NULL%1,             Kai%Qu%NULL%1,             Chang%Liu%NULL%1,             Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,      Rongqing%Sun%xref no email%1,      Wenbo%Sun%xref no email%1,      Dan%Xu%xref no email%1,      Lan%Lan%xref no email%1,      Huan%Li%xref no email%1,      Huan%Liu%xref no email%0,      Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,             Dawei%Zhang%NULL%1,             Jing%Xu%NULL%6,             Zhu%Chen%NULL%1,             Tieniu%Yang%NULL%1,             Peng%Zhao%NULL%2,             Guofeng%Chen%NULL%1,             Gregory%Cheng%NULL%1,             Yudong%Wang%NULL%1,             Jingfeng%Bi%NULL%1,             Lin%Tan%NULL%1,             George%Lau%NULL%1,             Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,             Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,             Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,             Giulia%Suigo%NULL%1,             Davide%Zampini%NULL%1,             Matteo%Pistoia%NULL%1,             Mariella%Ciola%NULL%1,             Tommaso%Ciampani%NULL%1,             Carolina%Ultori%NULL%1,             Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,             John R%Adler%NULL%3,             Sultan M%Kamran%NULL%2,             Sultan M%Kamran%NULL%0,             Zill-e-Humayun%Mirza%NULL%1,             Hussain Abdul%Moeed%NULL%1,             Arshad%Naseem%NULL%1,             Maryam%Hussain%NULL%1,             Imran%Fazal%NULL%1,             Farrukh%Saeed%NULL%1,             Wasim%Alamgir%NULL%1,             Salman%Saleem%NULL%1,             Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,      Zilong%Liu%xref no email%1,      Weipeng%Jiang%xref no email%1,      Jian%Wang%xref no email%4,      Mengchan%Zhu%xref no email%1,      Juan%Song%xref no email%0,      Xiaoyue%Wang%xref no email%1,      Ying%Su%xref no email%1,      Guiling%Xiang%xref no email%1,      Maosong%Ye%xref no email%1,      Jiamin%Li%xref no email%1,      Yong%Zhang%xref no email%1,      Qinjun%Shen%xref no email%1,      Zhuozhe%Li%xref no email%1,      Danwei%Yao%xref no email%1,      Yuanlin%Song%xref no email%0,      Kaihuan%Yu%xref no email%1,      Zhe%Luo%xref no email%1,      Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,             María M.%Martín%NULL%1,             Mónica%Argueso%NULL%1,             Jordi%Solé-Violán%NULL%1,             Alina%Perez%NULL%1,             José Alberto%Marcos Y Ramos%NULL%1,             Luis%Ramos-Gómez%NULL%1,             Sergio%López%NULL%1,             Andrés%Franco%NULL%1,             Agustín F.%González-Rivero%NULL%1,             María%Martín%NULL%1,             Verónica%Gonzalez%NULL%1,             Julia%Alcoba-Flórez%NULL%1,             Miguel Ángel%Rodriguez%NULL%1,             Marta%Riaño-Ruiz%NULL%1,             Juan%Guillermo O Campo%NULL%1,             Lourdes%González%NULL%1,             Tamara%Cantera%NULL%1,             Raquel%Ortiz-López%NULL%1,             Nazario%Ojeda%NULL%1,             Aurelio%Rodríguez-Pérez%NULL%1,             Casimira%Domínguez%NULL%1,             Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,             Rita%Kukafka%NULL%1,             Arriel%Benis%NULL%2,             Arriel%Benis%NULL%0,             Jinfeng%Li%NULL%1,             Pan%Pan%NULL%2,             Pan%Pan%NULL%0,             Yichao%Li%NULL%2,             Yichao%Li%NULL%0,             Yongjiu%Xiao%NULL%2,             Yongjiu%Xiao%NULL%0,             Bingchao%Han%NULL%2,             Bingchao%Han%NULL%0,             Longxiang%Su%NULL%2,             Longxiang%Su%NULL%0,             Mingliang%Su%NULL%2,             Mingliang%Su%NULL%0,             Yansheng%Li%NULL%2,             Yansheng%Li%NULL%0,             Siqi%Zhang%NULL%2,             Siqi%Zhang%NULL%0,             Dapeng%Jiang%NULL%2,             Dapeng%Jiang%NULL%0,             Xia%Chen%NULL%2,             Xia%Chen%NULL%0,             Fuquan%Zhou%NULL%2,             Fuquan%Zhou%NULL%0,             Ling%Ma%NULL%2,             Ling%Ma%NULL%0,             Pengtao%Bao%NULL%2,             Pengtao%Bao%NULL%0,             Lixin%Xie%xielx301@126.com%2,             Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,             Cristina%Roca-Oporto%NULL%2,             Guillermo%Martín-Gutiérrez%NULL%2,             María Dolores%Avilés%NULL%2,             Carmen%Gómez-González%NULL%2,             María Dolores%Navarro-Amuedo%NULL%2,             Julia%Praena-Segovia%NULL%2,             José%Molina%NULL%2,             María%Paniagua-García%NULL%2,             Horacio%García-Delgado%NULL%2,             Antonio%Domínguez-Petit%NULL%2,             Jerónimo%Pachón%NULL%2,             José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,             Barry R.%Meisenberg%NULL%2,             Barry R.%Meisenberg%NULL%0,             James H.%MacDonald%NULL%1,             Nandakumar%Menon%NULL%1,             Marcia B.%Fowler%NULL%1,             Michaline%West%NULL%1,             Jane%Rhule%NULL%1,             Sadaf S.%Qureshi%NULL%1,             Eileen B.%MacDonald%NULL%1,             Yu Ru%Kou%NULL%2,             Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,             Sarah%Poole%NULL%2,             Sarah%Poole%NULL%0,             Meeta%Pradhan%NULL%1,             Akhil%Vaid%NULL%3,             Akhil%Vaid%NULL%0,             Sulaiman%Somani%NULL%3,             Sulaiman%Somani%NULL%0,             Adam J%Russak%NULL%2,             Adam J%Russak%NULL%0,             Jessica K%De Freitas%NULL%2,             Jessica K%De Freitas%NULL%0,             Fayzan F%Chaudhry%NULL%2,             Fayzan F%Chaudhry%NULL%0,             Ishan%Paranjpe%NULL%3,             Ishan%Paranjpe%NULL%0,             Kipp W%Johnson%NULL%2,             Kipp W%Johnson%NULL%0,             Samuel J%Lee%NULL%2,             Samuel J%Lee%NULL%0,             Riccardo%Miotto%NULL%2,             Riccardo%Miotto%NULL%0,             Felix%Richter%NULL%3,             Felix%Richter%NULL%0,             Shan%Zhao%NULL%3,             Shan%Zhao%NULL%0,             Noam D%Beckmann%NULL%2,             Noam D%Beckmann%NULL%0,             Nidhi%Naik%NULL%2,             Nidhi%Naik%NULL%0,             Arash%Kia%NULL%2,             Arash%Kia%NULL%0,             Prem%Timsina%NULL%2,             Prem%Timsina%NULL%0,             Anuradha%Lala%NULL%2,             Anuradha%Lala%NULL%0,             Manish%Paranjpe%NULL%2,             Manish%Paranjpe%NULL%0,             Eddye%Golden%NULL%2,             Eddye%Golden%NULL%0,             Matteo%Danieletto%NULL%2,             Matteo%Danieletto%NULL%0,             Manbir%Singh%NULL%2,             Manbir%Singh%NULL%0,             Dara%Meyer%NULL%2,             Dara%Meyer%NULL%0,             Paul F%O'Reilly%NULL%2,             Paul F%O'Reilly%NULL%0,             Laura%Huckins%NULL%2,             Laura%Huckins%NULL%0,             Patricia%Kovatch%NULL%2,             Patricia%Kovatch%NULL%0,             Joseph%Finkelstein%NULL%2,             Joseph%Finkelstein%NULL%0,             Robert M.%Freeman%NULL%2,             Robert M.%Freeman%NULL%0,             Edgar%Argulian%NULL%2,             Edgar%Argulian%NULL%0,             Andrew%Kasarskis%NULL%2,             Andrew%Kasarskis%NULL%0,             Bethany%Percha%NULL%2,             Bethany%Percha%NULL%0,             Judith A%Aberg%NULL%2,             Judith A%Aberg%NULL%0,             Emilia%Bagiella%NULL%3,             Emilia%Bagiella%NULL%0,             Carol R%Horowitz%NULL%2,             Carol R%Horowitz%NULL%0,             Barbara%Murphy%NULL%2,             Barbara%Murphy%NULL%0,             Eric J%Nestler%NULL%2,             Eric J%Nestler%NULL%0,             Eric E%Schadt%NULL%2,             Eric E%Schadt%NULL%0,             Judy H%Cho%NULL%2,             Judy H%Cho%NULL%0,             Carlos%Cordon-Cardo%NULL%2,             Carlos%Cordon-Cardo%NULL%0,             Valentin%Fuster%NULL%3,             Valentin%Fuster%NULL%0,             Dennis S%Charney%NULL%2,             Dennis S%Charney%NULL%0,             David L%Reich%NULL%2,             David L%Reich%NULL%0,             Erwin P%Bottinger%NULL%2,             Erwin P%Bottinger%NULL%0,             Matthew A%Levin%NULL%2,             Matthew A%Levin%NULL%0,             Jagat%Narula%NULL%3,             Jagat%Narula%NULL%0,             Zahi A%Fayad%NULL%2,             Zahi A%Fayad%NULL%0,             Allan C%Just%NULL%2,             Allan C%Just%NULL%0,             Alexander W%Charney%NULL%2,             Alexander W%Charney%NULL%0,             Girish N%Nadkarni%NULL%2,             Girish N%Nadkarni%NULL%0,             Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,             Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,             Anne%Chen%NULL%2,             Wei%Hou%NULL%3,             James M.%Graham%NULL%1,             Haifang%Li%NULL%2,             Paul S.%Richman%NULL%1,             Henry C.%Thode%NULL%1,             Adam J.%Singer%NULL%1,             Tim Q.%Duong%NULL%1,             Muhammad%Adrish%NULL%9,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,             Qin%Liu%NULL%2,             Xiao%Zhang%NULL%2,             Shuyi%Liu%NULL%1,             Weiqi%Chen%NULL%1,             Jingjing%You%NULL%1,             Qiuying%Chen%NULL%1,             Minmin%Li%NULL%1,             Zhuozhi%Chen%NULL%1,             Luyan%Chen%NULL%1,             Lv%Chen%NULL%1,             Yuhao%Dong%NULL%1,             Qingsi%Zeng%NULL%1,             Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,             Lei%Nie%NULL%1,             Dongde%Wu%NULL%1,             Jian%Chen%NULL%2,             Zhifeng%Yang%NULL%1,             Ling%Zhang%NULL%3,             Dongqing%Li%NULL%1,             Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,      Feiyang%Zhong%xref no email%1,      Hanfei%Zhang%xref no email%1,      Wenting%An%xref no email%1,      Meiyan%Liao%xref no email%1,      Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,             Burcin%Hakoglu%NULL%2,             Burcin%Hakoglu%NULL%0,             Ali%Kadri Cirak%NULL%1,             Gulru%Polat%NULL%1,             Berna%Komurcuoglu%NULL%1,             Berrin%Akkol%NULL%1,             Cagri%Atasoy%NULL%1,             Eda%Bayramic%NULL%1,             Gunseli%Balci%NULL%1,             Sena%Ataman%NULL%1,             Sinem%Ermin%NULL%1,             Enver%Yalniz%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1,      Lili%Huang%xref no email%1,      Jin%Chen%xref no email%1,      Xiaowei%Yuan%xref no email%1,      Qinhua%Shen%xref no email%1,      Su%Dong%xref no email%1,      Bei%Cheng%xref no email%1,      Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,             Qiaosen%Chen%NULL%2,             Qiaosen%Chen%NULL%0,             Sumeng%Li%NULL%1,             Huadong%Li%NULL%1,             Qian%Zhang%NULL%1,             Sihong%Lu%NULL%1,             Li%Wu%NULL%1,             Leiqun%Xiong%NULL%1,             Bobin%Mi%NULL%1,             Di%Liu%NULL%3,             Mengji%Lu%NULL%1,             Dongliang%Yang%NULL%1,             Hongbo%Jiang%hongbojiang3@163.com%1,             Shaoping%Zheng%zhengspxx@126.com%1,             Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,             Hua%Zhang%NULL%2,             Rui%Qiao%NULL%1,             Qinggang%Ge%NULL%1,             Shuisheng%Zhang%NULL%1,             Zongxuan%Zhao%NULL%1,             Ci%Tian%NULL%1,             Qingbian%Ma%NULL%2,             Qingbian%Ma%NULL%0,             Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,             Antonia%Ho%NULL%2,             Riinu%Pius%NULL%2,             Iain%Buchan%NULL%1,             Gail%Carson%NULL%2,             Thomas M%Drake%NULL%1,             Jake%Dunning%NULL%2,             Cameron J%Fairfield%NULL%2,             Carrol%Gamble%NULL%2,             Christopher A%Green%NULL%2,             Rishi%Gupta%NULL%1,             Sophie%Halpin%NULL%2,             Hayley E%Hardwick%NULL%1,             Karl A%Holden%NULL%1,             Peter W%Horby%NULL%2,             Clare%Jackson%NULL%2,             Kenneth A%Mclean%NULL%2,             Laura%Merson%NULL%2,             Jonathan S%Nguyen-Van-Tam%NULL%1,             Lisa%Norman%NULL%2,             Mahdad%Noursadeghi%NULL%2,             Piero L%Olliaro%NULL%1,             Mark G%Pritchard%NULL%1,             Clark D%Russell%NULL%2,             Catherine A%Shaw%NULL%2,             Aziz%Sheikh%NULL%2,             Tom%Solomon%NULL%2,             Cathie%Sudlow%NULL%1,             Olivia V%Swann%NULL%1,             Lance CW%Turtle%NULL%2,             Peter JM%Openshaw%NULL%2,             J Kenneth%Baillie%NULL%2,             Malcolm G%Semple%NULL%3,             Annemarie B%Docherty%NULL%3,             Annemarie B%Docherty%NULL%0,             Ewen M%Harrison%NULL%3,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             J Kenneth%Baillie%NULL%0,             Malcolm G%Semple%NULL%0,             Peter JM%Openshaw%NULL%0,             Gail%Carson%NULL%0,             Beatrice%Alex%NULL%1,             Benjamin%Bach%NULL%1,             Wendy S%Barclay%NULL%1,             Debby%Bogaert%NULL%1,             Meera%Chand%NULL%1,             Graham S%Cooke%NULL%1,             Annemarie B%Docherty%NULL%0,             Jake%Dunning%NULL%0,             Ana%da Silva Filipe%NULL%1,             Tom%Fletcher%NULL%1,             Christopher A%Green%NULL%0,             Ewen M%Harrison%NULL%0,             Julian A%Hiscox%NULL%1,             Antonia Ying Wai%Ho%NULL%1,             Peter W%Horby%NULL%0,             Samreen%Ijaz%NULL%1,             Saye%Khoo%NULL%1,             Paul%Klenerman%NULL%1,             Andrew%Law%NULL%2,             Wei Shen%Lim%NULL%1,             Alexander J%Mentzer%NULL%1,             Laura%Merson%NULL%0,             Alison M%Meynert%NULL%1,             Mahdad%Noursadeghi%NULL%0,             Shona C%Moore%NULL%2,             Massimo%Palmarini%NULL%1,             William A%Paxton%NULL%1,             Georgios%Pollakis%NULL%1,             Nicholas%Price%NULL%1,             Andrew%Rambaut%NULL%1,             David L%Robertson%NULL%1,             Clark D%Russell%NULL%0,             Vanessa%Sancho-Shimizu%NULL%1,             Janet T%Scott%NULL%1,             Louise%Sigfrid%NULL%1,             Tom%Solomon%NULL%0,             Shiranee%Sriskandan%NULL%1,             David%Stuart%NULL%1,             Charlotte%Summers%NULL%1,             Richard S%Tedder%NULL%1,             Emma C%Thomson%NULL%1,             Ryan S%Thwaites%NULL%1,             Lance CW%Turtle%NULL%0,             Maria%Zambon%NULL%1,             Hayley%Hardwick%NULL%1,             Chloe%Donohue%NULL%1,             Jane%Ewins%NULL%1,             Wilna%Oosthuyzen%NULL%1,             Fiona%Griffiths%NULL%1,             Lisa%Norman%NULL%0,             Riinu%Pius%NULL%0,             Tom M%Drake%NULL%1,             Cameron J%Fairfield%NULL%0,             Stephen%Knight%NULL%1,             Kenneth A%Mclean%NULL%0,             Derek%Murphy%NULL%1,             Catherine A%Shaw%NULL%0,             Jo%Dalton%NULL%1,             Michelle%Girvan%NULL%1,             Egle%Saviciute%NULL%1,             Stephanie%Roberts%NULL%1,             Janet%Harrison%NULL%1,             Laura%Marsh%NULL%1,             Marie%Connor%NULL%1,             Sophie%Halpin%NULL%0,             Clare%Jackson%NULL%0,             Carrol%Gamble%NULL%0,             Gary%Leeming%NULL%1,             Andrew%Law%NULL%0,             Ross%Hendry%NULL%1,             James%Scott-Brown%NULL%1,             William%Greenhalf%NULL%1,             Victoria%Shaw%NULL%1,             Sarah%McDonald%NULL%2,             Katie A%Ahmed%NULL%1,             Jane A%Armstrong%NULL%1,             Milton%Ashworth%NULL%1,             Innocent G%Asiimwe%NULL%1,             Siddharth%Bakshi%NULL%1,             Samantha L%Barlow%NULL%1,             Laura%Booth%NULL%1,             Benjamin%Brennan%NULL%1,             Katie%Bullock%NULL%1,             Benjamin WA%Catterall%NULL%1,             Jordan J%Clark%NULL%1,             Emily A%Clarke%NULL%1,             Sarah%Cole%NULL%1,             Louise%Cooper%NULL%1,             Helen%Cox%NULL%1,             Christopher%Davis%NULL%1,             Oslem%Dincarslan%NULL%1,             Chris%Dunn%NULL%1,             Philip%Dyer%NULL%1,             Angela%Elliott%NULL%1,             Anthony%Evans%NULL%1,             Lewis WS%Fisher%NULL%1,             Terry%Foster%NULL%1,             Isabel%Garcia-Dorival%NULL%1,             Willliam%Greenhalf%NULL%1,             Philip%Gunning%NULL%1,             Catherine%Hartley%NULL%1,             Antonia%Ho%NULL%0,             Rebecca L%Jensen%NULL%1,             Christopher B%Jones%NULL%1,             Trevor R%Jones%NULL%1,             Shadia%Khandaker%NULL%1,             Katharine%King%NULL%1,             Robyn T%Kiy%NULL%1,             Chrysa%Koukorava%NULL%1,             Annette%Lake%NULL%1,             Suzannah%Lant%NULL%1,             Diane%Latawiec%NULL%1,             L%Lavelle-Langham%NULL%1,             Daniella%Lefteri%NULL%1,             Lauren%Lett%NULL%1,             Lucia A%Livoti%NULL%1,             Maria%Mancini%NULL%1,             Sarah%McDonald%NULL%0,             Laurence%McEvoy%NULL%1,             John%McLauchlan%NULL%1,             Soeren%Metelmann%NULL%1,             Nahida S%Miah%NULL%1,             Joanna%Middleton%NULL%1,             Joyce%Mitchell%NULL%1,             Shona C%Moore%NULL%0,             Ellen G%Murphy%NULL%1,             Rebekah%Penrice-Randal%NULL%1,             Jack%Pilgrim%NULL%1,             Tessa%Prince%NULL%1,             Will%Reynolds%NULL%1,             P Matthew%Ridley%NULL%1,             Debby%Sales%NULL%1,             Victoria E%Shaw%NULL%1,             Rebecca K%Shears%NULL%1,             Benjamin%Small%NULL%1,             Krishanthi S%Subramaniam%NULL%1,             Agnieska%Szemiel%NULL%1,             Aislynn%Taggart%NULL%1,             Jolanta%Tanianis-Hughes%NULL%1,             Jordan%Thomas%NULL%1,             Erwan%Trochu%NULL%1,             Libby%van Tonder%NULL%1,             Eve%Wilcock%NULL%1,             J Eunice%Zhang%NULL%1,             Kayode%Adeniji%NULL%1,             Daniel%Agranoff%NULL%1,             Ken%Agwuh%NULL%1,             Dhiraj%Ail%NULL%1,             Ana%Alegria%NULL%1,             Brian%Angus%NULL%1,             Abdul%Ashish%NULL%1,             Dougal%Atkinson%NULL%1,             Shahedal%Bari%NULL%1,             Gavin%Barlow%NULL%1,             Stella%Barnass%NULL%1,             Nicholas%Barrett%NULL%2,             Christopher%Bassford%NULL%1,             David%Baxter%NULL%1,             Michael%Beadsworth%NULL%1,             Jolanta%Bernatoniene%NULL%1,             John%Berridge%NULL%1,             Nicola%Best%NULL%1,             Pieter%Bothma%NULL%1,             David%Brealey%NULL%1,             Robin%Brittain-Long%NULL%1,             Naomi%Bulteel%NULL%1,             Tom%Burden%NULL%1,             Andrew%Burtenshaw%NULL%1,             Vikki%Caruth%NULL%1,             David%Chadwick%NULL%1,             Duncan%Chambler%NULL%1,             Nigel%Chee%NULL%1,             Jenny%Child%NULL%1,             Srikanth%Chukkambotla%NULL%1,             Tom%Clark%NULL%1,             Paul%Collini%NULL%1,             Catherine%Cosgrove%NULL%1,             Jason%Cupitt%NULL%1,             Maria-Teresa%Cutino-Moguel%NULL%1,             Paul%Dark%NULL%1,             Chris%Dawson%NULL%1,             Samir%Dervisevic%NULL%1,             Phil%Donnison%NULL%1,             Sam%Douthwaite%NULL%1,             Ingrid%DuRand%NULL%1,             Ahilanadan%Dushianthan%NULL%1,             Tristan%Dyer%NULL%1,             Cariad%Evans%NULL%1,             Chi%Eziefula%NULL%1,             Chrisopher%Fegan%NULL%1,             Adam%Finn%NULL%1,             Duncan%Fullerton%NULL%1,             Sanjeev%Garg%NULL%2,             Sanjeev%Garg%NULL%0,             Atul%Garg%NULL%1,             Jo%Godden%NULL%1,             Arthur%Goldsmith%NULL%1,             Clive%Graham%NULL%1,             Elaine%Hardy%NULL%1,             Stuart%Hartshorn%NULL%1,             Daniel%Harvey%NULL%1,             Peter%Havalda%NULL%1,             Daniel B%Hawcutt%NULL%1,             Maria%Hobrok%NULL%1,             Luke%Hodgson%NULL%1,             Anita%Holme%NULL%1,             Anil%Hormis%NULL%1,             Michael%Jacobs%NULL%1,             Susan%Jain%NULL%1,             Paul%Jennings%NULL%1,             Agilan%Kaliappan%NULL%1,             Vidya%Kasipandian%NULL%1,             Stephen%Kegg%NULL%1,             Michael%Kelsey%NULL%1,             Jason%Kendall%NULL%1,             Caroline%Kerrison%NULL%1,             Ian%Kerslake%NULL%1,             Oliver%Koch%NULL%2,             Gouri%Koduri%NULL%1,             George%Koshy%NULL%1,             Shondipon%Laha%NULL%1,             Susan%Larkin%NULL%1,             Tamas%Leiner%NULL%1,             Patrick%Lillie%NULL%1,             James%Limb%NULL%1,             Vanessa%Linnett%NULL%1,             Jeff%Little%NULL%1,             Michael%MacMahon%NULL%1,             Emily%MacNaughton%NULL%1,             Ravish%Mankregod%NULL%1,             Huw%Masson%NULL%1,             Elijah%Matovu%NULL%1,             Katherine%McCullough%NULL%1,             Ruth%McEwen%NULL%1,             Manjula%Meda%NULL%1,             Gary%Mills%NULL%1,             Jane%Minton%NULL%1,             Mariyam%Mirfenderesky%NULL%1,             Kavya%Mohandas%NULL%1,             Quen%Mok%NULL%1,             James%Moon%NULL%1,             Elinoor%Moore%NULL%1,             Patrick%Morgan%NULL%1,             Craig%Morris%NULL%1,             Katherine%Mortimore%NULL%1,             Samuel%Moses%NULL%1,             Mbiye%Mpenge%NULL%1,             Rohinton%Mulla%NULL%1,             Michael%Murphy%NULL%1,             Megan%Nagel%NULL%1,             Thapas%Nagarajan%NULL%1,             Mark%Nelson%NULL%1,             Igor%Otahal%NULL%1,             Mark%Pais%NULL%1,             Selva%Panchatsharam%NULL%1,             Hassan%Paraiso%NULL%1,             Brij%Patel%NULL%1,             Justin%Pepperell%NULL%1,             Mark%Peters%NULL%1,             Mandeep%Phull%NULL%1,             Stefania%Pintus%NULL%1,             Jagtur Singh%Pooni%NULL%1,             Frank%Post%NULL%1,             David%Price%NULL%1,             Rachel%Prout%NULL%1,             Nikolas%Rae%NULL%1,             Henrik%Reschreiter%NULL%1,             Tim%Reynolds%NULL%1,             Neil%Richardson%NULL%1,             Mark%Roberts%NULL%1,             Devender%Roberts%NULL%1,             Alistair%Rose%NULL%1,             Guy%Rousseau%NULL%1,             Brendan%Ryan%NULL%1,             Taranprit%Saluja%NULL%1,             Aarti%Shah%NULL%1,             Prad%Shanmuga%NULL%1,             Anil%Sharma%NULL%1,             Anna%Shawcross%NULL%1,             Jeremy%Sizer%NULL%1,             Richard%Smith%NULL%1,             Catherine%Snelson%NULL%1,             Nick%Spittle%NULL%1,             Nikki%Staines%NULL%1,             Tom%Stambach%NULL%1,             Richard%Stewart%NULL%1,             Pradeep%Subudhi%NULL%1,             Tamas%Szakmany%NULL%1,             Kate%Tatham%NULL%1,             Jo%Thomas%NULL%1,             Chris%Thompson%NULL%1,             Robert%Thompson%NULL%1,             Ascanio%Tridente%NULL%1,             Darell%Tupper-Carey%NULL%1,             Mary%Twagira%NULL%1,             Andrew%Ustianowski%NULL%1,             Nick%Vallotton%NULL%1,             Lisa%Vincent-Smith%NULL%1,             Shico%Visuvanathan%NULL%1,             Alan%Vuylsteke%NULL%1,             Sam%Waddy%NULL%1,             Rachel%Wake%NULL%1,             Andrew%Walden%NULL%1,             Ingeborg%Welters%NULL%1,             Tony%Whitehouse%NULL%1,             Paul%Whittaker%NULL%1,             Ashley%Whittington%NULL%1,             Meme%Wijesinghe%NULL%1,             Martin%Williams%NULL%1,             Lawrence%Wilson%NULL%1,             Sarah%Wilson%NULL%1,             Stephen%Winchester%NULL%1,             Martin%Wiselka%NULL%1,             Adam%Wolverson%NULL%1,             Daniel G%Wooton%NULL%1,             Andrew%Workman%NULL%1,             Bryan%Yates%NULL%1,             Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,             Braulio A.%Marfil‐Garza%NULL%1,             Erick%Martínez Rodríguez%NULL%1,             José Omar%Barreto Rodríguez%NULL%1,             Alicia Estela%López Romo%NULL%1,             Paolo%Alberti Minutti%NULL%1,             Juan Vicente%Alejandre Loya%NULL%1,             Félix Emmanuel%Pérez Talavera%NULL%1,             Freddy José%Ávila Cervera%NULL%1,             Adriana%Velazquez Burciaga%NULL%1,             Oscar%Morado Aramburo%NULL%1,             Luis Alberto%Piña Olguín%NULL%1,             Adrian%Soto‐Rodríguez%NULL%1,             Andrés%Castañeda Prado%NULL%1,             Patricio%Santillán Doherty%NULL%1,             Juan%O Galindo%NULL%1,             Luis Alberto%Guízar García%NULL%1,             Daniel%Hernández Gordillo%NULL%1,             Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,             Aatish%Patel%NULL%1,             Esmita%Charani%NULL%1,             Sarah%Denny%NULL%1,             Saleh A.%Alqahtani%NULL%1,             Gary W.%Davies%NULL%1,             Nabeela%Mughal%NULL%1,             Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,             Hyunsun%Lim%NULL%1,             Dong-Wook%Kim%NULL%1,             Jung Hyun%Chang%NULL%1,             Yoon Jung%Choi%chris316@yuhs.ac%1,             Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,      Rudong%Chen%xref no email%1,      Hongkuan%Yang%xref no email%1,      Junhong%Wang%xref no email%1,      Yuyang%Hou%xref no email%1,      Wei%Hu%xref no email%1,      Jiasheng%Yu%xref no email%1,      Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,             Wenhua%Liang%NULL%3,             Mei%Jiang%NULL%2,             Weijie%Guan%NULL%3,             Chen%Zhan%NULL%2,             Tao%Wang%NULL%0,             Chunli%Tang%NULL%3,             Ling%Sang%NULL%3,             Jiaxing%Liu%NULL%2,             Zhengyi%Ni%NULL%2,             Yu%Hu%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%5,             Chunliang%Lei%NULL%2,             Yixiang%Peng%NULL%2,             Li%Wei%NULL%5,             Yong%Liu%NULL%5,             Yahua%Hu%NULL%2,             Peng%Peng%NULL%7,             Jianming%Wang%NULL%2,             Jiyang%Liu%NULL%2,             Zhong%Chen%NULL%5,             Gang%Li%NULL%5,             Zhijian%Zheng%NULL%2,             Shaoqin%Qiu%NULL%2,             Jie%Luo%NULL%5,             Changjiang%Ye%NULL%2,             Shaoyong%Zhu%NULL%2,             Xiaoqing%Liu%NULL%2,             Linling%Cheng%NULL%2,             Feng%Ye%NULL%2,             Jinping%Zheng%NULL%2,             Nuofu%Zhang%NULL%2,             Yimin%Li%NULL%2,             Jianxing%He%NULL%2,             Shiyue%Li%lishiyue@188.com%3,             Nanshan%Zhong%NULL%4,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,             Liu%Hu%NULL%1,             Yiru%Wang%NULL%0,             Luyan%Huang%NULL%1,             Lingxi%Zhao%NULL%1,             Congcong%Zhang%NULL%1,             Xiyue%Liu%NULL%1,             Ranran%Xu%NULL%1,             Feng%Liu%NULL%0,             Jinping%Li%NULL%1,             Dawei%Ye%NULL%0,             Tao%Wang%NULL%0,             Yongman%Lv%lvyongman@126.com%0,             Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,             Carol A C%Coupland%NULL%1,             Ruth H%Keogh%NULL%1,             Karla%Diaz-Ordaz%NULL%1,             Elizabeth%Williamson%NULL%1,             Ewen M%Harrison%NULL%0,             Andrew%Hayward%NULL%1,             Harry%Hemingway%NULL%1,             Peter%Horby%NULL%1,             Nisha%Mehta%NULL%1,             Jonathan%Benger%NULL%1,             Kamlesh%Khunti%NULL%0,             David%Spiegelhalter%NULL%1,             Aziz%Sheikh%NULL%0,             Jonathan%Valabhji%NULL%0,             Ronan A%Lyons%NULL%1,             John%Robson%NULL%1,             Malcolm G%Semple%NULL%0,             Frank%Kee%NULL%1,             Peter%Johnson%NULL%1,             Susan%Jebb%NULL%1,             Tony%Williams%NULL%1,             Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,             Guang-Yao%Cai%NULL%1,             Wei%Fang%NULL%2,             Hua-Yi%Li%NULL%1,             Si-Yuan%Wang%NULL%2,             Si-Yuan%Wang%NULL%0,             Lingxi%Chen%NULL%1,             Yang%Yu%NULL%1,             Dan%Liu%NULL%0,             Sen%Xu%NULL%2,             Peng-Fei%Cui%NULL%1,             Shao-Qing%Zeng%NULL%2,             Shao-Qing%Zeng%NULL%0,             Xin-Xia%Feng%NULL%1,             Rui-Di%Yu%NULL%1,             Ya%Wang%NULL%2,             Yuan%Yuan%NULL%1,             Xiao-Fei%Jiao%NULL%1,             Jian-Hua%Chi%NULL%1,             Jia-Hao%Liu%NULL%1,             Ru-Yuan%Li%NULL%1,             Xu%Zheng%NULL%1,             Chun-Yan%Song%NULL%1,             Ning%Jin%NULL%1,             Wen-Jian%Gong%NULL%1,             Xing-Yu%Liu%NULL%1,             Lei%Huang%NULL%2,             Xun%Tian%NULL%1,             Lin%Li%NULL%1,             Hui%Xing%NULL%1,             Ding%Ma%NULL%1,             Chun-Rui%Li%NULL%1,             Fei%Ye%yeyuanbei@hotmail.com%1,             Qing-Lei%Gao%qingleigao@hotmail.com%2,             Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,             Ang%Li%NULL%1,             Mengfan%Jiao%NULL%1,             Qingmiao%Shi%NULL%1,             Xiaocai%An%NULL%1,             Yonghai%Feng%NULL%1,             Lihua%Xing%NULL%1,             Hongxia%Liang%NULL%1,             Jiajun%Chen%NULL%1,             Huiling%Li%NULL%1,             Juan%Li%NULL%0,             Zhigang%Ren%NULL%1,             Ranran%Sun%NULL%1,             Guangying%Cui%NULL%1,             Yongjian%Zhou%NULL%1,             Ming%Cheng%NULL%1,             Pengfei%Jiao%NULL%1,             Yu%Wang%NULL%2,             Jiyuan%Xing%NULL%1,             Shen%Shen%NULL%1,             Qingxian%Zhang%NULL%1,             Aiguo%Xu%NULL%1,             Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,             Michael%Ng%NULL%1,             Shuang%Xu%NULL%1,             Zhouming%Xu%NULL%1,             Hui%Qiu%NULL%1,             Yuwei%Liu%NULL%1,             Jiayou%Lyu%NULL%1,             Jiwen%You%NULL%1,             Peng%Zhao%NULL%0,             Shihao%Wang%NULL%1,             Yunfei%Tang%NULL%1,             Hao%Cui%NULL%1,             Changxiao%Yu%NULL%1,             Feng%Wang%NULL%5,             Fei%Shao%NULL%1,             Peng%Sun%NULL%1,             Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,             Huifang%Wang%NULL%1,             Junwei%Huang%NULL%1,             Yan%Geng%NULL%1,             Shuqi%Jiang%NULL%1,             Qiuping%Zhou%NULL%1,             Xuan%Chen%NULL%1,             Hongping%Hu%NULL%1,             Weifeng%Li%NULL%1,             Chengbin%Zhou%NULL%1,             Xinglin%Gao%NULL%1,             Na%Peng%pnatz@163.com%1,             Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,             Dandan%Cheng%NULL%1,             Yiwei%Cao%NULL%1,             Chuan%Hu%NULL%1,             Fenglin%Zou%NULL%1,             Wencheng%Yu%NULL%1,             Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,             Min Kyu%Kang%NULL%2,             Min Kyu%Kang%NULL%0,             Yu Rim%Lee%NULL%2,             Yu Rim%Lee%NULL%0,             Jeong Eun%Song%NULL%2,             Jeong Eun%Song%NULL%0,             Na Young%Kim%NULL%1,             Young Oh%Kweon%NULL%1,             Won Young%Tak%NULL%1,             Se Young%Jang%NULL%1,             Changhyeong%Lee%NULL%2,             Changhyeong%Lee%NULL%0,             Byung Seok%Kim%NULL%1,             Jae Seok%Hwang%NULL%1,             Byoung Kuk%Jang%NULL%1,             Jinmok%Bae%NULL%1,             Ji Yeon%Lee%NULL%0,             Jeong Ill%Suh%NULL%1,             Soo Young%Park%NULL%1,             Woo Jin%Chung%NULL%2,             Woo Jin%Chung%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,             Cristina%Roca-Oporto%NULL%0,             Guillermo%Martín-Gutiérrez%NULL%0,             María Dolores%Avilés%NULL%0,             Carmen%Gómez-González%NULL%0,             María Dolores%Navarro-Amuedo%NULL%0,             Julia%Praena-Segovia%NULL%0,             José%Molina%NULL%0,             María%Paniagua-García%NULL%0,             Horacio%García-Delgado%NULL%0,             Antonio%Domínguez-Petit%NULL%0,             Jerónimo%Pachón%NULL%0,             José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,          Calvo%Boyero Fernando%coreGivesNoEmail%1,          Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,          COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,          Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,          Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,          L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,          Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,          Santos%Lozano Alejandro%coreGivesNoEmail%1,          Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -3897,7 +4440,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>872</v>
+        <v>1009</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -3923,10 +4466,10 @@
         <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>937</v>
       </c>
       <c r="E3" t="s">
-        <v>873</v>
+        <v>1010</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -3955,7 +4498,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>874</v>
+        <v>1011</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -3984,7 +4527,7 @@
         <v>875</v>
       </c>
       <c r="E5" t="s">
-        <v>876</v>
+        <v>1012</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -4010,10 +4553,10 @@
         <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>940</v>
       </c>
       <c r="E6" t="s">
-        <v>877</v>
+        <v>1013</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -4042,7 +4585,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>878</v>
+        <v>1014</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -4071,7 +4614,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>879</v>
+        <v>1015</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -4100,7 +4643,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>880</v>
+        <v>1016</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -4129,7 +4672,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>881</v>
+        <v>1017</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -4158,7 +4701,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>882</v>
+        <v>1018</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -4184,10 +4727,10 @@
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>947</v>
       </c>
       <c r="E12" t="s">
-        <v>883</v>
+        <v>1019</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -4216,7 +4759,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>884</v>
+        <v>1020</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -4242,10 +4785,10 @@
         <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>885</v>
+        <v>1021</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -4274,7 +4817,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>886</v>
+        <v>1022</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -4300,10 +4843,10 @@
         <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>953</v>
       </c>
       <c r="E16" t="s">
-        <v>887</v>
+        <v>1023</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -4332,7 +4875,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>888</v>
+        <v>1024</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -4361,7 +4904,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>889</v>
+        <v>1025</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4390,7 +4933,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>890</v>
+        <v>1026</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -4419,7 +4962,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>891</v>
+        <v>1027</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -4448,7 +4991,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>892</v>
+        <v>1028</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -4477,7 +5020,7 @@
         <v>690</v>
       </c>
       <c r="E22" t="s">
-        <v>893</v>
+        <v>1029</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4506,7 +5049,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>894</v>
+        <v>1030</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -4535,7 +5078,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>895</v>
+        <v>1031</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -4564,7 +5107,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>896</v>
+        <v>1032</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -4593,7 +5136,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>897</v>
+        <v>1033</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -4622,7 +5165,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>898</v>
+        <v>1034</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -4651,7 +5194,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>899</v>
+        <v>1035</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -4680,7 +5223,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>900</v>
+        <v>1036</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -4709,7 +5252,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>901</v>
+        <v>1037</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -4738,7 +5281,7 @@
         <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>902</v>
+        <v>1038</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -4767,7 +5310,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>903</v>
+        <v>1039</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -4793,10 +5336,10 @@
         <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>206</v>
+        <v>971</v>
       </c>
       <c r="E33" t="s">
-        <v>904</v>
+        <v>1040</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -4825,7 +5368,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>905</v>
+        <v>1041</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -4883,7 +5426,7 @@
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>906</v>
+        <v>1042</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -4912,7 +5455,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>907</v>
+        <v>1043</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -4941,7 +5484,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>908</v>
+        <v>1044</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -4970,7 +5513,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>909</v>
+        <v>1045</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -4999,7 +5542,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>910</v>
+        <v>1046</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -5028,7 +5571,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>911</v>
+        <v>1047</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -5057,7 +5600,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>912</v>
+        <v>1048</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -5086,7 +5629,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>913</v>
+        <v>1049</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -5115,7 +5658,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>914</v>
+        <v>1050</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -5144,7 +5687,7 @@
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>915</v>
+        <v>1051</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -5173,7 +5716,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>916</v>
+        <v>1052</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -5202,7 +5745,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>917</v>
+        <v>1053</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -5228,10 +5771,10 @@
         <v>256</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
+        <v>986</v>
       </c>
       <c r="E48" t="s">
-        <v>918</v>
+        <v>1054</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -5260,7 +5803,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>919</v>
+        <v>1055</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -5289,7 +5832,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>920</v>
+        <v>1056</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -5318,7 +5861,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>921</v>
+        <v>1057</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -5344,10 +5887,10 @@
         <v>276</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
+        <v>991</v>
       </c>
       <c r="E52" t="s">
-        <v>922</v>
+        <v>1058</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -5373,10 +5916,10 @@
         <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>282</v>
+        <v>993</v>
       </c>
       <c r="E53" t="s">
-        <v>923</v>
+        <v>1059</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -5405,7 +5948,7 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>924</v>
+        <v>1060</v>
       </c>
       <c r="F54" t="s">
         <v>54</v>
@@ -5434,7 +5977,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>925</v>
+        <v>1061</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -5463,7 +6006,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>926</v>
+        <v>1062</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -5492,7 +6035,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>927</v>
+        <v>1063</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -5518,10 +6061,10 @@
         <v>300</v>
       </c>
       <c r="D58" t="s">
-        <v>301</v>
+        <v>999</v>
       </c>
       <c r="E58" t="s">
-        <v>928</v>
+        <v>1064</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -5550,7 +6093,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>929</v>
+        <v>1065</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -5579,7 +6122,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>930</v>
+        <v>1066</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -5605,10 +6148,10 @@
         <v>315</v>
       </c>
       <c r="D61" t="s">
-        <v>316</v>
+        <v>1003</v>
       </c>
       <c r="E61" t="s">
-        <v>931</v>
+        <v>1067</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -5637,7 +6180,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>932</v>
+        <v>1068</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -5666,7 +6209,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>933</v>
+        <v>1069</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -5695,7 +6238,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>934</v>
+        <v>1070</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -5724,7 +6267,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>935</v>
+        <v>1071</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6371" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6826" uniqueCount="1135">
   <si>
     <t>Doi</t>
   </si>
@@ -4049,6 +4049,195 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,          Calvo%Boyero Fernando%coreGivesNoEmail%1,          Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,          COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,          Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,          Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,          L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,          Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,          Santos%Lozano Alejandro%coreGivesNoEmail%1,          Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,              Min%He%NULL%1,              Wanhong%Yin%NULL%1,              Xuelian%Liao%NULL%1,              Bo%Wang%NULL%6,              Xiaodong%Jin%NULL%1,              Yao%Ma%NULL%2,              Jirong%Yue%NULL%1,              Lang%Bai%NULL%1,              Dan%Liu%NULL%3,              Ting%Zhu%NULL%1,              Zhixin%Huang%NULL%1,              Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,              Shuchang%Zhou%NULL%1,              Yujin%Wang%NULL%1,              Wenzhi%Lv%NULL%2,              Shili%Wang%NULL%1,              Ting%Wang%751884926@qq.com%1,              Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,              Yan-chak%Li%NULL%1,              Sonali%Bose%NULL%1,              Ravi%Iyengar%NULL%1,              Supinda%Bunyavanich%NULL%1,              Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,     Hai-Tao%Zhang%null%1,     Jorge%Goncalves%null%1,     Yang%Xiao%null%1,     Maolin%Wang%null%1,     Yuqi%Guo%null%1,     Chuan%Sun%null%1,     Xiuchuan%Tang%null%1,     Liang%Jing%null%1,     Mingyang%Zhang%null%1,     Xiang%Huang%null%1,     Ying%Xiao%null%1,     Haosen%Cao%null%1,     Yanyan%Chen%null%1,     Tongxin%Ren%null%1,     Fang%Wang%null%1,     Yaru%Xiao%null%1,     Sufang%Huang%null%1,     Xi%Tan%null%1,     Niannian%Huang%null%1,     Bo%Jiao%null%1,     Cheng%Cheng%null%1,     Yong%Zhang%null%1,     Ailin%Luo%null%1,     Laurent%Mombaerts%null%1,     Junyang%Jin%null%1,     Zhiguo%Cao%null%1,     Shusheng%Li%null%1,     Hui%Xu%null%1,     Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,              Mengfei%Guo%NULL%1,              Limin%Duan%NULL%1,              Feng%Wu%NULL%1,              Guorong%Hu%NULL%1,              Zhihui%Wang%NULL%1,              Qi%Huang%NULL%1,              Tingting%Liao%NULL%1,              Juanjuan%Xu%NULL%1,              Yanling%Ma%NULL%1,              Zhilei%Lv%NULL%1,              Wenjing%Xiao%NULL%1,              Zilin%Zhao%NULL%1,              Xueyun%Tan%NULL%1,              Daquan%Meng%NULL%1,              Shujing%Zhang%NULL%1,              E%Zhou%NULL%1,              Zhengrong%Yin%NULL%1,              Wei%Geng%NULL%1,              Xuan%Wang%NULL%1,              Jianchu%Zhang%NULL%1,              Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,              Yu%Zhang%whxhzy@163.com%1,              Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,              Francesco%Arru%NULL%2,              Francesco%Arru%NULL%0,              Andrea%De Vito%NULL%3,              Alessandro%Sassu%NULL%2,              Alessandro%Sassu%NULL%0,              Giovanni%Valdes%NULL%1,              Valentina%Scano%NULL%1,              Elisabetta%Zinellu%NULL%1,              Roberto%Perra%NULL%1,              Giordano%Madeddu%NULL%3,              Ciriaco%Carru%NULL%1,              Pietro%Pirina%NULL%3,              Arduino A.%Mangoni%NULL%2,              Arduino A.%Mangoni%NULL%0,              Sergio%Babudieri%NULL%4,              Sergio%Babudieri%NULL%0,              Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,              Pablo%Ryan%NULL%1,              Jorge%Valencia%NULL%2,              Jorge%Valencia%NULL%0,              Mario%Pérez-Butragueño%NULL%2,              Mario%Pérez-Butragueño%NULL%0,              Eva%Jiménez%NULL%2,              Eva%Jiménez%NULL%0,              Mario%Fontán-Vela%NULL%1,              Elsa%Izquierdo-García%NULL%2,              Elsa%Izquierdo-García%NULL%0,              Inés%Fernandez-Jimenez%NULL%1,              Elena%Álvaro-Alonso%NULL%1,              Andrea%Lazaro%NULL%2,              Andrea%Lazaro%NULL%0,              Marta%Alvarado%NULL%1,              Helena%Notario%NULL%1,              Salvador%Resino%NULL%1,              Daniel%Velez-Serrano%NULL%1,              Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,              Yiru%Wang%NULL%2,              Xuecheng%Zhao%NULL%1,              Lixuan%Wang%NULL%1,              Feng%Liu%NULL%3,              Tao%Wang%NULL%15,              Dawei%Ye%NULL%2,              Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,              Valentina%Zuccaro%NULL%1,              Luca%Novelli%NULL%1,              Lorenzo%Zileri%NULL%2,              Lorenzo%Zileri%NULL%0,              Ciro%Celsa%NULL%1,              Federico%Raimondi%NULL%2,              Federico%Raimondi%NULL%0,              Mauro%Gori%NULL%1,              Giulia%Cammà%NULL%1,              Salvatore%Battaglia%NULL%1,              Vincenzo Giuseppe%Genova%NULL%1,              Laura%Paris%NULL%1,              Matteo%Tacelli%NULL%1,              Francesco Antonio%Mancarella%NULL%1,              Marco%Enea%NULL%1,              Massimo%Attanasio%NULL%1,              Michele%Senni%NULL%1,              Fabiano%Di Marco%NULL%1,              Luca Ferdinando%Lorini%NULL%1,              Stefano%Fagiuoli%NULL%1,              Raffaele%Bruno%NULL%2,              Calogero%Cammà%NULL%1,              Antonio%Gasbarrini%NULL%3,              Francesco%Di Gennaro%NULL%2,              Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,              Gan-xun%Li%NULL%1,              Lin%Chen%NULL%3,              Chang%Shu%NULL%2,              Jia%Song%NULL%1,              Wei%Wang%NULL%2,              Yu-wei%Wang%NULL%1,              Qian%Chen%NULL%2,              Guan-nan%Jin%NULL%1,              Tong-tong%Liu%NULL%1,              Jun-nan%Liang%NULL%1,              Peng%Zhu%NULL%1,              Wei%Zhu%NULL%5,              Yong%Li%NULL%2,              Bin-hao%Zhang%NULL%1,              Huan%Feng%NULL%1,              Wan-guang%Zhang%NULL%1,              Zhen-yu%Yin%NULL%1,              Wen-kui%Yu%NULL%1,              Yang%Yang%NULL%2,              Hua-qiu%Zhang%NULL%1,              Zhou-ping%Tang%NULL%1,              Hui%Wang%NULL%4,              Jun-bo%Hu%NULL%1,              Ji-hong%Liu%NULL%1,              Ping%Yin%NULL%1,              Xiao-ping%Chen%NULL%1,              Bixiang%Zhang%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,              Günay%Can%NULL%2,              Günay%Can%NULL%0,              Rıdvan%Karaali%NULL%1,              Şermin%Börekçi%NULL%1,              İlker İnanç%Balkan%NULL%1,              Bilun%Gemicioğlu%NULL%1,              Dildar%Konukoğlu%NULL%1,              Ethem%Erginöz%NULL%1,              Mehmet Sarper%Erdoğan%NULL%1,              Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,              Danila%Azzolina%NULL%1,              Eyal%Hayden%NULL%2,              Eyal%Hayden%NULL%0,              Gianluca%Gaidano%NULL%2,              Gianluca%Gaidano%NULL%0,              Mario%Pirisi%NULL%2,              Mario%Pirisi%NULL%0,              Antonio%Acquaviva%NULL%2,              Antonio%Acquaviva%NULL%0,              Gianluca%Aimaretti%NULL%2,              Gianluca%Aimaretti%NULL%0,              Paolo%Aluffi Valletti%NULL%3,              Paolo%Aluffi Valletti%NULL%0,              Roberto%Angilletta%NULL%2,              Roberto%Angilletta%NULL%0,              Roberto%Arioli%NULL%2,              Roberto%Arioli%NULL%0,              Gian Carlo%Avanzi%NULL%2,              Gian Carlo%Avanzi%NULL%0,              Gianluca%Avino%NULL%2,              Gianluca%Avino%NULL%0,              Piero Emilio%Balbo%NULL%2,              Piero Emilio%Balbo%NULL%0,              Giulia%Baldon%NULL%2,              Giulia%Baldon%NULL%0,              Francesca%Baorda%NULL%2,              Francesca%Baorda%NULL%0,              Emanuela%Barbero%NULL%2,              Emanuela%Barbero%NULL%0,              Alessio%Baricich%NULL%2,              Alessio%Baricich%NULL%0,              Michela%Barini%NULL%2,              Michela%Barini%NULL%0,              Francesco%Barone-Adesi%NULL%2,              Francesco%Barone-Adesi%NULL%0,              Sofia%Battistini%NULL%2,              Sofia%Battistini%NULL%0,              Michela%Beltrame%NULL%2,              Michela%Beltrame%NULL%0,              Matteo%Bertoli%NULL%2,              Matteo%Bertoli%NULL%0,              Stephanie%Bertolin%NULL%2,              Stephanie%Bertolin%NULL%0,              Marinella%Bertolotti%NULL%2,              Marinella%Bertolotti%NULL%0,              Marta%Betti%NULL%2,              Marta%Betti%NULL%0,              Flavio%Bobbio%NULL%2,              Flavio%Bobbio%NULL%0,              Paolo%Boffano%NULL%2,              Paolo%Boffano%NULL%0,              Lucio%Boglione%NULL%2,              Lucio%Boglione%NULL%0,              Silvio%Borrè%NULL%2,              Silvio%Borrè%NULL%0,              Matteo%Brucoli%NULL%2,              Matteo%Brucoli%NULL%0,              Elisa%Calzaducca%NULL%2,              Elisa%Calzaducca%NULL%0,              Edoardo%Cammarata%NULL%2,              Edoardo%Cammarata%NULL%0,              Vincenzo%Cantaluppi%NULL%2,              Vincenzo%Cantaluppi%NULL%0,              Roberto%Cantello%NULL%2,              Roberto%Cantello%NULL%0,              Andrea%Capponi%NULL%2,              Andrea%Capponi%NULL%0,              Alessandro%Carriero%NULL%2,              Alessandro%Carriero%NULL%0,              Giuseppe Francesco%Casciaro%NULL%2,              Giuseppe Francesco%Casciaro%NULL%0,              Luigi Mario%Castello%NULL%2,              Luigi Mario%Castello%NULL%0,              Federico%Ceruti%NULL%2,              Federico%Ceruti%NULL%0,              Guido%Chichino%NULL%2,              Guido%Chichino%NULL%0,              Emilio%Chirico%NULL%2,              Emilio%Chirico%NULL%0,              Carlo%Cisari%NULL%1,              Micol Giulia%Cittone%NULL%2,              Micol Giulia%Cittone%NULL%0,              Crizia%Colombo%NULL%2,              Crizia%Colombo%NULL%0,              Cristoforo%Comi%NULL%2,              Cristoforo%Comi%NULL%0,              Eleonora%Croce%NULL%2,              Eleonora%Croce%NULL%0,              Tommaso%Daffara%NULL%2,              Tommaso%Daffara%NULL%0,              Pietro%Danna%NULL%2,              Pietro%Danna%NULL%0,              Francesco%Della Corte%NULL%2,              Francesco%Della Corte%NULL%0,              Simona%De Vecchi%NULL%2,              Simona%De Vecchi%NULL%0,              Umberto%Dianzani%NULL%2,              Umberto%Dianzani%NULL%0,              Davide%Di Benedetto%NULL%2,              Davide%Di Benedetto%NULL%0,              Elia%Esposto%NULL%2,              Elia%Esposto%NULL%0,              Fabrizio%Faggiano%NULL%2,              Fabrizio%Faggiano%NULL%0,              Zeno%Falaschi%NULL%2,              Zeno%Falaschi%NULL%0,              Daniela%Ferrante%NULL%2,              Daniela%Ferrante%NULL%0,              Alice%Ferrero%NULL%2,              Alice%Ferrero%NULL%0,              Ileana%Gagliardi%NULL%2,              Ileana%Gagliardi%NULL%0,              Alessandra%Galbiati%NULL%2,              Alessandra%Galbiati%NULL%0,              Silvia%Gallo%NULL%2,              Silvia%Gallo%NULL%0,              Pietro Luigi%Garavelli%NULL%2,              Pietro Luigi%Garavelli%NULL%0,              Clara Ada%Gardino%NULL%2,              Clara Ada%Gardino%NULL%0,              Massimiliano%Garzaro%NULL%3,              Massimiliano%Garzaro%NULL%0,              Maria Luisa%Gastaldello%NULL%2,              Maria Luisa%Gastaldello%NULL%0,              Francesco%Gavelli%NULL%2,              Francesco%Gavelli%NULL%0,              Alessandra%Gennari%NULL%2,              Alessandra%Gennari%NULL%0,              Greta Maria%Giacomini%NULL%2,              Greta Maria%Giacomini%NULL%0,              Irene%Giacone%NULL%2,              Irene%Giacone%NULL%0,              Valentina%Giai Via%NULL%2,              Valentina%Giai Via%NULL%0,              Francesca%Giolitti%NULL%2,              Francesca%Giolitti%NULL%0,              Laura Cristina%Gironi%NULL%2,              Laura Cristina%Gironi%NULL%0,              Carla%Gramaglia%NULL%2,              Carla%Gramaglia%NULL%0,              Leonardo%Grisafi%NULL%2,              Leonardo%Grisafi%NULL%0,              Ilaria%Inserra%NULL%2,              Ilaria%Inserra%NULL%0,              Marco%Invernizzi%NULL%2,              Marco%Invernizzi%NULL%0,              Marco%Krengli%NULL%2,              Marco%Krengli%NULL%0,              Emanuela%Labella%NULL%2,              Emanuela%Labella%NULL%0,              Irene Cecilia%Landi%NULL%2,              Irene Cecilia%Landi%NULL%0,              Raffaella%Landi%NULL%2,              Raffaella%Landi%NULL%0,              Ilaria%Leone%NULL%2,              Ilaria%Leone%NULL%0,              Veronica%Lio%NULL%2,              Veronica%Lio%NULL%0,              Luca%Lorenzini%NULL%2,              Luca%Lorenzini%NULL%0,              Antonio%Maconi%NULL%2,              Antonio%Maconi%NULL%0,              Mario%Malerba%NULL%2,              Mario%Malerba%NULL%0,              Giulia Francesca%Manfredi%NULL%2,              Giulia Francesca%Manfredi%NULL%0,              Maria%Martelli%NULL%2,              Maria%Martelli%NULL%0,              Letizia%Marzari%NULL%2,              Letizia%Marzari%NULL%0,              Paolo%Marzullo%NULL%2,              Paolo%Marzullo%NULL%0,              Marco%Mennuni%NULL%2,              Marco%Mennuni%NULL%0,              Claudia%Montabone%NULL%2,              Claudia%Montabone%NULL%0,              Umberto%Morosini%NULL%2,              Umberto%Morosini%NULL%0,              Marco%Mussa%NULL%2,              Marco%Mussa%NULL%0,              Ilaria%Nerici%NULL%2,              Ilaria%Nerici%NULL%0,              Alessandro%Nuzzo%NULL%2,              Alessandro%Nuzzo%NULL%0,              Carlo%Olivieri%NULL%2,              Carlo%Olivieri%NULL%0,              Samuel Alberto%Padelli%NULL%2,              Samuel Alberto%Padelli%NULL%0,              Massimiliano%Panella%NULL%2,              Massimiliano%Panella%NULL%0,              Andrea%Parisini%NULL%2,              Andrea%Parisini%NULL%0,              Alessio%Paschè%NULL%2,              Alessio%Paschè%NULL%0,              Filippo%Patrucco%NULL%2,              Filippo%Patrucco%NULL%0,              Giuseppe%Patti%NULL%2,              Giuseppe%Patti%NULL%0,              Alberto%Pau%NULL%2,              Alberto%Pau%NULL%0,              Anita Rebecca%Pedrinelli%NULL%2,              Anita Rebecca%Pedrinelli%NULL%0,              Ilaria%Percivale%NULL%2,              Ilaria%Percivale%NULL%0,              Luca%Ragazzoni%NULL%2,              Luca%Ragazzoni%NULL%0,              Roberta%Re%NULL%2,              Roberta%Re%NULL%0,              Cristina%Rigamonti%NULL%2,              Cristina%Rigamonti%NULL%0,              Eleonora%Rizzi%NULL%2,              Eleonora%Rizzi%NULL%0,              Andrea%Rognoni%NULL%2,              Andrea%Rognoni%NULL%0,              Annalisa%Roveta%NULL%2,              Annalisa%Roveta%NULL%0,              Luigia%Salamina%NULL%2,              Luigia%Salamina%NULL%0,              Matteo%Santagostino%NULL%2,              Matteo%Santagostino%NULL%0,              Massimo%Saraceno%NULL%2,              Massimo%Saraceno%NULL%0,              Paola%Savoia%NULL%2,              Paola%Savoia%NULL%0,              Marco%Sciarra%NULL%2,              Marco%Sciarra%NULL%0,              Andrea%Schimmenti%NULL%2,              Andrea%Schimmenti%NULL%0,              Lorenza%Scotti%NULL%2,              Lorenza%Scotti%NULL%0,              Enrico%Spinoni%NULL%2,              Enrico%Spinoni%NULL%0,              Carlo%Smirne%NULL%2,              Carlo%Smirne%NULL%0,              Vanessa%Tarantino%NULL%2,              Vanessa%Tarantino%NULL%0,              Paolo Amedeo%Tillio%NULL%2,              Paolo Amedeo%Tillio%NULL%0,              Stelvio%Tonello%NULL%2,              Stelvio%Tonello%NULL%0,              Rosanna%Vaschetto%NULL%2,              Rosanna%Vaschetto%NULL%0,              Veronica%Vassia%NULL%2,              Veronica%Vassia%NULL%0,              Domenico%Zagaria%NULL%2,              Domenico%Zagaria%NULL%0,              Elisa%Zavattaro%NULL%2,              Elisa%Zavattaro%NULL%0,              Patrizia%Zeppegno%NULL%2,              Patrizia%Zeppegno%NULL%0,              Francesca%Zottarelli%NULL%2,              Francesca%Zottarelli%NULL%0,              Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,              Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,              Marta%Ottone%NULL%2,              Marta%Ottone%NULL%0,              Tommaso%Fasano%NULL%1,              Pierpaolo%Pattacini%NULL%1,              Valentina%Iotti%NULL%1,              Lucia%Spaggiari%NULL%1,              Riccardo%Bonacini%NULL%1,              Andrea%Nitrosi%NULL%1,              Efrem%Bonelli%NULL%1,              Simone%Canovi%NULL%1,              Rossana%Colla%NULL%1,              Alessandro%Zerbini%NULL%1,              Marco%Massari%NULL%1,              Ivana%Lattuada%NULL%1,              Anna Maria%Ferrari%NULL%1,              Paolo%Giorgi Rossi%NULL%1,              Massimo%Costantini%NULL%1,              Roberto%Grilli%NULL%1,              Massimiliano%Marino%NULL%1,              Giulio%Formoso%NULL%1,              Debora%Formisano%NULL%1,              Emanuela%Bedeschi%NULL%1,              Cinzia%Perilli%NULL%1,              Elisabetta%La Rosa%NULL%1,              Eufemia%Bisaccia%NULL%1,              Ivano%Venturi%NULL%1,              Massimo%Vicentini%NULL%1,              Cinzia%Campari%NULL%1,              Francesco%Gioia%NULL%1,              Serena%Broccoli%NULL%1,              Pamela%Mancuso%NULL%1,              Marco%Foracchia%NULL%1,              Mirco%Pinotti%NULL%1,              Nicola%Facciolongo%NULL%1,              Laura%Trabucco%NULL%1,              Stefano%De Pietri%NULL%1,              Giorgio Francesco%Danelli%NULL%1,              Laura%Albertazzi%NULL%1,              Enrica%Bellesia%NULL%1,              Mattia%Corradini%NULL%1,              Elena%Magnani%NULL%1,              Annalisa%Pilia%NULL%1,              Alessandra%Polese%NULL%1,              Silvia Storchi%Incerti%NULL%1,              Piera%Zaldini%NULL%1,              Bonanno%Orsola%NULL%1,              Matteo%Revelli%NULL%1,              Carlo%Salvarani%NULL%1,              Carmine%Pinto%NULL%1,              Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,              Hong-Qiu%Gu%NULL%1,              Yi%Liu (刘艺)%NULL%1,              Guqin%Zhang%NULL%1,              Hang%Yang%NULL%1,              Huifang%Hu%NULL%1,              Chenyang%Lu%NULL%1,              Yang%Li%NULL%3,              Liyi%Wang%NULL%1,              Yi%Liu (刘毅)%yi2006liu@163.com%1,              Yi%Zhao%zhao.y1977@163.com%1,              Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,              Tawsifur%Rahman%NULL%2,              Tawsifur%Rahman%NULL%0,              Amith%Khandakar%NULL%3,              Somaya%Al-Madeed%NULL%2,              Susu M.%Zughaier%NULL%5,              Suhail A. R.%Doi%NULL%3,              Hanadi%Hassen%NULL%1,              Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,              Jia%Sun%NULL%1,              Yi-Xin%Li%NULL%1,              Qian%Chen%NULL%0,              Qing-Quan%Liu%NULL%1,              Zhou%Sun%NULL%1,              Ran%Pang%NULL%1,              Fei%Chen%NULL%1,              Bing-Yang%Xu%NULL%1,              Anne%Manyande%NULL%1,              Taane G%Clark%NULL%1,              Jin-Ping%Li%NULL%1,              Ilkay Erdogan%Orhan%NULL%1,              Yu-Ke%Tian%NULL%1,              Tao%Wang%wt7636@126.com%0,              Wei%Wu%wt7636@126.com%1,              Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,       Xinyan%Cai%xref no email%1,       Robert%Lennon%xref no email%1,       Derjung M.%Tarn%xref no email%1,       Arch G.%Mainous%xref no email%1,       Aleksandra E.%Zgierska%xref no email%1,       Bruce%Barrett%xref no email%1,       Wen-Jan%Tuan%xref no email%1,       Kevin%Maloy%xref no email%1,       Munish%Goyal%xref no email%1,       Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,           Imam%Z%coreGivesNoEmail%1,           Lippi%G%coreGivesNoEmail%1,           Oran%DP%coreGivesNoEmail%1,           Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,              Caiping%Song%NULL%1,              En%Liu%NULL%1,              Xi%Liu%NULL%1,              Hao%Wu%NULL%1,              Hui%Lin%NULL%1,              Yuliang%Liu%NULL%1,              Qi%Li%NULL%1,              Zhi%Xu%NULL%1,              XiaoBao%Ren%NULL%1,              Cheng%Zhang%NULL%1,              Wenjing%Zhang%NULL%1,              Wei%Duan%NULL%2,              Yongfeng%Tian%NULL%1,              Ping%Li%NULL%1,              Mingdong%Hu%NULL%1,              Shiming%Yang%NULL%1,              Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,              Changli%Li%NULL%1,              Li%Zheng%NULL%1,              Wenzhi%Lv%NULL%0,              Zhigang%He%NULL%1,              Xinwu%Cui%NULL%1,              Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,       Liang%Li%xref no email%1,       Li%Wang%xref no email%1,       Huan%Liu%xref no email%2,       Xuefang%Lu%xref no email%1,       Feifei%Zeng%xref no email%1,       Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,              Hayne Cho%Park%NULL%2,              Hayne Cho%Park%NULL%0,              Ajin%Cho%NULL%1,              Juhee%Kim%NULL%1,              Kyu-sang%Yun%NULL%1,              Jinseog%Kim%NULL%1,              Young-Ki%Lee%NULL%1,              Sinan%Kardes.%NULL%2,              Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,       Luyu%Yang%xref no email%1,       Qian%Zeng%xref no email%1,       Qingyun%Li%xref no email%1,       Zhitao%Yang%xref no email%1,       Lizhong%Han%xref no email%1,       Xiaodong%Huang%xref no email%1,       Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,              Xiaoyu%Fang%NULL%1,              Lixia%Cheng%NULL%1,              Penghao%Wang%NULL%1,              Shen%Li%NULL%1,              Hao%Yu%NULL%1,              Yao%Zhang%NULL%2,              Nan%Jiang%NULL%1,              Tingting%Zeng%NULL%1,              Chao%Hou%NULL%1,              Jing%Zhou%NULL%0,              Shiru%Li%NULL%1,              Yingzi%Pan%NULL%1,              Yitong%Li%NULL%1,              Lili%Nie%NULL%1,              Yang%Li%NULL%0,              Qidi%Sun%NULL%1,              Hong%Jia%NULL%1,              Mengxia%Li%NULL%1,              Guoqiang%Cao%NULL%1,              Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,              Lucas A%Ramos%NULL%2,              Lucas A%Ramos%NULL%0,              Wouter%Potters%NULL%1,              Marcus L F%Janssen%NULL%1,              Deborah%Hubers%NULL%1,              Shi%Hu%NULL%1,              Egill A%Fridgeirsson%NULL%1,              Dan%Piña-Fuentes%NULL%1,              Rajat%Thomas%NULL%1,              Iwan C C%van der Horst%NULL%1,              Christian%Herff%NULL%2,              Christian%Herff%NULL%0,              Pieter%Kubben%NULL%1,              Paul W G%Elbers%NULL%1,              Henk A%Marquering%NULL%1,              Max%Welling%NULL%1,              Suat%Simsek%NULL%1,              Martijn D%de Kruif%NULL%1,              Tom%Dormans%NULL%1,              Lucas M%Fleuren%NULL%1,              Michiel%Schinkel%NULL%1,              Peter G%Noordzij%NULL%1,              Joop P%van den Bergh%NULL%2,              Joop P%van den Bergh%NULL%0,              Caroline E%Wyers%NULL%1,              David T B%Buis%NULL%2,              David T B%Buis%NULL%0,              W Joost%Wiersinga%NULL%1,              Ella H C%van den Hout%NULL%1,              Auke C%Reidinga%NULL%1,              Daisy%Rusch%NULL%1,              Kim C E%Sigaloff%NULL%1,              Renee A%Douma%NULL%1,              Lianne%de Haan%NULL%1,              Niels C%Gritters van den Oever%NULL%1,              Roger J M W%Rennenberg%NULL%1,              Guido A%van Wingen%NULL%1,              Marcel J H%Aries%NULL%1,              Martijn%Beudel%NULL%2,              Martijn%Beudel%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,              Fajer A.%Al-Ishaq%NULL%2,              Fajer A.%Al-Ishaq%NULL%0,              Fatima S.%Al-Mohannadi%NULL%1,              Reem S.%Mubarak%NULL%1,              Maryam H.%Al-Hitmi%NULL%1,              Khandaker Reajul%Islam%NULL%1,              Amith%Khandakar%NULL%0,              Ali Ait%Hssain%NULL%3,              Ali Ait%Hssain%NULL%0,              Somaya%Al-Madeed%NULL%0,              Susu M.%Zughaier%NULL%0,              Susu M.%Zughaier%NULL%0,              Muhammad E. H.%Chowdhury%NULL%3,              Muhammad E. H.%Chowdhury%NULL%0,              Antonella%Santone%NULL%3,              Antonella%Santone%NULL%0,              Antonella%Santone%NULL%0,              Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,              Amith%Khandakar%NULL%0,              Md Enamul%Hoque%NULL%2,              Md Enamul%Hoque%NULL%0,              Nabil%Ibtehaz%NULL%2,              Nabil%Ibtehaz%NULL%0,              Saad Bin%Kashem%NULL%2,              Saad Bin%Kashem%NULL%0,              Reehum%Masud%NULL%1,              Lutfunnahar%Shampa%NULL%1,              Mohammad Mehedi%Hasan%NULL%1,              Mohammad Tariqul%Islam%NULL%1,              Somaya%Al-Maadeed%NULL%2,              Somaya%Al-Maadeed%NULL%0,              Susu M.%Zughaier%NULL%0,              Susu M.%Zughaier%NULL%0,              Saif%Badran%NULL%2,              Saif%Badran%NULL%0,              Suhail A. R.%Doi%NULL%0,              Suhail A. R.%Doi%NULL%0,              Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,              Pablo%Rodríguez-Belenguer%NULL%2,              Pablo%Rodríguez-Belenguer%NULL%0,              Antonio J.%Serrano-López%NULL%1,              Emilio%Soria-Olivas%NULL%2,              Emilio%Soria-Olivas%NULL%0,              Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,              Haibo%Ai%NULL%1,              Yunong%Fu%NULL%1,              Qinglin%Li%NULL%1,              Ruixia%Cui%NULL%1,              Xiaohua%Ma%NULL%1,              Yan-fen%Ma%NULL%1,              Zi%Wang%NULL%1,              Tong%Liu%NULL%1,              Yunxiang%Long%NULL%1,              Kai%Qu%NULL%1,              Chang%Liu%NULL%1,              Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,       Rongqing%Sun%xref no email%1,       Wenbo%Sun%xref no email%1,       Dan%Xu%xref no email%1,       Lan%Lan%xref no email%1,       Huan%Li%xref no email%1,       Huan%Liu%xref no email%0,       Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,              Dawei%Zhang%NULL%1,              Jing%Xu%NULL%6,              Zhu%Chen%NULL%1,              Tieniu%Yang%NULL%1,              Peng%Zhao%NULL%2,              Guofeng%Chen%NULL%1,              Gregory%Cheng%NULL%1,              Yudong%Wang%NULL%1,              Jingfeng%Bi%NULL%1,              Lin%Tan%NULL%1,              George%Lau%NULL%1,              Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,              Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,              Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,              Giulia%Suigo%NULL%1,              Davide%Zampini%NULL%1,              Matteo%Pistoia%NULL%1,              Mariella%Ciola%NULL%1,              Tommaso%Ciampani%NULL%1,              Carolina%Ultori%NULL%1,              Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,              John R%Adler%NULL%3,              Sultan M%Kamran%NULL%2,              Sultan M%Kamran%NULL%0,              Zill-e-Humayun%Mirza%NULL%1,              Hussain Abdul%Moeed%NULL%1,              Arshad%Naseem%NULL%1,              Maryam%Hussain%NULL%1,              Imran%Fazal%NULL%1,              Farrukh%Saeed%NULL%1,              Wasim%Alamgir%NULL%1,              Salman%Saleem%NULL%1,              Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,       Zilong%Liu%xref no email%1,       Weipeng%Jiang%xref no email%1,       Jian%Wang%xref no email%4,       Mengchan%Zhu%xref no email%1,       Juan%Song%xref no email%0,       Xiaoyue%Wang%xref no email%1,       Ying%Su%xref no email%1,       Guiling%Xiang%xref no email%1,       Maosong%Ye%xref no email%1,       Jiamin%Li%xref no email%1,       Yong%Zhang%xref no email%1,       Qinjun%Shen%xref no email%1,       Zhuozhe%Li%xref no email%1,       Danwei%Yao%xref no email%1,       Yuanlin%Song%xref no email%0,       Kaihuan%Yu%xref no email%1,       Zhe%Luo%xref no email%1,       Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,              María M.%Martín%NULL%1,              Mónica%Argueso%NULL%1,              Jordi%Solé-Violán%NULL%1,              Alina%Perez%NULL%1,              José Alberto%Marcos Y Ramos%NULL%1,              Luis%Ramos-Gómez%NULL%1,              Sergio%López%NULL%1,              Andrés%Franco%NULL%1,              Agustín F.%González-Rivero%NULL%1,              María%Martín%NULL%1,              Verónica%Gonzalez%NULL%1,              Julia%Alcoba-Flórez%NULL%1,              Miguel Ángel%Rodriguez%NULL%1,              Marta%Riaño-Ruiz%NULL%1,              Juan%Guillermo O Campo%NULL%1,              Lourdes%González%NULL%1,              Tamara%Cantera%NULL%1,              Raquel%Ortiz-López%NULL%1,              Nazario%Ojeda%NULL%1,              Aurelio%Rodríguez-Pérez%NULL%1,              Casimira%Domínguez%NULL%1,              Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,              Rita%Kukafka%NULL%1,              Arriel%Benis%NULL%2,              Arriel%Benis%NULL%0,              Jinfeng%Li%NULL%1,              Pan%Pan%NULL%2,              Pan%Pan%NULL%0,              Yichao%Li%NULL%2,              Yichao%Li%NULL%0,              Yongjiu%Xiao%NULL%2,              Yongjiu%Xiao%NULL%0,              Bingchao%Han%NULL%2,              Bingchao%Han%NULL%0,              Longxiang%Su%NULL%2,              Longxiang%Su%NULL%0,              Mingliang%Su%NULL%2,              Mingliang%Su%NULL%0,              Yansheng%Li%NULL%2,              Yansheng%Li%NULL%0,              Siqi%Zhang%NULL%2,              Siqi%Zhang%NULL%0,              Dapeng%Jiang%NULL%2,              Dapeng%Jiang%NULL%0,              Xia%Chen%NULL%2,              Xia%Chen%NULL%0,              Fuquan%Zhou%NULL%2,              Fuquan%Zhou%NULL%0,              Ling%Ma%NULL%2,              Ling%Ma%NULL%0,              Pengtao%Bao%NULL%2,              Pengtao%Bao%NULL%0,              Lixin%Xie%xielx301@126.com%2,              Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,              Cristina%Roca-Oporto%NULL%2,              Guillermo%Martín-Gutiérrez%NULL%2,              María Dolores%Avilés%NULL%2,              Carmen%Gómez-González%NULL%2,              María Dolores%Navarro-Amuedo%NULL%2,              Julia%Praena-Segovia%NULL%2,              José%Molina%NULL%2,              María%Paniagua-García%NULL%2,              Horacio%García-Delgado%NULL%2,              Antonio%Domínguez-Petit%NULL%2,              Jerónimo%Pachón%NULL%2,              José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,              Barry R.%Meisenberg%NULL%2,              Barry R.%Meisenberg%NULL%0,              James H.%MacDonald%NULL%1,              Nandakumar%Menon%NULL%1,              Marcia B.%Fowler%NULL%1,              Michaline%West%NULL%1,              Jane%Rhule%NULL%1,              Sadaf S.%Qureshi%NULL%1,              Eileen B.%MacDonald%NULL%1,              Yu Ru%Kou%NULL%2,              Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,              Sarah%Poole%NULL%2,              Sarah%Poole%NULL%0,              Meeta%Pradhan%NULL%1,              Akhil%Vaid%NULL%3,              Akhil%Vaid%NULL%0,              Sulaiman%Somani%NULL%3,              Sulaiman%Somani%NULL%0,              Adam J%Russak%NULL%2,              Adam J%Russak%NULL%0,              Jessica K%De Freitas%NULL%2,              Jessica K%De Freitas%NULL%0,              Fayzan F%Chaudhry%NULL%2,              Fayzan F%Chaudhry%NULL%0,              Ishan%Paranjpe%NULL%3,              Ishan%Paranjpe%NULL%0,              Kipp W%Johnson%NULL%2,              Kipp W%Johnson%NULL%0,              Samuel J%Lee%NULL%2,              Samuel J%Lee%NULL%0,              Riccardo%Miotto%NULL%2,              Riccardo%Miotto%NULL%0,              Felix%Richter%NULL%3,              Felix%Richter%NULL%0,              Shan%Zhao%NULL%3,              Shan%Zhao%NULL%0,              Noam D%Beckmann%NULL%2,              Noam D%Beckmann%NULL%0,              Nidhi%Naik%NULL%2,              Nidhi%Naik%NULL%0,              Arash%Kia%NULL%2,              Arash%Kia%NULL%0,              Prem%Timsina%NULL%2,              Prem%Timsina%NULL%0,              Anuradha%Lala%NULL%2,              Anuradha%Lala%NULL%0,              Manish%Paranjpe%NULL%2,              Manish%Paranjpe%NULL%0,              Eddye%Golden%NULL%2,              Eddye%Golden%NULL%0,              Matteo%Danieletto%NULL%2,              Matteo%Danieletto%NULL%0,              Manbir%Singh%NULL%2,              Manbir%Singh%NULL%0,              Dara%Meyer%NULL%2,              Dara%Meyer%NULL%0,              Paul F%O'Reilly%NULL%2,              Paul F%O'Reilly%NULL%0,              Laura%Huckins%NULL%2,              Laura%Huckins%NULL%0,              Patricia%Kovatch%NULL%2,              Patricia%Kovatch%NULL%0,              Joseph%Finkelstein%NULL%2,              Joseph%Finkelstein%NULL%0,              Robert M.%Freeman%NULL%2,              Robert M.%Freeman%NULL%0,              Edgar%Argulian%NULL%2,              Edgar%Argulian%NULL%0,              Andrew%Kasarskis%NULL%2,              Andrew%Kasarskis%NULL%0,              Bethany%Percha%NULL%2,              Bethany%Percha%NULL%0,              Judith A%Aberg%NULL%2,              Judith A%Aberg%NULL%0,              Emilia%Bagiella%NULL%3,              Emilia%Bagiella%NULL%0,              Carol R%Horowitz%NULL%2,              Carol R%Horowitz%NULL%0,              Barbara%Murphy%NULL%2,              Barbara%Murphy%NULL%0,              Eric J%Nestler%NULL%2,              Eric J%Nestler%NULL%0,              Eric E%Schadt%NULL%2,              Eric E%Schadt%NULL%0,              Judy H%Cho%NULL%2,              Judy H%Cho%NULL%0,              Carlos%Cordon-Cardo%NULL%2,              Carlos%Cordon-Cardo%NULL%0,              Valentin%Fuster%NULL%3,              Valentin%Fuster%NULL%0,              Dennis S%Charney%NULL%2,              Dennis S%Charney%NULL%0,              David L%Reich%NULL%2,              David L%Reich%NULL%0,              Erwin P%Bottinger%NULL%2,              Erwin P%Bottinger%NULL%0,              Matthew A%Levin%NULL%2,              Matthew A%Levin%NULL%0,              Jagat%Narula%NULL%3,              Jagat%Narula%NULL%0,              Zahi A%Fayad%NULL%2,              Zahi A%Fayad%NULL%0,              Allan C%Just%NULL%2,              Allan C%Just%NULL%0,              Alexander W%Charney%NULL%2,              Alexander W%Charney%NULL%0,              Girish N%Nadkarni%NULL%2,              Girish N%Nadkarni%NULL%0,              Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,              Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,              Anne%Chen%NULL%2,              Wei%Hou%NULL%3,              James M.%Graham%NULL%1,              Haifang%Li%NULL%2,              Paul S.%Richman%NULL%1,              Henry C.%Thode%NULL%1,              Adam J.%Singer%NULL%1,              Tim Q.%Duong%NULL%1,              Muhammad%Adrish%NULL%9,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0,              Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,              Qin%Liu%NULL%2,              Xiao%Zhang%NULL%2,              Shuyi%Liu%NULL%1,              Weiqi%Chen%NULL%1,              Jingjing%You%NULL%1,              Qiuying%Chen%NULL%1,              Minmin%Li%NULL%1,              Zhuozhi%Chen%NULL%1,              Luyan%Chen%NULL%1,              Lv%Chen%NULL%1,              Yuhao%Dong%NULL%1,              Qingsi%Zeng%NULL%1,              Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,              Lei%Nie%NULL%1,              Dongde%Wu%NULL%1,              Jian%Chen%NULL%2,              Zhifeng%Yang%NULL%1,              Ling%Zhang%NULL%3,              Dongqing%Li%NULL%1,              Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,       Feiyang%Zhong%xref no email%1,       Hanfei%Zhang%xref no email%1,       Wenting%An%xref no email%1,       Meiyan%Liao%xref no email%1,       Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,              Burcin%Hakoglu%NULL%2,              Burcin%Hakoglu%NULL%0,              Ali%Kadri Cirak%NULL%1,              Gulru%Polat%NULL%1,              Berna%Komurcuoglu%NULL%1,              Berrin%Akkol%NULL%1,              Cagri%Atasoy%NULL%1,              Eda%Bayramic%NULL%1,              Gunseli%Balci%NULL%1,              Sena%Ataman%NULL%1,              Sinem%Ermin%NULL%1,              Enver%Yalniz%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1,       Lili%Huang%xref no email%1,       Jin%Chen%xref no email%1,       Xiaowei%Yuan%xref no email%1,       Qinhua%Shen%xref no email%1,       Su%Dong%xref no email%1,       Bei%Cheng%xref no email%1,       Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,              Qiaosen%Chen%NULL%2,              Qiaosen%Chen%NULL%0,              Sumeng%Li%NULL%1,              Huadong%Li%NULL%1,              Qian%Zhang%NULL%1,              Sihong%Lu%NULL%1,              Li%Wu%NULL%1,              Leiqun%Xiong%NULL%1,              Bobin%Mi%NULL%1,              Di%Liu%NULL%3,              Mengji%Lu%NULL%1,              Dongliang%Yang%NULL%1,              Hongbo%Jiang%hongbojiang3@163.com%1,              Shaoping%Zheng%zhengspxx@126.com%1,              Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,              Hua%Zhang%NULL%2,              Rui%Qiao%NULL%1,              Qinggang%Ge%NULL%1,              Shuisheng%Zhang%NULL%1,              Zongxuan%Zhao%NULL%1,              Ci%Tian%NULL%1,              Qingbian%Ma%NULL%2,              Qingbian%Ma%NULL%0,              Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,              Antonia%Ho%NULL%2,              Riinu%Pius%NULL%2,              Iain%Buchan%NULL%1,              Gail%Carson%NULL%2,              Thomas M%Drake%NULL%1,              Jake%Dunning%NULL%2,              Cameron J%Fairfield%NULL%2,              Carrol%Gamble%NULL%2,              Christopher A%Green%NULL%2,              Rishi%Gupta%NULL%1,              Sophie%Halpin%NULL%2,              Hayley E%Hardwick%NULL%1,              Karl A%Holden%NULL%1,              Peter W%Horby%NULL%2,              Clare%Jackson%NULL%2,              Kenneth A%Mclean%NULL%2,              Laura%Merson%NULL%2,              Jonathan S%Nguyen-Van-Tam%NULL%1,              Lisa%Norman%NULL%2,              Mahdad%Noursadeghi%NULL%2,              Piero L%Olliaro%NULL%1,              Mark G%Pritchard%NULL%1,              Clark D%Russell%NULL%2,              Catherine A%Shaw%NULL%2,              Aziz%Sheikh%NULL%2,              Tom%Solomon%NULL%2,              Cathie%Sudlow%NULL%1,              Olivia V%Swann%NULL%1,              Lance CW%Turtle%NULL%2,              Peter JM%Openshaw%NULL%2,              J Kenneth%Baillie%NULL%2,              Malcolm G%Semple%NULL%3,              Annemarie B%Docherty%NULL%3,              Annemarie B%Docherty%NULL%0,              Ewen M%Harrison%NULL%3,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              J Kenneth%Baillie%NULL%0,              Malcolm G%Semple%NULL%0,              Peter JM%Openshaw%NULL%0,              Gail%Carson%NULL%0,              Beatrice%Alex%NULL%1,              Benjamin%Bach%NULL%1,              Wendy S%Barclay%NULL%1,              Debby%Bogaert%NULL%1,              Meera%Chand%NULL%1,              Graham S%Cooke%NULL%1,              Annemarie B%Docherty%NULL%0,              Jake%Dunning%NULL%0,              Ana%da Silva Filipe%NULL%1,              Tom%Fletcher%NULL%1,              Christopher A%Green%NULL%0,              Ewen M%Harrison%NULL%0,              Julian A%Hiscox%NULL%1,              Antonia Ying Wai%Ho%NULL%1,              Peter W%Horby%NULL%0,              Samreen%Ijaz%NULL%1,              Saye%Khoo%NULL%1,              Paul%Klenerman%NULL%1,              Andrew%Law%NULL%2,              Wei Shen%Lim%NULL%1,              Alexander J%Mentzer%NULL%1,              Laura%Merson%NULL%0,              Alison M%Meynert%NULL%1,              Mahdad%Noursadeghi%NULL%0,              Shona C%Moore%NULL%2,              Massimo%Palmarini%NULL%1,              William A%Paxton%NULL%1,              Georgios%Pollakis%NULL%1,              Nicholas%Price%NULL%1,              Andrew%Rambaut%NULL%1,              David L%Robertson%NULL%1,              Clark D%Russell%NULL%0,              Vanessa%Sancho-Shimizu%NULL%1,              Janet T%Scott%NULL%1,              Louise%Sigfrid%NULL%1,              Tom%Solomon%NULL%0,              Shiranee%Sriskandan%NULL%1,              David%Stuart%NULL%1,              Charlotte%Summers%NULL%1,              Richard S%Tedder%NULL%1,              Emma C%Thomson%NULL%1,              Ryan S%Thwaites%NULL%1,              Lance CW%Turtle%NULL%0,              Maria%Zambon%NULL%1,              Hayley%Hardwick%NULL%1,              Chloe%Donohue%NULL%1,              Jane%Ewins%NULL%1,              Wilna%Oosthuyzen%NULL%1,              Fiona%Griffiths%NULL%1,              Lisa%Norman%NULL%0,              Riinu%Pius%NULL%0,              Tom M%Drake%NULL%1,              Cameron J%Fairfield%NULL%0,              Stephen%Knight%NULL%1,              Kenneth A%Mclean%NULL%0,              Derek%Murphy%NULL%1,              Catherine A%Shaw%NULL%0,              Jo%Dalton%NULL%1,              Michelle%Girvan%NULL%1,              Egle%Saviciute%NULL%1,              Stephanie%Roberts%NULL%1,              Janet%Harrison%NULL%1,              Laura%Marsh%NULL%1,              Marie%Connor%NULL%1,              Sophie%Halpin%NULL%0,              Clare%Jackson%NULL%0,              Carrol%Gamble%NULL%0,              Gary%Leeming%NULL%1,              Andrew%Law%NULL%0,              Ross%Hendry%NULL%1,              James%Scott-Brown%NULL%1,              William%Greenhalf%NULL%1,              Victoria%Shaw%NULL%1,              Sarah%McDonald%NULL%2,              Katie A%Ahmed%NULL%1,              Jane A%Armstrong%NULL%1,              Milton%Ashworth%NULL%1,              Innocent G%Asiimwe%NULL%1,              Siddharth%Bakshi%NULL%1,              Samantha L%Barlow%NULL%1,              Laura%Booth%NULL%1,              Benjamin%Brennan%NULL%1,              Katie%Bullock%NULL%1,              Benjamin WA%Catterall%NULL%1,              Jordan J%Clark%NULL%1,              Emily A%Clarke%NULL%1,              Sarah%Cole%NULL%1,              Louise%Cooper%NULL%1,              Helen%Cox%NULL%1,              Christopher%Davis%NULL%1,              Oslem%Dincarslan%NULL%1,              Chris%Dunn%NULL%1,              Philip%Dyer%NULL%1,              Angela%Elliott%NULL%1,              Anthony%Evans%NULL%1,              Lewis WS%Fisher%NULL%1,              Terry%Foster%NULL%1,              Isabel%Garcia-Dorival%NULL%1,              Willliam%Greenhalf%NULL%1,              Philip%Gunning%NULL%1,              Catherine%Hartley%NULL%1,              Antonia%Ho%NULL%0,              Rebecca L%Jensen%NULL%1,              Christopher B%Jones%NULL%1,              Trevor R%Jones%NULL%1,              Shadia%Khandaker%NULL%1,              Katharine%King%NULL%1,              Robyn T%Kiy%NULL%1,              Chrysa%Koukorava%NULL%1,              Annette%Lake%NULL%1,              Suzannah%Lant%NULL%1,              Diane%Latawiec%NULL%1,              L%Lavelle-Langham%NULL%1,              Daniella%Lefteri%NULL%1,              Lauren%Lett%NULL%1,              Lucia A%Livoti%NULL%1,              Maria%Mancini%NULL%1,              Sarah%McDonald%NULL%0,              Laurence%McEvoy%NULL%1,              John%McLauchlan%NULL%1,              Soeren%Metelmann%NULL%1,              Nahida S%Miah%NULL%1,              Joanna%Middleton%NULL%1,              Joyce%Mitchell%NULL%1,              Shona C%Moore%NULL%0,              Ellen G%Murphy%NULL%1,              Rebekah%Penrice-Randal%NULL%1,              Jack%Pilgrim%NULL%1,              Tessa%Prince%NULL%1,              Will%Reynolds%NULL%1,              P Matthew%Ridley%NULL%1,              Debby%Sales%NULL%1,              Victoria E%Shaw%NULL%1,              Rebecca K%Shears%NULL%1,              Benjamin%Small%NULL%1,              Krishanthi S%Subramaniam%NULL%1,              Agnieska%Szemiel%NULL%1,              Aislynn%Taggart%NULL%1,              Jolanta%Tanianis-Hughes%NULL%1,              Jordan%Thomas%NULL%1,              Erwan%Trochu%NULL%1,              Libby%van Tonder%NULL%1,              Eve%Wilcock%NULL%1,              J Eunice%Zhang%NULL%1,              Kayode%Adeniji%NULL%1,              Daniel%Agranoff%NULL%1,              Ken%Agwuh%NULL%1,              Dhiraj%Ail%NULL%1,              Ana%Alegria%NULL%1,              Brian%Angus%NULL%1,              Abdul%Ashish%NULL%1,              Dougal%Atkinson%NULL%1,              Shahedal%Bari%NULL%1,              Gavin%Barlow%NULL%1,              Stella%Barnass%NULL%1,              Nicholas%Barrett%NULL%2,              Christopher%Bassford%NULL%1,              David%Baxter%NULL%1,              Michael%Beadsworth%NULL%1,              Jolanta%Bernatoniene%NULL%1,              John%Berridge%NULL%1,              Nicola%Best%NULL%1,              Pieter%Bothma%NULL%1,              David%Brealey%NULL%1,              Robin%Brittain-Long%NULL%1,              Naomi%Bulteel%NULL%1,              Tom%Burden%NULL%1,              Andrew%Burtenshaw%NULL%1,              Vikki%Caruth%NULL%1,              David%Chadwick%NULL%1,              Duncan%Chambler%NULL%1,              Nigel%Chee%NULL%1,              Jenny%Child%NULL%1,              Srikanth%Chukkambotla%NULL%1,              Tom%Clark%NULL%1,              Paul%Collini%NULL%1,              Catherine%Cosgrove%NULL%1,              Jason%Cupitt%NULL%1,              Maria-Teresa%Cutino-Moguel%NULL%1,              Paul%Dark%NULL%1,              Chris%Dawson%NULL%1,              Samir%Dervisevic%NULL%1,              Phil%Donnison%NULL%1,              Sam%Douthwaite%NULL%1,              Ingrid%DuRand%NULL%1,              Ahilanadan%Dushianthan%NULL%1,              Tristan%Dyer%NULL%1,              Cariad%Evans%NULL%1,              Chi%Eziefula%NULL%1,              Chrisopher%Fegan%NULL%1,              Adam%Finn%NULL%1,              Duncan%Fullerton%NULL%1,              Sanjeev%Garg%NULL%2,              Sanjeev%Garg%NULL%0,              Atul%Garg%NULL%1,              Jo%Godden%NULL%1,              Arthur%Goldsmith%NULL%1,              Clive%Graham%NULL%1,              Elaine%Hardy%NULL%1,              Stuart%Hartshorn%NULL%1,              Daniel%Harvey%NULL%1,              Peter%Havalda%NULL%1,              Daniel B%Hawcutt%NULL%1,              Maria%Hobrok%NULL%1,              Luke%Hodgson%NULL%1,              Anita%Holme%NULL%1,              Anil%Hormis%NULL%1,              Michael%Jacobs%NULL%1,              Susan%Jain%NULL%1,              Paul%Jennings%NULL%1,              Agilan%Kaliappan%NULL%1,              Vidya%Kasipandian%NULL%1,              Stephen%Kegg%NULL%1,              Michael%Kelsey%NULL%1,              Jason%Kendall%NULL%1,              Caroline%Kerrison%NULL%1,              Ian%Kerslake%NULL%1,              Oliver%Koch%NULL%2,              Gouri%Koduri%NULL%1,              George%Koshy%NULL%1,              Shondipon%Laha%NULL%1,              Susan%Larkin%NULL%1,              Tamas%Leiner%NULL%1,              Patrick%Lillie%NULL%1,              James%Limb%NULL%1,              Vanessa%Linnett%NULL%1,              Jeff%Little%NULL%1,              Michael%MacMahon%NULL%1,              Emily%MacNaughton%NULL%1,              Ravish%Mankregod%NULL%1,              Huw%Masson%NULL%1,              Elijah%Matovu%NULL%1,              Katherine%McCullough%NULL%1,              Ruth%McEwen%NULL%1,              Manjula%Meda%NULL%1,              Gary%Mills%NULL%1,              Jane%Minton%NULL%1,              Mariyam%Mirfenderesky%NULL%1,              Kavya%Mohandas%NULL%1,              Quen%Mok%NULL%1,              James%Moon%NULL%1,              Elinoor%Moore%NULL%1,              Patrick%Morgan%NULL%1,              Craig%Morris%NULL%1,              Katherine%Mortimore%NULL%1,              Samuel%Moses%NULL%1,              Mbiye%Mpenge%NULL%1,              Rohinton%Mulla%NULL%1,              Michael%Murphy%NULL%1,              Megan%Nagel%NULL%1,              Thapas%Nagarajan%NULL%1,              Mark%Nelson%NULL%1,              Igor%Otahal%NULL%1,              Mark%Pais%NULL%1,              Selva%Panchatsharam%NULL%1,              Hassan%Paraiso%NULL%1,              Brij%Patel%NULL%1,              Justin%Pepperell%NULL%1,              Mark%Peters%NULL%1,              Mandeep%Phull%NULL%1,              Stefania%Pintus%NULL%1,              Jagtur Singh%Pooni%NULL%1,              Frank%Post%NULL%1,              David%Price%NULL%1,              Rachel%Prout%NULL%1,              Nikolas%Rae%NULL%1,              Henrik%Reschreiter%NULL%1,              Tim%Reynolds%NULL%1,              Neil%Richardson%NULL%1,              Mark%Roberts%NULL%1,              Devender%Roberts%NULL%1,              Alistair%Rose%NULL%1,              Guy%Rousseau%NULL%1,              Brendan%Ryan%NULL%1,              Taranprit%Saluja%NULL%1,              Aarti%Shah%NULL%1,              Prad%Shanmuga%NULL%1,              Anil%Sharma%NULL%1,              Anna%Shawcross%NULL%1,              Jeremy%Sizer%NULL%1,              Richard%Smith%NULL%1,              Catherine%Snelson%NULL%1,              Nick%Spittle%NULL%1,              Nikki%Staines%NULL%1,              Tom%Stambach%NULL%1,              Richard%Stewart%NULL%1,              Pradeep%Subudhi%NULL%1,              Tamas%Szakmany%NULL%1,              Kate%Tatham%NULL%1,              Jo%Thomas%NULL%1,              Chris%Thompson%NULL%1,              Robert%Thompson%NULL%1,              Ascanio%Tridente%NULL%1,              Darell%Tupper-Carey%NULL%1,              Mary%Twagira%NULL%1,              Andrew%Ustianowski%NULL%1,              Nick%Vallotton%NULL%1,              Lisa%Vincent-Smith%NULL%1,              Shico%Visuvanathan%NULL%1,              Alan%Vuylsteke%NULL%1,              Sam%Waddy%NULL%1,              Rachel%Wake%NULL%1,              Andrew%Walden%NULL%1,              Ingeborg%Welters%NULL%1,              Tony%Whitehouse%NULL%1,              Paul%Whittaker%NULL%1,              Ashley%Whittington%NULL%1,              Meme%Wijesinghe%NULL%1,              Martin%Williams%NULL%1,              Lawrence%Wilson%NULL%1,              Sarah%Wilson%NULL%1,              Stephen%Winchester%NULL%1,              Martin%Wiselka%NULL%1,              Adam%Wolverson%NULL%1,              Daniel G%Wooton%NULL%1,              Andrew%Workman%NULL%1,              Bryan%Yates%NULL%1,              Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,              Braulio A.%Marfil‐Garza%NULL%1,              Erick%Martínez Rodríguez%NULL%1,              José Omar%Barreto Rodríguez%NULL%1,              Alicia Estela%López Romo%NULL%1,              Paolo%Alberti Minutti%NULL%1,              Juan Vicente%Alejandre Loya%NULL%1,              Félix Emmanuel%Pérez Talavera%NULL%1,              Freddy José%Ávila Cervera%NULL%1,              Adriana%Velazquez Burciaga%NULL%1,              Oscar%Morado Aramburo%NULL%1,              Luis Alberto%Piña Olguín%NULL%1,              Adrian%Soto‐Rodríguez%NULL%1,              Andrés%Castañeda Prado%NULL%1,              Patricio%Santillán Doherty%NULL%1,              Juan%O Galindo%NULL%1,              Luis Alberto%Guízar García%NULL%1,              Daniel%Hernández Gordillo%NULL%1,              Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,              Aatish%Patel%NULL%1,              Esmita%Charani%NULL%1,              Sarah%Denny%NULL%1,              Saleh A.%Alqahtani%NULL%1,              Gary W.%Davies%NULL%1,              Nabeela%Mughal%NULL%1,              Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,              Hyunsun%Lim%NULL%1,              Dong-Wook%Kim%NULL%1,              Jung Hyun%Chang%NULL%1,              Yoon Jung%Choi%chris316@yuhs.ac%1,              Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,       Rudong%Chen%xref no email%1,       Hongkuan%Yang%xref no email%1,       Junhong%Wang%xref no email%1,       Yuyang%Hou%xref no email%1,       Wei%Hu%xref no email%1,       Jiasheng%Yu%xref no email%1,       Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,              Wenhua%Liang%NULL%3,              Mei%Jiang%NULL%2,              Weijie%Guan%NULL%3,              Chen%Zhan%NULL%2,              Tao%Wang%NULL%0,              Chunli%Tang%NULL%3,              Ling%Sang%NULL%3,              Jiaxing%Liu%NULL%2,              Zhengyi%Ni%NULL%2,              Yu%Hu%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%5,              Chunliang%Lei%NULL%2,              Yixiang%Peng%NULL%2,              Li%Wei%NULL%5,              Yong%Liu%NULL%5,              Yahua%Hu%NULL%2,              Peng%Peng%NULL%7,              Jianming%Wang%NULL%2,              Jiyang%Liu%NULL%2,              Zhong%Chen%NULL%5,              Gang%Li%NULL%5,              Zhijian%Zheng%NULL%2,              Shaoqin%Qiu%NULL%2,              Jie%Luo%NULL%5,              Changjiang%Ye%NULL%2,              Shaoyong%Zhu%NULL%2,              Xiaoqing%Liu%NULL%2,              Linling%Cheng%NULL%2,              Feng%Ye%NULL%2,              Jinping%Zheng%NULL%2,              Nuofu%Zhang%NULL%2,              Yimin%Li%NULL%2,              Jianxing%He%NULL%2,              Shiyue%Li%lishiyue@188.com%3,              Nanshan%Zhong%NULL%4,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,              Liu%Hu%NULL%1,              Yiru%Wang%NULL%0,              Luyan%Huang%NULL%1,              Lingxi%Zhao%NULL%1,              Congcong%Zhang%NULL%1,              Xiyue%Liu%NULL%1,              Ranran%Xu%NULL%1,              Feng%Liu%NULL%0,              Jinping%Li%NULL%1,              Dawei%Ye%NULL%0,              Tao%Wang%NULL%0,              Yongman%Lv%lvyongman@126.com%0,              Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,              Carol A C%Coupland%NULL%1,              Ruth H%Keogh%NULL%1,              Karla%Diaz-Ordaz%NULL%1,              Elizabeth%Williamson%NULL%1,              Ewen M%Harrison%NULL%0,              Andrew%Hayward%NULL%1,              Harry%Hemingway%NULL%1,              Peter%Horby%NULL%1,              Nisha%Mehta%NULL%1,              Jonathan%Benger%NULL%1,              Kamlesh%Khunti%NULL%0,              David%Spiegelhalter%NULL%1,              Aziz%Sheikh%NULL%0,              Jonathan%Valabhji%NULL%0,              Ronan A%Lyons%NULL%1,              John%Robson%NULL%1,              Malcolm G%Semple%NULL%0,              Frank%Kee%NULL%1,              Peter%Johnson%NULL%1,              Susan%Jebb%NULL%1,              Tony%Williams%NULL%1,              Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,              Guang-Yao%Cai%NULL%1,              Wei%Fang%NULL%2,              Hua-Yi%Li%NULL%1,              Si-Yuan%Wang%NULL%2,              Si-Yuan%Wang%NULL%0,              Lingxi%Chen%NULL%1,              Yang%Yu%NULL%1,              Dan%Liu%NULL%0,              Sen%Xu%NULL%2,              Peng-Fei%Cui%NULL%1,              Shao-Qing%Zeng%NULL%2,              Shao-Qing%Zeng%NULL%0,              Xin-Xia%Feng%NULL%1,              Rui-Di%Yu%NULL%1,              Ya%Wang%NULL%2,              Yuan%Yuan%NULL%1,              Xiao-Fei%Jiao%NULL%1,              Jian-Hua%Chi%NULL%1,              Jia-Hao%Liu%NULL%1,              Ru-Yuan%Li%NULL%1,              Xu%Zheng%NULL%1,              Chun-Yan%Song%NULL%1,              Ning%Jin%NULL%1,              Wen-Jian%Gong%NULL%1,              Xing-Yu%Liu%NULL%1,              Lei%Huang%NULL%2,              Xun%Tian%NULL%1,              Lin%Li%NULL%1,              Hui%Xing%NULL%1,              Ding%Ma%NULL%1,              Chun-Rui%Li%NULL%1,              Fei%Ye%yeyuanbei@hotmail.com%1,              Qing-Lei%Gao%qingleigao@hotmail.com%2,              Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,              Ang%Li%NULL%1,              Mengfan%Jiao%NULL%1,              Qingmiao%Shi%NULL%1,              Xiaocai%An%NULL%1,              Yonghai%Feng%NULL%1,              Lihua%Xing%NULL%1,              Hongxia%Liang%NULL%1,              Jiajun%Chen%NULL%1,              Huiling%Li%NULL%1,              Juan%Li%NULL%0,              Zhigang%Ren%NULL%1,              Ranran%Sun%NULL%1,              Guangying%Cui%NULL%1,              Yongjian%Zhou%NULL%1,              Ming%Cheng%NULL%1,              Pengfei%Jiao%NULL%1,              Yu%Wang%NULL%2,              Jiyuan%Xing%NULL%1,              Shen%Shen%NULL%1,              Qingxian%Zhang%NULL%1,              Aiguo%Xu%NULL%1,              Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,              Michael%Ng%NULL%1,              Shuang%Xu%NULL%1,              Zhouming%Xu%NULL%1,              Hui%Qiu%NULL%1,              Yuwei%Liu%NULL%1,              Jiayou%Lyu%NULL%1,              Jiwen%You%NULL%1,              Peng%Zhao%NULL%0,              Shihao%Wang%NULL%1,              Yunfei%Tang%NULL%1,              Hao%Cui%NULL%1,              Changxiao%Yu%NULL%1,              Feng%Wang%NULL%5,              Fei%Shao%NULL%1,              Peng%Sun%NULL%1,              Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,              Huifang%Wang%NULL%1,              Junwei%Huang%NULL%1,              Yan%Geng%NULL%1,              Shuqi%Jiang%NULL%1,              Qiuping%Zhou%NULL%1,              Xuan%Chen%NULL%1,              Hongping%Hu%NULL%1,              Weifeng%Li%NULL%1,              Chengbin%Zhou%NULL%1,              Xinglin%Gao%NULL%1,              Na%Peng%pnatz@163.com%1,              Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,              Dandan%Cheng%NULL%1,              Yiwei%Cao%NULL%1,              Chuan%Hu%NULL%1,              Fenglin%Zou%NULL%1,              Wencheng%Yu%NULL%1,              Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,              Min Kyu%Kang%NULL%2,              Min Kyu%Kang%NULL%0,              Yu Rim%Lee%NULL%2,              Yu Rim%Lee%NULL%0,              Jeong Eun%Song%NULL%2,              Jeong Eun%Song%NULL%0,              Na Young%Kim%NULL%1,              Young Oh%Kweon%NULL%1,              Won Young%Tak%NULL%1,              Se Young%Jang%NULL%1,              Changhyeong%Lee%NULL%2,              Changhyeong%Lee%NULL%0,              Byung Seok%Kim%NULL%1,              Jae Seok%Hwang%NULL%1,              Byoung Kuk%Jang%NULL%1,              Jinmok%Bae%NULL%1,              Ji Yeon%Lee%NULL%0,              Jeong Ill%Suh%NULL%1,              Soo Young%Park%NULL%1,              Woo Jin%Chung%NULL%2,              Woo Jin%Chung%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,              Cristina%Roca-Oporto%NULL%0,              Guillermo%Martín-Gutiérrez%NULL%0,              María Dolores%Avilés%NULL%0,              Carmen%Gómez-González%NULL%0,              María Dolores%Navarro-Amuedo%NULL%0,              Julia%Praena-Segovia%NULL%0,              José%Molina%NULL%0,              María%Paniagua-García%NULL%0,              Horacio%García-Delgado%NULL%0,              Antonio%Domínguez-Petit%NULL%0,              Jerónimo%Pachón%NULL%0,              José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,           Calvo%Boyero Fernando%coreGivesNoEmail%1,           Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,           COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,           Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,           Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,           L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,           Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,           Santos%Lozano Alejandro%coreGivesNoEmail%1,           Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -4440,7 +4629,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1009</v>
+        <v>1072</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -4469,7 +4658,7 @@
         <v>937</v>
       </c>
       <c r="E3" t="s">
-        <v>1010</v>
+        <v>1073</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -4498,7 +4687,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>1011</v>
+        <v>1074</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -4527,7 +4716,7 @@
         <v>875</v>
       </c>
       <c r="E5" t="s">
-        <v>1012</v>
+        <v>1075</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -4556,7 +4745,7 @@
         <v>940</v>
       </c>
       <c r="E6" t="s">
-        <v>1013</v>
+        <v>1076</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -4585,7 +4774,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>1014</v>
+        <v>1077</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -4614,7 +4803,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>1015</v>
+        <v>1078</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -4643,7 +4832,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1016</v>
+        <v>1079</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -4672,7 +4861,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>1017</v>
+        <v>1080</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -4701,7 +4890,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>1018</v>
+        <v>1081</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -4730,7 +4919,7 @@
         <v>947</v>
       </c>
       <c r="E12" t="s">
-        <v>1019</v>
+        <v>1082</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -4759,7 +4948,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>1020</v>
+        <v>1083</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -4788,7 +4977,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>1021</v>
+        <v>1084</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -4817,7 +5006,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>1022</v>
+        <v>1085</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -4846,7 +5035,7 @@
         <v>953</v>
       </c>
       <c r="E16" t="s">
-        <v>1023</v>
+        <v>1086</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -4875,7 +5064,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>1024</v>
+        <v>1087</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -4904,7 +5093,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>1025</v>
+        <v>1088</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4933,7 +5122,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>1026</v>
+        <v>1089</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -4962,7 +5151,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>1027</v>
+        <v>1090</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -4991,7 +5180,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>1028</v>
+        <v>1091</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -5020,7 +5209,7 @@
         <v>690</v>
       </c>
       <c r="E22" t="s">
-        <v>1029</v>
+        <v>1092</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -5049,7 +5238,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>1030</v>
+        <v>1093</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -5078,7 +5267,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>1031</v>
+        <v>1094</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -5107,7 +5296,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>1032</v>
+        <v>1095</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -5136,7 +5325,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>1033</v>
+        <v>1096</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -5165,7 +5354,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>1034</v>
+        <v>1097</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -5194,7 +5383,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>1035</v>
+        <v>1098</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -5223,7 +5412,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1036</v>
+        <v>1099</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -5252,7 +5441,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>1037</v>
+        <v>1100</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -5281,7 +5470,7 @@
         <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>1038</v>
+        <v>1101</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -5310,7 +5499,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>1039</v>
+        <v>1102</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -5339,7 +5528,7 @@
         <v>971</v>
       </c>
       <c r="E33" t="s">
-        <v>1040</v>
+        <v>1103</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -5368,7 +5557,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>1041</v>
+        <v>1104</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -5426,7 +5615,7 @@
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>1042</v>
+        <v>1105</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -5455,7 +5644,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>1043</v>
+        <v>1106</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -5484,7 +5673,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>1044</v>
+        <v>1107</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -5513,7 +5702,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>1045</v>
+        <v>1108</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -5542,7 +5731,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>1046</v>
+        <v>1109</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -5571,7 +5760,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>1047</v>
+        <v>1110</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -5600,7 +5789,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>1048</v>
+        <v>1111</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -5629,7 +5818,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>1049</v>
+        <v>1112</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -5658,7 +5847,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>1050</v>
+        <v>1113</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -5687,7 +5876,7 @@
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>1051</v>
+        <v>1114</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -5716,7 +5905,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>1052</v>
+        <v>1115</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -5745,7 +5934,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>1053</v>
+        <v>1116</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -5774,7 +5963,7 @@
         <v>986</v>
       </c>
       <c r="E48" t="s">
-        <v>1054</v>
+        <v>1117</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -5803,7 +5992,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>1055</v>
+        <v>1118</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -5832,7 +6021,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>1056</v>
+        <v>1119</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -5861,7 +6050,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>1057</v>
+        <v>1120</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -5890,7 +6079,7 @@
         <v>991</v>
       </c>
       <c r="E52" t="s">
-        <v>1058</v>
+        <v>1121</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -5919,7 +6108,7 @@
         <v>993</v>
       </c>
       <c r="E53" t="s">
-        <v>1059</v>
+        <v>1122</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -5948,7 +6137,7 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>1060</v>
+        <v>1123</v>
       </c>
       <c r="F54" t="s">
         <v>54</v>
@@ -5977,7 +6166,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>1061</v>
+        <v>1124</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -6006,7 +6195,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>1062</v>
+        <v>1125</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -6035,7 +6224,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>1063</v>
+        <v>1126</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -6064,7 +6253,7 @@
         <v>999</v>
       </c>
       <c r="E58" t="s">
-        <v>1064</v>
+        <v>1127</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -6093,7 +6282,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>1065</v>
+        <v>1128</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -6122,7 +6311,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>1066</v>
+        <v>1129</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -6151,7 +6340,7 @@
         <v>1003</v>
       </c>
       <c r="E61" t="s">
-        <v>1067</v>
+        <v>1130</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -6180,7 +6369,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>1068</v>
+        <v>1131</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -6209,7 +6398,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>1069</v>
+        <v>1132</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -6238,7 +6427,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>1070</v>
+        <v>1133</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -6267,7 +6456,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1071</v>
+        <v>1134</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6826" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7281" uniqueCount="1198">
   <si>
     <t>Doi</t>
   </si>
@@ -4238,6 +4238,195 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,           Calvo%Boyero Fernando%coreGivesNoEmail%1,           Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,           COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,           Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,           Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,           L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,           Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,           Santos%Lozano Alejandro%coreGivesNoEmail%1,           Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,               Min%He%NULL%1,               Wanhong%Yin%NULL%1,               Xuelian%Liao%NULL%1,               Bo%Wang%NULL%6,               Xiaodong%Jin%NULL%1,               Yao%Ma%NULL%2,               Jirong%Yue%NULL%1,               Lang%Bai%NULL%1,               Dan%Liu%NULL%3,               Ting%Zhu%NULL%1,               Zhixin%Huang%NULL%1,               Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,               Shuchang%Zhou%NULL%1,               Yujin%Wang%NULL%1,               Wenzhi%Lv%NULL%2,               Shili%Wang%NULL%1,               Ting%Wang%751884926@qq.com%1,               Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,               Yan-chak%Li%NULL%1,               Sonali%Bose%NULL%1,               Ravi%Iyengar%NULL%1,               Supinda%Bunyavanich%NULL%1,               Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,      Hai-Tao%Zhang%null%1,      Jorge%Goncalves%null%1,      Yang%Xiao%null%1,      Maolin%Wang%null%1,      Yuqi%Guo%null%1,      Chuan%Sun%null%1,      Xiuchuan%Tang%null%1,      Liang%Jing%null%1,      Mingyang%Zhang%null%1,      Xiang%Huang%null%1,      Ying%Xiao%null%1,      Haosen%Cao%null%1,      Yanyan%Chen%null%1,      Tongxin%Ren%null%1,      Fang%Wang%null%1,      Yaru%Xiao%null%1,      Sufang%Huang%null%1,      Xi%Tan%null%1,      Niannian%Huang%null%1,      Bo%Jiao%null%1,      Cheng%Cheng%null%1,      Yong%Zhang%null%1,      Ailin%Luo%null%1,      Laurent%Mombaerts%null%1,      Junyang%Jin%null%1,      Zhiguo%Cao%null%1,      Shusheng%Li%null%1,      Hui%Xu%null%1,      Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,               Mengfei%Guo%NULL%1,               Limin%Duan%NULL%1,               Feng%Wu%NULL%1,               Guorong%Hu%NULL%1,               Zhihui%Wang%NULL%1,               Qi%Huang%NULL%1,               Tingting%Liao%NULL%1,               Juanjuan%Xu%NULL%1,               Yanling%Ma%NULL%1,               Zhilei%Lv%NULL%1,               Wenjing%Xiao%NULL%1,               Zilin%Zhao%NULL%1,               Xueyun%Tan%NULL%1,               Daquan%Meng%NULL%1,               Shujing%Zhang%NULL%1,               E%Zhou%NULL%1,               Zhengrong%Yin%NULL%1,               Wei%Geng%NULL%1,               Xuan%Wang%NULL%1,               Jianchu%Zhang%NULL%1,               Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,               Yu%Zhang%whxhzy@163.com%1,               Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,               Francesco%Arru%NULL%2,               Francesco%Arru%NULL%0,               Andrea%De Vito%NULL%3,               Alessandro%Sassu%NULL%2,               Alessandro%Sassu%NULL%0,               Giovanni%Valdes%NULL%1,               Valentina%Scano%NULL%1,               Elisabetta%Zinellu%NULL%1,               Roberto%Perra%NULL%1,               Giordano%Madeddu%NULL%3,               Ciriaco%Carru%NULL%1,               Pietro%Pirina%NULL%3,               Arduino A.%Mangoni%NULL%2,               Arduino A.%Mangoni%NULL%0,               Sergio%Babudieri%NULL%4,               Sergio%Babudieri%NULL%0,               Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,               Pablo%Ryan%NULL%1,               Jorge%Valencia%NULL%2,               Jorge%Valencia%NULL%0,               Mario%Pérez-Butragueño%NULL%2,               Mario%Pérez-Butragueño%NULL%0,               Eva%Jiménez%NULL%2,               Eva%Jiménez%NULL%0,               Mario%Fontán-Vela%NULL%1,               Elsa%Izquierdo-García%NULL%2,               Elsa%Izquierdo-García%NULL%0,               Inés%Fernandez-Jimenez%NULL%1,               Elena%Álvaro-Alonso%NULL%1,               Andrea%Lazaro%NULL%2,               Andrea%Lazaro%NULL%0,               Marta%Alvarado%NULL%1,               Helena%Notario%NULL%1,               Salvador%Resino%NULL%1,               Daniel%Velez-Serrano%NULL%1,               Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,               Yiru%Wang%NULL%2,               Xuecheng%Zhao%NULL%1,               Lixuan%Wang%NULL%1,               Feng%Liu%NULL%3,               Tao%Wang%NULL%15,               Dawei%Ye%NULL%2,               Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,               Valentina%Zuccaro%NULL%1,               Luca%Novelli%NULL%1,               Lorenzo%Zileri%NULL%2,               Lorenzo%Zileri%NULL%0,               Ciro%Celsa%NULL%1,               Federico%Raimondi%NULL%2,               Federico%Raimondi%NULL%0,               Mauro%Gori%NULL%1,               Giulia%Cammà%NULL%1,               Salvatore%Battaglia%NULL%1,               Vincenzo Giuseppe%Genova%NULL%1,               Laura%Paris%NULL%1,               Matteo%Tacelli%NULL%1,               Francesco Antonio%Mancarella%NULL%1,               Marco%Enea%NULL%1,               Massimo%Attanasio%NULL%1,               Michele%Senni%NULL%1,               Fabiano%Di Marco%NULL%1,               Luca Ferdinando%Lorini%NULL%1,               Stefano%Fagiuoli%NULL%1,               Raffaele%Bruno%NULL%2,               Calogero%Cammà%NULL%1,               Antonio%Gasbarrini%NULL%3,               Francesco%Di Gennaro%NULL%2,               Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,               Gan-xun%Li%NULL%1,               Lin%Chen%NULL%3,               Chang%Shu%NULL%2,               Jia%Song%NULL%1,               Wei%Wang%NULL%2,               Yu-wei%Wang%NULL%1,               Qian%Chen%NULL%2,               Guan-nan%Jin%NULL%1,               Tong-tong%Liu%NULL%1,               Jun-nan%Liang%NULL%1,               Peng%Zhu%NULL%1,               Wei%Zhu%NULL%5,               Yong%Li%NULL%2,               Bin-hao%Zhang%NULL%1,               Huan%Feng%NULL%1,               Wan-guang%Zhang%NULL%1,               Zhen-yu%Yin%NULL%1,               Wen-kui%Yu%NULL%1,               Yang%Yang%NULL%2,               Hua-qiu%Zhang%NULL%1,               Zhou-ping%Tang%NULL%1,               Hui%Wang%NULL%4,               Jun-bo%Hu%NULL%1,               Ji-hong%Liu%NULL%1,               Ping%Yin%NULL%1,               Xiao-ping%Chen%NULL%1,               Bixiang%Zhang%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,               Günay%Can%NULL%2,               Günay%Can%NULL%0,               Rıdvan%Karaali%NULL%1,               Şermin%Börekçi%NULL%1,               İlker İnanç%Balkan%NULL%1,               Bilun%Gemicioğlu%NULL%1,               Dildar%Konukoğlu%NULL%1,               Ethem%Erginöz%NULL%1,               Mehmet Sarper%Erdoğan%NULL%1,               Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,               Danila%Azzolina%NULL%1,               Eyal%Hayden%NULL%2,               Eyal%Hayden%NULL%0,               Gianluca%Gaidano%NULL%2,               Gianluca%Gaidano%NULL%0,               Mario%Pirisi%NULL%2,               Mario%Pirisi%NULL%0,               Antonio%Acquaviva%NULL%2,               Antonio%Acquaviva%NULL%0,               Gianluca%Aimaretti%NULL%2,               Gianluca%Aimaretti%NULL%0,               Paolo%Aluffi Valletti%NULL%3,               Paolo%Aluffi Valletti%NULL%0,               Roberto%Angilletta%NULL%2,               Roberto%Angilletta%NULL%0,               Roberto%Arioli%NULL%2,               Roberto%Arioli%NULL%0,               Gian Carlo%Avanzi%NULL%2,               Gian Carlo%Avanzi%NULL%0,               Gianluca%Avino%NULL%2,               Gianluca%Avino%NULL%0,               Piero Emilio%Balbo%NULL%2,               Piero Emilio%Balbo%NULL%0,               Giulia%Baldon%NULL%2,               Giulia%Baldon%NULL%0,               Francesca%Baorda%NULL%2,               Francesca%Baorda%NULL%0,               Emanuela%Barbero%NULL%2,               Emanuela%Barbero%NULL%0,               Alessio%Baricich%NULL%2,               Alessio%Baricich%NULL%0,               Michela%Barini%NULL%2,               Michela%Barini%NULL%0,               Francesco%Barone-Adesi%NULL%2,               Francesco%Barone-Adesi%NULL%0,               Sofia%Battistini%NULL%2,               Sofia%Battistini%NULL%0,               Michela%Beltrame%NULL%2,               Michela%Beltrame%NULL%0,               Matteo%Bertoli%NULL%2,               Matteo%Bertoli%NULL%0,               Stephanie%Bertolin%NULL%2,               Stephanie%Bertolin%NULL%0,               Marinella%Bertolotti%NULL%2,               Marinella%Bertolotti%NULL%0,               Marta%Betti%NULL%2,               Marta%Betti%NULL%0,               Flavio%Bobbio%NULL%2,               Flavio%Bobbio%NULL%0,               Paolo%Boffano%NULL%2,               Paolo%Boffano%NULL%0,               Lucio%Boglione%NULL%2,               Lucio%Boglione%NULL%0,               Silvio%Borrè%NULL%2,               Silvio%Borrè%NULL%0,               Matteo%Brucoli%NULL%2,               Matteo%Brucoli%NULL%0,               Elisa%Calzaducca%NULL%2,               Elisa%Calzaducca%NULL%0,               Edoardo%Cammarata%NULL%2,               Edoardo%Cammarata%NULL%0,               Vincenzo%Cantaluppi%NULL%2,               Vincenzo%Cantaluppi%NULL%0,               Roberto%Cantello%NULL%2,               Roberto%Cantello%NULL%0,               Andrea%Capponi%NULL%2,               Andrea%Capponi%NULL%0,               Alessandro%Carriero%NULL%2,               Alessandro%Carriero%NULL%0,               Giuseppe Francesco%Casciaro%NULL%2,               Giuseppe Francesco%Casciaro%NULL%0,               Luigi Mario%Castello%NULL%2,               Luigi Mario%Castello%NULL%0,               Federico%Ceruti%NULL%2,               Federico%Ceruti%NULL%0,               Guido%Chichino%NULL%2,               Guido%Chichino%NULL%0,               Emilio%Chirico%NULL%2,               Emilio%Chirico%NULL%0,               Carlo%Cisari%NULL%1,               Micol Giulia%Cittone%NULL%2,               Micol Giulia%Cittone%NULL%0,               Crizia%Colombo%NULL%2,               Crizia%Colombo%NULL%0,               Cristoforo%Comi%NULL%2,               Cristoforo%Comi%NULL%0,               Eleonora%Croce%NULL%2,               Eleonora%Croce%NULL%0,               Tommaso%Daffara%NULL%2,               Tommaso%Daffara%NULL%0,               Pietro%Danna%NULL%2,               Pietro%Danna%NULL%0,               Francesco%Della Corte%NULL%2,               Francesco%Della Corte%NULL%0,               Simona%De Vecchi%NULL%2,               Simona%De Vecchi%NULL%0,               Umberto%Dianzani%NULL%2,               Umberto%Dianzani%NULL%0,               Davide%Di Benedetto%NULL%2,               Davide%Di Benedetto%NULL%0,               Elia%Esposto%NULL%2,               Elia%Esposto%NULL%0,               Fabrizio%Faggiano%NULL%2,               Fabrizio%Faggiano%NULL%0,               Zeno%Falaschi%NULL%2,               Zeno%Falaschi%NULL%0,               Daniela%Ferrante%NULL%2,               Daniela%Ferrante%NULL%0,               Alice%Ferrero%NULL%2,               Alice%Ferrero%NULL%0,               Ileana%Gagliardi%NULL%2,               Ileana%Gagliardi%NULL%0,               Alessandra%Galbiati%NULL%2,               Alessandra%Galbiati%NULL%0,               Silvia%Gallo%NULL%2,               Silvia%Gallo%NULL%0,               Pietro Luigi%Garavelli%NULL%2,               Pietro Luigi%Garavelli%NULL%0,               Clara Ada%Gardino%NULL%2,               Clara Ada%Gardino%NULL%0,               Massimiliano%Garzaro%NULL%3,               Massimiliano%Garzaro%NULL%0,               Maria Luisa%Gastaldello%NULL%2,               Maria Luisa%Gastaldello%NULL%0,               Francesco%Gavelli%NULL%2,               Francesco%Gavelli%NULL%0,               Alessandra%Gennari%NULL%2,               Alessandra%Gennari%NULL%0,               Greta Maria%Giacomini%NULL%2,               Greta Maria%Giacomini%NULL%0,               Irene%Giacone%NULL%2,               Irene%Giacone%NULL%0,               Valentina%Giai Via%NULL%2,               Valentina%Giai Via%NULL%0,               Francesca%Giolitti%NULL%2,               Francesca%Giolitti%NULL%0,               Laura Cristina%Gironi%NULL%2,               Laura Cristina%Gironi%NULL%0,               Carla%Gramaglia%NULL%2,               Carla%Gramaglia%NULL%0,               Leonardo%Grisafi%NULL%2,               Leonardo%Grisafi%NULL%0,               Ilaria%Inserra%NULL%2,               Ilaria%Inserra%NULL%0,               Marco%Invernizzi%NULL%2,               Marco%Invernizzi%NULL%0,               Marco%Krengli%NULL%2,               Marco%Krengli%NULL%0,               Emanuela%Labella%NULL%2,               Emanuela%Labella%NULL%0,               Irene Cecilia%Landi%NULL%2,               Irene Cecilia%Landi%NULL%0,               Raffaella%Landi%NULL%2,               Raffaella%Landi%NULL%0,               Ilaria%Leone%NULL%2,               Ilaria%Leone%NULL%0,               Veronica%Lio%NULL%2,               Veronica%Lio%NULL%0,               Luca%Lorenzini%NULL%2,               Luca%Lorenzini%NULL%0,               Antonio%Maconi%NULL%2,               Antonio%Maconi%NULL%0,               Mario%Malerba%NULL%2,               Mario%Malerba%NULL%0,               Giulia Francesca%Manfredi%NULL%2,               Giulia Francesca%Manfredi%NULL%0,               Maria%Martelli%NULL%2,               Maria%Martelli%NULL%0,               Letizia%Marzari%NULL%2,               Letizia%Marzari%NULL%0,               Paolo%Marzullo%NULL%2,               Paolo%Marzullo%NULL%0,               Marco%Mennuni%NULL%2,               Marco%Mennuni%NULL%0,               Claudia%Montabone%NULL%2,               Claudia%Montabone%NULL%0,               Umberto%Morosini%NULL%2,               Umberto%Morosini%NULL%0,               Marco%Mussa%NULL%2,               Marco%Mussa%NULL%0,               Ilaria%Nerici%NULL%2,               Ilaria%Nerici%NULL%0,               Alessandro%Nuzzo%NULL%2,               Alessandro%Nuzzo%NULL%0,               Carlo%Olivieri%NULL%2,               Carlo%Olivieri%NULL%0,               Samuel Alberto%Padelli%NULL%2,               Samuel Alberto%Padelli%NULL%0,               Massimiliano%Panella%NULL%2,               Massimiliano%Panella%NULL%0,               Andrea%Parisini%NULL%2,               Andrea%Parisini%NULL%0,               Alessio%Paschè%NULL%2,               Alessio%Paschè%NULL%0,               Filippo%Patrucco%NULL%2,               Filippo%Patrucco%NULL%0,               Giuseppe%Patti%NULL%2,               Giuseppe%Patti%NULL%0,               Alberto%Pau%NULL%2,               Alberto%Pau%NULL%0,               Anita Rebecca%Pedrinelli%NULL%2,               Anita Rebecca%Pedrinelli%NULL%0,               Ilaria%Percivale%NULL%2,               Ilaria%Percivale%NULL%0,               Luca%Ragazzoni%NULL%2,               Luca%Ragazzoni%NULL%0,               Roberta%Re%NULL%2,               Roberta%Re%NULL%0,               Cristina%Rigamonti%NULL%2,               Cristina%Rigamonti%NULL%0,               Eleonora%Rizzi%NULL%2,               Eleonora%Rizzi%NULL%0,               Andrea%Rognoni%NULL%2,               Andrea%Rognoni%NULL%0,               Annalisa%Roveta%NULL%2,               Annalisa%Roveta%NULL%0,               Luigia%Salamina%NULL%2,               Luigia%Salamina%NULL%0,               Matteo%Santagostino%NULL%2,               Matteo%Santagostino%NULL%0,               Massimo%Saraceno%NULL%2,               Massimo%Saraceno%NULL%0,               Paola%Savoia%NULL%2,               Paola%Savoia%NULL%0,               Marco%Sciarra%NULL%2,               Marco%Sciarra%NULL%0,               Andrea%Schimmenti%NULL%2,               Andrea%Schimmenti%NULL%0,               Lorenza%Scotti%NULL%2,               Lorenza%Scotti%NULL%0,               Enrico%Spinoni%NULL%2,               Enrico%Spinoni%NULL%0,               Carlo%Smirne%NULL%2,               Carlo%Smirne%NULL%0,               Vanessa%Tarantino%NULL%2,               Vanessa%Tarantino%NULL%0,               Paolo Amedeo%Tillio%NULL%2,               Paolo Amedeo%Tillio%NULL%0,               Stelvio%Tonello%NULL%2,               Stelvio%Tonello%NULL%0,               Rosanna%Vaschetto%NULL%2,               Rosanna%Vaschetto%NULL%0,               Veronica%Vassia%NULL%2,               Veronica%Vassia%NULL%0,               Domenico%Zagaria%NULL%2,               Domenico%Zagaria%NULL%0,               Elisa%Zavattaro%NULL%2,               Elisa%Zavattaro%NULL%0,               Patrizia%Zeppegno%NULL%2,               Patrizia%Zeppegno%NULL%0,               Francesca%Zottarelli%NULL%2,               Francesca%Zottarelli%NULL%0,               Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,               Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,               Marta%Ottone%NULL%2,               Marta%Ottone%NULL%0,               Tommaso%Fasano%NULL%1,               Pierpaolo%Pattacini%NULL%1,               Valentina%Iotti%NULL%1,               Lucia%Spaggiari%NULL%1,               Riccardo%Bonacini%NULL%1,               Andrea%Nitrosi%NULL%1,               Efrem%Bonelli%NULL%1,               Simone%Canovi%NULL%1,               Rossana%Colla%NULL%1,               Alessandro%Zerbini%NULL%1,               Marco%Massari%NULL%1,               Ivana%Lattuada%NULL%1,               Anna Maria%Ferrari%NULL%1,               Paolo%Giorgi Rossi%NULL%1,               Massimo%Costantini%NULL%1,               Roberto%Grilli%NULL%1,               Massimiliano%Marino%NULL%1,               Giulio%Formoso%NULL%1,               Debora%Formisano%NULL%1,               Emanuela%Bedeschi%NULL%1,               Cinzia%Perilli%NULL%1,               Elisabetta%La Rosa%NULL%1,               Eufemia%Bisaccia%NULL%1,               Ivano%Venturi%NULL%1,               Massimo%Vicentini%NULL%1,               Cinzia%Campari%NULL%1,               Francesco%Gioia%NULL%1,               Serena%Broccoli%NULL%1,               Pamela%Mancuso%NULL%1,               Marco%Foracchia%NULL%1,               Mirco%Pinotti%NULL%1,               Nicola%Facciolongo%NULL%1,               Laura%Trabucco%NULL%1,               Stefano%De Pietri%NULL%1,               Giorgio Francesco%Danelli%NULL%1,               Laura%Albertazzi%NULL%1,               Enrica%Bellesia%NULL%1,               Mattia%Corradini%NULL%1,               Elena%Magnani%NULL%1,               Annalisa%Pilia%NULL%1,               Alessandra%Polese%NULL%1,               Silvia Storchi%Incerti%NULL%1,               Piera%Zaldini%NULL%1,               Bonanno%Orsola%NULL%1,               Matteo%Revelli%NULL%1,               Carlo%Salvarani%NULL%1,               Carmine%Pinto%NULL%1,               Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,               Hong-Qiu%Gu%NULL%1,               Yi%Liu (刘艺)%NULL%1,               Guqin%Zhang%NULL%1,               Hang%Yang%NULL%1,               Huifang%Hu%NULL%1,               Chenyang%Lu%NULL%1,               Yang%Li%NULL%3,               Liyi%Wang%NULL%1,               Yi%Liu (刘毅)%yi2006liu@163.com%1,               Yi%Zhao%zhao.y1977@163.com%1,               Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,               Tawsifur%Rahman%NULL%2,               Tawsifur%Rahman%NULL%0,               Amith%Khandakar%NULL%3,               Somaya%Al-Madeed%NULL%2,               Susu M.%Zughaier%NULL%5,               Suhail A. R.%Doi%NULL%3,               Hanadi%Hassen%NULL%1,               Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,               Jia%Sun%NULL%1,               Yi-Xin%Li%NULL%1,               Qian%Chen%NULL%0,               Qing-Quan%Liu%NULL%1,               Zhou%Sun%NULL%1,               Ran%Pang%NULL%1,               Fei%Chen%NULL%1,               Bing-Yang%Xu%NULL%1,               Anne%Manyande%NULL%1,               Taane G%Clark%NULL%1,               Jin-Ping%Li%NULL%1,               Ilkay Erdogan%Orhan%NULL%1,               Yu-Ke%Tian%NULL%1,               Tao%Wang%wt7636@126.com%0,               Wei%Wu%wt7636@126.com%1,               Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,        Xinyan%Cai%xref no email%1,        Robert%Lennon%xref no email%1,        Derjung M.%Tarn%xref no email%1,        Arch G.%Mainous%xref no email%1,        Aleksandra E.%Zgierska%xref no email%1,        Bruce%Barrett%xref no email%1,        Wen-Jan%Tuan%xref no email%1,        Kevin%Maloy%xref no email%1,        Munish%Goyal%xref no email%1,        Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,            Imam%Z%coreGivesNoEmail%1,            Lippi%G%coreGivesNoEmail%1,            Oran%DP%coreGivesNoEmail%1,            Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,               Caiping%Song%NULL%1,               En%Liu%NULL%1,               Xi%Liu%NULL%1,               Hao%Wu%NULL%1,               Hui%Lin%NULL%1,               Yuliang%Liu%NULL%1,               Qi%Li%NULL%1,               Zhi%Xu%NULL%1,               XiaoBao%Ren%NULL%1,               Cheng%Zhang%NULL%1,               Wenjing%Zhang%NULL%1,               Wei%Duan%NULL%2,               Yongfeng%Tian%NULL%1,               Ping%Li%NULL%1,               Mingdong%Hu%NULL%1,               Shiming%Yang%NULL%1,               Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,               Changli%Li%NULL%1,               Li%Zheng%NULL%1,               Wenzhi%Lv%NULL%0,               Zhigang%He%NULL%1,               Xinwu%Cui%NULL%1,               Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,        Liang%Li%xref no email%1,        Li%Wang%xref no email%1,        Huan%Liu%xref no email%2,        Xuefang%Lu%xref no email%1,        Feifei%Zeng%xref no email%1,        Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,               Hayne Cho%Park%NULL%2,               Hayne Cho%Park%NULL%0,               Ajin%Cho%NULL%1,               Juhee%Kim%NULL%1,               Kyu-sang%Yun%NULL%1,               Jinseog%Kim%NULL%1,               Young-Ki%Lee%NULL%1,               Sinan%Kardes.%NULL%2,               Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,        Luyu%Yang%xref no email%1,        Qian%Zeng%xref no email%1,        Qingyun%Li%xref no email%1,        Zhitao%Yang%xref no email%1,        Lizhong%Han%xref no email%1,        Xiaodong%Huang%xref no email%1,        Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,               Xiaoyu%Fang%NULL%1,               Lixia%Cheng%NULL%1,               Penghao%Wang%NULL%1,               Shen%Li%NULL%1,               Hao%Yu%NULL%1,               Yao%Zhang%NULL%2,               Nan%Jiang%NULL%1,               Tingting%Zeng%NULL%1,               Chao%Hou%NULL%1,               Jing%Zhou%NULL%0,               Shiru%Li%NULL%1,               Yingzi%Pan%NULL%1,               Yitong%Li%NULL%1,               Lili%Nie%NULL%1,               Yang%Li%NULL%0,               Qidi%Sun%NULL%1,               Hong%Jia%NULL%1,               Mengxia%Li%NULL%1,               Guoqiang%Cao%NULL%1,               Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,               Lucas A%Ramos%NULL%2,               Lucas A%Ramos%NULL%0,               Wouter%Potters%NULL%1,               Marcus L F%Janssen%NULL%1,               Deborah%Hubers%NULL%1,               Shi%Hu%NULL%1,               Egill A%Fridgeirsson%NULL%1,               Dan%Piña-Fuentes%NULL%1,               Rajat%Thomas%NULL%1,               Iwan C C%van der Horst%NULL%1,               Christian%Herff%NULL%2,               Christian%Herff%NULL%0,               Pieter%Kubben%NULL%1,               Paul W G%Elbers%NULL%1,               Henk A%Marquering%NULL%1,               Max%Welling%NULL%1,               Suat%Simsek%NULL%1,               Martijn D%de Kruif%NULL%1,               Tom%Dormans%NULL%1,               Lucas M%Fleuren%NULL%1,               Michiel%Schinkel%NULL%1,               Peter G%Noordzij%NULL%1,               Joop P%van den Bergh%NULL%2,               Joop P%van den Bergh%NULL%0,               Caroline E%Wyers%NULL%1,               David T B%Buis%NULL%2,               David T B%Buis%NULL%0,               W Joost%Wiersinga%NULL%1,               Ella H C%van den Hout%NULL%1,               Auke C%Reidinga%NULL%1,               Daisy%Rusch%NULL%1,               Kim C E%Sigaloff%NULL%1,               Renee A%Douma%NULL%1,               Lianne%de Haan%NULL%1,               Niels C%Gritters van den Oever%NULL%1,               Roger J M W%Rennenberg%NULL%1,               Guido A%van Wingen%NULL%1,               Marcel J H%Aries%NULL%1,               Martijn%Beudel%NULL%2,               Martijn%Beudel%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,               Fajer A.%Al-Ishaq%NULL%2,               Fajer A.%Al-Ishaq%NULL%0,               Fatima S.%Al-Mohannadi%NULL%1,               Reem S.%Mubarak%NULL%1,               Maryam H.%Al-Hitmi%NULL%1,               Khandaker Reajul%Islam%NULL%1,               Amith%Khandakar%NULL%0,               Ali Ait%Hssain%NULL%3,               Ali Ait%Hssain%NULL%0,               Somaya%Al-Madeed%NULL%0,               Susu M.%Zughaier%NULL%0,               Susu M.%Zughaier%NULL%0,               Muhammad E. H.%Chowdhury%NULL%3,               Muhammad E. H.%Chowdhury%NULL%0,               Antonella%Santone%NULL%3,               Antonella%Santone%NULL%0,               Antonella%Santone%NULL%0,               Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,               Amith%Khandakar%NULL%0,               Md Enamul%Hoque%NULL%2,               Md Enamul%Hoque%NULL%0,               Nabil%Ibtehaz%NULL%2,               Nabil%Ibtehaz%NULL%0,               Saad Bin%Kashem%NULL%2,               Saad Bin%Kashem%NULL%0,               Reehum%Masud%NULL%1,               Lutfunnahar%Shampa%NULL%1,               Mohammad Mehedi%Hasan%NULL%1,               Mohammad Tariqul%Islam%NULL%1,               Somaya%Al-Maadeed%NULL%2,               Somaya%Al-Maadeed%NULL%0,               Susu M.%Zughaier%NULL%0,               Susu M.%Zughaier%NULL%0,               Saif%Badran%NULL%2,               Saif%Badran%NULL%0,               Suhail A. R.%Doi%NULL%0,               Suhail A. R.%Doi%NULL%0,               Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,               Pablo%Rodríguez-Belenguer%NULL%2,               Pablo%Rodríguez-Belenguer%NULL%0,               Antonio J.%Serrano-López%NULL%1,               Emilio%Soria-Olivas%NULL%2,               Emilio%Soria-Olivas%NULL%0,               Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,               Haibo%Ai%NULL%1,               Yunong%Fu%NULL%1,               Qinglin%Li%NULL%1,               Ruixia%Cui%NULL%1,               Xiaohua%Ma%NULL%1,               Yan-fen%Ma%NULL%1,               Zi%Wang%NULL%1,               Tong%Liu%NULL%1,               Yunxiang%Long%NULL%1,               Kai%Qu%NULL%1,               Chang%Liu%NULL%1,               Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,        Rongqing%Sun%xref no email%1,        Wenbo%Sun%xref no email%1,        Dan%Xu%xref no email%1,        Lan%Lan%xref no email%1,        Huan%Li%xref no email%1,        Huan%Liu%xref no email%0,        Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,               Dawei%Zhang%NULL%1,               Jing%Xu%NULL%6,               Zhu%Chen%NULL%1,               Tieniu%Yang%NULL%1,               Peng%Zhao%NULL%2,               Guofeng%Chen%NULL%1,               Gregory%Cheng%NULL%1,               Yudong%Wang%NULL%1,               Jingfeng%Bi%NULL%1,               Lin%Tan%NULL%1,               George%Lau%NULL%1,               Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,               Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,               Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,               Giulia%Suigo%NULL%1,               Davide%Zampini%NULL%1,               Matteo%Pistoia%NULL%1,               Mariella%Ciola%NULL%1,               Tommaso%Ciampani%NULL%1,               Carolina%Ultori%NULL%1,               Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,               John R%Adler%NULL%3,               Sultan M%Kamran%NULL%2,               Sultan M%Kamran%NULL%0,               Zill-e-Humayun%Mirza%NULL%1,               Hussain Abdul%Moeed%NULL%1,               Arshad%Naseem%NULL%1,               Maryam%Hussain%NULL%1,               Imran%Fazal%NULL%1,               Farrukh%Saeed%NULL%1,               Wasim%Alamgir%NULL%1,               Salman%Saleem%NULL%1,               Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,        Zilong%Liu%xref no email%1,        Weipeng%Jiang%xref no email%1,        Jian%Wang%xref no email%4,        Mengchan%Zhu%xref no email%1,        Juan%Song%xref no email%0,        Xiaoyue%Wang%xref no email%1,        Ying%Su%xref no email%1,        Guiling%Xiang%xref no email%1,        Maosong%Ye%xref no email%1,        Jiamin%Li%xref no email%1,        Yong%Zhang%xref no email%1,        Qinjun%Shen%xref no email%1,        Zhuozhe%Li%xref no email%1,        Danwei%Yao%xref no email%1,        Yuanlin%Song%xref no email%0,        Kaihuan%Yu%xref no email%1,        Zhe%Luo%xref no email%1,        Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,               María M.%Martín%NULL%1,               Mónica%Argueso%NULL%1,               Jordi%Solé-Violán%NULL%1,               Alina%Perez%NULL%1,               José Alberto%Marcos Y Ramos%NULL%1,               Luis%Ramos-Gómez%NULL%1,               Sergio%López%NULL%1,               Andrés%Franco%NULL%1,               Agustín F.%González-Rivero%NULL%1,               María%Martín%NULL%1,               Verónica%Gonzalez%NULL%1,               Julia%Alcoba-Flórez%NULL%1,               Miguel Ángel%Rodriguez%NULL%1,               Marta%Riaño-Ruiz%NULL%1,               Juan%Guillermo O Campo%NULL%1,               Lourdes%González%NULL%1,               Tamara%Cantera%NULL%1,               Raquel%Ortiz-López%NULL%1,               Nazario%Ojeda%NULL%1,               Aurelio%Rodríguez-Pérez%NULL%1,               Casimira%Domínguez%NULL%1,               Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,               Rita%Kukafka%NULL%1,               Arriel%Benis%NULL%2,               Arriel%Benis%NULL%0,               Jinfeng%Li%NULL%1,               Pan%Pan%NULL%2,               Pan%Pan%NULL%0,               Yichao%Li%NULL%2,               Yichao%Li%NULL%0,               Yongjiu%Xiao%NULL%2,               Yongjiu%Xiao%NULL%0,               Bingchao%Han%NULL%2,               Bingchao%Han%NULL%0,               Longxiang%Su%NULL%2,               Longxiang%Su%NULL%0,               Mingliang%Su%NULL%2,               Mingliang%Su%NULL%0,               Yansheng%Li%NULL%2,               Yansheng%Li%NULL%0,               Siqi%Zhang%NULL%2,               Siqi%Zhang%NULL%0,               Dapeng%Jiang%NULL%2,               Dapeng%Jiang%NULL%0,               Xia%Chen%NULL%2,               Xia%Chen%NULL%0,               Fuquan%Zhou%NULL%2,               Fuquan%Zhou%NULL%0,               Ling%Ma%NULL%2,               Ling%Ma%NULL%0,               Pengtao%Bao%NULL%2,               Pengtao%Bao%NULL%0,               Lixin%Xie%xielx301@126.com%2,               Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,               Cristina%Roca-Oporto%NULL%2,               Guillermo%Martín-Gutiérrez%NULL%2,               María Dolores%Avilés%NULL%2,               Carmen%Gómez-González%NULL%2,               María Dolores%Navarro-Amuedo%NULL%2,               Julia%Praena-Segovia%NULL%2,               José%Molina%NULL%2,               María%Paniagua-García%NULL%2,               Horacio%García-Delgado%NULL%2,               Antonio%Domínguez-Petit%NULL%2,               Jerónimo%Pachón%NULL%2,               José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,               Barry R.%Meisenberg%NULL%2,               Barry R.%Meisenberg%NULL%0,               James H.%MacDonald%NULL%1,               Nandakumar%Menon%NULL%1,               Marcia B.%Fowler%NULL%1,               Michaline%West%NULL%1,               Jane%Rhule%NULL%1,               Sadaf S.%Qureshi%NULL%1,               Eileen B.%MacDonald%NULL%1,               Yu Ru%Kou%NULL%2,               Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,               Sarah%Poole%NULL%2,               Sarah%Poole%NULL%0,               Meeta%Pradhan%NULL%1,               Akhil%Vaid%NULL%3,               Akhil%Vaid%NULL%0,               Sulaiman%Somani%NULL%3,               Sulaiman%Somani%NULL%0,               Adam J%Russak%NULL%2,               Adam J%Russak%NULL%0,               Jessica K%De Freitas%NULL%2,               Jessica K%De Freitas%NULL%0,               Fayzan F%Chaudhry%NULL%2,               Fayzan F%Chaudhry%NULL%0,               Ishan%Paranjpe%NULL%3,               Ishan%Paranjpe%NULL%0,               Kipp W%Johnson%NULL%2,               Kipp W%Johnson%NULL%0,               Samuel J%Lee%NULL%2,               Samuel J%Lee%NULL%0,               Riccardo%Miotto%NULL%2,               Riccardo%Miotto%NULL%0,               Felix%Richter%NULL%3,               Felix%Richter%NULL%0,               Shan%Zhao%NULL%3,               Shan%Zhao%NULL%0,               Noam D%Beckmann%NULL%2,               Noam D%Beckmann%NULL%0,               Nidhi%Naik%NULL%2,               Nidhi%Naik%NULL%0,               Arash%Kia%NULL%2,               Arash%Kia%NULL%0,               Prem%Timsina%NULL%2,               Prem%Timsina%NULL%0,               Anuradha%Lala%NULL%2,               Anuradha%Lala%NULL%0,               Manish%Paranjpe%NULL%2,               Manish%Paranjpe%NULL%0,               Eddye%Golden%NULL%2,               Eddye%Golden%NULL%0,               Matteo%Danieletto%NULL%2,               Matteo%Danieletto%NULL%0,               Manbir%Singh%NULL%2,               Manbir%Singh%NULL%0,               Dara%Meyer%NULL%2,               Dara%Meyer%NULL%0,               Paul F%O'Reilly%NULL%2,               Paul F%O'Reilly%NULL%0,               Laura%Huckins%NULL%2,               Laura%Huckins%NULL%0,               Patricia%Kovatch%NULL%2,               Patricia%Kovatch%NULL%0,               Joseph%Finkelstein%NULL%2,               Joseph%Finkelstein%NULL%0,               Robert M.%Freeman%NULL%2,               Robert M.%Freeman%NULL%0,               Edgar%Argulian%NULL%2,               Edgar%Argulian%NULL%0,               Andrew%Kasarskis%NULL%2,               Andrew%Kasarskis%NULL%0,               Bethany%Percha%NULL%2,               Bethany%Percha%NULL%0,               Judith A%Aberg%NULL%2,               Judith A%Aberg%NULL%0,               Emilia%Bagiella%NULL%3,               Emilia%Bagiella%NULL%0,               Carol R%Horowitz%NULL%2,               Carol R%Horowitz%NULL%0,               Barbara%Murphy%NULL%2,               Barbara%Murphy%NULL%0,               Eric J%Nestler%NULL%2,               Eric J%Nestler%NULL%0,               Eric E%Schadt%NULL%2,               Eric E%Schadt%NULL%0,               Judy H%Cho%NULL%2,               Judy H%Cho%NULL%0,               Carlos%Cordon-Cardo%NULL%2,               Carlos%Cordon-Cardo%NULL%0,               Valentin%Fuster%NULL%3,               Valentin%Fuster%NULL%0,               Dennis S%Charney%NULL%2,               Dennis S%Charney%NULL%0,               David L%Reich%NULL%2,               David L%Reich%NULL%0,               Erwin P%Bottinger%NULL%2,               Erwin P%Bottinger%NULL%0,               Matthew A%Levin%NULL%2,               Matthew A%Levin%NULL%0,               Jagat%Narula%NULL%3,               Jagat%Narula%NULL%0,               Zahi A%Fayad%NULL%2,               Zahi A%Fayad%NULL%0,               Allan C%Just%NULL%2,               Allan C%Just%NULL%0,               Alexander W%Charney%NULL%2,               Alexander W%Charney%NULL%0,               Girish N%Nadkarni%NULL%2,               Girish N%Nadkarni%NULL%0,               Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,               Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,               Anne%Chen%NULL%2,               Wei%Hou%NULL%3,               James M.%Graham%NULL%1,               Haifang%Li%NULL%2,               Paul S.%Richman%NULL%1,               Henry C.%Thode%NULL%1,               Adam J.%Singer%NULL%1,               Tim Q.%Duong%NULL%1,               Muhammad%Adrish%NULL%9,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0,               Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,               Qin%Liu%NULL%2,               Xiao%Zhang%NULL%2,               Shuyi%Liu%NULL%1,               Weiqi%Chen%NULL%1,               Jingjing%You%NULL%1,               Qiuying%Chen%NULL%1,               Minmin%Li%NULL%1,               Zhuozhi%Chen%NULL%1,               Luyan%Chen%NULL%1,               Lv%Chen%NULL%1,               Yuhao%Dong%NULL%1,               Qingsi%Zeng%NULL%1,               Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,               Lei%Nie%NULL%1,               Dongde%Wu%NULL%1,               Jian%Chen%NULL%2,               Zhifeng%Yang%NULL%1,               Ling%Zhang%NULL%3,               Dongqing%Li%NULL%1,               Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,        Feiyang%Zhong%xref no email%1,        Hanfei%Zhang%xref no email%1,        Wenting%An%xref no email%1,        Meiyan%Liao%xref no email%1,        Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,               Burcin%Hakoglu%NULL%2,               Burcin%Hakoglu%NULL%0,               Ali%Kadri Cirak%NULL%1,               Gulru%Polat%NULL%1,               Berna%Komurcuoglu%NULL%1,               Berrin%Akkol%NULL%1,               Cagri%Atasoy%NULL%1,               Eda%Bayramic%NULL%1,               Gunseli%Balci%NULL%1,               Sena%Ataman%NULL%1,               Sinem%Ermin%NULL%1,               Enver%Yalniz%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1,        Lili%Huang%xref no email%1,        Jin%Chen%xref no email%1,        Xiaowei%Yuan%xref no email%1,        Qinhua%Shen%xref no email%1,        Su%Dong%xref no email%1,        Bei%Cheng%xref no email%1,        Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,               Qiaosen%Chen%NULL%2,               Qiaosen%Chen%NULL%0,               Sumeng%Li%NULL%1,               Huadong%Li%NULL%1,               Qian%Zhang%NULL%1,               Sihong%Lu%NULL%1,               Li%Wu%NULL%1,               Leiqun%Xiong%NULL%1,               Bobin%Mi%NULL%1,               Di%Liu%NULL%3,               Mengji%Lu%NULL%1,               Dongliang%Yang%NULL%1,               Hongbo%Jiang%hongbojiang3@163.com%1,               Shaoping%Zheng%zhengspxx@126.com%1,               Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,               Hua%Zhang%NULL%2,               Rui%Qiao%NULL%1,               Qinggang%Ge%NULL%1,               Shuisheng%Zhang%NULL%1,               Zongxuan%Zhao%NULL%1,               Ci%Tian%NULL%1,               Qingbian%Ma%NULL%2,               Qingbian%Ma%NULL%0,               Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,               Antonia%Ho%NULL%2,               Riinu%Pius%NULL%2,               Iain%Buchan%NULL%1,               Gail%Carson%NULL%2,               Thomas M%Drake%NULL%1,               Jake%Dunning%NULL%2,               Cameron J%Fairfield%NULL%2,               Carrol%Gamble%NULL%2,               Christopher A%Green%NULL%2,               Rishi%Gupta%NULL%1,               Sophie%Halpin%NULL%2,               Hayley E%Hardwick%NULL%1,               Karl A%Holden%NULL%1,               Peter W%Horby%NULL%2,               Clare%Jackson%NULL%2,               Kenneth A%Mclean%NULL%2,               Laura%Merson%NULL%2,               Jonathan S%Nguyen-Van-Tam%NULL%1,               Lisa%Norman%NULL%2,               Mahdad%Noursadeghi%NULL%2,               Piero L%Olliaro%NULL%1,               Mark G%Pritchard%NULL%1,               Clark D%Russell%NULL%2,               Catherine A%Shaw%NULL%2,               Aziz%Sheikh%NULL%2,               Tom%Solomon%NULL%2,               Cathie%Sudlow%NULL%1,               Olivia V%Swann%NULL%1,               Lance CW%Turtle%NULL%2,               Peter JM%Openshaw%NULL%2,               J Kenneth%Baillie%NULL%2,               Malcolm G%Semple%NULL%3,               Annemarie B%Docherty%NULL%3,               Annemarie B%Docherty%NULL%0,               Ewen M%Harrison%NULL%3,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               J Kenneth%Baillie%NULL%0,               Malcolm G%Semple%NULL%0,               Peter JM%Openshaw%NULL%0,               Gail%Carson%NULL%0,               Beatrice%Alex%NULL%1,               Benjamin%Bach%NULL%1,               Wendy S%Barclay%NULL%1,               Debby%Bogaert%NULL%1,               Meera%Chand%NULL%1,               Graham S%Cooke%NULL%1,               Annemarie B%Docherty%NULL%0,               Jake%Dunning%NULL%0,               Ana%da Silva Filipe%NULL%1,               Tom%Fletcher%NULL%1,               Christopher A%Green%NULL%0,               Ewen M%Harrison%NULL%0,               Julian A%Hiscox%NULL%1,               Antonia Ying Wai%Ho%NULL%1,               Peter W%Horby%NULL%0,               Samreen%Ijaz%NULL%1,               Saye%Khoo%NULL%1,               Paul%Klenerman%NULL%1,               Andrew%Law%NULL%2,               Wei Shen%Lim%NULL%1,               Alexander J%Mentzer%NULL%1,               Laura%Merson%NULL%0,               Alison M%Meynert%NULL%1,               Mahdad%Noursadeghi%NULL%0,               Shona C%Moore%NULL%2,               Massimo%Palmarini%NULL%1,               William A%Paxton%NULL%1,               Georgios%Pollakis%NULL%1,               Nicholas%Price%NULL%1,               Andrew%Rambaut%NULL%1,               David L%Robertson%NULL%1,               Clark D%Russell%NULL%0,               Vanessa%Sancho-Shimizu%NULL%1,               Janet T%Scott%NULL%1,               Louise%Sigfrid%NULL%1,               Tom%Solomon%NULL%0,               Shiranee%Sriskandan%NULL%1,               David%Stuart%NULL%1,               Charlotte%Summers%NULL%1,               Richard S%Tedder%NULL%1,               Emma C%Thomson%NULL%1,               Ryan S%Thwaites%NULL%1,               Lance CW%Turtle%NULL%0,               Maria%Zambon%NULL%1,               Hayley%Hardwick%NULL%1,               Chloe%Donohue%NULL%1,               Jane%Ewins%NULL%1,               Wilna%Oosthuyzen%NULL%1,               Fiona%Griffiths%NULL%1,               Lisa%Norman%NULL%0,               Riinu%Pius%NULL%0,               Tom M%Drake%NULL%1,               Cameron J%Fairfield%NULL%0,               Stephen%Knight%NULL%1,               Kenneth A%Mclean%NULL%0,               Derek%Murphy%NULL%1,               Catherine A%Shaw%NULL%0,               Jo%Dalton%NULL%1,               Michelle%Girvan%NULL%1,               Egle%Saviciute%NULL%1,               Stephanie%Roberts%NULL%1,               Janet%Harrison%NULL%1,               Laura%Marsh%NULL%1,               Marie%Connor%NULL%1,               Sophie%Halpin%NULL%0,               Clare%Jackson%NULL%0,               Carrol%Gamble%NULL%0,               Gary%Leeming%NULL%1,               Andrew%Law%NULL%0,               Ross%Hendry%NULL%1,               James%Scott-Brown%NULL%1,               William%Greenhalf%NULL%1,               Victoria%Shaw%NULL%1,               Sarah%McDonald%NULL%2,               Katie A%Ahmed%NULL%1,               Jane A%Armstrong%NULL%1,               Milton%Ashworth%NULL%1,               Innocent G%Asiimwe%NULL%1,               Siddharth%Bakshi%NULL%1,               Samantha L%Barlow%NULL%1,               Laura%Booth%NULL%1,               Benjamin%Brennan%NULL%1,               Katie%Bullock%NULL%1,               Benjamin WA%Catterall%NULL%1,               Jordan J%Clark%NULL%1,               Emily A%Clarke%NULL%1,               Sarah%Cole%NULL%1,               Louise%Cooper%NULL%1,               Helen%Cox%NULL%1,               Christopher%Davis%NULL%1,               Oslem%Dincarslan%NULL%1,               Chris%Dunn%NULL%1,               Philip%Dyer%NULL%1,               Angela%Elliott%NULL%1,               Anthony%Evans%NULL%1,               Lewis WS%Fisher%NULL%1,               Terry%Foster%NULL%1,               Isabel%Garcia-Dorival%NULL%1,               Willliam%Greenhalf%NULL%1,               Philip%Gunning%NULL%1,               Catherine%Hartley%NULL%1,               Antonia%Ho%NULL%0,               Rebecca L%Jensen%NULL%1,               Christopher B%Jones%NULL%1,               Trevor R%Jones%NULL%1,               Shadia%Khandaker%NULL%1,               Katharine%King%NULL%1,               Robyn T%Kiy%NULL%1,               Chrysa%Koukorava%NULL%1,               Annette%Lake%NULL%1,               Suzannah%Lant%NULL%1,               Diane%Latawiec%NULL%1,               L%Lavelle-Langham%NULL%1,               Daniella%Lefteri%NULL%1,               Lauren%Lett%NULL%1,               Lucia A%Livoti%NULL%1,               Maria%Mancini%NULL%1,               Sarah%McDonald%NULL%0,               Laurence%McEvoy%NULL%1,               John%McLauchlan%NULL%1,               Soeren%Metelmann%NULL%1,               Nahida S%Miah%NULL%1,               Joanna%Middleton%NULL%1,               Joyce%Mitchell%NULL%1,               Shona C%Moore%NULL%0,               Ellen G%Murphy%NULL%1,               Rebekah%Penrice-Randal%NULL%1,               Jack%Pilgrim%NULL%1,               Tessa%Prince%NULL%1,               Will%Reynolds%NULL%1,               P Matthew%Ridley%NULL%1,               Debby%Sales%NULL%1,               Victoria E%Shaw%NULL%1,               Rebecca K%Shears%NULL%1,               Benjamin%Small%NULL%1,               Krishanthi S%Subramaniam%NULL%1,               Agnieska%Szemiel%NULL%1,               Aislynn%Taggart%NULL%1,               Jolanta%Tanianis-Hughes%NULL%1,               Jordan%Thomas%NULL%1,               Erwan%Trochu%NULL%1,               Libby%van Tonder%NULL%1,               Eve%Wilcock%NULL%1,               J Eunice%Zhang%NULL%1,               Kayode%Adeniji%NULL%1,               Daniel%Agranoff%NULL%1,               Ken%Agwuh%NULL%1,               Dhiraj%Ail%NULL%1,               Ana%Alegria%NULL%1,               Brian%Angus%NULL%1,               Abdul%Ashish%NULL%1,               Dougal%Atkinson%NULL%1,               Shahedal%Bari%NULL%1,               Gavin%Barlow%NULL%1,               Stella%Barnass%NULL%1,               Nicholas%Barrett%NULL%2,               Christopher%Bassford%NULL%1,               David%Baxter%NULL%1,               Michael%Beadsworth%NULL%1,               Jolanta%Bernatoniene%NULL%1,               John%Berridge%NULL%1,               Nicola%Best%NULL%1,               Pieter%Bothma%NULL%1,               David%Brealey%NULL%1,               Robin%Brittain-Long%NULL%1,               Naomi%Bulteel%NULL%1,               Tom%Burden%NULL%1,               Andrew%Burtenshaw%NULL%1,               Vikki%Caruth%NULL%1,               David%Chadwick%NULL%1,               Duncan%Chambler%NULL%1,               Nigel%Chee%NULL%1,               Jenny%Child%NULL%1,               Srikanth%Chukkambotla%NULL%1,               Tom%Clark%NULL%1,               Paul%Collini%NULL%1,               Catherine%Cosgrove%NULL%1,               Jason%Cupitt%NULL%1,               Maria-Teresa%Cutino-Moguel%NULL%1,               Paul%Dark%NULL%1,               Chris%Dawson%NULL%1,               Samir%Dervisevic%NULL%1,               Phil%Donnison%NULL%1,               Sam%Douthwaite%NULL%1,               Ingrid%DuRand%NULL%1,               Ahilanadan%Dushianthan%NULL%1,               Tristan%Dyer%NULL%1,               Cariad%Evans%NULL%1,               Chi%Eziefula%NULL%1,               Chrisopher%Fegan%NULL%1,               Adam%Finn%NULL%1,               Duncan%Fullerton%NULL%1,               Sanjeev%Garg%NULL%2,               Sanjeev%Garg%NULL%0,               Atul%Garg%NULL%1,               Jo%Godden%NULL%1,               Arthur%Goldsmith%NULL%1,               Clive%Graham%NULL%1,               Elaine%Hardy%NULL%1,               Stuart%Hartshorn%NULL%1,               Daniel%Harvey%NULL%1,               Peter%Havalda%NULL%1,               Daniel B%Hawcutt%NULL%1,               Maria%Hobrok%NULL%1,               Luke%Hodgson%NULL%1,               Anita%Holme%NULL%1,               Anil%Hormis%NULL%1,               Michael%Jacobs%NULL%1,               Susan%Jain%NULL%1,               Paul%Jennings%NULL%1,               Agilan%Kaliappan%NULL%1,               Vidya%Kasipandian%NULL%1,               Stephen%Kegg%NULL%1,               Michael%Kelsey%NULL%1,               Jason%Kendall%NULL%1,               Caroline%Kerrison%NULL%1,               Ian%Kerslake%NULL%1,               Oliver%Koch%NULL%2,               Gouri%Koduri%NULL%1,               George%Koshy%NULL%1,               Shondipon%Laha%NULL%1,               Susan%Larkin%NULL%1,               Tamas%Leiner%NULL%1,               Patrick%Lillie%NULL%1,               James%Limb%NULL%1,               Vanessa%Linnett%NULL%1,               Jeff%Little%NULL%1,               Michael%MacMahon%NULL%1,               Emily%MacNaughton%NULL%1,               Ravish%Mankregod%NULL%1,               Huw%Masson%NULL%1,               Elijah%Matovu%NULL%1,               Katherine%McCullough%NULL%1,               Ruth%McEwen%NULL%1,               Manjula%Meda%NULL%1,               Gary%Mills%NULL%1,               Jane%Minton%NULL%1,               Mariyam%Mirfenderesky%NULL%1,               Kavya%Mohandas%NULL%1,               Quen%Mok%NULL%1,               James%Moon%NULL%1,               Elinoor%Moore%NULL%1,               Patrick%Morgan%NULL%1,               Craig%Morris%NULL%1,               Katherine%Mortimore%NULL%1,               Samuel%Moses%NULL%1,               Mbiye%Mpenge%NULL%1,               Rohinton%Mulla%NULL%1,               Michael%Murphy%NULL%1,               Megan%Nagel%NULL%1,               Thapas%Nagarajan%NULL%1,               Mark%Nelson%NULL%1,               Igor%Otahal%NULL%1,               Mark%Pais%NULL%1,               Selva%Panchatsharam%NULL%1,               Hassan%Paraiso%NULL%1,               Brij%Patel%NULL%1,               Justin%Pepperell%NULL%1,               Mark%Peters%NULL%1,               Mandeep%Phull%NULL%1,               Stefania%Pintus%NULL%1,               Jagtur Singh%Pooni%NULL%1,               Frank%Post%NULL%1,               David%Price%NULL%1,               Rachel%Prout%NULL%1,               Nikolas%Rae%NULL%1,               Henrik%Reschreiter%NULL%1,               Tim%Reynolds%NULL%1,               Neil%Richardson%NULL%1,               Mark%Roberts%NULL%1,               Devender%Roberts%NULL%1,               Alistair%Rose%NULL%1,               Guy%Rousseau%NULL%1,               Brendan%Ryan%NULL%1,               Taranprit%Saluja%NULL%1,               Aarti%Shah%NULL%1,               Prad%Shanmuga%NULL%1,               Anil%Sharma%NULL%1,               Anna%Shawcross%NULL%1,               Jeremy%Sizer%NULL%1,               Richard%Smith%NULL%1,               Catherine%Snelson%NULL%1,               Nick%Spittle%NULL%1,               Nikki%Staines%NULL%1,               Tom%Stambach%NULL%1,               Richard%Stewart%NULL%1,               Pradeep%Subudhi%NULL%1,               Tamas%Szakmany%NULL%1,               Kate%Tatham%NULL%1,               Jo%Thomas%NULL%1,               Chris%Thompson%NULL%1,               Robert%Thompson%NULL%1,               Ascanio%Tridente%NULL%1,               Darell%Tupper-Carey%NULL%1,               Mary%Twagira%NULL%1,               Andrew%Ustianowski%NULL%1,               Nick%Vallotton%NULL%1,               Lisa%Vincent-Smith%NULL%1,               Shico%Visuvanathan%NULL%1,               Alan%Vuylsteke%NULL%1,               Sam%Waddy%NULL%1,               Rachel%Wake%NULL%1,               Andrew%Walden%NULL%1,               Ingeborg%Welters%NULL%1,               Tony%Whitehouse%NULL%1,               Paul%Whittaker%NULL%1,               Ashley%Whittington%NULL%1,               Meme%Wijesinghe%NULL%1,               Martin%Williams%NULL%1,               Lawrence%Wilson%NULL%1,               Sarah%Wilson%NULL%1,               Stephen%Winchester%NULL%1,               Martin%Wiselka%NULL%1,               Adam%Wolverson%NULL%1,               Daniel G%Wooton%NULL%1,               Andrew%Workman%NULL%1,               Bryan%Yates%NULL%1,               Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,               Braulio A.%Marfil‐Garza%NULL%1,               Erick%Martínez Rodríguez%NULL%1,               José Omar%Barreto Rodríguez%NULL%1,               Alicia Estela%López Romo%NULL%1,               Paolo%Alberti Minutti%NULL%1,               Juan Vicente%Alejandre Loya%NULL%1,               Félix Emmanuel%Pérez Talavera%NULL%1,               Freddy José%Ávila Cervera%NULL%1,               Adriana%Velazquez Burciaga%NULL%1,               Oscar%Morado Aramburo%NULL%1,               Luis Alberto%Piña Olguín%NULL%1,               Adrian%Soto‐Rodríguez%NULL%1,               Andrés%Castañeda Prado%NULL%1,               Patricio%Santillán Doherty%NULL%1,               Juan%O Galindo%NULL%1,               Luis Alberto%Guízar García%NULL%1,               Daniel%Hernández Gordillo%NULL%1,               Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,               Aatish%Patel%NULL%1,               Esmita%Charani%NULL%1,               Sarah%Denny%NULL%1,               Saleh A.%Alqahtani%NULL%1,               Gary W.%Davies%NULL%1,               Nabeela%Mughal%NULL%1,               Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,               Hyunsun%Lim%NULL%1,               Dong-Wook%Kim%NULL%1,               Jung Hyun%Chang%NULL%1,               Yoon Jung%Choi%chris316@yuhs.ac%1,               Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,        Rudong%Chen%xref no email%1,        Hongkuan%Yang%xref no email%1,        Junhong%Wang%xref no email%1,        Yuyang%Hou%xref no email%1,        Wei%Hu%xref no email%1,        Jiasheng%Yu%xref no email%1,        Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,               Wenhua%Liang%NULL%3,               Mei%Jiang%NULL%2,               Weijie%Guan%NULL%3,               Chen%Zhan%NULL%2,               Tao%Wang%NULL%0,               Chunli%Tang%NULL%3,               Ling%Sang%NULL%3,               Jiaxing%Liu%NULL%2,               Zhengyi%Ni%NULL%2,               Yu%Hu%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%5,               Chunliang%Lei%NULL%2,               Yixiang%Peng%NULL%2,               Li%Wei%NULL%5,               Yong%Liu%NULL%5,               Yahua%Hu%NULL%2,               Peng%Peng%NULL%7,               Jianming%Wang%NULL%2,               Jiyang%Liu%NULL%2,               Zhong%Chen%NULL%5,               Gang%Li%NULL%5,               Zhijian%Zheng%NULL%2,               Shaoqin%Qiu%NULL%2,               Jie%Luo%NULL%5,               Changjiang%Ye%NULL%2,               Shaoyong%Zhu%NULL%2,               Xiaoqing%Liu%NULL%2,               Linling%Cheng%NULL%2,               Feng%Ye%NULL%2,               Jinping%Zheng%NULL%2,               Nuofu%Zhang%NULL%2,               Yimin%Li%NULL%2,               Jianxing%He%NULL%2,               Shiyue%Li%lishiyue@188.com%3,               Nanshan%Zhong%NULL%4,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,               Liu%Hu%NULL%1,               Yiru%Wang%NULL%0,               Luyan%Huang%NULL%1,               Lingxi%Zhao%NULL%1,               Congcong%Zhang%NULL%1,               Xiyue%Liu%NULL%1,               Ranran%Xu%NULL%1,               Feng%Liu%NULL%0,               Jinping%Li%NULL%1,               Dawei%Ye%NULL%0,               Tao%Wang%NULL%0,               Yongman%Lv%lvyongman@126.com%0,               Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,               Carol A C%Coupland%NULL%1,               Ruth H%Keogh%NULL%1,               Karla%Diaz-Ordaz%NULL%1,               Elizabeth%Williamson%NULL%1,               Ewen M%Harrison%NULL%0,               Andrew%Hayward%NULL%1,               Harry%Hemingway%NULL%1,               Peter%Horby%NULL%1,               Nisha%Mehta%NULL%1,               Jonathan%Benger%NULL%1,               Kamlesh%Khunti%NULL%0,               David%Spiegelhalter%NULL%1,               Aziz%Sheikh%NULL%0,               Jonathan%Valabhji%NULL%0,               Ronan A%Lyons%NULL%1,               John%Robson%NULL%1,               Malcolm G%Semple%NULL%0,               Frank%Kee%NULL%1,               Peter%Johnson%NULL%1,               Susan%Jebb%NULL%1,               Tony%Williams%NULL%1,               Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,               Guang-Yao%Cai%NULL%1,               Wei%Fang%NULL%2,               Hua-Yi%Li%NULL%1,               Si-Yuan%Wang%NULL%2,               Si-Yuan%Wang%NULL%0,               Lingxi%Chen%NULL%1,               Yang%Yu%NULL%1,               Dan%Liu%NULL%0,               Sen%Xu%NULL%2,               Peng-Fei%Cui%NULL%1,               Shao-Qing%Zeng%NULL%2,               Shao-Qing%Zeng%NULL%0,               Xin-Xia%Feng%NULL%1,               Rui-Di%Yu%NULL%1,               Ya%Wang%NULL%2,               Yuan%Yuan%NULL%1,               Xiao-Fei%Jiao%NULL%1,               Jian-Hua%Chi%NULL%1,               Jia-Hao%Liu%NULL%1,               Ru-Yuan%Li%NULL%1,               Xu%Zheng%NULL%1,               Chun-Yan%Song%NULL%1,               Ning%Jin%NULL%1,               Wen-Jian%Gong%NULL%1,               Xing-Yu%Liu%NULL%1,               Lei%Huang%NULL%2,               Xun%Tian%NULL%1,               Lin%Li%NULL%1,               Hui%Xing%NULL%1,               Ding%Ma%NULL%1,               Chun-Rui%Li%NULL%1,               Fei%Ye%yeyuanbei@hotmail.com%1,               Qing-Lei%Gao%qingleigao@hotmail.com%2,               Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,               Ang%Li%NULL%1,               Mengfan%Jiao%NULL%1,               Qingmiao%Shi%NULL%1,               Xiaocai%An%NULL%1,               Yonghai%Feng%NULL%1,               Lihua%Xing%NULL%1,               Hongxia%Liang%NULL%1,               Jiajun%Chen%NULL%1,               Huiling%Li%NULL%1,               Juan%Li%NULL%0,               Zhigang%Ren%NULL%1,               Ranran%Sun%NULL%1,               Guangying%Cui%NULL%1,               Yongjian%Zhou%NULL%1,               Ming%Cheng%NULL%1,               Pengfei%Jiao%NULL%1,               Yu%Wang%NULL%2,               Jiyuan%Xing%NULL%1,               Shen%Shen%NULL%1,               Qingxian%Zhang%NULL%1,               Aiguo%Xu%NULL%1,               Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,               Michael%Ng%NULL%1,               Shuang%Xu%NULL%1,               Zhouming%Xu%NULL%1,               Hui%Qiu%NULL%1,               Yuwei%Liu%NULL%1,               Jiayou%Lyu%NULL%1,               Jiwen%You%NULL%1,               Peng%Zhao%NULL%0,               Shihao%Wang%NULL%1,               Yunfei%Tang%NULL%1,               Hao%Cui%NULL%1,               Changxiao%Yu%NULL%1,               Feng%Wang%NULL%5,               Fei%Shao%NULL%1,               Peng%Sun%NULL%1,               Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,               Huifang%Wang%NULL%1,               Junwei%Huang%NULL%1,               Yan%Geng%NULL%1,               Shuqi%Jiang%NULL%1,               Qiuping%Zhou%NULL%1,               Xuan%Chen%NULL%1,               Hongping%Hu%NULL%1,               Weifeng%Li%NULL%1,               Chengbin%Zhou%NULL%1,               Xinglin%Gao%NULL%1,               Na%Peng%pnatz@163.com%1,               Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,               Dandan%Cheng%NULL%1,               Yiwei%Cao%NULL%1,               Chuan%Hu%NULL%1,               Fenglin%Zou%NULL%1,               Wencheng%Yu%NULL%1,               Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,               Min Kyu%Kang%NULL%2,               Min Kyu%Kang%NULL%0,               Yu Rim%Lee%NULL%2,               Yu Rim%Lee%NULL%0,               Jeong Eun%Song%NULL%2,               Jeong Eun%Song%NULL%0,               Na Young%Kim%NULL%1,               Young Oh%Kweon%NULL%1,               Won Young%Tak%NULL%1,               Se Young%Jang%NULL%1,               Changhyeong%Lee%NULL%2,               Changhyeong%Lee%NULL%0,               Byung Seok%Kim%NULL%1,               Jae Seok%Hwang%NULL%1,               Byoung Kuk%Jang%NULL%1,               Jinmok%Bae%NULL%1,               Ji Yeon%Lee%NULL%0,               Jeong Ill%Suh%NULL%1,               Soo Young%Park%NULL%1,               Woo Jin%Chung%NULL%2,               Woo Jin%Chung%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,               Cristina%Roca-Oporto%NULL%0,               Guillermo%Martín-Gutiérrez%NULL%0,               María Dolores%Avilés%NULL%0,               Carmen%Gómez-González%NULL%0,               María Dolores%Navarro-Amuedo%NULL%0,               Julia%Praena-Segovia%NULL%0,               José%Molina%NULL%0,               María%Paniagua-García%NULL%0,               Horacio%García-Delgado%NULL%0,               Antonio%Domínguez-Petit%NULL%0,               Jerónimo%Pachón%NULL%0,               José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,            Calvo%Boyero Fernando%coreGivesNoEmail%1,            Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,            COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,            Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,            Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,            L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,            Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,            Santos%Lozano Alejandro%coreGivesNoEmail%1,            Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -4629,7 +4818,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1072</v>
+        <v>1135</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -4658,7 +4847,7 @@
         <v>937</v>
       </c>
       <c r="E3" t="s">
-        <v>1073</v>
+        <v>1136</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -4687,7 +4876,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>1074</v>
+        <v>1137</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -4716,7 +4905,7 @@
         <v>875</v>
       </c>
       <c r="E5" t="s">
-        <v>1075</v>
+        <v>1138</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -4745,7 +4934,7 @@
         <v>940</v>
       </c>
       <c r="E6" t="s">
-        <v>1076</v>
+        <v>1139</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -4774,7 +4963,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>1077</v>
+        <v>1140</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -4803,7 +4992,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>1078</v>
+        <v>1141</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -4832,7 +5021,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1079</v>
+        <v>1142</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -4861,7 +5050,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -4890,7 +5079,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>1081</v>
+        <v>1144</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -4919,7 +5108,7 @@
         <v>947</v>
       </c>
       <c r="E12" t="s">
-        <v>1082</v>
+        <v>1145</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -4948,7 +5137,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>1083</v>
+        <v>1146</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -4977,7 +5166,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>1084</v>
+        <v>1147</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -5006,7 +5195,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>1085</v>
+        <v>1148</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -5035,7 +5224,7 @@
         <v>953</v>
       </c>
       <c r="E16" t="s">
-        <v>1086</v>
+        <v>1149</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -5064,7 +5253,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>1087</v>
+        <v>1150</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -5093,7 +5282,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>1088</v>
+        <v>1151</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5122,7 +5311,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>1089</v>
+        <v>1152</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -5151,7 +5340,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>1090</v>
+        <v>1153</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -5180,7 +5369,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>1091</v>
+        <v>1154</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -5209,7 +5398,7 @@
         <v>690</v>
       </c>
       <c r="E22" t="s">
-        <v>1092</v>
+        <v>1155</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -5238,7 +5427,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>1093</v>
+        <v>1156</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -5267,7 +5456,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>1094</v>
+        <v>1157</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -5296,7 +5485,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>1095</v>
+        <v>1158</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -5325,7 +5514,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>1096</v>
+        <v>1159</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -5354,7 +5543,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>1097</v>
+        <v>1160</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -5383,7 +5572,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>1098</v>
+        <v>1161</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -5412,7 +5601,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1099</v>
+        <v>1162</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -5441,7 +5630,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>1100</v>
+        <v>1163</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -5470,7 +5659,7 @@
         <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>1101</v>
+        <v>1164</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -5499,7 +5688,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>1102</v>
+        <v>1165</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -5528,7 +5717,7 @@
         <v>971</v>
       </c>
       <c r="E33" t="s">
-        <v>1103</v>
+        <v>1166</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -5557,7 +5746,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>1104</v>
+        <v>1167</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -5615,7 +5804,7 @@
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>1105</v>
+        <v>1168</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -5644,7 +5833,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>1106</v>
+        <v>1169</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -5673,7 +5862,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>1107</v>
+        <v>1170</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -5702,7 +5891,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>1108</v>
+        <v>1171</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -5731,7 +5920,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>1109</v>
+        <v>1172</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -5760,7 +5949,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>1110</v>
+        <v>1173</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -5789,7 +5978,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>1111</v>
+        <v>1174</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -5818,7 +6007,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>1112</v>
+        <v>1175</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -5847,7 +6036,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>1113</v>
+        <v>1176</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -5876,7 +6065,7 @@
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>1114</v>
+        <v>1177</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -5905,7 +6094,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>1115</v>
+        <v>1178</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -5934,7 +6123,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>1116</v>
+        <v>1179</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -5963,7 +6152,7 @@
         <v>986</v>
       </c>
       <c r="E48" t="s">
-        <v>1117</v>
+        <v>1180</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -5992,7 +6181,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>1118</v>
+        <v>1181</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -6021,7 +6210,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>1119</v>
+        <v>1182</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -6050,7 +6239,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>1120</v>
+        <v>1183</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -6079,7 +6268,7 @@
         <v>991</v>
       </c>
       <c r="E52" t="s">
-        <v>1121</v>
+        <v>1184</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -6108,7 +6297,7 @@
         <v>993</v>
       </c>
       <c r="E53" t="s">
-        <v>1122</v>
+        <v>1185</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -6137,7 +6326,7 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>1123</v>
+        <v>1186</v>
       </c>
       <c r="F54" t="s">
         <v>54</v>
@@ -6166,7 +6355,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>1124</v>
+        <v>1187</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -6195,7 +6384,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>1125</v>
+        <v>1188</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -6224,7 +6413,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>1126</v>
+        <v>1189</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -6253,7 +6442,7 @@
         <v>999</v>
       </c>
       <c r="E58" t="s">
-        <v>1127</v>
+        <v>1190</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -6282,7 +6471,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>1128</v>
+        <v>1191</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -6311,7 +6500,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>1129</v>
+        <v>1192</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -6340,7 +6529,7 @@
         <v>1003</v>
       </c>
       <c r="E61" t="s">
-        <v>1130</v>
+        <v>1193</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -6369,7 +6558,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>1131</v>
+        <v>1194</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -6398,7 +6587,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>1132</v>
+        <v>1195</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -6427,7 +6616,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>1133</v>
+        <v>1196</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -6456,7 +6645,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1134</v>
+        <v>1197</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7281" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8191" uniqueCount="1324">
   <si>
     <t>Doi</t>
   </si>
@@ -4427,6 +4427,384 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,            Calvo%Boyero Fernando%coreGivesNoEmail%1,            Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,            COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,            Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,            Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,            L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,            Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,            Santos%Lozano Alejandro%coreGivesNoEmail%1,            Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                Min%He%NULL%1,                Wanhong%Yin%NULL%1,                Xuelian%Liao%NULL%1,                Bo%Wang%NULL%6,                Xiaodong%Jin%NULL%1,                Yao%Ma%NULL%2,                Jirong%Yue%NULL%1,                Lang%Bai%NULL%1,                Dan%Liu%NULL%3,                Ting%Zhu%NULL%1,                Zhixin%Huang%NULL%1,                Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                Shuchang%Zhou%NULL%1,                Yujin%Wang%NULL%1,                Wenzhi%Lv%NULL%2,                Shili%Wang%NULL%1,                Ting%Wang%751884926@qq.com%1,                Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                Yan-chak%Li%NULL%1,                Sonali%Bose%NULL%1,                Ravi%Iyengar%NULL%1,                Supinda%Bunyavanich%NULL%1,                Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,       Hai-Tao%Zhang%null%1,       Jorge%Goncalves%null%1,       Yang%Xiao%null%1,       Maolin%Wang%null%1,       Yuqi%Guo%null%1,       Chuan%Sun%null%1,       Xiuchuan%Tang%null%1,       Liang%Jing%null%1,       Mingyang%Zhang%null%1,       Xiang%Huang%null%1,       Ying%Xiao%null%1,       Haosen%Cao%null%1,       Yanyan%Chen%null%1,       Tongxin%Ren%null%1,       Fang%Wang%null%1,       Yaru%Xiao%null%1,       Sufang%Huang%null%1,       Xi%Tan%null%1,       Niannian%Huang%null%1,       Bo%Jiao%null%1,       Cheng%Cheng%null%1,       Yong%Zhang%null%1,       Ailin%Luo%null%1,       Laurent%Mombaerts%null%1,       Junyang%Jin%null%1,       Zhiguo%Cao%null%1,       Shusheng%Li%null%1,       Hui%Xu%null%1,       Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                Mengfei%Guo%NULL%1,                Limin%Duan%NULL%1,                Feng%Wu%NULL%1,                Guorong%Hu%NULL%1,                Zhihui%Wang%NULL%1,                Qi%Huang%NULL%1,                Tingting%Liao%NULL%1,                Juanjuan%Xu%NULL%1,                Yanling%Ma%NULL%1,                Zhilei%Lv%NULL%1,                Wenjing%Xiao%NULL%1,                Zilin%Zhao%NULL%1,                Xueyun%Tan%NULL%1,                Daquan%Meng%NULL%1,                Shujing%Zhang%NULL%1,                E%Zhou%NULL%1,                Zhengrong%Yin%NULL%1,                Wei%Geng%NULL%1,                Xuan%Wang%NULL%1,                Jianchu%Zhang%NULL%1,                Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                Yu%Zhang%whxhzy@163.com%1,                Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                Francesco%Arru%NULL%2,                Francesco%Arru%NULL%0,                Andrea%De Vito%NULL%3,                Alessandro%Sassu%NULL%2,                Alessandro%Sassu%NULL%0,                Giovanni%Valdes%NULL%1,                Valentina%Scano%NULL%1,                Elisabetta%Zinellu%NULL%1,                Roberto%Perra%NULL%1,                Giordano%Madeddu%NULL%3,                Ciriaco%Carru%NULL%1,                Pietro%Pirina%NULL%3,                Arduino A.%Mangoni%NULL%2,                Arduino A.%Mangoni%NULL%0,                Sergio%Babudieri%NULL%4,                Sergio%Babudieri%NULL%0,                Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                Pablo%Ryan%NULL%1,                Jorge%Valencia%NULL%2,                Jorge%Valencia%NULL%0,                Mario%Pérez-Butragueño%NULL%2,                Mario%Pérez-Butragueño%NULL%0,                Eva%Jiménez%NULL%2,                Eva%Jiménez%NULL%0,                Mario%Fontán-Vela%NULL%1,                Elsa%Izquierdo-García%NULL%2,                Elsa%Izquierdo-García%NULL%0,                Inés%Fernandez-Jimenez%NULL%1,                Elena%Álvaro-Alonso%NULL%1,                Andrea%Lazaro%NULL%2,                Andrea%Lazaro%NULL%0,                Marta%Alvarado%NULL%1,                Helena%Notario%NULL%1,                Salvador%Resino%NULL%1,                Daniel%Velez-Serrano%NULL%1,                Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                Yiru%Wang%NULL%2,                Xuecheng%Zhao%NULL%1,                Lixuan%Wang%NULL%1,                Feng%Liu%NULL%3,                Tao%Wang%NULL%15,                Dawei%Ye%NULL%2,                Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                Valentina%Zuccaro%NULL%1,                Luca%Novelli%NULL%1,                Lorenzo%Zileri%NULL%2,                Lorenzo%Zileri%NULL%0,                Ciro%Celsa%NULL%1,                Federico%Raimondi%NULL%2,                Federico%Raimondi%NULL%0,                Mauro%Gori%NULL%1,                Giulia%Cammà%NULL%1,                Salvatore%Battaglia%NULL%1,                Vincenzo Giuseppe%Genova%NULL%1,                Laura%Paris%NULL%1,                Matteo%Tacelli%NULL%1,                Francesco Antonio%Mancarella%NULL%1,                Marco%Enea%NULL%1,                Massimo%Attanasio%NULL%1,                Michele%Senni%NULL%1,                Fabiano%Di Marco%NULL%1,                Luca Ferdinando%Lorini%NULL%1,                Stefano%Fagiuoli%NULL%1,                Raffaele%Bruno%NULL%2,                Calogero%Cammà%NULL%1,                Antonio%Gasbarrini%NULL%3,                Francesco%Di Gennaro%NULL%2,                Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                Gan-xun%Li%NULL%1,                Lin%Chen%NULL%3,                Chang%Shu%NULL%2,                Jia%Song%NULL%1,                Wei%Wang%NULL%2,                Yu-wei%Wang%NULL%1,                Qian%Chen%NULL%2,                Guan-nan%Jin%NULL%1,                Tong-tong%Liu%NULL%1,                Jun-nan%Liang%NULL%1,                Peng%Zhu%NULL%1,                Wei%Zhu%NULL%5,                Yong%Li%NULL%2,                Bin-hao%Zhang%NULL%1,                Huan%Feng%NULL%1,                Wan-guang%Zhang%NULL%1,                Zhen-yu%Yin%NULL%1,                Wen-kui%Yu%NULL%1,                Yang%Yang%NULL%2,                Hua-qiu%Zhang%NULL%1,                Zhou-ping%Tang%NULL%1,                Hui%Wang%NULL%4,                Jun-bo%Hu%NULL%1,                Ji-hong%Liu%NULL%1,                Ping%Yin%NULL%1,                Xiao-ping%Chen%NULL%1,                Bixiang%Zhang%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                Günay%Can%NULL%2,                Günay%Can%NULL%0,                Rıdvan%Karaali%NULL%1,                Şermin%Börekçi%NULL%1,                İlker İnanç%Balkan%NULL%1,                Bilun%Gemicioğlu%NULL%1,                Dildar%Konukoğlu%NULL%1,                Ethem%Erginöz%NULL%1,                Mehmet Sarper%Erdoğan%NULL%1,                Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                Danila%Azzolina%NULL%1,                Eyal%Hayden%NULL%2,                Eyal%Hayden%NULL%0,                Gianluca%Gaidano%NULL%2,                Gianluca%Gaidano%NULL%0,                Mario%Pirisi%NULL%2,                Mario%Pirisi%NULL%0,                Antonio%Acquaviva%NULL%2,                Antonio%Acquaviva%NULL%0,                Gianluca%Aimaretti%NULL%2,                Gianluca%Aimaretti%NULL%0,                Paolo%Aluffi Valletti%NULL%3,                Paolo%Aluffi Valletti%NULL%0,                Roberto%Angilletta%NULL%2,                Roberto%Angilletta%NULL%0,                Roberto%Arioli%NULL%2,                Roberto%Arioli%NULL%0,                Gian Carlo%Avanzi%NULL%2,                Gian Carlo%Avanzi%NULL%0,                Gianluca%Avino%NULL%2,                Gianluca%Avino%NULL%0,                Piero Emilio%Balbo%NULL%2,                Piero Emilio%Balbo%NULL%0,                Giulia%Baldon%NULL%2,                Giulia%Baldon%NULL%0,                Francesca%Baorda%NULL%2,                Francesca%Baorda%NULL%0,                Emanuela%Barbero%NULL%2,                Emanuela%Barbero%NULL%0,                Alessio%Baricich%NULL%2,                Alessio%Baricich%NULL%0,                Michela%Barini%NULL%2,                Michela%Barini%NULL%0,                Francesco%Barone-Adesi%NULL%2,                Francesco%Barone-Adesi%NULL%0,                Sofia%Battistini%NULL%2,                Sofia%Battistini%NULL%0,                Michela%Beltrame%NULL%2,                Michela%Beltrame%NULL%0,                Matteo%Bertoli%NULL%2,                Matteo%Bertoli%NULL%0,                Stephanie%Bertolin%NULL%2,                Stephanie%Bertolin%NULL%0,                Marinella%Bertolotti%NULL%2,                Marinella%Bertolotti%NULL%0,                Marta%Betti%NULL%2,                Marta%Betti%NULL%0,                Flavio%Bobbio%NULL%2,                Flavio%Bobbio%NULL%0,                Paolo%Boffano%NULL%2,                Paolo%Boffano%NULL%0,                Lucio%Boglione%NULL%2,                Lucio%Boglione%NULL%0,                Silvio%Borrè%NULL%2,                Silvio%Borrè%NULL%0,                Matteo%Brucoli%NULL%2,                Matteo%Brucoli%NULL%0,                Elisa%Calzaducca%NULL%2,                Elisa%Calzaducca%NULL%0,                Edoardo%Cammarata%NULL%2,                Edoardo%Cammarata%NULL%0,                Vincenzo%Cantaluppi%NULL%2,                Vincenzo%Cantaluppi%NULL%0,                Roberto%Cantello%NULL%2,                Roberto%Cantello%NULL%0,                Andrea%Capponi%NULL%2,                Andrea%Capponi%NULL%0,                Alessandro%Carriero%NULL%2,                Alessandro%Carriero%NULL%0,                Giuseppe Francesco%Casciaro%NULL%2,                Giuseppe Francesco%Casciaro%NULL%0,                Luigi Mario%Castello%NULL%2,                Luigi Mario%Castello%NULL%0,                Federico%Ceruti%NULL%2,                Federico%Ceruti%NULL%0,                Guido%Chichino%NULL%2,                Guido%Chichino%NULL%0,                Emilio%Chirico%NULL%2,                Emilio%Chirico%NULL%0,                Carlo%Cisari%NULL%1,                Micol Giulia%Cittone%NULL%2,                Micol Giulia%Cittone%NULL%0,                Crizia%Colombo%NULL%2,                Crizia%Colombo%NULL%0,                Cristoforo%Comi%NULL%2,                Cristoforo%Comi%NULL%0,                Eleonora%Croce%NULL%2,                Eleonora%Croce%NULL%0,                Tommaso%Daffara%NULL%2,                Tommaso%Daffara%NULL%0,                Pietro%Danna%NULL%2,                Pietro%Danna%NULL%0,                Francesco%Della Corte%NULL%2,                Francesco%Della Corte%NULL%0,                Simona%De Vecchi%NULL%2,                Simona%De Vecchi%NULL%0,                Umberto%Dianzani%NULL%2,                Umberto%Dianzani%NULL%0,                Davide%Di Benedetto%NULL%2,                Davide%Di Benedetto%NULL%0,                Elia%Esposto%NULL%2,                Elia%Esposto%NULL%0,                Fabrizio%Faggiano%NULL%2,                Fabrizio%Faggiano%NULL%0,                Zeno%Falaschi%NULL%2,                Zeno%Falaschi%NULL%0,                Daniela%Ferrante%NULL%2,                Daniela%Ferrante%NULL%0,                Alice%Ferrero%NULL%2,                Alice%Ferrero%NULL%0,                Ileana%Gagliardi%NULL%2,                Ileana%Gagliardi%NULL%0,                Alessandra%Galbiati%NULL%2,                Alessandra%Galbiati%NULL%0,                Silvia%Gallo%NULL%2,                Silvia%Gallo%NULL%0,                Pietro Luigi%Garavelli%NULL%2,                Pietro Luigi%Garavelli%NULL%0,                Clara Ada%Gardino%NULL%2,                Clara Ada%Gardino%NULL%0,                Massimiliano%Garzaro%NULL%3,                Massimiliano%Garzaro%NULL%0,                Maria Luisa%Gastaldello%NULL%2,                Maria Luisa%Gastaldello%NULL%0,                Francesco%Gavelli%NULL%2,                Francesco%Gavelli%NULL%0,                Alessandra%Gennari%NULL%2,                Alessandra%Gennari%NULL%0,                Greta Maria%Giacomini%NULL%2,                Greta Maria%Giacomini%NULL%0,                Irene%Giacone%NULL%2,                Irene%Giacone%NULL%0,                Valentina%Giai Via%NULL%2,                Valentina%Giai Via%NULL%0,                Francesca%Giolitti%NULL%2,                Francesca%Giolitti%NULL%0,                Laura Cristina%Gironi%NULL%2,                Laura Cristina%Gironi%NULL%0,                Carla%Gramaglia%NULL%2,                Carla%Gramaglia%NULL%0,                Leonardo%Grisafi%NULL%2,                Leonardo%Grisafi%NULL%0,                Ilaria%Inserra%NULL%2,                Ilaria%Inserra%NULL%0,                Marco%Invernizzi%NULL%2,                Marco%Invernizzi%NULL%0,                Marco%Krengli%NULL%2,                Marco%Krengli%NULL%0,                Emanuela%Labella%NULL%2,                Emanuela%Labella%NULL%0,                Irene Cecilia%Landi%NULL%2,                Irene Cecilia%Landi%NULL%0,                Raffaella%Landi%NULL%2,                Raffaella%Landi%NULL%0,                Ilaria%Leone%NULL%2,                Ilaria%Leone%NULL%0,                Veronica%Lio%NULL%2,                Veronica%Lio%NULL%0,                Luca%Lorenzini%NULL%2,                Luca%Lorenzini%NULL%0,                Antonio%Maconi%NULL%2,                Antonio%Maconi%NULL%0,                Mario%Malerba%NULL%2,                Mario%Malerba%NULL%0,                Giulia Francesca%Manfredi%NULL%2,                Giulia Francesca%Manfredi%NULL%0,                Maria%Martelli%NULL%2,                Maria%Martelli%NULL%0,                Letizia%Marzari%NULL%2,                Letizia%Marzari%NULL%0,                Paolo%Marzullo%NULL%2,                Paolo%Marzullo%NULL%0,                Marco%Mennuni%NULL%2,                Marco%Mennuni%NULL%0,                Claudia%Montabone%NULL%2,                Claudia%Montabone%NULL%0,                Umberto%Morosini%NULL%2,                Umberto%Morosini%NULL%0,                Marco%Mussa%NULL%2,                Marco%Mussa%NULL%0,                Ilaria%Nerici%NULL%2,                Ilaria%Nerici%NULL%0,                Alessandro%Nuzzo%NULL%2,                Alessandro%Nuzzo%NULL%0,                Carlo%Olivieri%NULL%2,                Carlo%Olivieri%NULL%0,                Samuel Alberto%Padelli%NULL%2,                Samuel Alberto%Padelli%NULL%0,                Massimiliano%Panella%NULL%2,                Massimiliano%Panella%NULL%0,                Andrea%Parisini%NULL%2,                Andrea%Parisini%NULL%0,                Alessio%Paschè%NULL%2,                Alessio%Paschè%NULL%0,                Filippo%Patrucco%NULL%2,                Filippo%Patrucco%NULL%0,                Giuseppe%Patti%NULL%2,                Giuseppe%Patti%NULL%0,                Alberto%Pau%NULL%2,                Alberto%Pau%NULL%0,                Anita Rebecca%Pedrinelli%NULL%2,                Anita Rebecca%Pedrinelli%NULL%0,                Ilaria%Percivale%NULL%2,                Ilaria%Percivale%NULL%0,                Luca%Ragazzoni%NULL%2,                Luca%Ragazzoni%NULL%0,                Roberta%Re%NULL%2,                Roberta%Re%NULL%0,                Cristina%Rigamonti%NULL%2,                Cristina%Rigamonti%NULL%0,                Eleonora%Rizzi%NULL%2,                Eleonora%Rizzi%NULL%0,                Andrea%Rognoni%NULL%2,                Andrea%Rognoni%NULL%0,                Annalisa%Roveta%NULL%2,                Annalisa%Roveta%NULL%0,                Luigia%Salamina%NULL%2,                Luigia%Salamina%NULL%0,                Matteo%Santagostino%NULL%2,                Matteo%Santagostino%NULL%0,                Massimo%Saraceno%NULL%2,                Massimo%Saraceno%NULL%0,                Paola%Savoia%NULL%2,                Paola%Savoia%NULL%0,                Marco%Sciarra%NULL%2,                Marco%Sciarra%NULL%0,                Andrea%Schimmenti%NULL%2,                Andrea%Schimmenti%NULL%0,                Lorenza%Scotti%NULL%2,                Lorenza%Scotti%NULL%0,                Enrico%Spinoni%NULL%2,                Enrico%Spinoni%NULL%0,                Carlo%Smirne%NULL%2,                Carlo%Smirne%NULL%0,                Vanessa%Tarantino%NULL%2,                Vanessa%Tarantino%NULL%0,                Paolo Amedeo%Tillio%NULL%2,                Paolo Amedeo%Tillio%NULL%0,                Stelvio%Tonello%NULL%2,                Stelvio%Tonello%NULL%0,                Rosanna%Vaschetto%NULL%2,                Rosanna%Vaschetto%NULL%0,                Veronica%Vassia%NULL%2,                Veronica%Vassia%NULL%0,                Domenico%Zagaria%NULL%2,                Domenico%Zagaria%NULL%0,                Elisa%Zavattaro%NULL%2,                Elisa%Zavattaro%NULL%0,                Patrizia%Zeppegno%NULL%2,                Patrizia%Zeppegno%NULL%0,                Francesca%Zottarelli%NULL%2,                Francesca%Zottarelli%NULL%0,                Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                Marta%Ottone%NULL%2,                Marta%Ottone%NULL%0,                Tommaso%Fasano%NULL%1,                Pierpaolo%Pattacini%NULL%1,                Valentina%Iotti%NULL%1,                Lucia%Spaggiari%NULL%1,                Riccardo%Bonacini%NULL%1,                Andrea%Nitrosi%NULL%1,                Efrem%Bonelli%NULL%1,                Simone%Canovi%NULL%1,                Rossana%Colla%NULL%1,                Alessandro%Zerbini%NULL%1,                Marco%Massari%NULL%1,                Ivana%Lattuada%NULL%1,                Anna Maria%Ferrari%NULL%1,                Paolo%Giorgi Rossi%NULL%1,                Massimo%Costantini%NULL%1,                Roberto%Grilli%NULL%1,                Massimiliano%Marino%NULL%1,                Giulio%Formoso%NULL%1,                Debora%Formisano%NULL%1,                Emanuela%Bedeschi%NULL%1,                Cinzia%Perilli%NULL%1,                Elisabetta%La Rosa%NULL%1,                Eufemia%Bisaccia%NULL%1,                Ivano%Venturi%NULL%1,                Massimo%Vicentini%NULL%1,                Cinzia%Campari%NULL%1,                Francesco%Gioia%NULL%1,                Serena%Broccoli%NULL%1,                Pamela%Mancuso%NULL%1,                Marco%Foracchia%NULL%1,                Mirco%Pinotti%NULL%1,                Nicola%Facciolongo%NULL%1,                Laura%Trabucco%NULL%1,                Stefano%De Pietri%NULL%1,                Giorgio Francesco%Danelli%NULL%1,                Laura%Albertazzi%NULL%1,                Enrica%Bellesia%NULL%1,                Mattia%Corradini%NULL%1,                Elena%Magnani%NULL%1,                Annalisa%Pilia%NULL%1,                Alessandra%Polese%NULL%1,                Silvia Storchi%Incerti%NULL%1,                Piera%Zaldini%NULL%1,                Bonanno%Orsola%NULL%1,                Matteo%Revelli%NULL%1,                Carlo%Salvarani%NULL%1,                Carmine%Pinto%NULL%1,                Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                Hong-Qiu%Gu%NULL%1,                Yi%Liu (刘艺)%NULL%1,                Guqin%Zhang%NULL%1,                Hang%Yang%NULL%1,                Huifang%Hu%NULL%1,                Chenyang%Lu%NULL%1,                Yang%Li%NULL%3,                Liyi%Wang%NULL%1,                Yi%Liu (刘毅)%yi2006liu@163.com%1,                Yi%Zhao%zhao.y1977@163.com%1,                Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                Tawsifur%Rahman%NULL%2,                Tawsifur%Rahman%NULL%0,                Amith%Khandakar%NULL%3,                Somaya%Al-Madeed%NULL%2,                Susu M.%Zughaier%NULL%5,                Suhail A. R.%Doi%NULL%3,                Hanadi%Hassen%NULL%1,                Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                Jia%Sun%NULL%1,                Yi-Xin%Li%NULL%1,                Qian%Chen%NULL%0,                Qing-Quan%Liu%NULL%1,                Zhou%Sun%NULL%1,                Ran%Pang%NULL%1,                Fei%Chen%NULL%1,                Bing-Yang%Xu%NULL%1,                Anne%Manyande%NULL%1,                Taane G%Clark%NULL%1,                Jin-Ping%Li%NULL%1,                Ilkay Erdogan%Orhan%NULL%1,                Yu-Ke%Tian%NULL%1,                Tao%Wang%wt7636@126.com%0,                Wei%Wu%wt7636@126.com%1,                Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,         Xinyan%Cai%xref no email%1,         Robert%Lennon%xref no email%1,         Derjung M.%Tarn%xref no email%1,         Arch G.%Mainous%xref no email%1,         Aleksandra E.%Zgierska%xref no email%1,         Bruce%Barrett%xref no email%1,         Wen-Jan%Tuan%xref no email%1,         Kevin%Maloy%xref no email%1,         Munish%Goyal%xref no email%1,         Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,             Imam%Z%coreGivesNoEmail%1,             Lippi%G%coreGivesNoEmail%1,             Oran%DP%coreGivesNoEmail%1,             Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                Caiping%Song%NULL%1,                En%Liu%NULL%1,                Xi%Liu%NULL%1,                Hao%Wu%NULL%1,                Hui%Lin%NULL%1,                Yuliang%Liu%NULL%1,                Qi%Li%NULL%1,                Zhi%Xu%NULL%1,                XiaoBao%Ren%NULL%1,                Cheng%Zhang%NULL%1,                Wenjing%Zhang%NULL%1,                Wei%Duan%NULL%2,                Yongfeng%Tian%NULL%1,                Ping%Li%NULL%1,                Mingdong%Hu%NULL%1,                Shiming%Yang%NULL%1,                Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                Changli%Li%NULL%1,                Li%Zheng%NULL%1,                Wenzhi%Lv%NULL%0,                Zhigang%He%NULL%1,                Xinwu%Cui%NULL%1,                Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,         Liang%Li%xref no email%1,         Li%Wang%xref no email%1,         Huan%Liu%xref no email%2,         Xuefang%Lu%xref no email%1,         Feifei%Zeng%xref no email%1,         Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                Hayne Cho%Park%NULL%2,                Hayne Cho%Park%NULL%0,                Ajin%Cho%NULL%1,                Juhee%Kim%NULL%1,                Kyu-sang%Yun%NULL%1,                Jinseog%Kim%NULL%1,                Young-Ki%Lee%NULL%1,                Sinan%Kardes.%NULL%2,                Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,         Luyu%Yang%xref no email%1,         Qian%Zeng%xref no email%1,         Qingyun%Li%xref no email%1,         Zhitao%Yang%xref no email%1,         Lizhong%Han%xref no email%1,         Xiaodong%Huang%xref no email%1,         Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                Xiaoyu%Fang%NULL%1,                Lixia%Cheng%NULL%1,                Penghao%Wang%NULL%1,                Shen%Li%NULL%1,                Hao%Yu%NULL%1,                Yao%Zhang%NULL%2,                Nan%Jiang%NULL%1,                Tingting%Zeng%NULL%1,                Chao%Hou%NULL%1,                Jing%Zhou%NULL%0,                Shiru%Li%NULL%1,                Yingzi%Pan%NULL%1,                Yitong%Li%NULL%1,                Lili%Nie%NULL%1,                Yang%Li%NULL%0,                Qidi%Sun%NULL%1,                Hong%Jia%NULL%1,                Mengxia%Li%NULL%1,                Guoqiang%Cao%NULL%1,                Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                Lucas A%Ramos%NULL%2,                Lucas A%Ramos%NULL%0,                Wouter%Potters%NULL%1,                Marcus L F%Janssen%NULL%1,                Deborah%Hubers%NULL%1,                Shi%Hu%NULL%1,                Egill A%Fridgeirsson%NULL%1,                Dan%Piña-Fuentes%NULL%1,                Rajat%Thomas%NULL%1,                Iwan C C%van der Horst%NULL%1,                Christian%Herff%NULL%2,                Christian%Herff%NULL%0,                Pieter%Kubben%NULL%1,                Paul W G%Elbers%NULL%1,                Henk A%Marquering%NULL%1,                Max%Welling%NULL%1,                Suat%Simsek%NULL%1,                Martijn D%de Kruif%NULL%1,                Tom%Dormans%NULL%1,                Lucas M%Fleuren%NULL%1,                Michiel%Schinkel%NULL%1,                Peter G%Noordzij%NULL%1,                Joop P%van den Bergh%NULL%2,                Joop P%van den Bergh%NULL%0,                Caroline E%Wyers%NULL%1,                David T B%Buis%NULL%2,                David T B%Buis%NULL%0,                W Joost%Wiersinga%NULL%1,                Ella H C%van den Hout%NULL%1,                Auke C%Reidinga%NULL%1,                Daisy%Rusch%NULL%1,                Kim C E%Sigaloff%NULL%1,                Renee A%Douma%NULL%1,                Lianne%de Haan%NULL%1,                Niels C%Gritters van den Oever%NULL%1,                Roger J M W%Rennenberg%NULL%1,                Guido A%van Wingen%NULL%1,                Marcel J H%Aries%NULL%1,                Martijn%Beudel%NULL%2,                Martijn%Beudel%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                Fajer A.%Al-Ishaq%NULL%2,                Fajer A.%Al-Ishaq%NULL%0,                Fatima S.%Al-Mohannadi%NULL%1,                Reem S.%Mubarak%NULL%1,                Maryam H.%Al-Hitmi%NULL%1,                Khandaker Reajul%Islam%NULL%1,                Amith%Khandakar%NULL%0,                Ali Ait%Hssain%NULL%3,                Ali Ait%Hssain%NULL%0,                Somaya%Al-Madeed%NULL%0,                Susu M.%Zughaier%NULL%0,                Susu M.%Zughaier%NULL%0,                Muhammad E. H.%Chowdhury%NULL%3,                Muhammad E. H.%Chowdhury%NULL%0,                Antonella%Santone%NULL%3,                Antonella%Santone%NULL%0,                Antonella%Santone%NULL%0,                Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                Amith%Khandakar%NULL%0,                Md Enamul%Hoque%NULL%2,                Md Enamul%Hoque%NULL%0,                Nabil%Ibtehaz%NULL%2,                Nabil%Ibtehaz%NULL%0,                Saad Bin%Kashem%NULL%2,                Saad Bin%Kashem%NULL%0,                Reehum%Masud%NULL%1,                Lutfunnahar%Shampa%NULL%1,                Mohammad Mehedi%Hasan%NULL%1,                Mohammad Tariqul%Islam%NULL%1,                Somaya%Al-Maadeed%NULL%2,                Somaya%Al-Maadeed%NULL%0,                Susu M.%Zughaier%NULL%0,                Susu M.%Zughaier%NULL%0,                Saif%Badran%NULL%2,                Saif%Badran%NULL%0,                Suhail A. R.%Doi%NULL%0,                Suhail A. R.%Doi%NULL%0,                Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                Pablo%Rodríguez-Belenguer%NULL%2,                Pablo%Rodríguez-Belenguer%NULL%0,                Antonio J.%Serrano-López%NULL%1,                Emilio%Soria-Olivas%NULL%2,                Emilio%Soria-Olivas%NULL%0,                Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                Haibo%Ai%NULL%1,                Yunong%Fu%NULL%1,                Qinglin%Li%NULL%1,                Ruixia%Cui%NULL%1,                Xiaohua%Ma%NULL%1,                Yan-fen%Ma%NULL%1,                Zi%Wang%NULL%1,                Tong%Liu%NULL%1,                Yunxiang%Long%NULL%1,                Kai%Qu%NULL%1,                Chang%Liu%NULL%1,                Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,         Rongqing%Sun%xref no email%1,         Wenbo%Sun%xref no email%1,         Dan%Xu%xref no email%1,         Lan%Lan%xref no email%1,         Huan%Li%xref no email%1,         Huan%Liu%xref no email%0,         Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                Dawei%Zhang%NULL%1,                Jing%Xu%NULL%6,                Zhu%Chen%NULL%1,                Tieniu%Yang%NULL%1,                Peng%Zhao%NULL%2,                Guofeng%Chen%NULL%1,                Gregory%Cheng%NULL%1,                Yudong%Wang%NULL%1,                Jingfeng%Bi%NULL%1,                Lin%Tan%NULL%1,                George%Lau%NULL%1,                Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                Giulia%Suigo%NULL%1,                Davide%Zampini%NULL%1,                Matteo%Pistoia%NULL%1,                Mariella%Ciola%NULL%1,                Tommaso%Ciampani%NULL%1,                Carolina%Ultori%NULL%1,                Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                John R%Adler%NULL%3,                Sultan M%Kamran%NULL%2,                Sultan M%Kamran%NULL%0,                Zill-e-Humayun%Mirza%NULL%1,                Hussain Abdul%Moeed%NULL%1,                Arshad%Naseem%NULL%1,                Maryam%Hussain%NULL%1,                Imran%Fazal%NULL%1,                Farrukh%Saeed%NULL%1,                Wasim%Alamgir%NULL%1,                Salman%Saleem%NULL%1,                Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,         Zilong%Liu%xref no email%1,         Weipeng%Jiang%xref no email%1,         Jian%Wang%xref no email%4,         Mengchan%Zhu%xref no email%1,         Juan%Song%xref no email%0,         Xiaoyue%Wang%xref no email%1,         Ying%Su%xref no email%1,         Guiling%Xiang%xref no email%1,         Maosong%Ye%xref no email%1,         Jiamin%Li%xref no email%1,         Yong%Zhang%xref no email%1,         Qinjun%Shen%xref no email%1,         Zhuozhe%Li%xref no email%1,         Danwei%Yao%xref no email%1,         Yuanlin%Song%xref no email%0,         Kaihuan%Yu%xref no email%1,         Zhe%Luo%xref no email%1,         Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                María M.%Martín%NULL%1,                Mónica%Argueso%NULL%1,                Jordi%Solé-Violán%NULL%1,                Alina%Perez%NULL%1,                José Alberto%Marcos Y Ramos%NULL%1,                Luis%Ramos-Gómez%NULL%1,                Sergio%López%NULL%1,                Andrés%Franco%NULL%1,                Agustín F.%González-Rivero%NULL%1,                María%Martín%NULL%1,                Verónica%Gonzalez%NULL%1,                Julia%Alcoba-Flórez%NULL%1,                Miguel Ángel%Rodriguez%NULL%1,                Marta%Riaño-Ruiz%NULL%1,                Juan%Guillermo O Campo%NULL%1,                Lourdes%González%NULL%1,                Tamara%Cantera%NULL%1,                Raquel%Ortiz-López%NULL%1,                Nazario%Ojeda%NULL%1,                Aurelio%Rodríguez-Pérez%NULL%1,                Casimira%Domínguez%NULL%1,                Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                Rita%Kukafka%NULL%1,                Arriel%Benis%NULL%2,                Arriel%Benis%NULL%0,                Jinfeng%Li%NULL%1,                Pan%Pan%NULL%2,                Pan%Pan%NULL%0,                Yichao%Li%NULL%2,                Yichao%Li%NULL%0,                Yongjiu%Xiao%NULL%2,                Yongjiu%Xiao%NULL%0,                Bingchao%Han%NULL%2,                Bingchao%Han%NULL%0,                Longxiang%Su%NULL%2,                Longxiang%Su%NULL%0,                Mingliang%Su%NULL%2,                Mingliang%Su%NULL%0,                Yansheng%Li%NULL%2,                Yansheng%Li%NULL%0,                Siqi%Zhang%NULL%2,                Siqi%Zhang%NULL%0,                Dapeng%Jiang%NULL%2,                Dapeng%Jiang%NULL%0,                Xia%Chen%NULL%2,                Xia%Chen%NULL%0,                Fuquan%Zhou%NULL%2,                Fuquan%Zhou%NULL%0,                Ling%Ma%NULL%2,                Ling%Ma%NULL%0,                Pengtao%Bao%NULL%2,                Pengtao%Bao%NULL%0,                Lixin%Xie%xielx301@126.com%2,                Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                Cristina%Roca-Oporto%NULL%2,                Guillermo%Martín-Gutiérrez%NULL%2,                María Dolores%Avilés%NULL%2,                Carmen%Gómez-González%NULL%2,                María Dolores%Navarro-Amuedo%NULL%2,                Julia%Praena-Segovia%NULL%2,                José%Molina%NULL%2,                María%Paniagua-García%NULL%2,                Horacio%García-Delgado%NULL%2,                Antonio%Domínguez-Petit%NULL%2,                Jerónimo%Pachón%NULL%2,                José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                Barry R.%Meisenberg%NULL%2,                Barry R.%Meisenberg%NULL%0,                James H.%MacDonald%NULL%1,                Nandakumar%Menon%NULL%1,                Marcia B.%Fowler%NULL%1,                Michaline%West%NULL%1,                Jane%Rhule%NULL%1,                Sadaf S.%Qureshi%NULL%1,                Eileen B.%MacDonald%NULL%1,                Yu Ru%Kou%NULL%2,                Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                Sarah%Poole%NULL%2,                Sarah%Poole%NULL%0,                Meeta%Pradhan%NULL%1,                Akhil%Vaid%NULL%3,                Akhil%Vaid%NULL%0,                Sulaiman%Somani%NULL%3,                Sulaiman%Somani%NULL%0,                Adam J%Russak%NULL%2,                Adam J%Russak%NULL%0,                Jessica K%De Freitas%NULL%2,                Jessica K%De Freitas%NULL%0,                Fayzan F%Chaudhry%NULL%2,                Fayzan F%Chaudhry%NULL%0,                Ishan%Paranjpe%NULL%3,                Ishan%Paranjpe%NULL%0,                Kipp W%Johnson%NULL%2,                Kipp W%Johnson%NULL%0,                Samuel J%Lee%NULL%2,                Samuel J%Lee%NULL%0,                Riccardo%Miotto%NULL%2,                Riccardo%Miotto%NULL%0,                Felix%Richter%NULL%3,                Felix%Richter%NULL%0,                Shan%Zhao%NULL%3,                Shan%Zhao%NULL%0,                Noam D%Beckmann%NULL%2,                Noam D%Beckmann%NULL%0,                Nidhi%Naik%NULL%2,                Nidhi%Naik%NULL%0,                Arash%Kia%NULL%2,                Arash%Kia%NULL%0,                Prem%Timsina%NULL%2,                Prem%Timsina%NULL%0,                Anuradha%Lala%NULL%2,                Anuradha%Lala%NULL%0,                Manish%Paranjpe%NULL%2,                Manish%Paranjpe%NULL%0,                Eddye%Golden%NULL%2,                Eddye%Golden%NULL%0,                Matteo%Danieletto%NULL%2,                Matteo%Danieletto%NULL%0,                Manbir%Singh%NULL%2,                Manbir%Singh%NULL%0,                Dara%Meyer%NULL%2,                Dara%Meyer%NULL%0,                Paul F%O'Reilly%NULL%2,                Paul F%O'Reilly%NULL%0,                Laura%Huckins%NULL%2,                Laura%Huckins%NULL%0,                Patricia%Kovatch%NULL%2,                Patricia%Kovatch%NULL%0,                Joseph%Finkelstein%NULL%2,                Joseph%Finkelstein%NULL%0,                Robert M.%Freeman%NULL%2,                Robert M.%Freeman%NULL%0,                Edgar%Argulian%NULL%2,                Edgar%Argulian%NULL%0,                Andrew%Kasarskis%NULL%2,                Andrew%Kasarskis%NULL%0,                Bethany%Percha%NULL%2,                Bethany%Percha%NULL%0,                Judith A%Aberg%NULL%2,                Judith A%Aberg%NULL%0,                Emilia%Bagiella%NULL%3,                Emilia%Bagiella%NULL%0,                Carol R%Horowitz%NULL%2,                Carol R%Horowitz%NULL%0,                Barbara%Murphy%NULL%2,                Barbara%Murphy%NULL%0,                Eric J%Nestler%NULL%2,                Eric J%Nestler%NULL%0,                Eric E%Schadt%NULL%2,                Eric E%Schadt%NULL%0,                Judy H%Cho%NULL%2,                Judy H%Cho%NULL%0,                Carlos%Cordon-Cardo%NULL%2,                Carlos%Cordon-Cardo%NULL%0,                Valentin%Fuster%NULL%3,                Valentin%Fuster%NULL%0,                Dennis S%Charney%NULL%2,                Dennis S%Charney%NULL%0,                David L%Reich%NULL%2,                David L%Reich%NULL%0,                Erwin P%Bottinger%NULL%2,                Erwin P%Bottinger%NULL%0,                Matthew A%Levin%NULL%2,                Matthew A%Levin%NULL%0,                Jagat%Narula%NULL%3,                Jagat%Narula%NULL%0,                Zahi A%Fayad%NULL%2,                Zahi A%Fayad%NULL%0,                Allan C%Just%NULL%2,                Allan C%Just%NULL%0,                Alexander W%Charney%NULL%2,                Alexander W%Charney%NULL%0,                Girish N%Nadkarni%NULL%2,                Girish N%Nadkarni%NULL%0,                Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                Anne%Chen%NULL%2,                Wei%Hou%NULL%3,                James M.%Graham%NULL%1,                Haifang%Li%NULL%2,                Paul S.%Richman%NULL%1,                Henry C.%Thode%NULL%1,                Adam J.%Singer%NULL%1,                Tim Q.%Duong%NULL%1,                Muhammad%Adrish%NULL%9,                Muhammad%Adrish%NULL%0,                Muhammad%Adrish%NULL%0,                Muhammad%Adrish%NULL%0,                Muhammad%Adrish%NULL%0,                Muhammad%Adrish%NULL%0,                Muhammad%Adrish%NULL%0,                Muhammad%Adrish%NULL%0,                Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                Qin%Liu%NULL%2,                Xiao%Zhang%NULL%2,                Shuyi%Liu%NULL%1,                Weiqi%Chen%NULL%1,                Jingjing%You%NULL%1,                Qiuying%Chen%NULL%1,                Minmin%Li%NULL%1,                Zhuozhi%Chen%NULL%1,                Luyan%Chen%NULL%1,                Lv%Chen%NULL%1,                Yuhao%Dong%NULL%1,                Qingsi%Zeng%NULL%1,                Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                Lei%Nie%NULL%1,                Dongde%Wu%NULL%1,                Jian%Chen%NULL%2,                Zhifeng%Yang%NULL%1,                Ling%Zhang%NULL%3,                Dongqing%Li%NULL%1,                Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,         Feiyang%Zhong%xref no email%1,         Hanfei%Zhang%xref no email%1,         Wenting%An%xref no email%1,         Meiyan%Liao%xref no email%1,         Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                Burcin%Hakoglu%NULL%2,                Burcin%Hakoglu%NULL%0,                Ali%Kadri Cirak%NULL%1,                Gulru%Polat%NULL%1,                Berna%Komurcuoglu%NULL%1,                Berrin%Akkol%NULL%1,                Cagri%Atasoy%NULL%1,                Eda%Bayramic%NULL%1,                Gunseli%Balci%NULL%1,                Sena%Ataman%NULL%1,                Sinem%Ermin%NULL%1,                Enver%Yalniz%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1,         Lili%Huang%xref no email%1,         Jin%Chen%xref no email%1,         Xiaowei%Yuan%xref no email%1,         Qinhua%Shen%xref no email%1,         Su%Dong%xref no email%1,         Bei%Cheng%xref no email%1,         Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                Qiaosen%Chen%NULL%2,                Qiaosen%Chen%NULL%0,                Sumeng%Li%NULL%1,                Huadong%Li%NULL%1,                Qian%Zhang%NULL%1,                Sihong%Lu%NULL%1,                Li%Wu%NULL%1,                Leiqun%Xiong%NULL%1,                Bobin%Mi%NULL%1,                Di%Liu%NULL%3,                Mengji%Lu%NULL%1,                Dongliang%Yang%NULL%1,                Hongbo%Jiang%hongbojiang3@163.com%1,                Shaoping%Zheng%zhengspxx@126.com%1,                Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                Hua%Zhang%NULL%2,                Rui%Qiao%NULL%1,                Qinggang%Ge%NULL%1,                Shuisheng%Zhang%NULL%1,                Zongxuan%Zhao%NULL%1,                Ci%Tian%NULL%1,                Qingbian%Ma%NULL%2,                Qingbian%Ma%NULL%0,                Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                Antonia%Ho%NULL%2,                Riinu%Pius%NULL%2,                Iain%Buchan%NULL%1,                Gail%Carson%NULL%2,                Thomas M%Drake%NULL%1,                Jake%Dunning%NULL%2,                Cameron J%Fairfield%NULL%2,                Carrol%Gamble%NULL%2,                Christopher A%Green%NULL%2,                Rishi%Gupta%NULL%1,                Sophie%Halpin%NULL%2,                Hayley E%Hardwick%NULL%1,                Karl A%Holden%NULL%1,                Peter W%Horby%NULL%2,                Clare%Jackson%NULL%2,                Kenneth A%Mclean%NULL%2,                Laura%Merson%NULL%2,                Jonathan S%Nguyen-Van-Tam%NULL%1,                Lisa%Norman%NULL%2,                Mahdad%Noursadeghi%NULL%2,                Piero L%Olliaro%NULL%1,                Mark G%Pritchard%NULL%1,                Clark D%Russell%NULL%2,                Catherine A%Shaw%NULL%2,                Aziz%Sheikh%NULL%2,                Tom%Solomon%NULL%2,                Cathie%Sudlow%NULL%1,                Olivia V%Swann%NULL%1,                Lance CW%Turtle%NULL%2,                Peter JM%Openshaw%NULL%2,                J Kenneth%Baillie%NULL%2,                Malcolm G%Semple%NULL%3,                Annemarie B%Docherty%NULL%3,                Annemarie B%Docherty%NULL%0,                Ewen M%Harrison%NULL%3,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                J Kenneth%Baillie%NULL%0,                Malcolm G%Semple%NULL%0,                Peter JM%Openshaw%NULL%0,                Gail%Carson%NULL%0,                Beatrice%Alex%NULL%1,                Benjamin%Bach%NULL%1,                Wendy S%Barclay%NULL%1,                Debby%Bogaert%NULL%1,                Meera%Chand%NULL%1,                Graham S%Cooke%NULL%1,                Annemarie B%Docherty%NULL%0,                Jake%Dunning%NULL%0,                Ana%da Silva Filipe%NULL%1,                Tom%Fletcher%NULL%1,                Christopher A%Green%NULL%0,                Ewen M%Harrison%NULL%0,                Julian A%Hiscox%NULL%1,                Antonia Ying Wai%Ho%NULL%1,                Peter W%Horby%NULL%0,                Samreen%Ijaz%NULL%1,                Saye%Khoo%NULL%1,                Paul%Klenerman%NULL%1,                Andrew%Law%NULL%2,                Wei Shen%Lim%NULL%1,                Alexander J%Mentzer%NULL%1,                Laura%Merson%NULL%0,                Alison M%Meynert%NULL%1,                Mahdad%Noursadeghi%NULL%0,                Shona C%Moore%NULL%2,                Massimo%Palmarini%NULL%1,                William A%Paxton%NULL%1,                Georgios%Pollakis%NULL%1,                Nicholas%Price%NULL%1,                Andrew%Rambaut%NULL%1,                David L%Robertson%NULL%1,                Clark D%Russell%NULL%0,                Vanessa%Sancho-Shimizu%NULL%1,                Janet T%Scott%NULL%1,                Louise%Sigfrid%NULL%1,                Tom%Solomon%NULL%0,                Shiranee%Sriskandan%NULL%1,                David%Stuart%NULL%1,                Charlotte%Summers%NULL%1,                Richard S%Tedder%NULL%1,                Emma C%Thomson%NULL%1,                Ryan S%Thwaites%NULL%1,                Lance CW%Turtle%NULL%0,                Maria%Zambon%NULL%1,                Hayley%Hardwick%NULL%1,                Chloe%Donohue%NULL%1,                Jane%Ewins%NULL%1,                Wilna%Oosthuyzen%NULL%1,                Fiona%Griffiths%NULL%1,                Lisa%Norman%NULL%0,                Riinu%Pius%NULL%0,                Tom M%Drake%NULL%1,                Cameron J%Fairfield%NULL%0,                Stephen%Knight%NULL%1,                Kenneth A%Mclean%NULL%0,                Derek%Murphy%NULL%1,                Catherine A%Shaw%NULL%0,                Jo%Dalton%NULL%1,                Michelle%Girvan%NULL%1,                Egle%Saviciute%NULL%1,                Stephanie%Roberts%NULL%1,                Janet%Harrison%NULL%1,                Laura%Marsh%NULL%1,                Marie%Connor%NULL%1,                Sophie%Halpin%NULL%0,                Clare%Jackson%NULL%0,                Carrol%Gamble%NULL%0,                Gary%Leeming%NULL%1,                Andrew%Law%NULL%0,                Ross%Hendry%NULL%1,                James%Scott-Brown%NULL%1,                William%Greenhalf%NULL%1,                Victoria%Shaw%NULL%1,                Sarah%McDonald%NULL%2,                Katie A%Ahmed%NULL%1,                Jane A%Armstrong%NULL%1,                Milton%Ashworth%NULL%1,                Innocent G%Asiimwe%NULL%1,                Siddharth%Bakshi%NULL%1,                Samantha L%Barlow%NULL%1,                Laura%Booth%NULL%1,                Benjamin%Brennan%NULL%1,                Katie%Bullock%NULL%1,                Benjamin WA%Catterall%NULL%1,                Jordan J%Clark%NULL%1,                Emily A%Clarke%NULL%1,                Sarah%Cole%NULL%1,                Louise%Cooper%NULL%1,                Helen%Cox%NULL%1,                Christopher%Davis%NULL%1,                Oslem%Dincarslan%NULL%1,                Chris%Dunn%NULL%1,                Philip%Dyer%NULL%1,                Angela%Elliott%NULL%1,                Anthony%Evans%NULL%1,                Lewis WS%Fisher%NULL%1,                Terry%Foster%NULL%1,                Isabel%Garcia-Dorival%NULL%1,                Willliam%Greenhalf%NULL%1,                Philip%Gunning%NULL%1,                Catherine%Hartley%NULL%1,                Antonia%Ho%NULL%0,                Rebecca L%Jensen%NULL%1,                Christopher B%Jones%NULL%1,                Trevor R%Jones%NULL%1,                Shadia%Khandaker%NULL%1,                Katharine%King%NULL%1,                Robyn T%Kiy%NULL%1,                Chrysa%Koukorava%NULL%1,                Annette%Lake%NULL%1,                Suzannah%Lant%NULL%1,                Diane%Latawiec%NULL%1,                L%Lavelle-Langham%NULL%1,                Daniella%Lefteri%NULL%1,                Lauren%Lett%NULL%1,                Lucia A%Livoti%NULL%1,                Maria%Mancini%NULL%1,                Sarah%McDonald%NULL%0,                Laurence%McEvoy%NULL%1,                John%McLauchlan%NULL%1,                Soeren%Metelmann%NULL%1,                Nahida S%Miah%NULL%1,                Joanna%Middleton%NULL%1,                Joyce%Mitchell%NULL%1,                Shona C%Moore%NULL%0,                Ellen G%Murphy%NULL%1,                Rebekah%Penrice-Randal%NULL%1,                Jack%Pilgrim%NULL%1,                Tessa%Prince%NULL%1,                Will%Reynolds%NULL%1,                P Matthew%Ridley%NULL%1,                Debby%Sales%NULL%1,                Victoria E%Shaw%NULL%1,                Rebecca K%Shears%NULL%1,                Benjamin%Small%NULL%1,                Krishanthi S%Subramaniam%NULL%1,                Agnieska%Szemiel%NULL%1,                Aislynn%Taggart%NULL%1,                Jolanta%Tanianis-Hughes%NULL%1,                Jordan%Thomas%NULL%1,                Erwan%Trochu%NULL%1,                Libby%van Tonder%NULL%1,                Eve%Wilcock%NULL%1,                J Eunice%Zhang%NULL%1,                Kayode%Adeniji%NULL%1,                Daniel%Agranoff%NULL%1,                Ken%Agwuh%NULL%1,                Dhiraj%Ail%NULL%1,                Ana%Alegria%NULL%1,                Brian%Angus%NULL%1,                Abdul%Ashish%NULL%1,                Dougal%Atkinson%NULL%1,                Shahedal%Bari%NULL%1,                Gavin%Barlow%NULL%1,                Stella%Barnass%NULL%1,                Nicholas%Barrett%NULL%2,                Christopher%Bassford%NULL%1,                David%Baxter%NULL%1,                Michael%Beadsworth%NULL%1,                Jolanta%Bernatoniene%NULL%1,                John%Berridge%NULL%1,                Nicola%Best%NULL%1,                Pieter%Bothma%NULL%1,                David%Brealey%NULL%1,                Robin%Brittain-Long%NULL%1,                Naomi%Bulteel%NULL%1,                Tom%Burden%NULL%1,                Andrew%Burtenshaw%NULL%1,                Vikki%Caruth%NULL%1,                David%Chadwick%NULL%1,                Duncan%Chambler%NULL%1,                Nigel%Chee%NULL%1,                Jenny%Child%NULL%1,                Srikanth%Chukkambotla%NULL%1,                Tom%Clark%NULL%1,                Paul%Collini%NULL%1,                Catherine%Cosgrove%NULL%1,                Jason%Cupitt%NULL%1,                Maria-Teresa%Cutino-Moguel%NULL%1,                Paul%Dark%NULL%1,                Chris%Dawson%NULL%1,                Samir%Dervisevic%NULL%1,                Phil%Donnison%NULL%1,                Sam%Douthwaite%NULL%1,                Ingrid%DuRand%NULL%1,                Ahilanadan%Dushianthan%NULL%1,                Tristan%Dyer%NULL%1,                Cariad%Evans%NULL%1,                Chi%Eziefula%NULL%1,                Chrisopher%Fegan%NULL%1,                Adam%Finn%NULL%1,                Duncan%Fullerton%NULL%1,                Sanjeev%Garg%NULL%2,                Sanjeev%Garg%NULL%0,                Atul%Garg%NULL%1,                Jo%Godden%NULL%1,                Arthur%Goldsmith%NULL%1,                Clive%Graham%NULL%1,                Elaine%Hardy%NULL%1,                Stuart%Hartshorn%NULL%1,                Daniel%Harvey%NULL%1,                Peter%Havalda%NULL%1,                Daniel B%Hawcutt%NULL%1,                Maria%Hobrok%NULL%1,                Luke%Hodgson%NULL%1,                Anita%Holme%NULL%1,                Anil%Hormis%NULL%1,                Michael%Jacobs%NULL%1,                Susan%Jain%NULL%1,                Paul%Jennings%NULL%1,                Agilan%Kaliappan%NULL%1,                Vidya%Kasipandian%NULL%1,                Stephen%Kegg%NULL%1,                Michael%Kelsey%NULL%1,                Jason%Kendall%NULL%1,                Caroline%Kerrison%NULL%1,                Ian%Kerslake%NULL%1,                Oliver%Koch%NULL%2,                Gouri%Koduri%NULL%1,                George%Koshy%NULL%1,                Shondipon%Laha%NULL%1,                Susan%Larkin%NULL%1,                Tamas%Leiner%NULL%1,                Patrick%Lillie%NULL%1,                James%Limb%NULL%1,                Vanessa%Linnett%NULL%1,                Jeff%Little%NULL%1,                Michael%MacMahon%NULL%1,                Emily%MacNaughton%NULL%1,                Ravish%Mankregod%NULL%1,                Huw%Masson%NULL%1,                Elijah%Matovu%NULL%1,                Katherine%McCullough%NULL%1,                Ruth%McEwen%NULL%1,                Manjula%Meda%NULL%1,                Gary%Mills%NULL%1,                Jane%Minton%NULL%1,                Mariyam%Mirfenderesky%NULL%1,                Kavya%Mohandas%NULL%1,                Quen%Mok%NULL%1,                James%Moon%NULL%1,                Elinoor%Moore%NULL%1,                Patrick%Morgan%NULL%1,                Craig%Morris%NULL%1,                Katherine%Mortimore%NULL%1,                Samuel%Moses%NULL%1,                Mbiye%Mpenge%NULL%1,                Rohinton%Mulla%NULL%1,                Michael%Murphy%NULL%1,                Megan%Nagel%NULL%1,                Thapas%Nagarajan%NULL%1,                Mark%Nelson%NULL%1,                Igor%Otahal%NULL%1,                Mark%Pais%NULL%1,                Selva%Panchatsharam%NULL%1,                Hassan%Paraiso%NULL%1,                Brij%Patel%NULL%1,                Justin%Pepperell%NULL%1,                Mark%Peters%NULL%1,                Mandeep%Phull%NULL%1,                Stefania%Pintus%NULL%1,                Jagtur Singh%Pooni%NULL%1,                Frank%Post%NULL%1,                David%Price%NULL%1,                Rachel%Prout%NULL%1,                Nikolas%Rae%NULL%1,                Henrik%Reschreiter%NULL%1,                Tim%Reynolds%NULL%1,                Neil%Richardson%NULL%1,                Mark%Roberts%NULL%1,                Devender%Roberts%NULL%1,                Alistair%Rose%NULL%1,                Guy%Rousseau%NULL%1,                Brendan%Ryan%NULL%1,                Taranprit%Saluja%NULL%1,                Aarti%Shah%NULL%1,                Prad%Shanmuga%NULL%1,                Anil%Sharma%NULL%1,                Anna%Shawcross%NULL%1,                Jeremy%Sizer%NULL%1,                Richard%Smith%NULL%1,                Catherine%Snelson%NULL%1,                Nick%Spittle%NULL%1,                Nikki%Staines%NULL%1,                Tom%Stambach%NULL%1,                Richard%Stewart%NULL%1,                Pradeep%Subudhi%NULL%1,                Tamas%Szakmany%NULL%1,                Kate%Tatham%NULL%1,                Jo%Thomas%NULL%1,                Chris%Thompson%NULL%1,                Robert%Thompson%NULL%1,                Ascanio%Tridente%NULL%1,                Darell%Tupper-Carey%NULL%1,                Mary%Twagira%NULL%1,                Andrew%Ustianowski%NULL%1,                Nick%Vallotton%NULL%1,                Lisa%Vincent-Smith%NULL%1,                Shico%Visuvanathan%NULL%1,                Alan%Vuylsteke%NULL%1,                Sam%Waddy%NULL%1,                Rachel%Wake%NULL%1,                Andrew%Walden%NULL%1,                Ingeborg%Welters%NULL%1,                Tony%Whitehouse%NULL%1,                Paul%Whittaker%NULL%1,                Ashley%Whittington%NULL%1,                Meme%Wijesinghe%NULL%1,                Martin%Williams%NULL%1,                Lawrence%Wilson%NULL%1,                Sarah%Wilson%NULL%1,                Stephen%Winchester%NULL%1,                Martin%Wiselka%NULL%1,                Adam%Wolverson%NULL%1,                Daniel G%Wooton%NULL%1,                Andrew%Workman%NULL%1,                Bryan%Yates%NULL%1,                Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                Braulio A.%Marfil‐Garza%NULL%1,                Erick%Martínez Rodríguez%NULL%1,                José Omar%Barreto Rodríguez%NULL%1,                Alicia Estela%López Romo%NULL%1,                Paolo%Alberti Minutti%NULL%1,                Juan Vicente%Alejandre Loya%NULL%1,                Félix Emmanuel%Pérez Talavera%NULL%1,                Freddy José%Ávila Cervera%NULL%1,                Adriana%Velazquez Burciaga%NULL%1,                Oscar%Morado Aramburo%NULL%1,                Luis Alberto%Piña Olguín%NULL%1,                Adrian%Soto‐Rodríguez%NULL%1,                Andrés%Castañeda Prado%NULL%1,                Patricio%Santillán Doherty%NULL%1,                Juan%O Galindo%NULL%1,                Luis Alberto%Guízar García%NULL%1,                Daniel%Hernández Gordillo%NULL%1,                Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                Aatish%Patel%NULL%1,                Esmita%Charani%NULL%1,                Sarah%Denny%NULL%1,                Saleh A.%Alqahtani%NULL%1,                Gary W.%Davies%NULL%1,                Nabeela%Mughal%NULL%1,                Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                Hyunsun%Lim%NULL%1,                Dong-Wook%Kim%NULL%1,                Jung Hyun%Chang%NULL%1,                Yoon Jung%Choi%chris316@yuhs.ac%1,                Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,         Rudong%Chen%xref no email%1,         Hongkuan%Yang%xref no email%1,         Junhong%Wang%xref no email%1,         Yuyang%Hou%xref no email%1,         Wei%Hu%xref no email%1,         Jiasheng%Yu%xref no email%1,         Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                Wenhua%Liang%NULL%3,                Mei%Jiang%NULL%2,                Weijie%Guan%NULL%3,                Chen%Zhan%NULL%2,                Tao%Wang%NULL%0,                Chunli%Tang%NULL%3,                Ling%Sang%NULL%3,                Jiaxing%Liu%NULL%2,                Zhengyi%Ni%NULL%2,                Yu%Hu%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%5,                Chunliang%Lei%NULL%2,                Yixiang%Peng%NULL%2,                Li%Wei%NULL%5,                Yong%Liu%NULL%5,                Yahua%Hu%NULL%2,                Peng%Peng%NULL%7,                Jianming%Wang%NULL%2,                Jiyang%Liu%NULL%2,                Zhong%Chen%NULL%5,                Gang%Li%NULL%5,                Zhijian%Zheng%NULL%2,                Shaoqin%Qiu%NULL%2,                Jie%Luo%NULL%5,                Changjiang%Ye%NULL%2,                Shaoyong%Zhu%NULL%2,                Xiaoqing%Liu%NULL%2,                Linling%Cheng%NULL%2,                Feng%Ye%NULL%2,                Jinping%Zheng%NULL%2,                Nuofu%Zhang%NULL%2,                Yimin%Li%NULL%2,                Jianxing%He%NULL%2,                Shiyue%Li%lishiyue@188.com%3,                Nanshan%Zhong%NULL%4,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                Liu%Hu%NULL%1,                Yiru%Wang%NULL%0,                Luyan%Huang%NULL%1,                Lingxi%Zhao%NULL%1,                Congcong%Zhang%NULL%1,                Xiyue%Liu%NULL%1,                Ranran%Xu%NULL%1,                Feng%Liu%NULL%0,                Jinping%Li%NULL%1,                Dawei%Ye%NULL%0,                Tao%Wang%NULL%0,                Yongman%Lv%lvyongman@126.com%0,                Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                Carol A C%Coupland%NULL%1,                Ruth H%Keogh%NULL%1,                Karla%Diaz-Ordaz%NULL%1,                Elizabeth%Williamson%NULL%1,                Ewen M%Harrison%NULL%0,                Andrew%Hayward%NULL%1,                Harry%Hemingway%NULL%1,                Peter%Horby%NULL%1,                Nisha%Mehta%NULL%1,                Jonathan%Benger%NULL%1,                Kamlesh%Khunti%NULL%0,                David%Spiegelhalter%NULL%1,                Aziz%Sheikh%NULL%0,                Jonathan%Valabhji%NULL%0,                Ronan A%Lyons%NULL%1,                John%Robson%NULL%1,                Malcolm G%Semple%NULL%0,                Frank%Kee%NULL%1,                Peter%Johnson%NULL%1,                Susan%Jebb%NULL%1,                Tony%Williams%NULL%1,                Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                Guang-Yao%Cai%NULL%1,                Wei%Fang%NULL%2,                Hua-Yi%Li%NULL%1,                Si-Yuan%Wang%NULL%2,                Si-Yuan%Wang%NULL%0,                Lingxi%Chen%NULL%1,                Yang%Yu%NULL%1,                Dan%Liu%NULL%0,                Sen%Xu%NULL%2,                Peng-Fei%Cui%NULL%1,                Shao-Qing%Zeng%NULL%2,                Shao-Qing%Zeng%NULL%0,                Xin-Xia%Feng%NULL%1,                Rui-Di%Yu%NULL%1,                Ya%Wang%NULL%2,                Yuan%Yuan%NULL%1,                Xiao-Fei%Jiao%NULL%1,                Jian-Hua%Chi%NULL%1,                Jia-Hao%Liu%NULL%1,                Ru-Yuan%Li%NULL%1,                Xu%Zheng%NULL%1,                Chun-Yan%Song%NULL%1,                Ning%Jin%NULL%1,                Wen-Jian%Gong%NULL%1,                Xing-Yu%Liu%NULL%1,                Lei%Huang%NULL%2,                Xun%Tian%NULL%1,                Lin%Li%NULL%1,                Hui%Xing%NULL%1,                Ding%Ma%NULL%1,                Chun-Rui%Li%NULL%1,                Fei%Ye%yeyuanbei@hotmail.com%1,                Qing-Lei%Gao%qingleigao@hotmail.com%2,                Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                Ang%Li%NULL%1,                Mengfan%Jiao%NULL%1,                Qingmiao%Shi%NULL%1,                Xiaocai%An%NULL%1,                Yonghai%Feng%NULL%1,                Lihua%Xing%NULL%1,                Hongxia%Liang%NULL%1,                Jiajun%Chen%NULL%1,                Huiling%Li%NULL%1,                Juan%Li%NULL%0,                Zhigang%Ren%NULL%1,                Ranran%Sun%NULL%1,                Guangying%Cui%NULL%1,                Yongjian%Zhou%NULL%1,                Ming%Cheng%NULL%1,                Pengfei%Jiao%NULL%1,                Yu%Wang%NULL%2,                Jiyuan%Xing%NULL%1,                Shen%Shen%NULL%1,                Qingxian%Zhang%NULL%1,                Aiguo%Xu%NULL%1,                Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                Michael%Ng%NULL%1,                Shuang%Xu%NULL%1,                Zhouming%Xu%NULL%1,                Hui%Qiu%NULL%1,                Yuwei%Liu%NULL%1,                Jiayou%Lyu%NULL%1,                Jiwen%You%NULL%1,                Peng%Zhao%NULL%0,                Shihao%Wang%NULL%1,                Yunfei%Tang%NULL%1,                Hao%Cui%NULL%1,                Changxiao%Yu%NULL%1,                Feng%Wang%NULL%5,                Fei%Shao%NULL%1,                Peng%Sun%NULL%1,                Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                Huifang%Wang%NULL%1,                Junwei%Huang%NULL%1,                Yan%Geng%NULL%1,                Shuqi%Jiang%NULL%1,                Qiuping%Zhou%NULL%1,                Xuan%Chen%NULL%1,                Hongping%Hu%NULL%1,                Weifeng%Li%NULL%1,                Chengbin%Zhou%NULL%1,                Xinglin%Gao%NULL%1,                Na%Peng%pnatz@163.com%1,                Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                Dandan%Cheng%NULL%1,                Yiwei%Cao%NULL%1,                Chuan%Hu%NULL%1,                Fenglin%Zou%NULL%1,                Wencheng%Yu%NULL%1,                Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                Min Kyu%Kang%NULL%2,                Min Kyu%Kang%NULL%0,                Yu Rim%Lee%NULL%2,                Yu Rim%Lee%NULL%0,                Jeong Eun%Song%NULL%2,                Jeong Eun%Song%NULL%0,                Na Young%Kim%NULL%1,                Young Oh%Kweon%NULL%1,                Won Young%Tak%NULL%1,                Se Young%Jang%NULL%1,                Changhyeong%Lee%NULL%2,                Changhyeong%Lee%NULL%0,                Byung Seok%Kim%NULL%1,                Jae Seok%Hwang%NULL%1,                Byoung Kuk%Jang%NULL%1,                Jinmok%Bae%NULL%1,                Ji Yeon%Lee%NULL%0,                Jeong Ill%Suh%NULL%1,                Soo Young%Park%NULL%1,                Woo Jin%Chung%NULL%2,                Woo Jin%Chung%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                Cristina%Roca-Oporto%NULL%0,                Guillermo%Martín-Gutiérrez%NULL%0,                María Dolores%Avilés%NULL%0,                Carmen%Gómez-González%NULL%0,                María Dolores%Navarro-Amuedo%NULL%0,                Julia%Praena-Segovia%NULL%0,                José%Molina%NULL%0,                María%Paniagua-García%NULL%0,                Horacio%García-Delgado%NULL%0,                Antonio%Domínguez-Petit%NULL%0,                Jerónimo%Pachón%NULL%0,                José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,             Calvo%Boyero Fernando%coreGivesNoEmail%1,             Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,             COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,             Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,             Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,             L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,             Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,             Santos%Lozano Alejandro%coreGivesNoEmail%1,             Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                 Min%He%NULL%1,                 Wanhong%Yin%NULL%1,                 Xuelian%Liao%NULL%1,                 Bo%Wang%NULL%6,                 Xiaodong%Jin%NULL%1,                 Yao%Ma%NULL%2,                 Jirong%Yue%NULL%1,                 Lang%Bai%NULL%1,                 Dan%Liu%NULL%3,                 Ting%Zhu%NULL%1,                 Zhixin%Huang%NULL%1,                 Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                 Shuchang%Zhou%NULL%1,                 Yujin%Wang%NULL%1,                 Wenzhi%Lv%NULL%2,                 Shili%Wang%NULL%1,                 Ting%Wang%751884926@qq.com%1,                 Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                 Yan-chak%Li%NULL%1,                 Sonali%Bose%NULL%1,                 Ravi%Iyengar%NULL%1,                 Supinda%Bunyavanich%NULL%1,                 Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,        Hai-Tao%Zhang%null%1,        Jorge%Goncalves%null%1,        Yang%Xiao%null%1,        Maolin%Wang%null%1,        Yuqi%Guo%null%1,        Chuan%Sun%null%1,        Xiuchuan%Tang%null%1,        Liang%Jing%null%1,        Mingyang%Zhang%null%1,        Xiang%Huang%null%1,        Ying%Xiao%null%1,        Haosen%Cao%null%1,        Yanyan%Chen%null%1,        Tongxin%Ren%null%1,        Fang%Wang%null%1,        Yaru%Xiao%null%1,        Sufang%Huang%null%1,        Xi%Tan%null%1,        Niannian%Huang%null%1,        Bo%Jiao%null%1,        Cheng%Cheng%null%1,        Yong%Zhang%null%1,        Ailin%Luo%null%1,        Laurent%Mombaerts%null%1,        Junyang%Jin%null%1,        Zhiguo%Cao%null%1,        Shusheng%Li%null%1,        Hui%Xu%null%1,        Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                 Mengfei%Guo%NULL%1,                 Limin%Duan%NULL%1,                 Feng%Wu%NULL%1,                 Guorong%Hu%NULL%1,                 Zhihui%Wang%NULL%1,                 Qi%Huang%NULL%1,                 Tingting%Liao%NULL%1,                 Juanjuan%Xu%NULL%1,                 Yanling%Ma%NULL%1,                 Zhilei%Lv%NULL%1,                 Wenjing%Xiao%NULL%1,                 Zilin%Zhao%NULL%1,                 Xueyun%Tan%NULL%1,                 Daquan%Meng%NULL%1,                 Shujing%Zhang%NULL%1,                 E%Zhou%NULL%1,                 Zhengrong%Yin%NULL%1,                 Wei%Geng%NULL%1,                 Xuan%Wang%NULL%1,                 Jianchu%Zhang%NULL%1,                 Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                 Yu%Zhang%whxhzy@163.com%1,                 Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                 Francesco%Arru%NULL%2,                 Francesco%Arru%NULL%0,                 Andrea%De Vito%NULL%3,                 Alessandro%Sassu%NULL%2,                 Alessandro%Sassu%NULL%0,                 Giovanni%Valdes%NULL%1,                 Valentina%Scano%NULL%1,                 Elisabetta%Zinellu%NULL%1,                 Roberto%Perra%NULL%1,                 Giordano%Madeddu%NULL%3,                 Ciriaco%Carru%NULL%1,                 Pietro%Pirina%NULL%3,                 Arduino A.%Mangoni%NULL%2,                 Arduino A.%Mangoni%NULL%0,                 Sergio%Babudieri%NULL%4,                 Sergio%Babudieri%NULL%0,                 Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                 Pablo%Ryan%NULL%1,                 Jorge%Valencia%NULL%2,                 Jorge%Valencia%NULL%0,                 Mario%Pérez-Butragueño%NULL%2,                 Mario%Pérez-Butragueño%NULL%0,                 Eva%Jiménez%NULL%2,                 Eva%Jiménez%NULL%0,                 Mario%Fontán-Vela%NULL%1,                 Elsa%Izquierdo-García%NULL%2,                 Elsa%Izquierdo-García%NULL%0,                 Inés%Fernandez-Jimenez%NULL%1,                 Elena%Álvaro-Alonso%NULL%1,                 Andrea%Lazaro%NULL%2,                 Andrea%Lazaro%NULL%0,                 Marta%Alvarado%NULL%1,                 Helena%Notario%NULL%1,                 Salvador%Resino%NULL%1,                 Daniel%Velez-Serrano%NULL%1,                 Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                 Yiru%Wang%NULL%2,                 Xuecheng%Zhao%NULL%1,                 Lixuan%Wang%NULL%1,                 Feng%Liu%NULL%3,                 Tao%Wang%NULL%15,                 Dawei%Ye%NULL%2,                 Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                 Valentina%Zuccaro%NULL%1,                 Luca%Novelli%NULL%1,                 Lorenzo%Zileri%NULL%2,                 Lorenzo%Zileri%NULL%0,                 Ciro%Celsa%NULL%1,                 Federico%Raimondi%NULL%2,                 Federico%Raimondi%NULL%0,                 Mauro%Gori%NULL%1,                 Giulia%Cammà%NULL%1,                 Salvatore%Battaglia%NULL%1,                 Vincenzo Giuseppe%Genova%NULL%1,                 Laura%Paris%NULL%1,                 Matteo%Tacelli%NULL%1,                 Francesco Antonio%Mancarella%NULL%1,                 Marco%Enea%NULL%1,                 Massimo%Attanasio%NULL%1,                 Michele%Senni%NULL%1,                 Fabiano%Di Marco%NULL%1,                 Luca Ferdinando%Lorini%NULL%1,                 Stefano%Fagiuoli%NULL%1,                 Raffaele%Bruno%NULL%2,                 Calogero%Cammà%NULL%1,                 Antonio%Gasbarrini%NULL%3,                 Francesco%Di Gennaro%NULL%2,                 Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                 Gan-xun%Li%NULL%1,                 Lin%Chen%NULL%3,                 Chang%Shu%NULL%2,                 Jia%Song%NULL%1,                 Wei%Wang%NULL%2,                 Yu-wei%Wang%NULL%1,                 Qian%Chen%NULL%2,                 Guan-nan%Jin%NULL%1,                 Tong-tong%Liu%NULL%1,                 Jun-nan%Liang%NULL%1,                 Peng%Zhu%NULL%1,                 Wei%Zhu%NULL%5,                 Yong%Li%NULL%2,                 Bin-hao%Zhang%NULL%1,                 Huan%Feng%NULL%1,                 Wan-guang%Zhang%NULL%1,                 Zhen-yu%Yin%NULL%1,                 Wen-kui%Yu%NULL%1,                 Yang%Yang%NULL%2,                 Hua-qiu%Zhang%NULL%1,                 Zhou-ping%Tang%NULL%1,                 Hui%Wang%NULL%4,                 Jun-bo%Hu%NULL%1,                 Ji-hong%Liu%NULL%1,                 Ping%Yin%NULL%1,                 Xiao-ping%Chen%NULL%1,                 Bixiang%Zhang%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                 Günay%Can%NULL%2,                 Günay%Can%NULL%0,                 Rıdvan%Karaali%NULL%1,                 Şermin%Börekçi%NULL%1,                 İlker İnanç%Balkan%NULL%1,                 Bilun%Gemicioğlu%NULL%1,                 Dildar%Konukoğlu%NULL%1,                 Ethem%Erginöz%NULL%1,                 Mehmet Sarper%Erdoğan%NULL%1,                 Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                 Danila%Azzolina%NULL%1,                 Eyal%Hayden%NULL%2,                 Eyal%Hayden%NULL%0,                 Gianluca%Gaidano%NULL%2,                 Gianluca%Gaidano%NULL%0,                 Mario%Pirisi%NULL%2,                 Mario%Pirisi%NULL%0,                 Antonio%Acquaviva%NULL%2,                 Antonio%Acquaviva%NULL%0,                 Gianluca%Aimaretti%NULL%2,                 Gianluca%Aimaretti%NULL%0,                 Paolo%Aluffi Valletti%NULL%3,                 Paolo%Aluffi Valletti%NULL%0,                 Roberto%Angilletta%NULL%2,                 Roberto%Angilletta%NULL%0,                 Roberto%Arioli%NULL%2,                 Roberto%Arioli%NULL%0,                 Gian Carlo%Avanzi%NULL%2,                 Gian Carlo%Avanzi%NULL%0,                 Gianluca%Avino%NULL%2,                 Gianluca%Avino%NULL%0,                 Piero Emilio%Balbo%NULL%2,                 Piero Emilio%Balbo%NULL%0,                 Giulia%Baldon%NULL%2,                 Giulia%Baldon%NULL%0,                 Francesca%Baorda%NULL%2,                 Francesca%Baorda%NULL%0,                 Emanuela%Barbero%NULL%2,                 Emanuela%Barbero%NULL%0,                 Alessio%Baricich%NULL%2,                 Alessio%Baricich%NULL%0,                 Michela%Barini%NULL%2,                 Michela%Barini%NULL%0,                 Francesco%Barone-Adesi%NULL%2,                 Francesco%Barone-Adesi%NULL%0,                 Sofia%Battistini%NULL%2,                 Sofia%Battistini%NULL%0,                 Michela%Beltrame%NULL%2,                 Michela%Beltrame%NULL%0,                 Matteo%Bertoli%NULL%2,                 Matteo%Bertoli%NULL%0,                 Stephanie%Bertolin%NULL%2,                 Stephanie%Bertolin%NULL%0,                 Marinella%Bertolotti%NULL%2,                 Marinella%Bertolotti%NULL%0,                 Marta%Betti%NULL%2,                 Marta%Betti%NULL%0,                 Flavio%Bobbio%NULL%2,                 Flavio%Bobbio%NULL%0,                 Paolo%Boffano%NULL%2,                 Paolo%Boffano%NULL%0,                 Lucio%Boglione%NULL%2,                 Lucio%Boglione%NULL%0,                 Silvio%Borrè%NULL%2,                 Silvio%Borrè%NULL%0,                 Matteo%Brucoli%NULL%2,                 Matteo%Brucoli%NULL%0,                 Elisa%Calzaducca%NULL%2,                 Elisa%Calzaducca%NULL%0,                 Edoardo%Cammarata%NULL%2,                 Edoardo%Cammarata%NULL%0,                 Vincenzo%Cantaluppi%NULL%2,                 Vincenzo%Cantaluppi%NULL%0,                 Roberto%Cantello%NULL%2,                 Roberto%Cantello%NULL%0,                 Andrea%Capponi%NULL%2,                 Andrea%Capponi%NULL%0,                 Alessandro%Carriero%NULL%2,                 Alessandro%Carriero%NULL%0,                 Giuseppe Francesco%Casciaro%NULL%2,                 Giuseppe Francesco%Casciaro%NULL%0,                 Luigi Mario%Castello%NULL%2,                 Luigi Mario%Castello%NULL%0,                 Federico%Ceruti%NULL%2,                 Federico%Ceruti%NULL%0,                 Guido%Chichino%NULL%2,                 Guido%Chichino%NULL%0,                 Emilio%Chirico%NULL%2,                 Emilio%Chirico%NULL%0,                 Carlo%Cisari%NULL%1,                 Micol Giulia%Cittone%NULL%2,                 Micol Giulia%Cittone%NULL%0,                 Crizia%Colombo%NULL%2,                 Crizia%Colombo%NULL%0,                 Cristoforo%Comi%NULL%2,                 Cristoforo%Comi%NULL%0,                 Eleonora%Croce%NULL%2,                 Eleonora%Croce%NULL%0,                 Tommaso%Daffara%NULL%2,                 Tommaso%Daffara%NULL%0,                 Pietro%Danna%NULL%2,                 Pietro%Danna%NULL%0,                 Francesco%Della Corte%NULL%2,                 Francesco%Della Corte%NULL%0,                 Simona%De Vecchi%NULL%2,                 Simona%De Vecchi%NULL%0,                 Umberto%Dianzani%NULL%2,                 Umberto%Dianzani%NULL%0,                 Davide%Di Benedetto%NULL%2,                 Davide%Di Benedetto%NULL%0,                 Elia%Esposto%NULL%2,                 Elia%Esposto%NULL%0,                 Fabrizio%Faggiano%NULL%2,                 Fabrizio%Faggiano%NULL%0,                 Zeno%Falaschi%NULL%2,                 Zeno%Falaschi%NULL%0,                 Daniela%Ferrante%NULL%2,                 Daniela%Ferrante%NULL%0,                 Alice%Ferrero%NULL%2,                 Alice%Ferrero%NULL%0,                 Ileana%Gagliardi%NULL%2,                 Ileana%Gagliardi%NULL%0,                 Alessandra%Galbiati%NULL%2,                 Alessandra%Galbiati%NULL%0,                 Silvia%Gallo%NULL%2,                 Silvia%Gallo%NULL%0,                 Pietro Luigi%Garavelli%NULL%2,                 Pietro Luigi%Garavelli%NULL%0,                 Clara Ada%Gardino%NULL%2,                 Clara Ada%Gardino%NULL%0,                 Massimiliano%Garzaro%NULL%3,                 Massimiliano%Garzaro%NULL%0,                 Maria Luisa%Gastaldello%NULL%2,                 Maria Luisa%Gastaldello%NULL%0,                 Francesco%Gavelli%NULL%2,                 Francesco%Gavelli%NULL%0,                 Alessandra%Gennari%NULL%2,                 Alessandra%Gennari%NULL%0,                 Greta Maria%Giacomini%NULL%2,                 Greta Maria%Giacomini%NULL%0,                 Irene%Giacone%NULL%2,                 Irene%Giacone%NULL%0,                 Valentina%Giai Via%NULL%2,                 Valentina%Giai Via%NULL%0,                 Francesca%Giolitti%NULL%2,                 Francesca%Giolitti%NULL%0,                 Laura Cristina%Gironi%NULL%2,                 Laura Cristina%Gironi%NULL%0,                 Carla%Gramaglia%NULL%2,                 Carla%Gramaglia%NULL%0,                 Leonardo%Grisafi%NULL%2,                 Leonardo%Grisafi%NULL%0,                 Ilaria%Inserra%NULL%2,                 Ilaria%Inserra%NULL%0,                 Marco%Invernizzi%NULL%2,                 Marco%Invernizzi%NULL%0,                 Marco%Krengli%NULL%2,                 Marco%Krengli%NULL%0,                 Emanuela%Labella%NULL%2,                 Emanuela%Labella%NULL%0,                 Irene Cecilia%Landi%NULL%2,                 Irene Cecilia%Landi%NULL%0,                 Raffaella%Landi%NULL%2,                 Raffaella%Landi%NULL%0,                 Ilaria%Leone%NULL%2,                 Ilaria%Leone%NULL%0,                 Veronica%Lio%NULL%2,                 Veronica%Lio%NULL%0,                 Luca%Lorenzini%NULL%2,                 Luca%Lorenzini%NULL%0,                 Antonio%Maconi%NULL%2,                 Antonio%Maconi%NULL%0,                 Mario%Malerba%NULL%2,                 Mario%Malerba%NULL%0,                 Giulia Francesca%Manfredi%NULL%2,                 Giulia Francesca%Manfredi%NULL%0,                 Maria%Martelli%NULL%2,                 Maria%Martelli%NULL%0,                 Letizia%Marzari%NULL%2,                 Letizia%Marzari%NULL%0,                 Paolo%Marzullo%NULL%2,                 Paolo%Marzullo%NULL%0,                 Marco%Mennuni%NULL%2,                 Marco%Mennuni%NULL%0,                 Claudia%Montabone%NULL%2,                 Claudia%Montabone%NULL%0,                 Umberto%Morosini%NULL%2,                 Umberto%Morosini%NULL%0,                 Marco%Mussa%NULL%2,                 Marco%Mussa%NULL%0,                 Ilaria%Nerici%NULL%2,                 Ilaria%Nerici%NULL%0,                 Alessandro%Nuzzo%NULL%2,                 Alessandro%Nuzzo%NULL%0,                 Carlo%Olivieri%NULL%2,                 Carlo%Olivieri%NULL%0,                 Samuel Alberto%Padelli%NULL%2,                 Samuel Alberto%Padelli%NULL%0,                 Massimiliano%Panella%NULL%2,                 Massimiliano%Panella%NULL%0,                 Andrea%Parisini%NULL%2,                 Andrea%Parisini%NULL%0,                 Alessio%Paschè%NULL%2,                 Alessio%Paschè%NULL%0,                 Filippo%Patrucco%NULL%2,                 Filippo%Patrucco%NULL%0,                 Giuseppe%Patti%NULL%2,                 Giuseppe%Patti%NULL%0,                 Alberto%Pau%NULL%2,                 Alberto%Pau%NULL%0,                 Anita Rebecca%Pedrinelli%NULL%2,                 Anita Rebecca%Pedrinelli%NULL%0,                 Ilaria%Percivale%NULL%2,                 Ilaria%Percivale%NULL%0,                 Luca%Ragazzoni%NULL%2,                 Luca%Ragazzoni%NULL%0,                 Roberta%Re%NULL%2,                 Roberta%Re%NULL%0,                 Cristina%Rigamonti%NULL%2,                 Cristina%Rigamonti%NULL%0,                 Eleonora%Rizzi%NULL%2,                 Eleonora%Rizzi%NULL%0,                 Andrea%Rognoni%NULL%2,                 Andrea%Rognoni%NULL%0,                 Annalisa%Roveta%NULL%2,                 Annalisa%Roveta%NULL%0,                 Luigia%Salamina%NULL%2,                 Luigia%Salamina%NULL%0,                 Matteo%Santagostino%NULL%2,                 Matteo%Santagostino%NULL%0,                 Massimo%Saraceno%NULL%2,                 Massimo%Saraceno%NULL%0,                 Paola%Savoia%NULL%2,                 Paola%Savoia%NULL%0,                 Marco%Sciarra%NULL%2,                 Marco%Sciarra%NULL%0,                 Andrea%Schimmenti%NULL%2,                 Andrea%Schimmenti%NULL%0,                 Lorenza%Scotti%NULL%2,                 Lorenza%Scotti%NULL%0,                 Enrico%Spinoni%NULL%2,                 Enrico%Spinoni%NULL%0,                 Carlo%Smirne%NULL%2,                 Carlo%Smirne%NULL%0,                 Vanessa%Tarantino%NULL%2,                 Vanessa%Tarantino%NULL%0,                 Paolo Amedeo%Tillio%NULL%2,                 Paolo Amedeo%Tillio%NULL%0,                 Stelvio%Tonello%NULL%2,                 Stelvio%Tonello%NULL%0,                 Rosanna%Vaschetto%NULL%2,                 Rosanna%Vaschetto%NULL%0,                 Veronica%Vassia%NULL%2,                 Veronica%Vassia%NULL%0,                 Domenico%Zagaria%NULL%2,                 Domenico%Zagaria%NULL%0,                 Elisa%Zavattaro%NULL%2,                 Elisa%Zavattaro%NULL%0,                 Patrizia%Zeppegno%NULL%2,                 Patrizia%Zeppegno%NULL%0,                 Francesca%Zottarelli%NULL%2,                 Francesca%Zottarelli%NULL%0,                 Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                 Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                 Marta%Ottone%NULL%2,                 Marta%Ottone%NULL%0,                 Tommaso%Fasano%NULL%1,                 Pierpaolo%Pattacini%NULL%1,                 Valentina%Iotti%NULL%1,                 Lucia%Spaggiari%NULL%1,                 Riccardo%Bonacini%NULL%1,                 Andrea%Nitrosi%NULL%1,                 Efrem%Bonelli%NULL%1,                 Simone%Canovi%NULL%1,                 Rossana%Colla%NULL%1,                 Alessandro%Zerbini%NULL%1,                 Marco%Massari%NULL%1,                 Ivana%Lattuada%NULL%1,                 Anna Maria%Ferrari%NULL%1,                 Paolo%Giorgi Rossi%NULL%1,                 Massimo%Costantini%NULL%1,                 Roberto%Grilli%NULL%1,                 Massimiliano%Marino%NULL%1,                 Giulio%Formoso%NULL%1,                 Debora%Formisano%NULL%1,                 Emanuela%Bedeschi%NULL%1,                 Cinzia%Perilli%NULL%1,                 Elisabetta%La Rosa%NULL%1,                 Eufemia%Bisaccia%NULL%1,                 Ivano%Venturi%NULL%1,                 Massimo%Vicentini%NULL%1,                 Cinzia%Campari%NULL%1,                 Francesco%Gioia%NULL%1,                 Serena%Broccoli%NULL%1,                 Pamela%Mancuso%NULL%1,                 Marco%Foracchia%NULL%1,                 Mirco%Pinotti%NULL%1,                 Nicola%Facciolongo%NULL%1,                 Laura%Trabucco%NULL%1,                 Stefano%De Pietri%NULL%1,                 Giorgio Francesco%Danelli%NULL%1,                 Laura%Albertazzi%NULL%1,                 Enrica%Bellesia%NULL%1,                 Mattia%Corradini%NULL%1,                 Elena%Magnani%NULL%1,                 Annalisa%Pilia%NULL%1,                 Alessandra%Polese%NULL%1,                 Silvia Storchi%Incerti%NULL%1,                 Piera%Zaldini%NULL%1,                 Bonanno%Orsola%NULL%1,                 Matteo%Revelli%NULL%1,                 Carlo%Salvarani%NULL%1,                 Carmine%Pinto%NULL%1,                 Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                 Hong-Qiu%Gu%NULL%1,                 Yi%Liu (刘艺)%NULL%1,                 Guqin%Zhang%NULL%1,                 Hang%Yang%NULL%1,                 Huifang%Hu%NULL%1,                 Chenyang%Lu%NULL%1,                 Yang%Li%NULL%3,                 Liyi%Wang%NULL%1,                 Yi%Liu (刘毅)%yi2006liu@163.com%1,                 Yi%Zhao%zhao.y1977@163.com%1,                 Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                 Tawsifur%Rahman%NULL%2,                 Tawsifur%Rahman%NULL%0,                 Amith%Khandakar%NULL%3,                 Somaya%Al-Madeed%NULL%2,                 Susu M.%Zughaier%NULL%5,                 Suhail A. R.%Doi%NULL%3,                 Hanadi%Hassen%NULL%1,                 Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                 Jia%Sun%NULL%1,                 Yi-Xin%Li%NULL%1,                 Qian%Chen%NULL%0,                 Qing-Quan%Liu%NULL%1,                 Zhou%Sun%NULL%1,                 Ran%Pang%NULL%1,                 Fei%Chen%NULL%1,                 Bing-Yang%Xu%NULL%1,                 Anne%Manyande%NULL%1,                 Taane G%Clark%NULL%1,                 Jin-Ping%Li%NULL%1,                 Ilkay Erdogan%Orhan%NULL%1,                 Yu-Ke%Tian%NULL%1,                 Tao%Wang%wt7636@126.com%0,                 Wei%Wu%wt7636@126.com%1,                 Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,          Xinyan%Cai%xref no email%1,          Robert%Lennon%xref no email%1,          Derjung M.%Tarn%xref no email%1,          Arch G.%Mainous%xref no email%1,          Aleksandra E.%Zgierska%xref no email%1,          Bruce%Barrett%xref no email%1,          Wen-Jan%Tuan%xref no email%1,          Kevin%Maloy%xref no email%1,          Munish%Goyal%xref no email%1,          Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,              Imam%Z%coreGivesNoEmail%1,              Lippi%G%coreGivesNoEmail%1,              Oran%DP%coreGivesNoEmail%1,              Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                 Caiping%Song%NULL%1,                 En%Liu%NULL%1,                 Xi%Liu%NULL%1,                 Hao%Wu%NULL%1,                 Hui%Lin%NULL%1,                 Yuliang%Liu%NULL%1,                 Qi%Li%NULL%1,                 Zhi%Xu%NULL%1,                 XiaoBao%Ren%NULL%1,                 Cheng%Zhang%NULL%1,                 Wenjing%Zhang%NULL%1,                 Wei%Duan%NULL%2,                 Yongfeng%Tian%NULL%1,                 Ping%Li%NULL%1,                 Mingdong%Hu%NULL%1,                 Shiming%Yang%NULL%1,                 Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                 Changli%Li%NULL%1,                 Li%Zheng%NULL%1,                 Wenzhi%Lv%NULL%0,                 Zhigang%He%NULL%1,                 Xinwu%Cui%NULL%1,                 Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,          Liang%Li%xref no email%1,          Li%Wang%xref no email%1,          Huan%Liu%xref no email%2,          Xuefang%Lu%xref no email%1,          Feifei%Zeng%xref no email%1,          Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                 Hayne Cho%Park%NULL%2,                 Hayne Cho%Park%NULL%0,                 Ajin%Cho%NULL%1,                 Juhee%Kim%NULL%1,                 Kyu-sang%Yun%NULL%1,                 Jinseog%Kim%NULL%1,                 Young-Ki%Lee%NULL%1,                 Sinan%Kardes.%NULL%2,                 Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,          Luyu%Yang%xref no email%1,          Qian%Zeng%xref no email%1,          Qingyun%Li%xref no email%1,          Zhitao%Yang%xref no email%1,          Lizhong%Han%xref no email%1,          Xiaodong%Huang%xref no email%1,          Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                 Xiaoyu%Fang%NULL%1,                 Lixia%Cheng%NULL%1,                 Penghao%Wang%NULL%1,                 Shen%Li%NULL%1,                 Hao%Yu%NULL%1,                 Yao%Zhang%NULL%2,                 Nan%Jiang%NULL%1,                 Tingting%Zeng%NULL%1,                 Chao%Hou%NULL%1,                 Jing%Zhou%NULL%0,                 Shiru%Li%NULL%1,                 Yingzi%Pan%NULL%1,                 Yitong%Li%NULL%1,                 Lili%Nie%NULL%1,                 Yang%Li%NULL%0,                 Qidi%Sun%NULL%1,                 Hong%Jia%NULL%1,                 Mengxia%Li%NULL%1,                 Guoqiang%Cao%NULL%1,                 Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                 Lucas A%Ramos%NULL%2,                 Lucas A%Ramos%NULL%0,                 Wouter%Potters%NULL%1,                 Marcus L F%Janssen%NULL%1,                 Deborah%Hubers%NULL%1,                 Shi%Hu%NULL%1,                 Egill A%Fridgeirsson%NULL%1,                 Dan%Piña-Fuentes%NULL%1,                 Rajat%Thomas%NULL%1,                 Iwan C C%van der Horst%NULL%1,                 Christian%Herff%NULL%2,                 Christian%Herff%NULL%0,                 Pieter%Kubben%NULL%1,                 Paul W G%Elbers%NULL%1,                 Henk A%Marquering%NULL%1,                 Max%Welling%NULL%1,                 Suat%Simsek%NULL%1,                 Martijn D%de Kruif%NULL%1,                 Tom%Dormans%NULL%1,                 Lucas M%Fleuren%NULL%1,                 Michiel%Schinkel%NULL%1,                 Peter G%Noordzij%NULL%1,                 Joop P%van den Bergh%NULL%2,                 Joop P%van den Bergh%NULL%0,                 Caroline E%Wyers%NULL%1,                 David T B%Buis%NULL%2,                 David T B%Buis%NULL%0,                 W Joost%Wiersinga%NULL%1,                 Ella H C%van den Hout%NULL%1,                 Auke C%Reidinga%NULL%1,                 Daisy%Rusch%NULL%1,                 Kim C E%Sigaloff%NULL%1,                 Renee A%Douma%NULL%1,                 Lianne%de Haan%NULL%1,                 Niels C%Gritters van den Oever%NULL%1,                 Roger J M W%Rennenberg%NULL%1,                 Guido A%van Wingen%NULL%1,                 Marcel J H%Aries%NULL%1,                 Martijn%Beudel%NULL%2,                 Martijn%Beudel%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                 Fajer A.%Al-Ishaq%NULL%2,                 Fajer A.%Al-Ishaq%NULL%0,                 Fatima S.%Al-Mohannadi%NULL%1,                 Reem S.%Mubarak%NULL%1,                 Maryam H.%Al-Hitmi%NULL%1,                 Khandaker Reajul%Islam%NULL%1,                 Amith%Khandakar%NULL%0,                 Ali Ait%Hssain%NULL%3,                 Ali Ait%Hssain%NULL%0,                 Somaya%Al-Madeed%NULL%0,                 Susu M.%Zughaier%NULL%0,                 Susu M.%Zughaier%NULL%0,                 Muhammad E. H.%Chowdhury%NULL%3,                 Muhammad E. H.%Chowdhury%NULL%0,                 Antonella%Santone%NULL%3,                 Antonella%Santone%NULL%0,                 Antonella%Santone%NULL%0,                 Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                 Amith%Khandakar%NULL%0,                 Md Enamul%Hoque%NULL%2,                 Md Enamul%Hoque%NULL%0,                 Nabil%Ibtehaz%NULL%2,                 Nabil%Ibtehaz%NULL%0,                 Saad Bin%Kashem%NULL%2,                 Saad Bin%Kashem%NULL%0,                 Reehum%Masud%NULL%1,                 Lutfunnahar%Shampa%NULL%1,                 Mohammad Mehedi%Hasan%NULL%1,                 Mohammad Tariqul%Islam%NULL%1,                 Somaya%Al-Maadeed%NULL%2,                 Somaya%Al-Maadeed%NULL%0,                 Susu M.%Zughaier%NULL%0,                 Susu M.%Zughaier%NULL%0,                 Saif%Badran%NULL%2,                 Saif%Badran%NULL%0,                 Suhail A. R.%Doi%NULL%0,                 Suhail A. R.%Doi%NULL%0,                 Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                 Pablo%Rodríguez-Belenguer%NULL%2,                 Pablo%Rodríguez-Belenguer%NULL%0,                 Antonio J.%Serrano-López%NULL%1,                 Emilio%Soria-Olivas%NULL%2,                 Emilio%Soria-Olivas%NULL%0,                 Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                 Haibo%Ai%NULL%1,                 Yunong%Fu%NULL%1,                 Qinglin%Li%NULL%1,                 Ruixia%Cui%NULL%1,                 Xiaohua%Ma%NULL%1,                 Yan-fen%Ma%NULL%1,                 Zi%Wang%NULL%1,                 Tong%Liu%NULL%1,                 Yunxiang%Long%NULL%1,                 Kai%Qu%NULL%1,                 Chang%Liu%NULL%1,                 Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,          Rongqing%Sun%xref no email%1,          Wenbo%Sun%xref no email%1,          Dan%Xu%xref no email%1,          Lan%Lan%xref no email%1,          Huan%Li%xref no email%1,          Huan%Liu%xref no email%0,          Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                 Dawei%Zhang%NULL%1,                 Jing%Xu%NULL%6,                 Zhu%Chen%NULL%1,                 Tieniu%Yang%NULL%1,                 Peng%Zhao%NULL%2,                 Guofeng%Chen%NULL%1,                 Gregory%Cheng%NULL%1,                 Yudong%Wang%NULL%1,                 Jingfeng%Bi%NULL%1,                 Lin%Tan%NULL%1,                 George%Lau%NULL%1,                 Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                 Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                 Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                 Giulia%Suigo%NULL%1,                 Davide%Zampini%NULL%1,                 Matteo%Pistoia%NULL%1,                 Mariella%Ciola%NULL%1,                 Tommaso%Ciampani%NULL%1,                 Carolina%Ultori%NULL%1,                 Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                 John R%Adler%NULL%3,                 Sultan M%Kamran%NULL%2,                 Sultan M%Kamran%NULL%0,                 Zill-e-Humayun%Mirza%NULL%1,                 Hussain Abdul%Moeed%NULL%1,                 Arshad%Naseem%NULL%1,                 Maryam%Hussain%NULL%1,                 Imran%Fazal%NULL%1,                 Farrukh%Saeed%NULL%1,                 Wasim%Alamgir%NULL%1,                 Salman%Saleem%NULL%1,                 Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,          Zilong%Liu%xref no email%1,          Weipeng%Jiang%xref no email%1,          Jian%Wang%xref no email%4,          Mengchan%Zhu%xref no email%1,          Juan%Song%xref no email%0,          Xiaoyue%Wang%xref no email%1,          Ying%Su%xref no email%1,          Guiling%Xiang%xref no email%1,          Maosong%Ye%xref no email%1,          Jiamin%Li%xref no email%1,          Yong%Zhang%xref no email%1,          Qinjun%Shen%xref no email%1,          Zhuozhe%Li%xref no email%1,          Danwei%Yao%xref no email%1,          Yuanlin%Song%xref no email%0,          Kaihuan%Yu%xref no email%1,          Zhe%Luo%xref no email%1,          Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                 María M.%Martín%NULL%1,                 Mónica%Argueso%NULL%1,                 Jordi%Solé-Violán%NULL%1,                 Alina%Perez%NULL%1,                 José Alberto%Marcos Y Ramos%NULL%1,                 Luis%Ramos-Gómez%NULL%1,                 Sergio%López%NULL%1,                 Andrés%Franco%NULL%1,                 Agustín F.%González-Rivero%NULL%1,                 María%Martín%NULL%1,                 Verónica%Gonzalez%NULL%1,                 Julia%Alcoba-Flórez%NULL%1,                 Miguel Ángel%Rodriguez%NULL%1,                 Marta%Riaño-Ruiz%NULL%1,                 Juan%Guillermo O Campo%NULL%1,                 Lourdes%González%NULL%1,                 Tamara%Cantera%NULL%1,                 Raquel%Ortiz-López%NULL%1,                 Nazario%Ojeda%NULL%1,                 Aurelio%Rodríguez-Pérez%NULL%1,                 Casimira%Domínguez%NULL%1,                 Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                 Rita%Kukafka%NULL%1,                 Arriel%Benis%NULL%2,                 Arriel%Benis%NULL%0,                 Jinfeng%Li%NULL%1,                 Pan%Pan%NULL%2,                 Pan%Pan%NULL%0,                 Yichao%Li%NULL%2,                 Yichao%Li%NULL%0,                 Yongjiu%Xiao%NULL%2,                 Yongjiu%Xiao%NULL%0,                 Bingchao%Han%NULL%2,                 Bingchao%Han%NULL%0,                 Longxiang%Su%NULL%2,                 Longxiang%Su%NULL%0,                 Mingliang%Su%NULL%2,                 Mingliang%Su%NULL%0,                 Yansheng%Li%NULL%2,                 Yansheng%Li%NULL%0,                 Siqi%Zhang%NULL%2,                 Siqi%Zhang%NULL%0,                 Dapeng%Jiang%NULL%2,                 Dapeng%Jiang%NULL%0,                 Xia%Chen%NULL%2,                 Xia%Chen%NULL%0,                 Fuquan%Zhou%NULL%2,                 Fuquan%Zhou%NULL%0,                 Ling%Ma%NULL%2,                 Ling%Ma%NULL%0,                 Pengtao%Bao%NULL%2,                 Pengtao%Bao%NULL%0,                 Lixin%Xie%xielx301@126.com%2,                 Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                 Cristina%Roca-Oporto%NULL%2,                 Guillermo%Martín-Gutiérrez%NULL%2,                 María Dolores%Avilés%NULL%2,                 Carmen%Gómez-González%NULL%2,                 María Dolores%Navarro-Amuedo%NULL%2,                 Julia%Praena-Segovia%NULL%2,                 José%Molina%NULL%2,                 María%Paniagua-García%NULL%2,                 Horacio%García-Delgado%NULL%2,                 Antonio%Domínguez-Petit%NULL%2,                 Jerónimo%Pachón%NULL%2,                 José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                 Barry R.%Meisenberg%NULL%2,                 Barry R.%Meisenberg%NULL%0,                 James H.%MacDonald%NULL%1,                 Nandakumar%Menon%NULL%1,                 Marcia B.%Fowler%NULL%1,                 Michaline%West%NULL%1,                 Jane%Rhule%NULL%1,                 Sadaf S.%Qureshi%NULL%1,                 Eileen B.%MacDonald%NULL%1,                 Yu Ru%Kou%NULL%2,                 Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                 Sarah%Poole%NULL%2,                 Sarah%Poole%NULL%0,                 Meeta%Pradhan%NULL%1,                 Akhil%Vaid%NULL%3,                 Akhil%Vaid%NULL%0,                 Sulaiman%Somani%NULL%3,                 Sulaiman%Somani%NULL%0,                 Adam J%Russak%NULL%2,                 Adam J%Russak%NULL%0,                 Jessica K%De Freitas%NULL%2,                 Jessica K%De Freitas%NULL%0,                 Fayzan F%Chaudhry%NULL%2,                 Fayzan F%Chaudhry%NULL%0,                 Ishan%Paranjpe%NULL%3,                 Ishan%Paranjpe%NULL%0,                 Kipp W%Johnson%NULL%2,                 Kipp W%Johnson%NULL%0,                 Samuel J%Lee%NULL%2,                 Samuel J%Lee%NULL%0,                 Riccardo%Miotto%NULL%2,                 Riccardo%Miotto%NULL%0,                 Felix%Richter%NULL%3,                 Felix%Richter%NULL%0,                 Shan%Zhao%NULL%3,                 Shan%Zhao%NULL%0,                 Noam D%Beckmann%NULL%2,                 Noam D%Beckmann%NULL%0,                 Nidhi%Naik%NULL%2,                 Nidhi%Naik%NULL%0,                 Arash%Kia%NULL%2,                 Arash%Kia%NULL%0,                 Prem%Timsina%NULL%2,                 Prem%Timsina%NULL%0,                 Anuradha%Lala%NULL%2,                 Anuradha%Lala%NULL%0,                 Manish%Paranjpe%NULL%2,                 Manish%Paranjpe%NULL%0,                 Eddye%Golden%NULL%2,                 Eddye%Golden%NULL%0,                 Matteo%Danieletto%NULL%2,                 Matteo%Danieletto%NULL%0,                 Manbir%Singh%NULL%2,                 Manbir%Singh%NULL%0,                 Dara%Meyer%NULL%2,                 Dara%Meyer%NULL%0,                 Paul F%O'Reilly%NULL%2,                 Paul F%O'Reilly%NULL%0,                 Laura%Huckins%NULL%2,                 Laura%Huckins%NULL%0,                 Patricia%Kovatch%NULL%2,                 Patricia%Kovatch%NULL%0,                 Joseph%Finkelstein%NULL%2,                 Joseph%Finkelstein%NULL%0,                 Robert M.%Freeman%NULL%2,                 Robert M.%Freeman%NULL%0,                 Edgar%Argulian%NULL%2,                 Edgar%Argulian%NULL%0,                 Andrew%Kasarskis%NULL%2,                 Andrew%Kasarskis%NULL%0,                 Bethany%Percha%NULL%2,                 Bethany%Percha%NULL%0,                 Judith A%Aberg%NULL%2,                 Judith A%Aberg%NULL%0,                 Emilia%Bagiella%NULL%3,                 Emilia%Bagiella%NULL%0,                 Carol R%Horowitz%NULL%2,                 Carol R%Horowitz%NULL%0,                 Barbara%Murphy%NULL%2,                 Barbara%Murphy%NULL%0,                 Eric J%Nestler%NULL%2,                 Eric J%Nestler%NULL%0,                 Eric E%Schadt%NULL%2,                 Eric E%Schadt%NULL%0,                 Judy H%Cho%NULL%2,                 Judy H%Cho%NULL%0,                 Carlos%Cordon-Cardo%NULL%2,                 Carlos%Cordon-Cardo%NULL%0,                 Valentin%Fuster%NULL%3,                 Valentin%Fuster%NULL%0,                 Dennis S%Charney%NULL%2,                 Dennis S%Charney%NULL%0,                 David L%Reich%NULL%2,                 David L%Reich%NULL%0,                 Erwin P%Bottinger%NULL%2,                 Erwin P%Bottinger%NULL%0,                 Matthew A%Levin%NULL%2,                 Matthew A%Levin%NULL%0,                 Jagat%Narula%NULL%3,                 Jagat%Narula%NULL%0,                 Zahi A%Fayad%NULL%2,                 Zahi A%Fayad%NULL%0,                 Allan C%Just%NULL%2,                 Allan C%Just%NULL%0,                 Alexander W%Charney%NULL%2,                 Alexander W%Charney%NULL%0,                 Girish N%Nadkarni%NULL%2,                 Girish N%Nadkarni%NULL%0,                 Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                 Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                 Anne%Chen%NULL%2,                 Wei%Hou%NULL%3,                 James M.%Graham%NULL%1,                 Haifang%Li%NULL%2,                 Paul S.%Richman%NULL%1,                 Henry C.%Thode%NULL%1,                 Adam J.%Singer%NULL%1,                 Tim Q.%Duong%NULL%1,                 Muhammad%Adrish%NULL%9,                 Muhammad%Adrish%NULL%0,                 Muhammad%Adrish%NULL%0,                 Muhammad%Adrish%NULL%0,                 Muhammad%Adrish%NULL%0,                 Muhammad%Adrish%NULL%0,                 Muhammad%Adrish%NULL%0,                 Muhammad%Adrish%NULL%0,                 Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                 Qin%Liu%NULL%2,                 Xiao%Zhang%NULL%2,                 Shuyi%Liu%NULL%1,                 Weiqi%Chen%NULL%1,                 Jingjing%You%NULL%1,                 Qiuying%Chen%NULL%1,                 Minmin%Li%NULL%1,                 Zhuozhi%Chen%NULL%1,                 Luyan%Chen%NULL%1,                 Lv%Chen%NULL%1,                 Yuhao%Dong%NULL%1,                 Qingsi%Zeng%NULL%1,                 Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                 Lei%Nie%NULL%1,                 Dongde%Wu%NULL%1,                 Jian%Chen%NULL%2,                 Zhifeng%Yang%NULL%1,                 Ling%Zhang%NULL%3,                 Dongqing%Li%NULL%1,                 Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,          Feiyang%Zhong%xref no email%1,          Hanfei%Zhang%xref no email%1,          Wenting%An%xref no email%1,          Meiyan%Liao%xref no email%1,          Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                 Burcin%Hakoglu%NULL%2,                 Burcin%Hakoglu%NULL%0,                 Ali%Kadri Cirak%NULL%1,                 Gulru%Polat%NULL%1,                 Berna%Komurcuoglu%NULL%1,                 Berrin%Akkol%NULL%1,                 Cagri%Atasoy%NULL%1,                 Eda%Bayramic%NULL%1,                 Gunseli%Balci%NULL%1,                 Sena%Ataman%NULL%1,                 Sinem%Ermin%NULL%1,                 Enver%Yalniz%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1,          Lili%Huang%xref no email%1,          Jin%Chen%xref no email%1,          Xiaowei%Yuan%xref no email%1,          Qinhua%Shen%xref no email%1,          Su%Dong%xref no email%1,          Bei%Cheng%xref no email%1,          Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                 Qiaosen%Chen%NULL%2,                 Qiaosen%Chen%NULL%0,                 Sumeng%Li%NULL%1,                 Huadong%Li%NULL%1,                 Qian%Zhang%NULL%1,                 Sihong%Lu%NULL%1,                 Li%Wu%NULL%1,                 Leiqun%Xiong%NULL%1,                 Bobin%Mi%NULL%1,                 Di%Liu%NULL%3,                 Mengji%Lu%NULL%1,                 Dongliang%Yang%NULL%1,                 Hongbo%Jiang%hongbojiang3@163.com%1,                 Shaoping%Zheng%zhengspxx@126.com%1,                 Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                 Hua%Zhang%NULL%2,                 Rui%Qiao%NULL%1,                 Qinggang%Ge%NULL%1,                 Shuisheng%Zhang%NULL%1,                 Zongxuan%Zhao%NULL%1,                 Ci%Tian%NULL%1,                 Qingbian%Ma%NULL%2,                 Qingbian%Ma%NULL%0,                 Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                 Antonia%Ho%NULL%2,                 Riinu%Pius%NULL%2,                 Iain%Buchan%NULL%1,                 Gail%Carson%NULL%2,                 Thomas M%Drake%NULL%1,                 Jake%Dunning%NULL%2,                 Cameron J%Fairfield%NULL%2,                 Carrol%Gamble%NULL%2,                 Christopher A%Green%NULL%2,                 Rishi%Gupta%NULL%1,                 Sophie%Halpin%NULL%2,                 Hayley E%Hardwick%NULL%1,                 Karl A%Holden%NULL%1,                 Peter W%Horby%NULL%2,                 Clare%Jackson%NULL%2,                 Kenneth A%Mclean%NULL%2,                 Laura%Merson%NULL%2,                 Jonathan S%Nguyen-Van-Tam%NULL%1,                 Lisa%Norman%NULL%2,                 Mahdad%Noursadeghi%NULL%2,                 Piero L%Olliaro%NULL%1,                 Mark G%Pritchard%NULL%1,                 Clark D%Russell%NULL%2,                 Catherine A%Shaw%NULL%2,                 Aziz%Sheikh%NULL%2,                 Tom%Solomon%NULL%2,                 Cathie%Sudlow%NULL%1,                 Olivia V%Swann%NULL%1,                 Lance CW%Turtle%NULL%2,                 Peter JM%Openshaw%NULL%2,                 J Kenneth%Baillie%NULL%2,                 Malcolm G%Semple%NULL%3,                 Annemarie B%Docherty%NULL%3,                 Annemarie B%Docherty%NULL%0,                 Ewen M%Harrison%NULL%3,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 J Kenneth%Baillie%NULL%0,                 Malcolm G%Semple%NULL%0,                 Peter JM%Openshaw%NULL%0,                 Gail%Carson%NULL%0,                 Beatrice%Alex%NULL%1,                 Benjamin%Bach%NULL%1,                 Wendy S%Barclay%NULL%1,                 Debby%Bogaert%NULL%1,                 Meera%Chand%NULL%1,                 Graham S%Cooke%NULL%1,                 Annemarie B%Docherty%NULL%0,                 Jake%Dunning%NULL%0,                 Ana%da Silva Filipe%NULL%1,                 Tom%Fletcher%NULL%1,                 Christopher A%Green%NULL%0,                 Ewen M%Harrison%NULL%0,                 Julian A%Hiscox%NULL%1,                 Antonia Ying Wai%Ho%NULL%1,                 Peter W%Horby%NULL%0,                 Samreen%Ijaz%NULL%1,                 Saye%Khoo%NULL%1,                 Paul%Klenerman%NULL%1,                 Andrew%Law%NULL%2,                 Wei Shen%Lim%NULL%1,                 Alexander J%Mentzer%NULL%1,                 Laura%Merson%NULL%0,                 Alison M%Meynert%NULL%1,                 Mahdad%Noursadeghi%NULL%0,                 Shona C%Moore%NULL%2,                 Massimo%Palmarini%NULL%1,                 William A%Paxton%NULL%1,                 Georgios%Pollakis%NULL%1,                 Nicholas%Price%NULL%1,                 Andrew%Rambaut%NULL%1,                 David L%Robertson%NULL%1,                 Clark D%Russell%NULL%0,                 Vanessa%Sancho-Shimizu%NULL%1,                 Janet T%Scott%NULL%1,                 Louise%Sigfrid%NULL%1,                 Tom%Solomon%NULL%0,                 Shiranee%Sriskandan%NULL%1,                 David%Stuart%NULL%1,                 Charlotte%Summers%NULL%1,                 Richard S%Tedder%NULL%1,                 Emma C%Thomson%NULL%1,                 Ryan S%Thwaites%NULL%1,                 Lance CW%Turtle%NULL%0,                 Maria%Zambon%NULL%1,                 Hayley%Hardwick%NULL%1,                 Chloe%Donohue%NULL%1,                 Jane%Ewins%NULL%1,                 Wilna%Oosthuyzen%NULL%1,                 Fiona%Griffiths%NULL%1,                 Lisa%Norman%NULL%0,                 Riinu%Pius%NULL%0,                 Tom M%Drake%NULL%1,                 Cameron J%Fairfield%NULL%0,                 Stephen%Knight%NULL%1,                 Kenneth A%Mclean%NULL%0,                 Derek%Murphy%NULL%1,                 Catherine A%Shaw%NULL%0,                 Jo%Dalton%NULL%1,                 Michelle%Girvan%NULL%1,                 Egle%Saviciute%NULL%1,                 Stephanie%Roberts%NULL%1,                 Janet%Harrison%NULL%1,                 Laura%Marsh%NULL%1,                 Marie%Connor%NULL%1,                 Sophie%Halpin%NULL%0,                 Clare%Jackson%NULL%0,                 Carrol%Gamble%NULL%0,                 Gary%Leeming%NULL%1,                 Andrew%Law%NULL%0,                 Ross%Hendry%NULL%1,                 James%Scott-Brown%NULL%1,                 William%Greenhalf%NULL%1,                 Victoria%Shaw%NULL%1,                 Sarah%McDonald%NULL%2,                 Katie A%Ahmed%NULL%1,                 Jane A%Armstrong%NULL%1,                 Milton%Ashworth%NULL%1,                 Innocent G%Asiimwe%NULL%1,                 Siddharth%Bakshi%NULL%1,                 Samantha L%Barlow%NULL%1,                 Laura%Booth%NULL%1,                 Benjamin%Brennan%NULL%1,                 Katie%Bullock%NULL%1,                 Benjamin WA%Catterall%NULL%1,                 Jordan J%Clark%NULL%1,                 Emily A%Clarke%NULL%1,                 Sarah%Cole%NULL%1,                 Louise%Cooper%NULL%1,                 Helen%Cox%NULL%1,                 Christopher%Davis%NULL%1,                 Oslem%Dincarslan%NULL%1,                 Chris%Dunn%NULL%1,                 Philip%Dyer%NULL%1,                 Angela%Elliott%NULL%1,                 Anthony%Evans%NULL%1,                 Lewis WS%Fisher%NULL%1,                 Terry%Foster%NULL%1,                 Isabel%Garcia-Dorival%NULL%1,                 Willliam%Greenhalf%NULL%1,                 Philip%Gunning%NULL%1,                 Catherine%Hartley%NULL%1,                 Antonia%Ho%NULL%0,                 Rebecca L%Jensen%NULL%1,                 Christopher B%Jones%NULL%1,                 Trevor R%Jones%NULL%1,                 Shadia%Khandaker%NULL%1,                 Katharine%King%NULL%1,                 Robyn T%Kiy%NULL%1,                 Chrysa%Koukorava%NULL%1,                 Annette%Lake%NULL%1,                 Suzannah%Lant%NULL%1,                 Diane%Latawiec%NULL%1,                 L%Lavelle-Langham%NULL%1,                 Daniella%Lefteri%NULL%1,                 Lauren%Lett%NULL%1,                 Lucia A%Livoti%NULL%1,                 Maria%Mancini%NULL%1,                 Sarah%McDonald%NULL%0,                 Laurence%McEvoy%NULL%1,                 John%McLauchlan%NULL%1,                 Soeren%Metelmann%NULL%1,                 Nahida S%Miah%NULL%1,                 Joanna%Middleton%NULL%1,                 Joyce%Mitchell%NULL%1,                 Shona C%Moore%NULL%0,                 Ellen G%Murphy%NULL%1,                 Rebekah%Penrice-Randal%NULL%1,                 Jack%Pilgrim%NULL%1,                 Tessa%Prince%NULL%1,                 Will%Reynolds%NULL%1,                 P Matthew%Ridley%NULL%1,                 Debby%Sales%NULL%1,                 Victoria E%Shaw%NULL%1,                 Rebecca K%Shears%NULL%1,                 Benjamin%Small%NULL%1,                 Krishanthi S%Subramaniam%NULL%1,                 Agnieska%Szemiel%NULL%1,                 Aislynn%Taggart%NULL%1,                 Jolanta%Tanianis-Hughes%NULL%1,                 Jordan%Thomas%NULL%1,                 Erwan%Trochu%NULL%1,                 Libby%van Tonder%NULL%1,                 Eve%Wilcock%NULL%1,                 J Eunice%Zhang%NULL%1,                 Kayode%Adeniji%NULL%1,                 Daniel%Agranoff%NULL%1,                 Ken%Agwuh%NULL%1,                 Dhiraj%Ail%NULL%1,                 Ana%Alegria%NULL%1,                 Brian%Angus%NULL%1,                 Abdul%Ashish%NULL%1,                 Dougal%Atkinson%NULL%1,                 Shahedal%Bari%NULL%1,                 Gavin%Barlow%NULL%1,                 Stella%Barnass%NULL%1,                 Nicholas%Barrett%NULL%2,                 Christopher%Bassford%NULL%1,                 David%Baxter%NULL%1,                 Michael%Beadsworth%NULL%1,                 Jolanta%Bernatoniene%NULL%1,                 John%Berridge%NULL%1,                 Nicola%Best%NULL%1,                 Pieter%Bothma%NULL%1,                 David%Brealey%NULL%1,                 Robin%Brittain-Long%NULL%1,                 Naomi%Bulteel%NULL%1,                 Tom%Burden%NULL%1,                 Andrew%Burtenshaw%NULL%1,                 Vikki%Caruth%NULL%1,                 David%Chadwick%NULL%1,                 Duncan%Chambler%NULL%1,                 Nigel%Chee%NULL%1,                 Jenny%Child%NULL%1,                 Srikanth%Chukkambotla%NULL%1,                 Tom%Clark%NULL%1,                 Paul%Collini%NULL%1,                 Catherine%Cosgrove%NULL%1,                 Jason%Cupitt%NULL%1,                 Maria-Teresa%Cutino-Moguel%NULL%1,                 Paul%Dark%NULL%1,                 Chris%Dawson%NULL%1,                 Samir%Dervisevic%NULL%1,                 Phil%Donnison%NULL%1,                 Sam%Douthwaite%NULL%1,                 Ingrid%DuRand%NULL%1,                 Ahilanadan%Dushianthan%NULL%1,                 Tristan%Dyer%NULL%1,                 Cariad%Evans%NULL%1,                 Chi%Eziefula%NULL%1,                 Chrisopher%Fegan%NULL%1,                 Adam%Finn%NULL%1,                 Duncan%Fullerton%NULL%1,                 Sanjeev%Garg%NULL%2,                 Sanjeev%Garg%NULL%0,                 Atul%Garg%NULL%1,                 Jo%Godden%NULL%1,                 Arthur%Goldsmith%NULL%1,                 Clive%Graham%NULL%1,                 Elaine%Hardy%NULL%1,                 Stuart%Hartshorn%NULL%1,                 Daniel%Harvey%NULL%1,                 Peter%Havalda%NULL%1,                 Daniel B%Hawcutt%NULL%1,                 Maria%Hobrok%NULL%1,                 Luke%Hodgson%NULL%1,                 Anita%Holme%NULL%1,                 Anil%Hormis%NULL%1,                 Michael%Jacobs%NULL%1,                 Susan%Jain%NULL%1,                 Paul%Jennings%NULL%1,                 Agilan%Kaliappan%NULL%1,                 Vidya%Kasipandian%NULL%1,                 Stephen%Kegg%NULL%1,                 Michael%Kelsey%NULL%1,                 Jason%Kendall%NULL%1,                 Caroline%Kerrison%NULL%1,                 Ian%Kerslake%NULL%1,                 Oliver%Koch%NULL%2,                 Gouri%Koduri%NULL%1,                 George%Koshy%NULL%1,                 Shondipon%Laha%NULL%1,                 Susan%Larkin%NULL%1,                 Tamas%Leiner%NULL%1,                 Patrick%Lillie%NULL%1,                 James%Limb%NULL%1,                 Vanessa%Linnett%NULL%1,                 Jeff%Little%NULL%1,                 Michael%MacMahon%NULL%1,                 Emily%MacNaughton%NULL%1,                 Ravish%Mankregod%NULL%1,                 Huw%Masson%NULL%1,                 Elijah%Matovu%NULL%1,                 Katherine%McCullough%NULL%1,                 Ruth%McEwen%NULL%1,                 Manjula%Meda%NULL%1,                 Gary%Mills%NULL%1,                 Jane%Minton%NULL%1,                 Mariyam%Mirfenderesky%NULL%1,                 Kavya%Mohandas%NULL%1,                 Quen%Mok%NULL%1,                 James%Moon%NULL%1,                 Elinoor%Moore%NULL%1,                 Patrick%Morgan%NULL%1,                 Craig%Morris%NULL%1,                 Katherine%Mortimore%NULL%1,                 Samuel%Moses%NULL%1,                 Mbiye%Mpenge%NULL%1,                 Rohinton%Mulla%NULL%1,                 Michael%Murphy%NULL%1,                 Megan%Nagel%NULL%1,                 Thapas%Nagarajan%NULL%1,                 Mark%Nelson%NULL%1,                 Igor%Otahal%NULL%1,                 Mark%Pais%NULL%1,                 Selva%Panchatsharam%NULL%1,                 Hassan%Paraiso%NULL%1,                 Brij%Patel%NULL%1,                 Justin%Pepperell%NULL%1,                 Mark%Peters%NULL%1,                 Mandeep%Phull%NULL%1,                 Stefania%Pintus%NULL%1,                 Jagtur Singh%Pooni%NULL%1,                 Frank%Post%NULL%1,                 David%Price%NULL%1,                 Rachel%Prout%NULL%1,                 Nikolas%Rae%NULL%1,                 Henrik%Reschreiter%NULL%1,                 Tim%Reynolds%NULL%1,                 Neil%Richardson%NULL%1,                 Mark%Roberts%NULL%1,                 Devender%Roberts%NULL%1,                 Alistair%Rose%NULL%1,                 Guy%Rousseau%NULL%1,                 Brendan%Ryan%NULL%1,                 Taranprit%Saluja%NULL%1,                 Aarti%Shah%NULL%1,                 Prad%Shanmuga%NULL%1,                 Anil%Sharma%NULL%1,                 Anna%Shawcross%NULL%1,                 Jeremy%Sizer%NULL%1,                 Richard%Smith%NULL%1,                 Catherine%Snelson%NULL%1,                 Nick%Spittle%NULL%1,                 Nikki%Staines%NULL%1,                 Tom%Stambach%NULL%1,                 Richard%Stewart%NULL%1,                 Pradeep%Subudhi%NULL%1,                 Tamas%Szakmany%NULL%1,                 Kate%Tatham%NULL%1,                 Jo%Thomas%NULL%1,                 Chris%Thompson%NULL%1,                 Robert%Thompson%NULL%1,                 Ascanio%Tridente%NULL%1,                 Darell%Tupper-Carey%NULL%1,                 Mary%Twagira%NULL%1,                 Andrew%Ustianowski%NULL%1,                 Nick%Vallotton%NULL%1,                 Lisa%Vincent-Smith%NULL%1,                 Shico%Visuvanathan%NULL%1,                 Alan%Vuylsteke%NULL%1,                 Sam%Waddy%NULL%1,                 Rachel%Wake%NULL%1,                 Andrew%Walden%NULL%1,                 Ingeborg%Welters%NULL%1,                 Tony%Whitehouse%NULL%1,                 Paul%Whittaker%NULL%1,                 Ashley%Whittington%NULL%1,                 Meme%Wijesinghe%NULL%1,                 Martin%Williams%NULL%1,                 Lawrence%Wilson%NULL%1,                 Sarah%Wilson%NULL%1,                 Stephen%Winchester%NULL%1,                 Martin%Wiselka%NULL%1,                 Adam%Wolverson%NULL%1,                 Daniel G%Wooton%NULL%1,                 Andrew%Workman%NULL%1,                 Bryan%Yates%NULL%1,                 Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                 Braulio A.%Marfil‐Garza%NULL%1,                 Erick%Martínez Rodríguez%NULL%1,                 José Omar%Barreto Rodríguez%NULL%1,                 Alicia Estela%López Romo%NULL%1,                 Paolo%Alberti Minutti%NULL%1,                 Juan Vicente%Alejandre Loya%NULL%1,                 Félix Emmanuel%Pérez Talavera%NULL%1,                 Freddy José%Ávila Cervera%NULL%1,                 Adriana%Velazquez Burciaga%NULL%1,                 Oscar%Morado Aramburo%NULL%1,                 Luis Alberto%Piña Olguín%NULL%1,                 Adrian%Soto‐Rodríguez%NULL%1,                 Andrés%Castañeda Prado%NULL%1,                 Patricio%Santillán Doherty%NULL%1,                 Juan%O Galindo%NULL%1,                 Luis Alberto%Guízar García%NULL%1,                 Daniel%Hernández Gordillo%NULL%1,                 Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                 Aatish%Patel%NULL%1,                 Esmita%Charani%NULL%1,                 Sarah%Denny%NULL%1,                 Saleh A.%Alqahtani%NULL%1,                 Gary W.%Davies%NULL%1,                 Nabeela%Mughal%NULL%1,                 Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                 Hyunsun%Lim%NULL%1,                 Dong-Wook%Kim%NULL%1,                 Jung Hyun%Chang%NULL%1,                 Yoon Jung%Choi%chris316@yuhs.ac%1,                 Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,          Rudong%Chen%xref no email%1,          Hongkuan%Yang%xref no email%1,          Junhong%Wang%xref no email%1,          Yuyang%Hou%xref no email%1,          Wei%Hu%xref no email%1,          Jiasheng%Yu%xref no email%1,          Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                 Wenhua%Liang%NULL%3,                 Mei%Jiang%NULL%2,                 Weijie%Guan%NULL%3,                 Chen%Zhan%NULL%2,                 Tao%Wang%NULL%0,                 Chunli%Tang%NULL%3,                 Ling%Sang%NULL%3,                 Jiaxing%Liu%NULL%2,                 Zhengyi%Ni%NULL%2,                 Yu%Hu%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%5,                 Chunliang%Lei%NULL%2,                 Yixiang%Peng%NULL%2,                 Li%Wei%NULL%5,                 Yong%Liu%NULL%5,                 Yahua%Hu%NULL%2,                 Peng%Peng%NULL%7,                 Jianming%Wang%NULL%2,                 Jiyang%Liu%NULL%2,                 Zhong%Chen%NULL%5,                 Gang%Li%NULL%5,                 Zhijian%Zheng%NULL%2,                 Shaoqin%Qiu%NULL%2,                 Jie%Luo%NULL%5,                 Changjiang%Ye%NULL%2,                 Shaoyong%Zhu%NULL%2,                 Xiaoqing%Liu%NULL%2,                 Linling%Cheng%NULL%2,                 Feng%Ye%NULL%2,                 Jinping%Zheng%NULL%2,                 Nuofu%Zhang%NULL%2,                 Yimin%Li%NULL%2,                 Jianxing%He%NULL%2,                 Shiyue%Li%lishiyue@188.com%3,                 Nanshan%Zhong%NULL%4,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                 Liu%Hu%NULL%1,                 Yiru%Wang%NULL%0,                 Luyan%Huang%NULL%1,                 Lingxi%Zhao%NULL%1,                 Congcong%Zhang%NULL%1,                 Xiyue%Liu%NULL%1,                 Ranran%Xu%NULL%1,                 Feng%Liu%NULL%0,                 Jinping%Li%NULL%1,                 Dawei%Ye%NULL%0,                 Tao%Wang%NULL%0,                 Yongman%Lv%lvyongman@126.com%0,                 Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                 Carol A C%Coupland%NULL%1,                 Ruth H%Keogh%NULL%1,                 Karla%Diaz-Ordaz%NULL%1,                 Elizabeth%Williamson%NULL%1,                 Ewen M%Harrison%NULL%0,                 Andrew%Hayward%NULL%1,                 Harry%Hemingway%NULL%1,                 Peter%Horby%NULL%1,                 Nisha%Mehta%NULL%1,                 Jonathan%Benger%NULL%1,                 Kamlesh%Khunti%NULL%0,                 David%Spiegelhalter%NULL%1,                 Aziz%Sheikh%NULL%0,                 Jonathan%Valabhji%NULL%0,                 Ronan A%Lyons%NULL%1,                 John%Robson%NULL%1,                 Malcolm G%Semple%NULL%0,                 Frank%Kee%NULL%1,                 Peter%Johnson%NULL%1,                 Susan%Jebb%NULL%1,                 Tony%Williams%NULL%1,                 Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                 Guang-Yao%Cai%NULL%1,                 Wei%Fang%NULL%2,                 Hua-Yi%Li%NULL%1,                 Si-Yuan%Wang%NULL%2,                 Si-Yuan%Wang%NULL%0,                 Lingxi%Chen%NULL%1,                 Yang%Yu%NULL%1,                 Dan%Liu%NULL%0,                 Sen%Xu%NULL%2,                 Peng-Fei%Cui%NULL%1,                 Shao-Qing%Zeng%NULL%2,                 Shao-Qing%Zeng%NULL%0,                 Xin-Xia%Feng%NULL%1,                 Rui-Di%Yu%NULL%1,                 Ya%Wang%NULL%2,                 Yuan%Yuan%NULL%1,                 Xiao-Fei%Jiao%NULL%1,                 Jian-Hua%Chi%NULL%1,                 Jia-Hao%Liu%NULL%1,                 Ru-Yuan%Li%NULL%1,                 Xu%Zheng%NULL%1,                 Chun-Yan%Song%NULL%1,                 Ning%Jin%NULL%1,                 Wen-Jian%Gong%NULL%1,                 Xing-Yu%Liu%NULL%1,                 Lei%Huang%NULL%2,                 Xun%Tian%NULL%1,                 Lin%Li%NULL%1,                 Hui%Xing%NULL%1,                 Ding%Ma%NULL%1,                 Chun-Rui%Li%NULL%1,                 Fei%Ye%yeyuanbei@hotmail.com%1,                 Qing-Lei%Gao%qingleigao@hotmail.com%2,                 Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                 Ang%Li%NULL%1,                 Mengfan%Jiao%NULL%1,                 Qingmiao%Shi%NULL%1,                 Xiaocai%An%NULL%1,                 Yonghai%Feng%NULL%1,                 Lihua%Xing%NULL%1,                 Hongxia%Liang%NULL%1,                 Jiajun%Chen%NULL%1,                 Huiling%Li%NULL%1,                 Juan%Li%NULL%0,                 Zhigang%Ren%NULL%1,                 Ranran%Sun%NULL%1,                 Guangying%Cui%NULL%1,                 Yongjian%Zhou%NULL%1,                 Ming%Cheng%NULL%1,                 Pengfei%Jiao%NULL%1,                 Yu%Wang%NULL%2,                 Jiyuan%Xing%NULL%1,                 Shen%Shen%NULL%1,                 Qingxian%Zhang%NULL%1,                 Aiguo%Xu%NULL%1,                 Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                 Michael%Ng%NULL%1,                 Shuang%Xu%NULL%1,                 Zhouming%Xu%NULL%1,                 Hui%Qiu%NULL%1,                 Yuwei%Liu%NULL%1,                 Jiayou%Lyu%NULL%1,                 Jiwen%You%NULL%1,                 Peng%Zhao%NULL%0,                 Shihao%Wang%NULL%1,                 Yunfei%Tang%NULL%1,                 Hao%Cui%NULL%1,                 Changxiao%Yu%NULL%1,                 Feng%Wang%NULL%5,                 Fei%Shao%NULL%1,                 Peng%Sun%NULL%1,                 Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                 Huifang%Wang%NULL%1,                 Junwei%Huang%NULL%1,                 Yan%Geng%NULL%1,                 Shuqi%Jiang%NULL%1,                 Qiuping%Zhou%NULL%1,                 Xuan%Chen%NULL%1,                 Hongping%Hu%NULL%1,                 Weifeng%Li%NULL%1,                 Chengbin%Zhou%NULL%1,                 Xinglin%Gao%NULL%1,                 Na%Peng%pnatz@163.com%1,                 Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                 Dandan%Cheng%NULL%1,                 Yiwei%Cao%NULL%1,                 Chuan%Hu%NULL%1,                 Fenglin%Zou%NULL%1,                 Wencheng%Yu%NULL%1,                 Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                 Min Kyu%Kang%NULL%2,                 Min Kyu%Kang%NULL%0,                 Yu Rim%Lee%NULL%2,                 Yu Rim%Lee%NULL%0,                 Jeong Eun%Song%NULL%2,                 Jeong Eun%Song%NULL%0,                 Na Young%Kim%NULL%1,                 Young Oh%Kweon%NULL%1,                 Won Young%Tak%NULL%1,                 Se Young%Jang%NULL%1,                 Changhyeong%Lee%NULL%2,                 Changhyeong%Lee%NULL%0,                 Byung Seok%Kim%NULL%1,                 Jae Seok%Hwang%NULL%1,                 Byoung Kuk%Jang%NULL%1,                 Jinmok%Bae%NULL%1,                 Ji Yeon%Lee%NULL%0,                 Jeong Ill%Suh%NULL%1,                 Soo Young%Park%NULL%1,                 Woo Jin%Chung%NULL%2,                 Woo Jin%Chung%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                 Cristina%Roca-Oporto%NULL%0,                 Guillermo%Martín-Gutiérrez%NULL%0,                 María Dolores%Avilés%NULL%0,                 Carmen%Gómez-González%NULL%0,                 María Dolores%Navarro-Amuedo%NULL%0,                 Julia%Praena-Segovia%NULL%0,                 José%Molina%NULL%0,                 María%Paniagua-García%NULL%0,                 Horacio%García-Delgado%NULL%0,                 Antonio%Domínguez-Petit%NULL%0,                 Jerónimo%Pachón%NULL%0,                 José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,              Calvo%Boyero Fernando%coreGivesNoEmail%1,              Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,              COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,              Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,              Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,              L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,              Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,              Santos%Lozano Alejandro%coreGivesNoEmail%1,              Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -4818,7 +5196,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1135</v>
+        <v>1261</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -4847,7 +5225,7 @@
         <v>937</v>
       </c>
       <c r="E3" t="s">
-        <v>1136</v>
+        <v>1262</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -4876,7 +5254,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>1137</v>
+        <v>1263</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -4905,7 +5283,7 @@
         <v>875</v>
       </c>
       <c r="E5" t="s">
-        <v>1138</v>
+        <v>1264</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -4934,7 +5312,7 @@
         <v>940</v>
       </c>
       <c r="E6" t="s">
-        <v>1139</v>
+        <v>1265</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -4963,7 +5341,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>1140</v>
+        <v>1266</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -4992,7 +5370,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>1141</v>
+        <v>1267</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -5021,7 +5399,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1142</v>
+        <v>1268</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -5050,7 +5428,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>1143</v>
+        <v>1269</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -5079,7 +5457,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>1144</v>
+        <v>1270</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -5108,7 +5486,7 @@
         <v>947</v>
       </c>
       <c r="E12" t="s">
-        <v>1145</v>
+        <v>1271</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -5137,7 +5515,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>1146</v>
+        <v>1272</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -5166,7 +5544,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>1147</v>
+        <v>1273</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -5195,7 +5573,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>1148</v>
+        <v>1274</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -5224,7 +5602,7 @@
         <v>953</v>
       </c>
       <c r="E16" t="s">
-        <v>1149</v>
+        <v>1275</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -5253,7 +5631,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>1150</v>
+        <v>1276</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -5282,7 +5660,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>1151</v>
+        <v>1277</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5311,7 +5689,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>1152</v>
+        <v>1278</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -5340,7 +5718,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>1153</v>
+        <v>1279</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -5369,7 +5747,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>1154</v>
+        <v>1280</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -5398,7 +5776,7 @@
         <v>690</v>
       </c>
       <c r="E22" t="s">
-        <v>1155</v>
+        <v>1281</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -5427,7 +5805,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>1156</v>
+        <v>1282</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -5456,7 +5834,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>1157</v>
+        <v>1283</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -5485,7 +5863,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>1158</v>
+        <v>1284</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -5514,7 +5892,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>1159</v>
+        <v>1285</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -5543,7 +5921,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>1160</v>
+        <v>1286</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -5572,7 +5950,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>1161</v>
+        <v>1287</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -5601,7 +5979,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1162</v>
+        <v>1288</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -5630,7 +6008,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>1163</v>
+        <v>1289</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -5659,7 +6037,7 @@
         <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>1164</v>
+        <v>1290</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -5688,7 +6066,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>1165</v>
+        <v>1291</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -5717,7 +6095,7 @@
         <v>971</v>
       </c>
       <c r="E33" t="s">
-        <v>1166</v>
+        <v>1292</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -5746,7 +6124,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>1167</v>
+        <v>1293</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -5804,7 +6182,7 @@
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>1168</v>
+        <v>1294</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -5833,7 +6211,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>1169</v>
+        <v>1295</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -5862,7 +6240,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>1170</v>
+        <v>1296</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -5891,7 +6269,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>1171</v>
+        <v>1297</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -5920,7 +6298,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>1172</v>
+        <v>1298</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -5949,7 +6327,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>1173</v>
+        <v>1299</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -5978,7 +6356,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>1174</v>
+        <v>1300</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -6007,7 +6385,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>1175</v>
+        <v>1301</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -6036,7 +6414,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>1176</v>
+        <v>1302</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -6065,7 +6443,7 @@
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>1177</v>
+        <v>1303</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -6094,7 +6472,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>1178</v>
+        <v>1304</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -6123,7 +6501,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>1179</v>
+        <v>1305</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -6152,7 +6530,7 @@
         <v>986</v>
       </c>
       <c r="E48" t="s">
-        <v>1180</v>
+        <v>1306</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -6181,7 +6559,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>1181</v>
+        <v>1307</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -6210,7 +6588,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>1182</v>
+        <v>1308</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -6239,7 +6617,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>1183</v>
+        <v>1309</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -6268,7 +6646,7 @@
         <v>991</v>
       </c>
       <c r="E52" t="s">
-        <v>1184</v>
+        <v>1310</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -6297,7 +6675,7 @@
         <v>993</v>
       </c>
       <c r="E53" t="s">
-        <v>1185</v>
+        <v>1311</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -6326,7 +6704,7 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>1186</v>
+        <v>1312</v>
       </c>
       <c r="F54" t="s">
         <v>54</v>
@@ -6355,7 +6733,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>1187</v>
+        <v>1313</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -6384,7 +6762,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>1188</v>
+        <v>1314</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -6413,7 +6791,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>1189</v>
+        <v>1315</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -6442,7 +6820,7 @@
         <v>999</v>
       </c>
       <c r="E58" t="s">
-        <v>1190</v>
+        <v>1316</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -6471,7 +6849,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>1191</v>
+        <v>1317</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -6500,7 +6878,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>1192</v>
+        <v>1318</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -6529,7 +6907,7 @@
         <v>1003</v>
       </c>
       <c r="E61" t="s">
-        <v>1193</v>
+        <v>1319</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -6558,7 +6936,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>1194</v>
+        <v>1320</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -6587,7 +6965,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>1195</v>
+        <v>1321</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -6616,7 +6994,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>1196</v>
+        <v>1322</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -6645,7 +7023,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1197</v>
+        <v>1323</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8191" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8646" uniqueCount="1387">
   <si>
     <t>Doi</t>
   </si>
@@ -4805,6 +4805,195 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,              Calvo%Boyero Fernando%coreGivesNoEmail%1,              Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,              COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,              Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,              Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,              L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,              Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,              Santos%Lozano Alejandro%coreGivesNoEmail%1,              Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                  Min%He%NULL%1,                  Wanhong%Yin%NULL%1,                  Xuelian%Liao%NULL%1,                  Bo%Wang%NULL%6,                  Xiaodong%Jin%NULL%1,                  Yao%Ma%NULL%2,                  Jirong%Yue%NULL%1,                  Lang%Bai%NULL%1,                  Dan%Liu%NULL%3,                  Ting%Zhu%NULL%1,                  Zhixin%Huang%NULL%1,                  Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                  Shuchang%Zhou%NULL%1,                  Yujin%Wang%NULL%1,                  Wenzhi%Lv%NULL%2,                  Shili%Wang%NULL%1,                  Ting%Wang%751884926@qq.com%1,                  Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                  Yan-chak%Li%NULL%1,                  Sonali%Bose%NULL%1,                  Ravi%Iyengar%NULL%1,                  Supinda%Bunyavanich%NULL%1,                  Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,         Hai-Tao%Zhang%null%1,         Jorge%Goncalves%null%1,         Yang%Xiao%null%1,         Maolin%Wang%null%1,         Yuqi%Guo%null%1,         Chuan%Sun%null%1,         Xiuchuan%Tang%null%1,         Liang%Jing%null%1,         Mingyang%Zhang%null%1,         Xiang%Huang%null%1,         Ying%Xiao%null%1,         Haosen%Cao%null%1,         Yanyan%Chen%null%1,         Tongxin%Ren%null%1,         Fang%Wang%null%1,         Yaru%Xiao%null%1,         Sufang%Huang%null%1,         Xi%Tan%null%1,         Niannian%Huang%null%1,         Bo%Jiao%null%1,         Cheng%Cheng%null%1,         Yong%Zhang%null%1,         Ailin%Luo%null%1,         Laurent%Mombaerts%null%1,         Junyang%Jin%null%1,         Zhiguo%Cao%null%1,         Shusheng%Li%null%1,         Hui%Xu%null%1,         Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                  Mengfei%Guo%NULL%1,                  Limin%Duan%NULL%1,                  Feng%Wu%NULL%1,                  Guorong%Hu%NULL%1,                  Zhihui%Wang%NULL%1,                  Qi%Huang%NULL%1,                  Tingting%Liao%NULL%1,                  Juanjuan%Xu%NULL%1,                  Yanling%Ma%NULL%1,                  Zhilei%Lv%NULL%1,                  Wenjing%Xiao%NULL%1,                  Zilin%Zhao%NULL%1,                  Xueyun%Tan%NULL%1,                  Daquan%Meng%NULL%1,                  Shujing%Zhang%NULL%1,                  E%Zhou%NULL%1,                  Zhengrong%Yin%NULL%1,                  Wei%Geng%NULL%1,                  Xuan%Wang%NULL%1,                  Jianchu%Zhang%NULL%1,                  Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                  Yu%Zhang%whxhzy@163.com%1,                  Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                  Francesco%Arru%NULL%2,                  Francesco%Arru%NULL%0,                  Andrea%De Vito%NULL%3,                  Alessandro%Sassu%NULL%2,                  Alessandro%Sassu%NULL%0,                  Giovanni%Valdes%NULL%1,                  Valentina%Scano%NULL%1,                  Elisabetta%Zinellu%NULL%1,                  Roberto%Perra%NULL%1,                  Giordano%Madeddu%NULL%3,                  Ciriaco%Carru%NULL%1,                  Pietro%Pirina%NULL%3,                  Arduino A.%Mangoni%NULL%2,                  Arduino A.%Mangoni%NULL%0,                  Sergio%Babudieri%NULL%4,                  Sergio%Babudieri%NULL%0,                  Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                  Pablo%Ryan%NULL%1,                  Jorge%Valencia%NULL%2,                  Jorge%Valencia%NULL%0,                  Mario%Pérez-Butragueño%NULL%2,                  Mario%Pérez-Butragueño%NULL%0,                  Eva%Jiménez%NULL%2,                  Eva%Jiménez%NULL%0,                  Mario%Fontán-Vela%NULL%1,                  Elsa%Izquierdo-García%NULL%2,                  Elsa%Izquierdo-García%NULL%0,                  Inés%Fernandez-Jimenez%NULL%1,                  Elena%Álvaro-Alonso%NULL%1,                  Andrea%Lazaro%NULL%2,                  Andrea%Lazaro%NULL%0,                  Marta%Alvarado%NULL%1,                  Helena%Notario%NULL%1,                  Salvador%Resino%NULL%1,                  Daniel%Velez-Serrano%NULL%1,                  Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                  Yiru%Wang%NULL%2,                  Xuecheng%Zhao%NULL%1,                  Lixuan%Wang%NULL%1,                  Feng%Liu%NULL%3,                  Tao%Wang%NULL%15,                  Dawei%Ye%NULL%2,                  Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                  Valentina%Zuccaro%NULL%1,                  Luca%Novelli%NULL%1,                  Lorenzo%Zileri%NULL%2,                  Lorenzo%Zileri%NULL%0,                  Ciro%Celsa%NULL%1,                  Federico%Raimondi%NULL%2,                  Federico%Raimondi%NULL%0,                  Mauro%Gori%NULL%1,                  Giulia%Cammà%NULL%1,                  Salvatore%Battaglia%NULL%1,                  Vincenzo Giuseppe%Genova%NULL%1,                  Laura%Paris%NULL%1,                  Matteo%Tacelli%NULL%1,                  Francesco Antonio%Mancarella%NULL%1,                  Marco%Enea%NULL%1,                  Massimo%Attanasio%NULL%1,                  Michele%Senni%NULL%1,                  Fabiano%Di Marco%NULL%1,                  Luca Ferdinando%Lorini%NULL%1,                  Stefano%Fagiuoli%NULL%1,                  Raffaele%Bruno%NULL%2,                  Calogero%Cammà%NULL%1,                  Antonio%Gasbarrini%NULL%3,                  Francesco%Di Gennaro%NULL%2,                  Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                  Gan-xun%Li%NULL%1,                  Lin%Chen%NULL%3,                  Chang%Shu%NULL%2,                  Jia%Song%NULL%1,                  Wei%Wang%NULL%2,                  Yu-wei%Wang%NULL%1,                  Qian%Chen%NULL%2,                  Guan-nan%Jin%NULL%1,                  Tong-tong%Liu%NULL%1,                  Jun-nan%Liang%NULL%1,                  Peng%Zhu%NULL%1,                  Wei%Zhu%NULL%5,                  Yong%Li%NULL%2,                  Bin-hao%Zhang%NULL%1,                  Huan%Feng%NULL%1,                  Wan-guang%Zhang%NULL%1,                  Zhen-yu%Yin%NULL%1,                  Wen-kui%Yu%NULL%1,                  Yang%Yang%NULL%2,                  Hua-qiu%Zhang%NULL%1,                  Zhou-ping%Tang%NULL%1,                  Hui%Wang%NULL%4,                  Jun-bo%Hu%NULL%1,                  Ji-hong%Liu%NULL%1,                  Ping%Yin%NULL%1,                  Xiao-ping%Chen%NULL%1,                  Bixiang%Zhang%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                  Günay%Can%NULL%2,                  Günay%Can%NULL%0,                  Rıdvan%Karaali%NULL%1,                  Şermin%Börekçi%NULL%1,                  İlker İnanç%Balkan%NULL%1,                  Bilun%Gemicioğlu%NULL%1,                  Dildar%Konukoğlu%NULL%1,                  Ethem%Erginöz%NULL%1,                  Mehmet Sarper%Erdoğan%NULL%1,                  Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                  Danila%Azzolina%NULL%1,                  Eyal%Hayden%NULL%2,                  Eyal%Hayden%NULL%0,                  Gianluca%Gaidano%NULL%2,                  Gianluca%Gaidano%NULL%0,                  Mario%Pirisi%NULL%2,                  Mario%Pirisi%NULL%0,                  Antonio%Acquaviva%NULL%2,                  Antonio%Acquaviva%NULL%0,                  Gianluca%Aimaretti%NULL%2,                  Gianluca%Aimaretti%NULL%0,                  Paolo%Aluffi Valletti%NULL%3,                  Paolo%Aluffi Valletti%NULL%0,                  Roberto%Angilletta%NULL%2,                  Roberto%Angilletta%NULL%0,                  Roberto%Arioli%NULL%2,                  Roberto%Arioli%NULL%0,                  Gian Carlo%Avanzi%NULL%2,                  Gian Carlo%Avanzi%NULL%0,                  Gianluca%Avino%NULL%2,                  Gianluca%Avino%NULL%0,                  Piero Emilio%Balbo%NULL%2,                  Piero Emilio%Balbo%NULL%0,                  Giulia%Baldon%NULL%2,                  Giulia%Baldon%NULL%0,                  Francesca%Baorda%NULL%2,                  Francesca%Baorda%NULL%0,                  Emanuela%Barbero%NULL%2,                  Emanuela%Barbero%NULL%0,                  Alessio%Baricich%NULL%2,                  Alessio%Baricich%NULL%0,                  Michela%Barini%NULL%2,                  Michela%Barini%NULL%0,                  Francesco%Barone-Adesi%NULL%2,                  Francesco%Barone-Adesi%NULL%0,                  Sofia%Battistini%NULL%2,                  Sofia%Battistini%NULL%0,                  Michela%Beltrame%NULL%2,                  Michela%Beltrame%NULL%0,                  Matteo%Bertoli%NULL%2,                  Matteo%Bertoli%NULL%0,                  Stephanie%Bertolin%NULL%2,                  Stephanie%Bertolin%NULL%0,                  Marinella%Bertolotti%NULL%2,                  Marinella%Bertolotti%NULL%0,                  Marta%Betti%NULL%2,                  Marta%Betti%NULL%0,                  Flavio%Bobbio%NULL%2,                  Flavio%Bobbio%NULL%0,                  Paolo%Boffano%NULL%2,                  Paolo%Boffano%NULL%0,                  Lucio%Boglione%NULL%2,                  Lucio%Boglione%NULL%0,                  Silvio%Borrè%NULL%2,                  Silvio%Borrè%NULL%0,                  Matteo%Brucoli%NULL%2,                  Matteo%Brucoli%NULL%0,                  Elisa%Calzaducca%NULL%2,                  Elisa%Calzaducca%NULL%0,                  Edoardo%Cammarata%NULL%2,                  Edoardo%Cammarata%NULL%0,                  Vincenzo%Cantaluppi%NULL%2,                  Vincenzo%Cantaluppi%NULL%0,                  Roberto%Cantello%NULL%2,                  Roberto%Cantello%NULL%0,                  Andrea%Capponi%NULL%2,                  Andrea%Capponi%NULL%0,                  Alessandro%Carriero%NULL%2,                  Alessandro%Carriero%NULL%0,                  Giuseppe Francesco%Casciaro%NULL%2,                  Giuseppe Francesco%Casciaro%NULL%0,                  Luigi Mario%Castello%NULL%2,                  Luigi Mario%Castello%NULL%0,                  Federico%Ceruti%NULL%2,                  Federico%Ceruti%NULL%0,                  Guido%Chichino%NULL%2,                  Guido%Chichino%NULL%0,                  Emilio%Chirico%NULL%2,                  Emilio%Chirico%NULL%0,                  Carlo%Cisari%NULL%1,                  Micol Giulia%Cittone%NULL%2,                  Micol Giulia%Cittone%NULL%0,                  Crizia%Colombo%NULL%2,                  Crizia%Colombo%NULL%0,                  Cristoforo%Comi%NULL%2,                  Cristoforo%Comi%NULL%0,                  Eleonora%Croce%NULL%2,                  Eleonora%Croce%NULL%0,                  Tommaso%Daffara%NULL%2,                  Tommaso%Daffara%NULL%0,                  Pietro%Danna%NULL%2,                  Pietro%Danna%NULL%0,                  Francesco%Della Corte%NULL%2,                  Francesco%Della Corte%NULL%0,                  Simona%De Vecchi%NULL%2,                  Simona%De Vecchi%NULL%0,                  Umberto%Dianzani%NULL%2,                  Umberto%Dianzani%NULL%0,                  Davide%Di Benedetto%NULL%2,                  Davide%Di Benedetto%NULL%0,                  Elia%Esposto%NULL%2,                  Elia%Esposto%NULL%0,                  Fabrizio%Faggiano%NULL%2,                  Fabrizio%Faggiano%NULL%0,                  Zeno%Falaschi%NULL%2,                  Zeno%Falaschi%NULL%0,                  Daniela%Ferrante%NULL%2,                  Daniela%Ferrante%NULL%0,                  Alice%Ferrero%NULL%2,                  Alice%Ferrero%NULL%0,                  Ileana%Gagliardi%NULL%2,                  Ileana%Gagliardi%NULL%0,                  Alessandra%Galbiati%NULL%2,                  Alessandra%Galbiati%NULL%0,                  Silvia%Gallo%NULL%2,                  Silvia%Gallo%NULL%0,                  Pietro Luigi%Garavelli%NULL%2,                  Pietro Luigi%Garavelli%NULL%0,                  Clara Ada%Gardino%NULL%2,                  Clara Ada%Gardino%NULL%0,                  Massimiliano%Garzaro%NULL%3,                  Massimiliano%Garzaro%NULL%0,                  Maria Luisa%Gastaldello%NULL%2,                  Maria Luisa%Gastaldello%NULL%0,                  Francesco%Gavelli%NULL%2,                  Francesco%Gavelli%NULL%0,                  Alessandra%Gennari%NULL%2,                  Alessandra%Gennari%NULL%0,                  Greta Maria%Giacomini%NULL%2,                  Greta Maria%Giacomini%NULL%0,                  Irene%Giacone%NULL%2,                  Irene%Giacone%NULL%0,                  Valentina%Giai Via%NULL%2,                  Valentina%Giai Via%NULL%0,                  Francesca%Giolitti%NULL%2,                  Francesca%Giolitti%NULL%0,                  Laura Cristina%Gironi%NULL%2,                  Laura Cristina%Gironi%NULL%0,                  Carla%Gramaglia%NULL%2,                  Carla%Gramaglia%NULL%0,                  Leonardo%Grisafi%NULL%2,                  Leonardo%Grisafi%NULL%0,                  Ilaria%Inserra%NULL%2,                  Ilaria%Inserra%NULL%0,                  Marco%Invernizzi%NULL%2,                  Marco%Invernizzi%NULL%0,                  Marco%Krengli%NULL%2,                  Marco%Krengli%NULL%0,                  Emanuela%Labella%NULL%2,                  Emanuela%Labella%NULL%0,                  Irene Cecilia%Landi%NULL%2,                  Irene Cecilia%Landi%NULL%0,                  Raffaella%Landi%NULL%2,                  Raffaella%Landi%NULL%0,                  Ilaria%Leone%NULL%2,                  Ilaria%Leone%NULL%0,                  Veronica%Lio%NULL%2,                  Veronica%Lio%NULL%0,                  Luca%Lorenzini%NULL%2,                  Luca%Lorenzini%NULL%0,                  Antonio%Maconi%NULL%2,                  Antonio%Maconi%NULL%0,                  Mario%Malerba%NULL%2,                  Mario%Malerba%NULL%0,                  Giulia Francesca%Manfredi%NULL%2,                  Giulia Francesca%Manfredi%NULL%0,                  Maria%Martelli%NULL%2,                  Maria%Martelli%NULL%0,                  Letizia%Marzari%NULL%2,                  Letizia%Marzari%NULL%0,                  Paolo%Marzullo%NULL%2,                  Paolo%Marzullo%NULL%0,                  Marco%Mennuni%NULL%2,                  Marco%Mennuni%NULL%0,                  Claudia%Montabone%NULL%2,                  Claudia%Montabone%NULL%0,                  Umberto%Morosini%NULL%2,                  Umberto%Morosini%NULL%0,                  Marco%Mussa%NULL%2,                  Marco%Mussa%NULL%0,                  Ilaria%Nerici%NULL%2,                  Ilaria%Nerici%NULL%0,                  Alessandro%Nuzzo%NULL%2,                  Alessandro%Nuzzo%NULL%0,                  Carlo%Olivieri%NULL%2,                  Carlo%Olivieri%NULL%0,                  Samuel Alberto%Padelli%NULL%2,                  Samuel Alberto%Padelli%NULL%0,                  Massimiliano%Panella%NULL%2,                  Massimiliano%Panella%NULL%0,                  Andrea%Parisini%NULL%2,                  Andrea%Parisini%NULL%0,                  Alessio%Paschè%NULL%2,                  Alessio%Paschè%NULL%0,                  Filippo%Patrucco%NULL%2,                  Filippo%Patrucco%NULL%0,                  Giuseppe%Patti%NULL%2,                  Giuseppe%Patti%NULL%0,                  Alberto%Pau%NULL%2,                  Alberto%Pau%NULL%0,                  Anita Rebecca%Pedrinelli%NULL%2,                  Anita Rebecca%Pedrinelli%NULL%0,                  Ilaria%Percivale%NULL%2,                  Ilaria%Percivale%NULL%0,                  Luca%Ragazzoni%NULL%2,                  Luca%Ragazzoni%NULL%0,                  Roberta%Re%NULL%2,                  Roberta%Re%NULL%0,                  Cristina%Rigamonti%NULL%2,                  Cristina%Rigamonti%NULL%0,                  Eleonora%Rizzi%NULL%2,                  Eleonora%Rizzi%NULL%0,                  Andrea%Rognoni%NULL%2,                  Andrea%Rognoni%NULL%0,                  Annalisa%Roveta%NULL%2,                  Annalisa%Roveta%NULL%0,                  Luigia%Salamina%NULL%2,                  Luigia%Salamina%NULL%0,                  Matteo%Santagostino%NULL%2,                  Matteo%Santagostino%NULL%0,                  Massimo%Saraceno%NULL%2,                  Massimo%Saraceno%NULL%0,                  Paola%Savoia%NULL%2,                  Paola%Savoia%NULL%0,                  Marco%Sciarra%NULL%2,                  Marco%Sciarra%NULL%0,                  Andrea%Schimmenti%NULL%2,                  Andrea%Schimmenti%NULL%0,                  Lorenza%Scotti%NULL%2,                  Lorenza%Scotti%NULL%0,                  Enrico%Spinoni%NULL%2,                  Enrico%Spinoni%NULL%0,                  Carlo%Smirne%NULL%2,                  Carlo%Smirne%NULL%0,                  Vanessa%Tarantino%NULL%2,                  Vanessa%Tarantino%NULL%0,                  Paolo Amedeo%Tillio%NULL%2,                  Paolo Amedeo%Tillio%NULL%0,                  Stelvio%Tonello%NULL%2,                  Stelvio%Tonello%NULL%0,                  Rosanna%Vaschetto%NULL%2,                  Rosanna%Vaschetto%NULL%0,                  Veronica%Vassia%NULL%2,                  Veronica%Vassia%NULL%0,                  Domenico%Zagaria%NULL%2,                  Domenico%Zagaria%NULL%0,                  Elisa%Zavattaro%NULL%2,                  Elisa%Zavattaro%NULL%0,                  Patrizia%Zeppegno%NULL%2,                  Patrizia%Zeppegno%NULL%0,                  Francesca%Zottarelli%NULL%2,                  Francesca%Zottarelli%NULL%0,                  Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                  Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                  Marta%Ottone%NULL%2,                  Marta%Ottone%NULL%0,                  Tommaso%Fasano%NULL%1,                  Pierpaolo%Pattacini%NULL%1,                  Valentina%Iotti%NULL%1,                  Lucia%Spaggiari%NULL%1,                  Riccardo%Bonacini%NULL%1,                  Andrea%Nitrosi%NULL%1,                  Efrem%Bonelli%NULL%1,                  Simone%Canovi%NULL%1,                  Rossana%Colla%NULL%1,                  Alessandro%Zerbini%NULL%1,                  Marco%Massari%NULL%1,                  Ivana%Lattuada%NULL%1,                  Anna Maria%Ferrari%NULL%1,                  Paolo%Giorgi Rossi%NULL%1,                  Massimo%Costantini%NULL%1,                  Roberto%Grilli%NULL%1,                  Massimiliano%Marino%NULL%1,                  Giulio%Formoso%NULL%1,                  Debora%Formisano%NULL%1,                  Emanuela%Bedeschi%NULL%1,                  Cinzia%Perilli%NULL%1,                  Elisabetta%La Rosa%NULL%1,                  Eufemia%Bisaccia%NULL%1,                  Ivano%Venturi%NULL%1,                  Massimo%Vicentini%NULL%1,                  Cinzia%Campari%NULL%1,                  Francesco%Gioia%NULL%1,                  Serena%Broccoli%NULL%1,                  Pamela%Mancuso%NULL%1,                  Marco%Foracchia%NULL%1,                  Mirco%Pinotti%NULL%1,                  Nicola%Facciolongo%NULL%1,                  Laura%Trabucco%NULL%1,                  Stefano%De Pietri%NULL%1,                  Giorgio Francesco%Danelli%NULL%1,                  Laura%Albertazzi%NULL%1,                  Enrica%Bellesia%NULL%1,                  Mattia%Corradini%NULL%1,                  Elena%Magnani%NULL%1,                  Annalisa%Pilia%NULL%1,                  Alessandra%Polese%NULL%1,                  Silvia Storchi%Incerti%NULL%1,                  Piera%Zaldini%NULL%1,                  Bonanno%Orsola%NULL%1,                  Matteo%Revelli%NULL%1,                  Carlo%Salvarani%NULL%1,                  Carmine%Pinto%NULL%1,                  Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                  Hong-Qiu%Gu%NULL%1,                  Yi%Liu (刘艺)%NULL%1,                  Guqin%Zhang%NULL%1,                  Hang%Yang%NULL%1,                  Huifang%Hu%NULL%1,                  Chenyang%Lu%NULL%1,                  Yang%Li%NULL%3,                  Liyi%Wang%NULL%1,                  Yi%Liu (刘毅)%yi2006liu@163.com%1,                  Yi%Zhao%zhao.y1977@163.com%1,                  Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                  Tawsifur%Rahman%NULL%2,                  Tawsifur%Rahman%NULL%0,                  Amith%Khandakar%NULL%3,                  Somaya%Al-Madeed%NULL%2,                  Susu M.%Zughaier%NULL%5,                  Suhail A. R.%Doi%NULL%3,                  Hanadi%Hassen%NULL%1,                  Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                  Jia%Sun%NULL%1,                  Yi-Xin%Li%NULL%1,                  Qian%Chen%NULL%0,                  Qing-Quan%Liu%NULL%1,                  Zhou%Sun%NULL%1,                  Ran%Pang%NULL%1,                  Fei%Chen%NULL%1,                  Bing-Yang%Xu%NULL%1,                  Anne%Manyande%NULL%1,                  Taane G%Clark%NULL%1,                  Jin-Ping%Li%NULL%1,                  Ilkay Erdogan%Orhan%NULL%1,                  Yu-Ke%Tian%NULL%1,                  Tao%Wang%wt7636@126.com%0,                  Wei%Wu%wt7636@126.com%1,                  Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,           Xinyan%Cai%xref no email%1,           Robert%Lennon%xref no email%1,           Derjung M.%Tarn%xref no email%1,           Arch G.%Mainous%xref no email%1,           Aleksandra E.%Zgierska%xref no email%1,           Bruce%Barrett%xref no email%1,           Wen-Jan%Tuan%xref no email%1,           Kevin%Maloy%xref no email%1,           Munish%Goyal%xref no email%1,           Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,               Imam%Z%coreGivesNoEmail%1,               Lippi%G%coreGivesNoEmail%1,               Oran%DP%coreGivesNoEmail%1,               Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                  Caiping%Song%NULL%1,                  En%Liu%NULL%1,                  Xi%Liu%NULL%1,                  Hao%Wu%NULL%1,                  Hui%Lin%NULL%1,                  Yuliang%Liu%NULL%1,                  Qi%Li%NULL%1,                  Zhi%Xu%NULL%1,                  XiaoBao%Ren%NULL%1,                  Cheng%Zhang%NULL%1,                  Wenjing%Zhang%NULL%1,                  Wei%Duan%NULL%2,                  Yongfeng%Tian%NULL%1,                  Ping%Li%NULL%1,                  Mingdong%Hu%NULL%1,                  Shiming%Yang%NULL%1,                  Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                  Changli%Li%NULL%1,                  Li%Zheng%NULL%1,                  Wenzhi%Lv%NULL%0,                  Zhigang%He%NULL%1,                  Xinwu%Cui%NULL%1,                  Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,           Liang%Li%xref no email%1,           Li%Wang%xref no email%1,           Huan%Liu%xref no email%2,           Xuefang%Lu%xref no email%1,           Feifei%Zeng%xref no email%1,           Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                  Hayne Cho%Park%NULL%2,                  Hayne Cho%Park%NULL%0,                  Ajin%Cho%NULL%1,                  Juhee%Kim%NULL%1,                  Kyu-sang%Yun%NULL%1,                  Jinseog%Kim%NULL%1,                  Young-Ki%Lee%NULL%1,                  Sinan%Kardes.%NULL%2,                  Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,           Luyu%Yang%xref no email%1,           Qian%Zeng%xref no email%1,           Qingyun%Li%xref no email%1,           Zhitao%Yang%xref no email%1,           Lizhong%Han%xref no email%1,           Xiaodong%Huang%xref no email%1,           Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%3,                  Xiaoyu%Fang%NULL%1,                  Lixia%Cheng%NULL%1,                  Penghao%Wang%NULL%1,                  Shen%Li%NULL%1,                  Hao%Yu%NULL%1,                  Yao%Zhang%NULL%2,                  Nan%Jiang%NULL%1,                  Tingting%Zeng%NULL%1,                  Chao%Hou%NULL%1,                  Jing%Zhou%NULL%0,                  Shiru%Li%NULL%1,                  Yingzi%Pan%NULL%1,                  Yitong%Li%NULL%1,                  Lili%Nie%NULL%1,                  Yang%Li%NULL%0,                  Qidi%Sun%NULL%1,                  Hong%Jia%NULL%1,                  Mengxia%Li%NULL%1,                  Guoqiang%Cao%NULL%1,                  Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                  Lucas A%Ramos%NULL%2,                  Lucas A%Ramos%NULL%0,                  Wouter%Potters%NULL%1,                  Marcus L F%Janssen%NULL%1,                  Deborah%Hubers%NULL%1,                  Shi%Hu%NULL%1,                  Egill A%Fridgeirsson%NULL%1,                  Dan%Piña-Fuentes%NULL%1,                  Rajat%Thomas%NULL%1,                  Iwan C C%van der Horst%NULL%1,                  Christian%Herff%NULL%2,                  Christian%Herff%NULL%0,                  Pieter%Kubben%NULL%1,                  Paul W G%Elbers%NULL%1,                  Henk A%Marquering%NULL%1,                  Max%Welling%NULL%1,                  Suat%Simsek%NULL%1,                  Martijn D%de Kruif%NULL%1,                  Tom%Dormans%NULL%1,                  Lucas M%Fleuren%NULL%1,                  Michiel%Schinkel%NULL%1,                  Peter G%Noordzij%NULL%1,                  Joop P%van den Bergh%NULL%2,                  Joop P%van den Bergh%NULL%0,                  Caroline E%Wyers%NULL%1,                  David T B%Buis%NULL%2,                  David T B%Buis%NULL%0,                  W Joost%Wiersinga%NULL%1,                  Ella H C%van den Hout%NULL%1,                  Auke C%Reidinga%NULL%1,                  Daisy%Rusch%NULL%1,                  Kim C E%Sigaloff%NULL%1,                  Renee A%Douma%NULL%1,                  Lianne%de Haan%NULL%1,                  Niels C%Gritters van den Oever%NULL%1,                  Roger J M W%Rennenberg%NULL%1,                  Guido A%van Wingen%NULL%1,                  Marcel J H%Aries%NULL%1,                  Martijn%Beudel%NULL%2,                  Martijn%Beudel%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                  Fajer A.%Al-Ishaq%NULL%2,                  Fajer A.%Al-Ishaq%NULL%0,                  Fatima S.%Al-Mohannadi%NULL%1,                  Reem S.%Mubarak%NULL%1,                  Maryam H.%Al-Hitmi%NULL%1,                  Khandaker Reajul%Islam%NULL%1,                  Amith%Khandakar%NULL%0,                  Ali Ait%Hssain%NULL%3,                  Ali Ait%Hssain%NULL%0,                  Somaya%Al-Madeed%NULL%0,                  Susu M.%Zughaier%NULL%0,                  Susu M.%Zughaier%NULL%0,                  Muhammad E. H.%Chowdhury%NULL%3,                  Muhammad E. H.%Chowdhury%NULL%0,                  Antonella%Santone%NULL%3,                  Antonella%Santone%NULL%0,                  Antonella%Santone%NULL%0,                  Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                  Amith%Khandakar%NULL%0,                  Md Enamul%Hoque%NULL%2,                  Md Enamul%Hoque%NULL%0,                  Nabil%Ibtehaz%NULL%2,                  Nabil%Ibtehaz%NULL%0,                  Saad Bin%Kashem%NULL%2,                  Saad Bin%Kashem%NULL%0,                  Reehum%Masud%NULL%1,                  Lutfunnahar%Shampa%NULL%1,                  Mohammad Mehedi%Hasan%NULL%1,                  Mohammad Tariqul%Islam%NULL%1,                  Somaya%Al-Maadeed%NULL%2,                  Somaya%Al-Maadeed%NULL%0,                  Susu M.%Zughaier%NULL%0,                  Susu M.%Zughaier%NULL%0,                  Saif%Badran%NULL%2,                  Saif%Badran%NULL%0,                  Suhail A. R.%Doi%NULL%0,                  Suhail A. R.%Doi%NULL%0,                  Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                  Pablo%Rodríguez-Belenguer%NULL%2,                  Pablo%Rodríguez-Belenguer%NULL%0,                  Antonio J.%Serrano-López%NULL%1,                  Emilio%Soria-Olivas%NULL%2,                  Emilio%Soria-Olivas%NULL%0,                  Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                  Haibo%Ai%NULL%1,                  Yunong%Fu%NULL%1,                  Qinglin%Li%NULL%1,                  Ruixia%Cui%NULL%1,                  Xiaohua%Ma%NULL%1,                  Yan-fen%Ma%NULL%1,                  Zi%Wang%NULL%1,                  Tong%Liu%NULL%1,                  Yunxiang%Long%NULL%1,                  Kai%Qu%NULL%1,                  Chang%Liu%NULL%1,                  Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,           Rongqing%Sun%xref no email%1,           Wenbo%Sun%xref no email%1,           Dan%Xu%xref no email%1,           Lan%Lan%xref no email%1,           Huan%Li%xref no email%2,           Huan%Liu%xref no email%0,           Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                  Dawei%Zhang%NULL%1,                  Jing%Xu%NULL%6,                  Zhu%Chen%NULL%1,                  Tieniu%Yang%NULL%1,                  Peng%Zhao%NULL%2,                  Guofeng%Chen%NULL%1,                  Gregory%Cheng%NULL%1,                  Yudong%Wang%NULL%1,                  Jingfeng%Bi%NULL%1,                  Lin%Tan%NULL%1,                  George%Lau%NULL%1,                  Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                  Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                  Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                  Giulia%Suigo%NULL%1,                  Davide%Zampini%NULL%1,                  Matteo%Pistoia%NULL%1,                  Mariella%Ciola%NULL%1,                  Tommaso%Ciampani%NULL%1,                  Carolina%Ultori%NULL%1,                  Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                  John R%Adler%NULL%3,                  Sultan M%Kamran%NULL%2,                  Sultan M%Kamran%NULL%0,                  Zill-e-Humayun%Mirza%NULL%1,                  Hussain Abdul%Moeed%NULL%1,                  Arshad%Naseem%NULL%1,                  Maryam%Hussain%NULL%1,                  Imran%Fazal%NULL%1,                  Farrukh%Saeed%NULL%1,                  Wasim%Alamgir%NULL%1,                  Salman%Saleem%NULL%1,                  Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,           Zilong%Liu%xref no email%1,           Weipeng%Jiang%xref no email%1,           Jian%Wang%xref no email%4,           Mengchan%Zhu%xref no email%1,           Juan%Song%xref no email%0,           Xiaoyue%Wang%xref no email%1,           Ying%Su%xref no email%1,           Guiling%Xiang%xref no email%1,           Maosong%Ye%xref no email%1,           Jiamin%Li%xref no email%1,           Yong%Zhang%xref no email%1,           Qinjun%Shen%xref no email%1,           Zhuozhe%Li%xref no email%1,           Danwei%Yao%xref no email%1,           Yuanlin%Song%xref no email%0,           Kaihuan%Yu%xref no email%1,           Zhe%Luo%xref no email%1,           Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                  María M.%Martín%NULL%1,                  Mónica%Argueso%NULL%1,                  Jordi%Solé-Violán%NULL%1,                  Alina%Perez%NULL%1,                  José Alberto%Marcos Y Ramos%NULL%1,                  Luis%Ramos-Gómez%NULL%1,                  Sergio%López%NULL%1,                  Andrés%Franco%NULL%1,                  Agustín F.%González-Rivero%NULL%1,                  María%Martín%NULL%1,                  Verónica%Gonzalez%NULL%1,                  Julia%Alcoba-Flórez%NULL%1,                  Miguel Ángel%Rodriguez%NULL%1,                  Marta%Riaño-Ruiz%NULL%1,                  Juan%Guillermo O Campo%NULL%1,                  Lourdes%González%NULL%1,                  Tamara%Cantera%NULL%1,                  Raquel%Ortiz-López%NULL%1,                  Nazario%Ojeda%NULL%1,                  Aurelio%Rodríguez-Pérez%NULL%1,                  Casimira%Domínguez%NULL%1,                  Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                  Rita%Kukafka%NULL%1,                  Arriel%Benis%NULL%2,                  Arriel%Benis%NULL%0,                  Jinfeng%Li%NULL%1,                  Pan%Pan%NULL%2,                  Pan%Pan%NULL%0,                  Yichao%Li%NULL%2,                  Yichao%Li%NULL%0,                  Yongjiu%Xiao%NULL%2,                  Yongjiu%Xiao%NULL%0,                  Bingchao%Han%NULL%2,                  Bingchao%Han%NULL%0,                  Longxiang%Su%NULL%2,                  Longxiang%Su%NULL%0,                  Mingliang%Su%NULL%2,                  Mingliang%Su%NULL%0,                  Yansheng%Li%NULL%2,                  Yansheng%Li%NULL%0,                  Siqi%Zhang%NULL%2,                  Siqi%Zhang%NULL%0,                  Dapeng%Jiang%NULL%2,                  Dapeng%Jiang%NULL%0,                  Xia%Chen%NULL%2,                  Xia%Chen%NULL%0,                  Fuquan%Zhou%NULL%2,                  Fuquan%Zhou%NULL%0,                  Ling%Ma%NULL%2,                  Ling%Ma%NULL%0,                  Pengtao%Bao%NULL%2,                  Pengtao%Bao%NULL%0,                  Lixin%Xie%xielx301@126.com%2,                  Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                  Cristina%Roca-Oporto%NULL%2,                  Guillermo%Martín-Gutiérrez%NULL%2,                  María Dolores%Avilés%NULL%2,                  Carmen%Gómez-González%NULL%2,                  María Dolores%Navarro-Amuedo%NULL%2,                  Julia%Praena-Segovia%NULL%2,                  José%Molina%NULL%2,                  María%Paniagua-García%NULL%2,                  Horacio%García-Delgado%NULL%2,                  Antonio%Domínguez-Petit%NULL%2,                  Jerónimo%Pachón%NULL%2,                  José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                  Barry R.%Meisenberg%NULL%2,                  Barry R.%Meisenberg%NULL%0,                  James H.%MacDonald%NULL%1,                  Nandakumar%Menon%NULL%1,                  Marcia B.%Fowler%NULL%1,                  Michaline%West%NULL%1,                  Jane%Rhule%NULL%1,                  Sadaf S.%Qureshi%NULL%1,                  Eileen B.%MacDonald%NULL%1,                  Yu Ru%Kou%NULL%2,                  Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                  Sarah%Poole%NULL%2,                  Sarah%Poole%NULL%0,                  Meeta%Pradhan%NULL%1,                  Akhil%Vaid%NULL%3,                  Akhil%Vaid%NULL%0,                  Sulaiman%Somani%NULL%3,                  Sulaiman%Somani%NULL%0,                  Adam J%Russak%NULL%2,                  Adam J%Russak%NULL%0,                  Jessica K%De Freitas%NULL%2,                  Jessica K%De Freitas%NULL%0,                  Fayzan F%Chaudhry%NULL%2,                  Fayzan F%Chaudhry%NULL%0,                  Ishan%Paranjpe%NULL%3,                  Ishan%Paranjpe%NULL%0,                  Kipp W%Johnson%NULL%2,                  Kipp W%Johnson%NULL%0,                  Samuel J%Lee%NULL%2,                  Samuel J%Lee%NULL%0,                  Riccardo%Miotto%NULL%2,                  Riccardo%Miotto%NULL%0,                  Felix%Richter%NULL%3,                  Felix%Richter%NULL%0,                  Shan%Zhao%NULL%3,                  Shan%Zhao%NULL%0,                  Noam D%Beckmann%NULL%2,                  Noam D%Beckmann%NULL%0,                  Nidhi%Naik%NULL%2,                  Nidhi%Naik%NULL%0,                  Arash%Kia%NULL%2,                  Arash%Kia%NULL%0,                  Prem%Timsina%NULL%2,                  Prem%Timsina%NULL%0,                  Anuradha%Lala%NULL%2,                  Anuradha%Lala%NULL%0,                  Manish%Paranjpe%NULL%2,                  Manish%Paranjpe%NULL%0,                  Eddye%Golden%NULL%2,                  Eddye%Golden%NULL%0,                  Matteo%Danieletto%NULL%2,                  Matteo%Danieletto%NULL%0,                  Manbir%Singh%NULL%2,                  Manbir%Singh%NULL%0,                  Dara%Meyer%NULL%2,                  Dara%Meyer%NULL%0,                  Paul F%O'Reilly%NULL%2,                  Paul F%O'Reilly%NULL%0,                  Laura%Huckins%NULL%2,                  Laura%Huckins%NULL%0,                  Patricia%Kovatch%NULL%2,                  Patricia%Kovatch%NULL%0,                  Joseph%Finkelstein%NULL%2,                  Joseph%Finkelstein%NULL%0,                  Robert M.%Freeman%NULL%2,                  Robert M.%Freeman%NULL%0,                  Edgar%Argulian%NULL%2,                  Edgar%Argulian%NULL%0,                  Andrew%Kasarskis%NULL%2,                  Andrew%Kasarskis%NULL%0,                  Bethany%Percha%NULL%2,                  Bethany%Percha%NULL%0,                  Judith A%Aberg%NULL%2,                  Judith A%Aberg%NULL%0,                  Emilia%Bagiella%NULL%3,                  Emilia%Bagiella%NULL%0,                  Carol R%Horowitz%NULL%2,                  Carol R%Horowitz%NULL%0,                  Barbara%Murphy%NULL%2,                  Barbara%Murphy%NULL%0,                  Eric J%Nestler%NULL%2,                  Eric J%Nestler%NULL%0,                  Eric E%Schadt%NULL%2,                  Eric E%Schadt%NULL%0,                  Judy H%Cho%NULL%2,                  Judy H%Cho%NULL%0,                  Carlos%Cordon-Cardo%NULL%2,                  Carlos%Cordon-Cardo%NULL%0,                  Valentin%Fuster%NULL%3,                  Valentin%Fuster%NULL%0,                  Dennis S%Charney%NULL%2,                  Dennis S%Charney%NULL%0,                  David L%Reich%NULL%2,                  David L%Reich%NULL%0,                  Erwin P%Bottinger%NULL%2,                  Erwin P%Bottinger%NULL%0,                  Matthew A%Levin%NULL%2,                  Matthew A%Levin%NULL%0,                  Jagat%Narula%NULL%3,                  Jagat%Narula%NULL%0,                  Zahi A%Fayad%NULL%2,                  Zahi A%Fayad%NULL%0,                  Allan C%Just%NULL%2,                  Allan C%Just%NULL%0,                  Alexander W%Charney%NULL%2,                  Alexander W%Charney%NULL%0,                  Girish N%Nadkarni%NULL%2,                  Girish N%Nadkarni%NULL%0,                  Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                  Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                  Anne%Chen%NULL%2,                  Wei%Hou%NULL%3,                  James M.%Graham%NULL%1,                  Haifang%Li%NULL%2,                  Paul S.%Richman%NULL%1,                  Henry C.%Thode%NULL%1,                  Adam J.%Singer%NULL%1,                  Tim Q.%Duong%NULL%1,                  Muhammad%Adrish%NULL%9,                  Muhammad%Adrish%NULL%0,                  Muhammad%Adrish%NULL%0,                  Muhammad%Adrish%NULL%0,                  Muhammad%Adrish%NULL%0,                  Muhammad%Adrish%NULL%0,                  Muhammad%Adrish%NULL%0,                  Muhammad%Adrish%NULL%0,                  Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                  Qin%Liu%NULL%2,                  Xiao%Zhang%NULL%2,                  Shuyi%Liu%NULL%1,                  Weiqi%Chen%NULL%1,                  Jingjing%You%NULL%1,                  Qiuying%Chen%NULL%1,                  Minmin%Li%NULL%1,                  Zhuozhi%Chen%NULL%1,                  Luyan%Chen%NULL%1,                  Lv%Chen%NULL%1,                  Yuhao%Dong%NULL%1,                  Qingsi%Zeng%NULL%1,                  Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                  Lei%Nie%NULL%1,                  Dongde%Wu%NULL%1,                  Jian%Chen%NULL%2,                  Zhifeng%Yang%NULL%1,                  Ling%Zhang%NULL%3,                  Dongqing%Li%NULL%1,                  Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,           Feiyang%Zhong%xref no email%1,           Hanfei%Zhang%xref no email%1,           Wenting%An%xref no email%1,           Meiyan%Liao%xref no email%1,           Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                  Burcin%Hakoglu%NULL%2,                  Burcin%Hakoglu%NULL%0,                  Ali%Kadri Cirak%NULL%1,                  Gulru%Polat%NULL%1,                  Berna%Komurcuoglu%NULL%1,                  Berrin%Akkol%NULL%1,                  Cagri%Atasoy%NULL%1,                  Eda%Bayramic%NULL%1,                  Gunseli%Balci%NULL%1,                  Sena%Ataman%NULL%1,                  Sinem%Ermin%NULL%1,                  Enver%Yalniz%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%2,           Lili%Huang%xref no email%1,           Jin%Chen%xref no email%1,           Xiaowei%Yuan%xref no email%1,           Qinhua%Shen%xref no email%1,           Su%Dong%xref no email%1,           Bei%Cheng%xref no email%1,           Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                  Qiaosen%Chen%NULL%2,                  Qiaosen%Chen%NULL%0,                  Sumeng%Li%NULL%1,                  Huadong%Li%NULL%1,                  Qian%Zhang%NULL%1,                  Sihong%Lu%NULL%1,                  Li%Wu%NULL%1,                  Leiqun%Xiong%NULL%1,                  Bobin%Mi%NULL%1,                  Di%Liu%NULL%3,                  Mengji%Lu%NULL%1,                  Dongliang%Yang%NULL%1,                  Hongbo%Jiang%hongbojiang3@163.com%1,                  Shaoping%Zheng%zhengspxx@126.com%1,                  Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                  Hua%Zhang%NULL%2,                  Rui%Qiao%NULL%1,                  Qinggang%Ge%NULL%1,                  Shuisheng%Zhang%NULL%1,                  Zongxuan%Zhao%NULL%1,                  Ci%Tian%NULL%1,                  Qingbian%Ma%NULL%2,                  Qingbian%Ma%NULL%0,                  Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                  Antonia%Ho%NULL%2,                  Riinu%Pius%NULL%2,                  Iain%Buchan%NULL%1,                  Gail%Carson%NULL%2,                  Thomas M%Drake%NULL%1,                  Jake%Dunning%NULL%2,                  Cameron J%Fairfield%NULL%2,                  Carrol%Gamble%NULL%2,                  Christopher A%Green%NULL%2,                  Rishi%Gupta%NULL%1,                  Sophie%Halpin%NULL%2,                  Hayley E%Hardwick%NULL%1,                  Karl A%Holden%NULL%1,                  Peter W%Horby%NULL%2,                  Clare%Jackson%NULL%2,                  Kenneth A%Mclean%NULL%2,                  Laura%Merson%NULL%2,                  Jonathan S%Nguyen-Van-Tam%NULL%1,                  Lisa%Norman%NULL%2,                  Mahdad%Noursadeghi%NULL%2,                  Piero L%Olliaro%NULL%1,                  Mark G%Pritchard%NULL%1,                  Clark D%Russell%NULL%2,                  Catherine A%Shaw%NULL%2,                  Aziz%Sheikh%NULL%2,                  Tom%Solomon%NULL%2,                  Cathie%Sudlow%NULL%1,                  Olivia V%Swann%NULL%1,                  Lance CW%Turtle%NULL%2,                  Peter JM%Openshaw%NULL%2,                  J Kenneth%Baillie%NULL%2,                  Malcolm G%Semple%NULL%3,                  Annemarie B%Docherty%NULL%3,                  Annemarie B%Docherty%NULL%0,                  Ewen M%Harrison%NULL%3,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  J Kenneth%Baillie%NULL%0,                  Malcolm G%Semple%NULL%0,                  Peter JM%Openshaw%NULL%0,                  Gail%Carson%NULL%0,                  Beatrice%Alex%NULL%1,                  Benjamin%Bach%NULL%1,                  Wendy S%Barclay%NULL%1,                  Debby%Bogaert%NULL%1,                  Meera%Chand%NULL%1,                  Graham S%Cooke%NULL%1,                  Annemarie B%Docherty%NULL%0,                  Jake%Dunning%NULL%0,                  Ana%da Silva Filipe%NULL%1,                  Tom%Fletcher%NULL%1,                  Christopher A%Green%NULL%0,                  Ewen M%Harrison%NULL%0,                  Julian A%Hiscox%NULL%1,                  Antonia Ying Wai%Ho%NULL%1,                  Peter W%Horby%NULL%0,                  Samreen%Ijaz%NULL%1,                  Saye%Khoo%NULL%1,                  Paul%Klenerman%NULL%1,                  Andrew%Law%NULL%2,                  Wei Shen%Lim%NULL%1,                  Alexander J%Mentzer%NULL%1,                  Laura%Merson%NULL%0,                  Alison M%Meynert%NULL%1,                  Mahdad%Noursadeghi%NULL%0,                  Shona C%Moore%NULL%2,                  Massimo%Palmarini%NULL%1,                  William A%Paxton%NULL%1,                  Georgios%Pollakis%NULL%1,                  Nicholas%Price%NULL%1,                  Andrew%Rambaut%NULL%1,                  David L%Robertson%NULL%1,                  Clark D%Russell%NULL%0,                  Vanessa%Sancho-Shimizu%NULL%1,                  Janet T%Scott%NULL%1,                  Louise%Sigfrid%NULL%1,                  Tom%Solomon%NULL%0,                  Shiranee%Sriskandan%NULL%1,                  David%Stuart%NULL%1,                  Charlotte%Summers%NULL%1,                  Richard S%Tedder%NULL%1,                  Emma C%Thomson%NULL%1,                  Ryan S%Thwaites%NULL%1,                  Lance CW%Turtle%NULL%0,                  Maria%Zambon%NULL%1,                  Hayley%Hardwick%NULL%1,                  Chloe%Donohue%NULL%1,                  Jane%Ewins%NULL%1,                  Wilna%Oosthuyzen%NULL%1,                  Fiona%Griffiths%NULL%1,                  Lisa%Norman%NULL%0,                  Riinu%Pius%NULL%0,                  Tom M%Drake%NULL%1,                  Cameron J%Fairfield%NULL%0,                  Stephen%Knight%NULL%1,                  Kenneth A%Mclean%NULL%0,                  Derek%Murphy%NULL%1,                  Catherine A%Shaw%NULL%0,                  Jo%Dalton%NULL%1,                  Michelle%Girvan%NULL%1,                  Egle%Saviciute%NULL%1,                  Stephanie%Roberts%NULL%1,                  Janet%Harrison%NULL%1,                  Laura%Marsh%NULL%1,                  Marie%Connor%NULL%1,                  Sophie%Halpin%NULL%0,                  Clare%Jackson%NULL%0,                  Carrol%Gamble%NULL%0,                  Gary%Leeming%NULL%1,                  Andrew%Law%NULL%0,                  Ross%Hendry%NULL%1,                  James%Scott-Brown%NULL%1,                  William%Greenhalf%NULL%1,                  Victoria%Shaw%NULL%1,                  Sarah%McDonald%NULL%2,                  Katie A%Ahmed%NULL%1,                  Jane A%Armstrong%NULL%1,                  Milton%Ashworth%NULL%1,                  Innocent G%Asiimwe%NULL%1,                  Siddharth%Bakshi%NULL%1,                  Samantha L%Barlow%NULL%1,                  Laura%Booth%NULL%1,                  Benjamin%Brennan%NULL%1,                  Katie%Bullock%NULL%1,                  Benjamin WA%Catterall%NULL%1,                  Jordan J%Clark%NULL%1,                  Emily A%Clarke%NULL%1,                  Sarah%Cole%NULL%1,                  Louise%Cooper%NULL%1,                  Helen%Cox%NULL%1,                  Christopher%Davis%NULL%1,                  Oslem%Dincarslan%NULL%1,                  Chris%Dunn%NULL%1,                  Philip%Dyer%NULL%1,                  Angela%Elliott%NULL%1,                  Anthony%Evans%NULL%1,                  Lewis WS%Fisher%NULL%1,                  Terry%Foster%NULL%1,                  Isabel%Garcia-Dorival%NULL%1,                  Willliam%Greenhalf%NULL%1,                  Philip%Gunning%NULL%1,                  Catherine%Hartley%NULL%1,                  Antonia%Ho%NULL%0,                  Rebecca L%Jensen%NULL%1,                  Christopher B%Jones%NULL%1,                  Trevor R%Jones%NULL%1,                  Shadia%Khandaker%NULL%1,                  Katharine%King%NULL%1,                  Robyn T%Kiy%NULL%1,                  Chrysa%Koukorava%NULL%1,                  Annette%Lake%NULL%1,                  Suzannah%Lant%NULL%1,                  Diane%Latawiec%NULL%1,                  L%Lavelle-Langham%NULL%1,                  Daniella%Lefteri%NULL%1,                  Lauren%Lett%NULL%1,                  Lucia A%Livoti%NULL%1,                  Maria%Mancini%NULL%1,                  Sarah%McDonald%NULL%0,                  Laurence%McEvoy%NULL%1,                  John%McLauchlan%NULL%1,                  Soeren%Metelmann%NULL%1,                  Nahida S%Miah%NULL%1,                  Joanna%Middleton%NULL%1,                  Joyce%Mitchell%NULL%1,                  Shona C%Moore%NULL%0,                  Ellen G%Murphy%NULL%1,                  Rebekah%Penrice-Randal%NULL%1,                  Jack%Pilgrim%NULL%1,                  Tessa%Prince%NULL%1,                  Will%Reynolds%NULL%1,                  P Matthew%Ridley%NULL%1,                  Debby%Sales%NULL%1,                  Victoria E%Shaw%NULL%1,                  Rebecca K%Shears%NULL%1,                  Benjamin%Small%NULL%1,                  Krishanthi S%Subramaniam%NULL%1,                  Agnieska%Szemiel%NULL%1,                  Aislynn%Taggart%NULL%1,                  Jolanta%Tanianis-Hughes%NULL%1,                  Jordan%Thomas%NULL%1,                  Erwan%Trochu%NULL%1,                  Libby%van Tonder%NULL%1,                  Eve%Wilcock%NULL%1,                  J Eunice%Zhang%NULL%1,                  Kayode%Adeniji%NULL%1,                  Daniel%Agranoff%NULL%1,                  Ken%Agwuh%NULL%1,                  Dhiraj%Ail%NULL%1,                  Ana%Alegria%NULL%1,                  Brian%Angus%NULL%1,                  Abdul%Ashish%NULL%1,                  Dougal%Atkinson%NULL%1,                  Shahedal%Bari%NULL%1,                  Gavin%Barlow%NULL%1,                  Stella%Barnass%NULL%1,                  Nicholas%Barrett%NULL%2,                  Christopher%Bassford%NULL%1,                  David%Baxter%NULL%1,                  Michael%Beadsworth%NULL%1,                  Jolanta%Bernatoniene%NULL%1,                  John%Berridge%NULL%1,                  Nicola%Best%NULL%1,                  Pieter%Bothma%NULL%1,                  David%Brealey%NULL%1,                  Robin%Brittain-Long%NULL%1,                  Naomi%Bulteel%NULL%1,                  Tom%Burden%NULL%1,                  Andrew%Burtenshaw%NULL%1,                  Vikki%Caruth%NULL%1,                  David%Chadwick%NULL%1,                  Duncan%Chambler%NULL%1,                  Nigel%Chee%NULL%1,                  Jenny%Child%NULL%1,                  Srikanth%Chukkambotla%NULL%1,                  Tom%Clark%NULL%1,                  Paul%Collini%NULL%1,                  Catherine%Cosgrove%NULL%1,                  Jason%Cupitt%NULL%1,                  Maria-Teresa%Cutino-Moguel%NULL%1,                  Paul%Dark%NULL%1,                  Chris%Dawson%NULL%1,                  Samir%Dervisevic%NULL%1,                  Phil%Donnison%NULL%1,                  Sam%Douthwaite%NULL%1,                  Ingrid%DuRand%NULL%1,                  Ahilanadan%Dushianthan%NULL%1,                  Tristan%Dyer%NULL%1,                  Cariad%Evans%NULL%1,                  Chi%Eziefula%NULL%1,                  Chrisopher%Fegan%NULL%1,                  Adam%Finn%NULL%1,                  Duncan%Fullerton%NULL%1,                  Sanjeev%Garg%NULL%2,                  Sanjeev%Garg%NULL%0,                  Atul%Garg%NULL%1,                  Jo%Godden%NULL%1,                  Arthur%Goldsmith%NULL%1,                  Clive%Graham%NULL%1,                  Elaine%Hardy%NULL%1,                  Stuart%Hartshorn%NULL%1,                  Daniel%Harvey%NULL%1,                  Peter%Havalda%NULL%1,                  Daniel B%Hawcutt%NULL%1,                  Maria%Hobrok%NULL%1,                  Luke%Hodgson%NULL%1,                  Anita%Holme%NULL%1,                  Anil%Hormis%NULL%1,                  Michael%Jacobs%NULL%1,                  Susan%Jain%NULL%1,                  Paul%Jennings%NULL%1,                  Agilan%Kaliappan%NULL%1,                  Vidya%Kasipandian%NULL%1,                  Stephen%Kegg%NULL%1,                  Michael%Kelsey%NULL%1,                  Jason%Kendall%NULL%1,                  Caroline%Kerrison%NULL%1,                  Ian%Kerslake%NULL%1,                  Oliver%Koch%NULL%2,                  Gouri%Koduri%NULL%1,                  George%Koshy%NULL%1,                  Shondipon%Laha%NULL%1,                  Susan%Larkin%NULL%1,                  Tamas%Leiner%NULL%1,                  Patrick%Lillie%NULL%1,                  James%Limb%NULL%1,                  Vanessa%Linnett%NULL%1,                  Jeff%Little%NULL%1,                  Michael%MacMahon%NULL%1,                  Emily%MacNaughton%NULL%1,                  Ravish%Mankregod%NULL%1,                  Huw%Masson%NULL%1,                  Elijah%Matovu%NULL%1,                  Katherine%McCullough%NULL%1,                  Ruth%McEwen%NULL%1,                  Manjula%Meda%NULL%1,                  Gary%Mills%NULL%1,                  Jane%Minton%NULL%1,                  Mariyam%Mirfenderesky%NULL%1,                  Kavya%Mohandas%NULL%1,                  Quen%Mok%NULL%1,                  James%Moon%NULL%1,                  Elinoor%Moore%NULL%1,                  Patrick%Morgan%NULL%1,                  Craig%Morris%NULL%1,                  Katherine%Mortimore%NULL%1,                  Samuel%Moses%NULL%1,                  Mbiye%Mpenge%NULL%1,                  Rohinton%Mulla%NULL%1,                  Michael%Murphy%NULL%1,                  Megan%Nagel%NULL%1,                  Thapas%Nagarajan%NULL%1,                  Mark%Nelson%NULL%1,                  Igor%Otahal%NULL%1,                  Mark%Pais%NULL%1,                  Selva%Panchatsharam%NULL%1,                  Hassan%Paraiso%NULL%1,                  Brij%Patel%NULL%1,                  Justin%Pepperell%NULL%1,                  Mark%Peters%NULL%1,                  Mandeep%Phull%NULL%1,                  Stefania%Pintus%NULL%1,                  Jagtur Singh%Pooni%NULL%1,                  Frank%Post%NULL%1,                  David%Price%NULL%1,                  Rachel%Prout%NULL%1,                  Nikolas%Rae%NULL%1,                  Henrik%Reschreiter%NULL%1,                  Tim%Reynolds%NULL%1,                  Neil%Richardson%NULL%1,                  Mark%Roberts%NULL%1,                  Devender%Roberts%NULL%1,                  Alistair%Rose%NULL%1,                  Guy%Rousseau%NULL%1,                  Brendan%Ryan%NULL%1,                  Taranprit%Saluja%NULL%1,                  Aarti%Shah%NULL%1,                  Prad%Shanmuga%NULL%1,                  Anil%Sharma%NULL%1,                  Anna%Shawcross%NULL%1,                  Jeremy%Sizer%NULL%1,                  Richard%Smith%NULL%1,                  Catherine%Snelson%NULL%1,                  Nick%Spittle%NULL%1,                  Nikki%Staines%NULL%1,                  Tom%Stambach%NULL%1,                  Richard%Stewart%NULL%1,                  Pradeep%Subudhi%NULL%1,                  Tamas%Szakmany%NULL%1,                  Kate%Tatham%NULL%1,                  Jo%Thomas%NULL%1,                  Chris%Thompson%NULL%1,                  Robert%Thompson%NULL%1,                  Ascanio%Tridente%NULL%1,                  Darell%Tupper-Carey%NULL%1,                  Mary%Twagira%NULL%1,                  Andrew%Ustianowski%NULL%1,                  Nick%Vallotton%NULL%1,                  Lisa%Vincent-Smith%NULL%1,                  Shico%Visuvanathan%NULL%1,                  Alan%Vuylsteke%NULL%1,                  Sam%Waddy%NULL%1,                  Rachel%Wake%NULL%1,                  Andrew%Walden%NULL%1,                  Ingeborg%Welters%NULL%1,                  Tony%Whitehouse%NULL%1,                  Paul%Whittaker%NULL%1,                  Ashley%Whittington%NULL%1,                  Meme%Wijesinghe%NULL%1,                  Martin%Williams%NULL%1,                  Lawrence%Wilson%NULL%1,                  Sarah%Wilson%NULL%1,                  Stephen%Winchester%NULL%1,                  Martin%Wiselka%NULL%1,                  Adam%Wolverson%NULL%1,                  Daniel G%Wooton%NULL%1,                  Andrew%Workman%NULL%1,                  Bryan%Yates%NULL%1,                  Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                  Braulio A.%Marfil‐Garza%NULL%1,                  Erick%Martínez Rodríguez%NULL%1,                  José Omar%Barreto Rodríguez%NULL%1,                  Alicia Estela%López Romo%NULL%1,                  Paolo%Alberti Minutti%NULL%1,                  Juan Vicente%Alejandre Loya%NULL%1,                  Félix Emmanuel%Pérez Talavera%NULL%1,                  Freddy José%Ávila Cervera%NULL%1,                  Adriana%Velazquez Burciaga%NULL%1,                  Oscar%Morado Aramburo%NULL%1,                  Luis Alberto%Piña Olguín%NULL%1,                  Adrian%Soto‐Rodríguez%NULL%1,                  Andrés%Castañeda Prado%NULL%1,                  Patricio%Santillán Doherty%NULL%1,                  Juan%O Galindo%NULL%1,                  Luis Alberto%Guízar García%NULL%1,                  Daniel%Hernández Gordillo%NULL%1,                  Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                  Aatish%Patel%NULL%1,                  Esmita%Charani%NULL%1,                  Sarah%Denny%NULL%1,                  Saleh A.%Alqahtani%NULL%1,                  Gary W.%Davies%NULL%1,                  Nabeela%Mughal%NULL%1,                  Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                  Hyunsun%Lim%NULL%1,                  Dong-Wook%Kim%NULL%1,                  Jung Hyun%Chang%NULL%1,                  Yoon Jung%Choi%chris316@yuhs.ac%1,                  Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,           Rudong%Chen%xref no email%1,           Hongkuan%Yang%xref no email%1,           Junhong%Wang%xref no email%1,           Yuyang%Hou%xref no email%1,           Wei%Hu%xref no email%1,           Jiasheng%Yu%xref no email%1,           Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                  Wenhua%Liang%NULL%3,                  Mei%Jiang%NULL%2,                  Weijie%Guan%NULL%3,                  Chen%Zhan%NULL%2,                  Tao%Wang%NULL%0,                  Chunli%Tang%NULL%3,                  Ling%Sang%NULL%3,                  Jiaxing%Liu%NULL%2,                  Zhengyi%Ni%NULL%2,                  Yu%Hu%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%5,                  Chunliang%Lei%NULL%2,                  Yixiang%Peng%NULL%2,                  Li%Wei%NULL%5,                  Yong%Liu%NULL%5,                  Yahua%Hu%NULL%2,                  Peng%Peng%NULL%7,                  Jianming%Wang%NULL%2,                  Jiyang%Liu%NULL%2,                  Zhong%Chen%NULL%5,                  Gang%Li%NULL%5,                  Zhijian%Zheng%NULL%2,                  Shaoqin%Qiu%NULL%2,                  Jie%Luo%NULL%5,                  Changjiang%Ye%NULL%2,                  Shaoyong%Zhu%NULL%2,                  Xiaoqing%Liu%NULL%2,                  Linling%Cheng%NULL%2,                  Feng%Ye%NULL%2,                  Jinping%Zheng%NULL%2,                  Nuofu%Zhang%NULL%2,                  Yimin%Li%NULL%2,                  Jianxing%He%NULL%2,                  Shiyue%Li%lishiyue@188.com%3,                  Nanshan%Zhong%NULL%4,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                  Liu%Hu%NULL%1,                  Yiru%Wang%NULL%0,                  Luyan%Huang%NULL%1,                  Lingxi%Zhao%NULL%1,                  Congcong%Zhang%NULL%1,                  Xiyue%Liu%NULL%1,                  Ranran%Xu%NULL%1,                  Feng%Liu%NULL%0,                  Jinping%Li%NULL%1,                  Dawei%Ye%NULL%0,                  Tao%Wang%NULL%0,                  Yongman%Lv%lvyongman@126.com%0,                  Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                  Carol A C%Coupland%NULL%1,                  Ruth H%Keogh%NULL%1,                  Karla%Diaz-Ordaz%NULL%1,                  Elizabeth%Williamson%NULL%1,                  Ewen M%Harrison%NULL%0,                  Andrew%Hayward%NULL%1,                  Harry%Hemingway%NULL%1,                  Peter%Horby%NULL%1,                  Nisha%Mehta%NULL%1,                  Jonathan%Benger%NULL%1,                  Kamlesh%Khunti%NULL%0,                  David%Spiegelhalter%NULL%1,                  Aziz%Sheikh%NULL%0,                  Jonathan%Valabhji%NULL%0,                  Ronan A%Lyons%NULL%1,                  John%Robson%NULL%1,                  Malcolm G%Semple%NULL%0,                  Frank%Kee%NULL%1,                  Peter%Johnson%NULL%1,                  Susan%Jebb%NULL%1,                  Tony%Williams%NULL%1,                  Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                  Guang-Yao%Cai%NULL%1,                  Wei%Fang%NULL%2,                  Hua-Yi%Li%NULL%1,                  Si-Yuan%Wang%NULL%2,                  Si-Yuan%Wang%NULL%0,                  Lingxi%Chen%NULL%1,                  Yang%Yu%NULL%1,                  Dan%Liu%NULL%0,                  Sen%Xu%NULL%2,                  Peng-Fei%Cui%NULL%1,                  Shao-Qing%Zeng%NULL%2,                  Shao-Qing%Zeng%NULL%0,                  Xin-Xia%Feng%NULL%1,                  Rui-Di%Yu%NULL%1,                  Ya%Wang%NULL%2,                  Yuan%Yuan%NULL%1,                  Xiao-Fei%Jiao%NULL%1,                  Jian-Hua%Chi%NULL%1,                  Jia-Hao%Liu%NULL%1,                  Ru-Yuan%Li%NULL%1,                  Xu%Zheng%NULL%1,                  Chun-Yan%Song%NULL%1,                  Ning%Jin%NULL%1,                  Wen-Jian%Gong%NULL%1,                  Xing-Yu%Liu%NULL%1,                  Lei%Huang%NULL%2,                  Xun%Tian%NULL%1,                  Lin%Li%NULL%1,                  Hui%Xing%NULL%1,                  Ding%Ma%NULL%1,                  Chun-Rui%Li%NULL%1,                  Fei%Ye%yeyuanbei@hotmail.com%1,                  Qing-Lei%Gao%qingleigao@hotmail.com%2,                  Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                  Ang%Li%NULL%1,                  Mengfan%Jiao%NULL%1,                  Qingmiao%Shi%NULL%1,                  Xiaocai%An%NULL%1,                  Yonghai%Feng%NULL%1,                  Lihua%Xing%NULL%1,                  Hongxia%Liang%NULL%1,                  Jiajun%Chen%NULL%1,                  Huiling%Li%NULL%1,                  Juan%Li%NULL%0,                  Zhigang%Ren%NULL%1,                  Ranran%Sun%NULL%1,                  Guangying%Cui%NULL%1,                  Yongjian%Zhou%NULL%1,                  Ming%Cheng%NULL%1,                  Pengfei%Jiao%NULL%1,                  Yu%Wang%NULL%2,                  Jiyuan%Xing%NULL%1,                  Shen%Shen%NULL%1,                  Qingxian%Zhang%NULL%1,                  Aiguo%Xu%NULL%1,                  Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                  Michael%Ng%NULL%1,                  Shuang%Xu%NULL%1,                  Zhouming%Xu%NULL%1,                  Hui%Qiu%NULL%1,                  Yuwei%Liu%NULL%1,                  Jiayou%Lyu%NULL%1,                  Jiwen%You%NULL%1,                  Peng%Zhao%NULL%0,                  Shihao%Wang%NULL%1,                  Yunfei%Tang%NULL%1,                  Hao%Cui%NULL%1,                  Changxiao%Yu%NULL%1,                  Feng%Wang%NULL%5,                  Fei%Shao%NULL%1,                  Peng%Sun%NULL%1,                  Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                  Huifang%Wang%NULL%1,                  Junwei%Huang%NULL%1,                  Yan%Geng%NULL%1,                  Shuqi%Jiang%NULL%1,                  Qiuping%Zhou%NULL%1,                  Xuan%Chen%NULL%1,                  Hongping%Hu%NULL%1,                  Weifeng%Li%NULL%1,                  Chengbin%Zhou%NULL%1,                  Xinglin%Gao%NULL%1,                  Na%Peng%pnatz@163.com%1,                  Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                  Dandan%Cheng%NULL%1,                  Yiwei%Cao%NULL%1,                  Chuan%Hu%NULL%1,                  Fenglin%Zou%NULL%1,                  Wencheng%Yu%NULL%1,                  Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                  Min Kyu%Kang%NULL%2,                  Min Kyu%Kang%NULL%0,                  Yu Rim%Lee%NULL%2,                  Yu Rim%Lee%NULL%0,                  Jeong Eun%Song%NULL%2,                  Jeong Eun%Song%NULL%0,                  Na Young%Kim%NULL%1,                  Young Oh%Kweon%NULL%1,                  Won Young%Tak%NULL%1,                  Se Young%Jang%NULL%1,                  Changhyeong%Lee%NULL%2,                  Changhyeong%Lee%NULL%0,                  Byung Seok%Kim%NULL%1,                  Jae Seok%Hwang%NULL%1,                  Byoung Kuk%Jang%NULL%1,                  Jinmok%Bae%NULL%1,                  Ji Yeon%Lee%NULL%0,                  Jeong Ill%Suh%NULL%1,                  Soo Young%Park%NULL%1,                  Woo Jin%Chung%NULL%2,                  Woo Jin%Chung%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                  Cristina%Roca-Oporto%NULL%0,                  Guillermo%Martín-Gutiérrez%NULL%0,                  María Dolores%Avilés%NULL%0,                  Carmen%Gómez-González%NULL%0,                  María Dolores%Navarro-Amuedo%NULL%0,                  Julia%Praena-Segovia%NULL%0,                  José%Molina%NULL%0,                  María%Paniagua-García%NULL%0,                  Horacio%García-Delgado%NULL%0,                  Antonio%Domínguez-Petit%NULL%0,                  Jerónimo%Pachón%NULL%0,                  José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,               Calvo%Boyero Fernando%coreGivesNoEmail%1,               Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,               COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,               Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,               Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,               L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,               Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,               Santos%Lozano Alejandro%coreGivesNoEmail%1,               Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -5196,7 +5385,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1261</v>
+        <v>1324</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -5225,7 +5414,7 @@
         <v>937</v>
       </c>
       <c r="E3" t="s">
-        <v>1262</v>
+        <v>1325</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -5254,7 +5443,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>1263</v>
+        <v>1326</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -5283,7 +5472,7 @@
         <v>875</v>
       </c>
       <c r="E5" t="s">
-        <v>1264</v>
+        <v>1327</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -5312,7 +5501,7 @@
         <v>940</v>
       </c>
       <c r="E6" t="s">
-        <v>1265</v>
+        <v>1328</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -5341,7 +5530,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>1266</v>
+        <v>1329</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -5370,7 +5559,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>1267</v>
+        <v>1330</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -5399,7 +5588,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1268</v>
+        <v>1331</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -5428,7 +5617,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>1269</v>
+        <v>1332</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -5457,7 +5646,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>1270</v>
+        <v>1333</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -5486,7 +5675,7 @@
         <v>947</v>
       </c>
       <c r="E12" t="s">
-        <v>1271</v>
+        <v>1334</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -5515,7 +5704,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>1272</v>
+        <v>1335</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -5544,7 +5733,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>1273</v>
+        <v>1336</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -5573,7 +5762,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>1274</v>
+        <v>1337</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -5602,7 +5791,7 @@
         <v>953</v>
       </c>
       <c r="E16" t="s">
-        <v>1275</v>
+        <v>1338</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -5631,7 +5820,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>1276</v>
+        <v>1339</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -5660,7 +5849,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>1277</v>
+        <v>1340</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5689,7 +5878,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>1278</v>
+        <v>1341</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -5718,7 +5907,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>1279</v>
+        <v>1342</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -5747,7 +5936,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>1280</v>
+        <v>1343</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -5776,7 +5965,7 @@
         <v>690</v>
       </c>
       <c r="E22" t="s">
-        <v>1281</v>
+        <v>1344</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -5805,7 +5994,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>1282</v>
+        <v>1345</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -5834,7 +6023,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>1283</v>
+        <v>1346</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -5863,7 +6052,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>1284</v>
+        <v>1347</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -5892,7 +6081,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>1285</v>
+        <v>1348</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -5921,7 +6110,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>1286</v>
+        <v>1349</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -5950,7 +6139,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>1287</v>
+        <v>1350</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -5979,7 +6168,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1288</v>
+        <v>1351</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -6008,7 +6197,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>1289</v>
+        <v>1352</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -6037,7 +6226,7 @@
         <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>1290</v>
+        <v>1353</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -6066,7 +6255,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>1291</v>
+        <v>1354</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -6095,7 +6284,7 @@
         <v>971</v>
       </c>
       <c r="E33" t="s">
-        <v>1292</v>
+        <v>1355</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -6124,7 +6313,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>1293</v>
+        <v>1356</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -6182,7 +6371,7 @@
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>1294</v>
+        <v>1357</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -6211,7 +6400,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>1295</v>
+        <v>1358</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -6240,7 +6429,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>1296</v>
+        <v>1359</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -6269,7 +6458,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>1297</v>
+        <v>1360</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -6298,7 +6487,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>1298</v>
+        <v>1361</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -6327,7 +6516,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>1299</v>
+        <v>1362</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -6356,7 +6545,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>1300</v>
+        <v>1363</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -6385,7 +6574,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>1301</v>
+        <v>1364</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -6414,7 +6603,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>1302</v>
+        <v>1365</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -6443,7 +6632,7 @@
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>1303</v>
+        <v>1366</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -6472,7 +6661,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>1304</v>
+        <v>1367</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -6501,7 +6690,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>1305</v>
+        <v>1368</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -6530,7 +6719,7 @@
         <v>986</v>
       </c>
       <c r="E48" t="s">
-        <v>1306</v>
+        <v>1369</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -6559,7 +6748,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>1307</v>
+        <v>1370</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -6588,7 +6777,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>1308</v>
+        <v>1371</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -6617,7 +6806,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>1309</v>
+        <v>1372</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -6646,7 +6835,7 @@
         <v>991</v>
       </c>
       <c r="E52" t="s">
-        <v>1310</v>
+        <v>1373</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -6675,7 +6864,7 @@
         <v>993</v>
       </c>
       <c r="E53" t="s">
-        <v>1311</v>
+        <v>1374</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -6704,7 +6893,7 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>1312</v>
+        <v>1375</v>
       </c>
       <c r="F54" t="s">
         <v>54</v>
@@ -6733,7 +6922,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>1313</v>
+        <v>1376</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -6762,7 +6951,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>1314</v>
+        <v>1377</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -6791,7 +6980,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>1315</v>
+        <v>1378</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -6820,7 +7009,7 @@
         <v>999</v>
       </c>
       <c r="E58" t="s">
-        <v>1316</v>
+        <v>1379</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -6849,7 +7038,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>1317</v>
+        <v>1380</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -6878,7 +7067,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>1318</v>
+        <v>1381</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -6907,7 +7096,7 @@
         <v>1003</v>
       </c>
       <c r="E61" t="s">
-        <v>1319</v>
+        <v>1382</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -6936,7 +7125,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>1320</v>
+        <v>1383</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -6965,7 +7154,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>1321</v>
+        <v>1384</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -6994,7 +7183,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>1322</v>
+        <v>1385</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -7023,7 +7212,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1323</v>
+        <v>1386</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8646" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9101" uniqueCount="1454">
   <si>
     <t>Doi</t>
   </si>
@@ -4994,6 +4994,207 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,               Calvo%Boyero Fernando%coreGivesNoEmail%1,               Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,               COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,               Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,               Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,               L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,               Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,               Santos%Lozano Alejandro%coreGivesNoEmail%1,               Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                   Min%He%NULL%1,                   Wanhong%Yin%NULL%1,                   Xuelian%Liao%NULL%1,                   Bo%Wang%NULL%6,                   Xiaodong%Jin%NULL%1,                   Yao%Ma%NULL%2,                   Jirong%Yue%NULL%1,                   Lang%Bai%NULL%1,                   Dan%Liu%NULL%3,                   Ting%Zhu%NULL%1,                   Zhixin%Huang%NULL%1,                   Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                   Shuchang%Zhou%NULL%1,                   Yujin%Wang%NULL%1,                   Wenzhi%Lv%NULL%2,                   Shili%Wang%NULL%1,                   Ting%Wang%751884926@qq.com%1,                   Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                   Yan-chak%Li%NULL%1,                   Sonali%Bose%NULL%1,                   Ravi%Iyengar%NULL%1,                   Supinda%Bunyavanich%NULL%1,                   Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,          Hai-Tao%Zhang%null%1,          Jorge%Goncalves%null%1,          Yang%Xiao%null%1,          Maolin%Wang%null%1,          Yuqi%Guo%null%1,          Chuan%Sun%null%1,          Xiuchuan%Tang%null%1,          Liang%Jing%null%1,          Mingyang%Zhang%null%1,          Xiang%Huang%null%1,          Ying%Xiao%null%1,          Haosen%Cao%null%1,          Yanyan%Chen%null%1,          Tongxin%Ren%null%1,          Fang%Wang%null%1,          Yaru%Xiao%null%1,          Sufang%Huang%null%1,          Xi%Tan%null%1,          Niannian%Huang%null%1,          Bo%Jiao%null%1,          Cheng%Cheng%null%1,          Yong%Zhang%null%1,          Ailin%Luo%null%1,          Laurent%Mombaerts%null%1,          Junyang%Jin%null%1,          Zhiguo%Cao%null%1,          Shusheng%Li%null%1,          Hui%Xu%null%1,          Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                   Mengfei%Guo%NULL%1,                   Limin%Duan%NULL%1,                   Feng%Wu%NULL%1,                   Guorong%Hu%NULL%1,                   Zhihui%Wang%NULL%1,                   Qi%Huang%NULL%1,                   Tingting%Liao%NULL%1,                   Juanjuan%Xu%NULL%1,                   Yanling%Ma%NULL%1,                   Zhilei%Lv%NULL%1,                   Wenjing%Xiao%NULL%1,                   Zilin%Zhao%NULL%1,                   Xueyun%Tan%NULL%1,                   Daquan%Meng%NULL%1,                   Shujing%Zhang%NULL%1,                   E%Zhou%NULL%1,                   Zhengrong%Yin%NULL%1,                   Wei%Geng%NULL%1,                   Xuan%Wang%NULL%1,                   Jianchu%Zhang%NULL%1,                   Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                   Yu%Zhang%whxhzy@163.com%1,                   Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                   Francesco%Arru%NULL%2,                   Francesco%Arru%NULL%0,                   Andrea%De Vito%NULL%3,                   Alessandro%Sassu%NULL%2,                   Alessandro%Sassu%NULL%0,                   Giovanni%Valdes%NULL%1,                   Valentina%Scano%NULL%1,                   Elisabetta%Zinellu%NULL%1,                   Roberto%Perra%NULL%1,                   Giordano%Madeddu%NULL%3,                   Ciriaco%Carru%NULL%1,                   Pietro%Pirina%NULL%3,                   Arduino A.%Mangoni%NULL%2,                   Arduino A.%Mangoni%NULL%0,                   Sergio%Babudieri%NULL%4,                   Sergio%Babudieri%NULL%0,                   Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                   Pablo%Ryan%NULL%1,                   Jorge%Valencia%NULL%2,                   Jorge%Valencia%NULL%0,                   Mario%Pérez-Butragueño%NULL%2,                   Mario%Pérez-Butragueño%NULL%0,                   Eva%Jiménez%NULL%2,                   Eva%Jiménez%NULL%0,                   Mario%Fontán-Vela%NULL%1,                   Elsa%Izquierdo-García%NULL%2,                   Elsa%Izquierdo-García%NULL%0,                   Inés%Fernandez-Jimenez%NULL%1,                   Elena%Álvaro-Alonso%NULL%1,                   Andrea%Lazaro%NULL%2,                   Andrea%Lazaro%NULL%0,                   Marta%Alvarado%NULL%1,                   Helena%Notario%NULL%1,                   Salvador%Resino%NULL%1,                   Daniel%Velez-Serrano%NULL%1,                   Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                   Yiru%Wang%NULL%2,                   Xuecheng%Zhao%NULL%1,                   Lixuan%Wang%NULL%1,                   Feng%Liu%NULL%3,                   Tao%Wang%NULL%15,                   Dawei%Ye%NULL%2,                   Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                   Valentina%Zuccaro%NULL%1,                   Luca%Novelli%NULL%1,                   Lorenzo%Zileri%NULL%2,                   Lorenzo%Zileri%NULL%0,                   Ciro%Celsa%NULL%1,                   Federico%Raimondi%NULL%2,                   Federico%Raimondi%NULL%0,                   Mauro%Gori%NULL%1,                   Giulia%Cammà%NULL%1,                   Salvatore%Battaglia%NULL%1,                   Vincenzo Giuseppe%Genova%NULL%1,                   Laura%Paris%NULL%1,                   Matteo%Tacelli%NULL%1,                   Francesco Antonio%Mancarella%NULL%1,                   Marco%Enea%NULL%1,                   Massimo%Attanasio%NULL%1,                   Michele%Senni%NULL%1,                   Fabiano%Di Marco%NULL%1,                   Luca Ferdinando%Lorini%NULL%1,                   Stefano%Fagiuoli%NULL%1,                   Raffaele%Bruno%NULL%2,                   Calogero%Cammà%NULL%1,                   Antonio%Gasbarrini%NULL%3,                   Francesco%Di Gennaro%NULL%2,                   Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                   Gan-xun%Li%NULL%1,                   Lin%Chen%NULL%3,                   Chang%Shu%NULL%2,                   Jia%Song%NULL%1,                   Wei%Wang%NULL%2,                   Yu-wei%Wang%NULL%1,                   Qian%Chen%NULL%2,                   Guan-nan%Jin%NULL%1,                   Tong-tong%Liu%NULL%1,                   Jun-nan%Liang%NULL%1,                   Peng%Zhu%NULL%1,                   Wei%Zhu%NULL%5,                   Yong%Li%NULL%2,                   Bin-hao%Zhang%NULL%1,                   Huan%Feng%NULL%1,                   Wan-guang%Zhang%NULL%1,                   Zhen-yu%Yin%NULL%1,                   Wen-kui%Yu%NULL%1,                   Yang%Yang%NULL%2,                   Hua-qiu%Zhang%NULL%1,                   Zhou-ping%Tang%NULL%1,                   Hui%Wang%NULL%4,                   Jun-bo%Hu%NULL%1,                   Ji-hong%Liu%NULL%1,                   Ping%Yin%NULL%1,                   Xiao-ping%Chen%NULL%1,                   Bixiang%Zhang%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                   Günay%Can%NULL%2,                   Günay%Can%NULL%0,                   Rıdvan%Karaali%NULL%1,                   Şermin%Börekçi%NULL%1,                   İlker İnanç%Balkan%NULL%1,                   Bilun%Gemicioğlu%NULL%1,                   Dildar%Konukoğlu%NULL%1,                   Ethem%Erginöz%NULL%1,                   Mehmet Sarper%Erdoğan%NULL%1,                   Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                   Danila%Azzolina%NULL%1,                   Eyal%Hayden%NULL%2,                   Eyal%Hayden%NULL%0,                   Gianluca%Gaidano%NULL%2,                   Gianluca%Gaidano%NULL%0,                   Mario%Pirisi%NULL%2,                   Mario%Pirisi%NULL%0,                   Antonio%Acquaviva%NULL%2,                   Antonio%Acquaviva%NULL%0,                   Gianluca%Aimaretti%NULL%2,                   Gianluca%Aimaretti%NULL%0,                   Paolo%Aluffi Valletti%NULL%3,                   Paolo%Aluffi Valletti%NULL%0,                   Roberto%Angilletta%NULL%2,                   Roberto%Angilletta%NULL%0,                   Roberto%Arioli%NULL%2,                   Roberto%Arioli%NULL%0,                   Gian Carlo%Avanzi%NULL%2,                   Gian Carlo%Avanzi%NULL%0,                   Gianluca%Avino%NULL%2,                   Gianluca%Avino%NULL%0,                   Piero Emilio%Balbo%NULL%2,                   Piero Emilio%Balbo%NULL%0,                   Giulia%Baldon%NULL%2,                   Giulia%Baldon%NULL%0,                   Francesca%Baorda%NULL%2,                   Francesca%Baorda%NULL%0,                   Emanuela%Barbero%NULL%2,                   Emanuela%Barbero%NULL%0,                   Alessio%Baricich%NULL%2,                   Alessio%Baricich%NULL%0,                   Michela%Barini%NULL%2,                   Michela%Barini%NULL%0,                   Francesco%Barone-Adesi%NULL%2,                   Francesco%Barone-Adesi%NULL%0,                   Sofia%Battistini%NULL%2,                   Sofia%Battistini%NULL%0,                   Michela%Beltrame%NULL%2,                   Michela%Beltrame%NULL%0,                   Matteo%Bertoli%NULL%2,                   Matteo%Bertoli%NULL%0,                   Stephanie%Bertolin%NULL%2,                   Stephanie%Bertolin%NULL%0,                   Marinella%Bertolotti%NULL%2,                   Marinella%Bertolotti%NULL%0,                   Marta%Betti%NULL%2,                   Marta%Betti%NULL%0,                   Flavio%Bobbio%NULL%2,                   Flavio%Bobbio%NULL%0,                   Paolo%Boffano%NULL%2,                   Paolo%Boffano%NULL%0,                   Lucio%Boglione%NULL%2,                   Lucio%Boglione%NULL%0,                   Silvio%Borrè%NULL%2,                   Silvio%Borrè%NULL%0,                   Matteo%Brucoli%NULL%2,                   Matteo%Brucoli%NULL%0,                   Elisa%Calzaducca%NULL%2,                   Elisa%Calzaducca%NULL%0,                   Edoardo%Cammarata%NULL%2,                   Edoardo%Cammarata%NULL%0,                   Vincenzo%Cantaluppi%NULL%2,                   Vincenzo%Cantaluppi%NULL%0,                   Roberto%Cantello%NULL%2,                   Roberto%Cantello%NULL%0,                   Andrea%Capponi%NULL%2,                   Andrea%Capponi%NULL%0,                   Alessandro%Carriero%NULL%2,                   Alessandro%Carriero%NULL%0,                   Giuseppe Francesco%Casciaro%NULL%2,                   Giuseppe Francesco%Casciaro%NULL%0,                   Luigi Mario%Castello%NULL%2,                   Luigi Mario%Castello%NULL%0,                   Federico%Ceruti%NULL%2,                   Federico%Ceruti%NULL%0,                   Guido%Chichino%NULL%2,                   Guido%Chichino%NULL%0,                   Emilio%Chirico%NULL%2,                   Emilio%Chirico%NULL%0,                   Carlo%Cisari%NULL%1,                   Micol Giulia%Cittone%NULL%2,                   Micol Giulia%Cittone%NULL%0,                   Crizia%Colombo%NULL%2,                   Crizia%Colombo%NULL%0,                   Cristoforo%Comi%NULL%2,                   Cristoforo%Comi%NULL%0,                   Eleonora%Croce%NULL%2,                   Eleonora%Croce%NULL%0,                   Tommaso%Daffara%NULL%2,                   Tommaso%Daffara%NULL%0,                   Pietro%Danna%NULL%2,                   Pietro%Danna%NULL%0,                   Francesco%Della Corte%NULL%2,                   Francesco%Della Corte%NULL%0,                   Simona%De Vecchi%NULL%2,                   Simona%De Vecchi%NULL%0,                   Umberto%Dianzani%NULL%2,                   Umberto%Dianzani%NULL%0,                   Davide%Di Benedetto%NULL%2,                   Davide%Di Benedetto%NULL%0,                   Elia%Esposto%NULL%2,                   Elia%Esposto%NULL%0,                   Fabrizio%Faggiano%NULL%2,                   Fabrizio%Faggiano%NULL%0,                   Zeno%Falaschi%NULL%2,                   Zeno%Falaschi%NULL%0,                   Daniela%Ferrante%NULL%2,                   Daniela%Ferrante%NULL%0,                   Alice%Ferrero%NULL%2,                   Alice%Ferrero%NULL%0,                   Ileana%Gagliardi%NULL%2,                   Ileana%Gagliardi%NULL%0,                   Alessandra%Galbiati%NULL%2,                   Alessandra%Galbiati%NULL%0,                   Silvia%Gallo%NULL%2,                   Silvia%Gallo%NULL%0,                   Pietro Luigi%Garavelli%NULL%2,                   Pietro Luigi%Garavelli%NULL%0,                   Clara Ada%Gardino%NULL%2,                   Clara Ada%Gardino%NULL%0,                   Massimiliano%Garzaro%NULL%3,                   Massimiliano%Garzaro%NULL%0,                   Maria Luisa%Gastaldello%NULL%2,                   Maria Luisa%Gastaldello%NULL%0,                   Francesco%Gavelli%NULL%2,                   Francesco%Gavelli%NULL%0,                   Alessandra%Gennari%NULL%2,                   Alessandra%Gennari%NULL%0,                   Greta Maria%Giacomini%NULL%2,                   Greta Maria%Giacomini%NULL%0,                   Irene%Giacone%NULL%2,                   Irene%Giacone%NULL%0,                   Valentina%Giai Via%NULL%2,                   Valentina%Giai Via%NULL%0,                   Francesca%Giolitti%NULL%2,                   Francesca%Giolitti%NULL%0,                   Laura Cristina%Gironi%NULL%2,                   Laura Cristina%Gironi%NULL%0,                   Carla%Gramaglia%NULL%2,                   Carla%Gramaglia%NULL%0,                   Leonardo%Grisafi%NULL%2,                   Leonardo%Grisafi%NULL%0,                   Ilaria%Inserra%NULL%2,                   Ilaria%Inserra%NULL%0,                   Marco%Invernizzi%NULL%2,                   Marco%Invernizzi%NULL%0,                   Marco%Krengli%NULL%2,                   Marco%Krengli%NULL%0,                   Emanuela%Labella%NULL%2,                   Emanuela%Labella%NULL%0,                   Irene Cecilia%Landi%NULL%2,                   Irene Cecilia%Landi%NULL%0,                   Raffaella%Landi%NULL%2,                   Raffaella%Landi%NULL%0,                   Ilaria%Leone%NULL%2,                   Ilaria%Leone%NULL%0,                   Veronica%Lio%NULL%2,                   Veronica%Lio%NULL%0,                   Luca%Lorenzini%NULL%2,                   Luca%Lorenzini%NULL%0,                   Antonio%Maconi%NULL%2,                   Antonio%Maconi%NULL%0,                   Mario%Malerba%NULL%2,                   Mario%Malerba%NULL%0,                   Giulia Francesca%Manfredi%NULL%2,                   Giulia Francesca%Manfredi%NULL%0,                   Maria%Martelli%NULL%2,                   Maria%Martelli%NULL%0,                   Letizia%Marzari%NULL%2,                   Letizia%Marzari%NULL%0,                   Paolo%Marzullo%NULL%2,                   Paolo%Marzullo%NULL%0,                   Marco%Mennuni%NULL%2,                   Marco%Mennuni%NULL%0,                   Claudia%Montabone%NULL%2,                   Claudia%Montabone%NULL%0,                   Umberto%Morosini%NULL%2,                   Umberto%Morosini%NULL%0,                   Marco%Mussa%NULL%2,                   Marco%Mussa%NULL%0,                   Ilaria%Nerici%NULL%2,                   Ilaria%Nerici%NULL%0,                   Alessandro%Nuzzo%NULL%2,                   Alessandro%Nuzzo%NULL%0,                   Carlo%Olivieri%NULL%2,                   Carlo%Olivieri%NULL%0,                   Samuel Alberto%Padelli%NULL%2,                   Samuel Alberto%Padelli%NULL%0,                   Massimiliano%Panella%NULL%2,                   Massimiliano%Panella%NULL%0,                   Andrea%Parisini%NULL%2,                   Andrea%Parisini%NULL%0,                   Alessio%Paschè%NULL%2,                   Alessio%Paschè%NULL%0,                   Filippo%Patrucco%NULL%2,                   Filippo%Patrucco%NULL%0,                   Giuseppe%Patti%NULL%2,                   Giuseppe%Patti%NULL%0,                   Alberto%Pau%NULL%2,                   Alberto%Pau%NULL%0,                   Anita Rebecca%Pedrinelli%NULL%2,                   Anita Rebecca%Pedrinelli%NULL%0,                   Ilaria%Percivale%NULL%2,                   Ilaria%Percivale%NULL%0,                   Luca%Ragazzoni%NULL%2,                   Luca%Ragazzoni%NULL%0,                   Roberta%Re%NULL%2,                   Roberta%Re%NULL%0,                   Cristina%Rigamonti%NULL%2,                   Cristina%Rigamonti%NULL%0,                   Eleonora%Rizzi%NULL%2,                   Eleonora%Rizzi%NULL%0,                   Andrea%Rognoni%NULL%2,                   Andrea%Rognoni%NULL%0,                   Annalisa%Roveta%NULL%2,                   Annalisa%Roveta%NULL%0,                   Luigia%Salamina%NULL%2,                   Luigia%Salamina%NULL%0,                   Matteo%Santagostino%NULL%2,                   Matteo%Santagostino%NULL%0,                   Massimo%Saraceno%NULL%2,                   Massimo%Saraceno%NULL%0,                   Paola%Savoia%NULL%2,                   Paola%Savoia%NULL%0,                   Marco%Sciarra%NULL%2,                   Marco%Sciarra%NULL%0,                   Andrea%Schimmenti%NULL%2,                   Andrea%Schimmenti%NULL%0,                   Lorenza%Scotti%NULL%2,                   Lorenza%Scotti%NULL%0,                   Enrico%Spinoni%NULL%2,                   Enrico%Spinoni%NULL%0,                   Carlo%Smirne%NULL%2,                   Carlo%Smirne%NULL%0,                   Vanessa%Tarantino%NULL%2,                   Vanessa%Tarantino%NULL%0,                   Paolo Amedeo%Tillio%NULL%2,                   Paolo Amedeo%Tillio%NULL%0,                   Stelvio%Tonello%NULL%2,                   Stelvio%Tonello%NULL%0,                   Rosanna%Vaschetto%NULL%2,                   Rosanna%Vaschetto%NULL%0,                   Veronica%Vassia%NULL%2,                   Veronica%Vassia%NULL%0,                   Domenico%Zagaria%NULL%2,                   Domenico%Zagaria%NULL%0,                   Elisa%Zavattaro%NULL%2,                   Elisa%Zavattaro%NULL%0,                   Patrizia%Zeppegno%NULL%2,                   Patrizia%Zeppegno%NULL%0,                   Francesca%Zottarelli%NULL%2,                   Francesca%Zottarelli%NULL%0,                   Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                   Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                   Marta%Ottone%NULL%2,                   Marta%Ottone%NULL%0,                   Tommaso%Fasano%NULL%1,                   Pierpaolo%Pattacini%NULL%1,                   Valentina%Iotti%NULL%1,                   Lucia%Spaggiari%NULL%1,                   Riccardo%Bonacini%NULL%1,                   Andrea%Nitrosi%NULL%1,                   Efrem%Bonelli%NULL%1,                   Simone%Canovi%NULL%1,                   Rossana%Colla%NULL%1,                   Alessandro%Zerbini%NULL%1,                   Marco%Massari%NULL%1,                   Ivana%Lattuada%NULL%1,                   Anna Maria%Ferrari%NULL%1,                   Paolo%Giorgi Rossi%NULL%1,                   Massimo%Costantini%NULL%1,                   Roberto%Grilli%NULL%1,                   Massimiliano%Marino%NULL%1,                   Giulio%Formoso%NULL%1,                   Debora%Formisano%NULL%1,                   Emanuela%Bedeschi%NULL%1,                   Cinzia%Perilli%NULL%1,                   Elisabetta%La Rosa%NULL%1,                   Eufemia%Bisaccia%NULL%1,                   Ivano%Venturi%NULL%1,                   Massimo%Vicentini%NULL%1,                   Cinzia%Campari%NULL%1,                   Francesco%Gioia%NULL%1,                   Serena%Broccoli%NULL%1,                   Pamela%Mancuso%NULL%1,                   Marco%Foracchia%NULL%1,                   Mirco%Pinotti%NULL%1,                   Nicola%Facciolongo%NULL%1,                   Laura%Trabucco%NULL%1,                   Stefano%De Pietri%NULL%1,                   Giorgio Francesco%Danelli%NULL%1,                   Laura%Albertazzi%NULL%1,                   Enrica%Bellesia%NULL%1,                   Mattia%Corradini%NULL%1,                   Elena%Magnani%NULL%1,                   Annalisa%Pilia%NULL%1,                   Alessandra%Polese%NULL%1,                   Silvia Storchi%Incerti%NULL%1,                   Piera%Zaldini%NULL%1,                   Bonanno%Orsola%NULL%1,                   Matteo%Revelli%NULL%1,                   Carlo%Salvarani%NULL%1,                   Carmine%Pinto%NULL%1,                   Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                   Hong-Qiu%Gu%NULL%1,                   Yi%Liu (刘艺)%NULL%1,                   Guqin%Zhang%NULL%1,                   Hang%Yang%NULL%1,                   Huifang%Hu%NULL%1,                   Chenyang%Lu%NULL%1,                   Yang%Li%NULL%3,                   Liyi%Wang%NULL%1,                   Yi%Liu (刘毅)%yi2006liu@163.com%1,                   Yi%Zhao%zhao.y1977@163.com%1,                   Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                   Tawsifur%Rahman%NULL%2,                   Tawsifur%Rahman%NULL%0,                   Amith%Khandakar%NULL%3,                   Somaya%Al-Madeed%NULL%2,                   Susu M.%Zughaier%NULL%5,                   Suhail A. R.%Doi%NULL%3,                   Hanadi%Hassen%NULL%1,                   Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                   Jia%Sun%NULL%1,                   Yi-Xin%Li%NULL%1,                   Qian%Chen%NULL%0,                   Qing-Quan%Liu%NULL%1,                   Zhou%Sun%NULL%1,                   Ran%Pang%NULL%1,                   Fei%Chen%NULL%1,                   Bing-Yang%Xu%NULL%1,                   Anne%Manyande%NULL%1,                   Taane G%Clark%NULL%1,                   Jin-Ping%Li%NULL%1,                   Ilkay Erdogan%Orhan%NULL%1,                   Yu-Ke%Tian%NULL%1,                   Tao%Wang%wt7636@126.com%0,                   Wei%Wu%wt7636@126.com%1,                   Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,            Xinyan%Cai%xref no email%1,            Robert%Lennon%xref no email%1,            Derjung M.%Tarn%xref no email%1,            Arch G.%Mainous%xref no email%1,            Aleksandra E.%Zgierska%xref no email%1,            Bruce%Barrett%xref no email%1,            Wen-Jan%Tuan%xref no email%1,            Kevin%Maloy%xref no email%1,            Munish%Goyal%xref no email%1,            Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,                Imam%Z%coreGivesNoEmail%1,                Lippi%G%coreGivesNoEmail%1,                Oran%DP%coreGivesNoEmail%1,                Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                   Caiping%Song%NULL%1,                   En%Liu%NULL%1,                   Xi%Liu%NULL%1,                   Hao%Wu%NULL%1,                   Hui%Lin%NULL%1,                   Yuliang%Liu%NULL%1,                   Qi%Li%NULL%1,                   Zhi%Xu%NULL%1,                   XiaoBao%Ren%NULL%1,                   Cheng%Zhang%NULL%1,                   Wenjing%Zhang%NULL%1,                   Wei%Duan%NULL%2,                   Yongfeng%Tian%NULL%1,                   Ping%Li%NULL%1,                   Mingdong%Hu%NULL%1,                   Shiming%Yang%NULL%1,                   Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                   Changli%Li%NULL%1,                   Li%Zheng%NULL%1,                   Wenzhi%Lv%NULL%0,                   Zhigang%He%NULL%1,                   Xinwu%Cui%NULL%1,                   Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,            Liang%Li%xref no email%1,            Li%Wang%xref no email%1,            Huan%Liu%xref no email%2,            Xuefang%Lu%xref no email%1,            Feifei%Zeng%xref no email%1,            Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                   Hayne Cho%Park%NULL%2,                   Hayne Cho%Park%NULL%0,                   Ajin%Cho%NULL%1,                   Juhee%Kim%NULL%1,                   Kyu-sang%Yun%NULL%1,                   Jinseog%Kim%NULL%1,                   Young-Ki%Lee%NULL%1,                   Sinan%Kardes.%NULL%2,                   Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,            Luyu%Yang%xref no email%1,            Qian%Zeng%xref no email%1,            Qingyun%Li%xref no email%1,            Zhitao%Yang%xref no email%1,            Lizhong%Han%xref no email%1,            Xiaodong%Huang%xref no email%1,            Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                   Xiaoyu%Fang%NULL%1,                   Lixia%Cheng%NULL%1,                   Penghao%Wang%NULL%1,                   Shen%Li%NULL%1,                   Hao%Yu%NULL%1,                   Yao%Zhang%NULL%2,                   Nan%Jiang%NULL%1,                   Tingting%Zeng%NULL%1,                   Chao%Hou%NULL%1,                   Jing%Zhou%NULL%1,                   Shiru%Li%NULL%1,                   Yingzi%Pan%NULL%1,                   Yitong%Li%NULL%1,                   Lili%Nie%NULL%1,                   Yang%Li%NULL%0,                   Qidi%Sun%NULL%1,                   Hong%Jia%NULL%1,                   Mengxia%Li%NULL%1,                   Guoqiang%Cao%NULL%1,                   Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                   Lucas A%Ramos%NULL%2,                   Lucas A%Ramos%NULL%0,                   Wouter%Potters%NULL%1,                   Marcus L F%Janssen%NULL%1,                   Deborah%Hubers%NULL%1,                   Shi%Hu%NULL%1,                   Egill A%Fridgeirsson%NULL%1,                   Dan%Piña-Fuentes%NULL%1,                   Rajat%Thomas%NULL%1,                   Iwan C C%van der Horst%NULL%1,                   Christian%Herff%NULL%2,                   Christian%Herff%NULL%0,                   Pieter%Kubben%NULL%1,                   Paul W G%Elbers%NULL%1,                   Henk A%Marquering%NULL%1,                   Max%Welling%NULL%1,                   Suat%Simsek%NULL%1,                   Martijn D%de Kruif%NULL%1,                   Tom%Dormans%NULL%1,                   Lucas M%Fleuren%NULL%1,                   Michiel%Schinkel%NULL%1,                   Peter G%Noordzij%NULL%1,                   Joop P%van den Bergh%NULL%2,                   Joop P%van den Bergh%NULL%0,                   Caroline E%Wyers%NULL%1,                   David T B%Buis%NULL%2,                   David T B%Buis%NULL%0,                   W Joost%Wiersinga%NULL%1,                   Ella H C%van den Hout%NULL%1,                   Auke C%Reidinga%NULL%1,                   Daisy%Rusch%NULL%1,                   Kim C E%Sigaloff%NULL%1,                   Renee A%Douma%NULL%1,                   Lianne%de Haan%NULL%1,                   Niels C%Gritters van den Oever%NULL%1,                   Roger J M W%Rennenberg%NULL%1,                   Guido A%van Wingen%NULL%1,                   Marcel J H%Aries%NULL%1,                   Martijn%Beudel%NULL%2,                   Martijn%Beudel%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                   Fajer A.%Al-Ishaq%NULL%2,                   Fajer A.%Al-Ishaq%NULL%0,                   Fatima S.%Al-Mohannadi%NULL%1,                   Reem S.%Mubarak%NULL%1,                   Maryam H.%Al-Hitmi%NULL%1,                   Khandaker Reajul%Islam%NULL%1,                   Amith%Khandakar%NULL%0,                   Ali Ait%Hssain%NULL%3,                   Ali Ait%Hssain%NULL%0,                   Somaya%Al-Madeed%NULL%0,                   Susu M.%Zughaier%NULL%0,                   Susu M.%Zughaier%NULL%0,                   Muhammad E. H.%Chowdhury%NULL%3,                   Muhammad E. H.%Chowdhury%NULL%0,                   Antonella%Santone%NULL%3,                   Antonella%Santone%NULL%0,                   Antonella%Santone%NULL%0,                   Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                   Amith%Khandakar%NULL%0,                   Md Enamul%Hoque%NULL%2,                   Md Enamul%Hoque%NULL%0,                   Nabil%Ibtehaz%NULL%2,                   Nabil%Ibtehaz%NULL%0,                   Saad Bin%Kashem%NULL%2,                   Saad Bin%Kashem%NULL%0,                   Reehum%Masud%NULL%1,                   Lutfunnahar%Shampa%NULL%1,                   Mohammad Mehedi%Hasan%NULL%1,                   Mohammad Tariqul%Islam%NULL%1,                   Somaya%Al-Maadeed%NULL%2,                   Somaya%Al-Maadeed%NULL%0,                   Susu M.%Zughaier%NULL%0,                   Susu M.%Zughaier%NULL%0,                   Saif%Badran%NULL%2,                   Saif%Badran%NULL%0,                   Suhail A. R.%Doi%NULL%0,                   Suhail A. R.%Doi%NULL%0,                   Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                   Pablo%Rodríguez-Belenguer%NULL%2,                   Pablo%Rodríguez-Belenguer%NULL%0,                   Antonio J.%Serrano-López%NULL%1,                   Emilio%Soria-Olivas%NULL%2,                   Emilio%Soria-Olivas%NULL%0,                   Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                   Haibo%Ai%NULL%1,                   Yunong%Fu%NULL%1,                   Qinglin%Li%NULL%1,                   Ruixia%Cui%NULL%1,                   Xiaohua%Ma%NULL%1,                   Yan-fen%Ma%NULL%1,                   Zi%Wang%NULL%1,                   Tong%Liu%NULL%1,                   Yunxiang%Long%NULL%1,                   Kai%Qu%NULL%1,                   Chang%Liu%NULL%1,                   Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,            Rongqing%Sun%xref no email%1,            Wenbo%Sun%xref no email%1,            Dan%Xu%xref no email%1,            Lan%Lan%xref no email%1,            Huan%Li%xref no email%1,            Huan%Liu%xref no email%0,            Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                   Dawei%Zhang%NULL%1,                   Jing%Xu%NULL%6,                   Zhu%Chen%NULL%1,                   Tieniu%Yang%NULL%1,                   Peng%Zhao%NULL%2,                   Guofeng%Chen%NULL%1,                   Gregory%Cheng%NULL%1,                   Yudong%Wang%NULL%1,                   Jingfeng%Bi%NULL%1,                   Lin%Tan%NULL%1,                   George%Lau%NULL%1,                   Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                   Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                   Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                   Giulia%Suigo%NULL%1,                   Davide%Zampini%NULL%1,                   Matteo%Pistoia%NULL%1,                   Mariella%Ciola%NULL%1,                   Tommaso%Ciampani%NULL%1,                   Carolina%Ultori%NULL%1,                   Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                   John R%Adler%NULL%3,                   Sultan M%Kamran%NULL%2,                   Sultan M%Kamran%NULL%0,                   Zill-e-Humayun%Mirza%NULL%1,                   Hussain Abdul%Moeed%NULL%1,                   Arshad%Naseem%NULL%1,                   Maryam%Hussain%NULL%1,                   Imran%Fazal%NULL%1,                   Farrukh%Saeed%NULL%1,                   Wasim%Alamgir%NULL%1,                   Salman%Saleem%NULL%1,                   Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,            Zilong%Liu%xref no email%1,            Weipeng%Jiang%xref no email%1,            Jian%Wang%xref no email%4,            Mengchan%Zhu%xref no email%1,            Juan%Song%xref no email%0,            Xiaoyue%Wang%xref no email%1,            Ying%Su%xref no email%1,            Guiling%Xiang%xref no email%1,            Maosong%Ye%xref no email%1,            Jiamin%Li%xref no email%1,            Yong%Zhang%xref no email%1,            Qinjun%Shen%xref no email%1,            Zhuozhe%Li%xref no email%1,            Danwei%Yao%xref no email%1,            Yuanlin%Song%xref no email%0,            Kaihuan%Yu%xref no email%1,            Zhe%Luo%xref no email%1,            Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                   María M.%Martín%NULL%1,                   Mónica%Argueso%NULL%1,                   Jordi%Solé-Violán%NULL%1,                   Alina%Perez%NULL%1,                   José Alberto%Marcos Y Ramos%NULL%1,                   Luis%Ramos-Gómez%NULL%1,                   Sergio%López%NULL%1,                   Andrés%Franco%NULL%1,                   Agustín F.%González-Rivero%NULL%1,                   María%Martín%NULL%1,                   Verónica%Gonzalez%NULL%1,                   Julia%Alcoba-Flórez%NULL%1,                   Miguel Ángel%Rodriguez%NULL%1,                   Marta%Riaño-Ruiz%NULL%1,                   Juan%Guillermo O Campo%NULL%1,                   Lourdes%González%NULL%1,                   Tamara%Cantera%NULL%1,                   Raquel%Ortiz-López%NULL%1,                   Nazario%Ojeda%NULL%1,                   Aurelio%Rodríguez-Pérez%NULL%1,                   Casimira%Domínguez%NULL%1,                   Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                   Rita%Kukafka%NULL%1,                   Arriel%Benis%NULL%2,                   Arriel%Benis%NULL%0,                   Jinfeng%Li%NULL%1,                   Pan%Pan%NULL%2,                   Pan%Pan%NULL%0,                   Yichao%Li%NULL%2,                   Yichao%Li%NULL%0,                   Yongjiu%Xiao%NULL%2,                   Yongjiu%Xiao%NULL%0,                   Bingchao%Han%NULL%2,                   Bingchao%Han%NULL%0,                   Longxiang%Su%NULL%2,                   Longxiang%Su%NULL%0,                   Mingliang%Su%NULL%2,                   Mingliang%Su%NULL%0,                   Yansheng%Li%NULL%2,                   Yansheng%Li%NULL%0,                   Siqi%Zhang%NULL%2,                   Siqi%Zhang%NULL%0,                   Dapeng%Jiang%NULL%2,                   Dapeng%Jiang%NULL%0,                   Xia%Chen%NULL%2,                   Xia%Chen%NULL%0,                   Fuquan%Zhou%NULL%2,                   Fuquan%Zhou%NULL%0,                   Ling%Ma%NULL%2,                   Ling%Ma%NULL%0,                   Pengtao%Bao%NULL%2,                   Pengtao%Bao%NULL%0,                   Lixin%Xie%xielx301@126.com%2,                   Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                   Cristina%Roca-Oporto%NULL%2,                   Guillermo%Martín-Gutiérrez%NULL%2,                   María Dolores%Avilés%NULL%2,                   Carmen%Gómez-González%NULL%2,                   María Dolores%Navarro-Amuedo%NULL%2,                   Julia%Praena-Segovia%NULL%2,                   José%Molina%NULL%2,                   María%Paniagua-García%NULL%2,                   Horacio%García-Delgado%NULL%2,                   Antonio%Domínguez-Petit%NULL%2,                   Jerónimo%Pachón%NULL%2,                   José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                   Barry R.%Meisenberg%NULL%2,                   Barry R.%Meisenberg%NULL%0,                   James H.%MacDonald%NULL%1,                   Nandakumar%Menon%NULL%1,                   Marcia B.%Fowler%NULL%1,                   Michaline%West%NULL%1,                   Jane%Rhule%NULL%1,                   Sadaf S.%Qureshi%NULL%1,                   Eileen B.%MacDonald%NULL%1,                   Yu Ru%Kou%NULL%2,                   Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                   Sarah%Poole%NULL%2,                   Sarah%Poole%NULL%0,                   Meeta%Pradhan%NULL%1,                   Akhil%Vaid%NULL%3,                   Akhil%Vaid%NULL%0,                   Sulaiman%Somani%NULL%3,                   Sulaiman%Somani%NULL%0,                   Adam J%Russak%NULL%2,                   Adam J%Russak%NULL%0,                   Jessica K%De Freitas%NULL%2,                   Jessica K%De Freitas%NULL%0,                   Fayzan F%Chaudhry%NULL%2,                   Fayzan F%Chaudhry%NULL%0,                   Ishan%Paranjpe%NULL%3,                   Ishan%Paranjpe%NULL%0,                   Kipp W%Johnson%NULL%2,                   Kipp W%Johnson%NULL%0,                   Samuel J%Lee%NULL%2,                   Samuel J%Lee%NULL%0,                   Riccardo%Miotto%NULL%2,                   Riccardo%Miotto%NULL%0,                   Felix%Richter%NULL%3,                   Felix%Richter%NULL%0,                   Shan%Zhao%NULL%3,                   Shan%Zhao%NULL%0,                   Noam D%Beckmann%NULL%2,                   Noam D%Beckmann%NULL%0,                   Nidhi%Naik%NULL%2,                   Nidhi%Naik%NULL%0,                   Arash%Kia%NULL%2,                   Arash%Kia%NULL%0,                   Prem%Timsina%NULL%2,                   Prem%Timsina%NULL%0,                   Anuradha%Lala%NULL%2,                   Anuradha%Lala%NULL%0,                   Manish%Paranjpe%NULL%2,                   Manish%Paranjpe%NULL%0,                   Eddye%Golden%NULL%2,                   Eddye%Golden%NULL%0,                   Matteo%Danieletto%NULL%2,                   Matteo%Danieletto%NULL%0,                   Manbir%Singh%NULL%2,                   Manbir%Singh%NULL%0,                   Dara%Meyer%NULL%2,                   Dara%Meyer%NULL%0,                   Paul F%O'Reilly%NULL%2,                   Paul F%O'Reilly%NULL%0,                   Laura%Huckins%NULL%2,                   Laura%Huckins%NULL%0,                   Patricia%Kovatch%NULL%2,                   Patricia%Kovatch%NULL%0,                   Joseph%Finkelstein%NULL%2,                   Joseph%Finkelstein%NULL%0,                   Robert M.%Freeman%NULL%2,                   Robert M.%Freeman%NULL%0,                   Edgar%Argulian%NULL%2,                   Edgar%Argulian%NULL%0,                   Andrew%Kasarskis%NULL%2,                   Andrew%Kasarskis%NULL%0,                   Bethany%Percha%NULL%2,                   Bethany%Percha%NULL%0,                   Judith A%Aberg%NULL%2,                   Judith A%Aberg%NULL%0,                   Emilia%Bagiella%NULL%3,                   Emilia%Bagiella%NULL%0,                   Carol R%Horowitz%NULL%2,                   Carol R%Horowitz%NULL%0,                   Barbara%Murphy%NULL%2,                   Barbara%Murphy%NULL%0,                   Eric J%Nestler%NULL%2,                   Eric J%Nestler%NULL%0,                   Eric E%Schadt%NULL%2,                   Eric E%Schadt%NULL%0,                   Judy H%Cho%NULL%2,                   Judy H%Cho%NULL%0,                   Carlos%Cordon-Cardo%NULL%2,                   Carlos%Cordon-Cardo%NULL%0,                   Valentin%Fuster%NULL%3,                   Valentin%Fuster%NULL%0,                   Dennis S%Charney%NULL%2,                   Dennis S%Charney%NULL%0,                   David L%Reich%NULL%2,                   David L%Reich%NULL%0,                   Erwin P%Bottinger%NULL%2,                   Erwin P%Bottinger%NULL%0,                   Matthew A%Levin%NULL%2,                   Matthew A%Levin%NULL%0,                   Jagat%Narula%NULL%3,                   Jagat%Narula%NULL%0,                   Zahi A%Fayad%NULL%2,                   Zahi A%Fayad%NULL%0,                   Allan C%Just%NULL%2,                   Allan C%Just%NULL%0,                   Alexander W%Charney%NULL%2,                   Alexander W%Charney%NULL%0,                   Girish N%Nadkarni%NULL%2,                   Girish N%Nadkarni%NULL%0,                   Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                   Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                   Anne%Chen%NULL%2,                   Wei%Hou%NULL%3,                   James M.%Graham%NULL%1,                   Haifang%Li%NULL%2,                   Paul S.%Richman%NULL%1,                   Henry C.%Thode%NULL%1,                   Adam J.%Singer%NULL%1,                   Tim Q.%Duong%NULL%1,                   Muhammad%Adrish%NULL%9,                   Muhammad%Adrish%NULL%0,                   Muhammad%Adrish%NULL%0,                   Muhammad%Adrish%NULL%0,                   Muhammad%Adrish%NULL%0,                   Muhammad%Adrish%NULL%0,                   Muhammad%Adrish%NULL%0,                   Muhammad%Adrish%NULL%0,                   Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                   Qin%Liu%NULL%2,                   Xiao%Zhang%NULL%2,                   Shuyi%Liu%NULL%1,                   Weiqi%Chen%NULL%1,                   Jingjing%You%NULL%1,                   Qiuying%Chen%NULL%1,                   Minmin%Li%NULL%1,                   Zhuozhi%Chen%NULL%1,                   Luyan%Chen%NULL%1,                   Lv%Chen%NULL%1,                   Yuhao%Dong%NULL%1,                   Qingsi%Zeng%NULL%1,                   Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                   Lei%Nie%NULL%1,                   Dongde%Wu%NULL%1,                   Jian%Chen%NULL%2,                   Zhifeng%Yang%NULL%1,                   Ling%Zhang%NULL%3,                   Dongqing%Li%NULL%1,                   Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,            Feiyang%Zhong%xref no email%1,            Hanfei%Zhang%xref no email%1,            Wenting%An%xref no email%1,            Meiyan%Liao%xref no email%1,            Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                   Burcin%Hakoglu%NULL%2,                   Burcin%Hakoglu%NULL%0,                   Ali%Kadri Cirak%NULL%1,                   Gulru%Polat%NULL%1,                   Berna%Komurcuoglu%NULL%1,                   Berrin%Akkol%NULL%1,                   Cagri%Atasoy%NULL%1,                   Eda%Bayramic%NULL%1,                   Gunseli%Balci%NULL%1,                   Sena%Ataman%NULL%1,                   Sinem%Ermin%NULL%1,                   Enver%Yalniz%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1,            Lili%Huang%xref no email%1,            Jin%Chen%xref no email%1,            Xiaowei%Yuan%xref no email%1,            Qinhua%Shen%xref no email%1,            Su%Dong%xref no email%1,            Bei%Cheng%xref no email%1,            Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                   Qiaosen%Chen%NULL%2,                   Qiaosen%Chen%NULL%0,                   Sumeng%Li%NULL%1,                   Huadong%Li%NULL%1,                   Qian%Zhang%NULL%1,                   Sihong%Lu%NULL%1,                   Li%Wu%NULL%1,                   Leiqun%Xiong%NULL%1,                   Bobin%Mi%NULL%1,                   Di%Liu%NULL%3,                   Mengji%Lu%NULL%1,                   Dongliang%Yang%NULL%1,                   Hongbo%Jiang%hongbojiang3@163.com%1,                   Shaoping%Zheng%zhengspxx@126.com%1,                   Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                   Hua%Zhang%NULL%2,                   Rui%Qiao%NULL%1,                   Qinggang%Ge%NULL%1,                   Shuisheng%Zhang%NULL%1,                   Zongxuan%Zhao%NULL%1,                   Ci%Tian%NULL%1,                   Qingbian%Ma%NULL%2,                   Qingbian%Ma%NULL%0,                   Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                   Antonia%Ho%NULL%2,                   Riinu%Pius%NULL%2,                   Iain%Buchan%NULL%1,                   Gail%Carson%NULL%2,                   Thomas M%Drake%NULL%1,                   Jake%Dunning%NULL%2,                   Cameron J%Fairfield%NULL%2,                   Carrol%Gamble%NULL%2,                   Christopher A%Green%NULL%2,                   Rishi%Gupta%NULL%1,                   Sophie%Halpin%NULL%2,                   Hayley E%Hardwick%NULL%1,                   Karl A%Holden%NULL%1,                   Peter W%Horby%NULL%2,                   Clare%Jackson%NULL%2,                   Kenneth A%Mclean%NULL%2,                   Laura%Merson%NULL%2,                   Jonathan S%Nguyen-Van-Tam%NULL%1,                   Lisa%Norman%NULL%2,                   Mahdad%Noursadeghi%NULL%2,                   Piero L%Olliaro%NULL%1,                   Mark G%Pritchard%NULL%1,                   Clark D%Russell%NULL%2,                   Catherine A%Shaw%NULL%2,                   Aziz%Sheikh%NULL%2,                   Tom%Solomon%NULL%2,                   Cathie%Sudlow%NULL%1,                   Olivia V%Swann%NULL%1,                   Lance CW%Turtle%NULL%2,                   Peter JM%Openshaw%NULL%2,                   J Kenneth%Baillie%NULL%2,                   Malcolm G%Semple%NULL%3,                   Annemarie B%Docherty%NULL%3,                   Annemarie B%Docherty%NULL%0,                   Ewen M%Harrison%NULL%3,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   J Kenneth%Baillie%NULL%0,                   Malcolm G%Semple%NULL%0,                   Peter JM%Openshaw%NULL%0,                   Gail%Carson%NULL%0,                   Beatrice%Alex%NULL%1,                   Benjamin%Bach%NULL%1,                   Wendy S%Barclay%NULL%1,                   Debby%Bogaert%NULL%1,                   Meera%Chand%NULL%1,                   Graham S%Cooke%NULL%1,                   Annemarie B%Docherty%NULL%0,                   Jake%Dunning%NULL%0,                   Ana%da Silva Filipe%NULL%1,                   Tom%Fletcher%NULL%1,                   Christopher A%Green%NULL%0,                   Ewen M%Harrison%NULL%0,                   Julian A%Hiscox%NULL%1,                   Antonia Ying Wai%Ho%NULL%1,                   Peter W%Horby%NULL%0,                   Samreen%Ijaz%NULL%1,                   Saye%Khoo%NULL%1,                   Paul%Klenerman%NULL%1,                   Andrew%Law%NULL%2,                   Wei Shen%Lim%NULL%1,                   Alexander J%Mentzer%NULL%1,                   Laura%Merson%NULL%0,                   Alison M%Meynert%NULL%1,                   Mahdad%Noursadeghi%NULL%0,                   Shona C%Moore%NULL%2,                   Massimo%Palmarini%NULL%1,                   William A%Paxton%NULL%1,                   Georgios%Pollakis%NULL%1,                   Nicholas%Price%NULL%1,                   Andrew%Rambaut%NULL%1,                   David L%Robertson%NULL%1,                   Clark D%Russell%NULL%0,                   Vanessa%Sancho-Shimizu%NULL%1,                   Janet T%Scott%NULL%1,                   Louise%Sigfrid%NULL%1,                   Tom%Solomon%NULL%0,                   Shiranee%Sriskandan%NULL%1,                   David%Stuart%NULL%1,                   Charlotte%Summers%NULL%1,                   Richard S%Tedder%NULL%1,                   Emma C%Thomson%NULL%1,                   Ryan S%Thwaites%NULL%1,                   Lance CW%Turtle%NULL%0,                   Maria%Zambon%NULL%1,                   Hayley%Hardwick%NULL%1,                   Chloe%Donohue%NULL%1,                   Jane%Ewins%NULL%1,                   Wilna%Oosthuyzen%NULL%1,                   Fiona%Griffiths%NULL%1,                   Lisa%Norman%NULL%0,                   Riinu%Pius%NULL%0,                   Tom M%Drake%NULL%1,                   Cameron J%Fairfield%NULL%0,                   Stephen%Knight%NULL%1,                   Kenneth A%Mclean%NULL%0,                   Derek%Murphy%NULL%1,                   Catherine A%Shaw%NULL%0,                   Jo%Dalton%NULL%1,                   Michelle%Girvan%NULL%1,                   Egle%Saviciute%NULL%1,                   Stephanie%Roberts%NULL%1,                   Janet%Harrison%NULL%1,                   Laura%Marsh%NULL%1,                   Marie%Connor%NULL%1,                   Sophie%Halpin%NULL%0,                   Clare%Jackson%NULL%0,                   Carrol%Gamble%NULL%0,                   Gary%Leeming%NULL%1,                   Andrew%Law%NULL%0,                   Ross%Hendry%NULL%1,                   James%Scott-Brown%NULL%1,                   William%Greenhalf%NULL%1,                   Victoria%Shaw%NULL%1,                   Sarah%McDonald%NULL%2,                   Katie A%Ahmed%NULL%1,                   Jane A%Armstrong%NULL%1,                   Milton%Ashworth%NULL%1,                   Innocent G%Asiimwe%NULL%1,                   Siddharth%Bakshi%NULL%1,                   Samantha L%Barlow%NULL%1,                   Laura%Booth%NULL%1,                   Benjamin%Brennan%NULL%1,                   Katie%Bullock%NULL%1,                   Benjamin WA%Catterall%NULL%1,                   Jordan J%Clark%NULL%1,                   Emily A%Clarke%NULL%1,                   Sarah%Cole%NULL%1,                   Louise%Cooper%NULL%1,                   Helen%Cox%NULL%1,                   Christopher%Davis%NULL%1,                   Oslem%Dincarslan%NULL%1,                   Chris%Dunn%NULL%1,                   Philip%Dyer%NULL%1,                   Angela%Elliott%NULL%1,                   Anthony%Evans%NULL%1,                   Lewis WS%Fisher%NULL%1,                   Terry%Foster%NULL%1,                   Isabel%Garcia-Dorival%NULL%1,                   Willliam%Greenhalf%NULL%1,                   Philip%Gunning%NULL%1,                   Catherine%Hartley%NULL%1,                   Antonia%Ho%NULL%0,                   Rebecca L%Jensen%NULL%1,                   Christopher B%Jones%NULL%1,                   Trevor R%Jones%NULL%1,                   Shadia%Khandaker%NULL%1,                   Katharine%King%NULL%1,                   Robyn T%Kiy%NULL%1,                   Chrysa%Koukorava%NULL%1,                   Annette%Lake%NULL%1,                   Suzannah%Lant%NULL%1,                   Diane%Latawiec%NULL%1,                   L%Lavelle-Langham%NULL%1,                   Daniella%Lefteri%NULL%1,                   Lauren%Lett%NULL%1,                   Lucia A%Livoti%NULL%1,                   Maria%Mancini%NULL%1,                   Sarah%McDonald%NULL%0,                   Laurence%McEvoy%NULL%1,                   John%McLauchlan%NULL%1,                   Soeren%Metelmann%NULL%1,                   Nahida S%Miah%NULL%1,                   Joanna%Middleton%NULL%1,                   Joyce%Mitchell%NULL%1,                   Shona C%Moore%NULL%0,                   Ellen G%Murphy%NULL%1,                   Rebekah%Penrice-Randal%NULL%1,                   Jack%Pilgrim%NULL%1,                   Tessa%Prince%NULL%1,                   Will%Reynolds%NULL%1,                   P Matthew%Ridley%NULL%1,                   Debby%Sales%NULL%1,                   Victoria E%Shaw%NULL%1,                   Rebecca K%Shears%NULL%1,                   Benjamin%Small%NULL%1,                   Krishanthi S%Subramaniam%NULL%1,                   Agnieska%Szemiel%NULL%1,                   Aislynn%Taggart%NULL%1,                   Jolanta%Tanianis-Hughes%NULL%1,                   Jordan%Thomas%NULL%1,                   Erwan%Trochu%NULL%1,                   Libby%van Tonder%NULL%1,                   Eve%Wilcock%NULL%1,                   J Eunice%Zhang%NULL%1,                   Kayode%Adeniji%NULL%1,                   Daniel%Agranoff%NULL%1,                   Ken%Agwuh%NULL%1,                   Dhiraj%Ail%NULL%1,                   Ana%Alegria%NULL%1,                   Brian%Angus%NULL%1,                   Abdul%Ashish%NULL%1,                   Dougal%Atkinson%NULL%1,                   Shahedal%Bari%NULL%1,                   Gavin%Barlow%NULL%1,                   Stella%Barnass%NULL%1,                   Nicholas%Barrett%NULL%2,                   Christopher%Bassford%NULL%1,                   David%Baxter%NULL%1,                   Michael%Beadsworth%NULL%1,                   Jolanta%Bernatoniene%NULL%1,                   John%Berridge%NULL%1,                   Nicola%Best%NULL%1,                   Pieter%Bothma%NULL%1,                   David%Brealey%NULL%1,                   Robin%Brittain-Long%NULL%1,                   Naomi%Bulteel%NULL%1,                   Tom%Burden%NULL%1,                   Andrew%Burtenshaw%NULL%1,                   Vikki%Caruth%NULL%1,                   David%Chadwick%NULL%1,                   Duncan%Chambler%NULL%1,                   Nigel%Chee%NULL%1,                   Jenny%Child%NULL%1,                   Srikanth%Chukkambotla%NULL%1,                   Tom%Clark%NULL%1,                   Paul%Collini%NULL%1,                   Catherine%Cosgrove%NULL%1,                   Jason%Cupitt%NULL%1,                   Maria-Teresa%Cutino-Moguel%NULL%1,                   Paul%Dark%NULL%1,                   Chris%Dawson%NULL%1,                   Samir%Dervisevic%NULL%1,                   Phil%Donnison%NULL%1,                   Sam%Douthwaite%NULL%1,                   Ingrid%DuRand%NULL%1,                   Ahilanadan%Dushianthan%NULL%1,                   Tristan%Dyer%NULL%1,                   Cariad%Evans%NULL%1,                   Chi%Eziefula%NULL%1,                   Chrisopher%Fegan%NULL%1,                   Adam%Finn%NULL%1,                   Duncan%Fullerton%NULL%1,                   Sanjeev%Garg%NULL%2,                   Sanjeev%Garg%NULL%0,                   Atul%Garg%NULL%1,                   Jo%Godden%NULL%1,                   Arthur%Goldsmith%NULL%1,                   Clive%Graham%NULL%1,                   Elaine%Hardy%NULL%1,                   Stuart%Hartshorn%NULL%1,                   Daniel%Harvey%NULL%1,                   Peter%Havalda%NULL%1,                   Daniel B%Hawcutt%NULL%1,                   Maria%Hobrok%NULL%1,                   Luke%Hodgson%NULL%1,                   Anita%Holme%NULL%1,                   Anil%Hormis%NULL%1,                   Michael%Jacobs%NULL%1,                   Susan%Jain%NULL%1,                   Paul%Jennings%NULL%1,                   Agilan%Kaliappan%NULL%1,                   Vidya%Kasipandian%NULL%1,                   Stephen%Kegg%NULL%1,                   Michael%Kelsey%NULL%1,                   Jason%Kendall%NULL%1,                   Caroline%Kerrison%NULL%1,                   Ian%Kerslake%NULL%1,                   Oliver%Koch%NULL%2,                   Gouri%Koduri%NULL%1,                   George%Koshy%NULL%1,                   Shondipon%Laha%NULL%1,                   Susan%Larkin%NULL%1,                   Tamas%Leiner%NULL%1,                   Patrick%Lillie%NULL%1,                   James%Limb%NULL%1,                   Vanessa%Linnett%NULL%1,                   Jeff%Little%NULL%1,                   Michael%MacMahon%NULL%1,                   Emily%MacNaughton%NULL%1,                   Ravish%Mankregod%NULL%1,                   Huw%Masson%NULL%1,                   Elijah%Matovu%NULL%1,                   Katherine%McCullough%NULL%1,                   Ruth%McEwen%NULL%1,                   Manjula%Meda%NULL%1,                   Gary%Mills%NULL%1,                   Jane%Minton%NULL%1,                   Mariyam%Mirfenderesky%NULL%1,                   Kavya%Mohandas%NULL%1,                   Quen%Mok%NULL%1,                   James%Moon%NULL%1,                   Elinoor%Moore%NULL%1,                   Patrick%Morgan%NULL%1,                   Craig%Morris%NULL%1,                   Katherine%Mortimore%NULL%1,                   Samuel%Moses%NULL%1,                   Mbiye%Mpenge%NULL%1,                   Rohinton%Mulla%NULL%1,                   Michael%Murphy%NULL%1,                   Megan%Nagel%NULL%1,                   Thapas%Nagarajan%NULL%1,                   Mark%Nelson%NULL%1,                   Igor%Otahal%NULL%1,                   Mark%Pais%NULL%1,                   Selva%Panchatsharam%NULL%1,                   Hassan%Paraiso%NULL%1,                   Brij%Patel%NULL%1,                   Justin%Pepperell%NULL%1,                   Mark%Peters%NULL%1,                   Mandeep%Phull%NULL%1,                   Stefania%Pintus%NULL%1,                   Jagtur Singh%Pooni%NULL%1,                   Frank%Post%NULL%1,                   David%Price%NULL%1,                   Rachel%Prout%NULL%1,                   Nikolas%Rae%NULL%1,                   Henrik%Reschreiter%NULL%1,                   Tim%Reynolds%NULL%1,                   Neil%Richardson%NULL%1,                   Mark%Roberts%NULL%1,                   Devender%Roberts%NULL%1,                   Alistair%Rose%NULL%1,                   Guy%Rousseau%NULL%1,                   Brendan%Ryan%NULL%1,                   Taranprit%Saluja%NULL%1,                   Aarti%Shah%NULL%1,                   Prad%Shanmuga%NULL%1,                   Anil%Sharma%NULL%1,                   Anna%Shawcross%NULL%1,                   Jeremy%Sizer%NULL%1,                   Richard%Smith%NULL%1,                   Catherine%Snelson%NULL%1,                   Nick%Spittle%NULL%1,                   Nikki%Staines%NULL%1,                   Tom%Stambach%NULL%1,                   Richard%Stewart%NULL%1,                   Pradeep%Subudhi%NULL%1,                   Tamas%Szakmany%NULL%1,                   Kate%Tatham%NULL%1,                   Jo%Thomas%NULL%1,                   Chris%Thompson%NULL%1,                   Robert%Thompson%NULL%1,                   Ascanio%Tridente%NULL%1,                   Darell%Tupper-Carey%NULL%1,                   Mary%Twagira%NULL%1,                   Andrew%Ustianowski%NULL%1,                   Nick%Vallotton%NULL%1,                   Lisa%Vincent-Smith%NULL%1,                   Shico%Visuvanathan%NULL%1,                   Alan%Vuylsteke%NULL%1,                   Sam%Waddy%NULL%1,                   Rachel%Wake%NULL%1,                   Andrew%Walden%NULL%1,                   Ingeborg%Welters%NULL%1,                   Tony%Whitehouse%NULL%1,                   Paul%Whittaker%NULL%1,                   Ashley%Whittington%NULL%1,                   Meme%Wijesinghe%NULL%1,                   Martin%Williams%NULL%1,                   Lawrence%Wilson%NULL%1,                   Sarah%Wilson%NULL%1,                   Stephen%Winchester%NULL%1,                   Martin%Wiselka%NULL%1,                   Adam%Wolverson%NULL%1,                   Daniel G%Wooton%NULL%1,                   Andrew%Workman%NULL%1,                   Bryan%Yates%NULL%1,                   Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                   Braulio A.%Marfil‐Garza%NULL%1,                   Erick%Martínez Rodríguez%NULL%1,                   José Omar%Barreto Rodríguez%NULL%1,                   Alicia Estela%López Romo%NULL%1,                   Paolo%Alberti Minutti%NULL%1,                   Juan Vicente%Alejandre Loya%NULL%1,                   Félix Emmanuel%Pérez Talavera%NULL%1,                   Freddy José%Ávila Cervera%NULL%1,                   Adriana%Velazquez Burciaga%NULL%1,                   Oscar%Morado Aramburo%NULL%1,                   Luis Alberto%Piña Olguín%NULL%1,                   Adrian%Soto‐Rodríguez%NULL%1,                   Andrés%Castañeda Prado%NULL%1,                   Patricio%Santillán Doherty%NULL%1,                   Juan%O Galindo%NULL%1,                   Luis Alberto%Guízar García%NULL%1,                   Daniel%Hernández Gordillo%NULL%1,                   Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                   Aatish%Patel%NULL%1,                   Esmita%Charani%NULL%1,                   Sarah%Denny%NULL%1,                   Saleh A.%Alqahtani%NULL%1,                   Gary W.%Davies%NULL%1,                   Nabeela%Mughal%NULL%1,                   Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                   Hyunsun%Lim%NULL%1,                   Dong-Wook%Kim%NULL%1,                   Jung Hyun%Chang%NULL%1,                   Yoon Jung%Choi%chris316@yuhs.ac%1,                   Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,            Rudong%Chen%xref no email%1,            Hongkuan%Yang%xref no email%1,            Junhong%Wang%xref no email%1,            Yuyang%Hou%xref no email%1,            Wei%Hu%xref no email%1,            Jiasheng%Yu%xref no email%1,            Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                   Wenhua%Liang%NULL%3,                   Mei%Jiang%NULL%2,                   Weijie%Guan%NULL%3,                   Chen%Zhan%NULL%2,                   Tao%Wang%NULL%0,                   Chunli%Tang%NULL%3,                   Ling%Sang%NULL%3,                   Jiaxing%Liu%NULL%2,                   Zhengyi%Ni%NULL%2,                   Yu%Hu%NULL%0,                   Lei%Liu%NULL%8,                   Hong%Shan%NULL%5,                   Chunliang%Lei%NULL%2,                   Yixiang%Peng%NULL%2,                   Li%Wei%NULL%5,                   Yong%Liu%NULL%5,                   Yahua%Hu%NULL%2,                   Peng%Peng%NULL%7,                   Jianming%Wang%NULL%2,                   Jiyang%Liu%NULL%2,                   Zhong%Chen%NULL%5,                   Gang%Li%NULL%5,                   Zhijian%Zheng%NULL%2,                   Shaoqin%Qiu%NULL%2,                   Jie%Luo%NULL%5,                   Changjiang%Ye%NULL%2,                   Shaoyong%Zhu%NULL%2,                   Xiaoqing%Liu%NULL%2,                   Linling%Cheng%NULL%2,                   Feng%Ye%NULL%2,                   Jinping%Zheng%NULL%2,                   Nuofu%Zhang%NULL%2,                   Yimin%Li%NULL%2,                   Jianxing%He%NULL%2,                   Shiyue%Li%lishiyue@188.com%3,                   Nanshan%Zhong%NULL%4,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                   Liu%Hu%NULL%1,                   Yiru%Wang%NULL%0,                   Luyan%Huang%NULL%1,                   Lingxi%Zhao%NULL%1,                   Congcong%Zhang%NULL%1,                   Xiyue%Liu%NULL%1,                   Ranran%Xu%NULL%1,                   Feng%Liu%NULL%0,                   Jinping%Li%NULL%1,                   Dawei%Ye%NULL%0,                   Tao%Wang%NULL%0,                   Yongman%Lv%lvyongman@126.com%0,                   Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                   Carol A C%Coupland%NULL%1,                   Ruth H%Keogh%NULL%1,                   Karla%Diaz-Ordaz%NULL%1,                   Elizabeth%Williamson%NULL%1,                   Ewen M%Harrison%NULL%0,                   Andrew%Hayward%NULL%1,                   Harry%Hemingway%NULL%1,                   Peter%Horby%NULL%1,                   Nisha%Mehta%NULL%1,                   Jonathan%Benger%NULL%1,                   Kamlesh%Khunti%NULL%0,                   David%Spiegelhalter%NULL%1,                   Aziz%Sheikh%NULL%0,                   Jonathan%Valabhji%NULL%0,                   Ronan A%Lyons%NULL%1,                   John%Robson%NULL%1,                   Malcolm G%Semple%NULL%0,                   Frank%Kee%NULL%1,                   Peter%Johnson%NULL%1,                   Susan%Jebb%NULL%1,                   Tony%Williams%NULL%1,                   Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                   Guang-Yao%Cai%NULL%1,                   Wei%Fang%NULL%2,                   Hua-Yi%Li%NULL%1,                   Si-Yuan%Wang%NULL%2,                   Si-Yuan%Wang%NULL%0,                   Lingxi%Chen%NULL%1,                   Yang%Yu%NULL%1,                   Dan%Liu%NULL%0,                   Sen%Xu%NULL%2,                   Peng-Fei%Cui%NULL%1,                   Shao-Qing%Zeng%NULL%2,                   Shao-Qing%Zeng%NULL%0,                   Xin-Xia%Feng%NULL%1,                   Rui-Di%Yu%NULL%1,                   Ya%Wang%NULL%2,                   Yuan%Yuan%NULL%1,                   Xiao-Fei%Jiao%NULL%1,                   Jian-Hua%Chi%NULL%1,                   Jia-Hao%Liu%NULL%1,                   Ru-Yuan%Li%NULL%1,                   Xu%Zheng%NULL%1,                   Chun-Yan%Song%NULL%1,                   Ning%Jin%NULL%1,                   Wen-Jian%Gong%NULL%1,                   Xing-Yu%Liu%NULL%1,                   Lei%Huang%NULL%2,                   Xun%Tian%NULL%1,                   Lin%Li%NULL%1,                   Hui%Xing%NULL%1,                   Ding%Ma%NULL%1,                   Chun-Rui%Li%NULL%1,                   Fei%Ye%yeyuanbei@hotmail.com%1,                   Qing-Lei%Gao%qingleigao@hotmail.com%2,                   Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                   Ang%Li%NULL%1,                   Mengfan%Jiao%NULL%1,                   Qingmiao%Shi%NULL%1,                   Xiaocai%An%NULL%1,                   Yonghai%Feng%NULL%1,                   Lihua%Xing%NULL%1,                   Hongxia%Liang%NULL%1,                   Jiajun%Chen%NULL%1,                   Huiling%Li%NULL%1,                   Juan%Li%NULL%0,                   Zhigang%Ren%NULL%1,                   Ranran%Sun%NULL%1,                   Guangying%Cui%NULL%1,                   Yongjian%Zhou%NULL%1,                   Ming%Cheng%NULL%1,                   Pengfei%Jiao%NULL%1,                   Yu%Wang%NULL%2,                   Jiyuan%Xing%NULL%1,                   Shen%Shen%NULL%1,                   Qingxian%Zhang%NULL%1,                   Aiguo%Xu%NULL%1,                   Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                   Michael%Ng%NULL%1,                   Shuang%Xu%NULL%1,                   Zhouming%Xu%NULL%1,                   Hui%Qiu%NULL%1,                   Yuwei%Liu%NULL%1,                   Jiayou%Lyu%NULL%1,                   Jiwen%You%NULL%1,                   Peng%Zhao%NULL%0,                   Shihao%Wang%NULL%1,                   Yunfei%Tang%NULL%1,                   Hao%Cui%NULL%1,                   Changxiao%Yu%NULL%1,                   Feng%Wang%NULL%5,                   Fei%Shao%NULL%1,                   Peng%Sun%NULL%1,                   Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                   Huifang%Wang%NULL%1,                   Junwei%Huang%NULL%1,                   Yan%Geng%NULL%1,                   Shuqi%Jiang%NULL%1,                   Qiuping%Zhou%NULL%1,                   Xuan%Chen%NULL%1,                   Hongping%Hu%NULL%1,                   Weifeng%Li%NULL%1,                   Chengbin%Zhou%NULL%1,                   Xinglin%Gao%NULL%1,                   Na%Peng%pnatz@163.com%1,                   Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                   Dandan%Cheng%NULL%1,                   Yiwei%Cao%NULL%1,                   Chuan%Hu%NULL%1,                   Fenglin%Zou%NULL%1,                   Wencheng%Yu%NULL%1,                   Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                   Min Kyu%Kang%NULL%2,                   Min Kyu%Kang%NULL%0,                   Yu Rim%Lee%NULL%2,                   Yu Rim%Lee%NULL%0,                   Jeong Eun%Song%NULL%2,                   Jeong Eun%Song%NULL%0,                   Na Young%Kim%NULL%1,                   Young Oh%Kweon%NULL%1,                   Won Young%Tak%NULL%1,                   Se Young%Jang%NULL%1,                   Changhyeong%Lee%NULL%2,                   Changhyeong%Lee%NULL%0,                   Byung Seok%Kim%NULL%1,                   Jae Seok%Hwang%NULL%1,                   Byoung Kuk%Jang%NULL%1,                   Jinmok%Bae%NULL%1,                   Ji Yeon%Lee%NULL%0,                   Jeong Ill%Suh%NULL%1,                   Soo Young%Park%NULL%1,                   Woo Jin%Chung%NULL%2,                   Woo Jin%Chung%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                   Cristina%Roca-Oporto%NULL%0,                   Guillermo%Martín-Gutiérrez%NULL%0,                   María Dolores%Avilés%NULL%0,                   Carmen%Gómez-González%NULL%0,                   María Dolores%Navarro-Amuedo%NULL%0,                   Julia%Praena-Segovia%NULL%0,                   José%Molina%NULL%0,                   María%Paniagua-García%NULL%0,                   Horacio%García-Delgado%NULL%0,                   Antonio%Domínguez-Petit%NULL%0,                   Jerónimo%Pachón%NULL%0,                   José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                Calvo%Boyero Fernando%coreGivesNoEmail%1,                Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                Santos%Lozano Alejandro%coreGivesNoEmail%1,                Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -5385,7 +5586,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1324</v>
+        <v>1387</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -5397,7 +5598,7 @@
         <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="3">
@@ -5414,7 +5615,7 @@
         <v>937</v>
       </c>
       <c r="E3" t="s">
-        <v>1325</v>
+        <v>1389</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -5426,7 +5627,7 @@
         <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4">
@@ -5443,7 +5644,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>1326</v>
+        <v>1391</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -5455,7 +5656,7 @@
         <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="5">
@@ -5472,7 +5673,7 @@
         <v>875</v>
       </c>
       <c r="E5" t="s">
-        <v>1327</v>
+        <v>1393</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -5484,7 +5685,7 @@
         <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="6">
@@ -5501,7 +5702,7 @@
         <v>940</v>
       </c>
       <c r="E6" t="s">
-        <v>1328</v>
+        <v>1395</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -5513,7 +5714,7 @@
         <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="7">
@@ -5530,7 +5731,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>1329</v>
+        <v>1396</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -5542,7 +5743,7 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="8">
@@ -5559,7 +5760,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>1330</v>
+        <v>1397</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -5571,7 +5772,7 @@
         <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="9">
@@ -5588,7 +5789,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1331</v>
+        <v>1398</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -5600,7 +5801,7 @@
         <v>116</v>
       </c>
       <c r="I9" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="10">
@@ -5617,7 +5818,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>1332</v>
+        <v>1399</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -5629,7 +5830,7 @@
         <v>121</v>
       </c>
       <c r="I10" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="11">
@@ -5646,7 +5847,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>1333</v>
+        <v>1400</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -5658,7 +5859,7 @@
         <v>126</v>
       </c>
       <c r="I11" t="s">
-        <v>390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="12">
@@ -5675,7 +5876,7 @@
         <v>947</v>
       </c>
       <c r="E12" t="s">
-        <v>1334</v>
+        <v>1401</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -5687,7 +5888,7 @@
         <v>131</v>
       </c>
       <c r="I12" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="13">
@@ -5704,7 +5905,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>1335</v>
+        <v>1402</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -5716,7 +5917,7 @@
         <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="14">
@@ -5733,7 +5934,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>1336</v>
+        <v>1403</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -5745,7 +5946,7 @@
         <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="15">
@@ -5762,7 +5963,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>1337</v>
+        <v>1404</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -5774,7 +5975,7 @@
         <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="16">
@@ -5791,7 +5992,7 @@
         <v>953</v>
       </c>
       <c r="E16" t="s">
-        <v>1338</v>
+        <v>1405</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -5803,7 +6004,7 @@
         <v>151</v>
       </c>
       <c r="I16" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="17">
@@ -5820,7 +6021,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>1339</v>
+        <v>1406</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -5832,7 +6033,7 @@
         <v>91</v>
       </c>
       <c r="I17" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="18">
@@ -5849,7 +6050,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>1340</v>
+        <v>1407</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5861,7 +6062,7 @@
         <v>685</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="19">
@@ -5878,7 +6079,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>1341</v>
+        <v>1408</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -5890,7 +6091,7 @@
         <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="20">
@@ -5907,7 +6108,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>1342</v>
+        <v>1409</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -5919,7 +6120,7 @@
         <v>160</v>
       </c>
       <c r="I20" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="21">
@@ -5936,7 +6137,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>1343</v>
+        <v>1410</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -5948,7 +6149,7 @@
         <v>165</v>
       </c>
       <c r="I21" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="22">
@@ -5965,7 +6166,7 @@
         <v>690</v>
       </c>
       <c r="E22" t="s">
-        <v>1344</v>
+        <v>1411</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -5977,7 +6178,7 @@
         <v>692</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="23">
@@ -5994,7 +6195,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>1345</v>
+        <v>1412</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -6006,7 +6207,7 @@
         <v>170</v>
       </c>
       <c r="I23" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="24">
@@ -6023,7 +6224,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>1346</v>
+        <v>1413</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -6035,7 +6236,7 @@
         <v>696</v>
       </c>
       <c r="I24" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="25">
@@ -6052,7 +6253,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>1347</v>
+        <v>1414</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -6064,7 +6265,7 @@
         <v>175</v>
       </c>
       <c r="I25" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="26">
@@ -6081,7 +6282,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>1348</v>
+        <v>1415</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -6093,7 +6294,7 @@
         <v>180</v>
       </c>
       <c r="I26" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="27">
@@ -6110,7 +6311,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>1349</v>
+        <v>1416</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -6122,7 +6323,7 @@
         <v>185</v>
       </c>
       <c r="I27" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="28">
@@ -6139,7 +6340,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>1350</v>
+        <v>1417</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -6151,7 +6352,7 @@
         <v>190</v>
       </c>
       <c r="I28" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="29">
@@ -6168,7 +6369,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1351</v>
+        <v>1418</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -6180,7 +6381,7 @@
         <v>195</v>
       </c>
       <c r="I29" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="30">
@@ -6197,7 +6398,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>1352</v>
+        <v>1419</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -6209,7 +6410,7 @@
         <v>200</v>
       </c>
       <c r="I30" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="31">
@@ -6226,7 +6427,7 @@
         <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>1353</v>
+        <v>1420</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -6238,7 +6439,7 @@
         <v>706</v>
       </c>
       <c r="I31" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="32">
@@ -6255,7 +6456,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>1354</v>
+        <v>1421</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -6267,7 +6468,7 @@
         <v>91</v>
       </c>
       <c r="I32" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="33">
@@ -6284,7 +6485,7 @@
         <v>971</v>
       </c>
       <c r="E33" t="s">
-        <v>1355</v>
+        <v>1422</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -6296,7 +6497,7 @@
         <v>209</v>
       </c>
       <c r="I33" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="34">
@@ -6313,7 +6514,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>1356</v>
+        <v>1423</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -6325,7 +6526,7 @@
         <v>195</v>
       </c>
       <c r="I34" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="35">
@@ -6354,7 +6555,7 @@
         <v>91</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="36">
@@ -6371,7 +6572,7 @@
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>1357</v>
+        <v>1424</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -6383,7 +6584,7 @@
         <v>712</v>
       </c>
       <c r="I36" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="37">
@@ -6400,7 +6601,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>1358</v>
+        <v>1425</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -6412,7 +6613,7 @@
         <v>91</v>
       </c>
       <c r="I37" t="s">
-        <v>390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="38">
@@ -6429,7 +6630,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>1359</v>
+        <v>1426</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -6441,7 +6642,7 @@
         <v>222</v>
       </c>
       <c r="I38" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="39">
@@ -6458,7 +6659,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>1360</v>
+        <v>1427</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -6470,7 +6671,7 @@
         <v>226</v>
       </c>
       <c r="I39" t="s">
-        <v>390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="40">
@@ -6487,7 +6688,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>1361</v>
+        <v>1428</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -6499,7 +6700,7 @@
         <v>231</v>
       </c>
       <c r="I40" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="41">
@@ -6516,7 +6717,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>1362</v>
+        <v>1429</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -6528,7 +6729,7 @@
         <v>236</v>
       </c>
       <c r="I41" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="42">
@@ -6545,7 +6746,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>1363</v>
+        <v>1430</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -6557,7 +6758,7 @@
         <v>241</v>
       </c>
       <c r="I42" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="43">
@@ -6574,7 +6775,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>1364</v>
+        <v>1431</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -6586,7 +6787,7 @@
         <v>246</v>
       </c>
       <c r="I43" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="44">
@@ -6603,7 +6804,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>1365</v>
+        <v>1432</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -6615,7 +6816,7 @@
         <v>251</v>
       </c>
       <c r="I44" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="45">
@@ -6632,7 +6833,7 @@
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>1366</v>
+        <v>1433</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -6644,7 +6845,7 @@
         <v>692</v>
       </c>
       <c r="I45" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="46">
@@ -6661,7 +6862,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>1367</v>
+        <v>1434</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -6673,7 +6874,7 @@
         <v>246</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="47">
@@ -6690,7 +6891,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>1368</v>
+        <v>1435</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -6702,7 +6903,7 @@
         <v>726</v>
       </c>
       <c r="I47" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="48">
@@ -6719,7 +6920,7 @@
         <v>986</v>
       </c>
       <c r="E48" t="s">
-        <v>1369</v>
+        <v>1436</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -6731,7 +6932,7 @@
         <v>260</v>
       </c>
       <c r="I48" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="49">
@@ -6748,7 +6949,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>1370</v>
+        <v>1437</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -6760,7 +6961,7 @@
         <v>265</v>
       </c>
       <c r="I49" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="50">
@@ -6777,7 +6978,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>1371</v>
+        <v>1438</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -6789,7 +6990,7 @@
         <v>270</v>
       </c>
       <c r="I50" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="51">
@@ -6806,7 +7007,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>1372</v>
+        <v>1439</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -6818,7 +7019,7 @@
         <v>275</v>
       </c>
       <c r="I51" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="52">
@@ -6835,7 +7036,7 @@
         <v>991</v>
       </c>
       <c r="E52" t="s">
-        <v>1373</v>
+        <v>1440</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -6847,7 +7048,7 @@
         <v>280</v>
       </c>
       <c r="I52" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="53">
@@ -6864,7 +7065,7 @@
         <v>993</v>
       </c>
       <c r="E53" t="s">
-        <v>1374</v>
+        <v>1441</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -6876,7 +7077,7 @@
         <v>285</v>
       </c>
       <c r="I53" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="54">
@@ -6893,7 +7094,7 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>1375</v>
+        <v>1442</v>
       </c>
       <c r="F54" t="s">
         <v>54</v>
@@ -6905,7 +7106,7 @@
         <v>712</v>
       </c>
       <c r="I54" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="55">
@@ -6922,7 +7123,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>1376</v>
+        <v>1443</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -6934,7 +7135,7 @@
         <v>91</v>
       </c>
       <c r="I55" t="s">
-        <v>390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="56">
@@ -6951,7 +7152,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>1377</v>
+        <v>1444</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -6963,7 +7164,7 @@
         <v>294</v>
       </c>
       <c r="I56" t="s">
-        <v>390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="57">
@@ -6980,7 +7181,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>1378</v>
+        <v>1445</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -6992,7 +7193,7 @@
         <v>299</v>
       </c>
       <c r="I57" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="58">
@@ -7009,7 +7210,7 @@
         <v>999</v>
       </c>
       <c r="E58" t="s">
-        <v>1379</v>
+        <v>1446</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -7021,7 +7222,7 @@
         <v>304</v>
       </c>
       <c r="I58" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="59">
@@ -7038,7 +7239,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>1380</v>
+        <v>1447</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -7050,7 +7251,7 @@
         <v>309</v>
       </c>
       <c r="I59" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="60">
@@ -7067,7 +7268,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>1381</v>
+        <v>1448</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -7079,7 +7280,7 @@
         <v>314</v>
       </c>
       <c r="I60" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="61">
@@ -7096,7 +7297,7 @@
         <v>1003</v>
       </c>
       <c r="E61" t="s">
-        <v>1382</v>
+        <v>1449</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -7108,7 +7309,7 @@
         <v>319</v>
       </c>
       <c r="I61" t="s">
-        <v>388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="62">
@@ -7125,7 +7326,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>1383</v>
+        <v>1450</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -7137,7 +7338,7 @@
         <v>324</v>
       </c>
       <c r="I62" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="63">
@@ -7154,7 +7355,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>1384</v>
+        <v>1451</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -7166,7 +7367,7 @@
         <v>329</v>
       </c>
       <c r="I63" t="s">
-        <v>386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="64">
@@ -7183,7 +7384,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>1385</v>
+        <v>1452</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -7195,7 +7396,7 @@
         <v>226</v>
       </c>
       <c r="I64" t="s">
-        <v>390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="65">
@@ -7212,7 +7413,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1386</v>
+        <v>1453</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>
@@ -7224,7 +7425,7 @@
         <v>91</v>
       </c>
       <c r="I65" t="s">
-        <v>143</v>
+        <v>1394</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9101" uniqueCount="1454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9556" uniqueCount="1517">
   <si>
     <t>Doi</t>
   </si>
@@ -5195,6 +5195,195 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                Calvo%Boyero Fernando%coreGivesNoEmail%1,                Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                Santos%Lozano Alejandro%coreGivesNoEmail%1,                Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                    Min%He%NULL%1,                    Wanhong%Yin%NULL%1,                    Xuelian%Liao%NULL%1,                    Bo%Wang%NULL%6,                    Xiaodong%Jin%NULL%1,                    Yao%Ma%NULL%2,                    Jirong%Yue%NULL%1,                    Lang%Bai%NULL%1,                    Dan%Liu%NULL%3,                    Ting%Zhu%NULL%1,                    Zhixin%Huang%NULL%1,                    Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                    Shuchang%Zhou%NULL%1,                    Yujin%Wang%NULL%1,                    Wenzhi%Lv%NULL%2,                    Shili%Wang%NULL%1,                    Ting%Wang%751884926@qq.com%1,                    Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                    Yan-chak%Li%NULL%1,                    Sonali%Bose%NULL%1,                    Ravi%Iyengar%NULL%1,                    Supinda%Bunyavanich%NULL%1,                    Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,           Hai-Tao%Zhang%null%1,           Jorge%Goncalves%null%1,           Yang%Xiao%null%1,           Maolin%Wang%null%1,           Yuqi%Guo%null%1,           Chuan%Sun%null%1,           Xiuchuan%Tang%null%1,           Liang%Jing%null%1,           Mingyang%Zhang%null%1,           Xiang%Huang%null%1,           Ying%Xiao%null%1,           Haosen%Cao%null%1,           Yanyan%Chen%null%1,           Tongxin%Ren%null%1,           Fang%Wang%null%1,           Yaru%Xiao%null%1,           Sufang%Huang%null%1,           Xi%Tan%null%1,           Niannian%Huang%null%1,           Bo%Jiao%null%1,           Cheng%Cheng%null%1,           Yong%Zhang%null%1,           Ailin%Luo%null%1,           Laurent%Mombaerts%null%1,           Junyang%Jin%null%1,           Zhiguo%Cao%null%1,           Shusheng%Li%null%1,           Hui%Xu%null%1,           Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                    Mengfei%Guo%NULL%1,                    Limin%Duan%NULL%1,                    Feng%Wu%NULL%1,                    Guorong%Hu%NULL%1,                    Zhihui%Wang%NULL%1,                    Qi%Huang%NULL%1,                    Tingting%Liao%NULL%1,                    Juanjuan%Xu%NULL%1,                    Yanling%Ma%NULL%1,                    Zhilei%Lv%NULL%1,                    Wenjing%Xiao%NULL%1,                    Zilin%Zhao%NULL%1,                    Xueyun%Tan%NULL%1,                    Daquan%Meng%NULL%1,                    Shujing%Zhang%NULL%1,                    E%Zhou%NULL%1,                    Zhengrong%Yin%NULL%1,                    Wei%Geng%NULL%1,                    Xuan%Wang%NULL%1,                    Jianchu%Zhang%NULL%1,                    Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                    Yu%Zhang%whxhzy@163.com%1,                    Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                    Francesco%Arru%NULL%2,                    Francesco%Arru%NULL%0,                    Andrea%De Vito%NULL%3,                    Alessandro%Sassu%NULL%2,                    Alessandro%Sassu%NULL%0,                    Giovanni%Valdes%NULL%1,                    Valentina%Scano%NULL%1,                    Elisabetta%Zinellu%NULL%1,                    Roberto%Perra%NULL%1,                    Giordano%Madeddu%NULL%3,                    Ciriaco%Carru%NULL%1,                    Pietro%Pirina%NULL%3,                    Arduino A.%Mangoni%NULL%2,                    Arduino A.%Mangoni%NULL%0,                    Sergio%Babudieri%NULL%4,                    Sergio%Babudieri%NULL%0,                    Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                    Pablo%Ryan%NULL%1,                    Jorge%Valencia%NULL%2,                    Jorge%Valencia%NULL%0,                    Mario%Pérez-Butragueño%NULL%2,                    Mario%Pérez-Butragueño%NULL%0,                    Eva%Jiménez%NULL%2,                    Eva%Jiménez%NULL%0,                    Mario%Fontán-Vela%NULL%1,                    Elsa%Izquierdo-García%NULL%2,                    Elsa%Izquierdo-García%NULL%0,                    Inés%Fernandez-Jimenez%NULL%1,                    Elena%Álvaro-Alonso%NULL%1,                    Andrea%Lazaro%NULL%2,                    Andrea%Lazaro%NULL%0,                    Marta%Alvarado%NULL%1,                    Helena%Notario%NULL%1,                    Salvador%Resino%NULL%1,                    Daniel%Velez-Serrano%NULL%1,                    Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                    Yiru%Wang%NULL%2,                    Xuecheng%Zhao%NULL%1,                    Lixuan%Wang%NULL%1,                    Feng%Liu%NULL%3,                    Tao%Wang%NULL%15,                    Dawei%Ye%NULL%2,                    Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                    Valentina%Zuccaro%NULL%1,                    Luca%Novelli%NULL%1,                    Lorenzo%Zileri%NULL%2,                    Lorenzo%Zileri%NULL%0,                    Ciro%Celsa%NULL%1,                    Federico%Raimondi%NULL%2,                    Federico%Raimondi%NULL%0,                    Mauro%Gori%NULL%1,                    Giulia%Cammà%NULL%1,                    Salvatore%Battaglia%NULL%1,                    Vincenzo Giuseppe%Genova%NULL%1,                    Laura%Paris%NULL%1,                    Matteo%Tacelli%NULL%1,                    Francesco Antonio%Mancarella%NULL%1,                    Marco%Enea%NULL%1,                    Massimo%Attanasio%NULL%1,                    Michele%Senni%NULL%1,                    Fabiano%Di Marco%NULL%1,                    Luca Ferdinando%Lorini%NULL%1,                    Stefano%Fagiuoli%NULL%1,                    Raffaele%Bruno%NULL%2,                    Calogero%Cammà%NULL%1,                    Antonio%Gasbarrini%NULL%3,                    Francesco%Di Gennaro%NULL%2,                    Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                    Gan-xun%Li%NULL%1,                    Lin%Chen%NULL%3,                    Chang%Shu%NULL%2,                    Jia%Song%NULL%1,                    Wei%Wang%NULL%2,                    Yu-wei%Wang%NULL%1,                    Qian%Chen%NULL%2,                    Guan-nan%Jin%NULL%1,                    Tong-tong%Liu%NULL%1,                    Jun-nan%Liang%NULL%1,                    Peng%Zhu%NULL%1,                    Wei%Zhu%NULL%5,                    Yong%Li%NULL%2,                    Bin-hao%Zhang%NULL%1,                    Huan%Feng%NULL%1,                    Wan-guang%Zhang%NULL%1,                    Zhen-yu%Yin%NULL%1,                    Wen-kui%Yu%NULL%1,                    Yang%Yang%NULL%2,                    Hua-qiu%Zhang%NULL%1,                    Zhou-ping%Tang%NULL%1,                    Hui%Wang%NULL%4,                    Jun-bo%Hu%NULL%1,                    Ji-hong%Liu%NULL%1,                    Ping%Yin%NULL%1,                    Xiao-ping%Chen%NULL%1,                    Bixiang%Zhang%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                    Günay%Can%NULL%2,                    Günay%Can%NULL%0,                    Rıdvan%Karaali%NULL%1,                    Şermin%Börekçi%NULL%1,                    İlker İnanç%Balkan%NULL%1,                    Bilun%Gemicioğlu%NULL%1,                    Dildar%Konukoğlu%NULL%1,                    Ethem%Erginöz%NULL%1,                    Mehmet Sarper%Erdoğan%NULL%1,                    Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                    Danila%Azzolina%NULL%1,                    Eyal%Hayden%NULL%2,                    Eyal%Hayden%NULL%0,                    Gianluca%Gaidano%NULL%2,                    Gianluca%Gaidano%NULL%0,                    Mario%Pirisi%NULL%2,                    Mario%Pirisi%NULL%0,                    Antonio%Acquaviva%NULL%2,                    Antonio%Acquaviva%NULL%0,                    Gianluca%Aimaretti%NULL%2,                    Gianluca%Aimaretti%NULL%0,                    Paolo%Aluffi Valletti%NULL%3,                    Paolo%Aluffi Valletti%NULL%0,                    Roberto%Angilletta%NULL%2,                    Roberto%Angilletta%NULL%0,                    Roberto%Arioli%NULL%2,                    Roberto%Arioli%NULL%0,                    Gian Carlo%Avanzi%NULL%2,                    Gian Carlo%Avanzi%NULL%0,                    Gianluca%Avino%NULL%2,                    Gianluca%Avino%NULL%0,                    Piero Emilio%Balbo%NULL%2,                    Piero Emilio%Balbo%NULL%0,                    Giulia%Baldon%NULL%2,                    Giulia%Baldon%NULL%0,                    Francesca%Baorda%NULL%2,                    Francesca%Baorda%NULL%0,                    Emanuela%Barbero%NULL%2,                    Emanuela%Barbero%NULL%0,                    Alessio%Baricich%NULL%2,                    Alessio%Baricich%NULL%0,                    Michela%Barini%NULL%2,                    Michela%Barini%NULL%0,                    Francesco%Barone-Adesi%NULL%2,                    Francesco%Barone-Adesi%NULL%0,                    Sofia%Battistini%NULL%2,                    Sofia%Battistini%NULL%0,                    Michela%Beltrame%NULL%2,                    Michela%Beltrame%NULL%0,                    Matteo%Bertoli%NULL%2,                    Matteo%Bertoli%NULL%0,                    Stephanie%Bertolin%NULL%2,                    Stephanie%Bertolin%NULL%0,                    Marinella%Bertolotti%NULL%2,                    Marinella%Bertolotti%NULL%0,                    Marta%Betti%NULL%2,                    Marta%Betti%NULL%0,                    Flavio%Bobbio%NULL%2,                    Flavio%Bobbio%NULL%0,                    Paolo%Boffano%NULL%2,                    Paolo%Boffano%NULL%0,                    Lucio%Boglione%NULL%2,                    Lucio%Boglione%NULL%0,                    Silvio%Borrè%NULL%2,                    Silvio%Borrè%NULL%0,                    Matteo%Brucoli%NULL%2,                    Matteo%Brucoli%NULL%0,                    Elisa%Calzaducca%NULL%2,                    Elisa%Calzaducca%NULL%0,                    Edoardo%Cammarata%NULL%2,                    Edoardo%Cammarata%NULL%0,                    Vincenzo%Cantaluppi%NULL%2,                    Vincenzo%Cantaluppi%NULL%0,                    Roberto%Cantello%NULL%2,                    Roberto%Cantello%NULL%0,                    Andrea%Capponi%NULL%2,                    Andrea%Capponi%NULL%0,                    Alessandro%Carriero%NULL%2,                    Alessandro%Carriero%NULL%0,                    Giuseppe Francesco%Casciaro%NULL%2,                    Giuseppe Francesco%Casciaro%NULL%0,                    Luigi Mario%Castello%NULL%2,                    Luigi Mario%Castello%NULL%0,                    Federico%Ceruti%NULL%2,                    Federico%Ceruti%NULL%0,                    Guido%Chichino%NULL%2,                    Guido%Chichino%NULL%0,                    Emilio%Chirico%NULL%2,                    Emilio%Chirico%NULL%0,                    Carlo%Cisari%NULL%1,                    Micol Giulia%Cittone%NULL%2,                    Micol Giulia%Cittone%NULL%0,                    Crizia%Colombo%NULL%2,                    Crizia%Colombo%NULL%0,                    Cristoforo%Comi%NULL%2,                    Cristoforo%Comi%NULL%0,                    Eleonora%Croce%NULL%2,                    Eleonora%Croce%NULL%0,                    Tommaso%Daffara%NULL%2,                    Tommaso%Daffara%NULL%0,                    Pietro%Danna%NULL%2,                    Pietro%Danna%NULL%0,                    Francesco%Della Corte%NULL%2,                    Francesco%Della Corte%NULL%0,                    Simona%De Vecchi%NULL%2,                    Simona%De Vecchi%NULL%0,                    Umberto%Dianzani%NULL%2,                    Umberto%Dianzani%NULL%0,                    Davide%Di Benedetto%NULL%2,                    Davide%Di Benedetto%NULL%0,                    Elia%Esposto%NULL%2,                    Elia%Esposto%NULL%0,                    Fabrizio%Faggiano%NULL%2,                    Fabrizio%Faggiano%NULL%0,                    Zeno%Falaschi%NULL%2,                    Zeno%Falaschi%NULL%0,                    Daniela%Ferrante%NULL%2,                    Daniela%Ferrante%NULL%0,                    Alice%Ferrero%NULL%2,                    Alice%Ferrero%NULL%0,                    Ileana%Gagliardi%NULL%2,                    Ileana%Gagliardi%NULL%0,                    Alessandra%Galbiati%NULL%2,                    Alessandra%Galbiati%NULL%0,                    Silvia%Gallo%NULL%2,                    Silvia%Gallo%NULL%0,                    Pietro Luigi%Garavelli%NULL%2,                    Pietro Luigi%Garavelli%NULL%0,                    Clara Ada%Gardino%NULL%2,                    Clara Ada%Gardino%NULL%0,                    Massimiliano%Garzaro%NULL%3,                    Massimiliano%Garzaro%NULL%0,                    Maria Luisa%Gastaldello%NULL%2,                    Maria Luisa%Gastaldello%NULL%0,                    Francesco%Gavelli%NULL%2,                    Francesco%Gavelli%NULL%0,                    Alessandra%Gennari%NULL%2,                    Alessandra%Gennari%NULL%0,                    Greta Maria%Giacomini%NULL%2,                    Greta Maria%Giacomini%NULL%0,                    Irene%Giacone%NULL%2,                    Irene%Giacone%NULL%0,                    Valentina%Giai Via%NULL%2,                    Valentina%Giai Via%NULL%0,                    Francesca%Giolitti%NULL%2,                    Francesca%Giolitti%NULL%0,                    Laura Cristina%Gironi%NULL%2,                    Laura Cristina%Gironi%NULL%0,                    Carla%Gramaglia%NULL%2,                    Carla%Gramaglia%NULL%0,                    Leonardo%Grisafi%NULL%2,                    Leonardo%Grisafi%NULL%0,                    Ilaria%Inserra%NULL%2,                    Ilaria%Inserra%NULL%0,                    Marco%Invernizzi%NULL%2,                    Marco%Invernizzi%NULL%0,                    Marco%Krengli%NULL%2,                    Marco%Krengli%NULL%0,                    Emanuela%Labella%NULL%2,                    Emanuela%Labella%NULL%0,                    Irene Cecilia%Landi%NULL%2,                    Irene Cecilia%Landi%NULL%0,                    Raffaella%Landi%NULL%2,                    Raffaella%Landi%NULL%0,                    Ilaria%Leone%NULL%2,                    Ilaria%Leone%NULL%0,                    Veronica%Lio%NULL%2,                    Veronica%Lio%NULL%0,                    Luca%Lorenzini%NULL%2,                    Luca%Lorenzini%NULL%0,                    Antonio%Maconi%NULL%2,                    Antonio%Maconi%NULL%0,                    Mario%Malerba%NULL%2,                    Mario%Malerba%NULL%0,                    Giulia Francesca%Manfredi%NULL%2,                    Giulia Francesca%Manfredi%NULL%0,                    Maria%Martelli%NULL%2,                    Maria%Martelli%NULL%0,                    Letizia%Marzari%NULL%2,                    Letizia%Marzari%NULL%0,                    Paolo%Marzullo%NULL%2,                    Paolo%Marzullo%NULL%0,                    Marco%Mennuni%NULL%2,                    Marco%Mennuni%NULL%0,                    Claudia%Montabone%NULL%2,                    Claudia%Montabone%NULL%0,                    Umberto%Morosini%NULL%2,                    Umberto%Morosini%NULL%0,                    Marco%Mussa%NULL%2,                    Marco%Mussa%NULL%0,                    Ilaria%Nerici%NULL%2,                    Ilaria%Nerici%NULL%0,                    Alessandro%Nuzzo%NULL%2,                    Alessandro%Nuzzo%NULL%0,                    Carlo%Olivieri%NULL%2,                    Carlo%Olivieri%NULL%0,                    Samuel Alberto%Padelli%NULL%2,                    Samuel Alberto%Padelli%NULL%0,                    Massimiliano%Panella%NULL%2,                    Massimiliano%Panella%NULL%0,                    Andrea%Parisini%NULL%2,                    Andrea%Parisini%NULL%0,                    Alessio%Paschè%NULL%2,                    Alessio%Paschè%NULL%0,                    Filippo%Patrucco%NULL%2,                    Filippo%Patrucco%NULL%0,                    Giuseppe%Patti%NULL%2,                    Giuseppe%Patti%NULL%0,                    Alberto%Pau%NULL%2,                    Alberto%Pau%NULL%0,                    Anita Rebecca%Pedrinelli%NULL%2,                    Anita Rebecca%Pedrinelli%NULL%0,                    Ilaria%Percivale%NULL%2,                    Ilaria%Percivale%NULL%0,                    Luca%Ragazzoni%NULL%2,                    Luca%Ragazzoni%NULL%0,                    Roberta%Re%NULL%2,                    Roberta%Re%NULL%0,                    Cristina%Rigamonti%NULL%2,                    Cristina%Rigamonti%NULL%0,                    Eleonora%Rizzi%NULL%2,                    Eleonora%Rizzi%NULL%0,                    Andrea%Rognoni%NULL%2,                    Andrea%Rognoni%NULL%0,                    Annalisa%Roveta%NULL%2,                    Annalisa%Roveta%NULL%0,                    Luigia%Salamina%NULL%2,                    Luigia%Salamina%NULL%0,                    Matteo%Santagostino%NULL%2,                    Matteo%Santagostino%NULL%0,                    Massimo%Saraceno%NULL%2,                    Massimo%Saraceno%NULL%0,                    Paola%Savoia%NULL%2,                    Paola%Savoia%NULL%0,                    Marco%Sciarra%NULL%2,                    Marco%Sciarra%NULL%0,                    Andrea%Schimmenti%NULL%2,                    Andrea%Schimmenti%NULL%0,                    Lorenza%Scotti%NULL%2,                    Lorenza%Scotti%NULL%0,                    Enrico%Spinoni%NULL%2,                    Enrico%Spinoni%NULL%0,                    Carlo%Smirne%NULL%2,                    Carlo%Smirne%NULL%0,                    Vanessa%Tarantino%NULL%2,                    Vanessa%Tarantino%NULL%0,                    Paolo Amedeo%Tillio%NULL%2,                    Paolo Amedeo%Tillio%NULL%0,                    Stelvio%Tonello%NULL%2,                    Stelvio%Tonello%NULL%0,                    Rosanna%Vaschetto%NULL%2,                    Rosanna%Vaschetto%NULL%0,                    Veronica%Vassia%NULL%2,                    Veronica%Vassia%NULL%0,                    Domenico%Zagaria%NULL%2,                    Domenico%Zagaria%NULL%0,                    Elisa%Zavattaro%NULL%2,                    Elisa%Zavattaro%NULL%0,                    Patrizia%Zeppegno%NULL%2,                    Patrizia%Zeppegno%NULL%0,                    Francesca%Zottarelli%NULL%2,                    Francesca%Zottarelli%NULL%0,                    Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                    Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                    Marta%Ottone%NULL%2,                    Marta%Ottone%NULL%0,                    Tommaso%Fasano%NULL%1,                    Pierpaolo%Pattacini%NULL%1,                    Valentina%Iotti%NULL%1,                    Lucia%Spaggiari%NULL%1,                    Riccardo%Bonacini%NULL%1,                    Andrea%Nitrosi%NULL%1,                    Efrem%Bonelli%NULL%1,                    Simone%Canovi%NULL%1,                    Rossana%Colla%NULL%1,                    Alessandro%Zerbini%NULL%1,                    Marco%Massari%NULL%1,                    Ivana%Lattuada%NULL%1,                    Anna Maria%Ferrari%NULL%1,                    Paolo%Giorgi Rossi%NULL%1,                    Massimo%Costantini%NULL%1,                    Roberto%Grilli%NULL%1,                    Massimiliano%Marino%NULL%1,                    Giulio%Formoso%NULL%1,                    Debora%Formisano%NULL%1,                    Emanuela%Bedeschi%NULL%1,                    Cinzia%Perilli%NULL%1,                    Elisabetta%La Rosa%NULL%1,                    Eufemia%Bisaccia%NULL%1,                    Ivano%Venturi%NULL%1,                    Massimo%Vicentini%NULL%1,                    Cinzia%Campari%NULL%1,                    Francesco%Gioia%NULL%1,                    Serena%Broccoli%NULL%1,                    Pamela%Mancuso%NULL%1,                    Marco%Foracchia%NULL%1,                    Mirco%Pinotti%NULL%1,                    Nicola%Facciolongo%NULL%1,                    Laura%Trabucco%NULL%1,                    Stefano%De Pietri%NULL%1,                    Giorgio Francesco%Danelli%NULL%1,                    Laura%Albertazzi%NULL%1,                    Enrica%Bellesia%NULL%1,                    Mattia%Corradini%NULL%1,                    Elena%Magnani%NULL%1,                    Annalisa%Pilia%NULL%1,                    Alessandra%Polese%NULL%1,                    Silvia Storchi%Incerti%NULL%1,                    Piera%Zaldini%NULL%1,                    Bonanno%Orsola%NULL%1,                    Matteo%Revelli%NULL%1,                    Carlo%Salvarani%NULL%1,                    Carmine%Pinto%NULL%1,                    Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                    Hong-Qiu%Gu%NULL%1,                    Yi%Liu (刘艺)%NULL%1,                    Guqin%Zhang%NULL%1,                    Hang%Yang%NULL%1,                    Huifang%Hu%NULL%1,                    Chenyang%Lu%NULL%1,                    Yang%Li%NULL%3,                    Liyi%Wang%NULL%1,                    Yi%Liu (刘毅)%yi2006liu@163.com%1,                    Yi%Zhao%zhao.y1977@163.com%1,                    Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                    Tawsifur%Rahman%NULL%2,                    Tawsifur%Rahman%NULL%0,                    Amith%Khandakar%NULL%3,                    Somaya%Al-Madeed%NULL%2,                    Susu M.%Zughaier%NULL%5,                    Suhail A. R.%Doi%NULL%3,                    Hanadi%Hassen%NULL%1,                    Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                    Jia%Sun%NULL%1,                    Yi-Xin%Li%NULL%1,                    Qian%Chen%NULL%0,                    Qing-Quan%Liu%NULL%1,                    Zhou%Sun%NULL%1,                    Ran%Pang%NULL%1,                    Fei%Chen%NULL%1,                    Bing-Yang%Xu%NULL%1,                    Anne%Manyande%NULL%1,                    Taane G%Clark%NULL%1,                    Jin-Ping%Li%NULL%1,                    Ilkay Erdogan%Orhan%NULL%1,                    Yu-Ke%Tian%NULL%1,                    Tao%Wang%wt7636@126.com%0,                    Wei%Wu%wt7636@126.com%1,                    Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%1,             Xinyan%Cai%xref no email%1,             Robert%Lennon%xref no email%1,             Derjung M.%Tarn%xref no email%1,             Arch G.%Mainous%xref no email%1,             Aleksandra E.%Zgierska%xref no email%1,             Bruce%Barrett%xref no email%1,             Wen-Jan%Tuan%xref no email%1,             Kevin%Maloy%xref no email%1,             Munish%Goyal%xref no email%1,             Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,                 Imam%Z%coreGivesNoEmail%1,                 Lippi%G%coreGivesNoEmail%1,                 Oran%DP%coreGivesNoEmail%1,                 Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                    Caiping%Song%NULL%1,                    En%Liu%NULL%1,                    Xi%Liu%NULL%1,                    Hao%Wu%NULL%1,                    Hui%Lin%NULL%1,                    Yuliang%Liu%NULL%1,                    Qi%Li%NULL%1,                    Zhi%Xu%NULL%1,                    XiaoBao%Ren%NULL%1,                    Cheng%Zhang%NULL%1,                    Wenjing%Zhang%NULL%1,                    Wei%Duan%NULL%2,                    Yongfeng%Tian%NULL%1,                    Ping%Li%NULL%1,                    Mingdong%Hu%NULL%1,                    Shiming%Yang%NULL%1,                    Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                    Changli%Li%NULL%1,                    Li%Zheng%NULL%1,                    Wenzhi%Lv%NULL%0,                    Zhigang%He%NULL%1,                    Xinwu%Cui%NULL%1,                    Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%1,             Liang%Li%xref no email%1,             Li%Wang%xref no email%1,             Huan%Liu%xref no email%2,             Xuefang%Lu%xref no email%1,             Feifei%Zeng%xref no email%1,             Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                    Hayne Cho%Park%NULL%2,                    Hayne Cho%Park%NULL%0,                    Ajin%Cho%NULL%1,                    Juhee%Kim%NULL%1,                    Kyu-sang%Yun%NULL%1,                    Jinseog%Kim%NULL%1,                    Young-Ki%Lee%NULL%1,                    Sinan%Kardes.%NULL%2,                    Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%1,             Luyu%Yang%xref no email%1,             Qian%Zeng%xref no email%1,             Qingyun%Li%xref no email%1,             Zhitao%Yang%xref no email%1,             Lizhong%Han%xref no email%1,             Xiaodong%Huang%xref no email%1,             Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                    Xiaoyu%Fang%NULL%1,                    Lixia%Cheng%NULL%1,                    Penghao%Wang%NULL%1,                    Shen%Li%NULL%1,                    Hao%Yu%NULL%1,                    Yao%Zhang%NULL%2,                    Nan%Jiang%NULL%1,                    Tingting%Zeng%NULL%1,                    Chao%Hou%NULL%1,                    Jing%Zhou%NULL%1,                    Shiru%Li%NULL%1,                    Yingzi%Pan%NULL%1,                    Yitong%Li%NULL%1,                    Lili%Nie%NULL%1,                    Yang%Li%NULL%0,                    Qidi%Sun%NULL%1,                    Hong%Jia%NULL%1,                    Mengxia%Li%NULL%1,                    Guoqiang%Cao%NULL%1,                    Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                    Lucas A%Ramos%NULL%2,                    Lucas A%Ramos%NULL%0,                    Wouter%Potters%NULL%1,                    Marcus L F%Janssen%NULL%1,                    Deborah%Hubers%NULL%1,                    Shi%Hu%NULL%1,                    Egill A%Fridgeirsson%NULL%1,                    Dan%Piña-Fuentes%NULL%1,                    Rajat%Thomas%NULL%1,                    Iwan C C%van der Horst%NULL%1,                    Christian%Herff%NULL%2,                    Christian%Herff%NULL%0,                    Pieter%Kubben%NULL%1,                    Paul W G%Elbers%NULL%1,                    Henk A%Marquering%NULL%1,                    Max%Welling%NULL%1,                    Suat%Simsek%NULL%1,                    Martijn D%de Kruif%NULL%1,                    Tom%Dormans%NULL%1,                    Lucas M%Fleuren%NULL%1,                    Michiel%Schinkel%NULL%1,                    Peter G%Noordzij%NULL%1,                    Joop P%van den Bergh%NULL%2,                    Joop P%van den Bergh%NULL%0,                    Caroline E%Wyers%NULL%1,                    David T B%Buis%NULL%2,                    David T B%Buis%NULL%0,                    W Joost%Wiersinga%NULL%1,                    Ella H C%van den Hout%NULL%1,                    Auke C%Reidinga%NULL%1,                    Daisy%Rusch%NULL%1,                    Kim C E%Sigaloff%NULL%1,                    Renee A%Douma%NULL%1,                    Lianne%de Haan%NULL%1,                    Niels C%Gritters van den Oever%NULL%1,                    Roger J M W%Rennenberg%NULL%1,                    Guido A%van Wingen%NULL%1,                    Marcel J H%Aries%NULL%1,                    Martijn%Beudel%NULL%2,                    Martijn%Beudel%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                    Fajer A.%Al-Ishaq%NULL%2,                    Fajer A.%Al-Ishaq%NULL%0,                    Fatima S.%Al-Mohannadi%NULL%1,                    Reem S.%Mubarak%NULL%1,                    Maryam H.%Al-Hitmi%NULL%1,                    Khandaker Reajul%Islam%NULL%1,                    Amith%Khandakar%NULL%0,                    Ali Ait%Hssain%NULL%3,                    Ali Ait%Hssain%NULL%0,                    Somaya%Al-Madeed%NULL%0,                    Susu M.%Zughaier%NULL%0,                    Susu M.%Zughaier%NULL%0,                    Muhammad E. H.%Chowdhury%NULL%3,                    Muhammad E. H.%Chowdhury%NULL%0,                    Antonella%Santone%NULL%3,                    Antonella%Santone%NULL%0,                    Antonella%Santone%NULL%0,                    Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                    Amith%Khandakar%NULL%0,                    Md Enamul%Hoque%NULL%2,                    Md Enamul%Hoque%NULL%0,                    Nabil%Ibtehaz%NULL%2,                    Nabil%Ibtehaz%NULL%0,                    Saad Bin%Kashem%NULL%2,                    Saad Bin%Kashem%NULL%0,                    Reehum%Masud%NULL%1,                    Lutfunnahar%Shampa%NULL%1,                    Mohammad Mehedi%Hasan%NULL%1,                    Mohammad Tariqul%Islam%NULL%1,                    Somaya%Al-Maadeed%NULL%2,                    Somaya%Al-Maadeed%NULL%0,                    Susu M.%Zughaier%NULL%0,                    Susu M.%Zughaier%NULL%0,                    Saif%Badran%NULL%2,                    Saif%Badran%NULL%0,                    Suhail A. R.%Doi%NULL%0,                    Suhail A. R.%Doi%NULL%0,                    Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                    Pablo%Rodríguez-Belenguer%NULL%2,                    Pablo%Rodríguez-Belenguer%NULL%0,                    Antonio J.%Serrano-López%NULL%1,                    Emilio%Soria-Olivas%NULL%2,                    Emilio%Soria-Olivas%NULL%0,                    Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                    Haibo%Ai%NULL%1,                    Yunong%Fu%NULL%1,                    Qinglin%Li%NULL%1,                    Ruixia%Cui%NULL%1,                    Xiaohua%Ma%NULL%1,                    Yan-fen%Ma%NULL%1,                    Zi%Wang%NULL%1,                    Tong%Liu%NULL%1,                    Yunxiang%Long%NULL%1,                    Kai%Qu%NULL%1,                    Chang%Liu%NULL%1,                    Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%1,             Rongqing%Sun%xref no email%1,             Wenbo%Sun%xref no email%1,             Dan%Xu%xref no email%1,             Lan%Lan%xref no email%1,             Huan%Li%xref no email%1,             Huan%Liu%xref no email%0,             Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                    Dawei%Zhang%NULL%1,                    Jing%Xu%NULL%6,                    Zhu%Chen%NULL%1,                    Tieniu%Yang%NULL%1,                    Peng%Zhao%NULL%2,                    Guofeng%Chen%NULL%1,                    Gregory%Cheng%NULL%1,                    Yudong%Wang%NULL%1,                    Jingfeng%Bi%NULL%1,                    Lin%Tan%NULL%1,                    George%Lau%NULL%1,                    Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                    Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                    Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                    Giulia%Suigo%NULL%1,                    Davide%Zampini%NULL%1,                    Matteo%Pistoia%NULL%1,                    Mariella%Ciola%NULL%1,                    Tommaso%Ciampani%NULL%1,                    Carolina%Ultori%NULL%1,                    Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                    John R%Adler%NULL%3,                    Sultan M%Kamran%NULL%2,                    Sultan M%Kamran%NULL%0,                    Zill-e-Humayun%Mirza%NULL%1,                    Hussain Abdul%Moeed%NULL%1,                    Arshad%Naseem%NULL%1,                    Maryam%Hussain%NULL%1,                    Imran%Fazal%NULL%1,                    Farrukh%Saeed%NULL%1,                    Wasim%Alamgir%NULL%1,                    Salman%Saleem%NULL%1,                    Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%1,             Zilong%Liu%xref no email%1,             Weipeng%Jiang%xref no email%1,             Jian%Wang%xref no email%4,             Mengchan%Zhu%xref no email%1,             Juan%Song%xref no email%0,             Xiaoyue%Wang%xref no email%1,             Ying%Su%xref no email%1,             Guiling%Xiang%xref no email%1,             Maosong%Ye%xref no email%1,             Jiamin%Li%xref no email%1,             Yong%Zhang%xref no email%1,             Qinjun%Shen%xref no email%1,             Zhuozhe%Li%xref no email%1,             Danwei%Yao%xref no email%1,             Yuanlin%Song%xref no email%0,             Kaihuan%Yu%xref no email%1,             Zhe%Luo%xref no email%1,             Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                    María M.%Martín%NULL%1,                    Mónica%Argueso%NULL%1,                    Jordi%Solé-Violán%NULL%1,                    Alina%Perez%NULL%1,                    José Alberto%Marcos Y Ramos%NULL%1,                    Luis%Ramos-Gómez%NULL%1,                    Sergio%López%NULL%1,                    Andrés%Franco%NULL%1,                    Agustín F.%González-Rivero%NULL%1,                    María%Martín%NULL%1,                    Verónica%Gonzalez%NULL%1,                    Julia%Alcoba-Flórez%NULL%1,                    Miguel Ángel%Rodriguez%NULL%1,                    Marta%Riaño-Ruiz%NULL%1,                    Juan%Guillermo O Campo%NULL%1,                    Lourdes%González%NULL%1,                    Tamara%Cantera%NULL%1,                    Raquel%Ortiz-López%NULL%1,                    Nazario%Ojeda%NULL%1,                    Aurelio%Rodríguez-Pérez%NULL%1,                    Casimira%Domínguez%NULL%1,                    Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                    Rita%Kukafka%NULL%1,                    Arriel%Benis%NULL%2,                    Arriel%Benis%NULL%0,                    Jinfeng%Li%NULL%1,                    Pan%Pan%NULL%2,                    Pan%Pan%NULL%0,                    Yichao%Li%NULL%2,                    Yichao%Li%NULL%0,                    Yongjiu%Xiao%NULL%2,                    Yongjiu%Xiao%NULL%0,                    Bingchao%Han%NULL%2,                    Bingchao%Han%NULL%0,                    Longxiang%Su%NULL%2,                    Longxiang%Su%NULL%0,                    Mingliang%Su%NULL%2,                    Mingliang%Su%NULL%0,                    Yansheng%Li%NULL%2,                    Yansheng%Li%NULL%0,                    Siqi%Zhang%NULL%2,                    Siqi%Zhang%NULL%0,                    Dapeng%Jiang%NULL%2,                    Dapeng%Jiang%NULL%0,                    Xia%Chen%NULL%2,                    Xia%Chen%NULL%0,                    Fuquan%Zhou%NULL%2,                    Fuquan%Zhou%NULL%0,                    Ling%Ma%NULL%2,                    Ling%Ma%NULL%0,                    Pengtao%Bao%NULL%2,                    Pengtao%Bao%NULL%0,                    Lixin%Xie%xielx301@126.com%2,                    Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                    Cristina%Roca-Oporto%NULL%2,                    Guillermo%Martín-Gutiérrez%NULL%2,                    María Dolores%Avilés%NULL%2,                    Carmen%Gómez-González%NULL%2,                    María Dolores%Navarro-Amuedo%NULL%2,                    Julia%Praena-Segovia%NULL%2,                    José%Molina%NULL%2,                    María%Paniagua-García%NULL%2,                    Horacio%García-Delgado%NULL%2,                    Antonio%Domínguez-Petit%NULL%2,                    Jerónimo%Pachón%NULL%2,                    José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                    Barry R.%Meisenberg%NULL%2,                    Barry R.%Meisenberg%NULL%0,                    James H.%MacDonald%NULL%1,                    Nandakumar%Menon%NULL%1,                    Marcia B.%Fowler%NULL%1,                    Michaline%West%NULL%1,                    Jane%Rhule%NULL%1,                    Sadaf S.%Qureshi%NULL%1,                    Eileen B.%MacDonald%NULL%1,                    Yu Ru%Kou%NULL%2,                    Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                    Sarah%Poole%NULL%2,                    Sarah%Poole%NULL%0,                    Meeta%Pradhan%NULL%1,                    Akhil%Vaid%NULL%3,                    Akhil%Vaid%NULL%0,                    Sulaiman%Somani%NULL%3,                    Sulaiman%Somani%NULL%0,                    Adam J%Russak%NULL%2,                    Adam J%Russak%NULL%0,                    Jessica K%De Freitas%NULL%2,                    Jessica K%De Freitas%NULL%0,                    Fayzan F%Chaudhry%NULL%2,                    Fayzan F%Chaudhry%NULL%0,                    Ishan%Paranjpe%NULL%3,                    Ishan%Paranjpe%NULL%0,                    Kipp W%Johnson%NULL%2,                    Kipp W%Johnson%NULL%0,                    Samuel J%Lee%NULL%2,                    Samuel J%Lee%NULL%0,                    Riccardo%Miotto%NULL%2,                    Riccardo%Miotto%NULL%0,                    Felix%Richter%NULL%3,                    Felix%Richter%NULL%0,                    Shan%Zhao%NULL%3,                    Shan%Zhao%NULL%0,                    Noam D%Beckmann%NULL%2,                    Noam D%Beckmann%NULL%0,                    Nidhi%Naik%NULL%2,                    Nidhi%Naik%NULL%0,                    Arash%Kia%NULL%2,                    Arash%Kia%NULL%0,                    Prem%Timsina%NULL%2,                    Prem%Timsina%NULL%0,                    Anuradha%Lala%NULL%2,                    Anuradha%Lala%NULL%0,                    Manish%Paranjpe%NULL%2,                    Manish%Paranjpe%NULL%0,                    Eddye%Golden%NULL%2,                    Eddye%Golden%NULL%0,                    Matteo%Danieletto%NULL%2,                    Matteo%Danieletto%NULL%0,                    Manbir%Singh%NULL%2,                    Manbir%Singh%NULL%0,                    Dara%Meyer%NULL%2,                    Dara%Meyer%NULL%0,                    Paul F%O'Reilly%NULL%2,                    Paul F%O'Reilly%NULL%0,                    Laura%Huckins%NULL%2,                    Laura%Huckins%NULL%0,                    Patricia%Kovatch%NULL%2,                    Patricia%Kovatch%NULL%0,                    Joseph%Finkelstein%NULL%2,                    Joseph%Finkelstein%NULL%0,                    Robert M.%Freeman%NULL%2,                    Robert M.%Freeman%NULL%0,                    Edgar%Argulian%NULL%2,                    Edgar%Argulian%NULL%0,                    Andrew%Kasarskis%NULL%2,                    Andrew%Kasarskis%NULL%0,                    Bethany%Percha%NULL%2,                    Bethany%Percha%NULL%0,                    Judith A%Aberg%NULL%2,                    Judith A%Aberg%NULL%0,                    Emilia%Bagiella%NULL%3,                    Emilia%Bagiella%NULL%0,                    Carol R%Horowitz%NULL%2,                    Carol R%Horowitz%NULL%0,                    Barbara%Murphy%NULL%2,                    Barbara%Murphy%NULL%0,                    Eric J%Nestler%NULL%2,                    Eric J%Nestler%NULL%0,                    Eric E%Schadt%NULL%2,                    Eric E%Schadt%NULL%0,                    Judy H%Cho%NULL%2,                    Judy H%Cho%NULL%0,                    Carlos%Cordon-Cardo%NULL%2,                    Carlos%Cordon-Cardo%NULL%0,                    Valentin%Fuster%NULL%3,                    Valentin%Fuster%NULL%0,                    Dennis S%Charney%NULL%2,                    Dennis S%Charney%NULL%0,                    David L%Reich%NULL%2,                    David L%Reich%NULL%0,                    Erwin P%Bottinger%NULL%2,                    Erwin P%Bottinger%NULL%0,                    Matthew A%Levin%NULL%2,                    Matthew A%Levin%NULL%0,                    Jagat%Narula%NULL%3,                    Jagat%Narula%NULL%0,                    Zahi A%Fayad%NULL%2,                    Zahi A%Fayad%NULL%0,                    Allan C%Just%NULL%2,                    Allan C%Just%NULL%0,                    Alexander W%Charney%NULL%2,                    Alexander W%Charney%NULL%0,                    Girish N%Nadkarni%NULL%2,                    Girish N%Nadkarni%NULL%0,                    Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                    Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                    Anne%Chen%NULL%2,                    Wei%Hou%NULL%3,                    James M.%Graham%NULL%1,                    Haifang%Li%NULL%2,                    Paul S.%Richman%NULL%1,                    Henry C.%Thode%NULL%1,                    Adam J.%Singer%NULL%1,                    Tim Q.%Duong%NULL%1,                    Muhammad%Adrish%NULL%9,                    Muhammad%Adrish%NULL%0,                    Muhammad%Adrish%NULL%0,                    Muhammad%Adrish%NULL%0,                    Muhammad%Adrish%NULL%0,                    Muhammad%Adrish%NULL%0,                    Muhammad%Adrish%NULL%0,                    Muhammad%Adrish%NULL%0,                    Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                    Qin%Liu%NULL%2,                    Xiao%Zhang%NULL%2,                    Shuyi%Liu%NULL%1,                    Weiqi%Chen%NULL%1,                    Jingjing%You%NULL%1,                    Qiuying%Chen%NULL%1,                    Minmin%Li%NULL%1,                    Zhuozhi%Chen%NULL%1,                    Luyan%Chen%NULL%1,                    Lv%Chen%NULL%1,                    Yuhao%Dong%NULL%1,                    Qingsi%Zeng%NULL%1,                    Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                    Lei%Nie%NULL%1,                    Dongde%Wu%NULL%1,                    Jian%Chen%NULL%2,                    Zhifeng%Yang%NULL%1,                    Ling%Zhang%NULL%3,                    Dongqing%Li%NULL%1,                    Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%1,             Feiyang%Zhong%xref no email%1,             Hanfei%Zhang%xref no email%1,             Wenting%An%xref no email%1,             Meiyan%Liao%xref no email%1,             Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                    Burcin%Hakoglu%NULL%2,                    Burcin%Hakoglu%NULL%0,                    Ali%Kadri Cirak%NULL%1,                    Gulru%Polat%NULL%1,                    Berna%Komurcuoglu%NULL%1,                    Berrin%Akkol%NULL%1,                    Cagri%Atasoy%NULL%1,                    Eda%Bayramic%NULL%1,                    Gunseli%Balci%NULL%1,                    Sena%Ataman%NULL%1,                    Sinem%Ermin%NULL%1,                    Enver%Yalniz%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%1,             Lili%Huang%xref no email%1,             Jin%Chen%xref no email%1,             Xiaowei%Yuan%xref no email%1,             Qinhua%Shen%xref no email%1,             Su%Dong%xref no email%1,             Bei%Cheng%xref no email%1,             Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                    Qiaosen%Chen%NULL%2,                    Qiaosen%Chen%NULL%0,                    Sumeng%Li%NULL%1,                    Huadong%Li%NULL%1,                    Qian%Zhang%NULL%1,                    Sihong%Lu%NULL%1,                    Li%Wu%NULL%1,                    Leiqun%Xiong%NULL%1,                    Bobin%Mi%NULL%1,                    Di%Liu%NULL%3,                    Mengji%Lu%NULL%1,                    Dongliang%Yang%NULL%1,                    Hongbo%Jiang%hongbojiang3@163.com%1,                    Shaoping%Zheng%zhengspxx@126.com%1,                    Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                    Hua%Zhang%NULL%2,                    Rui%Qiao%NULL%1,                    Qinggang%Ge%NULL%1,                    Shuisheng%Zhang%NULL%1,                    Zongxuan%Zhao%NULL%1,                    Ci%Tian%NULL%1,                    Qingbian%Ma%NULL%2,                    Qingbian%Ma%NULL%0,                    Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                    Antonia%Ho%NULL%2,                    Riinu%Pius%NULL%2,                    Iain%Buchan%NULL%1,                    Gail%Carson%NULL%2,                    Thomas M%Drake%NULL%1,                    Jake%Dunning%NULL%2,                    Cameron J%Fairfield%NULL%2,                    Carrol%Gamble%NULL%2,                    Christopher A%Green%NULL%2,                    Rishi%Gupta%NULL%1,                    Sophie%Halpin%NULL%2,                    Hayley E%Hardwick%NULL%1,                    Karl A%Holden%NULL%1,                    Peter W%Horby%NULL%2,                    Clare%Jackson%NULL%2,                    Kenneth A%Mclean%NULL%2,                    Laura%Merson%NULL%2,                    Jonathan S%Nguyen-Van-Tam%NULL%1,                    Lisa%Norman%NULL%2,                    Mahdad%Noursadeghi%NULL%2,                    Piero L%Olliaro%NULL%1,                    Mark G%Pritchard%NULL%1,                    Clark D%Russell%NULL%2,                    Catherine A%Shaw%NULL%2,                    Aziz%Sheikh%NULL%2,                    Tom%Solomon%NULL%2,                    Cathie%Sudlow%NULL%1,                    Olivia V%Swann%NULL%1,                    Lance CW%Turtle%NULL%2,                    Peter JM%Openshaw%NULL%2,                    J Kenneth%Baillie%NULL%2,                    Malcolm G%Semple%NULL%3,                    Annemarie B%Docherty%NULL%3,                    Annemarie B%Docherty%NULL%0,                    Ewen M%Harrison%NULL%3,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    J Kenneth%Baillie%NULL%0,                    Malcolm G%Semple%NULL%0,                    Peter JM%Openshaw%NULL%0,                    Gail%Carson%NULL%0,                    Beatrice%Alex%NULL%1,                    Benjamin%Bach%NULL%1,                    Wendy S%Barclay%NULL%1,                    Debby%Bogaert%NULL%1,                    Meera%Chand%NULL%1,                    Graham S%Cooke%NULL%1,                    Annemarie B%Docherty%NULL%0,                    Jake%Dunning%NULL%0,                    Ana%da Silva Filipe%NULL%1,                    Tom%Fletcher%NULL%1,                    Christopher A%Green%NULL%0,                    Ewen M%Harrison%NULL%0,                    Julian A%Hiscox%NULL%1,                    Antonia Ying Wai%Ho%NULL%1,                    Peter W%Horby%NULL%0,                    Samreen%Ijaz%NULL%1,                    Saye%Khoo%NULL%1,                    Paul%Klenerman%NULL%1,                    Andrew%Law%NULL%2,                    Wei Shen%Lim%NULL%1,                    Alexander J%Mentzer%NULL%1,                    Laura%Merson%NULL%0,                    Alison M%Meynert%NULL%1,                    Mahdad%Noursadeghi%NULL%0,                    Shona C%Moore%NULL%2,                    Massimo%Palmarini%NULL%1,                    William A%Paxton%NULL%1,                    Georgios%Pollakis%NULL%1,                    Nicholas%Price%NULL%1,                    Andrew%Rambaut%NULL%1,                    David L%Robertson%NULL%1,                    Clark D%Russell%NULL%0,                    Vanessa%Sancho-Shimizu%NULL%1,                    Janet T%Scott%NULL%1,                    Louise%Sigfrid%NULL%1,                    Tom%Solomon%NULL%0,                    Shiranee%Sriskandan%NULL%1,                    David%Stuart%NULL%1,                    Charlotte%Summers%NULL%1,                    Richard S%Tedder%NULL%1,                    Emma C%Thomson%NULL%1,                    Ryan S%Thwaites%NULL%1,                    Lance CW%Turtle%NULL%0,                    Maria%Zambon%NULL%1,                    Hayley%Hardwick%NULL%1,                    Chloe%Donohue%NULL%1,                    Jane%Ewins%NULL%1,                    Wilna%Oosthuyzen%NULL%1,                    Fiona%Griffiths%NULL%1,                    Lisa%Norman%NULL%0,                    Riinu%Pius%NULL%0,                    Tom M%Drake%NULL%1,                    Cameron J%Fairfield%NULL%0,                    Stephen%Knight%NULL%1,                    Kenneth A%Mclean%NULL%0,                    Derek%Murphy%NULL%1,                    Catherine A%Shaw%NULL%0,                    Jo%Dalton%NULL%1,                    Michelle%Girvan%NULL%1,                    Egle%Saviciute%NULL%1,                    Stephanie%Roberts%NULL%1,                    Janet%Harrison%NULL%1,                    Laura%Marsh%NULL%1,                    Marie%Connor%NULL%1,                    Sophie%Halpin%NULL%0,                    Clare%Jackson%NULL%0,                    Carrol%Gamble%NULL%0,                    Gary%Leeming%NULL%1,                    Andrew%Law%NULL%0,                    Ross%Hendry%NULL%1,                    James%Scott-Brown%NULL%1,                    William%Greenhalf%NULL%1,                    Victoria%Shaw%NULL%1,                    Sarah%McDonald%NULL%2,                    Katie A%Ahmed%NULL%1,                    Jane A%Armstrong%NULL%1,                    Milton%Ashworth%NULL%1,                    Innocent G%Asiimwe%NULL%1,                    Siddharth%Bakshi%NULL%1,                    Samantha L%Barlow%NULL%1,                    Laura%Booth%NULL%1,                    Benjamin%Brennan%NULL%1,                    Katie%Bullock%NULL%1,                    Benjamin WA%Catterall%NULL%1,                    Jordan J%Clark%NULL%1,                    Emily A%Clarke%NULL%1,                    Sarah%Cole%NULL%1,                    Louise%Cooper%NULL%1,                    Helen%Cox%NULL%1,                    Christopher%Davis%NULL%1,                    Oslem%Dincarslan%NULL%1,                    Chris%Dunn%NULL%1,                    Philip%Dyer%NULL%1,                    Angela%Elliott%NULL%1,                    Anthony%Evans%NULL%1,                    Lewis WS%Fisher%NULL%1,                    Terry%Foster%NULL%1,                    Isabel%Garcia-Dorival%NULL%1,                    Willliam%Greenhalf%NULL%1,                    Philip%Gunning%NULL%1,                    Catherine%Hartley%NULL%1,                    Antonia%Ho%NULL%0,                    Rebecca L%Jensen%NULL%1,                    Christopher B%Jones%NULL%1,                    Trevor R%Jones%NULL%1,                    Shadia%Khandaker%NULL%1,                    Katharine%King%NULL%1,                    Robyn T%Kiy%NULL%1,                    Chrysa%Koukorava%NULL%1,                    Annette%Lake%NULL%1,                    Suzannah%Lant%NULL%1,                    Diane%Latawiec%NULL%1,                    L%Lavelle-Langham%NULL%1,                    Daniella%Lefteri%NULL%1,                    Lauren%Lett%NULL%1,                    Lucia A%Livoti%NULL%1,                    Maria%Mancini%NULL%1,                    Sarah%McDonald%NULL%0,                    Laurence%McEvoy%NULL%1,                    John%McLauchlan%NULL%1,                    Soeren%Metelmann%NULL%1,                    Nahida S%Miah%NULL%1,                    Joanna%Middleton%NULL%1,                    Joyce%Mitchell%NULL%1,                    Shona C%Moore%NULL%0,                    Ellen G%Murphy%NULL%1,                    Rebekah%Penrice-Randal%NULL%1,                    Jack%Pilgrim%NULL%1,                    Tessa%Prince%NULL%1,                    Will%Reynolds%NULL%1,                    P Matthew%Ridley%NULL%1,                    Debby%Sales%NULL%1,                    Victoria E%Shaw%NULL%1,                    Rebecca K%Shears%NULL%1,                    Benjamin%Small%NULL%1,                    Krishanthi S%Subramaniam%NULL%1,                    Agnieska%Szemiel%NULL%1,                    Aislynn%Taggart%NULL%1,                    Jolanta%Tanianis-Hughes%NULL%1,                    Jordan%Thomas%NULL%1,                    Erwan%Trochu%NULL%1,                    Libby%van Tonder%NULL%1,                    Eve%Wilcock%NULL%1,                    J Eunice%Zhang%NULL%1,                    Kayode%Adeniji%NULL%1,                    Daniel%Agranoff%NULL%1,                    Ken%Agwuh%NULL%1,                    Dhiraj%Ail%NULL%1,                    Ana%Alegria%NULL%1,                    Brian%Angus%NULL%1,                    Abdul%Ashish%NULL%1,                    Dougal%Atkinson%NULL%1,                    Shahedal%Bari%NULL%1,                    Gavin%Barlow%NULL%1,                    Stella%Barnass%NULL%1,                    Nicholas%Barrett%NULL%2,                    Christopher%Bassford%NULL%1,                    David%Baxter%NULL%1,                    Michael%Beadsworth%NULL%1,                    Jolanta%Bernatoniene%NULL%1,                    John%Berridge%NULL%1,                    Nicola%Best%NULL%1,                    Pieter%Bothma%NULL%1,                    David%Brealey%NULL%1,                    Robin%Brittain-Long%NULL%1,                    Naomi%Bulteel%NULL%1,                    Tom%Burden%NULL%1,                    Andrew%Burtenshaw%NULL%1,                    Vikki%Caruth%NULL%1,                    David%Chadwick%NULL%1,                    Duncan%Chambler%NULL%1,                    Nigel%Chee%NULL%1,                    Jenny%Child%NULL%1,                    Srikanth%Chukkambotla%NULL%1,                    Tom%Clark%NULL%1,                    Paul%Collini%NULL%1,                    Catherine%Cosgrove%NULL%1,                    Jason%Cupitt%NULL%1,                    Maria-Teresa%Cutino-Moguel%NULL%1,                    Paul%Dark%NULL%1,                    Chris%Dawson%NULL%1,                    Samir%Dervisevic%NULL%1,                    Phil%Donnison%NULL%1,                    Sam%Douthwaite%NULL%1,                    Ingrid%DuRand%NULL%1,                    Ahilanadan%Dushianthan%NULL%1,                    Tristan%Dyer%NULL%1,                    Cariad%Evans%NULL%1,                    Chi%Eziefula%NULL%1,                    Chrisopher%Fegan%NULL%1,                    Adam%Finn%NULL%1,                    Duncan%Fullerton%NULL%1,                    Sanjeev%Garg%NULL%2,                    Sanjeev%Garg%NULL%0,                    Atul%Garg%NULL%1,                    Jo%Godden%NULL%1,                    Arthur%Goldsmith%NULL%1,                    Clive%Graham%NULL%1,                    Elaine%Hardy%NULL%1,                    Stuart%Hartshorn%NULL%1,                    Daniel%Harvey%NULL%1,                    Peter%Havalda%NULL%1,                    Daniel B%Hawcutt%NULL%1,                    Maria%Hobrok%NULL%1,                    Luke%Hodgson%NULL%1,                    Anita%Holme%NULL%1,                    Anil%Hormis%NULL%1,                    Michael%Jacobs%NULL%1,                    Susan%Jain%NULL%1,                    Paul%Jennings%NULL%1,                    Agilan%Kaliappan%NULL%1,                    Vidya%Kasipandian%NULL%1,                    Stephen%Kegg%NULL%1,                    Michael%Kelsey%NULL%1,                    Jason%Kendall%NULL%1,                    Caroline%Kerrison%NULL%1,                    Ian%Kerslake%NULL%1,                    Oliver%Koch%NULL%2,                    Gouri%Koduri%NULL%1,                    George%Koshy%NULL%1,                    Shondipon%Laha%NULL%1,                    Susan%Larkin%NULL%1,                    Tamas%Leiner%NULL%1,                    Patrick%Lillie%NULL%1,                    James%Limb%NULL%1,                    Vanessa%Linnett%NULL%1,                    Jeff%Little%NULL%1,                    Michael%MacMahon%NULL%1,                    Emily%MacNaughton%NULL%1,                    Ravish%Mankregod%NULL%1,                    Huw%Masson%NULL%1,                    Elijah%Matovu%NULL%1,                    Katherine%McCullough%NULL%1,                    Ruth%McEwen%NULL%1,                    Manjula%Meda%NULL%1,                    Gary%Mills%NULL%1,                    Jane%Minton%NULL%1,                    Mariyam%Mirfenderesky%NULL%1,                    Kavya%Mohandas%NULL%1,                    Quen%Mok%NULL%1,                    James%Moon%NULL%1,                    Elinoor%Moore%NULL%1,                    Patrick%Morgan%NULL%1,                    Craig%Morris%NULL%1,                    Katherine%Mortimore%NULL%1,                    Samuel%Moses%NULL%1,                    Mbiye%Mpenge%NULL%1,                    Rohinton%Mulla%NULL%1,                    Michael%Murphy%NULL%1,                    Megan%Nagel%NULL%1,                    Thapas%Nagarajan%NULL%1,                    Mark%Nelson%NULL%1,                    Igor%Otahal%NULL%1,                    Mark%Pais%NULL%1,                    Selva%Panchatsharam%NULL%1,                    Hassan%Paraiso%NULL%1,                    Brij%Patel%NULL%1,                    Justin%Pepperell%NULL%1,                    Mark%Peters%NULL%1,                    Mandeep%Phull%NULL%1,                    Stefania%Pintus%NULL%1,                    Jagtur Singh%Pooni%NULL%1,                    Frank%Post%NULL%1,                    David%Price%NULL%1,                    Rachel%Prout%NULL%1,                    Nikolas%Rae%NULL%1,                    Henrik%Reschreiter%NULL%1,                    Tim%Reynolds%NULL%1,                    Neil%Richardson%NULL%1,                    Mark%Roberts%NULL%1,                    Devender%Roberts%NULL%1,                    Alistair%Rose%NULL%1,                    Guy%Rousseau%NULL%1,                    Brendan%Ryan%NULL%1,                    Taranprit%Saluja%NULL%1,                    Aarti%Shah%NULL%1,                    Prad%Shanmuga%NULL%1,                    Anil%Sharma%NULL%1,                    Anna%Shawcross%NULL%1,                    Jeremy%Sizer%NULL%1,                    Richard%Smith%NULL%1,                    Catherine%Snelson%NULL%1,                    Nick%Spittle%NULL%1,                    Nikki%Staines%NULL%1,                    Tom%Stambach%NULL%1,                    Richard%Stewart%NULL%1,                    Pradeep%Subudhi%NULL%1,                    Tamas%Szakmany%NULL%1,                    Kate%Tatham%NULL%1,                    Jo%Thomas%NULL%1,                    Chris%Thompson%NULL%1,                    Robert%Thompson%NULL%1,                    Ascanio%Tridente%NULL%1,                    Darell%Tupper-Carey%NULL%1,                    Mary%Twagira%NULL%1,                    Andrew%Ustianowski%NULL%1,                    Nick%Vallotton%NULL%1,                    Lisa%Vincent-Smith%NULL%1,                    Shico%Visuvanathan%NULL%1,                    Alan%Vuylsteke%NULL%1,                    Sam%Waddy%NULL%1,                    Rachel%Wake%NULL%1,                    Andrew%Walden%NULL%1,                    Ingeborg%Welters%NULL%1,                    Tony%Whitehouse%NULL%1,                    Paul%Whittaker%NULL%1,                    Ashley%Whittington%NULL%1,                    Meme%Wijesinghe%NULL%1,                    Martin%Williams%NULL%1,                    Lawrence%Wilson%NULL%1,                    Sarah%Wilson%NULL%1,                    Stephen%Winchester%NULL%1,                    Martin%Wiselka%NULL%1,                    Adam%Wolverson%NULL%1,                    Daniel G%Wooton%NULL%1,                    Andrew%Workman%NULL%1,                    Bryan%Yates%NULL%1,                    Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                    Braulio A.%Marfil‐Garza%NULL%1,                    Erick%Martínez Rodríguez%NULL%1,                    José Omar%Barreto Rodríguez%NULL%1,                    Alicia Estela%López Romo%NULL%1,                    Paolo%Alberti Minutti%NULL%1,                    Juan Vicente%Alejandre Loya%NULL%1,                    Félix Emmanuel%Pérez Talavera%NULL%1,                    Freddy José%Ávila Cervera%NULL%1,                    Adriana%Velazquez Burciaga%NULL%1,                    Oscar%Morado Aramburo%NULL%1,                    Luis Alberto%Piña Olguín%NULL%1,                    Adrian%Soto‐Rodríguez%NULL%1,                    Andrés%Castañeda Prado%NULL%1,                    Patricio%Santillán Doherty%NULL%1,                    Juan%O Galindo%NULL%1,                    Luis Alberto%Guízar García%NULL%1,                    Daniel%Hernández Gordillo%NULL%1,                    Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                    Aatish%Patel%NULL%1,                    Esmita%Charani%NULL%1,                    Sarah%Denny%NULL%1,                    Saleh A.%Alqahtani%NULL%1,                    Gary W.%Davies%NULL%1,                    Nabeela%Mughal%NULL%1,                    Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                    Hyunsun%Lim%NULL%1,                    Dong-Wook%Kim%NULL%1,                    Jung Hyun%Chang%NULL%1,                    Yoon Jung%Choi%chris316@yuhs.ac%1,                    Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%1,             Rudong%Chen%xref no email%1,             Hongkuan%Yang%xref no email%1,             Junhong%Wang%xref no email%1,             Yuyang%Hou%xref no email%1,             Wei%Hu%xref no email%1,             Jiasheng%Yu%xref no email%1,             Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                    Wenhua%Liang%NULL%3,                    Mei%Jiang%NULL%2,                    Weijie%Guan%NULL%3,                    Chen%Zhan%NULL%2,                    Tao%Wang%NULL%0,                    Chunli%Tang%NULL%3,                    Ling%Sang%NULL%3,                    Jiaxing%Liu%NULL%2,                    Zhengyi%Ni%NULL%2,                    Yu%Hu%NULL%0,                    Lei%Liu%NULL%8,                    Hong%Shan%NULL%5,                    Chunliang%Lei%NULL%2,                    Yixiang%Peng%NULL%2,                    Li%Wei%NULL%5,                    Yong%Liu%NULL%5,                    Yahua%Hu%NULL%2,                    Peng%Peng%NULL%7,                    Jianming%Wang%NULL%2,                    Jiyang%Liu%NULL%2,                    Zhong%Chen%NULL%5,                    Gang%Li%NULL%5,                    Zhijian%Zheng%NULL%2,                    Shaoqin%Qiu%NULL%2,                    Jie%Luo%NULL%5,                    Changjiang%Ye%NULL%2,                    Shaoyong%Zhu%NULL%2,                    Xiaoqing%Liu%NULL%2,                    Linling%Cheng%NULL%2,                    Feng%Ye%NULL%2,                    Jinping%Zheng%NULL%2,                    Nuofu%Zhang%NULL%2,                    Yimin%Li%NULL%2,                    Jianxing%He%NULL%2,                    Shiyue%Li%lishiyue@188.com%3,                    Nanshan%Zhong%NULL%4,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                    Liu%Hu%NULL%1,                    Yiru%Wang%NULL%0,                    Luyan%Huang%NULL%1,                    Lingxi%Zhao%NULL%1,                    Congcong%Zhang%NULL%1,                    Xiyue%Liu%NULL%1,                    Ranran%Xu%NULL%1,                    Feng%Liu%NULL%0,                    Jinping%Li%NULL%1,                    Dawei%Ye%NULL%0,                    Tao%Wang%NULL%0,                    Yongman%Lv%lvyongman@126.com%0,                    Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                    Carol A C%Coupland%NULL%1,                    Ruth H%Keogh%NULL%1,                    Karla%Diaz-Ordaz%NULL%1,                    Elizabeth%Williamson%NULL%1,                    Ewen M%Harrison%NULL%0,                    Andrew%Hayward%NULL%1,                    Harry%Hemingway%NULL%1,                    Peter%Horby%NULL%1,                    Nisha%Mehta%NULL%1,                    Jonathan%Benger%NULL%1,                    Kamlesh%Khunti%NULL%0,                    David%Spiegelhalter%NULL%1,                    Aziz%Sheikh%NULL%0,                    Jonathan%Valabhji%NULL%0,                    Ronan A%Lyons%NULL%1,                    John%Robson%NULL%1,                    Malcolm G%Semple%NULL%0,                    Frank%Kee%NULL%1,                    Peter%Johnson%NULL%1,                    Susan%Jebb%NULL%1,                    Tony%Williams%NULL%1,                    Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                    Guang-Yao%Cai%NULL%1,                    Wei%Fang%NULL%2,                    Hua-Yi%Li%NULL%1,                    Si-Yuan%Wang%NULL%2,                    Si-Yuan%Wang%NULL%0,                    Lingxi%Chen%NULL%1,                    Yang%Yu%NULL%1,                    Dan%Liu%NULL%0,                    Sen%Xu%NULL%2,                    Peng-Fei%Cui%NULL%1,                    Shao-Qing%Zeng%NULL%2,                    Shao-Qing%Zeng%NULL%0,                    Xin-Xia%Feng%NULL%1,                    Rui-Di%Yu%NULL%1,                    Ya%Wang%NULL%2,                    Yuan%Yuan%NULL%1,                    Xiao-Fei%Jiao%NULL%1,                    Jian-Hua%Chi%NULL%1,                    Jia-Hao%Liu%NULL%1,                    Ru-Yuan%Li%NULL%1,                    Xu%Zheng%NULL%1,                    Chun-Yan%Song%NULL%1,                    Ning%Jin%NULL%1,                    Wen-Jian%Gong%NULL%1,                    Xing-Yu%Liu%NULL%1,                    Lei%Huang%NULL%2,                    Xun%Tian%NULL%1,                    Lin%Li%NULL%1,                    Hui%Xing%NULL%1,                    Ding%Ma%NULL%1,                    Chun-Rui%Li%NULL%1,                    Fei%Ye%yeyuanbei@hotmail.com%1,                    Qing-Lei%Gao%qingleigao@hotmail.com%2,                    Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                    Ang%Li%NULL%1,                    Mengfan%Jiao%NULL%1,                    Qingmiao%Shi%NULL%1,                    Xiaocai%An%NULL%1,                    Yonghai%Feng%NULL%1,                    Lihua%Xing%NULL%1,                    Hongxia%Liang%NULL%1,                    Jiajun%Chen%NULL%1,                    Huiling%Li%NULL%1,                    Juan%Li%NULL%0,                    Zhigang%Ren%NULL%1,                    Ranran%Sun%NULL%1,                    Guangying%Cui%NULL%1,                    Yongjian%Zhou%NULL%1,                    Ming%Cheng%NULL%1,                    Pengfei%Jiao%NULL%1,                    Yu%Wang%NULL%2,                    Jiyuan%Xing%NULL%1,                    Shen%Shen%NULL%1,                    Qingxian%Zhang%NULL%1,                    Aiguo%Xu%NULL%1,                    Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                    Michael%Ng%NULL%1,                    Shuang%Xu%NULL%1,                    Zhouming%Xu%NULL%1,                    Hui%Qiu%NULL%1,                    Yuwei%Liu%NULL%1,                    Jiayou%Lyu%NULL%1,                    Jiwen%You%NULL%1,                    Peng%Zhao%NULL%0,                    Shihao%Wang%NULL%1,                    Yunfei%Tang%NULL%1,                    Hao%Cui%NULL%1,                    Changxiao%Yu%NULL%1,                    Feng%Wang%NULL%5,                    Fei%Shao%NULL%1,                    Peng%Sun%NULL%1,                    Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                    Huifang%Wang%NULL%1,                    Junwei%Huang%NULL%1,                    Yan%Geng%NULL%1,                    Shuqi%Jiang%NULL%1,                    Qiuping%Zhou%NULL%1,                    Xuan%Chen%NULL%1,                    Hongping%Hu%NULL%1,                    Weifeng%Li%NULL%1,                    Chengbin%Zhou%NULL%1,                    Xinglin%Gao%NULL%1,                    Na%Peng%pnatz@163.com%1,                    Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                    Dandan%Cheng%NULL%1,                    Yiwei%Cao%NULL%1,                    Chuan%Hu%NULL%1,                    Fenglin%Zou%NULL%1,                    Wencheng%Yu%NULL%1,                    Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                    Min Kyu%Kang%NULL%2,                    Min Kyu%Kang%NULL%0,                    Yu Rim%Lee%NULL%2,                    Yu Rim%Lee%NULL%0,                    Jeong Eun%Song%NULL%2,                    Jeong Eun%Song%NULL%0,                    Na Young%Kim%NULL%1,                    Young Oh%Kweon%NULL%1,                    Won Young%Tak%NULL%1,                    Se Young%Jang%NULL%1,                    Changhyeong%Lee%NULL%2,                    Changhyeong%Lee%NULL%0,                    Byung Seok%Kim%NULL%1,                    Jae Seok%Hwang%NULL%1,                    Byoung Kuk%Jang%NULL%1,                    Jinmok%Bae%NULL%1,                    Ji Yeon%Lee%NULL%0,                    Jeong Ill%Suh%NULL%1,                    Soo Young%Park%NULL%1,                    Woo Jin%Chung%NULL%2,                    Woo Jin%Chung%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                    Cristina%Roca-Oporto%NULL%0,                    Guillermo%Martín-Gutiérrez%NULL%0,                    María Dolores%Avilés%NULL%0,                    Carmen%Gómez-González%NULL%0,                    María Dolores%Navarro-Amuedo%NULL%0,                    Julia%Praena-Segovia%NULL%0,                    José%Molina%NULL%0,                    María%Paniagua-García%NULL%0,                    Horacio%García-Delgado%NULL%0,                    Antonio%Domínguez-Petit%NULL%0,                    Jerónimo%Pachón%NULL%0,                    José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                 Calvo%Boyero Fernando%coreGivesNoEmail%1,                 Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                 COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                 Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                 Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                 L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                 Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                 Santos%Lozano Alejandro%coreGivesNoEmail%1,                 Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -5586,7 +5775,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1387</v>
+        <v>1454</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -5615,7 +5804,7 @@
         <v>937</v>
       </c>
       <c r="E3" t="s">
-        <v>1389</v>
+        <v>1455</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -5644,7 +5833,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>1391</v>
+        <v>1456</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -5673,7 +5862,7 @@
         <v>875</v>
       </c>
       <c r="E5" t="s">
-        <v>1393</v>
+        <v>1457</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -5702,7 +5891,7 @@
         <v>940</v>
       </c>
       <c r="E6" t="s">
-        <v>1395</v>
+        <v>1458</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -5731,7 +5920,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>1396</v>
+        <v>1459</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -5760,7 +5949,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>1397</v>
+        <v>1460</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -5789,7 +5978,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1398</v>
+        <v>1461</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -5818,7 +6007,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>1399</v>
+        <v>1462</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -5847,7 +6036,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>1400</v>
+        <v>1463</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -5876,7 +6065,7 @@
         <v>947</v>
       </c>
       <c r="E12" t="s">
-        <v>1401</v>
+        <v>1464</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -5905,7 +6094,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>1402</v>
+        <v>1465</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -5934,7 +6123,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>1403</v>
+        <v>1466</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -5963,7 +6152,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>1404</v>
+        <v>1467</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -5992,7 +6181,7 @@
         <v>953</v>
       </c>
       <c r="E16" t="s">
-        <v>1405</v>
+        <v>1468</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -6021,7 +6210,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>1406</v>
+        <v>1469</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -6050,7 +6239,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>1407</v>
+        <v>1470</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -6079,7 +6268,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>1408</v>
+        <v>1471</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -6108,7 +6297,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>1409</v>
+        <v>1472</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -6137,7 +6326,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>1410</v>
+        <v>1473</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -6166,7 +6355,7 @@
         <v>690</v>
       </c>
       <c r="E22" t="s">
-        <v>1411</v>
+        <v>1474</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -6195,7 +6384,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>1412</v>
+        <v>1475</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -6224,7 +6413,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>1413</v>
+        <v>1476</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -6253,7 +6442,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>1414</v>
+        <v>1477</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -6282,7 +6471,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>1415</v>
+        <v>1478</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -6311,7 +6500,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>1416</v>
+        <v>1479</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -6340,7 +6529,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>1417</v>
+        <v>1480</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -6369,7 +6558,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1418</v>
+        <v>1481</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -6398,7 +6587,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>1419</v>
+        <v>1482</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -6427,7 +6616,7 @@
         <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>1420</v>
+        <v>1483</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -6456,7 +6645,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>1421</v>
+        <v>1484</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -6485,7 +6674,7 @@
         <v>971</v>
       </c>
       <c r="E33" t="s">
-        <v>1422</v>
+        <v>1485</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -6514,7 +6703,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>1423</v>
+        <v>1486</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -6572,7 +6761,7 @@
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>1424</v>
+        <v>1487</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -6601,7 +6790,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>1425</v>
+        <v>1488</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -6630,7 +6819,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>1426</v>
+        <v>1489</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -6659,7 +6848,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>1427</v>
+        <v>1490</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -6688,7 +6877,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>1428</v>
+        <v>1491</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -6717,7 +6906,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>1429</v>
+        <v>1492</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -6746,7 +6935,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>1430</v>
+        <v>1493</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -6775,7 +6964,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>1431</v>
+        <v>1494</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -6804,7 +6993,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>1432</v>
+        <v>1495</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -6833,7 +7022,7 @@
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>1433</v>
+        <v>1496</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -6862,7 +7051,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>1434</v>
+        <v>1497</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -6891,7 +7080,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>1435</v>
+        <v>1498</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -6920,7 +7109,7 @@
         <v>986</v>
       </c>
       <c r="E48" t="s">
-        <v>1436</v>
+        <v>1499</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -6949,7 +7138,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>1437</v>
+        <v>1500</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -6978,7 +7167,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>1438</v>
+        <v>1501</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -7007,7 +7196,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>1439</v>
+        <v>1502</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -7036,7 +7225,7 @@
         <v>991</v>
       </c>
       <c r="E52" t="s">
-        <v>1440</v>
+        <v>1503</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -7065,7 +7254,7 @@
         <v>993</v>
       </c>
       <c r="E53" t="s">
-        <v>1441</v>
+        <v>1504</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -7094,7 +7283,7 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>1442</v>
+        <v>1505</v>
       </c>
       <c r="F54" t="s">
         <v>54</v>
@@ -7123,7 +7312,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>1443</v>
+        <v>1506</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -7152,7 +7341,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>1444</v>
+        <v>1507</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -7181,7 +7370,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>1445</v>
+        <v>1508</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -7210,7 +7399,7 @@
         <v>999</v>
       </c>
       <c r="E58" t="s">
-        <v>1446</v>
+        <v>1509</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -7239,7 +7428,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>1447</v>
+        <v>1510</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -7268,7 +7457,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>1448</v>
+        <v>1511</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -7297,7 +7486,7 @@
         <v>1003</v>
       </c>
       <c r="E61" t="s">
-        <v>1449</v>
+        <v>1512</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -7326,7 +7515,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>1450</v>
+        <v>1513</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -7355,7 +7544,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>1451</v>
+        <v>1514</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -7384,7 +7573,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>1452</v>
+        <v>1515</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -7413,7 +7602,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1453</v>
+        <v>1516</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9556" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12156" uniqueCount="1809">
   <si>
     <t>Doi</t>
   </si>
@@ -5384,6 +5384,882 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                 Calvo%Boyero Fernando%coreGivesNoEmail%1,                 Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                 COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                 Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                 Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                 L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                 Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                 Santos%Lozano Alejandro%coreGivesNoEmail%1,                 Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                     Min%He%NULL%1,                     Wanhong%Yin%NULL%1,                     Xuelian%Liao%NULL%1,                     Bo%Wang%NULL%6,                     Xiaodong%Jin%NULL%1,                     Yao%Ma%NULL%2,                     Jirong%Yue%NULL%1,                     Lang%Bai%NULL%1,                     Dan%Liu%NULL%3,                     Ting%Zhu%NULL%1,                     Zhixin%Huang%NULL%1,                     Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                     Shuchang%Zhou%NULL%1,                     Yujin%Wang%NULL%1,                     Wenzhi%Lv%NULL%2,                     Shili%Wang%NULL%1,                     Ting%Wang%751884926@qq.com%1,                     Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                     Yan-chak%Li%NULL%1,                     Sonali%Bose%NULL%1,                     Ravi%Iyengar%NULL%1,                     Supinda%Bunyavanich%NULL%1,                     Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,            Hai-Tao%Zhang%null%1,            Jorge%Goncalves%null%1,            Yang%Xiao%null%1,            Maolin%Wang%null%1,            Yuqi%Guo%null%1,            Chuan%Sun%null%1,            Xiuchuan%Tang%null%1,            Liang%Jing%null%1,            Mingyang%Zhang%null%1,            Xiang%Huang%null%1,            Ying%Xiao%null%1,            Haosen%Cao%null%1,            Yanyan%Chen%null%1,            Tongxin%Ren%null%1,            Fang%Wang%null%1,            Yaru%Xiao%null%1,            Sufang%Huang%null%1,            Xi%Tan%null%1,            Niannian%Huang%null%1,            Bo%Jiao%null%1,            Cheng%Cheng%null%1,            Yong%Zhang%null%1,            Ailin%Luo%null%1,            Laurent%Mombaerts%null%1,            Junyang%Jin%null%1,            Zhiguo%Cao%null%1,            Shusheng%Li%null%1,            Hui%Xu%null%1,            Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                     Mengfei%Guo%NULL%1,                     Limin%Duan%NULL%1,                     Feng%Wu%NULL%1,                     Guorong%Hu%NULL%1,                     Zhihui%Wang%NULL%1,                     Qi%Huang%NULL%1,                     Tingting%Liao%NULL%1,                     Juanjuan%Xu%NULL%1,                     Yanling%Ma%NULL%1,                     Zhilei%Lv%NULL%1,                     Wenjing%Xiao%NULL%1,                     Zilin%Zhao%NULL%1,                     Xueyun%Tan%NULL%1,                     Daquan%Meng%NULL%1,                     Shujing%Zhang%NULL%1,                     E%Zhou%NULL%1,                     Zhengrong%Yin%NULL%1,                     Wei%Geng%NULL%1,                     Xuan%Wang%NULL%1,                     Jianchu%Zhang%NULL%1,                     Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                     Yu%Zhang%whxhzy@163.com%1,                     Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                     Francesco%Arru%NULL%2,                     Francesco%Arru%NULL%0,                     Andrea%De Vito%NULL%3,                     Alessandro%Sassu%NULL%2,                     Alessandro%Sassu%NULL%0,                     Giovanni%Valdes%NULL%1,                     Valentina%Scano%NULL%1,                     Elisabetta%Zinellu%NULL%1,                     Roberto%Perra%NULL%1,                     Giordano%Madeddu%NULL%3,                     Ciriaco%Carru%NULL%1,                     Pietro%Pirina%NULL%3,                     Arduino A.%Mangoni%NULL%2,                     Arduino A.%Mangoni%NULL%0,                     Sergio%Babudieri%NULL%4,                     Sergio%Babudieri%NULL%0,                     Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                     Pablo%Ryan%NULL%1,                     Jorge%Valencia%NULL%2,                     Jorge%Valencia%NULL%0,                     Mario%Pérez-Butragueño%NULL%2,                     Mario%Pérez-Butragueño%NULL%0,                     Eva%Jiménez%NULL%2,                     Eva%Jiménez%NULL%0,                     Mario%Fontán-Vela%NULL%1,                     Elsa%Izquierdo-García%NULL%2,                     Elsa%Izquierdo-García%NULL%0,                     Inés%Fernandez-Jimenez%NULL%1,                     Elena%Álvaro-Alonso%NULL%1,                     Andrea%Lazaro%NULL%2,                     Andrea%Lazaro%NULL%0,                     Marta%Alvarado%NULL%1,                     Helena%Notario%NULL%1,                     Salvador%Resino%NULL%1,                     Daniel%Velez-Serrano%NULL%1,                     Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                     Yiru%Wang%NULL%2,                     Xuecheng%Zhao%NULL%1,                     Lixuan%Wang%NULL%1,                     Feng%Liu%NULL%3,                     Tao%Wang%NULL%15,                     Dawei%Ye%NULL%2,                     Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                     Valentina%Zuccaro%NULL%1,                     Luca%Novelli%NULL%1,                     Lorenzo%Zileri%NULL%2,                     Lorenzo%Zileri%NULL%0,                     Ciro%Celsa%NULL%1,                     Federico%Raimondi%NULL%2,                     Federico%Raimondi%NULL%0,                     Mauro%Gori%NULL%1,                     Giulia%Cammà%NULL%1,                     Salvatore%Battaglia%NULL%1,                     Vincenzo Giuseppe%Genova%NULL%1,                     Laura%Paris%NULL%1,                     Matteo%Tacelli%NULL%1,                     Francesco Antonio%Mancarella%NULL%1,                     Marco%Enea%NULL%1,                     Massimo%Attanasio%NULL%1,                     Michele%Senni%NULL%1,                     Fabiano%Di Marco%NULL%1,                     Luca Ferdinando%Lorini%NULL%1,                     Stefano%Fagiuoli%NULL%1,                     Raffaele%Bruno%NULL%2,                     Calogero%Cammà%NULL%1,                     Antonio%Gasbarrini%NULL%3,                     Francesco%Di Gennaro%NULL%2,                     Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                     Gan-xun%Li%NULL%1,                     Lin%Chen%NULL%3,                     Chang%Shu%NULL%2,                     Jia%Song%NULL%1,                     Wei%Wang%NULL%2,                     Yu-wei%Wang%NULL%1,                     Qian%Chen%NULL%2,                     Guan-nan%Jin%NULL%1,                     Tong-tong%Liu%NULL%1,                     Jun-nan%Liang%NULL%1,                     Peng%Zhu%NULL%1,                     Wei%Zhu%NULL%5,                     Yong%Li%NULL%2,                     Bin-hao%Zhang%NULL%1,                     Huan%Feng%NULL%1,                     Wan-guang%Zhang%NULL%1,                     Zhen-yu%Yin%NULL%1,                     Wen-kui%Yu%NULL%1,                     Yang%Yang%NULL%2,                     Hua-qiu%Zhang%NULL%1,                     Zhou-ping%Tang%NULL%1,                     Hui%Wang%NULL%4,                     Jun-bo%Hu%NULL%1,                     Ji-hong%Liu%NULL%1,                     Ping%Yin%NULL%1,                     Xiao-ping%Chen%NULL%1,                     Bixiang%Zhang%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                     Günay%Can%NULL%2,                     Günay%Can%NULL%0,                     Rıdvan%Karaali%NULL%1,                     Şermin%Börekçi%NULL%1,                     İlker İnanç%Balkan%NULL%1,                     Bilun%Gemicioğlu%NULL%1,                     Dildar%Konukoğlu%NULL%1,                     Ethem%Erginöz%NULL%1,                     Mehmet Sarper%Erdoğan%NULL%1,                     Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                     Danila%Azzolina%NULL%1,                     Eyal%Hayden%NULL%2,                     Eyal%Hayden%NULL%0,                     Gianluca%Gaidano%NULL%2,                     Gianluca%Gaidano%NULL%0,                     Mario%Pirisi%NULL%2,                     Mario%Pirisi%NULL%0,                     Antonio%Acquaviva%NULL%2,                     Antonio%Acquaviva%NULL%0,                     Gianluca%Aimaretti%NULL%2,                     Gianluca%Aimaretti%NULL%0,                     Paolo%Aluffi Valletti%NULL%3,                     Paolo%Aluffi Valletti%NULL%0,                     Roberto%Angilletta%NULL%2,                     Roberto%Angilletta%NULL%0,                     Roberto%Arioli%NULL%2,                     Roberto%Arioli%NULL%0,                     Gian Carlo%Avanzi%NULL%2,                     Gian Carlo%Avanzi%NULL%0,                     Gianluca%Avino%NULL%2,                     Gianluca%Avino%NULL%0,                     Piero Emilio%Balbo%NULL%2,                     Piero Emilio%Balbo%NULL%0,                     Giulia%Baldon%NULL%2,                     Giulia%Baldon%NULL%0,                     Francesca%Baorda%NULL%2,                     Francesca%Baorda%NULL%0,                     Emanuela%Barbero%NULL%2,                     Emanuela%Barbero%NULL%0,                     Alessio%Baricich%NULL%2,                     Alessio%Baricich%NULL%0,                     Michela%Barini%NULL%2,                     Michela%Barini%NULL%0,                     Francesco%Barone-Adesi%NULL%2,                     Francesco%Barone-Adesi%NULL%0,                     Sofia%Battistini%NULL%2,                     Sofia%Battistini%NULL%0,                     Michela%Beltrame%NULL%2,                     Michela%Beltrame%NULL%0,                     Matteo%Bertoli%NULL%2,                     Matteo%Bertoli%NULL%0,                     Stephanie%Bertolin%NULL%2,                     Stephanie%Bertolin%NULL%0,                     Marinella%Bertolotti%NULL%2,                     Marinella%Bertolotti%NULL%0,                     Marta%Betti%NULL%2,                     Marta%Betti%NULL%0,                     Flavio%Bobbio%NULL%2,                     Flavio%Bobbio%NULL%0,                     Paolo%Boffano%NULL%2,                     Paolo%Boffano%NULL%0,                     Lucio%Boglione%NULL%2,                     Lucio%Boglione%NULL%0,                     Silvio%Borrè%NULL%2,                     Silvio%Borrè%NULL%0,                     Matteo%Brucoli%NULL%2,                     Matteo%Brucoli%NULL%0,                     Elisa%Calzaducca%NULL%2,                     Elisa%Calzaducca%NULL%0,                     Edoardo%Cammarata%NULL%2,                     Edoardo%Cammarata%NULL%0,                     Vincenzo%Cantaluppi%NULL%2,                     Vincenzo%Cantaluppi%NULL%0,                     Roberto%Cantello%NULL%2,                     Roberto%Cantello%NULL%0,                     Andrea%Capponi%NULL%2,                     Andrea%Capponi%NULL%0,                     Alessandro%Carriero%NULL%2,                     Alessandro%Carriero%NULL%0,                     Giuseppe Francesco%Casciaro%NULL%2,                     Giuseppe Francesco%Casciaro%NULL%0,                     Luigi Mario%Castello%NULL%2,                     Luigi Mario%Castello%NULL%0,                     Federico%Ceruti%NULL%2,                     Federico%Ceruti%NULL%0,                     Guido%Chichino%NULL%2,                     Guido%Chichino%NULL%0,                     Emilio%Chirico%NULL%2,                     Emilio%Chirico%NULL%0,                     Carlo%Cisari%NULL%1,                     Micol Giulia%Cittone%NULL%2,                     Micol Giulia%Cittone%NULL%0,                     Crizia%Colombo%NULL%2,                     Crizia%Colombo%NULL%0,                     Cristoforo%Comi%NULL%2,                     Cristoforo%Comi%NULL%0,                     Eleonora%Croce%NULL%2,                     Eleonora%Croce%NULL%0,                     Tommaso%Daffara%NULL%2,                     Tommaso%Daffara%NULL%0,                     Pietro%Danna%NULL%2,                     Pietro%Danna%NULL%0,                     Francesco%Della Corte%NULL%2,                     Francesco%Della Corte%NULL%0,                     Simona%De Vecchi%NULL%2,                     Simona%De Vecchi%NULL%0,                     Umberto%Dianzani%NULL%2,                     Umberto%Dianzani%NULL%0,                     Davide%Di Benedetto%NULL%2,                     Davide%Di Benedetto%NULL%0,                     Elia%Esposto%NULL%2,                     Elia%Esposto%NULL%0,                     Fabrizio%Faggiano%NULL%2,                     Fabrizio%Faggiano%NULL%0,                     Zeno%Falaschi%NULL%2,                     Zeno%Falaschi%NULL%0,                     Daniela%Ferrante%NULL%2,                     Daniela%Ferrante%NULL%0,                     Alice%Ferrero%NULL%2,                     Alice%Ferrero%NULL%0,                     Ileana%Gagliardi%NULL%2,                     Ileana%Gagliardi%NULL%0,                     Alessandra%Galbiati%NULL%2,                     Alessandra%Galbiati%NULL%0,                     Silvia%Gallo%NULL%2,                     Silvia%Gallo%NULL%0,                     Pietro Luigi%Garavelli%NULL%2,                     Pietro Luigi%Garavelli%NULL%0,                     Clara Ada%Gardino%NULL%2,                     Clara Ada%Gardino%NULL%0,                     Massimiliano%Garzaro%NULL%3,                     Massimiliano%Garzaro%NULL%0,                     Maria Luisa%Gastaldello%NULL%2,                     Maria Luisa%Gastaldello%NULL%0,                     Francesco%Gavelli%NULL%2,                     Francesco%Gavelli%NULL%0,                     Alessandra%Gennari%NULL%2,                     Alessandra%Gennari%NULL%0,                     Greta Maria%Giacomini%NULL%2,                     Greta Maria%Giacomini%NULL%0,                     Irene%Giacone%NULL%2,                     Irene%Giacone%NULL%0,                     Valentina%Giai Via%NULL%2,                     Valentina%Giai Via%NULL%0,                     Francesca%Giolitti%NULL%2,                     Francesca%Giolitti%NULL%0,                     Laura Cristina%Gironi%NULL%2,                     Laura Cristina%Gironi%NULL%0,                     Carla%Gramaglia%NULL%2,                     Carla%Gramaglia%NULL%0,                     Leonardo%Grisafi%NULL%2,                     Leonardo%Grisafi%NULL%0,                     Ilaria%Inserra%NULL%2,                     Ilaria%Inserra%NULL%0,                     Marco%Invernizzi%NULL%2,                     Marco%Invernizzi%NULL%0,                     Marco%Krengli%NULL%2,                     Marco%Krengli%NULL%0,                     Emanuela%Labella%NULL%2,                     Emanuela%Labella%NULL%0,                     Irene Cecilia%Landi%NULL%2,                     Irene Cecilia%Landi%NULL%0,                     Raffaella%Landi%NULL%2,                     Raffaella%Landi%NULL%0,                     Ilaria%Leone%NULL%2,                     Ilaria%Leone%NULL%0,                     Veronica%Lio%NULL%2,                     Veronica%Lio%NULL%0,                     Luca%Lorenzini%NULL%2,                     Luca%Lorenzini%NULL%0,                     Antonio%Maconi%NULL%2,                     Antonio%Maconi%NULL%0,                     Mario%Malerba%NULL%2,                     Mario%Malerba%NULL%0,                     Giulia Francesca%Manfredi%NULL%2,                     Giulia Francesca%Manfredi%NULL%0,                     Maria%Martelli%NULL%2,                     Maria%Martelli%NULL%0,                     Letizia%Marzari%NULL%2,                     Letizia%Marzari%NULL%0,                     Paolo%Marzullo%NULL%2,                     Paolo%Marzullo%NULL%0,                     Marco%Mennuni%NULL%2,                     Marco%Mennuni%NULL%0,                     Claudia%Montabone%NULL%2,                     Claudia%Montabone%NULL%0,                     Umberto%Morosini%NULL%2,                     Umberto%Morosini%NULL%0,                     Marco%Mussa%NULL%2,                     Marco%Mussa%NULL%0,                     Ilaria%Nerici%NULL%2,                     Ilaria%Nerici%NULL%0,                     Alessandro%Nuzzo%NULL%2,                     Alessandro%Nuzzo%NULL%0,                     Carlo%Olivieri%NULL%2,                     Carlo%Olivieri%NULL%0,                     Samuel Alberto%Padelli%NULL%2,                     Samuel Alberto%Padelli%NULL%0,                     Massimiliano%Panella%NULL%2,                     Massimiliano%Panella%NULL%0,                     Andrea%Parisini%NULL%2,                     Andrea%Parisini%NULL%0,                     Alessio%Paschè%NULL%2,                     Alessio%Paschè%NULL%0,                     Filippo%Patrucco%NULL%2,                     Filippo%Patrucco%NULL%0,                     Giuseppe%Patti%NULL%2,                     Giuseppe%Patti%NULL%0,                     Alberto%Pau%NULL%2,                     Alberto%Pau%NULL%0,                     Anita Rebecca%Pedrinelli%NULL%2,                     Anita Rebecca%Pedrinelli%NULL%0,                     Ilaria%Percivale%NULL%2,                     Ilaria%Percivale%NULL%0,                     Luca%Ragazzoni%NULL%2,                     Luca%Ragazzoni%NULL%0,                     Roberta%Re%NULL%2,                     Roberta%Re%NULL%0,                     Cristina%Rigamonti%NULL%2,                     Cristina%Rigamonti%NULL%0,                     Eleonora%Rizzi%NULL%2,                     Eleonora%Rizzi%NULL%0,                     Andrea%Rognoni%NULL%2,                     Andrea%Rognoni%NULL%0,                     Annalisa%Roveta%NULL%2,                     Annalisa%Roveta%NULL%0,                     Luigia%Salamina%NULL%2,                     Luigia%Salamina%NULL%0,                     Matteo%Santagostino%NULL%2,                     Matteo%Santagostino%NULL%0,                     Massimo%Saraceno%NULL%2,                     Massimo%Saraceno%NULL%0,                     Paola%Savoia%NULL%2,                     Paola%Savoia%NULL%0,                     Marco%Sciarra%NULL%2,                     Marco%Sciarra%NULL%0,                     Andrea%Schimmenti%NULL%2,                     Andrea%Schimmenti%NULL%0,                     Lorenza%Scotti%NULL%2,                     Lorenza%Scotti%NULL%0,                     Enrico%Spinoni%NULL%2,                     Enrico%Spinoni%NULL%0,                     Carlo%Smirne%NULL%2,                     Carlo%Smirne%NULL%0,                     Vanessa%Tarantino%NULL%2,                     Vanessa%Tarantino%NULL%0,                     Paolo Amedeo%Tillio%NULL%2,                     Paolo Amedeo%Tillio%NULL%0,                     Stelvio%Tonello%NULL%2,                     Stelvio%Tonello%NULL%0,                     Rosanna%Vaschetto%NULL%2,                     Rosanna%Vaschetto%NULL%0,                     Veronica%Vassia%NULL%2,                     Veronica%Vassia%NULL%0,                     Domenico%Zagaria%NULL%2,                     Domenico%Zagaria%NULL%0,                     Elisa%Zavattaro%NULL%2,                     Elisa%Zavattaro%NULL%0,                     Patrizia%Zeppegno%NULL%2,                     Patrizia%Zeppegno%NULL%0,                     Francesca%Zottarelli%NULL%2,                     Francesca%Zottarelli%NULL%0,                     Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                     Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                     Marta%Ottone%NULL%2,                     Marta%Ottone%NULL%0,                     Tommaso%Fasano%NULL%1,                     Pierpaolo%Pattacini%NULL%1,                     Valentina%Iotti%NULL%1,                     Lucia%Spaggiari%NULL%1,                     Riccardo%Bonacini%NULL%1,                     Andrea%Nitrosi%NULL%1,                     Efrem%Bonelli%NULL%1,                     Simone%Canovi%NULL%1,                     Rossana%Colla%NULL%1,                     Alessandro%Zerbini%NULL%1,                     Marco%Massari%NULL%1,                     Ivana%Lattuada%NULL%1,                     Anna Maria%Ferrari%NULL%1,                     Paolo%Giorgi Rossi%NULL%1,                     Massimo%Costantini%NULL%1,                     Roberto%Grilli%NULL%1,                     Massimiliano%Marino%NULL%1,                     Giulio%Formoso%NULL%1,                     Debora%Formisano%NULL%1,                     Emanuela%Bedeschi%NULL%1,                     Cinzia%Perilli%NULL%1,                     Elisabetta%La Rosa%NULL%1,                     Eufemia%Bisaccia%NULL%1,                     Ivano%Venturi%NULL%1,                     Massimo%Vicentini%NULL%1,                     Cinzia%Campari%NULL%1,                     Francesco%Gioia%NULL%1,                     Serena%Broccoli%NULL%1,                     Pamela%Mancuso%NULL%1,                     Marco%Foracchia%NULL%1,                     Mirco%Pinotti%NULL%1,                     Nicola%Facciolongo%NULL%1,                     Laura%Trabucco%NULL%1,                     Stefano%De Pietri%NULL%1,                     Giorgio Francesco%Danelli%NULL%1,                     Laura%Albertazzi%NULL%1,                     Enrica%Bellesia%NULL%1,                     Mattia%Corradini%NULL%1,                     Elena%Magnani%NULL%1,                     Annalisa%Pilia%NULL%1,                     Alessandra%Polese%NULL%1,                     Silvia Storchi%Incerti%NULL%1,                     Piera%Zaldini%NULL%1,                     Bonanno%Orsola%NULL%1,                     Matteo%Revelli%NULL%1,                     Carlo%Salvarani%NULL%1,                     Carmine%Pinto%NULL%1,                     Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                     Hong-Qiu%Gu%NULL%1,                     Yi%Liu (刘艺)%NULL%1,                     Guqin%Zhang%NULL%1,                     Hang%Yang%NULL%1,                     Huifang%Hu%NULL%1,                     Chenyang%Lu%NULL%1,                     Yang%Li%NULL%3,                     Liyi%Wang%NULL%1,                     Yi%Liu (刘毅)%yi2006liu@163.com%1,                     Yi%Zhao%zhao.y1977@163.com%1,                     Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                     Tawsifur%Rahman%NULL%2,                     Tawsifur%Rahman%NULL%0,                     Amith%Khandakar%NULL%3,                     Somaya%Al-Madeed%NULL%2,                     Susu M.%Zughaier%NULL%5,                     Suhail A. R.%Doi%NULL%3,                     Hanadi%Hassen%NULL%1,                     Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                     Jia%Sun%NULL%1,                     Yi-Xin%Li%NULL%1,                     Qian%Chen%NULL%0,                     Qing-Quan%Liu%NULL%1,                     Zhou%Sun%NULL%1,                     Ran%Pang%NULL%1,                     Fei%Chen%NULL%1,                     Bing-Yang%Xu%NULL%1,                     Anne%Manyande%NULL%1,                     Taane G%Clark%NULL%1,                     Jin-Ping%Li%NULL%1,                     Ilkay Erdogan%Orhan%NULL%1,                     Yu-Ke%Tian%NULL%1,                     Tao%Wang%wt7636@126.com%0,                     Wei%Wu%wt7636@126.com%1,                     Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Mark H.%Ebell%xref no email%0, Xinyan%Cai%xref no email%1, Robert%Lennon%xref no email%1, Derjung M.%Tarn%xref no email%1, Arch G.%Mainous%xref no email%1, Aleksandra E.%Zgierska%xref no email%1, Bruce%Barrett%xref no email%1, Wen-Jan%Tuan%xref no email%1, Kevin%Maloy%xref no email%1, Munish%Goyal%xref no email%1, Alex%Krist%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Board of Family Medicine (ABFM)</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,                  Imam%Z%coreGivesNoEmail%1,                  Lippi%G%coreGivesNoEmail%1,                  Oran%DP%coreGivesNoEmail%1,                  Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                     Caiping%Song%NULL%1,                     En%Liu%NULL%1,                     Xi%Liu%NULL%1,                     Hao%Wu%NULL%1,                     Hui%Lin%NULL%1,                     Yuliang%Liu%NULL%1,                     Qi%Li%NULL%1,                     Zhi%Xu%NULL%1,                     XiaoBao%Ren%NULL%1,                     Cheng%Zhang%NULL%1,                     Wenjing%Zhang%NULL%1,                     Wei%Duan%NULL%2,                     Yongfeng%Tian%NULL%1,                     Ping%Li%NULL%1,                     Mingdong%Hu%NULL%1,                     Shiming%Yang%NULL%1,                     Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                     Changli%Li%NULL%1,                     Li%Zheng%NULL%1,                     Wenzhi%Lv%NULL%0,                     Zhigang%He%NULL%1,                     Xinwu%Cui%NULL%1,                     Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zan%Ke%xref no email%0, Liang%Li%xref no email%1, Li%Wang%xref no email%1, Huan%Liu%xref no email%2, Xuefang%Lu%xref no email%1, Feifei%Zeng%xref no email%1, Yunfei%Zha%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: SAGE Publications</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                     Hayne Cho%Park%NULL%2,                     Hayne Cho%Park%NULL%0,                     Ajin%Cho%NULL%1,                     Juhee%Kim%NULL%1,                     Kyu-sang%Yun%NULL%1,                     Jinseog%Kim%NULL%1,                     Young-Ki%Lee%NULL%1,                     Sinan%Kardes.%NULL%2,                     Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jian%Li%xref no email%0, Luyu%Yang%xref no email%1, Qian%Zeng%xref no email%1, Qingyun%Li%xref no email%1, Zhitao%Yang%xref no email%1, Lizhong%Han%xref no email%1, Xiaodong%Huang%xref no email%1, Erzhen%Chen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: AME Publishing Company</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                     Xiaoyu%Fang%NULL%1,                     Lixia%Cheng%NULL%1,                     Penghao%Wang%NULL%1,                     Shen%Li%NULL%1,                     Hao%Yu%NULL%1,                     Yao%Zhang%NULL%2,                     Nan%Jiang%NULL%1,                     Tingting%Zeng%NULL%1,                     Chao%Hou%NULL%1,                     Jing%Zhou%NULL%1,                     Shiru%Li%NULL%1,                     Yingzi%Pan%NULL%1,                     Yitong%Li%NULL%1,                     Lili%Nie%NULL%1,                     Yang%Li%NULL%0,                     Qidi%Sun%NULL%1,                     Hong%Jia%NULL%1,                     Mengxia%Li%NULL%1,                     Guoqiang%Cao%NULL%1,                     Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                     Lucas A%Ramos%NULL%2,                     Lucas A%Ramos%NULL%0,                     Wouter%Potters%NULL%1,                     Marcus L F%Janssen%NULL%1,                     Deborah%Hubers%NULL%1,                     Shi%Hu%NULL%1,                     Egill A%Fridgeirsson%NULL%1,                     Dan%Piña-Fuentes%NULL%1,                     Rajat%Thomas%NULL%1,                     Iwan C C%van der Horst%NULL%1,                     Christian%Herff%NULL%2,                     Christian%Herff%NULL%0,                     Pieter%Kubben%NULL%1,                     Paul W G%Elbers%NULL%1,                     Henk A%Marquering%NULL%1,                     Max%Welling%NULL%1,                     Suat%Simsek%NULL%1,                     Martijn D%de Kruif%NULL%1,                     Tom%Dormans%NULL%1,                     Lucas M%Fleuren%NULL%1,                     Michiel%Schinkel%NULL%1,                     Peter G%Noordzij%NULL%1,                     Joop P%van den Bergh%NULL%2,                     Joop P%van den Bergh%NULL%0,                     Caroline E%Wyers%NULL%1,                     David T B%Buis%NULL%2,                     David T B%Buis%NULL%0,                     W Joost%Wiersinga%NULL%1,                     Ella H C%van den Hout%NULL%1,                     Auke C%Reidinga%NULL%1,                     Daisy%Rusch%NULL%1,                     Kim C E%Sigaloff%NULL%1,                     Renee A%Douma%NULL%1,                     Lianne%de Haan%NULL%1,                     Niels C%Gritters van den Oever%NULL%1,                     Roger J M W%Rennenberg%NULL%1,                     Guido A%van Wingen%NULL%1,                     Marcel J H%Aries%NULL%1,                     Martijn%Beudel%NULL%2,                     Martijn%Beudel%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                     Fajer A.%Al-Ishaq%NULL%2,                     Fajer A.%Al-Ishaq%NULL%0,                     Fatima S.%Al-Mohannadi%NULL%1,                     Reem S.%Mubarak%NULL%1,                     Maryam H.%Al-Hitmi%NULL%1,                     Khandaker Reajul%Islam%NULL%1,                     Amith%Khandakar%NULL%0,                     Ali Ait%Hssain%NULL%3,                     Ali Ait%Hssain%NULL%0,                     Somaya%Al-Madeed%NULL%0,                     Susu M.%Zughaier%NULL%0,                     Susu M.%Zughaier%NULL%0,                     Muhammad E. H.%Chowdhury%NULL%3,                     Muhammad E. H.%Chowdhury%NULL%0,                     Antonella%Santone%NULL%3,                     Antonella%Santone%NULL%0,                     Antonella%Santone%NULL%0,                     Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                     Amith%Khandakar%NULL%0,                     Md Enamul%Hoque%NULL%2,                     Md Enamul%Hoque%NULL%0,                     Nabil%Ibtehaz%NULL%2,                     Nabil%Ibtehaz%NULL%0,                     Saad Bin%Kashem%NULL%2,                     Saad Bin%Kashem%NULL%0,                     Reehum%Masud%NULL%1,                     Lutfunnahar%Shampa%NULL%1,                     Mohammad Mehedi%Hasan%NULL%1,                     Mohammad Tariqul%Islam%NULL%1,                     Somaya%Al-Maadeed%NULL%2,                     Somaya%Al-Maadeed%NULL%0,                     Susu M.%Zughaier%NULL%0,                     Susu M.%Zughaier%NULL%0,                     Saif%Badran%NULL%2,                     Saif%Badran%NULL%0,                     Suhail A. R.%Doi%NULL%0,                     Suhail A. R.%Doi%NULL%0,                     Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                     Pablo%Rodríguez-Belenguer%NULL%2,                     Pablo%Rodríguez-Belenguer%NULL%0,                     Antonio J.%Serrano-López%NULL%1,                     Emilio%Soria-Olivas%NULL%2,                     Emilio%Soria-Olivas%NULL%0,                     Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                     Haibo%Ai%NULL%1,                     Yunong%Fu%NULL%1,                     Qinglin%Li%NULL%1,                     Ruixia%Cui%NULL%1,                     Xiaohua%Ma%NULL%1,                     Yan-fen%Ma%NULL%1,                     Zi%Wang%NULL%1,                     Tong%Liu%NULL%1,                     Yunxiang%Long%NULL%1,                     Kai%Qu%NULL%1,                     Chang%Liu%NULL%1,                     Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Feng%Xiao%xref no email%0, Rongqing%Sun%xref no email%1, Wenbo%Sun%xref no email%1, Dan%Xu%xref no email%1, Lan%Lan%xref no email%0, Huan%Li%xref no email%1, Huan%Liu%xref no email%0, Haibo%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: IOP Publishing</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                     Dawei%Zhang%NULL%1,                     Jing%Xu%NULL%6,                     Zhu%Chen%NULL%1,                     Tieniu%Yang%NULL%1,                     Peng%Zhao%NULL%2,                     Guofeng%Chen%NULL%1,                     Gregory%Cheng%NULL%1,                     Yudong%Wang%NULL%1,                     Jingfeng%Bi%NULL%1,                     Lin%Tan%NULL%1,                     George%Lau%NULL%1,                     Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                     Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                     Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                     Giulia%Suigo%NULL%1,                     Davide%Zampini%NULL%1,                     Matteo%Pistoia%NULL%1,                     Mariella%Ciola%NULL%1,                     Tommaso%Ciampani%NULL%1,                     Carolina%Ultori%NULL%1,                     Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                     John R%Adler%NULL%3,                     Sultan M%Kamran%NULL%2,                     Sultan M%Kamran%NULL%0,                     Zill-e-Humayun%Mirza%NULL%1,                     Hussain Abdul%Moeed%NULL%1,                     Arshad%Naseem%NULL%1,                     Maryam%Hussain%NULL%1,                     Imran%Fazal%NULL%1,                     Farrukh%Saeed%NULL%1,                     Wasim%Alamgir%NULL%1,                     Salman%Saleem%NULL%1,                     Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Liu%xref no email%0, Zilong%Liu%xref no email%1, Weipeng%Jiang%xref no email%1, Jian%Wang%xref no email%4, Mengchan%Zhu%xref no email%1, Juan%Song%xref no email%0, Xiaoyue%Wang%xref no email%1, Ying%Su%xref no email%1, Guiling%Xiang%xref no email%1, Maosong%Ye%xref no email%1, Jiamin%Li%xref no email%1, Yong%Zhang%xref no email%1, Qinjun%Shen%xref no email%1, Zhuozhe%Li%xref no email%1, Danwei%Yao%xref no email%1, Yuanlin%Song%xref no email%0, Kaihuan%Yu%xref no email%1, Zhe%Luo%xref no email%1, Ling%Ye%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                     María M.%Martín%NULL%1,                     Mónica%Argueso%NULL%1,                     Jordi%Solé-Violán%NULL%1,                     Alina%Perez%NULL%1,                     José Alberto%Marcos Y Ramos%NULL%1,                     Luis%Ramos-Gómez%NULL%1,                     Sergio%López%NULL%1,                     Andrés%Franco%NULL%1,                     Agustín F.%González-Rivero%NULL%1,                     María%Martín%NULL%1,                     Verónica%Gonzalez%NULL%1,                     Julia%Alcoba-Flórez%NULL%1,                     Miguel Ángel%Rodriguez%NULL%1,                     Marta%Riaño-Ruiz%NULL%1,                     Juan%Guillermo O Campo%NULL%1,                     Lourdes%González%NULL%1,                     Tamara%Cantera%NULL%1,                     Raquel%Ortiz-López%NULL%1,                     Nazario%Ojeda%NULL%1,                     Aurelio%Rodríguez-Pérez%NULL%1,                     Casimira%Domínguez%NULL%1,                     Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                     Rita%Kukafka%NULL%1,                     Arriel%Benis%NULL%2,                     Arriel%Benis%NULL%0,                     Jinfeng%Li%NULL%1,                     Pan%Pan%NULL%2,                     Pan%Pan%NULL%0,                     Yichao%Li%NULL%2,                     Yichao%Li%NULL%0,                     Yongjiu%Xiao%NULL%2,                     Yongjiu%Xiao%NULL%0,                     Bingchao%Han%NULL%2,                     Bingchao%Han%NULL%0,                     Longxiang%Su%NULL%2,                     Longxiang%Su%NULL%0,                     Mingliang%Su%NULL%2,                     Mingliang%Su%NULL%0,                     Yansheng%Li%NULL%2,                     Yansheng%Li%NULL%0,                     Siqi%Zhang%NULL%2,                     Siqi%Zhang%NULL%0,                     Dapeng%Jiang%NULL%2,                     Dapeng%Jiang%NULL%0,                     Xia%Chen%NULL%2,                     Xia%Chen%NULL%0,                     Fuquan%Zhou%NULL%2,                     Fuquan%Zhou%NULL%0,                     Ling%Ma%NULL%2,                     Ling%Ma%NULL%0,                     Pengtao%Bao%NULL%2,                     Pengtao%Bao%NULL%0,                     Lixin%Xie%xielx301@126.com%2,                     Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                     Cristina%Roca-Oporto%NULL%2,                     Guillermo%Martín-Gutiérrez%NULL%2,                     María Dolores%Avilés%NULL%2,                     Carmen%Gómez-González%NULL%2,                     María Dolores%Navarro-Amuedo%NULL%2,                     Julia%Praena-Segovia%NULL%2,                     José%Molina%NULL%2,                     María%Paniagua-García%NULL%2,                     Horacio%García-Delgado%NULL%2,                     Antonio%Domínguez-Petit%NULL%2,                     Jerónimo%Pachón%NULL%2,                     José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                     Barry R.%Meisenberg%NULL%2,                     Barry R.%Meisenberg%NULL%0,                     James H.%MacDonald%NULL%1,                     Nandakumar%Menon%NULL%1,                     Marcia B.%Fowler%NULL%1,                     Michaline%West%NULL%1,                     Jane%Rhule%NULL%1,                     Sadaf S.%Qureshi%NULL%1,                     Eileen B.%MacDonald%NULL%1,                     Yu Ru%Kou%NULL%2,                     Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                     Sarah%Poole%NULL%2,                     Sarah%Poole%NULL%0,                     Meeta%Pradhan%NULL%1,                     Akhil%Vaid%NULL%3,                     Akhil%Vaid%NULL%0,                     Sulaiman%Somani%NULL%3,                     Sulaiman%Somani%NULL%0,                     Adam J%Russak%NULL%2,                     Adam J%Russak%NULL%0,                     Jessica K%De Freitas%NULL%2,                     Jessica K%De Freitas%NULL%0,                     Fayzan F%Chaudhry%NULL%2,                     Fayzan F%Chaudhry%NULL%0,                     Ishan%Paranjpe%NULL%3,                     Ishan%Paranjpe%NULL%0,                     Kipp W%Johnson%NULL%2,                     Kipp W%Johnson%NULL%0,                     Samuel J%Lee%NULL%2,                     Samuel J%Lee%NULL%0,                     Riccardo%Miotto%NULL%2,                     Riccardo%Miotto%NULL%0,                     Felix%Richter%NULL%3,                     Felix%Richter%NULL%0,                     Shan%Zhao%NULL%3,                     Shan%Zhao%NULL%0,                     Noam D%Beckmann%NULL%2,                     Noam D%Beckmann%NULL%0,                     Nidhi%Naik%NULL%2,                     Nidhi%Naik%NULL%0,                     Arash%Kia%NULL%2,                     Arash%Kia%NULL%0,                     Prem%Timsina%NULL%2,                     Prem%Timsina%NULL%0,                     Anuradha%Lala%NULL%2,                     Anuradha%Lala%NULL%0,                     Manish%Paranjpe%NULL%2,                     Manish%Paranjpe%NULL%0,                     Eddye%Golden%NULL%2,                     Eddye%Golden%NULL%0,                     Matteo%Danieletto%NULL%2,                     Matteo%Danieletto%NULL%0,                     Manbir%Singh%NULL%2,                     Manbir%Singh%NULL%0,                     Dara%Meyer%NULL%2,                     Dara%Meyer%NULL%0,                     Paul F%O'Reilly%NULL%2,                     Paul F%O'Reilly%NULL%0,                     Laura%Huckins%NULL%2,                     Laura%Huckins%NULL%0,                     Patricia%Kovatch%NULL%2,                     Patricia%Kovatch%NULL%0,                     Joseph%Finkelstein%NULL%2,                     Joseph%Finkelstein%NULL%0,                     Robert M.%Freeman%NULL%2,                     Robert M.%Freeman%NULL%0,                     Edgar%Argulian%NULL%2,                     Edgar%Argulian%NULL%0,                     Andrew%Kasarskis%NULL%2,                     Andrew%Kasarskis%NULL%0,                     Bethany%Percha%NULL%2,                     Bethany%Percha%NULL%0,                     Judith A%Aberg%NULL%2,                     Judith A%Aberg%NULL%0,                     Emilia%Bagiella%NULL%3,                     Emilia%Bagiella%NULL%0,                     Carol R%Horowitz%NULL%2,                     Carol R%Horowitz%NULL%0,                     Barbara%Murphy%NULL%2,                     Barbara%Murphy%NULL%0,                     Eric J%Nestler%NULL%2,                     Eric J%Nestler%NULL%0,                     Eric E%Schadt%NULL%2,                     Eric E%Schadt%NULL%0,                     Judy H%Cho%NULL%2,                     Judy H%Cho%NULL%0,                     Carlos%Cordon-Cardo%NULL%2,                     Carlos%Cordon-Cardo%NULL%0,                     Valentin%Fuster%NULL%3,                     Valentin%Fuster%NULL%0,                     Dennis S%Charney%NULL%2,                     Dennis S%Charney%NULL%0,                     David L%Reich%NULL%2,                     David L%Reich%NULL%0,                     Erwin P%Bottinger%NULL%2,                     Erwin P%Bottinger%NULL%0,                     Matthew A%Levin%NULL%2,                     Matthew A%Levin%NULL%0,                     Jagat%Narula%NULL%3,                     Jagat%Narula%NULL%0,                     Zahi A%Fayad%NULL%2,                     Zahi A%Fayad%NULL%0,                     Allan C%Just%NULL%2,                     Allan C%Just%NULL%0,                     Alexander W%Charney%NULL%2,                     Alexander W%Charney%NULL%0,                     Girish N%Nadkarni%NULL%2,                     Girish N%Nadkarni%NULL%0,                     Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                     Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                     Anne%Chen%NULL%2,                     Wei%Hou%NULL%3,                     James M.%Graham%NULL%1,                     Haifang%Li%NULL%2,                     Paul S.%Richman%NULL%1,                     Henry C.%Thode%NULL%1,                     Adam J.%Singer%NULL%1,                     Tim Q.%Duong%NULL%1,                     Muhammad%Adrish%NULL%9,                     Muhammad%Adrish%NULL%0,                     Muhammad%Adrish%NULL%0,                     Muhammad%Adrish%NULL%0,                     Muhammad%Adrish%NULL%0,                     Muhammad%Adrish%NULL%0,                     Muhammad%Adrish%NULL%0,                     Muhammad%Adrish%NULL%0,                     Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                     Qin%Liu%NULL%2,                     Xiao%Zhang%NULL%2,                     Shuyi%Liu%NULL%1,                     Weiqi%Chen%NULL%1,                     Jingjing%You%NULL%1,                     Qiuying%Chen%NULL%1,                     Minmin%Li%NULL%1,                     Zhuozhi%Chen%NULL%1,                     Luyan%Chen%NULL%1,                     Lv%Chen%NULL%1,                     Yuhao%Dong%NULL%1,                     Qingsi%Zeng%NULL%1,                     Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                     Lei%Nie%NULL%1,                     Dongde%Wu%NULL%1,                     Jian%Chen%NULL%2,                     Zhifeng%Yang%NULL%1,                     Ling%Zhang%NULL%3,                     Dongqing%Li%NULL%1,                     Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Binchen%Wang%xref no email%0, Feiyang%Zhong%xref no email%1, Hanfei%Zhang%xref no email%1, Wenting%An%xref no email%1, Meiyan%Liao%xref no email%1, Yiyuan%Cao%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Editorial Committee of Japanese Journal of Infectious Diseases, National Institute of Infectious Dis</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                     Burcin%Hakoglu%NULL%2,                     Burcin%Hakoglu%NULL%0,                     Ali%Kadri Cirak%NULL%1,                     Gulru%Polat%NULL%1,                     Berna%Komurcuoglu%NULL%1,                     Berrin%Akkol%NULL%1,                     Cagri%Atasoy%NULL%1,                     Eda%Bayramic%NULL%1,                     Gunseli%Balci%NULL%1,                     Sena%Ataman%NULL%1,                     Sinem%Ermin%NULL%1,                     Enver%Yalniz%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jing%Zhou%xref no email%0, Lili%Huang%xref no email%1, Jin%Chen%xref no email%1, Xiaowei%Yuan%xref no email%1, Qinhua%Shen%xref no email%1, Su%Dong%xref no email%1, Bei%Cheng%xref no email%1, Tang-Meng%Guo%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                     Qiaosen%Chen%NULL%2,                     Qiaosen%Chen%NULL%0,                     Sumeng%Li%NULL%1,                     Huadong%Li%NULL%1,                     Qian%Zhang%NULL%1,                     Sihong%Lu%NULL%1,                     Li%Wu%NULL%1,                     Leiqun%Xiong%NULL%1,                     Bobin%Mi%NULL%1,                     Di%Liu%NULL%3,                     Mengji%Lu%NULL%1,                     Dongliang%Yang%NULL%1,                     Hongbo%Jiang%hongbojiang3@163.com%1,                     Shaoping%Zheng%zhengspxx@126.com%1,                     Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%2,                     Hua%Zhang%NULL%2,                     Rui%Qiao%NULL%1,                     Qinggang%Ge%NULL%1,                     Shuisheng%Zhang%NULL%1,                     Zongxuan%Zhao%NULL%1,                     Ci%Tian%NULL%1,                     Qingbian%Ma%NULL%2,                     Qingbian%Ma%NULL%0,                     Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                     Antonia%Ho%NULL%2,                     Riinu%Pius%NULL%2,                     Iain%Buchan%NULL%1,                     Gail%Carson%NULL%2,                     Thomas M%Drake%NULL%1,                     Jake%Dunning%NULL%2,                     Cameron J%Fairfield%NULL%2,                     Carrol%Gamble%NULL%2,                     Christopher A%Green%NULL%2,                     Rishi%Gupta%NULL%1,                     Sophie%Halpin%NULL%2,                     Hayley E%Hardwick%NULL%1,                     Karl A%Holden%NULL%1,                     Peter W%Horby%NULL%2,                     Clare%Jackson%NULL%2,                     Kenneth A%Mclean%NULL%2,                     Laura%Merson%NULL%2,                     Jonathan S%Nguyen-Van-Tam%NULL%1,                     Lisa%Norman%NULL%2,                     Mahdad%Noursadeghi%NULL%2,                     Piero L%Olliaro%NULL%1,                     Mark G%Pritchard%NULL%1,                     Clark D%Russell%NULL%2,                     Catherine A%Shaw%NULL%2,                     Aziz%Sheikh%NULL%2,                     Tom%Solomon%NULL%2,                     Cathie%Sudlow%NULL%1,                     Olivia V%Swann%NULL%1,                     Lance CW%Turtle%NULL%2,                     Peter JM%Openshaw%NULL%2,                     J Kenneth%Baillie%NULL%2,                     Malcolm G%Semple%NULL%3,                     Annemarie B%Docherty%NULL%3,                     Annemarie B%Docherty%NULL%0,                     Ewen M%Harrison%NULL%3,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     J Kenneth%Baillie%NULL%0,                     Malcolm G%Semple%NULL%0,                     Peter JM%Openshaw%NULL%0,                     Gail%Carson%NULL%0,                     Beatrice%Alex%NULL%1,                     Benjamin%Bach%NULL%1,                     Wendy S%Barclay%NULL%1,                     Debby%Bogaert%NULL%1,                     Meera%Chand%NULL%1,                     Graham S%Cooke%NULL%1,                     Annemarie B%Docherty%NULL%0,                     Jake%Dunning%NULL%0,                     Ana%da Silva Filipe%NULL%1,                     Tom%Fletcher%NULL%1,                     Christopher A%Green%NULL%0,                     Ewen M%Harrison%NULL%0,                     Julian A%Hiscox%NULL%1,                     Antonia Ying Wai%Ho%NULL%1,                     Peter W%Horby%NULL%0,                     Samreen%Ijaz%NULL%1,                     Saye%Khoo%NULL%1,                     Paul%Klenerman%NULL%1,                     Andrew%Law%NULL%2,                     Wei Shen%Lim%NULL%1,                     Alexander J%Mentzer%NULL%1,                     Laura%Merson%NULL%0,                     Alison M%Meynert%NULL%1,                     Mahdad%Noursadeghi%NULL%0,                     Shona C%Moore%NULL%2,                     Massimo%Palmarini%NULL%1,                     William A%Paxton%NULL%1,                     Georgios%Pollakis%NULL%1,                     Nicholas%Price%NULL%1,                     Andrew%Rambaut%NULL%1,                     David L%Robertson%NULL%1,                     Clark D%Russell%NULL%0,                     Vanessa%Sancho-Shimizu%NULL%1,                     Janet T%Scott%NULL%1,                     Louise%Sigfrid%NULL%1,                     Tom%Solomon%NULL%0,                     Shiranee%Sriskandan%NULL%1,                     David%Stuart%NULL%1,                     Charlotte%Summers%NULL%1,                     Richard S%Tedder%NULL%1,                     Emma C%Thomson%NULL%1,                     Ryan S%Thwaites%NULL%1,                     Lance CW%Turtle%NULL%0,                     Maria%Zambon%NULL%1,                     Hayley%Hardwick%NULL%1,                     Chloe%Donohue%NULL%1,                     Jane%Ewins%NULL%1,                     Wilna%Oosthuyzen%NULL%1,                     Fiona%Griffiths%NULL%1,                     Lisa%Norman%NULL%0,                     Riinu%Pius%NULL%0,                     Tom M%Drake%NULL%1,                     Cameron J%Fairfield%NULL%0,                     Stephen%Knight%NULL%1,                     Kenneth A%Mclean%NULL%0,                     Derek%Murphy%NULL%1,                     Catherine A%Shaw%NULL%0,                     Jo%Dalton%NULL%1,                     Michelle%Girvan%NULL%1,                     Egle%Saviciute%NULL%1,                     Stephanie%Roberts%NULL%1,                     Janet%Harrison%NULL%1,                     Laura%Marsh%NULL%1,                     Marie%Connor%NULL%1,                     Sophie%Halpin%NULL%0,                     Clare%Jackson%NULL%0,                     Carrol%Gamble%NULL%0,                     Gary%Leeming%NULL%1,                     Andrew%Law%NULL%0,                     Ross%Hendry%NULL%1,                     James%Scott-Brown%NULL%1,                     William%Greenhalf%NULL%1,                     Victoria%Shaw%NULL%1,                     Sarah%McDonald%NULL%2,                     Katie A%Ahmed%NULL%1,                     Jane A%Armstrong%NULL%1,                     Milton%Ashworth%NULL%1,                     Innocent G%Asiimwe%NULL%1,                     Siddharth%Bakshi%NULL%1,                     Samantha L%Barlow%NULL%1,                     Laura%Booth%NULL%1,                     Benjamin%Brennan%NULL%1,                     Katie%Bullock%NULL%1,                     Benjamin WA%Catterall%NULL%1,                     Jordan J%Clark%NULL%1,                     Emily A%Clarke%NULL%1,                     Sarah%Cole%NULL%1,                     Louise%Cooper%NULL%1,                     Helen%Cox%NULL%1,                     Christopher%Davis%NULL%1,                     Oslem%Dincarslan%NULL%1,                     Chris%Dunn%NULL%1,                     Philip%Dyer%NULL%1,                     Angela%Elliott%NULL%1,                     Anthony%Evans%NULL%1,                     Lewis WS%Fisher%NULL%1,                     Terry%Foster%NULL%1,                     Isabel%Garcia-Dorival%NULL%1,                     Willliam%Greenhalf%NULL%1,                     Philip%Gunning%NULL%1,                     Catherine%Hartley%NULL%1,                     Antonia%Ho%NULL%0,                     Rebecca L%Jensen%NULL%1,                     Christopher B%Jones%NULL%1,                     Trevor R%Jones%NULL%1,                     Shadia%Khandaker%NULL%1,                     Katharine%King%NULL%1,                     Robyn T%Kiy%NULL%1,                     Chrysa%Koukorava%NULL%1,                     Annette%Lake%NULL%1,                     Suzannah%Lant%NULL%1,                     Diane%Latawiec%NULL%1,                     L%Lavelle-Langham%NULL%1,                     Daniella%Lefteri%NULL%1,                     Lauren%Lett%NULL%1,                     Lucia A%Livoti%NULL%1,                     Maria%Mancini%NULL%1,                     Sarah%McDonald%NULL%0,                     Laurence%McEvoy%NULL%1,                     John%McLauchlan%NULL%1,                     Soeren%Metelmann%NULL%1,                     Nahida S%Miah%NULL%1,                     Joanna%Middleton%NULL%1,                     Joyce%Mitchell%NULL%1,                     Shona C%Moore%NULL%0,                     Ellen G%Murphy%NULL%1,                     Rebekah%Penrice-Randal%NULL%1,                     Jack%Pilgrim%NULL%1,                     Tessa%Prince%NULL%1,                     Will%Reynolds%NULL%1,                     P Matthew%Ridley%NULL%1,                     Debby%Sales%NULL%1,                     Victoria E%Shaw%NULL%1,                     Rebecca K%Shears%NULL%1,                     Benjamin%Small%NULL%1,                     Krishanthi S%Subramaniam%NULL%1,                     Agnieska%Szemiel%NULL%1,                     Aislynn%Taggart%NULL%1,                     Jolanta%Tanianis-Hughes%NULL%1,                     Jordan%Thomas%NULL%1,                     Erwan%Trochu%NULL%1,                     Libby%van Tonder%NULL%1,                     Eve%Wilcock%NULL%1,                     J Eunice%Zhang%NULL%1,                     Kayode%Adeniji%NULL%1,                     Daniel%Agranoff%NULL%1,                     Ken%Agwuh%NULL%1,                     Dhiraj%Ail%NULL%1,                     Ana%Alegria%NULL%1,                     Brian%Angus%NULL%1,                     Abdul%Ashish%NULL%1,                     Dougal%Atkinson%NULL%1,                     Shahedal%Bari%NULL%1,                     Gavin%Barlow%NULL%1,                     Stella%Barnass%NULL%1,                     Nicholas%Barrett%NULL%2,                     Christopher%Bassford%NULL%1,                     David%Baxter%NULL%1,                     Michael%Beadsworth%NULL%1,                     Jolanta%Bernatoniene%NULL%1,                     John%Berridge%NULL%1,                     Nicola%Best%NULL%1,                     Pieter%Bothma%NULL%1,                     David%Brealey%NULL%1,                     Robin%Brittain-Long%NULL%1,                     Naomi%Bulteel%NULL%1,                     Tom%Burden%NULL%1,                     Andrew%Burtenshaw%NULL%1,                     Vikki%Caruth%NULL%1,                     David%Chadwick%NULL%1,                     Duncan%Chambler%NULL%1,                     Nigel%Chee%NULL%1,                     Jenny%Child%NULL%1,                     Srikanth%Chukkambotla%NULL%1,                     Tom%Clark%NULL%1,                     Paul%Collini%NULL%1,                     Catherine%Cosgrove%NULL%1,                     Jason%Cupitt%NULL%1,                     Maria-Teresa%Cutino-Moguel%NULL%1,                     Paul%Dark%NULL%1,                     Chris%Dawson%NULL%1,                     Samir%Dervisevic%NULL%1,                     Phil%Donnison%NULL%1,                     Sam%Douthwaite%NULL%1,                     Ingrid%DuRand%NULL%1,                     Ahilanadan%Dushianthan%NULL%1,                     Tristan%Dyer%NULL%1,                     Cariad%Evans%NULL%1,                     Chi%Eziefula%NULL%1,                     Chrisopher%Fegan%NULL%1,                     Adam%Finn%NULL%1,                     Duncan%Fullerton%NULL%1,                     Sanjeev%Garg%NULL%2,                     Sanjeev%Garg%NULL%0,                     Atul%Garg%NULL%1,                     Jo%Godden%NULL%1,                     Arthur%Goldsmith%NULL%1,                     Clive%Graham%NULL%1,                     Elaine%Hardy%NULL%1,                     Stuart%Hartshorn%NULL%1,                     Daniel%Harvey%NULL%1,                     Peter%Havalda%NULL%1,                     Daniel B%Hawcutt%NULL%1,                     Maria%Hobrok%NULL%1,                     Luke%Hodgson%NULL%1,                     Anita%Holme%NULL%1,                     Anil%Hormis%NULL%1,                     Michael%Jacobs%NULL%1,                     Susan%Jain%NULL%1,                     Paul%Jennings%NULL%1,                     Agilan%Kaliappan%NULL%1,                     Vidya%Kasipandian%NULL%1,                     Stephen%Kegg%NULL%1,                     Michael%Kelsey%NULL%1,                     Jason%Kendall%NULL%1,                     Caroline%Kerrison%NULL%1,                     Ian%Kerslake%NULL%1,                     Oliver%Koch%NULL%2,                     Gouri%Koduri%NULL%1,                     George%Koshy%NULL%1,                     Shondipon%Laha%NULL%1,                     Susan%Larkin%NULL%1,                     Tamas%Leiner%NULL%1,                     Patrick%Lillie%NULL%1,                     James%Limb%NULL%1,                     Vanessa%Linnett%NULL%1,                     Jeff%Little%NULL%1,                     Michael%MacMahon%NULL%1,                     Emily%MacNaughton%NULL%1,                     Ravish%Mankregod%NULL%1,                     Huw%Masson%NULL%1,                     Elijah%Matovu%NULL%1,                     Katherine%McCullough%NULL%1,                     Ruth%McEwen%NULL%1,                     Manjula%Meda%NULL%1,                     Gary%Mills%NULL%1,                     Jane%Minton%NULL%1,                     Mariyam%Mirfenderesky%NULL%1,                     Kavya%Mohandas%NULL%1,                     Quen%Mok%NULL%1,                     James%Moon%NULL%1,                     Elinoor%Moore%NULL%1,                     Patrick%Morgan%NULL%1,                     Craig%Morris%NULL%1,                     Katherine%Mortimore%NULL%1,                     Samuel%Moses%NULL%1,                     Mbiye%Mpenge%NULL%1,                     Rohinton%Mulla%NULL%1,                     Michael%Murphy%NULL%1,                     Megan%Nagel%NULL%1,                     Thapas%Nagarajan%NULL%1,                     Mark%Nelson%NULL%1,                     Igor%Otahal%NULL%1,                     Mark%Pais%NULL%1,                     Selva%Panchatsharam%NULL%1,                     Hassan%Paraiso%NULL%1,                     Brij%Patel%NULL%1,                     Justin%Pepperell%NULL%1,                     Mark%Peters%NULL%1,                     Mandeep%Phull%NULL%1,                     Stefania%Pintus%NULL%1,                     Jagtur Singh%Pooni%NULL%1,                     Frank%Post%NULL%1,                     David%Price%NULL%1,                     Rachel%Prout%NULL%1,                     Nikolas%Rae%NULL%1,                     Henrik%Reschreiter%NULL%1,                     Tim%Reynolds%NULL%1,                     Neil%Richardson%NULL%1,                     Mark%Roberts%NULL%1,                     Devender%Roberts%NULL%1,                     Alistair%Rose%NULL%1,                     Guy%Rousseau%NULL%1,                     Brendan%Ryan%NULL%1,                     Taranprit%Saluja%NULL%1,                     Aarti%Shah%NULL%1,                     Prad%Shanmuga%NULL%1,                     Anil%Sharma%NULL%1,                     Anna%Shawcross%NULL%1,                     Jeremy%Sizer%NULL%1,                     Richard%Smith%NULL%1,                     Catherine%Snelson%NULL%1,                     Nick%Spittle%NULL%1,                     Nikki%Staines%NULL%1,                     Tom%Stambach%NULL%1,                     Richard%Stewart%NULL%1,                     Pradeep%Subudhi%NULL%1,                     Tamas%Szakmany%NULL%1,                     Kate%Tatham%NULL%1,                     Jo%Thomas%NULL%1,                     Chris%Thompson%NULL%1,                     Robert%Thompson%NULL%1,                     Ascanio%Tridente%NULL%1,                     Darell%Tupper-Carey%NULL%1,                     Mary%Twagira%NULL%1,                     Andrew%Ustianowski%NULL%1,                     Nick%Vallotton%NULL%1,                     Lisa%Vincent-Smith%NULL%1,                     Shico%Visuvanathan%NULL%1,                     Alan%Vuylsteke%NULL%1,                     Sam%Waddy%NULL%1,                     Rachel%Wake%NULL%1,                     Andrew%Walden%NULL%1,                     Ingeborg%Welters%NULL%1,                     Tony%Whitehouse%NULL%1,                     Paul%Whittaker%NULL%1,                     Ashley%Whittington%NULL%1,                     Meme%Wijesinghe%NULL%1,                     Martin%Williams%NULL%1,                     Lawrence%Wilson%NULL%1,                     Sarah%Wilson%NULL%1,                     Stephen%Winchester%NULL%1,                     Martin%Wiselka%NULL%1,                     Adam%Wolverson%NULL%1,                     Daniel G%Wooton%NULL%1,                     Andrew%Workman%NULL%1,                     Bryan%Yates%NULL%1,                     Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                     Braulio A.%Marfil‐Garza%NULL%1,                     Erick%Martínez Rodríguez%NULL%1,                     José Omar%Barreto Rodríguez%NULL%1,                     Alicia Estela%López Romo%NULL%1,                     Paolo%Alberti Minutti%NULL%1,                     Juan Vicente%Alejandre Loya%NULL%1,                     Félix Emmanuel%Pérez Talavera%NULL%1,                     Freddy José%Ávila Cervera%NULL%1,                     Adriana%Velazquez Burciaga%NULL%1,                     Oscar%Morado Aramburo%NULL%1,                     Luis Alberto%Piña Olguín%NULL%1,                     Adrian%Soto‐Rodríguez%NULL%1,                     Andrés%Castañeda Prado%NULL%1,                     Patricio%Santillán Doherty%NULL%1,                     Juan%O Galindo%NULL%1,                     Luis Alberto%Guízar García%NULL%1,                     Daniel%Hernández Gordillo%NULL%1,                     Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                     Aatish%Patel%NULL%1,                     Esmita%Charani%NULL%1,                     Sarah%Denny%NULL%1,                     Saleh A.%Alqahtani%NULL%1,                     Gary W.%Davies%NULL%1,                     Nabeela%Mughal%NULL%1,                     Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                     Hyunsun%Lim%NULL%1,                     Dong-Wook%Kim%NULL%1,                     Jung Hyun%Chang%NULL%1,                     Yoon Jung%Choi%chris316@yuhs.ac%1,                     Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hao%Chen%xref no email%0, Rudong%Chen%xref no email%1, Hongkuan%Yang%xref no email%1, Junhong%Wang%xref no email%0, Yuyang%Hou%xref no email%1, Wei%Hu%xref no email%1, Jiasheng%Yu%xref no email%1, Hua%Li%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                     Wenhua%Liang%NULL%3,                     Mei%Jiang%NULL%2,                     Weijie%Guan%NULL%3,                     Chen%Zhan%NULL%2,                     Tao%Wang%NULL%0,                     Chunli%Tang%NULL%3,                     Ling%Sang%NULL%3,                     Jiaxing%Liu%NULL%2,                     Zhengyi%Ni%NULL%2,                     Yu%Hu%NULL%0,                     Lei%Liu%NULL%8,                     Hong%Shan%NULL%5,                     Chunliang%Lei%NULL%2,                     Yixiang%Peng%NULL%2,                     Li%Wei%NULL%5,                     Yong%Liu%NULL%5,                     Yahua%Hu%NULL%2,                     Peng%Peng%NULL%7,                     Jianming%Wang%NULL%2,                     Jiyang%Liu%NULL%2,                     Zhong%Chen%NULL%5,                     Gang%Li%NULL%5,                     Zhijian%Zheng%NULL%2,                     Shaoqin%Qiu%NULL%2,                     Jie%Luo%NULL%5,                     Changjiang%Ye%NULL%2,                     Shaoyong%Zhu%NULL%2,                     Xiaoqing%Liu%NULL%2,                     Linling%Cheng%NULL%2,                     Feng%Ye%NULL%2,                     Jinping%Zheng%NULL%2,                     Nuofu%Zhang%NULL%2,                     Yimin%Li%NULL%2,                     Jianxing%He%NULL%2,                     Shiyue%Li%lishiyue@188.com%3,                     Nanshan%Zhong%NULL%4,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                     Liu%Hu%NULL%1,                     Yiru%Wang%NULL%0,                     Luyan%Huang%NULL%1,                     Lingxi%Zhao%NULL%1,                     Congcong%Zhang%NULL%1,                     Xiyue%Liu%NULL%1,                     Ranran%Xu%NULL%1,                     Feng%Liu%NULL%0,                     Jinping%Li%NULL%1,                     Dawei%Ye%NULL%0,                     Tao%Wang%NULL%0,                     Yongman%Lv%lvyongman@126.com%0,                     Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                     Carol A C%Coupland%NULL%1,                     Ruth H%Keogh%NULL%1,                     Karla%Diaz-Ordaz%NULL%1,                     Elizabeth%Williamson%NULL%1,                     Ewen M%Harrison%NULL%0,                     Andrew%Hayward%NULL%1,                     Harry%Hemingway%NULL%1,                     Peter%Horby%NULL%1,                     Nisha%Mehta%NULL%1,                     Jonathan%Benger%NULL%1,                     Kamlesh%Khunti%NULL%0,                     David%Spiegelhalter%NULL%1,                     Aziz%Sheikh%NULL%0,                     Jonathan%Valabhji%NULL%0,                     Ronan A%Lyons%NULL%1,                     John%Robson%NULL%1,                     Malcolm G%Semple%NULL%0,                     Frank%Kee%NULL%1,                     Peter%Johnson%NULL%1,                     Susan%Jebb%NULL%1,                     Tony%Williams%NULL%1,                     Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                     Guang-Yao%Cai%NULL%1,                     Wei%Fang%NULL%2,                     Hua-Yi%Li%NULL%1,                     Si-Yuan%Wang%NULL%2,                     Si-Yuan%Wang%NULL%0,                     Lingxi%Chen%NULL%1,                     Yang%Yu%NULL%1,                     Dan%Liu%NULL%0,                     Sen%Xu%NULL%2,                     Peng-Fei%Cui%NULL%1,                     Shao-Qing%Zeng%NULL%2,                     Shao-Qing%Zeng%NULL%0,                     Xin-Xia%Feng%NULL%1,                     Rui-Di%Yu%NULL%1,                     Ya%Wang%NULL%2,                     Yuan%Yuan%NULL%1,                     Xiao-Fei%Jiao%NULL%1,                     Jian-Hua%Chi%NULL%1,                     Jia-Hao%Liu%NULL%1,                     Ru-Yuan%Li%NULL%1,                     Xu%Zheng%NULL%1,                     Chun-Yan%Song%NULL%1,                     Ning%Jin%NULL%1,                     Wen-Jian%Gong%NULL%1,                     Xing-Yu%Liu%NULL%1,                     Lei%Huang%NULL%2,                     Xun%Tian%NULL%1,                     Lin%Li%NULL%1,                     Hui%Xing%NULL%1,                     Ding%Ma%NULL%1,                     Chun-Rui%Li%NULL%1,                     Fei%Ye%yeyuanbei@hotmail.com%1,                     Qing-Lei%Gao%qingleigao@hotmail.com%2,                     Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                     Ang%Li%NULL%1,                     Mengfan%Jiao%NULL%1,                     Qingmiao%Shi%NULL%1,                     Xiaocai%An%NULL%1,                     Yonghai%Feng%NULL%1,                     Lihua%Xing%NULL%1,                     Hongxia%Liang%NULL%1,                     Jiajun%Chen%NULL%1,                     Huiling%Li%NULL%1,                     Juan%Li%NULL%0,                     Zhigang%Ren%NULL%1,                     Ranran%Sun%NULL%1,                     Guangying%Cui%NULL%1,                     Yongjian%Zhou%NULL%1,                     Ming%Cheng%NULL%1,                     Pengfei%Jiao%NULL%1,                     Yu%Wang%NULL%2,                     Jiyuan%Xing%NULL%1,                     Shen%Shen%NULL%1,                     Qingxian%Zhang%NULL%1,                     Aiguo%Xu%NULL%1,                     Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                     Michael%Ng%NULL%1,                     Shuang%Xu%NULL%1,                     Zhouming%Xu%NULL%1,                     Hui%Qiu%NULL%1,                     Yuwei%Liu%NULL%1,                     Jiayou%Lyu%NULL%1,                     Jiwen%You%NULL%1,                     Peng%Zhao%NULL%0,                     Shihao%Wang%NULL%1,                     Yunfei%Tang%NULL%1,                     Hao%Cui%NULL%1,                     Changxiao%Yu%NULL%1,                     Feng%Wang%NULL%5,                     Fei%Shao%NULL%1,                     Peng%Sun%NULL%1,                     Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                     Huifang%Wang%NULL%1,                     Junwei%Huang%NULL%1,                     Yan%Geng%NULL%1,                     Shuqi%Jiang%NULL%1,                     Qiuping%Zhou%NULL%1,                     Xuan%Chen%NULL%1,                     Hongping%Hu%NULL%1,                     Weifeng%Li%NULL%1,                     Chengbin%Zhou%NULL%1,                     Xinglin%Gao%NULL%1,                     Na%Peng%pnatz@163.com%1,                     Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                     Dandan%Cheng%NULL%1,                     Yiwei%Cao%NULL%1,                     Chuan%Hu%NULL%1,                     Fenglin%Zou%NULL%1,                     Wencheng%Yu%NULL%1,                     Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                     Min Kyu%Kang%NULL%2,                     Min Kyu%Kang%NULL%0,                     Yu Rim%Lee%NULL%2,                     Yu Rim%Lee%NULL%0,                     Jeong Eun%Song%NULL%2,                     Jeong Eun%Song%NULL%0,                     Na Young%Kim%NULL%1,                     Young Oh%Kweon%NULL%1,                     Won Young%Tak%NULL%1,                     Se Young%Jang%NULL%1,                     Changhyeong%Lee%NULL%2,                     Changhyeong%Lee%NULL%0,                     Byung Seok%Kim%NULL%1,                     Jae Seok%Hwang%NULL%1,                     Byoung Kuk%Jang%NULL%1,                     Jinmok%Bae%NULL%1,                     Ji Yeon%Lee%NULL%0,                     Jeong Ill%Suh%NULL%1,                     Soo Young%Park%NULL%1,                     Woo Jin%Chung%NULL%2,                     Woo Jin%Chung%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                     Cristina%Roca-Oporto%NULL%0,                     Guillermo%Martín-Gutiérrez%NULL%0,                     María Dolores%Avilés%NULL%0,                     Carmen%Gómez-González%NULL%0,                     María Dolores%Navarro-Amuedo%NULL%0,                     Julia%Praena-Segovia%NULL%0,                     José%Molina%NULL%0,                     María%Paniagua-García%NULL%0,                     Horacio%García-Delgado%NULL%0,                     Antonio%Domínguez-Petit%NULL%0,                     Jerónimo%Pachón%NULL%0,                     José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                  Calvo%Boyero Fernando%coreGivesNoEmail%1,                  Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                  COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                  Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                  Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                  L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                  Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                  Santos%Lozano Alejandro%coreGivesNoEmail%1,                  Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                      Min%He%NULL%1,                      Wanhong%Yin%NULL%1,                      Xuelian%Liao%NULL%1,                      Bo%Wang%NULL%6,                      Xiaodong%Jin%NULL%1,                      Yao%Ma%NULL%2,                      Jirong%Yue%NULL%1,                      Lang%Bai%NULL%1,                      Dan%Liu%NULL%3,                      Ting%Zhu%NULL%1,                      Zhixin%Huang%NULL%1,                      Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                      Shuchang%Zhou%NULL%1,                      Yujin%Wang%NULL%1,                      Wenzhi%Lv%NULL%2,                      Shili%Wang%NULL%1,                      Ting%Wang%751884926@qq.com%1,                      Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                      Yan-chak%Li%NULL%1,                      Sonali%Bose%NULL%1,                      Ravi%Iyengar%NULL%1,                      Supinda%Bunyavanich%NULL%1,                      Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,             Hai-Tao%Zhang%null%1,             Jorge%Goncalves%null%1,             Yang%Xiao%null%1,             Maolin%Wang%null%1,             Yuqi%Guo%null%1,             Chuan%Sun%null%1,             Xiuchuan%Tang%null%1,             Liang%Jing%null%1,             Mingyang%Zhang%null%1,             Xiang%Huang%null%1,             Ying%Xiao%null%1,             Haosen%Cao%null%1,             Yanyan%Chen%null%1,             Tongxin%Ren%null%1,             Fang%Wang%null%1,             Yaru%Xiao%null%1,             Sufang%Huang%null%1,             Xi%Tan%null%1,             Niannian%Huang%null%1,             Bo%Jiao%null%1,             Cheng%Cheng%null%1,             Yong%Zhang%null%1,             Ailin%Luo%null%1,             Laurent%Mombaerts%null%1,             Junyang%Jin%null%1,             Zhiguo%Cao%null%1,             Shusheng%Li%null%1,             Hui%Xu%null%1,             Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                      Mengfei%Guo%NULL%1,                      Limin%Duan%NULL%1,                      Feng%Wu%NULL%1,                      Guorong%Hu%NULL%1,                      Zhihui%Wang%NULL%1,                      Qi%Huang%NULL%1,                      Tingting%Liao%NULL%1,                      Juanjuan%Xu%NULL%1,                      Yanling%Ma%NULL%1,                      Zhilei%Lv%NULL%1,                      Wenjing%Xiao%NULL%1,                      Zilin%Zhao%NULL%1,                      Xueyun%Tan%NULL%1,                      Daquan%Meng%NULL%1,                      Shujing%Zhang%NULL%1,                      E%Zhou%NULL%1,                      Zhengrong%Yin%NULL%1,                      Wei%Geng%NULL%1,                      Xuan%Wang%NULL%1,                      Jianchu%Zhang%NULL%1,                      Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                      Yu%Zhang%whxhzy@163.com%1,                      Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                      Francesco%Arru%NULL%2,                      Francesco%Arru%NULL%0,                      Andrea%De Vito%NULL%3,                      Alessandro%Sassu%NULL%2,                      Alessandro%Sassu%NULL%0,                      Giovanni%Valdes%NULL%1,                      Valentina%Scano%NULL%1,                      Elisabetta%Zinellu%NULL%1,                      Roberto%Perra%NULL%1,                      Giordano%Madeddu%NULL%3,                      Ciriaco%Carru%NULL%1,                      Pietro%Pirina%NULL%3,                      Arduino A.%Mangoni%NULL%2,                      Arduino A.%Mangoni%NULL%0,                      Sergio%Babudieri%NULL%4,                      Sergio%Babudieri%NULL%0,                      Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                      Pablo%Ryan%NULL%1,                      Jorge%Valencia%NULL%2,                      Jorge%Valencia%NULL%0,                      Mario%Pérez-Butragueño%NULL%2,                      Mario%Pérez-Butragueño%NULL%0,                      Eva%Jiménez%NULL%2,                      Eva%Jiménez%NULL%0,                      Mario%Fontán-Vela%NULL%1,                      Elsa%Izquierdo-García%NULL%2,                      Elsa%Izquierdo-García%NULL%0,                      Inés%Fernandez-Jimenez%NULL%1,                      Elena%Álvaro-Alonso%NULL%1,                      Andrea%Lazaro%NULL%2,                      Andrea%Lazaro%NULL%0,                      Marta%Alvarado%NULL%1,                      Helena%Notario%NULL%1,                      Salvador%Resino%NULL%1,                      Daniel%Velez-Serrano%NULL%1,                      Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                      Yiru%Wang%NULL%2,                      Xuecheng%Zhao%NULL%1,                      Lixuan%Wang%NULL%1,                      Feng%Liu%NULL%3,                      Tao%Wang%NULL%15,                      Dawei%Ye%NULL%2,                      Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                      Valentina%Zuccaro%NULL%1,                      Luca%Novelli%NULL%1,                      Lorenzo%Zileri%NULL%2,                      Lorenzo%Zileri%NULL%0,                      Ciro%Celsa%NULL%1,                      Federico%Raimondi%NULL%2,                      Federico%Raimondi%NULL%0,                      Mauro%Gori%NULL%1,                      Giulia%Cammà%NULL%1,                      Salvatore%Battaglia%NULL%1,                      Vincenzo Giuseppe%Genova%NULL%1,                      Laura%Paris%NULL%1,                      Matteo%Tacelli%NULL%1,                      Francesco Antonio%Mancarella%NULL%1,                      Marco%Enea%NULL%1,                      Massimo%Attanasio%NULL%1,                      Michele%Senni%NULL%1,                      Fabiano%Di Marco%NULL%1,                      Luca Ferdinando%Lorini%NULL%1,                      Stefano%Fagiuoli%NULL%1,                      Raffaele%Bruno%NULL%2,                      Calogero%Cammà%NULL%1,                      Antonio%Gasbarrini%NULL%3,                      Francesco%Di Gennaro%NULL%2,                      Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                      Gan-xun%Li%NULL%1,                      Lin%Chen%NULL%3,                      Chang%Shu%NULL%2,                      Jia%Song%NULL%1,                      Wei%Wang%NULL%2,                      Yu-wei%Wang%NULL%1,                      Qian%Chen%NULL%2,                      Guan-nan%Jin%NULL%1,                      Tong-tong%Liu%NULL%1,                      Jun-nan%Liang%NULL%1,                      Peng%Zhu%NULL%1,                      Wei%Zhu%NULL%5,                      Yong%Li%NULL%2,                      Bin-hao%Zhang%NULL%1,                      Huan%Feng%NULL%1,                      Wan-guang%Zhang%NULL%1,                      Zhen-yu%Yin%NULL%1,                      Wen-kui%Yu%NULL%1,                      Yang%Yang%NULL%2,                      Hua-qiu%Zhang%NULL%1,                      Zhou-ping%Tang%NULL%1,                      Hui%Wang%NULL%4,                      Jun-bo%Hu%NULL%1,                      Ji-hong%Liu%NULL%1,                      Ping%Yin%NULL%1,                      Xiao-ping%Chen%NULL%1,                      Bixiang%Zhang%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                      Günay%Can%NULL%2,                      Günay%Can%NULL%0,                      Rıdvan%Karaali%NULL%1,                      Şermin%Börekçi%NULL%1,                      İlker İnanç%Balkan%NULL%1,                      Bilun%Gemicioğlu%NULL%1,                      Dildar%Konukoğlu%NULL%1,                      Ethem%Erginöz%NULL%1,                      Mehmet Sarper%Erdoğan%NULL%1,                      Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                      Danila%Azzolina%NULL%1,                      Eyal%Hayden%NULL%2,                      Eyal%Hayden%NULL%0,                      Gianluca%Gaidano%NULL%2,                      Gianluca%Gaidano%NULL%0,                      Mario%Pirisi%NULL%2,                      Mario%Pirisi%NULL%0,                      Antonio%Acquaviva%NULL%2,                      Antonio%Acquaviva%NULL%0,                      Gianluca%Aimaretti%NULL%2,                      Gianluca%Aimaretti%NULL%0,                      Paolo%Aluffi Valletti%NULL%3,                      Paolo%Aluffi Valletti%NULL%0,                      Roberto%Angilletta%NULL%2,                      Roberto%Angilletta%NULL%0,                      Roberto%Arioli%NULL%2,                      Roberto%Arioli%NULL%0,                      Gian Carlo%Avanzi%NULL%2,                      Gian Carlo%Avanzi%NULL%0,                      Gianluca%Avino%NULL%2,                      Gianluca%Avino%NULL%0,                      Piero Emilio%Balbo%NULL%2,                      Piero Emilio%Balbo%NULL%0,                      Giulia%Baldon%NULL%2,                      Giulia%Baldon%NULL%0,                      Francesca%Baorda%NULL%2,                      Francesca%Baorda%NULL%0,                      Emanuela%Barbero%NULL%2,                      Emanuela%Barbero%NULL%0,                      Alessio%Baricich%NULL%2,                      Alessio%Baricich%NULL%0,                      Michela%Barini%NULL%2,                      Michela%Barini%NULL%0,                      Francesco%Barone-Adesi%NULL%2,                      Francesco%Barone-Adesi%NULL%0,                      Sofia%Battistini%NULL%2,                      Sofia%Battistini%NULL%0,                      Michela%Beltrame%NULL%2,                      Michela%Beltrame%NULL%0,                      Matteo%Bertoli%NULL%2,                      Matteo%Bertoli%NULL%0,                      Stephanie%Bertolin%NULL%2,                      Stephanie%Bertolin%NULL%0,                      Marinella%Bertolotti%NULL%2,                      Marinella%Bertolotti%NULL%0,                      Marta%Betti%NULL%2,                      Marta%Betti%NULL%0,                      Flavio%Bobbio%NULL%2,                      Flavio%Bobbio%NULL%0,                      Paolo%Boffano%NULL%2,                      Paolo%Boffano%NULL%0,                      Lucio%Boglione%NULL%2,                      Lucio%Boglione%NULL%0,                      Silvio%Borrè%NULL%2,                      Silvio%Borrè%NULL%0,                      Matteo%Brucoli%NULL%2,                      Matteo%Brucoli%NULL%0,                      Elisa%Calzaducca%NULL%2,                      Elisa%Calzaducca%NULL%0,                      Edoardo%Cammarata%NULL%2,                      Edoardo%Cammarata%NULL%0,                      Vincenzo%Cantaluppi%NULL%2,                      Vincenzo%Cantaluppi%NULL%0,                      Roberto%Cantello%NULL%2,                      Roberto%Cantello%NULL%0,                      Andrea%Capponi%NULL%2,                      Andrea%Capponi%NULL%0,                      Alessandro%Carriero%NULL%2,                      Alessandro%Carriero%NULL%0,                      Giuseppe Francesco%Casciaro%NULL%2,                      Giuseppe Francesco%Casciaro%NULL%0,                      Luigi Mario%Castello%NULL%2,                      Luigi Mario%Castello%NULL%0,                      Federico%Ceruti%NULL%2,                      Federico%Ceruti%NULL%0,                      Guido%Chichino%NULL%2,                      Guido%Chichino%NULL%0,                      Emilio%Chirico%NULL%2,                      Emilio%Chirico%NULL%0,                      Carlo%Cisari%NULL%1,                      Micol Giulia%Cittone%NULL%2,                      Micol Giulia%Cittone%NULL%0,                      Crizia%Colombo%NULL%2,                      Crizia%Colombo%NULL%0,                      Cristoforo%Comi%NULL%2,                      Cristoforo%Comi%NULL%0,                      Eleonora%Croce%NULL%2,                      Eleonora%Croce%NULL%0,                      Tommaso%Daffara%NULL%2,                      Tommaso%Daffara%NULL%0,                      Pietro%Danna%NULL%2,                      Pietro%Danna%NULL%0,                      Francesco%Della Corte%NULL%2,                      Francesco%Della Corte%NULL%0,                      Simona%De Vecchi%NULL%2,                      Simona%De Vecchi%NULL%0,                      Umberto%Dianzani%NULL%2,                      Umberto%Dianzani%NULL%0,                      Davide%Di Benedetto%NULL%2,                      Davide%Di Benedetto%NULL%0,                      Elia%Esposto%NULL%2,                      Elia%Esposto%NULL%0,                      Fabrizio%Faggiano%NULL%2,                      Fabrizio%Faggiano%NULL%0,                      Zeno%Falaschi%NULL%2,                      Zeno%Falaschi%NULL%0,                      Daniela%Ferrante%NULL%2,                      Daniela%Ferrante%NULL%0,                      Alice%Ferrero%NULL%2,                      Alice%Ferrero%NULL%0,                      Ileana%Gagliardi%NULL%2,                      Ileana%Gagliardi%NULL%0,                      Alessandra%Galbiati%NULL%2,                      Alessandra%Galbiati%NULL%0,                      Silvia%Gallo%NULL%2,                      Silvia%Gallo%NULL%0,                      Pietro Luigi%Garavelli%NULL%2,                      Pietro Luigi%Garavelli%NULL%0,                      Clara Ada%Gardino%NULL%2,                      Clara Ada%Gardino%NULL%0,                      Massimiliano%Garzaro%NULL%3,                      Massimiliano%Garzaro%NULL%0,                      Maria Luisa%Gastaldello%NULL%2,                      Maria Luisa%Gastaldello%NULL%0,                      Francesco%Gavelli%NULL%2,                      Francesco%Gavelli%NULL%0,                      Alessandra%Gennari%NULL%2,                      Alessandra%Gennari%NULL%0,                      Greta Maria%Giacomini%NULL%2,                      Greta Maria%Giacomini%NULL%0,                      Irene%Giacone%NULL%2,                      Irene%Giacone%NULL%0,                      Valentina%Giai Via%NULL%2,                      Valentina%Giai Via%NULL%0,                      Francesca%Giolitti%NULL%2,                      Francesca%Giolitti%NULL%0,                      Laura Cristina%Gironi%NULL%2,                      Laura Cristina%Gironi%NULL%0,                      Carla%Gramaglia%NULL%2,                      Carla%Gramaglia%NULL%0,                      Leonardo%Grisafi%NULL%2,                      Leonardo%Grisafi%NULL%0,                      Ilaria%Inserra%NULL%2,                      Ilaria%Inserra%NULL%0,                      Marco%Invernizzi%NULL%2,                      Marco%Invernizzi%NULL%0,                      Marco%Krengli%NULL%2,                      Marco%Krengli%NULL%0,                      Emanuela%Labella%NULL%2,                      Emanuela%Labella%NULL%0,                      Irene Cecilia%Landi%NULL%2,                      Irene Cecilia%Landi%NULL%0,                      Raffaella%Landi%NULL%2,                      Raffaella%Landi%NULL%0,                      Ilaria%Leone%NULL%2,                      Ilaria%Leone%NULL%0,                      Veronica%Lio%NULL%2,                      Veronica%Lio%NULL%0,                      Luca%Lorenzini%NULL%2,                      Luca%Lorenzini%NULL%0,                      Antonio%Maconi%NULL%2,                      Antonio%Maconi%NULL%0,                      Mario%Malerba%NULL%2,                      Mario%Malerba%NULL%0,                      Giulia Francesca%Manfredi%NULL%2,                      Giulia Francesca%Manfredi%NULL%0,                      Maria%Martelli%NULL%2,                      Maria%Martelli%NULL%0,                      Letizia%Marzari%NULL%2,                      Letizia%Marzari%NULL%0,                      Paolo%Marzullo%NULL%2,                      Paolo%Marzullo%NULL%0,                      Marco%Mennuni%NULL%2,                      Marco%Mennuni%NULL%0,                      Claudia%Montabone%NULL%2,                      Claudia%Montabone%NULL%0,                      Umberto%Morosini%NULL%2,                      Umberto%Morosini%NULL%0,                      Marco%Mussa%NULL%2,                      Marco%Mussa%NULL%0,                      Ilaria%Nerici%NULL%2,                      Ilaria%Nerici%NULL%0,                      Alessandro%Nuzzo%NULL%2,                      Alessandro%Nuzzo%NULL%0,                      Carlo%Olivieri%NULL%2,                      Carlo%Olivieri%NULL%0,                      Samuel Alberto%Padelli%NULL%2,                      Samuel Alberto%Padelli%NULL%0,                      Massimiliano%Panella%NULL%2,                      Massimiliano%Panella%NULL%0,                      Andrea%Parisini%NULL%2,                      Andrea%Parisini%NULL%0,                      Alessio%Paschè%NULL%2,                      Alessio%Paschè%NULL%0,                      Filippo%Patrucco%NULL%2,                      Filippo%Patrucco%NULL%0,                      Giuseppe%Patti%NULL%2,                      Giuseppe%Patti%NULL%0,                      Alberto%Pau%NULL%2,                      Alberto%Pau%NULL%0,                      Anita Rebecca%Pedrinelli%NULL%2,                      Anita Rebecca%Pedrinelli%NULL%0,                      Ilaria%Percivale%NULL%2,                      Ilaria%Percivale%NULL%0,                      Luca%Ragazzoni%NULL%2,                      Luca%Ragazzoni%NULL%0,                      Roberta%Re%NULL%2,                      Roberta%Re%NULL%0,                      Cristina%Rigamonti%NULL%2,                      Cristina%Rigamonti%NULL%0,                      Eleonora%Rizzi%NULL%2,                      Eleonora%Rizzi%NULL%0,                      Andrea%Rognoni%NULL%2,                      Andrea%Rognoni%NULL%0,                      Annalisa%Roveta%NULL%2,                      Annalisa%Roveta%NULL%0,                      Luigia%Salamina%NULL%2,                      Luigia%Salamina%NULL%0,                      Matteo%Santagostino%NULL%2,                      Matteo%Santagostino%NULL%0,                      Massimo%Saraceno%NULL%2,                      Massimo%Saraceno%NULL%0,                      Paola%Savoia%NULL%2,                      Paola%Savoia%NULL%0,                      Marco%Sciarra%NULL%2,                      Marco%Sciarra%NULL%0,                      Andrea%Schimmenti%NULL%2,                      Andrea%Schimmenti%NULL%0,                      Lorenza%Scotti%NULL%2,                      Lorenza%Scotti%NULL%0,                      Enrico%Spinoni%NULL%2,                      Enrico%Spinoni%NULL%0,                      Carlo%Smirne%NULL%2,                      Carlo%Smirne%NULL%0,                      Vanessa%Tarantino%NULL%2,                      Vanessa%Tarantino%NULL%0,                      Paolo Amedeo%Tillio%NULL%2,                      Paolo Amedeo%Tillio%NULL%0,                      Stelvio%Tonello%NULL%2,                      Stelvio%Tonello%NULL%0,                      Rosanna%Vaschetto%NULL%2,                      Rosanna%Vaschetto%NULL%0,                      Veronica%Vassia%NULL%2,                      Veronica%Vassia%NULL%0,                      Domenico%Zagaria%NULL%2,                      Domenico%Zagaria%NULL%0,                      Elisa%Zavattaro%NULL%2,                      Elisa%Zavattaro%NULL%0,                      Patrizia%Zeppegno%NULL%2,                      Patrizia%Zeppegno%NULL%0,                      Francesca%Zottarelli%NULL%2,                      Francesca%Zottarelli%NULL%0,                      Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                      Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                      Marta%Ottone%NULL%2,                      Marta%Ottone%NULL%0,                      Tommaso%Fasano%NULL%1,                      Pierpaolo%Pattacini%NULL%1,                      Valentina%Iotti%NULL%1,                      Lucia%Spaggiari%NULL%1,                      Riccardo%Bonacini%NULL%1,                      Andrea%Nitrosi%NULL%1,                      Efrem%Bonelli%NULL%1,                      Simone%Canovi%NULL%1,                      Rossana%Colla%NULL%1,                      Alessandro%Zerbini%NULL%1,                      Marco%Massari%NULL%1,                      Ivana%Lattuada%NULL%1,                      Anna Maria%Ferrari%NULL%1,                      Paolo%Giorgi Rossi%NULL%1,                      Massimo%Costantini%NULL%1,                      Roberto%Grilli%NULL%1,                      Massimiliano%Marino%NULL%1,                      Giulio%Formoso%NULL%1,                      Debora%Formisano%NULL%1,                      Emanuela%Bedeschi%NULL%1,                      Cinzia%Perilli%NULL%1,                      Elisabetta%La Rosa%NULL%1,                      Eufemia%Bisaccia%NULL%1,                      Ivano%Venturi%NULL%1,                      Massimo%Vicentini%NULL%1,                      Cinzia%Campari%NULL%1,                      Francesco%Gioia%NULL%1,                      Serena%Broccoli%NULL%1,                      Pamela%Mancuso%NULL%1,                      Marco%Foracchia%NULL%1,                      Mirco%Pinotti%NULL%1,                      Nicola%Facciolongo%NULL%1,                      Laura%Trabucco%NULL%1,                      Stefano%De Pietri%NULL%1,                      Giorgio Francesco%Danelli%NULL%1,                      Laura%Albertazzi%NULL%1,                      Enrica%Bellesia%NULL%1,                      Mattia%Corradini%NULL%1,                      Elena%Magnani%NULL%1,                      Annalisa%Pilia%NULL%1,                      Alessandra%Polese%NULL%1,                      Silvia Storchi%Incerti%NULL%1,                      Piera%Zaldini%NULL%1,                      Bonanno%Orsola%NULL%1,                      Matteo%Revelli%NULL%1,                      Carlo%Salvarani%NULL%1,                      Carmine%Pinto%NULL%1,                      Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                      Hong-Qiu%Gu%NULL%1,                      Yi%Liu (刘艺)%NULL%1,                      Guqin%Zhang%NULL%1,                      Hang%Yang%NULL%1,                      Huifang%Hu%NULL%1,                      Chenyang%Lu%NULL%1,                      Yang%Li%NULL%3,                      Liyi%Wang%NULL%1,                      Yi%Liu (刘毅)%yi2006liu@163.com%1,                      Yi%Zhao%zhao.y1977@163.com%1,                      Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                      Tawsifur%Rahman%NULL%2,                      Tawsifur%Rahman%NULL%0,                      Amith%Khandakar%NULL%3,                      Somaya%Al-Madeed%NULL%2,                      Susu M.%Zughaier%NULL%5,                      Suhail A. R.%Doi%NULL%3,                      Hanadi%Hassen%NULL%1,                      Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                      Jia%Sun%NULL%1,                      Yi-Xin%Li%NULL%1,                      Qian%Chen%NULL%0,                      Qing-Quan%Liu%NULL%1,                      Zhou%Sun%NULL%1,                      Ran%Pang%NULL%1,                      Fei%Chen%NULL%1,                      Bing-Yang%Xu%NULL%1,                      Anne%Manyande%NULL%1,                      Taane G%Clark%NULL%1,                      Jin-Ping%Li%NULL%1,                      Ilkay Erdogan%Orhan%NULL%1,                      Yu-Ke%Tian%NULL%1,                      Tao%Wang%wt7636@126.com%0,                      Wei%Wu%wt7636@126.com%1,                      Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,                   Imam%Z%coreGivesNoEmail%1,                   Lippi%G%coreGivesNoEmail%1,                   Oran%DP%coreGivesNoEmail%1,                   Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                      Caiping%Song%NULL%1,                      En%Liu%NULL%1,                      Xi%Liu%NULL%1,                      Hao%Wu%NULL%1,                      Hui%Lin%NULL%1,                      Yuliang%Liu%NULL%1,                      Qi%Li%NULL%1,                      Zhi%Xu%NULL%1,                      XiaoBao%Ren%NULL%1,                      Cheng%Zhang%NULL%1,                      Wenjing%Zhang%NULL%1,                      Wei%Duan%NULL%2,                      Yongfeng%Tian%NULL%1,                      Ping%Li%NULL%1,                      Mingdong%Hu%NULL%1,                      Shiming%Yang%NULL%1,                      Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                      Changli%Li%NULL%1,                      Li%Zheng%NULL%1,                      Wenzhi%Lv%NULL%0,                      Zhigang%He%NULL%1,                      Xinwu%Cui%NULL%1,                      Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                      Hayne Cho%Park%NULL%2,                      Hayne Cho%Park%NULL%0,                      Ajin%Cho%NULL%1,                      Juhee%Kim%NULL%1,                      Kyu-sang%Yun%NULL%1,                      Jinseog%Kim%NULL%1,                      Young-Ki%Lee%NULL%1,                      Sinan%Kardes.%NULL%2,                      Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                      Xiaoyu%Fang%NULL%1,                      Lixia%Cheng%NULL%1,                      Penghao%Wang%NULL%1,                      Shen%Li%NULL%1,                      Hao%Yu%NULL%1,                      Yao%Zhang%NULL%2,                      Nan%Jiang%NULL%1,                      Tingting%Zeng%NULL%1,                      Chao%Hou%NULL%1,                      Jing%Zhou%NULL%1,                      Shiru%Li%NULL%1,                      Yingzi%Pan%NULL%1,                      Yitong%Li%NULL%1,                      Lili%Nie%NULL%1,                      Yang%Li%NULL%0,                      Qidi%Sun%NULL%1,                      Hong%Jia%NULL%1,                      Mengxia%Li%NULL%1,                      Guoqiang%Cao%NULL%1,                      Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                      Lucas A%Ramos%NULL%2,                      Lucas A%Ramos%NULL%0,                      Wouter%Potters%NULL%1,                      Marcus L F%Janssen%NULL%1,                      Deborah%Hubers%NULL%1,                      Shi%Hu%NULL%1,                      Egill A%Fridgeirsson%NULL%1,                      Dan%Piña-Fuentes%NULL%1,                      Rajat%Thomas%NULL%1,                      Iwan C C%van der Horst%NULL%1,                      Christian%Herff%NULL%2,                      Christian%Herff%NULL%0,                      Pieter%Kubben%NULL%1,                      Paul W G%Elbers%NULL%1,                      Henk A%Marquering%NULL%1,                      Max%Welling%NULL%1,                      Suat%Simsek%NULL%1,                      Martijn D%de Kruif%NULL%1,                      Tom%Dormans%NULL%1,                      Lucas M%Fleuren%NULL%1,                      Michiel%Schinkel%NULL%1,                      Peter G%Noordzij%NULL%1,                      Joop P%van den Bergh%NULL%2,                      Joop P%van den Bergh%NULL%0,                      Caroline E%Wyers%NULL%1,                      David T B%Buis%NULL%2,                      David T B%Buis%NULL%0,                      W Joost%Wiersinga%NULL%1,                      Ella H C%van den Hout%NULL%1,                      Auke C%Reidinga%NULL%1,                      Daisy%Rusch%NULL%1,                      Kim C E%Sigaloff%NULL%1,                      Renee A%Douma%NULL%1,                      Lianne%de Haan%NULL%1,                      Niels C%Gritters van den Oever%NULL%1,                      Roger J M W%Rennenberg%NULL%1,                      Guido A%van Wingen%NULL%1,                      Marcel J H%Aries%NULL%1,                      Martijn%Beudel%NULL%2,                      Martijn%Beudel%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                      Fajer A.%Al-Ishaq%NULL%2,                      Fajer A.%Al-Ishaq%NULL%0,                      Fatima S.%Al-Mohannadi%NULL%1,                      Reem S.%Mubarak%NULL%1,                      Maryam H.%Al-Hitmi%NULL%1,                      Khandaker Reajul%Islam%NULL%1,                      Amith%Khandakar%NULL%0,                      Ali Ait%Hssain%NULL%3,                      Ali Ait%Hssain%NULL%0,                      Somaya%Al-Madeed%NULL%0,                      Susu M.%Zughaier%NULL%0,                      Susu M.%Zughaier%NULL%0,                      Muhammad E. H.%Chowdhury%NULL%3,                      Muhammad E. H.%Chowdhury%NULL%0,                      Antonella%Santone%NULL%3,                      Antonella%Santone%NULL%0,                      Antonella%Santone%NULL%0,                      Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                      Amith%Khandakar%NULL%0,                      Md Enamul%Hoque%NULL%2,                      Md Enamul%Hoque%NULL%0,                      Nabil%Ibtehaz%NULL%2,                      Nabil%Ibtehaz%NULL%0,                      Saad Bin%Kashem%NULL%2,                      Saad Bin%Kashem%NULL%0,                      Reehum%Masud%NULL%1,                      Lutfunnahar%Shampa%NULL%1,                      Mohammad Mehedi%Hasan%NULL%1,                      Mohammad Tariqul%Islam%NULL%1,                      Somaya%Al-Maadeed%NULL%2,                      Somaya%Al-Maadeed%NULL%0,                      Susu M.%Zughaier%NULL%0,                      Susu M.%Zughaier%NULL%0,                      Saif%Badran%NULL%2,                      Saif%Badran%NULL%0,                      Suhail A. R.%Doi%NULL%0,                      Suhail A. R.%Doi%NULL%0,                      Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                      Pablo%Rodríguez-Belenguer%NULL%2,                      Pablo%Rodríguez-Belenguer%NULL%0,                      Antonio J.%Serrano-López%NULL%1,                      Emilio%Soria-Olivas%NULL%2,                      Emilio%Soria-Olivas%NULL%0,                      Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                      Haibo%Ai%NULL%1,                      Yunong%Fu%NULL%1,                      Qinglin%Li%NULL%1,                      Ruixia%Cui%NULL%1,                      Xiaohua%Ma%NULL%1,                      Yan-fen%Ma%NULL%1,                      Zi%Wang%NULL%1,                      Tong%Liu%NULL%1,                      Yunxiang%Long%NULL%1,                      Kai%Qu%NULL%1,                      Chang%Liu%NULL%1,                      Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                      Dawei%Zhang%NULL%1,                      Jing%Xu%NULL%6,                      Zhu%Chen%NULL%1,                      Tieniu%Yang%NULL%1,                      Peng%Zhao%NULL%2,                      Guofeng%Chen%NULL%1,                      Gregory%Cheng%NULL%1,                      Yudong%Wang%NULL%1,                      Jingfeng%Bi%NULL%1,                      Lin%Tan%NULL%1,                      George%Lau%NULL%1,                      Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                      Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                      Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                      Giulia%Suigo%NULL%1,                      Davide%Zampini%NULL%1,                      Matteo%Pistoia%NULL%1,                      Mariella%Ciola%NULL%1,                      Tommaso%Ciampani%NULL%1,                      Carolina%Ultori%NULL%1,                      Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                      John R%Adler%NULL%3,                      Sultan M%Kamran%NULL%2,                      Sultan M%Kamran%NULL%0,                      Zill-e-Humayun%Mirza%NULL%1,                      Hussain Abdul%Moeed%NULL%1,                      Arshad%Naseem%NULL%1,                      Maryam%Hussain%NULL%1,                      Imran%Fazal%NULL%1,                      Farrukh%Saeed%NULL%1,                      Wasim%Alamgir%NULL%1,                      Salman%Saleem%NULL%1,                      Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                      María M.%Martín%NULL%1,                      Mónica%Argueso%NULL%1,                      Jordi%Solé-Violán%NULL%1,                      Alina%Perez%NULL%1,                      José Alberto%Marcos Y Ramos%NULL%1,                      Luis%Ramos-Gómez%NULL%1,                      Sergio%López%NULL%1,                      Andrés%Franco%NULL%1,                      Agustín F.%González-Rivero%NULL%1,                      María%Martín%NULL%1,                      Verónica%Gonzalez%NULL%1,                      Julia%Alcoba-Flórez%NULL%1,                      Miguel Ángel%Rodriguez%NULL%1,                      Marta%Riaño-Ruiz%NULL%1,                      Juan%Guillermo O Campo%NULL%1,                      Lourdes%González%NULL%1,                      Tamara%Cantera%NULL%1,                      Raquel%Ortiz-López%NULL%1,                      Nazario%Ojeda%NULL%1,                      Aurelio%Rodríguez-Pérez%NULL%1,                      Casimira%Domínguez%NULL%1,                      Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                      Rita%Kukafka%NULL%1,                      Arriel%Benis%NULL%2,                      Arriel%Benis%NULL%0,                      Jinfeng%Li%NULL%1,                      Pan%Pan%NULL%2,                      Pan%Pan%NULL%0,                      Yichao%Li%NULL%2,                      Yichao%Li%NULL%0,                      Yongjiu%Xiao%NULL%2,                      Yongjiu%Xiao%NULL%0,                      Bingchao%Han%NULL%2,                      Bingchao%Han%NULL%0,                      Longxiang%Su%NULL%2,                      Longxiang%Su%NULL%0,                      Mingliang%Su%NULL%2,                      Mingliang%Su%NULL%0,                      Yansheng%Li%NULL%2,                      Yansheng%Li%NULL%0,                      Siqi%Zhang%NULL%2,                      Siqi%Zhang%NULL%0,                      Dapeng%Jiang%NULL%2,                      Dapeng%Jiang%NULL%0,                      Xia%Chen%NULL%2,                      Xia%Chen%NULL%0,                      Fuquan%Zhou%NULL%2,                      Fuquan%Zhou%NULL%0,                      Ling%Ma%NULL%2,                      Ling%Ma%NULL%0,                      Pengtao%Bao%NULL%2,                      Pengtao%Bao%NULL%0,                      Lixin%Xie%xielx301@126.com%2,                      Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                      Cristina%Roca-Oporto%NULL%2,                      Guillermo%Martín-Gutiérrez%NULL%2,                      María Dolores%Avilés%NULL%2,                      Carmen%Gómez-González%NULL%2,                      María Dolores%Navarro-Amuedo%NULL%2,                      Julia%Praena-Segovia%NULL%2,                      José%Molina%NULL%2,                      María%Paniagua-García%NULL%2,                      Horacio%García-Delgado%NULL%2,                      Antonio%Domínguez-Petit%NULL%2,                      Jerónimo%Pachón%NULL%2,                      José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                      Barry R.%Meisenberg%NULL%2,                      Barry R.%Meisenberg%NULL%0,                      James H.%MacDonald%NULL%1,                      Nandakumar%Menon%NULL%1,                      Marcia B.%Fowler%NULL%1,                      Michaline%West%NULL%1,                      Jane%Rhule%NULL%1,                      Sadaf S.%Qureshi%NULL%1,                      Eileen B.%MacDonald%NULL%1,                      Yu Ru%Kou%NULL%2,                      Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                      Sarah%Poole%NULL%2,                      Sarah%Poole%NULL%0,                      Meeta%Pradhan%NULL%1,                      Akhil%Vaid%NULL%3,                      Akhil%Vaid%NULL%0,                      Sulaiman%Somani%NULL%3,                      Sulaiman%Somani%NULL%0,                      Adam J%Russak%NULL%2,                      Adam J%Russak%NULL%0,                      Jessica K%De Freitas%NULL%2,                      Jessica K%De Freitas%NULL%0,                      Fayzan F%Chaudhry%NULL%2,                      Fayzan F%Chaudhry%NULL%0,                      Ishan%Paranjpe%NULL%3,                      Ishan%Paranjpe%NULL%0,                      Kipp W%Johnson%NULL%2,                      Kipp W%Johnson%NULL%0,                      Samuel J%Lee%NULL%2,                      Samuel J%Lee%NULL%0,                      Riccardo%Miotto%NULL%2,                      Riccardo%Miotto%NULL%0,                      Felix%Richter%NULL%3,                      Felix%Richter%NULL%0,                      Shan%Zhao%NULL%3,                      Shan%Zhao%NULL%0,                      Noam D%Beckmann%NULL%2,                      Noam D%Beckmann%NULL%0,                      Nidhi%Naik%NULL%2,                      Nidhi%Naik%NULL%0,                      Arash%Kia%NULL%2,                      Arash%Kia%NULL%0,                      Prem%Timsina%NULL%2,                      Prem%Timsina%NULL%0,                      Anuradha%Lala%NULL%2,                      Anuradha%Lala%NULL%0,                      Manish%Paranjpe%NULL%2,                      Manish%Paranjpe%NULL%0,                      Eddye%Golden%NULL%2,                      Eddye%Golden%NULL%0,                      Matteo%Danieletto%NULL%2,                      Matteo%Danieletto%NULL%0,                      Manbir%Singh%NULL%2,                      Manbir%Singh%NULL%0,                      Dara%Meyer%NULL%2,                      Dara%Meyer%NULL%0,                      Paul F%O'Reilly%NULL%2,                      Paul F%O'Reilly%NULL%0,                      Laura%Huckins%NULL%2,                      Laura%Huckins%NULL%0,                      Patricia%Kovatch%NULL%2,                      Patricia%Kovatch%NULL%0,                      Joseph%Finkelstein%NULL%2,                      Joseph%Finkelstein%NULL%0,                      Robert M.%Freeman%NULL%2,                      Robert M.%Freeman%NULL%0,                      Edgar%Argulian%NULL%2,                      Edgar%Argulian%NULL%0,                      Andrew%Kasarskis%NULL%2,                      Andrew%Kasarskis%NULL%0,                      Bethany%Percha%NULL%2,                      Bethany%Percha%NULL%0,                      Judith A%Aberg%NULL%2,                      Judith A%Aberg%NULL%0,                      Emilia%Bagiella%NULL%3,                      Emilia%Bagiella%NULL%0,                      Carol R%Horowitz%NULL%2,                      Carol R%Horowitz%NULL%0,                      Barbara%Murphy%NULL%2,                      Barbara%Murphy%NULL%0,                      Eric J%Nestler%NULL%2,                      Eric J%Nestler%NULL%0,                      Eric E%Schadt%NULL%2,                      Eric E%Schadt%NULL%0,                      Judy H%Cho%NULL%2,                      Judy H%Cho%NULL%0,                      Carlos%Cordon-Cardo%NULL%2,                      Carlos%Cordon-Cardo%NULL%0,                      Valentin%Fuster%NULL%3,                      Valentin%Fuster%NULL%0,                      Dennis S%Charney%NULL%2,                      Dennis S%Charney%NULL%0,                      David L%Reich%NULL%2,                      David L%Reich%NULL%0,                      Erwin P%Bottinger%NULL%2,                      Erwin P%Bottinger%NULL%0,                      Matthew A%Levin%NULL%2,                      Matthew A%Levin%NULL%0,                      Jagat%Narula%NULL%3,                      Jagat%Narula%NULL%0,                      Zahi A%Fayad%NULL%2,                      Zahi A%Fayad%NULL%0,                      Allan C%Just%NULL%2,                      Allan C%Just%NULL%0,                      Alexander W%Charney%NULL%2,                      Alexander W%Charney%NULL%0,                      Girish N%Nadkarni%NULL%2,                      Girish N%Nadkarni%NULL%0,                      Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                      Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                      Anne%Chen%NULL%2,                      Wei%Hou%NULL%3,                      James M.%Graham%NULL%1,                      Haifang%Li%NULL%2,                      Paul S.%Richman%NULL%1,                      Henry C.%Thode%NULL%1,                      Adam J.%Singer%NULL%1,                      Tim Q.%Duong%NULL%1,                      Muhammad%Adrish%NULL%9,                      Muhammad%Adrish%NULL%0,                      Muhammad%Adrish%NULL%0,                      Muhammad%Adrish%NULL%0,                      Muhammad%Adrish%NULL%0,                      Muhammad%Adrish%NULL%0,                      Muhammad%Adrish%NULL%0,                      Muhammad%Adrish%NULL%0,                      Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                      Qin%Liu%NULL%2,                      Xiao%Zhang%NULL%2,                      Shuyi%Liu%NULL%1,                      Weiqi%Chen%NULL%1,                      Jingjing%You%NULL%1,                      Qiuying%Chen%NULL%1,                      Minmin%Li%NULL%1,                      Zhuozhi%Chen%NULL%1,                      Luyan%Chen%NULL%1,                      Lv%Chen%NULL%1,                      Yuhao%Dong%NULL%1,                      Qingsi%Zeng%NULL%1,                      Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                      Lei%Nie%NULL%1,                      Dongde%Wu%NULL%1,                      Jian%Chen%NULL%2,                      Zhifeng%Yang%NULL%1,                      Ling%Zhang%NULL%3,                      Dongqing%Li%NULL%1,                      Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                      Burcin%Hakoglu%NULL%2,                      Burcin%Hakoglu%NULL%0,                      Ali%Kadri Cirak%NULL%1,                      Gulru%Polat%NULL%1,                      Berna%Komurcuoglu%NULL%1,                      Berrin%Akkol%NULL%1,                      Cagri%Atasoy%NULL%1,                      Eda%Bayramic%NULL%1,                      Gunseli%Balci%NULL%1,                      Sena%Ataman%NULL%1,                      Sinem%Ermin%NULL%1,                      Enver%Yalniz%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                      Qiaosen%Chen%NULL%2,                      Qiaosen%Chen%NULL%0,                      Sumeng%Li%NULL%1,                      Huadong%Li%NULL%1,                      Qian%Zhang%NULL%1,                      Sihong%Lu%NULL%1,                      Li%Wu%NULL%1,                      Leiqun%Xiong%NULL%1,                      Bobin%Mi%NULL%1,                      Di%Liu%NULL%3,                      Mengji%Lu%NULL%1,                      Dongliang%Yang%NULL%1,                      Hongbo%Jiang%hongbojiang3@163.com%1,                      Shaoping%Zheng%zhengspxx@126.com%1,                      Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                      Hua%Zhang%NULL%2,                      Rui%Qiao%NULL%1,                      Qinggang%Ge%NULL%1,                      Shuisheng%Zhang%NULL%1,                      Zongxuan%Zhao%NULL%1,                      Ci%Tian%NULL%1,                      Qingbian%Ma%NULL%2,                      Qingbian%Ma%NULL%0,                      Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                      Antonia%Ho%NULL%2,                      Riinu%Pius%NULL%2,                      Iain%Buchan%NULL%1,                      Gail%Carson%NULL%2,                      Thomas M%Drake%NULL%1,                      Jake%Dunning%NULL%2,                      Cameron J%Fairfield%NULL%2,                      Carrol%Gamble%NULL%2,                      Christopher A%Green%NULL%2,                      Rishi%Gupta%NULL%1,                      Sophie%Halpin%NULL%2,                      Hayley E%Hardwick%NULL%1,                      Karl A%Holden%NULL%1,                      Peter W%Horby%NULL%2,                      Clare%Jackson%NULL%2,                      Kenneth A%Mclean%NULL%2,                      Laura%Merson%NULL%2,                      Jonathan S%Nguyen-Van-Tam%NULL%1,                      Lisa%Norman%NULL%2,                      Mahdad%Noursadeghi%NULL%2,                      Piero L%Olliaro%NULL%1,                      Mark G%Pritchard%NULL%1,                      Clark D%Russell%NULL%2,                      Catherine A%Shaw%NULL%2,                      Aziz%Sheikh%NULL%2,                      Tom%Solomon%NULL%2,                      Cathie%Sudlow%NULL%1,                      Olivia V%Swann%NULL%1,                      Lance CW%Turtle%NULL%2,                      Peter JM%Openshaw%NULL%2,                      J Kenneth%Baillie%NULL%2,                      Malcolm G%Semple%NULL%3,                      Annemarie B%Docherty%NULL%3,                      Annemarie B%Docherty%NULL%0,                      Ewen M%Harrison%NULL%3,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      J Kenneth%Baillie%NULL%0,                      Malcolm G%Semple%NULL%0,                      Peter JM%Openshaw%NULL%0,                      Gail%Carson%NULL%0,                      Beatrice%Alex%NULL%1,                      Benjamin%Bach%NULL%1,                      Wendy S%Barclay%NULL%1,                      Debby%Bogaert%NULL%1,                      Meera%Chand%NULL%1,                      Graham S%Cooke%NULL%1,                      Annemarie B%Docherty%NULL%0,                      Jake%Dunning%NULL%0,                      Ana%da Silva Filipe%NULL%1,                      Tom%Fletcher%NULL%1,                      Christopher A%Green%NULL%0,                      Ewen M%Harrison%NULL%0,                      Julian A%Hiscox%NULL%1,                      Antonia Ying Wai%Ho%NULL%1,                      Peter W%Horby%NULL%0,                      Samreen%Ijaz%NULL%1,                      Saye%Khoo%NULL%1,                      Paul%Klenerman%NULL%1,                      Andrew%Law%NULL%2,                      Wei Shen%Lim%NULL%1,                      Alexander J%Mentzer%NULL%1,                      Laura%Merson%NULL%0,                      Alison M%Meynert%NULL%1,                      Mahdad%Noursadeghi%NULL%0,                      Shona C%Moore%NULL%2,                      Massimo%Palmarini%NULL%1,                      William A%Paxton%NULL%1,                      Georgios%Pollakis%NULL%1,                      Nicholas%Price%NULL%1,                      Andrew%Rambaut%NULL%1,                      David L%Robertson%NULL%1,                      Clark D%Russell%NULL%0,                      Vanessa%Sancho-Shimizu%NULL%1,                      Janet T%Scott%NULL%1,                      Louise%Sigfrid%NULL%1,                      Tom%Solomon%NULL%0,                      Shiranee%Sriskandan%NULL%1,                      David%Stuart%NULL%1,                      Charlotte%Summers%NULL%1,                      Richard S%Tedder%NULL%1,                      Emma C%Thomson%NULL%1,                      Ryan S%Thwaites%NULL%1,                      Lance CW%Turtle%NULL%0,                      Maria%Zambon%NULL%1,                      Hayley%Hardwick%NULL%1,                      Chloe%Donohue%NULL%1,                      Jane%Ewins%NULL%1,                      Wilna%Oosthuyzen%NULL%1,                      Fiona%Griffiths%NULL%1,                      Lisa%Norman%NULL%0,                      Riinu%Pius%NULL%0,                      Tom M%Drake%NULL%1,                      Cameron J%Fairfield%NULL%0,                      Stephen%Knight%NULL%1,                      Kenneth A%Mclean%NULL%0,                      Derek%Murphy%NULL%1,                      Catherine A%Shaw%NULL%0,                      Jo%Dalton%NULL%1,                      Michelle%Girvan%NULL%1,                      Egle%Saviciute%NULL%1,                      Stephanie%Roberts%NULL%1,                      Janet%Harrison%NULL%1,                      Laura%Marsh%NULL%1,                      Marie%Connor%NULL%1,                      Sophie%Halpin%NULL%0,                      Clare%Jackson%NULL%0,                      Carrol%Gamble%NULL%0,                      Gary%Leeming%NULL%1,                      Andrew%Law%NULL%0,                      Ross%Hendry%NULL%1,                      James%Scott-Brown%NULL%1,                      William%Greenhalf%NULL%1,                      Victoria%Shaw%NULL%1,                      Sarah%McDonald%NULL%2,                      Katie A%Ahmed%NULL%1,                      Jane A%Armstrong%NULL%1,                      Milton%Ashworth%NULL%1,                      Innocent G%Asiimwe%NULL%1,                      Siddharth%Bakshi%NULL%1,                      Samantha L%Barlow%NULL%1,                      Laura%Booth%NULL%1,                      Benjamin%Brennan%NULL%1,                      Katie%Bullock%NULL%1,                      Benjamin WA%Catterall%NULL%1,                      Jordan J%Clark%NULL%1,                      Emily A%Clarke%NULL%1,                      Sarah%Cole%NULL%1,                      Louise%Cooper%NULL%1,                      Helen%Cox%NULL%1,                      Christopher%Davis%NULL%1,                      Oslem%Dincarslan%NULL%1,                      Chris%Dunn%NULL%1,                      Philip%Dyer%NULL%1,                      Angela%Elliott%NULL%1,                      Anthony%Evans%NULL%1,                      Lewis WS%Fisher%NULL%1,                      Terry%Foster%NULL%1,                      Isabel%Garcia-Dorival%NULL%1,                      Willliam%Greenhalf%NULL%1,                      Philip%Gunning%NULL%1,                      Catherine%Hartley%NULL%1,                      Antonia%Ho%NULL%0,                      Rebecca L%Jensen%NULL%1,                      Christopher B%Jones%NULL%1,                      Trevor R%Jones%NULL%1,                      Shadia%Khandaker%NULL%1,                      Katharine%King%NULL%1,                      Robyn T%Kiy%NULL%1,                      Chrysa%Koukorava%NULL%1,                      Annette%Lake%NULL%1,                      Suzannah%Lant%NULL%1,                      Diane%Latawiec%NULL%1,                      L%Lavelle-Langham%NULL%1,                      Daniella%Lefteri%NULL%1,                      Lauren%Lett%NULL%1,                      Lucia A%Livoti%NULL%1,                      Maria%Mancini%NULL%1,                      Sarah%McDonald%NULL%0,                      Laurence%McEvoy%NULL%1,                      John%McLauchlan%NULL%1,                      Soeren%Metelmann%NULL%1,                      Nahida S%Miah%NULL%1,                      Joanna%Middleton%NULL%1,                      Joyce%Mitchell%NULL%1,                      Shona C%Moore%NULL%0,                      Ellen G%Murphy%NULL%1,                      Rebekah%Penrice-Randal%NULL%1,                      Jack%Pilgrim%NULL%1,                      Tessa%Prince%NULL%1,                      Will%Reynolds%NULL%1,                      P Matthew%Ridley%NULL%1,                      Debby%Sales%NULL%1,                      Victoria E%Shaw%NULL%1,                      Rebecca K%Shears%NULL%1,                      Benjamin%Small%NULL%1,                      Krishanthi S%Subramaniam%NULL%1,                      Agnieska%Szemiel%NULL%1,                      Aislynn%Taggart%NULL%1,                      Jolanta%Tanianis-Hughes%NULL%1,                      Jordan%Thomas%NULL%1,                      Erwan%Trochu%NULL%1,                      Libby%van Tonder%NULL%1,                      Eve%Wilcock%NULL%1,                      J Eunice%Zhang%NULL%1,                      Kayode%Adeniji%NULL%1,                      Daniel%Agranoff%NULL%1,                      Ken%Agwuh%NULL%1,                      Dhiraj%Ail%NULL%1,                      Ana%Alegria%NULL%1,                      Brian%Angus%NULL%1,                      Abdul%Ashish%NULL%1,                      Dougal%Atkinson%NULL%1,                      Shahedal%Bari%NULL%1,                      Gavin%Barlow%NULL%1,                      Stella%Barnass%NULL%1,                      Nicholas%Barrett%NULL%2,                      Christopher%Bassford%NULL%1,                      David%Baxter%NULL%1,                      Michael%Beadsworth%NULL%1,                      Jolanta%Bernatoniene%NULL%1,                      John%Berridge%NULL%1,                      Nicola%Best%NULL%1,                      Pieter%Bothma%NULL%1,                      David%Brealey%NULL%1,                      Robin%Brittain-Long%NULL%1,                      Naomi%Bulteel%NULL%1,                      Tom%Burden%NULL%1,                      Andrew%Burtenshaw%NULL%1,                      Vikki%Caruth%NULL%1,                      David%Chadwick%NULL%1,                      Duncan%Chambler%NULL%1,                      Nigel%Chee%NULL%1,                      Jenny%Child%NULL%1,                      Srikanth%Chukkambotla%NULL%1,                      Tom%Clark%NULL%1,                      Paul%Collini%NULL%1,                      Catherine%Cosgrove%NULL%1,                      Jason%Cupitt%NULL%1,                      Maria-Teresa%Cutino-Moguel%NULL%1,                      Paul%Dark%NULL%1,                      Chris%Dawson%NULL%1,                      Samir%Dervisevic%NULL%1,                      Phil%Donnison%NULL%1,                      Sam%Douthwaite%NULL%1,                      Ingrid%DuRand%NULL%1,                      Ahilanadan%Dushianthan%NULL%1,                      Tristan%Dyer%NULL%1,                      Cariad%Evans%NULL%1,                      Chi%Eziefula%NULL%1,                      Chrisopher%Fegan%NULL%1,                      Adam%Finn%NULL%1,                      Duncan%Fullerton%NULL%1,                      Sanjeev%Garg%NULL%2,                      Sanjeev%Garg%NULL%0,                      Atul%Garg%NULL%1,                      Jo%Godden%NULL%1,                      Arthur%Goldsmith%NULL%1,                      Clive%Graham%NULL%1,                      Elaine%Hardy%NULL%1,                      Stuart%Hartshorn%NULL%1,                      Daniel%Harvey%NULL%1,                      Peter%Havalda%NULL%1,                      Daniel B%Hawcutt%NULL%1,                      Maria%Hobrok%NULL%1,                      Luke%Hodgson%NULL%1,                      Anita%Holme%NULL%1,                      Anil%Hormis%NULL%1,                      Michael%Jacobs%NULL%1,                      Susan%Jain%NULL%1,                      Paul%Jennings%NULL%1,                      Agilan%Kaliappan%NULL%1,                      Vidya%Kasipandian%NULL%1,                      Stephen%Kegg%NULL%1,                      Michael%Kelsey%NULL%1,                      Jason%Kendall%NULL%1,                      Caroline%Kerrison%NULL%1,                      Ian%Kerslake%NULL%1,                      Oliver%Koch%NULL%2,                      Gouri%Koduri%NULL%1,                      George%Koshy%NULL%1,                      Shondipon%Laha%NULL%1,                      Susan%Larkin%NULL%1,                      Tamas%Leiner%NULL%1,                      Patrick%Lillie%NULL%1,                      James%Limb%NULL%1,                      Vanessa%Linnett%NULL%1,                      Jeff%Little%NULL%1,                      Michael%MacMahon%NULL%1,                      Emily%MacNaughton%NULL%1,                      Ravish%Mankregod%NULL%1,                      Huw%Masson%NULL%1,                      Elijah%Matovu%NULL%1,                      Katherine%McCullough%NULL%1,                      Ruth%McEwen%NULL%1,                      Manjula%Meda%NULL%1,                      Gary%Mills%NULL%1,                      Jane%Minton%NULL%1,                      Mariyam%Mirfenderesky%NULL%1,                      Kavya%Mohandas%NULL%1,                      Quen%Mok%NULL%1,                      James%Moon%NULL%1,                      Elinoor%Moore%NULL%1,                      Patrick%Morgan%NULL%1,                      Craig%Morris%NULL%1,                      Katherine%Mortimore%NULL%1,                      Samuel%Moses%NULL%1,                      Mbiye%Mpenge%NULL%1,                      Rohinton%Mulla%NULL%1,                      Michael%Murphy%NULL%1,                      Megan%Nagel%NULL%1,                      Thapas%Nagarajan%NULL%1,                      Mark%Nelson%NULL%1,                      Igor%Otahal%NULL%1,                      Mark%Pais%NULL%1,                      Selva%Panchatsharam%NULL%1,                      Hassan%Paraiso%NULL%1,                      Brij%Patel%NULL%1,                      Justin%Pepperell%NULL%1,                      Mark%Peters%NULL%1,                      Mandeep%Phull%NULL%1,                      Stefania%Pintus%NULL%1,                      Jagtur Singh%Pooni%NULL%1,                      Frank%Post%NULL%1,                      David%Price%NULL%1,                      Rachel%Prout%NULL%1,                      Nikolas%Rae%NULL%1,                      Henrik%Reschreiter%NULL%1,                      Tim%Reynolds%NULL%1,                      Neil%Richardson%NULL%1,                      Mark%Roberts%NULL%1,                      Devender%Roberts%NULL%1,                      Alistair%Rose%NULL%1,                      Guy%Rousseau%NULL%1,                      Brendan%Ryan%NULL%1,                      Taranprit%Saluja%NULL%1,                      Aarti%Shah%NULL%1,                      Prad%Shanmuga%NULL%1,                      Anil%Sharma%NULL%1,                      Anna%Shawcross%NULL%1,                      Jeremy%Sizer%NULL%1,                      Richard%Smith%NULL%1,                      Catherine%Snelson%NULL%1,                      Nick%Spittle%NULL%1,                      Nikki%Staines%NULL%1,                      Tom%Stambach%NULL%1,                      Richard%Stewart%NULL%1,                      Pradeep%Subudhi%NULL%1,                      Tamas%Szakmany%NULL%1,                      Kate%Tatham%NULL%1,                      Jo%Thomas%NULL%1,                      Chris%Thompson%NULL%1,                      Robert%Thompson%NULL%1,                      Ascanio%Tridente%NULL%1,                      Darell%Tupper-Carey%NULL%1,                      Mary%Twagira%NULL%1,                      Andrew%Ustianowski%NULL%1,                      Nick%Vallotton%NULL%1,                      Lisa%Vincent-Smith%NULL%1,                      Shico%Visuvanathan%NULL%1,                      Alan%Vuylsteke%NULL%1,                      Sam%Waddy%NULL%1,                      Rachel%Wake%NULL%1,                      Andrew%Walden%NULL%1,                      Ingeborg%Welters%NULL%1,                      Tony%Whitehouse%NULL%1,                      Paul%Whittaker%NULL%1,                      Ashley%Whittington%NULL%1,                      Meme%Wijesinghe%NULL%1,                      Martin%Williams%NULL%1,                      Lawrence%Wilson%NULL%1,                      Sarah%Wilson%NULL%1,                      Stephen%Winchester%NULL%1,                      Martin%Wiselka%NULL%1,                      Adam%Wolverson%NULL%1,                      Daniel G%Wooton%NULL%1,                      Andrew%Workman%NULL%1,                      Bryan%Yates%NULL%1,                      Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                      Braulio A.%Marfil‐Garza%NULL%1,                      Erick%Martínez Rodríguez%NULL%1,                      José Omar%Barreto Rodríguez%NULL%1,                      Alicia Estela%López Romo%NULL%1,                      Paolo%Alberti Minutti%NULL%1,                      Juan Vicente%Alejandre Loya%NULL%1,                      Félix Emmanuel%Pérez Talavera%NULL%1,                      Freddy José%Ávila Cervera%NULL%1,                      Adriana%Velazquez Burciaga%NULL%1,                      Oscar%Morado Aramburo%NULL%1,                      Luis Alberto%Piña Olguín%NULL%1,                      Adrian%Soto‐Rodríguez%NULL%1,                      Andrés%Castañeda Prado%NULL%1,                      Patricio%Santillán Doherty%NULL%1,                      Juan%O Galindo%NULL%1,                      Luis Alberto%Guízar García%NULL%1,                      Daniel%Hernández Gordillo%NULL%1,                      Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                      Aatish%Patel%NULL%1,                      Esmita%Charani%NULL%1,                      Sarah%Denny%NULL%1,                      Saleh A.%Alqahtani%NULL%1,                      Gary W.%Davies%NULL%1,                      Nabeela%Mughal%NULL%1,                      Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                      Hyunsun%Lim%NULL%1,                      Dong-Wook%Kim%NULL%1,                      Jung Hyun%Chang%NULL%1,                      Yoon Jung%Choi%chris316@yuhs.ac%1,                      Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                      Wenhua%Liang%NULL%3,                      Mei%Jiang%NULL%2,                      Weijie%Guan%NULL%3,                      Chen%Zhan%NULL%2,                      Tao%Wang%NULL%0,                      Chunli%Tang%NULL%3,                      Ling%Sang%NULL%3,                      Jiaxing%Liu%NULL%2,                      Zhengyi%Ni%NULL%2,                      Yu%Hu%NULL%0,                      Lei%Liu%NULL%8,                      Hong%Shan%NULL%5,                      Chunliang%Lei%NULL%2,                      Yixiang%Peng%NULL%2,                      Li%Wei%NULL%5,                      Yong%Liu%NULL%5,                      Yahua%Hu%NULL%2,                      Peng%Peng%NULL%7,                      Jianming%Wang%NULL%2,                      Jiyang%Liu%NULL%2,                      Zhong%Chen%NULL%5,                      Gang%Li%NULL%5,                      Zhijian%Zheng%NULL%2,                      Shaoqin%Qiu%NULL%2,                      Jie%Luo%NULL%5,                      Changjiang%Ye%NULL%2,                      Shaoyong%Zhu%NULL%2,                      Xiaoqing%Liu%NULL%2,                      Linling%Cheng%NULL%2,                      Feng%Ye%NULL%2,                      Jinping%Zheng%NULL%2,                      Nuofu%Zhang%NULL%2,                      Yimin%Li%NULL%2,                      Jianxing%He%NULL%2,                      Shiyue%Li%lishiyue@188.com%3,                      Nanshan%Zhong%NULL%4,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                      Liu%Hu%NULL%1,                      Yiru%Wang%NULL%0,                      Luyan%Huang%NULL%1,                      Lingxi%Zhao%NULL%1,                      Congcong%Zhang%NULL%1,                      Xiyue%Liu%NULL%1,                      Ranran%Xu%NULL%1,                      Feng%Liu%NULL%0,                      Jinping%Li%NULL%1,                      Dawei%Ye%NULL%0,                      Tao%Wang%NULL%0,                      Yongman%Lv%lvyongman@126.com%0,                      Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                      Carol A C%Coupland%NULL%1,                      Ruth H%Keogh%NULL%1,                      Karla%Diaz-Ordaz%NULL%1,                      Elizabeth%Williamson%NULL%1,                      Ewen M%Harrison%NULL%0,                      Andrew%Hayward%NULL%1,                      Harry%Hemingway%NULL%1,                      Peter%Horby%NULL%1,                      Nisha%Mehta%NULL%1,                      Jonathan%Benger%NULL%1,                      Kamlesh%Khunti%NULL%0,                      David%Spiegelhalter%NULL%1,                      Aziz%Sheikh%NULL%0,                      Jonathan%Valabhji%NULL%0,                      Ronan A%Lyons%NULL%1,                      John%Robson%NULL%1,                      Malcolm G%Semple%NULL%0,                      Frank%Kee%NULL%1,                      Peter%Johnson%NULL%1,                      Susan%Jebb%NULL%1,                      Tony%Williams%NULL%1,                      Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                      Guang-Yao%Cai%NULL%1,                      Wei%Fang%NULL%2,                      Hua-Yi%Li%NULL%1,                      Si-Yuan%Wang%NULL%2,                      Si-Yuan%Wang%NULL%0,                      Lingxi%Chen%NULL%1,                      Yang%Yu%NULL%1,                      Dan%Liu%NULL%0,                      Sen%Xu%NULL%2,                      Peng-Fei%Cui%NULL%1,                      Shao-Qing%Zeng%NULL%2,                      Shao-Qing%Zeng%NULL%0,                      Xin-Xia%Feng%NULL%1,                      Rui-Di%Yu%NULL%1,                      Ya%Wang%NULL%2,                      Yuan%Yuan%NULL%1,                      Xiao-Fei%Jiao%NULL%1,                      Jian-Hua%Chi%NULL%1,                      Jia-Hao%Liu%NULL%1,                      Ru-Yuan%Li%NULL%1,                      Xu%Zheng%NULL%1,                      Chun-Yan%Song%NULL%1,                      Ning%Jin%NULL%1,                      Wen-Jian%Gong%NULL%1,                      Xing-Yu%Liu%NULL%1,                      Lei%Huang%NULL%2,                      Xun%Tian%NULL%1,                      Lin%Li%NULL%1,                      Hui%Xing%NULL%1,                      Ding%Ma%NULL%1,                      Chun-Rui%Li%NULL%1,                      Fei%Ye%yeyuanbei@hotmail.com%1,                      Qing-Lei%Gao%qingleigao@hotmail.com%2,                      Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                      Ang%Li%NULL%1,                      Mengfan%Jiao%NULL%1,                      Qingmiao%Shi%NULL%1,                      Xiaocai%An%NULL%1,                      Yonghai%Feng%NULL%1,                      Lihua%Xing%NULL%1,                      Hongxia%Liang%NULL%1,                      Jiajun%Chen%NULL%1,                      Huiling%Li%NULL%1,                      Juan%Li%NULL%0,                      Zhigang%Ren%NULL%1,                      Ranran%Sun%NULL%1,                      Guangying%Cui%NULL%1,                      Yongjian%Zhou%NULL%1,                      Ming%Cheng%NULL%1,                      Pengfei%Jiao%NULL%1,                      Yu%Wang%NULL%2,                      Jiyuan%Xing%NULL%1,                      Shen%Shen%NULL%1,                      Qingxian%Zhang%NULL%1,                      Aiguo%Xu%NULL%1,                      Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                      Michael%Ng%NULL%1,                      Shuang%Xu%NULL%1,                      Zhouming%Xu%NULL%1,                      Hui%Qiu%NULL%1,                      Yuwei%Liu%NULL%1,                      Jiayou%Lyu%NULL%1,                      Jiwen%You%NULL%1,                      Peng%Zhao%NULL%0,                      Shihao%Wang%NULL%1,                      Yunfei%Tang%NULL%1,                      Hao%Cui%NULL%1,                      Changxiao%Yu%NULL%1,                      Feng%Wang%NULL%5,                      Fei%Shao%NULL%1,                      Peng%Sun%NULL%1,                      Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                      Huifang%Wang%NULL%1,                      Junwei%Huang%NULL%1,                      Yan%Geng%NULL%1,                      Shuqi%Jiang%NULL%1,                      Qiuping%Zhou%NULL%1,                      Xuan%Chen%NULL%1,                      Hongping%Hu%NULL%1,                      Weifeng%Li%NULL%1,                      Chengbin%Zhou%NULL%1,                      Xinglin%Gao%NULL%1,                      Na%Peng%pnatz@163.com%1,                      Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                      Dandan%Cheng%NULL%1,                      Yiwei%Cao%NULL%1,                      Chuan%Hu%NULL%1,                      Fenglin%Zou%NULL%1,                      Wencheng%Yu%NULL%1,                      Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                      Min Kyu%Kang%NULL%2,                      Min Kyu%Kang%NULL%0,                      Yu Rim%Lee%NULL%2,                      Yu Rim%Lee%NULL%0,                      Jeong Eun%Song%NULL%2,                      Jeong Eun%Song%NULL%0,                      Na Young%Kim%NULL%1,                      Young Oh%Kweon%NULL%1,                      Won Young%Tak%NULL%1,                      Se Young%Jang%NULL%1,                      Changhyeong%Lee%NULL%2,                      Changhyeong%Lee%NULL%0,                      Byung Seok%Kim%NULL%1,                      Jae Seok%Hwang%NULL%1,                      Byoung Kuk%Jang%NULL%1,                      Jinmok%Bae%NULL%1,                      Ji Yeon%Lee%NULL%0,                      Jeong Ill%Suh%NULL%1,                      Soo Young%Park%NULL%1,                      Woo Jin%Chung%NULL%2,                      Woo Jin%Chung%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                      Cristina%Roca-Oporto%NULL%0,                      Guillermo%Martín-Gutiérrez%NULL%0,                      María Dolores%Avilés%NULL%0,                      Carmen%Gómez-González%NULL%0,                      María Dolores%Navarro-Amuedo%NULL%0,                      Julia%Praena-Segovia%NULL%0,                      José%Molina%NULL%0,                      María%Paniagua-García%NULL%0,                      Horacio%García-Delgado%NULL%0,                      Antonio%Domínguez-Petit%NULL%0,                      Jerónimo%Pachón%NULL%0,                      José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                   Calvo%Boyero Fernando%coreGivesNoEmail%1,                   Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                   COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                   Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                   Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                   L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                   Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                   Santos%Lozano Alejandro%coreGivesNoEmail%1,                   Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                       Min%He%NULL%1,                       Wanhong%Yin%NULL%1,                       Xuelian%Liao%NULL%1,                       Bo%Wang%NULL%6,                       Xiaodong%Jin%NULL%1,                       Yao%Ma%NULL%2,                       Jirong%Yue%NULL%1,                       Lang%Bai%NULL%1,                       Dan%Liu%NULL%3,                       Ting%Zhu%NULL%1,                       Zhixin%Huang%NULL%1,                       Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                       Shuchang%Zhou%NULL%1,                       Yujin%Wang%NULL%1,                       Wenzhi%Lv%NULL%2,                       Shili%Wang%NULL%1,                       Ting%Wang%751884926@qq.com%1,                       Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                       Yan-chak%Li%NULL%1,                       Sonali%Bose%NULL%1,                       Ravi%Iyengar%NULL%1,                       Supinda%Bunyavanich%NULL%1,                       Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,              Hai-Tao%Zhang%null%1,              Jorge%Goncalves%null%1,              Yang%Xiao%null%1,              Maolin%Wang%null%1,              Yuqi%Guo%null%1,              Chuan%Sun%null%1,              Xiuchuan%Tang%null%1,              Liang%Jing%null%1,              Mingyang%Zhang%null%1,              Xiang%Huang%null%1,              Ying%Xiao%null%1,              Haosen%Cao%null%1,              Yanyan%Chen%null%1,              Tongxin%Ren%null%1,              Fang%Wang%null%1,              Yaru%Xiao%null%1,              Sufang%Huang%null%1,              Xi%Tan%null%1,              Niannian%Huang%null%1,              Bo%Jiao%null%1,              Cheng%Cheng%null%1,              Yong%Zhang%null%1,              Ailin%Luo%null%1,              Laurent%Mombaerts%null%1,              Junyang%Jin%null%1,              Zhiguo%Cao%null%1,              Shusheng%Li%null%1,              Hui%Xu%null%1,              Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                       Mengfei%Guo%NULL%1,                       Limin%Duan%NULL%1,                       Feng%Wu%NULL%1,                       Guorong%Hu%NULL%1,                       Zhihui%Wang%NULL%1,                       Qi%Huang%NULL%1,                       Tingting%Liao%NULL%1,                       Juanjuan%Xu%NULL%1,                       Yanling%Ma%NULL%1,                       Zhilei%Lv%NULL%1,                       Wenjing%Xiao%NULL%1,                       Zilin%Zhao%NULL%1,                       Xueyun%Tan%NULL%1,                       Daquan%Meng%NULL%1,                       Shujing%Zhang%NULL%1,                       E%Zhou%NULL%1,                       Zhengrong%Yin%NULL%1,                       Wei%Geng%NULL%1,                       Xuan%Wang%NULL%1,                       Jianchu%Zhang%NULL%1,                       Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                       Yu%Zhang%whxhzy@163.com%1,                       Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                       Francesco%Arru%NULL%2,                       Francesco%Arru%NULL%0,                       Andrea%De Vito%NULL%3,                       Alessandro%Sassu%NULL%2,                       Alessandro%Sassu%NULL%0,                       Giovanni%Valdes%NULL%1,                       Valentina%Scano%NULL%1,                       Elisabetta%Zinellu%NULL%1,                       Roberto%Perra%NULL%1,                       Giordano%Madeddu%NULL%3,                       Ciriaco%Carru%NULL%1,                       Pietro%Pirina%NULL%3,                       Arduino A.%Mangoni%NULL%2,                       Arduino A.%Mangoni%NULL%0,                       Sergio%Babudieri%NULL%4,                       Sergio%Babudieri%NULL%0,                       Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                       Pablo%Ryan%NULL%1,                       Jorge%Valencia%NULL%2,                       Jorge%Valencia%NULL%0,                       Mario%Pérez-Butragueño%NULL%2,                       Mario%Pérez-Butragueño%NULL%0,                       Eva%Jiménez%NULL%2,                       Eva%Jiménez%NULL%0,                       Mario%Fontán-Vela%NULL%1,                       Elsa%Izquierdo-García%NULL%2,                       Elsa%Izquierdo-García%NULL%0,                       Inés%Fernandez-Jimenez%NULL%1,                       Elena%Álvaro-Alonso%NULL%1,                       Andrea%Lazaro%NULL%2,                       Andrea%Lazaro%NULL%0,                       Marta%Alvarado%NULL%1,                       Helena%Notario%NULL%1,                       Salvador%Resino%NULL%1,                       Daniel%Velez-Serrano%NULL%1,                       Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                       Yiru%Wang%NULL%2,                       Xuecheng%Zhao%NULL%1,                       Lixuan%Wang%NULL%1,                       Feng%Liu%NULL%3,                       Tao%Wang%NULL%15,                       Dawei%Ye%NULL%2,                       Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                       Valentina%Zuccaro%NULL%1,                       Luca%Novelli%NULL%1,                       Lorenzo%Zileri%NULL%2,                       Lorenzo%Zileri%NULL%0,                       Ciro%Celsa%NULL%1,                       Federico%Raimondi%NULL%2,                       Federico%Raimondi%NULL%0,                       Mauro%Gori%NULL%1,                       Giulia%Cammà%NULL%1,                       Salvatore%Battaglia%NULL%1,                       Vincenzo Giuseppe%Genova%NULL%1,                       Laura%Paris%NULL%1,                       Matteo%Tacelli%NULL%1,                       Francesco Antonio%Mancarella%NULL%1,                       Marco%Enea%NULL%1,                       Massimo%Attanasio%NULL%1,                       Michele%Senni%NULL%1,                       Fabiano%Di Marco%NULL%1,                       Luca Ferdinando%Lorini%NULL%1,                       Stefano%Fagiuoli%NULL%1,                       Raffaele%Bruno%NULL%2,                       Calogero%Cammà%NULL%1,                       Antonio%Gasbarrini%NULL%3,                       Francesco%Di Gennaro%NULL%2,                       Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                       Gan-xun%Li%NULL%1,                       Lin%Chen%NULL%3,                       Chang%Shu%NULL%2,                       Jia%Song%NULL%1,                       Wei%Wang%NULL%2,                       Yu-wei%Wang%NULL%1,                       Qian%Chen%NULL%2,                       Guan-nan%Jin%NULL%1,                       Tong-tong%Liu%NULL%1,                       Jun-nan%Liang%NULL%1,                       Peng%Zhu%NULL%1,                       Wei%Zhu%NULL%5,                       Yong%Li%NULL%2,                       Bin-hao%Zhang%NULL%1,                       Huan%Feng%NULL%1,                       Wan-guang%Zhang%NULL%1,                       Zhen-yu%Yin%NULL%1,                       Wen-kui%Yu%NULL%1,                       Yang%Yang%NULL%2,                       Hua-qiu%Zhang%NULL%1,                       Zhou-ping%Tang%NULL%1,                       Hui%Wang%NULL%4,                       Jun-bo%Hu%NULL%1,                       Ji-hong%Liu%NULL%1,                       Ping%Yin%NULL%1,                       Xiao-ping%Chen%NULL%1,                       Bixiang%Zhang%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                       Günay%Can%NULL%2,                       Günay%Can%NULL%0,                       Rıdvan%Karaali%NULL%1,                       Şermin%Börekçi%NULL%1,                       İlker İnanç%Balkan%NULL%1,                       Bilun%Gemicioğlu%NULL%1,                       Dildar%Konukoğlu%NULL%1,                       Ethem%Erginöz%NULL%1,                       Mehmet Sarper%Erdoğan%NULL%1,                       Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                       Danila%Azzolina%NULL%1,                       Eyal%Hayden%NULL%2,                       Eyal%Hayden%NULL%0,                       Gianluca%Gaidano%NULL%2,                       Gianluca%Gaidano%NULL%0,                       Mario%Pirisi%NULL%2,                       Mario%Pirisi%NULL%0,                       Antonio%Acquaviva%NULL%2,                       Antonio%Acquaviva%NULL%0,                       Gianluca%Aimaretti%NULL%2,                       Gianluca%Aimaretti%NULL%0,                       Paolo%Aluffi Valletti%NULL%3,                       Paolo%Aluffi Valletti%NULL%0,                       Roberto%Angilletta%NULL%2,                       Roberto%Angilletta%NULL%0,                       Roberto%Arioli%NULL%2,                       Roberto%Arioli%NULL%0,                       Gian Carlo%Avanzi%NULL%2,                       Gian Carlo%Avanzi%NULL%0,                       Gianluca%Avino%NULL%2,                       Gianluca%Avino%NULL%0,                       Piero Emilio%Balbo%NULL%2,                       Piero Emilio%Balbo%NULL%0,                       Giulia%Baldon%NULL%2,                       Giulia%Baldon%NULL%0,                       Francesca%Baorda%NULL%2,                       Francesca%Baorda%NULL%0,                       Emanuela%Barbero%NULL%2,                       Emanuela%Barbero%NULL%0,                       Alessio%Baricich%NULL%2,                       Alessio%Baricich%NULL%0,                       Michela%Barini%NULL%2,                       Michela%Barini%NULL%0,                       Francesco%Barone-Adesi%NULL%2,                       Francesco%Barone-Adesi%NULL%0,                       Sofia%Battistini%NULL%2,                       Sofia%Battistini%NULL%0,                       Michela%Beltrame%NULL%2,                       Michela%Beltrame%NULL%0,                       Matteo%Bertoli%NULL%2,                       Matteo%Bertoli%NULL%0,                       Stephanie%Bertolin%NULL%2,                       Stephanie%Bertolin%NULL%0,                       Marinella%Bertolotti%NULL%2,                       Marinella%Bertolotti%NULL%0,                       Marta%Betti%NULL%2,                       Marta%Betti%NULL%0,                       Flavio%Bobbio%NULL%2,                       Flavio%Bobbio%NULL%0,                       Paolo%Boffano%NULL%2,                       Paolo%Boffano%NULL%0,                       Lucio%Boglione%NULL%2,                       Lucio%Boglione%NULL%0,                       Silvio%Borrè%NULL%2,                       Silvio%Borrè%NULL%0,                       Matteo%Brucoli%NULL%2,                       Matteo%Brucoli%NULL%0,                       Elisa%Calzaducca%NULL%2,                       Elisa%Calzaducca%NULL%0,                       Edoardo%Cammarata%NULL%2,                       Edoardo%Cammarata%NULL%0,                       Vincenzo%Cantaluppi%NULL%2,                       Vincenzo%Cantaluppi%NULL%0,                       Roberto%Cantello%NULL%2,                       Roberto%Cantello%NULL%0,                       Andrea%Capponi%NULL%2,                       Andrea%Capponi%NULL%0,                       Alessandro%Carriero%NULL%2,                       Alessandro%Carriero%NULL%0,                       Giuseppe Francesco%Casciaro%NULL%2,                       Giuseppe Francesco%Casciaro%NULL%0,                       Luigi Mario%Castello%NULL%2,                       Luigi Mario%Castello%NULL%0,                       Federico%Ceruti%NULL%2,                       Federico%Ceruti%NULL%0,                       Guido%Chichino%NULL%2,                       Guido%Chichino%NULL%0,                       Emilio%Chirico%NULL%2,                       Emilio%Chirico%NULL%0,                       Carlo%Cisari%NULL%1,                       Micol Giulia%Cittone%NULL%2,                       Micol Giulia%Cittone%NULL%0,                       Crizia%Colombo%NULL%2,                       Crizia%Colombo%NULL%0,                       Cristoforo%Comi%NULL%2,                       Cristoforo%Comi%NULL%0,                       Eleonora%Croce%NULL%2,                       Eleonora%Croce%NULL%0,                       Tommaso%Daffara%NULL%2,                       Tommaso%Daffara%NULL%0,                       Pietro%Danna%NULL%2,                       Pietro%Danna%NULL%0,                       Francesco%Della Corte%NULL%2,                       Francesco%Della Corte%NULL%0,                       Simona%De Vecchi%NULL%2,                       Simona%De Vecchi%NULL%0,                       Umberto%Dianzani%NULL%2,                       Umberto%Dianzani%NULL%0,                       Davide%Di Benedetto%NULL%2,                       Davide%Di Benedetto%NULL%0,                       Elia%Esposto%NULL%2,                       Elia%Esposto%NULL%0,                       Fabrizio%Faggiano%NULL%2,                       Fabrizio%Faggiano%NULL%0,                       Zeno%Falaschi%NULL%2,                       Zeno%Falaschi%NULL%0,                       Daniela%Ferrante%NULL%2,                       Daniela%Ferrante%NULL%0,                       Alice%Ferrero%NULL%2,                       Alice%Ferrero%NULL%0,                       Ileana%Gagliardi%NULL%2,                       Ileana%Gagliardi%NULL%0,                       Alessandra%Galbiati%NULL%2,                       Alessandra%Galbiati%NULL%0,                       Silvia%Gallo%NULL%2,                       Silvia%Gallo%NULL%0,                       Pietro Luigi%Garavelli%NULL%2,                       Pietro Luigi%Garavelli%NULL%0,                       Clara Ada%Gardino%NULL%2,                       Clara Ada%Gardino%NULL%0,                       Massimiliano%Garzaro%NULL%3,                       Massimiliano%Garzaro%NULL%0,                       Maria Luisa%Gastaldello%NULL%2,                       Maria Luisa%Gastaldello%NULL%0,                       Francesco%Gavelli%NULL%2,                       Francesco%Gavelli%NULL%0,                       Alessandra%Gennari%NULL%2,                       Alessandra%Gennari%NULL%0,                       Greta Maria%Giacomini%NULL%2,                       Greta Maria%Giacomini%NULL%0,                       Irene%Giacone%NULL%2,                       Irene%Giacone%NULL%0,                       Valentina%Giai Via%NULL%2,                       Valentina%Giai Via%NULL%0,                       Francesca%Giolitti%NULL%2,                       Francesca%Giolitti%NULL%0,                       Laura Cristina%Gironi%NULL%2,                       Laura Cristina%Gironi%NULL%0,                       Carla%Gramaglia%NULL%2,                       Carla%Gramaglia%NULL%0,                       Leonardo%Grisafi%NULL%2,                       Leonardo%Grisafi%NULL%0,                       Ilaria%Inserra%NULL%2,                       Ilaria%Inserra%NULL%0,                       Marco%Invernizzi%NULL%2,                       Marco%Invernizzi%NULL%0,                       Marco%Krengli%NULL%2,                       Marco%Krengli%NULL%0,                       Emanuela%Labella%NULL%2,                       Emanuela%Labella%NULL%0,                       Irene Cecilia%Landi%NULL%2,                       Irene Cecilia%Landi%NULL%0,                       Raffaella%Landi%NULL%2,                       Raffaella%Landi%NULL%0,                       Ilaria%Leone%NULL%2,                       Ilaria%Leone%NULL%0,                       Veronica%Lio%NULL%2,                       Veronica%Lio%NULL%0,                       Luca%Lorenzini%NULL%2,                       Luca%Lorenzini%NULL%0,                       Antonio%Maconi%NULL%2,                       Antonio%Maconi%NULL%0,                       Mario%Malerba%NULL%2,                       Mario%Malerba%NULL%0,                       Giulia Francesca%Manfredi%NULL%2,                       Giulia Francesca%Manfredi%NULL%0,                       Maria%Martelli%NULL%2,                       Maria%Martelli%NULL%0,                       Letizia%Marzari%NULL%2,                       Letizia%Marzari%NULL%0,                       Paolo%Marzullo%NULL%2,                       Paolo%Marzullo%NULL%0,                       Marco%Mennuni%NULL%2,                       Marco%Mennuni%NULL%0,                       Claudia%Montabone%NULL%2,                       Claudia%Montabone%NULL%0,                       Umberto%Morosini%NULL%2,                       Umberto%Morosini%NULL%0,                       Marco%Mussa%NULL%2,                       Marco%Mussa%NULL%0,                       Ilaria%Nerici%NULL%2,                       Ilaria%Nerici%NULL%0,                       Alessandro%Nuzzo%NULL%2,                       Alessandro%Nuzzo%NULL%0,                       Carlo%Olivieri%NULL%2,                       Carlo%Olivieri%NULL%0,                       Samuel Alberto%Padelli%NULL%2,                       Samuel Alberto%Padelli%NULL%0,                       Massimiliano%Panella%NULL%2,                       Massimiliano%Panella%NULL%0,                       Andrea%Parisini%NULL%2,                       Andrea%Parisini%NULL%0,                       Alessio%Paschè%NULL%2,                       Alessio%Paschè%NULL%0,                       Filippo%Patrucco%NULL%2,                       Filippo%Patrucco%NULL%0,                       Giuseppe%Patti%NULL%2,                       Giuseppe%Patti%NULL%0,                       Alberto%Pau%NULL%2,                       Alberto%Pau%NULL%0,                       Anita Rebecca%Pedrinelli%NULL%2,                       Anita Rebecca%Pedrinelli%NULL%0,                       Ilaria%Percivale%NULL%2,                       Ilaria%Percivale%NULL%0,                       Luca%Ragazzoni%NULL%2,                       Luca%Ragazzoni%NULL%0,                       Roberta%Re%NULL%2,                       Roberta%Re%NULL%0,                       Cristina%Rigamonti%NULL%2,                       Cristina%Rigamonti%NULL%0,                       Eleonora%Rizzi%NULL%2,                       Eleonora%Rizzi%NULL%0,                       Andrea%Rognoni%NULL%2,                       Andrea%Rognoni%NULL%0,                       Annalisa%Roveta%NULL%2,                       Annalisa%Roveta%NULL%0,                       Luigia%Salamina%NULL%2,                       Luigia%Salamina%NULL%0,                       Matteo%Santagostino%NULL%2,                       Matteo%Santagostino%NULL%0,                       Massimo%Saraceno%NULL%2,                       Massimo%Saraceno%NULL%0,                       Paola%Savoia%NULL%2,                       Paola%Savoia%NULL%0,                       Marco%Sciarra%NULL%2,                       Marco%Sciarra%NULL%0,                       Andrea%Schimmenti%NULL%2,                       Andrea%Schimmenti%NULL%0,                       Lorenza%Scotti%NULL%2,                       Lorenza%Scotti%NULL%0,                       Enrico%Spinoni%NULL%2,                       Enrico%Spinoni%NULL%0,                       Carlo%Smirne%NULL%2,                       Carlo%Smirne%NULL%0,                       Vanessa%Tarantino%NULL%2,                       Vanessa%Tarantino%NULL%0,                       Paolo Amedeo%Tillio%NULL%2,                       Paolo Amedeo%Tillio%NULL%0,                       Stelvio%Tonello%NULL%2,                       Stelvio%Tonello%NULL%0,                       Rosanna%Vaschetto%NULL%2,                       Rosanna%Vaschetto%NULL%0,                       Veronica%Vassia%NULL%2,                       Veronica%Vassia%NULL%0,                       Domenico%Zagaria%NULL%2,                       Domenico%Zagaria%NULL%0,                       Elisa%Zavattaro%NULL%2,                       Elisa%Zavattaro%NULL%0,                       Patrizia%Zeppegno%NULL%2,                       Patrizia%Zeppegno%NULL%0,                       Francesca%Zottarelli%NULL%2,                       Francesca%Zottarelli%NULL%0,                       Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                       Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                       Marta%Ottone%NULL%2,                       Marta%Ottone%NULL%0,                       Tommaso%Fasano%NULL%1,                       Pierpaolo%Pattacini%NULL%1,                       Valentina%Iotti%NULL%1,                       Lucia%Spaggiari%NULL%1,                       Riccardo%Bonacini%NULL%1,                       Andrea%Nitrosi%NULL%1,                       Efrem%Bonelli%NULL%1,                       Simone%Canovi%NULL%1,                       Rossana%Colla%NULL%1,                       Alessandro%Zerbini%NULL%1,                       Marco%Massari%NULL%1,                       Ivana%Lattuada%NULL%1,                       Anna Maria%Ferrari%NULL%1,                       Paolo%Giorgi Rossi%NULL%1,                       Massimo%Costantini%NULL%1,                       Roberto%Grilli%NULL%1,                       Massimiliano%Marino%NULL%1,                       Giulio%Formoso%NULL%1,                       Debora%Formisano%NULL%1,                       Emanuela%Bedeschi%NULL%1,                       Cinzia%Perilli%NULL%1,                       Elisabetta%La Rosa%NULL%1,                       Eufemia%Bisaccia%NULL%1,                       Ivano%Venturi%NULL%1,                       Massimo%Vicentini%NULL%1,                       Cinzia%Campari%NULL%1,                       Francesco%Gioia%NULL%1,                       Serena%Broccoli%NULL%1,                       Pamela%Mancuso%NULL%1,                       Marco%Foracchia%NULL%1,                       Mirco%Pinotti%NULL%1,                       Nicola%Facciolongo%NULL%1,                       Laura%Trabucco%NULL%1,                       Stefano%De Pietri%NULL%1,                       Giorgio Francesco%Danelli%NULL%1,                       Laura%Albertazzi%NULL%1,                       Enrica%Bellesia%NULL%1,                       Mattia%Corradini%NULL%1,                       Elena%Magnani%NULL%1,                       Annalisa%Pilia%NULL%1,                       Alessandra%Polese%NULL%1,                       Silvia Storchi%Incerti%NULL%1,                       Piera%Zaldini%NULL%1,                       Bonanno%Orsola%NULL%1,                       Matteo%Revelli%NULL%1,                       Carlo%Salvarani%NULL%1,                       Carmine%Pinto%NULL%1,                       Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                       Hong-Qiu%Gu%NULL%1,                       Yi%Liu (刘艺)%NULL%1,                       Guqin%Zhang%NULL%1,                       Hang%Yang%NULL%1,                       Huifang%Hu%NULL%1,                       Chenyang%Lu%NULL%1,                       Yang%Li%NULL%3,                       Liyi%Wang%NULL%1,                       Yi%Liu (刘毅)%yi2006liu@163.com%1,                       Yi%Zhao%zhao.y1977@163.com%1,                       Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                       Tawsifur%Rahman%NULL%2,                       Tawsifur%Rahman%NULL%0,                       Amith%Khandakar%NULL%3,                       Somaya%Al-Madeed%NULL%2,                       Susu M.%Zughaier%NULL%5,                       Suhail A. R.%Doi%NULL%3,                       Hanadi%Hassen%NULL%1,                       Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                       Jia%Sun%NULL%1,                       Yi-Xin%Li%NULL%1,                       Qian%Chen%NULL%0,                       Qing-Quan%Liu%NULL%1,                       Zhou%Sun%NULL%1,                       Ran%Pang%NULL%1,                       Fei%Chen%NULL%1,                       Bing-Yang%Xu%NULL%1,                       Anne%Manyande%NULL%1,                       Taane G%Clark%NULL%1,                       Jin-Ping%Li%NULL%1,                       Ilkay Erdogan%Orhan%NULL%1,                       Yu-Ke%Tian%NULL%1,                       Tao%Wang%wt7636@126.com%0,                       Wei%Wu%wt7636@126.com%1,                       Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,                    Imam%Z%coreGivesNoEmail%1,                    Lippi%G%coreGivesNoEmail%1,                    Oran%DP%coreGivesNoEmail%1,                    Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                       Caiping%Song%NULL%1,                       En%Liu%NULL%1,                       Xi%Liu%NULL%1,                       Hao%Wu%NULL%1,                       Hui%Lin%NULL%1,                       Yuliang%Liu%NULL%1,                       Qi%Li%NULL%1,                       Zhi%Xu%NULL%1,                       XiaoBao%Ren%NULL%1,                       Cheng%Zhang%NULL%1,                       Wenjing%Zhang%NULL%1,                       Wei%Duan%NULL%2,                       Yongfeng%Tian%NULL%1,                       Ping%Li%NULL%1,                       Mingdong%Hu%NULL%1,                       Shiming%Yang%NULL%1,                       Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                       Changli%Li%NULL%1,                       Li%Zheng%NULL%1,                       Wenzhi%Lv%NULL%0,                       Zhigang%He%NULL%1,                       Xinwu%Cui%NULL%1,                       Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                       Hayne Cho%Park%NULL%2,                       Hayne Cho%Park%NULL%0,                       Ajin%Cho%NULL%1,                       Juhee%Kim%NULL%1,                       Kyu-sang%Yun%NULL%1,                       Jinseog%Kim%NULL%1,                       Young-Ki%Lee%NULL%1,                       Sinan%Kardes.%NULL%2,                       Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                       Xiaoyu%Fang%NULL%1,                       Lixia%Cheng%NULL%1,                       Penghao%Wang%NULL%1,                       Shen%Li%NULL%1,                       Hao%Yu%NULL%1,                       Yao%Zhang%NULL%2,                       Nan%Jiang%NULL%1,                       Tingting%Zeng%NULL%1,                       Chao%Hou%NULL%1,                       Jing%Zhou%NULL%1,                       Shiru%Li%NULL%1,                       Yingzi%Pan%NULL%1,                       Yitong%Li%NULL%1,                       Lili%Nie%NULL%1,                       Yang%Li%NULL%0,                       Qidi%Sun%NULL%1,                       Hong%Jia%NULL%1,                       Mengxia%Li%NULL%1,                       Guoqiang%Cao%NULL%1,                       Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                       Lucas A%Ramos%NULL%2,                       Lucas A%Ramos%NULL%0,                       Wouter%Potters%NULL%1,                       Marcus L F%Janssen%NULL%1,                       Deborah%Hubers%NULL%1,                       Shi%Hu%NULL%1,                       Egill A%Fridgeirsson%NULL%1,                       Dan%Piña-Fuentes%NULL%1,                       Rajat%Thomas%NULL%1,                       Iwan C C%van der Horst%NULL%1,                       Christian%Herff%NULL%2,                       Christian%Herff%NULL%0,                       Pieter%Kubben%NULL%1,                       Paul W G%Elbers%NULL%1,                       Henk A%Marquering%NULL%1,                       Max%Welling%NULL%1,                       Suat%Simsek%NULL%1,                       Martijn D%de Kruif%NULL%1,                       Tom%Dormans%NULL%1,                       Lucas M%Fleuren%NULL%1,                       Michiel%Schinkel%NULL%1,                       Peter G%Noordzij%NULL%1,                       Joop P%van den Bergh%NULL%2,                       Joop P%van den Bergh%NULL%0,                       Caroline E%Wyers%NULL%1,                       David T B%Buis%NULL%2,                       David T B%Buis%NULL%0,                       W Joost%Wiersinga%NULL%1,                       Ella H C%van den Hout%NULL%1,                       Auke C%Reidinga%NULL%1,                       Daisy%Rusch%NULL%1,                       Kim C E%Sigaloff%NULL%1,                       Renee A%Douma%NULL%1,                       Lianne%de Haan%NULL%1,                       Niels C%Gritters van den Oever%NULL%1,                       Roger J M W%Rennenberg%NULL%1,                       Guido A%van Wingen%NULL%1,                       Marcel J H%Aries%NULL%1,                       Martijn%Beudel%NULL%2,                       Martijn%Beudel%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                       Fajer A.%Al-Ishaq%NULL%2,                       Fajer A.%Al-Ishaq%NULL%0,                       Fatima S.%Al-Mohannadi%NULL%1,                       Reem S.%Mubarak%NULL%1,                       Maryam H.%Al-Hitmi%NULL%1,                       Khandaker Reajul%Islam%NULL%1,                       Amith%Khandakar%NULL%0,                       Ali Ait%Hssain%NULL%3,                       Ali Ait%Hssain%NULL%0,                       Somaya%Al-Madeed%NULL%0,                       Susu M.%Zughaier%NULL%0,                       Susu M.%Zughaier%NULL%0,                       Muhammad E. H.%Chowdhury%NULL%3,                       Muhammad E. H.%Chowdhury%NULL%0,                       Antonella%Santone%NULL%3,                       Antonella%Santone%NULL%0,                       Antonella%Santone%NULL%0,                       Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                       Amith%Khandakar%NULL%0,                       Md Enamul%Hoque%NULL%2,                       Md Enamul%Hoque%NULL%0,                       Nabil%Ibtehaz%NULL%2,                       Nabil%Ibtehaz%NULL%0,                       Saad Bin%Kashem%NULL%2,                       Saad Bin%Kashem%NULL%0,                       Reehum%Masud%NULL%1,                       Lutfunnahar%Shampa%NULL%1,                       Mohammad Mehedi%Hasan%NULL%1,                       Mohammad Tariqul%Islam%NULL%1,                       Somaya%Al-Maadeed%NULL%2,                       Somaya%Al-Maadeed%NULL%0,                       Susu M.%Zughaier%NULL%0,                       Susu M.%Zughaier%NULL%0,                       Saif%Badran%NULL%2,                       Saif%Badran%NULL%0,                       Suhail A. R.%Doi%NULL%0,                       Suhail A. R.%Doi%NULL%0,                       Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                       Pablo%Rodríguez-Belenguer%NULL%2,                       Pablo%Rodríguez-Belenguer%NULL%0,                       Antonio J.%Serrano-López%NULL%1,                       Emilio%Soria-Olivas%NULL%2,                       Emilio%Soria-Olivas%NULL%0,                       Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                       Haibo%Ai%NULL%1,                       Yunong%Fu%NULL%1,                       Qinglin%Li%NULL%1,                       Ruixia%Cui%NULL%1,                       Xiaohua%Ma%NULL%1,                       Yan-fen%Ma%NULL%1,                       Zi%Wang%NULL%1,                       Tong%Liu%NULL%1,                       Yunxiang%Long%NULL%1,                       Kai%Qu%NULL%1,                       Chang%Liu%NULL%1,                       Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                       Dawei%Zhang%NULL%1,                       Jing%Xu%NULL%6,                       Zhu%Chen%NULL%1,                       Tieniu%Yang%NULL%1,                       Peng%Zhao%NULL%2,                       Guofeng%Chen%NULL%1,                       Gregory%Cheng%NULL%1,                       Yudong%Wang%NULL%1,                       Jingfeng%Bi%NULL%1,                       Lin%Tan%NULL%1,                       George%Lau%NULL%1,                       Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                       Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                       Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                       Giulia%Suigo%NULL%1,                       Davide%Zampini%NULL%1,                       Matteo%Pistoia%NULL%1,                       Mariella%Ciola%NULL%1,                       Tommaso%Ciampani%NULL%1,                       Carolina%Ultori%NULL%1,                       Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                       John R%Adler%NULL%3,                       Sultan M%Kamran%NULL%2,                       Sultan M%Kamran%NULL%0,                       Zill-e-Humayun%Mirza%NULL%1,                       Hussain Abdul%Moeed%NULL%1,                       Arshad%Naseem%NULL%1,                       Maryam%Hussain%NULL%1,                       Imran%Fazal%NULL%1,                       Farrukh%Saeed%NULL%1,                       Wasim%Alamgir%NULL%1,                       Salman%Saleem%NULL%1,                       Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                       María M.%Martín%NULL%1,                       Mónica%Argueso%NULL%1,                       Jordi%Solé-Violán%NULL%1,                       Alina%Perez%NULL%1,                       José Alberto%Marcos Y Ramos%NULL%1,                       Luis%Ramos-Gómez%NULL%1,                       Sergio%López%NULL%1,                       Andrés%Franco%NULL%1,                       Agustín F.%González-Rivero%NULL%1,                       María%Martín%NULL%1,                       Verónica%Gonzalez%NULL%1,                       Julia%Alcoba-Flórez%NULL%1,                       Miguel Ángel%Rodriguez%NULL%1,                       Marta%Riaño-Ruiz%NULL%1,                       Juan%Guillermo O Campo%NULL%1,                       Lourdes%González%NULL%1,                       Tamara%Cantera%NULL%1,                       Raquel%Ortiz-López%NULL%1,                       Nazario%Ojeda%NULL%1,                       Aurelio%Rodríguez-Pérez%NULL%1,                       Casimira%Domínguez%NULL%1,                       Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                       Rita%Kukafka%NULL%1,                       Arriel%Benis%NULL%2,                       Arriel%Benis%NULL%0,                       Jinfeng%Li%NULL%1,                       Pan%Pan%NULL%2,                       Pan%Pan%NULL%0,                       Yichao%Li%NULL%2,                       Yichao%Li%NULL%0,                       Yongjiu%Xiao%NULL%2,                       Yongjiu%Xiao%NULL%0,                       Bingchao%Han%NULL%2,                       Bingchao%Han%NULL%0,                       Longxiang%Su%NULL%2,                       Longxiang%Su%NULL%0,                       Mingliang%Su%NULL%2,                       Mingliang%Su%NULL%0,                       Yansheng%Li%NULL%2,                       Yansheng%Li%NULL%0,                       Siqi%Zhang%NULL%2,                       Siqi%Zhang%NULL%0,                       Dapeng%Jiang%NULL%2,                       Dapeng%Jiang%NULL%0,                       Xia%Chen%NULL%2,                       Xia%Chen%NULL%0,                       Fuquan%Zhou%NULL%2,                       Fuquan%Zhou%NULL%0,                       Ling%Ma%NULL%2,                       Ling%Ma%NULL%0,                       Pengtao%Bao%NULL%2,                       Pengtao%Bao%NULL%0,                       Lixin%Xie%xielx301@126.com%2,                       Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                       Cristina%Roca-Oporto%NULL%2,                       Guillermo%Martín-Gutiérrez%NULL%2,                       María Dolores%Avilés%NULL%2,                       Carmen%Gómez-González%NULL%2,                       María Dolores%Navarro-Amuedo%NULL%2,                       Julia%Praena-Segovia%NULL%2,                       José%Molina%NULL%2,                       María%Paniagua-García%NULL%2,                       Horacio%García-Delgado%NULL%2,                       Antonio%Domínguez-Petit%NULL%2,                       Jerónimo%Pachón%NULL%2,                       José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                       Barry R.%Meisenberg%NULL%2,                       Barry R.%Meisenberg%NULL%0,                       James H.%MacDonald%NULL%1,                       Nandakumar%Menon%NULL%1,                       Marcia B.%Fowler%NULL%1,                       Michaline%West%NULL%1,                       Jane%Rhule%NULL%1,                       Sadaf S.%Qureshi%NULL%1,                       Eileen B.%MacDonald%NULL%1,                       Yu Ru%Kou%NULL%2,                       Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                       Sarah%Poole%NULL%2,                       Sarah%Poole%NULL%0,                       Meeta%Pradhan%NULL%1,                       Akhil%Vaid%NULL%3,                       Akhil%Vaid%NULL%0,                       Sulaiman%Somani%NULL%3,                       Sulaiman%Somani%NULL%0,                       Adam J%Russak%NULL%2,                       Adam J%Russak%NULL%0,                       Jessica K%De Freitas%NULL%2,                       Jessica K%De Freitas%NULL%0,                       Fayzan F%Chaudhry%NULL%2,                       Fayzan F%Chaudhry%NULL%0,                       Ishan%Paranjpe%NULL%3,                       Ishan%Paranjpe%NULL%0,                       Kipp W%Johnson%NULL%2,                       Kipp W%Johnson%NULL%0,                       Samuel J%Lee%NULL%2,                       Samuel J%Lee%NULL%0,                       Riccardo%Miotto%NULL%2,                       Riccardo%Miotto%NULL%0,                       Felix%Richter%NULL%3,                       Felix%Richter%NULL%0,                       Shan%Zhao%NULL%3,                       Shan%Zhao%NULL%0,                       Noam D%Beckmann%NULL%2,                       Noam D%Beckmann%NULL%0,                       Nidhi%Naik%NULL%2,                       Nidhi%Naik%NULL%0,                       Arash%Kia%NULL%2,                       Arash%Kia%NULL%0,                       Prem%Timsina%NULL%2,                       Prem%Timsina%NULL%0,                       Anuradha%Lala%NULL%2,                       Anuradha%Lala%NULL%0,                       Manish%Paranjpe%NULL%2,                       Manish%Paranjpe%NULL%0,                       Eddye%Golden%NULL%2,                       Eddye%Golden%NULL%0,                       Matteo%Danieletto%NULL%2,                       Matteo%Danieletto%NULL%0,                       Manbir%Singh%NULL%2,                       Manbir%Singh%NULL%0,                       Dara%Meyer%NULL%2,                       Dara%Meyer%NULL%0,                       Paul F%O'Reilly%NULL%2,                       Paul F%O'Reilly%NULL%0,                       Laura%Huckins%NULL%2,                       Laura%Huckins%NULL%0,                       Patricia%Kovatch%NULL%2,                       Patricia%Kovatch%NULL%0,                       Joseph%Finkelstein%NULL%2,                       Joseph%Finkelstein%NULL%0,                       Robert M.%Freeman%NULL%2,                       Robert M.%Freeman%NULL%0,                       Edgar%Argulian%NULL%2,                       Edgar%Argulian%NULL%0,                       Andrew%Kasarskis%NULL%2,                       Andrew%Kasarskis%NULL%0,                       Bethany%Percha%NULL%2,                       Bethany%Percha%NULL%0,                       Judith A%Aberg%NULL%2,                       Judith A%Aberg%NULL%0,                       Emilia%Bagiella%NULL%3,                       Emilia%Bagiella%NULL%0,                       Carol R%Horowitz%NULL%2,                       Carol R%Horowitz%NULL%0,                       Barbara%Murphy%NULL%2,                       Barbara%Murphy%NULL%0,                       Eric J%Nestler%NULL%2,                       Eric J%Nestler%NULL%0,                       Eric E%Schadt%NULL%2,                       Eric E%Schadt%NULL%0,                       Judy H%Cho%NULL%2,                       Judy H%Cho%NULL%0,                       Carlos%Cordon-Cardo%NULL%2,                       Carlos%Cordon-Cardo%NULL%0,                       Valentin%Fuster%NULL%3,                       Valentin%Fuster%NULL%0,                       Dennis S%Charney%NULL%2,                       Dennis S%Charney%NULL%0,                       David L%Reich%NULL%2,                       David L%Reich%NULL%0,                       Erwin P%Bottinger%NULL%2,                       Erwin P%Bottinger%NULL%0,                       Matthew A%Levin%NULL%2,                       Matthew A%Levin%NULL%0,                       Jagat%Narula%NULL%3,                       Jagat%Narula%NULL%0,                       Zahi A%Fayad%NULL%2,                       Zahi A%Fayad%NULL%0,                       Allan C%Just%NULL%2,                       Allan C%Just%NULL%0,                       Alexander W%Charney%NULL%2,                       Alexander W%Charney%NULL%0,                       Girish N%Nadkarni%NULL%2,                       Girish N%Nadkarni%NULL%0,                       Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                       Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                       Anne%Chen%NULL%2,                       Wei%Hou%NULL%3,                       James M.%Graham%NULL%1,                       Haifang%Li%NULL%2,                       Paul S.%Richman%NULL%1,                       Henry C.%Thode%NULL%1,                       Adam J.%Singer%NULL%1,                       Tim Q.%Duong%NULL%1,                       Muhammad%Adrish%NULL%9,                       Muhammad%Adrish%NULL%0,                       Muhammad%Adrish%NULL%0,                       Muhammad%Adrish%NULL%0,                       Muhammad%Adrish%NULL%0,                       Muhammad%Adrish%NULL%0,                       Muhammad%Adrish%NULL%0,                       Muhammad%Adrish%NULL%0,                       Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                       Qin%Liu%NULL%2,                       Xiao%Zhang%NULL%2,                       Shuyi%Liu%NULL%1,                       Weiqi%Chen%NULL%1,                       Jingjing%You%NULL%1,                       Qiuying%Chen%NULL%1,                       Minmin%Li%NULL%1,                       Zhuozhi%Chen%NULL%1,                       Luyan%Chen%NULL%1,                       Lv%Chen%NULL%1,                       Yuhao%Dong%NULL%1,                       Qingsi%Zeng%NULL%1,                       Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                       Lei%Nie%NULL%1,                       Dongde%Wu%NULL%1,                       Jian%Chen%NULL%2,                       Zhifeng%Yang%NULL%1,                       Ling%Zhang%NULL%3,                       Dongqing%Li%NULL%1,                       Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                       Burcin%Hakoglu%NULL%2,                       Burcin%Hakoglu%NULL%0,                       Ali%Kadri Cirak%NULL%1,                       Gulru%Polat%NULL%1,                       Berna%Komurcuoglu%NULL%1,                       Berrin%Akkol%NULL%1,                       Cagri%Atasoy%NULL%1,                       Eda%Bayramic%NULL%1,                       Gunseli%Balci%NULL%1,                       Sena%Ataman%NULL%1,                       Sinem%Ermin%NULL%1,                       Enver%Yalniz%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                       Qiaosen%Chen%NULL%2,                       Qiaosen%Chen%NULL%0,                       Sumeng%Li%NULL%1,                       Huadong%Li%NULL%1,                       Qian%Zhang%NULL%1,                       Sihong%Lu%NULL%1,                       Li%Wu%NULL%1,                       Leiqun%Xiong%NULL%1,                       Bobin%Mi%NULL%1,                       Di%Liu%NULL%3,                       Mengji%Lu%NULL%1,                       Dongliang%Yang%NULL%1,                       Hongbo%Jiang%hongbojiang3@163.com%1,                       Shaoping%Zheng%zhengspxx@126.com%1,                       Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                       Hua%Zhang%NULL%2,                       Rui%Qiao%NULL%1,                       Qinggang%Ge%NULL%1,                       Shuisheng%Zhang%NULL%1,                       Zongxuan%Zhao%NULL%1,                       Ci%Tian%NULL%1,                       Qingbian%Ma%NULL%2,                       Qingbian%Ma%NULL%0,                       Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                       Antonia%Ho%NULL%2,                       Riinu%Pius%NULL%2,                       Iain%Buchan%NULL%1,                       Gail%Carson%NULL%2,                       Thomas M%Drake%NULL%1,                       Jake%Dunning%NULL%2,                       Cameron J%Fairfield%NULL%2,                       Carrol%Gamble%NULL%2,                       Christopher A%Green%NULL%2,                       Rishi%Gupta%NULL%1,                       Sophie%Halpin%NULL%2,                       Hayley E%Hardwick%NULL%1,                       Karl A%Holden%NULL%1,                       Peter W%Horby%NULL%2,                       Clare%Jackson%NULL%2,                       Kenneth A%Mclean%NULL%2,                       Laura%Merson%NULL%2,                       Jonathan S%Nguyen-Van-Tam%NULL%1,                       Lisa%Norman%NULL%2,                       Mahdad%Noursadeghi%NULL%2,                       Piero L%Olliaro%NULL%1,                       Mark G%Pritchard%NULL%1,                       Clark D%Russell%NULL%2,                       Catherine A%Shaw%NULL%2,                       Aziz%Sheikh%NULL%2,                       Tom%Solomon%NULL%2,                       Cathie%Sudlow%NULL%1,                       Olivia V%Swann%NULL%1,                       Lance CW%Turtle%NULL%2,                       Peter JM%Openshaw%NULL%2,                       J Kenneth%Baillie%NULL%2,                       Malcolm G%Semple%NULL%3,                       Annemarie B%Docherty%NULL%3,                       Annemarie B%Docherty%NULL%0,                       Ewen M%Harrison%NULL%3,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       J Kenneth%Baillie%NULL%0,                       Malcolm G%Semple%NULL%0,                       Peter JM%Openshaw%NULL%0,                       Gail%Carson%NULL%0,                       Beatrice%Alex%NULL%1,                       Benjamin%Bach%NULL%1,                       Wendy S%Barclay%NULL%1,                       Debby%Bogaert%NULL%1,                       Meera%Chand%NULL%1,                       Graham S%Cooke%NULL%1,                       Annemarie B%Docherty%NULL%0,                       Jake%Dunning%NULL%0,                       Ana%da Silva Filipe%NULL%1,                       Tom%Fletcher%NULL%1,                       Christopher A%Green%NULL%0,                       Ewen M%Harrison%NULL%0,                       Julian A%Hiscox%NULL%1,                       Antonia Ying Wai%Ho%NULL%1,                       Peter W%Horby%NULL%0,                       Samreen%Ijaz%NULL%1,                       Saye%Khoo%NULL%1,                       Paul%Klenerman%NULL%1,                       Andrew%Law%NULL%2,                       Wei Shen%Lim%NULL%1,                       Alexander J%Mentzer%NULL%1,                       Laura%Merson%NULL%0,                       Alison M%Meynert%NULL%1,                       Mahdad%Noursadeghi%NULL%0,                       Shona C%Moore%NULL%2,                       Massimo%Palmarini%NULL%1,                       William A%Paxton%NULL%1,                       Georgios%Pollakis%NULL%1,                       Nicholas%Price%NULL%1,                       Andrew%Rambaut%NULL%1,                       David L%Robertson%NULL%1,                       Clark D%Russell%NULL%0,                       Vanessa%Sancho-Shimizu%NULL%1,                       Janet T%Scott%NULL%1,                       Louise%Sigfrid%NULL%1,                       Tom%Solomon%NULL%0,                       Shiranee%Sriskandan%NULL%1,                       David%Stuart%NULL%1,                       Charlotte%Summers%NULL%1,                       Richard S%Tedder%NULL%1,                       Emma C%Thomson%NULL%1,                       Ryan S%Thwaites%NULL%1,                       Lance CW%Turtle%NULL%0,                       Maria%Zambon%NULL%1,                       Hayley%Hardwick%NULL%1,                       Chloe%Donohue%NULL%1,                       Jane%Ewins%NULL%1,                       Wilna%Oosthuyzen%NULL%1,                       Fiona%Griffiths%NULL%1,                       Lisa%Norman%NULL%0,                       Riinu%Pius%NULL%0,                       Tom M%Drake%NULL%1,                       Cameron J%Fairfield%NULL%0,                       Stephen%Knight%NULL%1,                       Kenneth A%Mclean%NULL%0,                       Derek%Murphy%NULL%1,                       Catherine A%Shaw%NULL%0,                       Jo%Dalton%NULL%1,                       Michelle%Girvan%NULL%1,                       Egle%Saviciute%NULL%1,                       Stephanie%Roberts%NULL%1,                       Janet%Harrison%NULL%1,                       Laura%Marsh%NULL%1,                       Marie%Connor%NULL%1,                       Sophie%Halpin%NULL%0,                       Clare%Jackson%NULL%0,                       Carrol%Gamble%NULL%0,                       Gary%Leeming%NULL%1,                       Andrew%Law%NULL%0,                       Ross%Hendry%NULL%1,                       James%Scott-Brown%NULL%1,                       William%Greenhalf%NULL%1,                       Victoria%Shaw%NULL%1,                       Sarah%McDonald%NULL%2,                       Katie A%Ahmed%NULL%1,                       Jane A%Armstrong%NULL%1,                       Milton%Ashworth%NULL%1,                       Innocent G%Asiimwe%NULL%1,                       Siddharth%Bakshi%NULL%1,                       Samantha L%Barlow%NULL%1,                       Laura%Booth%NULL%1,                       Benjamin%Brennan%NULL%1,                       Katie%Bullock%NULL%1,                       Benjamin WA%Catterall%NULL%1,                       Jordan J%Clark%NULL%1,                       Emily A%Clarke%NULL%1,                       Sarah%Cole%NULL%1,                       Louise%Cooper%NULL%1,                       Helen%Cox%NULL%1,                       Christopher%Davis%NULL%1,                       Oslem%Dincarslan%NULL%1,                       Chris%Dunn%NULL%1,                       Philip%Dyer%NULL%1,                       Angela%Elliott%NULL%1,                       Anthony%Evans%NULL%1,                       Lewis WS%Fisher%NULL%1,                       Terry%Foster%NULL%1,                       Isabel%Garcia-Dorival%NULL%1,                       Willliam%Greenhalf%NULL%1,                       Philip%Gunning%NULL%1,                       Catherine%Hartley%NULL%1,                       Antonia%Ho%NULL%0,                       Rebecca L%Jensen%NULL%1,                       Christopher B%Jones%NULL%1,                       Trevor R%Jones%NULL%1,                       Shadia%Khandaker%NULL%1,                       Katharine%King%NULL%1,                       Robyn T%Kiy%NULL%1,                       Chrysa%Koukorava%NULL%1,                       Annette%Lake%NULL%1,                       Suzannah%Lant%NULL%1,                       Diane%Latawiec%NULL%1,                       L%Lavelle-Langham%NULL%1,                       Daniella%Lefteri%NULL%1,                       Lauren%Lett%NULL%1,                       Lucia A%Livoti%NULL%1,                       Maria%Mancini%NULL%1,                       Sarah%McDonald%NULL%0,                       Laurence%McEvoy%NULL%1,                       John%McLauchlan%NULL%1,                       Soeren%Metelmann%NULL%1,                       Nahida S%Miah%NULL%1,                       Joanna%Middleton%NULL%1,                       Joyce%Mitchell%NULL%1,                       Shona C%Moore%NULL%0,                       Ellen G%Murphy%NULL%1,                       Rebekah%Penrice-Randal%NULL%1,                       Jack%Pilgrim%NULL%1,                       Tessa%Prince%NULL%1,                       Will%Reynolds%NULL%1,                       P Matthew%Ridley%NULL%1,                       Debby%Sales%NULL%1,                       Victoria E%Shaw%NULL%1,                       Rebecca K%Shears%NULL%1,                       Benjamin%Small%NULL%1,                       Krishanthi S%Subramaniam%NULL%1,                       Agnieska%Szemiel%NULL%1,                       Aislynn%Taggart%NULL%1,                       Jolanta%Tanianis-Hughes%NULL%1,                       Jordan%Thomas%NULL%1,                       Erwan%Trochu%NULL%1,                       Libby%van Tonder%NULL%1,                       Eve%Wilcock%NULL%1,                       J Eunice%Zhang%NULL%1,                       Kayode%Adeniji%NULL%1,                       Daniel%Agranoff%NULL%1,                       Ken%Agwuh%NULL%1,                       Dhiraj%Ail%NULL%1,                       Ana%Alegria%NULL%1,                       Brian%Angus%NULL%1,                       Abdul%Ashish%NULL%1,                       Dougal%Atkinson%NULL%1,                       Shahedal%Bari%NULL%1,                       Gavin%Barlow%NULL%1,                       Stella%Barnass%NULL%1,                       Nicholas%Barrett%NULL%2,                       Christopher%Bassford%NULL%1,                       David%Baxter%NULL%1,                       Michael%Beadsworth%NULL%1,                       Jolanta%Bernatoniene%NULL%1,                       John%Berridge%NULL%1,                       Nicola%Best%NULL%1,                       Pieter%Bothma%NULL%1,                       David%Brealey%NULL%1,                       Robin%Brittain-Long%NULL%1,                       Naomi%Bulteel%NULL%1,                       Tom%Burden%NULL%1,                       Andrew%Burtenshaw%NULL%1,                       Vikki%Caruth%NULL%1,                       David%Chadwick%NULL%1,                       Duncan%Chambler%NULL%1,                       Nigel%Chee%NULL%1,                       Jenny%Child%NULL%1,                       Srikanth%Chukkambotla%NULL%1,                       Tom%Clark%NULL%1,                       Paul%Collini%NULL%1,                       Catherine%Cosgrove%NULL%1,                       Jason%Cupitt%NULL%1,                       Maria-Teresa%Cutino-Moguel%NULL%1,                       Paul%Dark%NULL%1,                       Chris%Dawson%NULL%1,                       Samir%Dervisevic%NULL%1,                       Phil%Donnison%NULL%1,                       Sam%Douthwaite%NULL%1,                       Ingrid%DuRand%NULL%1,                       Ahilanadan%Dushianthan%NULL%1,                       Tristan%Dyer%NULL%1,                       Cariad%Evans%NULL%1,                       Chi%Eziefula%NULL%1,                       Chrisopher%Fegan%NULL%1,                       Adam%Finn%NULL%1,                       Duncan%Fullerton%NULL%1,                       Sanjeev%Garg%NULL%2,                       Sanjeev%Garg%NULL%0,                       Atul%Garg%NULL%1,                       Jo%Godden%NULL%1,                       Arthur%Goldsmith%NULL%1,                       Clive%Graham%NULL%1,                       Elaine%Hardy%NULL%1,                       Stuart%Hartshorn%NULL%1,                       Daniel%Harvey%NULL%1,                       Peter%Havalda%NULL%1,                       Daniel B%Hawcutt%NULL%1,                       Maria%Hobrok%NULL%1,                       Luke%Hodgson%NULL%1,                       Anita%Holme%NULL%1,                       Anil%Hormis%NULL%1,                       Michael%Jacobs%NULL%1,                       Susan%Jain%NULL%1,                       Paul%Jennings%NULL%1,                       Agilan%Kaliappan%NULL%1,                       Vidya%Kasipandian%NULL%1,                       Stephen%Kegg%NULL%1,                       Michael%Kelsey%NULL%1,                       Jason%Kendall%NULL%1,                       Caroline%Kerrison%NULL%1,                       Ian%Kerslake%NULL%1,                       Oliver%Koch%NULL%2,                       Gouri%Koduri%NULL%1,                       George%Koshy%NULL%1,                       Shondipon%Laha%NULL%1,                       Susan%Larkin%NULL%1,                       Tamas%Leiner%NULL%1,                       Patrick%Lillie%NULL%1,                       James%Limb%NULL%1,                       Vanessa%Linnett%NULL%1,                       Jeff%Little%NULL%1,                       Michael%MacMahon%NULL%1,                       Emily%MacNaughton%NULL%1,                       Ravish%Mankregod%NULL%1,                       Huw%Masson%NULL%1,                       Elijah%Matovu%NULL%1,                       Katherine%McCullough%NULL%1,                       Ruth%McEwen%NULL%1,                       Manjula%Meda%NULL%1,                       Gary%Mills%NULL%1,                       Jane%Minton%NULL%1,                       Mariyam%Mirfenderesky%NULL%1,                       Kavya%Mohandas%NULL%1,                       Quen%Mok%NULL%1,                       James%Moon%NULL%1,                       Elinoor%Moore%NULL%1,                       Patrick%Morgan%NULL%1,                       Craig%Morris%NULL%1,                       Katherine%Mortimore%NULL%1,                       Samuel%Moses%NULL%1,                       Mbiye%Mpenge%NULL%1,                       Rohinton%Mulla%NULL%1,                       Michael%Murphy%NULL%1,                       Megan%Nagel%NULL%1,                       Thapas%Nagarajan%NULL%1,                       Mark%Nelson%NULL%1,                       Igor%Otahal%NULL%1,                       Mark%Pais%NULL%1,                       Selva%Panchatsharam%NULL%1,                       Hassan%Paraiso%NULL%1,                       Brij%Patel%NULL%1,                       Justin%Pepperell%NULL%1,                       Mark%Peters%NULL%1,                       Mandeep%Phull%NULL%1,                       Stefania%Pintus%NULL%1,                       Jagtur Singh%Pooni%NULL%1,                       Frank%Post%NULL%1,                       David%Price%NULL%1,                       Rachel%Prout%NULL%1,                       Nikolas%Rae%NULL%1,                       Henrik%Reschreiter%NULL%1,                       Tim%Reynolds%NULL%1,                       Neil%Richardson%NULL%1,                       Mark%Roberts%NULL%1,                       Devender%Roberts%NULL%1,                       Alistair%Rose%NULL%1,                       Guy%Rousseau%NULL%1,                       Brendan%Ryan%NULL%1,                       Taranprit%Saluja%NULL%1,                       Aarti%Shah%NULL%1,                       Prad%Shanmuga%NULL%1,                       Anil%Sharma%NULL%1,                       Anna%Shawcross%NULL%1,                       Jeremy%Sizer%NULL%1,                       Richard%Smith%NULL%1,                       Catherine%Snelson%NULL%1,                       Nick%Spittle%NULL%1,                       Nikki%Staines%NULL%1,                       Tom%Stambach%NULL%1,                       Richard%Stewart%NULL%1,                       Pradeep%Subudhi%NULL%1,                       Tamas%Szakmany%NULL%1,                       Kate%Tatham%NULL%1,                       Jo%Thomas%NULL%1,                       Chris%Thompson%NULL%1,                       Robert%Thompson%NULL%1,                       Ascanio%Tridente%NULL%1,                       Darell%Tupper-Carey%NULL%1,                       Mary%Twagira%NULL%1,                       Andrew%Ustianowski%NULL%1,                       Nick%Vallotton%NULL%1,                       Lisa%Vincent-Smith%NULL%1,                       Shico%Visuvanathan%NULL%1,                       Alan%Vuylsteke%NULL%1,                       Sam%Waddy%NULL%1,                       Rachel%Wake%NULL%1,                       Andrew%Walden%NULL%1,                       Ingeborg%Welters%NULL%1,                       Tony%Whitehouse%NULL%1,                       Paul%Whittaker%NULL%1,                       Ashley%Whittington%NULL%1,                       Meme%Wijesinghe%NULL%1,                       Martin%Williams%NULL%1,                       Lawrence%Wilson%NULL%1,                       Sarah%Wilson%NULL%1,                       Stephen%Winchester%NULL%1,                       Martin%Wiselka%NULL%1,                       Adam%Wolverson%NULL%1,                       Daniel G%Wooton%NULL%1,                       Andrew%Workman%NULL%1,                       Bryan%Yates%NULL%1,                       Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                       Braulio A.%Marfil‐Garza%NULL%1,                       Erick%Martínez Rodríguez%NULL%1,                       José Omar%Barreto Rodríguez%NULL%1,                       Alicia Estela%López Romo%NULL%1,                       Paolo%Alberti Minutti%NULL%1,                       Juan Vicente%Alejandre Loya%NULL%1,                       Félix Emmanuel%Pérez Talavera%NULL%1,                       Freddy José%Ávila Cervera%NULL%1,                       Adriana%Velazquez Burciaga%NULL%1,                       Oscar%Morado Aramburo%NULL%1,                       Luis Alberto%Piña Olguín%NULL%1,                       Adrian%Soto‐Rodríguez%NULL%1,                       Andrés%Castañeda Prado%NULL%1,                       Patricio%Santillán Doherty%NULL%1,                       Juan%O Galindo%NULL%1,                       Luis Alberto%Guízar García%NULL%1,                       Daniel%Hernández Gordillo%NULL%1,                       Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                       Aatish%Patel%NULL%1,                       Esmita%Charani%NULL%1,                       Sarah%Denny%NULL%1,                       Saleh A.%Alqahtani%NULL%1,                       Gary W.%Davies%NULL%1,                       Nabeela%Mughal%NULL%1,                       Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                       Hyunsun%Lim%NULL%1,                       Dong-Wook%Kim%NULL%1,                       Jung Hyun%Chang%NULL%1,                       Yoon Jung%Choi%chris316@yuhs.ac%1,                       Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                       Wenhua%Liang%NULL%3,                       Mei%Jiang%NULL%2,                       Weijie%Guan%NULL%3,                       Chen%Zhan%NULL%2,                       Tao%Wang%NULL%0,                       Chunli%Tang%NULL%3,                       Ling%Sang%NULL%3,                       Jiaxing%Liu%NULL%2,                       Zhengyi%Ni%NULL%2,                       Yu%Hu%NULL%0,                       Lei%Liu%NULL%8,                       Hong%Shan%NULL%5,                       Chunliang%Lei%NULL%2,                       Yixiang%Peng%NULL%2,                       Li%Wei%NULL%5,                       Yong%Liu%NULL%5,                       Yahua%Hu%NULL%2,                       Peng%Peng%NULL%7,                       Jianming%Wang%NULL%2,                       Jiyang%Liu%NULL%2,                       Zhong%Chen%NULL%5,                       Gang%Li%NULL%5,                       Zhijian%Zheng%NULL%2,                       Shaoqin%Qiu%NULL%2,                       Jie%Luo%NULL%5,                       Changjiang%Ye%NULL%2,                       Shaoyong%Zhu%NULL%2,                       Xiaoqing%Liu%NULL%2,                       Linling%Cheng%NULL%2,                       Feng%Ye%NULL%2,                       Jinping%Zheng%NULL%2,                       Nuofu%Zhang%NULL%2,                       Yimin%Li%NULL%2,                       Jianxing%He%NULL%2,                       Shiyue%Li%lishiyue@188.com%3,                       Nanshan%Zhong%NULL%4,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                       Liu%Hu%NULL%1,                       Yiru%Wang%NULL%0,                       Luyan%Huang%NULL%1,                       Lingxi%Zhao%NULL%1,                       Congcong%Zhang%NULL%1,                       Xiyue%Liu%NULL%1,                       Ranran%Xu%NULL%1,                       Feng%Liu%NULL%0,                       Jinping%Li%NULL%1,                       Dawei%Ye%NULL%0,                       Tao%Wang%NULL%0,                       Yongman%Lv%lvyongman@126.com%0,                       Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                       Carol A C%Coupland%NULL%1,                       Ruth H%Keogh%NULL%1,                       Karla%Diaz-Ordaz%NULL%1,                       Elizabeth%Williamson%NULL%1,                       Ewen M%Harrison%NULL%0,                       Andrew%Hayward%NULL%1,                       Harry%Hemingway%NULL%1,                       Peter%Horby%NULL%1,                       Nisha%Mehta%NULL%1,                       Jonathan%Benger%NULL%1,                       Kamlesh%Khunti%NULL%0,                       David%Spiegelhalter%NULL%1,                       Aziz%Sheikh%NULL%0,                       Jonathan%Valabhji%NULL%0,                       Ronan A%Lyons%NULL%1,                       John%Robson%NULL%1,                       Malcolm G%Semple%NULL%0,                       Frank%Kee%NULL%1,                       Peter%Johnson%NULL%1,                       Susan%Jebb%NULL%1,                       Tony%Williams%NULL%1,                       Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                       Guang-Yao%Cai%NULL%1,                       Wei%Fang%NULL%2,                       Hua-Yi%Li%NULL%1,                       Si-Yuan%Wang%NULL%2,                       Si-Yuan%Wang%NULL%0,                       Lingxi%Chen%NULL%1,                       Yang%Yu%NULL%1,                       Dan%Liu%NULL%0,                       Sen%Xu%NULL%2,                       Peng-Fei%Cui%NULL%1,                       Shao-Qing%Zeng%NULL%2,                       Shao-Qing%Zeng%NULL%0,                       Xin-Xia%Feng%NULL%1,                       Rui-Di%Yu%NULL%1,                       Ya%Wang%NULL%2,                       Yuan%Yuan%NULL%1,                       Xiao-Fei%Jiao%NULL%1,                       Jian-Hua%Chi%NULL%1,                       Jia-Hao%Liu%NULL%1,                       Ru-Yuan%Li%NULL%1,                       Xu%Zheng%NULL%1,                       Chun-Yan%Song%NULL%1,                       Ning%Jin%NULL%1,                       Wen-Jian%Gong%NULL%1,                       Xing-Yu%Liu%NULL%1,                       Lei%Huang%NULL%2,                       Xun%Tian%NULL%1,                       Lin%Li%NULL%1,                       Hui%Xing%NULL%1,                       Ding%Ma%NULL%1,                       Chun-Rui%Li%NULL%1,                       Fei%Ye%yeyuanbei@hotmail.com%1,                       Qing-Lei%Gao%qingleigao@hotmail.com%2,                       Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                       Ang%Li%NULL%1,                       Mengfan%Jiao%NULL%1,                       Qingmiao%Shi%NULL%1,                       Xiaocai%An%NULL%1,                       Yonghai%Feng%NULL%1,                       Lihua%Xing%NULL%1,                       Hongxia%Liang%NULL%1,                       Jiajun%Chen%NULL%1,                       Huiling%Li%NULL%1,                       Juan%Li%NULL%0,                       Zhigang%Ren%NULL%1,                       Ranran%Sun%NULL%1,                       Guangying%Cui%NULL%1,                       Yongjian%Zhou%NULL%1,                       Ming%Cheng%NULL%1,                       Pengfei%Jiao%NULL%1,                       Yu%Wang%NULL%2,                       Jiyuan%Xing%NULL%1,                       Shen%Shen%NULL%1,                       Qingxian%Zhang%NULL%1,                       Aiguo%Xu%NULL%1,                       Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                       Michael%Ng%NULL%1,                       Shuang%Xu%NULL%1,                       Zhouming%Xu%NULL%1,                       Hui%Qiu%NULL%1,                       Yuwei%Liu%NULL%1,                       Jiayou%Lyu%NULL%1,                       Jiwen%You%NULL%1,                       Peng%Zhao%NULL%0,                       Shihao%Wang%NULL%1,                       Yunfei%Tang%NULL%1,                       Hao%Cui%NULL%1,                       Changxiao%Yu%NULL%1,                       Feng%Wang%NULL%5,                       Fei%Shao%NULL%1,                       Peng%Sun%NULL%1,                       Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                       Huifang%Wang%NULL%1,                       Junwei%Huang%NULL%1,                       Yan%Geng%NULL%1,                       Shuqi%Jiang%NULL%1,                       Qiuping%Zhou%NULL%1,                       Xuan%Chen%NULL%1,                       Hongping%Hu%NULL%1,                       Weifeng%Li%NULL%1,                       Chengbin%Zhou%NULL%1,                       Xinglin%Gao%NULL%1,                       Na%Peng%pnatz@163.com%1,                       Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                       Dandan%Cheng%NULL%1,                       Yiwei%Cao%NULL%1,                       Chuan%Hu%NULL%1,                       Fenglin%Zou%NULL%1,                       Wencheng%Yu%NULL%1,                       Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                       Min Kyu%Kang%NULL%2,                       Min Kyu%Kang%NULL%0,                       Yu Rim%Lee%NULL%2,                       Yu Rim%Lee%NULL%0,                       Jeong Eun%Song%NULL%2,                       Jeong Eun%Song%NULL%0,                       Na Young%Kim%NULL%1,                       Young Oh%Kweon%NULL%1,                       Won Young%Tak%NULL%1,                       Se Young%Jang%NULL%1,                       Changhyeong%Lee%NULL%2,                       Changhyeong%Lee%NULL%0,                       Byung Seok%Kim%NULL%1,                       Jae Seok%Hwang%NULL%1,                       Byoung Kuk%Jang%NULL%1,                       Jinmok%Bae%NULL%1,                       Ji Yeon%Lee%NULL%0,                       Jeong Ill%Suh%NULL%1,                       Soo Young%Park%NULL%1,                       Woo Jin%Chung%NULL%2,                       Woo Jin%Chung%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                       Cristina%Roca-Oporto%NULL%0,                       Guillermo%Martín-Gutiérrez%NULL%0,                       María Dolores%Avilés%NULL%0,                       Carmen%Gómez-González%NULL%0,                       María Dolores%Navarro-Amuedo%NULL%0,                       Julia%Praena-Segovia%NULL%0,                       José%Molina%NULL%0,                       María%Paniagua-García%NULL%0,                       Horacio%García-Delgado%NULL%0,                       Antonio%Domínguez-Petit%NULL%0,                       Jerónimo%Pachón%NULL%0,                       José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                    Calvo%Boyero Fernando%coreGivesNoEmail%1,                    Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                    COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                    Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                    Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                    L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                    Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                    Santos%Lozano Alejandro%coreGivesNoEmail%1,                    Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                        Min%He%NULL%1,                        Wanhong%Yin%NULL%1,                        Xuelian%Liao%NULL%1,                        Bo%Wang%NULL%6,                        Xiaodong%Jin%NULL%1,                        Yao%Ma%NULL%2,                        Jirong%Yue%NULL%1,                        Lang%Bai%NULL%1,                        Dan%Liu%NULL%3,                        Ting%Zhu%NULL%1,                        Zhixin%Huang%NULL%1,                        Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                        Shuchang%Zhou%NULL%1,                        Yujin%Wang%NULL%1,                        Wenzhi%Lv%NULL%2,                        Shili%Wang%NULL%1,                        Ting%Wang%751884926@qq.com%1,                        Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                        Yan-chak%Li%NULL%1,                        Sonali%Bose%NULL%1,                        Ravi%Iyengar%NULL%1,                        Supinda%Bunyavanich%NULL%1,                        Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,               Hai-Tao%Zhang%null%1,               Jorge%Goncalves%null%1,               Yang%Xiao%null%1,               Maolin%Wang%null%1,               Yuqi%Guo%null%1,               Chuan%Sun%null%1,               Xiuchuan%Tang%null%1,               Liang%Jing%null%1,               Mingyang%Zhang%null%1,               Xiang%Huang%null%1,               Ying%Xiao%null%1,               Haosen%Cao%null%1,               Yanyan%Chen%null%1,               Tongxin%Ren%null%1,               Fang%Wang%null%1,               Yaru%Xiao%null%1,               Sufang%Huang%null%1,               Xi%Tan%null%1,               Niannian%Huang%null%1,               Bo%Jiao%null%1,               Cheng%Cheng%null%1,               Yong%Zhang%null%1,               Ailin%Luo%null%1,               Laurent%Mombaerts%null%1,               Junyang%Jin%null%1,               Zhiguo%Cao%null%1,               Shusheng%Li%null%1,               Hui%Xu%null%1,               Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                        Mengfei%Guo%NULL%1,                        Limin%Duan%NULL%1,                        Feng%Wu%NULL%1,                        Guorong%Hu%NULL%1,                        Zhihui%Wang%NULL%1,                        Qi%Huang%NULL%1,                        Tingting%Liao%NULL%1,                        Juanjuan%Xu%NULL%1,                        Yanling%Ma%NULL%1,                        Zhilei%Lv%NULL%1,                        Wenjing%Xiao%NULL%1,                        Zilin%Zhao%NULL%1,                        Xueyun%Tan%NULL%1,                        Daquan%Meng%NULL%1,                        Shujing%Zhang%NULL%1,                        E%Zhou%NULL%1,                        Zhengrong%Yin%NULL%1,                        Wei%Geng%NULL%1,                        Xuan%Wang%NULL%1,                        Jianchu%Zhang%NULL%1,                        Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                        Yu%Zhang%whxhzy@163.com%1,                        Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                        Francesco%Arru%NULL%2,                        Francesco%Arru%NULL%0,                        Andrea%De Vito%NULL%3,                        Alessandro%Sassu%NULL%2,                        Alessandro%Sassu%NULL%0,                        Giovanni%Valdes%NULL%1,                        Valentina%Scano%NULL%1,                        Elisabetta%Zinellu%NULL%1,                        Roberto%Perra%NULL%1,                        Giordano%Madeddu%NULL%3,                        Ciriaco%Carru%NULL%1,                        Pietro%Pirina%NULL%3,                        Arduino A.%Mangoni%NULL%2,                        Arduino A.%Mangoni%NULL%0,                        Sergio%Babudieri%NULL%4,                        Sergio%Babudieri%NULL%0,                        Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                        Pablo%Ryan%NULL%1,                        Jorge%Valencia%NULL%2,                        Jorge%Valencia%NULL%0,                        Mario%Pérez-Butragueño%NULL%2,                        Mario%Pérez-Butragueño%NULL%0,                        Eva%Jiménez%NULL%2,                        Eva%Jiménez%NULL%0,                        Mario%Fontán-Vela%NULL%1,                        Elsa%Izquierdo-García%NULL%2,                        Elsa%Izquierdo-García%NULL%0,                        Inés%Fernandez-Jimenez%NULL%1,                        Elena%Álvaro-Alonso%NULL%1,                        Andrea%Lazaro%NULL%2,                        Andrea%Lazaro%NULL%0,                        Marta%Alvarado%NULL%1,                        Helena%Notario%NULL%1,                        Salvador%Resino%NULL%1,                        Daniel%Velez-Serrano%NULL%1,                        Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                        Yiru%Wang%NULL%2,                        Xuecheng%Zhao%NULL%1,                        Lixuan%Wang%NULL%1,                        Feng%Liu%NULL%3,                        Tao%Wang%NULL%15,                        Dawei%Ye%NULL%2,                        Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                        Valentina%Zuccaro%NULL%1,                        Luca%Novelli%NULL%1,                        Lorenzo%Zileri%NULL%2,                        Lorenzo%Zileri%NULL%0,                        Ciro%Celsa%NULL%1,                        Federico%Raimondi%NULL%2,                        Federico%Raimondi%NULL%0,                        Mauro%Gori%NULL%1,                        Giulia%Cammà%NULL%1,                        Salvatore%Battaglia%NULL%1,                        Vincenzo Giuseppe%Genova%NULL%1,                        Laura%Paris%NULL%1,                        Matteo%Tacelli%NULL%1,                        Francesco Antonio%Mancarella%NULL%1,                        Marco%Enea%NULL%1,                        Massimo%Attanasio%NULL%1,                        Michele%Senni%NULL%1,                        Fabiano%Di Marco%NULL%1,                        Luca Ferdinando%Lorini%NULL%1,                        Stefano%Fagiuoli%NULL%1,                        Raffaele%Bruno%NULL%2,                        Calogero%Cammà%NULL%1,                        Antonio%Gasbarrini%NULL%3,                        Francesco%Di Gennaro%NULL%2,                        Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                        Gan-xun%Li%NULL%1,                        Lin%Chen%NULL%3,                        Chang%Shu%NULL%2,                        Jia%Song%NULL%1,                        Wei%Wang%NULL%2,                        Yu-wei%Wang%NULL%1,                        Qian%Chen%NULL%2,                        Guan-nan%Jin%NULL%1,                        Tong-tong%Liu%NULL%1,                        Jun-nan%Liang%NULL%1,                        Peng%Zhu%NULL%1,                        Wei%Zhu%NULL%5,                        Yong%Li%NULL%2,                        Bin-hao%Zhang%NULL%1,                        Huan%Feng%NULL%1,                        Wan-guang%Zhang%NULL%1,                        Zhen-yu%Yin%NULL%1,                        Wen-kui%Yu%NULL%1,                        Yang%Yang%NULL%2,                        Hua-qiu%Zhang%NULL%1,                        Zhou-ping%Tang%NULL%1,                        Hui%Wang%NULL%4,                        Jun-bo%Hu%NULL%1,                        Ji-hong%Liu%NULL%1,                        Ping%Yin%NULL%1,                        Xiao-ping%Chen%NULL%1,                        Bixiang%Zhang%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                        Günay%Can%NULL%2,                        Günay%Can%NULL%0,                        Rıdvan%Karaali%NULL%1,                        Şermin%Börekçi%NULL%1,                        İlker İnanç%Balkan%NULL%1,                        Bilun%Gemicioğlu%NULL%1,                        Dildar%Konukoğlu%NULL%1,                        Ethem%Erginöz%NULL%1,                        Mehmet Sarper%Erdoğan%NULL%1,                        Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                        Danila%Azzolina%NULL%1,                        Eyal%Hayden%NULL%2,                        Eyal%Hayden%NULL%0,                        Gianluca%Gaidano%NULL%2,                        Gianluca%Gaidano%NULL%0,                        Mario%Pirisi%NULL%2,                        Mario%Pirisi%NULL%0,                        Antonio%Acquaviva%NULL%2,                        Antonio%Acquaviva%NULL%0,                        Gianluca%Aimaretti%NULL%2,                        Gianluca%Aimaretti%NULL%0,                        Paolo%Aluffi Valletti%NULL%3,                        Paolo%Aluffi Valletti%NULL%0,                        Roberto%Angilletta%NULL%2,                        Roberto%Angilletta%NULL%0,                        Roberto%Arioli%NULL%2,                        Roberto%Arioli%NULL%0,                        Gian Carlo%Avanzi%NULL%2,                        Gian Carlo%Avanzi%NULL%0,                        Gianluca%Avino%NULL%2,                        Gianluca%Avino%NULL%0,                        Piero Emilio%Balbo%NULL%2,                        Piero Emilio%Balbo%NULL%0,                        Giulia%Baldon%NULL%2,                        Giulia%Baldon%NULL%0,                        Francesca%Baorda%NULL%2,                        Francesca%Baorda%NULL%0,                        Emanuela%Barbero%NULL%2,                        Emanuela%Barbero%NULL%0,                        Alessio%Baricich%NULL%2,                        Alessio%Baricich%NULL%0,                        Michela%Barini%NULL%2,                        Michela%Barini%NULL%0,                        Francesco%Barone-Adesi%NULL%2,                        Francesco%Barone-Adesi%NULL%0,                        Sofia%Battistini%NULL%2,                        Sofia%Battistini%NULL%0,                        Michela%Beltrame%NULL%2,                        Michela%Beltrame%NULL%0,                        Matteo%Bertoli%NULL%2,                        Matteo%Bertoli%NULL%0,                        Stephanie%Bertolin%NULL%2,                        Stephanie%Bertolin%NULL%0,                        Marinella%Bertolotti%NULL%2,                        Marinella%Bertolotti%NULL%0,                        Marta%Betti%NULL%2,                        Marta%Betti%NULL%0,                        Flavio%Bobbio%NULL%2,                        Flavio%Bobbio%NULL%0,                        Paolo%Boffano%NULL%2,                        Paolo%Boffano%NULL%0,                        Lucio%Boglione%NULL%2,                        Lucio%Boglione%NULL%0,                        Silvio%Borrè%NULL%2,                        Silvio%Borrè%NULL%0,                        Matteo%Brucoli%NULL%2,                        Matteo%Brucoli%NULL%0,                        Elisa%Calzaducca%NULL%2,                        Elisa%Calzaducca%NULL%0,                        Edoardo%Cammarata%NULL%2,                        Edoardo%Cammarata%NULL%0,                        Vincenzo%Cantaluppi%NULL%2,                        Vincenzo%Cantaluppi%NULL%0,                        Roberto%Cantello%NULL%2,                        Roberto%Cantello%NULL%0,                        Andrea%Capponi%NULL%2,                        Andrea%Capponi%NULL%0,                        Alessandro%Carriero%NULL%2,                        Alessandro%Carriero%NULL%0,                        Giuseppe Francesco%Casciaro%NULL%2,                        Giuseppe Francesco%Casciaro%NULL%0,                        Luigi Mario%Castello%NULL%2,                        Luigi Mario%Castello%NULL%0,                        Federico%Ceruti%NULL%2,                        Federico%Ceruti%NULL%0,                        Guido%Chichino%NULL%2,                        Guido%Chichino%NULL%0,                        Emilio%Chirico%NULL%2,                        Emilio%Chirico%NULL%0,                        Carlo%Cisari%NULL%1,                        Micol Giulia%Cittone%NULL%2,                        Micol Giulia%Cittone%NULL%0,                        Crizia%Colombo%NULL%2,                        Crizia%Colombo%NULL%0,                        Cristoforo%Comi%NULL%2,                        Cristoforo%Comi%NULL%0,                        Eleonora%Croce%NULL%2,                        Eleonora%Croce%NULL%0,                        Tommaso%Daffara%NULL%2,                        Tommaso%Daffara%NULL%0,                        Pietro%Danna%NULL%2,                        Pietro%Danna%NULL%0,                        Francesco%Della Corte%NULL%2,                        Francesco%Della Corte%NULL%0,                        Simona%De Vecchi%NULL%2,                        Simona%De Vecchi%NULL%0,                        Umberto%Dianzani%NULL%2,                        Umberto%Dianzani%NULL%0,                        Davide%Di Benedetto%NULL%2,                        Davide%Di Benedetto%NULL%0,                        Elia%Esposto%NULL%2,                        Elia%Esposto%NULL%0,                        Fabrizio%Faggiano%NULL%2,                        Fabrizio%Faggiano%NULL%0,                        Zeno%Falaschi%NULL%2,                        Zeno%Falaschi%NULL%0,                        Daniela%Ferrante%NULL%2,                        Daniela%Ferrante%NULL%0,                        Alice%Ferrero%NULL%2,                        Alice%Ferrero%NULL%0,                        Ileana%Gagliardi%NULL%2,                        Ileana%Gagliardi%NULL%0,                        Alessandra%Galbiati%NULL%2,                        Alessandra%Galbiati%NULL%0,                        Silvia%Gallo%NULL%2,                        Silvia%Gallo%NULL%0,                        Pietro Luigi%Garavelli%NULL%2,                        Pietro Luigi%Garavelli%NULL%0,                        Clara Ada%Gardino%NULL%2,                        Clara Ada%Gardino%NULL%0,                        Massimiliano%Garzaro%NULL%3,                        Massimiliano%Garzaro%NULL%0,                        Maria Luisa%Gastaldello%NULL%2,                        Maria Luisa%Gastaldello%NULL%0,                        Francesco%Gavelli%NULL%2,                        Francesco%Gavelli%NULL%0,                        Alessandra%Gennari%NULL%2,                        Alessandra%Gennari%NULL%0,                        Greta Maria%Giacomini%NULL%2,                        Greta Maria%Giacomini%NULL%0,                        Irene%Giacone%NULL%2,                        Irene%Giacone%NULL%0,                        Valentina%Giai Via%NULL%2,                        Valentina%Giai Via%NULL%0,                        Francesca%Giolitti%NULL%2,                        Francesca%Giolitti%NULL%0,                        Laura Cristina%Gironi%NULL%2,                        Laura Cristina%Gironi%NULL%0,                        Carla%Gramaglia%NULL%2,                        Carla%Gramaglia%NULL%0,                        Leonardo%Grisafi%NULL%2,                        Leonardo%Grisafi%NULL%0,                        Ilaria%Inserra%NULL%2,                        Ilaria%Inserra%NULL%0,                        Marco%Invernizzi%NULL%2,                        Marco%Invernizzi%NULL%0,                        Marco%Krengli%NULL%2,                        Marco%Krengli%NULL%0,                        Emanuela%Labella%NULL%2,                        Emanuela%Labella%NULL%0,                        Irene Cecilia%Landi%NULL%2,                        Irene Cecilia%Landi%NULL%0,                        Raffaella%Landi%NULL%2,                        Raffaella%Landi%NULL%0,                        Ilaria%Leone%NULL%2,                        Ilaria%Leone%NULL%0,                        Veronica%Lio%NULL%2,                        Veronica%Lio%NULL%0,                        Luca%Lorenzini%NULL%2,                        Luca%Lorenzini%NULL%0,                        Antonio%Maconi%NULL%2,                        Antonio%Maconi%NULL%0,                        Mario%Malerba%NULL%2,                        Mario%Malerba%NULL%0,                        Giulia Francesca%Manfredi%NULL%2,                        Giulia Francesca%Manfredi%NULL%0,                        Maria%Martelli%NULL%2,                        Maria%Martelli%NULL%0,                        Letizia%Marzari%NULL%2,                        Letizia%Marzari%NULL%0,                        Paolo%Marzullo%NULL%2,                        Paolo%Marzullo%NULL%0,                        Marco%Mennuni%NULL%2,                        Marco%Mennuni%NULL%0,                        Claudia%Montabone%NULL%2,                        Claudia%Montabone%NULL%0,                        Umberto%Morosini%NULL%2,                        Umberto%Morosini%NULL%0,                        Marco%Mussa%NULL%2,                        Marco%Mussa%NULL%0,                        Ilaria%Nerici%NULL%2,                        Ilaria%Nerici%NULL%0,                        Alessandro%Nuzzo%NULL%2,                        Alessandro%Nuzzo%NULL%0,                        Carlo%Olivieri%NULL%2,                        Carlo%Olivieri%NULL%0,                        Samuel Alberto%Padelli%NULL%2,                        Samuel Alberto%Padelli%NULL%0,                        Massimiliano%Panella%NULL%2,                        Massimiliano%Panella%NULL%0,                        Andrea%Parisini%NULL%2,                        Andrea%Parisini%NULL%0,                        Alessio%Paschè%NULL%2,                        Alessio%Paschè%NULL%0,                        Filippo%Patrucco%NULL%2,                        Filippo%Patrucco%NULL%0,                        Giuseppe%Patti%NULL%2,                        Giuseppe%Patti%NULL%0,                        Alberto%Pau%NULL%2,                        Alberto%Pau%NULL%0,                        Anita Rebecca%Pedrinelli%NULL%2,                        Anita Rebecca%Pedrinelli%NULL%0,                        Ilaria%Percivale%NULL%2,                        Ilaria%Percivale%NULL%0,                        Luca%Ragazzoni%NULL%2,                        Luca%Ragazzoni%NULL%0,                        Roberta%Re%NULL%2,                        Roberta%Re%NULL%0,                        Cristina%Rigamonti%NULL%2,                        Cristina%Rigamonti%NULL%0,                        Eleonora%Rizzi%NULL%2,                        Eleonora%Rizzi%NULL%0,                        Andrea%Rognoni%NULL%2,                        Andrea%Rognoni%NULL%0,                        Annalisa%Roveta%NULL%2,                        Annalisa%Roveta%NULL%0,                        Luigia%Salamina%NULL%2,                        Luigia%Salamina%NULL%0,                        Matteo%Santagostino%NULL%2,                        Matteo%Santagostino%NULL%0,                        Massimo%Saraceno%NULL%2,                        Massimo%Saraceno%NULL%0,                        Paola%Savoia%NULL%2,                        Paola%Savoia%NULL%0,                        Marco%Sciarra%NULL%2,                        Marco%Sciarra%NULL%0,                        Andrea%Schimmenti%NULL%2,                        Andrea%Schimmenti%NULL%0,                        Lorenza%Scotti%NULL%2,                        Lorenza%Scotti%NULL%0,                        Enrico%Spinoni%NULL%2,                        Enrico%Spinoni%NULL%0,                        Carlo%Smirne%NULL%2,                        Carlo%Smirne%NULL%0,                        Vanessa%Tarantino%NULL%2,                        Vanessa%Tarantino%NULL%0,                        Paolo Amedeo%Tillio%NULL%2,                        Paolo Amedeo%Tillio%NULL%0,                        Stelvio%Tonello%NULL%2,                        Stelvio%Tonello%NULL%0,                        Rosanna%Vaschetto%NULL%2,                        Rosanna%Vaschetto%NULL%0,                        Veronica%Vassia%NULL%2,                        Veronica%Vassia%NULL%0,                        Domenico%Zagaria%NULL%2,                        Domenico%Zagaria%NULL%0,                        Elisa%Zavattaro%NULL%2,                        Elisa%Zavattaro%NULL%0,                        Patrizia%Zeppegno%NULL%2,                        Patrizia%Zeppegno%NULL%0,                        Francesca%Zottarelli%NULL%2,                        Francesca%Zottarelli%NULL%0,                        Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                        Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                        Marta%Ottone%NULL%2,                        Marta%Ottone%NULL%0,                        Tommaso%Fasano%NULL%1,                        Pierpaolo%Pattacini%NULL%1,                        Valentina%Iotti%NULL%1,                        Lucia%Spaggiari%NULL%1,                        Riccardo%Bonacini%NULL%1,                        Andrea%Nitrosi%NULL%1,                        Efrem%Bonelli%NULL%1,                        Simone%Canovi%NULL%1,                        Rossana%Colla%NULL%1,                        Alessandro%Zerbini%NULL%1,                        Marco%Massari%NULL%1,                        Ivana%Lattuada%NULL%1,                        Anna Maria%Ferrari%NULL%1,                        Paolo%Giorgi Rossi%NULL%1,                        Massimo%Costantini%NULL%1,                        Roberto%Grilli%NULL%1,                        Massimiliano%Marino%NULL%1,                        Giulio%Formoso%NULL%1,                        Debora%Formisano%NULL%1,                        Emanuela%Bedeschi%NULL%1,                        Cinzia%Perilli%NULL%1,                        Elisabetta%La Rosa%NULL%1,                        Eufemia%Bisaccia%NULL%1,                        Ivano%Venturi%NULL%1,                        Massimo%Vicentini%NULL%1,                        Cinzia%Campari%NULL%1,                        Francesco%Gioia%NULL%1,                        Serena%Broccoli%NULL%1,                        Pamela%Mancuso%NULL%1,                        Marco%Foracchia%NULL%1,                        Mirco%Pinotti%NULL%1,                        Nicola%Facciolongo%NULL%1,                        Laura%Trabucco%NULL%1,                        Stefano%De Pietri%NULL%1,                        Giorgio Francesco%Danelli%NULL%1,                        Laura%Albertazzi%NULL%1,                        Enrica%Bellesia%NULL%1,                        Mattia%Corradini%NULL%1,                        Elena%Magnani%NULL%1,                        Annalisa%Pilia%NULL%1,                        Alessandra%Polese%NULL%1,                        Silvia Storchi%Incerti%NULL%1,                        Piera%Zaldini%NULL%1,                        Bonanno%Orsola%NULL%1,                        Matteo%Revelli%NULL%1,                        Carlo%Salvarani%NULL%1,                        Carmine%Pinto%NULL%1,                        Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                        Hong-Qiu%Gu%NULL%1,                        Yi%Liu (刘艺)%NULL%1,                        Guqin%Zhang%NULL%1,                        Hang%Yang%NULL%1,                        Huifang%Hu%NULL%1,                        Chenyang%Lu%NULL%1,                        Yang%Li%NULL%3,                        Liyi%Wang%NULL%1,                        Yi%Liu (刘毅)%yi2006liu@163.com%1,                        Yi%Zhao%zhao.y1977@163.com%1,                        Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                        Tawsifur%Rahman%NULL%2,                        Tawsifur%Rahman%NULL%0,                        Amith%Khandakar%NULL%3,                        Somaya%Al-Madeed%NULL%2,                        Susu M.%Zughaier%NULL%5,                        Suhail A. R.%Doi%NULL%3,                        Hanadi%Hassen%NULL%1,                        Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                        Jia%Sun%NULL%1,                        Yi-Xin%Li%NULL%1,                        Qian%Chen%NULL%0,                        Qing-Quan%Liu%NULL%1,                        Zhou%Sun%NULL%1,                        Ran%Pang%NULL%1,                        Fei%Chen%NULL%1,                        Bing-Yang%Xu%NULL%1,                        Anne%Manyande%NULL%1,                        Taane G%Clark%NULL%1,                        Jin-Ping%Li%NULL%1,                        Ilkay Erdogan%Orhan%NULL%1,                        Yu-Ke%Tian%NULL%1,                        Tao%Wang%wt7636@126.com%0,                        Wei%Wu%wt7636@126.com%1,                        Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,                     Imam%Z%coreGivesNoEmail%1,                     Lippi%G%coreGivesNoEmail%1,                     Oran%DP%coreGivesNoEmail%1,                     Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                        Caiping%Song%NULL%1,                        En%Liu%NULL%1,                        Xi%Liu%NULL%1,                        Hao%Wu%NULL%1,                        Hui%Lin%NULL%1,                        Yuliang%Liu%NULL%1,                        Qi%Li%NULL%1,                        Zhi%Xu%NULL%1,                        XiaoBao%Ren%NULL%1,                        Cheng%Zhang%NULL%1,                        Wenjing%Zhang%NULL%1,                        Wei%Duan%NULL%2,                        Yongfeng%Tian%NULL%1,                        Ping%Li%NULL%1,                        Mingdong%Hu%NULL%1,                        Shiming%Yang%NULL%1,                        Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                        Changli%Li%NULL%1,                        Li%Zheng%NULL%1,                        Wenzhi%Lv%NULL%0,                        Zhigang%He%NULL%1,                        Xinwu%Cui%NULL%1,                        Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                        Hayne Cho%Park%NULL%2,                        Hayne Cho%Park%NULL%0,                        Ajin%Cho%NULL%1,                        Juhee%Kim%NULL%1,                        Kyu-sang%Yun%NULL%1,                        Jinseog%Kim%NULL%1,                        Young-Ki%Lee%NULL%1,                        Sinan%Kardes.%NULL%2,                        Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                        Xiaoyu%Fang%NULL%1,                        Lixia%Cheng%NULL%1,                        Penghao%Wang%NULL%1,                        Shen%Li%NULL%1,                        Hao%Yu%NULL%1,                        Yao%Zhang%NULL%2,                        Nan%Jiang%NULL%1,                        Tingting%Zeng%NULL%1,                        Chao%Hou%NULL%1,                        Jing%Zhou%NULL%1,                        Shiru%Li%NULL%1,                        Yingzi%Pan%NULL%1,                        Yitong%Li%NULL%1,                        Lili%Nie%NULL%1,                        Yang%Li%NULL%0,                        Qidi%Sun%NULL%1,                        Hong%Jia%NULL%1,                        Mengxia%Li%NULL%1,                        Guoqiang%Cao%NULL%1,                        Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                        Lucas A%Ramos%NULL%2,                        Lucas A%Ramos%NULL%0,                        Wouter%Potters%NULL%1,                        Marcus L F%Janssen%NULL%1,                        Deborah%Hubers%NULL%1,                        Shi%Hu%NULL%1,                        Egill A%Fridgeirsson%NULL%1,                        Dan%Piña-Fuentes%NULL%1,                        Rajat%Thomas%NULL%1,                        Iwan C C%van der Horst%NULL%1,                        Christian%Herff%NULL%2,                        Christian%Herff%NULL%0,                        Pieter%Kubben%NULL%1,                        Paul W G%Elbers%NULL%1,                        Henk A%Marquering%NULL%1,                        Max%Welling%NULL%1,                        Suat%Simsek%NULL%1,                        Martijn D%de Kruif%NULL%1,                        Tom%Dormans%NULL%1,                        Lucas M%Fleuren%NULL%1,                        Michiel%Schinkel%NULL%1,                        Peter G%Noordzij%NULL%1,                        Joop P%van den Bergh%NULL%2,                        Joop P%van den Bergh%NULL%0,                        Caroline E%Wyers%NULL%1,                        David T B%Buis%NULL%2,                        David T B%Buis%NULL%0,                        W Joost%Wiersinga%NULL%1,                        Ella H C%van den Hout%NULL%1,                        Auke C%Reidinga%NULL%1,                        Daisy%Rusch%NULL%1,                        Kim C E%Sigaloff%NULL%1,                        Renee A%Douma%NULL%1,                        Lianne%de Haan%NULL%1,                        Niels C%Gritters van den Oever%NULL%1,                        Roger J M W%Rennenberg%NULL%1,                        Guido A%van Wingen%NULL%1,                        Marcel J H%Aries%NULL%1,                        Martijn%Beudel%NULL%2,                        Martijn%Beudel%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                        Fajer A.%Al-Ishaq%NULL%2,                        Fajer A.%Al-Ishaq%NULL%0,                        Fatima S.%Al-Mohannadi%NULL%1,                        Reem S.%Mubarak%NULL%1,                        Maryam H.%Al-Hitmi%NULL%1,                        Khandaker Reajul%Islam%NULL%1,                        Amith%Khandakar%NULL%0,                        Ali Ait%Hssain%NULL%3,                        Ali Ait%Hssain%NULL%0,                        Somaya%Al-Madeed%NULL%0,                        Susu M.%Zughaier%NULL%0,                        Susu M.%Zughaier%NULL%0,                        Muhammad E. H.%Chowdhury%NULL%3,                        Muhammad E. H.%Chowdhury%NULL%0,                        Antonella%Santone%NULL%3,                        Antonella%Santone%NULL%0,                        Antonella%Santone%NULL%0,                        Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                        Amith%Khandakar%NULL%0,                        Md Enamul%Hoque%NULL%2,                        Md Enamul%Hoque%NULL%0,                        Nabil%Ibtehaz%NULL%2,                        Nabil%Ibtehaz%NULL%0,                        Saad Bin%Kashem%NULL%2,                        Saad Bin%Kashem%NULL%0,                        Reehum%Masud%NULL%1,                        Lutfunnahar%Shampa%NULL%1,                        Mohammad Mehedi%Hasan%NULL%1,                        Mohammad Tariqul%Islam%NULL%1,                        Somaya%Al-Maadeed%NULL%2,                        Somaya%Al-Maadeed%NULL%0,                        Susu M.%Zughaier%NULL%0,                        Susu M.%Zughaier%NULL%0,                        Saif%Badran%NULL%2,                        Saif%Badran%NULL%0,                        Suhail A. R.%Doi%NULL%0,                        Suhail A. R.%Doi%NULL%0,                        Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                        Pablo%Rodríguez-Belenguer%NULL%2,                        Pablo%Rodríguez-Belenguer%NULL%0,                        Antonio J.%Serrano-López%NULL%1,                        Emilio%Soria-Olivas%NULL%2,                        Emilio%Soria-Olivas%NULL%0,                        Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                        Haibo%Ai%NULL%1,                        Yunong%Fu%NULL%1,                        Qinglin%Li%NULL%1,                        Ruixia%Cui%NULL%1,                        Xiaohua%Ma%NULL%1,                        Yan-fen%Ma%NULL%1,                        Zi%Wang%NULL%1,                        Tong%Liu%NULL%1,                        Yunxiang%Long%NULL%1,                        Kai%Qu%NULL%1,                        Chang%Liu%NULL%1,                        Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                        Dawei%Zhang%NULL%1,                        Jing%Xu%NULL%6,                        Zhu%Chen%NULL%1,                        Tieniu%Yang%NULL%1,                        Peng%Zhao%NULL%2,                        Guofeng%Chen%NULL%1,                        Gregory%Cheng%NULL%1,                        Yudong%Wang%NULL%1,                        Jingfeng%Bi%NULL%1,                        Lin%Tan%NULL%1,                        George%Lau%NULL%1,                        Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                        Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                        Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                        Giulia%Suigo%NULL%1,                        Davide%Zampini%NULL%1,                        Matteo%Pistoia%NULL%1,                        Mariella%Ciola%NULL%1,                        Tommaso%Ciampani%NULL%1,                        Carolina%Ultori%NULL%1,                        Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                        John R%Adler%NULL%3,                        Sultan M%Kamran%NULL%2,                        Sultan M%Kamran%NULL%0,                        Zill-e-Humayun%Mirza%NULL%1,                        Hussain Abdul%Moeed%NULL%1,                        Arshad%Naseem%NULL%1,                        Maryam%Hussain%NULL%1,                        Imran%Fazal%NULL%1,                        Farrukh%Saeed%NULL%1,                        Wasim%Alamgir%NULL%1,                        Salman%Saleem%NULL%1,                        Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                        María M.%Martín%NULL%1,                        Mónica%Argueso%NULL%1,                        Jordi%Solé-Violán%NULL%1,                        Alina%Perez%NULL%1,                        José Alberto%Marcos Y Ramos%NULL%1,                        Luis%Ramos-Gómez%NULL%1,                        Sergio%López%NULL%1,                        Andrés%Franco%NULL%1,                        Agustín F.%González-Rivero%NULL%1,                        María%Martín%NULL%1,                        Verónica%Gonzalez%NULL%1,                        Julia%Alcoba-Flórez%NULL%1,                        Miguel Ángel%Rodriguez%NULL%1,                        Marta%Riaño-Ruiz%NULL%1,                        Juan%Guillermo O Campo%NULL%1,                        Lourdes%González%NULL%1,                        Tamara%Cantera%NULL%1,                        Raquel%Ortiz-López%NULL%1,                        Nazario%Ojeda%NULL%1,                        Aurelio%Rodríguez-Pérez%NULL%1,                        Casimira%Domínguez%NULL%1,                        Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                        Rita%Kukafka%NULL%1,                        Arriel%Benis%NULL%2,                        Arriel%Benis%NULL%0,                        Jinfeng%Li%NULL%1,                        Pan%Pan%NULL%2,                        Pan%Pan%NULL%0,                        Yichao%Li%NULL%2,                        Yichao%Li%NULL%0,                        Yongjiu%Xiao%NULL%2,                        Yongjiu%Xiao%NULL%0,                        Bingchao%Han%NULL%2,                        Bingchao%Han%NULL%0,                        Longxiang%Su%NULL%2,                        Longxiang%Su%NULL%0,                        Mingliang%Su%NULL%2,                        Mingliang%Su%NULL%0,                        Yansheng%Li%NULL%2,                        Yansheng%Li%NULL%0,                        Siqi%Zhang%NULL%2,                        Siqi%Zhang%NULL%0,                        Dapeng%Jiang%NULL%2,                        Dapeng%Jiang%NULL%0,                        Xia%Chen%NULL%2,                        Xia%Chen%NULL%0,                        Fuquan%Zhou%NULL%2,                        Fuquan%Zhou%NULL%0,                        Ling%Ma%NULL%2,                        Ling%Ma%NULL%0,                        Pengtao%Bao%NULL%2,                        Pengtao%Bao%NULL%0,                        Lixin%Xie%xielx301@126.com%2,                        Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                        Cristina%Roca-Oporto%NULL%2,                        Guillermo%Martín-Gutiérrez%NULL%2,                        María Dolores%Avilés%NULL%2,                        Carmen%Gómez-González%NULL%2,                        María Dolores%Navarro-Amuedo%NULL%2,                        Julia%Praena-Segovia%NULL%2,                        José%Molina%NULL%2,                        María%Paniagua-García%NULL%2,                        Horacio%García-Delgado%NULL%2,                        Antonio%Domínguez-Petit%NULL%2,                        Jerónimo%Pachón%NULL%2,                        José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                        Barry R.%Meisenberg%NULL%2,                        Barry R.%Meisenberg%NULL%0,                        James H.%MacDonald%NULL%1,                        Nandakumar%Menon%NULL%1,                        Marcia B.%Fowler%NULL%1,                        Michaline%West%NULL%1,                        Jane%Rhule%NULL%1,                        Sadaf S.%Qureshi%NULL%1,                        Eileen B.%MacDonald%NULL%1,                        Yu Ru%Kou%NULL%2,                        Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                        Sarah%Poole%NULL%2,                        Sarah%Poole%NULL%0,                        Meeta%Pradhan%NULL%1,                        Akhil%Vaid%NULL%3,                        Akhil%Vaid%NULL%0,                        Sulaiman%Somani%NULL%3,                        Sulaiman%Somani%NULL%0,                        Adam J%Russak%NULL%2,                        Adam J%Russak%NULL%0,                        Jessica K%De Freitas%NULL%2,                        Jessica K%De Freitas%NULL%0,                        Fayzan F%Chaudhry%NULL%2,                        Fayzan F%Chaudhry%NULL%0,                        Ishan%Paranjpe%NULL%3,                        Ishan%Paranjpe%NULL%0,                        Kipp W%Johnson%NULL%2,                        Kipp W%Johnson%NULL%0,                        Samuel J%Lee%NULL%2,                        Samuel J%Lee%NULL%0,                        Riccardo%Miotto%NULL%2,                        Riccardo%Miotto%NULL%0,                        Felix%Richter%NULL%3,                        Felix%Richter%NULL%0,                        Shan%Zhao%NULL%3,                        Shan%Zhao%NULL%0,                        Noam D%Beckmann%NULL%2,                        Noam D%Beckmann%NULL%0,                        Nidhi%Naik%NULL%2,                        Nidhi%Naik%NULL%0,                        Arash%Kia%NULL%2,                        Arash%Kia%NULL%0,                        Prem%Timsina%NULL%2,                        Prem%Timsina%NULL%0,                        Anuradha%Lala%NULL%2,                        Anuradha%Lala%NULL%0,                        Manish%Paranjpe%NULL%2,                        Manish%Paranjpe%NULL%0,                        Eddye%Golden%NULL%2,                        Eddye%Golden%NULL%0,                        Matteo%Danieletto%NULL%2,                        Matteo%Danieletto%NULL%0,                        Manbir%Singh%NULL%2,                        Manbir%Singh%NULL%0,                        Dara%Meyer%NULL%2,                        Dara%Meyer%NULL%0,                        Paul F%O'Reilly%NULL%2,                        Paul F%O'Reilly%NULL%0,                        Laura%Huckins%NULL%2,                        Laura%Huckins%NULL%0,                        Patricia%Kovatch%NULL%2,                        Patricia%Kovatch%NULL%0,                        Joseph%Finkelstein%NULL%2,                        Joseph%Finkelstein%NULL%0,                        Robert M.%Freeman%NULL%2,                        Robert M.%Freeman%NULL%0,                        Edgar%Argulian%NULL%2,                        Edgar%Argulian%NULL%0,                        Andrew%Kasarskis%NULL%2,                        Andrew%Kasarskis%NULL%0,                        Bethany%Percha%NULL%2,                        Bethany%Percha%NULL%0,                        Judith A%Aberg%NULL%2,                        Judith A%Aberg%NULL%0,                        Emilia%Bagiella%NULL%3,                        Emilia%Bagiella%NULL%0,                        Carol R%Horowitz%NULL%2,                        Carol R%Horowitz%NULL%0,                        Barbara%Murphy%NULL%2,                        Barbara%Murphy%NULL%0,                        Eric J%Nestler%NULL%2,                        Eric J%Nestler%NULL%0,                        Eric E%Schadt%NULL%2,                        Eric E%Schadt%NULL%0,                        Judy H%Cho%NULL%2,                        Judy H%Cho%NULL%0,                        Carlos%Cordon-Cardo%NULL%2,                        Carlos%Cordon-Cardo%NULL%0,                        Valentin%Fuster%NULL%3,                        Valentin%Fuster%NULL%0,                        Dennis S%Charney%NULL%2,                        Dennis S%Charney%NULL%0,                        David L%Reich%NULL%2,                        David L%Reich%NULL%0,                        Erwin P%Bottinger%NULL%2,                        Erwin P%Bottinger%NULL%0,                        Matthew A%Levin%NULL%2,                        Matthew A%Levin%NULL%0,                        Jagat%Narula%NULL%3,                        Jagat%Narula%NULL%0,                        Zahi A%Fayad%NULL%2,                        Zahi A%Fayad%NULL%0,                        Allan C%Just%NULL%2,                        Allan C%Just%NULL%0,                        Alexander W%Charney%NULL%2,                        Alexander W%Charney%NULL%0,                        Girish N%Nadkarni%NULL%2,                        Girish N%Nadkarni%NULL%0,                        Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                        Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                        Anne%Chen%NULL%2,                        Wei%Hou%NULL%3,                        James M.%Graham%NULL%1,                        Haifang%Li%NULL%2,                        Paul S.%Richman%NULL%1,                        Henry C.%Thode%NULL%1,                        Adam J.%Singer%NULL%1,                        Tim Q.%Duong%NULL%1,                        Muhammad%Adrish%NULL%9,                        Muhammad%Adrish%NULL%0,                        Muhammad%Adrish%NULL%0,                        Muhammad%Adrish%NULL%0,                        Muhammad%Adrish%NULL%0,                        Muhammad%Adrish%NULL%0,                        Muhammad%Adrish%NULL%0,                        Muhammad%Adrish%NULL%0,                        Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                        Qin%Liu%NULL%2,                        Xiao%Zhang%NULL%2,                        Shuyi%Liu%NULL%1,                        Weiqi%Chen%NULL%1,                        Jingjing%You%NULL%1,                        Qiuying%Chen%NULL%1,                        Minmin%Li%NULL%1,                        Zhuozhi%Chen%NULL%1,                        Luyan%Chen%NULL%1,                        Lv%Chen%NULL%1,                        Yuhao%Dong%NULL%1,                        Qingsi%Zeng%NULL%1,                        Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                        Lei%Nie%NULL%1,                        Dongde%Wu%NULL%1,                        Jian%Chen%NULL%2,                        Zhifeng%Yang%NULL%1,                        Ling%Zhang%NULL%3,                        Dongqing%Li%NULL%1,                        Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                        Burcin%Hakoglu%NULL%2,                        Burcin%Hakoglu%NULL%0,                        Ali%Kadri Cirak%NULL%1,                        Gulru%Polat%NULL%1,                        Berna%Komurcuoglu%NULL%1,                        Berrin%Akkol%NULL%1,                        Cagri%Atasoy%NULL%1,                        Eda%Bayramic%NULL%1,                        Gunseli%Balci%NULL%1,                        Sena%Ataman%NULL%1,                        Sinem%Ermin%NULL%1,                        Enver%Yalniz%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                        Qiaosen%Chen%NULL%2,                        Qiaosen%Chen%NULL%0,                        Sumeng%Li%NULL%1,                        Huadong%Li%NULL%1,                        Qian%Zhang%NULL%1,                        Sihong%Lu%NULL%1,                        Li%Wu%NULL%1,                        Leiqun%Xiong%NULL%1,                        Bobin%Mi%NULL%1,                        Di%Liu%NULL%3,                        Mengji%Lu%NULL%1,                        Dongliang%Yang%NULL%1,                        Hongbo%Jiang%hongbojiang3@163.com%1,                        Shaoping%Zheng%zhengspxx@126.com%1,                        Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                        Hua%Zhang%NULL%2,                        Rui%Qiao%NULL%1,                        Qinggang%Ge%NULL%1,                        Shuisheng%Zhang%NULL%1,                        Zongxuan%Zhao%NULL%1,                        Ci%Tian%NULL%1,                        Qingbian%Ma%NULL%2,                        Qingbian%Ma%NULL%0,                        Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                        Antonia%Ho%NULL%2,                        Riinu%Pius%NULL%2,                        Iain%Buchan%NULL%1,                        Gail%Carson%NULL%2,                        Thomas M%Drake%NULL%1,                        Jake%Dunning%NULL%2,                        Cameron J%Fairfield%NULL%2,                        Carrol%Gamble%NULL%2,                        Christopher A%Green%NULL%2,                        Rishi%Gupta%NULL%1,                        Sophie%Halpin%NULL%2,                        Hayley E%Hardwick%NULL%1,                        Karl A%Holden%NULL%1,                        Peter W%Horby%NULL%2,                        Clare%Jackson%NULL%2,                        Kenneth A%Mclean%NULL%2,                        Laura%Merson%NULL%2,                        Jonathan S%Nguyen-Van-Tam%NULL%1,                        Lisa%Norman%NULL%2,                        Mahdad%Noursadeghi%NULL%2,                        Piero L%Olliaro%NULL%1,                        Mark G%Pritchard%NULL%1,                        Clark D%Russell%NULL%2,                        Catherine A%Shaw%NULL%2,                        Aziz%Sheikh%NULL%2,                        Tom%Solomon%NULL%2,                        Cathie%Sudlow%NULL%1,                        Olivia V%Swann%NULL%1,                        Lance CW%Turtle%NULL%2,                        Peter JM%Openshaw%NULL%2,                        J Kenneth%Baillie%NULL%2,                        Malcolm G%Semple%NULL%3,                        Annemarie B%Docherty%NULL%3,                        Annemarie B%Docherty%NULL%0,                        Ewen M%Harrison%NULL%3,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        J Kenneth%Baillie%NULL%0,                        Malcolm G%Semple%NULL%0,                        Peter JM%Openshaw%NULL%0,                        Gail%Carson%NULL%0,                        Beatrice%Alex%NULL%1,                        Benjamin%Bach%NULL%1,                        Wendy S%Barclay%NULL%1,                        Debby%Bogaert%NULL%1,                        Meera%Chand%NULL%1,                        Graham S%Cooke%NULL%1,                        Annemarie B%Docherty%NULL%0,                        Jake%Dunning%NULL%0,                        Ana%da Silva Filipe%NULL%1,                        Tom%Fletcher%NULL%1,                        Christopher A%Green%NULL%0,                        Ewen M%Harrison%NULL%0,                        Julian A%Hiscox%NULL%1,                        Antonia Ying Wai%Ho%NULL%1,                        Peter W%Horby%NULL%0,                        Samreen%Ijaz%NULL%1,                        Saye%Khoo%NULL%1,                        Paul%Klenerman%NULL%1,                        Andrew%Law%NULL%2,                        Wei Shen%Lim%NULL%1,                        Alexander J%Mentzer%NULL%1,                        Laura%Merson%NULL%0,                        Alison M%Meynert%NULL%1,                        Mahdad%Noursadeghi%NULL%0,                        Shona C%Moore%NULL%2,                        Massimo%Palmarini%NULL%1,                        William A%Paxton%NULL%1,                        Georgios%Pollakis%NULL%1,                        Nicholas%Price%NULL%1,                        Andrew%Rambaut%NULL%1,                        David L%Robertson%NULL%1,                        Clark D%Russell%NULL%0,                        Vanessa%Sancho-Shimizu%NULL%1,                        Janet T%Scott%NULL%1,                        Louise%Sigfrid%NULL%1,                        Tom%Solomon%NULL%0,                        Shiranee%Sriskandan%NULL%1,                        David%Stuart%NULL%1,                        Charlotte%Summers%NULL%1,                        Richard S%Tedder%NULL%1,                        Emma C%Thomson%NULL%1,                        Ryan S%Thwaites%NULL%1,                        Lance CW%Turtle%NULL%0,                        Maria%Zambon%NULL%1,                        Hayley%Hardwick%NULL%1,                        Chloe%Donohue%NULL%1,                        Jane%Ewins%NULL%1,                        Wilna%Oosthuyzen%NULL%1,                        Fiona%Griffiths%NULL%1,                        Lisa%Norman%NULL%0,                        Riinu%Pius%NULL%0,                        Tom M%Drake%NULL%1,                        Cameron J%Fairfield%NULL%0,                        Stephen%Knight%NULL%1,                        Kenneth A%Mclean%NULL%0,                        Derek%Murphy%NULL%1,                        Catherine A%Shaw%NULL%0,                        Jo%Dalton%NULL%1,                        Michelle%Girvan%NULL%1,                        Egle%Saviciute%NULL%1,                        Stephanie%Roberts%NULL%1,                        Janet%Harrison%NULL%1,                        Laura%Marsh%NULL%1,                        Marie%Connor%NULL%1,                        Sophie%Halpin%NULL%0,                        Clare%Jackson%NULL%0,                        Carrol%Gamble%NULL%0,                        Gary%Leeming%NULL%1,                        Andrew%Law%NULL%0,                        Ross%Hendry%NULL%1,                        James%Scott-Brown%NULL%1,                        William%Greenhalf%NULL%1,                        Victoria%Shaw%NULL%1,                        Sarah%McDonald%NULL%2,                        Katie A%Ahmed%NULL%1,                        Jane A%Armstrong%NULL%1,                        Milton%Ashworth%NULL%1,                        Innocent G%Asiimwe%NULL%1,                        Siddharth%Bakshi%NULL%1,                        Samantha L%Barlow%NULL%1,                        Laura%Booth%NULL%1,                        Benjamin%Brennan%NULL%1,                        Katie%Bullock%NULL%1,                        Benjamin WA%Catterall%NULL%1,                        Jordan J%Clark%NULL%1,                        Emily A%Clarke%NULL%1,                        Sarah%Cole%NULL%1,                        Louise%Cooper%NULL%1,                        Helen%Cox%NULL%1,                        Christopher%Davis%NULL%1,                        Oslem%Dincarslan%NULL%1,                        Chris%Dunn%NULL%1,                        Philip%Dyer%NULL%1,                        Angela%Elliott%NULL%1,                        Anthony%Evans%NULL%1,                        Lewis WS%Fisher%NULL%1,                        Terry%Foster%NULL%1,                        Isabel%Garcia-Dorival%NULL%1,                        Willliam%Greenhalf%NULL%1,                        Philip%Gunning%NULL%1,                        Catherine%Hartley%NULL%1,                        Antonia%Ho%NULL%0,                        Rebecca L%Jensen%NULL%1,                        Christopher B%Jones%NULL%1,                        Trevor R%Jones%NULL%1,                        Shadia%Khandaker%NULL%1,                        Katharine%King%NULL%1,                        Robyn T%Kiy%NULL%1,                        Chrysa%Koukorava%NULL%1,                        Annette%Lake%NULL%1,                        Suzannah%Lant%NULL%1,                        Diane%Latawiec%NULL%1,                        L%Lavelle-Langham%NULL%1,                        Daniella%Lefteri%NULL%1,                        Lauren%Lett%NULL%1,                        Lucia A%Livoti%NULL%1,                        Maria%Mancini%NULL%1,                        Sarah%McDonald%NULL%0,                        Laurence%McEvoy%NULL%1,                        John%McLauchlan%NULL%1,                        Soeren%Metelmann%NULL%1,                        Nahida S%Miah%NULL%1,                        Joanna%Middleton%NULL%1,                        Joyce%Mitchell%NULL%1,                        Shona C%Moore%NULL%0,                        Ellen G%Murphy%NULL%1,                        Rebekah%Penrice-Randal%NULL%1,                        Jack%Pilgrim%NULL%1,                        Tessa%Prince%NULL%1,                        Will%Reynolds%NULL%1,                        P Matthew%Ridley%NULL%1,                        Debby%Sales%NULL%1,                        Victoria E%Shaw%NULL%1,                        Rebecca K%Shears%NULL%1,                        Benjamin%Small%NULL%1,                        Krishanthi S%Subramaniam%NULL%1,                        Agnieska%Szemiel%NULL%1,                        Aislynn%Taggart%NULL%1,                        Jolanta%Tanianis-Hughes%NULL%1,                        Jordan%Thomas%NULL%1,                        Erwan%Trochu%NULL%1,                        Libby%van Tonder%NULL%1,                        Eve%Wilcock%NULL%1,                        J Eunice%Zhang%NULL%1,                        Kayode%Adeniji%NULL%1,                        Daniel%Agranoff%NULL%1,                        Ken%Agwuh%NULL%1,                        Dhiraj%Ail%NULL%1,                        Ana%Alegria%NULL%1,                        Brian%Angus%NULL%1,                        Abdul%Ashish%NULL%1,                        Dougal%Atkinson%NULL%1,                        Shahedal%Bari%NULL%1,                        Gavin%Barlow%NULL%1,                        Stella%Barnass%NULL%1,                        Nicholas%Barrett%NULL%2,                        Christopher%Bassford%NULL%1,                        David%Baxter%NULL%1,                        Michael%Beadsworth%NULL%1,                        Jolanta%Bernatoniene%NULL%1,                        John%Berridge%NULL%1,                        Nicola%Best%NULL%1,                        Pieter%Bothma%NULL%1,                        David%Brealey%NULL%1,                        Robin%Brittain-Long%NULL%1,                        Naomi%Bulteel%NULL%1,                        Tom%Burden%NULL%1,                        Andrew%Burtenshaw%NULL%1,                        Vikki%Caruth%NULL%1,                        David%Chadwick%NULL%1,                        Duncan%Chambler%NULL%1,                        Nigel%Chee%NULL%1,                        Jenny%Child%NULL%1,                        Srikanth%Chukkambotla%NULL%1,                        Tom%Clark%NULL%1,                        Paul%Collini%NULL%1,                        Catherine%Cosgrove%NULL%1,                        Jason%Cupitt%NULL%1,                        Maria-Teresa%Cutino-Moguel%NULL%1,                        Paul%Dark%NULL%1,                        Chris%Dawson%NULL%1,                        Samir%Dervisevic%NULL%1,                        Phil%Donnison%NULL%1,                        Sam%Douthwaite%NULL%1,                        Ingrid%DuRand%NULL%1,                        Ahilanadan%Dushianthan%NULL%1,                        Tristan%Dyer%NULL%1,                        Cariad%Evans%NULL%1,                        Chi%Eziefula%NULL%1,                        Chrisopher%Fegan%NULL%1,                        Adam%Finn%NULL%1,                        Duncan%Fullerton%NULL%1,                        Sanjeev%Garg%NULL%2,                        Sanjeev%Garg%NULL%0,                        Atul%Garg%NULL%1,                        Jo%Godden%NULL%1,                        Arthur%Goldsmith%NULL%1,                        Clive%Graham%NULL%1,                        Elaine%Hardy%NULL%1,                        Stuart%Hartshorn%NULL%1,                        Daniel%Harvey%NULL%1,                        Peter%Havalda%NULL%1,                        Daniel B%Hawcutt%NULL%1,                        Maria%Hobrok%NULL%1,                        Luke%Hodgson%NULL%1,                        Anita%Holme%NULL%1,                        Anil%Hormis%NULL%1,                        Michael%Jacobs%NULL%1,                        Susan%Jain%NULL%1,                        Paul%Jennings%NULL%1,                        Agilan%Kaliappan%NULL%1,                        Vidya%Kasipandian%NULL%1,                        Stephen%Kegg%NULL%1,                        Michael%Kelsey%NULL%1,                        Jason%Kendall%NULL%1,                        Caroline%Kerrison%NULL%1,                        Ian%Kerslake%NULL%1,                        Oliver%Koch%NULL%2,                        Gouri%Koduri%NULL%1,                        George%Koshy%NULL%1,                        Shondipon%Laha%NULL%1,                        Susan%Larkin%NULL%1,                        Tamas%Leiner%NULL%1,                        Patrick%Lillie%NULL%1,                        James%Limb%NULL%1,                        Vanessa%Linnett%NULL%1,                        Jeff%Little%NULL%1,                        Michael%MacMahon%NULL%1,                        Emily%MacNaughton%NULL%1,                        Ravish%Mankregod%NULL%1,                        Huw%Masson%NULL%1,                        Elijah%Matovu%NULL%1,                        Katherine%McCullough%NULL%1,                        Ruth%McEwen%NULL%1,                        Manjula%Meda%NULL%1,                        Gary%Mills%NULL%1,                        Jane%Minton%NULL%1,                        Mariyam%Mirfenderesky%NULL%1,                        Kavya%Mohandas%NULL%1,                        Quen%Mok%NULL%1,                        James%Moon%NULL%1,                        Elinoor%Moore%NULL%1,                        Patrick%Morgan%NULL%1,                        Craig%Morris%NULL%1,                        Katherine%Mortimore%NULL%1,                        Samuel%Moses%NULL%1,                        Mbiye%Mpenge%NULL%1,                        Rohinton%Mulla%NULL%1,                        Michael%Murphy%NULL%1,                        Megan%Nagel%NULL%1,                        Thapas%Nagarajan%NULL%1,                        Mark%Nelson%NULL%1,                        Igor%Otahal%NULL%1,                        Mark%Pais%NULL%1,                        Selva%Panchatsharam%NULL%1,                        Hassan%Paraiso%NULL%1,                        Brij%Patel%NULL%1,                        Justin%Pepperell%NULL%1,                        Mark%Peters%NULL%1,                        Mandeep%Phull%NULL%1,                        Stefania%Pintus%NULL%1,                        Jagtur Singh%Pooni%NULL%1,                        Frank%Post%NULL%1,                        David%Price%NULL%1,                        Rachel%Prout%NULL%1,                        Nikolas%Rae%NULL%1,                        Henrik%Reschreiter%NULL%1,                        Tim%Reynolds%NULL%1,                        Neil%Richardson%NULL%1,                        Mark%Roberts%NULL%1,                        Devender%Roberts%NULL%1,                        Alistair%Rose%NULL%1,                        Guy%Rousseau%NULL%1,                        Brendan%Ryan%NULL%1,                        Taranprit%Saluja%NULL%1,                        Aarti%Shah%NULL%1,                        Prad%Shanmuga%NULL%1,                        Anil%Sharma%NULL%1,                        Anna%Shawcross%NULL%1,                        Jeremy%Sizer%NULL%1,                        Richard%Smith%NULL%1,                        Catherine%Snelson%NULL%1,                        Nick%Spittle%NULL%1,                        Nikki%Staines%NULL%1,                        Tom%Stambach%NULL%1,                        Richard%Stewart%NULL%1,                        Pradeep%Subudhi%NULL%1,                        Tamas%Szakmany%NULL%1,                        Kate%Tatham%NULL%1,                        Jo%Thomas%NULL%1,                        Chris%Thompson%NULL%1,                        Robert%Thompson%NULL%1,                        Ascanio%Tridente%NULL%1,                        Darell%Tupper-Carey%NULL%1,                        Mary%Twagira%NULL%1,                        Andrew%Ustianowski%NULL%1,                        Nick%Vallotton%NULL%1,                        Lisa%Vincent-Smith%NULL%1,                        Shico%Visuvanathan%NULL%1,                        Alan%Vuylsteke%NULL%1,                        Sam%Waddy%NULL%1,                        Rachel%Wake%NULL%1,                        Andrew%Walden%NULL%1,                        Ingeborg%Welters%NULL%1,                        Tony%Whitehouse%NULL%1,                        Paul%Whittaker%NULL%1,                        Ashley%Whittington%NULL%1,                        Meme%Wijesinghe%NULL%1,                        Martin%Williams%NULL%1,                        Lawrence%Wilson%NULL%1,                        Sarah%Wilson%NULL%1,                        Stephen%Winchester%NULL%1,                        Martin%Wiselka%NULL%1,                        Adam%Wolverson%NULL%1,                        Daniel G%Wooton%NULL%1,                        Andrew%Workman%NULL%1,                        Bryan%Yates%NULL%1,                        Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                        Braulio A.%Marfil‐Garza%NULL%1,                        Erick%Martínez Rodríguez%NULL%1,                        José Omar%Barreto Rodríguez%NULL%1,                        Alicia Estela%López Romo%NULL%1,                        Paolo%Alberti Minutti%NULL%1,                        Juan Vicente%Alejandre Loya%NULL%1,                        Félix Emmanuel%Pérez Talavera%NULL%1,                        Freddy José%Ávila Cervera%NULL%1,                        Adriana%Velazquez Burciaga%NULL%1,                        Oscar%Morado Aramburo%NULL%1,                        Luis Alberto%Piña Olguín%NULL%1,                        Adrian%Soto‐Rodríguez%NULL%1,                        Andrés%Castañeda Prado%NULL%1,                        Patricio%Santillán Doherty%NULL%1,                        Juan%O Galindo%NULL%1,                        Luis Alberto%Guízar García%NULL%1,                        Daniel%Hernández Gordillo%NULL%1,                        Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                        Aatish%Patel%NULL%1,                        Esmita%Charani%NULL%1,                        Sarah%Denny%NULL%1,                        Saleh A.%Alqahtani%NULL%1,                        Gary W.%Davies%NULL%1,                        Nabeela%Mughal%NULL%1,                        Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                        Hyunsun%Lim%NULL%1,                        Dong-Wook%Kim%NULL%1,                        Jung Hyun%Chang%NULL%1,                        Yoon Jung%Choi%chris316@yuhs.ac%1,                        Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                        Wenhua%Liang%NULL%3,                        Mei%Jiang%NULL%2,                        Weijie%Guan%NULL%3,                        Chen%Zhan%NULL%2,                        Tao%Wang%NULL%0,                        Chunli%Tang%NULL%3,                        Ling%Sang%NULL%3,                        Jiaxing%Liu%NULL%2,                        Zhengyi%Ni%NULL%2,                        Yu%Hu%NULL%0,                        Lei%Liu%NULL%8,                        Hong%Shan%NULL%5,                        Chunliang%Lei%NULL%2,                        Yixiang%Peng%NULL%2,                        Li%Wei%NULL%5,                        Yong%Liu%NULL%5,                        Yahua%Hu%NULL%2,                        Peng%Peng%NULL%7,                        Jianming%Wang%NULL%2,                        Jiyang%Liu%NULL%2,                        Zhong%Chen%NULL%5,                        Gang%Li%NULL%5,                        Zhijian%Zheng%NULL%2,                        Shaoqin%Qiu%NULL%2,                        Jie%Luo%NULL%5,                        Changjiang%Ye%NULL%2,                        Shaoyong%Zhu%NULL%2,                        Xiaoqing%Liu%NULL%2,                        Linling%Cheng%NULL%2,                        Feng%Ye%NULL%2,                        Jinping%Zheng%NULL%2,                        Nuofu%Zhang%NULL%2,                        Yimin%Li%NULL%2,                        Jianxing%He%NULL%2,                        Shiyue%Li%lishiyue@188.com%3,                        Nanshan%Zhong%NULL%4,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                        Liu%Hu%NULL%1,                        Yiru%Wang%NULL%0,                        Luyan%Huang%NULL%1,                        Lingxi%Zhao%NULL%1,                        Congcong%Zhang%NULL%1,                        Xiyue%Liu%NULL%1,                        Ranran%Xu%NULL%1,                        Feng%Liu%NULL%0,                        Jinping%Li%NULL%1,                        Dawei%Ye%NULL%0,                        Tao%Wang%NULL%0,                        Yongman%Lv%lvyongman@126.com%0,                        Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                        Carol A C%Coupland%NULL%1,                        Ruth H%Keogh%NULL%1,                        Karla%Diaz-Ordaz%NULL%1,                        Elizabeth%Williamson%NULL%1,                        Ewen M%Harrison%NULL%0,                        Andrew%Hayward%NULL%1,                        Harry%Hemingway%NULL%1,                        Peter%Horby%NULL%1,                        Nisha%Mehta%NULL%1,                        Jonathan%Benger%NULL%1,                        Kamlesh%Khunti%NULL%0,                        David%Spiegelhalter%NULL%1,                        Aziz%Sheikh%NULL%0,                        Jonathan%Valabhji%NULL%0,                        Ronan A%Lyons%NULL%1,                        John%Robson%NULL%1,                        Malcolm G%Semple%NULL%0,                        Frank%Kee%NULL%1,                        Peter%Johnson%NULL%1,                        Susan%Jebb%NULL%1,                        Tony%Williams%NULL%1,                        Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                        Guang-Yao%Cai%NULL%1,                        Wei%Fang%NULL%2,                        Hua-Yi%Li%NULL%1,                        Si-Yuan%Wang%NULL%2,                        Si-Yuan%Wang%NULL%0,                        Lingxi%Chen%NULL%1,                        Yang%Yu%NULL%1,                        Dan%Liu%NULL%0,                        Sen%Xu%NULL%2,                        Peng-Fei%Cui%NULL%1,                        Shao-Qing%Zeng%NULL%2,                        Shao-Qing%Zeng%NULL%0,                        Xin-Xia%Feng%NULL%1,                        Rui-Di%Yu%NULL%1,                        Ya%Wang%NULL%2,                        Yuan%Yuan%NULL%1,                        Xiao-Fei%Jiao%NULL%1,                        Jian-Hua%Chi%NULL%1,                        Jia-Hao%Liu%NULL%1,                        Ru-Yuan%Li%NULL%1,                        Xu%Zheng%NULL%1,                        Chun-Yan%Song%NULL%1,                        Ning%Jin%NULL%1,                        Wen-Jian%Gong%NULL%1,                        Xing-Yu%Liu%NULL%1,                        Lei%Huang%NULL%2,                        Xun%Tian%NULL%1,                        Lin%Li%NULL%1,                        Hui%Xing%NULL%1,                        Ding%Ma%NULL%1,                        Chun-Rui%Li%NULL%1,                        Fei%Ye%yeyuanbei@hotmail.com%1,                        Qing-Lei%Gao%qingleigao@hotmail.com%2,                        Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                        Ang%Li%NULL%1,                        Mengfan%Jiao%NULL%1,                        Qingmiao%Shi%NULL%1,                        Xiaocai%An%NULL%1,                        Yonghai%Feng%NULL%1,                        Lihua%Xing%NULL%1,                        Hongxia%Liang%NULL%1,                        Jiajun%Chen%NULL%1,                        Huiling%Li%NULL%1,                        Juan%Li%NULL%0,                        Zhigang%Ren%NULL%1,                        Ranran%Sun%NULL%1,                        Guangying%Cui%NULL%1,                        Yongjian%Zhou%NULL%1,                        Ming%Cheng%NULL%1,                        Pengfei%Jiao%NULL%1,                        Yu%Wang%NULL%2,                        Jiyuan%Xing%NULL%1,                        Shen%Shen%NULL%1,                        Qingxian%Zhang%NULL%1,                        Aiguo%Xu%NULL%1,                        Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                        Michael%Ng%NULL%1,                        Shuang%Xu%NULL%1,                        Zhouming%Xu%NULL%1,                        Hui%Qiu%NULL%1,                        Yuwei%Liu%NULL%1,                        Jiayou%Lyu%NULL%1,                        Jiwen%You%NULL%1,                        Peng%Zhao%NULL%0,                        Shihao%Wang%NULL%1,                        Yunfei%Tang%NULL%1,                        Hao%Cui%NULL%1,                        Changxiao%Yu%NULL%1,                        Feng%Wang%NULL%5,                        Fei%Shao%NULL%1,                        Peng%Sun%NULL%1,                        Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                        Huifang%Wang%NULL%1,                        Junwei%Huang%NULL%1,                        Yan%Geng%NULL%1,                        Shuqi%Jiang%NULL%1,                        Qiuping%Zhou%NULL%1,                        Xuan%Chen%NULL%1,                        Hongping%Hu%NULL%1,                        Weifeng%Li%NULL%1,                        Chengbin%Zhou%NULL%1,                        Xinglin%Gao%NULL%1,                        Na%Peng%pnatz@163.com%1,                        Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                        Dandan%Cheng%NULL%1,                        Yiwei%Cao%NULL%1,                        Chuan%Hu%NULL%1,                        Fenglin%Zou%NULL%1,                        Wencheng%Yu%NULL%1,                        Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                        Min Kyu%Kang%NULL%2,                        Min Kyu%Kang%NULL%0,                        Yu Rim%Lee%NULL%2,                        Yu Rim%Lee%NULL%0,                        Jeong Eun%Song%NULL%2,                        Jeong Eun%Song%NULL%0,                        Na Young%Kim%NULL%1,                        Young Oh%Kweon%NULL%1,                        Won Young%Tak%NULL%1,                        Se Young%Jang%NULL%1,                        Changhyeong%Lee%NULL%2,                        Changhyeong%Lee%NULL%0,                        Byung Seok%Kim%NULL%1,                        Jae Seok%Hwang%NULL%1,                        Byoung Kuk%Jang%NULL%1,                        Jinmok%Bae%NULL%1,                        Ji Yeon%Lee%NULL%0,                        Jeong Ill%Suh%NULL%1,                        Soo Young%Park%NULL%1,                        Woo Jin%Chung%NULL%2,                        Woo Jin%Chung%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                        Cristina%Roca-Oporto%NULL%0,                        Guillermo%Martín-Gutiérrez%NULL%0,                        María Dolores%Avilés%NULL%0,                        Carmen%Gómez-González%NULL%0,                        María Dolores%Navarro-Amuedo%NULL%0,                        Julia%Praena-Segovia%NULL%0,                        José%Molina%NULL%0,                        María%Paniagua-García%NULL%0,                        Horacio%García-Delgado%NULL%0,                        Antonio%Domínguez-Petit%NULL%0,                        Jerónimo%Pachón%NULL%0,                        José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                     Calvo%Boyero Fernando%coreGivesNoEmail%1,                     Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                     COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                     Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                     Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                     L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                     Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                     Santos%Lozano Alejandro%coreGivesNoEmail%1,                     Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                         Min%He%NULL%1,                         Wanhong%Yin%NULL%1,                         Xuelian%Liao%NULL%1,                         Bo%Wang%NULL%6,                         Xiaodong%Jin%NULL%1,                         Yao%Ma%NULL%2,                         Jirong%Yue%NULL%1,                         Lang%Bai%NULL%1,                         Dan%Liu%NULL%3,                         Ting%Zhu%NULL%1,                         Zhixin%Huang%NULL%1,                         Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                         Shuchang%Zhou%NULL%1,                         Yujin%Wang%NULL%1,                         Wenzhi%Lv%NULL%2,                         Shili%Wang%NULL%1,                         Ting%Wang%751884926@qq.com%1,                         Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                         Yan-chak%Li%NULL%1,                         Sonali%Bose%NULL%1,                         Ravi%Iyengar%NULL%1,                         Supinda%Bunyavanich%NULL%1,                         Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,                Hai-Tao%Zhang%null%1,                Jorge%Goncalves%null%1,                Yang%Xiao%null%1,                Maolin%Wang%null%1,                Yuqi%Guo%null%1,                Chuan%Sun%null%1,                Xiuchuan%Tang%null%1,                Liang%Jing%null%1,                Mingyang%Zhang%null%1,                Xiang%Huang%null%1,                Ying%Xiao%null%1,                Haosen%Cao%null%1,                Yanyan%Chen%null%1,                Tongxin%Ren%null%1,                Fang%Wang%null%1,                Yaru%Xiao%null%1,                Sufang%Huang%null%1,                Xi%Tan%null%1,                Niannian%Huang%null%1,                Bo%Jiao%null%1,                Cheng%Cheng%null%1,                Yong%Zhang%null%1,                Ailin%Luo%null%1,                Laurent%Mombaerts%null%1,                Junyang%Jin%null%1,                Zhiguo%Cao%null%1,                Shusheng%Li%null%1,                Hui%Xu%null%1,                Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                         Mengfei%Guo%NULL%1,                         Limin%Duan%NULL%1,                         Feng%Wu%NULL%1,                         Guorong%Hu%NULL%1,                         Zhihui%Wang%NULL%1,                         Qi%Huang%NULL%1,                         Tingting%Liao%NULL%1,                         Juanjuan%Xu%NULL%1,                         Yanling%Ma%NULL%1,                         Zhilei%Lv%NULL%1,                         Wenjing%Xiao%NULL%1,                         Zilin%Zhao%NULL%1,                         Xueyun%Tan%NULL%1,                         Daquan%Meng%NULL%1,                         Shujing%Zhang%NULL%1,                         E%Zhou%NULL%1,                         Zhengrong%Yin%NULL%1,                         Wei%Geng%NULL%1,                         Xuan%Wang%NULL%1,                         Jianchu%Zhang%NULL%1,                         Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                         Yu%Zhang%whxhzy@163.com%1,                         Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                         Francesco%Arru%NULL%2,                         Francesco%Arru%NULL%0,                         Andrea%De Vito%NULL%3,                         Alessandro%Sassu%NULL%2,                         Alessandro%Sassu%NULL%0,                         Giovanni%Valdes%NULL%1,                         Valentina%Scano%NULL%1,                         Elisabetta%Zinellu%NULL%1,                         Roberto%Perra%NULL%1,                         Giordano%Madeddu%NULL%3,                         Ciriaco%Carru%NULL%1,                         Pietro%Pirina%NULL%3,                         Arduino A.%Mangoni%NULL%2,                         Arduino A.%Mangoni%NULL%0,                         Sergio%Babudieri%NULL%4,                         Sergio%Babudieri%NULL%0,                         Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                         Pablo%Ryan%NULL%1,                         Jorge%Valencia%NULL%2,                         Jorge%Valencia%NULL%0,                         Mario%Pérez-Butragueño%NULL%2,                         Mario%Pérez-Butragueño%NULL%0,                         Eva%Jiménez%NULL%2,                         Eva%Jiménez%NULL%0,                         Mario%Fontán-Vela%NULL%1,                         Elsa%Izquierdo-García%NULL%2,                         Elsa%Izquierdo-García%NULL%0,                         Inés%Fernandez-Jimenez%NULL%1,                         Elena%Álvaro-Alonso%NULL%1,                         Andrea%Lazaro%NULL%2,                         Andrea%Lazaro%NULL%0,                         Marta%Alvarado%NULL%1,                         Helena%Notario%NULL%1,                         Salvador%Resino%NULL%1,                         Daniel%Velez-Serrano%NULL%1,                         Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                         Yiru%Wang%NULL%2,                         Xuecheng%Zhao%NULL%1,                         Lixuan%Wang%NULL%1,                         Feng%Liu%NULL%3,                         Tao%Wang%NULL%15,                         Dawei%Ye%NULL%2,                         Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                         Valentina%Zuccaro%NULL%1,                         Luca%Novelli%NULL%1,                         Lorenzo%Zileri%NULL%2,                         Lorenzo%Zileri%NULL%0,                         Ciro%Celsa%NULL%1,                         Federico%Raimondi%NULL%2,                         Federico%Raimondi%NULL%0,                         Mauro%Gori%NULL%1,                         Giulia%Cammà%NULL%1,                         Salvatore%Battaglia%NULL%1,                         Vincenzo Giuseppe%Genova%NULL%1,                         Laura%Paris%NULL%1,                         Matteo%Tacelli%NULL%1,                         Francesco Antonio%Mancarella%NULL%1,                         Marco%Enea%NULL%1,                         Massimo%Attanasio%NULL%1,                         Michele%Senni%NULL%1,                         Fabiano%Di Marco%NULL%1,                         Luca Ferdinando%Lorini%NULL%1,                         Stefano%Fagiuoli%NULL%1,                         Raffaele%Bruno%NULL%2,                         Calogero%Cammà%NULL%1,                         Antonio%Gasbarrini%NULL%3,                         Francesco%Di Gennaro%NULL%2,                         Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                         Gan-xun%Li%NULL%1,                         Lin%Chen%NULL%3,                         Chang%Shu%NULL%2,                         Jia%Song%NULL%1,                         Wei%Wang%NULL%2,                         Yu-wei%Wang%NULL%1,                         Qian%Chen%NULL%2,                         Guan-nan%Jin%NULL%1,                         Tong-tong%Liu%NULL%1,                         Jun-nan%Liang%NULL%1,                         Peng%Zhu%NULL%1,                         Wei%Zhu%NULL%5,                         Yong%Li%NULL%2,                         Bin-hao%Zhang%NULL%1,                         Huan%Feng%NULL%1,                         Wan-guang%Zhang%NULL%1,                         Zhen-yu%Yin%NULL%1,                         Wen-kui%Yu%NULL%1,                         Yang%Yang%NULL%2,                         Hua-qiu%Zhang%NULL%1,                         Zhou-ping%Tang%NULL%1,                         Hui%Wang%NULL%4,                         Jun-bo%Hu%NULL%1,                         Ji-hong%Liu%NULL%1,                         Ping%Yin%NULL%1,                         Xiao-ping%Chen%NULL%1,                         Bixiang%Zhang%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                         Günay%Can%NULL%2,                         Günay%Can%NULL%0,                         Rıdvan%Karaali%NULL%1,                         Şermin%Börekçi%NULL%1,                         İlker İnanç%Balkan%NULL%1,                         Bilun%Gemicioğlu%NULL%1,                         Dildar%Konukoğlu%NULL%1,                         Ethem%Erginöz%NULL%1,                         Mehmet Sarper%Erdoğan%NULL%1,                         Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                         Danila%Azzolina%NULL%1,                         Eyal%Hayden%NULL%2,                         Eyal%Hayden%NULL%0,                         Gianluca%Gaidano%NULL%2,                         Gianluca%Gaidano%NULL%0,                         Mario%Pirisi%NULL%2,                         Mario%Pirisi%NULL%0,                         Antonio%Acquaviva%NULL%2,                         Antonio%Acquaviva%NULL%0,                         Gianluca%Aimaretti%NULL%2,                         Gianluca%Aimaretti%NULL%0,                         Paolo%Aluffi Valletti%NULL%3,                         Paolo%Aluffi Valletti%NULL%0,                         Roberto%Angilletta%NULL%2,                         Roberto%Angilletta%NULL%0,                         Roberto%Arioli%NULL%2,                         Roberto%Arioli%NULL%0,                         Gian Carlo%Avanzi%NULL%2,                         Gian Carlo%Avanzi%NULL%0,                         Gianluca%Avino%NULL%2,                         Gianluca%Avino%NULL%0,                         Piero Emilio%Balbo%NULL%2,                         Piero Emilio%Balbo%NULL%0,                         Giulia%Baldon%NULL%2,                         Giulia%Baldon%NULL%0,                         Francesca%Baorda%NULL%2,                         Francesca%Baorda%NULL%0,                         Emanuela%Barbero%NULL%2,                         Emanuela%Barbero%NULL%0,                         Alessio%Baricich%NULL%2,                         Alessio%Baricich%NULL%0,                         Michela%Barini%NULL%2,                         Michela%Barini%NULL%0,                         Francesco%Barone-Adesi%NULL%2,                         Francesco%Barone-Adesi%NULL%0,                         Sofia%Battistini%NULL%2,                         Sofia%Battistini%NULL%0,                         Michela%Beltrame%NULL%2,                         Michela%Beltrame%NULL%0,                         Matteo%Bertoli%NULL%2,                         Matteo%Bertoli%NULL%0,                         Stephanie%Bertolin%NULL%2,                         Stephanie%Bertolin%NULL%0,                         Marinella%Bertolotti%NULL%2,                         Marinella%Bertolotti%NULL%0,                         Marta%Betti%NULL%2,                         Marta%Betti%NULL%0,                         Flavio%Bobbio%NULL%2,                         Flavio%Bobbio%NULL%0,                         Paolo%Boffano%NULL%2,                         Paolo%Boffano%NULL%0,                         Lucio%Boglione%NULL%2,                         Lucio%Boglione%NULL%0,                         Silvio%Borrè%NULL%2,                         Silvio%Borrè%NULL%0,                         Matteo%Brucoli%NULL%2,                         Matteo%Brucoli%NULL%0,                         Elisa%Calzaducca%NULL%2,                         Elisa%Calzaducca%NULL%0,                         Edoardo%Cammarata%NULL%2,                         Edoardo%Cammarata%NULL%0,                         Vincenzo%Cantaluppi%NULL%2,                         Vincenzo%Cantaluppi%NULL%0,                         Roberto%Cantello%NULL%2,                         Roberto%Cantello%NULL%0,                         Andrea%Capponi%NULL%2,                         Andrea%Capponi%NULL%0,                         Alessandro%Carriero%NULL%2,                         Alessandro%Carriero%NULL%0,                         Giuseppe Francesco%Casciaro%NULL%2,                         Giuseppe Francesco%Casciaro%NULL%0,                         Luigi Mario%Castello%NULL%2,                         Luigi Mario%Castello%NULL%0,                         Federico%Ceruti%NULL%2,                         Federico%Ceruti%NULL%0,                         Guido%Chichino%NULL%2,                         Guido%Chichino%NULL%0,                         Emilio%Chirico%NULL%2,                         Emilio%Chirico%NULL%0,                         Carlo%Cisari%NULL%1,                         Micol Giulia%Cittone%NULL%2,                         Micol Giulia%Cittone%NULL%0,                         Crizia%Colombo%NULL%2,                         Crizia%Colombo%NULL%0,                         Cristoforo%Comi%NULL%2,                         Cristoforo%Comi%NULL%0,                         Eleonora%Croce%NULL%2,                         Eleonora%Croce%NULL%0,                         Tommaso%Daffara%NULL%2,                         Tommaso%Daffara%NULL%0,                         Pietro%Danna%NULL%2,                         Pietro%Danna%NULL%0,                         Francesco%Della Corte%NULL%2,                         Francesco%Della Corte%NULL%0,                         Simona%De Vecchi%NULL%2,                         Simona%De Vecchi%NULL%0,                         Umberto%Dianzani%NULL%2,                         Umberto%Dianzani%NULL%0,                         Davide%Di Benedetto%NULL%2,                         Davide%Di Benedetto%NULL%0,                         Elia%Esposto%NULL%2,                         Elia%Esposto%NULL%0,                         Fabrizio%Faggiano%NULL%2,                         Fabrizio%Faggiano%NULL%0,                         Zeno%Falaschi%NULL%2,                         Zeno%Falaschi%NULL%0,                         Daniela%Ferrante%NULL%2,                         Daniela%Ferrante%NULL%0,                         Alice%Ferrero%NULL%2,                         Alice%Ferrero%NULL%0,                         Ileana%Gagliardi%NULL%2,                         Ileana%Gagliardi%NULL%0,                         Alessandra%Galbiati%NULL%2,                         Alessandra%Galbiati%NULL%0,                         Silvia%Gallo%NULL%2,                         Silvia%Gallo%NULL%0,                         Pietro Luigi%Garavelli%NULL%2,                         Pietro Luigi%Garavelli%NULL%0,                         Clara Ada%Gardino%NULL%2,                         Clara Ada%Gardino%NULL%0,                         Massimiliano%Garzaro%NULL%3,                         Massimiliano%Garzaro%NULL%0,                         Maria Luisa%Gastaldello%NULL%2,                         Maria Luisa%Gastaldello%NULL%0,                         Francesco%Gavelli%NULL%2,                         Francesco%Gavelli%NULL%0,                         Alessandra%Gennari%NULL%2,                         Alessandra%Gennari%NULL%0,                         Greta Maria%Giacomini%NULL%2,                         Greta Maria%Giacomini%NULL%0,                         Irene%Giacone%NULL%2,                         Irene%Giacone%NULL%0,                         Valentina%Giai Via%NULL%2,                         Valentina%Giai Via%NULL%0,                         Francesca%Giolitti%NULL%2,                         Francesca%Giolitti%NULL%0,                         Laura Cristina%Gironi%NULL%2,                         Laura Cristina%Gironi%NULL%0,                         Carla%Gramaglia%NULL%2,                         Carla%Gramaglia%NULL%0,                         Leonardo%Grisafi%NULL%2,                         Leonardo%Grisafi%NULL%0,                         Ilaria%Inserra%NULL%2,                         Ilaria%Inserra%NULL%0,                         Marco%Invernizzi%NULL%2,                         Marco%Invernizzi%NULL%0,                         Marco%Krengli%NULL%2,                         Marco%Krengli%NULL%0,                         Emanuela%Labella%NULL%2,                         Emanuela%Labella%NULL%0,                         Irene Cecilia%Landi%NULL%2,                         Irene Cecilia%Landi%NULL%0,                         Raffaella%Landi%NULL%2,                         Raffaella%Landi%NULL%0,                         Ilaria%Leone%NULL%2,                         Ilaria%Leone%NULL%0,                         Veronica%Lio%NULL%2,                         Veronica%Lio%NULL%0,                         Luca%Lorenzini%NULL%2,                         Luca%Lorenzini%NULL%0,                         Antonio%Maconi%NULL%2,                         Antonio%Maconi%NULL%0,                         Mario%Malerba%NULL%2,                         Mario%Malerba%NULL%0,                         Giulia Francesca%Manfredi%NULL%2,                         Giulia Francesca%Manfredi%NULL%0,                         Maria%Martelli%NULL%2,                         Maria%Martelli%NULL%0,                         Letizia%Marzari%NULL%2,                         Letizia%Marzari%NULL%0,                         Paolo%Marzullo%NULL%2,                         Paolo%Marzullo%NULL%0,                         Marco%Mennuni%NULL%2,                         Marco%Mennuni%NULL%0,                         Claudia%Montabone%NULL%2,                         Claudia%Montabone%NULL%0,                         Umberto%Morosini%NULL%2,                         Umberto%Morosini%NULL%0,                         Marco%Mussa%NULL%2,                         Marco%Mussa%NULL%0,                         Ilaria%Nerici%NULL%2,                         Ilaria%Nerici%NULL%0,                         Alessandro%Nuzzo%NULL%2,                         Alessandro%Nuzzo%NULL%0,                         Carlo%Olivieri%NULL%2,                         Carlo%Olivieri%NULL%0,                         Samuel Alberto%Padelli%NULL%2,                         Samuel Alberto%Padelli%NULL%0,                         Massimiliano%Panella%NULL%2,                         Massimiliano%Panella%NULL%0,                         Andrea%Parisini%NULL%2,                         Andrea%Parisini%NULL%0,                         Alessio%Paschè%NULL%2,                         Alessio%Paschè%NULL%0,                         Filippo%Patrucco%NULL%2,                         Filippo%Patrucco%NULL%0,                         Giuseppe%Patti%NULL%2,                         Giuseppe%Patti%NULL%0,                         Alberto%Pau%NULL%2,                         Alberto%Pau%NULL%0,                         Anita Rebecca%Pedrinelli%NULL%2,                         Anita Rebecca%Pedrinelli%NULL%0,                         Ilaria%Percivale%NULL%2,                         Ilaria%Percivale%NULL%0,                         Luca%Ragazzoni%NULL%2,                         Luca%Ragazzoni%NULL%0,                         Roberta%Re%NULL%2,                         Roberta%Re%NULL%0,                         Cristina%Rigamonti%NULL%2,                         Cristina%Rigamonti%NULL%0,                         Eleonora%Rizzi%NULL%2,                         Eleonora%Rizzi%NULL%0,                         Andrea%Rognoni%NULL%2,                         Andrea%Rognoni%NULL%0,                         Annalisa%Roveta%NULL%2,                         Annalisa%Roveta%NULL%0,                         Luigia%Salamina%NULL%2,                         Luigia%Salamina%NULL%0,                         Matteo%Santagostino%NULL%2,                         Matteo%Santagostino%NULL%0,                         Massimo%Saraceno%NULL%2,                         Massimo%Saraceno%NULL%0,                         Paola%Savoia%NULL%2,                         Paola%Savoia%NULL%0,                         Marco%Sciarra%NULL%2,                         Marco%Sciarra%NULL%0,                         Andrea%Schimmenti%NULL%2,                         Andrea%Schimmenti%NULL%0,                         Lorenza%Scotti%NULL%2,                         Lorenza%Scotti%NULL%0,                         Enrico%Spinoni%NULL%2,                         Enrico%Spinoni%NULL%0,                         Carlo%Smirne%NULL%2,                         Carlo%Smirne%NULL%0,                         Vanessa%Tarantino%NULL%2,                         Vanessa%Tarantino%NULL%0,                         Paolo Amedeo%Tillio%NULL%2,                         Paolo Amedeo%Tillio%NULL%0,                         Stelvio%Tonello%NULL%2,                         Stelvio%Tonello%NULL%0,                         Rosanna%Vaschetto%NULL%2,                         Rosanna%Vaschetto%NULL%0,                         Veronica%Vassia%NULL%2,                         Veronica%Vassia%NULL%0,                         Domenico%Zagaria%NULL%2,                         Domenico%Zagaria%NULL%0,                         Elisa%Zavattaro%NULL%2,                         Elisa%Zavattaro%NULL%0,                         Patrizia%Zeppegno%NULL%2,                         Patrizia%Zeppegno%NULL%0,                         Francesca%Zottarelli%NULL%2,                         Francesca%Zottarelli%NULL%0,                         Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                         Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                         Marta%Ottone%NULL%2,                         Marta%Ottone%NULL%0,                         Tommaso%Fasano%NULL%1,                         Pierpaolo%Pattacini%NULL%1,                         Valentina%Iotti%NULL%1,                         Lucia%Spaggiari%NULL%1,                         Riccardo%Bonacini%NULL%1,                         Andrea%Nitrosi%NULL%1,                         Efrem%Bonelli%NULL%1,                         Simone%Canovi%NULL%1,                         Rossana%Colla%NULL%1,                         Alessandro%Zerbini%NULL%1,                         Marco%Massari%NULL%1,                         Ivana%Lattuada%NULL%1,                         Anna Maria%Ferrari%NULL%1,                         Paolo%Giorgi Rossi%NULL%1,                         Massimo%Costantini%NULL%1,                         Roberto%Grilli%NULL%1,                         Massimiliano%Marino%NULL%1,                         Giulio%Formoso%NULL%1,                         Debora%Formisano%NULL%1,                         Emanuela%Bedeschi%NULL%1,                         Cinzia%Perilli%NULL%1,                         Elisabetta%La Rosa%NULL%1,                         Eufemia%Bisaccia%NULL%1,                         Ivano%Venturi%NULL%1,                         Massimo%Vicentini%NULL%1,                         Cinzia%Campari%NULL%1,                         Francesco%Gioia%NULL%1,                         Serena%Broccoli%NULL%1,                         Pamela%Mancuso%NULL%1,                         Marco%Foracchia%NULL%1,                         Mirco%Pinotti%NULL%1,                         Nicola%Facciolongo%NULL%1,                         Laura%Trabucco%NULL%1,                         Stefano%De Pietri%NULL%1,                         Giorgio Francesco%Danelli%NULL%1,                         Laura%Albertazzi%NULL%1,                         Enrica%Bellesia%NULL%1,                         Mattia%Corradini%NULL%1,                         Elena%Magnani%NULL%1,                         Annalisa%Pilia%NULL%1,                         Alessandra%Polese%NULL%1,                         Silvia Storchi%Incerti%NULL%1,                         Piera%Zaldini%NULL%1,                         Bonanno%Orsola%NULL%1,                         Matteo%Revelli%NULL%1,                         Carlo%Salvarani%NULL%1,                         Carmine%Pinto%NULL%1,                         Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                         Hong-Qiu%Gu%NULL%1,                         Yi%Liu (刘艺)%NULL%1,                         Guqin%Zhang%NULL%1,                         Hang%Yang%NULL%1,                         Huifang%Hu%NULL%1,                         Chenyang%Lu%NULL%1,                         Yang%Li%NULL%3,                         Liyi%Wang%NULL%1,                         Yi%Liu (刘毅)%yi2006liu@163.com%1,                         Yi%Zhao%zhao.y1977@163.com%1,                         Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                         Tawsifur%Rahman%NULL%2,                         Tawsifur%Rahman%NULL%0,                         Amith%Khandakar%NULL%3,                         Somaya%Al-Madeed%NULL%2,                         Susu M.%Zughaier%NULL%5,                         Suhail A. R.%Doi%NULL%3,                         Hanadi%Hassen%NULL%1,                         Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                         Jia%Sun%NULL%1,                         Yi-Xin%Li%NULL%1,                         Qian%Chen%NULL%0,                         Qing-Quan%Liu%NULL%1,                         Zhou%Sun%NULL%1,                         Ran%Pang%NULL%1,                         Fei%Chen%NULL%1,                         Bing-Yang%Xu%NULL%1,                         Anne%Manyande%NULL%1,                         Taane G%Clark%NULL%1,                         Jin-Ping%Li%NULL%1,                         Ilkay Erdogan%Orhan%NULL%1,                         Yu-Ke%Tian%NULL%1,                         Tao%Wang%wt7636@126.com%0,                         Wei%Wu%wt7636@126.com%1,                         Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,                      Imam%Z%coreGivesNoEmail%1,                      Lippi%G%coreGivesNoEmail%1,                      Oran%DP%coreGivesNoEmail%1,                      Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                         Caiping%Song%NULL%1,                         En%Liu%NULL%1,                         Xi%Liu%NULL%1,                         Hao%Wu%NULL%1,                         Hui%Lin%NULL%1,                         Yuliang%Liu%NULL%1,                         Qi%Li%NULL%1,                         Zhi%Xu%NULL%1,                         XiaoBao%Ren%NULL%1,                         Cheng%Zhang%NULL%1,                         Wenjing%Zhang%NULL%1,                         Wei%Duan%NULL%2,                         Yongfeng%Tian%NULL%1,                         Ping%Li%NULL%1,                         Mingdong%Hu%NULL%1,                         Shiming%Yang%NULL%1,                         Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                         Changli%Li%NULL%1,                         Li%Zheng%NULL%1,                         Wenzhi%Lv%NULL%0,                         Zhigang%He%NULL%1,                         Xinwu%Cui%NULL%1,                         Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                         Hayne Cho%Park%NULL%2,                         Hayne Cho%Park%NULL%0,                         Ajin%Cho%NULL%1,                         Juhee%Kim%NULL%1,                         Kyu-sang%Yun%NULL%1,                         Jinseog%Kim%NULL%1,                         Young-Ki%Lee%NULL%1,                         Sinan%Kardes.%NULL%2,                         Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                         Xiaoyu%Fang%NULL%1,                         Lixia%Cheng%NULL%1,                         Penghao%Wang%NULL%1,                         Shen%Li%NULL%1,                         Hao%Yu%NULL%1,                         Yao%Zhang%NULL%2,                         Nan%Jiang%NULL%1,                         Tingting%Zeng%NULL%1,                         Chao%Hou%NULL%1,                         Jing%Zhou%NULL%1,                         Shiru%Li%NULL%1,                         Yingzi%Pan%NULL%1,                         Yitong%Li%NULL%1,                         Lili%Nie%NULL%1,                         Yang%Li%NULL%0,                         Qidi%Sun%NULL%1,                         Hong%Jia%NULL%1,                         Mengxia%Li%NULL%1,                         Guoqiang%Cao%NULL%1,                         Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                         Lucas A%Ramos%NULL%2,                         Lucas A%Ramos%NULL%0,                         Wouter%Potters%NULL%1,                         Marcus L F%Janssen%NULL%1,                         Deborah%Hubers%NULL%1,                         Shi%Hu%NULL%1,                         Egill A%Fridgeirsson%NULL%1,                         Dan%Piña-Fuentes%NULL%1,                         Rajat%Thomas%NULL%1,                         Iwan C C%van der Horst%NULL%1,                         Christian%Herff%NULL%2,                         Christian%Herff%NULL%0,                         Pieter%Kubben%NULL%1,                         Paul W G%Elbers%NULL%1,                         Henk A%Marquering%NULL%1,                         Max%Welling%NULL%1,                         Suat%Simsek%NULL%1,                         Martijn D%de Kruif%NULL%1,                         Tom%Dormans%NULL%1,                         Lucas M%Fleuren%NULL%1,                         Michiel%Schinkel%NULL%1,                         Peter G%Noordzij%NULL%1,                         Joop P%van den Bergh%NULL%2,                         Joop P%van den Bergh%NULL%0,                         Caroline E%Wyers%NULL%1,                         David T B%Buis%NULL%2,                         David T B%Buis%NULL%0,                         W Joost%Wiersinga%NULL%1,                         Ella H C%van den Hout%NULL%1,                         Auke C%Reidinga%NULL%1,                         Daisy%Rusch%NULL%1,                         Kim C E%Sigaloff%NULL%1,                         Renee A%Douma%NULL%1,                         Lianne%de Haan%NULL%1,                         Niels C%Gritters van den Oever%NULL%1,                         Roger J M W%Rennenberg%NULL%1,                         Guido A%van Wingen%NULL%1,                         Marcel J H%Aries%NULL%1,                         Martijn%Beudel%NULL%2,                         Martijn%Beudel%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                         Fajer A.%Al-Ishaq%NULL%2,                         Fajer A.%Al-Ishaq%NULL%0,                         Fatima S.%Al-Mohannadi%NULL%1,                         Reem S.%Mubarak%NULL%1,                         Maryam H.%Al-Hitmi%NULL%1,                         Khandaker Reajul%Islam%NULL%1,                         Amith%Khandakar%NULL%0,                         Ali Ait%Hssain%NULL%3,                         Ali Ait%Hssain%NULL%0,                         Somaya%Al-Madeed%NULL%0,                         Susu M.%Zughaier%NULL%0,                         Susu M.%Zughaier%NULL%0,                         Muhammad E. H.%Chowdhury%NULL%3,                         Muhammad E. H.%Chowdhury%NULL%0,                         Antonella%Santone%NULL%3,                         Antonella%Santone%NULL%0,                         Antonella%Santone%NULL%0,                         Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                         Amith%Khandakar%NULL%0,                         Md Enamul%Hoque%NULL%2,                         Md Enamul%Hoque%NULL%0,                         Nabil%Ibtehaz%NULL%2,                         Nabil%Ibtehaz%NULL%0,                         Saad Bin%Kashem%NULL%2,                         Saad Bin%Kashem%NULL%0,                         Reehum%Masud%NULL%1,                         Lutfunnahar%Shampa%NULL%1,                         Mohammad Mehedi%Hasan%NULL%1,                         Mohammad Tariqul%Islam%NULL%1,                         Somaya%Al-Maadeed%NULL%2,                         Somaya%Al-Maadeed%NULL%0,                         Susu M.%Zughaier%NULL%0,                         Susu M.%Zughaier%NULL%0,                         Saif%Badran%NULL%2,                         Saif%Badran%NULL%0,                         Suhail A. R.%Doi%NULL%0,                         Suhail A. R.%Doi%NULL%0,                         Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                         Pablo%Rodríguez-Belenguer%NULL%2,                         Pablo%Rodríguez-Belenguer%NULL%0,                         Antonio J.%Serrano-López%NULL%1,                         Emilio%Soria-Olivas%NULL%2,                         Emilio%Soria-Olivas%NULL%0,                         Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                         Haibo%Ai%NULL%1,                         Yunong%Fu%NULL%1,                         Qinglin%Li%NULL%1,                         Ruixia%Cui%NULL%1,                         Xiaohua%Ma%NULL%1,                         Yan-fen%Ma%NULL%1,                         Zi%Wang%NULL%1,                         Tong%Liu%NULL%1,                         Yunxiang%Long%NULL%1,                         Kai%Qu%NULL%1,                         Chang%Liu%NULL%1,                         Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                         Dawei%Zhang%NULL%1,                         Jing%Xu%NULL%6,                         Zhu%Chen%NULL%1,                         Tieniu%Yang%NULL%1,                         Peng%Zhao%NULL%2,                         Guofeng%Chen%NULL%1,                         Gregory%Cheng%NULL%1,                         Yudong%Wang%NULL%1,                         Jingfeng%Bi%NULL%1,                         Lin%Tan%NULL%1,                         George%Lau%NULL%1,                         Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                         Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                         Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                         Giulia%Suigo%NULL%1,                         Davide%Zampini%NULL%1,                         Matteo%Pistoia%NULL%1,                         Mariella%Ciola%NULL%1,                         Tommaso%Ciampani%NULL%1,                         Carolina%Ultori%NULL%1,                         Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                         John R%Adler%NULL%3,                         Sultan M%Kamran%NULL%2,                         Sultan M%Kamran%NULL%0,                         Zill-e-Humayun%Mirza%NULL%1,                         Hussain Abdul%Moeed%NULL%1,                         Arshad%Naseem%NULL%1,                         Maryam%Hussain%NULL%1,                         Imran%Fazal%NULL%1,                         Farrukh%Saeed%NULL%1,                         Wasim%Alamgir%NULL%1,                         Salman%Saleem%NULL%1,                         Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                         María M.%Martín%NULL%1,                         Mónica%Argueso%NULL%1,                         Jordi%Solé-Violán%NULL%1,                         Alina%Perez%NULL%1,                         José Alberto%Marcos Y Ramos%NULL%1,                         Luis%Ramos-Gómez%NULL%1,                         Sergio%López%NULL%1,                         Andrés%Franco%NULL%1,                         Agustín F.%González-Rivero%NULL%1,                         María%Martín%NULL%1,                         Verónica%Gonzalez%NULL%1,                         Julia%Alcoba-Flórez%NULL%1,                         Miguel Ángel%Rodriguez%NULL%1,                         Marta%Riaño-Ruiz%NULL%1,                         Juan%Guillermo O Campo%NULL%1,                         Lourdes%González%NULL%1,                         Tamara%Cantera%NULL%1,                         Raquel%Ortiz-López%NULL%1,                         Nazario%Ojeda%NULL%1,                         Aurelio%Rodríguez-Pérez%NULL%1,                         Casimira%Domínguez%NULL%1,                         Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                         Rita%Kukafka%NULL%1,                         Arriel%Benis%NULL%2,                         Arriel%Benis%NULL%0,                         Jinfeng%Li%NULL%1,                         Pan%Pan%NULL%2,                         Pan%Pan%NULL%0,                         Yichao%Li%NULL%2,                         Yichao%Li%NULL%0,                         Yongjiu%Xiao%NULL%2,                         Yongjiu%Xiao%NULL%0,                         Bingchao%Han%NULL%2,                         Bingchao%Han%NULL%0,                         Longxiang%Su%NULL%2,                         Longxiang%Su%NULL%0,                         Mingliang%Su%NULL%2,                         Mingliang%Su%NULL%0,                         Yansheng%Li%NULL%2,                         Yansheng%Li%NULL%0,                         Siqi%Zhang%NULL%2,                         Siqi%Zhang%NULL%0,                         Dapeng%Jiang%NULL%2,                         Dapeng%Jiang%NULL%0,                         Xia%Chen%NULL%2,                         Xia%Chen%NULL%0,                         Fuquan%Zhou%NULL%2,                         Fuquan%Zhou%NULL%0,                         Ling%Ma%NULL%2,                         Ling%Ma%NULL%0,                         Pengtao%Bao%NULL%2,                         Pengtao%Bao%NULL%0,                         Lixin%Xie%xielx301@126.com%2,                         Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                         Cristina%Roca-Oporto%NULL%2,                         Guillermo%Martín-Gutiérrez%NULL%2,                         María Dolores%Avilés%NULL%2,                         Carmen%Gómez-González%NULL%2,                         María Dolores%Navarro-Amuedo%NULL%2,                         Julia%Praena-Segovia%NULL%2,                         José%Molina%NULL%2,                         María%Paniagua-García%NULL%2,                         Horacio%García-Delgado%NULL%2,                         Antonio%Domínguez-Petit%NULL%2,                         Jerónimo%Pachón%NULL%2,                         José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                         Barry R.%Meisenberg%NULL%2,                         Barry R.%Meisenberg%NULL%0,                         James H.%MacDonald%NULL%1,                         Nandakumar%Menon%NULL%1,                         Marcia B.%Fowler%NULL%1,                         Michaline%West%NULL%1,                         Jane%Rhule%NULL%1,                         Sadaf S.%Qureshi%NULL%1,                         Eileen B.%MacDonald%NULL%1,                         Yu Ru%Kou%NULL%2,                         Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                         Sarah%Poole%NULL%2,                         Sarah%Poole%NULL%0,                         Meeta%Pradhan%NULL%1,                         Akhil%Vaid%NULL%3,                         Akhil%Vaid%NULL%0,                         Sulaiman%Somani%NULL%3,                         Sulaiman%Somani%NULL%0,                         Adam J%Russak%NULL%2,                         Adam J%Russak%NULL%0,                         Jessica K%De Freitas%NULL%2,                         Jessica K%De Freitas%NULL%0,                         Fayzan F%Chaudhry%NULL%2,                         Fayzan F%Chaudhry%NULL%0,                         Ishan%Paranjpe%NULL%3,                         Ishan%Paranjpe%NULL%0,                         Kipp W%Johnson%NULL%2,                         Kipp W%Johnson%NULL%0,                         Samuel J%Lee%NULL%2,                         Samuel J%Lee%NULL%0,                         Riccardo%Miotto%NULL%2,                         Riccardo%Miotto%NULL%0,                         Felix%Richter%NULL%3,                         Felix%Richter%NULL%0,                         Shan%Zhao%NULL%3,                         Shan%Zhao%NULL%0,                         Noam D%Beckmann%NULL%2,                         Noam D%Beckmann%NULL%0,                         Nidhi%Naik%NULL%2,                         Nidhi%Naik%NULL%0,                         Arash%Kia%NULL%2,                         Arash%Kia%NULL%0,                         Prem%Timsina%NULL%2,                         Prem%Timsina%NULL%0,                         Anuradha%Lala%NULL%2,                         Anuradha%Lala%NULL%0,                         Manish%Paranjpe%NULL%2,                         Manish%Paranjpe%NULL%0,                         Eddye%Golden%NULL%2,                         Eddye%Golden%NULL%0,                         Matteo%Danieletto%NULL%2,                         Matteo%Danieletto%NULL%0,                         Manbir%Singh%NULL%2,                         Manbir%Singh%NULL%0,                         Dara%Meyer%NULL%2,                         Dara%Meyer%NULL%0,                         Paul F%O'Reilly%NULL%2,                         Paul F%O'Reilly%NULL%0,                         Laura%Huckins%NULL%2,                         Laura%Huckins%NULL%0,                         Patricia%Kovatch%NULL%2,                         Patricia%Kovatch%NULL%0,                         Joseph%Finkelstein%NULL%2,                         Joseph%Finkelstein%NULL%0,                         Robert M.%Freeman%NULL%2,                         Robert M.%Freeman%NULL%0,                         Edgar%Argulian%NULL%2,                         Edgar%Argulian%NULL%0,                         Andrew%Kasarskis%NULL%2,                         Andrew%Kasarskis%NULL%0,                         Bethany%Percha%NULL%2,                         Bethany%Percha%NULL%0,                         Judith A%Aberg%NULL%2,                         Judith A%Aberg%NULL%0,                         Emilia%Bagiella%NULL%3,                         Emilia%Bagiella%NULL%0,                         Carol R%Horowitz%NULL%2,                         Carol R%Horowitz%NULL%0,                         Barbara%Murphy%NULL%2,                         Barbara%Murphy%NULL%0,                         Eric J%Nestler%NULL%2,                         Eric J%Nestler%NULL%0,                         Eric E%Schadt%NULL%2,                         Eric E%Schadt%NULL%0,                         Judy H%Cho%NULL%2,                         Judy H%Cho%NULL%0,                         Carlos%Cordon-Cardo%NULL%2,                         Carlos%Cordon-Cardo%NULL%0,                         Valentin%Fuster%NULL%3,                         Valentin%Fuster%NULL%0,                         Dennis S%Charney%NULL%2,                         Dennis S%Charney%NULL%0,                         David L%Reich%NULL%2,                         David L%Reich%NULL%0,                         Erwin P%Bottinger%NULL%2,                         Erwin P%Bottinger%NULL%0,                         Matthew A%Levin%NULL%2,                         Matthew A%Levin%NULL%0,                         Jagat%Narula%NULL%3,                         Jagat%Narula%NULL%0,                         Zahi A%Fayad%NULL%2,                         Zahi A%Fayad%NULL%0,                         Allan C%Just%NULL%2,                         Allan C%Just%NULL%0,                         Alexander W%Charney%NULL%2,                         Alexander W%Charney%NULL%0,                         Girish N%Nadkarni%NULL%2,                         Girish N%Nadkarni%NULL%0,                         Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                         Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                         Anne%Chen%NULL%2,                         Wei%Hou%NULL%3,                         James M.%Graham%NULL%1,                         Haifang%Li%NULL%2,                         Paul S.%Richman%NULL%1,                         Henry C.%Thode%NULL%1,                         Adam J.%Singer%NULL%1,                         Tim Q.%Duong%NULL%1,                         Muhammad%Adrish%NULL%9,                         Muhammad%Adrish%NULL%0,                         Muhammad%Adrish%NULL%0,                         Muhammad%Adrish%NULL%0,                         Muhammad%Adrish%NULL%0,                         Muhammad%Adrish%NULL%0,                         Muhammad%Adrish%NULL%0,                         Muhammad%Adrish%NULL%0,                         Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                         Qin%Liu%NULL%2,                         Xiao%Zhang%NULL%2,                         Shuyi%Liu%NULL%1,                         Weiqi%Chen%NULL%1,                         Jingjing%You%NULL%1,                         Qiuying%Chen%NULL%1,                         Minmin%Li%NULL%1,                         Zhuozhi%Chen%NULL%1,                         Luyan%Chen%NULL%1,                         Lv%Chen%NULL%1,                         Yuhao%Dong%NULL%1,                         Qingsi%Zeng%NULL%1,                         Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                         Lei%Nie%NULL%1,                         Dongde%Wu%NULL%1,                         Jian%Chen%NULL%2,                         Zhifeng%Yang%NULL%1,                         Ling%Zhang%NULL%3,                         Dongqing%Li%NULL%1,                         Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                         Burcin%Hakoglu%NULL%2,                         Burcin%Hakoglu%NULL%0,                         Ali%Kadri Cirak%NULL%1,                         Gulru%Polat%NULL%1,                         Berna%Komurcuoglu%NULL%1,                         Berrin%Akkol%NULL%1,                         Cagri%Atasoy%NULL%1,                         Eda%Bayramic%NULL%1,                         Gunseli%Balci%NULL%1,                         Sena%Ataman%NULL%1,                         Sinem%Ermin%NULL%1,                         Enver%Yalniz%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                         Qiaosen%Chen%NULL%2,                         Qiaosen%Chen%NULL%0,                         Sumeng%Li%NULL%1,                         Huadong%Li%NULL%1,                         Qian%Zhang%NULL%1,                         Sihong%Lu%NULL%1,                         Li%Wu%NULL%1,                         Leiqun%Xiong%NULL%1,                         Bobin%Mi%NULL%1,                         Di%Liu%NULL%3,                         Mengji%Lu%NULL%1,                         Dongliang%Yang%NULL%1,                         Hongbo%Jiang%hongbojiang3@163.com%1,                         Shaoping%Zheng%zhengspxx@126.com%1,                         Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                         Hua%Zhang%NULL%2,                         Rui%Qiao%NULL%1,                         Qinggang%Ge%NULL%1,                         Shuisheng%Zhang%NULL%1,                         Zongxuan%Zhao%NULL%1,                         Ci%Tian%NULL%1,                         Qingbian%Ma%NULL%2,                         Qingbian%Ma%NULL%0,                         Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                         Antonia%Ho%NULL%2,                         Riinu%Pius%NULL%2,                         Iain%Buchan%NULL%1,                         Gail%Carson%NULL%2,                         Thomas M%Drake%NULL%1,                         Jake%Dunning%NULL%2,                         Cameron J%Fairfield%NULL%2,                         Carrol%Gamble%NULL%2,                         Christopher A%Green%NULL%2,                         Rishi%Gupta%NULL%1,                         Sophie%Halpin%NULL%2,                         Hayley E%Hardwick%NULL%1,                         Karl A%Holden%NULL%1,                         Peter W%Horby%NULL%2,                         Clare%Jackson%NULL%2,                         Kenneth A%Mclean%NULL%2,                         Laura%Merson%NULL%2,                         Jonathan S%Nguyen-Van-Tam%NULL%1,                         Lisa%Norman%NULL%2,                         Mahdad%Noursadeghi%NULL%2,                         Piero L%Olliaro%NULL%1,                         Mark G%Pritchard%NULL%1,                         Clark D%Russell%NULL%2,                         Catherine A%Shaw%NULL%2,                         Aziz%Sheikh%NULL%2,                         Tom%Solomon%NULL%2,                         Cathie%Sudlow%NULL%1,                         Olivia V%Swann%NULL%1,                         Lance CW%Turtle%NULL%2,                         Peter JM%Openshaw%NULL%2,                         J Kenneth%Baillie%NULL%2,                         Malcolm G%Semple%NULL%3,                         Annemarie B%Docherty%NULL%3,                         Annemarie B%Docherty%NULL%0,                         Ewen M%Harrison%NULL%3,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         J Kenneth%Baillie%NULL%0,                         Malcolm G%Semple%NULL%0,                         Peter JM%Openshaw%NULL%0,                         Gail%Carson%NULL%0,                         Beatrice%Alex%NULL%1,                         Benjamin%Bach%NULL%1,                         Wendy S%Barclay%NULL%1,                         Debby%Bogaert%NULL%1,                         Meera%Chand%NULL%1,                         Graham S%Cooke%NULL%1,                         Annemarie B%Docherty%NULL%0,                         Jake%Dunning%NULL%0,                         Ana%da Silva Filipe%NULL%1,                         Tom%Fletcher%NULL%1,                         Christopher A%Green%NULL%0,                         Ewen M%Harrison%NULL%0,                         Julian A%Hiscox%NULL%1,                         Antonia Ying Wai%Ho%NULL%1,                         Peter W%Horby%NULL%0,                         Samreen%Ijaz%NULL%1,                         Saye%Khoo%NULL%1,                         Paul%Klenerman%NULL%1,                         Andrew%Law%NULL%2,                         Wei Shen%Lim%NULL%1,                         Alexander J%Mentzer%NULL%1,                         Laura%Merson%NULL%0,                         Alison M%Meynert%NULL%1,                         Mahdad%Noursadeghi%NULL%0,                         Shona C%Moore%NULL%2,                         Massimo%Palmarini%NULL%1,                         William A%Paxton%NULL%1,                         Georgios%Pollakis%NULL%1,                         Nicholas%Price%NULL%1,                         Andrew%Rambaut%NULL%1,                         David L%Robertson%NULL%1,                         Clark D%Russell%NULL%0,                         Vanessa%Sancho-Shimizu%NULL%1,                         Janet T%Scott%NULL%1,                         Louise%Sigfrid%NULL%1,                         Tom%Solomon%NULL%0,                         Shiranee%Sriskandan%NULL%1,                         David%Stuart%NULL%1,                         Charlotte%Summers%NULL%1,                         Richard S%Tedder%NULL%1,                         Emma C%Thomson%NULL%1,                         Ryan S%Thwaites%NULL%1,                         Lance CW%Turtle%NULL%0,                         Maria%Zambon%NULL%1,                         Hayley%Hardwick%NULL%1,                         Chloe%Donohue%NULL%1,                         Jane%Ewins%NULL%1,                         Wilna%Oosthuyzen%NULL%1,                         Fiona%Griffiths%NULL%1,                         Lisa%Norman%NULL%0,                         Riinu%Pius%NULL%0,                         Tom M%Drake%NULL%1,                         Cameron J%Fairfield%NULL%0,                         Stephen%Knight%NULL%1,                         Kenneth A%Mclean%NULL%0,                         Derek%Murphy%NULL%1,                         Catherine A%Shaw%NULL%0,                         Jo%Dalton%NULL%1,                         Michelle%Girvan%NULL%1,                         Egle%Saviciute%NULL%1,                         Stephanie%Roberts%NULL%1,                         Janet%Harrison%NULL%1,                         Laura%Marsh%NULL%1,                         Marie%Connor%NULL%1,                         Sophie%Halpin%NULL%0,                         Clare%Jackson%NULL%0,                         Carrol%Gamble%NULL%0,                         Gary%Leeming%NULL%1,                         Andrew%Law%NULL%0,                         Ross%Hendry%NULL%1,                         James%Scott-Brown%NULL%1,                         William%Greenhalf%NULL%1,                         Victoria%Shaw%NULL%1,                         Sarah%McDonald%NULL%2,                         Katie A%Ahmed%NULL%1,                         Jane A%Armstrong%NULL%1,                         Milton%Ashworth%NULL%1,                         Innocent G%Asiimwe%NULL%1,                         Siddharth%Bakshi%NULL%1,                         Samantha L%Barlow%NULL%1,                         Laura%Booth%NULL%1,                         Benjamin%Brennan%NULL%1,                         Katie%Bullock%NULL%1,                         Benjamin WA%Catterall%NULL%1,                         Jordan J%Clark%NULL%1,                         Emily A%Clarke%NULL%1,                         Sarah%Cole%NULL%1,                         Louise%Cooper%NULL%1,                         Helen%Cox%NULL%1,                         Christopher%Davis%NULL%1,                         Oslem%Dincarslan%NULL%1,                         Chris%Dunn%NULL%1,                         Philip%Dyer%NULL%1,                         Angela%Elliott%NULL%1,                         Anthony%Evans%NULL%1,                         Lewis WS%Fisher%NULL%1,                         Terry%Foster%NULL%1,                         Isabel%Garcia-Dorival%NULL%1,                         Willliam%Greenhalf%NULL%1,                         Philip%Gunning%NULL%1,                         Catherine%Hartley%NULL%1,                         Antonia%Ho%NULL%0,                         Rebecca L%Jensen%NULL%1,                         Christopher B%Jones%NULL%1,                         Trevor R%Jones%NULL%1,                         Shadia%Khandaker%NULL%1,                         Katharine%King%NULL%1,                         Robyn T%Kiy%NULL%1,                         Chrysa%Koukorava%NULL%1,                         Annette%Lake%NULL%1,                         Suzannah%Lant%NULL%1,                         Diane%Latawiec%NULL%1,                         L%Lavelle-Langham%NULL%1,                         Daniella%Lefteri%NULL%1,                         Lauren%Lett%NULL%1,                         Lucia A%Livoti%NULL%1,                         Maria%Mancini%NULL%1,                         Sarah%McDonald%NULL%0,                         Laurence%McEvoy%NULL%1,                         John%McLauchlan%NULL%1,                         Soeren%Metelmann%NULL%1,                         Nahida S%Miah%NULL%1,                         Joanna%Middleton%NULL%1,                         Joyce%Mitchell%NULL%1,                         Shona C%Moore%NULL%0,                         Ellen G%Murphy%NULL%1,                         Rebekah%Penrice-Randal%NULL%1,                         Jack%Pilgrim%NULL%1,                         Tessa%Prince%NULL%1,                         Will%Reynolds%NULL%1,                         P Matthew%Ridley%NULL%1,                         Debby%Sales%NULL%1,                         Victoria E%Shaw%NULL%1,                         Rebecca K%Shears%NULL%1,                         Benjamin%Small%NULL%1,                         Krishanthi S%Subramaniam%NULL%1,                         Agnieska%Szemiel%NULL%1,                         Aislynn%Taggart%NULL%1,                         Jolanta%Tanianis-Hughes%NULL%1,                         Jordan%Thomas%NULL%1,                         Erwan%Trochu%NULL%1,                         Libby%van Tonder%NULL%1,                         Eve%Wilcock%NULL%1,                         J Eunice%Zhang%NULL%1,                         Kayode%Adeniji%NULL%1,                         Daniel%Agranoff%NULL%1,                         Ken%Agwuh%NULL%1,                         Dhiraj%Ail%NULL%1,                         Ana%Alegria%NULL%1,                         Brian%Angus%NULL%1,                         Abdul%Ashish%NULL%1,                         Dougal%Atkinson%NULL%1,                         Shahedal%Bari%NULL%1,                         Gavin%Barlow%NULL%1,                         Stella%Barnass%NULL%1,                         Nicholas%Barrett%NULL%2,                         Christopher%Bassford%NULL%1,                         David%Baxter%NULL%1,                         Michael%Beadsworth%NULL%1,                         Jolanta%Bernatoniene%NULL%1,                         John%Berridge%NULL%1,                         Nicola%Best%NULL%1,                         Pieter%Bothma%NULL%1,                         David%Brealey%NULL%1,                         Robin%Brittain-Long%NULL%1,                         Naomi%Bulteel%NULL%1,                         Tom%Burden%NULL%1,                         Andrew%Burtenshaw%NULL%1,                         Vikki%Caruth%NULL%1,                         David%Chadwick%NULL%1,                         Duncan%Chambler%NULL%1,                         Nigel%Chee%NULL%1,                         Jenny%Child%NULL%1,                         Srikanth%Chukkambotla%NULL%1,                         Tom%Clark%NULL%1,                         Paul%Collini%NULL%1,                         Catherine%Cosgrove%NULL%1,                         Jason%Cupitt%NULL%1,                         Maria-Teresa%Cutino-Moguel%NULL%1,                         Paul%Dark%NULL%1,                         Chris%Dawson%NULL%1,                         Samir%Dervisevic%NULL%1,                         Phil%Donnison%NULL%1,                         Sam%Douthwaite%NULL%1,                         Ingrid%DuRand%NULL%1,                         Ahilanadan%Dushianthan%NULL%1,                         Tristan%Dyer%NULL%1,                         Cariad%Evans%NULL%1,                         Chi%Eziefula%NULL%1,                         Chrisopher%Fegan%NULL%1,                         Adam%Finn%NULL%1,                         Duncan%Fullerton%NULL%1,                         Sanjeev%Garg%NULL%2,                         Sanjeev%Garg%NULL%0,                         Atul%Garg%NULL%1,                         Jo%Godden%NULL%1,                         Arthur%Goldsmith%NULL%1,                         Clive%Graham%NULL%1,                         Elaine%Hardy%NULL%1,                         Stuart%Hartshorn%NULL%1,                         Daniel%Harvey%NULL%1,                         Peter%Havalda%NULL%1,                         Daniel B%Hawcutt%NULL%1,                         Maria%Hobrok%NULL%1,                         Luke%Hodgson%NULL%1,                         Anita%Holme%NULL%1,                         Anil%Hormis%NULL%1,                         Michael%Jacobs%NULL%1,                         Susan%Jain%NULL%1,                         Paul%Jennings%NULL%1,                         Agilan%Kaliappan%NULL%1,                         Vidya%Kasipandian%NULL%1,                         Stephen%Kegg%NULL%1,                         Michael%Kelsey%NULL%1,                         Jason%Kendall%NULL%1,                         Caroline%Kerrison%NULL%1,                         Ian%Kerslake%NULL%1,                         Oliver%Koch%NULL%2,                         Gouri%Koduri%NULL%1,                         George%Koshy%NULL%1,                         Shondipon%Laha%NULL%1,                         Susan%Larkin%NULL%1,                         Tamas%Leiner%NULL%1,                         Patrick%Lillie%NULL%1,                         James%Limb%NULL%1,                         Vanessa%Linnett%NULL%1,                         Jeff%Little%NULL%1,                         Michael%MacMahon%NULL%1,                         Emily%MacNaughton%NULL%1,                         Ravish%Mankregod%NULL%1,                         Huw%Masson%NULL%1,                         Elijah%Matovu%NULL%1,                         Katherine%McCullough%NULL%1,                         Ruth%McEwen%NULL%1,                         Manjula%Meda%NULL%1,                         Gary%Mills%NULL%1,                         Jane%Minton%NULL%1,                         Mariyam%Mirfenderesky%NULL%1,                         Kavya%Mohandas%NULL%1,                         Quen%Mok%NULL%1,                         James%Moon%NULL%1,                         Elinoor%Moore%NULL%1,                         Patrick%Morgan%NULL%1,                         Craig%Morris%NULL%1,                         Katherine%Mortimore%NULL%1,                         Samuel%Moses%NULL%1,                         Mbiye%Mpenge%NULL%1,                         Rohinton%Mulla%NULL%1,                         Michael%Murphy%NULL%1,                         Megan%Nagel%NULL%1,                         Thapas%Nagarajan%NULL%1,                         Mark%Nelson%NULL%1,                         Igor%Otahal%NULL%1,                         Mark%Pais%NULL%1,                         Selva%Panchatsharam%NULL%1,                         Hassan%Paraiso%NULL%1,                         Brij%Patel%NULL%1,                         Justin%Pepperell%NULL%1,                         Mark%Peters%NULL%1,                         Mandeep%Phull%NULL%1,                         Stefania%Pintus%NULL%1,                         Jagtur Singh%Pooni%NULL%1,                         Frank%Post%NULL%1,                         David%Price%NULL%1,                         Rachel%Prout%NULL%1,                         Nikolas%Rae%NULL%1,                         Henrik%Reschreiter%NULL%1,                         Tim%Reynolds%NULL%1,                         Neil%Richardson%NULL%1,                         Mark%Roberts%NULL%1,                         Devender%Roberts%NULL%1,                         Alistair%Rose%NULL%1,                         Guy%Rousseau%NULL%1,                         Brendan%Ryan%NULL%1,                         Taranprit%Saluja%NULL%1,                         Aarti%Shah%NULL%1,                         Prad%Shanmuga%NULL%1,                         Anil%Sharma%NULL%1,                         Anna%Shawcross%NULL%1,                         Jeremy%Sizer%NULL%1,                         Richard%Smith%NULL%1,                         Catherine%Snelson%NULL%1,                         Nick%Spittle%NULL%1,                         Nikki%Staines%NULL%1,                         Tom%Stambach%NULL%1,                         Richard%Stewart%NULL%1,                         Pradeep%Subudhi%NULL%1,                         Tamas%Szakmany%NULL%1,                         Kate%Tatham%NULL%1,                         Jo%Thomas%NULL%1,                         Chris%Thompson%NULL%1,                         Robert%Thompson%NULL%1,                         Ascanio%Tridente%NULL%1,                         Darell%Tupper-Carey%NULL%1,                         Mary%Twagira%NULL%1,                         Andrew%Ustianowski%NULL%1,                         Nick%Vallotton%NULL%1,                         Lisa%Vincent-Smith%NULL%1,                         Shico%Visuvanathan%NULL%1,                         Alan%Vuylsteke%NULL%1,                         Sam%Waddy%NULL%1,                         Rachel%Wake%NULL%1,                         Andrew%Walden%NULL%1,                         Ingeborg%Welters%NULL%1,                         Tony%Whitehouse%NULL%1,                         Paul%Whittaker%NULL%1,                         Ashley%Whittington%NULL%1,                         Meme%Wijesinghe%NULL%1,                         Martin%Williams%NULL%1,                         Lawrence%Wilson%NULL%1,                         Sarah%Wilson%NULL%1,                         Stephen%Winchester%NULL%1,                         Martin%Wiselka%NULL%1,                         Adam%Wolverson%NULL%1,                         Daniel G%Wooton%NULL%1,                         Andrew%Workman%NULL%1,                         Bryan%Yates%NULL%1,                         Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                         Braulio A.%Marfil‐Garza%NULL%1,                         Erick%Martínez Rodríguez%NULL%1,                         José Omar%Barreto Rodríguez%NULL%1,                         Alicia Estela%López Romo%NULL%1,                         Paolo%Alberti Minutti%NULL%1,                         Juan Vicente%Alejandre Loya%NULL%1,                         Félix Emmanuel%Pérez Talavera%NULL%1,                         Freddy José%Ávila Cervera%NULL%1,                         Adriana%Velazquez Burciaga%NULL%1,                         Oscar%Morado Aramburo%NULL%1,                         Luis Alberto%Piña Olguín%NULL%1,                         Adrian%Soto‐Rodríguez%NULL%1,                         Andrés%Castañeda Prado%NULL%1,                         Patricio%Santillán Doherty%NULL%1,                         Juan%O Galindo%NULL%1,                         Luis Alberto%Guízar García%NULL%1,                         Daniel%Hernández Gordillo%NULL%1,                         Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                         Aatish%Patel%NULL%1,                         Esmita%Charani%NULL%1,                         Sarah%Denny%NULL%1,                         Saleh A.%Alqahtani%NULL%1,                         Gary W.%Davies%NULL%1,                         Nabeela%Mughal%NULL%1,                         Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                         Hyunsun%Lim%NULL%1,                         Dong-Wook%Kim%NULL%1,                         Jung Hyun%Chang%NULL%1,                         Yoon Jung%Choi%chris316@yuhs.ac%1,                         Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                         Wenhua%Liang%NULL%3,                         Mei%Jiang%NULL%2,                         Weijie%Guan%NULL%3,                         Chen%Zhan%NULL%2,                         Tao%Wang%NULL%0,                         Chunli%Tang%NULL%3,                         Ling%Sang%NULL%3,                         Jiaxing%Liu%NULL%2,                         Zhengyi%Ni%NULL%2,                         Yu%Hu%NULL%0,                         Lei%Liu%NULL%8,                         Hong%Shan%NULL%5,                         Chunliang%Lei%NULL%2,                         Yixiang%Peng%NULL%2,                         Li%Wei%NULL%5,                         Yong%Liu%NULL%5,                         Yahua%Hu%NULL%2,                         Peng%Peng%NULL%7,                         Jianming%Wang%NULL%2,                         Jiyang%Liu%NULL%2,                         Zhong%Chen%NULL%5,                         Gang%Li%NULL%5,                         Zhijian%Zheng%NULL%2,                         Shaoqin%Qiu%NULL%2,                         Jie%Luo%NULL%5,                         Changjiang%Ye%NULL%2,                         Shaoyong%Zhu%NULL%2,                         Xiaoqing%Liu%NULL%2,                         Linling%Cheng%NULL%2,                         Feng%Ye%NULL%2,                         Jinping%Zheng%NULL%2,                         Nuofu%Zhang%NULL%2,                         Yimin%Li%NULL%2,                         Jianxing%He%NULL%2,                         Shiyue%Li%lishiyue@188.com%3,                         Nanshan%Zhong%NULL%4,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                         Liu%Hu%NULL%1,                         Yiru%Wang%NULL%0,                         Luyan%Huang%NULL%1,                         Lingxi%Zhao%NULL%1,                         Congcong%Zhang%NULL%1,                         Xiyue%Liu%NULL%1,                         Ranran%Xu%NULL%1,                         Feng%Liu%NULL%0,                         Jinping%Li%NULL%1,                         Dawei%Ye%NULL%0,                         Tao%Wang%NULL%0,                         Yongman%Lv%lvyongman@126.com%0,                         Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                         Carol A C%Coupland%NULL%1,                         Ruth H%Keogh%NULL%1,                         Karla%Diaz-Ordaz%NULL%1,                         Elizabeth%Williamson%NULL%1,                         Ewen M%Harrison%NULL%0,                         Andrew%Hayward%NULL%1,                         Harry%Hemingway%NULL%1,                         Peter%Horby%NULL%1,                         Nisha%Mehta%NULL%1,                         Jonathan%Benger%NULL%1,                         Kamlesh%Khunti%NULL%0,                         David%Spiegelhalter%NULL%1,                         Aziz%Sheikh%NULL%0,                         Jonathan%Valabhji%NULL%0,                         Ronan A%Lyons%NULL%1,                         John%Robson%NULL%1,                         Malcolm G%Semple%NULL%0,                         Frank%Kee%NULL%1,                         Peter%Johnson%NULL%1,                         Susan%Jebb%NULL%1,                         Tony%Williams%NULL%1,                         Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                         Guang-Yao%Cai%NULL%1,                         Wei%Fang%NULL%2,                         Hua-Yi%Li%NULL%1,                         Si-Yuan%Wang%NULL%2,                         Si-Yuan%Wang%NULL%0,                         Lingxi%Chen%NULL%1,                         Yang%Yu%NULL%1,                         Dan%Liu%NULL%0,                         Sen%Xu%NULL%2,                         Peng-Fei%Cui%NULL%1,                         Shao-Qing%Zeng%NULL%2,                         Shao-Qing%Zeng%NULL%0,                         Xin-Xia%Feng%NULL%1,                         Rui-Di%Yu%NULL%1,                         Ya%Wang%NULL%2,                         Yuan%Yuan%NULL%1,                         Xiao-Fei%Jiao%NULL%1,                         Jian-Hua%Chi%NULL%1,                         Jia-Hao%Liu%NULL%1,                         Ru-Yuan%Li%NULL%1,                         Xu%Zheng%NULL%1,                         Chun-Yan%Song%NULL%1,                         Ning%Jin%NULL%1,                         Wen-Jian%Gong%NULL%1,                         Xing-Yu%Liu%NULL%1,                         Lei%Huang%NULL%2,                         Xun%Tian%NULL%1,                         Lin%Li%NULL%1,                         Hui%Xing%NULL%1,                         Ding%Ma%NULL%1,                         Chun-Rui%Li%NULL%1,                         Fei%Ye%yeyuanbei@hotmail.com%1,                         Qing-Lei%Gao%qingleigao@hotmail.com%2,                         Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                         Ang%Li%NULL%1,                         Mengfan%Jiao%NULL%1,                         Qingmiao%Shi%NULL%1,                         Xiaocai%An%NULL%1,                         Yonghai%Feng%NULL%1,                         Lihua%Xing%NULL%1,                         Hongxia%Liang%NULL%1,                         Jiajun%Chen%NULL%1,                         Huiling%Li%NULL%1,                         Juan%Li%NULL%0,                         Zhigang%Ren%NULL%1,                         Ranran%Sun%NULL%1,                         Guangying%Cui%NULL%1,                         Yongjian%Zhou%NULL%1,                         Ming%Cheng%NULL%1,                         Pengfei%Jiao%NULL%1,                         Yu%Wang%NULL%2,                         Jiyuan%Xing%NULL%1,                         Shen%Shen%NULL%1,                         Qingxian%Zhang%NULL%1,                         Aiguo%Xu%NULL%1,                         Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                         Michael%Ng%NULL%1,                         Shuang%Xu%NULL%1,                         Zhouming%Xu%NULL%1,                         Hui%Qiu%NULL%1,                         Yuwei%Liu%NULL%1,                         Jiayou%Lyu%NULL%1,                         Jiwen%You%NULL%1,                         Peng%Zhao%NULL%0,                         Shihao%Wang%NULL%1,                         Yunfei%Tang%NULL%1,                         Hao%Cui%NULL%1,                         Changxiao%Yu%NULL%1,                         Feng%Wang%NULL%5,                         Fei%Shao%NULL%1,                         Peng%Sun%NULL%1,                         Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                         Huifang%Wang%NULL%1,                         Junwei%Huang%NULL%1,                         Yan%Geng%NULL%1,                         Shuqi%Jiang%NULL%1,                         Qiuping%Zhou%NULL%1,                         Xuan%Chen%NULL%1,                         Hongping%Hu%NULL%1,                         Weifeng%Li%NULL%1,                         Chengbin%Zhou%NULL%1,                         Xinglin%Gao%NULL%1,                         Na%Peng%pnatz@163.com%1,                         Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                         Dandan%Cheng%NULL%1,                         Yiwei%Cao%NULL%1,                         Chuan%Hu%NULL%1,                         Fenglin%Zou%NULL%1,                         Wencheng%Yu%NULL%1,                         Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                         Min Kyu%Kang%NULL%2,                         Min Kyu%Kang%NULL%0,                         Yu Rim%Lee%NULL%2,                         Yu Rim%Lee%NULL%0,                         Jeong Eun%Song%NULL%2,                         Jeong Eun%Song%NULL%0,                         Na Young%Kim%NULL%1,                         Young Oh%Kweon%NULL%1,                         Won Young%Tak%NULL%1,                         Se Young%Jang%NULL%1,                         Changhyeong%Lee%NULL%2,                         Changhyeong%Lee%NULL%0,                         Byung Seok%Kim%NULL%1,                         Jae Seok%Hwang%NULL%1,                         Byoung Kuk%Jang%NULL%1,                         Jinmok%Bae%NULL%1,                         Ji Yeon%Lee%NULL%0,                         Jeong Ill%Suh%NULL%1,                         Soo Young%Park%NULL%1,                         Woo Jin%Chung%NULL%2,                         Woo Jin%Chung%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                         Cristina%Roca-Oporto%NULL%0,                         Guillermo%Martín-Gutiérrez%NULL%0,                         María Dolores%Avilés%NULL%0,                         Carmen%Gómez-González%NULL%0,                         María Dolores%Navarro-Amuedo%NULL%0,                         Julia%Praena-Segovia%NULL%0,                         José%Molina%NULL%0,                         María%Paniagua-García%NULL%0,                         Horacio%García-Delgado%NULL%0,                         Antonio%Domínguez-Petit%NULL%0,                         Jerónimo%Pachón%NULL%0,                         José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                      Calvo%Boyero Fernando%coreGivesNoEmail%1,                      Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                      COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                      Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                      Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                      L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                      Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                      Santos%Lozano Alejandro%coreGivesNoEmail%1,                      Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -5760,6 +6636,9 @@
       <c r="I1" t="s">
         <v>384</v>
       </c>
+      <c r="J1" t="s">
+        <v>1517</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -5775,7 +6654,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1454</v>
+        <v>1754</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -5788,6 +6667,9 @@
       </c>
       <c r="I2" t="s">
         <v>1388</v>
+      </c>
+      <c r="J2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3">
@@ -5804,7 +6686,7 @@
         <v>937</v>
       </c>
       <c r="E3" t="s">
-        <v>1455</v>
+        <v>1755</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -5817,6 +6699,9 @@
       </c>
       <c r="I3" t="s">
         <v>1390</v>
+      </c>
+      <c r="J3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -5833,7 +6718,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>1456</v>
+        <v>1756</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -5846,6 +6731,9 @@
       </c>
       <c r="I4" t="s">
         <v>1392</v>
+      </c>
+      <c r="J4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
@@ -5862,7 +6750,7 @@
         <v>875</v>
       </c>
       <c r="E5" t="s">
-        <v>1457</v>
+        <v>1757</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -5875,6 +6763,9 @@
       </c>
       <c r="I5" t="s">
         <v>1394</v>
+      </c>
+      <c r="J5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6">
@@ -5891,7 +6782,7 @@
         <v>940</v>
       </c>
       <c r="E6" t="s">
-        <v>1458</v>
+        <v>1758</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -5904,6 +6795,9 @@
       </c>
       <c r="I6" t="s">
         <v>1390</v>
+      </c>
+      <c r="J6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -5920,7 +6814,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>1459</v>
+        <v>1759</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -5933,6 +6827,9 @@
       </c>
       <c r="I7" t="s">
         <v>1388</v>
+      </c>
+      <c r="J7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8">
@@ -5949,7 +6846,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>1460</v>
+        <v>1760</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -5962,6 +6859,9 @@
       </c>
       <c r="I8" t="s">
         <v>1388</v>
+      </c>
+      <c r="J8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9">
@@ -5978,7 +6878,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1461</v>
+        <v>1761</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -5991,6 +6891,9 @@
       </c>
       <c r="I9" t="s">
         <v>1388</v>
+      </c>
+      <c r="J9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -6007,7 +6910,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>1462</v>
+        <v>1762</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -6020,6 +6923,9 @@
       </c>
       <c r="I10" t="s">
         <v>1388</v>
+      </c>
+      <c r="J10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="11">
@@ -6036,7 +6942,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>1463</v>
+        <v>1763</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -6049,6 +6955,9 @@
       </c>
       <c r="I11" t="s">
         <v>1392</v>
+      </c>
+      <c r="J11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12">
@@ -6065,7 +6974,7 @@
         <v>947</v>
       </c>
       <c r="E12" t="s">
-        <v>1464</v>
+        <v>1764</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -6078,6 +6987,9 @@
       </c>
       <c r="I12" t="s">
         <v>1390</v>
+      </c>
+      <c r="J12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13">
@@ -6094,7 +7006,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>1465</v>
+        <v>1765</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -6107,6 +7019,9 @@
       </c>
       <c r="I13" t="s">
         <v>1388</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -6123,7 +7038,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>1466</v>
+        <v>1766</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -6136,6 +7051,9 @@
       </c>
       <c r="I14" t="s">
         <v>1390</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -6152,7 +7070,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>1467</v>
+        <v>1767</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -6165,6 +7083,9 @@
       </c>
       <c r="I15" t="s">
         <v>1392</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16">
@@ -6181,7 +7102,7 @@
         <v>953</v>
       </c>
       <c r="E16" t="s">
-        <v>1468</v>
+        <v>1768</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -6194,6 +7115,9 @@
       </c>
       <c r="I16" t="s">
         <v>1390</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="17">
@@ -6210,7 +7134,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>1469</v>
+        <v>1769</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -6223,6 +7147,9 @@
       </c>
       <c r="I17" t="s">
         <v>1388</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="18">
@@ -6239,7 +7166,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>1470</v>
+        <v>956</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -6251,7 +7178,10 @@
         <v>685</v>
       </c>
       <c r="I18" t="s">
-        <v>1394</v>
+        <v>143</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="19">
@@ -6268,7 +7198,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>1471</v>
+        <v>1770</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -6281,6 +7211,9 @@
       </c>
       <c r="I19" t="s">
         <v>1394</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20">
@@ -6297,7 +7230,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>1472</v>
+        <v>1771</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -6310,6 +7243,9 @@
       </c>
       <c r="I20" t="s">
         <v>1388</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="21">
@@ -6326,7 +7262,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>1473</v>
+        <v>1772</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -6339,6 +7275,9 @@
       </c>
       <c r="I21" t="s">
         <v>1388</v>
+      </c>
+      <c r="J21" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="22">
@@ -6355,7 +7294,7 @@
         <v>690</v>
       </c>
       <c r="E22" t="s">
-        <v>1474</v>
+        <v>960</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -6367,7 +7306,10 @@
         <v>692</v>
       </c>
       <c r="I22" t="s">
-        <v>1394</v>
+        <v>143</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="23">
@@ -6384,7 +7326,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>1475</v>
+        <v>1773</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -6397,6 +7339,9 @@
       </c>
       <c r="I23" t="s">
         <v>1388</v>
+      </c>
+      <c r="J23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24">
@@ -6413,7 +7358,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>1476</v>
+        <v>962</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -6425,7 +7370,10 @@
         <v>696</v>
       </c>
       <c r="I24" t="s">
-        <v>1394</v>
+        <v>143</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="25">
@@ -6442,7 +7390,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>1477</v>
+        <v>1774</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -6455,6 +7403,9 @@
       </c>
       <c r="I25" t="s">
         <v>1388</v>
+      </c>
+      <c r="J25" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26">
@@ -6471,7 +7422,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>1478</v>
+        <v>1775</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -6484,6 +7435,9 @@
       </c>
       <c r="I26" t="s">
         <v>1388</v>
+      </c>
+      <c r="J26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="27">
@@ -6500,7 +7454,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>1479</v>
+        <v>1776</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -6513,6 +7467,9 @@
       </c>
       <c r="I27" t="s">
         <v>1388</v>
+      </c>
+      <c r="J27" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28">
@@ -6529,7 +7486,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>1480</v>
+        <v>1777</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -6542,6 +7499,9 @@
       </c>
       <c r="I28" t="s">
         <v>1388</v>
+      </c>
+      <c r="J28" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="29">
@@ -6558,7 +7518,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1481</v>
+        <v>1778</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -6571,6 +7531,9 @@
       </c>
       <c r="I29" t="s">
         <v>1388</v>
+      </c>
+      <c r="J29" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30">
@@ -6587,7 +7550,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>1482</v>
+        <v>1779</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -6600,6 +7563,9 @@
       </c>
       <c r="I30" t="s">
         <v>1388</v>
+      </c>
+      <c r="J30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31">
@@ -6616,7 +7582,7 @@
         <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>1483</v>
+        <v>969</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -6628,7 +7594,10 @@
         <v>706</v>
       </c>
       <c r="I31" t="s">
-        <v>1394</v>
+        <v>143</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="32">
@@ -6645,7 +7614,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>1484</v>
+        <v>1780</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -6658,6 +7627,9 @@
       </c>
       <c r="I32" t="s">
         <v>1388</v>
+      </c>
+      <c r="J32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="33">
@@ -6674,7 +7646,7 @@
         <v>971</v>
       </c>
       <c r="E33" t="s">
-        <v>1485</v>
+        <v>1781</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -6687,6 +7659,9 @@
       </c>
       <c r="I33" t="s">
         <v>1390</v>
+      </c>
+      <c r="J33" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="34">
@@ -6703,7 +7678,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>1486</v>
+        <v>1782</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -6716,6 +7691,9 @@
       </c>
       <c r="I34" t="s">
         <v>1388</v>
+      </c>
+      <c r="J34" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="35">
@@ -6746,6 +7724,9 @@
       <c r="I35" t="s">
         <v>1394</v>
       </c>
+      <c r="J35" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
@@ -6761,7 +7742,7 @@
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>1487</v>
+        <v>974</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -6773,7 +7754,10 @@
         <v>712</v>
       </c>
       <c r="I36" t="s">
-        <v>1394</v>
+        <v>143</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="37">
@@ -6790,7 +7774,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>1488</v>
+        <v>1783</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -6803,6 +7787,9 @@
       </c>
       <c r="I37" t="s">
         <v>1392</v>
+      </c>
+      <c r="J37" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="38">
@@ -6819,7 +7806,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>1489</v>
+        <v>1784</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -6832,6 +7819,9 @@
       </c>
       <c r="I38" t="s">
         <v>1388</v>
+      </c>
+      <c r="J38" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="39">
@@ -6848,7 +7838,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>1490</v>
+        <v>1785</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -6861,6 +7851,9 @@
       </c>
       <c r="I39" t="s">
         <v>1392</v>
+      </c>
+      <c r="J39" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40">
@@ -6877,7 +7870,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>1491</v>
+        <v>1786</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -6890,6 +7883,9 @@
       </c>
       <c r="I40" t="s">
         <v>1388</v>
+      </c>
+      <c r="J40" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="41">
@@ -6906,7 +7902,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>1492</v>
+        <v>1787</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -6919,6 +7915,9 @@
       </c>
       <c r="I41" t="s">
         <v>1388</v>
+      </c>
+      <c r="J41" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="42">
@@ -6935,7 +7934,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>1493</v>
+        <v>1788</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -6948,6 +7947,9 @@
       </c>
       <c r="I42" t="s">
         <v>1388</v>
+      </c>
+      <c r="J42" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="43">
@@ -6964,7 +7966,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>1494</v>
+        <v>1789</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -6977,6 +7979,9 @@
       </c>
       <c r="I43" t="s">
         <v>1388</v>
+      </c>
+      <c r="J43" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="44">
@@ -6993,7 +7998,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>1495</v>
+        <v>1790</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -7006,6 +8011,9 @@
       </c>
       <c r="I44" t="s">
         <v>1388</v>
+      </c>
+      <c r="J44" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="45">
@@ -7022,7 +8030,7 @@
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>1496</v>
+        <v>983</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -7034,7 +8042,10 @@
         <v>692</v>
       </c>
       <c r="I45" t="s">
-        <v>1394</v>
+        <v>143</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="46">
@@ -7051,7 +8062,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>1497</v>
+        <v>1791</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -7064,6 +8075,9 @@
       </c>
       <c r="I46" t="s">
         <v>1388</v>
+      </c>
+      <c r="J46" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="47">
@@ -7080,7 +8094,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>1498</v>
+        <v>985</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -7089,10 +8103,13 @@
         <v>684</v>
       </c>
       <c r="H47" t="s">
-        <v>726</v>
+        <v>1569</v>
       </c>
       <c r="I47" t="s">
-        <v>1394</v>
+        <v>143</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="48">
@@ -7109,7 +8126,7 @@
         <v>986</v>
       </c>
       <c r="E48" t="s">
-        <v>1499</v>
+        <v>1792</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -7122,6 +8139,9 @@
       </c>
       <c r="I48" t="s">
         <v>1390</v>
+      </c>
+      <c r="J48" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49">
@@ -7138,7 +8158,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>1500</v>
+        <v>1793</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -7151,6 +8171,9 @@
       </c>
       <c r="I49" t="s">
         <v>1388</v>
+      </c>
+      <c r="J49" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="50">
@@ -7167,7 +8190,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>1501</v>
+        <v>1794</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -7180,6 +8203,9 @@
       </c>
       <c r="I50" t="s">
         <v>1388</v>
+      </c>
+      <c r="J50" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="51">
@@ -7196,7 +8222,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>1502</v>
+        <v>1795</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -7209,6 +8235,9 @@
       </c>
       <c r="I51" t="s">
         <v>1388</v>
+      </c>
+      <c r="J51" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="52">
@@ -7225,7 +8254,7 @@
         <v>991</v>
       </c>
       <c r="E52" t="s">
-        <v>1503</v>
+        <v>1796</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -7238,6 +8267,9 @@
       </c>
       <c r="I52" t="s">
         <v>1390</v>
+      </c>
+      <c r="J52" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="53">
@@ -7254,7 +8286,7 @@
         <v>993</v>
       </c>
       <c r="E53" t="s">
-        <v>1504</v>
+        <v>1797</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -7267,6 +8299,9 @@
       </c>
       <c r="I53" t="s">
         <v>1390</v>
+      </c>
+      <c r="J53" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="54">
@@ -7283,7 +8318,7 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>1505</v>
+        <v>995</v>
       </c>
       <c r="F54" t="s">
         <v>54</v>
@@ -7295,7 +8330,10 @@
         <v>712</v>
       </c>
       <c r="I54" t="s">
-        <v>1394</v>
+        <v>143</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="55">
@@ -7312,7 +8350,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>1506</v>
+        <v>1798</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -7325,6 +8363,9 @@
       </c>
       <c r="I55" t="s">
         <v>1392</v>
+      </c>
+      <c r="J55" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="56">
@@ -7341,7 +8382,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>1507</v>
+        <v>1799</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -7354,6 +8395,9 @@
       </c>
       <c r="I56" t="s">
         <v>1392</v>
+      </c>
+      <c r="J56" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="57">
@@ -7370,7 +8414,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>1508</v>
+        <v>1800</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -7383,6 +8427,9 @@
       </c>
       <c r="I57" t="s">
         <v>1388</v>
+      </c>
+      <c r="J57" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="58">
@@ -7399,7 +8446,7 @@
         <v>999</v>
       </c>
       <c r="E58" t="s">
-        <v>1509</v>
+        <v>1801</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -7412,6 +8459,9 @@
       </c>
       <c r="I58" t="s">
         <v>1390</v>
+      </c>
+      <c r="J58" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="59">
@@ -7428,7 +8478,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>1510</v>
+        <v>1802</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -7441,6 +8491,9 @@
       </c>
       <c r="I59" t="s">
         <v>1388</v>
+      </c>
+      <c r="J59" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="60">
@@ -7457,7 +8510,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>1511</v>
+        <v>1803</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -7470,6 +8523,9 @@
       </c>
       <c r="I60" t="s">
         <v>1388</v>
+      </c>
+      <c r="J60" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="61">
@@ -7486,7 +8542,7 @@
         <v>1003</v>
       </c>
       <c r="E61" t="s">
-        <v>1512</v>
+        <v>1804</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -7499,6 +8555,9 @@
       </c>
       <c r="I61" t="s">
         <v>1390</v>
+      </c>
+      <c r="J61" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="62">
@@ -7515,7 +8574,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>1513</v>
+        <v>1805</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -7528,6 +8587,9 @@
       </c>
       <c r="I62" t="s">
         <v>1388</v>
+      </c>
+      <c r="J62" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="63">
@@ -7544,7 +8606,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>1514</v>
+        <v>1806</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -7557,6 +8619,9 @@
       </c>
       <c r="I63" t="s">
         <v>1388</v>
+      </c>
+      <c r="J63" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="64">
@@ -7573,7 +8638,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>1515</v>
+        <v>1807</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -7586,6 +8651,9 @@
       </c>
       <c r="I64" t="s">
         <v>1392</v>
+      </c>
+      <c r="J64" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="65">
@@ -7602,7 +8670,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1516</v>
+        <v>1808</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>
@@ -7615,6 +8683,9 @@
       </c>
       <c r="I65" t="s">
         <v>1394</v>
+      </c>
+      <c r="J65" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/14.xlsx
+++ b/Covid_19_Dataset_and_References/References/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12156" uniqueCount="1809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13196" uniqueCount="1919">
   <si>
     <t>Doi</t>
   </si>
@@ -6260,6 +6260,336 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                      Calvo%Boyero Fernando%coreGivesNoEmail%1,                      Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                      COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                      Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                      Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                      L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                      Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                      Santos%Lozano Alejandro%coreGivesNoEmail%1,                      Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                          Min%He%NULL%1,                          Wanhong%Yin%NULL%1,                          Xuelian%Liao%NULL%1,                          Bo%Wang%NULL%6,                          Xiaodong%Jin%NULL%1,                          Yao%Ma%NULL%2,                          Jirong%Yue%NULL%1,                          Lang%Bai%NULL%1,                          Dan%Liu%NULL%3,                          Ting%Zhu%NULL%1,                          Zhixin%Huang%NULL%1,                          Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                          Shuchang%Zhou%NULL%1,                          Yujin%Wang%NULL%1,                          Wenzhi%Lv%NULL%2,                          Shili%Wang%NULL%1,                          Ting%Wang%751884926@qq.com%1,                          Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                          Yan-chak%Li%NULL%1,                          Sonali%Bose%NULL%1,                          Ravi%Iyengar%NULL%1,                          Supinda%Bunyavanich%NULL%1,                          Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,                 Hai-Tao%Zhang%null%1,                 Jorge%Goncalves%null%1,                 Yang%Xiao%null%1,                 Maolin%Wang%null%1,                 Yuqi%Guo%null%1,                 Chuan%Sun%null%1,                 Xiuchuan%Tang%null%1,                 Liang%Jing%null%1,                 Mingyang%Zhang%null%1,                 Xiang%Huang%null%1,                 Ying%Xiao%null%1,                 Haosen%Cao%null%1,                 Yanyan%Chen%null%1,                 Tongxin%Ren%null%1,                 Fang%Wang%null%1,                 Yaru%Xiao%null%1,                 Sufang%Huang%null%1,                 Xi%Tan%null%1,                 Niannian%Huang%null%1,                 Bo%Jiao%null%1,                 Cheng%Cheng%null%1,                 Yong%Zhang%null%1,                 Ailin%Luo%null%1,                 Laurent%Mombaerts%null%1,                 Junyang%Jin%null%1,                 Zhiguo%Cao%null%1,                 Shusheng%Li%null%1,                 Hui%Xu%null%1,                 Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                          Mengfei%Guo%NULL%1,                          Limin%Duan%NULL%1,                          Feng%Wu%NULL%1,                          Guorong%Hu%NULL%1,                          Zhihui%Wang%NULL%1,                          Qi%Huang%NULL%1,                          Tingting%Liao%NULL%1,                          Juanjuan%Xu%NULL%1,                          Yanling%Ma%NULL%1,                          Zhilei%Lv%NULL%1,                          Wenjing%Xiao%NULL%1,                          Zilin%Zhao%NULL%1,                          Xueyun%Tan%NULL%1,                          Daquan%Meng%NULL%1,                          Shujing%Zhang%NULL%1,                          E%Zhou%NULL%1,                          Zhengrong%Yin%NULL%1,                          Wei%Geng%NULL%1,                          Xuan%Wang%NULL%1,                          Jianchu%Zhang%NULL%1,                          Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                          Yu%Zhang%whxhzy@163.com%1,                          Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                          Francesco%Arru%NULL%2,                          Francesco%Arru%NULL%0,                          Andrea%De Vito%NULL%3,                          Alessandro%Sassu%NULL%2,                          Alessandro%Sassu%NULL%0,                          Giovanni%Valdes%NULL%1,                          Valentina%Scano%NULL%1,                          Elisabetta%Zinellu%NULL%1,                          Roberto%Perra%NULL%1,                          Giordano%Madeddu%NULL%3,                          Ciriaco%Carru%NULL%1,                          Pietro%Pirina%NULL%3,                          Arduino A.%Mangoni%NULL%2,                          Arduino A.%Mangoni%NULL%0,                          Sergio%Babudieri%NULL%4,                          Sergio%Babudieri%NULL%0,                          Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                          Pablo%Ryan%NULL%1,                          Jorge%Valencia%NULL%2,                          Jorge%Valencia%NULL%0,                          Mario%Pérez-Butragueño%NULL%2,                          Mario%Pérez-Butragueño%NULL%0,                          Eva%Jiménez%NULL%2,                          Eva%Jiménez%NULL%0,                          Mario%Fontán-Vela%NULL%1,                          Elsa%Izquierdo-García%NULL%2,                          Elsa%Izquierdo-García%NULL%0,                          Inés%Fernandez-Jimenez%NULL%1,                          Elena%Álvaro-Alonso%NULL%1,                          Andrea%Lazaro%NULL%2,                          Andrea%Lazaro%NULL%0,                          Marta%Alvarado%NULL%1,                          Helena%Notario%NULL%1,                          Salvador%Resino%NULL%1,                          Daniel%Velez-Serrano%NULL%1,                          Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                          Yiru%Wang%NULL%2,                          Xuecheng%Zhao%NULL%1,                          Lixuan%Wang%NULL%1,                          Feng%Liu%NULL%3,                          Tao%Wang%NULL%15,                          Dawei%Ye%NULL%2,                          Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                          Valentina%Zuccaro%NULL%1,                          Luca%Novelli%NULL%1,                          Lorenzo%Zileri%NULL%2,                          Lorenzo%Zileri%NULL%0,                          Ciro%Celsa%NULL%1,                          Federico%Raimondi%NULL%2,                          Federico%Raimondi%NULL%0,                          Mauro%Gori%NULL%1,                          Giulia%Cammà%NULL%1,                          Salvatore%Battaglia%NULL%1,                          Vincenzo Giuseppe%Genova%NULL%1,                          Laura%Paris%NULL%1,                          Matteo%Tacelli%NULL%1,                          Francesco Antonio%Mancarella%NULL%1,                          Marco%Enea%NULL%1,                          Massimo%Attanasio%NULL%1,                          Michele%Senni%NULL%1,                          Fabiano%Di Marco%NULL%1,                          Luca Ferdinando%Lorini%NULL%1,                          Stefano%Fagiuoli%NULL%1,                          Raffaele%Bruno%NULL%2,                          Calogero%Cammà%NULL%1,                          Antonio%Gasbarrini%NULL%3,                          Francesco%Di Gennaro%NULL%2,                          Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                          Gan-xun%Li%NULL%1,                          Lin%Chen%NULL%3,                          Chang%Shu%NULL%2,                          Jia%Song%NULL%1,                          Wei%Wang%NULL%2,                          Yu-wei%Wang%NULL%1,                          Qian%Chen%NULL%2,                          Guan-nan%Jin%NULL%1,                          Tong-tong%Liu%NULL%1,                          Jun-nan%Liang%NULL%1,                          Peng%Zhu%NULL%1,                          Wei%Zhu%NULL%5,                          Yong%Li%NULL%2,                          Bin-hao%Zhang%NULL%1,                          Huan%Feng%NULL%1,                          Wan-guang%Zhang%NULL%1,                          Zhen-yu%Yin%NULL%1,                          Wen-kui%Yu%NULL%1,                          Yang%Yang%NULL%2,                          Hua-qiu%Zhang%NULL%1,                          Zhou-ping%Tang%NULL%1,                          Hui%Wang%NULL%4,                          Jun-bo%Hu%NULL%1,                          Ji-hong%Liu%NULL%1,                          Ping%Yin%NULL%1,                          Xiao-ping%Chen%NULL%1,                          Bixiang%Zhang%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                          Günay%Can%NULL%2,                          Günay%Can%NULL%0,                          Rıdvan%Karaali%NULL%1,                          Şermin%Börekçi%NULL%1,                          İlker İnanç%Balkan%NULL%1,                          Bilun%Gemicioğlu%NULL%1,                          Dildar%Konukoğlu%NULL%1,                          Ethem%Erginöz%NULL%1,                          Mehmet Sarper%Erdoğan%NULL%1,                          Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                          Danila%Azzolina%NULL%1,                          Eyal%Hayden%NULL%2,                          Eyal%Hayden%NULL%0,                          Gianluca%Gaidano%NULL%2,                          Gianluca%Gaidano%NULL%0,                          Mario%Pirisi%NULL%2,                          Mario%Pirisi%NULL%0,                          Antonio%Acquaviva%NULL%2,                          Antonio%Acquaviva%NULL%0,                          Gianluca%Aimaretti%NULL%2,                          Gianluca%Aimaretti%NULL%0,                          Paolo%Aluffi Valletti%NULL%3,                          Paolo%Aluffi Valletti%NULL%0,                          Roberto%Angilletta%NULL%2,                          Roberto%Angilletta%NULL%0,                          Roberto%Arioli%NULL%2,                          Roberto%Arioli%NULL%0,                          Gian Carlo%Avanzi%NULL%2,                          Gian Carlo%Avanzi%NULL%0,                          Gianluca%Avino%NULL%2,                          Gianluca%Avino%NULL%0,                          Piero Emilio%Balbo%NULL%2,                          Piero Emilio%Balbo%NULL%0,                          Giulia%Baldon%NULL%2,                          Giulia%Baldon%NULL%0,                          Francesca%Baorda%NULL%2,                          Francesca%Baorda%NULL%0,                          Emanuela%Barbero%NULL%2,                          Emanuela%Barbero%NULL%0,                          Alessio%Baricich%NULL%2,                          Alessio%Baricich%NULL%0,                          Michela%Barini%NULL%2,                          Michela%Barini%NULL%0,                          Francesco%Barone-Adesi%NULL%2,                          Francesco%Barone-Adesi%NULL%0,                          Sofia%Battistini%NULL%2,                          Sofia%Battistini%NULL%0,                          Michela%Beltrame%NULL%2,                          Michela%Beltrame%NULL%0,                          Matteo%Bertoli%NULL%2,                          Matteo%Bertoli%NULL%0,                          Stephanie%Bertolin%NULL%2,                          Stephanie%Bertolin%NULL%0,                          Marinella%Bertolotti%NULL%2,                          Marinella%Bertolotti%NULL%0,                          Marta%Betti%NULL%2,                          Marta%Betti%NULL%0,                          Flavio%Bobbio%NULL%2,                          Flavio%Bobbio%NULL%0,                          Paolo%Boffano%NULL%2,                          Paolo%Boffano%NULL%0,                          Lucio%Boglione%NULL%2,                          Lucio%Boglione%NULL%0,                          Silvio%Borrè%NULL%2,                          Silvio%Borrè%NULL%0,                          Matteo%Brucoli%NULL%2,                          Matteo%Brucoli%NULL%0,                          Elisa%Calzaducca%NULL%2,                          Elisa%Calzaducca%NULL%0,                          Edoardo%Cammarata%NULL%2,                          Edoardo%Cammarata%NULL%0,                          Vincenzo%Cantaluppi%NULL%2,                          Vincenzo%Cantaluppi%NULL%0,                          Roberto%Cantello%NULL%2,                          Roberto%Cantello%NULL%0,                          Andrea%Capponi%NULL%2,                          Andrea%Capponi%NULL%0,                          Alessandro%Carriero%NULL%2,                          Alessandro%Carriero%NULL%0,                          Giuseppe Francesco%Casciaro%NULL%2,                          Giuseppe Francesco%Casciaro%NULL%0,                          Luigi Mario%Castello%NULL%2,                          Luigi Mario%Castello%NULL%0,                          Federico%Ceruti%NULL%2,                          Federico%Ceruti%NULL%0,                          Guido%Chichino%NULL%2,                          Guido%Chichino%NULL%0,                          Emilio%Chirico%NULL%2,                          Emilio%Chirico%NULL%0,                          Carlo%Cisari%NULL%1,                          Micol Giulia%Cittone%NULL%2,                          Micol Giulia%Cittone%NULL%0,                          Crizia%Colombo%NULL%2,                          Crizia%Colombo%NULL%0,                          Cristoforo%Comi%NULL%2,                          Cristoforo%Comi%NULL%0,                          Eleonora%Croce%NULL%2,                          Eleonora%Croce%NULL%0,                          Tommaso%Daffara%NULL%2,                          Tommaso%Daffara%NULL%0,                          Pietro%Danna%NULL%2,                          Pietro%Danna%NULL%0,                          Francesco%Della Corte%NULL%2,                          Francesco%Della Corte%NULL%0,                          Simona%De Vecchi%NULL%2,                          Simona%De Vecchi%NULL%0,                          Umberto%Dianzani%NULL%2,                          Umberto%Dianzani%NULL%0,                          Davide%Di Benedetto%NULL%2,                          Davide%Di Benedetto%NULL%0,                          Elia%Esposto%NULL%2,                          Elia%Esposto%NULL%0,                          Fabrizio%Faggiano%NULL%2,                          Fabrizio%Faggiano%NULL%0,                          Zeno%Falaschi%NULL%2,                          Zeno%Falaschi%NULL%0,                          Daniela%Ferrante%NULL%2,                          Daniela%Ferrante%NULL%0,                          Alice%Ferrero%NULL%2,                          Alice%Ferrero%NULL%0,                          Ileana%Gagliardi%NULL%2,                          Ileana%Gagliardi%NULL%0,                          Alessandra%Galbiati%NULL%2,                          Alessandra%Galbiati%NULL%0,                          Silvia%Gallo%NULL%2,                          Silvia%Gallo%NULL%0,                          Pietro Luigi%Garavelli%NULL%2,                          Pietro Luigi%Garavelli%NULL%0,                          Clara Ada%Gardino%NULL%2,                          Clara Ada%Gardino%NULL%0,                          Massimiliano%Garzaro%NULL%3,                          Massimiliano%Garzaro%NULL%0,                          Maria Luisa%Gastaldello%NULL%2,                          Maria Luisa%Gastaldello%NULL%0,                          Francesco%Gavelli%NULL%2,                          Francesco%Gavelli%NULL%0,                          Alessandra%Gennari%NULL%2,                          Alessandra%Gennari%NULL%0,                          Greta Maria%Giacomini%NULL%2,                          Greta Maria%Giacomini%NULL%0,                          Irene%Giacone%NULL%2,                          Irene%Giacone%NULL%0,                          Valentina%Giai Via%NULL%2,                          Valentina%Giai Via%NULL%0,                          Francesca%Giolitti%NULL%2,                          Francesca%Giolitti%NULL%0,                          Laura Cristina%Gironi%NULL%2,                          Laura Cristina%Gironi%NULL%0,                          Carla%Gramaglia%NULL%2,                          Carla%Gramaglia%NULL%0,                          Leonardo%Grisafi%NULL%2,                          Leonardo%Grisafi%NULL%0,                          Ilaria%Inserra%NULL%2,                          Ilaria%Inserra%NULL%0,                          Marco%Invernizzi%NULL%2,                          Marco%Invernizzi%NULL%0,                          Marco%Krengli%NULL%2,                          Marco%Krengli%NULL%0,                          Emanuela%Labella%NULL%2,                          Emanuela%Labella%NULL%0,                          Irene Cecilia%Landi%NULL%2,                          Irene Cecilia%Landi%NULL%0,                          Raffaella%Landi%NULL%2,                          Raffaella%Landi%NULL%0,                          Ilaria%Leone%NULL%2,                          Ilaria%Leone%NULL%0,                          Veronica%Lio%NULL%2,                          Veronica%Lio%NULL%0,                          Luca%Lorenzini%NULL%2,                          Luca%Lorenzini%NULL%0,                          Antonio%Maconi%NULL%2,                          Antonio%Maconi%NULL%0,                          Mario%Malerba%NULL%2,                          Mario%Malerba%NULL%0,                          Giulia Francesca%Manfredi%NULL%2,                          Giulia Francesca%Manfredi%NULL%0,                          Maria%Martelli%NULL%2,                          Maria%Martelli%NULL%0,                          Letizia%Marzari%NULL%2,                          Letizia%Marzari%NULL%0,                          Paolo%Marzullo%NULL%2,                          Paolo%Marzullo%NULL%0,                          Marco%Mennuni%NULL%2,                          Marco%Mennuni%NULL%0,                          Claudia%Montabone%NULL%2,                          Claudia%Montabone%NULL%0,                          Umberto%Morosini%NULL%2,                          Umberto%Morosini%NULL%0,                          Marco%Mussa%NULL%2,                          Marco%Mussa%NULL%0,                          Ilaria%Nerici%NULL%2,                          Ilaria%Nerici%NULL%0,                          Alessandro%Nuzzo%NULL%2,                          Alessandro%Nuzzo%NULL%0,                          Carlo%Olivieri%NULL%2,                          Carlo%Olivieri%NULL%0,                          Samuel Alberto%Padelli%NULL%2,                          Samuel Alberto%Padelli%NULL%0,                          Massimiliano%Panella%NULL%2,                          Massimiliano%Panella%NULL%0,                          Andrea%Parisini%NULL%2,                          Andrea%Parisini%NULL%0,                          Alessio%Paschè%NULL%2,                          Alessio%Paschè%NULL%0,                          Filippo%Patrucco%NULL%2,                          Filippo%Patrucco%NULL%0,                          Giuseppe%Patti%NULL%2,                          Giuseppe%Patti%NULL%0,                          Alberto%Pau%NULL%2,                          Alberto%Pau%NULL%0,                          Anita Rebecca%Pedrinelli%NULL%2,                          Anita Rebecca%Pedrinelli%NULL%0,                          Ilaria%Percivale%NULL%2,                          Ilaria%Percivale%NULL%0,                          Luca%Ragazzoni%NULL%2,                          Luca%Ragazzoni%NULL%0,                          Roberta%Re%NULL%2,                          Roberta%Re%NULL%0,                          Cristina%Rigamonti%NULL%2,                          Cristina%Rigamonti%NULL%0,                          Eleonora%Rizzi%NULL%2,                          Eleonora%Rizzi%NULL%0,                          Andrea%Rognoni%NULL%2,                          Andrea%Rognoni%NULL%0,                          Annalisa%Roveta%NULL%2,                          Annalisa%Roveta%NULL%0,                          Luigia%Salamina%NULL%2,                          Luigia%Salamina%NULL%0,                          Matteo%Santagostino%NULL%2,                          Matteo%Santagostino%NULL%0,                          Massimo%Saraceno%NULL%2,                          Massimo%Saraceno%NULL%0,                          Paola%Savoia%NULL%2,                          Paola%Savoia%NULL%0,                          Marco%Sciarra%NULL%2,                          Marco%Sciarra%NULL%0,                          Andrea%Schimmenti%NULL%2,                          Andrea%Schimmenti%NULL%0,                          Lorenza%Scotti%NULL%2,                          Lorenza%Scotti%NULL%0,                          Enrico%Spinoni%NULL%2,                          Enrico%Spinoni%NULL%0,                          Carlo%Smirne%NULL%2,                          Carlo%Smirne%NULL%0,                          Vanessa%Tarantino%NULL%2,                          Vanessa%Tarantino%NULL%0,                          Paolo Amedeo%Tillio%NULL%2,                          Paolo Amedeo%Tillio%NULL%0,                          Stelvio%Tonello%NULL%2,                          Stelvio%Tonello%NULL%0,                          Rosanna%Vaschetto%NULL%2,                          Rosanna%Vaschetto%NULL%0,                          Veronica%Vassia%NULL%2,                          Veronica%Vassia%NULL%0,                          Domenico%Zagaria%NULL%2,                          Domenico%Zagaria%NULL%0,                          Elisa%Zavattaro%NULL%2,                          Elisa%Zavattaro%NULL%0,                          Patrizia%Zeppegno%NULL%2,                          Patrizia%Zeppegno%NULL%0,                          Francesca%Zottarelli%NULL%2,                          Francesca%Zottarelli%NULL%0,                          Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                          Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                          Marta%Ottone%NULL%2,                          Marta%Ottone%NULL%0,                          Tommaso%Fasano%NULL%1,                          Pierpaolo%Pattacini%NULL%1,                          Valentina%Iotti%NULL%1,                          Lucia%Spaggiari%NULL%1,                          Riccardo%Bonacini%NULL%1,                          Andrea%Nitrosi%NULL%1,                          Efrem%Bonelli%NULL%1,                          Simone%Canovi%NULL%1,                          Rossana%Colla%NULL%1,                          Alessandro%Zerbini%NULL%1,                          Marco%Massari%NULL%1,                          Ivana%Lattuada%NULL%1,                          Anna Maria%Ferrari%NULL%1,                          Paolo%Giorgi Rossi%NULL%1,                          Massimo%Costantini%NULL%1,                          Roberto%Grilli%NULL%1,                          Massimiliano%Marino%NULL%1,                          Giulio%Formoso%NULL%1,                          Debora%Formisano%NULL%1,                          Emanuela%Bedeschi%NULL%1,                          Cinzia%Perilli%NULL%1,                          Elisabetta%La Rosa%NULL%1,                          Eufemia%Bisaccia%NULL%1,                          Ivano%Venturi%NULL%1,                          Massimo%Vicentini%NULL%1,                          Cinzia%Campari%NULL%1,                          Francesco%Gioia%NULL%1,                          Serena%Broccoli%NULL%1,                          Pamela%Mancuso%NULL%1,                          Marco%Foracchia%NULL%1,                          Mirco%Pinotti%NULL%1,                          Nicola%Facciolongo%NULL%1,                          Laura%Trabucco%NULL%1,                          Stefano%De Pietri%NULL%1,                          Giorgio Francesco%Danelli%NULL%1,                          Laura%Albertazzi%NULL%1,                          Enrica%Bellesia%NULL%1,                          Mattia%Corradini%NULL%1,                          Elena%Magnani%NULL%1,                          Annalisa%Pilia%NULL%1,                          Alessandra%Polese%NULL%1,                          Silvia Storchi%Incerti%NULL%1,                          Piera%Zaldini%NULL%1,                          Bonanno%Orsola%NULL%1,                          Matteo%Revelli%NULL%1,                          Carlo%Salvarani%NULL%1,                          Carmine%Pinto%NULL%1,                          Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                          Hong-Qiu%Gu%NULL%1,                          Yi%Liu (刘艺)%NULL%1,                          Guqin%Zhang%NULL%1,                          Hang%Yang%NULL%1,                          Huifang%Hu%NULL%1,                          Chenyang%Lu%NULL%1,                          Yang%Li%NULL%3,                          Liyi%Wang%NULL%1,                          Yi%Liu (刘毅)%yi2006liu@163.com%1,                          Yi%Zhao%zhao.y1977@163.com%1,                          Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                          Tawsifur%Rahman%NULL%2,                          Tawsifur%Rahman%NULL%0,                          Amith%Khandakar%NULL%3,                          Somaya%Al-Madeed%NULL%2,                          Susu M.%Zughaier%NULL%5,                          Suhail A. R.%Doi%NULL%3,                          Hanadi%Hassen%NULL%1,                          Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                          Jia%Sun%NULL%1,                          Yi-Xin%Li%NULL%1,                          Qian%Chen%NULL%0,                          Qing-Quan%Liu%NULL%1,                          Zhou%Sun%NULL%1,                          Ran%Pang%NULL%1,                          Fei%Chen%NULL%1,                          Bing-Yang%Xu%NULL%1,                          Anne%Manyande%NULL%1,                          Taane G%Clark%NULL%1,                          Jin-Ping%Li%NULL%1,                          Ilkay Erdogan%Orhan%NULL%1,                          Yu-Ke%Tian%NULL%1,                          Tao%Wang%wt7636@126.com%0,                          Wei%Wu%wt7636@126.com%1,                          Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,                       Imam%Z%coreGivesNoEmail%1,                       Lippi%G%coreGivesNoEmail%1,                       Oran%DP%coreGivesNoEmail%1,                       Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                          Caiping%Song%NULL%1,                          En%Liu%NULL%1,                          Xi%Liu%NULL%1,                          Hao%Wu%NULL%1,                          Hui%Lin%NULL%1,                          Yuliang%Liu%NULL%1,                          Qi%Li%NULL%1,                          Zhi%Xu%NULL%1,                          XiaoBao%Ren%NULL%1,                          Cheng%Zhang%NULL%1,                          Wenjing%Zhang%NULL%1,                          Wei%Duan%NULL%2,                          Yongfeng%Tian%NULL%1,                          Ping%Li%NULL%1,                          Mingdong%Hu%NULL%1,                          Shiming%Yang%NULL%1,                          Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                          Changli%Li%NULL%1,                          Li%Zheng%NULL%1,                          Wenzhi%Lv%NULL%0,                          Zhigang%He%NULL%1,                          Xinwu%Cui%NULL%1,                          Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                          Hayne Cho%Park%NULL%2,                          Hayne Cho%Park%NULL%0,                          Ajin%Cho%NULL%1,                          Juhee%Kim%NULL%1,                          Kyu-sang%Yun%NULL%1,                          Jinseog%Kim%NULL%1,                          Young-Ki%Lee%NULL%1,                          Sinan%Kardes.%NULL%2,                          Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                          Xiaoyu%Fang%NULL%1,                          Lixia%Cheng%NULL%1,                          Penghao%Wang%NULL%1,                          Shen%Li%NULL%1,                          Hao%Yu%NULL%1,                          Yao%Zhang%NULL%2,                          Nan%Jiang%NULL%1,                          Tingting%Zeng%NULL%1,                          Chao%Hou%NULL%1,                          Jing%Zhou%NULL%1,                          Shiru%Li%NULL%1,                          Yingzi%Pan%NULL%1,                          Yitong%Li%NULL%1,                          Lili%Nie%NULL%1,                          Yang%Li%NULL%0,                          Qidi%Sun%NULL%1,                          Hong%Jia%NULL%1,                          Mengxia%Li%NULL%1,                          Guoqiang%Cao%NULL%1,                          Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                          Lucas A%Ramos%NULL%2,                          Lucas A%Ramos%NULL%0,                          Wouter%Potters%NULL%1,                          Marcus L F%Janssen%NULL%1,                          Deborah%Hubers%NULL%1,                          Shi%Hu%NULL%1,                          Egill A%Fridgeirsson%NULL%1,                          Dan%Piña-Fuentes%NULL%1,                          Rajat%Thomas%NULL%1,                          Iwan C C%van der Horst%NULL%1,                          Christian%Herff%NULL%2,                          Christian%Herff%NULL%0,                          Pieter%Kubben%NULL%1,                          Paul W G%Elbers%NULL%1,                          Henk A%Marquering%NULL%1,                          Max%Welling%NULL%1,                          Suat%Simsek%NULL%1,                          Martijn D%de Kruif%NULL%1,                          Tom%Dormans%NULL%1,                          Lucas M%Fleuren%NULL%1,                          Michiel%Schinkel%NULL%1,                          Peter G%Noordzij%NULL%1,                          Joop P%van den Bergh%NULL%2,                          Joop P%van den Bergh%NULL%0,                          Caroline E%Wyers%NULL%1,                          David T B%Buis%NULL%2,                          David T B%Buis%NULL%0,                          W Joost%Wiersinga%NULL%1,                          Ella H C%van den Hout%NULL%1,                          Auke C%Reidinga%NULL%1,                          Daisy%Rusch%NULL%1,                          Kim C E%Sigaloff%NULL%1,                          Renee A%Douma%NULL%1,                          Lianne%de Haan%NULL%1,                          Niels C%Gritters van den Oever%NULL%1,                          Roger J M W%Rennenberg%NULL%1,                          Guido A%van Wingen%NULL%1,                          Marcel J H%Aries%NULL%1,                          Martijn%Beudel%NULL%2,                          Martijn%Beudel%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                          Fajer A.%Al-Ishaq%NULL%2,                          Fajer A.%Al-Ishaq%NULL%0,                          Fatima S.%Al-Mohannadi%NULL%1,                          Reem S.%Mubarak%NULL%1,                          Maryam H.%Al-Hitmi%NULL%1,                          Khandaker Reajul%Islam%NULL%1,                          Amith%Khandakar%NULL%0,                          Ali Ait%Hssain%NULL%3,                          Ali Ait%Hssain%NULL%0,                          Somaya%Al-Madeed%NULL%0,                          Susu M.%Zughaier%NULL%0,                          Susu M.%Zughaier%NULL%0,                          Muhammad E. H.%Chowdhury%NULL%3,                          Muhammad E. H.%Chowdhury%NULL%0,                          Antonella%Santone%NULL%3,                          Antonella%Santone%NULL%0,                          Antonella%Santone%NULL%0,                          Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                          Amith%Khandakar%NULL%0,                          Md Enamul%Hoque%NULL%2,                          Md Enamul%Hoque%NULL%0,                          Nabil%Ibtehaz%NULL%2,                          Nabil%Ibtehaz%NULL%0,                          Saad Bin%Kashem%NULL%2,                          Saad Bin%Kashem%NULL%0,                          Reehum%Masud%NULL%1,                          Lutfunnahar%Shampa%NULL%1,                          Mohammad Mehedi%Hasan%NULL%1,                          Mohammad Tariqul%Islam%NULL%1,                          Somaya%Al-Maadeed%NULL%2,                          Somaya%Al-Maadeed%NULL%0,                          Susu M.%Zughaier%NULL%0,                          Susu M.%Zughaier%NULL%0,                          Saif%Badran%NULL%2,                          Saif%Badran%NULL%0,                          Suhail A. R.%Doi%NULL%0,                          Suhail A. R.%Doi%NULL%0,                          Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                          Pablo%Rodríguez-Belenguer%NULL%2,                          Pablo%Rodríguez-Belenguer%NULL%0,                          Antonio J.%Serrano-López%NULL%1,                          Emilio%Soria-Olivas%NULL%2,                          Emilio%Soria-Olivas%NULL%0,                          Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                          Haibo%Ai%NULL%1,                          Yunong%Fu%NULL%1,                          Qinglin%Li%NULL%1,                          Ruixia%Cui%NULL%1,                          Xiaohua%Ma%NULL%1,                          Yan-fen%Ma%NULL%1,                          Zi%Wang%NULL%1,                          Tong%Liu%NULL%1,                          Yunxiang%Long%NULL%1,                          Kai%Qu%NULL%1,                          Chang%Liu%NULL%1,                          Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                          Dawei%Zhang%NULL%1,                          Jing%Xu%NULL%6,                          Zhu%Chen%NULL%1,                          Tieniu%Yang%NULL%1,                          Peng%Zhao%NULL%2,                          Guofeng%Chen%NULL%1,                          Gregory%Cheng%NULL%1,                          Yudong%Wang%NULL%1,                          Jingfeng%Bi%NULL%1,                          Lin%Tan%NULL%1,                          George%Lau%NULL%1,                          Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                          Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                          Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                          Giulia%Suigo%NULL%1,                          Davide%Zampini%NULL%1,                          Matteo%Pistoia%NULL%1,                          Mariella%Ciola%NULL%1,                          Tommaso%Ciampani%NULL%1,                          Carolina%Ultori%NULL%1,                          Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                          John R%Adler%NULL%3,                          Sultan M%Kamran%NULL%2,                          Sultan M%Kamran%NULL%0,                          Zill-e-Humayun%Mirza%NULL%1,                          Hussain Abdul%Moeed%NULL%1,                          Arshad%Naseem%NULL%1,                          Maryam%Hussain%NULL%1,                          Imran%Fazal%NULL%1,                          Farrukh%Saeed%NULL%1,                          Wasim%Alamgir%NULL%1,                          Salman%Saleem%NULL%1,                          Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                          María M.%Martín%NULL%1,                          Mónica%Argueso%NULL%1,                          Jordi%Solé-Violán%NULL%1,                          Alina%Perez%NULL%1,                          José Alberto%Marcos Y Ramos%NULL%1,                          Luis%Ramos-Gómez%NULL%1,                          Sergio%López%NULL%1,                          Andrés%Franco%NULL%1,                          Agustín F.%González-Rivero%NULL%1,                          María%Martín%NULL%1,                          Verónica%Gonzalez%NULL%1,                          Julia%Alcoba-Flórez%NULL%1,                          Miguel Ángel%Rodriguez%NULL%1,                          Marta%Riaño-Ruiz%NULL%1,                          Juan%Guillermo O Campo%NULL%1,                          Lourdes%González%NULL%1,                          Tamara%Cantera%NULL%1,                          Raquel%Ortiz-López%NULL%1,                          Nazario%Ojeda%NULL%1,                          Aurelio%Rodríguez-Pérez%NULL%1,                          Casimira%Domínguez%NULL%1,                          Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                          Rita%Kukafka%NULL%1,                          Arriel%Benis%NULL%2,                          Arriel%Benis%NULL%0,                          Jinfeng%Li%NULL%1,                          Pan%Pan%NULL%2,                          Pan%Pan%NULL%0,                          Yichao%Li%NULL%2,                          Yichao%Li%NULL%0,                          Yongjiu%Xiao%NULL%2,                          Yongjiu%Xiao%NULL%0,                          Bingchao%Han%NULL%2,                          Bingchao%Han%NULL%0,                          Longxiang%Su%NULL%2,                          Longxiang%Su%NULL%0,                          Mingliang%Su%NULL%2,                          Mingliang%Su%NULL%0,                          Yansheng%Li%NULL%2,                          Yansheng%Li%NULL%0,                          Siqi%Zhang%NULL%2,                          Siqi%Zhang%NULL%0,                          Dapeng%Jiang%NULL%2,                          Dapeng%Jiang%NULL%0,                          Xia%Chen%NULL%2,                          Xia%Chen%NULL%0,                          Fuquan%Zhou%NULL%2,                          Fuquan%Zhou%NULL%0,                          Ling%Ma%NULL%2,                          Ling%Ma%NULL%0,                          Pengtao%Bao%NULL%2,                          Pengtao%Bao%NULL%0,                          Lixin%Xie%xielx301@126.com%2,                          Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                          Cristina%Roca-Oporto%NULL%2,                          Guillermo%Martín-Gutiérrez%NULL%2,                          María Dolores%Avilés%NULL%2,                          Carmen%Gómez-González%NULL%2,                          María Dolores%Navarro-Amuedo%NULL%2,                          Julia%Praena-Segovia%NULL%2,                          José%Molina%NULL%2,                          María%Paniagua-García%NULL%2,                          Horacio%García-Delgado%NULL%2,                          Antonio%Domínguez-Petit%NULL%2,                          Jerónimo%Pachón%NULL%2,                          José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                          Barry R.%Meisenberg%NULL%2,                          Barry R.%Meisenberg%NULL%0,                          James H.%MacDonald%NULL%1,                          Nandakumar%Menon%NULL%1,                          Marcia B.%Fowler%NULL%1,                          Michaline%West%NULL%1,                          Jane%Rhule%NULL%1,                          Sadaf S.%Qureshi%NULL%1,                          Eileen B.%MacDonald%NULL%1,                          Yu Ru%Kou%NULL%2,                          Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                          Sarah%Poole%NULL%2,                          Sarah%Poole%NULL%0,                          Meeta%Pradhan%NULL%1,                          Akhil%Vaid%NULL%3,                          Akhil%Vaid%NULL%0,                          Sulaiman%Somani%NULL%3,                          Sulaiman%Somani%NULL%0,                          Adam J%Russak%NULL%2,                          Adam J%Russak%NULL%0,                          Jessica K%De Freitas%NULL%2,                          Jessica K%De Freitas%NULL%0,                          Fayzan F%Chaudhry%NULL%2,                          Fayzan F%Chaudhry%NULL%0,                          Ishan%Paranjpe%NULL%3,                          Ishan%Paranjpe%NULL%0,                          Kipp W%Johnson%NULL%2,                          Kipp W%Johnson%NULL%0,                          Samuel J%Lee%NULL%2,                          Samuel J%Lee%NULL%0,                          Riccardo%Miotto%NULL%2,                          Riccardo%Miotto%NULL%0,                          Felix%Richter%NULL%3,                          Felix%Richter%NULL%0,                          Shan%Zhao%NULL%3,                          Shan%Zhao%NULL%0,                          Noam D%Beckmann%NULL%2,                          Noam D%Beckmann%NULL%0,                          Nidhi%Naik%NULL%2,                          Nidhi%Naik%NULL%0,                          Arash%Kia%NULL%2,                          Arash%Kia%NULL%0,                          Prem%Timsina%NULL%2,                          Prem%Timsina%NULL%0,                          Anuradha%Lala%NULL%2,                          Anuradha%Lala%NULL%0,                          Manish%Paranjpe%NULL%2,                          Manish%Paranjpe%NULL%0,                          Eddye%Golden%NULL%2,                          Eddye%Golden%NULL%0,                          Matteo%Danieletto%NULL%2,                          Matteo%Danieletto%NULL%0,                          Manbir%Singh%NULL%2,                          Manbir%Singh%NULL%0,                          Dara%Meyer%NULL%2,                          Dara%Meyer%NULL%0,                          Paul F%O'Reilly%NULL%2,                          Paul F%O'Reilly%NULL%0,                          Laura%Huckins%NULL%2,                          Laura%Huckins%NULL%0,                          Patricia%Kovatch%NULL%2,                          Patricia%Kovatch%NULL%0,                          Joseph%Finkelstein%NULL%2,                          Joseph%Finkelstein%NULL%0,                          Robert M.%Freeman%NULL%2,                          Robert M.%Freeman%NULL%0,                          Edgar%Argulian%NULL%2,                          Edgar%Argulian%NULL%0,                          Andrew%Kasarskis%NULL%2,                          Andrew%Kasarskis%NULL%0,                          Bethany%Percha%NULL%2,                          Bethany%Percha%NULL%0,                          Judith A%Aberg%NULL%2,                          Judith A%Aberg%NULL%0,                          Emilia%Bagiella%NULL%3,                          Emilia%Bagiella%NULL%0,                          Carol R%Horowitz%NULL%2,                          Carol R%Horowitz%NULL%0,                          Barbara%Murphy%NULL%2,                          Barbara%Murphy%NULL%0,                          Eric J%Nestler%NULL%2,                          Eric J%Nestler%NULL%0,                          Eric E%Schadt%NULL%2,                          Eric E%Schadt%NULL%0,                          Judy H%Cho%NULL%2,                          Judy H%Cho%NULL%0,                          Carlos%Cordon-Cardo%NULL%2,                          Carlos%Cordon-Cardo%NULL%0,                          Valentin%Fuster%NULL%3,                          Valentin%Fuster%NULL%0,                          Dennis S%Charney%NULL%2,                          Dennis S%Charney%NULL%0,                          David L%Reich%NULL%2,                          David L%Reich%NULL%0,                          Erwin P%Bottinger%NULL%2,                          Erwin P%Bottinger%NULL%0,                          Matthew A%Levin%NULL%2,                          Matthew A%Levin%NULL%0,                          Jagat%Narula%NULL%3,                          Jagat%Narula%NULL%0,                          Zahi A%Fayad%NULL%2,                          Zahi A%Fayad%NULL%0,                          Allan C%Just%NULL%2,                          Allan C%Just%NULL%0,                          Alexander W%Charney%NULL%2,                          Alexander W%Charney%NULL%0,                          Girish N%Nadkarni%NULL%2,                          Girish N%Nadkarni%NULL%0,                          Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                          Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                          Anne%Chen%NULL%2,                          Wei%Hou%NULL%3,                          James M.%Graham%NULL%1,                          Haifang%Li%NULL%2,                          Paul S.%Richman%NULL%1,                          Henry C.%Thode%NULL%1,                          Adam J.%Singer%NULL%1,                          Tim Q.%Duong%NULL%1,                          Muhammad%Adrish%NULL%9,                          Muhammad%Adrish%NULL%0,                          Muhammad%Adrish%NULL%0,                          Muhammad%Adrish%NULL%0,                          Muhammad%Adrish%NULL%0,                          Muhammad%Adrish%NULL%0,                          Muhammad%Adrish%NULL%0,                          Muhammad%Adrish%NULL%0,                          Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                          Qin%Liu%NULL%2,                          Xiao%Zhang%NULL%2,                          Shuyi%Liu%NULL%1,                          Weiqi%Chen%NULL%1,                          Jingjing%You%NULL%1,                          Qiuying%Chen%NULL%1,                          Minmin%Li%NULL%1,                          Zhuozhi%Chen%NULL%1,                          Luyan%Chen%NULL%1,                          Lv%Chen%NULL%1,                          Yuhao%Dong%NULL%1,                          Qingsi%Zeng%NULL%1,                          Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                          Lei%Nie%NULL%1,                          Dongde%Wu%NULL%1,                          Jian%Chen%NULL%2,                          Zhifeng%Yang%NULL%1,                          Ling%Zhang%NULL%3,                          Dongqing%Li%NULL%1,                          Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                          Burcin%Hakoglu%NULL%2,                          Burcin%Hakoglu%NULL%0,                          Ali%Kadri Cirak%NULL%1,                          Gulru%Polat%NULL%1,                          Berna%Komurcuoglu%NULL%1,                          Berrin%Akkol%NULL%1,                          Cagri%Atasoy%NULL%1,                          Eda%Bayramic%NULL%1,                          Gunseli%Balci%NULL%1,                          Sena%Ataman%NULL%1,                          Sinem%Ermin%NULL%1,                          Enver%Yalniz%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                          Qiaosen%Chen%NULL%2,                          Qiaosen%Chen%NULL%0,                          Sumeng%Li%NULL%1,                          Huadong%Li%NULL%1,                          Qian%Zhang%NULL%1,                          Sihong%Lu%NULL%1,                          Li%Wu%NULL%1,                          Leiqun%Xiong%NULL%1,                          Bobin%Mi%NULL%1,                          Di%Liu%NULL%3,                          Mengji%Lu%NULL%1,                          Dongliang%Yang%NULL%1,                          Hongbo%Jiang%hongbojiang3@163.com%1,                          Shaoping%Zheng%zhengspxx@126.com%1,                          Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                          Hua%Zhang%NULL%2,                          Rui%Qiao%NULL%1,                          Qinggang%Ge%NULL%1,                          Shuisheng%Zhang%NULL%1,                          Zongxuan%Zhao%NULL%1,                          Ci%Tian%NULL%1,                          Qingbian%Ma%NULL%2,                          Qingbian%Ma%NULL%0,                          Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                          Antonia%Ho%NULL%2,                          Riinu%Pius%NULL%2,                          Iain%Buchan%NULL%1,                          Gail%Carson%NULL%2,                          Thomas M%Drake%NULL%1,                          Jake%Dunning%NULL%2,                          Cameron J%Fairfield%NULL%2,                          Carrol%Gamble%NULL%2,                          Christopher A%Green%NULL%2,                          Rishi%Gupta%NULL%1,                          Sophie%Halpin%NULL%2,                          Hayley E%Hardwick%NULL%1,                          Karl A%Holden%NULL%1,                          Peter W%Horby%NULL%2,                          Clare%Jackson%NULL%2,                          Kenneth A%Mclean%NULL%2,                          Laura%Merson%NULL%2,                          Jonathan S%Nguyen-Van-Tam%NULL%1,                          Lisa%Norman%NULL%2,                          Mahdad%Noursadeghi%NULL%2,                          Piero L%Olliaro%NULL%1,                          Mark G%Pritchard%NULL%1,                          Clark D%Russell%NULL%2,                          Catherine A%Shaw%NULL%2,                          Aziz%Sheikh%NULL%2,                          Tom%Solomon%NULL%2,                          Cathie%Sudlow%NULL%1,                          Olivia V%Swann%NULL%1,                          Lance CW%Turtle%NULL%2,                          Peter JM%Openshaw%NULL%2,                          J Kenneth%Baillie%NULL%2,                          Malcolm G%Semple%NULL%3,                          Annemarie B%Docherty%NULL%3,                          Annemarie B%Docherty%NULL%0,                          Ewen M%Harrison%NULL%3,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          J Kenneth%Baillie%NULL%0,                          Malcolm G%Semple%NULL%0,                          Peter JM%Openshaw%NULL%0,                          Gail%Carson%NULL%0,                          Beatrice%Alex%NULL%1,                          Benjamin%Bach%NULL%1,                          Wendy S%Barclay%NULL%1,                          Debby%Bogaert%NULL%1,                          Meera%Chand%NULL%1,                          Graham S%Cooke%NULL%1,                          Annemarie B%Docherty%NULL%0,                          Jake%Dunning%NULL%0,                          Ana%da Silva Filipe%NULL%1,                          Tom%Fletcher%NULL%1,                          Christopher A%Green%NULL%0,                          Ewen M%Harrison%NULL%0,                          Julian A%Hiscox%NULL%1,                          Antonia Ying Wai%Ho%NULL%1,                          Peter W%Horby%NULL%0,                          Samreen%Ijaz%NULL%1,                          Saye%Khoo%NULL%1,                          Paul%Klenerman%NULL%1,                          Andrew%Law%NULL%2,                          Wei Shen%Lim%NULL%1,                          Alexander J%Mentzer%NULL%1,                          Laura%Merson%NULL%0,                          Alison M%Meynert%NULL%1,                          Mahdad%Noursadeghi%NULL%0,                          Shona C%Moore%NULL%2,                          Massimo%Palmarini%NULL%1,                          William A%Paxton%NULL%1,                          Georgios%Pollakis%NULL%1,                          Nicholas%Price%NULL%1,                          Andrew%Rambaut%NULL%1,                          David L%Robertson%NULL%1,                          Clark D%Russell%NULL%0,                          Vanessa%Sancho-Shimizu%NULL%1,                          Janet T%Scott%NULL%1,                          Louise%Sigfrid%NULL%1,                          Tom%Solomon%NULL%0,                          Shiranee%Sriskandan%NULL%1,                          David%Stuart%NULL%1,                          Charlotte%Summers%NULL%1,                          Richard S%Tedder%NULL%1,                          Emma C%Thomson%NULL%1,                          Ryan S%Thwaites%NULL%1,                          Lance CW%Turtle%NULL%0,                          Maria%Zambon%NULL%1,                          Hayley%Hardwick%NULL%1,                          Chloe%Donohue%NULL%1,                          Jane%Ewins%NULL%1,                          Wilna%Oosthuyzen%NULL%1,                          Fiona%Griffiths%NULL%1,                          Lisa%Norman%NULL%0,                          Riinu%Pius%NULL%0,                          Tom M%Drake%NULL%1,                          Cameron J%Fairfield%NULL%0,                          Stephen%Knight%NULL%1,                          Kenneth A%Mclean%NULL%0,                          Derek%Murphy%NULL%1,                          Catherine A%Shaw%NULL%0,                          Jo%Dalton%NULL%1,                          Michelle%Girvan%NULL%1,                          Egle%Saviciute%NULL%1,                          Stephanie%Roberts%NULL%1,                          Janet%Harrison%NULL%1,                          Laura%Marsh%NULL%1,                          Marie%Connor%NULL%1,                          Sophie%Halpin%NULL%0,                          Clare%Jackson%NULL%0,                          Carrol%Gamble%NULL%0,                          Gary%Leeming%NULL%1,                          Andrew%Law%NULL%0,                          Ross%Hendry%NULL%1,                          James%Scott-Brown%NULL%1,                          William%Greenhalf%NULL%1,                          Victoria%Shaw%NULL%1,                          Sarah%McDonald%NULL%2,                          Katie A%Ahmed%NULL%1,                          Jane A%Armstrong%NULL%1,                          Milton%Ashworth%NULL%1,                          Innocent G%Asiimwe%NULL%1,                          Siddharth%Bakshi%NULL%1,                          Samantha L%Barlow%NULL%1,                          Laura%Booth%NULL%1,                          Benjamin%Brennan%NULL%1,                          Katie%Bullock%NULL%1,                          Benjamin WA%Catterall%NULL%1,                          Jordan J%Clark%NULL%1,                          Emily A%Clarke%NULL%1,                          Sarah%Cole%NULL%1,                          Louise%Cooper%NULL%1,                          Helen%Cox%NULL%1,                          Christopher%Davis%NULL%1,                          Oslem%Dincarslan%NULL%1,                          Chris%Dunn%NULL%1,                          Philip%Dyer%NULL%1,                          Angela%Elliott%NULL%1,                          Anthony%Evans%NULL%1,                          Lewis WS%Fisher%NULL%1,                          Terry%Foster%NULL%1,                          Isabel%Garcia-Dorival%NULL%1,                          Willliam%Greenhalf%NULL%1,                          Philip%Gunning%NULL%1,                          Catherine%Hartley%NULL%1,                          Antonia%Ho%NULL%0,                          Rebecca L%Jensen%NULL%1,                          Christopher B%Jones%NULL%1,                          Trevor R%Jones%NULL%1,                          Shadia%Khandaker%NULL%1,                          Katharine%King%NULL%1,                          Robyn T%Kiy%NULL%1,                          Chrysa%Koukorava%NULL%1,                          Annette%Lake%NULL%1,                          Suzannah%Lant%NULL%1,                          Diane%Latawiec%NULL%1,                          L%Lavelle-Langham%NULL%1,                          Daniella%Lefteri%NULL%1,                          Lauren%Lett%NULL%1,                          Lucia A%Livoti%NULL%1,                          Maria%Mancini%NULL%1,                          Sarah%McDonald%NULL%0,                          Laurence%McEvoy%NULL%1,                          John%McLauchlan%NULL%1,                          Soeren%Metelmann%NULL%1,                          Nahida S%Miah%NULL%1,                          Joanna%Middleton%NULL%1,                          Joyce%Mitchell%NULL%1,                          Shona C%Moore%NULL%0,                          Ellen G%Murphy%NULL%1,                          Rebekah%Penrice-Randal%NULL%1,                          Jack%Pilgrim%NULL%1,                          Tessa%Prince%NULL%1,                          Will%Reynolds%NULL%1,                          P Matthew%Ridley%NULL%1,                          Debby%Sales%NULL%1,                          Victoria E%Shaw%NULL%1,                          Rebecca K%Shears%NULL%1,                          Benjamin%Small%NULL%1,                          Krishanthi S%Subramaniam%NULL%1,                          Agnieska%Szemiel%NULL%1,                          Aislynn%Taggart%NULL%1,                          Jolanta%Tanianis-Hughes%NULL%1,                          Jordan%Thomas%NULL%1,                          Erwan%Trochu%NULL%1,                          Libby%van Tonder%NULL%1,                          Eve%Wilcock%NULL%1,                          J Eunice%Zhang%NULL%1,                          Kayode%Adeniji%NULL%1,                          Daniel%Agranoff%NULL%1,                          Ken%Agwuh%NULL%1,                          Dhiraj%Ail%NULL%1,                          Ana%Alegria%NULL%1,                          Brian%Angus%NULL%1,                          Abdul%Ashish%NULL%1,                          Dougal%Atkinson%NULL%1,                          Shahedal%Bari%NULL%1,                          Gavin%Barlow%NULL%1,                          Stella%Barnass%NULL%1,                          Nicholas%Barrett%NULL%2,                          Christopher%Bassford%NULL%1,                          David%Baxter%NULL%1,                          Michael%Beadsworth%NULL%1,                          Jolanta%Bernatoniene%NULL%1,                          John%Berridge%NULL%1,                          Nicola%Best%NULL%1,                          Pieter%Bothma%NULL%1,                          David%Brealey%NULL%1,                          Robin%Brittain-Long%NULL%1,                          Naomi%Bulteel%NULL%1,                          Tom%Burden%NULL%1,                          Andrew%Burtenshaw%NULL%1,                          Vikki%Caruth%NULL%1,                          David%Chadwick%NULL%1,                          Duncan%Chambler%NULL%1,                          Nigel%Chee%NULL%1,                          Jenny%Child%NULL%1,                          Srikanth%Chukkambotla%NULL%1,                          Tom%Clark%NULL%1,                          Paul%Collini%NULL%1,                          Catherine%Cosgrove%NULL%1,                          Jason%Cupitt%NULL%1,                          Maria-Teresa%Cutino-Moguel%NULL%1,                          Paul%Dark%NULL%1,                          Chris%Dawson%NULL%1,                          Samir%Dervisevic%NULL%1,                          Phil%Donnison%NULL%1,                          Sam%Douthwaite%NULL%1,                          Ingrid%DuRand%NULL%1,                          Ahilanadan%Dushianthan%NULL%1,                          Tristan%Dyer%NULL%1,                          Cariad%Evans%NULL%1,                          Chi%Eziefula%NULL%1,                          Chrisopher%Fegan%NULL%1,                          Adam%Finn%NULL%1,                          Duncan%Fullerton%NULL%1,                          Sanjeev%Garg%NULL%2,                          Sanjeev%Garg%NULL%0,                          Atul%Garg%NULL%1,                          Jo%Godden%NULL%1,                          Arthur%Goldsmith%NULL%1,                          Clive%Graham%NULL%1,                          Elaine%Hardy%NULL%1,                          Stuart%Hartshorn%NULL%1,                          Daniel%Harvey%NULL%1,                          Peter%Havalda%NULL%1,                          Daniel B%Hawcutt%NULL%1,                          Maria%Hobrok%NULL%1,                          Luke%Hodgson%NULL%1,                          Anita%Holme%NULL%1,                          Anil%Hormis%NULL%1,                          Michael%Jacobs%NULL%1,                          Susan%Jain%NULL%1,                          Paul%Jennings%NULL%1,                          Agilan%Kaliappan%NULL%1,                          Vidya%Kasipandian%NULL%1,                          Stephen%Kegg%NULL%1,                          Michael%Kelsey%NULL%1,                          Jason%Kendall%NULL%1,                          Caroline%Kerrison%NULL%1,                          Ian%Kerslake%NULL%1,                          Oliver%Koch%NULL%2,                          Gouri%Koduri%NULL%1,                          George%Koshy%NULL%1,                          Shondipon%Laha%NULL%1,                          Susan%Larkin%NULL%1,                          Tamas%Leiner%NULL%1,                          Patrick%Lillie%NULL%1,                          James%Limb%NULL%1,                          Vanessa%Linnett%NULL%1,                          Jeff%Little%NULL%1,                          Michael%MacMahon%NULL%1,                          Emily%MacNaughton%NULL%1,                          Ravish%Mankregod%NULL%1,                          Huw%Masson%NULL%1,                          Elijah%Matovu%NULL%1,                          Katherine%McCullough%NULL%1,                          Ruth%McEwen%NULL%1,                          Manjula%Meda%NULL%1,                          Gary%Mills%NULL%1,                          Jane%Minton%NULL%1,                          Mariyam%Mirfenderesky%NULL%1,                          Kavya%Mohandas%NULL%1,                          Quen%Mok%NULL%1,                          James%Moon%NULL%1,                          Elinoor%Moore%NULL%1,                          Patrick%Morgan%NULL%1,                          Craig%Morris%NULL%1,                          Katherine%Mortimore%NULL%1,                          Samuel%Moses%NULL%1,                          Mbiye%Mpenge%NULL%1,                          Rohinton%Mulla%NULL%1,                          Michael%Murphy%NULL%1,                          Megan%Nagel%NULL%1,                          Thapas%Nagarajan%NULL%1,                          Mark%Nelson%NULL%1,                          Igor%Otahal%NULL%1,                          Mark%Pais%NULL%1,                          Selva%Panchatsharam%NULL%1,                          Hassan%Paraiso%NULL%1,                          Brij%Patel%NULL%1,                          Justin%Pepperell%NULL%1,                          Mark%Peters%NULL%1,                          Mandeep%Phull%NULL%1,                          Stefania%Pintus%NULL%1,                          Jagtur Singh%Pooni%NULL%1,                          Frank%Post%NULL%1,                          David%Price%NULL%1,                          Rachel%Prout%NULL%1,                          Nikolas%Rae%NULL%1,                          Henrik%Reschreiter%NULL%1,                          Tim%Reynolds%NULL%1,                          Neil%Richardson%NULL%1,                          Mark%Roberts%NULL%1,                          Devender%Roberts%NULL%1,                          Alistair%Rose%NULL%1,                          Guy%Rousseau%NULL%1,                          Brendan%Ryan%NULL%1,                          Taranprit%Saluja%NULL%1,                          Aarti%Shah%NULL%1,                          Prad%Shanmuga%NULL%1,                          Anil%Sharma%NULL%1,                          Anna%Shawcross%NULL%1,                          Jeremy%Sizer%NULL%1,                          Richard%Smith%NULL%1,                          Catherine%Snelson%NULL%1,                          Nick%Spittle%NULL%1,                          Nikki%Staines%NULL%1,                          Tom%Stambach%NULL%1,                          Richard%Stewart%NULL%1,                          Pradeep%Subudhi%NULL%1,                          Tamas%Szakmany%NULL%1,                          Kate%Tatham%NULL%1,                          Jo%Thomas%NULL%1,                          Chris%Thompson%NULL%1,                          Robert%Thompson%NULL%1,                          Ascanio%Tridente%NULL%1,                          Darell%Tupper-Carey%NULL%1,                          Mary%Twagira%NULL%1,                          Andrew%Ustianowski%NULL%1,                          Nick%Vallotton%NULL%1,                          Lisa%Vincent-Smith%NULL%1,                          Shico%Visuvanathan%NULL%1,                          Alan%Vuylsteke%NULL%1,                          Sam%Waddy%NULL%1,                          Rachel%Wake%NULL%1,                          Andrew%Walden%NULL%1,                          Ingeborg%Welters%NULL%1,                          Tony%Whitehouse%NULL%1,                          Paul%Whittaker%NULL%1,                          Ashley%Whittington%NULL%1,                          Meme%Wijesinghe%NULL%1,                          Martin%Williams%NULL%1,                          Lawrence%Wilson%NULL%1,                          Sarah%Wilson%NULL%1,                          Stephen%Winchester%NULL%1,                          Martin%Wiselka%NULL%1,                          Adam%Wolverson%NULL%1,                          Daniel G%Wooton%NULL%1,                          Andrew%Workman%NULL%1,                          Bryan%Yates%NULL%1,                          Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                          Braulio A.%Marfil‐Garza%NULL%1,                          Erick%Martínez Rodríguez%NULL%1,                          José Omar%Barreto Rodríguez%NULL%1,                          Alicia Estela%López Romo%NULL%1,                          Paolo%Alberti Minutti%NULL%1,                          Juan Vicente%Alejandre Loya%NULL%1,                          Félix Emmanuel%Pérez Talavera%NULL%1,                          Freddy José%Ávila Cervera%NULL%1,                          Adriana%Velazquez Burciaga%NULL%1,                          Oscar%Morado Aramburo%NULL%1,                          Luis Alberto%Piña Olguín%NULL%1,                          Adrian%Soto‐Rodríguez%NULL%1,                          Andrés%Castañeda Prado%NULL%1,                          Patricio%Santillán Doherty%NULL%1,                          Juan%O Galindo%NULL%1,                          Luis Alberto%Guízar García%NULL%1,                          Daniel%Hernández Gordillo%NULL%1,                          Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                          Aatish%Patel%NULL%1,                          Esmita%Charani%NULL%1,                          Sarah%Denny%NULL%1,                          Saleh A.%Alqahtani%NULL%1,                          Gary W.%Davies%NULL%1,                          Nabeela%Mughal%NULL%1,                          Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                          Hyunsun%Lim%NULL%1,                          Dong-Wook%Kim%NULL%1,                          Jung Hyun%Chang%NULL%1,                          Yoon Jung%Choi%chris316@yuhs.ac%1,                          Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                          Wenhua%Liang%NULL%3,                          Mei%Jiang%NULL%2,                          Weijie%Guan%NULL%3,                          Chen%Zhan%NULL%2,                          Tao%Wang%NULL%0,                          Chunli%Tang%NULL%3,                          Ling%Sang%NULL%3,                          Jiaxing%Liu%NULL%2,                          Zhengyi%Ni%NULL%2,                          Yu%Hu%NULL%0,                          Lei%Liu%NULL%8,                          Hong%Shan%NULL%5,                          Chunliang%Lei%NULL%2,                          Yixiang%Peng%NULL%2,                          Li%Wei%NULL%5,                          Yong%Liu%NULL%5,                          Yahua%Hu%NULL%2,                          Peng%Peng%NULL%7,                          Jianming%Wang%NULL%2,                          Jiyang%Liu%NULL%2,                          Zhong%Chen%NULL%5,                          Gang%Li%NULL%5,                          Zhijian%Zheng%NULL%2,                          Shaoqin%Qiu%NULL%2,                          Jie%Luo%NULL%5,                          Changjiang%Ye%NULL%2,                          Shaoyong%Zhu%NULL%2,                          Xiaoqing%Liu%NULL%2,                          Linling%Cheng%NULL%2,                          Feng%Ye%NULL%2,                          Jinping%Zheng%NULL%2,                          Nuofu%Zhang%NULL%2,                          Yimin%Li%NULL%2,                          Jianxing%He%NULL%2,                          Shiyue%Li%lishiyue@188.com%3,                          Nanshan%Zhong%NULL%4,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                          Liu%Hu%NULL%1,                          Yiru%Wang%NULL%0,                          Luyan%Huang%NULL%1,                          Lingxi%Zhao%NULL%1,                          Congcong%Zhang%NULL%1,                          Xiyue%Liu%NULL%1,                          Ranran%Xu%NULL%1,                          Feng%Liu%NULL%0,                          Jinping%Li%NULL%1,                          Dawei%Ye%NULL%0,                          Tao%Wang%NULL%0,                          Yongman%Lv%lvyongman@126.com%0,                          Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                          Carol A C%Coupland%NULL%1,                          Ruth H%Keogh%NULL%1,                          Karla%Diaz-Ordaz%NULL%1,                          Elizabeth%Williamson%NULL%1,                          Ewen M%Harrison%NULL%0,                          Andrew%Hayward%NULL%1,                          Harry%Hemingway%NULL%1,                          Peter%Horby%NULL%1,                          Nisha%Mehta%NULL%1,                          Jonathan%Benger%NULL%1,                          Kamlesh%Khunti%NULL%0,                          David%Spiegelhalter%NULL%1,                          Aziz%Sheikh%NULL%0,                          Jonathan%Valabhji%NULL%0,                          Ronan A%Lyons%NULL%1,                          John%Robson%NULL%1,                          Malcolm G%Semple%NULL%0,                          Frank%Kee%NULL%1,                          Peter%Johnson%NULL%1,                          Susan%Jebb%NULL%1,                          Tony%Williams%NULL%1,                          Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                          Guang-Yao%Cai%NULL%1,                          Wei%Fang%NULL%2,                          Hua-Yi%Li%NULL%1,                          Si-Yuan%Wang%NULL%2,                          Si-Yuan%Wang%NULL%0,                          Lingxi%Chen%NULL%1,                          Yang%Yu%NULL%1,                          Dan%Liu%NULL%0,                          Sen%Xu%NULL%2,                          Peng-Fei%Cui%NULL%1,                          Shao-Qing%Zeng%NULL%2,                          Shao-Qing%Zeng%NULL%0,                          Xin-Xia%Feng%NULL%1,                          Rui-Di%Yu%NULL%1,                          Ya%Wang%NULL%2,                          Yuan%Yuan%NULL%1,                          Xiao-Fei%Jiao%NULL%1,                          Jian-Hua%Chi%NULL%1,                          Jia-Hao%Liu%NULL%1,                          Ru-Yuan%Li%NULL%1,                          Xu%Zheng%NULL%1,                          Chun-Yan%Song%NULL%1,                          Ning%Jin%NULL%1,                          Wen-Jian%Gong%NULL%1,                          Xing-Yu%Liu%NULL%1,                          Lei%Huang%NULL%2,                          Xun%Tian%NULL%1,                          Lin%Li%NULL%1,                          Hui%Xing%NULL%1,                          Ding%Ma%NULL%1,                          Chun-Rui%Li%NULL%1,                          Fei%Ye%yeyuanbei@hotmail.com%1,                          Qing-Lei%Gao%qingleigao@hotmail.com%2,                          Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                          Ang%Li%NULL%1,                          Mengfan%Jiao%NULL%1,                          Qingmiao%Shi%NULL%1,                          Xiaocai%An%NULL%1,                          Yonghai%Feng%NULL%1,                          Lihua%Xing%NULL%1,                          Hongxia%Liang%NULL%1,                          Jiajun%Chen%NULL%1,                          Huiling%Li%NULL%1,                          Juan%Li%NULL%0,                          Zhigang%Ren%NULL%1,                          Ranran%Sun%NULL%1,                          Guangying%Cui%NULL%1,                          Yongjian%Zhou%NULL%1,                          Ming%Cheng%NULL%1,                          Pengfei%Jiao%NULL%1,                          Yu%Wang%NULL%2,                          Jiyuan%Xing%NULL%1,                          Shen%Shen%NULL%1,                          Qingxian%Zhang%NULL%1,                          Aiguo%Xu%NULL%1,                          Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                          Michael%Ng%NULL%1,                          Shuang%Xu%NULL%1,                          Zhouming%Xu%NULL%1,                          Hui%Qiu%NULL%1,                          Yuwei%Liu%NULL%1,                          Jiayou%Lyu%NULL%1,                          Jiwen%You%NULL%1,                          Peng%Zhao%NULL%0,                          Shihao%Wang%NULL%1,                          Yunfei%Tang%NULL%1,                          Hao%Cui%NULL%1,                          Changxiao%Yu%NULL%1,                          Feng%Wang%NULL%5,                          Fei%Shao%NULL%1,                          Peng%Sun%NULL%1,                          Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                          Huifang%Wang%NULL%1,                          Junwei%Huang%NULL%1,                          Yan%Geng%NULL%1,                          Shuqi%Jiang%NULL%1,                          Qiuping%Zhou%NULL%1,                          Xuan%Chen%NULL%1,                          Hongping%Hu%NULL%1,                          Weifeng%Li%NULL%1,                          Chengbin%Zhou%NULL%1,                          Xinglin%Gao%NULL%1,                          Na%Peng%pnatz@163.com%1,                          Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                          Dandan%Cheng%NULL%1,                          Yiwei%Cao%NULL%1,                          Chuan%Hu%NULL%1,                          Fenglin%Zou%NULL%1,                          Wencheng%Yu%NULL%1,                          Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                          Min Kyu%Kang%NULL%2,                          Min Kyu%Kang%NULL%0,                          Yu Rim%Lee%NULL%2,                          Yu Rim%Lee%NULL%0,                          Jeong Eun%Song%NULL%2,                          Jeong Eun%Song%NULL%0,                          Na Young%Kim%NULL%1,                          Young Oh%Kweon%NULL%1,                          Won Young%Tak%NULL%1,                          Se Young%Jang%NULL%1,                          Changhyeong%Lee%NULL%2,                          Changhyeong%Lee%NULL%0,                          Byung Seok%Kim%NULL%1,                          Jae Seok%Hwang%NULL%1,                          Byoung Kuk%Jang%NULL%1,                          Jinmok%Bae%NULL%1,                          Ji Yeon%Lee%NULL%0,                          Jeong Ill%Suh%NULL%1,                          Soo Young%Park%NULL%1,                          Woo Jin%Chung%NULL%2,                          Woo Jin%Chung%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                          Cristina%Roca-Oporto%NULL%0,                          Guillermo%Martín-Gutiérrez%NULL%0,                          María Dolores%Avilés%NULL%0,                          Carmen%Gómez-González%NULL%0,                          María Dolores%Navarro-Amuedo%NULL%0,                          Julia%Praena-Segovia%NULL%0,                          José%Molina%NULL%0,                          María%Paniagua-García%NULL%0,                          Horacio%García-Delgado%NULL%0,                          Antonio%Domínguez-Petit%NULL%0,                          Jerónimo%Pachón%NULL%0,                          José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                       Calvo%Boyero Fernando%coreGivesNoEmail%1,                       Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                       COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                       Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                       Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                       L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                       Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                       Santos%Lozano Alejandro%coreGivesNoEmail%1,                       Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                           Min%He%NULL%1,                           Wanhong%Yin%NULL%1,                           Xuelian%Liao%NULL%1,                           Bo%Wang%NULL%6,                           Xiaodong%Jin%NULL%1,                           Yao%Ma%NULL%2,                           Jirong%Yue%NULL%1,                           Lang%Bai%NULL%1,                           Dan%Liu%NULL%3,                           Ting%Zhu%NULL%1,                           Zhixin%Huang%NULL%1,                           Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                           Shuchang%Zhou%NULL%1,                           Yujin%Wang%NULL%1,                           Wenzhi%Lv%NULL%2,                           Shili%Wang%NULL%1,                           Ting%Wang%751884926@qq.com%1,                           Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                           Yan-chak%Li%NULL%1,                           Sonali%Bose%NULL%1,                           Ravi%Iyengar%NULL%1,                           Supinda%Bunyavanich%NULL%1,                           Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Li%Yan%null%1,                  Hai-Tao%Zhang%null%1,                  Jorge%Goncalves%null%1,                  Yang%Xiao%null%1,                  Maolin%Wang%null%1,                  Yuqi%Guo%null%1,                  Chuan%Sun%null%1,                  Xiuchuan%Tang%null%1,                  Liang%Jing%null%1,                  Mingyang%Zhang%null%1,                  Xiang%Huang%null%1,                  Ying%Xiao%null%1,                  Haosen%Cao%null%1,                  Yanyan%Chen%null%1,                  Tongxin%Ren%null%1,                  Fang%Wang%null%1,                  Yaru%Xiao%null%1,                  Sufang%Huang%null%1,                  Xi%Tan%null%1,                  Niannian%Huang%null%1,                  Bo%Jiao%null%1,                  Cheng%Cheng%null%1,                  Yong%Zhang%null%1,                  Ailin%Luo%null%1,                  Laurent%Mombaerts%null%1,                  Junyang%Jin%null%1,                  Zhiguo%Cao%null%1,                  Shusheng%Li%null%1,                  Hui%Xu%null%1,                  Ye%Yuan%null%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                           Mengfei%Guo%NULL%1,                           Limin%Duan%NULL%1,                           Feng%Wu%NULL%1,                           Guorong%Hu%NULL%1,                           Zhihui%Wang%NULL%1,                           Qi%Huang%NULL%1,                           Tingting%Liao%NULL%1,                           Juanjuan%Xu%NULL%1,                           Yanling%Ma%NULL%1,                           Zhilei%Lv%NULL%1,                           Wenjing%Xiao%NULL%1,                           Zilin%Zhao%NULL%1,                           Xueyun%Tan%NULL%1,                           Daquan%Meng%NULL%1,                           Shujing%Zhang%NULL%1,                           E%Zhou%NULL%1,                           Zhengrong%Yin%NULL%1,                           Wei%Geng%NULL%1,                           Xuan%Wang%NULL%1,                           Jianchu%Zhang%NULL%1,                           Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                           Yu%Zhang%whxhzy@163.com%1,                           Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                           Francesco%Arru%NULL%2,                           Francesco%Arru%NULL%0,                           Andrea%De Vito%NULL%3,                           Alessandro%Sassu%NULL%2,                           Alessandro%Sassu%NULL%0,                           Giovanni%Valdes%NULL%1,                           Valentina%Scano%NULL%1,                           Elisabetta%Zinellu%NULL%1,                           Roberto%Perra%NULL%1,                           Giordano%Madeddu%NULL%3,                           Ciriaco%Carru%NULL%1,                           Pietro%Pirina%NULL%3,                           Arduino A.%Mangoni%NULL%2,                           Arduino A.%Mangoni%NULL%0,                           Sergio%Babudieri%NULL%4,                           Sergio%Babudieri%NULL%0,                           Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                           Pablo%Ryan%NULL%1,                           Jorge%Valencia%NULL%2,                           Jorge%Valencia%NULL%0,                           Mario%Pérez-Butragueño%NULL%2,                           Mario%Pérez-Butragueño%NULL%0,                           Eva%Jiménez%NULL%2,                           Eva%Jiménez%NULL%0,                           Mario%Fontán-Vela%NULL%1,                           Elsa%Izquierdo-García%NULL%2,                           Elsa%Izquierdo-García%NULL%0,                           Inés%Fernandez-Jimenez%NULL%1,                           Elena%Álvaro-Alonso%NULL%1,                           Andrea%Lazaro%NULL%2,                           Andrea%Lazaro%NULL%0,                           Marta%Alvarado%NULL%1,                           Helena%Notario%NULL%1,                           Salvador%Resino%NULL%1,                           Daniel%Velez-Serrano%NULL%1,                           Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                           Yiru%Wang%NULL%2,                           Xuecheng%Zhao%NULL%1,                           Lixuan%Wang%NULL%1,                           Feng%Liu%NULL%3,                           Tao%Wang%NULL%15,                           Dawei%Ye%NULL%2,                           Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                           Valentina%Zuccaro%NULL%1,                           Luca%Novelli%NULL%1,                           Lorenzo%Zileri%NULL%2,                           Lorenzo%Zileri%NULL%0,                           Ciro%Celsa%NULL%1,                           Federico%Raimondi%NULL%2,                           Federico%Raimondi%NULL%0,                           Mauro%Gori%NULL%1,                           Giulia%Cammà%NULL%1,                           Salvatore%Battaglia%NULL%1,                           Vincenzo Giuseppe%Genova%NULL%1,                           Laura%Paris%NULL%1,                           Matteo%Tacelli%NULL%1,                           Francesco Antonio%Mancarella%NULL%1,                           Marco%Enea%NULL%1,                           Massimo%Attanasio%NULL%1,                           Michele%Senni%NULL%1,                           Fabiano%Di Marco%NULL%1,                           Luca Ferdinando%Lorini%NULL%1,                           Stefano%Fagiuoli%NULL%1,                           Raffaele%Bruno%NULL%2,                           Calogero%Cammà%NULL%1,                           Antonio%Gasbarrini%NULL%3,                           Francesco%Di Gennaro%NULL%2,                           Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                           Gan-xun%Li%NULL%1,                           Lin%Chen%NULL%3,                           Chang%Shu%NULL%2,                           Jia%Song%NULL%1,                           Wei%Wang%NULL%2,                           Yu-wei%Wang%NULL%1,                           Qian%Chen%NULL%2,                           Guan-nan%Jin%NULL%1,                           Tong-tong%Liu%NULL%1,                           Jun-nan%Liang%NULL%1,                           Peng%Zhu%NULL%1,                           Wei%Zhu%NULL%5,                           Yong%Li%NULL%2,                           Bin-hao%Zhang%NULL%1,                           Huan%Feng%NULL%1,                           Wan-guang%Zhang%NULL%1,                           Zhen-yu%Yin%NULL%1,                           Wen-kui%Yu%NULL%1,                           Yang%Yang%NULL%2,                           Hua-qiu%Zhang%NULL%1,                           Zhou-ping%Tang%NULL%1,                           Hui%Wang%NULL%4,                           Jun-bo%Hu%NULL%1,                           Ji-hong%Liu%NULL%1,                           Ping%Yin%NULL%1,                           Xiao-ping%Chen%NULL%1,                           Bixiang%Zhang%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                           Günay%Can%NULL%2,                           Günay%Can%NULL%0,                           Rıdvan%Karaali%NULL%1,                           Şermin%Börekçi%NULL%1,                           İlker İnanç%Balkan%NULL%1,                           Bilun%Gemicioğlu%NULL%1,                           Dildar%Konukoğlu%NULL%1,                           Ethem%Erginöz%NULL%1,                           Mehmet Sarper%Erdoğan%NULL%1,                           Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                           Danila%Azzolina%NULL%1,                           Eyal%Hayden%NULL%2,                           Eyal%Hayden%NULL%0,                           Gianluca%Gaidano%NULL%2,                           Gianluca%Gaidano%NULL%0,                           Mario%Pirisi%NULL%2,                           Mario%Pirisi%NULL%0,                           Antonio%Acquaviva%NULL%2,                           Antonio%Acquaviva%NULL%0,                           Gianluca%Aimaretti%NULL%2,                           Gianluca%Aimaretti%NULL%0,                           Paolo%Aluffi Valletti%NULL%3,                           Paolo%Aluffi Valletti%NULL%0,                           Roberto%Angilletta%NULL%2,                           Roberto%Angilletta%NULL%0,                           Roberto%Arioli%NULL%2,                           Roberto%Arioli%NULL%0,                           Gian Carlo%Avanzi%NULL%2,                           Gian Carlo%Avanzi%NULL%0,                           Gianluca%Avino%NULL%2,                           Gianluca%Avino%NULL%0,                           Piero Emilio%Balbo%NULL%2,                           Piero Emilio%Balbo%NULL%0,                           Giulia%Baldon%NULL%2,                           Giulia%Baldon%NULL%0,                           Francesca%Baorda%NULL%2,                           Francesca%Baorda%NULL%0,                           Emanuela%Barbero%NULL%2,                           Emanuela%Barbero%NULL%0,                           Alessio%Baricich%NULL%2,                           Alessio%Baricich%NULL%0,                           Michela%Barini%NULL%2,                           Michela%Barini%NULL%0,                           Francesco%Barone-Adesi%NULL%2,                           Francesco%Barone-Adesi%NULL%0,                           Sofia%Battistini%NULL%2,                           Sofia%Battistini%NULL%0,                           Michela%Beltrame%NULL%2,                           Michela%Beltrame%NULL%0,                           Matteo%Bertoli%NULL%2,                           Matteo%Bertoli%NULL%0,                           Stephanie%Bertolin%NULL%2,                           Stephanie%Bertolin%NULL%0,                           Marinella%Bertolotti%NULL%2,                           Marinella%Bertolotti%NULL%0,                           Marta%Betti%NULL%2,                           Marta%Betti%NULL%0,                           Flavio%Bobbio%NULL%2,                           Flavio%Bobbio%NULL%0,                           Paolo%Boffano%NULL%2,                           Paolo%Boffano%NULL%0,                           Lucio%Boglione%NULL%2,                           Lucio%Boglione%NULL%0,                           Silvio%Borrè%NULL%2,                           Silvio%Borrè%NULL%0,                           Matteo%Brucoli%NULL%2,                           Matteo%Brucoli%NULL%0,                           Elisa%Calzaducca%NULL%2,                           Elisa%Calzaducca%NULL%0,                           Edoardo%Cammarata%NULL%2,                           Edoardo%Cammarata%NULL%0,                           Vincenzo%Cantaluppi%NULL%2,                           Vincenzo%Cantaluppi%NULL%0,                           Roberto%Cantello%NULL%2,                           Roberto%Cantello%NULL%0,                           Andrea%Capponi%NULL%2,                           Andrea%Capponi%NULL%0,                           Alessandro%Carriero%NULL%2,                           Alessandro%Carriero%NULL%0,                           Giuseppe Francesco%Casciaro%NULL%2,                           Giuseppe Francesco%Casciaro%NULL%0,                           Luigi Mario%Castello%NULL%2,                           Luigi Mario%Castello%NULL%0,                           Federico%Ceruti%NULL%2,                           Federico%Ceruti%NULL%0,                           Guido%Chichino%NULL%2,                           Guido%Chichino%NULL%0,                           Emilio%Chirico%NULL%2,                           Emilio%Chirico%NULL%0,                           Carlo%Cisari%NULL%1,                           Micol Giulia%Cittone%NULL%2,                           Micol Giulia%Cittone%NULL%0,                           Crizia%Colombo%NULL%2,                           Crizia%Colombo%NULL%0,                           Cristoforo%Comi%NULL%2,                           Cristoforo%Comi%NULL%0,                           Eleonora%Croce%NULL%2,                           Eleonora%Croce%NULL%0,                           Tommaso%Daffara%NULL%2,                           Tommaso%Daffara%NULL%0,                           Pietro%Danna%NULL%2,                           Pietro%Danna%NULL%0,                           Francesco%Della Corte%NULL%2,                           Francesco%Della Corte%NULL%0,                           Simona%De Vecchi%NULL%2,                           Simona%De Vecchi%NULL%0,                           Umberto%Dianzani%NULL%2,                           Umberto%Dianzani%NULL%0,                           Davide%Di Benedetto%NULL%2,                           Davide%Di Benedetto%NULL%0,                           Elia%Esposto%NULL%2,                           Elia%Esposto%NULL%0,                           Fabrizio%Faggiano%NULL%2,                           Fabrizio%Faggiano%NULL%0,                           Zeno%Falaschi%NULL%2,                           Zeno%Falaschi%NULL%0,                           Daniela%Ferrante%NULL%2,                           Daniela%Ferrante%NULL%0,                           Alice%Ferrero%NULL%2,                           Alice%Ferrero%NULL%0,                           Ileana%Gagliardi%NULL%2,                           Ileana%Gagliardi%NULL%0,                           Alessandra%Galbiati%NULL%2,                           Alessandra%Galbiati%NULL%0,                           Silvia%Gallo%NULL%2,                           Silvia%Gallo%NULL%0,                           Pietro Luigi%Garavelli%NULL%2,                           Pietro Luigi%Garavelli%NULL%0,                           Clara Ada%Gardino%NULL%2,                           Clara Ada%Gardino%NULL%0,                           Massimiliano%Garzaro%NULL%3,                           Massimiliano%Garzaro%NULL%0,                           Maria Luisa%Gastaldello%NULL%2,                           Maria Luisa%Gastaldello%NULL%0,                           Francesco%Gavelli%NULL%2,                           Francesco%Gavelli%NULL%0,                           Alessandra%Gennari%NULL%2,                           Alessandra%Gennari%NULL%0,                           Greta Maria%Giacomini%NULL%2,                           Greta Maria%Giacomini%NULL%0,                           Irene%Giacone%NULL%2,                           Irene%Giacone%NULL%0,                           Valentina%Giai Via%NULL%2,                           Valentina%Giai Via%NULL%0,                           Francesca%Giolitti%NULL%2,                           Francesca%Giolitti%NULL%0,                           Laura Cristina%Gironi%NULL%2,                           Laura Cristina%Gironi%NULL%0,                           Carla%Gramaglia%NULL%2,                           Carla%Gramaglia%NULL%0,                           Leonardo%Grisafi%NULL%2,                           Leonardo%Grisafi%NULL%0,                           Ilaria%Inserra%NULL%2,                           Ilaria%Inserra%NULL%0,                           Marco%Invernizzi%NULL%2,                           Marco%Invernizzi%NULL%0,                           Marco%Krengli%NULL%2,                           Marco%Krengli%NULL%0,                           Emanuela%Labella%NULL%2,                           Emanuela%Labella%NULL%0,                           Irene Cecilia%Landi%NULL%2,                           Irene Cecilia%Landi%NULL%0,                           Raffaella%Landi%NULL%2,                           Raffaella%Landi%NULL%0,                           Ilaria%Leone%NULL%2,                           Ilaria%Leone%NULL%0,                           Veronica%Lio%NULL%2,                           Veronica%Lio%NULL%0,                           Luca%Lorenzini%NULL%2,                           Luca%Lorenzini%NULL%0,                           Antonio%Maconi%NULL%2,                           Antonio%Maconi%NULL%0,                           Mario%Malerba%NULL%2,                           Mario%Malerba%NULL%0,                           Giulia Francesca%Manfredi%NULL%2,                           Giulia Francesca%Manfredi%NULL%0,                           Maria%Martelli%NULL%2,                           Maria%Martelli%NULL%0,                           Letizia%Marzari%NULL%2,                           Letizia%Marzari%NULL%0,                           Paolo%Marzullo%NULL%2,                           Paolo%Marzullo%NULL%0,                           Marco%Mennuni%NULL%2,                           Marco%Mennuni%NULL%0,                           Claudia%Montabone%NULL%2,                           Claudia%Montabone%NULL%0,                           Umberto%Morosini%NULL%2,                           Umberto%Morosini%NULL%0,                           Marco%Mussa%NULL%2,                           Marco%Mussa%NULL%0,                           Ilaria%Nerici%NULL%2,                           Ilaria%Nerici%NULL%0,                           Alessandro%Nuzzo%NULL%2,                           Alessandro%Nuzzo%NULL%0,                           Carlo%Olivieri%NULL%2,                           Carlo%Olivieri%NULL%0,                           Samuel Alberto%Padelli%NULL%2,                           Samuel Alberto%Padelli%NULL%0,                           Massimiliano%Panella%NULL%2,                           Massimiliano%Panella%NULL%0,                           Andrea%Parisini%NULL%2,                           Andrea%Parisini%NULL%0,                           Alessio%Paschè%NULL%2,                           Alessio%Paschè%NULL%0,                           Filippo%Patrucco%NULL%2,                           Filippo%Patrucco%NULL%0,                           Giuseppe%Patti%NULL%2,                           Giuseppe%Patti%NULL%0,                           Alberto%Pau%NULL%2,                           Alberto%Pau%NULL%0,                           Anita Rebecca%Pedrinelli%NULL%2,                           Anita Rebecca%Pedrinelli%NULL%0,                           Ilaria%Percivale%NULL%2,                           Ilaria%Percivale%NULL%0,                           Luca%Ragazzoni%NULL%2,                           Luca%Ragazzoni%NULL%0,                           Roberta%Re%NULL%2,                           Roberta%Re%NULL%0,                           Cristina%Rigamonti%NULL%2,                           Cristina%Rigamonti%NULL%0,                           Eleonora%Rizzi%NULL%2,                           Eleonora%Rizzi%NULL%0,                           Andrea%Rognoni%NULL%2,                           Andrea%Rognoni%NULL%0,                           Annalisa%Roveta%NULL%2,                           Annalisa%Roveta%NULL%0,                           Luigia%Salamina%NULL%2,                           Luigia%Salamina%NULL%0,                           Matteo%Santagostino%NULL%2,                           Matteo%Santagostino%NULL%0,                           Massimo%Saraceno%NULL%2,                           Massimo%Saraceno%NULL%0,                           Paola%Savoia%NULL%2,                           Paola%Savoia%NULL%0,                           Marco%Sciarra%NULL%2,                           Marco%Sciarra%NULL%0,                           Andrea%Schimmenti%NULL%2,                           Andrea%Schimmenti%NULL%0,                           Lorenza%Scotti%NULL%2,                           Lorenza%Scotti%NULL%0,                           Enrico%Spinoni%NULL%2,                           Enrico%Spinoni%NULL%0,                           Carlo%Smirne%NULL%2,                           Carlo%Smirne%NULL%0,                           Vanessa%Tarantino%NULL%2,                           Vanessa%Tarantino%NULL%0,                           Paolo Amedeo%Tillio%NULL%2,                           Paolo Amedeo%Tillio%NULL%0,                           Stelvio%Tonello%NULL%2,                           Stelvio%Tonello%NULL%0,                           Rosanna%Vaschetto%NULL%2,                           Rosanna%Vaschetto%NULL%0,                           Veronica%Vassia%NULL%2,                           Veronica%Vassia%NULL%0,                           Domenico%Zagaria%NULL%2,                           Domenico%Zagaria%NULL%0,                           Elisa%Zavattaro%NULL%2,                           Elisa%Zavattaro%NULL%0,                           Patrizia%Zeppegno%NULL%2,                           Patrizia%Zeppegno%NULL%0,                           Francesca%Zottarelli%NULL%2,                           Francesca%Zottarelli%NULL%0,                           Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                           Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                           Marta%Ottone%NULL%2,                           Marta%Ottone%NULL%0,                           Tommaso%Fasano%NULL%1,                           Pierpaolo%Pattacini%NULL%1,                           Valentina%Iotti%NULL%1,                           Lucia%Spaggiari%NULL%1,                           Riccardo%Bonacini%NULL%1,                           Andrea%Nitrosi%NULL%1,                           Efrem%Bonelli%NULL%1,                           Simone%Canovi%NULL%1,                           Rossana%Colla%NULL%1,                           Alessandro%Zerbini%NULL%1,                           Marco%Massari%NULL%1,                           Ivana%Lattuada%NULL%1,                           Anna Maria%Ferrari%NULL%1,                           Paolo%Giorgi Rossi%NULL%1,                           Massimo%Costantini%NULL%1,                           Roberto%Grilli%NULL%1,                           Massimiliano%Marino%NULL%1,                           Giulio%Formoso%NULL%1,                           Debora%Formisano%NULL%1,                           Emanuela%Bedeschi%NULL%1,                           Cinzia%Perilli%NULL%1,                           Elisabetta%La Rosa%NULL%1,                           Eufemia%Bisaccia%NULL%1,                           Ivano%Venturi%NULL%1,                           Massimo%Vicentini%NULL%1,                           Cinzia%Campari%NULL%1,                           Francesco%Gioia%NULL%1,                           Serena%Broccoli%NULL%1,                           Pamela%Mancuso%NULL%1,                           Marco%Foracchia%NULL%1,                           Mirco%Pinotti%NULL%1,                           Nicola%Facciolongo%NULL%1,                           Laura%Trabucco%NULL%1,                           Stefano%De Pietri%NULL%1,                           Giorgio Francesco%Danelli%NULL%1,                           Laura%Albertazzi%NULL%1,                           Enrica%Bellesia%NULL%1,                           Mattia%Corradini%NULL%1,                           Elena%Magnani%NULL%1,                           Annalisa%Pilia%NULL%1,                           Alessandra%Polese%NULL%1,                           Silvia Storchi%Incerti%NULL%1,                           Piera%Zaldini%NULL%1,                           Bonanno%Orsola%NULL%1,                           Matteo%Revelli%NULL%1,                           Carlo%Salvarani%NULL%1,                           Carmine%Pinto%NULL%1,                           Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                           Hong-Qiu%Gu%NULL%1,                           Yi%Liu (刘艺)%NULL%1,                           Guqin%Zhang%NULL%1,                           Hang%Yang%NULL%1,                           Huifang%Hu%NULL%1,                           Chenyang%Lu%NULL%1,                           Yang%Li%NULL%3,                           Liyi%Wang%NULL%1,                           Yi%Liu (刘毅)%yi2006liu@163.com%1,                           Yi%Zhao%zhao.y1977@163.com%1,                           Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                           Tawsifur%Rahman%NULL%2,                           Tawsifur%Rahman%NULL%0,                           Amith%Khandakar%NULL%3,                           Somaya%Al-Madeed%NULL%2,                           Susu M.%Zughaier%NULL%5,                           Suhail A. R.%Doi%NULL%3,                           Hanadi%Hassen%NULL%1,                           Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                           Jia%Sun%NULL%1,                           Yi-Xin%Li%NULL%1,                           Qian%Chen%NULL%0,                           Qing-Quan%Liu%NULL%1,                           Zhou%Sun%NULL%1,                           Ran%Pang%NULL%1,                           Fei%Chen%NULL%1,                           Bing-Yang%Xu%NULL%1,                           Anne%Manyande%NULL%1,                           Taane G%Clark%NULL%1,                           Jin-Ping%Li%NULL%1,                           Ilkay Erdogan%Orhan%NULL%1,                           Yu-Ke%Tian%NULL%1,                           Tao%Wang%wt7636@126.com%0,                           Wei%Wu%wt7636@126.com%1,                           Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Cao%Y%coreGivesNoEmail%4,                        Imam%Z%coreGivesNoEmail%1,                        Lippi%G%coreGivesNoEmail%1,                        Oran%DP%coreGivesNoEmail%1,                        Shi%S%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                           Caiping%Song%NULL%1,                           En%Liu%NULL%1,                           Xi%Liu%NULL%1,                           Hao%Wu%NULL%1,                           Hui%Lin%NULL%1,                           Yuliang%Liu%NULL%1,                           Qi%Li%NULL%1,                           Zhi%Xu%NULL%1,                           XiaoBao%Ren%NULL%1,                           Cheng%Zhang%NULL%1,                           Wenjing%Zhang%NULL%1,                           Wei%Duan%NULL%2,                           Yongfeng%Tian%NULL%1,                           Ping%Li%NULL%1,                           Mingdong%Hu%NULL%1,                           Shiming%Yang%NULL%1,                           Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                           Changli%Li%NULL%1,                           Li%Zheng%NULL%1,                           Wenzhi%Lv%NULL%0,                           Zhigang%He%NULL%1,                           Xinwu%Cui%NULL%1,                           Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                           Hayne Cho%Park%NULL%2,                           Hayne Cho%Park%NULL%0,                           Ajin%Cho%NULL%1,                           Juhee%Kim%NULL%1,                           Kyu-sang%Yun%NULL%1,                           Jinseog%Kim%NULL%1,                           Young-Ki%Lee%NULL%1,                           Sinan%Kardes.%NULL%2,                           Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                           Xiaoyu%Fang%NULL%1,                           Lixia%Cheng%NULL%1,                           Penghao%Wang%NULL%1,                           Shen%Li%NULL%1,                           Hao%Yu%NULL%1,                           Yao%Zhang%NULL%2,                           Nan%Jiang%NULL%1,                           Tingting%Zeng%NULL%1,                           Chao%Hou%NULL%1,                           Jing%Zhou%NULL%1,                           Shiru%Li%NULL%1,                           Yingzi%Pan%NULL%1,                           Yitong%Li%NULL%1,                           Lili%Nie%NULL%1,                           Yang%Li%NULL%0,                           Qidi%Sun%NULL%1,                           Hong%Jia%NULL%1,                           Mengxia%Li%NULL%1,                           Guoqiang%Cao%NULL%1,                           Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                           Lucas A%Ramos%NULL%2,                           Lucas A%Ramos%NULL%0,                           Wouter%Potters%NULL%1,                           Marcus L F%Janssen%NULL%1,                           Deborah%Hubers%NULL%1,                           Shi%Hu%NULL%1,                           Egill A%Fridgeirsson%NULL%1,                           Dan%Piña-Fuentes%NULL%1,                           Rajat%Thomas%NULL%1,                           Iwan C C%van der Horst%NULL%1,                           Christian%Herff%NULL%2,                           Christian%Herff%NULL%0,                           Pieter%Kubben%NULL%1,                           Paul W G%Elbers%NULL%1,                           Henk A%Marquering%NULL%1,                           Max%Welling%NULL%1,                           Suat%Simsek%NULL%1,                           Martijn D%de Kruif%NULL%1,                           Tom%Dormans%NULL%1,                           Lucas M%Fleuren%NULL%1,                           Michiel%Schinkel%NULL%1,                           Peter G%Noordzij%NULL%1,                           Joop P%van den Bergh%NULL%2,                           Joop P%van den Bergh%NULL%0,                           Caroline E%Wyers%NULL%1,                           David T B%Buis%NULL%2,                           David T B%Buis%NULL%0,                           W Joost%Wiersinga%NULL%1,                           Ella H C%van den Hout%NULL%1,                           Auke C%Reidinga%NULL%1,                           Daisy%Rusch%NULL%1,                           Kim C E%Sigaloff%NULL%1,                           Renee A%Douma%NULL%1,                           Lianne%de Haan%NULL%1,                           Niels C%Gritters van den Oever%NULL%1,                           Roger J M W%Rennenberg%NULL%1,                           Guido A%van Wingen%NULL%1,                           Marcel J H%Aries%NULL%1,                           Martijn%Beudel%NULL%2,                           Martijn%Beudel%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                           Fajer A.%Al-Ishaq%NULL%2,                           Fajer A.%Al-Ishaq%NULL%0,                           Fatima S.%Al-Mohannadi%NULL%1,                           Reem S.%Mubarak%NULL%1,                           Maryam H.%Al-Hitmi%NULL%1,                           Khandaker Reajul%Islam%NULL%1,                           Amith%Khandakar%NULL%0,                           Ali Ait%Hssain%NULL%3,                           Ali Ait%Hssain%NULL%0,                           Somaya%Al-Madeed%NULL%0,                           Susu M.%Zughaier%NULL%0,                           Susu M.%Zughaier%NULL%0,                           Muhammad E. H.%Chowdhury%NULL%3,                           Muhammad E. H.%Chowdhury%NULL%0,                           Antonella%Santone%NULL%3,                           Antonella%Santone%NULL%0,                           Antonella%Santone%NULL%0,                           Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                           Amith%Khandakar%NULL%0,                           Md Enamul%Hoque%NULL%2,                           Md Enamul%Hoque%NULL%0,                           Nabil%Ibtehaz%NULL%2,                           Nabil%Ibtehaz%NULL%0,                           Saad Bin%Kashem%NULL%2,                           Saad Bin%Kashem%NULL%0,                           Reehum%Masud%NULL%1,                           Lutfunnahar%Shampa%NULL%1,                           Mohammad Mehedi%Hasan%NULL%1,                           Mohammad Tariqul%Islam%NULL%1,                           Somaya%Al-Maadeed%NULL%2,                           Somaya%Al-Maadeed%NULL%0,                           Susu M.%Zughaier%NULL%0,                           Susu M.%Zughaier%NULL%0,                           Saif%Badran%NULL%2,                           Saif%Badran%NULL%0,                           Suhail A. R.%Doi%NULL%0,                           Suhail A. R.%Doi%NULL%0,                           Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                           Pablo%Rodríguez-Belenguer%NULL%2,                           Pablo%Rodríguez-Belenguer%NULL%0,                           Antonio J.%Serrano-López%NULL%1,                           Emilio%Soria-Olivas%NULL%2,                           Emilio%Soria-Olivas%NULL%0,                           Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                           Haibo%Ai%NULL%1,                           Yunong%Fu%NULL%1,                           Qinglin%Li%NULL%1,                           Ruixia%Cui%NULL%1,                           Xiaohua%Ma%NULL%1,                           Yan-fen%Ma%NULL%1,                           Zi%Wang%NULL%1,                           Tong%Liu%NULL%1,                           Yunxiang%Long%NULL%1,                           Kai%Qu%NULL%1,                           Chang%Liu%NULL%1,                           Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                           Dawei%Zhang%NULL%1,                           Jing%Xu%NULL%6,                           Zhu%Chen%NULL%1,                           Tieniu%Yang%NULL%1,                           Peng%Zhao%NULL%2,                           Guofeng%Chen%NULL%1,                           Gregory%Cheng%NULL%1,                           Yudong%Wang%NULL%1,                           Jingfeng%Bi%NULL%1,                           Lin%Tan%NULL%1,                           George%Lau%NULL%1,                           Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                           Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                           Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                           Giulia%Suigo%NULL%1,                           Davide%Zampini%NULL%1,                           Matteo%Pistoia%NULL%1,                           Mariella%Ciola%NULL%1,                           Tommaso%Ciampani%NULL%1,                           Carolina%Ultori%NULL%1,                           Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%5,                           John R%Adler%NULL%3,                           Sultan M%Kamran%NULL%2,                           Sultan M%Kamran%NULL%0,                           Zill-e-Humayun%Mirza%NULL%1,                           Hussain Abdul%Moeed%NULL%1,                           Arshad%Naseem%NULL%1,                           Maryam%Hussain%NULL%1,                           Imran%Fazal%NULL%1,                           Farrukh%Saeed%NULL%1,                           Wasim%Alamgir%NULL%1,                           Salman%Saleem%NULL%1,                           Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                           María M.%Martín%NULL%1,                           Mónica%Argueso%NULL%1,                           Jordi%Solé-Violán%NULL%1,                           Alina%Perez%NULL%1,                           José Alberto%Marcos Y Ramos%NULL%1,                           Luis%Ramos-Gómez%NULL%1,                           Sergio%López%NULL%1,                           Andrés%Franco%NULL%1,                           Agustín F.%González-Rivero%NULL%1,                           María%Martín%NULL%1,                           Verónica%Gonzalez%NULL%1,                           Julia%Alcoba-Flórez%NULL%1,                           Miguel Ángel%Rodriguez%NULL%1,                           Marta%Riaño-Ruiz%NULL%1,                           Juan%Guillermo O Campo%NULL%1,                           Lourdes%González%NULL%1,                           Tamara%Cantera%NULL%1,                           Raquel%Ortiz-López%NULL%1,                           Nazario%Ojeda%NULL%1,                           Aurelio%Rodríguez-Pérez%NULL%1,                           Casimira%Domínguez%NULL%1,                           Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                           Rita%Kukafka%NULL%1,                           Arriel%Benis%NULL%2,                           Arriel%Benis%NULL%0,                           Jinfeng%Li%NULL%1,                           Pan%Pan%NULL%2,                           Pan%Pan%NULL%0,                           Yichao%Li%NULL%2,                           Yichao%Li%NULL%0,                           Yongjiu%Xiao%NULL%2,                           Yongjiu%Xiao%NULL%0,                           Bingchao%Han%NULL%2,                           Bingchao%Han%NULL%0,                           Longxiang%Su%NULL%2,                           Longxiang%Su%NULL%0,                           Mingliang%Su%NULL%2,                           Mingliang%Su%NULL%0,                           Yansheng%Li%NULL%2,                           Yansheng%Li%NULL%0,                           Siqi%Zhang%NULL%2,                           Siqi%Zhang%NULL%0,                           Dapeng%Jiang%NULL%2,                           Dapeng%Jiang%NULL%0,                           Xia%Chen%NULL%2,                           Xia%Chen%NULL%0,                           Fuquan%Zhou%NULL%2,                           Fuquan%Zhou%NULL%0,                           Ling%Ma%NULL%2,                           Ling%Ma%NULL%0,                           Pengtao%Bao%NULL%2,                           Pengtao%Bao%NULL%0,                           Lixin%Xie%xielx301@126.com%2,                           Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                           Cristina%Roca-Oporto%NULL%2,                           Guillermo%Martín-Gutiérrez%NULL%2,                           María Dolores%Avilés%NULL%2,                           Carmen%Gómez-González%NULL%2,                           María Dolores%Navarro-Amuedo%NULL%2,                           Julia%Praena-Segovia%NULL%2,                           José%Molina%NULL%2,                           María%Paniagua-García%NULL%2,                           Horacio%García-Delgado%NULL%2,                           Antonio%Domínguez-Petit%NULL%2,                           Jerónimo%Pachón%NULL%2,                           José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                           Barry R.%Meisenberg%NULL%2,                           Barry R.%Meisenberg%NULL%0,                           James H.%MacDonald%NULL%1,                           Nandakumar%Menon%NULL%1,                           Marcia B.%Fowler%NULL%1,                           Michaline%West%NULL%1,                           Jane%Rhule%NULL%1,                           Sadaf S.%Qureshi%NULL%1,                           Eileen B.%MacDonald%NULL%1,                           Yu Ru%Kou%NULL%2,                           Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                           Sarah%Poole%NULL%2,                           Sarah%Poole%NULL%0,                           Meeta%Pradhan%NULL%1,                           Akhil%Vaid%NULL%3,                           Akhil%Vaid%NULL%0,                           Sulaiman%Somani%NULL%3,                           Sulaiman%Somani%NULL%0,                           Adam J%Russak%NULL%2,                           Adam J%Russak%NULL%0,                           Jessica K%De Freitas%NULL%2,                           Jessica K%De Freitas%NULL%0,                           Fayzan F%Chaudhry%NULL%2,                           Fayzan F%Chaudhry%NULL%0,                           Ishan%Paranjpe%NULL%3,                           Ishan%Paranjpe%NULL%0,                           Kipp W%Johnson%NULL%2,                           Kipp W%Johnson%NULL%0,                           Samuel J%Lee%NULL%2,                           Samuel J%Lee%NULL%0,                           Riccardo%Miotto%NULL%2,                           Riccardo%Miotto%NULL%0,                           Felix%Richter%NULL%3,                           Felix%Richter%NULL%0,                           Shan%Zhao%NULL%3,                           Shan%Zhao%NULL%0,                           Noam D%Beckmann%NULL%2,                           Noam D%Beckmann%NULL%0,                           Nidhi%Naik%NULL%2,                           Nidhi%Naik%NULL%0,                           Arash%Kia%NULL%2,                           Arash%Kia%NULL%0,                           Prem%Timsina%NULL%2,                           Prem%Timsina%NULL%0,                           Anuradha%Lala%NULL%2,                           Anuradha%Lala%NULL%0,                           Manish%Paranjpe%NULL%2,                           Manish%Paranjpe%NULL%0,                           Eddye%Golden%NULL%2,                           Eddye%Golden%NULL%0,                           Matteo%Danieletto%NULL%2,                           Matteo%Danieletto%NULL%0,                           Manbir%Singh%NULL%2,                           Manbir%Singh%NULL%0,                           Dara%Meyer%NULL%2,                           Dara%Meyer%NULL%0,                           Paul F%O'Reilly%NULL%2,                           Paul F%O'Reilly%NULL%0,                           Laura%Huckins%NULL%2,                           Laura%Huckins%NULL%0,                           Patricia%Kovatch%NULL%2,                           Patricia%Kovatch%NULL%0,                           Joseph%Finkelstein%NULL%2,                           Joseph%Finkelstein%NULL%0,                           Robert M.%Freeman%NULL%2,                           Robert M.%Freeman%NULL%0,                           Edgar%Argulian%NULL%2,                           Edgar%Argulian%NULL%0,                           Andrew%Kasarskis%NULL%2,                           Andrew%Kasarskis%NULL%0,                           Bethany%Percha%NULL%2,                           Bethany%Percha%NULL%0,                           Judith A%Aberg%NULL%2,                           Judith A%Aberg%NULL%0,                           Emilia%Bagiella%NULL%3,                           Emilia%Bagiella%NULL%0,                           Carol R%Horowitz%NULL%2,                           Carol R%Horowitz%NULL%0,                           Barbara%Murphy%NULL%2,                           Barbara%Murphy%NULL%0,                           Eric J%Nestler%NULL%2,                           Eric J%Nestler%NULL%0,                           Eric E%Schadt%NULL%2,                           Eric E%Schadt%NULL%0,                           Judy H%Cho%NULL%2,                           Judy H%Cho%NULL%0,                           Carlos%Cordon-Cardo%NULL%2,                           Carlos%Cordon-Cardo%NULL%0,                           Valentin%Fuster%NULL%3,                           Valentin%Fuster%NULL%0,                           Dennis S%Charney%NULL%2,                           Dennis S%Charney%NULL%0,                           David L%Reich%NULL%2,                           David L%Reich%NULL%0,                           Erwin P%Bottinger%NULL%2,                           Erwin P%Bottinger%NULL%0,                           Matthew A%Levin%NULL%2,                           Matthew A%Levin%NULL%0,                           Jagat%Narula%NULL%3,                           Jagat%Narula%NULL%0,                           Zahi A%Fayad%NULL%2,                           Zahi A%Fayad%NULL%0,                           Allan C%Just%NULL%2,                           Allan C%Just%NULL%0,                           Alexander W%Charney%NULL%2,                           Alexander W%Charney%NULL%0,                           Girish N%Nadkarni%NULL%2,                           Girish N%Nadkarni%NULL%0,                           Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                           Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                           Anne%Chen%NULL%2,                           Wei%Hou%NULL%3,                           James M.%Graham%NULL%1,                           Haifang%Li%NULL%2,                           Paul S.%Richman%NULL%1,                           Henry C.%Thode%NULL%1,                           Adam J.%Singer%NULL%1,                           Tim Q.%Duong%NULL%1,                           Muhammad%Adrish%NULL%9,                           Muhammad%Adrish%NULL%0,                           Muhammad%Adrish%NULL%0,                           Muhammad%Adrish%NULL%0,                           Muhammad%Adrish%NULL%0,                           Muhammad%Adrish%NULL%0,                           Muhammad%Adrish%NULL%0,                           Muhammad%Adrish%NULL%0,                           Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                           Qin%Liu%NULL%2,                           Xiao%Zhang%NULL%2,                           Shuyi%Liu%NULL%1,                           Weiqi%Chen%NULL%1,                           Jingjing%You%NULL%1,                           Qiuying%Chen%NULL%1,                           Minmin%Li%NULL%1,                           Zhuozhi%Chen%NULL%1,                           Luyan%Chen%NULL%1,                           Lv%Chen%NULL%1,                           Yuhao%Dong%NULL%1,                           Qingsi%Zeng%NULL%1,                           Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                           Lei%Nie%NULL%1,                           Dongde%Wu%NULL%1,                           Jian%Chen%NULL%2,                           Zhifeng%Yang%NULL%1,                           Ling%Zhang%NULL%3,                           Dongqing%Li%NULL%1,                           Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                           Burcin%Hakoglu%NULL%2,                           Burcin%Hakoglu%NULL%0,                           Ali%Kadri Cirak%NULL%1,                           Gulru%Polat%NULL%1,                           Berna%Komurcuoglu%NULL%1,                           Berrin%Akkol%NULL%1,                           Cagri%Atasoy%NULL%1,                           Eda%Bayramic%NULL%1,                           Gunseli%Balci%NULL%1,                           Sena%Ataman%NULL%1,                           Sinem%Ermin%NULL%1,                           Enver%Yalniz%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                           Qiaosen%Chen%NULL%2,                           Qiaosen%Chen%NULL%0,                           Sumeng%Li%NULL%1,                           Huadong%Li%NULL%1,                           Qian%Zhang%NULL%1,                           Sihong%Lu%NULL%1,                           Li%Wu%NULL%1,                           Leiqun%Xiong%NULL%1,                           Bobin%Mi%NULL%1,                           Di%Liu%NULL%3,                           Mengji%Lu%NULL%1,                           Dongliang%Yang%NULL%1,                           Hongbo%Jiang%hongbojiang3@163.com%1,                           Shaoping%Zheng%zhengspxx@126.com%1,                           Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                           Hua%Zhang%NULL%2,                           Rui%Qiao%NULL%1,                           Qinggang%Ge%NULL%1,                           Shuisheng%Zhang%NULL%1,                           Zongxuan%Zhao%NULL%1,                           Ci%Tian%NULL%1,                           Qingbian%Ma%NULL%2,                           Qingbian%Ma%NULL%0,                           Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                           Antonia%Ho%NULL%2,                           Riinu%Pius%NULL%2,                           Iain%Buchan%NULL%1,                           Gail%Carson%NULL%2,                           Thomas M%Drake%NULL%1,                           Jake%Dunning%NULL%2,                           Cameron J%Fairfield%NULL%2,                           Carrol%Gamble%NULL%2,                           Christopher A%Green%NULL%2,                           Rishi%Gupta%NULL%1,                           Sophie%Halpin%NULL%2,                           Hayley E%Hardwick%NULL%1,                           Karl A%Holden%NULL%1,                           Peter W%Horby%NULL%2,                           Clare%Jackson%NULL%2,                           Kenneth A%Mclean%NULL%2,                           Laura%Merson%NULL%2,                           Jonathan S%Nguyen-Van-Tam%NULL%1,                           Lisa%Norman%NULL%2,                           Mahdad%Noursadeghi%NULL%2,                           Piero L%Olliaro%NULL%1,                           Mark G%Pritchard%NULL%1,                           Clark D%Russell%NULL%2,                           Catherine A%Shaw%NULL%2,                           Aziz%Sheikh%NULL%2,                           Tom%Solomon%NULL%2,                           Cathie%Sudlow%NULL%1,                           Olivia V%Swann%NULL%1,                           Lance CW%Turtle%NULL%2,                           Peter JM%Openshaw%NULL%2,                           J Kenneth%Baillie%NULL%2,                           Malcolm G%Semple%NULL%3,                           Annemarie B%Docherty%NULL%3,                           Annemarie B%Docherty%NULL%0,                           Ewen M%Harrison%NULL%3,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           J Kenneth%Baillie%NULL%0,                           Malcolm G%Semple%NULL%0,                           Peter JM%Openshaw%NULL%0,                           Gail%Carson%NULL%0,                           Beatrice%Alex%NULL%1,                           Benjamin%Bach%NULL%1,                           Wendy S%Barclay%NULL%1,                           Debby%Bogaert%NULL%1,                           Meera%Chand%NULL%1,                           Graham S%Cooke%NULL%1,                           Annemarie B%Docherty%NULL%0,                           Jake%Dunning%NULL%0,                           Ana%da Silva Filipe%NULL%1,                           Tom%Fletcher%NULL%1,                           Christopher A%Green%NULL%0,                           Ewen M%Harrison%NULL%0,                           Julian A%Hiscox%NULL%1,                           Antonia Ying Wai%Ho%NULL%1,                           Peter W%Horby%NULL%0,                           Samreen%Ijaz%NULL%1,                           Saye%Khoo%NULL%1,                           Paul%Klenerman%NULL%1,                           Andrew%Law%NULL%2,                           Wei Shen%Lim%NULL%1,                           Alexander J%Mentzer%NULL%1,                           Laura%Merson%NULL%0,                           Alison M%Meynert%NULL%1,                           Mahdad%Noursadeghi%NULL%0,                           Shona C%Moore%NULL%2,                           Massimo%Palmarini%NULL%1,                           William A%Paxton%NULL%1,                           Georgios%Pollakis%NULL%1,                           Nicholas%Price%NULL%1,                           Andrew%Rambaut%NULL%1,                           David L%Robertson%NULL%1,                           Clark D%Russell%NULL%0,                           Vanessa%Sancho-Shimizu%NULL%1,                           Janet T%Scott%NULL%1,                           Louise%Sigfrid%NULL%1,                           Tom%Solomon%NULL%0,                           Shiranee%Sriskandan%NULL%1,                           David%Stuart%NULL%1,                           Charlotte%Summers%NULL%1,                           Richard S%Tedder%NULL%1,                           Emma C%Thomson%NULL%1,                           Ryan S%Thwaites%NULL%1,                           Lance CW%Turtle%NULL%0,                           Maria%Zambon%NULL%1,                           Hayley%Hardwick%NULL%1,                           Chloe%Donohue%NULL%1,                           Jane%Ewins%NULL%1,                           Wilna%Oosthuyzen%NULL%1,                           Fiona%Griffiths%NULL%1,                           Lisa%Norman%NULL%0,                           Riinu%Pius%NULL%0,                           Tom M%Drake%NULL%1,                           Cameron J%Fairfield%NULL%0,                           Stephen%Knight%NULL%1,                           Kenneth A%Mclean%NULL%0,                           Derek%Murphy%NULL%1,                           Catherine A%Shaw%NULL%0,                           Jo%Dalton%NULL%1,                           Michelle%Girvan%NULL%1,                           Egle%Saviciute%NULL%1,                           Stephanie%Roberts%NULL%1,                           Janet%Harrison%NULL%1,                           Laura%Marsh%NULL%1,                           Marie%Connor%NULL%1,                           Sophie%Halpin%NULL%0,                           Clare%Jackson%NULL%0,                           Carrol%Gamble%NULL%0,                           Gary%Leeming%NULL%1,                           Andrew%Law%NULL%0,                           Ross%Hendry%NULL%1,                           James%Scott-Brown%NULL%1,                           William%Greenhalf%NULL%1,                           Victoria%Shaw%NULL%1,                           Sarah%McDonald%NULL%2,                           Katie A%Ahmed%NULL%1,                           Jane A%Armstrong%NULL%1,                           Milton%Ashworth%NULL%1,                           Innocent G%Asiimwe%NULL%1,                           Siddharth%Bakshi%NULL%1,                           Samantha L%Barlow%NULL%1,                           Laura%Booth%NULL%1,                           Benjamin%Brennan%NULL%1,                           Katie%Bullock%NULL%1,                           Benjamin WA%Catterall%NULL%1,                           Jordan J%Clark%NULL%1,                           Emily A%Clarke%NULL%1,                           Sarah%Cole%NULL%1,                           Louise%Cooper%NULL%1,                           Helen%Cox%NULL%1,                           Christopher%Davis%NULL%1,                           Oslem%Dincarslan%NULL%1,                           Chris%Dunn%NULL%1,                           Philip%Dyer%NULL%1,                           Angela%Elliott%NULL%1,                           Anthony%Evans%NULL%1,                           Lewis WS%Fisher%NULL%1,                           Terry%Foster%NULL%1,                           Isabel%Garcia-Dorival%NULL%1,                           Willliam%Greenhalf%NULL%1,                           Philip%Gunning%NULL%1,                           Catherine%Hartley%NULL%1,                           Antonia%Ho%NULL%0,                           Rebecca L%Jensen%NULL%1,                           Christopher B%Jones%NULL%1,                           Trevor R%Jones%NULL%1,                           Shadia%Khandaker%NULL%1,                           Katharine%King%NULL%1,                           Robyn T%Kiy%NULL%1,                           Chrysa%Koukorava%NULL%1,                           Annette%Lake%NULL%1,                           Suzannah%Lant%NULL%1,                           Diane%Latawiec%NULL%1,                           L%Lavelle-Langham%NULL%1,                           Daniella%Lefteri%NULL%1,                           Lauren%Lett%NULL%1,                           Lucia A%Livoti%NULL%1,                           Maria%Mancini%NULL%1,                           Sarah%McDonald%NULL%0,                           Laurence%McEvoy%NULL%1,                           John%McLauchlan%NULL%1,                           Soeren%Metelmann%NULL%1,                           Nahida S%Miah%NULL%1,                           Joanna%Middleton%NULL%1,                           Joyce%Mitchell%NULL%1,                           Shona C%Moore%NULL%0,                           Ellen G%Murphy%NULL%1,                           Rebekah%Penrice-Randal%NULL%1,                           Jack%Pilgrim%NULL%1,                           Tessa%Prince%NULL%1,                           Will%Reynolds%NULL%1,                           P Matthew%Ridley%NULL%1,                           Debby%Sales%NULL%1,                           Victoria E%Shaw%NULL%1,                           Rebecca K%Shears%NULL%1,                           Benjamin%Small%NULL%1,                           Krishanthi S%Subramaniam%NULL%1,                           Agnieska%Szemiel%NULL%1,                           Aislynn%Taggart%NULL%1,                           Jolanta%Tanianis-Hughes%NULL%1,                           Jordan%Thomas%NULL%1,                           Erwan%Trochu%NULL%1,                           Libby%van Tonder%NULL%1,                           Eve%Wilcock%NULL%1,                           J Eunice%Zhang%NULL%1,                           Kayode%Adeniji%NULL%1,                           Daniel%Agranoff%NULL%1,                           Ken%Agwuh%NULL%1,                           Dhiraj%Ail%NULL%1,                           Ana%Alegria%NULL%1,                           Brian%Angus%NULL%1,                           Abdul%Ashish%NULL%1,                           Dougal%Atkinson%NULL%1,                           Shahedal%Bari%NULL%1,                           Gavin%Barlow%NULL%1,                           Stella%Barnass%NULL%1,                           Nicholas%Barrett%NULL%2,                           Christopher%Bassford%NULL%1,                           David%Baxter%NULL%1,                           Michael%Beadsworth%NULL%1,                           Jolanta%Bernatoniene%NULL%1,                           John%Berridge%NULL%1,                           Nicola%Best%NULL%1,                           Pieter%Bothma%NULL%1,                           David%Brealey%NULL%1,                           Robin%Brittain-Long%NULL%1,                           Naomi%Bulteel%NULL%1,                           Tom%Burden%NULL%1,                           Andrew%Burtenshaw%NULL%1,                           Vikki%Caruth%NULL%1,                           David%Chadwick%NULL%1,                           Duncan%Chambler%NULL%1,                           Nigel%Chee%NULL%1,                           Jenny%Child%NULL%1,                           Srikanth%Chukkambotla%NULL%1,                           Tom%Clark%NULL%1,                           Paul%Collini%NULL%1,                           Catherine%Cosgrove%NULL%1,                           Jason%Cupitt%NULL%1,                           Maria-Teresa%Cutino-Moguel%NULL%1,                           Paul%Dark%NULL%1,                           Chris%Dawson%NULL%1,                           Samir%Dervisevic%NULL%1,                           Phil%Donnison%NULL%1,                           Sam%Douthwaite%NULL%1,                           Ingrid%DuRand%NULL%1,                           Ahilanadan%Dushianthan%NULL%1,                           Tristan%Dyer%NULL%1,                           Cariad%Evans%NULL%1,                           Chi%Eziefula%NULL%1,                           Chrisopher%Fegan%NULL%1,                           Adam%Finn%NULL%1,                           Duncan%Fullerton%NULL%1,                           Sanjeev%Garg%NULL%2,                           Sanjeev%Garg%NULL%0,                           Atul%Garg%NULL%1,                           Jo%Godden%NULL%1,                           Arthur%Goldsmith%NULL%1,                           Clive%Graham%NULL%1,                           Elaine%Hardy%NULL%1,                           Stuart%Hartshorn%NULL%1,                           Daniel%Harvey%NULL%1,                           Peter%Havalda%NULL%1,                           Daniel B%Hawcutt%NULL%1,                           Maria%Hobrok%NULL%1,                           Luke%Hodgson%NULL%1,                           Anita%Holme%NULL%1,                           Anil%Hormis%NULL%1,                           Michael%Jacobs%NULL%1,                           Susan%Jain%NULL%1,                           Paul%Jennings%NULL%1,                           Agilan%Kaliappan%NULL%1,                           Vidya%Kasipandian%NULL%1,                           Stephen%Kegg%NULL%1,                           Michael%Kelsey%NULL%1,                           Jason%Kendall%NULL%1,                           Caroline%Kerrison%NULL%1,                           Ian%Kerslake%NULL%1,                           Oliver%Koch%NULL%2,                           Gouri%Koduri%NULL%1,                           George%Koshy%NULL%1,                           Shondipon%Laha%NULL%1,                           Susan%Larkin%NULL%1,                           Tamas%Leiner%NULL%1,                           Patrick%Lillie%NULL%1,                           James%Limb%NULL%1,                           Vanessa%Linnett%NULL%1,                           Jeff%Little%NULL%1,                           Michael%MacMahon%NULL%1,                           Emily%MacNaughton%NULL%1,                           Ravish%Mankregod%NULL%1,                           Huw%Masson%NULL%1,                           Elijah%Matovu%NULL%1,                           Katherine%McCullough%NULL%1,                           Ruth%McEwen%NULL%1,                           Manjula%Meda%NULL%1,                           Gary%Mills%NULL%1,                           Jane%Minton%NULL%1,                           Mariyam%Mirfenderesky%NULL%1,                           Kavya%Mohandas%NULL%1,                           Quen%Mok%NULL%1,                           James%Moon%NULL%1,                           Elinoor%Moore%NULL%1,                           Patrick%Morgan%NULL%1,                           Craig%Morris%NULL%1,                           Katherine%Mortimore%NULL%1,                           Samuel%Moses%NULL%1,                           Mbiye%Mpenge%NULL%1,                           Rohinton%Mulla%NULL%1,                           Michael%Murphy%NULL%1,                           Megan%Nagel%NULL%1,                           Thapas%Nagarajan%NULL%1,                           Mark%Nelson%NULL%1,                           Igor%Otahal%NULL%1,                           Mark%Pais%NULL%1,                           Selva%Panchatsharam%NULL%1,                           Hassan%Paraiso%NULL%1,                           Brij%Patel%NULL%1,                           Justin%Pepperell%NULL%1,                           Mark%Peters%NULL%1,                           Mandeep%Phull%NULL%1,                           Stefania%Pintus%NULL%1,                           Jagtur Singh%Pooni%NULL%1,                           Frank%Post%NULL%1,                           David%Price%NULL%1,                           Rachel%Prout%NULL%1,                           Nikolas%Rae%NULL%1,                           Henrik%Reschreiter%NULL%1,                           Tim%Reynolds%NULL%1,                           Neil%Richardson%NULL%1,                           Mark%Roberts%NULL%1,                           Devender%Roberts%NULL%1,                           Alistair%Rose%NULL%1,                           Guy%Rousseau%NULL%1,                           Brendan%Ryan%NULL%1,                           Taranprit%Saluja%NULL%1,                           Aarti%Shah%NULL%1,                           Prad%Shanmuga%NULL%1,                           Anil%Sharma%NULL%1,                           Anna%Shawcross%NULL%1,                           Jeremy%Sizer%NULL%1,                           Richard%Smith%NULL%1,                           Catherine%Snelson%NULL%1,                           Nick%Spittle%NULL%1,                           Nikki%Staines%NULL%1,                           Tom%Stambach%NULL%1,                           Richard%Stewart%NULL%1,                           Pradeep%Subudhi%NULL%1,                           Tamas%Szakmany%NULL%1,                           Kate%Tatham%NULL%1,                           Jo%Thomas%NULL%1,                           Chris%Thompson%NULL%1,                           Robert%Thompson%NULL%1,                           Ascanio%Tridente%NULL%1,                           Darell%Tupper-Carey%NULL%1,                           Mary%Twagira%NULL%1,                           Andrew%Ustianowski%NULL%1,                           Nick%Vallotton%NULL%1,                           Lisa%Vincent-Smith%NULL%1,                           Shico%Visuvanathan%NULL%1,                           Alan%Vuylsteke%NULL%1,                           Sam%Waddy%NULL%1,                           Rachel%Wake%NULL%1,                           Andrew%Walden%NULL%1,                           Ingeborg%Welters%NULL%1,                           Tony%Whitehouse%NULL%1,                           Paul%Whittaker%NULL%1,                           Ashley%Whittington%NULL%1,                           Meme%Wijesinghe%NULL%1,                           Martin%Williams%NULL%1,                           Lawrence%Wilson%NULL%1,                           Sarah%Wilson%NULL%1,                           Stephen%Winchester%NULL%1,                           Martin%Wiselka%NULL%1,                           Adam%Wolverson%NULL%1,                           Daniel G%Wooton%NULL%1,                           Andrew%Workman%NULL%1,                           Bryan%Yates%NULL%1,                           Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                           Braulio A.%Marfil‐Garza%NULL%1,                           Erick%Martínez Rodríguez%NULL%1,                           José Omar%Barreto Rodríguez%NULL%1,                           Alicia Estela%López Romo%NULL%1,                           Paolo%Alberti Minutti%NULL%1,                           Juan Vicente%Alejandre Loya%NULL%1,                           Félix Emmanuel%Pérez Talavera%NULL%1,                           Freddy José%Ávila Cervera%NULL%1,                           Adriana%Velazquez Burciaga%NULL%1,                           Oscar%Morado Aramburo%NULL%1,                           Luis Alberto%Piña Olguín%NULL%1,                           Adrian%Soto‐Rodríguez%NULL%1,                           Andrés%Castañeda Prado%NULL%1,                           Patricio%Santillán Doherty%NULL%1,                           Juan%O Galindo%NULL%1,                           Luis Alberto%Guízar García%NULL%1,                           Daniel%Hernández Gordillo%NULL%1,                           Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                           Aatish%Patel%NULL%1,                           Esmita%Charani%NULL%1,                           Sarah%Denny%NULL%1,                           Saleh A.%Alqahtani%NULL%1,                           Gary W.%Davies%NULL%1,                           Nabeela%Mughal%NULL%1,                           Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                           Hyunsun%Lim%NULL%1,                           Dong-Wook%Kim%NULL%1,                           Jung Hyun%Chang%NULL%1,                           Yoon Jung%Choi%chris316@yuhs.ac%1,                           Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                           Wenhua%Liang%NULL%3,                           Mei%Jiang%NULL%2,                           Weijie%Guan%NULL%3,                           Chen%Zhan%NULL%2,                           Tao%Wang%NULL%0,                           Chunli%Tang%NULL%3,                           Ling%Sang%NULL%3,                           Jiaxing%Liu%NULL%2,                           Zhengyi%Ni%NULL%2,                           Yu%Hu%NULL%0,                           Lei%Liu%NULL%8,                           Hong%Shan%NULL%5,                           Chunliang%Lei%NULL%2,                           Yixiang%Peng%NULL%2,                           Li%Wei%NULL%5,                           Yong%Liu%NULL%5,                           Yahua%Hu%NULL%2,                           Peng%Peng%NULL%7,                           Jianming%Wang%NULL%2,                           Jiyang%Liu%NULL%2,                           Zhong%Chen%NULL%5,                           Gang%Li%NULL%5,                           Zhijian%Zheng%NULL%2,                           Shaoqin%Qiu%NULL%2,                           Jie%Luo%NULL%5,                           Changjiang%Ye%NULL%2,                           Shaoyong%Zhu%NULL%2,                           Xiaoqing%Liu%NULL%2,                           Linling%Cheng%NULL%2,                           Feng%Ye%NULL%2,                           Jinping%Zheng%NULL%2,                           Nuofu%Zhang%NULL%2,                           Yimin%Li%NULL%2,                           Jianxing%He%NULL%2,                           Shiyue%Li%lishiyue@188.com%3,                           Nanshan%Zhong%NULL%4,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                           Liu%Hu%NULL%1,                           Yiru%Wang%NULL%0,                           Luyan%Huang%NULL%1,                           Lingxi%Zhao%NULL%1,                           Congcong%Zhang%NULL%1,                           Xiyue%Liu%NULL%1,                           Ranran%Xu%NULL%1,                           Feng%Liu%NULL%0,                           Jinping%Li%NULL%1,                           Dawei%Ye%NULL%0,                           Tao%Wang%NULL%0,                           Yongman%Lv%lvyongman@126.com%0,                           Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                           Carol A C%Coupland%NULL%1,                           Ruth H%Keogh%NULL%1,                           Karla%Diaz-Ordaz%NULL%1,                           Elizabeth%Williamson%NULL%1,                           Ewen M%Harrison%NULL%0,                           Andrew%Hayward%NULL%1,                           Harry%Hemingway%NULL%1,                           Peter%Horby%NULL%1,                           Nisha%Mehta%NULL%1,                           Jonathan%Benger%NULL%1,                           Kamlesh%Khunti%NULL%0,                           David%Spiegelhalter%NULL%1,                           Aziz%Sheikh%NULL%0,                           Jonathan%Valabhji%NULL%0,                           Ronan A%Lyons%NULL%1,                           John%Robson%NULL%1,                           Malcolm G%Semple%NULL%0,                           Frank%Kee%NULL%1,                           Peter%Johnson%NULL%1,                           Susan%Jebb%NULL%1,                           Tony%Williams%NULL%1,                           Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                           Guang-Yao%Cai%NULL%1,                           Wei%Fang%NULL%2,                           Hua-Yi%Li%NULL%1,                           Si-Yuan%Wang%NULL%2,                           Si-Yuan%Wang%NULL%0,                           Lingxi%Chen%NULL%1,                           Yang%Yu%NULL%1,                           Dan%Liu%NULL%0,                           Sen%Xu%NULL%2,                           Peng-Fei%Cui%NULL%1,                           Shao-Qing%Zeng%NULL%2,                           Shao-Qing%Zeng%NULL%0,                           Xin-Xia%Feng%NULL%1,                           Rui-Di%Yu%NULL%1,                           Ya%Wang%NULL%2,                           Yuan%Yuan%NULL%1,                           Xiao-Fei%Jiao%NULL%1,                           Jian-Hua%Chi%NULL%1,                           Jia-Hao%Liu%NULL%1,                           Ru-Yuan%Li%NULL%1,                           Xu%Zheng%NULL%1,                           Chun-Yan%Song%NULL%1,                           Ning%Jin%NULL%1,                           Wen-Jian%Gong%NULL%1,                           Xing-Yu%Liu%NULL%1,                           Lei%Huang%NULL%2,                           Xun%Tian%NULL%1,                           Lin%Li%NULL%1,                           Hui%Xing%NULL%1,                           Ding%Ma%NULL%1,                           Chun-Rui%Li%NULL%1,                           Fei%Ye%yeyuanbei@hotmail.com%1,                           Qing-Lei%Gao%qingleigao@hotmail.com%2,                           Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                           Ang%Li%NULL%1,                           Mengfan%Jiao%NULL%1,                           Qingmiao%Shi%NULL%1,                           Xiaocai%An%NULL%1,                           Yonghai%Feng%NULL%1,                           Lihua%Xing%NULL%1,                           Hongxia%Liang%NULL%1,                           Jiajun%Chen%NULL%1,                           Huiling%Li%NULL%1,                           Juan%Li%NULL%0,                           Zhigang%Ren%NULL%1,                           Ranran%Sun%NULL%1,                           Guangying%Cui%NULL%1,                           Yongjian%Zhou%NULL%1,                           Ming%Cheng%NULL%1,                           Pengfei%Jiao%NULL%1,                           Yu%Wang%NULL%2,                           Jiyuan%Xing%NULL%1,                           Shen%Shen%NULL%1,                           Qingxian%Zhang%NULL%1,                           Aiguo%Xu%NULL%1,                           Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                           Michael%Ng%NULL%1,                           Shuang%Xu%NULL%1,                           Zhouming%Xu%NULL%1,                           Hui%Qiu%NULL%1,                           Yuwei%Liu%NULL%1,                           Jiayou%Lyu%NULL%1,                           Jiwen%You%NULL%1,                           Peng%Zhao%NULL%0,                           Shihao%Wang%NULL%1,                           Yunfei%Tang%NULL%1,                           Hao%Cui%NULL%1,                           Changxiao%Yu%NULL%1,                           Feng%Wang%NULL%5,                           Fei%Shao%NULL%1,                           Peng%Sun%NULL%1,                           Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                           Huifang%Wang%NULL%1,                           Junwei%Huang%NULL%1,                           Yan%Geng%NULL%1,                           Shuqi%Jiang%NULL%1,                           Qiuping%Zhou%NULL%1,                           Xuan%Chen%NULL%1,                           Hongping%Hu%NULL%1,                           Weifeng%Li%NULL%1,                           Chengbin%Zhou%NULL%1,                           Xinglin%Gao%NULL%1,                           Na%Peng%pnatz@163.com%1,                           Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                           Dandan%Cheng%NULL%1,                           Yiwei%Cao%NULL%1,                           Chuan%Hu%NULL%1,                           Fenglin%Zou%NULL%1,                           Wencheng%Yu%NULL%1,                           Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                           Min Kyu%Kang%NULL%2,                           Min Kyu%Kang%NULL%0,                           Yu Rim%Lee%NULL%2,                           Yu Rim%Lee%NULL%0,                           Jeong Eun%Song%NULL%2,                           Jeong Eun%Song%NULL%0,                           Na Young%Kim%NULL%1,                           Young Oh%Kweon%NULL%1,                           Won Young%Tak%NULL%1,                           Se Young%Jang%NULL%1,                           Changhyeong%Lee%NULL%2,                           Changhyeong%Lee%NULL%0,                           Byung Seok%Kim%NULL%1,                           Jae Seok%Hwang%NULL%1,                           Byoung Kuk%Jang%NULL%1,                           Jinmok%Bae%NULL%1,                           Ji Yeon%Lee%NULL%0,                           Jeong Ill%Suh%NULL%1,                           Soo Young%Park%NULL%1,                           Woo Jin%Chung%NULL%2,                           Woo Jin%Chung%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                           Cristina%Roca-Oporto%NULL%0,                           Guillermo%Martín-Gutiérrez%NULL%0,                           María Dolores%Avilés%NULL%0,                           Carmen%Gómez-González%NULL%0,                           María Dolores%Navarro-Amuedo%NULL%0,                           Julia%Praena-Segovia%NULL%0,                           José%Molina%NULL%0,                           María%Paniagua-García%NULL%0,                           Horacio%García-Delgado%NULL%0,                           Antonio%Domínguez-Petit%NULL%0,                           Jerónimo%Pachón%NULL%0,                           José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                        Calvo%Boyero Fernando%coreGivesNoEmail%1,                        Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                        COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                        Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                        Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                        L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                        Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                        Santos%Lozano Alejandro%coreGivesNoEmail%1,                        Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
   </si>
 </sst>
 </file>
@@ -6654,7 +6984,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1754</v>
+        <v>1864</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -6686,7 +7016,7 @@
         <v>937</v>
       </c>
       <c r="E3" t="s">
-        <v>1755</v>
+        <v>1865</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -6718,7 +7048,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>1756</v>
+        <v>1866</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -6750,7 +7080,7 @@
         <v>875</v>
       </c>
       <c r="E5" t="s">
-        <v>1757</v>
+        <v>1867</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -6782,7 +7112,7 @@
         <v>940</v>
       </c>
       <c r="E6" t="s">
-        <v>1758</v>
+        <v>1868</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -6814,7 +7144,7 @@
         <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>1759</v>
+        <v>1869</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -6846,7 +7176,7 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>1760</v>
+        <v>1870</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -6878,7 +7208,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1761</v>
+        <v>1871</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -6910,7 +7240,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>1762</v>
+        <v>1872</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -6942,7 +7272,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>1763</v>
+        <v>1873</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -6974,7 +7304,7 @@
         <v>947</v>
       </c>
       <c r="E12" t="s">
-        <v>1764</v>
+        <v>1874</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -7006,7 +7336,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>1765</v>
+        <v>1875</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -7038,7 +7368,7 @@
         <v>950</v>
       </c>
       <c r="E14" t="s">
-        <v>1766</v>
+        <v>1876</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -7070,7 +7400,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>1767</v>
+        <v>1877</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -7102,7 +7432,7 @@
         <v>953</v>
       </c>
       <c r="E16" t="s">
-        <v>1768</v>
+        <v>1878</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -7134,7 +7464,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>1769</v>
+        <v>1879</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -7166,7 +7496,7 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>956</v>
+        <v>1088</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -7198,7 +7528,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>1770</v>
+        <v>1880</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
@@ -7230,7 +7560,7 @@
         <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>1771</v>
+        <v>1881</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -7262,7 +7592,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>1772</v>
+        <v>1882</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -7294,7 +7624,7 @@
         <v>690</v>
       </c>
       <c r="E22" t="s">
-        <v>960</v>
+        <v>1092</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -7326,7 +7656,7 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>1773</v>
+        <v>1883</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -7358,7 +7688,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>962</v>
+        <v>1094</v>
       </c>
       <c r="F24" t="s">
         <v>24</v>
@@ -7390,7 +7720,7 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>1774</v>
+        <v>1884</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -7422,7 +7752,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>1775</v>
+        <v>1885</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -7454,7 +7784,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>1776</v>
+        <v>1886</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -7486,7 +7816,7 @@
         <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>1777</v>
+        <v>1887</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -7518,7 +7848,7 @@
         <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>1778</v>
+        <v>1888</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -7550,7 +7880,7 @@
         <v>197</v>
       </c>
       <c r="E30" t="s">
-        <v>1779</v>
+        <v>1889</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -7582,7 +7912,7 @@
         <v>704</v>
       </c>
       <c r="E31" t="s">
-        <v>969</v>
+        <v>1101</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
@@ -7614,7 +7944,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>1780</v>
+        <v>1890</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -7646,7 +7976,7 @@
         <v>971</v>
       </c>
       <c r="E33" t="s">
-        <v>1781</v>
+        <v>1891</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -7678,7 +8008,7 @@
         <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>1782</v>
+        <v>1892</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -7742,7 +8072,7 @@
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>974</v>
+        <v>1105</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -7774,7 +8104,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>1783</v>
+        <v>1893</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -7806,7 +8136,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>1784</v>
+        <v>1894</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -7838,7 +8168,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>1785</v>
+        <v>1895</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -7870,7 +8200,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>1786</v>
+        <v>1896</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -7902,7 +8232,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>1787</v>
+        <v>1897</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -7934,7 +8264,7 @@
         <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>1788</v>
+        <v>1898</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -7966,7 +8296,7 @@
         <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>1789</v>
+        <v>1899</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -7998,7 +8328,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>1790</v>
+        <v>1900</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -8030,7 +8360,7 @@
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>983</v>
+        <v>1114</v>
       </c>
       <c r="F45" t="s">
         <v>45</v>
@@ -8062,7 +8392,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>1791</v>
+        <v>1901</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -8094,7 +8424,7 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>985</v>
+        <v>1116</v>
       </c>
       <c r="F47" t="s">
         <v>47</v>
@@ -8126,7 +8456,7 @@
         <v>986</v>
       </c>
       <c r="E48" t="s">
-        <v>1792</v>
+        <v>1902</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -8158,7 +8488,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>1793</v>
+        <v>1903</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -8190,7 +8520,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>1794</v>
+        <v>1904</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -8222,7 +8552,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>1795</v>
+        <v>1905</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -8254,7 +8584,7 @@
         <v>991</v>
       </c>
       <c r="E52" t="s">
-        <v>1796</v>
+        <v>1906</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -8286,7 +8616,7 @@
         <v>993</v>
       </c>
       <c r="E53" t="s">
-        <v>1797</v>
+        <v>1907</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -8318,7 +8648,7 @@
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>995</v>
+        <v>1123</v>
       </c>
       <c r="F54" t="s">
         <v>54</v>
@@ -8350,7 +8680,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>1798</v>
+        <v>1908</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -8382,7 +8712,7 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>1799</v>
+        <v>1909</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -8414,7 +8744,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>1800</v>
+        <v>1910</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -8446,7 +8776,7 @@
         <v>999</v>
       </c>
       <c r="E58" t="s">
-        <v>1801</v>
+        <v>1911</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -8478,7 +8808,7 @@
         <v>306</v>
       </c>
       <c r="E59" t="s">
-        <v>1802</v>
+        <v>1912</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -8510,7 +8840,7 @@
         <v>311</v>
       </c>
       <c r="E60" t="s">
-        <v>1803</v>
+        <v>1913</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -8542,7 +8872,7 @@
         <v>1003</v>
       </c>
       <c r="E61" t="s">
-        <v>1804</v>
+        <v>1914</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -8574,7 +8904,7 @@
         <v>321</v>
       </c>
       <c r="E62" t="s">
-        <v>1805</v>
+        <v>1915</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -8606,7 +8936,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>1806</v>
+        <v>1916</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -8638,7 +8968,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>1807</v>
+        <v>1917</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -8670,7 +9000,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1808</v>
+        <v>1918</v>
       </c>
       <c r="F65" t="s">
         <v>64</v>
